--- a/data/02_intermediate/cleaned_ATEYABA_songs.xlsx
+++ b/data/02_intermediate/cleaned_ATEYABA_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>On demande le respect à personne MTP connaît la méthode On peut la coucher pour un petit somme Te coucher pour une grosse somme Ma technique arrive du de-blé, armé, prêt à partir en rre-gué Aveuglé par les chiffres en 2D, gravé sur les billets en reu-vè C'est plus que du peu-ra, tu le sais, tu l'admets Des ennemis, y'en aura jamais assez J'vais pas m'faire chier tout seul au sommet Donc j'prends mon temps pour les effacer Elles aiment le pognon, elles aiment la vitesse J'gaspille qu'un texto quand j'ai envie d'sexe Viens me voir si t'as la migraine J'vais faire semblant d'planter la petite graine On est sur les nerfs ! On est sur les nerfs ! Tu peux baisser un peu l'micro s'teuplè ? On est sur les nerfs ! Han, han Yeah You might also like Ramène ta bitch, j'la prends en sandwich avec le négro qui partage ma tête, man Elle vient pas de Colombie, mais cette blanche me massacre la tête, man Elle me reçoit 7 sur 7, j'sors ma euq' j'lui mets tête sur tête J'ai une liasse verte, j'ai une ceinture verte J'ai la peau noire, j'ai une ceinture noire Allelujah, la concurrence s'fait engloutir par des trous noirs J'suis dans un club pas échangiste, on m'taille des pipes dans les fumoirs J'vois des cougars dans les couloirs, tous mes négros sont allumés Tape pas cette merde, saigne pas du nez, le loup-garou est mal luné On est sur les nerfs Quoi ? On est sur les nerfs Quoi ? On est sur les nerfs Quoi ? Paris est sur les nerfs Quoi ? MTP est sur les nerfs Quoi ? On est sur les nerfs Personne ne peut venir contrer toute cette énergie Le mojo écaille ton vernis, hein J'ai pas des idées bien placées Me parle plus du passé, je les ai dépassés Veste matelassée, fracassé Paire Margiela, pas d'lacets Dans l'carré, j'regarde les tassabas passer Viens pas m'faire la bise si t'es pas rasée, bitch Le game se fait euthanasier Cette petite prendra cher si elle touche à cette dick J'suis au top dans ma loge et dans les loges maçonniques Viens on quitte cette boîte, si ta pote est encore nette Chérie, j'vais m'occuper d'cette chatte comme Farid de la Morelette Quoi ? On est sur les nerfs Quoi ? On est sur les nerfs Quoi ? Paris est sur les nerfs Quoi ? MTP est sur les nerfs Quoi ? On est sur les nerfs66</t>
+          <t>On demande le respect à personne MTP connaît la méthode On peut la coucher pour un petit somme Te coucher pour une grosse somme Ma technique arrive du de-blé, armé, prêt à partir en rre-gué Aveuglé par les chiffres en 2D, gravé sur les billets en reu-vè C'est plus que du peu-ra, tu le sais, tu l'admets Des ennemis, y'en aura jamais assez J'vais pas m'faire chier tout seul au sommet Donc j'prends mon temps pour les effacer Elles aiment le pognon, elles aiment la vitesse J'gaspille qu'un texto quand j'ai envie d'sexe Viens me voir si t'as la migraine J'vais faire semblant d'planter la petite graine On est sur les nerfs ! On est sur les nerfs ! Tu peux baisser un peu l'micro s'teuplè ? On est sur les nerfs ! Han, han Yeah Ramène ta bitch, j'la prends en sandwich avec le négro qui partage ma tête, man Elle vient pas de Colombie, mais cette blanche me massacre la tête, man Elle me reçoit 7 sur 7, j'sors ma euq' j'lui mets tête sur tête J'ai une liasse verte, j'ai une ceinture verte J'ai la peau noire, j'ai une ceinture noire Allelujah, la concurrence s'fait engloutir par des trous noirs J'suis dans un club pas échangiste, on m'taille des pipes dans les fumoirs J'vois des cougars dans les couloirs, tous mes négros sont allumés Tape pas cette merde, saigne pas du nez, le loup-garou est mal luné On est sur les nerfs Quoi ? On est sur les nerfs Quoi ? On est sur les nerfs Quoi ? Paris est sur les nerfs Quoi ? MTP est sur les nerfs Quoi ? On est sur les nerfs Personne ne peut venir contrer toute cette énergie Le mojo écaille ton vernis, hein J'ai pas des idées bien placées Me parle plus du passé, je les ai dépassés Veste matelassée, fracassé Paire Margiela, pas d'lacets Dans l'carré, j'regarde les tassabas passer Viens pas m'faire la bise si t'es pas rasée, bitch Le game se fait euthanasier Cette petite prendra cher si elle touche à cette dick J'suis au top dans ma loge et dans les loges maçonniques Viens on quitte cette boîte, si ta pote est encore nette Chérie, j'vais m'occuper d'cette chatte comme Farid de la Morelette Quoi ? On est sur les nerfs Quoi ? On est sur les nerfs Quoi ? Paris est sur les nerfs Quoi ? MTP est sur les nerfs Quoi ? On est sur les nerfs66</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Okay, Yuri, dur-Gra, Joky Pour mes OG, mes pules-cra, mes ndoki Grosses liasses dans le blue jean, grosse paire de couilles à la Poutine Cousine, j'suis à Orlinz ce que Jay-Z est à Brooklyn Quand j'ai fait mon entrée dans c'dièse tous ces bâtards ont croivu que j'viendais du terroir Ouvre ta grand-mère et on t'baise, on t'fait repartir avec ta bite dans un Tupperware Igo, la Chronic je n'la fume pas, igo, la chronique je la défraie Sale fils de pute, j't'aime bien, oui, mais je me préfère Bitch, j'te fais sauter la nuisette, crache tout mon produit laitier dans l'épuisette Flow d'la lash-ka, froid d'l'Alaska avec la délicatesse d'un Glock 17 Groupie, tu payes ta schneck même si t'as des frisettes Yuri vous baise, tas d'dè-p, j'suis le fucking best, c'est la moindre des choses que je puisse être Okay, Yuri, dur-Gra, Joky Pour mes OG, mes pules-cra, mes ndoki Tu m'feras plus le coup du patron Brrr ! Brrr !Tu m'feras plus le coup du patron Brrr ! Brrr ! Tu m'feras plus le coup du patron Brrr ! Brrr !Tu m'feras plus le coup du patron Brrr ! Brrr ! J'mate le cul d'ta racli comme Obama J'mate le cul d'ta racli ! J'mate le cul d'ta racli comme Obama Ouais j'mate le cul d'ta racli ! J'mate le cul d'ta racli comme Obama Obama, bama, bama ! J'mate le cul d'ta racli comme Obama Comme Obama, bama You might also like Là pour vendre la pure, nique les puristes, prends une ligne, étudie Suce ma bite, j't'offre des tulipes, un poulet braisé avec du riz On rafale toute la place avec Yuri, hop hop ! P'tite pétasse, mets-y du rythme Des poings dans les culs, des points sur les I, on a grandi dans les chaudrons du pays Produits dopants dans les urines, trouve pas ma voix dans les urnes Les autres, sois sûr qu'on les surine Tchiip, on transforme un buf en légume J'suis jeune et maigre avec du bif', plus de bif', du gros bif' Négro Martini à l'apéro, ensuite j'te mets une olive Ramène plus de matos pour nous éliminer, ça chauffe comme la terre promise Pétasse, fais pas ta diva, j'te prends par derrière comme une choriste Oh hisse, oh hisse, la chatte à Gabrielle Solis J'm'introduis, m'reproduis et laisse la capote dans ton lit Okay, Yuri, dur-Gra, Joky Pour mes OG, mes pules-cra, mes ndoki Tu m'feras plus le coup du patron Brrr ! Brrr !Tu m'feras plus le coup du patron Brrr ! Brrr ! Tu m'feras plus le coup du patron Brrr ! Brrr !Tu m'feras plus le coup du patron Brrr ! Brrr ! J'mate le cul d'ta racli comme Obama J'mate le cul d'ta racli ! J'mate le cul d'ta racli comme Obama Ouais j'mate le cul d'ta racli ! J'mate le cul d'ta racli comme Obama Obama, bama, bama ! J'mate le cul d'ta racli comme Obama Comme Obama, bama On t'caillasse, on t'rafale, 14-18, Intifada Pas d'Tsahal, pas d'Tsahal, j'te nique ta grand-mère, j'te préviens pas Faut que j'revienne dans l'game, niquer ces merdes Comme c'bâtard de nois-chi qui a osé traiter ma mère Bâtard, j'arrive, chibré, canon dans tes narines C'est la moindre des choses mademoiselle, missiles sol-air dans tes ovaires J'suis un soldat, pas un rappeur, Sheguey, nous on est pas là pour faire du zgar On sort le brolique, les doigts sur la gâchette comme O'Dog direct, on s'en charge Tous ces fils de putes de jaloux qui voulaient ma place, négro, ne l'auront pas Oui j'ai baisé ta fille, j'ai pas mis la pote-ca, j'ai pris l'gosse et le trône j'le rends pas Non j'le rends pas, chaque son j'me renforce, le rap est mort, we don't give a fuck Oui j'fais d'la trap, dans l'trou je frappe, petit mais costaud tu connais, gros gab', Sheguey ! Sheguey ! Okay, Yuri, dur-Gra, Joky Pour mes OG, mes pules-cra, mes ndoki Tu m'feras plus le coup du patron Brrr ! Brrr !Tu m'feras plus le coup du patron Brrr ! Brrr ! Tu m'feras plus le coup du patron Brrr ! Brrr !Tu m'feras plus le coup du patron Brrr ! Brrr ! J'mate le cul d'ta racli comme Obama J'mate le cul d'ta racli ! J'mate le cul d'ta racli comme Obama Ouais j'mate le cul d'ta racli ! J'mate le cul d'ta racli comme Obama Obama, bama, bama ! J'mate le cul d'ta racli comme Obama Comme Obama, bama Gradur, Jokeezy, Dosseh, Yuri !25</t>
+          <t>Okay, Yuri, dur-Gra, Joky Pour mes OG, mes pules-cra, mes ndoki Grosses liasses dans le blue jean, grosse paire de couilles à la Poutine Cousine, j'suis à Orlinz ce que Jay-Z est à Brooklyn Quand j'ai fait mon entrée dans c'dièse tous ces bâtards ont croivu que j'viendais du terroir Ouvre ta grand-mère et on t'baise, on t'fait repartir avec ta bite dans un Tupperware Igo, la Chronic je n'la fume pas, igo, la chronique je la défraie Sale fils de pute, j't'aime bien, oui, mais je me préfère Bitch, j'te fais sauter la nuisette, crache tout mon produit laitier dans l'épuisette Flow d'la lash-ka, froid d'l'Alaska avec la délicatesse d'un Glock 17 Groupie, tu payes ta schneck même si t'as des frisettes Yuri vous baise, tas d'dè-p, j'suis le fucking best, c'est la moindre des choses que je puisse être Okay, Yuri, dur-Gra, Joky Pour mes OG, mes pules-cra, mes ndoki Tu m'feras plus le coup du patron Brrr ! Brrr !Tu m'feras plus le coup du patron Brrr ! Brrr ! Tu m'feras plus le coup du patron Brrr ! Brrr !Tu m'feras plus le coup du patron Brrr ! Brrr ! J'mate le cul d'ta racli comme Obama J'mate le cul d'ta racli ! J'mate le cul d'ta racli comme Obama Ouais j'mate le cul d'ta racli ! J'mate le cul d'ta racli comme Obama Obama, bama, bama ! J'mate le cul d'ta racli comme Obama Comme Obama, bama Là pour vendre la pure, nique les puristes, prends une ligne, étudie Suce ma bite, j't'offre des tulipes, un poulet braisé avec du riz On rafale toute la place avec Yuri, hop hop ! P'tite pétasse, mets-y du rythme Des poings dans les culs, des points sur les I, on a grandi dans les chaudrons du pays Produits dopants dans les urines, trouve pas ma voix dans les urnes Les autres, sois sûr qu'on les surine Tchiip, on transforme un buf en légume J'suis jeune et maigre avec du bif', plus de bif', du gros bif' Négro Martini à l'apéro, ensuite j'te mets une olive Ramène plus de matos pour nous éliminer, ça chauffe comme la terre promise Pétasse, fais pas ta diva, j'te prends par derrière comme une choriste Oh hisse, oh hisse, la chatte à Gabrielle Solis J'm'introduis, m'reproduis et laisse la capote dans ton lit Okay, Yuri, dur-Gra, Joky Pour mes OG, mes pules-cra, mes ndoki Tu m'feras plus le coup du patron Brrr ! Brrr !Tu m'feras plus le coup du patron Brrr ! Brrr ! Tu m'feras plus le coup du patron Brrr ! Brrr !Tu m'feras plus le coup du patron Brrr ! Brrr ! J'mate le cul d'ta racli comme Obama J'mate le cul d'ta racli ! J'mate le cul d'ta racli comme Obama Ouais j'mate le cul d'ta racli ! J'mate le cul d'ta racli comme Obama Obama, bama, bama ! J'mate le cul d'ta racli comme Obama Comme Obama, bama On t'caillasse, on t'rafale, 14-18, Intifada Pas d'Tsahal, pas d'Tsahal, j'te nique ta grand-mère, j'te préviens pas Faut que j'revienne dans l'game, niquer ces merdes Comme c'bâtard de nois-chi qui a osé traiter ma mère Bâtard, j'arrive, chibré, canon dans tes narines C'est la moindre des choses mademoiselle, missiles sol-air dans tes ovaires J'suis un soldat, pas un rappeur, Sheguey, nous on est pas là pour faire du zgar On sort le brolique, les doigts sur la gâchette comme O'Dog direct, on s'en charge Tous ces fils de putes de jaloux qui voulaient ma place, négro, ne l'auront pas Oui j'ai baisé ta fille, j'ai pas mis la pote-ca, j'ai pris l'gosse et le trône j'le rends pas Non j'le rends pas, chaque son j'me renforce, le rap est mort, we don't give a fuck Oui j'fais d'la trap, dans l'trou je frappe, petit mais costaud tu connais, gros gab', Sheguey ! Sheguey ! Okay, Yuri, dur-Gra, Joky Pour mes OG, mes pules-cra, mes ndoki Tu m'feras plus le coup du patron Brrr ! Brrr !Tu m'feras plus le coup du patron Brrr ! Brrr ! Tu m'feras plus le coup du patron Brrr ! Brrr !Tu m'feras plus le coup du patron Brrr ! Brrr ! J'mate le cul d'ta racli comme Obama J'mate le cul d'ta racli ! J'mate le cul d'ta racli comme Obama Ouais j'mate le cul d'ta racli ! J'mate le cul d'ta racli comme Obama Obama, bama, bama ! J'mate le cul d'ta racli comme Obama Comme Obama, bama Gradur, Jokeezy, Dosseh, Yuri !25</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Majeur en l'air Majeur en l'air Majeur en l'air Majeur en l'air Back to the Future Majeur en l'air, ma-ma-ma-majeur en l'air Majeur en l'air, ma-ma-ma-majeur en l'air, négro Majeur en l'air Eh, ma-ma-ma-majeur en l'air Eh Majeur en l'air Yeah, ma-ma-ma-majeur On n'a pas élevé les cochons ensemble, pas soulevé des cochonnes ensemble Wax hollandais pour mon ensemble, baise le rap français dans son ensemble L'État français, j'lui fais sa fête, nique sa grand-mère le 14 Juillet Négro, pour enculer Marianne, faut juste les papiers pour s'essuyer Négro, si tu veux compter de la monnaie, passe moins d'temps à compter tes heures Que l'rap pourrisse dans son cercueil, le prince lui fera porter des fleurs Envoie ta chagatte avec des coeurs, avec l'argent la vie c'est meilleur On t'aide à devenir un bon cadavre, si tu es un mauvais payeur Si elle aime pas le rap, marie-la, rie-la, le rap va me payer ma villa villa Cigarillo Vanilla-nilla, sur la moule à Nabilla-billa Billa-billa, j'ai bon fond wallaye bilaye bilaye Terroriste au Cristal, parce que j'vais faire péter l'cristal On est sur les nerfs You might also like On aime pas ça, qu'on efface la dette On aime pas ça, nique les paramètres Négros sont là, négros sont là Mes négros sont là, négros sont là MTP, ya rien qui bouge, j'fais du sale pour mes négros MTP, y a rien qui bouge, j'fais du sale pour mes négros MTP, y a rien qui bouge, j'fais du sale pour mes négros MTP, y a rien qui bouge, j'fais du sale pour mes négros J'déçois pas les tantines, j'compte toujours mes centimes On fait nos bails sans filet, sans filles, sans téléphone sans fil Le prof d'histoire m'a menti, ta pétasse t'a menti J'te dirais bien que j'cracherai pas dessus mais gros, j'veux pas mentir Montre garantie à vie, mais ma vie n'est pas garantie J'te laisse passer d'vant, j'té-ma ton cul, j'encule la galanterie C'est qu'une question d'temps, j'enlève le lan, transforme ça en gâteries Qu'R.Kelly pisse sur une Marseillaise, enfant de la patrie Re-noi, si tu payes en cash, t'auras surement pas d'reçu Les bâtards jouent de la flûte, les putes vont s'asseoir dessus Plus virulent que le SIDA, pilote de ligne d'Al-Qaïda Encore plus sombre que Dark Vador, le père du fils à Rachida-ida On aime pas ça, qu'on efface la dette On aime pas ça, nique les paramètres Négros sont là, négros sont là Mes négros sont là, négros sont là MTP, ya rien qui bouge, j'fais du sale pour mes négros MTP, y a rien qui bouge, j'fais du sale pour mes négros MTP, y a rien qui bouge, j'fais du sale pour mes négros MTP, y a rien qui bouge, j'fais du sale pour mes négros Majeur en l'air Majeur en l'air Majeur en l'air Majeur en l'air Majeur en l'air, ma-ma-ma-majeur en l'air Majeur en l'air, ma-ma-ma-majeur en l'air, négro Majeur en l'air, ma-ma-ma-majeur en l'air Majeur en l'air, ma-ma-ma-majeur en l'air46</t>
+          <t>Majeur en l'air Majeur en l'air Majeur en l'air Majeur en l'air Back to the Future Majeur en l'air, ma-ma-ma-majeur en l'air Majeur en l'air, ma-ma-ma-majeur en l'air, négro Majeur en l'air Eh, ma-ma-ma-majeur en l'air Eh Majeur en l'air Yeah, ma-ma-ma-majeur On n'a pas élevé les cochons ensemble, pas soulevé des cochonnes ensemble Wax hollandais pour mon ensemble, baise le rap français dans son ensemble L'État français, j'lui fais sa fête, nique sa grand-mère le 14 Juillet Négro, pour enculer Marianne, faut juste les papiers pour s'essuyer Négro, si tu veux compter de la monnaie, passe moins d'temps à compter tes heures Que l'rap pourrisse dans son cercueil, le prince lui fera porter des fleurs Envoie ta chagatte avec des coeurs, avec l'argent la vie c'est meilleur On t'aide à devenir un bon cadavre, si tu es un mauvais payeur Si elle aime pas le rap, marie-la, rie-la, le rap va me payer ma villa villa Cigarillo Vanilla-nilla, sur la moule à Nabilla-billa Billa-billa, j'ai bon fond wallaye bilaye bilaye Terroriste au Cristal, parce que j'vais faire péter l'cristal On est sur les nerfs On aime pas ça, qu'on efface la dette On aime pas ça, nique les paramètres Négros sont là, négros sont là Mes négros sont là, négros sont là MTP, ya rien qui bouge, j'fais du sale pour mes négros MTP, y a rien qui bouge, j'fais du sale pour mes négros MTP, y a rien qui bouge, j'fais du sale pour mes négros MTP, y a rien qui bouge, j'fais du sale pour mes négros J'déçois pas les tantines, j'compte toujours mes centimes On fait nos bails sans filet, sans filles, sans téléphone sans fil Le prof d'histoire m'a menti, ta pétasse t'a menti J'te dirais bien que j'cracherai pas dessus mais gros, j'veux pas mentir Montre garantie à vie, mais ma vie n'est pas garantie J'te laisse passer d'vant, j'té-ma ton cul, j'encule la galanterie C'est qu'une question d'temps, j'enlève le lan, transforme ça en gâteries Qu'R.Kelly pisse sur une Marseillaise, enfant de la patrie Re-noi, si tu payes en cash, t'auras surement pas d'reçu Les bâtards jouent de la flûte, les putes vont s'asseoir dessus Plus virulent que le SIDA, pilote de ligne d'Al-Qaïda Encore plus sombre que Dark Vador, le père du fils à Rachida-ida On aime pas ça, qu'on efface la dette On aime pas ça, nique les paramètres Négros sont là, négros sont là Mes négros sont là, négros sont là MTP, ya rien qui bouge, j'fais du sale pour mes négros MTP, y a rien qui bouge, j'fais du sale pour mes négros MTP, y a rien qui bouge, j'fais du sale pour mes négros MTP, y a rien qui bouge, j'fais du sale pour mes négros Majeur en l'air Majeur en l'air Majeur en l'air Majeur en l'air Majeur en l'air, ma-ma-ma-majeur en l'air Majeur en l'air, ma-ma-ma-majeur en l'air, négro Majeur en l'air, ma-ma-ma-majeur en l'air Majeur en l'air, ma-ma-ma-majeur en l'air46</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MTP Jokeezy Tokyo Right Sur Paris comme Mona Lisa, black Léonard de Vinci Tout au fond d'une jap' mais pas dans une Nissan, serre pas la main aux insignes À moitié satisfait comme des demi-dieux, d'la fumée pour changer d'air Je taffe mes gnes-li depuis 2002, sur la chatte à Prévert Paw, paw, paw, on débarque en tirant sur les katanas, 're-noi', on a l'opium, les femmes, on a la soie Seconde personne du pluriel, tu parles à 'oi-m', j'suis fly comme Apollo, t'es fly comme Balavoine Plus de crystal que Walter White dans sa caravane, quiero una mujer chaude comme à La Havane Négro, tellement dope qu'on passe pas la douane, arrivé à Tokyo, j'suis Ateyaba-san Qu'les rageux fassent le 17 17, que les vieux s'battent en retraite Retraite Y en a qu'un sur la Terre, c'est le fils de ma mère Hey Qu'les rageux fassent le 18 18, j'peins mes rimes en acrylique 'crylique Y en a qu'un sur la Terre, si tu parles sur ma mère Ça fait bang bang, b-b, b-b-bang bang Mes négros font bang bang, b-b, b-b-bang bang Tous mes gars font bang bang, b-b, b-b-bang bang Mes négros font bang bang, b-b, b-b-bang bang Yeah You might also like Sur Tokyo, j'suis à Shibuya, j'ride les meufs d'Harajuku Négro, dans la stratosphère après nous, y a sonne-per, j'suis dans ma soucoupe 23 piges, j'suis proche de ma Rolex, d'un cerveau sous scanner Qu'les langues de pute s'étouffent, avalent mon sexe, j'les aime pas de toute manière Mojo de pharaon dans l'détecteur, drague la p'tite soeur de l'inspecteur Tire dans l'coeur pile dans l'pacemaker, les flammes du brasier caressent tes pleurs Avec foi, sans loi comme voleur d'organes, j'saute des meufs comme Michael Jordan Mon histoire est lancée, j'suis dans tes pensées, 7 heures d'avance, toujours dans les temps Qu'les rageux fassent le 17 17, que les vieux s'battent en retraite Retraite Y en a qu'un sur la Terre, c'est le fils de ma mère Hey Qu'les rageux fassent le 18 18, j'peins mes rimes en acrylique 'crylique Y en a qu'un sur la Terre, si tu parles sur ma mère Ça fait bang bang, b-b, b-b-bang bang Mes négros font bang bang, b-b, b-b-bang bang Tous mes gars font bang bang, b-b, b-b-bang bang Mes négros font bang bang, b-b, b-b-bang bang Yeah À la fin j'suis à MTP, toi-même tu sais, nigga Yeah, Les Monsieurs, négro, GMG Tokyo, 2013, bang, nigga43</t>
+          <t>MTP Jokeezy Tokyo Right Sur Paris comme Mona Lisa, black Léonard de Vinci Tout au fond d'une jap' mais pas dans une Nissan, serre pas la main aux insignes À moitié satisfait comme des demi-dieux, d'la fumée pour changer d'air Je taffe mes gnes-li depuis 2002, sur la chatte à Prévert Paw, paw, paw, on débarque en tirant sur les katanas, 're-noi', on a l'opium, les femmes, on a la soie Seconde personne du pluriel, tu parles à 'oi-m', j'suis fly comme Apollo, t'es fly comme Balavoine Plus de crystal que Walter White dans sa caravane, quiero una mujer chaude comme à La Havane Négro, tellement dope qu'on passe pas la douane, arrivé à Tokyo, j'suis Ateyaba-san Qu'les rageux fassent le 17 17, que les vieux s'battent en retraite Retraite Y en a qu'un sur la Terre, c'est le fils de ma mère Hey Qu'les rageux fassent le 18 18, j'peins mes rimes en acrylique 'crylique Y en a qu'un sur la Terre, si tu parles sur ma mère Ça fait bang bang, b-b, b-b-bang bang Mes négros font bang bang, b-b, b-b-bang bang Tous mes gars font bang bang, b-b, b-b-bang bang Mes négros font bang bang, b-b, b-b-bang bang Yeah Sur Tokyo, j'suis à Shibuya, j'ride les meufs d'Harajuku Négro, dans la stratosphère après nous, y a sonne-per, j'suis dans ma soucoupe 23 piges, j'suis proche de ma Rolex, d'un cerveau sous scanner Qu'les langues de pute s'étouffent, avalent mon sexe, j'les aime pas de toute manière Mojo de pharaon dans l'détecteur, drague la p'tite soeur de l'inspecteur Tire dans l'coeur pile dans l'pacemaker, les flammes du brasier caressent tes pleurs Avec foi, sans loi comme voleur d'organes, j'saute des meufs comme Michael Jordan Mon histoire est lancée, j'suis dans tes pensées, 7 heures d'avance, toujours dans les temps Qu'les rageux fassent le 17 17, que les vieux s'battent en retraite Retraite Y en a qu'un sur la Terre, c'est le fils de ma mère Hey Qu'les rageux fassent le 18 18, j'peins mes rimes en acrylique 'crylique Y en a qu'un sur la Terre, si tu parles sur ma mère Ça fait bang bang, b-b, b-b-bang bang Mes négros font bang bang, b-b, b-b-bang bang Tous mes gars font bang bang, b-b, b-b-bang bang Mes négros font bang bang, b-b, b-b-bang bang Yeah À la fin j'suis à MTP, toi-même tu sais, nigga Yeah, Les Monsieurs, négro, GMG Tokyo, 2013, bang, nigga43</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bitch dead dans les toilettes, bite grosse comme une canette L'État te brise la schneck à chaque paquet de cigarettes Grosse liasse dans l'armoire, rien qu'j'me fends la poire Tes gars portent des signes homosexuels ostentatoires J'te paye en liquide, salope, dis-moi pourquoi faire un putain d'pourboire ? J'suis Togolais, à Lomé, j'fais mes études à Poudlard Ta mère la tchoin, ton père la tchoin C'est en s'branlant qu'on perd la main Sors le machin, sors pas le truc T'es une ge-vier, donc par le uc' J'ai trouvé cette Mexicaine, j'en ai perdu mon latin L'avenir appartient à ceux qui vont quer-bra de bon matin Tu peux m'juger, mais y'a qu'au succès que j'suis condamné Les poches pleines, si j't'aperçois, gros, j'suis Gilbert Montagné Faut qu'j'ouvre des business avec tous les pays frontaliers Les négros s'croient chauds, vont crever d'combustion spontanée Money, chiffre, money, money, money, chiffre Cherche pétasse siliconée et chatte comestible On veut brasser comme les négros des sports collectifs Money, money, money, money unique objectif La chatte à Miley Cyrus... Miley Cyrus... Miley Cyrus... La chatte à Miley Cyrus... Miley Cyrus... Mi-Mi-Miley Cyrus... Miley Cyrus... La chatte à Miley Cyrus ! You might also like Ok... dites bonjour aux messieurs, quatre tonnes cinq sur l'essieu Ferme ton cavu ou fais mieux, j'baise ta grosse tain-p' sous tes yeux Totalement en caillera pour mes mauvais garçons, mes mauvaises garces Tous les jours je pense argent, placements, paradis fiscaux monégasques Oui la France est une terre d'accueil coke brésilienne, armes russes J'veux du bif, ferme ta gueule, la chatte à... Miley Cyrus Une black à la place du mort, une brune et une blondasse sur l'arrière-banquette On n'serre que des avions d'chasse, la grosse chatte à Kate Blanchett Ces négros parlent, mais ces négros n'pèsent rien J'fais d'la piraterie de haute-voltige sur le réseau hertzien Pas le même génie, pas le même flow, pas le même débit 45 Orlinz, MTP, folie furieuse à la ODB J'les préfère quand elles assument leur côté bitches Quand elles ont les seufs qui tapent sur les abdos comme s'ils avaient fait des bêtises Beaucoup, beaucoup trop d'basses, beaucoup, beaucoup trop d'gros mots Baise le rap comme une 'tasse qu'à base de gros coups, gros coups NoHomo Money, chiffre, money, money, money, chiffre Cherche pétasse siliconée et chatte comestible On veut brasser comme les négros des sports collectifs Money, money, money, money unique objectif La chatte à Miley Cyrus... Miley Cyrus... Miley Cyrus... La chatte à Miley Cyrus... Miley Cyrus... Mi-Mi-Miley Cyrus... Miley Cyrus... La chatte à Miley Cyrus !36</t>
+          <t>Bitch dead dans les toilettes, bite grosse comme une canette L'État te brise la schneck à chaque paquet de cigarettes Grosse liasse dans l'armoire, rien qu'j'me fends la poire Tes gars portent des signes homosexuels ostentatoires J'te paye en liquide, salope, dis-moi pourquoi faire un putain d'pourboire ? J'suis Togolais, à Lomé, j'fais mes études à Poudlard Ta mère la tchoin, ton père la tchoin C'est en s'branlant qu'on perd la main Sors le machin, sors pas le truc T'es une ge-vier, donc par le uc' J'ai trouvé cette Mexicaine, j'en ai perdu mon latin L'avenir appartient à ceux qui vont quer-bra de bon matin Tu peux m'juger, mais y'a qu'au succès que j'suis condamné Les poches pleines, si j't'aperçois, gros, j'suis Gilbert Montagné Faut qu'j'ouvre des business avec tous les pays frontaliers Les négros s'croient chauds, vont crever d'combustion spontanée Money, chiffre, money, money, money, chiffre Cherche pétasse siliconée et chatte comestible On veut brasser comme les négros des sports collectifs Money, money, money, money unique objectif La chatte à Miley Cyrus... Miley Cyrus... Miley Cyrus... La chatte à Miley Cyrus... Miley Cyrus... Mi-Mi-Miley Cyrus... Miley Cyrus... La chatte à Miley Cyrus ! Ok... dites bonjour aux messieurs, quatre tonnes cinq sur l'essieu Ferme ton cavu ou fais mieux, j'baise ta grosse tain-p' sous tes yeux Totalement en caillera pour mes mauvais garçons, mes mauvaises garces Tous les jours je pense argent, placements, paradis fiscaux monégasques Oui la France est une terre d'accueil coke brésilienne, armes russes J'veux du bif, ferme ta gueule, la chatte à... Miley Cyrus Une black à la place du mort, une brune et une blondasse sur l'arrière-banquette On n'serre que des avions d'chasse, la grosse chatte à Kate Blanchett Ces négros parlent, mais ces négros n'pèsent rien J'fais d'la piraterie de haute-voltige sur le réseau hertzien Pas le même génie, pas le même flow, pas le même débit 45 Orlinz, MTP, folie furieuse à la ODB J'les préfère quand elles assument leur côté bitches Quand elles ont les seufs qui tapent sur les abdos comme s'ils avaient fait des bêtises Beaucoup, beaucoup trop d'basses, beaucoup, beaucoup trop d'gros mots Baise le rap comme une 'tasse qu'à base de gros coups, gros coups NoHomo Money, chiffre, money, money, money, chiffre Cherche pétasse siliconée et chatte comestible On veut brasser comme les négros des sports collectifs Money, money, money, money unique objectif La chatte à Miley Cyrus... Miley Cyrus... Miley Cyrus... La chatte à Miley Cyrus... Miley Cyrus... Mi-Mi-Miley Cyrus... Miley Cyrus... La chatte à Miley Cyrus !36</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Baby, baby, baby, baby Han, quoi ? Laisse tes affaires là, j't'emmène voir les pyramides Parce que t'es la plus bonne de la plus bonne de mes petites amies C'est vrai qu'avant t'étais chiante, peut-être un peu méfiante On devrait peut-être se poser même si t'es longue à la détente Ça fouille mon 4S, ça cherche des caresses Moi j'veux faire du sale, j'veux faire du biff, j'veux faire des affaires Les femmes viennent de Vénus, les femmes aiment le vrai luxe Les femmes parlent comme mes ancêtres, les femmes parlent en rébus Certaines sont des belles mères, certaines sont des belles soeurs J'apprécie quelques tchoins qui gravitent dans mon secteur Quoiqu'il en soit j'suis entouré que de belles femmes Emmène-moi faire les vitrines sous les néons d'Amsterdam Baby, Baby, Baby, Baby, Baby, Baby Baby, Baby, Baby, Baby, Baby Baby, Baby, Baby, Baby, Baby Baby, Baby, Baby, Baby, Baby Les femmes des beaux quartiers viennent de Vénus Les petites fleurs du ghetto viennent de Vénus Les mannequins de chez Dior viennent de Vénus J'crois que j'vais m'faire prendre un aller-simple pour voir Vénus Vénus-vénus, vénus-vénus han han Vénus-vénus, vénus-vénus han han Vénus-vénus, vénus-vénus han han Vénus-vénus, vénus-vénus han han You might also like Si elles en font trop comme des femmes flics C'est qu'elles ont besoin d'la baguette magique Celles qui crient trop fort comme la maîtresse Ont besoin d'un prince charmant pour faire passer l'stress J'aime celles qui travaillent leurs abdos-fessiers Travaille, travaille, y'a pas d'sous-métier J'les aime tellement j'oublie toutes leurs prises de tête nan J'ride sur Vénus, déesse sur le siège en sous-vêtements On est sur les nerfs Baby, Baby, Baby, Baby, Baby, Baby Baby, Baby, Baby, Baby, Baby Baby, Baby, Baby, Baby, Baby Baby, Baby, Baby, Baby, Baby Les femmes des beaux quartiers viennent de Vénus Les petites fleurs du ghetto viennent de Vénus Les mannequins de chez Dior viennent de Vénus J'crois que j'vais m'faire prendre un aller-simple pour voir Vénus Vénus-vénus, vénus-vénus han han Vénus-vénus, vénus-vénus han han Vénus-vénus, vénus-vénus han han Vénus-vénus, vénus-vénus han han Oooh baby, baby, baby han han Oooh baby, baby, baby han han T'es belle comme Jada dans Menace T'es belle comme Jada dans Menace Oooh baby, baby, baby han han Oooh baby, baby, baby han han T'es belle comme Jada dans Menace T'es belle comme Jada dans Menace24</t>
+          <t>Baby, baby, baby, baby Han, quoi ? Laisse tes affaires là, j't'emmène voir les pyramides Parce que t'es la plus bonne de la plus bonne de mes petites amies C'est vrai qu'avant t'étais chiante, peut-être un peu méfiante On devrait peut-être se poser même si t'es longue à la détente Ça fouille mon 4S, ça cherche des caresses Moi j'veux faire du sale, j'veux faire du biff, j'veux faire des affaires Les femmes viennent de Vénus, les femmes aiment le vrai luxe Les femmes parlent comme mes ancêtres, les femmes parlent en rébus Certaines sont des belles mères, certaines sont des belles soeurs J'apprécie quelques tchoins qui gravitent dans mon secteur Quoiqu'il en soit j'suis entouré que de belles femmes Emmène-moi faire les vitrines sous les néons d'Amsterdam Baby, Baby, Baby, Baby, Baby, Baby Baby, Baby, Baby, Baby, Baby Baby, Baby, Baby, Baby, Baby Baby, Baby, Baby, Baby, Baby Les femmes des beaux quartiers viennent de Vénus Les petites fleurs du ghetto viennent de Vénus Les mannequins de chez Dior viennent de Vénus J'crois que j'vais m'faire prendre un aller-simple pour voir Vénus Vénus-vénus, vénus-vénus han han Vénus-vénus, vénus-vénus han han Vénus-vénus, vénus-vénus han han Vénus-vénus, vénus-vénus han han Si elles en font trop comme des femmes flics C'est qu'elles ont besoin d'la baguette magique Celles qui crient trop fort comme la maîtresse Ont besoin d'un prince charmant pour faire passer l'stress J'aime celles qui travaillent leurs abdos-fessiers Travaille, travaille, y'a pas d'sous-métier J'les aime tellement j'oublie toutes leurs prises de tête nan J'ride sur Vénus, déesse sur le siège en sous-vêtements On est sur les nerfs Baby, Baby, Baby, Baby, Baby, Baby Baby, Baby, Baby, Baby, Baby Baby, Baby, Baby, Baby, Baby Baby, Baby, Baby, Baby, Baby Les femmes des beaux quartiers viennent de Vénus Les petites fleurs du ghetto viennent de Vénus Les mannequins de chez Dior viennent de Vénus J'crois que j'vais m'faire prendre un aller-simple pour voir Vénus Vénus-vénus, vénus-vénus han han Vénus-vénus, vénus-vénus han han Vénus-vénus, vénus-vénus han han Vénus-vénus, vénus-vénus han han Oooh baby, baby, baby han han Oooh baby, baby, baby han han T'es belle comme Jada dans Menace T'es belle comme Jada dans Menace Oooh baby, baby, baby han han Oooh baby, baby, baby han han T'es belle comme Jada dans Menace T'es belle comme Jada dans Menace24</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sur la chatte à Catwoman, sur la chatte à Halle Berry J'suis pas d'cette terre, j'suis pas d'ce monde, négro, j'suis pas d'ce pays J'appelle un nettoyeur si tu veux me faire une crasse, baby Je risque de te la mettre au fond si tu veux faire une passe, baby J'suis pas le fils de Grace Kelly, mais j'suis le prince quand même J'supporte pas les 'tasses pénibles, mais elle a des grosses fesses quand même J'lui donne pas d'billets, négro, elle encaisse quand même Elle arrête pas d'crier mais négro, j'la baise quand même Woah, on fait voler les billets, shoote dans la tête des négriers Son prénom, c'est Django, Django Woh, on fait voler les billets, shoote dans la tête des négriers Son prénom, c'est Django, Django, woah Django, mon négro, tu sais ce que t'as à faire Hm, hm Shoote les négros qui s'mêlent de nos affaires Les négros ont la haine quand ils voient la Rolex La Rolex Donc j'm'éloigne vite de tous ces 'res-noi' malhonnêtes Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django You might also like Sur la barbe à Saroumane, sur la barbe à Ben Laden T'as vu ma chaîne en or, t'as rêvé qu't'avais p't-être la même J'suis dans ta tête, mamen, comme ta glande pinéale J'sors, je vais prendre l'air, j'm'aligne avec six étoiles Les intégristes d'internet veulent me faire des procès bidons Ok, t'as l'flow à 2Pac, j'ai l'flow à Poséidon Ayé, j'ai l'phone-tél' de Ayem J'veux un peu d'piment dans ma vie, un peu d'ces Porshes Cayenne J'swag, comme trois Z dans une Z3, 're-noi', fais péter le poste avec Tu peux parler des négros des jours entiers, j'm'en bat les couilles, j'vais tout rentrer et faire péter l'Europe avec, on est sur les nerfs Shoot, quand j'repars, les bitches éclatent en sanglots Pétasse, insiste sur le D quand tu prononces Django Django, mon négro, tu sais ce que t'as à faire Hm, hm Shoote les négros qui s'mêlent de nos affaires Les négros ont la haine quand ils voient la Rolex La Rolex Donc j'm'éloigne vite de tous ces 'res-noi' malhonnêtes Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Donc t'nique ta race comme un Lannister Mercredi après-m', j'invites ta p'tite soeur Négro On mange des glaces à l'eau, on joue à Twister Et à plein d'jeux vidéos, négro Les gars disent j'veux rapper comme 'là-uic', moi, j'veux monter sur 'là-celle' J'suis à Ladurée, mange tes donuts, mange tes cornes de gazelles J'veux un feat avec Rick Ross, un feat avec Rachel Fait l'mojo du cinoche, le biff de la Sacem, nigga, nigga, nigga Paw Django, Dj-Django Django, Dj-Django, yeah Django, mon négro, tu sais ce que t'as à faire Hm, hm Shoote les négros qui s'mêlent de nos affaires Les négros ont la haine quand ils voient la Rolex La Rolex Donc j'm'éloigne vite de tous ces 'res-noi' malhonnêtes Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Django, Django15</t>
+          <t>Sur la chatte à Catwoman, sur la chatte à Halle Berry J'suis pas d'cette terre, j'suis pas d'ce monde, négro, j'suis pas d'ce pays J'appelle un nettoyeur si tu veux me faire une crasse, baby Je risque de te la mettre au fond si tu veux faire une passe, baby J'suis pas le fils de Grace Kelly, mais j'suis le prince quand même J'supporte pas les 'tasses pénibles, mais elle a des grosses fesses quand même J'lui donne pas d'billets, négro, elle encaisse quand même Elle arrête pas d'crier mais négro, j'la baise quand même Woah, on fait voler les billets, shoote dans la tête des négriers Son prénom, c'est Django, Django Woh, on fait voler les billets, shoote dans la tête des négriers Son prénom, c'est Django, Django, woah Django, mon négro, tu sais ce que t'as à faire Hm, hm Shoote les négros qui s'mêlent de nos affaires Les négros ont la haine quand ils voient la Rolex La Rolex Donc j'm'éloigne vite de tous ces 'res-noi' malhonnêtes Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Sur la barbe à Saroumane, sur la barbe à Ben Laden T'as vu ma chaîne en or, t'as rêvé qu't'avais p't-être la même J'suis dans ta tête, mamen, comme ta glande pinéale J'sors, je vais prendre l'air, j'm'aligne avec six étoiles Les intégristes d'internet veulent me faire des procès bidons Ok, t'as l'flow à 2Pac, j'ai l'flow à Poséidon Ayé, j'ai l'phone-tél' de Ayem J'veux un peu d'piment dans ma vie, un peu d'ces Porshes Cayenne J'swag, comme trois Z dans une Z3, 're-noi', fais péter le poste avec Tu peux parler des négros des jours entiers, j'm'en bat les couilles, j'vais tout rentrer et faire péter l'Europe avec, on est sur les nerfs Shoot, quand j'repars, les bitches éclatent en sanglots Pétasse, insiste sur le D quand tu prononces Django Django, mon négro, tu sais ce que t'as à faire Hm, hm Shoote les négros qui s'mêlent de nos affaires Les négros ont la haine quand ils voient la Rolex La Rolex Donc j'm'éloigne vite de tous ces 'res-noi' malhonnêtes Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Donc t'nique ta race comme un Lannister Mercredi après-m', j'invites ta p'tite soeur Négro On mange des glaces à l'eau, on joue à Twister Et à plein d'jeux vidéos, négro Les gars disent j'veux rapper comme 'là-uic', moi, j'veux monter sur 'là-celle' J'suis à Ladurée, mange tes donuts, mange tes cornes de gazelles J'veux un feat avec Rick Ross, un feat avec Rachel Fait l'mojo du cinoche, le biff de la Sacem, nigga, nigga, nigga Paw Django, Dj-Django Django, Dj-Django, yeah Django, mon négro, tu sais ce que t'as à faire Hm, hm Shoote les négros qui s'mêlent de nos affaires Les négros ont la haine quand ils voient la Rolex La Rolex Donc j'm'éloigne vite de tous ces 'res-noi' malhonnêtes Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Django Django Django, Django Django, Django Django, Django Django, Django15</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Agga, agga, agga, agga, agga Agga, agga, agga, agga, agga Agga, agga, agga, agga, agga Agga, agga, agga, agga, agga Le prince met à genoux Amidala J'rentre dans ton limbolo en lingala La vie c'est une pute, négro, pine moi la Pine moi la, pine moi la, pine moi la Dans ma tête y'a des gens qui s'baladent Elle est en sachet, elle est inhalable Nous on vend la trace qui te fige la face On t'fume à la chasse, on te pique ta place File la maille avant qu'ta famille ramasse Que quieres comer ? Como te llamas ? Je sors mon poireau au Lady Dallas Je tape son gros cul comme une piñata J'ai plus de mojo que Frank Sinatra Tu vends pas ton skeud, même au prix d'achat J'arrive dans ta gueule comme un p'tit crachat Toi, va t'faire sucer par un piranha Des affiches partout, on maquille Paname Mi casa, tu casa, la vie se limite à ça Si j'assassine, poudre dans la bassine Et rempile à balle, rien n'égale Ni classe C ni classe A Bisous dans l'cou d'Nathalie Baye Viens faire un câlin à l'animal Que des sales tchoins dans le calepin Je rentre beaucoup, je déclare rien Sur les nerfs You might also like Trop facile pour l'négro, MTP, Lomé Aux yeux d'ces nègres, j'suis comme Tesla Où tu comptes aller avec ces fesses là ? J'suis déjà passé là ou tu seras Si tu la suces pas, sache qu'une autre bitch la sucera Horlogerie suisse à mon poignet, pule-cra à mes heures Vaut mieux être bien calibré que mal accompagné Quand tu m'aperçois, garde la bouche fermée, nigga Internet va tous nous faire interner, nigga Passe-moi ta bitch, passe-moi ton blé, nigga J'ai les couilles vides, des femmes comblées nigga Prête allégeance quand j'rentre dans ta contrée, nigga Poudre sous l'nez, j'suis jnouney, nigga Faut ces sous pour tous mes niggas Gros gamos pour t'doubler, nigga Osiris dans orifices auditifs Intouchable comme une séropositive Je pisse sur vos lois, sur votre politique Donc j'ai toutes mes facultés cognitives Mes ancêtres disent que l'espace est liquide Ta descendance dit que mon organe est rigide Marianne, je l'attrape, je la coupe en deux Même si elle est une et indivisible, négro Delorean Music my nigga35</t>
+          <t>Agga, agga, agga, agga, agga Agga, agga, agga, agga, agga Agga, agga, agga, agga, agga Agga, agga, agga, agga, agga Le prince met à genoux Amidala J'rentre dans ton limbolo en lingala La vie c'est une pute, négro, pine moi la Pine moi la, pine moi la, pine moi la Dans ma tête y'a des gens qui s'baladent Elle est en sachet, elle est inhalable Nous on vend la trace qui te fige la face On t'fume à la chasse, on te pique ta place File la maille avant qu'ta famille ramasse Que quieres comer ? Como te llamas ? Je sors mon poireau au Lady Dallas Je tape son gros cul comme une piñata J'ai plus de mojo que Frank Sinatra Tu vends pas ton skeud, même au prix d'achat J'arrive dans ta gueule comme un p'tit crachat Toi, va t'faire sucer par un piranha Des affiches partout, on maquille Paname Mi casa, tu casa, la vie se limite à ça Si j'assassine, poudre dans la bassine Et rempile à balle, rien n'égale Ni classe C ni classe A Bisous dans l'cou d'Nathalie Baye Viens faire un câlin à l'animal Que des sales tchoins dans le calepin Je rentre beaucoup, je déclare rien Sur les nerfs Trop facile pour l'négro, MTP, Lomé Aux yeux d'ces nègres, j'suis comme Tesla Où tu comptes aller avec ces fesses là ? J'suis déjà passé là ou tu seras Si tu la suces pas, sache qu'une autre bitch la sucera Horlogerie suisse à mon poignet, pule-cra à mes heures Vaut mieux être bien calibré que mal accompagné Quand tu m'aperçois, garde la bouche fermée, nigga Internet va tous nous faire interner, nigga Passe-moi ta bitch, passe-moi ton blé, nigga J'ai les couilles vides, des femmes comblées nigga Prête allégeance quand j'rentre dans ta contrée, nigga Poudre sous l'nez, j'suis jnouney, nigga Faut ces sous pour tous mes niggas Gros gamos pour t'doubler, nigga Osiris dans orifices auditifs Intouchable comme une séropositive Je pisse sur vos lois, sur votre politique Donc j'ai toutes mes facultés cognitives Mes ancêtres disent que l'espace est liquide Ta descendance dit que mon organe est rigide Marianne, je l'attrape, je la coupe en deux Même si elle est une et indivisible, négro Delorean Music my nigga35</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2nd Roof Music G-U-È Fresh dall'est, la mia bitch, Ratajkowski Ah Mi sta attaccata al zzoca come il Bostik Ah Approfitto di un culo profiterole Mentre il profitto va nel mio bonifico Boss qui, Ermenegildo Zegna Il vestito Hermès è finto, fregna La mando a farsi le unghie Mentre accarezzo il gatto Comando un razzo dal bunker Uh Quindi gli infami fanno S.O.S Li localizzo come un GPS Non ho due coglioni, ho due kettlebells Uh Ti scasso, flow classico, Tekken 3 La mia tipa è una banconota Con gli occhi e la bocca vestita Moschino Penso al tuo destino meschino mentre mi schinotta Il rap italiano che si inginocchia A me lei dà il culo, a te dà il cuore MC, cazzo scrivi? Come col T9 Mangio tonno scottato, avocado 'Sto pezzo è un film, sembra che Tony Scott lo ha girato Ah-ah Stile da un'altra galassia Con una bagascia, Kardashian, kalasha Flow Ferragamo, mo' non mi frena manco il freno a mano Tu non sai come facciamo You might also like E non sai come lo facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro Tu non sai quello che facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro Tu non sai quello che facciamo Dentro al Viano di zio Emiliano E bonjour Paris, bonjour Milano Un giorno a casa è un giorno a caso Seh Di notte pazzi, di giorno puzzle Ah Okay, sei sexy, lo facciamo Ti chiamo un taxi, te lo chiamo Ti faccio a pezzi sopra il divano Hamdoullah, Koulchi labas La famille, Koulchi labas Non starmi addosso che penso al cash Sì, è tutto a posto, e siamo in tre Ah Ho venti friend dietro nel back Con le palle sopra le bag E sui TMax sembran T-Rex E non si fanno Ah, ti fanno a te Eh-eh Robocop vs Terminator Mes amis tutti dal retro Via da qui e al più presto Non ci torno lì, non torno al fresco Eh-eh E penso al biz, grana sul pesto Escargot, Rosè e escort Fils de bitch, siamo sul pezzo E cercami sopra nel network E non sai come lo facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro Tu non sai quello che facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro Han, Capice, j'mets un billet de 10 euros sur ta bitch Mourir riche, j'dois mettre ma fille à l'abri J'dois finir sous 10 bitchs J'étais d'ceux qu'on isole, maintenant j'sors la te-car Trouve-moi au Convivium, fais couler tout ton vignoble Avec une 'tasse et son binôme, le meilleur sous c'Continuum J'suis plus Tony Soprano, que Tony Sosa No limit, mental de paisano Souliers Chanel ou Ferragamo Même bronzage Berlusconi 'Coni Même harem Berlusconi Uh-uh Leur défaite va être amère, j'vais leur faire du Passi, faire du Stomy On est sur les nerfs Tu non sai, tu non sai, tu non sai-ai-ai-ai J'veux peser comme Carlos han, pétasse dans le gamos han Tu non sai, tu non sai, tu non sai-ai-ai-ai Vrette-le sur ton piano han, j'dérègle ton piano han E non sai come lo facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro Tu non sai quello che facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro E non sai come lo facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro Tu non sai quello che facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro24</t>
+          <t>2nd Roof Music G-U-È Fresh dall'est, la mia bitch, Ratajkowski Ah Mi sta attaccata al zzoca come il Bostik Ah Approfitto di un culo profiterole Mentre il profitto va nel mio bonifico Boss qui, Ermenegildo Zegna Il vestito Hermès è finto, fregna La mando a farsi le unghie Mentre accarezzo il gatto Comando un razzo dal bunker Uh Quindi gli infami fanno S.O.S Li localizzo come un GPS Non ho due coglioni, ho due kettlebells Uh Ti scasso, flow classico, Tekken 3 La mia tipa è una banconota Con gli occhi e la bocca vestita Moschino Penso al tuo destino meschino mentre mi schinotta Il rap italiano che si inginocchia A me lei dà il culo, a te dà il cuore MC, cazzo scrivi? Come col T9 Mangio tonno scottato, avocado 'Sto pezzo è un film, sembra che Tony Scott lo ha girato Ah-ah Stile da un'altra galassia Con una bagascia, Kardashian, kalasha Flow Ferragamo, mo' non mi frena manco il freno a mano Tu non sai come facciamo E non sai come lo facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro Tu non sai quello che facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro Tu non sai quello che facciamo Dentro al Viano di zio Emiliano E bonjour Paris, bonjour Milano Un giorno a casa è un giorno a caso Seh Di notte pazzi, di giorno puzzle Ah Okay, sei sexy, lo facciamo Ti chiamo un taxi, te lo chiamo Ti faccio a pezzi sopra il divano Hamdoullah, Koulchi labas La famille, Koulchi labas Non starmi addosso che penso al cash Sì, è tutto a posto, e siamo in tre Ah Ho venti friend dietro nel back Con le palle sopra le bag E sui TMax sembran T-Rex E non si fanno Ah, ti fanno a te Eh-eh Robocop vs Terminator Mes amis tutti dal retro Via da qui e al più presto Non ci torno lì, non torno al fresco Eh-eh E penso al biz, grana sul pesto Escargot, Rosè e escort Fils de bitch, siamo sul pezzo E cercami sopra nel network E non sai come lo facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro Tu non sai quello che facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro Han, Capice, j'mets un billet de 10 euros sur ta bitch Mourir riche, j'dois mettre ma fille à l'abri J'dois finir sous 10 bitchs J'étais d'ceux qu'on isole, maintenant j'sors la te-car Trouve-moi au Convivium, fais couler tout ton vignoble Avec une 'tasse et son binôme, le meilleur sous c'Continuum J'suis plus Tony Soprano, que Tony Sosa No limit, mental de paisano Souliers Chanel ou Ferragamo Même bronzage Berlusconi 'Coni Même harem Berlusconi Uh-uh Leur défaite va être amère, j'vais leur faire du Passi, faire du Stomy On est sur les nerfs Tu non sai, tu non sai, tu non sai-ai-ai-ai J'veux peser comme Carlos han, pétasse dans le gamos han Tu non sai, tu non sai, tu non sai-ai-ai-ai Vrette-le sur ton piano han, j'dérègle ton piano han E non sai come lo facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro Tu non sai quello che facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro E non sai come lo facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro Tu non sai quello che facciamo, kho, kho Tu sais pas comment on fait négro Tu sais pas comment on fait négro24</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yeah, Jokeezy Dédicacé au plus beau boule du secteur Aka Jen Selter, nigga Black Bottle Boy Richie'zer, muhfucka Yeah Black Bottle nigga P'tite en tailleur, fait pas d'manières, Pull Ice Cream, oyé sapapaya Tu veux venir briser la glace avec mon ami et moi ? J'l'ai couché en un soir, ton 're-noi' a mis des mois J'te fais pas de dessin, pas d'hentaï, on veut les Bahamas, nique sa mère, Pattaya Tu veux t'en mettre dans le nez, j'te ramène l'Himalaya, p'tite, j'suis un gars d'ici, j'ai l'mojo d'un gars d'ailleurs J'fly à Mia', j'fly à Mia', tu m'appelles bébé, j'te fais boum, bye, bye Black Bottle Boy dans l'carré comme Mariah, Santiago veut porré du bon aya Black, black batta boy, pop pas le Moet, big booty bitches inspire le poète Black batta boy, pop pas le Moet, big booty bitches inspire le poète, nigga Personne ne peut test la Parisienne, la Parisienne, yeah, yeah Personne ne peut test la Parisienne, la Parisienne Mais j'ai un p'tit faible pour l'Américaine, l'Américaine Mais 're-noi' ramène-moi la Mexicaine, la Mexicaine La Parisienne, la Mexicaine, mais j'crois qu'j'préfère l'Américaine La Parisienne, la Mexicaine, mais 're-noi', ramène-moi la Jamaïcaine La Parisienne, la Mexicaine Ramène-moi l'Égyptienne, n'importe quelle Africaine You might also like Yeah, ramène ton boule que j'mette ma bouche dedans, on rentre dans les discours de grands Mouille le maillot, laisse refroidir le banc, le chauffeur attend juste devant Jt'attrape par les 'veux-ch', doigt dans la bouche, j'te fais du sale, rentre dans la douche Mets-toi à quatre pattes, j'allume mon cigarillo, j'te traite comme une racaille, jt'arrache tes bas nylons P'tite j'vais t'montrer comment j'claque des 'sses-f', j'vais tellement t'faire du sale j'vais m'faire serrer par les keufs J'attrape la bouteille, t'force à boire au goulot, tu l'as dans la bouche, tu crois que t'as la tête sous l'eau J'sais qu'j'tape trop fort, mais jm'en bats les reins, j'te donne du hardcore comme un Ghanéen J'donne ça comme Brad Pitt, comme Angelina, parle à ma apprends à parler, mina Personne ne peut test la Parisienne, la Parisienne, yeah, yeah Personne ne peut test la Parisienne, la Parisienne Mais j'ai un p'tit faible pour l'Américaine, l'Américaine Mais 're-noi' ramène-moi la Mexicaine, la Mexicaine La Parisienne, la Mexicaine, mais j'crois qu'j'préfère l'Américaine La Parisienne, la Mexicaine, mais 're-noi', ramène-moi la Jamaïcaine La Parisienne, la Mexicaine Ramène-moi l'Égyptienne, n'importe quelle Africaine Personne ne peut test la parisienne Salut Gilles, c'est Julie, j'espère que tu vas bien. Si tu fais rien ce soir, bah... passe, mon mec n'est pas là Mais j'ai un p'tit faible pour l'américaine Hello Joke, it's Lacey. I miss you. Can you come to my house? Call me back. Bisous 'Re-noi', ramène-moi la mexicaine Hola Joke, cariño! Te llame, pero no respondiste... Así que te dejo un mensaje. Ciao! N'importe quelle africaine Jokeezy motema na ngai nabengi nabengi kasi na koti na repondeur soki ozwi message na nga benga ngai na leli fort21</t>
+          <t>Yeah, Jokeezy Dédicacé au plus beau boule du secteur Aka Jen Selter, nigga Black Bottle Boy Richie'zer, muhfucka Yeah Black Bottle nigga P'tite en tailleur, fait pas d'manières, Pull Ice Cream, oyé sapapaya Tu veux venir briser la glace avec mon ami et moi ? J'l'ai couché en un soir, ton 're-noi' a mis des mois J'te fais pas de dessin, pas d'hentaï, on veut les Bahamas, nique sa mère, Pattaya Tu veux t'en mettre dans le nez, j'te ramène l'Himalaya, p'tite, j'suis un gars d'ici, j'ai l'mojo d'un gars d'ailleurs J'fly à Mia', j'fly à Mia', tu m'appelles bébé, j'te fais boum, bye, bye Black Bottle Boy dans l'carré comme Mariah, Santiago veut porré du bon aya Black, black batta boy, pop pas le Moet, big booty bitches inspire le poète Black batta boy, pop pas le Moet, big booty bitches inspire le poète, nigga Personne ne peut test la Parisienne, la Parisienne, yeah, yeah Personne ne peut test la Parisienne, la Parisienne Mais j'ai un p'tit faible pour l'Américaine, l'Américaine Mais 're-noi' ramène-moi la Mexicaine, la Mexicaine La Parisienne, la Mexicaine, mais j'crois qu'j'préfère l'Américaine La Parisienne, la Mexicaine, mais 're-noi', ramène-moi la Jamaïcaine La Parisienne, la Mexicaine Ramène-moi l'Égyptienne, n'importe quelle Africaine Yeah, ramène ton boule que j'mette ma bouche dedans, on rentre dans les discours de grands Mouille le maillot, laisse refroidir le banc, le chauffeur attend juste devant Jt'attrape par les 'veux-ch', doigt dans la bouche, j'te fais du sale, rentre dans la douche Mets-toi à quatre pattes, j'allume mon cigarillo, j'te traite comme une racaille, jt'arrache tes bas nylons P'tite j'vais t'montrer comment j'claque des 'sses-f', j'vais tellement t'faire du sale j'vais m'faire serrer par les keufs J'attrape la bouteille, t'force à boire au goulot, tu l'as dans la bouche, tu crois que t'as la tête sous l'eau J'sais qu'j'tape trop fort, mais jm'en bats les reins, j'te donne du hardcore comme un Ghanéen J'donne ça comme Brad Pitt, comme Angelina, parle à ma apprends à parler, mina Personne ne peut test la Parisienne, la Parisienne, yeah, yeah Personne ne peut test la Parisienne, la Parisienne Mais j'ai un p'tit faible pour l'Américaine, l'Américaine Mais 're-noi' ramène-moi la Mexicaine, la Mexicaine La Parisienne, la Mexicaine, mais j'crois qu'j'préfère l'Américaine La Parisienne, la Mexicaine, mais 're-noi', ramène-moi la Jamaïcaine La Parisienne, la Mexicaine Ramène-moi l'Égyptienne, n'importe quelle Africaine Personne ne peut test la parisienne Salut Gilles, c'est Julie, j'espère que tu vas bien. Si tu fais rien ce soir, bah... passe, mon mec n'est pas là Mais j'ai un p'tit faible pour l'américaine Hello Joke, it's Lacey. I miss you. Can you come to my house? Call me back. Bisous 'Re-noi', ramène-moi la mexicaine Hola Joke, cariño! Te llame, pero no respondiste... Así que te dejo un mensaje. Ciao! N'importe quelle africaine Jokeezy motema na ngai nabengi nabengi kasi na koti na repondeur soki ozwi message na nga benga ngai na leli fort21</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Oui, oui, si,si So, Niro, Joke Rimes chocs, négro, tu cries au génie, eheh Pas le même génie, pas le même flow, t'as pas le feeling, pas les mêmes gos Rap, lutte gréco-romaine au milieu du ghetto, toujours sourire aux lèvres à la sortie du dépôt Avocat de cinglé, toujours un flow de taré hein, ma liberté ne tient qu'à un fil Tu démarres tes autos au boitier, hein ? Fini l'époque où tu faisais les fils J'aime les gros culs, les grosses cuisses et les gros ch'veux Le son de ta voix dans le 'phone-tél', tes beaux yeux Tu prends combien pour la nuit ? Mille eu' ? Ok, mille eu' si tu veux Les fans me prennent en photos comme les keufs Sanglot du Sheïtan dans vos larmes, en 'té-ci', je réside, toute ma life, je bicrave la résine Style sorti de l'asile, camisole à mes punchlines, on tire pas au grenaille sur son ennemi, hein Négro, je préfère que tu me défies, que tu te défiles, hein Que tu lèves ta bécane en I comme Meek Mill de Philadelphie, hein Tu cries comme ce flingue qui tire sur quiconque Tu rigoles, tu bricoles, tu bé-tom, ti-sor et ça repart deux fois plus fort Niro, Joke, rimes chocs, négro, tu cries au génie Trop d'avance, ma carrière, j'avais dis qu'on l'a cryogénise Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Hey Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Pas la même vie mec, pas le même flow, t'auras beau sucer ma kekette, t'auras pas le même génie Putain de fils de pute, t'auras pas le même flow, putain de fils de pute, t'auras pas le même génie Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Hey Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Pas la même vie mec, pas le même flow, t'auras beau sucer ma kekette, t'auras pas le même génie Putain de fils de pute, t'auras pas le même flow, putain de fils de pute, t'auras pas le même génie You might also like Pas le même génie, pas le même flow, pas le même délire, pas les mêmes kho' On va les mettre au parfum, on a faim, même si t'as mon flow, t'auras pas mes 'blèmes-pro' Bande de tapins, j'lâche rien, fais pas l'machin, motherfucker, Niro prend jamais de repos Trop haut, trop chaud, pour faire des bails d'orospu çocuu, ah Tes MC's sont tout balourds Balourds, j'les borde, j'leur donne le biberon Biberon On m'voit comme un poids lourd Poids lourd, j'pèse 70 litrons Ok, mixtape au-d'ssus du lot, mixé Vodka-citron, qu'ils s'trompent jamais sur notre compte Mothafuck, on n'est pas tes putains d'rappeurs hip-hop, on est des rats J'veux mon putain d'Po-Porsche Panamera, pop, pop, baise les po-po-porcs, j'suis libérable J'ai forcé les po-po-portes et les virages, faut qu'ça rappo-ppo-ppo-rte les dirhams Ferme tes fesses, jamais peur de faire mes dièses Pas d'putain d'rapport amical, que des rapports sexuels avec tes rappeurs, tellement j'les baise Ah, j'écoute c'qu'ils font avec mon co' dans ma cellule Textes de merde, flows de merde, trop d'caca pour un seul homme J'survole de loin, bref, j'vois toujours pas d'quoi s'extasier Pas étonnant qu't'es dans la merde, t'arrives à chier qu'des textes à chier, ah Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Hey Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Pas la même vie mec, pas le même flow, t'auras beau sucer ma kekette, t'auras pas le même génie Putain de fils de pute, t'auras pas le même flow, putain de fils de pute, t'auras pas le même génie Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Hey Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Pas la même vie mec, pas le même flow, t'auras beau sucer ma kekette, t'auras pas le même génie Putain de fils de pute, t'auras pas le même flow, putain de fils de pute, t'auras pas le même génie Yeah Pas le même génie, pas le même flow, woah, toujours tous ces rageux qui m'aiment trop Eheh J'mets mon majeur dans ta boîte à Benco, bang, dans deux ans j'ai l'veau-cer à Kurt Cobain Oh mane, j'suis trop affûté dans mon domaine, oh merde, trop dingue, on bang, on s'impose Trinque aux chiennes qu'on tringle, aux lingots même,voilà MTP sur l'tempo, hein J't'ai dit, mec, c'est direct, rap français aux oubliettes Crack music, j'cuisine cette dope depuis l'époque de la dînette Check, j'suis en direct, d'un monde parallèle J'joue à Slider dans la chatte à ta copine, donc fais pas la belle Débarque en boîte avec des 'tasses téléguidées, j'ai eu mon bac sans réviser, j'veux du blé à dilapider, yo C'est pour ça qu'on vient liquider, des sales idées, baiser vos rappeurs à bidet, leur faire goûter nos qualités, yo Oh Si tu veux parler, descends d'ma bite, s'te-plaît S'te-plaît Tellement mes textes payent, j'dis que c'est des fiches de paie Aaaah, motherfucker, vous êtes tous des cons Des putes Négro, y a qu'sur mon compte en banque que j'touche des fonds What? Pas le même génie, pas le même flow Ayo, t'auras beau demander un feat, t'auras pas le même Niro, pas le même So', woah Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Hey Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Pas la même vie mec, pas le même flow, t'auras beau sucer ma kekette, t'auras pas le même génie Putain de fils de pute, t'auras pas le même flow, putain de fils de pute, t'auras pas le même génie Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Hey Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Pas la même vie mec, pas le même flow, t'auras beau sucer ma kekette, t'auras pas le même génie Putain de fils de pute, t'auras pas le même flow, putain de fils de pute, t'auras pas le même génie Pas le même génie Pas le même génie Pas le même génie Pas le même génie Pas le même génie Pas le même génie Pas le même génie Pas le même génie10</t>
+          <t>Oui, oui, si,si So, Niro, Joke Rimes chocs, négro, tu cries au génie, eheh Pas le même génie, pas le même flow, t'as pas le feeling, pas les mêmes gos Rap, lutte gréco-romaine au milieu du ghetto, toujours sourire aux lèvres à la sortie du dépôt Avocat de cinglé, toujours un flow de taré hein, ma liberté ne tient qu'à un fil Tu démarres tes autos au boitier, hein ? Fini l'époque où tu faisais les fils J'aime les gros culs, les grosses cuisses et les gros ch'veux Le son de ta voix dans le 'phone-tél', tes beaux yeux Tu prends combien pour la nuit ? Mille eu' ? Ok, mille eu' si tu veux Les fans me prennent en photos comme les keufs Sanglot du Sheïtan dans vos larmes, en 'té-ci', je réside, toute ma life, je bicrave la résine Style sorti de l'asile, camisole à mes punchlines, on tire pas au grenaille sur son ennemi, hein Négro, je préfère que tu me défies, que tu te défiles, hein Que tu lèves ta bécane en I comme Meek Mill de Philadelphie, hein Tu cries comme ce flingue qui tire sur quiconque Tu rigoles, tu bricoles, tu bé-tom, ti-sor et ça repart deux fois plus fort Niro, Joke, rimes chocs, négro, tu cries au génie Trop d'avance, ma carrière, j'avais dis qu'on l'a cryogénise Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Hey Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Pas la même vie mec, pas le même flow, t'auras beau sucer ma kekette, t'auras pas le même génie Putain de fils de pute, t'auras pas le même flow, putain de fils de pute, t'auras pas le même génie Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Hey Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Pas la même vie mec, pas le même flow, t'auras beau sucer ma kekette, t'auras pas le même génie Putain de fils de pute, t'auras pas le même flow, putain de fils de pute, t'auras pas le même génie Pas le même génie, pas le même flow, pas le même délire, pas les mêmes kho' On va les mettre au parfum, on a faim, même si t'as mon flow, t'auras pas mes 'blèmes-pro' Bande de tapins, j'lâche rien, fais pas l'machin, motherfucker, Niro prend jamais de repos Trop haut, trop chaud, pour faire des bails d'orospu çocuu, ah Tes MC's sont tout balourds Balourds, j'les borde, j'leur donne le biberon Biberon On m'voit comme un poids lourd Poids lourd, j'pèse 70 litrons Ok, mixtape au-d'ssus du lot, mixé Vodka-citron, qu'ils s'trompent jamais sur notre compte Mothafuck, on n'est pas tes putains d'rappeurs hip-hop, on est des rats J'veux mon putain d'Po-Porsche Panamera, pop, pop, baise les po-po-porcs, j'suis libérable J'ai forcé les po-po-portes et les virages, faut qu'ça rappo-ppo-ppo-rte les dirhams Ferme tes fesses, jamais peur de faire mes dièses Pas d'putain d'rapport amical, que des rapports sexuels avec tes rappeurs, tellement j'les baise Ah, j'écoute c'qu'ils font avec mon co' dans ma cellule Textes de merde, flows de merde, trop d'caca pour un seul homme J'survole de loin, bref, j'vois toujours pas d'quoi s'extasier Pas étonnant qu't'es dans la merde, t'arrives à chier qu'des textes à chier, ah Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Hey Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Pas la même vie mec, pas le même flow, t'auras beau sucer ma kekette, t'auras pas le même génie Putain de fils de pute, t'auras pas le même flow, putain de fils de pute, t'auras pas le même génie Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Hey Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Pas la même vie mec, pas le même flow, t'auras beau sucer ma kekette, t'auras pas le même génie Putain de fils de pute, t'auras pas le même flow, putain de fils de pute, t'auras pas le même génie Yeah Pas le même génie, pas le même flow, woah, toujours tous ces rageux qui m'aiment trop Eheh J'mets mon majeur dans ta boîte à Benco, bang, dans deux ans j'ai l'veau-cer à Kurt Cobain Oh mane, j'suis trop affûté dans mon domaine, oh merde, trop dingue, on bang, on s'impose Trinque aux chiennes qu'on tringle, aux lingots même,voilà MTP sur l'tempo, hein J't'ai dit, mec, c'est direct, rap français aux oubliettes Crack music, j'cuisine cette dope depuis l'époque de la dînette Check, j'suis en direct, d'un monde parallèle J'joue à Slider dans la chatte à ta copine, donc fais pas la belle Débarque en boîte avec des 'tasses téléguidées, j'ai eu mon bac sans réviser, j'veux du blé à dilapider, yo C'est pour ça qu'on vient liquider, des sales idées, baiser vos rappeurs à bidet, leur faire goûter nos qualités, yo Oh Si tu veux parler, descends d'ma bite, s'te-plaît S'te-plaît Tellement mes textes payent, j'dis que c'est des fiches de paie Aaaah, motherfucker, vous êtes tous des cons Des putes Négro, y a qu'sur mon compte en banque que j'touche des fonds What? Pas le même génie, pas le même flow Ayo, t'auras beau demander un feat, t'auras pas le même Niro, pas le même So', woah Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Hey Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Pas la même vie mec, pas le même flow, t'auras beau sucer ma kekette, t'auras pas le même génie Putain de fils de pute, t'auras pas le même flow, putain de fils de pute, t'auras pas le même génie Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Hey Pas le même génie, pas le même flow Hey, pas le même génie, pas le même flow Pas la même vie mec, pas le même flow, t'auras beau sucer ma kekette, t'auras pas le même génie Putain de fils de pute, t'auras pas le même flow, putain de fils de pute, t'auras pas le même génie Pas le même génie Pas le même génie Pas le même génie Pas le même génie Pas le même génie Pas le même génie Pas le même génie Pas le même génie10</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yeah, Gucci Vump, Jokeezy Embrasse la main que tu ne peux pas couper, négro Right Yo, yo J'te mets une balle dans la tête Hm-hm, crack sur la tétine Claque sur ta rétine, enfile ma cape violette Joke rentre dans la secte Hm-hm, caresse une chatte violette Le monde va brûler si j'ajuste bien ses quatre molettes Voilà l'plus chaud dans le barrio, rose rouge et cigarillo C'est l'heure du sacrifice, le peuple est doux comme un agneau Bye, les autres MCs sont caducs J'ai fait cirer mes souliers pour regarder sous ta jupe 'Re-noi', on t'bat pour un Louis d'Or J'viens pisser dans ta flaque si t'es l'eau qui dort Passe-moi la couronne, le château de Versailles Les 'res-noi' vont bronzer si j'rentre dans la salle Négro, j'brille comme Wah Louis XIV, Louis XV, Louis XVI dans le building Wah Louis XIV, Louis XV, Louis XVI dans le building Wah Louis XIV, Louis XV, Louis XVI dans le building Wah Louis XIV, Louis XV, Louis XVI dans le building Wah You might also like Right, hijo de puta fais pas de moi un coupable Tu seras sous la roue d'une Subaru si jamais tu m'as poucave Pour une seize soupape, j'pourrais fumer seize cardinaux Ta pétasse est là parmi nous, elle s'occupe des dessous-d'table Huh c'est quoi les bails ? huh c'est des cravates de notaires Rien à envier à Marivaux, rien à envier à Voltaire J'te mets une balle dans la tête, j'te fais une coupe au bol d'air J'vais faire un tour au cimetière, j't'offre les mêmes fleurs que Baudelaire, chérie Wah Wah Wah Wah Wah Wah Wah Wah 'Re-noi', on t'bat pour un Louis d'Or J'viens pisser dans ta flaque si t'es l'eau qui dort Passe-moi la couronne, le château de Versailles Les 'res-noi' vont bronzer si j'rentre dans la salle Négro, j'brille comme Wah Louis XIV, Louis XV, Louis XVI dans le building Wah Louis XIV, Louis XV, Louis XVI dans le building Wah Louis XIV, Louis XV, Louis XVI dans le building Wah Louis XIV, Louis XV, Louis XVI dans le building Wah Sur la carcasse de Guerlain J'ai les punchlines de Ali, la baguette magique de Merlin J'prends l'hélico', j'te jette dans le vide sur un terre-plein Tu t'mélanges dans tes mythos, négro, j'appelle ça un mesclun Observe-moi hisser mon majeur Mets-toi dans ton bain, que j'te mets des coups d'taser L'avenir n'est pas sûr mais il est certain Joke, yeah Jokeezy pour les intimes Jeune héritier du trône de France Motherfucker12</t>
+          <t>Yeah, Gucci Vump, Jokeezy Embrasse la main que tu ne peux pas couper, négro Right Yo, yo J'te mets une balle dans la tête Hm-hm, crack sur la tétine Claque sur ta rétine, enfile ma cape violette Joke rentre dans la secte Hm-hm, caresse une chatte violette Le monde va brûler si j'ajuste bien ses quatre molettes Voilà l'plus chaud dans le barrio, rose rouge et cigarillo C'est l'heure du sacrifice, le peuple est doux comme un agneau Bye, les autres MCs sont caducs J'ai fait cirer mes souliers pour regarder sous ta jupe 'Re-noi', on t'bat pour un Louis d'Or J'viens pisser dans ta flaque si t'es l'eau qui dort Passe-moi la couronne, le château de Versailles Les 'res-noi' vont bronzer si j'rentre dans la salle Négro, j'brille comme Wah Louis XIV, Louis XV, Louis XVI dans le building Wah Louis XIV, Louis XV, Louis XVI dans le building Wah Louis XIV, Louis XV, Louis XVI dans le building Wah Louis XIV, Louis XV, Louis XVI dans le building Wah Right, hijo de puta fais pas de moi un coupable Tu seras sous la roue d'une Subaru si jamais tu m'as poucave Pour une seize soupape, j'pourrais fumer seize cardinaux Ta pétasse est là parmi nous, elle s'occupe des dessous-d'table Huh c'est quoi les bails ? huh c'est des cravates de notaires Rien à envier à Marivaux, rien à envier à Voltaire J'te mets une balle dans la tête, j'te fais une coupe au bol d'air J'vais faire un tour au cimetière, j't'offre les mêmes fleurs que Baudelaire, chérie Wah Wah Wah Wah Wah Wah Wah Wah 'Re-noi', on t'bat pour un Louis d'Or J'viens pisser dans ta flaque si t'es l'eau qui dort Passe-moi la couronne, le château de Versailles Les 'res-noi' vont bronzer si j'rentre dans la salle Négro, j'brille comme Wah Louis XIV, Louis XV, Louis XVI dans le building Wah Louis XIV, Louis XV, Louis XVI dans le building Wah Louis XIV, Louis XV, Louis XVI dans le building Wah Louis XIV, Louis XV, Louis XVI dans le building Wah Sur la carcasse de Guerlain J'ai les punchlines de Ali, la baguette magique de Merlin J'prends l'hélico', j'te jette dans le vide sur un terre-plein Tu t'mélanges dans tes mythos, négro, j'appelle ça un mesclun Observe-moi hisser mon majeur Mets-toi dans ton bain, que j'te mets des coups d'taser L'avenir n'est pas sûr mais il est certain Joke, yeah Jokeezy pour les intimes Jeune héritier du trône de France Motherfucker12</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>J'ai mes gars qui sont à l'arrière, j'ride sans permis nique les barrières On veut s'en sortir maintenant, peu importe la manière Je leur fais l'amour dans la lumière, j'veux voir leur chatte quand j'frappe ça J'veux un trio comme Cats Eyes, des meufs qui se doigtent quand j'rappe ça Dieu donne les sentences, baise ce que les gens pensent mamen Écoute la haine sur ma bouche, l'amertume sur ma bouche Faut que je fasse les fils d'une italienne, pour rider tout seul sur la route Faut que je fasse les files d'une italienne, pour rider, m'laisser mourir parmi elles La chance c'est pour les chanceux, nous on veut braquer le casino Peser comme Robert De Niro, nous on veut braquer le casino La chance c'est pour les chanceux, nous on veut braquer le casino Nous on veut braquer le casino, nous on veut braquer le casino Les dés roulent sur le tapis vert, le charisme frappe ton imaginaire Branches en bois sur lunettes Cartier, j'veux un compte avec les chiffres de l'annuaire J'aime pas Tony, mon gars c'est Frank Lucas, ride à Monte-Carlo, Alain Ducasse Fais gagner tes copines en à peine une passe, on rend folle les p'tites tass, on leur efface une case Même si les temps changent, on garde les sentences mamen Écoute la haine sur ma bouche, l'amertume sur ma bouche Les néons explosent dans tes iris, j'hérisse les poils de chatte de ces féministes Tu sais que l'ancien dernier de la classe peut avoir une paye de premier ministre You might also like La chance c'est pour les chanceux, nous on veut braquer le casino Peser comme Robert De Niro, nous on veut braquer le casino La chance c'est pour les chanceux, nous on veut braquer le casino Nous on veut braquer le casino, nous on veut braquer le casino Quand le décolleté se montre, j'me pose plus de questions J'vois tes hanches, j'ai l'imagination de Luc Besson J'me fais des films baby, j'te l'dis sans pression Ramène tes copines, ramène ta sur, ramène ta team baby J'ai pas de Cadillac, j'te drive comme TomTom On Cruise comme Tom, on cruise comme Compton On gagne du temps, juste amène-moi où tu habites baby Voir la vie en rose, la vie monochromatique baby Faut qu'j'fasse toute cette maille Faut qu'j'fasse toute cette maille-aille Faut qu'j'fasse toute cette maille Faut qu'j'fasse toute cette maille-aille, maille-aille, maille-aille La chance c'est pour les chanceux, nous on veut braquer le casino Peser comme Robert De Niro, nous on veut braquer le casino La chance c'est pour les chanceux, nous on veut braquer le casino Nous on veut braquer le casino, nous on veut braquer le casino J'voulais que tous ces connards sachent que les temps avaient changé On devait faire un exemple pour qu'ils comprennent que c'était fini de rigoler23</t>
+          <t>J'ai mes gars qui sont à l'arrière, j'ride sans permis nique les barrières On veut s'en sortir maintenant, peu importe la manière Je leur fais l'amour dans la lumière, j'veux voir leur chatte quand j'frappe ça J'veux un trio comme Cats Eyes, des meufs qui se doigtent quand j'rappe ça Dieu donne les sentences, baise ce que les gens pensent mamen Écoute la haine sur ma bouche, l'amertume sur ma bouche Faut que je fasse les fils d'une italienne, pour rider tout seul sur la route Faut que je fasse les files d'une italienne, pour rider, m'laisser mourir parmi elles La chance c'est pour les chanceux, nous on veut braquer le casino Peser comme Robert De Niro, nous on veut braquer le casino La chance c'est pour les chanceux, nous on veut braquer le casino Nous on veut braquer le casino, nous on veut braquer le casino Les dés roulent sur le tapis vert, le charisme frappe ton imaginaire Branches en bois sur lunettes Cartier, j'veux un compte avec les chiffres de l'annuaire J'aime pas Tony, mon gars c'est Frank Lucas, ride à Monte-Carlo, Alain Ducasse Fais gagner tes copines en à peine une passe, on rend folle les p'tites tass, on leur efface une case Même si les temps changent, on garde les sentences mamen Écoute la haine sur ma bouche, l'amertume sur ma bouche Les néons explosent dans tes iris, j'hérisse les poils de chatte de ces féministes Tu sais que l'ancien dernier de la classe peut avoir une paye de premier ministre La chance c'est pour les chanceux, nous on veut braquer le casino Peser comme Robert De Niro, nous on veut braquer le casino La chance c'est pour les chanceux, nous on veut braquer le casino Nous on veut braquer le casino, nous on veut braquer le casino Quand le décolleté se montre, j'me pose plus de questions J'vois tes hanches, j'ai l'imagination de Luc Besson J'me fais des films baby, j'te l'dis sans pression Ramène tes copines, ramène ta sur, ramène ta team baby J'ai pas de Cadillac, j'te drive comme TomTom On Cruise comme Tom, on cruise comme Compton On gagne du temps, juste amène-moi où tu habites baby Voir la vie en rose, la vie monochromatique baby Faut qu'j'fasse toute cette maille Faut qu'j'fasse toute cette maille-aille Faut qu'j'fasse toute cette maille Faut qu'j'fasse toute cette maille-aille, maille-aille, maille-aille La chance c'est pour les chanceux, nous on veut braquer le casino Peser comme Robert De Niro, nous on veut braquer le casino La chance c'est pour les chanceux, nous on veut braquer le casino Nous on veut braquer le casino, nous on veut braquer le casino J'voulais que tous ces connards sachent que les temps avaient changé On devait faire un exemple pour qu'ils comprennent que c'était fini de rigoler23</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Toc toc, j'suis à ta porte Qui ? J'te fume comme le tabac, j'te prends à la gorge Voilà la horde, t'es désaccordé Jeune fougueux, jeune loup mais j'suis pas à ta portée Eheheh Vincennes c'est pas la porte à côté J'te monte en l'air, j'te pends, avec une corde à sauter Boy, ici c'est MTP zoo On a d'la frappe tellement forte, on appelle ça la Zizou Ta 'tasse me fait des bisous, si souvent M'appelle pas re-frè, passe dans sa bouche, y a mes bijoux J'suis mutant comme un triso', les mecs comprennent pas mes fans Ils comprennent pas mes phases, faut qu'ils comprennent, j'suis un cas isolé Han Ces négros croient être la relève Haha Faudra p't-être me couper les deux lèvres Yo, le son de sacrifice de jeunes vierges J'ai jamais rien lâché car au fond, tenez c'est qu'Genevieve Les négros viennent juste de perdre Perdre On vient mettre MTP dans leurs putes de mères MTP, mon négro Les négros viennent juste de perdre Perdre On vient mettre MTP dans leurs putes de mères On veut les, les, les, les, les, les liasses et liasses et biftons, les, les, les Les, les, les liasses et liasses et biftons, les, les, les Les, les, les liasses et liasses et biftons, les, les, les Han Les, les, les liasses et liasses et biftons, les, les, les Han, han You might also like Y'a qu'parce que j'écris sur mon phone que j'paye pas d'mine J'me fait ton cerveau ou ton coeur j'me fais pas d'bile C'est Marty Mc Fly en direct d'l'année 4 000 J'connais des meufs qui lisent l'avenir entre 4 lignes J'vais les couper, j'vais les couper court, j'vais les shooter Joins tous les bouts dans mes couplets, j'vais faire décoller ce rap game car c'est tout pé-té Concurrence sous mes pieds, négro, j'suis tout près Prêt à vous kamasutrer, tu t'es fait canne à sucrer Yo, j'viens te mettre la banane, yo, quand on monte à Paname Sensation d'fourrage anal, vaut mieux cher-ca ta nana Yo j'suis un cas isolé, un futur camisolé Un futur cramé, futur caniche, chaton qu'a miaulé J'fais rien à part innover, j'suis quasi un casino pour c'rap game Yo, j'vais pas rigoler, ni New Yorkais ni parigot, mon barillo est Très au-dessus, MTP, la ville soleil L'rap français sort d'un quasi sommeil Les négros viennent juste de perdre Perdre On vient mettre MTP dans leurs putes de mères MTP, mon négro Les négros viennent juste de perdre Perdre On vient mettre MTP dans leurs putes de mères On veut les, les, les, les, les, les liasses et liasses et biftons, les, les, les Les, les, les liasses et liasses et biftons, les, les, les Les, les, les liasses et liasses et biftons, les, les, les Han Les, les, les liasses et liasses et biftons, les, les, les Han, han On gère les bords, David Hasselhoff T'es comme ma capote, tu vas pas passer l'aube On met MTP sur la carte Nigga Dessine des oiseaux sur ta chatte On gère les bords, David Hasselhoff T'es comme ma capote tu vas pas passer l'aube On met MTP sur la carte Dessine des oiseaux sur ta chatte Les négros viennent juste de perdre Perdre On vient mettre MTP dans leurs putes de mères MTP, mon négro Les négros viennent juste de perdre Perdre On vient mettre MTP dans leurs putes de mères On veut les, les, les, les, les, les liasses et liasses et biftons, les, les, les Les, les, les liasses et liasses et biftons, les, les, les Les, les, les liasses et liasses et biftons, les, les, les Les, les, les liasses et liasses et biftons, les, les, les MTP, négro Yeah, , négro Mon négro, , nigga11</t>
+          <t>Toc toc, j'suis à ta porte Qui ? J'te fume comme le tabac, j'te prends à la gorge Voilà la horde, t'es désaccordé Jeune fougueux, jeune loup mais j'suis pas à ta portée Eheheh Vincennes c'est pas la porte à côté J'te monte en l'air, j'te pends, avec une corde à sauter Boy, ici c'est MTP zoo On a d'la frappe tellement forte, on appelle ça la Zizou Ta 'tasse me fait des bisous, si souvent M'appelle pas re-frè, passe dans sa bouche, y a mes bijoux J'suis mutant comme un triso', les mecs comprennent pas mes fans Ils comprennent pas mes phases, faut qu'ils comprennent, j'suis un cas isolé Han Ces négros croient être la relève Haha Faudra p't-être me couper les deux lèvres Yo, le son de sacrifice de jeunes vierges J'ai jamais rien lâché car au fond, tenez c'est qu'Genevieve Les négros viennent juste de perdre Perdre On vient mettre MTP dans leurs putes de mères MTP, mon négro Les négros viennent juste de perdre Perdre On vient mettre MTP dans leurs putes de mères On veut les, les, les, les, les, les liasses et liasses et biftons, les, les, les Les, les, les liasses et liasses et biftons, les, les, les Les, les, les liasses et liasses et biftons, les, les, les Han Les, les, les liasses et liasses et biftons, les, les, les Han, han Y'a qu'parce que j'écris sur mon phone que j'paye pas d'mine J'me fait ton cerveau ou ton coeur j'me fais pas d'bile C'est Marty Mc Fly en direct d'l'année 4 000 J'connais des meufs qui lisent l'avenir entre 4 lignes J'vais les couper, j'vais les couper court, j'vais les shooter Joins tous les bouts dans mes couplets, j'vais faire décoller ce rap game car c'est tout pé-té Concurrence sous mes pieds, négro, j'suis tout près Prêt à vous kamasutrer, tu t'es fait canne à sucrer Yo, j'viens te mettre la banane, yo, quand on monte à Paname Sensation d'fourrage anal, vaut mieux cher-ca ta nana Yo j'suis un cas isolé, un futur camisolé Un futur cramé, futur caniche, chaton qu'a miaulé J'fais rien à part innover, j'suis quasi un casino pour c'rap game Yo, j'vais pas rigoler, ni New Yorkais ni parigot, mon barillo est Très au-dessus, MTP, la ville soleil L'rap français sort d'un quasi sommeil Les négros viennent juste de perdre Perdre On vient mettre MTP dans leurs putes de mères MTP, mon négro Les négros viennent juste de perdre Perdre On vient mettre MTP dans leurs putes de mères On veut les, les, les, les, les, les liasses et liasses et biftons, les, les, les Les, les, les liasses et liasses et biftons, les, les, les Les, les, les liasses et liasses et biftons, les, les, les Han Les, les, les liasses et liasses et biftons, les, les, les Han, han On gère les bords, David Hasselhoff T'es comme ma capote, tu vas pas passer l'aube On met MTP sur la carte Nigga Dessine des oiseaux sur ta chatte On gère les bords, David Hasselhoff T'es comme ma capote tu vas pas passer l'aube On met MTP sur la carte Dessine des oiseaux sur ta chatte Les négros viennent juste de perdre Perdre On vient mettre MTP dans leurs putes de mères MTP, mon négro Les négros viennent juste de perdre Perdre On vient mettre MTP dans leurs putes de mères On veut les, les, les, les, les, les liasses et liasses et biftons, les, les, les Les, les, les liasses et liasses et biftons, les, les, les Les, les, les liasses et liasses et biftons, les, les, les Les, les, les liasses et liasses et biftons, les, les, les MTP, négro Yeah, , négro Mon négro, , nigga11</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Wah, j'suis synchronisé my nigga Laisse la lumière passer cousin, wah 24, Ultraviolet Oui, bitch, nigga Right, anh Bébé, s'te plait mets ta chatte là -chatte là, y a qu'l'oseille qui rentre dans le matelas -matelas Monnaie apparaît, ça fait pouf, j'ai d'la coke à te couper le souffle J'ai la vitesse, la force et la finesse, j'casse la démarche comme dans Menace Menace Y a de l'oseille dit da, sí, jah, oui, yes Oui, yes, j'contrôle demain comme ambidextre Incroyable D'la beuh, d'la beuh et des 'tasses 'tasses, j'suis sur la croisette, j'fais des frasques Frasques Dom Pavé, j'suis éclaté Eclaté, j'me demande comment j'fais des phrases Phrases Si j'entasse les pesetas, ton temps passe comme l'été passe Re-noi, j'donne la chair de poule, toi tu vas donner des blases Blases Bébé, s'te plait mets ta chatte là Chatte là, y a qu'l'oseille qui rentre dans le matelas Matelas Monnaie apparaît, ça fait pouf Ouh, j'ai d'la coke à te couper le souffle Tsunami, tsunami, tsunami Eh, vague de mojo, j'fais un tsunami Tsunami, tsunami, tsunami Eh, Tsunami, tsunami, tsunami Tsunami You might also like Moi le plus chaud dans le périmètre -périmètre, mannequin Chanel dans le Série 7 Série 7 J'lui ai mise comme je devais lui mettre 'vais lui mettre, shoot ces bâtards comme dans Many Men Many Men Bitch, je compte les Pascal, il en faut Il en faut, négro skinny fort comme Eminem Eminem Les keufs disent que j'ai trois kil' en trop Kil' en trop, liasses de 500, j'te refais l'hymen 'fais l'hymen Re-noi, ma vie c'est un poème Poème, j'ai du Céline, Albert Cohen Cohen Jean Evisu 'vec le gros M Gros M, abeille Gucci, j'fume le pollen Gros M Negro t'es faux, t'es un poser Poser, j'envoie la salsa dans vos soeurs Vos soeurs J'bouffe sa chatte comme Jodie Foster Foster, aigle du désert dans le holster Holster Bébé, s'te plait mets ta chatte là Chatte là, y a qu'l'oseille qui rentre dans le matelas -matelas Monnaie apparaît, ça fait pouf Ouh, j'ai d'la coke à te couper le souffle Tsunami, tsunami, tsunami Eh, vague de mojo, j'fais un tsunami Tsunami, tsunami, tsunami Eh, Tsunami, tsunami, tsunami Tsunami Mes pensées vont vitesse de la lumière La lumière, mes billets vont vitesse de la lumière La lumière VVS, la vitesse de la lumière La lumière, compte en banque ressemble à un annuaire Annuaire Ma vision va vitesse de la lumière La lumière, mes Nike vont vitesse de la lumière La lumière Le cur va vitesse de la lumière La lumière, anneau de Saturne à mon annulaire Wah21</t>
+          <t>Wah, j'suis synchronisé my nigga Laisse la lumière passer cousin, wah 24, Ultraviolet Oui, bitch, nigga Right, anh Bébé, s'te plait mets ta chatte là -chatte là, y a qu'l'oseille qui rentre dans le matelas -matelas Monnaie apparaît, ça fait pouf, j'ai d'la coke à te couper le souffle J'ai la vitesse, la force et la finesse, j'casse la démarche comme dans Menace Menace Y a de l'oseille dit da, sí, jah, oui, yes Oui, yes, j'contrôle demain comme ambidextre Incroyable D'la beuh, d'la beuh et des 'tasses 'tasses, j'suis sur la croisette, j'fais des frasques Frasques Dom Pavé, j'suis éclaté Eclaté, j'me demande comment j'fais des phrases Phrases Si j'entasse les pesetas, ton temps passe comme l'été passe Re-noi, j'donne la chair de poule, toi tu vas donner des blases Blases Bébé, s'te plait mets ta chatte là Chatte là, y a qu'l'oseille qui rentre dans le matelas Matelas Monnaie apparaît, ça fait pouf Ouh, j'ai d'la coke à te couper le souffle Tsunami, tsunami, tsunami Eh, vague de mojo, j'fais un tsunami Tsunami, tsunami, tsunami Eh, Tsunami, tsunami, tsunami Tsunami Moi le plus chaud dans le périmètre -périmètre, mannequin Chanel dans le Série 7 Série 7 J'lui ai mise comme je devais lui mettre 'vais lui mettre, shoot ces bâtards comme dans Many Men Many Men Bitch, je compte les Pascal, il en faut Il en faut, négro skinny fort comme Eminem Eminem Les keufs disent que j'ai trois kil' en trop Kil' en trop, liasses de 500, j'te refais l'hymen 'fais l'hymen Re-noi, ma vie c'est un poème Poème, j'ai du Céline, Albert Cohen Cohen Jean Evisu 'vec le gros M Gros M, abeille Gucci, j'fume le pollen Gros M Negro t'es faux, t'es un poser Poser, j'envoie la salsa dans vos soeurs Vos soeurs J'bouffe sa chatte comme Jodie Foster Foster, aigle du désert dans le holster Holster Bébé, s'te plait mets ta chatte là Chatte là, y a qu'l'oseille qui rentre dans le matelas -matelas Monnaie apparaît, ça fait pouf Ouh, j'ai d'la coke à te couper le souffle Tsunami, tsunami, tsunami Eh, vague de mojo, j'fais un tsunami Tsunami, tsunami, tsunami Eh, Tsunami, tsunami, tsunami Tsunami Mes pensées vont vitesse de la lumière La lumière, mes billets vont vitesse de la lumière La lumière VVS, la vitesse de la lumière La lumière, compte en banque ressemble à un annuaire Annuaire Ma vision va vitesse de la lumière La lumière, mes Nike vont vitesse de la lumière La lumière Le cur va vitesse de la lumière La lumière, anneau de Saturne à mon annulaire Wah21</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Joky, Tokyo, nigga MTP Right Right Yeah Yeah Jreviens dTokyo, Joky reprend du service Les MCs ont des faces de cul, dépassent pas mon pénis Pénis Où sont mes frères ? Lomé ça dit quoi mes nègres ? Ca dit quoi ? Ta meuf mesure ma queue quand elle a ses règles Plus 80 sur la liste et pour lpréfixe On scanalise, on casse la vitre et coupe les vivres Tout en Lacoste, jcrois qujvais faire la coupe Davis Jte mets une banane, jte mets la coupe dElvis Si jrappais pas, jserais surement à bac 5 Mais jsuis mes rêves et les atteints, me captes-tu, 'sin-c' ? Chaises musicales, mon dentier est un cactus Mes actus dépassent juste les bacs et les sales putains Jsuis pas là qupour loseille, jviens réaliser des rêves Quça soit les miens ou les tiens, on se connait dAdam et Eve Jcrée des tempetes, souffle cque Dieu a mis dans mes lèvres Pour ceux qui baisent leurs maîtresses, les mauvais élèves You might also like Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Han, yeah Jokeezy reprend du service Ayo, négro, cest quoi les bails ? Jveux faire du biff à faire craquer le room service Gagner du green comme Celtics Mes Bulls, mon équipe, les négros vont sgratter les veines pour l16 titres Woah, personne ny échappe jsuis là pour des années Le négro monte sur les tables, tmonte dans létable, allez Si y a des balles qui pleuvent, jette ton parapluie Cest la bourse ou la vie, fac ou rue, les jeunes savent pas c'quils veulent Ok, jvois la pharmacie devant, jprends la codéine Jvole la Audemars, jai pris le temps par la peau des tics 'Re-noi' alchimiste, je fais de lor avec dla phonétique Les rappeurs sont tous des mythos à croire qucest dla politique Ok, jvois la pharmacie derrière, poche pleine de capotes Les rappeurs commencent à sfaire vieux, 're-noi', ils radotent Dans lavion avec une bombe comme un gars dAl-Qaïda Moi jvais faire mes bails, destination Tokyo Narita Les Monsieurs dans la place, tu sais cquon élabore La puissance des lasers, la puissance du Mégazord Han Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Yeah, destination Tokyo Narita, destination Tokyo Narita Yeah, Blastar Blastar Yeah, jcrois qujai réussi à faire cque jvoulais faire, non ? Tokyo, yeah MTP Motherfucker Les Monsieurs, GEMG11</t>
+          <t>Joky, Tokyo, nigga MTP Right Right Yeah Yeah Jreviens dTokyo, Joky reprend du service Les MCs ont des faces de cul, dépassent pas mon pénis Pénis Où sont mes frères ? Lomé ça dit quoi mes nègres ? Ca dit quoi ? Ta meuf mesure ma queue quand elle a ses règles Plus 80 sur la liste et pour lpréfixe On scanalise, on casse la vitre et coupe les vivres Tout en Lacoste, jcrois qujvais faire la coupe Davis Jte mets une banane, jte mets la coupe dElvis Si jrappais pas, jserais surement à bac 5 Mais jsuis mes rêves et les atteints, me captes-tu, 'sin-c' ? Chaises musicales, mon dentier est un cactus Mes actus dépassent juste les bacs et les sales putains Jsuis pas là qupour loseille, jviens réaliser des rêves Quça soit les miens ou les tiens, on se connait dAdam et Eve Jcrée des tempetes, souffle cque Dieu a mis dans mes lèvres Pour ceux qui baisent leurs maîtresses, les mauvais élèves Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Han, yeah Jokeezy reprend du service Ayo, négro, cest quoi les bails ? Jveux faire du biff à faire craquer le room service Gagner du green comme Celtics Mes Bulls, mon équipe, les négros vont sgratter les veines pour l16 titres Woah, personne ny échappe jsuis là pour des années Le négro monte sur les tables, tmonte dans létable, allez Si y a des balles qui pleuvent, jette ton parapluie Cest la bourse ou la vie, fac ou rue, les jeunes savent pas c'quils veulent Ok, jvois la pharmacie devant, jprends la codéine Jvole la Audemars, jai pris le temps par la peau des tics 'Re-noi' alchimiste, je fais de lor avec dla phonétique Les rappeurs sont tous des mythos à croire qucest dla politique Ok, jvois la pharmacie derrière, poche pleine de capotes Les rappeurs commencent à sfaire vieux, 're-noi', ils radotent Dans lavion avec une bombe comme un gars dAl-Qaïda Moi jvais faire mes bails, destination Tokyo Narita Les Monsieurs dans la place, tu sais cquon élabore La puissance des lasers, la puissance du Mégazord Han Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Cest fini les bas-fonds, faut vivre, y a plus quça à faire Jfais ça pour mes gars, mamen, on a plus de temps à perdre Yeah, destination Tokyo Narita, destination Tokyo Narita Yeah, Blastar Blastar Yeah, jcrois qujai réussi à faire cque jvoulais faire, non ? Tokyo, yeah MTP Motherfucker Les Monsieurs, GEMG11</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Si t'as une chatte t'es mon amie Yeah, offre-moi un threesome pour mon anniv' Bitch, dis-moi ce que tu sais qu'on s'organise Avant qu'le cosmos me neutralise Y'a que moi et Louis XV qui ont su créer des grands seize Pé-pom par une cain-ri, j'crache dans une Française Qui sont toutes ces tchoins ? Présente-moi en une J'avance tu recules négro c'est sûr que je t'encule Au sommet depuis Anubis, j'ai un A sur l'disque Quelle mouche t'a piqué ? T'as l'flow du paludisme T'as l'swag du Sida, t'as un swag bizarre LÉtat Français t'passera jamais ton visa Marianne t'laissera jamais la baiser cette sale diva J'fume pas j'suis né sous Amnézia sous sativa Trop de mains sur ma queue, j'me fais sucer par Shiva On restera où on est tant qu'on ouvrira pas d'livres Y'a que moi et Louis XV qui ont su créer des grands seize Pé-pom par une cain-ri, j'crache dans une Française You might also like J'frappe sale et t'encaisse, or dans les dientes Le best, fais-toi enlé-cu par une eu-qu gigantesque, les mecs ! Yeah, ta meuf vaut même pas un Jacquie et Michel J'passe mon temps à tirer des meufs ou tirer des ficelles Trouve moi dans la schnek d'une beurette de micelle Le zen plein d'coke, beurette demi-sel, en tête de liste Avec deux miss hé, gros clip en 4K, t'es en manque de pixels Ramène une vixen, j'la baise jusqu'à six A.M, dérapage en p'tite BM J'suis dans l'cerveau à Spielberg, j'suis dans les quatre coins d'ta chatte D'la France et de Navarre, j'rappe, j'tue des mc's j'suis Kendrick La mort J'suis qu'un p'tit d'en bas donc toutes ces petites m'adorent Négro créa pyramide avant Pythagore Depuis que j'suis là les boussoles indiquent le Sud J'suis un fist-fucking, t'es un fils de pute Si t'as une schneck t'es mon amie Prends la suite, négro ! J'la prends à quatre pattes sous les deux tours, mal à l'aise Produit par Blastar, j'suis obsédé par la baise J'pé-ta à un indien pour lui offrir une petite rose à 50 J'me fais bipolariser la guimauve C'est l'heure de faire une p'tite pause, sortez les films roses C'est comme ça qu'je vois la vie sous drogues ou sous hypnose J'me ferais bien un massacre, j'le ferais avec plaisir Breh, kill'em Bips, dans son sanctuaire elle m'désire On est trop nombreux, trop d'eau a coulé sous les ponts Elles aiment trop jouer d'la flûte, trop d'eau a coulé sous la jupe J'fait pas t'faire un dessin, faisons-nous un selfie Tu verras le visage du destin ou son esprit J'veux les clés d'la Bentley, j'veux la Bentley aussi J'veux piloter comme Tavarez ça sent l'sosie Enregistre sur une bande, j'te l'dis en momie Peu importe ton mojo autant qu'on passe au cro-mi En vrai j'suis blackbinos, mais Marianne me voit pas En vrai je suis français, mais Marianne me croit pas Ça fait dix ans qu'j'te le dis homie Demain c'est nous, demain c'est aujourd'hui Attention j'vais sévir, j'vais t'balancer un menhir Bordel à volonté et j'compte bien m'servir Marianne va descendre sur mon pubis, salut Bisous ça va mal finir, plume et cur Anubis Si l'rap était du tennis, on s'rait la coupe Davis Méfie-toi les sons d'Ateyaba ne sont qu'les prémices Malgré de nombreux services Je crois qu'Marianne n'aime toujours pas mon pénis Sans les mains bitch ! Sans les mains bitch please ! Han ! Tchiii ! Ça joke pas là Bip's hein ? Ça va être dur hein Yeah, j'arrive bim bim, flow ABS, swag à DSK J'ai l'épaule qui m'gratte, le bras tendu comme Anelka Check ça si la larme est légère c'est que l'arme est lourde Si la larme est lourde négro, c'est que l'arme est légère Je te jure j'ai pas la bite cintrée, viens voir derrière la vitre teintée C'est tout noir, tout noir de sang sur le boulevard Regarde bien d'où je pars Négro j'peux t'dire d'aller niquer tes mères depuis le mariage pour tous par Un re-noi sournois, perdra tous les tournois J'suis l'négro de ses rêves papy, elle en pince pour moi J'coupe et vends et copie-colle, nique sa mère et ton idole18</t>
+          <t>Si t'as une chatte t'es mon amie Yeah, offre-moi un threesome pour mon anniv' Bitch, dis-moi ce que tu sais qu'on s'organise Avant qu'le cosmos me neutralise Y'a que moi et Louis XV qui ont su créer des grands seize Pé-pom par une cain-ri, j'crache dans une Française Qui sont toutes ces tchoins ? Présente-moi en une J'avance tu recules négro c'est sûr que je t'encule Au sommet depuis Anubis, j'ai un A sur l'disque Quelle mouche t'a piqué ? T'as l'flow du paludisme T'as l'swag du Sida, t'as un swag bizarre LÉtat Français t'passera jamais ton visa Marianne t'laissera jamais la baiser cette sale diva J'fume pas j'suis né sous Amnézia sous sativa Trop de mains sur ma queue, j'me fais sucer par Shiva On restera où on est tant qu'on ouvrira pas d'livres Y'a que moi et Louis XV qui ont su créer des grands seize Pé-pom par une cain-ri, j'crache dans une Française J'frappe sale et t'encaisse, or dans les dientes Le best, fais-toi enlé-cu par une eu-qu gigantesque, les mecs ! Yeah, ta meuf vaut même pas un Jacquie et Michel J'passe mon temps à tirer des meufs ou tirer des ficelles Trouve moi dans la schnek d'une beurette de micelle Le zen plein d'coke, beurette demi-sel, en tête de liste Avec deux miss hé, gros clip en 4K, t'es en manque de pixels Ramène une vixen, j'la baise jusqu'à six A.M, dérapage en p'tite BM J'suis dans l'cerveau à Spielberg, j'suis dans les quatre coins d'ta chatte D'la France et de Navarre, j'rappe, j'tue des mc's j'suis Kendrick La mort J'suis qu'un p'tit d'en bas donc toutes ces petites m'adorent Négro créa pyramide avant Pythagore Depuis que j'suis là les boussoles indiquent le Sud J'suis un fist-fucking, t'es un fils de pute Si t'as une schneck t'es mon amie Prends la suite, négro ! J'la prends à quatre pattes sous les deux tours, mal à l'aise Produit par Blastar, j'suis obsédé par la baise J'pé-ta à un indien pour lui offrir une petite rose à 50 J'me fais bipolariser la guimauve C'est l'heure de faire une p'tite pause, sortez les films roses C'est comme ça qu'je vois la vie sous drogues ou sous hypnose J'me ferais bien un massacre, j'le ferais avec plaisir Breh, kill'em Bips, dans son sanctuaire elle m'désire On est trop nombreux, trop d'eau a coulé sous les ponts Elles aiment trop jouer d'la flûte, trop d'eau a coulé sous la jupe J'fait pas t'faire un dessin, faisons-nous un selfie Tu verras le visage du destin ou son esprit J'veux les clés d'la Bentley, j'veux la Bentley aussi J'veux piloter comme Tavarez ça sent l'sosie Enregistre sur une bande, j'te l'dis en momie Peu importe ton mojo autant qu'on passe au cro-mi En vrai j'suis blackbinos, mais Marianne me voit pas En vrai je suis français, mais Marianne me croit pas Ça fait dix ans qu'j'te le dis homie Demain c'est nous, demain c'est aujourd'hui Attention j'vais sévir, j'vais t'balancer un menhir Bordel à volonté et j'compte bien m'servir Marianne va descendre sur mon pubis, salut Bisous ça va mal finir, plume et cur Anubis Si l'rap était du tennis, on s'rait la coupe Davis Méfie-toi les sons d'Ateyaba ne sont qu'les prémices Malgré de nombreux services Je crois qu'Marianne n'aime toujours pas mon pénis Sans les mains bitch ! Sans les mains bitch please ! Han ! Tchiii ! Ça joke pas là Bip's hein ? Ça va être dur hein Yeah, j'arrive bim bim, flow ABS, swag à DSK J'ai l'épaule qui m'gratte, le bras tendu comme Anelka Check ça si la larme est légère c'est que l'arme est lourde Si la larme est lourde négro, c'est que l'arme est légère Je te jure j'ai pas la bite cintrée, viens voir derrière la vitre teintée C'est tout noir, tout noir de sang sur le boulevard Regarde bien d'où je pars Négro j'peux t'dire d'aller niquer tes mères depuis le mariage pour tous par Un re-noi sournois, perdra tous les tournois J'suis l'négro de ses rêves papy, elle en pince pour moi J'coupe et vends et copie-colle, nique sa mère et ton idole18</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Han-han Han-han Han-han 2014 à l'infini, my nigga Yeah, holy, Richie-zer Aïe-aïe-aïe, chill Hein Holy shit, nique leur politique Je t'ai rentré que deux mesures tu penses déjà au repeat Holy shit, le nègre est prolifique La molly ramollit les petites met de l'amour dans mon système Résidu de cocaïne sur le peau d'pêche gris J'pense à mes âmes perdues que Dieu les protège Free Holy shit, les dièses sont illicites Tu comptais pas donner ton cul, fallait pas venir ici Tu pensais t'être débarrassé de moi mon négro ? Nan Réserve des pages dans ton agenda mon négro Nan On peut qu'en vouloir à l'humanitéAïe aïe aïe J'fais de plus belles images que ces bâtards en arts appliqués Tête dans la cuvette, dans la cuvette FAMAS pour tallumer, pas dallumette Femme à lunettes, femme à quéquette Bourrés au cognac mes négros chantent à tue-tête Tu vas percuter le chat sur ces bâtards du net Fais mouiller les filles dès qu'il y a du champagne qui pète J'plane sans beuh, j'ai le bras long Une pétasse qui a les jambes à Karembeu Talentueux, parlons cash, parlons peu On vient, on casque Ils parlent qu'entre eux on parle qu'en Hustler comme un marchand de beuh J'ai besoin que d'un kick, d'une caisse claire Une carabine Winchester Abracadabra négro, corps caverneux dans ton sphincter L'homme descend du singe, descend des hommes Monte des plans de bâtard pour que son frère évolue dans l'désordre Le plan est marécageux J'aime même pas les gens qui m'aiment Tu crois que je pense quoi des rageux? On a grandi dans des cages, donc l'esprit est noir et vaseux J'suis incompris comme mes métaphores Mon âme s'condense en flow lorsque toutes mes pensées s'évaporent Les plans s'élaborent C'est pas en culbutant la vie que tu risques de tromper la mort Nique leur mère, va prendre ton liquide à tribord et bâbord Nique leur mère Hustle toute la journée Paye ta chatte, je paye ma tournée Je fais des méga salles, du méga sale Une entorse au règlement dans la foulée Le temps qu'il m'a donné, j'dois l'honorer Togo, Lomé ou Sokodé Oui tu me connais, nique leur radio La suite des événements va corroborer Yeah AmenYou might also like16</t>
+          <t>Han-han Han-han Han-han 2014 à l'infini, my nigga Yeah, holy, Richie-zer Aïe-aïe-aïe, chill Hein Holy shit, nique leur politique Je t'ai rentré que deux mesures tu penses déjà au repeat Holy shit, le nègre est prolifique La molly ramollit les petites met de l'amour dans mon système Résidu de cocaïne sur le peau d'pêche gris J'pense à mes âmes perdues que Dieu les protège Free Holy shit, les dièses sont illicites Tu comptais pas donner ton cul, fallait pas venir ici Tu pensais t'être débarrassé de moi mon négro ? Nan Réserve des pages dans ton agenda mon négro Nan On peut qu'en vouloir à l'humanitéAïe aïe aïe J'fais de plus belles images que ces bâtards en arts appliqués Tête dans la cuvette, dans la cuvette FAMAS pour tallumer, pas dallumette Femme à lunettes, femme à quéquette Bourrés au cognac mes négros chantent à tue-tête Tu vas percuter le chat sur ces bâtards du net Fais mouiller les filles dès qu'il y a du champagne qui pète J'plane sans beuh, j'ai le bras long Une pétasse qui a les jambes à Karembeu Talentueux, parlons cash, parlons peu On vient, on casque Ils parlent qu'entre eux on parle qu'en Hustler comme un marchand de beuh J'ai besoin que d'un kick, d'une caisse claire Une carabine Winchester Abracadabra négro, corps caverneux dans ton sphincter L'homme descend du singe, descend des hommes Monte des plans de bâtard pour que son frère évolue dans l'désordre Le plan est marécageux J'aime même pas les gens qui m'aiment Tu crois que je pense quoi des rageux? On a grandi dans des cages, donc l'esprit est noir et vaseux J'suis incompris comme mes métaphores Mon âme s'condense en flow lorsque toutes mes pensées s'évaporent Les plans s'élaborent C'est pas en culbutant la vie que tu risques de tromper la mort Nique leur mère, va prendre ton liquide à tribord et bâbord Nique leur mère Hustle toute la journée Paye ta chatte, je paye ma tournée Je fais des méga salles, du méga sale Une entorse au règlement dans la foulée Le temps qu'il m'a donné, j'dois l'honorer Togo, Lomé ou Sokodé Oui tu me connais, nique leur radio La suite des événements va corroborer Yeah Amen16</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lundi, j'roule avec ma AK Lundi, j'roule avec ma AK Elle sait que j'ai l'grigri, j'ai la barakah Mojo Elle sait que j'ai l'grigri, j'ai la barakah Mardi, j'roule avec 3.5.7 Mardi, j'roule avec 3.5.7 Ma princesse peut t'mettre une balle en pleine tête Headshot Ma princesse peut t'mettre une balle en pleine tête Elle fait pas d'chichi, quand j'veux qu'elle shoote, elle shoote Quand j'veux faire du sale, elle enlève tout 'Re-noi', tu veux les baiser, tu vas raquer Mes bitchs vont t'ligoter sur ton canapé Elle veut rider sur la West Side West Side Faire des drive-by sur du Left Eye Left Eye Elle veut rider sur la West Side West Side Sur du Aaliyah ou du Left Eye Left Eye Quand j'ride avec, les gens savent que j'suis une menace man, comme Caine On te rafale comme Caine, on fait nos barbecues comme Caine Comme Caine Une menace man, comme Caine, on te rafale comme Caine On fait nos barbecues comme Caine, han You might also like Mercredi, j'suis avec ma PPK, oh Beretta, j't'efface comme du Velleda, oh Envoie des balles précises comme la Seleçao Elle vient pour t'faire ta fête, pas pour t'faire des cadeaux Jeudi, rendez-vous avec Uzi, c'est pas la même Elle a de longues jambes, parfois elle m'ramène sa jumelle Silencieuse et timide, elle m'fait des bisous en cachette Peut pas s'retenir quand j'appuie sur la gâchette Elle fait pas d'chichi, quand j'veux qu'elle shoote, elle shoote Quand j'veux faire du sale, elle enlève tout 'Re-noi', tu veux les baiser, tu vas raquer Mes bitchs vont t'ligoter sur ton canapé Elle veut rider sur la West Side West Side Faire des drive-by sur du Left Eye Left Eye Elle veut rider sur la West Side West Side Sur du Aaliyah ou du Left Eye Left Eye Quand j'ride avec, les gens savent que j'suis une menace man, comme Caine On te rafale comme Caine, on fait nos barbecues comme Caine Comme Caine Une menace man, comme Caine, on te rafale comme Caine On fait nos barbecues comme Caine, han Vendredi, j'suis avec Famas Vendredi, j'suis avec Famas Les week-end, j'suis avec Nina Les week-end, j'suis avec Nina Toutes mes pétasses ont des canons Chargées, perchées sur des talons Jm'appelle Gilles comme Ill de X-Men Donc mes miss sont toutes des missiles Trop ridé dans cette jungle urbaine J'en ai marre, j'veux m'vider la tête J'crois que j'vais choisir la plus belle Et m'tirer avec, paw10</t>
+          <t>Lundi, j'roule avec ma AK Lundi, j'roule avec ma AK Elle sait que j'ai l'grigri, j'ai la barakah Mojo Elle sait que j'ai l'grigri, j'ai la barakah Mardi, j'roule avec 3.5.7 Mardi, j'roule avec 3.5.7 Ma princesse peut t'mettre une balle en pleine tête Headshot Ma princesse peut t'mettre une balle en pleine tête Elle fait pas d'chichi, quand j'veux qu'elle shoote, elle shoote Quand j'veux faire du sale, elle enlève tout 'Re-noi', tu veux les baiser, tu vas raquer Mes bitchs vont t'ligoter sur ton canapé Elle veut rider sur la West Side West Side Faire des drive-by sur du Left Eye Left Eye Elle veut rider sur la West Side West Side Sur du Aaliyah ou du Left Eye Left Eye Quand j'ride avec, les gens savent que j'suis une menace man, comme Caine On te rafale comme Caine, on fait nos barbecues comme Caine Comme Caine Une menace man, comme Caine, on te rafale comme Caine On fait nos barbecues comme Caine, han Mercredi, j'suis avec ma PPK, oh Beretta, j't'efface comme du Velleda, oh Envoie des balles précises comme la Seleçao Elle vient pour t'faire ta fête, pas pour t'faire des cadeaux Jeudi, rendez-vous avec Uzi, c'est pas la même Elle a de longues jambes, parfois elle m'ramène sa jumelle Silencieuse et timide, elle m'fait des bisous en cachette Peut pas s'retenir quand j'appuie sur la gâchette Elle fait pas d'chichi, quand j'veux qu'elle shoote, elle shoote Quand j'veux faire du sale, elle enlève tout 'Re-noi', tu veux les baiser, tu vas raquer Mes bitchs vont t'ligoter sur ton canapé Elle veut rider sur la West Side West Side Faire des drive-by sur du Left Eye Left Eye Elle veut rider sur la West Side West Side Sur du Aaliyah ou du Left Eye Left Eye Quand j'ride avec, les gens savent que j'suis une menace man, comme Caine On te rafale comme Caine, on fait nos barbecues comme Caine Comme Caine Une menace man, comme Caine, on te rafale comme Caine On fait nos barbecues comme Caine, han Vendredi, j'suis avec Famas Vendredi, j'suis avec Famas Les week-end, j'suis avec Nina Les week-end, j'suis avec Nina Toutes mes pétasses ont des canons Chargées, perchées sur des talons Jm'appelle Gilles comme Ill de X-Men Donc mes miss sont toutes des missiles Trop ridé dans cette jungle urbaine J'en ai marre, j'veux m'vider la tête J'crois que j'vais choisir la plus belle Et m'tirer avec, paw10</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yeah, yeah MTP MTP, mothafuck Yeah, right Paris, j'arrive Paris, j'arrive, déterminé Dans ma salive, dans la cabine, dans tes idées Yeah Dans la salle ou dans le building, dans les cinés Sur mes chèques j'veux autant d'bulles qu'dans une bande dessinée Yeah La rétine qui guette la pendule Dis à toutes ces biatchs que le miracle brille dans l'sud Dia après dia, j'reste et prie à genoux pour mes G.I Qu'on s'retrouve à Miami à spend des euros, spend des dirhams Yo, j'ai plus l'temps d'faire ami-ami Tu veux un feat ? Envoie un biff, on s'fait ça à l'amiable Que Dieu vous préserve, j'sais c'qu'il nous réserve Que Dieu vous éloigne de tous les pièges à diable J'espère avoir ma femme, shout out à mes ex-copines Shout out à vous À l'époque, j'pouvais pas payer l'restau' Haha Alors, mesdemoiselles, j'voulais m'excuser D'vous avoir baisé après un plat de pâtes au pesto Woah You might also like Il m'dit s'tu l'as 'ait-f', tu l'as 'ait-f' Négro, tu l'as 'ait-f', yeah yeah yeah yeah Négro, j'l'ai pas 'ait-f', j'ai pas d'euros sur ma tête J'ai pas d'euros sur ma tête, yeah, yeah, yeah, yeah La vie c'est court, j'dédie ce refrain à Max B, Max B, Max B La vie c'est court, j'dédie ce refrain à Max B, Max B, Max B Chaque négro d'vrait écrire à Max Biggavelli Breh, une rafale, les haters qui ramassent Breh, breh J'veux une statue d'moi, une salope qui la masse Mira, mi amor, qui les a mis d'accord C'est Joky, Joky, Joky, le swag d'un vendeur d'gros kilos Uh, j'ai l'élégance de Paris, uh, l'avance de Tokyo Qui domine au mic' aussi officiellement ? Les meufs sont des pantins quand j'ai enlevé leurs string ficelle Non, non, on veut juste les bonnes choses de la vie Faire parler le foie gras, et mettre de côté des radis Et remplir des caddies au golf, remplir des caddies Passer des journées à réécouter des classiques, baiser des poupées avec une parfaite plastique Huh, chaque jour j'représente MTP J'écris ce texte comme un négro de Harlem Harlem Yo, j'vous aime pas comme Chief Keef J'me balade dans ma ville, yo, j'avance, mes négros s'ramènent Il m'dit s'tu l'as 'ait-f', tu l'as 'ait-f' Négro, tu l'as 'ait-f', yeah yeah yeah yeah Négro, j'l'ai pas 'ait-f', j'ai pas d'euros sur ma tête J'ai pas d'euros sur ma tête, yeah, yeah, yeah, yeah La vie c'est court, j'dédie ce refrain à Max B, Max B, Max B La vie c'est court, j'dédie ce refrain à Max B, Max B, Max B Message de Max B en prison qui dédicace Joke6</t>
+          <t>Yeah, yeah MTP MTP, mothafuck Yeah, right Paris, j'arrive Paris, j'arrive, déterminé Dans ma salive, dans la cabine, dans tes idées Yeah Dans la salle ou dans le building, dans les cinés Sur mes chèques j'veux autant d'bulles qu'dans une bande dessinée Yeah La rétine qui guette la pendule Dis à toutes ces biatchs que le miracle brille dans l'sud Dia après dia, j'reste et prie à genoux pour mes G.I Qu'on s'retrouve à Miami à spend des euros, spend des dirhams Yo, j'ai plus l'temps d'faire ami-ami Tu veux un feat ? Envoie un biff, on s'fait ça à l'amiable Que Dieu vous préserve, j'sais c'qu'il nous réserve Que Dieu vous éloigne de tous les pièges à diable J'espère avoir ma femme, shout out à mes ex-copines Shout out à vous À l'époque, j'pouvais pas payer l'restau' Haha Alors, mesdemoiselles, j'voulais m'excuser D'vous avoir baisé après un plat de pâtes au pesto Woah Il m'dit s'tu l'as 'ait-f', tu l'as 'ait-f' Négro, tu l'as 'ait-f', yeah yeah yeah yeah Négro, j'l'ai pas 'ait-f', j'ai pas d'euros sur ma tête J'ai pas d'euros sur ma tête, yeah, yeah, yeah, yeah La vie c'est court, j'dédie ce refrain à Max B, Max B, Max B La vie c'est court, j'dédie ce refrain à Max B, Max B, Max B Chaque négro d'vrait écrire à Max Biggavelli Breh, une rafale, les haters qui ramassent Breh, breh J'veux une statue d'moi, une salope qui la masse Mira, mi amor, qui les a mis d'accord C'est Joky, Joky, Joky, le swag d'un vendeur d'gros kilos Uh, j'ai l'élégance de Paris, uh, l'avance de Tokyo Qui domine au mic' aussi officiellement ? Les meufs sont des pantins quand j'ai enlevé leurs string ficelle Non, non, on veut juste les bonnes choses de la vie Faire parler le foie gras, et mettre de côté des radis Et remplir des caddies au golf, remplir des caddies Passer des journées à réécouter des classiques, baiser des poupées avec une parfaite plastique Huh, chaque jour j'représente MTP J'écris ce texte comme un négro de Harlem Harlem Yo, j'vous aime pas comme Chief Keef J'me balade dans ma ville, yo, j'avance, mes négros s'ramènent Il m'dit s'tu l'as 'ait-f', tu l'as 'ait-f' Négro, tu l'as 'ait-f', yeah yeah yeah yeah Négro, j'l'ai pas 'ait-f', j'ai pas d'euros sur ma tête J'ai pas d'euros sur ma tête, yeah, yeah, yeah, yeah La vie c'est court, j'dédie ce refrain à Max B, Max B, Max B La vie c'est court, j'dédie ce refrain à Max B, Max B, Max B Message de Max B en prison qui dédicace Joke6</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>We the stars, yo , les négros me parlent de rap français, tout ça Moi, négro, moi j'fais pas d'rap français Yo, yo Dans cette merde, j'suis Irakien Tacle à la gorge avec la paire de patins qui va bien Qui vivra verra, chez moi tu verras tout, tu diras rien Certains veulent me voir de près parce-ce qu'ils savent qu'je suis l'petit qui ira loin Hein hein hein, Lame Gilette dans les chaussettes Hein hein hein, négro, si j'te taille direct, t'as des fossettes Mon son est calé, carré comme si il avait des épaulettes J'porte que des whites tees, j'm'en bats les couilles d'aller chez Colette, hè hè hè J'ai eu mon bac S à l'aise genre un battement de cils Les MCs pètent les plombs genre il est pas bien c'lui-là Magicien, Hocus Pocus, j'suis pas 20Syl J'fais des rimes richissimes, des rimes à 4-5 syllabes Pew Miracle, j'sors mon Joker Eh, eheh J'sors mon Batman killer J'suis trop chaud, négro, l'air n'est même pas respirable Wouh Million d'dollars baby, yo, je suis même pas estimable You might also like Gros, si j't'attaque, j'détruis ta carrière Han J'ai pris ma part très tard chez ta 'tasse hier Han J'suis dans cette 'tasse comme c'qu'il y a dans les cafetières J'les ai avertis mais les négros ne veulent pas s'taire Ils veulent pas fermer leurs bouches donc on va fermer leurs bouches Le gun fait, le gun fait, le gun fait Rompompompompompom Ils veulent pas fermer leurs bouches donc on va fermer leurs bouches Le gun fait, le gun fait, le gun fait Rompompompompompom Un kilo d'brown, genre Nino Brown adios bambino Primo bang on rime, on flingue 6 grammes dans l'chino Grah Go fast, trop d'kilomètres Les bons rappeurs s'font attendre, comme les filles honnêtes Yo, si t'aimes pas, suce une grosse bite et avale J'ai trop d'flow pour les battles, j'fais qu'des batailles navales J't'attrape par les pattes, parlez pas d'Joke, des tas d'low kicks dans l'coccyx Explose le pare brise de la Batmobile Ta mère écarte pourtant j'suis pas Moïse Depuis qu'j'ai pris des ailes, j'attends qu'on m'canonise Boy, j'prends pas d'élan Chut, t'es Mimisiku négro, t'as pas les plans Suce-moi la bite, sale chien Oh, oh, oh, no homo, no zoo-oo T'as sucé avec les mains, t'as triché aux oraux Tu m'appelles en masqué, t'es cramé comme Zorro J'suis chez 'oi-m' sur la Com', je suis chez 'oi-m' sur Soho Gros, si j't'attaque, j'détruis ta carrière Han J'ai pris ma part très tard chez ta 'tasse hier Han J'suis dans cette 'tasse comme c'qu'il y a dans les cafetières J'les ai avertis mais les négros ne veulent pas s'taire Ils veulent pas fermer leurs bouches donc on va fermer leurs bouches Hein, hein Le gun fait, le gun fait, le gun fait Rompompompompompom Ils veulent pas fermer leurs bouches donc on va fermer leurs bouches Le gun fait, le gun fait, le gun fait Rompompompompompom8</t>
+          <t>We the stars, yo , les négros me parlent de rap français, tout ça Moi, négro, moi j'fais pas d'rap français Yo, yo Dans cette merde, j'suis Irakien Tacle à la gorge avec la paire de patins qui va bien Qui vivra verra, chez moi tu verras tout, tu diras rien Certains veulent me voir de près parce-ce qu'ils savent qu'je suis l'petit qui ira loin Hein hein hein, Lame Gilette dans les chaussettes Hein hein hein, négro, si j'te taille direct, t'as des fossettes Mon son est calé, carré comme si il avait des épaulettes J'porte que des whites tees, j'm'en bats les couilles d'aller chez Colette, hè hè hè J'ai eu mon bac S à l'aise genre un battement de cils Les MCs pètent les plombs genre il est pas bien c'lui-là Magicien, Hocus Pocus, j'suis pas 20Syl J'fais des rimes richissimes, des rimes à 4-5 syllabes Pew Miracle, j'sors mon Joker Eh, eheh J'sors mon Batman killer J'suis trop chaud, négro, l'air n'est même pas respirable Wouh Million d'dollars baby, yo, je suis même pas estimable Gros, si j't'attaque, j'détruis ta carrière Han J'ai pris ma part très tard chez ta 'tasse hier Han J'suis dans cette 'tasse comme c'qu'il y a dans les cafetières J'les ai avertis mais les négros ne veulent pas s'taire Ils veulent pas fermer leurs bouches donc on va fermer leurs bouches Le gun fait, le gun fait, le gun fait Rompompompompompom Ils veulent pas fermer leurs bouches donc on va fermer leurs bouches Le gun fait, le gun fait, le gun fait Rompompompompompom Un kilo d'brown, genre Nino Brown adios bambino Primo bang on rime, on flingue 6 grammes dans l'chino Grah Go fast, trop d'kilomètres Les bons rappeurs s'font attendre, comme les filles honnêtes Yo, si t'aimes pas, suce une grosse bite et avale J'ai trop d'flow pour les battles, j'fais qu'des batailles navales J't'attrape par les pattes, parlez pas d'Joke, des tas d'low kicks dans l'coccyx Explose le pare brise de la Batmobile Ta mère écarte pourtant j'suis pas Moïse Depuis qu'j'ai pris des ailes, j'attends qu'on m'canonise Boy, j'prends pas d'élan Chut, t'es Mimisiku négro, t'as pas les plans Suce-moi la bite, sale chien Oh, oh, oh, no homo, no zoo-oo T'as sucé avec les mains, t'as triché aux oraux Tu m'appelles en masqué, t'es cramé comme Zorro J'suis chez 'oi-m' sur la Com', je suis chez 'oi-m' sur Soho Gros, si j't'attaque, j'détruis ta carrière Han J'ai pris ma part très tard chez ta 'tasse hier Han J'suis dans cette 'tasse comme c'qu'il y a dans les cafetières J'les ai avertis mais les négros ne veulent pas s'taire Ils veulent pas fermer leurs bouches donc on va fermer leurs bouches Hein, hein Le gun fait, le gun fait, le gun fait Rompompompompompom Ils veulent pas fermer leurs bouches donc on va fermer leurs bouches Le gun fait, le gun fait, le gun fait Rompompompompompom8</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hey Richie'zer La pièce est pleine de pussy niggaz, dites-moi si y'a souci niggaz Badabim badaboom, Uzi si ça sent le roussi niggaz Au poignet des montres onéreuses, tout Paname est en veilleuse La lune est en haut, la petite veut rider, elle kiffe votre gars j'le vois dans ses yeuz Je rappe comme personne j'ai des mots à regarder, renoi, écrits comme sur papyrus La team rock ça comme les Beatles, mets de la yayo dans tes sinus Pour mes brigands intelligents, ride au school en CL600 Renoi le mojo est si puissant, les haters trouvent ça épuisant On est à la playa comme La Clinique yahiyay De 2014 à l'infini yahiyay On te vend de la Marie-Dominique, ou Marie-Jeanne Tu sais que le négro n'a pas de limite yahiyay Un rien nous sépare, un 9, un 9, un 9, un 9 millimètres Un 9, un 9, un 9, un 9 millimètres Un rien nous sépare, un 9, un 9, un 9, un 9 millimètres Un 9, un 9, un 9, un 9 millimètres You might also like Si cette pétasse parle mal, j'lui mets une tarte j'm'en bats les illes-cou On l'ouvre que pour parler de sous, elle l'ouvre j'l'attrape par les dessous Le rap français j'les baise eux tous, ton coccyx ressent les secousses J'te touche même pas avec un bâton si sur ta schnek t'as des repousses Sur la pelouse kart de golf, carte noire et carte gold Parfum d'niche pour que ces bitchs raffinées viennent me voir et m'parlent de love Il m'faut deux lesbiennes, comme les t.A.T.u, l'argent m'fait peur mais j'suis prêt à tout Pour en gagner comme cet enfant qui ferme les yeux parce quil a peur du noir On est à la playa comme La Clinique yahiyay De 2014 à l'infini yahiyay On te vend de la Marie-Dominique, ou Marie-Jeanne Tu sais que le négro n'a pas de limite yahiyay Un rien nous sépare, un 9, un 9, un 9, un 9 millimètres Un 9, un 9, un 9, un 9 millimètres Un rien nous sépare, un 9, un 9, un 9, un 9 millimètres Un 9, un 9, un 9, un 9 millimètres On est à la playa comme La Clinique yahiyay De 2014 à l'infini yahiyay On te vend de la Marie-Dominique, ou Marie-Jeanne Tu sais que le négro n'a pas de limite yahiyay Un rien nous sépare, un 9, un 9, un 9, un 9 millimètres Un 9, un 9, un 9, un 9 millimètres Un rien nous sépare, un 9, un 9, un 9, un 9 millimètres Un 9, un 9, un 9, un 9 millimètres Dédicace à mon gars Boudjo, mon négro Khabi Mon cousin Regis de BX, Regis, Karl, Bianca Titan, LM, GEMG motherfucker Dédicace à Konex, mamen Nassim, j'te vois négro Dédicace à mon négro Maiky, à Lekni We made it wow, nigga Bip'zer, Ben, MTP Domperer, Pat le pimp Ateyaba my nigga13</t>
+          <t>Hey Richie'zer La pièce est pleine de pussy niggaz, dites-moi si y'a souci niggaz Badabim badaboom, Uzi si ça sent le roussi niggaz Au poignet des montres onéreuses, tout Paname est en veilleuse La lune est en haut, la petite veut rider, elle kiffe votre gars j'le vois dans ses yeuz Je rappe comme personne j'ai des mots à regarder, renoi, écrits comme sur papyrus La team rock ça comme les Beatles, mets de la yayo dans tes sinus Pour mes brigands intelligents, ride au school en CL600 Renoi le mojo est si puissant, les haters trouvent ça épuisant On est à la playa comme La Clinique yahiyay De 2014 à l'infini yahiyay On te vend de la Marie-Dominique, ou Marie-Jeanne Tu sais que le négro n'a pas de limite yahiyay Un rien nous sépare, un 9, un 9, un 9, un 9 millimètres Un 9, un 9, un 9, un 9 millimètres Un rien nous sépare, un 9, un 9, un 9, un 9 millimètres Un 9, un 9, un 9, un 9 millimètres Si cette pétasse parle mal, j'lui mets une tarte j'm'en bats les illes-cou On l'ouvre que pour parler de sous, elle l'ouvre j'l'attrape par les dessous Le rap français j'les baise eux tous, ton coccyx ressent les secousses J'te touche même pas avec un bâton si sur ta schnek t'as des repousses Sur la pelouse kart de golf, carte noire et carte gold Parfum d'niche pour que ces bitchs raffinées viennent me voir et m'parlent de love Il m'faut deux lesbiennes, comme les t.A.T.u, l'argent m'fait peur mais j'suis prêt à tout Pour en gagner comme cet enfant qui ferme les yeux parce quil a peur du noir On est à la playa comme La Clinique yahiyay De 2014 à l'infini yahiyay On te vend de la Marie-Dominique, ou Marie-Jeanne Tu sais que le négro n'a pas de limite yahiyay Un rien nous sépare, un 9, un 9, un 9, un 9 millimètres Un 9, un 9, un 9, un 9 millimètres Un rien nous sépare, un 9, un 9, un 9, un 9 millimètres Un 9, un 9, un 9, un 9 millimètres On est à la playa comme La Clinique yahiyay De 2014 à l'infini yahiyay On te vend de la Marie-Dominique, ou Marie-Jeanne Tu sais que le négro n'a pas de limite yahiyay Un rien nous sépare, un 9, un 9, un 9, un 9 millimètres Un 9, un 9, un 9, un 9 millimètres Un rien nous sépare, un 9, un 9, un 9, un 9 millimètres Un 9, un 9, un 9, un 9 millimètres Dédicace à mon gars Boudjo, mon négro Khabi Mon cousin Regis de BX, Regis, Karl, Bianca Titan, LM, GEMG motherfucker Dédicace à Konex, mamen Nassim, j'te vois négro Dédicace à mon négro Maiky, à Lekni We made it wow, nigga Bip'zer, Ben, MTP Domperer, Pat le pimp Ateyaba my nigga13</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Heein Haan Enfoiré, j'roule avec Dieu, j'sais que ma chance est déjà garée Ateyaba s'est battu pour la France, n'a pas vu Paris Fonce dans un mur, disparaîs, c'est la loi Carrez Carrez J'rappe pas toute la nuit pour claquer mon biff en soirée Soirée Les pétasses sont possédées, les meufs biens sont désemparées, merde Mais le prince s'est déjà barré, merde Qu'ils niquent leurs mères avec leurs avis Heein, qu'ils niquent leurs mères avec leurs conseils Heein J'suis l'meilleur, j'le jure sur ma vie J'le jure, qu'un mec déter' me prouve le contraire J'ai rien contre le trône mais ma vie, j'vais m'en emparer 'parer J'ai une image de marque, j'suis ici pour les entailler Yeah Demande à Oumar, on vient pour tous les empailler J'ai du feu dans mon cahier, gros, Yeah j'ai du feu dans mon cahier Yeaah On veut la pépite minimum L'album est sorti, le feat c'est quinze mille minimum Han J'suis dans la city, berline de luxe comme Kinimod Han, avec l'intégrale digitale d'Kylie Minogue Han-haan Yo, le rap j'le baise et j'l'esquive minimum Han J'veux pas un château, il m'faut une presqu'île minimum Han Après que j'sois passé, il t'faut un Strepsil minimum Han Ces rageux par essence j'leur envoie c'feu, qu'ils s'immolent, my men, my men You might also like Hey My men, my men Vu comme les choses se passent, j'vous considère plus comme des auditeurs, j'vous considère comme des témoins, haan Regarde, négro Appelle ton 'bout-mara' J'te chie sur la tête Qu'il s'amuse avec mon caca J'vends pas mon âme à la bête J'parle à la nuit, crée la magie sans la magie, hein J'suis remonté, comme si venu à la nage J'parle à la nuit, pas aux coris, j'ai mon obélisque à Paris Le soleil se fige, Pharaon fait apparition J'dois honorer mes ancêtres, parce qu'ils en ont chié Faut soustraire à la dette, tout ce qu'ils nous ont pillé Si tu croises Dieu, dis-lui qu'elle m'aide Pas fils d'esclave, fils de Kemet12</t>
+          <t>Heein Haan Enfoiré, j'roule avec Dieu, j'sais que ma chance est déjà garée Ateyaba s'est battu pour la France, n'a pas vu Paris Fonce dans un mur, disparaîs, c'est la loi Carrez Carrez J'rappe pas toute la nuit pour claquer mon biff en soirée Soirée Les pétasses sont possédées, les meufs biens sont désemparées, merde Mais le prince s'est déjà barré, merde Qu'ils niquent leurs mères avec leurs avis Heein, qu'ils niquent leurs mères avec leurs conseils Heein J'suis l'meilleur, j'le jure sur ma vie J'le jure, qu'un mec déter' me prouve le contraire J'ai rien contre le trône mais ma vie, j'vais m'en emparer 'parer J'ai une image de marque, j'suis ici pour les entailler Yeah Demande à Oumar, on vient pour tous les empailler J'ai du feu dans mon cahier, gros, Yeah j'ai du feu dans mon cahier Yeaah On veut la pépite minimum L'album est sorti, le feat c'est quinze mille minimum Han J'suis dans la city, berline de luxe comme Kinimod Han, avec l'intégrale digitale d'Kylie Minogue Han-haan Yo, le rap j'le baise et j'l'esquive minimum Han J'veux pas un château, il m'faut une presqu'île minimum Han Après que j'sois passé, il t'faut un Strepsil minimum Han Ces rageux par essence j'leur envoie c'feu, qu'ils s'immolent, my men, my men Hey My men, my men Vu comme les choses se passent, j'vous considère plus comme des auditeurs, j'vous considère comme des témoins, haan Regarde, négro Appelle ton 'bout-mara' J'te chie sur la tête Qu'il s'amuse avec mon caca J'vends pas mon âme à la bête J'parle à la nuit, crée la magie sans la magie, hein J'suis remonté, comme si venu à la nage J'parle à la nuit, pas aux coris, j'ai mon obélisque à Paris Le soleil se fige, Pharaon fait apparition J'dois honorer mes ancêtres, parce qu'ils en ont chié Faut soustraire à la dette, tout ce qu'ils nous ont pillé Si tu croises Dieu, dis-lui qu'elle m'aide Pas fils d'esclave, fils de Kemet12</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Descendant des enfants d'la vallée du Nil Les hiéroglyphes ont su naître par ses pupilles Privé d'histoire, mes racines n'ont pas d'racines J'écris ça, j'pense au tchouk dans la calebasse Les côtes d'Afrique ont vu partir leur enfants C'est l'océan qui a bercé leurs enfants C'est l'océan qui a englouti leurs enfants Les vagues fouettaient les flancs, mais qui fouettait leur enfants ? Dis-moi, l'argent d'la France est extrait de l'or jaune des noirs De l'or noir des noirs, mon Dieu parlez-moi Mon Dieu parlez-leur, dites-leur ce que ce pays est allé semer dans les curs Violer nos mères devant nos pères soi-disant bienfaiteurs Si ton sang coule tu coopères Marqués dans l'âme et dans la chair, plus rien à faire des pleurs Si l'paradis est dans l'ciel, l'enfer est sur terre Les deux ressemblent à s'y méprendre à un champ d'coton Ateyaba était en première ligne, Ateyaba était en première ligne Il s'est battu pour la France, a enlevé des vies pour la France Ateyaba était en première ligne, Ateyaba était en première ligne Il s'est battu pour la France, a enlevé des vies pour la France You might also like Descendant des enfants d'la vallée du Nil Quelque part sur la Terre, au loin sur une île On veut nous faire croire qu'on est pas légitimes ici Ici faut s'intégrer, ici c'est difficile Mais le sang d'mes ancêtres est intégré dans votre sol Les ressources de la Terre mère qui les consomment ? Les mères d'enfants tuées par la France, qui les consolent ? Les soi-disant dirigeants d'Afrique, qui les contrôlent ? En cours j'ai appris une histoire fictive Une histoire où les dettes doivent être payées par les victimes Tous ces mensonges créent des racistes ignorants Qui savent pas que leur pays a été bâti sur notre sang Aujourd'hui les Noirs sont détestés par des Noirs Des noirs tuent des Noirs pour prendre la place d'autres Noirs Certains pays d'Afrique sont juste des départements Le Général de Gaulle connaît aussi ces débarquements Mes re-nois, renseignez-vous, aidez-vous Nous sommes les seuls qui avons pas l'droit d'se serrer les coudes Si l'paradis est sur terre, l'enfer est sous terre On les trouve tous les deux près des diamants Ateyaba était en première ligne, Ateyaba était en première ligne Il s'est battu pour la France, a enlevé des vies pour la France Ateyaba était en première ligne, Ateyaba était en première ligne Il s'est battu pour la France, a enlevé des vies pour la France Descendant des enfants d'la vallée du Nil Pas descendant d'esclaves mais des pyramides J'ai des pendus dans mon arbre généalogique Des cousins d'Amérique, des Jay-Z et des Malcolm X Mais j'vous l'dis notre futur sera radieux Nous avons grandi ici grâce à Dieu Gloire à lui car, ici c'est chez nous Nos parents l'on acheté dans l'sang en encaissant les coups Ateyaba était en première ligne, Ateyaba était en première ligne Il s'est battu pour la France, a enlevé des vies pour la France Ateyaba était en première ligne, Ateyaba était en première ligne Il s'est battu pour la France, a enlevé des vies pour la France8</t>
+          <t>Descendant des enfants d'la vallée du Nil Les hiéroglyphes ont su naître par ses pupilles Privé d'histoire, mes racines n'ont pas d'racines J'écris ça, j'pense au tchouk dans la calebasse Les côtes d'Afrique ont vu partir leur enfants C'est l'océan qui a bercé leurs enfants C'est l'océan qui a englouti leurs enfants Les vagues fouettaient les flancs, mais qui fouettait leur enfants ? Dis-moi, l'argent d'la France est extrait de l'or jaune des noirs De l'or noir des noirs, mon Dieu parlez-moi Mon Dieu parlez-leur, dites-leur ce que ce pays est allé semer dans les curs Violer nos mères devant nos pères soi-disant bienfaiteurs Si ton sang coule tu coopères Marqués dans l'âme et dans la chair, plus rien à faire des pleurs Si l'paradis est dans l'ciel, l'enfer est sur terre Les deux ressemblent à s'y méprendre à un champ d'coton Ateyaba était en première ligne, Ateyaba était en première ligne Il s'est battu pour la France, a enlevé des vies pour la France Ateyaba était en première ligne, Ateyaba était en première ligne Il s'est battu pour la France, a enlevé des vies pour la France Descendant des enfants d'la vallée du Nil Quelque part sur la Terre, au loin sur une île On veut nous faire croire qu'on est pas légitimes ici Ici faut s'intégrer, ici c'est difficile Mais le sang d'mes ancêtres est intégré dans votre sol Les ressources de la Terre mère qui les consomment ? Les mères d'enfants tuées par la France, qui les consolent ? Les soi-disant dirigeants d'Afrique, qui les contrôlent ? En cours j'ai appris une histoire fictive Une histoire où les dettes doivent être payées par les victimes Tous ces mensonges créent des racistes ignorants Qui savent pas que leur pays a été bâti sur notre sang Aujourd'hui les Noirs sont détestés par des Noirs Des noirs tuent des Noirs pour prendre la place d'autres Noirs Certains pays d'Afrique sont juste des départements Le Général de Gaulle connaît aussi ces débarquements Mes re-nois, renseignez-vous, aidez-vous Nous sommes les seuls qui avons pas l'droit d'se serrer les coudes Si l'paradis est sur terre, l'enfer est sous terre On les trouve tous les deux près des diamants Ateyaba était en première ligne, Ateyaba était en première ligne Il s'est battu pour la France, a enlevé des vies pour la France Ateyaba était en première ligne, Ateyaba était en première ligne Il s'est battu pour la France, a enlevé des vies pour la France Descendant des enfants d'la vallée du Nil Pas descendant d'esclaves mais des pyramides J'ai des pendus dans mon arbre généalogique Des cousins d'Amérique, des Jay-Z et des Malcolm X Mais j'vous l'dis notre futur sera radieux Nous avons grandi ici grâce à Dieu Gloire à lui car, ici c'est chez nous Nos parents l'on acheté dans l'sang en encaissant les coups Ateyaba était en première ligne, Ateyaba était en première ligne Il s'est battu pour la France, a enlevé des vies pour la France Ateyaba était en première ligne, Ateyaba était en première ligne Il s'est battu pour la France, a enlevé des vies pour la France8</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mes négros sont dans la place comme Rosa Parks J'ai l'génie, la taille, la nation d'Bonaparte Nique sa mère le rap, vive les chattes, les black cards Ils veulent nous voir souffrir comme eux tous ces bâtards Ma mine et moi, on taffe d'arrache-pied Comme Vania on veut l'million en fourrant toutes ces 'tasses-pé' Là j'ai océan d'billets, c'est c'que j'appelle brasser Marie-toi à la rue t'auras pas de bague, t'auras l'bracelet, nigga Konichiwa, Namasté, Dieu merci, j'ai pas d'paparazzi J'peux prendre le thé ou m'faire sucer sur ma rasse-té Rien qu'ta gueule, elle fout l'seum Ma chérie, tu sais qu'ma 'ueue-q' va pas s'sucer toute seule Tu pourras t'lever à 7 heures 7 heures, ou à 5 heures L'avenir appartient qu'à un seul négro dans l'secteur Baise la fille, la mère, la sur d'cet enculé d'inspecteur Tu fais l'gars chaud jusqu'à c'que tu prennes un coup d'extincteur, nigga J'te baise devant la glace, nique sa race, Candyman J'te baise devant la glace, nique sa race, Candyman Joke, no joke J'te baise devant la glace, nique sa race, Candyman Joke, no Joke Flow killer, no nigga fuckin' with the boy Album of the year, dope dealers jump for joy Inspired as they're paddle shifting in their foreign toys Listenin' to the realest nigga makin' all the noise My name is my name, 'cain is to blame Slave to the kilo, the chain still remains Yuugh, the G.O.O.D. Music kingpin Window of opportunity is really shrinkin' Trigger finger steady, let these hollows sink in You need an army to test them, the fuck was you thinkin' ? Wooh, I done seen it all done it all Shop with every jeweler, sold a ton of raw Had the Franck Müller with the bezel thawed My double pump days had to saw the metal off Yuugh, it's the life of crime They say it in they raps but this life is mine Push You might also like Bouge pas, j'ai ta tête dans la lunette Rare comme un diamant français qui vient pas du bled Pas du bled Mes négros peuvent faire toute sorte de sale pour des euros Mes négros peuvent faire toute sorte de sale pour des euros Bâtard, j'charbonne pour ma black card LÉtat français nous doit une black card C'est l'argent le cercueil ou le placard Mes Blancs, mes Noirs, mes Chinois veulent leur black card Le rap j'lui creuse sa tombe à mesure qu'j'creuse ma tête Les anciens veulent renaître autant que j'veux t'la mettre Pour copier, faut un patron Han, 're-noi', c'est moi le patron Han T'as pas b'soin d'être Michel-Ange pour qu'ton cerveau r'peigne le plafond J'me suis levé hier tellement j'me suis levé très tôt Et vu c'que j'vous prépare, j'crois que j'vais devoir m'coucher très tard J'fais glisser ta paire de bas, j'donne la main ils prennent le bras Donc j'les doigte et tu connais la suite, mon négro12</t>
+          <t>Mes négros sont dans la place comme Rosa Parks J'ai l'génie, la taille, la nation d'Bonaparte Nique sa mère le rap, vive les chattes, les black cards Ils veulent nous voir souffrir comme eux tous ces bâtards Ma mine et moi, on taffe d'arrache-pied Comme Vania on veut l'million en fourrant toutes ces 'tasses-pé' Là j'ai océan d'billets, c'est c'que j'appelle brasser Marie-toi à la rue t'auras pas de bague, t'auras l'bracelet, nigga Konichiwa, Namasté, Dieu merci, j'ai pas d'paparazzi J'peux prendre le thé ou m'faire sucer sur ma rasse-té Rien qu'ta gueule, elle fout l'seum Ma chérie, tu sais qu'ma 'ueue-q' va pas s'sucer toute seule Tu pourras t'lever à 7 heures 7 heures, ou à 5 heures L'avenir appartient qu'à un seul négro dans l'secteur Baise la fille, la mère, la sur d'cet enculé d'inspecteur Tu fais l'gars chaud jusqu'à c'que tu prennes un coup d'extincteur, nigga J'te baise devant la glace, nique sa race, Candyman J'te baise devant la glace, nique sa race, Candyman Joke, no joke J'te baise devant la glace, nique sa race, Candyman Joke, no Joke Flow killer, no nigga fuckin' with the boy Album of the year, dope dealers jump for joy Inspired as they're paddle shifting in their foreign toys Listenin' to the realest nigga makin' all the noise My name is my name, 'cain is to blame Slave to the kilo, the chain still remains Yuugh, the G.O.O.D. Music kingpin Window of opportunity is really shrinkin' Trigger finger steady, let these hollows sink in You need an army to test them, the fuck was you thinkin' ? Wooh, I done seen it all done it all Shop with every jeweler, sold a ton of raw Had the Franck Müller with the bezel thawed My double pump days had to saw the metal off Yuugh, it's the life of crime They say it in they raps but this life is mine Push Bouge pas, j'ai ta tête dans la lunette Rare comme un diamant français qui vient pas du bled Pas du bled Mes négros peuvent faire toute sorte de sale pour des euros Mes négros peuvent faire toute sorte de sale pour des euros Bâtard, j'charbonne pour ma black card LÉtat français nous doit une black card C'est l'argent le cercueil ou le placard Mes Blancs, mes Noirs, mes Chinois veulent leur black card Le rap j'lui creuse sa tombe à mesure qu'j'creuse ma tête Les anciens veulent renaître autant que j'veux t'la mettre Pour copier, faut un patron Han, 're-noi', c'est moi le patron Han T'as pas b'soin d'être Michel-Ange pour qu'ton cerveau r'peigne le plafond J'me suis levé hier tellement j'me suis levé très tôt Et vu c'que j'vous prépare, j'crois que j'vais devoir m'coucher très tard J'fais glisser ta paire de bas, j'donne la main ils prennent le bras Donc j'les doigte et tu connais la suite, mon négro12</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Qu'est-ce qu'on est, qu'est-ce qu'on est plein Qu'est-ce qu'on est, qu'est-ce qu'on est plein On rentre dans un club on l'éteint On rentre dans un club on l'éteint Qu'est-ce qu'on est, qu'est-ce qu'on est plein Qu'est-ce qu'on est, qu'est-ce qu'on est... Yeah, nique sa mère tes commentaires, on sera jamais perdants J'suis cinglé comme mon père, hustler comme mon père-grand Tourne ta langue trois fois avant d'parler d'un truc me concernant Pétasse, j'viens tout niquer, faire des billets verts, pas attraper l'das J'étais trop petit, j'vois plus tout ça avec la même optique J'pouvais rien faire quand elle se faisait taper dessus mais négro j'te jure j'étais trop petit J'rêve d'une balle dans ses pensées, d'une lame dans son repas d'la veille Le temps prend la vie et la balaye, comme un p'tit qui joue a la marelle, han J'trouve tout mon bonheur dans une chatte, j'peux mettre tout mon cur dans une phrase Mais si t'as déjà un mec, pétasse m'allumes ap', ou j'te casse le davos tonight, ou j'te casse le davos tonight M'allumes ap', j'peux perdre la raison sur une latte Le plus chaud dans la Ciudad You might also like Négro l'entreprise est divine, cigarios dans le living Sol en marbre et tâches de cyprine, my nigga Négro l'entreprise est divine, équipe de négros dans le meeting La prise de pouvoir est légitime, my nigga My nigga My nigga My nigga Ateyaba nigga ! Yeah, han J'peint avec des syllabes des pinceaux qui semmêlent Au bec un cigario, d'la fumée qui s'envole Peinture noire sur la Jaguar, velours dans le cockpit Mes idées forniquent et germent comme des coquelicots Négro on est dans une autre ligue, avec une élégance britannique Célèbre les boutiques de l'avenue comme l'épiphanie J'serais jamais à court de mots pour te faire la cour, mon amour Les menteurs mentent jamais pour de faux Mes blancs sont sur un yacht en Sardaigne S'font sucer dans des draps rouge carmin Tu paries sur mon échec à t'faire couper la main J'me demande comment tu comptes jouer a la play Si quelqu'un te questionne J'me déplace plus pour les mêmes sommes Si c'est pas moi, j'suce personne J'veux le manoir d'Marilyn Manson Chérie t'es belle comme une belle somme, belle somme Si les keufs te questionnent, si les keufs te questionnent Mon nom c'est personne J'vois toute sorte de reflets, dans ce cadre doré La mort est héréditaire, l'âme est éternelle J'ai grandi avec ma mère, comme le fils à Pernell J'laisse tomber mes paupières, j'vois une pluie d'dollars Les lumières des strip-club découpent ces filles volages Tout est au ralenti mais tout va si vite J'fais tourner la cerise dans l'verre à Martini, ralenti et Martini Tout va si vite, le mojo du Français les rend timides P'tite j'te mange ta fleur comme un happy meal Les néons frappent les diamants, ils éclatent, s'irisent Ralenti et Martini, tout va si vite, le mojo du Français les rend timides P'tite j'te mange ta fleur comme un happy meal Motherfucker Chérie t'es belle comme une belle somme, belle somme Si les keufs te questionnent, si les keufs te questionnent Mon nom c'est personne J'vois toute sorte de reflets, dans ce cadre doré Jay Cee Ateyaba nigga, yeah Pour mes grands garçons au bar, qui ont l'temps d'asseoir pour s'fumer un barreau d'chaise négro M.T.P12</t>
+          <t>Qu'est-ce qu'on est, qu'est-ce qu'on est plein Qu'est-ce qu'on est, qu'est-ce qu'on est plein On rentre dans un club on l'éteint On rentre dans un club on l'éteint Qu'est-ce qu'on est, qu'est-ce qu'on est plein Qu'est-ce qu'on est, qu'est-ce qu'on est... Yeah, nique sa mère tes commentaires, on sera jamais perdants J'suis cinglé comme mon père, hustler comme mon père-grand Tourne ta langue trois fois avant d'parler d'un truc me concernant Pétasse, j'viens tout niquer, faire des billets verts, pas attraper l'das J'étais trop petit, j'vois plus tout ça avec la même optique J'pouvais rien faire quand elle se faisait taper dessus mais négro j'te jure j'étais trop petit J'rêve d'une balle dans ses pensées, d'une lame dans son repas d'la veille Le temps prend la vie et la balaye, comme un p'tit qui joue a la marelle, han J'trouve tout mon bonheur dans une chatte, j'peux mettre tout mon cur dans une phrase Mais si t'as déjà un mec, pétasse m'allumes ap', ou j'te casse le davos tonight, ou j'te casse le davos tonight M'allumes ap', j'peux perdre la raison sur une latte Le plus chaud dans la Ciudad Négro l'entreprise est divine, cigarios dans le living Sol en marbre et tâches de cyprine, my nigga Négro l'entreprise est divine, équipe de négros dans le meeting La prise de pouvoir est légitime, my nigga My nigga My nigga My nigga Ateyaba nigga ! Yeah, han J'peint avec des syllabes des pinceaux qui semmêlent Au bec un cigario, d'la fumée qui s'envole Peinture noire sur la Jaguar, velours dans le cockpit Mes idées forniquent et germent comme des coquelicots Négro on est dans une autre ligue, avec une élégance britannique Célèbre les boutiques de l'avenue comme l'épiphanie J'serais jamais à court de mots pour te faire la cour, mon amour Les menteurs mentent jamais pour de faux Mes blancs sont sur un yacht en Sardaigne S'font sucer dans des draps rouge carmin Tu paries sur mon échec à t'faire couper la main J'me demande comment tu comptes jouer a la play Si quelqu'un te questionne J'me déplace plus pour les mêmes sommes Si c'est pas moi, j'suce personne J'veux le manoir d'Marilyn Manson Chérie t'es belle comme une belle somme, belle somme Si les keufs te questionnent, si les keufs te questionnent Mon nom c'est personne J'vois toute sorte de reflets, dans ce cadre doré La mort est héréditaire, l'âme est éternelle J'ai grandi avec ma mère, comme le fils à Pernell J'laisse tomber mes paupières, j'vois une pluie d'dollars Les lumières des strip-club découpent ces filles volages Tout est au ralenti mais tout va si vite J'fais tourner la cerise dans l'verre à Martini, ralenti et Martini Tout va si vite, le mojo du Français les rend timides P'tite j'te mange ta fleur comme un happy meal Les néons frappent les diamants, ils éclatent, s'irisent Ralenti et Martini, tout va si vite, le mojo du Français les rend timides P'tite j'te mange ta fleur comme un happy meal Motherfucker Chérie t'es belle comme une belle somme, belle somme Si les keufs te questionnent, si les keufs te questionnent Mon nom c'est personne J'vois toute sorte de reflets, dans ce cadre doré Jay Cee Ateyaba nigga, yeah Pour mes grands garçons au bar, qui ont l'temps d'asseoir pour s'fumer un barreau d'chaise négro M.T.P12</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MTP Han, han, Tokyo Yeah, Jokeezy Right, yeah, han, han Neuf millimètres, neuf millimètres, on commence esclave, on finit maître On est dans les chattes des midinettes, Cartier dans la peau, sur les lunettes Les négros sont back dans les bacs, j'suis back dans les Bach de Vivaldi Viens pas jouer ton Grimaldi si tu portes des survêts Rivaldi On vise la Maybach, pas avec la même plaque,, c'est p't-être le même nègre, c'est pas le même black 501 intact, brûlure à l'impact, trouve-moi chez ta meuf, la main dans un sac Mamen, le rageux moyen comprend rien, qu'il aille s'faire baiser par son parrain J'fais un follow back à sa meuf, j'insère mon machin dans son vagin Coupe au plento, Borsalino, cyclone quand on rentre en cabine On s'propage sur les billets violets comme résidus d'cocaïne On sort les p'tits, les gros canifs, on découpe les MC's dans l'caniveau Le négro a rien à envier à Marivaux joue à la console, remet le rap à niveau Right On est au-d'ssus de ces nègres, on est au-d'ssus comme leur snapback J'viens mettre un coup dans ta schneck, j'disparaîs comme Gérard Majax 501 et lunettes Cartier, 501 et lunettes Cartier On est au-d'ssus de ces nègres, on est au-d'ssus comme leur snapback Yeah, négro You might also like Pu' les cassettes, pu' les stylos, pu' les stylos, dans les cassettes Prix d'une Clio, pour mes chaussures, j'les appelle, taxi, baskets Hein On est dans cette, d'puis la naissance, dans cette galère comme les ancêtres Pour les malsaines, pour les vicieuses qui t'mangent si t'es pas dans ton assiette Elle me suce pour mon quatre heures, yo, j'l'appelle ma tasse de thé J'suis un négro raffiné, m'branche pas avec ces macaques, s'te-plaît J'suis plus déter' que le Führer depuis qu'j'ai une Rolex, j'regarde plus l'heure Négro, j'fais tout ça pour l'jacuzzi, j'te laisse baigner dans ta sueur Débarque sur ces négros Ouais, substance substance cellophane Augmente taux de phéromones, de toutes ces bitches, 're-noi' J'débarque sur cette bande de bras cassés, 501, putain de cuir matelassé Rétro' comme les stars, t'as que Bieber, bouteille sur l'videur, mon costard est pas classé On est au-d'ssus de ces nègres, on est au-d'ssus comme leur snapback J'viens mettre un coup dans ta schneck, j'disparaîs comme Gérard Majax 501 et lunettes Cartier, 501 et lunettes Cartier On est au-d'ssus de ces nègres, on est au-d'ssus comme leur snapback Ok, ouais, ouais, yeah, négro La lunette monture en bois Cartier, Levis cartonné France d'en bas, plein d'vices, trop quartier on vient charbonner Le net, on l'tue, prose combat, l'busi' fait cogner Objets pointus dans trois-quarts en cuir pour les abonnés L'esprit 90's, le placard, la crise j'entends les bipeurs sonner On tise, on traîne à la gare, y a tout à prendre, rien à donner Mec, on pactise avec le diable, on connaît Connaît La chaleur du brasier, les paradis factices, les balles, les 'tasses et j'rap C'est du target practice, la monnaie, crache la rime, part à Mach 10, on les Marque et nos sales disques viennent détrôner la pop music et la révolte, on va prôner Comme un Uzi j'parle, tu reconnais l'intonation, j'parle, j'fusille juste après la détonation J'sors le fusil, j'tire sans sommation, j'boxe à l'usine, un tube et y'a l'oeil des maçons qui guette On est au-d'ssus de ces nègres, on est au-d'ssus comme leur snapback J'viens mettre un coup dans ta schneck, j'disparaîs comme Gérard Majax 501 et lunettes Cartier, 501 et lunettes Cartier On est au-d'ssus de ces nègres, on est au-d'ssus comme leur snapback Négro, négro, négro4</t>
+          <t>MTP Han, han, Tokyo Yeah, Jokeezy Right, yeah, han, han Neuf millimètres, neuf millimètres, on commence esclave, on finit maître On est dans les chattes des midinettes, Cartier dans la peau, sur les lunettes Les négros sont back dans les bacs, j'suis back dans les Bach de Vivaldi Viens pas jouer ton Grimaldi si tu portes des survêts Rivaldi On vise la Maybach, pas avec la même plaque,, c'est p't-être le même nègre, c'est pas le même black 501 intact, brûlure à l'impact, trouve-moi chez ta meuf, la main dans un sac Mamen, le rageux moyen comprend rien, qu'il aille s'faire baiser par son parrain J'fais un follow back à sa meuf, j'insère mon machin dans son vagin Coupe au plento, Borsalino, cyclone quand on rentre en cabine On s'propage sur les billets violets comme résidus d'cocaïne On sort les p'tits, les gros canifs, on découpe les MC's dans l'caniveau Le négro a rien à envier à Marivaux joue à la console, remet le rap à niveau Right On est au-d'ssus de ces nègres, on est au-d'ssus comme leur snapback J'viens mettre un coup dans ta schneck, j'disparaîs comme Gérard Majax 501 et lunettes Cartier, 501 et lunettes Cartier On est au-d'ssus de ces nègres, on est au-d'ssus comme leur snapback Yeah, négro Pu' les cassettes, pu' les stylos, pu' les stylos, dans les cassettes Prix d'une Clio, pour mes chaussures, j'les appelle, taxi, baskets Hein On est dans cette, d'puis la naissance, dans cette galère comme les ancêtres Pour les malsaines, pour les vicieuses qui t'mangent si t'es pas dans ton assiette Elle me suce pour mon quatre heures, yo, j'l'appelle ma tasse de thé J'suis un négro raffiné, m'branche pas avec ces macaques, s'te-plaît J'suis plus déter' que le Führer depuis qu'j'ai une Rolex, j'regarde plus l'heure Négro, j'fais tout ça pour l'jacuzzi, j'te laisse baigner dans ta sueur Débarque sur ces négros Ouais, substance substance cellophane Augmente taux de phéromones, de toutes ces bitches, 're-noi' J'débarque sur cette bande de bras cassés, 501, putain de cuir matelassé Rétro' comme les stars, t'as que Bieber, bouteille sur l'videur, mon costard est pas classé On est au-d'ssus de ces nègres, on est au-d'ssus comme leur snapback J'viens mettre un coup dans ta schneck, j'disparaîs comme Gérard Majax 501 et lunettes Cartier, 501 et lunettes Cartier On est au-d'ssus de ces nègres, on est au-d'ssus comme leur snapback Ok, ouais, ouais, yeah, négro La lunette monture en bois Cartier, Levis cartonné France d'en bas, plein d'vices, trop quartier on vient charbonner Le net, on l'tue, prose combat, l'busi' fait cogner Objets pointus dans trois-quarts en cuir pour les abonnés L'esprit 90's, le placard, la crise j'entends les bipeurs sonner On tise, on traîne à la gare, y a tout à prendre, rien à donner Mec, on pactise avec le diable, on connaît Connaît La chaleur du brasier, les paradis factices, les balles, les 'tasses et j'rap C'est du target practice, la monnaie, crache la rime, part à Mach 10, on les Marque et nos sales disques viennent détrôner la pop music et la révolte, on va prôner Comme un Uzi j'parle, tu reconnais l'intonation, j'parle, j'fusille juste après la détonation J'sors le fusil, j'tire sans sommation, j'boxe à l'usine, un tube et y'a l'oeil des maçons qui guette On est au-d'ssus de ces nègres, on est au-d'ssus comme leur snapback J'viens mettre un coup dans ta schneck, j'disparaîs comme Gérard Majax 501 et lunettes Cartier, 501 et lunettes Cartier On est au-d'ssus de ces nègres, on est au-d'ssus comme leur snapback Négro, négro, négro4</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MTP, yeah, right J'te les mets au fond d'la bouche comme une carie, les oiseaux tomberont sur Paris Négro, on peut tous les jurer sur ta vie J'te l'jure gros, yo, j'arrive Pour tirer, j'ai 10 sur 10, tu veux parier ?6 sur 6, dans le barillet Tous ces gars dégainent en retard, dans la tête en deux temps, fusil sur la pe-tempe, yo, j'arrive Yo, j'arrive Yo, Gary, apporte moi le journal, ok Les filles disent que j'ai une bite à sucer, une putain d'bouille à croquer A force de vouloir me faire chier, ils se retrouvent dans la de-mer J'vais tous les victimiser comme ce petit garçon qui a deux pères Frère, j'ai une putain d'gueule de pervers, qu'elles viennent toutes Qu'elles me laissent leur mettre cher, incroyable anniversaire, wouh Assombris la caisse claire, la messe débute, shoot, shoot Belzébuth Paw Voilà l'next level, sache que Joke baise ces putes Une fois, deux fois, passe la monnaie Passe la monnaie Une fois, deux fois, passe la monnaie Passe la monnaie Une fois, deux fois, passe la monnaie Passe la monnaie Une fois, deux fois, passe la monnaie Passe la monnaie On fait quoi ? Passe la monnaie Mamen, passe la monnaie On dit quoi ? Passe la monnaie Mamen, passe la monnaie On fait quoi ? Passe la monnaie Mamen, passe la monnaie On dit quoi ? Passe la monnaie Mamen, passe la monnaie Yo, yo, Paris, yo, j'arrive, mojo dans la valise Yo, yo, Paris, yo, j'arrive, là pour faire le khaliss Yo, yo, Paris, yo, j'arrive, mojo dans la valise Yo, j'ai cent piges, cent piges, chaque week-end, on fête mon anniv Hein You might also like J'suis au-dessus de la normale, à la limite du surnaturel 'Re-noi', d'puis ma signature, ta pétasse étale c'qu'elle a sur elle Premier, pas qu'en sport, qu'en chant, monter voilà là mon seul penchant Pas d'fournir d'la coke pure, comme un cur d'enfant J'ai l'veau-cer' de Wolfgang, j'les défie d'exterminer mon gang On est sur les nerfs et ça s'ressent sur notre langue, on tire sur toi, tu tires sur ton bang Négro' obscur comme la Dame Blanche La vie c'est bête, négro, tu peux être affûté, l'argent tranche ou la lame tranche Y a que Dieu qui peut m'juger, tous les autres, j'nique vos races Tu t'crois sur ton 31, parce qu't'as mis des p'tites godasses On attrape les grandes frigides, les transforme en p'tites chaudasses On les remplit d'amour liquide, j'fais des prises de catch, des prises d'otages Mon flow t'met un énorme doigt dans ta face, regarde-toi dans la glace Tous les négros nous laissent de marbre, quand on est dans la place On sort la carte, on est dans l'atlas, les doudounes se matelassent Nique le rap FR et t'attraperas l'da-s', je suis a Lomé, Tchouk à la calebasse On est sur les nerfs Une fois, deux fois, passe la monnaie Passe la monnaie Une fois, deux fois, passe la monnaie Passe la monnaie Une fois, deux fois, passe la monnaie Passe la monnaie Une fois, deux fois, passe la monnaie Passe la monnaie On fait quoi ? Passe la monnaie Mamen, passe la monnaie On dit quoi ? Passe la monnaie Mamen, passe la monnaie On fait quoi ? Passe la monnaie Mamen, passe la monnaie On dit quoi ? Passe la monnaie Mamen, passe la monnaie Yo, yo, Paris, yo, j'arrive, mojo dans la valise Yo, yo, Paris, yo, j'arrive, là pour faire le khaliss Yo, yo, Paris, yo, j'arrive, mojo dans la valise Yo, j'ai cent piges, cent piges, chaque week-end, on fête mon anniv Hein7</t>
+          <t>MTP, yeah, right J'te les mets au fond d'la bouche comme une carie, les oiseaux tomberont sur Paris Négro, on peut tous les jurer sur ta vie J'te l'jure gros, yo, j'arrive Pour tirer, j'ai 10 sur 10, tu veux parier ?6 sur 6, dans le barillet Tous ces gars dégainent en retard, dans la tête en deux temps, fusil sur la pe-tempe, yo, j'arrive Yo, j'arrive Yo, Gary, apporte moi le journal, ok Les filles disent que j'ai une bite à sucer, une putain d'bouille à croquer A force de vouloir me faire chier, ils se retrouvent dans la de-mer J'vais tous les victimiser comme ce petit garçon qui a deux pères Frère, j'ai une putain d'gueule de pervers, qu'elles viennent toutes Qu'elles me laissent leur mettre cher, incroyable anniversaire, wouh Assombris la caisse claire, la messe débute, shoot, shoot Belzébuth Paw Voilà l'next level, sache que Joke baise ces putes Une fois, deux fois, passe la monnaie Passe la monnaie Une fois, deux fois, passe la monnaie Passe la monnaie Une fois, deux fois, passe la monnaie Passe la monnaie Une fois, deux fois, passe la monnaie Passe la monnaie On fait quoi ? Passe la monnaie Mamen, passe la monnaie On dit quoi ? Passe la monnaie Mamen, passe la monnaie On fait quoi ? Passe la monnaie Mamen, passe la monnaie On dit quoi ? Passe la monnaie Mamen, passe la monnaie Yo, yo, Paris, yo, j'arrive, mojo dans la valise Yo, yo, Paris, yo, j'arrive, là pour faire le khaliss Yo, yo, Paris, yo, j'arrive, mojo dans la valise Yo, j'ai cent piges, cent piges, chaque week-end, on fête mon anniv Hein J'suis au-dessus de la normale, à la limite du surnaturel 'Re-noi', d'puis ma signature, ta pétasse étale c'qu'elle a sur elle Premier, pas qu'en sport, qu'en chant, monter voilà là mon seul penchant Pas d'fournir d'la coke pure, comme un cur d'enfant J'ai l'veau-cer' de Wolfgang, j'les défie d'exterminer mon gang On est sur les nerfs et ça s'ressent sur notre langue, on tire sur toi, tu tires sur ton bang Négro' obscur comme la Dame Blanche La vie c'est bête, négro, tu peux être affûté, l'argent tranche ou la lame tranche Y a que Dieu qui peut m'juger, tous les autres, j'nique vos races Tu t'crois sur ton 31, parce qu't'as mis des p'tites godasses On attrape les grandes frigides, les transforme en p'tites chaudasses On les remplit d'amour liquide, j'fais des prises de catch, des prises d'otages Mon flow t'met un énorme doigt dans ta face, regarde-toi dans la glace Tous les négros nous laissent de marbre, quand on est dans la place On sort la carte, on est dans l'atlas, les doudounes se matelassent Nique le rap FR et t'attraperas l'da-s', je suis a Lomé, Tchouk à la calebasse On est sur les nerfs Une fois, deux fois, passe la monnaie Passe la monnaie Une fois, deux fois, passe la monnaie Passe la monnaie Une fois, deux fois, passe la monnaie Passe la monnaie Une fois, deux fois, passe la monnaie Passe la monnaie On fait quoi ? Passe la monnaie Mamen, passe la monnaie On dit quoi ? Passe la monnaie Mamen, passe la monnaie On fait quoi ? Passe la monnaie Mamen, passe la monnaie On dit quoi ? Passe la monnaie Mamen, passe la monnaie Yo, yo, Paris, yo, j'arrive, mojo dans la valise Yo, yo, Paris, yo, j'arrive, là pour faire le khaliss Yo, yo, Paris, yo, j'arrive, mojo dans la valise Yo, j'ai cent piges, cent piges, chaque week-end, on fête mon anniv Hein7</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yo, les do' sont prêts, on va disséminer sur la capitale, faire du capital Mais vos gos sont belles, elles nous ont dans la bouche, les amygdales, yo, j'ai pas d'rival J'me fais pé-pom, un petit peu trop pompet', monte sur le ring, un seum de compét' A des millions d'années lumières de vos pédés d'énergumènes, pour la monnaie, je te tue, mec j'le concède Oh Parles moi de biff si tu veux qu'on traite Han han, déguise-toi en Joke si tu veux qu'on te pé-pom Tu comprends pas trop mes punchlines Punchlines, gros, t'es con Ah ouais Roule à 150 en ville, fais des doigts d'honneurs aux piétons Ces pédés m'appellent en masqué, y a qu'à Halloween que j'réponds Han han Gros, c'est pire que Hiroshima, tous ces missiles vous font si mal, j'fais les fins d'carrière J'suis l'Qatar, j'suis à part, j'vaux 4 noirs, la putain d'sa mère Les mecs, vous en avez pas marre, chaque jour, j'vous mets une banane Gros, j'amène ta meuf en balade, capot d'Cadillac Impala Imprévisible comme le loto, un compas dans ta rétine T'étais bercé trop près du mur, une dose de crack dans la tétine Que d'la monnaie dans la tête, y m'passe que des pâtes dans l'assiette Une balle dans l'crâne et ça s'arrête, t'es dans la sauce, bon appétit J'préfère être coursé par la PJ qu'acheter un gamos à crédit T'as une roquette sur la tête, TracyMcgrady J'dormirais bien que quand j'aurais plein d'billets Pleins d'billes entières comme en NBA Yo Et le mythe tombe, je nique et re-nique con, dit qu'on deal au bic on s'pique, mais c'est ironique ? Non, disons qu'ils sont au-dessus de bidon, disons qu'ils l'ont dans les fesses J'te l'ai mis con, j't'élimine en 5 secondes comme un nippon qui fonce sur toi Dans son putain d'avion d'batard, fuck l'pavillon Baltard J'suis pas là bas, là bas, la balle a touché l'veau-cer Tu joues à pile ou face avec une 'ce-piè', faussaire Négro, j'veux une villa au Caire Merde, j'veux une putain d'grosse pyramide au Caire Yo, yo 70e le baril Han han, gros j'suis noir, je veux tout l'or Et rien à foutre de Paris Han han, rien à foutre de ke-New-Yor Rien à foutre de ta pétasse, on va fourrer ta pétasse Ah bon ? Négro, branlette espagnole, on va chupper las tetas Ce rap game donne sommeil, ils rient tous comme des bécasses Et quand j'baille aux corneilles, j'fais toujours avec classe T'éclate la tête comme un coup d'galet, propre comme un coup d'balai Shoote, dernier couplet et j'balaye tous tes doutes, bat les c' You might also like MTP, yo Les Monsieur dans le château négro, dans le palais, sur ton palais modafuckah Yo, faut qu'on les kill, han, faut qu'on les kill, han Yo, faut qu'on les kill, han, faut qu'on les kill, han Mec faut qu'on les kill, han, faut qu'on les kill, han Yo faut qu'on les kill, négro Les Monsieurs, nigga9</t>
+          <t>Yo, les do' sont prêts, on va disséminer sur la capitale, faire du capital Mais vos gos sont belles, elles nous ont dans la bouche, les amygdales, yo, j'ai pas d'rival J'me fais pé-pom, un petit peu trop pompet', monte sur le ring, un seum de compét' A des millions d'années lumières de vos pédés d'énergumènes, pour la monnaie, je te tue, mec j'le concède Oh Parles moi de biff si tu veux qu'on traite Han han, déguise-toi en Joke si tu veux qu'on te pé-pom Tu comprends pas trop mes punchlines Punchlines, gros, t'es con Ah ouais Roule à 150 en ville, fais des doigts d'honneurs aux piétons Ces pédés m'appellent en masqué, y a qu'à Halloween que j'réponds Han han Gros, c'est pire que Hiroshima, tous ces missiles vous font si mal, j'fais les fins d'carrière J'suis l'Qatar, j'suis à part, j'vaux 4 noirs, la putain d'sa mère Les mecs, vous en avez pas marre, chaque jour, j'vous mets une banane Gros, j'amène ta meuf en balade, capot d'Cadillac Impala Imprévisible comme le loto, un compas dans ta rétine T'étais bercé trop près du mur, une dose de crack dans la tétine Que d'la monnaie dans la tête, y m'passe que des pâtes dans l'assiette Une balle dans l'crâne et ça s'arrête, t'es dans la sauce, bon appétit J'préfère être coursé par la PJ qu'acheter un gamos à crédit T'as une roquette sur la tête, TracyMcgrady J'dormirais bien que quand j'aurais plein d'billets Pleins d'billes entières comme en NBA Yo Et le mythe tombe, je nique et re-nique con, dit qu'on deal au bic on s'pique, mais c'est ironique ? Non, disons qu'ils sont au-dessus de bidon, disons qu'ils l'ont dans les fesses J'te l'ai mis con, j't'élimine en 5 secondes comme un nippon qui fonce sur toi Dans son putain d'avion d'batard, fuck l'pavillon Baltard J'suis pas là bas, là bas, la balle a touché l'veau-cer Tu joues à pile ou face avec une 'ce-piè', faussaire Négro, j'veux une villa au Caire Merde, j'veux une putain d'grosse pyramide au Caire Yo, yo 70e le baril Han han, gros j'suis noir, je veux tout l'or Et rien à foutre de Paris Han han, rien à foutre de ke-New-Yor Rien à foutre de ta pétasse, on va fourrer ta pétasse Ah bon ? Négro, branlette espagnole, on va chupper las tetas Ce rap game donne sommeil, ils rient tous comme des bécasses Et quand j'baille aux corneilles, j'fais toujours avec classe T'éclate la tête comme un coup d'galet, propre comme un coup d'balai Shoote, dernier couplet et j'balaye tous tes doutes, bat les c' MTP, yo Les Monsieur dans le château négro, dans le palais, sur ton palais modafuckah Yo, faut qu'on les kill, han, faut qu'on les kill, han Yo, faut qu'on les kill, han, faut qu'on les kill, han Mec faut qu'on les kill, han, faut qu'on les kill, han Yo faut qu'on les kill, négro Les Monsieurs, nigga9</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Wah J'suis en pleine synchronicité, my nigga Wah J'ai des cristaux et du liquide Yah J'ai une Birkin et une Lil' Kim Yah Plume géniale, j'pisse sur ton respect J'ai un buvard de LSD J'mets la Miss France dans le Cayenne S Roule ma fumée, ne roule pas les R Viens mettre ton pif dans mon Canderel Des objectifs, gros j'ai pas des rêves, Michael Jackson dans le Facetime Woo Fais des Moonwalk dans le game time Woo J'veux Bella, Sofia et Kendall Woo Suce-moi, baise-moi mais ne m'aime pas Yah, yah Suce-moi, baise-moi mais ne m'aime pas Suce-moi, baise-moi mais ne m'aime pas Suce Suce-moi, baise-moi mais ne m'aime pas Oui, bitch, oui J'suis synchronisé, my nigga You might also like Lunettes noires comme Michael Jackson Lunettes noires comme Michael Jackson J'fais un Moonwalk et j'compte la somme J'fais un Moonwalk et j'compte la somme J'électrise ton enveloppe charnelle J'rentre en Moonwalk sur des Chanel L'étoile filante dans le feu d'artifice L'étoile filante dans le feu d'artifice Dans ta grand-mère j'monte aux nues, j'vois des pigeons qui pompent Horus T'as du Synthol qui monte aux muscles Wah, j'mets des coups de rein qui sont trop brusques Amnésia Haze, Vodka Perrier Sheesh, l'argent rend propre, l'argent fait briller Billets pliés sur son fessier, j'rentre dans sa chatte comme le métier -chatte Univers infini, tout est lié, mains aux cavu, pied à l'étrier Wah J'prie pas pour faire de l'oseille, j'fais de l'oseille pour aller prier J'regarde en moi, mes yeux s'révulsent, c'est la réalité qui s'dénude Bébé, j'crois que si t'es ma maîtresse j'vais devoir finir mes études Suce-moi, baise-moi mais ne m'aime pas Suce-moi, baise-moi mais ne m'aime pas Suce-moi, baise-moi mais ne m'aime pas Suce-moi, baise-moi mais ne m'aime pas Lunettes noires comme Michael Jackson Lunettes noires comme Michael Jackson J'fais un Moonwalk et j'compte la somme J'fais un Moonwalk et j'compte la somme I wanna rock with you all night All night Through the sunlight, through the moonlight I wanna rock with you I wanna rock with you8</t>
+          <t>Wah J'suis en pleine synchronicité, my nigga Wah J'ai des cristaux et du liquide Yah J'ai une Birkin et une Lil' Kim Yah Plume géniale, j'pisse sur ton respect J'ai un buvard de LSD J'mets la Miss France dans le Cayenne S Roule ma fumée, ne roule pas les R Viens mettre ton pif dans mon Canderel Des objectifs, gros j'ai pas des rêves, Michael Jackson dans le Facetime Woo Fais des Moonwalk dans le game time Woo J'veux Bella, Sofia et Kendall Woo Suce-moi, baise-moi mais ne m'aime pas Yah, yah Suce-moi, baise-moi mais ne m'aime pas Suce-moi, baise-moi mais ne m'aime pas Suce Suce-moi, baise-moi mais ne m'aime pas Oui, bitch, oui J'suis synchronisé, my nigga Lunettes noires comme Michael Jackson Lunettes noires comme Michael Jackson J'fais un Moonwalk et j'compte la somme J'fais un Moonwalk et j'compte la somme J'électrise ton enveloppe charnelle J'rentre en Moonwalk sur des Chanel L'étoile filante dans le feu d'artifice L'étoile filante dans le feu d'artifice Dans ta grand-mère j'monte aux nues, j'vois des pigeons qui pompent Horus T'as du Synthol qui monte aux muscles Wah, j'mets des coups de rein qui sont trop brusques Amnésia Haze, Vodka Perrier Sheesh, l'argent rend propre, l'argent fait briller Billets pliés sur son fessier, j'rentre dans sa chatte comme le métier -chatte Univers infini, tout est lié, mains aux cavu, pied à l'étrier Wah J'prie pas pour faire de l'oseille, j'fais de l'oseille pour aller prier J'regarde en moi, mes yeux s'révulsent, c'est la réalité qui s'dénude Bébé, j'crois que si t'es ma maîtresse j'vais devoir finir mes études Suce-moi, baise-moi mais ne m'aime pas Suce-moi, baise-moi mais ne m'aime pas Suce-moi, baise-moi mais ne m'aime pas Suce-moi, baise-moi mais ne m'aime pas Lunettes noires comme Michael Jackson Lunettes noires comme Michael Jackson J'fais un Moonwalk et j'compte la somme J'fais un Moonwalk et j'compte la somme I wanna rock with you all night All night Through the sunlight, through the moonlight I wanna rock with you I wanna rock with you8</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Donne-moi mon cigare, négro, mon Armand de Brignac J'ai l'futur à préparer, j'suis le numéro un au carré Culs ronds et coupe au carré, Armand, rajoute des bulles au carré Négro rentre dans la 3D, des dollars de suite On a deux suites, un groupe de bitchs Fais un sandwich, pose sa raie sur sa raie J'suis dans l'carré du carré, j'suis plus dans l'polygone J'suis l'idole d'ton idole, j'suis l'idole d'mon idole J'coupe ma coke à la coke, 0.9 dans les narines Négro t'attends la chute mais j'te regarde tomber dans mes abîmes Mon miroir s'voit dans mes yeux, Ateyaba dans les cieux Tu m'parles j'suis en train d'regarder ma Rolex Tu m'fais perdre un temps précieux J'suis dans ton subconscient, j'suis à la tête de ta tête Faut qu'l'Afrique soit quitte de sa dette Fais-moi vite une pipe de crack head Ils veulent me dicter ma vie, j'crois qu'j'vais faire une faute à chaque phrase Renoi, cigarillo grosse pétasse, j'suis sé-po à Paname J'suis dans une poupée russe, j'suis dans son utérus Une fois qu'ton cercle est ouvert tu crois qu'tout est rose Mais tout est ruse You might also like On est sur les nerfs, on va pas les aider Yeah, yeah, Ikaz, Ikaz, Delorean Music nigga Pour mes hustlers en tout genre, mes gagneurs d'argent MTP Si mes calculs sont exacts, lorsque ce petit bolide atteindra 88 miles à l'heure, attends-toi à voir quelque chose qui décoiffe J'suis en crédit illimité, les négros ne font qu'imiter Des négros qui m'ont imité Pétasse j'te croise, j'te drague, j'te doigte la chatte avec agilité J'te mets à quatre pattes parce que tu cherches de la stabilité J'veux toute ta part en billets, te coupe la parole au canon scié Si j'peux t'égosiller pour négocier Ta meuf peut t'quitter pour mes beaux yeux Négro, j'excelle comme calendrier J'arriverais pas là où j'suis sans prier J'vous éclairerais pas tous sans briller L'État français ne serait pas là sans piller Donc j'avancerais comme ça, la bite dans une bouche La main dans le sac, la tête dans un livre J'ride comme ça, doigt sur la gâchette Lumière dans la tête comme une maladie J'suis en haut comme le paradis, j'suis dans la team de feu Palpatine La carabine perturbe tes projets Noé s'est prit mon flow dans la Bible On est sur les nerfs17</t>
+          <t>Donne-moi mon cigare, négro, mon Armand de Brignac J'ai l'futur à préparer, j'suis le numéro un au carré Culs ronds et coupe au carré, Armand, rajoute des bulles au carré Négro rentre dans la 3D, des dollars de suite On a deux suites, un groupe de bitchs Fais un sandwich, pose sa raie sur sa raie J'suis dans l'carré du carré, j'suis plus dans l'polygone J'suis l'idole d'ton idole, j'suis l'idole d'mon idole J'coupe ma coke à la coke, 0.9 dans les narines Négro t'attends la chute mais j'te regarde tomber dans mes abîmes Mon miroir s'voit dans mes yeux, Ateyaba dans les cieux Tu m'parles j'suis en train d'regarder ma Rolex Tu m'fais perdre un temps précieux J'suis dans ton subconscient, j'suis à la tête de ta tête Faut qu'l'Afrique soit quitte de sa dette Fais-moi vite une pipe de crack head Ils veulent me dicter ma vie, j'crois qu'j'vais faire une faute à chaque phrase Renoi, cigarillo grosse pétasse, j'suis sé-po à Paname J'suis dans une poupée russe, j'suis dans son utérus Une fois qu'ton cercle est ouvert tu crois qu'tout est rose Mais tout est ruse On est sur les nerfs, on va pas les aider Yeah, yeah, Ikaz, Ikaz, Delorean Music nigga Pour mes hustlers en tout genre, mes gagneurs d'argent MTP Si mes calculs sont exacts, lorsque ce petit bolide atteindra 88 miles à l'heure, attends-toi à voir quelque chose qui décoiffe J'suis en crédit illimité, les négros ne font qu'imiter Des négros qui m'ont imité Pétasse j'te croise, j'te drague, j'te doigte la chatte avec agilité J'te mets à quatre pattes parce que tu cherches de la stabilité J'veux toute ta part en billets, te coupe la parole au canon scié Si j'peux t'égosiller pour négocier Ta meuf peut t'quitter pour mes beaux yeux Négro, j'excelle comme calendrier J'arriverais pas là où j'suis sans prier J'vous éclairerais pas tous sans briller L'État français ne serait pas là sans piller Donc j'avancerais comme ça, la bite dans une bouche La main dans le sac, la tête dans un livre J'ride comme ça, doigt sur la gâchette Lumière dans la tête comme une maladie J'suis en haut comme le paradis, j'suis dans la team de feu Palpatine La carabine perturbe tes projets Noé s'est prit mon flow dans la Bible On est sur les nerfs17</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>La paire est italienne Capice, ca-ca-capice On est sur les nerfs Capice, ca-ca-capice La veste est italienne Capice, ca-ca-capice On est sur les nerfs Capice, ca-ca-capice Tous mes négros Wohohohohoh Woh! Tu sais que c'est Jokeezy dans cette pute Ou tu t'en rappelles plus On est plein, on est plein, on est plein dans ma tête On peut faire un foot si je mets une balle dans ma tête On est sur les nerfs, la montre est suisse Elle me dit que c'est l'heure où ils ouvrent les cuisses Vrai négro j'ai la neige qui brouille les pistes Vrai négro pénis pas du tout métis boy Tu sais qu'c'est Jokeezy dans l'architecture Tous mes textes ont besoin d'outils d'lecture Les gars trouvent pas d'monnaie ils trouvent des excuses Donc tu sais qu'on pèse plus tu sais qu'on baise plus Renoi j'ai ton QI au carré On a les mêmes racines mais on peut pas s'comparer SwaggMan rappe mieux qu'tous ces nègres Leurs pétasses sont grasses, leur salaire est maigre J'emmerde toujours l'opinion publique Qu'elle s'étouffe en contemplant mon pubis Ils font les jeunes et ils mentent aux jeunes Passe à ces nègres la Nivea Q10 Si t'as pas d'ennemis t'es mauvais dans ce que tu fais Je crois que j'suis trop bon dans ce que je fais J'me vois entrain de finir dans ces sses-fe Salaire de chirurgien négro j'suis refait Observe le négro léviter Observe ton compte se faire débiter Ils fument, ils quittent la réalité Finissent SDF, finissent habités Je me mouche dans toutes vos mondanités Si t'es bonne tu peux finir alitée Goûter à mon éventail de qualités Doo-ragué avec jean Marithé You might also like La paire est italienne Capice, ca-ca-capice On est sur les nerfs Capice, ca-ca-capice La veste est italienne Capice, ca-ca-capice On est sur les nerfs Capice, ca-ca-capice Tous mes négros Ohohohohoh Quand j'étais petit j'voulais être astronaute Maintenant je veux juste sommes astronomiques T'as le flow de la gastro mon pote Le mojo d'un sodomite Comment tu comptes rivaliser avec nous ? Wooh x2 So rest in peace, ouais je suis presque English Ils volent mon flow quand je vais faire pipi On viole la prod avec Pharaon, sur la chatte à Néfertiti Tous ces PD parlent, on va les faire taire On va leur mettre une balle dans le buffet J'parle pas d'art, ni d'mobilier Moi je m'égosille qu'pour des gros billets J'la mets au fond tu va dégobiller J'attend mes adversaires, mais quoi qu'il se passe je les vois pas Rap Game c'est Colin-Maillard Tous les rappeurs sont obsolètes, comme calendrier Maya Ils sont tous dépassés par les événements Non je veux pas faire la guerre avec des vétérans Il y a que pour les fister que je met les gants, c'est élégant13</t>
+          <t>La paire est italienne Capice, ca-ca-capice On est sur les nerfs Capice, ca-ca-capice La veste est italienne Capice, ca-ca-capice On est sur les nerfs Capice, ca-ca-capice Tous mes négros Wohohohohoh Woh! Tu sais que c'est Jokeezy dans cette pute Ou tu t'en rappelles plus On est plein, on est plein, on est plein dans ma tête On peut faire un foot si je mets une balle dans ma tête On est sur les nerfs, la montre est suisse Elle me dit que c'est l'heure où ils ouvrent les cuisses Vrai négro j'ai la neige qui brouille les pistes Vrai négro pénis pas du tout métis boy Tu sais qu'c'est Jokeezy dans l'architecture Tous mes textes ont besoin d'outils d'lecture Les gars trouvent pas d'monnaie ils trouvent des excuses Donc tu sais qu'on pèse plus tu sais qu'on baise plus Renoi j'ai ton QI au carré On a les mêmes racines mais on peut pas s'comparer SwaggMan rappe mieux qu'tous ces nègres Leurs pétasses sont grasses, leur salaire est maigre J'emmerde toujours l'opinion publique Qu'elle s'étouffe en contemplant mon pubis Ils font les jeunes et ils mentent aux jeunes Passe à ces nègres la Nivea Q10 Si t'as pas d'ennemis t'es mauvais dans ce que tu fais Je crois que j'suis trop bon dans ce que je fais J'me vois entrain de finir dans ces sses-fe Salaire de chirurgien négro j'suis refait Observe le négro léviter Observe ton compte se faire débiter Ils fument, ils quittent la réalité Finissent SDF, finissent habités Je me mouche dans toutes vos mondanités Si t'es bonne tu peux finir alitée Goûter à mon éventail de qualités Doo-ragué avec jean Marithé La paire est italienne Capice, ca-ca-capice On est sur les nerfs Capice, ca-ca-capice La veste est italienne Capice, ca-ca-capice On est sur les nerfs Capice, ca-ca-capice Tous mes négros Ohohohohoh Quand j'étais petit j'voulais être astronaute Maintenant je veux juste sommes astronomiques T'as le flow de la gastro mon pote Le mojo d'un sodomite Comment tu comptes rivaliser avec nous ? Wooh x2 So rest in peace, ouais je suis presque English Ils volent mon flow quand je vais faire pipi On viole la prod avec Pharaon, sur la chatte à Néfertiti Tous ces PD parlent, on va les faire taire On va leur mettre une balle dans le buffet J'parle pas d'art, ni d'mobilier Moi je m'égosille qu'pour des gros billets J'la mets au fond tu va dégobiller J'attend mes adversaires, mais quoi qu'il se passe je les vois pas Rap Game c'est Colin-Maillard Tous les rappeurs sont obsolètes, comme calendrier Maya Ils sont tous dépassés par les événements Non je veux pas faire la guerre avec des vétérans Il y a que pour les fister que je met les gants, c'est élégant13</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tu vas devenir bête à force de traîner en bas de chez toi My man On baise aussi les petites, on baise pas que des lois Baise les, baise les, baise les, baise les Baise les, baise les, baise les, baise les My man Joky est au-dessus, Joky est on fire Oyé Sapapaya Kiffe les 'tasses en survêt', kiffe les tass' en tailleur Sur la chatte à Zahia Les pipes c'est comme les chemises j'les aime bien taillées-ées-ées-ées Négro est pas fait pour détailler dans l'escalier-er-er-er-er Mulato quiere ver tus tetas pour les tâter-er-er-er-er Pharaon a les cheveux crépus et le nez épaté Nigga Fuck, fuck, fuck, fuck, fuck, fuck, fu-fu-fu-fuck T'as dit quoi mon négro ? Fuck, fuck, fuck, fuck, fuck, fuck, fu-fu-fu-fuck On les baise L'État veut pas qu'j'le nique mais j'me l'permets-ets-ets Sans capote, mon négro, levrette, quatre pattes, tous les bails négro J'passe par ta schnek si t'as l'esprit fermé Médite négro, médite Négro, elles sont sous ma dick elles sont sous MD-MD-D Ratatatata, on est sous Cristal, on est sous Belve J'la mets à 4 pattes, le flow est doux comme la chatte à la victoire-toire-toire J'suis rentré dans ton cul comme on rentre dans l'Histoire-toire-toire J'suis encore plus fâché que les renois d'Amistad-ad-ad Viens m'astiquer la bite si t'as les doigts à Miss Fine-ine-ine You might also like Fuck, fuck, fuck, fuck, fuck, fuck, fu-fu-fu-fuck T'as dit quoi mon négro ? Fuck, fuck, fuck, fuck, fuck, fuck, fu-fu-fu-fuck On les baise Dites bonjour aux nouveaux rois d'ce game Les Monsieur toujours fourrés dans l'arène Sors une punch' tu la captes au bout de 3 semaines On va pas déroger à la règle J'connais des types qui manipulent la neige Mettent des carottes mais font pas de bonhomme Parait qu'ta go aime quand ça cogne Sur sa glotte et qu'on l'appelle manège On aime le poulet quand il est mort On l'préfère quand il est pas né L'argent a ses raisons que la raison ignore J'l'ai compris depuis des années Depuis qu'j'suis petit j'veux m'évader De cette vie de dépravé Tous mes adversaires les terrasser Y'a qumon blé qu'j'veux bien épargner Haut les mains, peau d'lapin La maîtresse en chinchilla 5-6 grammes sur les dents Arrête tout ça tu n'es qu'un minable Quand j'n'arrive plus à dormir J'écoute leurs merdes soporifiques Le rap conscient qu'il nique sa mère Et sa grand mère la politique Tous des démagos, démagos Plus rien à foutre à part ptetre ta go Depuis qu'François Hollande valse J'en viens presque à préférer Sarko L'oligarchie régnera tant que l'on sera divisés Moi j'voterai quand le vote blanc sera comptabilisé8</t>
+          <t>Tu vas devenir bête à force de traîner en bas de chez toi My man On baise aussi les petites, on baise pas que des lois Baise les, baise les, baise les, baise les Baise les, baise les, baise les, baise les My man Joky est au-dessus, Joky est on fire Oyé Sapapaya Kiffe les 'tasses en survêt', kiffe les tass' en tailleur Sur la chatte à Zahia Les pipes c'est comme les chemises j'les aime bien taillées-ées-ées-ées Négro est pas fait pour détailler dans l'escalier-er-er-er-er Mulato quiere ver tus tetas pour les tâter-er-er-er-er Pharaon a les cheveux crépus et le nez épaté Nigga Fuck, fuck, fuck, fuck, fuck, fuck, fu-fu-fu-fuck T'as dit quoi mon négro ? Fuck, fuck, fuck, fuck, fuck, fuck, fu-fu-fu-fuck On les baise L'État veut pas qu'j'le nique mais j'me l'permets-ets-ets Sans capote, mon négro, levrette, quatre pattes, tous les bails négro J'passe par ta schnek si t'as l'esprit fermé Médite négro, médite Négro, elles sont sous ma dick elles sont sous MD-MD-D Ratatatata, on est sous Cristal, on est sous Belve J'la mets à 4 pattes, le flow est doux comme la chatte à la victoire-toire-toire J'suis rentré dans ton cul comme on rentre dans l'Histoire-toire-toire J'suis encore plus fâché que les renois d'Amistad-ad-ad Viens m'astiquer la bite si t'as les doigts à Miss Fine-ine-ine Fuck, fuck, fuck, fuck, fuck, fuck, fu-fu-fu-fuck T'as dit quoi mon négro ? Fuck, fuck, fuck, fuck, fuck, fuck, fu-fu-fu-fuck On les baise Dites bonjour aux nouveaux rois d'ce game Les Monsieur toujours fourrés dans l'arène Sors une punch' tu la captes au bout de 3 semaines On va pas déroger à la règle J'connais des types qui manipulent la neige Mettent des carottes mais font pas de bonhomme Parait qu'ta go aime quand ça cogne Sur sa glotte et qu'on l'appelle manège On aime le poulet quand il est mort On l'préfère quand il est pas né L'argent a ses raisons que la raison ignore J'l'ai compris depuis des années Depuis qu'j'suis petit j'veux m'évader De cette vie de dépravé Tous mes adversaires les terrasser Y'a qumon blé qu'j'veux bien épargner Haut les mains, peau d'lapin La maîtresse en chinchilla 5-6 grammes sur les dents Arrête tout ça tu n'es qu'un minable Quand j'n'arrive plus à dormir J'écoute leurs merdes soporifiques Le rap conscient qu'il nique sa mère Et sa grand mère la politique Tous des démagos, démagos Plus rien à foutre à part ptetre ta go Depuis qu'François Hollande valse J'en viens presque à préférer Sarko L'oligarchie régnera tant que l'on sera divisés Moi j'voterai quand le vote blanc sera comptabilisé8</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lomé... Pharaon Dans la pyramide Motherfucker Modofoka wanna act loco, je les frappe je dois les shot vite, je sors le fo'-fo' Le flow est doux comme des Alokos, parle pas de moi si il ny a pas de Togo Jai, un torrent de mouille sur la verge, jvois les négros sur la berge Ils sentent comment les mots se marient, on dirait quils ont vu la Vierge merde Dis-moi pourquoi thésites, met du temps, tu peux rien contre des mutants Jai la chance de lexpert, jai la chance du débutant Si ta Bitch se laisse faire, cest pas entièrement de ma faute Je te jure que mon pote est cap de sauter cette sale sotte sans capote Cest, pas facile, tous les jours pour les négros qui vivent en France Cest pour ça, que si je croise Marianne dans une ruelle, jlui enfonce Jattends que lEtat mattrape, que le juge me prononce la sentence 400 ans de sale sur les noirs, nique sa mère la repentance, nigga Pas facile, tous les jours pour les négros qui vivent en France Cest pour ça, que si je croise Marianne dans une ruelle, jlui enfonce Jattends que lEtat mattrape, que le juge me prononce la sentence 400 ans de sale sur les noirs, nique sa mère la repentance, nigga You might also like La femme idéale, c'est une poupée gonflable, passe-moi une fé-fé, j'ten fais une épave All in, recave, j'ai des trésors de guerre comme un Yougoslave G13 Haze, c'est pas de la prot' power flower j'fume des monstres-plante Sortez les Glocks, j'ai des punchlines sous cellophane c'est comme de la drogue Sors le boitier ou fais les coss on cause pute on cause thune en costume J'fais un casse et je disparais dans les réseaux obscurs La brigade mondaine, la dope, les milices, faites pas les pros, les puristes Pour financer ma putain de jeunesse, j'ai dû braquer 2-3 touristes J'suis avec mes boulahyas comme au Liberia on est armés On a trop déboursé, remboursez ! Les coffres on est v'nus pour les forcer Les huissiers, les factures, les impôts sur le dos, la police, les soucis La routine, les potos en son-pri, les longues peines tombées dans l'oubli J'suis avec mes boulahyas comme au Liberia on est armés On a trop déboursé, remboursez ! Les coffres on est v'nus pour les forcer Les huissiers, les factures, les impôts sur le dos, la police, les soucis La routine, les potos en son-pri, les longues peines tombées dans l'oubli Professeur Punchline Yeah, refré je suis frais comme un bébé congelé Quand je sors de ma tranchée faut que le rap francais prenne des congés Madame météo est une femme fontaine sort les lunettes de plongée Met des sous de côté avant que l'Etat vienne t'éponger La prison c'est l'impôt du dealer 2 balles dans la tête de ce Rap Game de tapettes, blah blah Dis moi qui veut la peau du Killer ? MC égorgeur, je suis venu taper du poing Cherche pas Mehdi à 14H, il est au Café du coin On est venu casser du groin car y a du facho dans l'atmosphère Je fais trop de punchlines, je donne de la viande casher à des phacochères Traqué par le commissaire car j'ai la médusa posée sur les branches Pas facile tous les jours pour les babtous qui dealent en France Gadjo Allo-Pinel, ici-Catrice, on boit l'eau Vittel que dans le Pastis Le Rap Game cest Walking Dead, que des HeadShots sur MC's factices J'suis timbré la chatte à la factrice Yoplaboum, on est les rois du pain de C4 pas du pain dépices Allo-Pinel, ici-Catrice, on boit l'eau Vittel que dans le Pastis Le Rap Game cest Walking Dead, que des HeadShots sur MC's factices J'suis timbré la chatte à la factrice Yoplaboum, on est les rois du pain de C4 pas du pain dépices Au-dessus des lois comme Manuel Valls La gravité t'éloigne de l'espace Réserve une place pour ma plus belle balle Je prie pour les miens touchez-vous et faites vos messes basses Si je suis ici c'est pour les fumer nigga Si je suis ici c'est pour les fumer nigga Si je suis ici c'est pour les fumer nigga Je prie pour les miens touchez-vous et faites vos messes basses21</t>
+          <t>Lomé... Pharaon Dans la pyramide Motherfucker Modofoka wanna act loco, je les frappe je dois les shot vite, je sors le fo'-fo' Le flow est doux comme des Alokos, parle pas de moi si il ny a pas de Togo Jai, un torrent de mouille sur la verge, jvois les négros sur la berge Ils sentent comment les mots se marient, on dirait quils ont vu la Vierge merde Dis-moi pourquoi thésites, met du temps, tu peux rien contre des mutants Jai la chance de lexpert, jai la chance du débutant Si ta Bitch se laisse faire, cest pas entièrement de ma faute Je te jure que mon pote est cap de sauter cette sale sotte sans capote Cest, pas facile, tous les jours pour les négros qui vivent en France Cest pour ça, que si je croise Marianne dans une ruelle, jlui enfonce Jattends que lEtat mattrape, que le juge me prononce la sentence 400 ans de sale sur les noirs, nique sa mère la repentance, nigga Pas facile, tous les jours pour les négros qui vivent en France Cest pour ça, que si je croise Marianne dans une ruelle, jlui enfonce Jattends que lEtat mattrape, que le juge me prononce la sentence 400 ans de sale sur les noirs, nique sa mère la repentance, nigga La femme idéale, c'est une poupée gonflable, passe-moi une fé-fé, j'ten fais une épave All in, recave, j'ai des trésors de guerre comme un Yougoslave G13 Haze, c'est pas de la prot' power flower j'fume des monstres-plante Sortez les Glocks, j'ai des punchlines sous cellophane c'est comme de la drogue Sors le boitier ou fais les coss on cause pute on cause thune en costume J'fais un casse et je disparais dans les réseaux obscurs La brigade mondaine, la dope, les milices, faites pas les pros, les puristes Pour financer ma putain de jeunesse, j'ai dû braquer 2-3 touristes J'suis avec mes boulahyas comme au Liberia on est armés On a trop déboursé, remboursez ! Les coffres on est v'nus pour les forcer Les huissiers, les factures, les impôts sur le dos, la police, les soucis La routine, les potos en son-pri, les longues peines tombées dans l'oubli J'suis avec mes boulahyas comme au Liberia on est armés On a trop déboursé, remboursez ! Les coffres on est v'nus pour les forcer Les huissiers, les factures, les impôts sur le dos, la police, les soucis La routine, les potos en son-pri, les longues peines tombées dans l'oubli Professeur Punchline Yeah, refré je suis frais comme un bébé congelé Quand je sors de ma tranchée faut que le rap francais prenne des congés Madame météo est une femme fontaine sort les lunettes de plongée Met des sous de côté avant que l'Etat vienne t'éponger La prison c'est l'impôt du dealer 2 balles dans la tête de ce Rap Game de tapettes, blah blah Dis moi qui veut la peau du Killer ? MC égorgeur, je suis venu taper du poing Cherche pas Mehdi à 14H, il est au Café du coin On est venu casser du groin car y a du facho dans l'atmosphère Je fais trop de punchlines, je donne de la viande casher à des phacochères Traqué par le commissaire car j'ai la médusa posée sur les branches Pas facile tous les jours pour les babtous qui dealent en France Gadjo Allo-Pinel, ici-Catrice, on boit l'eau Vittel que dans le Pastis Le Rap Game cest Walking Dead, que des HeadShots sur MC's factices J'suis timbré la chatte à la factrice Yoplaboum, on est les rois du pain de C4 pas du pain dépices Allo-Pinel, ici-Catrice, on boit l'eau Vittel que dans le Pastis Le Rap Game cest Walking Dead, que des HeadShots sur MC's factices J'suis timbré la chatte à la factrice Yoplaboum, on est les rois du pain de C4 pas du pain dépices Au-dessus des lois comme Manuel Valls La gravité t'éloigne de l'espace Réserve une place pour ma plus belle balle Je prie pour les miens touchez-vous et faites vos messes basses Si je suis ici c'est pour les fumer nigga Si je suis ici c'est pour les fumer nigga Si je suis ici c'est pour les fumer nigga Je prie pour les miens touchez-vous et faites vos messes basses21</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>On avait pas un sou en poche et des factures et des projets Y a qu'par la mort qu'j'accepterais d'être fauché La vie c'est dur, mais J'suis là pour tout prendre, j'lui ai dis Viens avec moi si tu m'aimes Le monde est cruel Cruel T'es ma Lady Di mais tous les deux, faut qu'on voit l'bout du tunnel Elle m'dit j'te suivrai partout , canon scié, cartouches Yeux revolvers, c'est un braquage avec la plus belle J'ai plein d'idées en tête, un seul truc qui m'empêche D'mener mes projets à terme, va t'préparer, ma belle Ce soir on part, on quitte la 'té-c', flingue sur leurs têtes, on vide la caisse Ce soir on part, on vide la caisse, ma belle On s'prépare à p't-être commettre l'irréparable, l'irréparable Et on a qu'un seul gilet par-balle Deux s'condes, j'prépare les sacs, fini les paquets d'pâtes Ça va bien s'passer, ma chérie, t'inquiètes 'as-p' Et j'lui dis Laisse tourner le moteur J'l'embrasse une dernière fois pour avoir son odeur Et si elle pleure s'il se présente, j'fais un trou dans l'inspecteur R'garde gauche, droite, pas d'five O dans le secteur J'avance décidé, calibré, l'pire pourrait m'arriver Mais ma belle saura toujours que son mari l'aimait You might also like J'ai plein d'idées en tête, un seul truc qui m'empêche D'mener mes projets à terme, va t'préparer, ma belle Ce soir on part, on quitte la 'té-c', flingue sur leurs têtes, on vide la caisse Ce soir on part, on vide la caisse, ma belle On s'prépare à p't-être commettre l'irréparable, l'irréparable Et on a qu'un seul gilet par-balle, gilet par balle Trou dans la bouche, c'est pas un jeu c'que j'canarde, que j'canarde mes sacs et j'm'arrâche, et j'm'arrâche Yo, mais l'banquier ne l'voit pas du même il On m'dit Abandonne ou finis dans un cercuei Coup d'crosse, j'me sers, j'remplis toutes poches J'mets c'que j'peux dans mes sacs, et j'sors de ce coupe-gorge J'suis devant la banque, la voiture est à l'arrêt Ma belle garée, égarée n'arrive plus à démarrer J'regarde le sac, quelques liasses de 500 Le pimpon des sirènes vient attaquer mes tympans Un instant d'inattention, ça finit dans un bain d'sang Cauchemar, mais j'me réveillerai pas en m'pincant J'entends un éclats, une balle qui siffle J'regarde ma princesse magnifique J'ai plein d'idées en tête, un seul truc qui m'empêche D'mener mes projets à terme, va t'préparer, ma belle Ce soir on part, on quitte la 'té-c', flingue sur leurs têtes, on vide la caisse Ce soir on part, on vide la caisse, ma belle4</t>
+          <t>On avait pas un sou en poche et des factures et des projets Y a qu'par la mort qu'j'accepterais d'être fauché La vie c'est dur, mais J'suis là pour tout prendre, j'lui ai dis Viens avec moi si tu m'aimes Le monde est cruel Cruel T'es ma Lady Di mais tous les deux, faut qu'on voit l'bout du tunnel Elle m'dit j'te suivrai partout , canon scié, cartouches Yeux revolvers, c'est un braquage avec la plus belle J'ai plein d'idées en tête, un seul truc qui m'empêche D'mener mes projets à terme, va t'préparer, ma belle Ce soir on part, on quitte la 'té-c', flingue sur leurs têtes, on vide la caisse Ce soir on part, on vide la caisse, ma belle On s'prépare à p't-être commettre l'irréparable, l'irréparable Et on a qu'un seul gilet par-balle Deux s'condes, j'prépare les sacs, fini les paquets d'pâtes Ça va bien s'passer, ma chérie, t'inquiètes 'as-p' Et j'lui dis Laisse tourner le moteur J'l'embrasse une dernière fois pour avoir son odeur Et si elle pleure s'il se présente, j'fais un trou dans l'inspecteur R'garde gauche, droite, pas d'five O dans le secteur J'avance décidé, calibré, l'pire pourrait m'arriver Mais ma belle saura toujours que son mari l'aimait J'ai plein d'idées en tête, un seul truc qui m'empêche D'mener mes projets à terme, va t'préparer, ma belle Ce soir on part, on quitte la 'té-c', flingue sur leurs têtes, on vide la caisse Ce soir on part, on vide la caisse, ma belle On s'prépare à p't-être commettre l'irréparable, l'irréparable Et on a qu'un seul gilet par-balle, gilet par balle Trou dans la bouche, c'est pas un jeu c'que j'canarde, que j'canarde mes sacs et j'm'arrâche, et j'm'arrâche Yo, mais l'banquier ne l'voit pas du même il On m'dit Abandonne ou finis dans un cercuei Coup d'crosse, j'me sers, j'remplis toutes poches J'mets c'que j'peux dans mes sacs, et j'sors de ce coupe-gorge J'suis devant la banque, la voiture est à l'arrêt Ma belle garée, égarée n'arrive plus à démarrer J'regarde le sac, quelques liasses de 500 Le pimpon des sirènes vient attaquer mes tympans Un instant d'inattention, ça finit dans un bain d'sang Cauchemar, mais j'me réveillerai pas en m'pincant J'entends un éclats, une balle qui siffle J'regarde ma princesse magnifique J'ai plein d'idées en tête, un seul truc qui m'empêche D'mener mes projets à terme, va t'préparer, ma belle Ce soir on part, on quitte la 'té-c', flingue sur leurs têtes, on vide la caisse Ce soir on part, on vide la caisse, ma belle4</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ayo négro, c'est quoi les bails ? Le flow est criminel Pharaon '89 à l'infini mec Skinny bitch qui en pince pour le p'tit nigga Pas timinik, liasses d'euros, si on tient les meubles Génie illimité, tous les négros veulent imiter l'oeuvre Les billets sont neufs, neufs, neufs et la zik neuve Seufs siliconées, 0.9 qui pique au nez Pour s'occuper d'ma bite, j'veux une meuf qui s'y connaît, han Tu sais que quand c'est moi, c'est pas pareil La puissance du mojo dérègle les appareils Elle a cramé la Audemar, pétasse t'as lil J'peux casser le cul d'n'importe quelle cascadeuse On est sur les nerfs, nerfs, nerfs, nerfs, nerfs, nerfs On est sur les nerfs, nerfs, nerfs, nerfs, nerfs, nerfs 0.9 qui pique au nez Le renoi pique les yeux, le renoi pique les yeux Détend les p'tits haineux, détend les p'tits haineux Le renoi pique les yeux, le renoi pique les yeux Le renoi détend les p'tits haineux, détend les p'tits haineux Quoi?! Quoi?! Quoi?! Quoi?! Quoi?! Sur la vie d'mes morts, sur la vie d'mes morts Sur la vie d'mes morts, l'Etat va pas m'quen' On évite les porcs, on évite les porcs Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts, sur la vie d'mes morts J'vais reprendre tout cet or, tout c'qui nous revient J'vais annuler l'score, annuler l'score Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts You might also like Le négro est délicat, raffiné J'vais t'piner, pas te câliner On rafle les 'tasses comme Boko Haram On laisse l'esprit des négros abîmé Touche pas aux grisbis, renoi, touche pas aux grisbis Le manque d'argent m'a rendu irritable Touche pas aux grisbis, renoi, touche pas aux grisbis J'allume un négro, en me fumant une gitane J'ai une Rolex si j'veux, deux trois Rolex si j'veux J'ride en tramway négro, j'ride en Solex si j'veux J'passe la cinquième renoi, j'nique l'alcootest si j'veux J'ride avec ton loyer dans la pocket si j'veux Leurs versets n'ont aucune âme Les voies du Seigneur sont pas autotunables Comme ma bitch, elles sont impénétrables Pour mes noirs du Togo, mes noirs du Sénégal, nigga Le renoi pique les yeux, le renoi pique les yeux Détend les p'tits haineux, détend les p'tits haineux Le renoi pique les yeux, le renoi pique les yeux Le renoi détend les p'tits haineux, détend les p'tits haineux Quoi?! Quoi?! Quoi?! Quoi?! Quoi?! Sur la vie d'mes morts, sur la vie d'mes morts Sur la vie d'mes morts, l'Etat va pas m'quen' On évite les porcs, on évite les porcs Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts, sur la vie d'mes morts J'vais reprendre tout cet or, tout c'qui nous revient J'vais annuler l'score, annuler l'score Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts11</t>
+          <t>Ayo négro, c'est quoi les bails ? Le flow est criminel Pharaon '89 à l'infini mec Skinny bitch qui en pince pour le p'tit nigga Pas timinik, liasses d'euros, si on tient les meubles Génie illimité, tous les négros veulent imiter l'oeuvre Les billets sont neufs, neufs, neufs et la zik neuve Seufs siliconées, 0.9 qui pique au nez Pour s'occuper d'ma bite, j'veux une meuf qui s'y connaît, han Tu sais que quand c'est moi, c'est pas pareil La puissance du mojo dérègle les appareils Elle a cramé la Audemar, pétasse t'as lil J'peux casser le cul d'n'importe quelle cascadeuse On est sur les nerfs, nerfs, nerfs, nerfs, nerfs, nerfs On est sur les nerfs, nerfs, nerfs, nerfs, nerfs, nerfs 0.9 qui pique au nez Le renoi pique les yeux, le renoi pique les yeux Détend les p'tits haineux, détend les p'tits haineux Le renoi pique les yeux, le renoi pique les yeux Le renoi détend les p'tits haineux, détend les p'tits haineux Quoi?! Quoi?! Quoi?! Quoi?! Quoi?! Sur la vie d'mes morts, sur la vie d'mes morts Sur la vie d'mes morts, l'Etat va pas m'quen' On évite les porcs, on évite les porcs Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts, sur la vie d'mes morts J'vais reprendre tout cet or, tout c'qui nous revient J'vais annuler l'score, annuler l'score Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts Le négro est délicat, raffiné J'vais t'piner, pas te câliner On rafle les 'tasses comme Boko Haram On laisse l'esprit des négros abîmé Touche pas aux grisbis, renoi, touche pas aux grisbis Le manque d'argent m'a rendu irritable Touche pas aux grisbis, renoi, touche pas aux grisbis J'allume un négro, en me fumant une gitane J'ai une Rolex si j'veux, deux trois Rolex si j'veux J'ride en tramway négro, j'ride en Solex si j'veux J'passe la cinquième renoi, j'nique l'alcootest si j'veux J'ride avec ton loyer dans la pocket si j'veux Leurs versets n'ont aucune âme Les voies du Seigneur sont pas autotunables Comme ma bitch, elles sont impénétrables Pour mes noirs du Togo, mes noirs du Sénégal, nigga Le renoi pique les yeux, le renoi pique les yeux Détend les p'tits haineux, détend les p'tits haineux Le renoi pique les yeux, le renoi pique les yeux Le renoi détend les p'tits haineux, détend les p'tits haineux Quoi?! Quoi?! Quoi?! Quoi?! Quoi?! Sur la vie d'mes morts, sur la vie d'mes morts Sur la vie d'mes morts, l'Etat va pas m'quen' On évite les porcs, on évite les porcs Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts, sur la vie d'mes morts J'vais reprendre tout cet or, tout c'qui nous revient J'vais annuler l'score, annuler l'score Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts11</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hey, hey, han amène le charbon négro Hey, right, yo Parle à l'assistante, j'rejette ton appel Regarde toutes les mères qu'on a ken Regarde le sac à main de c'qui accompagne Parce qu'elle a le sac Balmain assorti à mon pagne Si t'as les narines qui brûlent, j'ai des pilules A.D.N. parfait dans les testicules Chez nous on fait les mêmes barbecues que dans Menace Ramène tes chiennes, on a des pitbulls Mais, on prend tout notre temps, on du champagne, de la weed pour fumer Montre moi ta culotte, montre moi tes seins, j'veux voir ça si tu m'aimes Ramène le Cognac, ramène le Belvé, ce soir j'veux tituber J'suis pas sur Paris, j'suis par sur L.A ou Tokyo, j'suis sur M... T.P Whenever I'm with you, I lose all sense of time Love is like an ocean and baby I am Immersed in your Riviera Whenever I'm with you, I lose all sense of time Love is like an ocean and baby I am Immersed in your Riviera You might also like Mes scars-la palabrent, j'parle à ma dame Tu sais qu'le négro a trop d'flow, donne du vague à l'âme Ici c'est pas la même, Vodka caramel Tu sais qu'les autres négros sont pas valables Quand les choses se compliquent, allume ton buzz, ton stick On cherche des seufs qu'on gifle négro, quand on voit une bonne meuf on siffle J'regarde sur la gauche, sur la droite, pose tes seufs sur la natte, j'vais te montrer les vraies choses Ouvre le sac, sors la Goose, sors le Jack, fais couler, nous on sniffe pas de yayo Toi et moi on s'retrouve sur la même planète Tous les deux on peut boire dans la même canette J'aime ta bouche, j'aime ta chatte donc ramène ta lèvre On termine demain on reprend à zéro Whenever I'm with you, I lose all sense of time Love is like an ocean and baby I am Immersed in your Riviera Whenever I'm with you, I lose all sense of time Love is like an ocean and baby I am Immersed in your Riviera Jokee, ehhh yo Jokee, ehhh yo Jokee, ehhh yo Jokee, ehhh yo Jokee, ehhh yo Jokee, ehhh yo Jokee, ehhh yo Jokee, ehhh yo Riviera Riviera Riviera8</t>
+          <t>Hey, hey, han amène le charbon négro Hey, right, yo Parle à l'assistante, j'rejette ton appel Regarde toutes les mères qu'on a ken Regarde le sac à main de c'qui accompagne Parce qu'elle a le sac Balmain assorti à mon pagne Si t'as les narines qui brûlent, j'ai des pilules A.D.N. parfait dans les testicules Chez nous on fait les mêmes barbecues que dans Menace Ramène tes chiennes, on a des pitbulls Mais, on prend tout notre temps, on du champagne, de la weed pour fumer Montre moi ta culotte, montre moi tes seins, j'veux voir ça si tu m'aimes Ramène le Cognac, ramène le Belvé, ce soir j'veux tituber J'suis pas sur Paris, j'suis par sur L.A ou Tokyo, j'suis sur M... T.P Whenever I'm with you, I lose all sense of time Love is like an ocean and baby I am Immersed in your Riviera Whenever I'm with you, I lose all sense of time Love is like an ocean and baby I am Immersed in your Riviera Mes scars-la palabrent, j'parle à ma dame Tu sais qu'le négro a trop d'flow, donne du vague à l'âme Ici c'est pas la même, Vodka caramel Tu sais qu'les autres négros sont pas valables Quand les choses se compliquent, allume ton buzz, ton stick On cherche des seufs qu'on gifle négro, quand on voit une bonne meuf on siffle J'regarde sur la gauche, sur la droite, pose tes seufs sur la natte, j'vais te montrer les vraies choses Ouvre le sac, sors la Goose, sors le Jack, fais couler, nous on sniffe pas de yayo Toi et moi on s'retrouve sur la même planète Tous les deux on peut boire dans la même canette J'aime ta bouche, j'aime ta chatte donc ramène ta lèvre On termine demain on reprend à zéro Whenever I'm with you, I lose all sense of time Love is like an ocean and baby I am Immersed in your Riviera Whenever I'm with you, I lose all sense of time Love is like an ocean and baby I am Immersed in your Riviera Jokee, ehhh yo Jokee, ehhh yo Jokee, ehhh yo Jokee, ehhh yo Jokee, ehhh yo Jokee, ehhh yo Jokee, ehhh yo Jokee, ehhh yo Riviera Riviera Riviera8</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yeah yeah yeah yeah Yeah yeah yeah yeah Yeah yeah yeah yeah Yeah yeah yeah yeah Il m'faut des billets de 1 euro Fuck les billets jaunes, les billets mauves C'est pire qu'la coke, c'est pire qu'l'héro' J'peux y cracher tous mes dinero Si tu mets tes grosses fesses dans ma tête J'vais dépenser les blés en paquet Popotin d'italienne Il m'en faut moins pour me changer en Kraken Les néons frappent sur tes fesses puissantes Tu ris à mes blagues pas amusantes J'mets deux trois billets dans ta ficelle Ensuite je vais gâter la suivante Je serais capable de remercier Dieu si c'était pas trop blasphématoire Trop d'boulards dans mes radars, c'est chaud comme dans un four crématoire Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Monte sur la table, sur la barre Sur le bar, prend les liasses yeah x4 Ton cul gigote sur les notes que tu sens dans les basses yeah x4 Monte sur la table, sur la barre Sur le bar prend les liasses yeah x4 Monte sur la table, sur la barre Sur le bar prend les liasses You might also like J'veux une liasse grosse comme un livre Pour faire des avions dans le strip club Pour épater notre salaire sur leurs seufs On graille day and night comme un Kid Cudi Renoi j'vais backer ses fesses pour la modique somme de cet SMS Le taff c'est effet papillon, si Dieu veut j'm'achète un SLS Dans ce genre d'endroit, j'me conduis mal renoi J'me conduis comme pas permis Retourne-toi, touche tes orteils, j'veux que tu puisses gratter ton vernis Regarde le négro dans les yeux quand tu ouvres ça grand comme une catin Tu fais se lâcher l'plus radin, mais petite j'te jure c'est pas du tapin Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Monte sur la table, sur la barre Sur le bar, prend les liasses yeah x4 Ton cul gigote sur les notes que tu sens dans les basses yeah x4 Monte sur la table, sur la barre Sur le bar prend les liasses yeah x4 Monte sur la table, sur la barre Sur le bar prend les liasses C'est le genre de fessiers d'l'espace qui transforme Superman en Clark Kent Il transforme une danse en racket et éveille toutes ses pulsions malsaines Renoi ramène pas ta CB si tu veux pas te faire dépouiller Tu vas pleurer comme une madeleine Et tu vas partir regarder tes souliers On est sur les nerfs Mamen, une belle gale-sen, imagine la scène Espagne, caliente, une italienne Mas, mas, mas, mas sur les sses-fe las tetas Liasse, liasse, liasse, y'a plus rien qui m'arrête Brrr, billets, billets, billets, elle compte les billets comme mitraillette Elle fait son biff, y'a rien qui la freine Hustleuse, hustleuse comme Nabilla-Ayem Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Monte sur la table, sur la barre Sur le bar, prend les liasses yeah x4 Ton cul gigote sur les notes que tu sens dans les basses yeah x4 Monte sur la table, sur la barre Sur le bar prend les liasses yeah x4 Monte sur la table, sur la barre Sur le bar prend les liasses7</t>
+          <t>Yeah yeah yeah yeah Yeah yeah yeah yeah Yeah yeah yeah yeah Yeah yeah yeah yeah Il m'faut des billets de 1 euro Fuck les billets jaunes, les billets mauves C'est pire qu'la coke, c'est pire qu'l'héro' J'peux y cracher tous mes dinero Si tu mets tes grosses fesses dans ma tête J'vais dépenser les blés en paquet Popotin d'italienne Il m'en faut moins pour me changer en Kraken Les néons frappent sur tes fesses puissantes Tu ris à mes blagues pas amusantes J'mets deux trois billets dans ta ficelle Ensuite je vais gâter la suivante Je serais capable de remercier Dieu si c'était pas trop blasphématoire Trop d'boulards dans mes radars, c'est chaud comme dans un four crématoire Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Monte sur la table, sur la barre Sur le bar, prend les liasses yeah x4 Ton cul gigote sur les notes que tu sens dans les basses yeah x4 Monte sur la table, sur la barre Sur le bar prend les liasses yeah x4 Monte sur la table, sur la barre Sur le bar prend les liasses J'veux une liasse grosse comme un livre Pour faire des avions dans le strip club Pour épater notre salaire sur leurs seufs On graille day and night comme un Kid Cudi Renoi j'vais backer ses fesses pour la modique somme de cet SMS Le taff c'est effet papillon, si Dieu veut j'm'achète un SLS Dans ce genre d'endroit, j'me conduis mal renoi J'me conduis comme pas permis Retourne-toi, touche tes orteils, j'veux que tu puisses gratter ton vernis Regarde le négro dans les yeux quand tu ouvres ça grand comme une catin Tu fais se lâcher l'plus radin, mais petite j'te jure c'est pas du tapin Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Monte sur la table, sur la barre Sur le bar, prend les liasses yeah x4 Ton cul gigote sur les notes que tu sens dans les basses yeah x4 Monte sur la table, sur la barre Sur le bar prend les liasses yeah x4 Monte sur la table, sur la barre Sur le bar prend les liasses C'est le genre de fessiers d'l'espace qui transforme Superman en Clark Kent Il transforme une danse en racket et éveille toutes ses pulsions malsaines Renoi ramène pas ta CB si tu veux pas te faire dépouiller Tu vas pleurer comme une madeleine Et tu vas partir regarder tes souliers On est sur les nerfs Mamen, une belle gale-sen, imagine la scène Espagne, caliente, une italienne Mas, mas, mas, mas sur les sses-fe las tetas Liasse, liasse, liasse, y'a plus rien qui m'arrête Brrr, billets, billets, billets, elle compte les billets comme mitraillette Elle fait son biff, y'a rien qui la freine Hustleuse, hustleuse comme Nabilla-Ayem Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Billets, billets Billets, billets, billets Monte sur la table, sur la barre Sur le bar, prend les liasses yeah x4 Ton cul gigote sur les notes que tu sens dans les basses yeah x4 Monte sur la table, sur la barre Sur le bar prend les liasses yeah x4 Monte sur la table, sur la barre Sur le bar prend les liasses7</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Négro pur comme 24 carats, ma bitch fait du 36 Pose ses pieds de velours sur mon carrelage, laisse un négro pensif Aucune femme n'est inoffensive, arme de destruction massive Après déduction hâtive, tu pourras avoir droit à réduction de ta ive yeah, yeah Tous mes gars le savent, on emballe ça, sur St-Honoré comme De Balzac Prends des grands sacs, prends du Chanel, tu veux du Coco Mademoiselle ? Addition salée dans les salaires, plan déchiré dans les toilettes On est à l'aise, avec ma clique, y'a que les fesses ou Dieu qui les arrêtent Je mords dans une tarte au cassis, ma petite a une robe cassis Ses yeux transpirent la malice, mets toutes ces trainées en bas de la liste Je n'ai que faire de ma Rolex, je porte le plus beau bijou à mon bras La bague Cartier à son doigt donnerait des sueurs froides à mon ex Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Là où tu iras, emmène-moi Il fait si froid, dans ses bras Là où tu iras, emmène-moi À Barbès ou Pigalle, Châtelet, Opéra You might also like On voit ces déesses par dizaines et dans la fraîcheur parisienne Tous les lascars caillassent les keufs, le pêcheur répond à la sirène Reflet de mon époque dans un miroir, on déambule dans la nuit noire Peut-être à la recherche d'un miracle pour avoir ce bois de rose dans l'habitacle Paris on devrait se marier, t'es belle à mourir d'ennui T'es dans ma tête près des billets, là où ma folie mendie J'repense à tes rues par milliers, mon esprit est éparpillé Jusqu'à ce que cette femme en bleu m'accoste pour me dire Monsieur présentez vos papiers Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Là où tu iras, emmène-moi Il fait si froid, dans ses bras Là où tu iras, emmène-moi À Barbès ou Pigalle, Châtelet, Opéra Le négro passera à Pigalle, passera à Pigalle Le négro passera à Barbès, passera à Barbès Le négro passera sur les Champs, passera sur les Champs À Montmartre, à Ménilmontant, à Ménilmontant Le négro passera dans le 9-4, passera dans le 9-4 Yo, le négro passera dans le 9-3, passera dans le 9-3 Yo, le négro passera dans le 9-2, passera dans le 9-2 Yo, le négro passera dans le 9-1, le 7-8, le 7-7 3-4 motherfucker Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh3</t>
+          <t>Négro pur comme 24 carats, ma bitch fait du 36 Pose ses pieds de velours sur mon carrelage, laisse un négro pensif Aucune femme n'est inoffensive, arme de destruction massive Après déduction hâtive, tu pourras avoir droit à réduction de ta ive yeah, yeah Tous mes gars le savent, on emballe ça, sur St-Honoré comme De Balzac Prends des grands sacs, prends du Chanel, tu veux du Coco Mademoiselle ? Addition salée dans les salaires, plan déchiré dans les toilettes On est à l'aise, avec ma clique, y'a que les fesses ou Dieu qui les arrêtent Je mords dans une tarte au cassis, ma petite a une robe cassis Ses yeux transpirent la malice, mets toutes ces trainées en bas de la liste Je n'ai que faire de ma Rolex, je porte le plus beau bijou à mon bras La bague Cartier à son doigt donnerait des sueurs froides à mon ex Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Là où tu iras, emmène-moi Il fait si froid, dans ses bras Là où tu iras, emmène-moi À Barbès ou Pigalle, Châtelet, Opéra On voit ces déesses par dizaines et dans la fraîcheur parisienne Tous les lascars caillassent les keufs, le pêcheur répond à la sirène Reflet de mon époque dans un miroir, on déambule dans la nuit noire Peut-être à la recherche d'un miracle pour avoir ce bois de rose dans l'habitacle Paris on devrait se marier, t'es belle à mourir d'ennui T'es dans ma tête près des billets, là où ma folie mendie J'repense à tes rues par milliers, mon esprit est éparpillé Jusqu'à ce que cette femme en bleu m'accoste pour me dire Monsieur présentez vos papiers Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Là où tu iras, emmène-moi Il fait si froid, dans ses bras Là où tu iras, emmène-moi À Barbès ou Pigalle, Châtelet, Opéra Le négro passera à Pigalle, passera à Pigalle Le négro passera à Barbès, passera à Barbès Le négro passera sur les Champs, passera sur les Champs À Montmartre, à Ménilmontant, à Ménilmontant Le négro passera dans le 9-4, passera dans le 9-4 Yo, le négro passera dans le 9-3, passera dans le 9-3 Yo, le négro passera dans le 9-2, passera dans le 9-2 Yo, le négro passera dans le 9-1, le 7-8, le 7-7 3-4 motherfucker Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh Paris, Paris, Paris, Paris, oh oh3</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>24 On va pas les aider Gold chains, 24, grosses liasses d'oseille J'fume, j'ai pas d'toux, j'bois ma codeine Cristal bouteilles, j'flex comme Popeye J'fais plus d'argent qu'vendeur d'cocaine T'es sûre d'pouvoir avaler ça toute seule ? J'crame une poucave en un coup dil J'parle que d'argent, the fuck you sayin'? Les couilles d'Khadafi, d'Saddam Hussein Y a ton nom sur la boîte, sur la balle, sur la batte Le rap français premier samedi du mois sur la 4 J'suis numéro 1 mais toujours sur les derniers shits Conduite inadmissible, roule sur ces imbéciles Gold chains, 24, grosses liasses d'oseille J'fume, j'ai pas d'toux, j'bois ma codeine Cristal bouteilles, j'flex comme Popeye J'fais plus d'argent qu'vendeur d'cocaine Cokein Cokein Cokein Cokein Cokein Cokein You might also like Toi t'es bon qu'à péter ta bouche Le bouchon pète laisse monter la mousse J'te chauffe comme Interstellar J'ai pas le même scénar' J'rentre dans la matière noire J'ai une huître au poignet, j'vais trouver la perle rare J'te fais l'amour sur la côte, laisse une larme près d'ta joue Ils m'ont bien en bouche, j'les tiens en joue Volant en bois dans le cuir de la Jeep Pendant mon concert dans mon lit ta pétasse crie mon nom Y'en a qui en ont pas et y'en a qui en ont J'coupe la coke comme un ninja je troue ton kimono La vie te terrassera, t'effacera, mes boules tu les masseras J'veux ma bite dans ta bouche, du beurre dans mes pastas Que j'sois damné si j'le fais pas c't'année Masta, j'suis Zizou et Pelé, j'suis Nadal et Nstase Gold chains, 24, grosses liasses d'oseille J'fume, j'ai pas d'toux, j'bois ma codeine Cristal bouteilles, j'flex comme Popeye J'fais plus d'argent qu'vendeur d'cocaine Cokein Cokein Cokein Cokein Cokein Cokein8</t>
+          <t>24 On va pas les aider Gold chains, 24, grosses liasses d'oseille J'fume, j'ai pas d'toux, j'bois ma codeine Cristal bouteilles, j'flex comme Popeye J'fais plus d'argent qu'vendeur d'cocaine T'es sûre d'pouvoir avaler ça toute seule ? J'crame une poucave en un coup dil J'parle que d'argent, the fuck you sayin'? Les couilles d'Khadafi, d'Saddam Hussein Y a ton nom sur la boîte, sur la balle, sur la batte Le rap français premier samedi du mois sur la 4 J'suis numéro 1 mais toujours sur les derniers shits Conduite inadmissible, roule sur ces imbéciles Gold chains, 24, grosses liasses d'oseille J'fume, j'ai pas d'toux, j'bois ma codeine Cristal bouteilles, j'flex comme Popeye J'fais plus d'argent qu'vendeur d'cocaine Cokein Cokein Cokein Cokein Cokein Cokein Toi t'es bon qu'à péter ta bouche Le bouchon pète laisse monter la mousse J'te chauffe comme Interstellar J'ai pas le même scénar' J'rentre dans la matière noire J'ai une huître au poignet, j'vais trouver la perle rare J'te fais l'amour sur la côte, laisse une larme près d'ta joue Ils m'ont bien en bouche, j'les tiens en joue Volant en bois dans le cuir de la Jeep Pendant mon concert dans mon lit ta pétasse crie mon nom Y'en a qui en ont pas et y'en a qui en ont J'coupe la coke comme un ninja je troue ton kimono La vie te terrassera, t'effacera, mes boules tu les masseras J'veux ma bite dans ta bouche, du beurre dans mes pastas Que j'sois damné si j'le fais pas c't'année Masta, j'suis Zizou et Pelé, j'suis Nadal et Nstase Gold chains, 24, grosses liasses d'oseille J'fume, j'ai pas d'toux, j'bois ma codeine Cristal bouteilles, j'flex comme Popeye J'fais plus d'argent qu'vendeur d'cocaine Cokein Cokein Cokein Cokein Cokein Cokein8</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>bruits de bouche J'cracke le code nigga The Spirit of Ecstasy reniflement Yah, yah, right, yah Jpeins ça comme Fantin-Latour, suce-moi, j'vais pas t'faire la cour Ma liasse, j'l'aime comme ma 'tasse, pour que j'me déplace faut qu'on m'khalass Gros stack plus grosse qu'un atlas, cul rond plus rond qu'un atlas T'inquiète pas pour demain, sur mon compte y'a d'la place Les étoiles regardent les hommes, les hommes regardent les étoiles Elles m'observent empiler les sommes, j'les observe, la lumière résonne Tu sais qu'la vie c'est une école, bébé Fais des squats avec le monde sur les épaules, bébé Alpha oméga, le mojo fait trop d'dégats Jeune négro, il faut les liasses, jeune nigga, il faut ega Polia fraîche, le lgbiri, j'pop un exta' comme Diddy J'fais moonwalk sur la piscine, j'fais moonwalk sur la piscine Alright Suce-moi toute la night You might also like Alright, alright Plafond en moulure, manteau en fourrure Beuh dans la chaussure, craie sur la couture Pas d'mea culpa, pas d'mea culpa Pas d'mea culpa, pas d'mea culpa Pas d'mea culpa, j'suis dans cette bitch, nigga Jeune, jeune et riche, nigga, j'suis sur la liste, nigga J'suce pas la teub, nigga, aux journalistes, nigga J'suis radical, nigga, comme salafiste, nigga J'roule cannabis, nigga, nez dans la piste, nigga Viens pas me diss, nigga, tu prends des risques, nigga J'suis dans ces chiffres, nigga, tu tournes en rond, nigga T'es dans un gif, nigga, j'suis hiéroglyphe Alright Suce-moi toute la night Alright, Alright4</t>
+          <t>bruits de bouche J'cracke le code nigga The Spirit of Ecstasy reniflement Yah, yah, right, yah Jpeins ça comme Fantin-Latour, suce-moi, j'vais pas t'faire la cour Ma liasse, j'l'aime comme ma 'tasse, pour que j'me déplace faut qu'on m'khalass Gros stack plus grosse qu'un atlas, cul rond plus rond qu'un atlas T'inquiète pas pour demain, sur mon compte y'a d'la place Les étoiles regardent les hommes, les hommes regardent les étoiles Elles m'observent empiler les sommes, j'les observe, la lumière résonne Tu sais qu'la vie c'est une école, bébé Fais des squats avec le monde sur les épaules, bébé Alpha oméga, le mojo fait trop d'dégats Jeune négro, il faut les liasses, jeune nigga, il faut ega Polia fraîche, le lgbiri, j'pop un exta' comme Diddy J'fais moonwalk sur la piscine, j'fais moonwalk sur la piscine Alright Suce-moi toute la night Alright, alright Plafond en moulure, manteau en fourrure Beuh dans la chaussure, craie sur la couture Pas d'mea culpa, pas d'mea culpa Pas d'mea culpa, pas d'mea culpa Pas d'mea culpa, j'suis dans cette bitch, nigga Jeune, jeune et riche, nigga, j'suis sur la liste, nigga J'suce pas la teub, nigga, aux journalistes, nigga J'suis radical, nigga, comme salafiste, nigga J'roule cannabis, nigga, nez dans la piste, nigga Viens pas me diss, nigga, tu prends des risques, nigga J'suis dans ces chiffres, nigga, tu tournes en rond, nigga T'es dans un gif, nigga, j'suis hiéroglyphe Alright Suce-moi toute la night Alright, Alright4</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Infinigga FREAKEY! Wah, yah Hold up, bad bitches, mon comportement est inadmissible 0.9, grosses 'sses-fe', j'rentre chez Goyard, j'fais peau neuve Réalité, elle est pas visible, elle a l'feu au cul, j'l'appelle Khaleesi La go' là, c'est p't-être une fille bien, Wah, la vie, c'est une pute, elle est magnifique Wah C'est que dans l'esprit ce qu'on gagne ici, je fume de la frappe, je m'qualifie Obscur, conscient comme Morpheus, or pur, toi t'es mon horcruxe Yah, médaille d'or, bois d'argent, métal moins noble dans la poche avant J'rentre dans la vitrine avec une Série 4 Sheesh, j'aime dégommer des chattes délicates J'suis entouré de jeunes courtisanes, suite la plus chère, j'suis au Four Seasons Crème de la crème, toi t'es cortisone, gros, gros problèmes dans la tête, j'swag la camisole On va pas les aider Faut le sac, faut les plaques, faut les stacks, faut les chèques Faut le sac, faut les plaques, faut les stacks, faut les chèques C'est mon année à la banque, c'est mon année à la banque C'est mon année à la banque, j'rentre en moonwalk à la banque C'est mon année à la banque, c'est mon année à la banque C'est mon année à la banque, j'rentre en moonwalk à la banque You might also like J'viens pour claquer des fesses, j'rentre dans ton club si la liasse est épaisse Eh J'sors de l'asile re-noi, j'rentre dans ta tête, doigt broie la gachette, foie gras dans l'assiette Si j'arrive fais l'mort, cette pétasse est équipée sport, elle suce sur du PARTYNEXTDOOR, on maîtrise les scores Scores On fait comme le président, toujours avec une p'tite escorte, waw Wah Si t'es pas mal et qu't'es pas maline, pas câline, qu'tu crois que j'ai le biff d'un qatari Qu't'es réservée sur les bords, un peu cra-crari, blague pas, enlève vite ton gueus', raconte pas ta vie L'art ramène sur Terre le paradis, cannabis fumé pour guérir mes maladies Re-noi, y a des éclairés qui sont à l'asile, j'débarque et femme de ta vie me suça la bite J'pars de la racine et monte à la cime, et Palpatine rencontre Anakin J'ai quitté les halls où ça pue la pisse, 're-noi, si tu y penses, tu lattires Faut le sac, faut les plaques, faut les stacks, faut les chèques Faut le sac, faut les plaques, faut les stacks, faut les chèques C'est mon année à la banque, c'est mon année à la banque C'est mon année à la banque, j'rentre en moonwalk à la banque C'est mon année à la banque, c'est mon année à la banque C'est mon année à la banque, j'rentre en moonwalk à la banque2</t>
+          <t>Infinigga FREAKEY! Wah, yah Hold up, bad bitches, mon comportement est inadmissible 0.9, grosses 'sses-fe', j'rentre chez Goyard, j'fais peau neuve Réalité, elle est pas visible, elle a l'feu au cul, j'l'appelle Khaleesi La go' là, c'est p't-être une fille bien, Wah, la vie, c'est une pute, elle est magnifique Wah C'est que dans l'esprit ce qu'on gagne ici, je fume de la frappe, je m'qualifie Obscur, conscient comme Morpheus, or pur, toi t'es mon horcruxe Yah, médaille d'or, bois d'argent, métal moins noble dans la poche avant J'rentre dans la vitrine avec une Série 4 Sheesh, j'aime dégommer des chattes délicates J'suis entouré de jeunes courtisanes, suite la plus chère, j'suis au Four Seasons Crème de la crème, toi t'es cortisone, gros, gros problèmes dans la tête, j'swag la camisole On va pas les aider Faut le sac, faut les plaques, faut les stacks, faut les chèques Faut le sac, faut les plaques, faut les stacks, faut les chèques C'est mon année à la banque, c'est mon année à la banque C'est mon année à la banque, j'rentre en moonwalk à la banque C'est mon année à la banque, c'est mon année à la banque C'est mon année à la banque, j'rentre en moonwalk à la banque J'viens pour claquer des fesses, j'rentre dans ton club si la liasse est épaisse Eh J'sors de l'asile re-noi, j'rentre dans ta tête, doigt broie la gachette, foie gras dans l'assiette Si j'arrive fais l'mort, cette pétasse est équipée sport, elle suce sur du PARTYNEXTDOOR, on maîtrise les scores Scores On fait comme le président, toujours avec une p'tite escorte, waw Wah Si t'es pas mal et qu't'es pas maline, pas câline, qu'tu crois que j'ai le biff d'un qatari Qu't'es réservée sur les bords, un peu cra-crari, blague pas, enlève vite ton gueus', raconte pas ta vie L'art ramène sur Terre le paradis, cannabis fumé pour guérir mes maladies Re-noi, y a des éclairés qui sont à l'asile, j'débarque et femme de ta vie me suça la bite J'pars de la racine et monte à la cime, et Palpatine rencontre Anakin J'ai quitté les halls où ça pue la pisse, 're-noi, si tu y penses, tu lattires Faut le sac, faut les plaques, faut les stacks, faut les chèques Faut le sac, faut les plaques, faut les stacks, faut les chèques C'est mon année à la banque, c'est mon année à la banque C'est mon année à la banque, j'rentre en moonwalk à la banque C'est mon année à la banque, c'est mon année à la banque C'est mon année à la banque, j'rentre en moonwalk à la banque2</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Han, han Right, right, yeah Yo, yo, nique ta mère et crache dedans Réécrire l'histoire sert à masquer les tâches de sang J'veux faire cette monnaie pour ma famille, pour mon mini-moi Si t'as un p'tit minou présentes-le à mon p'tit minois Tout ces bâtards voudraient toucher ma part mais n'ont pas les ressources pour Si c'est vide dans ta tête si c'est vide dans ta chatte appelle moi vite j'te fourre tout Tous mes mots sont à méditer La vérité, tu veux que j'partage l'oseille, nique ta mère, j'partage qu'les idées Pour faire quelques do' j'suis passé par ci, j'suis passé par là, han J'dors dans des palaces, ma bite et ton cul sont inséparables, han J'vole en première classe, vol à l'arraché, vol à l'étalage Les négros doivent peser comme des Ashkénazes comme des Séfarades J'la baise et j'm'arrache tire un coup ou deux, j'dois m'en débarrasser Je t'expédies vers le seigneur si j'ouvre mon enveloppe et qu'y'a pas assez Tous mes négros sont droit, dragués par l'économie parallèle On vole parce-que le mot liasse et que le mot libre commencent par un L Les sirènes, le système, n'aiment pas trop mon épiderme Les sirènes, le système, n'aiment pas trop mon épiderme Donc, on avance sans les lois, on leur chie dessus On avance sans les lois, on leur chie dessus You might also like Dans les chevilles négro Dans les chevilles négro Dans la tête des négros Dans la tête des négros La France est venue faire ses courses, nous a mit dans une galère T'as voulu commencer le rap tu t'es mis dans une galère T'es un négro qui fait les bails, tu t'es mis dans une galère Tout va bien, tant qu'mon salaire chi-chie sur ton salaire Bientôt j'suis en couv' d'Amina, sur la schnek à Trina J'débarque comme Katrina pluie sur les latina Biatch je fais ressortir ton coté animal J'enlève ton maquillage via tes glandes lacrymales Tu me tailles sur youtube, un jnoun te rend visite Avale du white spirit, avale mes centi-litre Si t'as 35 ans t'es souffrant, ta gueule à mon signal J'suis trop fort parce que dans ma tête y a un garçon qui parle Mon père portait des cairons ma mère torchait des vieux Elle m'a élevé seule le bon Dieu l'a vu de ses yeux Parle d'elle et on débarque chez toi déguisés D'retour comme McFly, d'retour comme les huissiers Les sirènes, le système, n'aiment pas trop mon épiderme Les sirènes, le système, n'aiment pas trop mon épiderme Donc, on avance sans les lois, on leur chie dessus On avance sans les lois, on leur chie dessus Dans les chevilles négro Dans les chevilles négro Dans la tête des négros Dans la tête des négros La France est venue faire ses courses, nous a mit dans une galère T'as voulu commencer le rap tu t'es mis dans une galère T'es un négro qui fait les bails, tu t'es mis dans une galère Tout va bien, tant qu'mon salaire chi-chie sur ton salaire5</t>
+          <t>Han, han Right, right, yeah Yo, yo, nique ta mère et crache dedans Réécrire l'histoire sert à masquer les tâches de sang J'veux faire cette monnaie pour ma famille, pour mon mini-moi Si t'as un p'tit minou présentes-le à mon p'tit minois Tout ces bâtards voudraient toucher ma part mais n'ont pas les ressources pour Si c'est vide dans ta tête si c'est vide dans ta chatte appelle moi vite j'te fourre tout Tous mes mots sont à méditer La vérité, tu veux que j'partage l'oseille, nique ta mère, j'partage qu'les idées Pour faire quelques do' j'suis passé par ci, j'suis passé par là, han J'dors dans des palaces, ma bite et ton cul sont inséparables, han J'vole en première classe, vol à l'arraché, vol à l'étalage Les négros doivent peser comme des Ashkénazes comme des Séfarades J'la baise et j'm'arrache tire un coup ou deux, j'dois m'en débarrasser Je t'expédies vers le seigneur si j'ouvre mon enveloppe et qu'y'a pas assez Tous mes négros sont droit, dragués par l'économie parallèle On vole parce-que le mot liasse et que le mot libre commencent par un L Les sirènes, le système, n'aiment pas trop mon épiderme Les sirènes, le système, n'aiment pas trop mon épiderme Donc, on avance sans les lois, on leur chie dessus On avance sans les lois, on leur chie dessus Dans les chevilles négro Dans les chevilles négro Dans la tête des négros Dans la tête des négros La France est venue faire ses courses, nous a mit dans une galère T'as voulu commencer le rap tu t'es mis dans une galère T'es un négro qui fait les bails, tu t'es mis dans une galère Tout va bien, tant qu'mon salaire chi-chie sur ton salaire Bientôt j'suis en couv' d'Amina, sur la schnek à Trina J'débarque comme Katrina pluie sur les latina Biatch je fais ressortir ton coté animal J'enlève ton maquillage via tes glandes lacrymales Tu me tailles sur youtube, un jnoun te rend visite Avale du white spirit, avale mes centi-litre Si t'as 35 ans t'es souffrant, ta gueule à mon signal J'suis trop fort parce que dans ma tête y a un garçon qui parle Mon père portait des cairons ma mère torchait des vieux Elle m'a élevé seule le bon Dieu l'a vu de ses yeux Parle d'elle et on débarque chez toi déguisés D'retour comme McFly, d'retour comme les huissiers Les sirènes, le système, n'aiment pas trop mon épiderme Les sirènes, le système, n'aiment pas trop mon épiderme Donc, on avance sans les lois, on leur chie dessus On avance sans les lois, on leur chie dessus Dans les chevilles négro Dans les chevilles négro Dans la tête des négros Dans la tête des négros La France est venue faire ses courses, nous a mit dans une galère T'as voulu commencer le rap tu t'es mis dans une galère T'es un négro qui fait les bails, tu t'es mis dans une galère Tout va bien, tant qu'mon salaire chi-chie sur ton salaire5</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Where do we go? Nobody knows I've gotta say I'm on my way down God give me style and give me grace God put a smile upon my face Han Ok, ok, man, v'là l'toqué, toqué, 'à-l' Je débarque dans ce jeu car j'le vaux bien comme l'Oréal Monnaie sur ma dick, sur la chatte à Bettencourt I don't give a fuck, comme ce prof qui pète en cours Ils m'disent Arrête ton char comme si j'roulais à fond Dans les rues de Montréal, le son qui vient des bas-fond MTP, c'est pas Gotham, c'est pas Wayne's World J'veux liquide pas potable pour moi et mes n-words On a la soif d'argent, tellement soif, qu'un beau jour tu bois l'Arcy Fleur de lys sur le poignet, huh, comme un putain d'royaliste Le travail c'est la santé ce dicton n'fonctionne seulement si t'es maton Bro', j'suis à fond sur la forme comme si j'possédais six Decathlon J't'avertis J'viens faire du blé pour un QG pour pas finir entre ces deux lettres sur un azerty J'sais pas jusqu'où on va aller, mais on est 'à-l' J'suis ce genre de négro rare comme une aurore boréale J'sais pas jusqu'où on va aller, mais on est 'à-l' J'suis ce genre de négro rare comme une, comme une, comme une Yeah On est 'à-l', on est, on est 'à-l' Aurore, aurore, aurore boréale, aurore, boréale, on est, on est 'à-l' On est 'à-l', on est, on est 'à-l' Aurore, aurore, aurore boréale, aurore boréale, on est, on est- You might also like Ils m'disent que j'suis terrible, fuck 'em, j'vais leur mettre tout c'qu'ils méritent 11,43 dans la gorge, huh, 11 bags d'euros dans la Porsche, huh La politique est flambée, l'caramel n'est que XXX, tant pis Alors j'm'arrache hun hun direction le pays de Candy Toujours fidèle au gang pour un hold up Paw, toujours sur les sites de cul comme un pop-up Paw Pétasse jap, grosse liasse de yen, j'emmerde la France avec un rire de hyène Champagne pour mes homies, oui monsieur black money Noircit mon argent facile, fallait pas m'laisser sortir de l'asile Bang, je tire d'abord et j'réfléchis après Hm, j'prends un Tic Tac, j'respire, et clic clac boom On va chasser dans la matrice, bois du saké dans un calice Si elle est bonne comme dans un manga, j'embarque ta meuf dans ma valise Oh shit, my nigga, continue à tester On t'enverra une carte postale 'vec des punchlines pour t'aider Sors un python d'l'entrejambe, à ce qui paraît les japonaises en mangent Apparemment elles aiment les six coups, j'veux cinq ou six trous J'sais pas jusqu'où on va aller, mais on est 'à-l' J'suis ce genre de négro rare comme une aurore boréale J'sais pas jusqu'où on va aller, mais on est 'à-l' J'suis ce genre de négro rare comme une, comme une, comme une Yeah On est 'à-l', on est, on est 'à-l' Aurore, aurore, aurore boréale, aurore, boréale, on est, on est 'à-l' On est 'à-l', on est, on est 'à-l' Aurore, aurore, aurore boréale, aurore boréale, on est, on est- Ouais, han J'prie dans ma tête, j'passe, les négros font des messes basses J'parle à ta meuf, mon sub-conscient me dit Mais quelle 'tasse T'as pas d'gars pour m'raconter des cochonneries pareilles J'la fais vriller, elle m'lèche mes boules comme une glace à l'italienne Passes mon oseille, si tu veux pas perdre un orteil C'est l'argent qui me fait perdre le sommeil, au-dessus, c'est le Soleil , boire mon Cristal à la 'teille Taille de guêpe, des trucs salaces, nique sa mère, Maya l'abeille Sur l'torse, j'ai des carats, j'ai mes gars-là qui m'épaulent, transportent les cadavres Les jettent à la mer, chés-per comme Francis Lalanne,, photo d'ta chatte dans mon Canon Voulez vous des couplets dans tout Paname ? 'Re-noi', dans ta meuf, j'fais des trucs haram Mon mojo t'fait un truc haram, c'pas des salades, non égalables On est d'jà là, mon étalage, j'connais ta femme, flow très valable On est die, yo, nigga2</t>
+          <t>Where do we go? Nobody knows I've gotta say I'm on my way down God give me style and give me grace God put a smile upon my face Han Ok, ok, man, v'là l'toqué, toqué, 'à-l' Je débarque dans ce jeu car j'le vaux bien comme l'Oréal Monnaie sur ma dick, sur la chatte à Bettencourt I don't give a fuck, comme ce prof qui pète en cours Ils m'disent Arrête ton char comme si j'roulais à fond Dans les rues de Montréal, le son qui vient des bas-fond MTP, c'est pas Gotham, c'est pas Wayne's World J'veux liquide pas potable pour moi et mes n-words On a la soif d'argent, tellement soif, qu'un beau jour tu bois l'Arcy Fleur de lys sur le poignet, huh, comme un putain d'royaliste Le travail c'est la santé ce dicton n'fonctionne seulement si t'es maton Bro', j'suis à fond sur la forme comme si j'possédais six Decathlon J't'avertis J'viens faire du blé pour un QG pour pas finir entre ces deux lettres sur un azerty J'sais pas jusqu'où on va aller, mais on est 'à-l' J'suis ce genre de négro rare comme une aurore boréale J'sais pas jusqu'où on va aller, mais on est 'à-l' J'suis ce genre de négro rare comme une, comme une, comme une Yeah On est 'à-l', on est, on est 'à-l' Aurore, aurore, aurore boréale, aurore, boréale, on est, on est 'à-l' On est 'à-l', on est, on est 'à-l' Aurore, aurore, aurore boréale, aurore boréale, on est, on est- Ils m'disent que j'suis terrible, fuck 'em, j'vais leur mettre tout c'qu'ils méritent 11,43 dans la gorge, huh, 11 bags d'euros dans la Porsche, huh La politique est flambée, l'caramel n'est que XXX, tant pis Alors j'm'arrache hun hun direction le pays de Candy Toujours fidèle au gang pour un hold up Paw, toujours sur les sites de cul comme un pop-up Paw Pétasse jap, grosse liasse de yen, j'emmerde la France avec un rire de hyène Champagne pour mes homies, oui monsieur black money Noircit mon argent facile, fallait pas m'laisser sortir de l'asile Bang, je tire d'abord et j'réfléchis après Hm, j'prends un Tic Tac, j'respire, et clic clac boom On va chasser dans la matrice, bois du saké dans un calice Si elle est bonne comme dans un manga, j'embarque ta meuf dans ma valise Oh shit, my nigga, continue à tester On t'enverra une carte postale 'vec des punchlines pour t'aider Sors un python d'l'entrejambe, à ce qui paraît les japonaises en mangent Apparemment elles aiment les six coups, j'veux cinq ou six trous J'sais pas jusqu'où on va aller, mais on est 'à-l' J'suis ce genre de négro rare comme une aurore boréale J'sais pas jusqu'où on va aller, mais on est 'à-l' J'suis ce genre de négro rare comme une, comme une, comme une Yeah On est 'à-l', on est, on est 'à-l' Aurore, aurore, aurore boréale, aurore, boréale, on est, on est 'à-l' On est 'à-l', on est, on est 'à-l' Aurore, aurore, aurore boréale, aurore boréale, on est, on est- Ouais, han J'prie dans ma tête, j'passe, les négros font des messes basses J'parle à ta meuf, mon sub-conscient me dit Mais quelle 'tasse T'as pas d'gars pour m'raconter des cochonneries pareilles J'la fais vriller, elle m'lèche mes boules comme une glace à l'italienne Passes mon oseille, si tu veux pas perdre un orteil C'est l'argent qui me fait perdre le sommeil, au-dessus, c'est le Soleil , boire mon Cristal à la 'teille Taille de guêpe, des trucs salaces, nique sa mère, Maya l'abeille Sur l'torse, j'ai des carats, j'ai mes gars-là qui m'épaulent, transportent les cadavres Les jettent à la mer, chés-per comme Francis Lalanne,, photo d'ta chatte dans mon Canon Voulez vous des couplets dans tout Paname ? 'Re-noi', dans ta meuf, j'fais des trucs haram Mon mojo t'fait un truc haram, c'pas des salades, non égalables On est d'jà là, mon étalage, j'connais ta femme, flow très valable On est die, yo, nigga2</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Dans ton... dans ta chatte Dans ton... dans ta chatte Dans ton... dans ta chatte Dans ton... dans ta chatte Fini à 4 pattes, fini à 4 pattes Fini à 4 pattes, fini à 4 pattes Fini à 4 pattes biatch, 4 pattes Fini à 4 pattes biatch, 4 pattes J'ai une tonne à bicraver, j'donne pas les détails Des barrettes d'or, des pavés, nique l'État, les p'tits comptes épargnes Mes nègres aiment les mètres carrés, les culs ronds, les femmes dépravées Bitch en escarpins aime la surface, j'la retourne au fond comme Papin On est sur les nerfs, dans les chattes les plus soyeuses, on en sort la mitrailleuse J'vise pas les meubles, je lis des livres dans les clubs J'transforme les sorties entre copines en touze-par J'mets d'la coke dans ton mouchoir, j'sers pas du azucar On est sur les nerfs Dans ton... dans ta chatte Dans ton... dans ta chatte Dans ton... dans ta chatte Dans ton... dans ta chatte Fini à 4 pattes, fini à 4 pattes Fini à 4 pattes, fini à 4 pattes Fini à 4 pattes biatch, 4 pattes Fini à 4 pattes biatch, 4 pattes You might also like Pour m'qualifier aucun épithète, j'ai un swag qui rend les filles bêtes J'fréquente pas trop les concerts de rap, j'ai peur de marcher dans ces petites merdes Représente le quartier sur les lunettes, MILF en Q10 en Audi Q7 Cul sec, cul sec, c'est Joke l'plus sexe, j'suis sur la chatte de l'archi-duchesse check C'est qui ? Joke plus Lek, Lek, viens sucer ma bistouquette, quette La France pompe l'Afrique pour qu'elle dead, j'suis plus frais qu'le jour de la kermesse Transforme les sorties entre copines en touze-par J'mets d'la coke dans ton mouchoir, bitch danse le mapouka On est sur les nerfs Dans ton... dans ta chatte Dans ton... dans ta chatte Dans ton... dans ta chatte Dans ton... dans ta chatte Fini à 4 pattes, fini à 4 pattes Fini à 4 pattes, fini à 4 pattes Fini à 4 pattes biatch, 4 pattes Fini à 4 pattes biatch, 4 pattes Si t'es un négro bourré, lève la main en l'air Si t'es un babtou bourré, lève la main en l'air Si t'es un nois-chi bourré, lève la main en l'air Si t'es un rebeu bourré, lève la main en l'air On est sur les nerfs10</t>
+          <t>Dans ton... dans ta chatte Dans ton... dans ta chatte Dans ton... dans ta chatte Dans ton... dans ta chatte Fini à 4 pattes, fini à 4 pattes Fini à 4 pattes, fini à 4 pattes Fini à 4 pattes biatch, 4 pattes Fini à 4 pattes biatch, 4 pattes J'ai une tonne à bicraver, j'donne pas les détails Des barrettes d'or, des pavés, nique l'État, les p'tits comptes épargnes Mes nègres aiment les mètres carrés, les culs ronds, les femmes dépravées Bitch en escarpins aime la surface, j'la retourne au fond comme Papin On est sur les nerfs, dans les chattes les plus soyeuses, on en sort la mitrailleuse J'vise pas les meubles, je lis des livres dans les clubs J'transforme les sorties entre copines en touze-par J'mets d'la coke dans ton mouchoir, j'sers pas du azucar On est sur les nerfs Dans ton... dans ta chatte Dans ton... dans ta chatte Dans ton... dans ta chatte Dans ton... dans ta chatte Fini à 4 pattes, fini à 4 pattes Fini à 4 pattes, fini à 4 pattes Fini à 4 pattes biatch, 4 pattes Fini à 4 pattes biatch, 4 pattes Pour m'qualifier aucun épithète, j'ai un swag qui rend les filles bêtes J'fréquente pas trop les concerts de rap, j'ai peur de marcher dans ces petites merdes Représente le quartier sur les lunettes, MILF en Q10 en Audi Q7 Cul sec, cul sec, c'est Joke l'plus sexe, j'suis sur la chatte de l'archi-duchesse check C'est qui ? Joke plus Lek, Lek, viens sucer ma bistouquette, quette La France pompe l'Afrique pour qu'elle dead, j'suis plus frais qu'le jour de la kermesse Transforme les sorties entre copines en touze-par J'mets d'la coke dans ton mouchoir, bitch danse le mapouka On est sur les nerfs Dans ton... dans ta chatte Dans ton... dans ta chatte Dans ton... dans ta chatte Dans ton... dans ta chatte Fini à 4 pattes, fini à 4 pattes Fini à 4 pattes, fini à 4 pattes Fini à 4 pattes biatch, 4 pattes Fini à 4 pattes biatch, 4 pattes Si t'es un négro bourré, lève la main en l'air Si t'es un babtou bourré, lève la main en l'air Si t'es un nois-chi bourré, lève la main en l'air Si t'es un rebeu bourré, lève la main en l'air On est sur les nerfs10</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Han Check moi ça négro Yeah Je vous présente le plus haut des négros qui existent Hey miss, jutilise mon pénis que pour rendre service Ma belle, tu crois sucer ma bite pour du Chanel Tu crois la sucer pour un sac de CC, jpréfère le vendre à Lagerfeld Peau couleur héroïne, le pire des signes du zodiaque Cognac qui coule en hectolitre, voilà le héros d'tes rêves érotiques J'fais fondre ton cerveau, avec des armes électroniques Saute sur ma dick, tellement d'flow, ten fais des coliques, nigga - Tu as jamais fait des injections ? - Nan, j'en ai jamais fait, je m'défonce pas avec des connasses Moi et mes amis savent se shooter. Va chercher la s'ringue Jme défonce pas avec des connasses, tous mes négros sont des sauvages On organise des barbec' sous des fusées en décollage Frustrant comme Zemmour, aspergé dessence et tu perds ton briquet J'suis petit 'de-spee', plein d'or, jsuis supersonique et Aaaah, mothafucka, rongez-moi la bite Joue pas trop ton chaud, négro, tes juste en dessous d'une stalactite Stalactite Les négros ont une boule dans la gorge comme Polac Quand jsuis au plus bas d'ma forme, jai les pouvoirs de Goldorak You might also like Pas le même génie, pas le même flow Pas le même génie, pas le même flow Pas le même génie, pas le même flow Pas le même génie, pas le même flow Pas la même vie mec Tauras pas le même flow Tauras beau sucer ma kikette Tauras pas le même génie Putain de fils de pute, tauras pas le même flow Putain de fils de pute, tauras pas le même génie Putain de fils de pute, tauras pas le même génie Y en a qui croient qu'cest la honte dêtre un pharaon Mais j'te jure, j'me porte bien, même après 20 tractions Sur ta tête, je refais des bruitages de films dactions Jsuis plus sombre à chaque son, contraire d'Michael Jackson Je sors le laguiole de létui, sors de Babylone, je détruis Toute vie, tout porc, toute truie, jdégomme you too comme un Tutsi, fuck Continue et ton miroir s'ra ton mouroir Mouroir Ton salaire sera mon pourboire Pourboire Les rappeurs se font tourner, croient faire des tournées Ces pédés d'blogueurs nont pas de goût et se prennent pour des gourmets Gourmets, fuck J'vous met un roseau dans la choune J'trempe vos visages dans d'la soude Pas le même génie, pas le même flow Pas le même génie, pas le même flow Pas le même génie, pas le même flow Pas le même génie, pas le même flow Pas la même vie mec Tauras pas le même flow Tauras beau sucer ma kikette T'auras pas le même génie Putain de fils de pute, tauras pas le même flow Putain de fils de pute, tauras pas le même génie Putain de fils de pute, tauras pas le même génie4</t>
+          <t>Han Check moi ça négro Yeah Je vous présente le plus haut des négros qui existent Hey miss, jutilise mon pénis que pour rendre service Ma belle, tu crois sucer ma bite pour du Chanel Tu crois la sucer pour un sac de CC, jpréfère le vendre à Lagerfeld Peau couleur héroïne, le pire des signes du zodiaque Cognac qui coule en hectolitre, voilà le héros d'tes rêves érotiques J'fais fondre ton cerveau, avec des armes électroniques Saute sur ma dick, tellement d'flow, ten fais des coliques, nigga - Tu as jamais fait des injections ? - Nan, j'en ai jamais fait, je m'défonce pas avec des connasses Moi et mes amis savent se shooter. Va chercher la s'ringue Jme défonce pas avec des connasses, tous mes négros sont des sauvages On organise des barbec' sous des fusées en décollage Frustrant comme Zemmour, aspergé dessence et tu perds ton briquet J'suis petit 'de-spee', plein d'or, jsuis supersonique et Aaaah, mothafucka, rongez-moi la bite Joue pas trop ton chaud, négro, tes juste en dessous d'une stalactite Stalactite Les négros ont une boule dans la gorge comme Polac Quand jsuis au plus bas d'ma forme, jai les pouvoirs de Goldorak Pas le même génie, pas le même flow Pas le même génie, pas le même flow Pas le même génie, pas le même flow Pas le même génie, pas le même flow Pas la même vie mec Tauras pas le même flow Tauras beau sucer ma kikette Tauras pas le même génie Putain de fils de pute, tauras pas le même flow Putain de fils de pute, tauras pas le même génie Putain de fils de pute, tauras pas le même génie Y en a qui croient qu'cest la honte dêtre un pharaon Mais j'te jure, j'me porte bien, même après 20 tractions Sur ta tête, je refais des bruitages de films dactions Jsuis plus sombre à chaque son, contraire d'Michael Jackson Je sors le laguiole de létui, sors de Babylone, je détruis Toute vie, tout porc, toute truie, jdégomme you too comme un Tutsi, fuck Continue et ton miroir s'ra ton mouroir Mouroir Ton salaire sera mon pourboire Pourboire Les rappeurs se font tourner, croient faire des tournées Ces pédés d'blogueurs nont pas de goût et se prennent pour des gourmets Gourmets, fuck J'vous met un roseau dans la choune J'trempe vos visages dans d'la soude Pas le même génie, pas le même flow Pas le même génie, pas le même flow Pas le même génie, pas le même flow Pas le même génie, pas le même flow Pas la même vie mec Tauras pas le même flow Tauras beau sucer ma kikette T'auras pas le même génie Putain de fils de pute, tauras pas le même flow Putain de fils de pute, tauras pas le même génie Putain de fils de pute, tauras pas le même génie4</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sapapaya Jean-Paul Gaultier m'a passé l'phone à Zahia incroyable Dents en roro comme un Maya Dents en diamant négro, j'rappe pas, j'fais d'la caillasse oui bitch D'la caillasse, ta bitch s'maquille comme Rama Yade J'sors en KTM d'la Paillade J'rentre dans sa chatte, j'crois qu'j'suis à deux doigts d'la noyade La noyade, j'crache dans des putes incroyables J'fume amné, bitch, j'fume ma salade Négro t'rafale, comme en Calabre Mojo fait des glitchs C'sûr qu'j'aligne les planètes avec mon négro pas net J'sors l'pied d'la caisse, la main sur sa fesse Canon sur la cuisse, j'glisse dans une actrice Tire le gros lot, négro chandail Polo Mami twerk comme pour championnats nationaux J'fume sur SoHo, elle, j'lui mets une sodo' Temps me couronne, Rolex est mon chrono, wa J'rock comme Bono, négro sors son golo J'la laisse faire un solo, après j'la unfollow C'est MTP, Togo, tatoué comme un cholo Grosse auto, semi-auto, j'tire dans tes biscotos You might also like Attention, tu perds d'la tension, hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Attention, tu perds d'la tension hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Moonwalk sur leurs gosses, comme un boss La vie nous sauce, la pluie me cause Pense aux gosses, j'ressors mon cross, tu sors ta grosse Pense aux gosses, j'ressors mon cross, tu sors ta grosse D'la noyade J'crache dans des putes incroyables J'fume amné, pute, j'fume ma salade Négro t'rafale, comme en Calabre J'pose ma sale voix pas autotunée, la seule fois qu'la vérité sonne faux J'ai choisi entre vivre vieux ou fortuné, croquer dans l'gros cul du monde, j'ai des dents d'fauves Ils pensent en 280 caractères, sur le ring, j'ai hâte d'y être La merde vole à ras d'terre, j'écrase leur son du pied gauche avec mon 808 fillette En clash avec mon égo, je rappe, je poursuis un autre but Les flingues se répètent comme l'écho, j'ai braqué la faux et la capuche noire à l'autre pute J'm'entraîne à mourir donc à piquer des sommes, j'ai fumé Chronos Y'a plus de rappeuses, réduit à niquer des hommes, le char du rap échoue sur l'île de Mykonos Mon âme est dans l'son comme le ver dans la pomme, en mode avion, sers-moi du kérosène S'il la veut, dites à Satan d'acheter l'album, mon larfeuille, c'est une zone érogène N'enfile pas les gants si t'as peur du compte, laisse-moi faire mon truc, j'suis seul dans mon feuilleton Tu dors depuis longtemps, l'arbitre a perdu l'compte, j'neutralise Judas, un canon dans l'illeton Attention, tu perds d'la tension, hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Attention, tu perds d'la tension hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Moonwalk sur leurs gosses, comme un boss La vie nous sauce, la pluie me cause Pense aux gosses, j'ressors mon cross, tu sors ta grosse Pense aux gosses, j'ressors mon cross, tu sors ta grosse2</t>
+          <t>Sapapaya Jean-Paul Gaultier m'a passé l'phone à Zahia incroyable Dents en roro comme un Maya Dents en diamant négro, j'rappe pas, j'fais d'la caillasse oui bitch D'la caillasse, ta bitch s'maquille comme Rama Yade J'sors en KTM d'la Paillade J'rentre dans sa chatte, j'crois qu'j'suis à deux doigts d'la noyade La noyade, j'crache dans des putes incroyables J'fume amné, bitch, j'fume ma salade Négro t'rafale, comme en Calabre Mojo fait des glitchs C'sûr qu'j'aligne les planètes avec mon négro pas net J'sors l'pied d'la caisse, la main sur sa fesse Canon sur la cuisse, j'glisse dans une actrice Tire le gros lot, négro chandail Polo Mami twerk comme pour championnats nationaux J'fume sur SoHo, elle, j'lui mets une sodo' Temps me couronne, Rolex est mon chrono, wa J'rock comme Bono, négro sors son golo J'la laisse faire un solo, après j'la unfollow C'est MTP, Togo, tatoué comme un cholo Grosse auto, semi-auto, j'tire dans tes biscotos Attention, tu perds d'la tension, hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Attention, tu perds d'la tension hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Moonwalk sur leurs gosses, comme un boss La vie nous sauce, la pluie me cause Pense aux gosses, j'ressors mon cross, tu sors ta grosse Pense aux gosses, j'ressors mon cross, tu sors ta grosse D'la noyade J'crache dans des putes incroyables J'fume amné, pute, j'fume ma salade Négro t'rafale, comme en Calabre J'pose ma sale voix pas autotunée, la seule fois qu'la vérité sonne faux J'ai choisi entre vivre vieux ou fortuné, croquer dans l'gros cul du monde, j'ai des dents d'fauves Ils pensent en 280 caractères, sur le ring, j'ai hâte d'y être La merde vole à ras d'terre, j'écrase leur son du pied gauche avec mon 808 fillette En clash avec mon égo, je rappe, je poursuis un autre but Les flingues se répètent comme l'écho, j'ai braqué la faux et la capuche noire à l'autre pute J'm'entraîne à mourir donc à piquer des sommes, j'ai fumé Chronos Y'a plus de rappeuses, réduit à niquer des hommes, le char du rap échoue sur l'île de Mykonos Mon âme est dans l'son comme le ver dans la pomme, en mode avion, sers-moi du kérosène S'il la veut, dites à Satan d'acheter l'album, mon larfeuille, c'est une zone érogène N'enfile pas les gants si t'as peur du compte, laisse-moi faire mon truc, j'suis seul dans mon feuilleton Tu dors depuis longtemps, l'arbitre a perdu l'compte, j'neutralise Judas, un canon dans l'illeton Attention, tu perds d'la tension, hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Attention, tu perds d'la tension hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Moonwalk sur leurs gosses, comme un boss La vie nous sauce, la pluie me cause Pense aux gosses, j'ressors mon cross, tu sors ta grosse Pense aux gosses, j'ressors mon cross, tu sors ta grosse2</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Yo, ma p'tite chérie Chérie, dis-moi c'qu'on fait cet après-midi Marre d'regarder des séries Séries, vie à 100 à l'heure genre Lady Di On coupe l'iPhone and 'Berry, deux bouches, une Ben Jerry's Du genre esquiver la mairie, faire un périple à l'américaine On va parler d'choses et d'autres, surtout d'autres choses Sur la plage on va vivre d'amour, d'amour et d'eau chaude Ma p'tite, on va tuer le temps, ressusciter nos sentiments S'bécotter sur les bancs, lassés comme des fous à lier Rien à foutre ce que la foule va dire, suis-moi I wanna take you on a journey With I wanna take you on a journey I wanna take you on a journey With I wanna take you on a journey Han, chérie Yo, ma p'tite chérie Chérie, dis-moi ce qu'on fait pour notre vie Les noces me donnent la nausée, j'veux t'avoir pour d'autres nuits Moi, j'veux pas m'réveiller, tout gâcher comme Ali J'pourrais pas t'payer d'LV, si on doit faire nos valises Valises Yeaaaaah, j'voudrais pas m'réveiller Yeaaaaah, j'pense qu'on devrait quitter l'pays, chérie Faire vite, hein hein, avant que tout ça ne se termine, hein hein Pour toutes les journées de cette vie, hein hein, pour aujourd'hui et l'éternité Yo yo yo, faire vite, hein hein, avant que tout ça ne se termine, hein hein Petite, je voudrais te garder jour et nuit, nuit et jour, pour aujourd'hui et l'éternité, yo You might also like I wanna take you on a journey With I wanna take you on a journey I wanna take you on a journey With I wanna take you on a journey 6</t>
+          <t>Yo, ma p'tite chérie Chérie, dis-moi c'qu'on fait cet après-midi Marre d'regarder des séries Séries, vie à 100 à l'heure genre Lady Di On coupe l'iPhone and 'Berry, deux bouches, une Ben Jerry's Du genre esquiver la mairie, faire un périple à l'américaine On va parler d'choses et d'autres, surtout d'autres choses Sur la plage on va vivre d'amour, d'amour et d'eau chaude Ma p'tite, on va tuer le temps, ressusciter nos sentiments S'bécotter sur les bancs, lassés comme des fous à lier Rien à foutre ce que la foule va dire, suis-moi I wanna take you on a journey With I wanna take you on a journey I wanna take you on a journey With I wanna take you on a journey Han, chérie Yo, ma p'tite chérie Chérie, dis-moi ce qu'on fait pour notre vie Les noces me donnent la nausée, j'veux t'avoir pour d'autres nuits Moi, j'veux pas m'réveiller, tout gâcher comme Ali J'pourrais pas t'payer d'LV, si on doit faire nos valises Valises Yeaaaaah, j'voudrais pas m'réveiller Yeaaaaah, j'pense qu'on devrait quitter l'pays, chérie Faire vite, hein hein, avant que tout ça ne se termine, hein hein Pour toutes les journées de cette vie, hein hein, pour aujourd'hui et l'éternité Yo yo yo, faire vite, hein hein, avant que tout ça ne se termine, hein hein Petite, je voudrais te garder jour et nuit, nuit et jour, pour aujourd'hui et l'éternité, yo I wanna take you on a journey With I wanna take you on a journey I wanna take you on a journey With I wanna take you on a journey 6</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Belve', glaçons, mojo, plafond J'viens tisser des liens, Peter Parker Araignée au plafond, mojo, à fond Tous les jours dans le building sauf le 11 septembre Dans la direction du regard de ta pétasse, on est posés là avec classe On cherche même pas les salopes, on vient gonfler la cagnotte Faire fortune avec 3 notes Négro, arrêter d'stresser la daronne Eh yo pendant ce temps là Oh, des chiennes me cherchent sur Adopte, S.P.A Respect à mes gars sûrs Les Monsieur Gang Négro, j'en ai rien à foutre de ce game, je compte même pas rester là J'suis en direct de la Paillade, ta meuf s'maquille comme Rama Yade Donne-moi les chiffres du loto, qu'j'prenne un billet pour Kyoto Pas la peine d'te dire d'lever ton verre en l'air, croise-moi dans le club avec une belle anglaise Tous tes gars sont très lents, partout je peux 'trer-ren', yo négro, paw, j'ai mon fer en guest Pas la peine d'te dire d'lever ton verre en l'air, croise-moi dans le club avec une belle anglaise Tous tes gars sont très lents, partout je peux 'trer-ren', yo négro, paw, j'ai mon fer en guestYou might also like7</t>
+          <t>Belve', glaçons, mojo, plafond J'viens tisser des liens, Peter Parker Araignée au plafond, mojo, à fond Tous les jours dans le building sauf le 11 septembre Dans la direction du regard de ta pétasse, on est posés là avec classe On cherche même pas les salopes, on vient gonfler la cagnotte Faire fortune avec 3 notes Négro, arrêter d'stresser la daronne Eh yo pendant ce temps là Oh, des chiennes me cherchent sur Adopte, S.P.A Respect à mes gars sûrs Les Monsieur Gang Négro, j'en ai rien à foutre de ce game, je compte même pas rester là J'suis en direct de la Paillade, ta meuf s'maquille comme Rama Yade Donne-moi les chiffres du loto, qu'j'prenne un billet pour Kyoto Pas la peine d'te dire d'lever ton verre en l'air, croise-moi dans le club avec une belle anglaise Tous tes gars sont très lents, partout je peux 'trer-ren', yo négro, paw, j'ai mon fer en guest Pas la peine d'te dire d'lever ton verre en l'air, croise-moi dans le club avec une belle anglaise Tous tes gars sont très lents, partout je peux 'trer-ren', yo négro, paw, j'ai mon fer en guest7</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wah Wah, wah... J'incendie le joint dans l'carré, R.R mal garée Des fleurs dans l'garo, négro est dans l'faro Jamais d'cran d'arrêt, j'éclaire la soirée Fils t'es désemparé, comme devant feu, vent, marée J't'ai offert une dose pour m'offrir une Ghost J'dois refaire d'l'oseille pour refaire une gosse Twerk sur ma tête, envoie tout l'matos J'arnaque la patronne, négro, j'roule ma boss J'parle plus d'amour, j'parle plus d'business Je heurte ton esprit à toute vitesse Des troisièmes lettres de l'alphabet mes boucles d'oreilles J'crois qu'mon Vuitton a pris un coup d'soleil Whatever, whatever, whatever I want Whatever, whatever, whatever I want No, no, I can be whoever I want No, no, I can go everywhere I want You might also like Les sachets d'beuh remplissent une table J'fais un vu, je tire une taffe J'ai son avenir dans mon Goyard J'ferme les yeux, je tire une carte Y'a d'l'amour sous la haine Y'a toujours des diamants au bout d'ma chaîne Les 'tasses autour d'la table c'est toutes les miennes Les 'tasses autour d'ta table c'est toutes les miettes J'passe mon temps à rêver, c'est bon pour l'Univers J'l'aime comme le bon Dieu, j'la nique comme Lucifer P'tit, j'm'imaginais avec mon clip sur MTV Maintenant, j'me fais sucer devant mon clip sur MTV Traumatisé en naissant, la vie pour se soigner J'veux gagner des Grammy, m'plaindre comme Kanye Ma daronne qui s'prenait la tête pour le loyer J'flex toute l'année, est-c'qu'vous voyez Ma vie est le fruit de mon esprit Ta 'tasse est amoureuse de comment j'm'exprime Y a un miracle dans chaque bouffée d'air qu'j'respire J'te vends une ligne de coke, un trait d'esprit Whatever, whatever, whatever I want Whatever, whatever, whatever I want No, no, I can be whoever I want No, no, I can go everywhere I want Whatever, whatever, whatever I want Whatever, whatever, whatever I want No, no you can't be whoever you want Ahh-ahh-ahhh Ah-ahhh-ah-ahhh Ah-ahh-ah-ahhhh Ah-ah-ahhhh Ah-ah-ah-ahhhh Hm-hm-hm-hmm-hmm Ahh-ah-ah-ah-ahh Ah-ah-ah-ah-ahhh Ahh-ahh-ah-ah-ah-ahhhh, hm-hm-hmm-hmm Ah-ah-ah-ah-ahhh Ahh-ah-ah-ah-ahhhhhh1</t>
+          <t>Wah Wah, wah... J'incendie le joint dans l'carré, R.R mal garée Des fleurs dans l'garo, négro est dans l'faro Jamais d'cran d'arrêt, j'éclaire la soirée Fils t'es désemparé, comme devant feu, vent, marée J't'ai offert une dose pour m'offrir une Ghost J'dois refaire d'l'oseille pour refaire une gosse Twerk sur ma tête, envoie tout l'matos J'arnaque la patronne, négro, j'roule ma boss J'parle plus d'amour, j'parle plus d'business Je heurte ton esprit à toute vitesse Des troisièmes lettres de l'alphabet mes boucles d'oreilles J'crois qu'mon Vuitton a pris un coup d'soleil Whatever, whatever, whatever I want Whatever, whatever, whatever I want No, no, I can be whoever I want No, no, I can go everywhere I want Les sachets d'beuh remplissent une table J'fais un vu, je tire une taffe J'ai son avenir dans mon Goyard J'ferme les yeux, je tire une carte Y'a d'l'amour sous la haine Y'a toujours des diamants au bout d'ma chaîne Les 'tasses autour d'la table c'est toutes les miennes Les 'tasses autour d'ta table c'est toutes les miettes J'passe mon temps à rêver, c'est bon pour l'Univers J'l'aime comme le bon Dieu, j'la nique comme Lucifer P'tit, j'm'imaginais avec mon clip sur MTV Maintenant, j'me fais sucer devant mon clip sur MTV Traumatisé en naissant, la vie pour se soigner J'veux gagner des Grammy, m'plaindre comme Kanye Ma daronne qui s'prenait la tête pour le loyer J'flex toute l'année, est-c'qu'vous voyez Ma vie est le fruit de mon esprit Ta 'tasse est amoureuse de comment j'm'exprime Y a un miracle dans chaque bouffée d'air qu'j'respire J'te vends une ligne de coke, un trait d'esprit Whatever, whatever, whatever I want Whatever, whatever, whatever I want No, no, I can be whoever I want No, no, I can go everywhere I want Whatever, whatever, whatever I want Whatever, whatever, whatever I want No, no you can't be whoever you want Ahh-ahh-ahhh Ah-ahhh-ah-ahhh Ah-ahh-ah-ahhhh Ah-ah-ahhhh Ah-ah-ah-ahhhh Hm-hm-hm-hmm-hmm Ahh-ah-ah-ah-ahh Ah-ah-ah-ah-ahhh Ahh-ahh-ah-ah-ah-ahhhh, hm-hm-hmm-hmm Ah-ah-ah-ah-ahhh Ahh-ah-ah-ah-ahhhhhh1</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>My nigga Young nigga My nigga 0.6 represents Oui my nigga, roule une batte Oui my nigga, roule une batte Oui my nigga, roule une batte Oui my nigga, roule une batte En haute couture, j'la fais danser sur un fil Le rap mobserve, se rentre des doigts sur mon style Si j'te coulais chaque fois, j'écoulerais un kil' J'écris sans virgule, j'suis le numéro un, pile J'souffle dans ton cou et j'te tire par la crinière J'suis le tur-fu renoi, ça date pas d'hier C'est pas l'arme qui tue, nan c'est l'homme qui fait la guerre Je marche sur l'eau, sur la tombe à Ben Laden Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh, woh, woh, woh Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh, woh, woh, woh Oui my nigga, roule une batte Oui my nigga, roule une batte Oui my nigga, roule une batte Oui my nigga, roule une batte You might also like J'entasse les billets, j'suis en Suisse Bébé, prends tout c'que tu veux chez Givenchy Mama Shelter, Hotel Costes ou Méridien ? On va faire des trips au lit comme les libyens Ok-k-k, donne-moi ce cake, cake, cake Que j'sorte mon AK-K forty-seven, bratata Ok-k-k, donne-moi ce cake, cake, cake Que j'déboule capuché sur la shnek du KKK Petit Papa Noël, mets du biff dans mes souliers J'sors des galeries, quatre ceintures noires comme si j'étais David Douillet J'suis l'seul et tu l'sais bien Tous les autres ne valent rien Sont bon qu'à finir leurs phrases par nous et mettre du Philipp Plein Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh, woh, woh, woh Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh, woh, woh, woh J'suis dans le binks, hella, menotté comme Mandela Fuck une garde à vue, y'a pas d'lacets sur ma Margiela Binks, hella, menotté comme Mandela Fuck une garde à vue, y'a pas d'lacets sur ma Margiela Hella, hella Fuck une garde à vue, y'a pas d'lacets sur ma Margiela Hella Hella3</t>
+          <t>My nigga Young nigga My nigga 0.6 represents Oui my nigga, roule une batte Oui my nigga, roule une batte Oui my nigga, roule une batte Oui my nigga, roule une batte En haute couture, j'la fais danser sur un fil Le rap mobserve, se rentre des doigts sur mon style Si j'te coulais chaque fois, j'écoulerais un kil' J'écris sans virgule, j'suis le numéro un, pile J'souffle dans ton cou et j'te tire par la crinière J'suis le tur-fu renoi, ça date pas d'hier C'est pas l'arme qui tue, nan c'est l'homme qui fait la guerre Je marche sur l'eau, sur la tombe à Ben Laden Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh, woh, woh, woh Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh, woh, woh, woh Oui my nigga, roule une batte Oui my nigga, roule une batte Oui my nigga, roule une batte Oui my nigga, roule une batte J'entasse les billets, j'suis en Suisse Bébé, prends tout c'que tu veux chez Givenchy Mama Shelter, Hotel Costes ou Méridien ? On va faire des trips au lit comme les libyens Ok-k-k, donne-moi ce cake, cake, cake Que j'sorte mon AK-K forty-seven, bratata Ok-k-k, donne-moi ce cake, cake, cake Que j'déboule capuché sur la shnek du KKK Petit Papa Noël, mets du biff dans mes souliers J'sors des galeries, quatre ceintures noires comme si j'étais David Douillet J'suis l'seul et tu l'sais bien Tous les autres ne valent rien Sont bon qu'à finir leurs phrases par nous et mettre du Philipp Plein Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh, woh, woh, woh Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh Beuh et liqueurs, beuh et liqueurs, woh, woh, woh, woh J'suis dans le binks, hella, menotté comme Mandela Fuck une garde à vue, y'a pas d'lacets sur ma Margiela Binks, hella, menotté comme Mandela Fuck une garde à vue, y'a pas d'lacets sur ma Margiela Hella, hella Fuck une garde à vue, y'a pas d'lacets sur ma Margiela Hella Hella3</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari Avec mes thugs dans la Rari, on a ta bitch dans la Rari J'fais un p'tit jump dans la Rari, toujours un gun dans la Rari Ces bitches veulent jump dans la Rari, jeune rebeu riche dans la Rari Chickens, chickens, chickens poursuivent la Rari Oui babe, oui babe, oui babe j'suis dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari Regarde c'qu'on a construit sans manuel Je débarque on m'regarde comme un alien Dégage on aime pas trop tes manières On mitraille le torse de ta carrière Non stop, non stop, mes bitches font rentrer les tickets Gun shot, gun shot, et ton équipe danse comme des criquets Elle suce sans les mains, et elle le fait bien Jeune rebeu au sommet, on t'braque dans ton sommeil On fuck toutes ces bitches, on fuck toutes ces bitches On veut juste prendre cette money, babe On veut juste prendre cette money, babe Reviens m'voir avec le double Brise des crânes avec le genou Tout l'monde à terre juste après le boum J'suis pas venu jouer, cotiser les sous C'est le tiercé dans le bloc, c'est le marché dans le bloc La police nous guette mais on s'en bat les couilles Que mes jeunes shooters leur envoient des douilles You might also like J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari Avec mes thugs dans la Rari, on a ta bitch dans la Rari J'fais un p'tit jump dans la Rari, toujours un gun dans la Rari Ces bitches veulent jump dans la Rari, jeune rebeu riche dans la Rari Chickens, chickens, chickens poursuivent la Rari Oui babe, oui babe, oui babe j'suis dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari T'as une tête à jump dans une Clio J'baise leur grands-mères avec brio T'as des gravillons sur les genoux à force d'm'sucer le tuyau Va t'pendre avec ton string celle-fi Moi j'sais faire honneur aux belles filles T'es du genre à m'bouffer les couilles À vendre ta grand-mère pour un selfie J'fais un p'tit jump dans la Rari J'te pète l'arcade comme Badr Hari Téma sous l'capot d'l'a Rari Plus de chevaux qu'Omar Sharif Mon me-sper ressemble à ta salive On lave l'argent sale en famille J'veux mettre ma queue dans Amber Rose Être calife à la place du calife T'as l'profil des bâtards que j'aime pas Fais pas d'business si tu payes pas Parce que re-noi si tu payes pas Un jour ou l'autre tu le paieras J'fais un p'tit jump dans le piège Cheval cabré dans le siège J'te doigte avec mon kit main libre C'est moi ou t'as un style d'indic ? J'vais foudroyer Neguesha Fanny Première page dans le journal de Carrie Toi t'es un travlo, t'es un tranny J'laisse un trou béant dans ta racli J'fais un p'tit jump dans la Rari Mets des coup d'klaxons quand j'vois ta pute Fais pas le con passe la money Ou fais du base jump sans parachute J'fais un p'tit jump dans le vortex J'suis hors concours, t'es hors contexte J'veux billets violets, billets jaunes J'veux des raisins dans mes corn-flakes J'fais un p'tit jump dans le piège Bouteilles d'champagne, sors le liège J'fais un p'tit jump dans la Rari J'reviens comme le fils de Marie J'ai d'la OG et d'l'Amné, sur la route t'es effacé Quand le H est dans cette bitch, il fait humide dans cette bitch On a plein de billets yellow, j'y vais salement, t'y vas molo Où je vais, ces bitchs me follow, t'es démodé, toujours solo Dans la teuch, dans la teuch Dans la bouche, dans la bouche Diamants font qu'danser, oseille on fait qu'penser Tu connais le gang Jimmy veut jouer, Jimmy a oublié qu'j'vais tirer dedans C'est chaud dans les streets en bas des grands buildings J'suis parti des streets, j'ai fini dans l'building T'as rien à faire dans ma life, bonjour, au revoir et ci-mer Je n'pense qu'à faire de la maille, euros, dollars et divers J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari Avec mes thugs dans la Rari, on a ta bitch dans la Rari J'fais un p'tit jump dans la Rari, toujours un gun dans la Rari Ces bitches veulent jump dans la Rari, jeune rebeu riche dans la Rari Chickens, chickens, chickens poursuivent la Rari Oui babe, oui babe, oui babe j'suis dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari Avec mes thugs dans la Rari, on a ta bitch dans la Rari J'fais un p'tit jump dans la Rari, toujours un gun dans la Rari Ces bitches veulent jump dans la Rari, jeune rebeu riche dans la Rari Chickens, chickens, chickens poursuivent la Rari Oui babe, oui babe, oui babe j'suis dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari3</t>
+          <t>J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari Avec mes thugs dans la Rari, on a ta bitch dans la Rari J'fais un p'tit jump dans la Rari, toujours un gun dans la Rari Ces bitches veulent jump dans la Rari, jeune rebeu riche dans la Rari Chickens, chickens, chickens poursuivent la Rari Oui babe, oui babe, oui babe j'suis dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari Regarde c'qu'on a construit sans manuel Je débarque on m'regarde comme un alien Dégage on aime pas trop tes manières On mitraille le torse de ta carrière Non stop, non stop, mes bitches font rentrer les tickets Gun shot, gun shot, et ton équipe danse comme des criquets Elle suce sans les mains, et elle le fait bien Jeune rebeu au sommet, on t'braque dans ton sommeil On fuck toutes ces bitches, on fuck toutes ces bitches On veut juste prendre cette money, babe On veut juste prendre cette money, babe Reviens m'voir avec le double Brise des crânes avec le genou Tout l'monde à terre juste après le boum J'suis pas venu jouer, cotiser les sous C'est le tiercé dans le bloc, c'est le marché dans le bloc La police nous guette mais on s'en bat les couilles Que mes jeunes shooters leur envoient des douilles J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari Avec mes thugs dans la Rari, on a ta bitch dans la Rari J'fais un p'tit jump dans la Rari, toujours un gun dans la Rari Ces bitches veulent jump dans la Rari, jeune rebeu riche dans la Rari Chickens, chickens, chickens poursuivent la Rari Oui babe, oui babe, oui babe j'suis dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari T'as une tête à jump dans une Clio J'baise leur grands-mères avec brio T'as des gravillons sur les genoux à force d'm'sucer le tuyau Va t'pendre avec ton string celle-fi Moi j'sais faire honneur aux belles filles T'es du genre à m'bouffer les couilles À vendre ta grand-mère pour un selfie J'fais un p'tit jump dans la Rari J'te pète l'arcade comme Badr Hari Téma sous l'capot d'l'a Rari Plus de chevaux qu'Omar Sharif Mon me-sper ressemble à ta salive On lave l'argent sale en famille J'veux mettre ma queue dans Amber Rose Être calife à la place du calife T'as l'profil des bâtards que j'aime pas Fais pas d'business si tu payes pas Parce que re-noi si tu payes pas Un jour ou l'autre tu le paieras J'fais un p'tit jump dans le piège Cheval cabré dans le siège J'te doigte avec mon kit main libre C'est moi ou t'as un style d'indic ? J'vais foudroyer Neguesha Fanny Première page dans le journal de Carrie Toi t'es un travlo, t'es un tranny J'laisse un trou béant dans ta racli J'fais un p'tit jump dans la Rari Mets des coup d'klaxons quand j'vois ta pute Fais pas le con passe la money Ou fais du base jump sans parachute J'fais un p'tit jump dans le vortex J'suis hors concours, t'es hors contexte J'veux billets violets, billets jaunes J'veux des raisins dans mes corn-flakes J'fais un p'tit jump dans le piège Bouteilles d'champagne, sors le liège J'fais un p'tit jump dans la Rari J'reviens comme le fils de Marie J'ai d'la OG et d'l'Amné, sur la route t'es effacé Quand le H est dans cette bitch, il fait humide dans cette bitch On a plein de billets yellow, j'y vais salement, t'y vas molo Où je vais, ces bitchs me follow, t'es démodé, toujours solo Dans la teuch, dans la teuch Dans la bouche, dans la bouche Diamants font qu'danser, oseille on fait qu'penser Tu connais le gang Jimmy veut jouer, Jimmy a oublié qu'j'vais tirer dedans C'est chaud dans les streets en bas des grands buildings J'suis parti des streets, j'ai fini dans l'building T'as rien à faire dans ma life, bonjour, au revoir et ci-mer Je n'pense qu'à faire de la maille, euros, dollars et divers J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari Avec mes thugs dans la Rari, on a ta bitch dans la Rari J'fais un p'tit jump dans la Rari, toujours un gun dans la Rari Ces bitches veulent jump dans la Rari, jeune rebeu riche dans la Rari Chickens, chickens, chickens poursuivent la Rari Oui babe, oui babe, oui babe j'suis dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari Avec mes thugs dans la Rari, on a ta bitch dans la Rari J'fais un p'tit jump dans la Rari, toujours un gun dans la Rari Ces bitches veulent jump dans la Rari, jeune rebeu riche dans la Rari Chickens, chickens, chickens poursuivent la Rari Oui babe, oui babe, oui babe j'suis dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari J'fais un p'tit jump dans la Rari, j'fais un p'tit jump dans la Rari3</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Uh-uh Si on vise, on shoote, on shoote dans les casquettes What Si on vise, on shoote, on shoote dans les casquettes What C'est MTP, la con d'sa mère Sa mère MTP, la con d'sa mère Sa mère Mais où sont mes négros ? Mais où sont mes négros ? Les Monsieurs, mon négro What, Les Monsieurs, mon négro What MTP, la con d'sa mère Sa mère MTP, la con d'sa mère Sa mère Ok, ok, Joky détruit ta carrière On est en avance, débarque en marche arrière T'y penseras dans dix ans, j'pensais à ça hier Contrôle de keuf, j'mets d'la coke dans ma salière Et j'suis pas là juste pour le strass ni les paillettes Elle veut pas baiser, j'la laisse rentrer à 'ied-p' Si j'la laisse monter, qu'elle m'suce dans le tacot La con d'sa mère, j'veux la Rolex à Sarko' Ta meuf m'a vu, a cru voir une comète Négro style 2013, c'est très dur d'être honnête Dans ma team on est keus, on pèse comme des gros mecs C'est chaud mec, négro on baise comme dans une classe d'électro tech' Stop Hé, poses pas trop d'questions Non, les coquettes sont dans ma collection Négro laisse tomber, des go aux fesses bombées, mes gros baisent, on dead n'importe quel son Fucker You might also like Si on vise, on shoote, on shoote dans les casquettes What Si on vise, on shoote, on shoote dans les casquettes What C'est MTP, la con d'sa mère Sa mère MTP, la con d'sa mère Sa mère Mais où sont mes négros ? Mais où sont mes négros ? Les Monsieurs, mon négro What, Les Monsieurs, mon négro What MTP, la con d'sa mère Sa mère MTP, la con d'sa mère Sa mère À l'allure où j'vais, j'finirais paralysé Paradis, en train-train d'me fai-faire sucer par Alizée Pequeña lolita, eres muy bonita J'vais t'sortir mon 'gue-flin' pour t'montrer qu'on rit pas Non, non c'est pas Paris, 3-4, c'est pas ris-Pa J'me balade sur les Champs comme un prince d'Arabie J'te mets sur l'tapin, fais pas ta pince, ta radine Si tu poses un lapin, j'te sors ma carabine Biatch, j'me prends pour Jésus quand j'suis en cabine T'es tombé sur un os, négro, ta chienne se lèche les babines J'manie le pen comme Marine, tu peux rouler un bolide T'es comme un spermatozoïde, j'm'en bats les couilles de ta vie Fais comme eux, tu vas finir dans l'plastique Quand j'écris un seize, c'est l'carré des 4 Fantastiques Toujours avec classe, j'passe, envoie les autres au casse-pipe Tu t'mesures à moi, yo, prends des mesures drastiques Fucker Si on vise, on shoote, on shoote dans les casquettes What Si on vise, on shoote, on shoote dans les casquettes What C'est MTP, la con d'sa mère Sa mère MTP, la con d'sa mère Sa mère Mais où sont mes négros ? Mais où sont mes négros ? Les Monsieurs, mon négro What, Les Monsieurs, mon négro What MTP, la con d'sa mère Sa mère MTP, la con d'sa mère Sa mère C'est MTP, bordel Si on vise, on shoote dans les casquettes C'est MTP, bordel Si on vise, on shoote, négro C'est MTP, bordel Si on vise, on shoote dans les casquettes C'est MTP, bordel Si on vise, on- Paw7</t>
+          <t>Uh-uh Si on vise, on shoote, on shoote dans les casquettes What Si on vise, on shoote, on shoote dans les casquettes What C'est MTP, la con d'sa mère Sa mère MTP, la con d'sa mère Sa mère Mais où sont mes négros ? Mais où sont mes négros ? Les Monsieurs, mon négro What, Les Monsieurs, mon négro What MTP, la con d'sa mère Sa mère MTP, la con d'sa mère Sa mère Ok, ok, Joky détruit ta carrière On est en avance, débarque en marche arrière T'y penseras dans dix ans, j'pensais à ça hier Contrôle de keuf, j'mets d'la coke dans ma salière Et j'suis pas là juste pour le strass ni les paillettes Elle veut pas baiser, j'la laisse rentrer à 'ied-p' Si j'la laisse monter, qu'elle m'suce dans le tacot La con d'sa mère, j'veux la Rolex à Sarko' Ta meuf m'a vu, a cru voir une comète Négro style 2013, c'est très dur d'être honnête Dans ma team on est keus, on pèse comme des gros mecs C'est chaud mec, négro on baise comme dans une classe d'électro tech' Stop Hé, poses pas trop d'questions Non, les coquettes sont dans ma collection Négro laisse tomber, des go aux fesses bombées, mes gros baisent, on dead n'importe quel son Fucker Si on vise, on shoote, on shoote dans les casquettes What Si on vise, on shoote, on shoote dans les casquettes What C'est MTP, la con d'sa mère Sa mère MTP, la con d'sa mère Sa mère Mais où sont mes négros ? Mais où sont mes négros ? Les Monsieurs, mon négro What, Les Monsieurs, mon négro What MTP, la con d'sa mère Sa mère MTP, la con d'sa mère Sa mère À l'allure où j'vais, j'finirais paralysé Paradis, en train-train d'me fai-faire sucer par Alizée Pequeña lolita, eres muy bonita J'vais t'sortir mon 'gue-flin' pour t'montrer qu'on rit pas Non, non c'est pas Paris, 3-4, c'est pas ris-Pa J'me balade sur les Champs comme un prince d'Arabie J'te mets sur l'tapin, fais pas ta pince, ta radine Si tu poses un lapin, j'te sors ma carabine Biatch, j'me prends pour Jésus quand j'suis en cabine T'es tombé sur un os, négro, ta chienne se lèche les babines J'manie le pen comme Marine, tu peux rouler un bolide T'es comme un spermatozoïde, j'm'en bats les couilles de ta vie Fais comme eux, tu vas finir dans l'plastique Quand j'écris un seize, c'est l'carré des 4 Fantastiques Toujours avec classe, j'passe, envoie les autres au casse-pipe Tu t'mesures à moi, yo, prends des mesures drastiques Fucker Si on vise, on shoote, on shoote dans les casquettes What Si on vise, on shoote, on shoote dans les casquettes What C'est MTP, la con d'sa mère Sa mère MTP, la con d'sa mère Sa mère Mais où sont mes négros ? Mais où sont mes négros ? Les Monsieurs, mon négro What, Les Monsieurs, mon négro What MTP, la con d'sa mère Sa mère MTP, la con d'sa mère Sa mère C'est MTP, bordel Si on vise, on shoote dans les casquettes C'est MTP, bordel Si on vise, on shoote, négro C'est MTP, bordel Si on vise, on shoote dans les casquettes C'est MTP, bordel Si on vise, on- Paw7</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ok 24 Yeah Yeah, yeah On va pas les aider Hein Larfeuille Goyard, j'ai les mêmes guns que dans RocknRolla Jvais au strip-club, j'vais brûler 1 000 dollars Liasse plus épaisse qu'un livre dÉmile Zola Quoi ?! Autodafé, Alloco, Gombo, Mafé Oui ! Diamants à mon cou, j'suis couleur chocolat frais Elles sont incontrôlables my man my man Tu vas faire 'ner-tour' la manette Oh oui ! On est sur les 're-né', tous les deniers sont 'à-l' -sont à-l Gros flingue dans les 'çon-cale, j'te prierai de garder ton calme Pas d'gants dans boite à gants, de l'eau rose sous la brosse à dents -à dents Tes sur mes côtes, j'arrive dans ta grosse 'ke-schne' comme Adam -Adam On va pas les aider You might also like J'suis au Negresco, j'appelle le Room Service J'suis au Negresco, j'appelle le Room Service J'suis au George V, j'appelle le Room Service J'suis au Negresco, j'appelle le Room Service Je les quitte quand la flamme touche la feuille, ta pétasse m'remercie pour l'accueil Hennessy Paradis sur la teille, le mojo s'répercute sur la paye Y a foie gras et homard sous la cloche, p'tit modèle Prada sur l'encoche Pourquoi j'tirerais sur ces négros ? Je vise que la 'raque-ba' sur la côte Sur la bague à mon doigt y'a des caillasses Ouais, le rap 'çais-fran' j'lui ai niqué sa race Oui Pour manger mon foie gras, je les canardes Oui, c'est l'armée sur cheval blanc de Camargue Cailleau d'coke rencontre montagne de caviar, Larusso t'a donné son plan d'carrière Ouais Je les baise si j'les passes comme Di Maria, Pharaon comme si j'faisais parti d'IAM Pour la propal call me a mi casa, j'pète des avions comme un kamikaze Dakar Paris plus dur qu'Paris Dakar, l'système, l'état, ils ont failli m'avoir J'fais cette oseille et j'pense a mi mama, j'te vends farine nasale Le billet de 500 fait 111 centigrammes mais l'oseille requinque un jeune négroïde qui va mal, Ok ! On va pas les aider J'suis au Negresco, j'appelle le Room Service J'suis au Negresco, j'appelle le Room Service J'suis au George V, j'appelle le Room Service J'suis au Negresco, j'appelle le Room Service Gold chains, 24, grosses liasses d'oseille J'fume, j'ai pas d'toux, j'bois ma codéine Cristal bouteilles, j'flex comme Popeye J'fais plus d'caillasse qu'vendeur d'cokein Oh-oh, oh-oh, oh-oh M'hey3</t>
+          <t>Ok 24 Yeah Yeah, yeah On va pas les aider Hein Larfeuille Goyard, j'ai les mêmes guns que dans RocknRolla Jvais au strip-club, j'vais brûler 1 000 dollars Liasse plus épaisse qu'un livre dÉmile Zola Quoi ?! Autodafé, Alloco, Gombo, Mafé Oui ! Diamants à mon cou, j'suis couleur chocolat frais Elles sont incontrôlables my man my man Tu vas faire 'ner-tour' la manette Oh oui ! On est sur les 're-né', tous les deniers sont 'à-l' -sont à-l Gros flingue dans les 'çon-cale, j'te prierai de garder ton calme Pas d'gants dans boite à gants, de l'eau rose sous la brosse à dents -à dents Tes sur mes côtes, j'arrive dans ta grosse 'ke-schne' comme Adam -Adam On va pas les aider J'suis au Negresco, j'appelle le Room Service J'suis au Negresco, j'appelle le Room Service J'suis au George V, j'appelle le Room Service J'suis au Negresco, j'appelle le Room Service Je les quitte quand la flamme touche la feuille, ta pétasse m'remercie pour l'accueil Hennessy Paradis sur la teille, le mojo s'répercute sur la paye Y a foie gras et homard sous la cloche, p'tit modèle Prada sur l'encoche Pourquoi j'tirerais sur ces négros ? Je vise que la 'raque-ba' sur la côte Sur la bague à mon doigt y'a des caillasses Ouais, le rap 'çais-fran' j'lui ai niqué sa race Oui Pour manger mon foie gras, je les canardes Oui, c'est l'armée sur cheval blanc de Camargue Cailleau d'coke rencontre montagne de caviar, Larusso t'a donné son plan d'carrière Ouais Je les baise si j'les passes comme Di Maria, Pharaon comme si j'faisais parti d'IAM Pour la propal call me a mi casa, j'pète des avions comme un kamikaze Dakar Paris plus dur qu'Paris Dakar, l'système, l'état, ils ont failli m'avoir J'fais cette oseille et j'pense a mi mama, j'te vends farine nasale Le billet de 500 fait 111 centigrammes mais l'oseille requinque un jeune négroïde qui va mal, Ok ! On va pas les aider J'suis au Negresco, j'appelle le Room Service J'suis au Negresco, j'appelle le Room Service J'suis au George V, j'appelle le Room Service J'suis au Negresco, j'appelle le Room Service Gold chains, 24, grosses liasses d'oseille J'fume, j'ai pas d'toux, j'bois ma codéine Cristal bouteilles, j'flex comme Popeye J'fais plus d'caillasse qu'vendeur d'cokein Oh-oh, oh-oh, oh-oh M'hey3</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Wah J'suis synchronisé my nigga Négro d'office en finale, jouis-pas attends l'signal Ma poche tu la remplis mal diamant dans la glande pinéale Les négros sont dans la de-mer, j'ken sept bitches dans la semaine J'colle un enfant dans ta meuf, j'te loge une balle dans l'abdomen incroyable Jodeci Destiny's Child, Goyard sur mes initiales J'suis en camo digital, j'vends du crack comme Peedi Crakk Secoue-moi ça j'suis l'meilleur ou ja sav J'crache une rasade dans ta façade J'veux que l'finish, fuck un massage Wow The fuck, nigga ? J'pull up sur Saint Honoré, j'sors une grosse liasse colorée Ma p'tite sent comme Saint Laurent, Rolls Royce et j'la ken dedans J'attaque, j'mets jamais de gants, tu fais que chauffer le banc Toutes mes bitches sont en Ligue 1, j'suis plus fort qu'un américain Pute, j'suis frais comme la Toundra wah, nique sa mère d'faire d'la zumba wah Tu m'suces mais tu l'assumes pas, j'roule mon blunt, j'rentre en ultra incroyable Jeune négro vole comme Buddha, revois ton kamasutra InchAllah j'pèse comme Oprah, j'lévite comme Deepak Chopra Jeune négro rappe comme Rocca wah Et la chance me provoqua wah You might also like Oui bitch, oui bitch Prends des risques bitch</t>
+          <t>Wah J'suis synchronisé my nigga Négro d'office en finale, jouis-pas attends l'signal Ma poche tu la remplis mal diamant dans la glande pinéale Les négros sont dans la de-mer, j'ken sept bitches dans la semaine J'colle un enfant dans ta meuf, j'te loge une balle dans l'abdomen incroyable Jodeci Destiny's Child, Goyard sur mes initiales J'suis en camo digital, j'vends du crack comme Peedi Crakk Secoue-moi ça j'suis l'meilleur ou ja sav J'crache une rasade dans ta façade J'veux que l'finish, fuck un massage Wow The fuck, nigga ? J'pull up sur Saint Honoré, j'sors une grosse liasse colorée Ma p'tite sent comme Saint Laurent, Rolls Royce et j'la ken dedans J'attaque, j'mets jamais de gants, tu fais que chauffer le banc Toutes mes bitches sont en Ligue 1, j'suis plus fort qu'un américain Pute, j'suis frais comme la Toundra wah, nique sa mère d'faire d'la zumba wah Tu m'suces mais tu l'assumes pas, j'roule mon blunt, j'rentre en ultra incroyable Jeune négro vole comme Buddha, revois ton kamasutra InchAllah j'pèse comme Oprah, j'lévite comme Deepak Chopra Jeune négro rappe comme Rocca wah Et la chance me provoqua wah Oui bitch, oui bitch Prends des risques bitch</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>J'suis synchronisé my nigga Oh my god Ouh, shit Turn it up Gang, gang, fucked up Gang, gang, fucked up Gang, gang, fucked up Gang, gang Cognac dans la cup, cognac dans la cup 'Be-her' dans la clope, 'be-her' dans la clope J'roule J'suis fucked up, j'suis full J'roule J'suis fucked up Incroyable Ralph Lau'-Lau', t-shirt Teddy Bear, j'aurais dû naître au siècle des Lumières Printemps, automne, été et hiver, j'vais t'cracher dedans, appeler Uber Fuck les négros dans ton périmètre, mojo fait fissures sur tes lunettes J'touche plus de 'tte-ch' qu'un vétérinaire, numéro 1, personne délibère J'baise une fan, p't-être qu'c'est ta femme J'baise une fan, p't-être qu'c'est ta femme Waw Gang, gang, gang Gang, gang, gang, gang, Waw Gang, gang, gang Gang, gang, gang, gang Incroyable You might also like Gang, fucked up Gang, gang Incroyable, fucked up Gang, gang Fucked up, fucked up Gang, gang Je reviens agile comme Bebeto, j'te fais sucer, j'te fais pas 'quer-cro' Fait guilis, faciale, j'refais ta déco, j'vais tirer un peu, j'vais pas parler trop J'me fais 'cer-us' dans le Cérébro, ils m'ont pompé parce qu'ils m'aimaient trop Ta meuf s'fait tartiner par tes négros, DeLorean, j'mate pas les rétros J'baise une fan, j'crois qu'c'est ta femme Waw J'baise une fan, j'crois qu'c'est ta femme Waw Gang, gang, gang Gang, gang, gang, gang Gang, gang, gang Gang, gang, gang, gang Gang, fucked up Gang, gang, fucked up Gang, gang, fucked up Gang, gang Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh3</t>
+          <t>J'suis synchronisé my nigga Oh my god Ouh, shit Turn it up Gang, gang, fucked up Gang, gang, fucked up Gang, gang, fucked up Gang, gang Cognac dans la cup, cognac dans la cup 'Be-her' dans la clope, 'be-her' dans la clope J'roule J'suis fucked up, j'suis full J'roule J'suis fucked up Incroyable Ralph Lau'-Lau', t-shirt Teddy Bear, j'aurais dû naître au siècle des Lumières Printemps, automne, été et hiver, j'vais t'cracher dedans, appeler Uber Fuck les négros dans ton périmètre, mojo fait fissures sur tes lunettes J'touche plus de 'tte-ch' qu'un vétérinaire, numéro 1, personne délibère J'baise une fan, p't-être qu'c'est ta femme J'baise une fan, p't-être qu'c'est ta femme Waw Gang, gang, gang Gang, gang, gang, gang, Waw Gang, gang, gang Gang, gang, gang, gang Incroyable Gang, fucked up Gang, gang Incroyable, fucked up Gang, gang Fucked up, fucked up Gang, gang Je reviens agile comme Bebeto, j'te fais sucer, j'te fais pas 'quer-cro' Fait guilis, faciale, j'refais ta déco, j'vais tirer un peu, j'vais pas parler trop J'me fais 'cer-us' dans le Cérébro, ils m'ont pompé parce qu'ils m'aimaient trop Ta meuf s'fait tartiner par tes négros, DeLorean, j'mate pas les rétros J'baise une fan, j'crois qu'c'est ta femme Waw J'baise une fan, j'crois qu'c'est ta femme Waw Gang, gang, gang Gang, gang, gang, gang Gang, gang, gang Gang, gang, gang, gang Gang, fucked up Gang, gang, fucked up Gang, gang, fucked up Gang, gang Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh3</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.6 represents Yo, tu sais bien qu'c'est moi le plus chaud sur la map, avec Sonta, j'ai dormi sur la natte T'es en faux Gucci, j'vais faire un tour à Naples, serviette autour du cou, p'tit gue-flin sous la nappe Tu marches contre moi, tu cours à la cata', Y.O.L.O, Hakuna Matata J'roule à 200, j'vais frôler les platanes, tant qu'le Créateur fera tourner mes chakras, on va pas les aider J'aime trop cette vie, j'te possède, bitch, c'est d'l'acide, c'est pas du Nicorette, bitch J'provoque plein d'glitchs, j'fais que ce que j'veux et si j'veux, j'sors l'autre album dans cinq piges J'suis dans cette bitch, j'ai plus l'vertige, c'est bien d'être pauvre avant d'être riche Oui bitch, oui bitch Billets sur des chattes, j'rafale sur tes sapes Droptop sur les Champs, Droptop sur l'Étoile Billets sur des chattes, j'rafale sur tes sapes Droptop sur les Champs, Droptop sur l'Étoile C'est quoi les dièses, c'est quoi les bails, négro ? 24 carats ma médaille, négro J'compte mon oseille j'écoute Kassav', trop pur, l'chargement est intraçable Les 'tasses s'entassent mais j'ai pris celle du haut,elle twerke fort en p'tit string, ficelle fluo Ils respectent pas que j'sorte la tête du lot, j'ai créé cette merde, négro, quel culot J'veux des liasses d'oseille, remplir des mètres cube, j'aime les ailes d'la Rolls-Royce, pas d'la Red Bull J'ai croisé un p'tit moi à l'arrêt d'bus, j'lui ai dit Continue d'rêver, tu rêves juste J'ai jamais eu besoin, qu'on me ce-us, pour savoir que j'pouvais te casser l'uc J'ai pas fait exprès, j'ai voulu faire une passe, et hop, j'ai marqué l'but Vous me coupez en deux, j'me roule par terre, négro, t'es fly comme un charter J'dunke sur ta grand-mère comme Vince Carter, j'ai de l'or en fusion dans les artères, 24 J'pop un 'shroom du Mexique J'fais mes roubles et j'm'exile, la bitch dit qu'elle m'trouve sexiste mais que j'l'excite You might also like Billets sur des chattes, j'rafale sur tes sapes Droptop sur les Champs, Droptop sur l'Étoile Billets sur des chattes, j'rafale sur tes sapes Droptop sur les Champs, Droptop sur l'Étoile3</t>
+          <t>0.6 represents Yo, tu sais bien qu'c'est moi le plus chaud sur la map, avec Sonta, j'ai dormi sur la natte T'es en faux Gucci, j'vais faire un tour à Naples, serviette autour du cou, p'tit gue-flin sous la nappe Tu marches contre moi, tu cours à la cata', Y.O.L.O, Hakuna Matata J'roule à 200, j'vais frôler les platanes, tant qu'le Créateur fera tourner mes chakras, on va pas les aider J'aime trop cette vie, j'te possède, bitch, c'est d'l'acide, c'est pas du Nicorette, bitch J'provoque plein d'glitchs, j'fais que ce que j'veux et si j'veux, j'sors l'autre album dans cinq piges J'suis dans cette bitch, j'ai plus l'vertige, c'est bien d'être pauvre avant d'être riche Oui bitch, oui bitch Billets sur des chattes, j'rafale sur tes sapes Droptop sur les Champs, Droptop sur l'Étoile Billets sur des chattes, j'rafale sur tes sapes Droptop sur les Champs, Droptop sur l'Étoile C'est quoi les dièses, c'est quoi les bails, négro ? 24 carats ma médaille, négro J'compte mon oseille j'écoute Kassav', trop pur, l'chargement est intraçable Les 'tasses s'entassent mais j'ai pris celle du haut,elle twerke fort en p'tit string, ficelle fluo Ils respectent pas que j'sorte la tête du lot, j'ai créé cette merde, négro, quel culot J'veux des liasses d'oseille, remplir des mètres cube, j'aime les ailes d'la Rolls-Royce, pas d'la Red Bull J'ai croisé un p'tit moi à l'arrêt d'bus, j'lui ai dit Continue d'rêver, tu rêves juste J'ai jamais eu besoin, qu'on me ce-us, pour savoir que j'pouvais te casser l'uc J'ai pas fait exprès, j'ai voulu faire une passe, et hop, j'ai marqué l'but Vous me coupez en deux, j'me roule par terre, négro, t'es fly comme un charter J'dunke sur ta grand-mère comme Vince Carter, j'ai de l'or en fusion dans les artères, 24 J'pop un 'shroom du Mexique J'fais mes roubles et j'm'exile, la bitch dit qu'elle m'trouve sexiste mais que j'l'excite Billets sur des chattes, j'rafale sur tes sapes Droptop sur les Champs, Droptop sur l'Étoile Billets sur des chattes, j'rafale sur tes sapes Droptop sur les Champs, Droptop sur l'Étoile3</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Renoi, tes rimes valent pas un Pépito Pour moi c'est du gâteau, j'veux faire des cakes sans raconter des mythos J'ai dû me lever si tôt pour punchliner mes négritos C'est Partiel de Punchline, comme noté sur l'écriteau Tu vas m'entendre, plus de groupies que Tragédie Dans deux ans, tu pourras dire que Oumar te l'avait dit Ton manager sais pas c'qu'il rate Swag de prince, dents en or comme un pirate J'suis bien dans mes baskets, encore mieux dans mes pantoufles Les gens souffrent, j'les rends oufs, j'vais vous laisser sans souffle J'mets la main au panier, comme Kanye, fuck Kim Kardashian J'fais des chiffres avec des mots, mais c'est pas d'la science J'veux finir dans les livres, pas dans les MacBook Tes rappeurs, j'vais m'y frotter même si j'aime pas le zouk J'suis dans l'futur, pilule du lendemain Pas d'avortement dans mes projets En filtrant mes rimes tu peux perdre deux reins La codéine me fait des crochets Négro !You might also like</t>
+          <t>Renoi, tes rimes valent pas un Pépito Pour moi c'est du gâteau, j'veux faire des cakes sans raconter des mythos J'ai dû me lever si tôt pour punchliner mes négritos C'est Partiel de Punchline, comme noté sur l'écriteau Tu vas m'entendre, plus de groupies que Tragédie Dans deux ans, tu pourras dire que Oumar te l'avait dit Ton manager sais pas c'qu'il rate Swag de prince, dents en or comme un pirate J'suis bien dans mes baskets, encore mieux dans mes pantoufles Les gens souffrent, j'les rends oufs, j'vais vous laisser sans souffle J'mets la main au panier, comme Kanye, fuck Kim Kardashian J'fais des chiffres avec des mots, mais c'est pas d'la science J'veux finir dans les livres, pas dans les MacBook Tes rappeurs, j'vais m'y frotter même si j'aime pas le zouk J'suis dans l'futur, pilule du lendemain Pas d'avortement dans mes projets En filtrant mes rimes tu peux perdre deux reins La codéine me fait des crochets Négro !</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Han, yo Allume le zippo, que j'brûle tous ces négros, KKK, KKK J'me mets en mode génie, Rainman sur ces négros J'fais pleuvoir lessence, j'fais pleuvoir la lave, j'fais glisser les bas-résilles Comme une larme coule sur une joue, amour égale douleur, paraît-il Fuck ces mathématiques, la gymnastique cérébrale J'cherche une pétasse souple, pour tester des vrais bails La jeune femme qui danse sur le podium Tellement salope, on devrait lui filer une médaille Pour moi comme pour Colomb, ces négros sont des détails Tout c'quon veut, cest boire du Cristal avec des pailles Han, on veut le Cristal mon négro, on veut la bouteille de Cristal Yo, Cristal, putain d'négro, on veut la bouteille de Cristal Han, Cristal pour mes négros, uh Cristal pour mes négros, uh, Cristal pour mes négros Cristal pour mes négros, uh Cristal pour mes négros, uh, Cristal pour mes négros Négro si taimes pas, mange une pomme, nous fait pas chier Tu méritais pas d'cachets Tout ce que tu méritais, c'est la pilule du lend'main, mais faut pas s'fâcher Les négros mattendent, comme le dernier passager Passe-moi c'putain d'Zippo, que jaille me faire des pâtes-beurres Tu ferais mieux d'fermer ta gueule Tu traînes avec des fraggles, des pas belles, des vilaines J'pourrais même pas entendre les réponses si j'demandais qui maime Les haineux sont amoureux Mais cet amour ne f'ra de mal à aucun de nous deux Les bons rappeurs cest pas comme le bon vin Ils vieillissent pas dans les caves, mo'fucka envoie la monnaie You might also like Han, on veut le Cristal mon négro, on veut la bouteille de Cristal Yo, Cristal, putain d'négro, on veut la bouteille de Cristal Han, Cristal pour mes négros, uh Cristal pour mes négros, uh, Cristal pour mes négros Cristal pour mes négros, uh Cristal pour mes négros, uh, Cristal pour mes négros3</t>
+          <t>Han, yo Allume le zippo, que j'brûle tous ces négros, KKK, KKK J'me mets en mode génie, Rainman sur ces négros J'fais pleuvoir lessence, j'fais pleuvoir la lave, j'fais glisser les bas-résilles Comme une larme coule sur une joue, amour égale douleur, paraît-il Fuck ces mathématiques, la gymnastique cérébrale J'cherche une pétasse souple, pour tester des vrais bails La jeune femme qui danse sur le podium Tellement salope, on devrait lui filer une médaille Pour moi comme pour Colomb, ces négros sont des détails Tout c'quon veut, cest boire du Cristal avec des pailles Han, on veut le Cristal mon négro, on veut la bouteille de Cristal Yo, Cristal, putain d'négro, on veut la bouteille de Cristal Han, Cristal pour mes négros, uh Cristal pour mes négros, uh, Cristal pour mes négros Cristal pour mes négros, uh Cristal pour mes négros, uh, Cristal pour mes négros Négro si taimes pas, mange une pomme, nous fait pas chier Tu méritais pas d'cachets Tout ce que tu méritais, c'est la pilule du lend'main, mais faut pas s'fâcher Les négros mattendent, comme le dernier passager Passe-moi c'putain d'Zippo, que jaille me faire des pâtes-beurres Tu ferais mieux d'fermer ta gueule Tu traînes avec des fraggles, des pas belles, des vilaines J'pourrais même pas entendre les réponses si j'demandais qui maime Les haineux sont amoureux Mais cet amour ne f'ra de mal à aucun de nous deux Les bons rappeurs cest pas comme le bon vin Ils vieillissent pas dans les caves, mo'fucka envoie la monnaie Han, on veut le Cristal mon négro, on veut la bouteille de Cristal Yo, Cristal, putain d'négro, on veut la bouteille de Cristal Han, Cristal pour mes négros, uh Cristal pour mes négros, uh, Cristal pour mes négros Cristal pour mes négros, uh Cristal pour mes négros, uh, Cristal pour mes négros3</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CashMoneyAP L'argent n'a pas d'odeur J'paye des bougies parfumées, dois finir fortuné Paro' comme Malcolm X, j'regarde par la fenêtre Le labeur et la finesse feront de moi ce nègre Mate ma gueule sous les néons, j'médite que sur le million Embrasse mes souvenirs, pour l'meilleur et pour le pire Ton futur est rouge vermillon, on nous baise comme Patrick Dils J'suis sauvage, j'suis pas timide, bouffe sa chatte comme un sashimi On va pas les aider Deux tasses-pé dans mon lit, gros j'sais que j'vois pas double même si j'suis à moitié khabat Ouh, ouh, ouh Ouais, elles sont prêtes à tout, j'fume mon cigarillo, j'la regarde avaler sa chatte Ouh, ouh, ouh Ramène une bonne twerkeuse avec d'l'huile sur les sses-f si tu veux me graisser la patte Ouh, ouh, ouh J'veux plafond haussmannien, du Buffet sur les murs, nique sa mère les soirées appart' Deux pétasses dans mon lit, j'sais que j'vois pas double même si j'suis à moitié khabat Qu'est-ce qui s'passe ? Ouais, elles sont prêtes à tout, j'fume mon cigarillo, j'la regarde avaler sa chatte Ramène une bonne twerkeuse avec d'l'huile sur les sses-f si tu veux me graisser la patte J'veux plafond haussmannien, du Buffet sur les murs, nique sa mère les soirées appart' You might also like I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang L'argent n'a pas d'odeur J'paye des bougies parfumées, dois finir fortuné Paro' comme Malcolm X, j'regarde par la fenêtre Le labeur et la finesse feront de moi ce nègre Mate ma gueule sous les néons, j'médite que sur le million Mes souvenirs, pour l'meilleur et pour le pire Ton futur est rouge vermillon, on nous baise comme Patrick Dils J'suis sauvage, j'suis pas timide, bouffe sa chatte comme un sashimi On va pas les aider Deux tasses-pé dans mon lit, gros j'sais que j'vois pas double même si j'suis à moitié khabat Ouh, ouh, ouh Ouais, elles sont prêtes à tout, j'fume mon cigarillo, j'la regarde avaler sa chatte Ouh, ouh, ouh Ramène une bonne twerkeuse avec d'l'huile sur les sses-f si tu veux me graisser la patte Ouh, ouh, ouh J'veux plafond haussmannien, du Buffet sur les murs, nique sa mère les soirées appart' Deux pétasses dans mon lit, gros j'sais que j'vois pas double même si j'suis à moitié khabat Qu'est-ce qui s'passe ? Ouais, elles sont prêtes à tout, j'fume mon cigarillo, j'la regarde avaler sa chatte Ramène une bonne twerkeuse avec d'l'huile sur les sses-f si tu veux me graisser la patte J'veux plafond haussmannien, du Buffet sur les murs, nique sa mère les soirées appart' I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang2</t>
+          <t>CashMoneyAP L'argent n'a pas d'odeur J'paye des bougies parfumées, dois finir fortuné Paro' comme Malcolm X, j'regarde par la fenêtre Le labeur et la finesse feront de moi ce nègre Mate ma gueule sous les néons, j'médite que sur le million Embrasse mes souvenirs, pour l'meilleur et pour le pire Ton futur est rouge vermillon, on nous baise comme Patrick Dils J'suis sauvage, j'suis pas timide, bouffe sa chatte comme un sashimi On va pas les aider Deux tasses-pé dans mon lit, gros j'sais que j'vois pas double même si j'suis à moitié khabat Ouh, ouh, ouh Ouais, elles sont prêtes à tout, j'fume mon cigarillo, j'la regarde avaler sa chatte Ouh, ouh, ouh Ramène une bonne twerkeuse avec d'l'huile sur les sses-f si tu veux me graisser la patte Ouh, ouh, ouh J'veux plafond haussmannien, du Buffet sur les murs, nique sa mère les soirées appart' Deux pétasses dans mon lit, j'sais que j'vois pas double même si j'suis à moitié khabat Qu'est-ce qui s'passe ? Ouais, elles sont prêtes à tout, j'fume mon cigarillo, j'la regarde avaler sa chatte Ramène une bonne twerkeuse avec d'l'huile sur les sses-f si tu veux me graisser la patte J'veux plafond haussmannien, du Buffet sur les murs, nique sa mère les soirées appart' I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang L'argent n'a pas d'odeur J'paye des bougies parfumées, dois finir fortuné Paro' comme Malcolm X, j'regarde par la fenêtre Le labeur et la finesse feront de moi ce nègre Mate ma gueule sous les néons, j'médite que sur le million Mes souvenirs, pour l'meilleur et pour le pire Ton futur est rouge vermillon, on nous baise comme Patrick Dils J'suis sauvage, j'suis pas timide, bouffe sa chatte comme un sashimi On va pas les aider Deux tasses-pé dans mon lit, gros j'sais que j'vois pas double même si j'suis à moitié khabat Ouh, ouh, ouh Ouais, elles sont prêtes à tout, j'fume mon cigarillo, j'la regarde avaler sa chatte Ouh, ouh, ouh Ramène une bonne twerkeuse avec d'l'huile sur les sses-f si tu veux me graisser la patte Ouh, ouh, ouh J'veux plafond haussmannien, du Buffet sur les murs, nique sa mère les soirées appart' Deux pétasses dans mon lit, gros j'sais que j'vois pas double même si j'suis à moitié khabat Qu'est-ce qui s'passe ? Ouais, elles sont prêtes à tout, j'fume mon cigarillo, j'la regarde avaler sa chatte Ramène une bonne twerkeuse avec d'l'huile sur les sses-f si tu veux me graisser la patte J'veux plafond haussmannien, du Buffet sur les murs, nique sa mère les soirées appart' I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang2</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ouais Ouais, ouais Jeune négro, pas d'limite Jeune négro, pas d'limite, j'ai un swag d'alchimiste J'ai un swag d'alchimiste Une montre à 3k, une paire à 1k, un cerveau d'cas clinique Un cerveau d'cas clinique Suce-la, fais pas d'gimmicks Suce-la, fais pas d'gimmicks Nos esprits n'ont pas d'limite Nos esprits n'ont pas d'limite Paris est magique, Lomé est magique, dans sa schnek, c'est magique Dans sa schnek, c'est magique J'te mettrai une faciale au minimum Dans l'club, j'fais une cascade au minimum La Corvette brûle l'asphalte, my man Le mojo fascine la salle au minimum J'te bouffe la chatte comme Christine En Visvim, prend la scène comme Bruce Springsteen Ils dislikent, un contrat, j'prends pour dix skills J'bouffe son pistil dans le club comme dans Tip Drill Tous mes négros veulent s'placer un minimum Bitch, j'te laisse la chatte cassée au minimum Tous mes négros veulent s'liasser un minimum Grosse liasse, grosse tasse-pé, mon minimum Tous mes négros veulent s'placer un minimum Bitch, j'te laisse la chatte cassée au minimum Tous mes négros veulent s'liasser un minimum Grosse liasse, grosse tasse-pé, mon minimum You might also like Infinigga 'nigga, 'nigga Trois Trois, trois, trois, deux Deux, deux, deux, un Un, un Lift off Donne-moi le prix de toute la trine-vi La trine-vi, wah Pourquoi avoir qu'une femme quand on n'a qu'une vie ? On n'a qu'une vie, wah Envoie-moi un Wesh avec dix h Dix h Vingt-quatre carats, pas d'alliage On m'arrête pour une to-ph' ou voir si j'ai à bicrave À bicrave J'fais croix sur l'amical pour mètres carrés habitables Pétasse bien roulée, cigarillo vanilla Infinigga 'nigga, 'nigga Woah Jeune chaman, les yeux dans la fumée, Skeet Jeune Hendrix, Purple Haze, calumet Yeah Troisième il ouvert, chakras saturés J'plonge dans l'éternité, quand j'ai du temps à tuer Un message de l'univers est vite reçu Un film sur ma vie, ça s'rait un film de cul Wah Une fleur pousse, et l'monde entier lui pisse dessus Dessus, dessus, dessus Vitesse de la lumière Wah, Wah, wah Tous mes négros veulent s'placer un minimum Bitch, j'te laisse la chatte cassée au minimum Tous mes négros veulent s'liasser un minimum Grosse liasse, grosse tasse-pé, mon minimum Tous mes négros veulent s'placer un minimum Bitch, j'te laisse la chatte cassée au minimum Tous mes négros veulent s'liasser un minimum Grosse liasse, grosse tasse-pé, mon minimum Yeah, nigga Yeah, nigga Yeah Yeah, yeah Pharaon Pharaon, pharaon, pharaon3</t>
+          <t>Ouais Ouais, ouais Jeune négro, pas d'limite Jeune négro, pas d'limite, j'ai un swag d'alchimiste J'ai un swag d'alchimiste Une montre à 3k, une paire à 1k, un cerveau d'cas clinique Un cerveau d'cas clinique Suce-la, fais pas d'gimmicks Suce-la, fais pas d'gimmicks Nos esprits n'ont pas d'limite Nos esprits n'ont pas d'limite Paris est magique, Lomé est magique, dans sa schnek, c'est magique Dans sa schnek, c'est magique J'te mettrai une faciale au minimum Dans l'club, j'fais une cascade au minimum La Corvette brûle l'asphalte, my man Le mojo fascine la salle au minimum J'te bouffe la chatte comme Christine En Visvim, prend la scène comme Bruce Springsteen Ils dislikent, un contrat, j'prends pour dix skills J'bouffe son pistil dans le club comme dans Tip Drill Tous mes négros veulent s'placer un minimum Bitch, j'te laisse la chatte cassée au minimum Tous mes négros veulent s'liasser un minimum Grosse liasse, grosse tasse-pé, mon minimum Tous mes négros veulent s'placer un minimum Bitch, j'te laisse la chatte cassée au minimum Tous mes négros veulent s'liasser un minimum Grosse liasse, grosse tasse-pé, mon minimum Infinigga 'nigga, 'nigga Trois Trois, trois, trois, deux Deux, deux, deux, un Un, un Lift off Donne-moi le prix de toute la trine-vi La trine-vi, wah Pourquoi avoir qu'une femme quand on n'a qu'une vie ? On n'a qu'une vie, wah Envoie-moi un Wesh avec dix h Dix h Vingt-quatre carats, pas d'alliage On m'arrête pour une to-ph' ou voir si j'ai à bicrave À bicrave J'fais croix sur l'amical pour mètres carrés habitables Pétasse bien roulée, cigarillo vanilla Infinigga 'nigga, 'nigga Woah Jeune chaman, les yeux dans la fumée, Skeet Jeune Hendrix, Purple Haze, calumet Yeah Troisième il ouvert, chakras saturés J'plonge dans l'éternité, quand j'ai du temps à tuer Un message de l'univers est vite reçu Un film sur ma vie, ça s'rait un film de cul Wah Une fleur pousse, et l'monde entier lui pisse dessus Dessus, dessus, dessus Vitesse de la lumière Wah, Wah, wah Tous mes négros veulent s'placer un minimum Bitch, j'te laisse la chatte cassée au minimum Tous mes négros veulent s'liasser un minimum Grosse liasse, grosse tasse-pé, mon minimum Tous mes négros veulent s'placer un minimum Bitch, j'te laisse la chatte cassée au minimum Tous mes négros veulent s'liasser un minimum Grosse liasse, grosse tasse-pé, mon minimum Yeah, nigga Yeah, nigga Yeah Yeah, yeah Pharaon Pharaon, pharaon, pharaon3</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>J'crois que moi et mes potes on est bien les plus chauds du monde Viens m'lécher les pompes, viens m'lécher les couilles, viens m'lécher le pompe Je prend soin de mon cerveau, y'a qu'ça qui compte Je connecte explosifs et le fil, j'attend que ça clignote La concurrence va finir en papillote Sale fiotte, pose même pas le regard sur ma cagnotte L'argent c'est dur à gagner, ouais c'est dur à garder L'or encore plus dur, ouais négro je suis sur ta place Prêt à vendre d'la pure pour avoir un pur palace Tes vêtements puent la merde Mes vêtements puent la chatte Avec l'argent, la vie a meilleur goût c'est comme le glutamate J'ai mangé par terre sur la natte J'pourrais pas jurer sur la Maât Je veux l'enfant, la baraque dans un cercle 5 Je veux revoir le bled, j'attend l'appel du zinc Dans la vie tu récoltes ce que tu sèmes tu sais Mais un négro sous terre regarde la peine pousser Cet album est dédié à Ateyaba, qui s'est battu pour la France À Mamie Sonta, mon cousin , toute la famille que j'ai perdue au bled Tous mes cousins qu'j'ai pas vu depuis trop longtemps Tony, Pamela, Elvis, Jonadab Je pense à vous, j'espère revenir bientôt Yeah Ateyaba, Koffi Haan, ce que vous préférez You might also like Me ramène pas ta petite amie où je la prends par derrière À l'avant du yacht comme dans Titanic Mes négros étaient dans la merde Avant que le shit arrive, renoi c'était pas la même Avant que la chatte arrive, à l'or fin en italique Jokeezy gravé dans le marbre, infréquentable Je fais semblant d'aimer mes semblables Quand j'arrive les plaquettes de shit et les curs s'emballent Comme par magie tes jambes s'écartent quand j'effleure 100 balles Bitch ! Pourquoi tu chipotes avant qu'tu sautes sur ma bite ? Je pensais pas que t'étais si sotte Le manque d'argent m'a fait manquer des épisodes Maintenant je veux l'intégrale, strip-tease intégral P'tite bitch à p-oil qui se cale des oigts-d sur la table basse Si je la déboîte et je lui parle mal Soigne le bien par le mal, le mal par le bien Sans penser à demain Y'a que quand je prie que je peux penser à deux mains Ateyaba, man10</t>
+          <t>J'crois que moi et mes potes on est bien les plus chauds du monde Viens m'lécher les pompes, viens m'lécher les couilles, viens m'lécher le pompe Je prend soin de mon cerveau, y'a qu'ça qui compte Je connecte explosifs et le fil, j'attend que ça clignote La concurrence va finir en papillote Sale fiotte, pose même pas le regard sur ma cagnotte L'argent c'est dur à gagner, ouais c'est dur à garder L'or encore plus dur, ouais négro je suis sur ta place Prêt à vendre d'la pure pour avoir un pur palace Tes vêtements puent la merde Mes vêtements puent la chatte Avec l'argent, la vie a meilleur goût c'est comme le glutamate J'ai mangé par terre sur la natte J'pourrais pas jurer sur la Maât Je veux l'enfant, la baraque dans un cercle 5 Je veux revoir le bled, j'attend l'appel du zinc Dans la vie tu récoltes ce que tu sèmes tu sais Mais un négro sous terre regarde la peine pousser Cet album est dédié à Ateyaba, qui s'est battu pour la France À Mamie Sonta, mon cousin , toute la famille que j'ai perdue au bled Tous mes cousins qu'j'ai pas vu depuis trop longtemps Tony, Pamela, Elvis, Jonadab Je pense à vous, j'espère revenir bientôt Yeah Ateyaba, Koffi Haan, ce que vous préférez Me ramène pas ta petite amie où je la prends par derrière À l'avant du yacht comme dans Titanic Mes négros étaient dans la merde Avant que le shit arrive, renoi c'était pas la même Avant que la chatte arrive, à l'or fin en italique Jokeezy gravé dans le marbre, infréquentable Je fais semblant d'aimer mes semblables Quand j'arrive les plaquettes de shit et les curs s'emballent Comme par magie tes jambes s'écartent quand j'effleure 100 balles Bitch ! Pourquoi tu chipotes avant qu'tu sautes sur ma bite ? Je pensais pas que t'étais si sotte Le manque d'argent m'a fait manquer des épisodes Maintenant je veux l'intégrale, strip-tease intégral P'tite bitch à p-oil qui se cale des oigts-d sur la table basse Si je la déboîte et je lui parle mal Soigne le bien par le mal, le mal par le bien Sans penser à demain Y'a que quand je prie que je peux penser à deux mains Ateyaba, man10</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Woah Yeah Threesome That's what I'm talkin 'bout, nigga, han Ramène la Hey, ramène la Hey Mélange la What, mélange la Hey Ramène la codéine, le seau d'protéines KFC Ramène la What prométhazine Ramène la codéine Yeah, le seau d'protéines Yeah Négro, comment j'suis lean, j'pourrais croire qu'j'kiffe trop tes rimes A peine ma bouche est sur la cup, je lean et c'est ça qu'je veux Mane, j'veux pas d'verre, négro, j'veux pas d'bière, j'veux- Négro, moi j'veux pas d'ta bouteille Non, non, non Moi, c'qui m'faut, c'est mon sirop, et deux cups, négro Mon sirop, deux cups, mon sirop, deux cups Mon sirop, deux cups, Threesome Mon sirop, deux cups, mon sirop, deux cups Mon sirop, deux cups, Threesome Threesome, Threesome Threesome, Threesome Threesome, Threesome Threesome, Threesome You might also like Docteur, je crois que je suis malade Papillon dans la tête, te fait rentrer la lame Docteur, je crois que je suis malade On dévalise la pharmacie de la Paillade Hey, han J'suis sombre dans un pick-up, purple et magique Yo, le sprite est sale, la 'tasse est propre j'me fait sucer la bite Bébé, continue, chérie, fait ça sale Prends des glaçons, fais tourner la paille Si y avait une table, tu passerais sous la table Fais ça pour l'négro, l'plus chaud dans la caille J'te baise sur un tas d'billets, j'te baise sur la paille Mais pour l'instant, ramène la Négro, moi j'veux pas d'ta bouteille Non, non, non Moi, c'qui m'faut, c'est mon sirop, et deux cups, négro Mon sirop, deux cups, mon sirop, deux cups Mon sirop, deux cups, Threesome Mon sirop, deux cups, mon sirop, deux cups Mon sirop, deux cups, Threesome Threesome, Threesome Threesome, Threesome Threesome, Threesome Threesome, Threesome4</t>
+          <t>Woah Yeah Threesome That's what I'm talkin 'bout, nigga, han Ramène la Hey, ramène la Hey Mélange la What, mélange la Hey Ramène la codéine, le seau d'protéines KFC Ramène la What prométhazine Ramène la codéine Yeah, le seau d'protéines Yeah Négro, comment j'suis lean, j'pourrais croire qu'j'kiffe trop tes rimes A peine ma bouche est sur la cup, je lean et c'est ça qu'je veux Mane, j'veux pas d'verre, négro, j'veux pas d'bière, j'veux- Négro, moi j'veux pas d'ta bouteille Non, non, non Moi, c'qui m'faut, c'est mon sirop, et deux cups, négro Mon sirop, deux cups, mon sirop, deux cups Mon sirop, deux cups, Threesome Mon sirop, deux cups, mon sirop, deux cups Mon sirop, deux cups, Threesome Threesome, Threesome Threesome, Threesome Threesome, Threesome Threesome, Threesome Docteur, je crois que je suis malade Papillon dans la tête, te fait rentrer la lame Docteur, je crois que je suis malade On dévalise la pharmacie de la Paillade Hey, han J'suis sombre dans un pick-up, purple et magique Yo, le sprite est sale, la 'tasse est propre j'me fait sucer la bite Bébé, continue, chérie, fait ça sale Prends des glaçons, fais tourner la paille Si y avait une table, tu passerais sous la table Fais ça pour l'négro, l'plus chaud dans la caille J'te baise sur un tas d'billets, j'te baise sur la paille Mais pour l'instant, ramène la Négro, moi j'veux pas d'ta bouteille Non, non, non Moi, c'qui m'faut, c'est mon sirop, et deux cups, négro Mon sirop, deux cups, mon sirop, deux cups Mon sirop, deux cups, Threesome Mon sirop, deux cups, mon sirop, deux cups Mon sirop, deux cups, Threesome Threesome, Threesome Threesome, Threesome Threesome, Threesome Threesome, Threesome4</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Billets jaunes et verts Pistache et citron Elle passe la dope pour ceux qui bicravent des litrons Elle pose ses grillz en or et puis s'endort Le lendemain s'lève pour s'acheter du Christian Dior C'est la moins normale, des filles normales de Paname Elle sait que dans son tier-quar les nègres se canardent Mais ça l'intéresse pas, elle roule en vespa Va en club chaque samedi pour croiser des stars VIP Room, Cristal, tapis rouge, cristal Taper la C, sur canapé Chesterfield matelassé Fast-life pour pas se faire rattraper par le passé Flâne seule sur Saint-Honoré, avec des fringues même pas repassées Elle rêve de podiums, de Karl Lagerfeld Pas économe, elle porte du Givenchy, collection homme Sur son blog elle parle de Hermès ou A.P.C Et pour ça, elle bicrave de la CC Amphét', héro, te-chi, coke Pour s'acheter du Jeremy Scott Ecsta, MD, coca-ïne Mais qu'est-ce que c'est pour un sac Céline Bicrave cette drogue, bicrave cette drogue T'auras droit à ce que tu vois sur les blogs Bicrave cette drogue, bicrave cette drogue T'auras droit à ce que tu vois sur les blogs You might also like Billets violets Myrtille Le temps lui a volé Ses rêves de p'tite fille Elle trouve tout son bonheur dans le beau linge, dans les codes barres Rêve de s'acheter une Chanel, une Rolex ou une Audemars Elle s'fait serrer par un keuf dans le pire de ses pires cauchemars Elle doit passer 20 grammes, aurai aimé faire ça un autre soir Elle s'retrouve Avenue Montaigne, dans une soirée mondaine La montée de q'ques marches, pour descendre des cocktails Fait passer la camme, reste pour boire quelques martinis Se laisse emporter par la nuit, tant que la soirée n'est pas finie Mais une fois la p'tite arrivée chez elle, mauvaise surprise Elle ne retrouve plus son phone-tel, se met sur l'lit Et essaye d'passer des appels, une femme répond Lui dit de venir le prendre à son taff sans poser de questions Amphét', héro, te-chi, coke Pour s'acheter du Jeremy Scott Ecsta, MD, coca-ïne Mais qu'est-ce que c'est pour un sac Céline Bicrave cette drogue, bicrave cette drogue T'auras droit à ce que tu vois sur les blogs Bicrave cette drogue, bicrave cette drogue T'auras droit à ce que tu vois sur les blogs Le lendemain elle s'prepare, boucles Céline sur les lobes Elle prends le RER, a mit sa plus belle robe Se dit qu'il serait peut-être temps, de s'trouver un vrai job C'est peut-être les keufs, elle aurait pas dû bicrave toute cette drogue Le lendemain elle s'prépare, boucles Céline sur les lobes Elle prend le RER, a mit sa plus belle robe Se dit qu'il serait peut-être temps de trouver un vrai job Sans s'douter une seconde, qu'elle a rendez-vous chez Vogue Amphét', héro, te-chi, coke Pour s'acheter du Jeremy Scott Ecsta, MD, coca-ïne Mais qu'est-ce que c'est pour un sac Céline Bicrave cette drogue, bicrave cette drogue T'auras droit à ce que tu vois sur les blogs Bicrave cette drogue, bicrave cette drogue T'auras droit à ce que tu vois sur les blogs2</t>
+          <t>Billets jaunes et verts Pistache et citron Elle passe la dope pour ceux qui bicravent des litrons Elle pose ses grillz en or et puis s'endort Le lendemain s'lève pour s'acheter du Christian Dior C'est la moins normale, des filles normales de Paname Elle sait que dans son tier-quar les nègres se canardent Mais ça l'intéresse pas, elle roule en vespa Va en club chaque samedi pour croiser des stars VIP Room, Cristal, tapis rouge, cristal Taper la C, sur canapé Chesterfield matelassé Fast-life pour pas se faire rattraper par le passé Flâne seule sur Saint-Honoré, avec des fringues même pas repassées Elle rêve de podiums, de Karl Lagerfeld Pas économe, elle porte du Givenchy, collection homme Sur son blog elle parle de Hermès ou A.P.C Et pour ça, elle bicrave de la CC Amphét', héro, te-chi, coke Pour s'acheter du Jeremy Scott Ecsta, MD, coca-ïne Mais qu'est-ce que c'est pour un sac Céline Bicrave cette drogue, bicrave cette drogue T'auras droit à ce que tu vois sur les blogs Bicrave cette drogue, bicrave cette drogue T'auras droit à ce que tu vois sur les blogs Billets violets Myrtille Le temps lui a volé Ses rêves de p'tite fille Elle trouve tout son bonheur dans le beau linge, dans les codes barres Rêve de s'acheter une Chanel, une Rolex ou une Audemars Elle s'fait serrer par un keuf dans le pire de ses pires cauchemars Elle doit passer 20 grammes, aurai aimé faire ça un autre soir Elle s'retrouve Avenue Montaigne, dans une soirée mondaine La montée de q'ques marches, pour descendre des cocktails Fait passer la camme, reste pour boire quelques martinis Se laisse emporter par la nuit, tant que la soirée n'est pas finie Mais une fois la p'tite arrivée chez elle, mauvaise surprise Elle ne retrouve plus son phone-tel, se met sur l'lit Et essaye d'passer des appels, une femme répond Lui dit de venir le prendre à son taff sans poser de questions Amphét', héro, te-chi, coke Pour s'acheter du Jeremy Scott Ecsta, MD, coca-ïne Mais qu'est-ce que c'est pour un sac Céline Bicrave cette drogue, bicrave cette drogue T'auras droit à ce que tu vois sur les blogs Bicrave cette drogue, bicrave cette drogue T'auras droit à ce que tu vois sur les blogs Le lendemain elle s'prepare, boucles Céline sur les lobes Elle prends le RER, a mit sa plus belle robe Se dit qu'il serait peut-être temps, de s'trouver un vrai job C'est peut-être les keufs, elle aurait pas dû bicrave toute cette drogue Le lendemain elle s'prépare, boucles Céline sur les lobes Elle prend le RER, a mit sa plus belle robe Se dit qu'il serait peut-être temps de trouver un vrai job Sans s'douter une seconde, qu'elle a rendez-vous chez Vogue Amphét', héro, te-chi, coke Pour s'acheter du Jeremy Scott Ecsta, MD, coca-ïne Mais qu'est-ce que c'est pour un sac Céline Bicrave cette drogue, bicrave cette drogue T'auras droit à ce que tu vois sur les blogs Bicrave cette drogue, bicrave cette drogue T'auras droit à ce que tu vois sur les blogs2</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>I am the danger Yeah, let's go Dieu seul sait ce que j'vais vous faire demain J'suis dans le jacuzzi sniffe mon sel de bain J'me dis p't-être let's get it, j'compte l'oseille Je médite, en m'attendant elle suce ta paire de seins Cyprine sur capot de voiture Annunaki dans l'ossature yeah Moi j'ai du mojo nature À mon doigt anneaux d'Saturne Il vaut mieux tirer sur mon gang oui Que venir tirer sur mon bang Est-ce que je me fais bien comprendre ? Pour les faux j'parle une autre langue J'prends la vie du bon coté Souvent j'la prends en levrette Corps skinny mais forte tête Y'a du shit dans ma botte secrète Hello, hello, hello, L.O.L J'suis dans l'carré j'fume mon kérosène Hello, hello j'fume mon caramelo Renoi j'fais le zeille-o, renoi j'fais l'oseille Hello, hello, hello, L.O.L J'suis dans l'carré j'fume mon kérosène Hello, hello j'fume mon caramelo Renoi j'fais le zeille-o, renoi j'fais l'oseille You might also like J'suis dans l'carré, j'fume mon kéro-kéro J'suis dans l'carré, j'me mets K.O-K.O J'suis dans l'carré, j'fume mon kéro-kéro Balance le beat que j'les baise encore une fois frère, yo ça va pas les aider Avec mes nègres dans voiture française woof Avec mes juifs dans voiture allemande Monsieur l'agent veut mettre une amende yeah Brexit, vroum vroum je file à l'anglaise J'ai des idées suspectes oui J'ai le cur près du zgueg oui J'viens voler des portraits J'viens pas piquer une tête J'fais des affaires si y'a affaires à faire P'tite salope j'paie jamais des verres à perte jamais Rap français, C.I.A, moi, Ben Laden J'vous encule la schnek faudra faire avec faire avec J'te tarte avec 4 bagues pah ! J'vends l'négatif de c'que vends Jacques Vabre Si j'te la vends t'es un schlague J'surfe sur le terrain vague Hello, hello, hello, L.O.L Ouais pélo c'est sûr j'les baise dis-moi quel hôtel quel hôtel ? Mettez l'oseille sur elle, j'vous vends cette ligne ferroviaire Le prof de math dit Y'a pas d'chiffre, c'est pas des problèmes T'as une grande bouche mais j'crois qu'l'engin est rikiki tout petit L'plus dangereux c'est pas l'mieux armé, c'est celui qui tire Hello, hello, hello, L.O.L J'suis dans l'carré j'fume mon kérosène Hello, hello j'fume mon caramelo Renoi j'fais le zeille-o, renoi j'fais l'oseille Hello, hello, hello, L.O.L J'suis dans l'carré j'fume mon kérosène Hello, hello j'fume mon caramelo Renoi j'fais le zeille-o, renoi j'fais l'oseille J'suis dans l'carré, j'me mets K.O-K.O J'suis dans l'carré, j'me mets K.O-K.O yeah4</t>
+          <t>I am the danger Yeah, let's go Dieu seul sait ce que j'vais vous faire demain J'suis dans le jacuzzi sniffe mon sel de bain J'me dis p't-être let's get it, j'compte l'oseille Je médite, en m'attendant elle suce ta paire de seins Cyprine sur capot de voiture Annunaki dans l'ossature yeah Moi j'ai du mojo nature À mon doigt anneaux d'Saturne Il vaut mieux tirer sur mon gang oui Que venir tirer sur mon bang Est-ce que je me fais bien comprendre ? Pour les faux j'parle une autre langue J'prends la vie du bon coté Souvent j'la prends en levrette Corps skinny mais forte tête Y'a du shit dans ma botte secrète Hello, hello, hello, L.O.L J'suis dans l'carré j'fume mon kérosène Hello, hello j'fume mon caramelo Renoi j'fais le zeille-o, renoi j'fais l'oseille Hello, hello, hello, L.O.L J'suis dans l'carré j'fume mon kérosène Hello, hello j'fume mon caramelo Renoi j'fais le zeille-o, renoi j'fais l'oseille J'suis dans l'carré, j'fume mon kéro-kéro J'suis dans l'carré, j'me mets K.O-K.O J'suis dans l'carré, j'fume mon kéro-kéro Balance le beat que j'les baise encore une fois frère, yo ça va pas les aider Avec mes nègres dans voiture française woof Avec mes juifs dans voiture allemande Monsieur l'agent veut mettre une amende yeah Brexit, vroum vroum je file à l'anglaise J'ai des idées suspectes oui J'ai le cur près du zgueg oui J'viens voler des portraits J'viens pas piquer une tête J'fais des affaires si y'a affaires à faire P'tite salope j'paie jamais des verres à perte jamais Rap français, C.I.A, moi, Ben Laden J'vous encule la schnek faudra faire avec faire avec J'te tarte avec 4 bagues pah ! J'vends l'négatif de c'que vends Jacques Vabre Si j'te la vends t'es un schlague J'surfe sur le terrain vague Hello, hello, hello, L.O.L Ouais pélo c'est sûr j'les baise dis-moi quel hôtel quel hôtel ? Mettez l'oseille sur elle, j'vous vends cette ligne ferroviaire Le prof de math dit Y'a pas d'chiffre, c'est pas des problèmes T'as une grande bouche mais j'crois qu'l'engin est rikiki tout petit L'plus dangereux c'est pas l'mieux armé, c'est celui qui tire Hello, hello, hello, L.O.L J'suis dans l'carré j'fume mon kérosène Hello, hello j'fume mon caramelo Renoi j'fais le zeille-o, renoi j'fais l'oseille Hello, hello, hello, L.O.L J'suis dans l'carré j'fume mon kérosène Hello, hello j'fume mon caramelo Renoi j'fais le zeille-o, renoi j'fais l'oseille J'suis dans l'carré, j'me mets K.O-K.O J'suis dans l'carré, j'me mets K.O-K.O yeah4</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Yeah Uh-uh, right, yo On est 7 milliards, pas tous similaires Fini la rue, place à la réussite, toujours face à l'arrêt Changer d'train d'vie m'empêche pas de prendre le bus Viens m'faire un hug, quelque fois ta meuf me prends le buste Uh-uh, tu veux Joke sur ta liste, me parle pas de plus Uh-uh, jeune togolais, 501 et sapes de luxe Uh-uh, tu fais du biff avec le rap, arrête tes salades 'Re-noi', garde ça pour tes Royal Deluxe J'suis trop chaud en plein hiver, les couilles en train d'bouillir Gros, j'l'imagine en vrette-le, si elle m'fait un sourire J'l'imagine dans sa bouche, si elle m'fait la 'se-bi' Si elle veut prendre une 'tho-ph' alors là négro, j'ai la demi Automatique comme semi comme mes antibiotiques C'est l'effet qu't'aies 'ppé-cho' avec trentes kilos d'shit Les rappeurs qu'ont voulu pomper ont eu cinq, six otites Amputé du cerveau, j'ai l'flow d'un verre d'eau, woah, nigga J'ai l'flow d'un verre d'eau, négro, mais des bouteilles d'eau à 7 euros le litre qu'ils vendent à Monoprix ces malades, c'est vérifiable Donc tu vois l'genre de flow, négro, non ? Hein ? MTP, Mothafucka You might also like Yo, j'm'en bats les couilles du chômage, j'veux taffer pour personne Personne n'a d'argent, tout l'monde a un iPhone J'analise ta femme, je parle pas d'l'examiner T'auras mon cerveau qu'si t'avales un grand bol d'amphétamines merde Malheureusement, si tu l'fais, tu pourras écrire un morceau comme moi Mais après tu s'ras mort, négro Donc merci Dieu, merci Dieu Tokyo Amen !1</t>
+          <t>Yeah Uh-uh, right, yo On est 7 milliards, pas tous similaires Fini la rue, place à la réussite, toujours face à l'arrêt Changer d'train d'vie m'empêche pas de prendre le bus Viens m'faire un hug, quelque fois ta meuf me prends le buste Uh-uh, tu veux Joke sur ta liste, me parle pas de plus Uh-uh, jeune togolais, 501 et sapes de luxe Uh-uh, tu fais du biff avec le rap, arrête tes salades 'Re-noi', garde ça pour tes Royal Deluxe J'suis trop chaud en plein hiver, les couilles en train d'bouillir Gros, j'l'imagine en vrette-le, si elle m'fait un sourire J'l'imagine dans sa bouche, si elle m'fait la 'se-bi' Si elle veut prendre une 'tho-ph' alors là négro, j'ai la demi Automatique comme semi comme mes antibiotiques C'est l'effet qu't'aies 'ppé-cho' avec trentes kilos d'shit Les rappeurs qu'ont voulu pomper ont eu cinq, six otites Amputé du cerveau, j'ai l'flow d'un verre d'eau, woah, nigga J'ai l'flow d'un verre d'eau, négro, mais des bouteilles d'eau à 7 euros le litre qu'ils vendent à Monoprix ces malades, c'est vérifiable Donc tu vois l'genre de flow, négro, non ? Hein ? MTP, Mothafucka Yo, j'm'en bats les couilles du chômage, j'veux taffer pour personne Personne n'a d'argent, tout l'monde a un iPhone J'analise ta femme, je parle pas d'l'examiner T'auras mon cerveau qu'si t'avales un grand bol d'amphétamines merde Malheureusement, si tu l'fais, tu pourras écrire un morceau comme moi Mais après tu s'ras mort, négro Donc merci Dieu, merci Dieu Tokyo Amen !1</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2000 degrés Fahrenheit J'compte sur qui à part la maille ? J'vais p't-être me manger l'enfer Mais là j'sirote un paradise Elle m'touche elle m'dit qu'c'est réel J'sens la haine souiller tes veines Non y'a aucune trace de moi Sur l'tableau d'Mendeleïev Débarque sur un négro pour l'jump, roule-ça vite j'vais fumer tout l'blunt Négro prêt à tirer, tous dingues, dingues, dingues, dingues, dingues, dingues, dingues La nouvelle tendance est mon coup d'coeur, hola hola hola hola hola J'découpe la me-ca comme Benihana, j'coupe du crack comme Giovanni Rana Si j'viens c'est pour t'faire, si j'viens c'est pour l'faire Si j'viens c'est pour l'faire, hin hin hin hin Si j'viens c'est pour l'faire, oh oh oh oh Là où sont loqués tes rêves La balle va coûter des yens On dit qu'la vie est écrite J'l'ai download en PDF Nique sa mère le banc de touche J'préfère le banc des accusés Y'a qu'les chattes pour me rassurer Y'a qu'le vide qu'est immaculé You might also like Si j'viens c'est pour l'faire, si j'viens c'est pour l'faire Dans le club sous herbe, hin hin hin hin Si j'viens c'est pour l'faire, si j'viens c'est pour l'faire1</t>
+          <t>2000 degrés Fahrenheit J'compte sur qui à part la maille ? J'vais p't-être me manger l'enfer Mais là j'sirote un paradise Elle m'touche elle m'dit qu'c'est réel J'sens la haine souiller tes veines Non y'a aucune trace de moi Sur l'tableau d'Mendeleïev Débarque sur un négro pour l'jump, roule-ça vite j'vais fumer tout l'blunt Négro prêt à tirer, tous dingues, dingues, dingues, dingues, dingues, dingues, dingues La nouvelle tendance est mon coup d'coeur, hola hola hola hola hola J'découpe la me-ca comme Benihana, j'coupe du crack comme Giovanni Rana Si j'viens c'est pour t'faire, si j'viens c'est pour l'faire Si j'viens c'est pour l'faire, hin hin hin hin Si j'viens c'est pour l'faire, oh oh oh oh Là où sont loqués tes rêves La balle va coûter des yens On dit qu'la vie est écrite J'l'ai download en PDF Nique sa mère le banc de touche J'préfère le banc des accusés Y'a qu'les chattes pour me rassurer Y'a qu'le vide qu'est immaculé Si j'viens c'est pour l'faire, si j'viens c'est pour l'faire Dans le club sous herbe, hin hin hin hin Si j'viens c'est pour l'faire, si j'viens c'est pour l'faire1</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MTP, nigga Yeah, yo J'suis en direct de la quatrième dimension, négro Fuck un découvert, les négros kickent, grindent, font des do' Halleluia, j'veux qu'ma vie soit un immense dimanche Les négros veulent croquer, sucent des bites pendant qu'ils pensent qu'ils mangent Mec, dis à Zaz qu'elle m'file sa SACEM Et si elle sait pas quoi en faire, j'me paye un billet pour l'enfer avec Y en a en vente libre sur Internet J'me crois tout permis, mais sans biff, j'crois que j'peux rien m'permettre Fuck un découvert, j'mettrais bien à poil la banquière J'te jure, j'lui mettrais son compte que j'réfléchis à l'envers J'suis fauché comme Gilbert Montagné sur la voie rapide Mis-mais les mecs se branlent tellement, David Carradine J'veux des loves et fast, comme le maillot jaune Joky veut prendre ta part, fais-en part aux autres Monnaie dans l'crâne, comme un enfoncement nasal Tu risques d'avoir un temps mort si on sort la balle On veut make money-money, on veut make money-money On veut make money quand même On veut make money-money, on veut make money-money On veut make money quand même J'le sais, on est jeune et noir, négro, mais j'ai l'espoir, frérot Make money quand même On veut make money, make money, make money, money money money You might also like Tu t'crois l'élu comme Néo, mais j'suis passé chez Free J'suis l'élu comme Sarko', venez m'passer les biffs Mode télépathe et les putes arrêtent pas d'mater l'équipe On monte les marches et les p'tites, on vient pas marquer des buts Chaque billet, peut faire des billets, un euro peut faire des milliers donc Chez moi ça parle que argent, on connait pas oui et non Et si un seul instant une pute me fait perdre mon focus Merde, j'pense aux billets jaune cocu Mais, hein hein, on repassait et on plie les normes Téléphone arabe, toujours en mode millénium J'me vois quarante piges, des jeunes putes, un bide énorme Des phases sur le côté, déter' en mode Kill 'Em All, Fuck off, j'veux une meuf propre comme un sous neuf J'ai toutes les cartes en main, si j'démarre, c'est pas un coup d'bluff Négro, négro écoute bien J'viens tout baiser parce qu'un coup d'rein, ça me coûte rien On veut make money-money, on veut make money-money On veut make money quand même On veut make money-money, on veut make money-money On veut make money quand même J'le sais, on est jeune et noir, négro, mais j'ai l'espoir, frérot Make money quand même On veut make money, make money, make money, money money money Fuck, MTP, Kyoto, Paw Nigga Bienvenue dans Kyoto, la 4ème dimension3</t>
+          <t>MTP, nigga Yeah, yo J'suis en direct de la quatrième dimension, négro Fuck un découvert, les négros kickent, grindent, font des do' Halleluia, j'veux qu'ma vie soit un immense dimanche Les négros veulent croquer, sucent des bites pendant qu'ils pensent qu'ils mangent Mec, dis à Zaz qu'elle m'file sa SACEM Et si elle sait pas quoi en faire, j'me paye un billet pour l'enfer avec Y en a en vente libre sur Internet J'me crois tout permis, mais sans biff, j'crois que j'peux rien m'permettre Fuck un découvert, j'mettrais bien à poil la banquière J'te jure, j'lui mettrais son compte que j'réfléchis à l'envers J'suis fauché comme Gilbert Montagné sur la voie rapide Mis-mais les mecs se branlent tellement, David Carradine J'veux des loves et fast, comme le maillot jaune Joky veut prendre ta part, fais-en part aux autres Monnaie dans l'crâne, comme un enfoncement nasal Tu risques d'avoir un temps mort si on sort la balle On veut make money-money, on veut make money-money On veut make money quand même On veut make money-money, on veut make money-money On veut make money quand même J'le sais, on est jeune et noir, négro, mais j'ai l'espoir, frérot Make money quand même On veut make money, make money, make money, money money money Tu t'crois l'élu comme Néo, mais j'suis passé chez Free J'suis l'élu comme Sarko', venez m'passer les biffs Mode télépathe et les putes arrêtent pas d'mater l'équipe On monte les marches et les p'tites, on vient pas marquer des buts Chaque billet, peut faire des billets, un euro peut faire des milliers donc Chez moi ça parle que argent, on connait pas oui et non Et si un seul instant une pute me fait perdre mon focus Merde, j'pense aux billets jaune cocu Mais, hein hein, on repassait et on plie les normes Téléphone arabe, toujours en mode millénium J'me vois quarante piges, des jeunes putes, un bide énorme Des phases sur le côté, déter' en mode Kill 'Em All, Fuck off, j'veux une meuf propre comme un sous neuf J'ai toutes les cartes en main, si j'démarre, c'est pas un coup d'bluff Négro, négro écoute bien J'viens tout baiser parce qu'un coup d'rein, ça me coûte rien On veut make money-money, on veut make money-money On veut make money quand même On veut make money-money, on veut make money-money On veut make money quand même J'le sais, on est jeune et noir, négro, mais j'ai l'espoir, frérot Make money quand même On veut make money, make money, make money, money money money Fuck, MTP, Kyoto, Paw Nigga Bienvenue dans Kyoto, la 4ème dimension3</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Infinigga FREAKEY! FREAKEY! FREAKEY! FREAKEY! Yah J'ai le même bâton qu'dans City Hunter Yah Bitch regarde ma liasse, donne-moi ton number J'suis solitaire et j'suis bon pour faire l'oseille Et j'peux mettre deux solitaires sur tes oreilles Yah L'négro est deep, Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep, Yah L'négro est deep Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep Let's go, let's go Faut qu'je bouffe le cul d'Jennifer Lopez Si l'truc est obèse, sûr qu'j'tiens mes promesses Négro t'es trop lège, mon cur est trop lég' J'suis niveau Dieu, t'es niveau collège Négro est pieux, j'me lève et prie What ? Verbal odieux, j'claque dans vos yeux What ? Elle suce mon pénis au bord du précipice J'te mets un drap et j'vais méditer six piges You might also like J'ai le même bâton qu'dans City Hunter Yah Bitch regarde ma liasse, donne-moi ton number J'suis solitaire et j'suis bon pour faire l'oseille Et j'peux mettre deux solitaires sur tes oreilles Yah L'négro est deep, Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep, Yah L'négro est deep Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep Let's go, let's go Oh my Lord almighty, ass so fat, damn She give me head like a hat, yeah Grippin' that dick like a bat, yeah She wanna fuck 'cause I got a blue check, yeah Got her screamin' loud like I stepped on a cat tail She be suckin' good, put a crook in her neck, yeah How that pussy kiss, but can't keep on its panties ? Yeah These niggas can't duplicate the swag, bitch, I am that rare We take care of straps well I'll be damned if my strap's jam Strap's jam These guns ain't cheap, so you know we gon' tax him Tax him Whack him Whack him, leave a nigga face in his lap, yeah J'ai le même bâton qu'dans City Hunter Yah Bitch regarde ma liasse, donne-moi ton number J'suis solitaire et j'suis bon pour faire l'oseille Et j'peux mettre deux solitaires sur tes oreilles Yah L'négro est deep, Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep, Yah L'négro est deep Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep Let's go, let's go Infinigga FREAKEY! FREAKEY!2</t>
+          <t>Infinigga FREAKEY! FREAKEY! FREAKEY! FREAKEY! Yah J'ai le même bâton qu'dans City Hunter Yah Bitch regarde ma liasse, donne-moi ton number J'suis solitaire et j'suis bon pour faire l'oseille Et j'peux mettre deux solitaires sur tes oreilles Yah L'négro est deep, Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep, Yah L'négro est deep Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep Let's go, let's go Faut qu'je bouffe le cul d'Jennifer Lopez Si l'truc est obèse, sûr qu'j'tiens mes promesses Négro t'es trop lège, mon cur est trop lég' J'suis niveau Dieu, t'es niveau collège Négro est pieux, j'me lève et prie What ? Verbal odieux, j'claque dans vos yeux What ? Elle suce mon pénis au bord du précipice J'te mets un drap et j'vais méditer six piges J'ai le même bâton qu'dans City Hunter Yah Bitch regarde ma liasse, donne-moi ton number J'suis solitaire et j'suis bon pour faire l'oseille Et j'peux mettre deux solitaires sur tes oreilles Yah L'négro est deep, Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep, Yah L'négro est deep Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep Let's go, let's go Oh my Lord almighty, ass so fat, damn She give me head like a hat, yeah Grippin' that dick like a bat, yeah She wanna fuck 'cause I got a blue check, yeah Got her screamin' loud like I stepped on a cat tail She be suckin' good, put a crook in her neck, yeah How that pussy kiss, but can't keep on its panties ? Yeah These niggas can't duplicate the swag, bitch, I am that rare We take care of straps well I'll be damned if my strap's jam Strap's jam These guns ain't cheap, so you know we gon' tax him Tax him Whack him Whack him, leave a nigga face in his lap, yeah J'ai le même bâton qu'dans City Hunter Yah Bitch regarde ma liasse, donne-moi ton number J'suis solitaire et j'suis bon pour faire l'oseille Et j'peux mettre deux solitaires sur tes oreilles Yah L'négro est deep, Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep, Yah L'négro est deep Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep Let's go, let's go Infinigga FREAKEY! FREAKEY!2</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>J'm'en bas les couilles moi, demande a khaya qui est le best Micro test, crash test on t'casse les jambes si tu te la pètes Si tu fais la belle t'as l'bonjour de mon engin Ta mère la chienne si tu crois que j'suis ton frangin Pas de blablabla ca fait ratata tu veux savoir de quoi j'te parle Pas de cacacage que des cracracrasses tu vois de quoi j'te parle On gère le business pas d'mytho, tire à vue ces putes n'ont pas l'niveau Ouais, on est frais, les shnecks à nos pieds en effet Illtoo, Joke on est vrais, la Paillade qu'est c'qu'on fait ? À part fumer et baiser des pétasses, son parfumé au napalm flingue les pédales Fuck Taubira si tu rappes mal on t'oubliera Mirage ramène ton cul ca sera l'Irak, fuck Dajjal et ces miracles J'ai la rage d'un vieux pirate Même dans la street y'a la pyramide, pour monter faut être le plus hami Yeah Mais comment veux tu faire mieux ? Négro V'la les feuk, v'la les 22 Négro Va falloir user les 23 Tu connais pas du tout MTP négro renseigne toi You might also like Les négros veulent me voir genou à terre Déguste la gomme de mes Nike Air Négro t'as l'flow de mes waters Va faire des CD fédérataires J'suis posé j'suis là avec Illtoo mamen Allume les projos sur toute la scène Devant derrière on prend toute la chienne Tous ces clochards ont le gout sacqué MTP et Golden Eye, pour tout mes border line On a tous ce genre de Nine J'te jure on a tous ce genre de maille Fallait pas dégainer l'pistolet à grenaille 'Stolet à grenaille Tchoukoutou dans la calebasse Yo, Yo j'suis O'dog dans menace J'refais ton album en une aprèm négro J'te jure qu'ils sont pas prêts On va utiliser ton corps pour faire de l'engrais Mes négros vendent comme des hollandais Tu peux t'contenter que de commenter Tenir la porte quand j'fais mon entrée Mon rap passe comme une lettre à la poste J'ai signé comme un courrier recommandé Le rap est mort j'suis dans le building J'suis posé dans la maison hantée Mange des cailloux comme des Koh-Lantais On est à la Mosson ouais sur le rainté J'te répond solo la bienté J'baise ta pétasse elle est aldente Mamen Leknifrug sur le synthé Ramène des biatch à esquinter On est sur les nerfs Yeah Mais comment veux tu faire mieux ? Négro V'la les feuk, v'la les 22 Négro Va falloir user les 23 Tu connais pas du tout MTP négro renseigne toi Kaira Land baise les 'tasses à la Tyra Banks Braco, Bigo, Négro, Illtoo Joke Lève ton majeur en l'air On vient baiser la crémière L'avo' cause car on a bâillonner la greffière Tu suces t'avale quand je tire tu cavales Frèrot j'ai grave la banane quand j'vois un flic bouffer d'la caillasse Bouffer d'la caillasse, MTP c'est la paillade Hachich, Go fast, gros cul personne pour m'sortir de ce marasme Nique ta mère, nique ta race C'est la guerre, j'vend du hach Tu veux du seum on va négocier Sur toute tes surs j'ai pleins de dossiers Mon ADN est dans leur gosier nigga Yeah Mais comment veux tu faire mieux ? Négro V'la les feuk, v'la les 22 Négro Va falloir user les 23 Tu connais pas du tout MTP négro renseigne toi8</t>
+          <t>J'm'en bas les couilles moi, demande a khaya qui est le best Micro test, crash test on t'casse les jambes si tu te la pètes Si tu fais la belle t'as l'bonjour de mon engin Ta mère la chienne si tu crois que j'suis ton frangin Pas de blablabla ca fait ratata tu veux savoir de quoi j'te parle Pas de cacacage que des cracracrasses tu vois de quoi j'te parle On gère le business pas d'mytho, tire à vue ces putes n'ont pas l'niveau Ouais, on est frais, les shnecks à nos pieds en effet Illtoo, Joke on est vrais, la Paillade qu'est c'qu'on fait ? À part fumer et baiser des pétasses, son parfumé au napalm flingue les pédales Fuck Taubira si tu rappes mal on t'oubliera Mirage ramène ton cul ca sera l'Irak, fuck Dajjal et ces miracles J'ai la rage d'un vieux pirate Même dans la street y'a la pyramide, pour monter faut être le plus hami Yeah Mais comment veux tu faire mieux ? Négro V'la les feuk, v'la les 22 Négro Va falloir user les 23 Tu connais pas du tout MTP négro renseigne toi Les négros veulent me voir genou à terre Déguste la gomme de mes Nike Air Négro t'as l'flow de mes waters Va faire des CD fédérataires J'suis posé j'suis là avec Illtoo mamen Allume les projos sur toute la scène Devant derrière on prend toute la chienne Tous ces clochards ont le gout sacqué MTP et Golden Eye, pour tout mes border line On a tous ce genre de Nine J'te jure on a tous ce genre de maille Fallait pas dégainer l'pistolet à grenaille 'Stolet à grenaille Tchoukoutou dans la calebasse Yo, Yo j'suis O'dog dans menace J'refais ton album en une aprèm négro J'te jure qu'ils sont pas prêts On va utiliser ton corps pour faire de l'engrais Mes négros vendent comme des hollandais Tu peux t'contenter que de commenter Tenir la porte quand j'fais mon entrée Mon rap passe comme une lettre à la poste J'ai signé comme un courrier recommandé Le rap est mort j'suis dans le building J'suis posé dans la maison hantée Mange des cailloux comme des Koh-Lantais On est à la Mosson ouais sur le rainté J'te répond solo la bienté J'baise ta pétasse elle est aldente Mamen Leknifrug sur le synthé Ramène des biatch à esquinter On est sur les nerfs Yeah Mais comment veux tu faire mieux ? Négro V'la les feuk, v'la les 22 Négro Va falloir user les 23 Tu connais pas du tout MTP négro renseigne toi Kaira Land baise les 'tasses à la Tyra Banks Braco, Bigo, Négro, Illtoo Joke Lève ton majeur en l'air On vient baiser la crémière L'avo' cause car on a bâillonner la greffière Tu suces t'avale quand je tire tu cavales Frèrot j'ai grave la banane quand j'vois un flic bouffer d'la caillasse Bouffer d'la caillasse, MTP c'est la paillade Hachich, Go fast, gros cul personne pour m'sortir de ce marasme Nique ta mère, nique ta race C'est la guerre, j'vend du hach Tu veux du seum on va négocier Sur toute tes surs j'ai pleins de dossiers Mon ADN est dans leur gosier nigga Yeah Mais comment veux tu faire mieux ? Négro V'la les feuk, v'la les 22 Négro Va falloir user les 23 Tu connais pas du tout MTP négro renseigne toi8</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>One, one, one, one One, one, one, one Yeah, han Gros, jai les grigris d'Kunta Kinte, un mojo de qualité Une cité et deuxtrois putes à quitter, j'remplis tes cavités Tu sais, jai un swag de marabout, gars, jveux les chaines dbarracuda Négro, quand on joue aux poupées russes, cest qujenfile la chatte dune cougar Tu sais quon va vite, mec, tu veux faire la dif' mais tu seras juste derrière On vient faire nos business, on va leur mettre une vitesse, rien à foutre des mecs dhier On est sur les nerfs, on est sur les derniers bails, on est sur les hein, on est sûrs, déter', médaille au cou Mes gars, beaucoup trop chauds, on avance dans la street, pétards aux couilles Jveux voir une main en l'air, deux mains en l'air, que j'repère toutes les meufs Jveux voir une main en l'air, deux mains en l'air, que je claque toutes ces 'sses-f' Tu vois ma main en lair, une CB, les sachets de poudre attirent les trainés Heineken, champagne Moët et elle veut 'quer-n', une goutte au sol pour les ainés One, one MTP, one, one Les Monsieurs One, one GEMG, one, one Yeah On veut faire grimper nos business, yo, nos business, tous les négros qui ragent, on barre On vient mettre au rap une vitesse, yo, une vitesse, tous les négros qui ragent, on barre On veut faire grimper nos business, yo, nos business, tous les négros qui ragent, on barre On vient mettre au rap une vitesse, yo, une vitesse, tous les négros qui ragent, on barre You might also like Pour les vrais négros, fais d'la place, fais d'la place Pour les vrais ladies, fais d'la place, fais d'la place Pour les vrais négros, fais d'la place, fais d'la place Pour les vrais ladies, fais d'la place, fais d'la place Jte l'ai mise dans la face, j't'ai démaquillée, toute la zone est quadrillée J'ride avec des têtes brulées, tu ride avec des gars grillés Cest Joky dans la place, jai plus quà viser, et je fais de la place dans mon barillet Je mets ta p'tite à genou, j'sors ma 'eue-qu', j'me fais pas prier Jen place une pour Guerlain, my nigga, tu rappes pas super bien, my nigga Yo, ici, cest 3-4, my nigga, rap français à 4 pattes, my nigga Cest la Pail', cest la Pail', la limite, cest le ciel, c'est pas l'sky Cest la maille cest la maille jveux mettre de lor sur mon poitrail On est sur les nerfs One, one MTP, one, one Les Monsieurs One, one GEMG, one, one Yeah On veut faire grimper nos business, yo, nos business, tous les négros qui ragent, on barre On vient mettre au rap une vitesse, yo, une vitesse, tous les négros qui ragent, on barre On veut faire grimper nos business, yo, nos business, tous les négros qui ragent, on barre On vient mettre au rap une vitesse, yo, une vitesse, tous les négros qui ragent, on barre Tes négros chialent, pour m'signer, c'est 200 000 non négociable Joke est trop salaud, audio sado', mes punchs mettent tes mecs au sale Un coup d'oeil sur l'rap français, et j'suis d'humeur très maussade Vrai reconnaît vrai, la plupart de mes négros l'savent Mes vers sont comme des points dinterrogation Quand ils sont posés, les négros se remettent en question Mes vers sont comme des points dinterrogation Quand ils sont posés, les négros se remettent en question Motherfucka One, one, one, one One, one, one, one Pour les vrais négros, fais d'la place, fais d'la place Pour les vrais ladies, fais d'la place, fais d'la place Pour les vrais négros, fais d'la place, fais d'la place Pour les vrais ladies, fais d'la place, fais d'la place2</t>
+          <t>One, one, one, one One, one, one, one Yeah, han Gros, jai les grigris d'Kunta Kinte, un mojo de qualité Une cité et deuxtrois putes à quitter, j'remplis tes cavités Tu sais, jai un swag de marabout, gars, jveux les chaines dbarracuda Négro, quand on joue aux poupées russes, cest qujenfile la chatte dune cougar Tu sais quon va vite, mec, tu veux faire la dif' mais tu seras juste derrière On vient faire nos business, on va leur mettre une vitesse, rien à foutre des mecs dhier On est sur les nerfs, on est sur les derniers bails, on est sur les hein, on est sûrs, déter', médaille au cou Mes gars, beaucoup trop chauds, on avance dans la street, pétards aux couilles Jveux voir une main en l'air, deux mains en l'air, que j'repère toutes les meufs Jveux voir une main en l'air, deux mains en l'air, que je claque toutes ces 'sses-f' Tu vois ma main en lair, une CB, les sachets de poudre attirent les trainés Heineken, champagne Moët et elle veut 'quer-n', une goutte au sol pour les ainés One, one MTP, one, one Les Monsieurs One, one GEMG, one, one Yeah On veut faire grimper nos business, yo, nos business, tous les négros qui ragent, on barre On vient mettre au rap une vitesse, yo, une vitesse, tous les négros qui ragent, on barre On veut faire grimper nos business, yo, nos business, tous les négros qui ragent, on barre On vient mettre au rap une vitesse, yo, une vitesse, tous les négros qui ragent, on barre Pour les vrais négros, fais d'la place, fais d'la place Pour les vrais ladies, fais d'la place, fais d'la place Pour les vrais négros, fais d'la place, fais d'la place Pour les vrais ladies, fais d'la place, fais d'la place Jte l'ai mise dans la face, j't'ai démaquillée, toute la zone est quadrillée J'ride avec des têtes brulées, tu ride avec des gars grillés Cest Joky dans la place, jai plus quà viser, et je fais de la place dans mon barillet Je mets ta p'tite à genou, j'sors ma 'eue-qu', j'me fais pas prier Jen place une pour Guerlain, my nigga, tu rappes pas super bien, my nigga Yo, ici, cest 3-4, my nigga, rap français à 4 pattes, my nigga Cest la Pail', cest la Pail', la limite, cest le ciel, c'est pas l'sky Cest la maille cest la maille jveux mettre de lor sur mon poitrail On est sur les nerfs One, one MTP, one, one Les Monsieurs One, one GEMG, one, one Yeah On veut faire grimper nos business, yo, nos business, tous les négros qui ragent, on barre On vient mettre au rap une vitesse, yo, une vitesse, tous les négros qui ragent, on barre On veut faire grimper nos business, yo, nos business, tous les négros qui ragent, on barre On vient mettre au rap une vitesse, yo, une vitesse, tous les négros qui ragent, on barre Tes négros chialent, pour m'signer, c'est 200 000 non négociable Joke est trop salaud, audio sado', mes punchs mettent tes mecs au sale Un coup d'oeil sur l'rap français, et j'suis d'humeur très maussade Vrai reconnaît vrai, la plupart de mes négros l'savent Mes vers sont comme des points dinterrogation Quand ils sont posés, les négros se remettent en question Mes vers sont comme des points dinterrogation Quand ils sont posés, les négros se remettent en question Motherfucka One, one, one, one One, one, one, one Pour les vrais négros, fais d'la place, fais d'la place Pour les vrais ladies, fais d'la place, fais d'la place Pour les vrais négros, fais d'la place, fais d'la place Pour les vrais ladies, fais d'la place, fais d'la place2</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ta vie va devenir de plus en plus belle Ton monde va devenir de plus en plus beau Cette affirmation est puissante et va se matérialiser dans ta réalité de façon permanente et visible Ta vie va devenir de plus en plus belle Ton monde va devenir de plus en plus beau Cette affirmation est puissante et va se matérialiser dans ta réalité de façon permanente et visible Ta vie va devenir de plus en plus belle Ton monde va devenir de plus en plus beau Cette affirmation est puissante et va se matérialiser dans ta réalité de façon permanente et visible Oui Tapis persan, j'suis en moonwalk, yeah J'me fais sucer, j'te-ma Boondocks Descends d'la dernière R-R, te-ma tout l'block Gros joint d'be-her m'fais péter le rassoudok T'as d'l'or au cou, rendez-vous dans un coupe-gorge L'orgasme lui fait pousser des fleurs sur tout l'corps, yeah Je débarque dans vos schneks, bitch j'ai plus d'adresse Mon Dieu, lave nos pêchés avec une averse Crâne rasé, cap Gucci avec une abeille Quand j'dis qu'j'vais t'baiser, j'veux que tu acquiesces N'oublies pas d'me texter si y'a thunes à faire J'suis le plus détesté, j'ai des thunes à faire Continue le hate, j'veux pas que tu t'arrêtes L'univers tout entier danse sur ma tête You might also like J'pull up en nine-one-one J'pull up en nine-one-one J'casse ta chatte when I want J'casse ta chatte when I want On va pas les aider, j'pull up en nine-one-one J'pull up en nine-one-one J'casse ta chatte when I want J'casse ta chatte when I want J'compte mon pognon, j'suis sur Orion Si t'étais bon, nous le saurions Les diamants ils sont sur mon cordon, wah Mes sons, 2030 sont encore bons Intelligent comme une fausse blonde, come on Ta mère la pute chauffe le chaudron Quand j'vais sur Mars, j'prends un faux nom J'suis Neo sous néo-codion J'pull up en nine-one-one J'pull up en nine-one-one J'casse ta chatte when I want J'casse ta chatte when I want J'pull up en nine-one-one J'pull up en nine-one-one J'casse ta chatte when I want J'casse ta chatte when I want3</t>
+          <t>Ta vie va devenir de plus en plus belle Ton monde va devenir de plus en plus beau Cette affirmation est puissante et va se matérialiser dans ta réalité de façon permanente et visible Ta vie va devenir de plus en plus belle Ton monde va devenir de plus en plus beau Cette affirmation est puissante et va se matérialiser dans ta réalité de façon permanente et visible Ta vie va devenir de plus en plus belle Ton monde va devenir de plus en plus beau Cette affirmation est puissante et va se matérialiser dans ta réalité de façon permanente et visible Oui Tapis persan, j'suis en moonwalk, yeah J'me fais sucer, j'te-ma Boondocks Descends d'la dernière R-R, te-ma tout l'block Gros joint d'be-her m'fais péter le rassoudok T'as d'l'or au cou, rendez-vous dans un coupe-gorge L'orgasme lui fait pousser des fleurs sur tout l'corps, yeah Je débarque dans vos schneks, bitch j'ai plus d'adresse Mon Dieu, lave nos pêchés avec une averse Crâne rasé, cap Gucci avec une abeille Quand j'dis qu'j'vais t'baiser, j'veux que tu acquiesces N'oublies pas d'me texter si y'a thunes à faire J'suis le plus détesté, j'ai des thunes à faire Continue le hate, j'veux pas que tu t'arrêtes L'univers tout entier danse sur ma tête J'pull up en nine-one-one J'pull up en nine-one-one J'casse ta chatte when I want J'casse ta chatte when I want On va pas les aider, j'pull up en nine-one-one J'pull up en nine-one-one J'casse ta chatte when I want J'casse ta chatte when I want J'compte mon pognon, j'suis sur Orion Si t'étais bon, nous le saurions Les diamants ils sont sur mon cordon, wah Mes sons, 2030 sont encore bons Intelligent comme une fausse blonde, come on Ta mère la pute chauffe le chaudron Quand j'vais sur Mars, j'prends un faux nom J'suis Neo sous néo-codion J'pull up en nine-one-one J'pull up en nine-one-one J'casse ta chatte when I want J'casse ta chatte when I want J'pull up en nine-one-one J'pull up en nine-one-one J'casse ta chatte when I want J'casse ta chatte when I want3</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Pinky ring en or rose, p'tit living en bord d'côte On trouve cercueil à ta taille re-noi, même si t'es costaud Révolutionnaire comme le Che, sur l'compte j'veux somme d'une tonne de C J'suis prêt de loin comme de près, j'suis loin de loin comme de près J'habite plus dans une 'té-c', j'm'en suis sorti d'justesse Ouais renoi, j'suis Van Gogh, ils font d'la peinture rupestre Déchiré par le scotch, comme la vie m'a custom Mon savoir dans deux poches, bientôt ma v'nue te fauche Chérie viens donc voir l'homme de près, lâche l'oseille la con de tes morts J'veux un compte en Suisse, nique sa mère un conte de fées Les négros du rap français donnent envie d'voter FN T'as un flow de ménestrel, j'sors la coke, j'mets mon p'tit grain d'sel, oh, yes Par réflexe, j'calle une balle dans tes fesses Par réflexe, j'signe que pour des parts épaisses Paraîtrait qu'ces 'res-noi' veulent m'arrêter Baise ces négros, c'que m'a dit la femme qui m'a allaité Oui, c'est moi Oui, nigga, Oui, nigga, oui, nigga, Oui, nigga Oui, nigga Oui, nigga, oui, nigga Oui, nigga Oui, oui, oui, oui, oui nigga Oui, oui, nigga, oui, oui nigga Oui, oui, oui, oui, oui, oui nigga Oui, oui, nigga You might also like Merde, j'suis dans l'strip club, jette des euros dans les airs J'suis dans ta ville, j'trempe ma queue dans des mères, j'te transmets ma haine pour me passer les nerfs Fais-moi à graille, va repasser mes fringues, branle-moi la bite pour te masser les mains Notre futur est dingue car notre passé est dingue, puissance du propos, avale tes méninges Dépense le blé, c'est que du blé, j'fais des cascades sur l'Boulevard Saint-Germain Nique vos 'res-mè', tu me remets ? Ton hémoglobine me repeint la main Vérité est claire, ils ont pillé mes terres, y a Ateyaba qui bouillonne dans mes chairs J'suis dans l'espace, j'suis dans l'Éther, il m'faut un passeport interplanétaire J'fais pas d'prix d'amis même à mes amis, pas d'Rolex si tu rappes, t'as raté ta vie J'ai des billets couleur Orange Mécanique, rap sous kétamine, or rose sous les canines Gros j'arrive dans ton cul comme un Keith Haring, c'est la vie re-noi, une balle te désanime Parle oseille sinon j'écoute mes élohims, c'est très sombre dans ma tête j'ai des chéloïdes Négro si le crime paie, alors crime y aura, je fais peur à leur chienne comme un chinois Renoi moi j'aime le blé pas le quinoa, chevalière en or rose sur le p'tit doigt Chevalière en or rose sur le p'tit doigt Chevalière en or rose Oui, nigga, Oui, nigga, oui, nigga, Oui, nigga Oui, nigga Oui, nigga, oui, nigga Oui, nigga Oui, oui, oui, oui, oui nigga Oui, oui, nigga, oui, oui nigga Oui, oui, oui, oui, oui, oui nigga Oui, oui, nigga1</t>
+          <t>Pinky ring en or rose, p'tit living en bord d'côte On trouve cercueil à ta taille re-noi, même si t'es costaud Révolutionnaire comme le Che, sur l'compte j'veux somme d'une tonne de C J'suis prêt de loin comme de près, j'suis loin de loin comme de près J'habite plus dans une 'té-c', j'm'en suis sorti d'justesse Ouais renoi, j'suis Van Gogh, ils font d'la peinture rupestre Déchiré par le scotch, comme la vie m'a custom Mon savoir dans deux poches, bientôt ma v'nue te fauche Chérie viens donc voir l'homme de près, lâche l'oseille la con de tes morts J'veux un compte en Suisse, nique sa mère un conte de fées Les négros du rap français donnent envie d'voter FN T'as un flow de ménestrel, j'sors la coke, j'mets mon p'tit grain d'sel, oh, yes Par réflexe, j'calle une balle dans tes fesses Par réflexe, j'signe que pour des parts épaisses Paraîtrait qu'ces 'res-noi' veulent m'arrêter Baise ces négros, c'que m'a dit la femme qui m'a allaité Oui, c'est moi Oui, nigga, Oui, nigga, oui, nigga, Oui, nigga Oui, nigga Oui, nigga, oui, nigga Oui, nigga Oui, oui, oui, oui, oui nigga Oui, oui, nigga, oui, oui nigga Oui, oui, oui, oui, oui, oui nigga Oui, oui, nigga Merde, j'suis dans l'strip club, jette des euros dans les airs J'suis dans ta ville, j'trempe ma queue dans des mères, j'te transmets ma haine pour me passer les nerfs Fais-moi à graille, va repasser mes fringues, branle-moi la bite pour te masser les mains Notre futur est dingue car notre passé est dingue, puissance du propos, avale tes méninges Dépense le blé, c'est que du blé, j'fais des cascades sur l'Boulevard Saint-Germain Nique vos 'res-mè', tu me remets ? Ton hémoglobine me repeint la main Vérité est claire, ils ont pillé mes terres, y a Ateyaba qui bouillonne dans mes chairs J'suis dans l'espace, j'suis dans l'Éther, il m'faut un passeport interplanétaire J'fais pas d'prix d'amis même à mes amis, pas d'Rolex si tu rappes, t'as raté ta vie J'ai des billets couleur Orange Mécanique, rap sous kétamine, or rose sous les canines Gros j'arrive dans ton cul comme un Keith Haring, c'est la vie re-noi, une balle te désanime Parle oseille sinon j'écoute mes élohims, c'est très sombre dans ma tête j'ai des chéloïdes Négro si le crime paie, alors crime y aura, je fais peur à leur chienne comme un chinois Renoi moi j'aime le blé pas le quinoa, chevalière en or rose sur le p'tit doigt Chevalière en or rose sur le p'tit doigt Chevalière en or rose Oui, nigga, Oui, nigga, oui, nigga, Oui, nigga Oui, nigga Oui, nigga, oui, nigga Oui, nigga Oui, oui, oui, oui, oui nigga Oui, oui, nigga, oui, oui nigga Oui, oui, oui, oui, oui, oui nigga Oui, oui, nigga1</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Huh, yeah, yeah, yeah Les Monsieurs gang, yeah Fuck you know about it, homie Yeah, what you know about it? Haha This is my Maserati monolog, I find it odd Hot nigga always fly abroad, the flyest broads Blind barbies hit the China dolls And I be honest man, I aspire to try 'em all Somone say about the ghetto to the 'burbs, the 'burbs to the gutter Birds to the nest, that's word to my mother Who hardly ever cooked a hot supper Before I had a canon, I carried a box cutter Picture a young heathen, just dreaming of slicing your jugular I'm the death of a menace and the life of a hustler C'mon I'm codeine mixed with Sprite in a double cup Give me a mansion and a wife full of bubble butt Smoking two blunts at once, that's a double dutch Never that, my spliff forever wrapped It's not a question, black, don't get your melon smacked Hustlin' heavy, my nigga, I've been to hell and back, F You might also like Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow, marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow, marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des jeunes princes Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow, marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow, marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des jeunes princes Yo, on n'est pas les autres Non, on oublie pas les nôtres Non Vingts sur vingts en musique, mais nique sa race, les notes Han-han, mais laissez-moi à Versailles Changer ma vie en un son, laissez-moi faire ça J'fais des structures, les mecs qui cognent au Gomm Cogne J'peux rêver du 'de-ble', de New-York, de Compton Donc bientôt, j'vois l'Soleil dans les zones d'ombres Wah Aucune forme d'angoisse, toutes les choses s'emboîtent Bite dans la bouche d'une poupée dorée Négro, test avec nous, tu t'fais couper l'oreille On lâche le bus, parle de putes, on choppe ta meuf par le buste Les jeunes sabrent, bouteille de Cristal mais personne parle russe Avec mon négro Fashawn, essaye de baiser nos rêves Transforme ta tête en Calzone, on veut juste changer d'horaire Et oublier nos sales zones, l'or fixé sur les molaires Tu sais à qui t'as affaire, négro Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des jeunes princes Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des jeunes princes Paroles rédigées et annotées par la communauté française de Rap Genius2</t>
+          <t>Huh, yeah, yeah, yeah Les Monsieurs gang, yeah Fuck you know about it, homie Yeah, what you know about it? Haha This is my Maserati monolog, I find it odd Hot nigga always fly abroad, the flyest broads Blind barbies hit the China dolls And I be honest man, I aspire to try 'em all Somone say about the ghetto to the 'burbs, the 'burbs to the gutter Birds to the nest, that's word to my mother Who hardly ever cooked a hot supper Before I had a canon, I carried a box cutter Picture a young heathen, just dreaming of slicing your jugular I'm the death of a menace and the life of a hustler C'mon I'm codeine mixed with Sprite in a double cup Give me a mansion and a wife full of bubble butt Smoking two blunts at once, that's a double dutch Never that, my spliff forever wrapped It's not a question, black, don't get your melon smacked Hustlin' heavy, my nigga, I've been to hell and back, F Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow, marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow, marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des jeunes princes Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow, marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow, marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des jeunes princes Yo, on n'est pas les autres Non, on oublie pas les nôtres Non Vingts sur vingts en musique, mais nique sa race, les notes Han-han, mais laissez-moi à Versailles Changer ma vie en un son, laissez-moi faire ça J'fais des structures, les mecs qui cognent au Gomm Cogne J'peux rêver du 'de-ble', de New-York, de Compton Donc bientôt, j'vois l'Soleil dans les zones d'ombres Wah Aucune forme d'angoisse, toutes les choses s'emboîtent Bite dans la bouche d'une poupée dorée Négro, test avec nous, tu t'fais couper l'oreille On lâche le bus, parle de putes, on choppe ta meuf par le buste Les jeunes sabrent, bouteille de Cristal mais personne parle russe Avec mon négro Fashawn, essaye de baiser nos rêves Transforme ta tête en Calzone, on veut juste changer d'horaire Et oublier nos sales zones, l'or fixé sur les molaires Tu sais à qui t'as affaire, négro Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des jeunes princes Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des Jeunes Princes, 24 carats sur la tête Des jeunes princes, ride la ville dans une Fiat Z Viens pas test des jeunes princes, on crache du flow marche sur la scène Des jeunes princes, han-han, des jeunes princes Viens pas test des jeunes princes Paroles rédigées et annotées par la communauté française de Rap Genius2</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Hey, han Big booty girl, retourne-toi, s'te-plaît Booty comme une pêche, j'te casse le nez Badabam, tellement gros, tu l'vois d'face Au calme chien d'la casse, chasse tout vu de chasteté Yo, petite, viens ici, pas la peine de jouer la difficile Ça reste ici, loi MTP, ainsi sera l'insipide Han, han, j'suis toujours attiré par les grosses fesses Font du mal à mon esprit, les go s'taisent, booty tonne, j'claque ça, no stress C'est comme le vélo, j'peux pas y aller sans les mains La seule plate que je baise, j'crois qu'c'est la mère à Guerlain Ça m'torture le crâne, yo, j'suis dev'nu boulimique, négro Elle fait disparaître ma baguette comme Houdini, abracadabra Négro, chute dans ses reins Négro, chute dans ses reins J'veux son boule dans mes mains J'veux son boule dans mes mains Big booty girl, chérie, retourne-toi, s'te-plaît Big booty girl, chérie, retourne-toi, s'te-plaît You might also like Joke Mister, if I see you, uh Big booty girl, I'm so glad that you met me Know I just want to kick it, you remind me of Jet-Li I just think you the one 'cause you fresh to death and especially The way you rock them jeans make you look so sexy Mommy, you so gorgeous Pretty face, sweater waist to ass ratio that make your body look distorted Out of proportion, and I had to steal your heart, my love You too precious, I just could not afford it Your body is a temple and a fortress I enter with the force that the Lord can extort from men But she can, and when she put that thing on me, I gotta put my P in But then you gotta dip, so it's right back to where we began Let's be friends, are you tryna sleep over? Are you tryna sleep over Négro, chute dans ses reins Négro, chute dans ses reins J'veux son boule dans mes mains J'veux son boule dans mes mains Big booty girl, chérie, retourne-toi, s'te-plaît Big booty girl, chérie, retourne-toi, s'te-plaît See, I'm aware but I really ever wake up Write rhymes while I like dimes, tryna stay up These ladies love to say things to turn around and play us But lately, I adjusted my game to get the paper Yeah, han, yeah Yeah Yeah Tu vas t'souvenir de cette nuit-là Pète le Cristal, jenlève mes chaussettes Fila Tes fesses contre mon bas ventre, un son de J Dilla Sexy, ma belle killeuse, mafia milanaise Si la neige continue d'tomber, j'te mets sur le bed J'relève tes jambes, j'te 'que-n' pour de vrai Big booty girl, retourne-toi, s'te-plaît Qu'ton négro t'admire, t'regarde de près2</t>
+          <t>Hey, han Big booty girl, retourne-toi, s'te-plaît Booty comme une pêche, j'te casse le nez Badabam, tellement gros, tu l'vois d'face Au calme chien d'la casse, chasse tout vu de chasteté Yo, petite, viens ici, pas la peine de jouer la difficile Ça reste ici, loi MTP, ainsi sera l'insipide Han, han, j'suis toujours attiré par les grosses fesses Font du mal à mon esprit, les go s'taisent, booty tonne, j'claque ça, no stress C'est comme le vélo, j'peux pas y aller sans les mains La seule plate que je baise, j'crois qu'c'est la mère à Guerlain Ça m'torture le crâne, yo, j'suis dev'nu boulimique, négro Elle fait disparaître ma baguette comme Houdini, abracadabra Négro, chute dans ses reins Négro, chute dans ses reins J'veux son boule dans mes mains J'veux son boule dans mes mains Big booty girl, chérie, retourne-toi, s'te-plaît Big booty girl, chérie, retourne-toi, s'te-plaît Joke Mister, if I see you, uh Big booty girl, I'm so glad that you met me Know I just want to kick it, you remind me of Jet-Li I just think you the one 'cause you fresh to death and especially The way you rock them jeans make you look so sexy Mommy, you so gorgeous Pretty face, sweater waist to ass ratio that make your body look distorted Out of proportion, and I had to steal your heart, my love You too precious, I just could not afford it Your body is a temple and a fortress I enter with the force that the Lord can extort from men But she can, and when she put that thing on me, I gotta put my P in But then you gotta dip, so it's right back to where we began Let's be friends, are you tryna sleep over? Are you tryna sleep over Négro, chute dans ses reins Négro, chute dans ses reins J'veux son boule dans mes mains J'veux son boule dans mes mains Big booty girl, chérie, retourne-toi, s'te-plaît Big booty girl, chérie, retourne-toi, s'te-plaît See, I'm aware but I really ever wake up Write rhymes while I like dimes, tryna stay up These ladies love to say things to turn around and play us But lately, I adjusted my game to get the paper Yeah, han, yeah Yeah Yeah Tu vas t'souvenir de cette nuit-là Pète le Cristal, jenlève mes chaussettes Fila Tes fesses contre mon bas ventre, un son de J Dilla Sexy, ma belle killeuse, mafia milanaise Si la neige continue d'tomber, j'te mets sur le bed J'relève tes jambes, j'te 'que-n' pour de vrai Big booty girl, retourne-toi, s'te-plaît Qu'ton négro t'admire, t'regarde de près2</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Hey, chupa me, chupa me Wow, chupa, chupa Yo, Mitchy Oui, oui, Mitchy flex dans l'club Mitchy Wah, Mitchy flex dans l'club Mitchy Oui, Mitchy flex dans l'club Mitchy incroyable, oui Malette Yo, yo, Goyard Quieres Wah, follar ? Ha Wah Chupa Chupa, chupa Hé Pas d'mea Ouh culpa, oui Jamais Le plus frimeur des plus frimeurs, j'casse la démarche comme escrimeur Hein Jantes BBS sur le beamer, Pierre VVS sur le dealer Yah Les vrais négros s'reconnaissent en moi, t'es au mauvais moment au mauvais endroit Ces négros faibles ils veulent test, font des chèques en bois, portent des chaines en bois Mitchy, Mitchy flex dans l'club Mitchy, Mitchy flex dans l'club Hé, hé Mitchy Oui, bitch, Mitchy flex dans l'club Mitchy,On va pas les aider, oui You might also like Hotel, loca Polla, boca Hein, Paris, Troca' Monnaie, droga, wouh T'as échoué si t'es mon ex, jeans déchiré comme si j'étais Cosette Right, wah Flûte de champagne sur la Croisette Incroyable, meilleure toilette dans la gazette Incroyable La fumée quitte la cigarette, vapeur fruitée qui vide la tête Walther PP et j'tire avec, j'crame ces négros comme Fina Elf Pah, pah, pah T'as le moral dans les chaussettes Yah, une pipe et j'me lève du bon pied Parce que j'ai une liasse dans mes chaussettes Woh, parce que j'ai craché dans ces fossettes, Oh J'bois mon Drencrom plus Vellocet Ah, fume ma beuh, vois la Fée Clochette Quoi ? De l'Afrique je tiens ma noblesse, j'tiens ta gorge et j'tiens mes promesses Mitchy Hé, Mitchy flex dans l'club Mitchy, yah, Mitchy flex dans l'club Ouais Mitchy, woh, woh, woh, Mitchy flex dans l'club Mitchy3</t>
+          <t>Hey, chupa me, chupa me Wow, chupa, chupa Yo, Mitchy Oui, oui, Mitchy flex dans l'club Mitchy Wah, Mitchy flex dans l'club Mitchy Oui, Mitchy flex dans l'club Mitchy incroyable, oui Malette Yo, yo, Goyard Quieres Wah, follar ? Ha Wah Chupa Chupa, chupa Hé Pas d'mea Ouh culpa, oui Jamais Le plus frimeur des plus frimeurs, j'casse la démarche comme escrimeur Hein Jantes BBS sur le beamer, Pierre VVS sur le dealer Yah Les vrais négros s'reconnaissent en moi, t'es au mauvais moment au mauvais endroit Ces négros faibles ils veulent test, font des chèques en bois, portent des chaines en bois Mitchy, Mitchy flex dans l'club Mitchy, Mitchy flex dans l'club Hé, hé Mitchy Oui, bitch, Mitchy flex dans l'club Mitchy,On va pas les aider, oui Hotel, loca Polla, boca Hein, Paris, Troca' Monnaie, droga, wouh T'as échoué si t'es mon ex, jeans déchiré comme si j'étais Cosette Right, wah Flûte de champagne sur la Croisette Incroyable, meilleure toilette dans la gazette Incroyable La fumée quitte la cigarette, vapeur fruitée qui vide la tête Walther PP et j'tire avec, j'crame ces négros comme Fina Elf Pah, pah, pah T'as le moral dans les chaussettes Yah, une pipe et j'me lève du bon pied Parce que j'ai une liasse dans mes chaussettes Woh, parce que j'ai craché dans ces fossettes, Oh J'bois mon Drencrom plus Vellocet Ah, fume ma beuh, vois la Fée Clochette Quoi ? De l'Afrique je tiens ma noblesse, j'tiens ta gorge et j'tiens mes promesses Mitchy Hé, Mitchy flex dans l'club Mitchy, yah, Mitchy flex dans l'club Ouais Mitchy, woh, woh, woh, Mitchy flex dans l'club Mitchy3</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Pharaoh on this bitch, you know what I'm sayin', yeah High Klassified no Ongaku Shout-out 228 Yeah Lamborghini dream, yeah-yeah-yeah Go Faut des MILF clean, yeah-yeah-yeah That's right J'veux des Birkin, yeah-yeah-yeah That's right J'veux des p'tites Kim, yeah-yeah-yeah J'veux pas sortir les armes, nan-nan-nan Mais j'sors des missiles, yeah-yeah-yeah J'sors des missiles, yeah-yeah-yeah J'sors des missiles, yeah-yeah-yeah Gotchu Gotchu, le club je l'ai abattu That's right For real, nigga I got you Han Faut lgbiri, faut la thune Lacunes, lacunes, j'peux pas trouver mes lacunes J'tape un sommeil, j'en claque une Gros tassaba, j'en tabasse une Hey, tassaba You might also like Dôhiô, dôhiô La gow là-bas là, dôhiô Jeune négro incroyable Sac Dior, sac Goyard Tassaba Dôhiô, dôhiô La gow là-bas la dôhiô Jeune négro incroyable Tassaba Sac Dior, Sac Goyard Tassaba Lamborghini dream, yeah-yeah-yeah Faut des MILF clean, yeah-yeah-yeah Faut des Birkin, yeah-yeah-yeah Faut des p'tites Kim, yeah-yeah-yeah Tassaba J'veux pas sortir les armes, nan nan nan Mais j'sors des missiles, yeah-yeah-yeah J'sors des missiles, yeah-yeah-yeah J'sors des missiles, yeah-yeah-yeah Gotchu Donne-moi mon props ou crains ma morsure That's right Elle crie aigu, les jambes obtues J'suis addictif comme la drogue dure, drogue pure J'fuck pas avec les Moldus Mon sarcophage est en or pur Les n-négros piochent dans mon corpus Nocturne, solaire, telle est ma posture Lumineux, obscur, Tassaba Faut que j'fasse des donuts dans une Veneno That's right Aimé par le luxe et par les ghettos, That's right Fort comme Vegetto, j'brûle les végétaux Pharaon Tu suces personne, nigga, t'es des nôtres, Pharaon Inspiré par les gens, je fais les dons, King Je découpe les bitch comme dans l'ère Edo King Dieu tout-puissant, mon alter ego King Dôhiô, dôhiô La gow là-bas là, dôhiô Jeune négro incroyable Sac Dior, sac Goyard Tassaba Dôhiô, dôhiô La gow là-bas la dôhiô Jeune négro incroyable Tassaba Sac Dior, Sac Goyard Tassaba Lamborghini dream, yeah-yeah-yeah Faut des MILF clean, yeah-yeah-yeah Faut des Birkin, yeah-yeah-yeah Faut des p'tites Kim, yeah-yeah-yeah Tassaba J'veux pas sortir les armes, nan nan nan Mais j'sors des missiles, yeah-yeah-yeah J'sors des missiles, yeah-yeah-yeah J'sors des missiles, yeah-yeah-yeah Gotchu1</t>
+          <t>Pharaoh on this bitch, you know what I'm sayin', yeah High Klassified no Ongaku Shout-out 228 Yeah Lamborghini dream, yeah-yeah-yeah Go Faut des MILF clean, yeah-yeah-yeah That's right J'veux des Birkin, yeah-yeah-yeah That's right J'veux des p'tites Kim, yeah-yeah-yeah J'veux pas sortir les armes, nan-nan-nan Mais j'sors des missiles, yeah-yeah-yeah J'sors des missiles, yeah-yeah-yeah J'sors des missiles, yeah-yeah-yeah Gotchu Gotchu, le club je l'ai abattu That's right For real, nigga I got you Han Faut lgbiri, faut la thune Lacunes, lacunes, j'peux pas trouver mes lacunes J'tape un sommeil, j'en claque une Gros tassaba, j'en tabasse une Hey, tassaba Dôhiô, dôhiô La gow là-bas là, dôhiô Jeune négro incroyable Sac Dior, sac Goyard Tassaba Dôhiô, dôhiô La gow là-bas la dôhiô Jeune négro incroyable Tassaba Sac Dior, Sac Goyard Tassaba Lamborghini dream, yeah-yeah-yeah Faut des MILF clean, yeah-yeah-yeah Faut des Birkin, yeah-yeah-yeah Faut des p'tites Kim, yeah-yeah-yeah Tassaba J'veux pas sortir les armes, nan nan nan Mais j'sors des missiles, yeah-yeah-yeah J'sors des missiles, yeah-yeah-yeah J'sors des missiles, yeah-yeah-yeah Gotchu Donne-moi mon props ou crains ma morsure That's right Elle crie aigu, les jambes obtues J'suis addictif comme la drogue dure, drogue pure J'fuck pas avec les Moldus Mon sarcophage est en or pur Les n-négros piochent dans mon corpus Nocturne, solaire, telle est ma posture Lumineux, obscur, Tassaba Faut que j'fasse des donuts dans une Veneno That's right Aimé par le luxe et par les ghettos, That's right Fort comme Vegetto, j'brûle les végétaux Pharaon Tu suces personne, nigga, t'es des nôtres, Pharaon Inspiré par les gens, je fais les dons, King Je découpe les bitch comme dans l'ère Edo King Dieu tout-puissant, mon alter ego King Dôhiô, dôhiô La gow là-bas là, dôhiô Jeune négro incroyable Sac Dior, sac Goyard Tassaba Dôhiô, dôhiô La gow là-bas la dôhiô Jeune négro incroyable Tassaba Sac Dior, Sac Goyard Tassaba Lamborghini dream, yeah-yeah-yeah Faut des MILF clean, yeah-yeah-yeah Faut des Birkin, yeah-yeah-yeah Faut des p'tites Kim, yeah-yeah-yeah Tassaba J'veux pas sortir les armes, nan nan nan Mais j'sors des missiles, yeah-yeah-yeah J'sors des missiles, yeah-yeah-yeah J'sors des missiles, yeah-yeah-yeah Gotchu1</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tu peux m'croiser en train d'magouiller Vadrouiller, démarche chaloupée Si t'habites Paris tu peux pas m'louper Pas m'louper, mec tu peux pas m'louper Tu peux m'croiser en train d'magouiller Vadrouiller, démarche chaloupée Si t'habites Paris tu peux pas m'louper Pas m'louper, mec tu peux pas m'louper Tu peux m'croiser en train d'magouiller Vadrouiller, démarche chaloupée Si t'es de Paris tu peux pas m'louper On est partout dans la ville, on est là fourrés Rapper c'est trop facile on est grave doués On vient mettre le plastique pour les partouzer Sur leur booty le nom d'mon équipe sera tatoué Tu mets des bâtons dans les roues on met les aiguilles dans la poupée Ça vient de l'Est de ris-Pa on a aucun risque de perdre Comme dit mon gars Ivan T'es qu'une triste merde On rappe pas pour 10 balles mec aligne le chèque Cohiba gros cigare, une tactique de chef Que ma mère me pardonne si j'ai vendu d'la weed, de l'herbe Faut qu'j'arrête les conneries avant que les flics me serrent Jeune Clyde, ma Bonnie a une plastique de rêve On fout l'feu sur ton équipe de traîtres Yo nique le game, on joue l'jeu You might also like Tu peux m'croiser en train d'magouiller Vadrouiller, démarche chaloupée Si t'habites Paris tu peux pas m'louper Pas m'louper, mec tu peux pas m'louper J'suis dans l'Sud avec une fille de l'Est Qui kiffe ma façon d'penser, kiffe la maille, qui kiffe le sexe et sucer J'maitrise mon art, méprise le reste Fais une croix sur eux, j'vous délivre des Christ de texte amen Tes sons sont marrants à se pisser dessus Ta chienne est bandante à lui pisser dessus R Kelly J'te brise le cur, j'te brise le cul En mille morceaux, chaque morceau j'le transforme en film de cul Écoute bien, dans la tête de ces haineux J'les baise tous ces fils de pute J'deviens trop chaud, j'souffle sur les braises avec un titre de plus J'déverse ce shit, ce luxe Je rêve qu'une grosse flic me suce Prends-toi la bite de Hulk, toi et ta clique d'eunuques Qui peut prédire ce truc J'attrape ta miss, la traumatise J'lui fais des prises de lutte Arrête le rap, fais du classique avec tes disques de flûtes Le négro représente MTP, Jokeezy, young Loveni mohafuck Ça vient de l'Est de la capitale Mon territoire habitable Mon équipage m'est vital On négocie en italien Je suis déçu par l'héritage Séduis par le butin Ma bite est dans ta gitane Un gosse est né mais ce n'est pas l'mien Que de l'or véritable Polydor nous réclame pour des projets impérissables Nos proches et les génies l'savent Nos poches sont vides et les sachets pleins Trouve-nous sur Paris Plage Je n'fais qu'décrocher des étoiles J'vais pas t'faire de dessin détaillé J'peux t'canner pour ma médaille Donc laisse, Montreuil fils de pute J'traine le fut' baissé, j'fume des vrais trucs J'me méfie du succès et d'son budget donc j'lutte La vie qu'j'ai et les ennuis qu'j'ai font le tiercé gagnant Pas de mystère c'est une question d'temps Le business une question d'plan La réussite est une question d'vie Si tu la vis c'est qu'tu perds ton sang Paye comptant Porc prend des risques comme des caissons d'francs Mais qu'est ce que tu branles à essayer de comprendre Prie et le ciel te le rendra7</t>
+          <t>Tu peux m'croiser en train d'magouiller Vadrouiller, démarche chaloupée Si t'habites Paris tu peux pas m'louper Pas m'louper, mec tu peux pas m'louper Tu peux m'croiser en train d'magouiller Vadrouiller, démarche chaloupée Si t'habites Paris tu peux pas m'louper Pas m'louper, mec tu peux pas m'louper Tu peux m'croiser en train d'magouiller Vadrouiller, démarche chaloupée Si t'es de Paris tu peux pas m'louper On est partout dans la ville, on est là fourrés Rapper c'est trop facile on est grave doués On vient mettre le plastique pour les partouzer Sur leur booty le nom d'mon équipe sera tatoué Tu mets des bâtons dans les roues on met les aiguilles dans la poupée Ça vient de l'Est de ris-Pa on a aucun risque de perdre Comme dit mon gars Ivan T'es qu'une triste merde On rappe pas pour 10 balles mec aligne le chèque Cohiba gros cigare, une tactique de chef Que ma mère me pardonne si j'ai vendu d'la weed, de l'herbe Faut qu'j'arrête les conneries avant que les flics me serrent Jeune Clyde, ma Bonnie a une plastique de rêve On fout l'feu sur ton équipe de traîtres Yo nique le game, on joue l'jeu Tu peux m'croiser en train d'magouiller Vadrouiller, démarche chaloupée Si t'habites Paris tu peux pas m'louper Pas m'louper, mec tu peux pas m'louper J'suis dans l'Sud avec une fille de l'Est Qui kiffe ma façon d'penser, kiffe la maille, qui kiffe le sexe et sucer J'maitrise mon art, méprise le reste Fais une croix sur eux, j'vous délivre des Christ de texte amen Tes sons sont marrants à se pisser dessus Ta chienne est bandante à lui pisser dessus R Kelly J'te brise le cur, j'te brise le cul En mille morceaux, chaque morceau j'le transforme en film de cul Écoute bien, dans la tête de ces haineux J'les baise tous ces fils de pute J'deviens trop chaud, j'souffle sur les braises avec un titre de plus J'déverse ce shit, ce luxe Je rêve qu'une grosse flic me suce Prends-toi la bite de Hulk, toi et ta clique d'eunuques Qui peut prédire ce truc J'attrape ta miss, la traumatise J'lui fais des prises de lutte Arrête le rap, fais du classique avec tes disques de flûtes Le négro représente MTP, Jokeezy, young Loveni mohafuck Ça vient de l'Est de la capitale Mon territoire habitable Mon équipage m'est vital On négocie en italien Je suis déçu par l'héritage Séduis par le butin Ma bite est dans ta gitane Un gosse est né mais ce n'est pas l'mien Que de l'or véritable Polydor nous réclame pour des projets impérissables Nos proches et les génies l'savent Nos poches sont vides et les sachets pleins Trouve-nous sur Paris Plage Je n'fais qu'décrocher des étoiles J'vais pas t'faire de dessin détaillé J'peux t'canner pour ma médaille Donc laisse, Montreuil fils de pute J'traine le fut' baissé, j'fume des vrais trucs J'me méfie du succès et d'son budget donc j'lutte La vie qu'j'ai et les ennuis qu'j'ai font le tiercé gagnant Pas de mystère c'est une question d'temps Le business une question d'plan La réussite est une question d'vie Si tu la vis c'est qu'tu perds ton sang Paye comptant Porc prend des risques comme des caissons d'francs Mais qu'est ce que tu branles à essayer de comprendre Prie et le ciel te le rendra7</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Les négros veulent quoi maintenant ? Tout faire en même temps Rien faire, faire d'l'argent en même temps, faire une rentrée et sortie en Septembre Han, si tu baises avec moi, tu fais un threesome Tu t'fais baiser par un blanc, et par un noir en même temps Si tu parles, nous, on t'attrape à cinquante, cherche même pas, négro, Joke a pas ton temps Par contre si t'as de l'argent, toi et lui vous pourrez faire quelque trucs en même temps Le temps c'est d'l'argent négro Que d'sortir ces images de la tête, lui mettre un shoot en pleine tempe Han, les négros veulent quoi maintenant? Ecouter Jay Z et faire du jerk en même temps Fuck, on te blesse en même temps, t'as trouver le moyen de te faire 'per-ta' bêtement Mec, en même temps, j'peux bicrave d'la poudre et prendre la poudre d'escam-pette J'peux m'faire sucer, manger une chatte Et faire des maths, tout ça en même temps Dans ma tête, on est 4, dans ma tête, on est 4 Dans ma tête, on est 4, négro, j'peux tout faire en même temps Dans ma tête, on est 4, dans ma tête, on est 4 Dans ma tête, on est 4, négro, j'peux tout faire en même temps Han, les négros veulent quoi maintenant? J'connais des meufs complètement bêtes mais qui savent très bien utiliser leur tête en même temps Y en a qui parlent et qui sucent en même temps Y a des mecs en pull, en t-shirt, en Marcel, mais qui retournent leur veste en même temps Quand tu parles en Casio quand tu parles en Rolex Woah, tu parles pas en même temps Quand une meuf s'agrippe à mon sexe, elle lâche prise en même temps J'encule ces négros, j'suis hétéro' en même temps, j'fais des dineros et des euros en même temps Les négros sont au fond du trou, font d'la spéléo' en même temps Han, les MC's sont pré-découpés, ils ont chauds aux fesses, se sentent shootés dans mes couplets Sur la putain de vie de ta mère, j'aurai ma villa sur la mer, achète mon CD en même temps J'suis le prince, j'serai le roi en même temps, shit, les négros m'arrêtent quand ? Merde, t'as la VF en même temps,, han, la BO en même temps Yeah You might also like Dans ma tête, on est 4, dans ma tête, on est 4 Dans ma tête, on est 4, négro, j'peux tout faire en même temps Dans ma tête, on est 4, dans ma tête, on est 4 Dans ma tête, on est 4, négro, j'peux tout faire en même temps2</t>
+          <t>Les négros veulent quoi maintenant ? Tout faire en même temps Rien faire, faire d'l'argent en même temps, faire une rentrée et sortie en Septembre Han, si tu baises avec moi, tu fais un threesome Tu t'fais baiser par un blanc, et par un noir en même temps Si tu parles, nous, on t'attrape à cinquante, cherche même pas, négro, Joke a pas ton temps Par contre si t'as de l'argent, toi et lui vous pourrez faire quelque trucs en même temps Le temps c'est d'l'argent négro Que d'sortir ces images de la tête, lui mettre un shoot en pleine tempe Han, les négros veulent quoi maintenant? Ecouter Jay Z et faire du jerk en même temps Fuck, on te blesse en même temps, t'as trouver le moyen de te faire 'per-ta' bêtement Mec, en même temps, j'peux bicrave d'la poudre et prendre la poudre d'escam-pette J'peux m'faire sucer, manger une chatte Et faire des maths, tout ça en même temps Dans ma tête, on est 4, dans ma tête, on est 4 Dans ma tête, on est 4, négro, j'peux tout faire en même temps Dans ma tête, on est 4, dans ma tête, on est 4 Dans ma tête, on est 4, négro, j'peux tout faire en même temps Han, les négros veulent quoi maintenant? J'connais des meufs complètement bêtes mais qui savent très bien utiliser leur tête en même temps Y en a qui parlent et qui sucent en même temps Y a des mecs en pull, en t-shirt, en Marcel, mais qui retournent leur veste en même temps Quand tu parles en Casio quand tu parles en Rolex Woah, tu parles pas en même temps Quand une meuf s'agrippe à mon sexe, elle lâche prise en même temps J'encule ces négros, j'suis hétéro' en même temps, j'fais des dineros et des euros en même temps Les négros sont au fond du trou, font d'la spéléo' en même temps Han, les MC's sont pré-découpés, ils ont chauds aux fesses, se sentent shootés dans mes couplets Sur la putain de vie de ta mère, j'aurai ma villa sur la mer, achète mon CD en même temps J'suis le prince, j'serai le roi en même temps, shit, les négros m'arrêtent quand ? Merde, t'as la VF en même temps,, han, la BO en même temps Yeah Dans ma tête, on est 4, dans ma tête, on est 4 Dans ma tête, on est 4, négro, j'peux tout faire en même temps Dans ma tête, on est 4, dans ma tête, on est 4 Dans ma tête, on est 4, négro, j'peux tout faire en même temps2</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Oui bitch Moi j'aime toutes les ces-ra tant qu'elles payent en espèces Pète les 'teilles de Cristal comme en URSS Tes balances de négros t'auraient snitch aux SS J'préfère une liasse froissée qu'une to-mich aux belles fesses Faut ce khaliss, qu'on s'organise met une belle table Quand t'aperçois l'négro, t'as le stress des exams J'suis à l'entrée des artistes, toi à l'entrée d'gamme Pisser sur ces bâtards, wAllah c'est un régal Ouais ouais ouais ils rappent à la one again Renoi téma ma dégaine, hustler comme une Ghanéenne Pétasse est cramée, le charme elle aime, en club, j'suis dans le faro ouais Coupé décalé gang, cokein sur ma garot Groupie, comme Adamo je passe par l'hymen sans peine J'suis d'MTP mais Paris m'aime quand même J't'la mets dans le cul, j'suis Jackson feat Verlaine Y'a des crop circles sur mon IRM, oui Appelle-moi sur mon trap phone oui bitch Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone oui bitch Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone oui bitch Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone You might also like Pétasse, j'ai une femme qui m'aime J'rends ta chatte sensible comme des sentinelles Depuis que j'suis parti, j'vois des gens qui naissent Les rappeurs abusent des p'tites et d'ma gentillesse Il m'faut une Green Card, un p'tit Visa, une Ariana Grande qu'j'étale mes gosses sur son p'tit visage Toi t'as une équipe bi-zarre, j'tire fi-ssa, j'la passe dans le front, j'regarde le ciel, j'vise hard Test j'te laisse en syncope, trouve-moi à l'hôtel Costes J'te fais croquer la Melrose, nique les codes, j'fais des 16 fautes Avant ça couchait pour un poste, maintenant sur Insta, ça couche pour un post Ce son sera dans mon best-of, les concurrents me cherchent dans un téléscope Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone oui bitch Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone oui bitch Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone10</t>
+          <t>Oui bitch Moi j'aime toutes les ces-ra tant qu'elles payent en espèces Pète les 'teilles de Cristal comme en URSS Tes balances de négros t'auraient snitch aux SS J'préfère une liasse froissée qu'une to-mich aux belles fesses Faut ce khaliss, qu'on s'organise met une belle table Quand t'aperçois l'négro, t'as le stress des exams J'suis à l'entrée des artistes, toi à l'entrée d'gamme Pisser sur ces bâtards, wAllah c'est un régal Ouais ouais ouais ils rappent à la one again Renoi téma ma dégaine, hustler comme une Ghanéenne Pétasse est cramée, le charme elle aime, en club, j'suis dans le faro ouais Coupé décalé gang, cokein sur ma garot Groupie, comme Adamo je passe par l'hymen sans peine J'suis d'MTP mais Paris m'aime quand même J't'la mets dans le cul, j'suis Jackson feat Verlaine Y'a des crop circles sur mon IRM, oui Appelle-moi sur mon trap phone oui bitch Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone oui bitch Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone oui bitch Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone Pétasse, j'ai une femme qui m'aime J'rends ta chatte sensible comme des sentinelles Depuis que j'suis parti, j'vois des gens qui naissent Les rappeurs abusent des p'tites et d'ma gentillesse Il m'faut une Green Card, un p'tit Visa, une Ariana Grande qu'j'étale mes gosses sur son p'tit visage Toi t'as une équipe bi-zarre, j'tire fi-ssa, j'la passe dans le front, j'regarde le ciel, j'vise hard Test j'te laisse en syncope, trouve-moi à l'hôtel Costes J'te fais croquer la Melrose, nique les codes, j'fais des 16 fautes Avant ça couchait pour un poste, maintenant sur Insta, ça couche pour un post Ce son sera dans mon best-of, les concurrents me cherchent dans un téléscope Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone oui bitch Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone oui bitch Appelle-moi sur mon trap phone Appelle-moi sur mon trap phone10</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>JA7CEE, JA7CEE, JA7CEE... Hein J'me sens comme diptyque Les danseuses me kiffent, parce que j'tip, j'tip L'appel de l'oseille est irrésis-tible Elles savent qu'entre les jambes nègre a un Beats Pill Paire de Bapestas, t'sais qu'le nègre swag, comme nègre de Bed-Stuy They wanna play me, j'fais d'l'oseille, comme GameStop Les rappeurs m'écoutent en scred, comme Alexa Bitch, j'pop un ecsta' J'ai l'power, j'ai pris l'tour à Kanye J'fume des flowers, j'fume des Murakami C'est mes enfants, leur reum' m'appelle daddy T'sais pas t'habiller, plusieurs K dans mon panier Fais une boule avec ton texte, met un panier Vacances à Bali Eh, et vacances à Cali, han Bitch, il m'faut un Grammy, han Mojo est shamanique, han J'rentre dans la pièce, toutes les bitchs s'mettent à paniquer, yeah J'sais que gagner J'tire sur ta famille, et billets pliés sur son fessier Elle sait apprécier As de pique, dans la vessie, han Nègre est précis Number one, parce qu'Dieu l'a décidé, il m'passe ses idées, han You might also like J'fais shine la mélanine, elle vient avec ses amies, elles m'sucent d'vant des animés Ceinture d'Orion, Lomé-Kpalimé Les 'tasses font la queue, car le nigga est aligné You know what I'm sayin What I'm sayin Cry me a river, bitch Wouh, wouh Cry me a river, bitch Wouh, wouh You know, I ain't shit for bitch The fire I deliver, bitch Hey Les abeilles aiment le pollen J'fais ton année, plus quatre 'tasses dans la semaine J'avais rien dans l'abdomen, rien dans la pocket Maintenant, dans l'abdomen, dans la pocket, j'ai d'la rocket Les négros m'plagient, parce qu'ils sentent qu'j'ai un gros Nen J'veux pas un jardin, j'veux une plage, j'veux un domaine Les mots frappent, comme mille comètes Hey Mojo 4K, l'négro ken des bitchs trop nettes Hey T'sais qu'dans ma tête y a des anges qui s'promènent Hey Ramène pas ta go si j'suis dans la discothèque J'rentre dans sa fleur, y a nos coeurs qui s'connectent Y a nos coeurs qui s'connectent, mh Y'a nos coeurs qui s'connectent Dieu m'a appelé, m'a dit tu s'ras mon missionnaire C'est pour ça que j'nique vos mères, 're-noi', j'suis ton dictionnaire Le soleil apparaît quand il veut, il fixe son heure Young nigger Mh Cry me a river, bitch Wouh Ah-ah The fire I deliver, bitch Pharaoh on this bitch1</t>
+          <t>JA7CEE, JA7CEE, JA7CEE... Hein J'me sens comme diptyque Les danseuses me kiffent, parce que j'tip, j'tip L'appel de l'oseille est irrésis-tible Elles savent qu'entre les jambes nègre a un Beats Pill Paire de Bapestas, t'sais qu'le nègre swag, comme nègre de Bed-Stuy They wanna play me, j'fais d'l'oseille, comme GameStop Les rappeurs m'écoutent en scred, comme Alexa Bitch, j'pop un ecsta' J'ai l'power, j'ai pris l'tour à Kanye J'fume des flowers, j'fume des Murakami C'est mes enfants, leur reum' m'appelle daddy T'sais pas t'habiller, plusieurs K dans mon panier Fais une boule avec ton texte, met un panier Vacances à Bali Eh, et vacances à Cali, han Bitch, il m'faut un Grammy, han Mojo est shamanique, han J'rentre dans la pièce, toutes les bitchs s'mettent à paniquer, yeah J'sais que gagner J'tire sur ta famille, et billets pliés sur son fessier Elle sait apprécier As de pique, dans la vessie, han Nègre est précis Number one, parce qu'Dieu l'a décidé, il m'passe ses idées, han J'fais shine la mélanine, elle vient avec ses amies, elles m'sucent d'vant des animés Ceinture d'Orion, Lomé-Kpalimé Les 'tasses font la queue, car le nigga est aligné You know what I'm sayin What I'm sayin Cry me a river, bitch Wouh, wouh Cry me a river, bitch Wouh, wouh You know, I ain't shit for bitch The fire I deliver, bitch Hey Les abeilles aiment le pollen J'fais ton année, plus quatre 'tasses dans la semaine J'avais rien dans l'abdomen, rien dans la pocket Maintenant, dans l'abdomen, dans la pocket, j'ai d'la rocket Les négros m'plagient, parce qu'ils sentent qu'j'ai un gros Nen J'veux pas un jardin, j'veux une plage, j'veux un domaine Les mots frappent, comme mille comètes Hey Mojo 4K, l'négro ken des bitchs trop nettes Hey T'sais qu'dans ma tête y a des anges qui s'promènent Hey Ramène pas ta go si j'suis dans la discothèque J'rentre dans sa fleur, y a nos coeurs qui s'connectent Y a nos coeurs qui s'connectent, mh Y'a nos coeurs qui s'connectent Dieu m'a appelé, m'a dit tu s'ras mon missionnaire C'est pour ça que j'nique vos mères, 're-noi', j'suis ton dictionnaire Le soleil apparaît quand il veut, il fixe son heure Young nigger Mh Cry me a river, bitch Wouh Ah-ah The fire I deliver, bitch Pharaoh on this bitch1</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Zaki Oui bitch J'roule ma ganja, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'fume ma ganja, j'fume un minimum yeah Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, ah-ah-ah Pétasse, twerk ça comme si t'étais à Houston J'veux t'voir à terre comme si tu f'sais la coupole J'vais ken toutes les pétasses qui boivent sur ma 'teille Débloque mon phone, empreinte digitale sur ta schnek J'vole comme Black Mamba, pute roule ma ganja Pute roule ma ganja, pute roule ma ganja You might also like J'roule ma ganja, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'fume ma ganja, j'fume un minimum yeah Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, ah-ah-ah Putain d'blunt d'kush Comme Summers Scott, j'ai les yeux rouges wow Et sache que t'es pas comme nous Si tu remplis ta bouche et que t'en as plein la bouche Baise la fille d'la juge Sidikeey tatoué près de la moule Flex dans nouvelle auto, j'bombarde toujours comme un ouf Éjecte les faux, mon reuf baraude comme si j'étais vous Danse le collé-serré salope juste avec mes sous Dis à ton marabout qu'mon jean vaut beaucoup plus cher que son boubou Que son boubou Allez dire à ceux qui jettent l'3ein que ma bite leur passe un coucou Leur passe un coucou J'vole comme Black Mamba, j'me prends pour Superman Tu bosseras pas c'soir, on roule d'la ganja J'roule ma ganja, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'fume ma ganja, j'fume un minimum yeah Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, ah-ah-ah J'sais qu'tu veux nous ressembler boy arrête ta mala Look ces fumeurs d'ganja, tel un rasta malade T'aimerais savoir d'où elle vient, c'est ce qu'on vend juste là là Fonsdé sous Kushi gang, j'suis sous marijuana Vas-y tire sur l'spliff, j'sais que t'en as envie J'suis un putain d'gars d'la ville parmi ces faux négros Chauffe-moi qu'on s'remplisse J'roule ma ganja, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'fume ma ganja, j'fume un minimum yeah Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, ah-ah-ah2</t>
+          <t>Zaki Oui bitch J'roule ma ganja, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'fume ma ganja, j'fume un minimum yeah Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, ah-ah-ah Pétasse, twerk ça comme si t'étais à Houston J'veux t'voir à terre comme si tu f'sais la coupole J'vais ken toutes les pétasses qui boivent sur ma 'teille Débloque mon phone, empreinte digitale sur ta schnek J'vole comme Black Mamba, pute roule ma ganja Pute roule ma ganja, pute roule ma ganja J'roule ma ganja, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'fume ma ganja, j'fume un minimum yeah Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, ah-ah-ah Putain d'blunt d'kush Comme Summers Scott, j'ai les yeux rouges wow Et sache que t'es pas comme nous Si tu remplis ta bouche et que t'en as plein la bouche Baise la fille d'la juge Sidikeey tatoué près de la moule Flex dans nouvelle auto, j'bombarde toujours comme un ouf Éjecte les faux, mon reuf baraude comme si j'étais vous Danse le collé-serré salope juste avec mes sous Dis à ton marabout qu'mon jean vaut beaucoup plus cher que son boubou Que son boubou Allez dire à ceux qui jettent l'3ein que ma bite leur passe un coucou Leur passe un coucou J'vole comme Black Mamba, j'me prends pour Superman Tu bosseras pas c'soir, on roule d'la ganja J'roule ma ganja, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'fume ma ganja, j'fume un minimum yeah Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, ah-ah-ah J'sais qu'tu veux nous ressembler boy arrête ta mala Look ces fumeurs d'ganja, tel un rasta malade T'aimerais savoir d'où elle vient, c'est ce qu'on vend juste là là Fonsdé sous Kushi gang, j'suis sous marijuana Vas-y tire sur l'spliff, j'sais que t'en as envie J'suis un putain d'gars d'la ville parmi ces faux négros Chauffe-moi qu'on s'remplisse J'roule ma ganja, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'sors le choppa, j'tire un minimum yeah J'fume ma ganja, j'fume un minimum yeah Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, j'fume ma ganja Ah, ah, ah, ah-ah-ah2</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Hein Seth Guex Pharaon MTP Boulette, boulette, boulette Foolek, foolek, foolek Et ça fait burrret, burrret, burrret Comme une boulette en métal Foolek, foolek, foolek, comme une levée en bécane Posé dans ltièks, posé dans lVIP, posé au me-cal On aime les soubrettes, soubrettes, soubrettes Soubrettes en Etam On va tfourrer, tfourrer Tfourrer ton gros tarm' Ça fait bour et bour et bour et ratatam On va tfourrer, tfourrer Tfourrer ton gros tarm' Tu trappelles que sur nous ils voulaient pas miser On mène 5-0 à la mi-temps sifflée Ils ont rien à proposer et ils veulent négocier Ils msucent tellement la bite que jtrouve plus ltemps dpisser Jai plus d'rétro, gros, personne va me freiner 6 litres de vodka et jcommence lapéro Ta daronne ma dit que mon daron lui plaisait Il peut la baiser, jserai jamais ton frérot Troupeaux dchiens errants postés sur le terrain Pas dréclamation, baisse dun ton Alors mon mignon, on est plutôt poisson ? Rien qutu lèches des moules, rien qutu sers des thons Et jai perdu du poids Des dizaines, des dizaines, des dizaines de kilos Jles ai repris en roro, en punchlines, en MD, en bédo, en coco Partitions funèbres, cest mon récital, jmarche sûr de moi Si jai décidé de te mettre une balle, même Thibault Courtois pourra rien pour toi Pleine tête, la moitié du chargeur dans lcerveau Perpèt ou passer sa vie dans lmétro Que des grosses têtes, évidemment jvends pas lmême bédo Jpasse à lassaut avec Seth Gueko Notre commando libère Don Pietro You might also like Et ça fait burrret, burrret, burrret Comme une boulette en métal Foolek, foolek, foolek, comme une levée en bécane Posé dans ltièks, posé dans lVIP, posé au me-cal On aime les soubrettes, soubrettes, soubrettes Soubrettes en Etam On va tfourrer, tfourrer Tfourrer ton gros tarm' Ça fait bour et bour et bour et ratatam On va tfourrer, tfourrer Tfourrer ton gros tarm' Mauvais est le penchant, Moët est le pagne-cham Si madame a des maux dtête, jai des capotes Efferalgan Monsieur lAgent, comment allez-vous en ? Jai mes liasses dans lslip, cest cquon appelle des sous-vêtements Criminel de la rime, jtéclate la gueule, frère Jsus pas une fashion victime, la chatte à Karl Lagerfeld Au placard cest horrible dès qutas la grosse fièvre Dès qutas mal aux ratiches car les vampires vont pas chez le dentiste Grosses couilles, gros pénis, comme si javais léléphantiasis Jack Dada cest ma potion magique, la chatte à Panoramix Armand Brignac, gamos allemand, Maybach, paire de sunglasses Tu rappes comme un fils de pute, tes punchlines sont nées sous X Liqueur de cassis, sirote avec des femmes mûres Impossible que jparle, dans la poche capsule de cyanure Jai belle allure, jlui dis quelle la suce Et cetera puisque jvais tfaire péter larme russe Rien qujfais quppe-ra pour mpayer le dernier Brabus Cest moi lfutur, sur la chatte à Nostradamus Le meilleur par A B Punchlines Cassius Clay Plein les paluches, évidemment qucest moi lsuspect Mamamia, on va tenvoyer brouter la chatte à Aaliyah Mamamia, à part un miracle LÎle-de-France deviendra jamais une île paradisiaque Jvais pas mrépéter, tous ces rappeurs perroquets-quets Voilà lsang neuf avec Gueko Seth-Seth Lâche ton 07, jai lmojo d007-7 Elles aiment les ptites attentions, elles aiment les grosses kèkettes Et ça fait burrret, burrret, burrret Comme une boulette en métal Foolek, foolek, foolek, comme une levée en bécane Posé dans ltièks, posé dans lVIP, posé au me-cal On aime les soubrettes, soubrettes, soubrettes Soubrettes en Etam On va tfourrer, tfourrer Tfourrer ton gros tarm' Ça fait bour et bour et bour et ratatam On va tfourrer, tfourrer Tfourrer ton gros tarm'1</t>
+          <t>Hein Seth Guex Pharaon MTP Boulette, boulette, boulette Foolek, foolek, foolek Et ça fait burrret, burrret, burrret Comme une boulette en métal Foolek, foolek, foolek, comme une levée en bécane Posé dans ltièks, posé dans lVIP, posé au me-cal On aime les soubrettes, soubrettes, soubrettes Soubrettes en Etam On va tfourrer, tfourrer Tfourrer ton gros tarm' Ça fait bour et bour et bour et ratatam On va tfourrer, tfourrer Tfourrer ton gros tarm' Tu trappelles que sur nous ils voulaient pas miser On mène 5-0 à la mi-temps sifflée Ils ont rien à proposer et ils veulent négocier Ils msucent tellement la bite que jtrouve plus ltemps dpisser Jai plus d'rétro, gros, personne va me freiner 6 litres de vodka et jcommence lapéro Ta daronne ma dit que mon daron lui plaisait Il peut la baiser, jserai jamais ton frérot Troupeaux dchiens errants postés sur le terrain Pas dréclamation, baisse dun ton Alors mon mignon, on est plutôt poisson ? Rien qutu lèches des moules, rien qutu sers des thons Et jai perdu du poids Des dizaines, des dizaines, des dizaines de kilos Jles ai repris en roro, en punchlines, en MD, en bédo, en coco Partitions funèbres, cest mon récital, jmarche sûr de moi Si jai décidé de te mettre une balle, même Thibault Courtois pourra rien pour toi Pleine tête, la moitié du chargeur dans lcerveau Perpèt ou passer sa vie dans lmétro Que des grosses têtes, évidemment jvends pas lmême bédo Jpasse à lassaut avec Seth Gueko Notre commando libère Don Pietro Et ça fait burrret, burrret, burrret Comme une boulette en métal Foolek, foolek, foolek, comme une levée en bécane Posé dans ltièks, posé dans lVIP, posé au me-cal On aime les soubrettes, soubrettes, soubrettes Soubrettes en Etam On va tfourrer, tfourrer Tfourrer ton gros tarm' Ça fait bour et bour et bour et ratatam On va tfourrer, tfourrer Tfourrer ton gros tarm' Mauvais est le penchant, Moët est le pagne-cham Si madame a des maux dtête, jai des capotes Efferalgan Monsieur lAgent, comment allez-vous en ? Jai mes liasses dans lslip, cest cquon appelle des sous-vêtements Criminel de la rime, jtéclate la gueule, frère Jsus pas une fashion victime, la chatte à Karl Lagerfeld Au placard cest horrible dès qutas la grosse fièvre Dès qutas mal aux ratiches car les vampires vont pas chez le dentiste Grosses couilles, gros pénis, comme si javais léléphantiasis Jack Dada cest ma potion magique, la chatte à Panoramix Armand Brignac, gamos allemand, Maybach, paire de sunglasses Tu rappes comme un fils de pute, tes punchlines sont nées sous X Liqueur de cassis, sirote avec des femmes mûres Impossible que jparle, dans la poche capsule de cyanure Jai belle allure, jlui dis quelle la suce Et cetera puisque jvais tfaire péter larme russe Rien qujfais quppe-ra pour mpayer le dernier Brabus Cest moi lfutur, sur la chatte à Nostradamus Le meilleur par A B Punchlines Cassius Clay Plein les paluches, évidemment qucest moi lsuspect Mamamia, on va tenvoyer brouter la chatte à Aaliyah Mamamia, à part un miracle LÎle-de-France deviendra jamais une île paradisiaque Jvais pas mrépéter, tous ces rappeurs perroquets-quets Voilà lsang neuf avec Gueko Seth-Seth Lâche ton 07, jai lmojo d007-7 Elles aiment les ptites attentions, elles aiment les grosses kèkettes Et ça fait burrret, burrret, burrret Comme une boulette en métal Foolek, foolek, foolek, comme une levée en bécane Posé dans ltièks, posé dans lVIP, posé au me-cal On aime les soubrettes, soubrettes, soubrettes Soubrettes en Etam On va tfourrer, tfourrer Tfourrer ton gros tarm' Ça fait bour et bour et bour et ratatam On va tfourrer, tfourrer Tfourrer ton gros tarm'1</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Un sac Goyard, un sac Chanel Un sac Goyard, un sac Chanel J'coupe des lamelles, toutes j'les ramènes Un sac Goyard, un sac Chanel J'asperge champagne sur les VIP, ta carrière elle suce des bites Négro j'vais vider les cll, j'envoie crachats sur des clit's Renoi verse le Hennessy, liasse dans ma poche s'épaissit J'sors de la brume électrique, et j'te fais sucer l'équipe J'mets des trois-points, j'mets des fists, j'vois le bénéfice J'les prends par la main et j'les nique Négro sors le drop-top Avenue Président Kennedy, yah J'suis dans le, j'suis dans le calme, j'suis dans le, j'suis dans le crâne En tournée y a ta pétasse dans le van, si t'es un Le Banner j'te mets une balle Faut ega, faut l'oseille oui faut les pièces, oui t'es cuit si t'es bloqué dans les tess Faut le sage-vi, faut les 'eins faut les fesses, faut R.R faut Aston bitch, faut les caisses Un sac Goyard, un sac Chanel Un sac Goyard, un sac Chanel J'coupe des lamelles, toutes j'les ramènes Un sac Goyard, un sac ChanelYou might also like</t>
+          <t>Un sac Goyard, un sac Chanel Un sac Goyard, un sac Chanel J'coupe des lamelles, toutes j'les ramènes Un sac Goyard, un sac Chanel J'asperge champagne sur les VIP, ta carrière elle suce des bites Négro j'vais vider les cll, j'envoie crachats sur des clit's Renoi verse le Hennessy, liasse dans ma poche s'épaissit J'sors de la brume électrique, et j'te fais sucer l'équipe J'mets des trois-points, j'mets des fists, j'vois le bénéfice J'les prends par la main et j'les nique Négro sors le drop-top Avenue Président Kennedy, yah J'suis dans le, j'suis dans le calme, j'suis dans le, j'suis dans le crâne En tournée y a ta pétasse dans le van, si t'es un Le Banner j'te mets une balle Faut ega, faut l'oseille oui faut les pièces, oui t'es cuit si t'es bloqué dans les tess Faut le sage-vi, faut les 'eins faut les fesses, faut R.R faut Aston bitch, faut les caisses Un sac Goyard, un sac Chanel Un sac Goyard, un sac Chanel J'coupe des lamelles, toutes j'les ramènes Un sac Goyard, un sac Chanel</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>J'marche sur l'eau mais ne l'dis pas à Cam'Ro Négro, j'suis né l'25 décembre de l'an 0 Plus qu'une étincelle, papy j'suis inflammable J'suis sur terre pour toucher l'ciel, j'ai les mains faites pour l'impalpable Une antillaise, une philippine, une latina Mon bre-chi connait toutes les langues comme s'il avait fait LEA J'attends la plaque diplomatique et j'laisse le game en convalescence 3 litres 6 gros, j'm'endors à la pompe à essence Y'a pas d'amour dans l'rap, protège tes côtes J'suis là pour faire du biff, pas pour m'faire des potes à la compote Regarde, ces négros parlent mal J'casse la baraque mais j'suis trop fort pour faire une rime avec Obama, gros bâtard C'est rien, j'les enchante comme Merlin J'brûle la schneck de Nadine Morano avec l'essence de Guerlain Pendant qu'ces nazes rappaient, j'étais dans la ciudad avec des ashkénazes qui mangent du mafé Séparé dans l'bien, unis dans l'mal Tu t'rends compte, on n'a pas l'même Dieu mais on a l'même Diable Fuck, tout ça m'fait marrer Surtout quand j'me rappelle qu'à cause de vos conneries Diam's et Kamnouze n'ont jamais pu s'marier Enfermé en studio pour qu'mon album puisse les kill Quand l'chat n'est pas là, les souris s'prennent pour les twins Les souris s'prennent pour les twins 24 carats sur Imany, ça part de là You might also like Ok j'arrive dans ta ville, j'arrive dans ta ville Haricot magique, plaque diplomatique Ok j'arrive dans ta ville, j'arrive dans ta ville Haricot magique, plaque diplomatique J'signe des schneck, j'signe des chèques, j'signe des autographes J'suis noir et confortable comme un Roche Bobois J'signe des schneck, j'signe des chèques, j'signe des autographes J'suis noir et confortable comme un Roche Bobois J'suis v'nu sur terre avec une auréole J'manque d'air comme les mots créoles yessaï Anyway, j'n'y vois plus bien Mais j'étais d'jà plus fort qu'le quart du rap français à l'époque où j'n'avais pas d'poil pubien c'est vrai GEMG, GEMG, on kick et baise tout Si t'es une grosse merde c'est pas d'la faute du mektoub GEMG, GEMG, l'équipe est west coast J'rachète ton contrat avec un ticket resto J'me pose des questions qui réveillent le feu C'est quoi l'nerf de la paix ? C'est quoi l'amour ? C'est qui la mère de Dieu ? Les voies d'l'enfer sont-elles pénétrables ? C'est à combien l'paradis ? Est-ce que l'enfer c'est à Châtelet - Les Halles ? Dans c'game, c'est qui les youv', dawg ? Est-ce que dans l'au-d'là Serge Gainsbourg a finalement ken Whitney Houston ? En première classe, j'suis hostile comme Death Row Et j'me torche avec la main gauche et d'l'eau, ouais gros Ok j'arrive dans ta ville, j'arrive dans ta ville Haricot magique, plaque diplomatique Ok j'arrive dans ta ville, j'arrive dans ta ville Haricot magique, plaque diplomatique J'signe des schneck, j'signe des chèques, j'signe des autographes J'suis noir et confortable comme un Roche Bobois J'signe des schneck, j'signe des chèques, j'signe des autographes J'suis noir et confortable comme un Roche Bobois Plaque diplo' J'ai pas d'ghostwritter mais j'ai un dactylo J'fais tapiner des rappeurs pour un sac d'hydro kehba C'est un Soler, Picasso ou un Joan Miro J'débarque à l'ambassade où l'or est rose, la rosée jaune 2.4., Imany Zone, mets à la mode la camisole Au au départ j'suis pauvre, là on m'suce sur un Chesterfield Dieu est dans mon gang, demande pas d'lui faire faire un signe On aime le luxe, pétasses de film de uc qui aiment cer-us' Vitres teintées, l'lustre cristal ou bien Pétrus Du vin, des putes, des seins, des culs Faire des études ? Nique sa grand mère, j'veux faire des thunes, moi J'arrive en Classe G au conseil de classe, renoi J'te prierai d'changer ton siège de place, renoi Ils font du raï, mec, ces négros comptent pour du beurre Sautez en cadence sur mon système reproducteur Ok j'arrive dans ta ville, j'arrive dans ta ville Haricot magique, plaque diplomatique Ok j'arrive dans ta ville, j'arrive dans ta ville Haricot magique, plaque diplomatique J'signe des schneck, j'signe des chèques, j'signe des autographes J'suis noir et confortable comme un Roche Bobois J'signe des schneck, j'signe des chèques, j'signe des autographes J'suis noir et confortable comme un Roche Bobois Hennessy pour mes youvois, renoi, tu vois l'convoi Mais tu vois pas c'qu'on voit Ils récupèrent d'leurs blessures si j'récupère pas c'qu'on m'doit J'entends leurs voix pour l'top 5 mais, renoi, j'les laisse sans voix J'les laisse pantois, dans un an j'les laisse sans moi Tout p'tit j'étais sans do', Dieu merci, jamais sans toi J'écrivais mes textes dans l'froid Alcool brun qui passe dans l'foie Mmh mmh ces pétasses tant d'fois Imany, négro 244</t>
+          <t>J'marche sur l'eau mais ne l'dis pas à Cam'Ro Négro, j'suis né l'25 décembre de l'an 0 Plus qu'une étincelle, papy j'suis inflammable J'suis sur terre pour toucher l'ciel, j'ai les mains faites pour l'impalpable Une antillaise, une philippine, une latina Mon bre-chi connait toutes les langues comme s'il avait fait LEA J'attends la plaque diplomatique et j'laisse le game en convalescence 3 litres 6 gros, j'm'endors à la pompe à essence Y'a pas d'amour dans l'rap, protège tes côtes J'suis là pour faire du biff, pas pour m'faire des potes à la compote Regarde, ces négros parlent mal J'casse la baraque mais j'suis trop fort pour faire une rime avec Obama, gros bâtard C'est rien, j'les enchante comme Merlin J'brûle la schneck de Nadine Morano avec l'essence de Guerlain Pendant qu'ces nazes rappaient, j'étais dans la ciudad avec des ashkénazes qui mangent du mafé Séparé dans l'bien, unis dans l'mal Tu t'rends compte, on n'a pas l'même Dieu mais on a l'même Diable Fuck, tout ça m'fait marrer Surtout quand j'me rappelle qu'à cause de vos conneries Diam's et Kamnouze n'ont jamais pu s'marier Enfermé en studio pour qu'mon album puisse les kill Quand l'chat n'est pas là, les souris s'prennent pour les twins Les souris s'prennent pour les twins 24 carats sur Imany, ça part de là Ok j'arrive dans ta ville, j'arrive dans ta ville Haricot magique, plaque diplomatique Ok j'arrive dans ta ville, j'arrive dans ta ville Haricot magique, plaque diplomatique J'signe des schneck, j'signe des chèques, j'signe des autographes J'suis noir et confortable comme un Roche Bobois J'signe des schneck, j'signe des chèques, j'signe des autographes J'suis noir et confortable comme un Roche Bobois J'suis v'nu sur terre avec une auréole J'manque d'air comme les mots créoles yessaï Anyway, j'n'y vois plus bien Mais j'étais d'jà plus fort qu'le quart du rap français à l'époque où j'n'avais pas d'poil pubien c'est vrai GEMG, GEMG, on kick et baise tout Si t'es une grosse merde c'est pas d'la faute du mektoub GEMG, GEMG, l'équipe est west coast J'rachète ton contrat avec un ticket resto J'me pose des questions qui réveillent le feu C'est quoi l'nerf de la paix ? C'est quoi l'amour ? C'est qui la mère de Dieu ? Les voies d'l'enfer sont-elles pénétrables ? C'est à combien l'paradis ? Est-ce que l'enfer c'est à Châtelet - Les Halles ? Dans c'game, c'est qui les youv', dawg ? Est-ce que dans l'au-d'là Serge Gainsbourg a finalement ken Whitney Houston ? En première classe, j'suis hostile comme Death Row Et j'me torche avec la main gauche et d'l'eau, ouais gros Ok j'arrive dans ta ville, j'arrive dans ta ville Haricot magique, plaque diplomatique Ok j'arrive dans ta ville, j'arrive dans ta ville Haricot magique, plaque diplomatique J'signe des schneck, j'signe des chèques, j'signe des autographes J'suis noir et confortable comme un Roche Bobois J'signe des schneck, j'signe des chèques, j'signe des autographes J'suis noir et confortable comme un Roche Bobois Plaque diplo' J'ai pas d'ghostwritter mais j'ai un dactylo J'fais tapiner des rappeurs pour un sac d'hydro kehba C'est un Soler, Picasso ou un Joan Miro J'débarque à l'ambassade où l'or est rose, la rosée jaune 2.4., Imany Zone, mets à la mode la camisole Au au départ j'suis pauvre, là on m'suce sur un Chesterfield Dieu est dans mon gang, demande pas d'lui faire faire un signe On aime le luxe, pétasses de film de uc qui aiment cer-us' Vitres teintées, l'lustre cristal ou bien Pétrus Du vin, des putes, des seins, des culs Faire des études ? Nique sa grand mère, j'veux faire des thunes, moi J'arrive en Classe G au conseil de classe, renoi J'te prierai d'changer ton siège de place, renoi Ils font du raï, mec, ces négros comptent pour du beurre Sautez en cadence sur mon système reproducteur Ok j'arrive dans ta ville, j'arrive dans ta ville Haricot magique, plaque diplomatique Ok j'arrive dans ta ville, j'arrive dans ta ville Haricot magique, plaque diplomatique J'signe des schneck, j'signe des chèques, j'signe des autographes J'suis noir et confortable comme un Roche Bobois J'signe des schneck, j'signe des chèques, j'signe des autographes J'suis noir et confortable comme un Roche Bobois Hennessy pour mes youvois, renoi, tu vois l'convoi Mais tu vois pas c'qu'on voit Ils récupèrent d'leurs blessures si j'récupère pas c'qu'on m'doit J'entends leurs voix pour l'top 5 mais, renoi, j'les laisse sans voix J'les laisse pantois, dans un an j'les laisse sans moi Tout p'tit j'étais sans do', Dieu merci, jamais sans toi J'écrivais mes textes dans l'froid Alcool brun qui passe dans l'foie Mmh mmh ces pétasses tant d'fois Imany, négro 244</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>J'cherche des occas', J'cherche des occas', pour faire gros cash, Pour faire gros cash Les faire monter, Les faire monter, dans les octaves, Dans les octaves Donc j'fais mon job, Donc j'fais mon job, toi fais ton job, Toi fais ton job Donc j'fais mon job, Donc j'fais ton job, toi fais ton job, Toi fais ton job J'connais tristesse, J'connais tristesse, j'connais misère, J'connais misère Chauffage coupé, Chauffage coupé, en plein hiver, En plein hiver Donc j'fais mon job, Donc j'fais mon job, toi fais ton job, Toi fais ton job Donc j'fais mon job, Donc j'fais mon job, toi fais ton job, Toi fais ton job Oui, j'fais mon job, j'fais ça pour mettre à l'abri la femme qui m'a vu naître L'argent compte plus qu'un avis négro Moi j'fais mon job, j'fais ça pour l'combo R.R, Cartier sur la lunette, sur la lunette On va pas les aider Pour les loves, Pour les loves, nigga, nigga, pour les loves, Nigga, nigga, pour les loves Nigga, nigga, pour les loves Nigga, nigga, pour les loves, nigga, nigga, pour les loves Nigga, nigga, pour les loves Yeah, pour les loves Yeah, pour les loves, nigga, nigga, pour les loves, Nigga, nigga, pour les loves Nigga, nigga, pour les loves, Nigga, nigga, pour les loves, nigga, nigga, pour les loves, Nigga, nigga, pour les loves J'suis un Bac S, J'suis un Bac S, j'ai pas l'faciès, J'ai pas l'faciès J'ai pas besoin d'cours, J'ai pas besoin d'cours, pour le Classe S, yes Pour le Classe S, yes Quand j'compte tes heures, j'compte ma monnaie-aie-aie, j'ai l'Q.I pour m'faire interner-er-er, -er J'veux faire ce biff, faire d'autres bébés-és-és, -és Jamais les premiers seront derniers-ers-ers, si tu m'permets-ets-ets, Si tu m'permet-ets-ets You might also like Oh, j'fais mon job Moi j'fais mon job Moi j'fais mon job Pour les loves, Pour les loves, nigga, nigga, pour les loves, Nigga, nigga, pour les loves Nigga, nigga, pour les loves Nigga, nigga, pour les loves, nigga, nigga, pour les loves Nigga, nigga, pour les loves Yeah, pour les loves Yeah, pour les loves, nigga, nigga, pour les loves, Nigga, nigga, pour les loves Nigga, nigga, pour les loves, Nigga, nigga, pour les loves, nigga, nigga, pour les loves, Nigga, nigga, pour les loves Nigga, nigga, pour les loves, nigga, nigga, pour les loves3</t>
+          <t>J'cherche des occas', J'cherche des occas', pour faire gros cash, Pour faire gros cash Les faire monter, Les faire monter, dans les octaves, Dans les octaves Donc j'fais mon job, Donc j'fais mon job, toi fais ton job, Toi fais ton job Donc j'fais mon job, Donc j'fais ton job, toi fais ton job, Toi fais ton job J'connais tristesse, J'connais tristesse, j'connais misère, J'connais misère Chauffage coupé, Chauffage coupé, en plein hiver, En plein hiver Donc j'fais mon job, Donc j'fais mon job, toi fais ton job, Toi fais ton job Donc j'fais mon job, Donc j'fais mon job, toi fais ton job, Toi fais ton job Oui, j'fais mon job, j'fais ça pour mettre à l'abri la femme qui m'a vu naître L'argent compte plus qu'un avis négro Moi j'fais mon job, j'fais ça pour l'combo R.R, Cartier sur la lunette, sur la lunette On va pas les aider Pour les loves, Pour les loves, nigga, nigga, pour les loves, Nigga, nigga, pour les loves Nigga, nigga, pour les loves Nigga, nigga, pour les loves, nigga, nigga, pour les loves Nigga, nigga, pour les loves Yeah, pour les loves Yeah, pour les loves, nigga, nigga, pour les loves, Nigga, nigga, pour les loves Nigga, nigga, pour les loves, Nigga, nigga, pour les loves, nigga, nigga, pour les loves, Nigga, nigga, pour les loves J'suis un Bac S, J'suis un Bac S, j'ai pas l'faciès, J'ai pas l'faciès J'ai pas besoin d'cours, J'ai pas besoin d'cours, pour le Classe S, yes Pour le Classe S, yes Quand j'compte tes heures, j'compte ma monnaie-aie-aie, j'ai l'Q.I pour m'faire interner-er-er, -er J'veux faire ce biff, faire d'autres bébés-és-és, -és Jamais les premiers seront derniers-ers-ers, si tu m'permets-ets-ets, Si tu m'permet-ets-ets Oh, j'fais mon job Moi j'fais mon job Moi j'fais mon job Pour les loves, Pour les loves, nigga, nigga, pour les loves, Nigga, nigga, pour les loves Nigga, nigga, pour les loves Nigga, nigga, pour les loves, nigga, nigga, pour les loves Nigga, nigga, pour les loves Yeah, pour les loves Yeah, pour les loves, nigga, nigga, pour les loves, Nigga, nigga, pour les loves Nigga, nigga, pour les loves, Nigga, nigga, pour les loves, nigga, nigga, pour les loves, Nigga, nigga, pour les loves Nigga, nigga, pour les loves, nigga, nigga, pour les loves3</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Yah J'gratte le papier, j'fais le papier, j'mets le papier wah Avec une sirène, j'me fais per-pom où t'as pas pied wah J'suis à L.A, négro nique sa mère le quartier Juste accélère, j'remplis mes poumons à Bel-Air incroyable Mon négro, j'suis un aimant à pétasses pétasses Ma vie c'est un tableau d'Edgar Degas Degas J'roule ça et j'fume ça comme si c'est légal légal Paire de Dunk Paris écrase la pédale pédale, vroum J'suis dans sa schneck, oui elle voit des étoiles wah wah Jeune africain veut compter tes pétales Right, verse l'elixir dans ma cup, ah Right, j'sens le lipstick sur ma teub, ah Bitch, j'traine plus dans l'zoo My tennis dans le court Y'a un switch lane bitch change de route Dans le coupé d'légende drip dans le cou 'Teille de Cristal, frais comme le mistral Deep abyssale sûr j'lui la glisse al' Faut les diamants, l'mojo est radiant J'drip comme les Atlantes, aura éclatante Peut finir l'ice, j'veux Miami Vice J'veux faire mon fois dix, j'suis Pusha et Malice J'suis carré d'as, j'roule, fume un carré d'ice Et ta pétasse mouille parce que l'gars est nice You might also like Adjust the energy... You know what I mean ? As the best you can, adjust... Adjust what you wake up thinking and what you say And then, last, what you do It's a lot of examples that you could look up to Those young kids in the street, you can look up to Uh... you know... Kendrick Lamar Not the words, forget what he's sayin' Just where he came from I'm sayin' you could Youtube freestylin' and the next you're doing projects You could look up to a Nip Hussle You know what I mean It's to anyone, these guys that came from this This, this hopelessness In, in, you know what would they where through it, you know what I mean And you could reverse engineer what they did Infinigga</t>
+          <t>Yah J'gratte le papier, j'fais le papier, j'mets le papier wah Avec une sirène, j'me fais per-pom où t'as pas pied wah J'suis à L.A, négro nique sa mère le quartier Juste accélère, j'remplis mes poumons à Bel-Air incroyable Mon négro, j'suis un aimant à pétasses pétasses Ma vie c'est un tableau d'Edgar Degas Degas J'roule ça et j'fume ça comme si c'est légal légal Paire de Dunk Paris écrase la pédale pédale, vroum J'suis dans sa schneck, oui elle voit des étoiles wah wah Jeune africain veut compter tes pétales Right, verse l'elixir dans ma cup, ah Right, j'sens le lipstick sur ma teub, ah Bitch, j'traine plus dans l'zoo My tennis dans le court Y'a un switch lane bitch change de route Dans le coupé d'légende drip dans le cou 'Teille de Cristal, frais comme le mistral Deep abyssale sûr j'lui la glisse al' Faut les diamants, l'mojo est radiant J'drip comme les Atlantes, aura éclatante Peut finir l'ice, j'veux Miami Vice J'veux faire mon fois dix, j'suis Pusha et Malice J'suis carré d'as, j'roule, fume un carré d'ice Et ta pétasse mouille parce que l'gars est nice Adjust the energy... You know what I mean ? As the best you can, adjust... Adjust what you wake up thinking and what you say And then, last, what you do It's a lot of examples that you could look up to Those young kids in the street, you can look up to Uh... you know... Kendrick Lamar Not the words, forget what he's sayin' Just where he came from I'm sayin' you could Youtube freestylin' and the next you're doing projects You could look up to a Nip Hussle You know what I mean It's to anyone, these guys that came from this This, this hopelessness In, in, you know what would they where through it, you know what I mean And you could reverse engineer what they did Infinigga</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Mh, mh, mh, mh, mh, mh Oui, bitch Hey, hey Wouh, wouh, wouh, wouh Hein Right J'suis en 7.7.7 Seth sur le flanc, sûr qu'je dissèque cette chienne Pour le bread j'excelle, nègre avec le pec' sec J'avais quinze piges, Girbaud avec nouvelles tresses J'me faisais sucer dans l'block, là où tes mecs stressent, tes mecs perdent Elle m'envoyait sa gorge sur ls marches, c'était le next-stp J'flirt avec dérives sectaires, si t'es dans mon lit, bébé, faut qu'tu te laisses faire Hey, hey Si t'es dans mon lit, bébé, donne ta plus belle tête J'ai fini l'jeu, change de map pour les nouvelles quêtes, hey J'suis avec Seth et Sekhmet, j'suis avec Serket Dieu met des pensées dans les airs et j'les intercepte Oui, oui, oui, oui, bitch Ils veulent prendre mon lingot, et Toujours aimé le bled, jamais aimé l'bendo, et J'aime ken les p'tites arty, faut qu'je ken Zoé Qu'on fasse des tea party Ferrari Enzo, hé-hé, grosses Benz'o, et Ma 'tasse aime pas Kenzo, elle préfère Chloé Au comi'co', tu jactes comme l'interview d'Zane Lowe, mh, mh Ils voulaient que j'sois l'martyr, ils finissent troués, paw Lunivers ma créé, exauce tout mes souhaits J'les découpe, j'les éparpille Négro, tous les yeux j'les écarquille, han Quand j'débarque c'est l'anarchy Bitch fuck avec moi j'suis le marquis, haan J'bois ton sang, j'bois le saké, j't'envoie un high-cke-ki', comme Baki, haan Avec ta 'tasse on pratique Bitch, il faut que j'sois riche comme l'Afrique Haan You might also like J'suis en 7.7.7 Seth, sur le flanc, sûr qu'je dissèque cette chienne, go Pour les breads j'excelle, nègre avec le pec' sec J'avais quinze piges, Girbaud avec nouvelles tresses, hey J'me faisais sucer dans l'block, là où tes mecs stressent, heyy, tes mecs perdent Elle m'envoyait sa gorge sur les marches, c'était le next-step Oui, bitch C'est Pharaoh in this bitch Hey 7.7, 7.7 Oh, oh 7.7, 7.72</t>
+          <t>Mh, mh, mh, mh, mh, mh Oui, bitch Hey, hey Wouh, wouh, wouh, wouh Hein Right J'suis en 7.7.7 Seth sur le flanc, sûr qu'je dissèque cette chienne Pour le bread j'excelle, nègre avec le pec' sec J'avais quinze piges, Girbaud avec nouvelles tresses J'me faisais sucer dans l'block, là où tes mecs stressent, tes mecs perdent Elle m'envoyait sa gorge sur ls marches, c'était le next-stp J'flirt avec dérives sectaires, si t'es dans mon lit, bébé, faut qu'tu te laisses faire Hey, hey Si t'es dans mon lit, bébé, donne ta plus belle tête J'ai fini l'jeu, change de map pour les nouvelles quêtes, hey J'suis avec Seth et Sekhmet, j'suis avec Serket Dieu met des pensées dans les airs et j'les intercepte Oui, oui, oui, oui, bitch Ils veulent prendre mon lingot, et Toujours aimé le bled, jamais aimé l'bendo, et J'aime ken les p'tites arty, faut qu'je ken Zoé Qu'on fasse des tea party Ferrari Enzo, hé-hé, grosses Benz'o, et Ma 'tasse aime pas Kenzo, elle préfère Chloé Au comi'co', tu jactes comme l'interview d'Zane Lowe, mh, mh Ils voulaient que j'sois l'martyr, ils finissent troués, paw Lunivers ma créé, exauce tout mes souhaits J'les découpe, j'les éparpille Négro, tous les yeux j'les écarquille, han Quand j'débarque c'est l'anarchy Bitch fuck avec moi j'suis le marquis, haan J'bois ton sang, j'bois le saké, j't'envoie un high-cke-ki', comme Baki, haan Avec ta 'tasse on pratique Bitch, il faut que j'sois riche comme l'Afrique Haan J'suis en 7.7.7 Seth, sur le flanc, sûr qu'je dissèque cette chienne, go Pour les breads j'excelle, nègre avec le pec' sec J'avais quinze piges, Girbaud avec nouvelles tresses, hey J'me faisais sucer dans l'block, là où tes mecs stressent, heyy, tes mecs perdent Elle m'envoyait sa gorge sur les marches, c'était le next-step Oui, bitch C'est Pharaoh in this bitch Hey 7.7, 7.7 Oh, oh 7.7, 7.72</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Han Yeaah Ces négros j'les fume comme des cigarettes Ouh-ouhh, ces négros j'les fume comme des cigarettes Ouh-ouhh Laisse-moi allumer un d'mes cigarillos Ouh-ouhhh, j'te montre du doigt, elle tire dans ta tête Ouh-ouhhh Verre de whisky, pétasse sous la table, pétasse sous la table La taable Verre de whisky, prête à faire du sale Du saale, prête à faire du sale Du saale, du saale Du sale, nigga - Prête à faire du sale ? - J'ferais tout pour toi, mon amour - Prête à faire du sale, c'est sûr ? - Tu m'connais t'façonYou might also like4</t>
+          <t>Han Yeaah Ces négros j'les fume comme des cigarettes Ouh-ouhh, ces négros j'les fume comme des cigarettes Ouh-ouhh Laisse-moi allumer un d'mes cigarillos Ouh-ouhhh, j'te montre du doigt, elle tire dans ta tête Ouh-ouhhh Verre de whisky, pétasse sous la table, pétasse sous la table La taable Verre de whisky, prête à faire du sale Du saale, prête à faire du sale Du saale, du saale Du sale, nigga - Prête à faire du sale ? - J'ferais tout pour toi, mon amour - Prête à faire du sale, c'est sûr ? - Tu m'connais t'façon4</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>On vous pop le champagne mais Tout les soirs gratte comme intérimaire En direct du tur-fu, j'suis périmé, l'périmètre 'Tain prie pour qu'je tape dans son périnée Ces pak-pak elles m'font l'effet d'un caf' décaféiné Yo, ces négros sont pas des lumières Ils s'prennent pour des stars, ok j'ai un passé lunaire J'grattais, rappais, claquais l'mic Négro j'étais même pas pré-pubère Bon mon gars là faut dégainer des vraies balles et des vrais si tu veux gagner Tu perds On prend la pose, tempête de pétale de rose En fait j'ai plein de choses en tête les négros savent pas On veut pop le Dom pé Faire l'Olympia complet yup Faire la monnaie Pas finir au card-pla Mes fans fument des mc's, rappent mes textes à tue-tête La concurrence se tient comme un quadrupède Le rap français est dans la cuvette Un peu d'flow, bye bye Combien d'temps cela va m'prendre ? Et suis j'vraiment de taille ? Sur mes sons vont-ils se détendre ou s'attarder sur les détails ? En engrangeant de nouveaux fans est ce que les anciens vont détal' ? Portes qui risquent de s'ouvrir, vauderont elles le talent que j'étale ? De toute manière j'suis pas simplet Je continuerais tant qu'ça m'plaît Je remercie déjà mes phases si par miracle un jour ça paie La liste est longue, des doutes, des gens m'ayant méprisé J'prends tout d'même la route 'vec de la glue pour coller mes rêves brisés Ca doit faire plus de 3 ans qu'on fait l'boulot et que eux sont au bout du rouleau Grâce à ce dur labeur moi j'évacue ma peur Et pourtant j'ai toujours les boules yo Car j'y ai mis tout mon coeur Reçu un tas de piques, mon équipe fait office de bourreau A croire qu'ils m'ont condamné à percer vu que la bonne musique m'a bercé Pas mal de meufs doivent m'apprécier donc pour UPS je n'suis pas stressé Et je déteste entendre faudrait qu'le mec se lance Mon gars je sais qu'c'est lent, je ne vise que l'excellence J'm'en bat les noix, j'empale les wacks avec ma rime pour fer de lance C'est pas des blagues, mon truc est fat, tes oreilles paieront l'excédent J'suis sur mon grind, j'gratte des raps tout en restant intelligible J'évite les cases, ce que j'prépare est tout bonnement indescriptible Trop d'gens stagnent, ça m'dépasse comme je n'suis pas un d'ces débiles Fuck l'effet d'masse, si j'laisse ma trace ce n's'ra qu'à l'encre indélébile You might also like Ignore les, appelle moi l'orfèvre hein Couronne placée et micro comme fève hein Une dynamique assez leg' Tout l'monde ici sait que partout, ça nous r'garde nous Les mecs ont la dalle en scred Oui go mes gars devancent Tes mots disent pas ce que tu penses Tu peux tailler tant que tu danses Je ne garde pas l'dé je le lance Sur mon lieu d'travail, jamais de vacances Toujours en train d'battle avec la vie Pendant qu'tu fermes ta gueule et recommence et j'recommence Monter, compter, tout est ici bien réparti Augmenter, s'vanter, compter, chanter Pink Tee, Joke et ma partie Eddie Gang est de sorti bitch, t'as d'la veine d'être là On m'a pris pour reur-ti ou rookie, mec on F ça Mieux que personne et que ces mecs là Ils font sonner l'phone donne sept fois Dans l'foutu batîment j'ai crié monument mais qui veut ma place ? Qui vaut cette fois ? Pas une question d'16, pas une question d'emploi Ni caisse, ni biff, ni pute Pour te démontrer qu'je suis bien meilleur qu'ça Et bien meilleur qu'toi Paroles rédigées et expliquées par Rap Genius France !</t>
+          <t>On vous pop le champagne mais Tout les soirs gratte comme intérimaire En direct du tur-fu, j'suis périmé, l'périmètre 'Tain prie pour qu'je tape dans son périnée Ces pak-pak elles m'font l'effet d'un caf' décaféiné Yo, ces négros sont pas des lumières Ils s'prennent pour des stars, ok j'ai un passé lunaire J'grattais, rappais, claquais l'mic Négro j'étais même pas pré-pubère Bon mon gars là faut dégainer des vraies balles et des vrais si tu veux gagner Tu perds On prend la pose, tempête de pétale de rose En fait j'ai plein de choses en tête les négros savent pas On veut pop le Dom pé Faire l'Olympia complet yup Faire la monnaie Pas finir au card-pla Mes fans fument des mc's, rappent mes textes à tue-tête La concurrence se tient comme un quadrupède Le rap français est dans la cuvette Un peu d'flow, bye bye Combien d'temps cela va m'prendre ? Et suis j'vraiment de taille ? Sur mes sons vont-ils se détendre ou s'attarder sur les détails ? En engrangeant de nouveaux fans est ce que les anciens vont détal' ? Portes qui risquent de s'ouvrir, vauderont elles le talent que j'étale ? De toute manière j'suis pas simplet Je continuerais tant qu'ça m'plaît Je remercie déjà mes phases si par miracle un jour ça paie La liste est longue, des doutes, des gens m'ayant méprisé J'prends tout d'même la route 'vec de la glue pour coller mes rêves brisés Ca doit faire plus de 3 ans qu'on fait l'boulot et que eux sont au bout du rouleau Grâce à ce dur labeur moi j'évacue ma peur Et pourtant j'ai toujours les boules yo Car j'y ai mis tout mon coeur Reçu un tas de piques, mon équipe fait office de bourreau A croire qu'ils m'ont condamné à percer vu que la bonne musique m'a bercé Pas mal de meufs doivent m'apprécier donc pour UPS je n'suis pas stressé Et je déteste entendre faudrait qu'le mec se lance Mon gars je sais qu'c'est lent, je ne vise que l'excellence J'm'en bat les noix, j'empale les wacks avec ma rime pour fer de lance C'est pas des blagues, mon truc est fat, tes oreilles paieront l'excédent J'suis sur mon grind, j'gratte des raps tout en restant intelligible J'évite les cases, ce que j'prépare est tout bonnement indescriptible Trop d'gens stagnent, ça m'dépasse comme je n'suis pas un d'ces débiles Fuck l'effet d'masse, si j'laisse ma trace ce n's'ra qu'à l'encre indélébile Ignore les, appelle moi l'orfèvre hein Couronne placée et micro comme fève hein Une dynamique assez leg' Tout l'monde ici sait que partout, ça nous r'garde nous Les mecs ont la dalle en scred Oui go mes gars devancent Tes mots disent pas ce que tu penses Tu peux tailler tant que tu danses Je ne garde pas l'dé je le lance Sur mon lieu d'travail, jamais de vacances Toujours en train d'battle avec la vie Pendant qu'tu fermes ta gueule et recommence et j'recommence Monter, compter, tout est ici bien réparti Augmenter, s'vanter, compter, chanter Pink Tee, Joke et ma partie Eddie Gang est de sorti bitch, t'as d'la veine d'être là On m'a pris pour reur-ti ou rookie, mec on F ça Mieux que personne et que ces mecs là Ils font sonner l'phone donne sept fois Dans l'foutu batîment j'ai crié monument mais qui veut ma place ? Qui vaut cette fois ? Pas une question d'16, pas une question d'emploi Ni caisse, ni biff, ni pute Pour te démontrer qu'je suis bien meilleur qu'ça Et bien meilleur qu'toi Paroles rédigées et expliquées par Rap Genius France !</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ahh Yo, ayy, ayy Fils de pute de Joke , j'dirais pas ça Nan, nan, nan J'dirais pas ça, j'te jure, Enculé d'négro , j'dirais pas ça Méchamment, insolent, mais très charmant Le rap francais, le rap français, j'm'en bats la race, comme des allemands Eh, eh, roue arrière, coup d'crosse Justice nul part, police partout, des écumes partout, estime nul part Ah-ah Grosses punchlines, devant , tu pars Hein, on dirait un crew de scatophiles tellement on fout la merde J'crois que j'vais faire un p'tit frère à Guerlain tellement j'lui fourre sa mère Eh-eh Négro, le rap, ça paye pas, j'crois que j'vais reprendre les cours sa mère Ohh J'cours derrière l'argent, j'cours à ma perte, faut qu'j'arrête la course, sa mère Sa mère Faut qu'j'reprenne les cours, ne serait-ce qu'pour avoir la bourse, sa mère Le rap français a tout perdu, ils s'baladent les bourses à l'air Négro Hein-hein, ces pédés, ils sont pas prêts Hein-hein, ces pédés, ils sont pas prêts Hein-hein, ces pédés, ils sont pas prêts Hein-hein, ces pédés, ils sont pas prêts You might also like M.T.P, ils sont pas prêts Hein-hein Yo, Paris, ils sont pas prêts Hein-hein Yo-yo, Tokyo, ils sont pas prêts Hein-hein Yo, London, ils sont pas prêts Hein-hein Yo, M.T.P, ils sont pas prêts Hein-hein Yo, Paris, ils sont pas prêts Hein-hein Yo-yo, London, ils sont pas prêts Hein-hein Fuck, wow Hein, yo Négro Putain d'négro d'merde Hein-hein, pourquoi tu t'es pas préparé ? Pourquoi, négro Mes sons dans ton HP, comme un vrai taré Hey, hey, les vrais gars, les nègres savent à qui ils ont à faire Un négro déter', comme les frères que Sarko' met dans un charter Yo J'ai même plus l'temps d'parler, shoot le sheriff sur sa Harley, comme Bob Marley Tu vas t'faire expulser comme nu m, nu m, nu m iei Iei Des fois je vais en club, négro, mais j'danse pas trop sur Stromae Eh J'fais des pompes genre Ali Bomayé, Ayy, boom-boom-boom-boom-ayé Fils de pute de Joke , j'dirais pas ça Moi non plus J'dirais pas ça, j'te jure, Putain d'négro , qu'moi, j'dirais pas ça J'veux du biff, et au lit des catins Yeh Négro, j'm'en bat les couilles d'Oliver Cachin Hein-hein, ces pédés, ils sont pas prêts Hein-hein, ces pédés, ils sont pas prêts Hein-hein, ces pédés, ils sont pas prêts Hein-hein, ces pédés, ils sont pas prêts M.T.P, ils sont pas prêts Hein-hein Yo, Paris, ils sont pas prêts Hein-hein Yo-yo, Tokyo, ils sont pas prêts Hein-hein Yo, London, ils sont pas prêts Hein-hein Yo, M.T.P, ils sont pas prêts Hein-hein Yo, Paris, ils sont pas prêts Hein-hein Yo-yo, London, ils sont pas prêts Hein-hein Fuck, wow Hein, yo Négro La seule vérité dans c't' histoire c'est qu'j'suis levé d'puis 5h du mat', négro Là il est 8 heures, on dort plus, négro, on dort plus M.T.P, négro Hey, hey, hey, hey Jordy, 'as-y 'ci-mer' pour l'beat, négro Wassup M.T.P, nigga3</t>
+          <t>Ahh Yo, ayy, ayy Fils de pute de Joke , j'dirais pas ça Nan, nan, nan J'dirais pas ça, j'te jure, Enculé d'négro , j'dirais pas ça Méchamment, insolent, mais très charmant Le rap francais, le rap français, j'm'en bats la race, comme des allemands Eh, eh, roue arrière, coup d'crosse Justice nul part, police partout, des écumes partout, estime nul part Ah-ah Grosses punchlines, devant , tu pars Hein, on dirait un crew de scatophiles tellement on fout la merde J'crois que j'vais faire un p'tit frère à Guerlain tellement j'lui fourre sa mère Eh-eh Négro, le rap, ça paye pas, j'crois que j'vais reprendre les cours sa mère Ohh J'cours derrière l'argent, j'cours à ma perte, faut qu'j'arrête la course, sa mère Sa mère Faut qu'j'reprenne les cours, ne serait-ce qu'pour avoir la bourse, sa mère Le rap français a tout perdu, ils s'baladent les bourses à l'air Négro Hein-hein, ces pédés, ils sont pas prêts Hein-hein, ces pédés, ils sont pas prêts Hein-hein, ces pédés, ils sont pas prêts Hein-hein, ces pédés, ils sont pas prêts M.T.P, ils sont pas prêts Hein-hein Yo, Paris, ils sont pas prêts Hein-hein Yo-yo, Tokyo, ils sont pas prêts Hein-hein Yo, London, ils sont pas prêts Hein-hein Yo, M.T.P, ils sont pas prêts Hein-hein Yo, Paris, ils sont pas prêts Hein-hein Yo-yo, London, ils sont pas prêts Hein-hein Fuck, wow Hein, yo Négro Putain d'négro d'merde Hein-hein, pourquoi tu t'es pas préparé ? Pourquoi, négro Mes sons dans ton HP, comme un vrai taré Hey, hey, les vrais gars, les nègres savent à qui ils ont à faire Un négro déter', comme les frères que Sarko' met dans un charter Yo J'ai même plus l'temps d'parler, shoot le sheriff sur sa Harley, comme Bob Marley Tu vas t'faire expulser comme nu m, nu m, nu m iei Iei Des fois je vais en club, négro, mais j'danse pas trop sur Stromae Eh J'fais des pompes genre Ali Bomayé, Ayy, boom-boom-boom-boom-ayé Fils de pute de Joke , j'dirais pas ça Moi non plus J'dirais pas ça, j'te jure, Putain d'négro , qu'moi, j'dirais pas ça J'veux du biff, et au lit des catins Yeh Négro, j'm'en bat les couilles d'Oliver Cachin Hein-hein, ces pédés, ils sont pas prêts Hein-hein, ces pédés, ils sont pas prêts Hein-hein, ces pédés, ils sont pas prêts Hein-hein, ces pédés, ils sont pas prêts M.T.P, ils sont pas prêts Hein-hein Yo, Paris, ils sont pas prêts Hein-hein Yo-yo, Tokyo, ils sont pas prêts Hein-hein Yo, London, ils sont pas prêts Hein-hein Yo, M.T.P, ils sont pas prêts Hein-hein Yo, Paris, ils sont pas prêts Hein-hein Yo-yo, London, ils sont pas prêts Hein-hein Fuck, wow Hein, yo Négro La seule vérité dans c't' histoire c'est qu'j'suis levé d'puis 5h du mat', négro Là il est 8 heures, on dort plus, négro, on dort plus M.T.P, négro Hey, hey, hey, hey Jordy, 'as-y 'ci-mer' pour l'beat, négro Wassup M.T.P, nigga3</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Raise it up, raise it up Raise it up, hey Yo yo Y'a comme un gros hic J'viens me faire remarquer comme un gothique Allumé, allumé comme un conique J'te fais un backflip Nikolic Gros il y a pas besoin d'fusils pour des bails hônnetes Quand j'ai leur pussy les filles deviennent des marionnettes Tous les coups sont couplés Mec j'ai coupé court Même sous les tours Les poupées tournent sous C Fais monter la mayonnaise Pression sur l'instru peut faire péter les baromètres Tous ces fils de putes qui hatent finiront par omettre J'viens fixer les tarots, mettre des K.O., payer ma Rolex Faire péter les carreaux mettre des bastos dans la Skyroulette Tu sais qu'on a les nerfs, négro j'insulte pas les mères je les baise Tu sais qu'on a les nerfs, métro pas encore de Mercedes Joue pas les MC, on joue pas avec la nourriture Tu me trouves sur iTunes, brillant parmi toute la pourriture Et on est chés-per, déterminés Comme Jay-Z un coup d'Ether, t'es terminé Je suis en guerre à mon compte, mon compte bancaire On compte, en fait on compte en faire de l'argent comptant ou plein de seum négro MTP nigga Les Monsieur nigga GMG nigga You might also likeParoles expliquées par Rap Genius France !3</t>
+          <t>Raise it up, raise it up Raise it up, hey Yo yo Y'a comme un gros hic J'viens me faire remarquer comme un gothique Allumé, allumé comme un conique J'te fais un backflip Nikolic Gros il y a pas besoin d'fusils pour des bails hônnetes Quand j'ai leur pussy les filles deviennent des marionnettes Tous les coups sont couplés Mec j'ai coupé court Même sous les tours Les poupées tournent sous C Fais monter la mayonnaise Pression sur l'instru peut faire péter les baromètres Tous ces fils de putes qui hatent finiront par omettre J'viens fixer les tarots, mettre des K.O., payer ma Rolex Faire péter les carreaux mettre des bastos dans la Skyroulette Tu sais qu'on a les nerfs, négro j'insulte pas les mères je les baise Tu sais qu'on a les nerfs, métro pas encore de Mercedes Joue pas les MC, on joue pas avec la nourriture Tu me trouves sur iTunes, brillant parmi toute la pourriture Et on est chés-per, déterminés Comme Jay-Z un coup d'Ether, t'es terminé Je suis en guerre à mon compte, mon compte bancaire On compte, en fait on compte en faire de l'argent comptant ou plein de seum négro MTP nigga Les Monsieur nigga GMG nigga Paroles expliquées par Rap Genius France !3</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>FREAKEY!, FREAKEY!.. FREAKEY! FREAKEY!.. Right Right Han Han, il faut des commas Commas Yah Yah, 'ter-comp' des sommes Ter-comp des sommes Right Right, il m'faut le i8 Le i8 Yah Yah, la schneck à C-18 À C-18 Shit, snakes je les é-vite Je les é-vite Il m'faut 1k la mi-nute 'nute Fume mon cannabis, bitch Bitch La Rolex est vintage, 'tage Bé-bé-bé-bé-bébé, fais-moi l'amour Di-or, drippin, baskets Négro, sort le Shenron, négro, sort le dragon On vient pas des mêmes zones, la vie fait pas d'cadeaux D'cadeaux Bébé, fais-moi l'amour Llets-bi, sur le pare-soleil, damier sur le drapeau Di-or, drippin, baskets Négro, sort le Shenron, négro, sort le dragon Dragon You might also like Eh Eh Eh Eh Eh, eh, eh Eh Right Right Han Han, il faut des commas Commas Yah Yah, 'ter-comp' des sommes Ter-comp' des sommes Right Right, il m'faut le i8 Le i8 Yah Yah, la schneck à C-18 À C-18 Shit, snakes je les é-vite Je les é-vite Il m'faut 1k la mi-nute 1k la minute Fume mon cannabis, bitch Bitch La Rolex est vintage, 'tage Infinigga Infinigga, Infinigga..2</t>
+          <t>FREAKEY!, FREAKEY!.. FREAKEY! FREAKEY!.. Right Right Han Han, il faut des commas Commas Yah Yah, 'ter-comp' des sommes Ter-comp des sommes Right Right, il m'faut le i8 Le i8 Yah Yah, la schneck à C-18 À C-18 Shit, snakes je les é-vite Je les é-vite Il m'faut 1k la mi-nute 'nute Fume mon cannabis, bitch Bitch La Rolex est vintage, 'tage Bé-bé-bé-bé-bébé, fais-moi l'amour Di-or, drippin, baskets Négro, sort le Shenron, négro, sort le dragon On vient pas des mêmes zones, la vie fait pas d'cadeaux D'cadeaux Bébé, fais-moi l'amour Llets-bi, sur le pare-soleil, damier sur le drapeau Di-or, drippin, baskets Négro, sort le Shenron, négro, sort le dragon Dragon Eh Eh Eh Eh Eh, eh, eh Eh Right Right Han Han, il faut des commas Commas Yah Yah, 'ter-comp' des sommes Ter-comp' des sommes Right Right, il m'faut le i8 Le i8 Yah Yah, la schneck à C-18 À C-18 Shit, snakes je les é-vite Je les é-vite Il m'faut 1k la mi-nute 1k la minute Fume mon cannabis, bitch Bitch La Rolex est vintage, 'tage Infinigga Infinigga, Infinigga..2</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Négro c'est Joke, c'est Joke a.k.a., a.k.a., a.k.a L'illuminé argent Kryptonite aluminium Tu vas marcher sur les mines que laisse mon cray-crayon Si les meufs me sucent la bite c'est que je suis très très bon En bref, c'est ton décès, sans enterrement Tu crèves la bouche ouverte, les nécrophiles me suivent Les rappeurs vont pas au paradis, ils mentent tellement J'vais donner des coups d'flûte à ces gens qui me sifflent, qui me sifflent Vous verrez tous le Père-Lachaise J'aurais kiffé un feat avec Bernard Buffet Un soir chez Ikea, mais expliquez-moi Comment qu'on f'rait un gros bonnet, parfois je perds la tête J'suis pire que Eric et Ramzy, expliquez-moi J'passe des nuits à quasi m'torturer l'âme Appelez vite la faucheuse qu'on récolte notre blé Nique l'école, vive les colt et les décolletés Yeah, yeah J'veux être empaillé dans mon corps, j'veux du pognon, wow wow J'veux qu'on m'laisse tranquille sur ma tombe, j'veux un faux, nom wow wow Six pieds sous terre J'serai en train d'fumer les MCs du cimetière Je serais comme 2Pac, six pieds sous terre A faire chanter mes chansons par ton p'tit frère, six pieds sous terre You might also like Le jour où je m'ferai éliminer Ca deviendra un putain d'jour férié, ça c'est sûr Je suis trop vache de les laisser ruminer J'suis d'humeur à uriner, appelle tes potes que j'pisse sur leurs blessures Mec je vois des fantômes dans les placards Comme je vois des fantômes dans les traquenards Ils se prennent pour des avions, se croient trop haut Au final, je slalome entre les boites noires J'dirai merci au ciel, à la terre, au sel au poivre A la mer, à la mort, non mes veuves oui Polygame à la mormon et jamais dans la norme Comme jamais à la bonne porte des cloportes Le fait que je sois mortel les réconforte Mec j'rendrais les hommes tarés comme CarreyCarey Tout puissant comme Bruce, le seul auquel on puisse me comparer On m'fera cryogéniser Mec j'mets le rap en pyrolyse comme le gyro' des 'guise-dé', yeah J'veux être empaillé dans mon corps, j'veux du pognon, wow, wow J'veux qu'on me laisse tranquille sur ma tombe, j'veux un faux nom, wow, wow Six pieds sous terre J'serai en train de fumer les MC du cimetière Je serais comme 2Pac, six pieds sous terre A faire chanter mes chansons par ton petit frère, six pieds sous terre Paroles rédigées et expliquées par la communauté RapGenius France1</t>
+          <t>Négro c'est Joke, c'est Joke a.k.a., a.k.a., a.k.a L'illuminé argent Kryptonite aluminium Tu vas marcher sur les mines que laisse mon cray-crayon Si les meufs me sucent la bite c'est que je suis très très bon En bref, c'est ton décès, sans enterrement Tu crèves la bouche ouverte, les nécrophiles me suivent Les rappeurs vont pas au paradis, ils mentent tellement J'vais donner des coups d'flûte à ces gens qui me sifflent, qui me sifflent Vous verrez tous le Père-Lachaise J'aurais kiffé un feat avec Bernard Buffet Un soir chez Ikea, mais expliquez-moi Comment qu'on f'rait un gros bonnet, parfois je perds la tête J'suis pire que Eric et Ramzy, expliquez-moi J'passe des nuits à quasi m'torturer l'âme Appelez vite la faucheuse qu'on récolte notre blé Nique l'école, vive les colt et les décolletés Yeah, yeah J'veux être empaillé dans mon corps, j'veux du pognon, wow wow J'veux qu'on m'laisse tranquille sur ma tombe, j'veux un faux, nom wow wow Six pieds sous terre J'serai en train d'fumer les MCs du cimetière Je serais comme 2Pac, six pieds sous terre A faire chanter mes chansons par ton p'tit frère, six pieds sous terre Le jour où je m'ferai éliminer Ca deviendra un putain d'jour férié, ça c'est sûr Je suis trop vache de les laisser ruminer J'suis d'humeur à uriner, appelle tes potes que j'pisse sur leurs blessures Mec je vois des fantômes dans les placards Comme je vois des fantômes dans les traquenards Ils se prennent pour des avions, se croient trop haut Au final, je slalome entre les boites noires J'dirai merci au ciel, à la terre, au sel au poivre A la mer, à la mort, non mes veuves oui Polygame à la mormon et jamais dans la norme Comme jamais à la bonne porte des cloportes Le fait que je sois mortel les réconforte Mec j'rendrais les hommes tarés comme CarreyCarey Tout puissant comme Bruce, le seul auquel on puisse me comparer On m'fera cryogéniser Mec j'mets le rap en pyrolyse comme le gyro' des 'guise-dé', yeah J'veux être empaillé dans mon corps, j'veux du pognon, wow, wow J'veux qu'on me laisse tranquille sur ma tombe, j'veux un faux nom, wow, wow Six pieds sous terre J'serai en train de fumer les MC du cimetière Je serais comme 2Pac, six pieds sous terre A faire chanter mes chansons par ton petit frère, six pieds sous terre Paroles rédigées et expliquées par la communauté RapGenius France1</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SHK, SHK Bruh, bruh, bruh Bruh, bruh, bruh, bruh Bruh J'fume la beuh grise, tellement qu'tu vois plus sur l'pare-brise, bruh God bless, grâce au COVID, y a plus d'bise On a tous chaud, mais on benda, quand les condés nous disent freeze J'envoie les shots, nigga, nan, j'ai pas le temps de discuss', nan Brrr Attention comment tu speak Bitch Cheveux de MCs bloqués dans mon slip Big boy, diamond authentique, c'est grâce à Nosky Pharaon sur mon jet-pro, poto, ça c'est du no skip Eh-eh-ehh J'ai mon gun sur moi toute l'année Eh-eh-ehh J'vais pas m'Lebron James sous l'panier Nah-nah, nah-nah Eh-eh-ehh Comme les keufs sont longs j'suis armé Eh-eh-ehh J'suis Zola, enculé, j'me permets d'partir deux années Eh-eh-ehh You might also like J'fume le runtz Hey, hey Je mets une liasse de cent billets sur le bun, hey Hey, hey, hey J'fais la prière sur le blunt Pharaoh J'suis Pharaon, bitch J'suis en moonwalk sur le sun Pharaoh Hey, hey, heyy Attention, comment tu speak J'fais confiance à aucun rappeur, c'est des suce-bites That's right J'étais pas là, ils m'ont sucé comme des moustiques That's right J'vais dans l'club, j'ramasse les freaks, et j'ramasse tout l'fric Tout l'fric Hey, hey, hey J'ai des fleurs de L.A, sûr que j'les mets dans le blunt Smoke in Je suis frais et zélé, elles vont m'pe-pom' dans le tub Go J'suis à l'aise, pepele, quand j'suis posé dans le slum Eh-eh-ehh J'ai mon gun sur moi toute l'année Hey, hey J'vais pas m'Lebron James sous l'panier Ohh Comme les keufs sont longs j'suis armé Armé J'suis Zola, enculé, j'me permets d'partir deux années Let's go, let's go J'ai mon gun sur moi toute l'année Eh-eh-ehh J'vais pas m'Lebron James sous l'panier Nah-nah, nah-nah Eh-eh-ehh Comme les keufs sont longs j'suis armé Eh-eh-ehh J'suis Zola, enculé, j'me permets d'partir deux années Eh-eh-ehh Finish him J'ai dit finish him J'ai dit finish him Yeah, yeah, yeah J'ai dit finish him Yeah Munitions au max 228 in this bitch, my nigga Lomé, Kinshasa in this bitch Shout-out mes zaïrois Pharaoh on this bitch</t>
+          <t>SHK, SHK Bruh, bruh, bruh Bruh, bruh, bruh, bruh Bruh J'fume la beuh grise, tellement qu'tu vois plus sur l'pare-brise, bruh God bless, grâce au COVID, y a plus d'bise On a tous chaud, mais on benda, quand les condés nous disent freeze J'envoie les shots, nigga, nan, j'ai pas le temps de discuss', nan Brrr Attention comment tu speak Bitch Cheveux de MCs bloqués dans mon slip Big boy, diamond authentique, c'est grâce à Nosky Pharaon sur mon jet-pro, poto, ça c'est du no skip Eh-eh-ehh J'ai mon gun sur moi toute l'année Eh-eh-ehh J'vais pas m'Lebron James sous l'panier Nah-nah, nah-nah Eh-eh-ehh Comme les keufs sont longs j'suis armé Eh-eh-ehh J'suis Zola, enculé, j'me permets d'partir deux années Eh-eh-ehh J'fume le runtz Hey, hey Je mets une liasse de cent billets sur le bun, hey Hey, hey, hey J'fais la prière sur le blunt Pharaoh J'suis Pharaon, bitch J'suis en moonwalk sur le sun Pharaoh Hey, hey, heyy Attention, comment tu speak J'fais confiance à aucun rappeur, c'est des suce-bites That's right J'étais pas là, ils m'ont sucé comme des moustiques That's right J'vais dans l'club, j'ramasse les freaks, et j'ramasse tout l'fric Tout l'fric Hey, hey, hey J'ai des fleurs de L.A, sûr que j'les mets dans le blunt Smoke in Je suis frais et zélé, elles vont m'pe-pom' dans le tub Go J'suis à l'aise, pepele, quand j'suis posé dans le slum Eh-eh-ehh J'ai mon gun sur moi toute l'année Hey, hey J'vais pas m'Lebron James sous l'panier Ohh Comme les keufs sont longs j'suis armé Armé J'suis Zola, enculé, j'me permets d'partir deux années Let's go, let's go J'ai mon gun sur moi toute l'année Eh-eh-ehh J'vais pas m'Lebron James sous l'panier Nah-nah, nah-nah Eh-eh-ehh Comme les keufs sont longs j'suis armé Eh-eh-ehh J'suis Zola, enculé, j'me permets d'partir deux années Eh-eh-ehh Finish him J'ai dit finish him J'ai dit finish him Yeah, yeah, yeah J'ai dit finish him Yeah Munitions au max 228 in this bitch, my nigga Lomé, Kinshasa in this bitch Shout-out mes zaïrois Pharaoh on this bitch</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Quand j'étais p'tit, j'montrais mes canines aux shtars J'voulais représenter, Paris au sale Expert en mauvaise conduite Mario Kart Quand il s'agit d'flow, Phaal Le parigo fait ça pour les grands et les p'tits Haribo Style Faire que le beat s'embrasse, ça c'est mon rôle Mon père m'fesait taffer mon crawl Après que Pete Samprass est gagné son trophée Si j't'en parle, c'est qu'c'était le bon vieux time Pour nous, c'était inconcevable De s'défonce le crâne, avec des cons' de hasch Moi, j'voulais être un bonze de shaolin Marre de voir les scandales passer, j'vais m'casser, XXX Tellement d'hypocrites, cette ville est un grand bal masqué C'était moins navrant avant. Non mais, attends... Tu vois mon pote, là-bas ? Il a de l'afghan à vendre... J'ai mille cicatrices dont j'me rappelle plus d'comment j'm'étais blessé Tiens, j'vais parler du passé, je n'dirais plus c'était mais c'est Histoire d'vous plonger dedans Rembobine jusqu'à mes premières rangées d'dents Ce spectacle est ma vie, tu l'verras en grand écran Je passe mon temps avec la Super Nes et l'daron, big est l'époque Dans le short, je vole les billets, les pogs Maman me vidant les poches Je devais rafler la mise car j'niquais mes potes Et à 10 piges, j'suis déjà un hustla' car j'vis de mes trocs Partout où j'passe ça sent le parfum, parfois pas l'bon J'me sens attiré, comme vos papas, par les sales catins, pardon Je m'isole et reste à tirer sur ma corde raide Tu rigolerais presque en m'voyant attirer ces corps de rêves J'suis un lève-tard, même trop, j'en oublie mes outils scolaires Après cette journée d'merde, j'garde le sourire aux lèvres Et si j'entends, on dit qu'un sale noir pourri au lait J'sais qu'c'est mon pote, Jiddy, qui m'dit ça pour rigoler You might also like Ne dis pas que j'suis pas déter', ce serait des salades Depuis petit, j'escalade, et j'ai grandi sur un carré vert J'suis pas c'gars sévère qu'a des gimmicks en résèrve Wesh, wesh, yo, c'est Bunk, t'as vu, ça j'sais faire Y'a, euh... Nan, j'parlais d'herbe, de dose sale, de gars très fiers J'me pavanais dans la street avec des coste-La pas très chers C'est pas très sérieux, j'crois même que ça m'énerve Je crois que je deviens vieux et j'contrôle pas mes nerfs Ok, juste un petit XXX pépère On ne se fait passer pour personne, écoute en boucle, si c'est pas très clair Oui, mais ça c'est certainement comme une douche à l'éther Dans ma petite histoire, tout l'monde rappe XXX J'suis pas fou, nan, nan, ne regarde pas mes cernes Fais pas le psy même si ça t'enchante, tu ne connais pas les termes XXX tous barrés, sérieusement, en douce, allelujah J'suis tellement écuré, qu'même au resto, je ne prends pas d'dessert J'arrive, gonflé, comme une paire de Nike Air La vie ça tient à des chiffres Tu peux ramasser un vieux billet de 50 balles, perdu Ou une grosse balle perdue Finir paraplégique, par terre Yo, c'est quoi les bails, frère ? Yo, c'est quoi le deal, couz' ? En équipe, on est quittes que quand on les kille tous Le flow de 3012, j'débarque en jante 1000 pouces J'fais partie d'la FF, gros, tellement j'nique tout Mettre un gilet pare-balles t'écartes pas des trous d'balle Ces mecs nous écoutent pas, n'comprennent que les coups d'batte J'vois rapper beaucoup d'gars, et ils se croient tous dars Ils écoutent que Tyga, genre leurs meufs en touze-par Et pourtant, là, j'pousse pas, j'baise une tass' sur le dos J'baise l'instru sur le ré Hey, hey, hey...1</t>
+          <t>Quand j'étais p'tit, j'montrais mes canines aux shtars J'voulais représenter, Paris au sale Expert en mauvaise conduite Mario Kart Quand il s'agit d'flow, Phaal Le parigo fait ça pour les grands et les p'tits Haribo Style Faire que le beat s'embrasse, ça c'est mon rôle Mon père m'fesait taffer mon crawl Après que Pete Samprass est gagné son trophée Si j't'en parle, c'est qu'c'était le bon vieux time Pour nous, c'était inconcevable De s'défonce le crâne, avec des cons' de hasch Moi, j'voulais être un bonze de shaolin Marre de voir les scandales passer, j'vais m'casser, XXX Tellement d'hypocrites, cette ville est un grand bal masqué C'était moins navrant avant. Non mais, attends... Tu vois mon pote, là-bas ? Il a de l'afghan à vendre... J'ai mille cicatrices dont j'me rappelle plus d'comment j'm'étais blessé Tiens, j'vais parler du passé, je n'dirais plus c'était mais c'est Histoire d'vous plonger dedans Rembobine jusqu'à mes premières rangées d'dents Ce spectacle est ma vie, tu l'verras en grand écran Je passe mon temps avec la Super Nes et l'daron, big est l'époque Dans le short, je vole les billets, les pogs Maman me vidant les poches Je devais rafler la mise car j'niquais mes potes Et à 10 piges, j'suis déjà un hustla' car j'vis de mes trocs Partout où j'passe ça sent le parfum, parfois pas l'bon J'me sens attiré, comme vos papas, par les sales catins, pardon Je m'isole et reste à tirer sur ma corde raide Tu rigolerais presque en m'voyant attirer ces corps de rêves J'suis un lève-tard, même trop, j'en oublie mes outils scolaires Après cette journée d'merde, j'garde le sourire aux lèvres Et si j'entends, on dit qu'un sale noir pourri au lait J'sais qu'c'est mon pote, Jiddy, qui m'dit ça pour rigoler Ne dis pas que j'suis pas déter', ce serait des salades Depuis petit, j'escalade, et j'ai grandi sur un carré vert J'suis pas c'gars sévère qu'a des gimmicks en résèrve Wesh, wesh, yo, c'est Bunk, t'as vu, ça j'sais faire Y'a, euh... Nan, j'parlais d'herbe, de dose sale, de gars très fiers J'me pavanais dans la street avec des coste-La pas très chers C'est pas très sérieux, j'crois même que ça m'énerve Je crois que je deviens vieux et j'contrôle pas mes nerfs Ok, juste un petit XXX pépère On ne se fait passer pour personne, écoute en boucle, si c'est pas très clair Oui, mais ça c'est certainement comme une douche à l'éther Dans ma petite histoire, tout l'monde rappe XXX J'suis pas fou, nan, nan, ne regarde pas mes cernes Fais pas le psy même si ça t'enchante, tu ne connais pas les termes XXX tous barrés, sérieusement, en douce, allelujah J'suis tellement écuré, qu'même au resto, je ne prends pas d'dessert J'arrive, gonflé, comme une paire de Nike Air La vie ça tient à des chiffres Tu peux ramasser un vieux billet de 50 balles, perdu Ou une grosse balle perdue Finir paraplégique, par terre Yo, c'est quoi les bails, frère ? Yo, c'est quoi le deal, couz' ? En équipe, on est quittes que quand on les kille tous Le flow de 3012, j'débarque en jante 1000 pouces J'fais partie d'la FF, gros, tellement j'nique tout Mettre un gilet pare-balles t'écartes pas des trous d'balle Ces mecs nous écoutent pas, n'comprennent que les coups d'batte J'vois rapper beaucoup d'gars, et ils se croient tous dars Ils écoutent que Tyga, genre leurs meufs en touze-par Et pourtant, là, j'pousse pas, j'baise une tass' sur le dos J'baise l'instru sur le ré Hey, hey, hey...1</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>J'rentre un chèque, j'sors d'l'asile, What up ? nigga, j'sors ma weed Fuck la bise, j'sors ma dick, What up ? nigga, j'sors d'l'Afrique, Oui, oui, oui J'sors d'mon corps, j'sors d'la ville, fuck un nigga, fuck un nigga J'sors une liasse, on dirait qu'j'sors la Bible, j'la transforme en matière volatile That's all I gotta do, les diamants virevoltent dans le cou J'laisse les bâtards dans le flou, j'laisse les bâtards dans le flou J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk Oui J'fume Purple Haze, j'fais un Moonwalk, Oui, j'fume Purple Haze, j'fais un Moonwalk, Hm, hm J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Purple, wow, j'fume Purple Haze Clap et clap dans ta chatte, j'rentre et le film est dans la boîte Négro, l'flow irremplaçable, j'nique deux trois copines en cascade P'tite je pense avec ma bite, mets-toi où j'pense, là où j'pense Nique sa mère la souffrance, y a d'la drogue à outrance You might also like Train d'vie financé par les 'gue-sh' Wo-o-ow, j'l'ai attrapée par les 'veux-che' Toi qui roule ma OG Kush, t'inquiètes roule ma OG Kush J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Haze, j'fais un Moonwalk, j'fume Purple Haze, j'fais un Moonwalk J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Haze Purple, j'fume Purple Haze Purple J'suis synchronisé, my nigga</t>
+          <t>J'rentre un chèque, j'sors d'l'asile, What up ? nigga, j'sors ma weed Fuck la bise, j'sors ma dick, What up ? nigga, j'sors d'l'Afrique, Oui, oui, oui J'sors d'mon corps, j'sors d'la ville, fuck un nigga, fuck un nigga J'sors une liasse, on dirait qu'j'sors la Bible, j'la transforme en matière volatile That's all I gotta do, les diamants virevoltent dans le cou J'laisse les bâtards dans le flou, j'laisse les bâtards dans le flou J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk Oui J'fume Purple Haze, j'fais un Moonwalk, Oui, j'fume Purple Haze, j'fais un Moonwalk, Hm, hm J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Purple, wow, j'fume Purple Haze Clap et clap dans ta chatte, j'rentre et le film est dans la boîte Négro, l'flow irremplaçable, j'nique deux trois copines en cascade P'tite je pense avec ma bite, mets-toi où j'pense, là où j'pense Nique sa mère la souffrance, y a d'la drogue à outrance Train d'vie financé par les 'gue-sh' Wo-o-ow, j'l'ai attrapée par les 'veux-che' Toi qui roule ma OG Kush, t'inquiètes roule ma OG Kush J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Haze, j'fais un Moonwalk, j'fume Purple Haze, j'fais un Moonwalk J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Haze Purple, j'fume Purple Haze Purple J'suis synchronisé, my nigga</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>FREAKEY! FREAKEY!, FREAKEY! Wah Infinigga FREAKEY! FREAKEY! Gaddamn J'ai mojo shamanique, yeah, Yeah Elle a confiance en ma dick, yeah Elle aime sucette à l'anis, yeah waw Elle lèche sucette à lanis, yeah Je la cuisine comme le crack, j'épouse ses formes J'vais la couper sur le coupé sport, j'lui casse le 'vu-'vu l'après-midi Le soleil découpé sous les stores, quand j'dis qu'j'les baise le coeur y est Numéro d'phone-tél' sur un billet, j'suis dans le carré, je coache cs bitches Ball comme en WNBA Dans l'VIP comm au coffee shop Dans la tête d'une top-model, à la tête du top IFOP, oui-oui-oui Elle suce comme une polyglotte, tous ces négros m'copient-collent Je dois vendre coke, shit, clopes, oui-oui-oui You might also like J'ai mojo shamanique, yeah Elle a confiance en ma dick, yeah Elle aime sucette à lanis, oui-oui-oui-oui Elle lèche sucette à lanis, yah, Yah J'suis sous pussy, cannabis Si t'es pas tu m'feras pas la bise J'suis en Yeezy Season 10, swagg à Anakin Pour la p'tite Paradise, pour moi Henny Paradis, yeah Yeah Shut the fuck up, j'pop un Petrus Négro j'suis frais comme un foetus Oui Suis ta vision panoramique, j'fais pas d'mea culpa, -pas J'ai une déesse sous l'bras, -bras, j'suis ultra-ultra-ultra J'ai mojo shamanique, yeah Elle a confiance en ma dick, yeah waw Elle aime sucette à lanis, oui-oui-oui-oui Elle lèche sucette à lanis, yah1</t>
+          <t>FREAKEY! FREAKEY!, FREAKEY! Wah Infinigga FREAKEY! FREAKEY! Gaddamn J'ai mojo shamanique, yeah, Yeah Elle a confiance en ma dick, yeah Elle aime sucette à l'anis, yeah waw Elle lèche sucette à lanis, yeah Je la cuisine comme le crack, j'épouse ses formes J'vais la couper sur le coupé sport, j'lui casse le 'vu-'vu l'après-midi Le soleil découpé sous les stores, quand j'dis qu'j'les baise le coeur y est Numéro d'phone-tél' sur un billet, j'suis dans le carré, je coache cs bitches Ball comme en WNBA Dans l'VIP comm au coffee shop Dans la tête d'une top-model, à la tête du top IFOP, oui-oui-oui Elle suce comme une polyglotte, tous ces négros m'copient-collent Je dois vendre coke, shit, clopes, oui-oui-oui J'ai mojo shamanique, yeah Elle a confiance en ma dick, yeah Elle aime sucette à lanis, oui-oui-oui-oui Elle lèche sucette à lanis, yah, Yah J'suis sous pussy, cannabis Si t'es pas tu m'feras pas la bise J'suis en Yeezy Season 10, swagg à Anakin Pour la p'tite Paradise, pour moi Henny Paradis, yeah Yeah Shut the fuck up, j'pop un Petrus Négro j'suis frais comme un foetus Oui Suis ta vision panoramique, j'fais pas d'mea culpa, -pas J'ai une déesse sous l'bras, -bras, j'suis ultra-ultra-ultra J'ai mojo shamanique, yeah Elle a confiance en ma dick, yeah waw Elle aime sucette à lanis, oui-oui-oui-oui Elle lèche sucette à lanis, yah1</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>All of my niggas be trapping, all of my niggas be snapping All of my niggas be splurging, we rocking designer jackets All of my niggas is savage, all of my niggas is ratchet All of my niggas be trapping, all of my niggas be trapping All of my niggas be trapping, my niggas really 'bout action My niggas into that fashion, but we stay strapped with that ratchet I just hit Paris baby girl, I just had ? Know this is not a ?, bitch, this is a ass kick If a nigga run up on me you know that Glock on me be blasting When I pull up to the scene, all of the cameras be flashing You cannot come to the crib, bitch, please just stop asking All of my niggas be trapping, all of my niggas be trapping I hit a lick on the plug, just took them drugs off the mansion I got molly for a dub, serving the strippers they dancing Mixing the Zan with the mud, I'm in the club like what's happening? All of my niggas be trapping, like selling drugs is our passion My niggas are killers I hang with the drillers They rob with their pistols That shit that gone get you We smoking the chinese, the Rollie the Rollie No lacking be trapping, my niggas be holding I'm pouring the brick while I'm serving the shit And I'm pimping these hoes, I can serve your bitch Cuz I ride with the stick, got designer on me bitch I got some shooters that'll body a bitch I'm shooting the shotty, I don't know karate bitch I got some shooters that'll body a bitch I'm shooting the shotty, I don't know karate bitch You might also like All of my niggas be trapping, all of my niggas be snapping All of my niggas be splurging, we rocking designer jackets All of my niggas is savage, all of my niggas is ratchet All of my niggas be trapping, all of my niggas be trapping 2050, soit t'es chômeur, t'es patron, soit t'es intérimaire La DeLorean est chargée pour ken Aaliyah et partouzer Hitler DeLorean chargée, pistolet en carbone et divers polymères Nique Tony Montana, je veux rouler en Aston comme un Tony Blair Quoi ? J'écris comme un... mamen C'est moi sur la comète, je contourne l'atmosphère Rafale dans leur prothèses mammaires merde ! Oooh... merde ! Fumée, de la vodka, sers-moi un MD Coca J'me défonce pas avec des connasses Avant que les coups parlent Bois des coups avec les coupables Ma part est indécoupable Mate la pute là-bas, elle bouge, elle est sur la barre J'vais la fourrer par pur hasard, bande de bâtards Tu peux me croiser sur la 4, plus khabat que le plus khabat J'vous encule la chatte, négro, j'vous encule la chatte J'suis vulgaire, j'vous encule la chatte, j'vous encule la chatte Vous êtes du pain béni pour ma patte Faut beaucoup de courage pour m'abattre J'en ai marre de oit Suce-moi si t'as les mains moites J'fais des miracles avec mes cinq oigts-d Tu me rencontres en boîte J't'attrape, je te doigte, on s'emboîte J't'attrape, je te doigte, on s'emboîte On va pas les aider All of my niggas be trapping, all of my niggas be snapping All of my niggas be splurging, we rocking designer jackets All of my niggas is savage, all of my niggas is ratchet All of my niggas be trapping, all of my niggas be trapping2</t>
+          <t>All of my niggas be trapping, all of my niggas be snapping All of my niggas be splurging, we rocking designer jackets All of my niggas is savage, all of my niggas is ratchet All of my niggas be trapping, all of my niggas be trapping All of my niggas be trapping, my niggas really 'bout action My niggas into that fashion, but we stay strapped with that ratchet I just hit Paris baby girl, I just had ? Know this is not a ?, bitch, this is a ass kick If a nigga run up on me you know that Glock on me be blasting When I pull up to the scene, all of the cameras be flashing You cannot come to the crib, bitch, please just stop asking All of my niggas be trapping, all of my niggas be trapping I hit a lick on the plug, just took them drugs off the mansion I got molly for a dub, serving the strippers they dancing Mixing the Zan with the mud, I'm in the club like what's happening? All of my niggas be trapping, like selling drugs is our passion My niggas are killers I hang with the drillers They rob with their pistols That shit that gone get you We smoking the chinese, the Rollie the Rollie No lacking be trapping, my niggas be holding I'm pouring the brick while I'm serving the shit And I'm pimping these hoes, I can serve your bitch Cuz I ride with the stick, got designer on me bitch I got some shooters that'll body a bitch I'm shooting the shotty, I don't know karate bitch I got some shooters that'll body a bitch I'm shooting the shotty, I don't know karate bitch All of my niggas be trapping, all of my niggas be snapping All of my niggas be splurging, we rocking designer jackets All of my niggas is savage, all of my niggas is ratchet All of my niggas be trapping, all of my niggas be trapping 2050, soit t'es chômeur, t'es patron, soit t'es intérimaire La DeLorean est chargée pour ken Aaliyah et partouzer Hitler DeLorean chargée, pistolet en carbone et divers polymères Nique Tony Montana, je veux rouler en Aston comme un Tony Blair Quoi ? J'écris comme un... mamen C'est moi sur la comète, je contourne l'atmosphère Rafale dans leur prothèses mammaires merde ! Oooh... merde ! Fumée, de la vodka, sers-moi un MD Coca J'me défonce pas avec des connasses Avant que les coups parlent Bois des coups avec les coupables Ma part est indécoupable Mate la pute là-bas, elle bouge, elle est sur la barre J'vais la fourrer par pur hasard, bande de bâtards Tu peux me croiser sur la 4, plus khabat que le plus khabat J'vous encule la chatte, négro, j'vous encule la chatte J'suis vulgaire, j'vous encule la chatte, j'vous encule la chatte Vous êtes du pain béni pour ma patte Faut beaucoup de courage pour m'abattre J'en ai marre de oit Suce-moi si t'as les mains moites J'fais des miracles avec mes cinq oigts-d Tu me rencontres en boîte J't'attrape, je te doigte, on s'emboîte J't'attrape, je te doigte, on s'emboîte On va pas les aider All of my niggas be trapping, all of my niggas be snapping All of my niggas be splurging, we rocking designer jackets All of my niggas is savage, all of my niggas is ratchet All of my niggas be trapping, all of my niggas be trapping2</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>24 Tu peux mettre plus de son que dans le casque s'teuplé ? M.T.P. Non, juste la prod Ouais, le'ggo Yeah Ouais'y Hein Poignée Rolex tombe sous Cartier Ouh J'suis le meilleur sur le papier J'suis le meilleur sur le papier, wouh Toile de maître, c'est Edgar Degas J'vais rafaler la bodega pour m'payer dernier Omega Hm, pah-pah Mes druggies ils visent la tête Tes narines subissent la cess Ta 'tasse mon pubis l'apaise Hé-héé J'veux la plus belle fleur sur la montagne Elle veut que j'la raccompagne Si elle suce pas qu'elle nique sa mère Ouh-ouh-ouhh You might also like Poignée Rolex tombe sous Cartier J'suis le meilleur sur le papier J'suis le meilleur sur le papier, wouh Toile de maître, c'est Edgar Degas J'vais rafaler la bodega pour m'payer dernier Omega Sheesh, omega Omega, oh Omega, omega Omega, omega, ohh Omega, oh Omega, omega Omega, omega, ohh Hé, yeah Grand, pouvoir télékinésique J'pète le meilleur millésime Chaque soir pétasse inédite Garantie de tirer vite, grosses calandres sur des Pirelli Le bruit d'la compteuse à billets, gène les rappeurs qui révisent Aboule vite la monnaie, baise la politesse J'veux t'voir tatouer mon 'ze-bla' en énorme sur tes jolies fesses J'fais la cour, j'fais l'apologie d'l'amour comme Apollinaire Laisse la folie faire, ma balle va traverser ta putain d'manche en solitaire Poignée Rolex tombe sous Cartier J'suis le meilleur sur le papier J'suis le meilleur sur le papier, wouh Toile de maître, c'est Edgar Degas J'vais rafaler la bodega pour m'payer dernier Omega Sheesh, omega Omega, oh Omega, omega Omega, omega, ohh Oh-oh, ohh Omega, oh Omega, omega Omega, omega, ohh Hé, yeah Hein, heein Quand tu m'suces, j'te souris dans tes yeu'z Hein, heein C'qui nous pousse c'est la monnaie, baby Hein, heein C'qui nous pousse c'est la monnaie, baby Hein, heein Omega Yeah, M.T.P Encore, toujours 24 carats, négro Wouh Hein Tout l'monde se lève pour cette putain d'monnaie JA7CEE, JA7CEE, JA7CEE1</t>
+          <t>24 Tu peux mettre plus de son que dans le casque s'teuplé ? M.T.P. Non, juste la prod Ouais, le'ggo Yeah Ouais'y Hein Poignée Rolex tombe sous Cartier Ouh J'suis le meilleur sur le papier J'suis le meilleur sur le papier, wouh Toile de maître, c'est Edgar Degas J'vais rafaler la bodega pour m'payer dernier Omega Hm, pah-pah Mes druggies ils visent la tête Tes narines subissent la cess Ta 'tasse mon pubis l'apaise Hé-héé J'veux la plus belle fleur sur la montagne Elle veut que j'la raccompagne Si elle suce pas qu'elle nique sa mère Ouh-ouh-ouhh Poignée Rolex tombe sous Cartier J'suis le meilleur sur le papier J'suis le meilleur sur le papier, wouh Toile de maître, c'est Edgar Degas J'vais rafaler la bodega pour m'payer dernier Omega Sheesh, omega Omega, oh Omega, omega Omega, omega, ohh Omega, oh Omega, omega Omega, omega, ohh Hé, yeah Grand, pouvoir télékinésique J'pète le meilleur millésime Chaque soir pétasse inédite Garantie de tirer vite, grosses calandres sur des Pirelli Le bruit d'la compteuse à billets, gène les rappeurs qui révisent Aboule vite la monnaie, baise la politesse J'veux t'voir tatouer mon 'ze-bla' en énorme sur tes jolies fesses J'fais la cour, j'fais l'apologie d'l'amour comme Apollinaire Laisse la folie faire, ma balle va traverser ta putain d'manche en solitaire Poignée Rolex tombe sous Cartier J'suis le meilleur sur le papier J'suis le meilleur sur le papier, wouh Toile de maître, c'est Edgar Degas J'vais rafaler la bodega pour m'payer dernier Omega Sheesh, omega Omega, oh Omega, omega Omega, omega, ohh Oh-oh, ohh Omega, oh Omega, omega Omega, omega, ohh Hé, yeah Hein, heein Quand tu m'suces, j'te souris dans tes yeu'z Hein, heein C'qui nous pousse c'est la monnaie, baby Hein, heein C'qui nous pousse c'est la monnaie, baby Hein, heein Omega Yeah, M.T.P Encore, toujours 24 carats, négro Wouh Hein Tout l'monde se lève pour cette putain d'monnaie JA7CEE, JA7CEE, JA7CEE1</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Yes, bitch Oui, bitch Oui, salope Il m'faut la Ghost, faut la Phantom Yah J'te vends la coke comme à Cancún Il m'faut les M, j'veux pas qu'elle m'aime Fuck 'em J't'allume tout seul, j'suis l'one man gang Pa-pa Il m'faut la Ghost, faut la Phantom J'te vends la coke comme à Cancún Il m'faut les M, j'veux pas qu'elle m'aime J't'allume tout seul, j'suis l'one man gang J'pull up sur toi chaud comme Dame Dash, It's The Roc Tu veux mon juice, faut qu'tu payes cash J'te tire la natte, Diddy take that Take that, take that, take that Twerk à quatre patts sur la Maybach Faut la monnaie, jeune négro armé comm l'armée What ? Faut l'infini, il m'faut une liasse qui s'arrête jamais Wah J'suis tout mignon, pourtant j'sais qu'j'ai une tête crâmée Il m'faut le million, il m'faut une liasse qui s'arrête jamais You might also like MC-MC Spade, but don't understand Pimpin' from the South, Big Red Rudy with a master plan, ma-master plan Mc-Mc Spade, but don't understand Pimpin' from the South, Big Red Rudy with a master plan, ma-master plan, ma- Il m'faut la Ghost, faut la Phantom J'te vends la coke comme à Cancún Il m'faut les M, j'veux pas qu'elle m'aime J't'allume tout seul, j'suis l'one man gang Il m'faut la Ghost, faut la Phantom J'te vends la coke comme à Cancún Il m'faut les M, j'veux pas qu'elle m'aime J't'allume tout seul, j'suis l'one man gang Infinigga Bone Collector the plug</t>
+          <t>Yes, bitch Oui, bitch Oui, salope Il m'faut la Ghost, faut la Phantom Yah J'te vends la coke comme à Cancún Il m'faut les M, j'veux pas qu'elle m'aime Fuck 'em J't'allume tout seul, j'suis l'one man gang Pa-pa Il m'faut la Ghost, faut la Phantom J'te vends la coke comme à Cancún Il m'faut les M, j'veux pas qu'elle m'aime J't'allume tout seul, j'suis l'one man gang J'pull up sur toi chaud comme Dame Dash, It's The Roc Tu veux mon juice, faut qu'tu payes cash J'te tire la natte, Diddy take that Take that, take that, take that Twerk à quatre patts sur la Maybach Faut la monnaie, jeune négro armé comm l'armée What ? Faut l'infini, il m'faut une liasse qui s'arrête jamais Wah J'suis tout mignon, pourtant j'sais qu'j'ai une tête crâmée Il m'faut le million, il m'faut une liasse qui s'arrête jamais MC-MC Spade, but don't understand Pimpin' from the South, Big Red Rudy with a master plan, ma-master plan Mc-Mc Spade, but don't understand Pimpin' from the South, Big Red Rudy with a master plan, ma-master plan, ma- Il m'faut la Ghost, faut la Phantom J'te vends la coke comme à Cancún Il m'faut les M, j'veux pas qu'elle m'aime J't'allume tout seul, j'suis l'one man gang Il m'faut la Ghost, faut la Phantom J'te vends la coke comme à Cancún Il m'faut les M, j'veux pas qu'elle m'aime J't'allume tout seul, j'suis l'one man gang Infinigga Bone Collector the plug</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>On va pas les aider, on va pas les aider On va pas les aider, on va pas les aider 3.4 Jokeezy 9.1 Hein, heein Juice Hein, heein Hein Hein, heein Ils veulent tous manger mais y a qu'une assiette Mon flow t'encule, il t'encule à sec Tat' sur la gueule, turban sur la tête J'ride dans le coin si ça pue la schneck Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça As-tu entendu le bruit du pétard ? Quand la fumée se dissipe j'suis à-l Jamais trop loin des ambiances noires et sales Gâchette facile, mes mogos rafalent You might also like Tu peux pas tester mes nègres comme ça On va pas les aider Tu peux pas tester mes nègres comme ça On va pas les aider Tu peux pas tester mes nègres comme ça On va pas les aider Tu peux pas tester mes nègres comme ça Le bon Dieu nous a créé tous égaux Oh Y'en a qui font rien, y'en a qui font des do' Do' Des faux potos qui t'schlass dans le dos pour des gows Wow, 're-noi' mets-les sur l'té-cô' J'espère qu'tu suces bien, mes nègres sont mal léchés Quand j'rappe y'a pas d'déchets, mes nègres vont pas t'laisser J'te fume, j'vais pas t'blesser Chaque fessée, barre dressée J'te pisse dessus comme si y a pas d'W.C Tu peux pas tester mes nègres comme ça, heein Tu peux pas tester mes nègres comme ça Tu peux pas tester mes nègres comme ça Tu peux pas tester mes nègres comme ça Hein Tu peux pas tester mes nègres comme ça Heein Tu peux pas tester mes nègres comme ça Heein Tu peux pas tester mes nègres comme ça Heein Tu peux pas tester mes nègres comme ça Heein Tu peux pas test' mes nègres comme ça Ils te pendent du haut de l'hélico' comme Sosa Pour faire des sous faut des couilles, impossible sans ça Juicy P, LMC Click arrive dans l'bail sensas' Nique sa mère la police, nique sa mère la politique J'fume du shit dans les trains et lieux publics Ils m'ont demandé d'aller voter, j'leur ai dit donnez moi du fric Tu peux pas test mes 3afrit Ils veulent tous manger mais y a qu'une assiette Mon flow t'encule, il t'encule à sec Tat' sur la gueule, turban sur la tête J'ride dans le coin si ça pue la schneck Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça As-tu entendu le bruit du pétard ? Quand la fumée se dissipe j'suis à-l Jamais trop loin des ambiances noires et sales Gâchette facile, mes mogos rafalent Tu peux pas tester mes nègres comme ça On va pas les aider Tu peux pas tester mes nègres comme ça On va pas les aider Tu peux pas tester mes nègres comme ça On va pas les aider Tu peux pas tester mes nègres comme ça On s'propage comme des métastases La scène cristallise tous tes fantasmes Moi j'aime l'argent, j'aime pas les castagnes J'appelle les grands frères, j'leur 'pose-dé' Pascal Ça ride, cascade, en intégral casque Le coin d'ton crâne va frapper l'asphalte Tu t'crois dangereux, parce qu't'as dis macaque J'enfile ta 'tasse, comme j'enfile ma cape On va pas les aider On fait ceci, on fait cela Vouloir nous test, négro, c'est cela On bicravera de la cess là ou de la Sinsemilia aux enfants d'Cécilia Et toi, fils de pute, tu veux marcher sur nous On a ces joujoux qui font des putains d'trous Tu veux te faire une idée ? Arrête toi au feu rouge 91'zer, mes négros shootent Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça Oh Tu peux pas test' mes nègres comme ça Tu peux pas test' mes nègres comme ça Tu peux pas test' mes nègres comme ça Tu peux pas test' mes nègres comme ça As-tu entendu le bruit du pétard ? Quand la fumée se dissipe j'suis al' Jamais trop loin des ambiances noires et sales Gâchette facile, mes mogos rafalent Tu peux pas tester mes nègres comme ça Tu peux pas tester mes nègres comme ça Tu peux pas tester mes nègres comme ça Tu peux pas tester mes nègres comme ça5</t>
+          <t>On va pas les aider, on va pas les aider On va pas les aider, on va pas les aider 3.4 Jokeezy 9.1 Hein, heein Juice Hein, heein Hein Hein, heein Ils veulent tous manger mais y a qu'une assiette Mon flow t'encule, il t'encule à sec Tat' sur la gueule, turban sur la tête J'ride dans le coin si ça pue la schneck Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça As-tu entendu le bruit du pétard ? Quand la fumée se dissipe j'suis à-l Jamais trop loin des ambiances noires et sales Gâchette facile, mes mogos rafalent Tu peux pas tester mes nègres comme ça On va pas les aider Tu peux pas tester mes nègres comme ça On va pas les aider Tu peux pas tester mes nègres comme ça On va pas les aider Tu peux pas tester mes nègres comme ça Le bon Dieu nous a créé tous égaux Oh Y'en a qui font rien, y'en a qui font des do' Do' Des faux potos qui t'schlass dans le dos pour des gows Wow, 're-noi' mets-les sur l'té-cô' J'espère qu'tu suces bien, mes nègres sont mal léchés Quand j'rappe y'a pas d'déchets, mes nègres vont pas t'laisser J'te fume, j'vais pas t'blesser Chaque fessée, barre dressée J'te pisse dessus comme si y a pas d'W.C Tu peux pas tester mes nègres comme ça, heein Tu peux pas tester mes nègres comme ça Tu peux pas tester mes nègres comme ça Tu peux pas tester mes nègres comme ça Hein Tu peux pas tester mes nègres comme ça Heein Tu peux pas tester mes nègres comme ça Heein Tu peux pas tester mes nègres comme ça Heein Tu peux pas tester mes nègres comme ça Heein Tu peux pas test' mes nègres comme ça Ils te pendent du haut de l'hélico' comme Sosa Pour faire des sous faut des couilles, impossible sans ça Juicy P, LMC Click arrive dans l'bail sensas' Nique sa mère la police, nique sa mère la politique J'fume du shit dans les trains et lieux publics Ils m'ont demandé d'aller voter, j'leur ai dit donnez moi du fric Tu peux pas test mes 3afrit Ils veulent tous manger mais y a qu'une assiette Mon flow t'encule, il t'encule à sec Tat' sur la gueule, turban sur la tête J'ride dans le coin si ça pue la schneck Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça As-tu entendu le bruit du pétard ? Quand la fumée se dissipe j'suis à-l Jamais trop loin des ambiances noires et sales Gâchette facile, mes mogos rafalent Tu peux pas tester mes nègres comme ça On va pas les aider Tu peux pas tester mes nègres comme ça On va pas les aider Tu peux pas tester mes nègres comme ça On va pas les aider Tu peux pas tester mes nègres comme ça On s'propage comme des métastases La scène cristallise tous tes fantasmes Moi j'aime l'argent, j'aime pas les castagnes J'appelle les grands frères, j'leur 'pose-dé' Pascal Ça ride, cascade, en intégral casque Le coin d'ton crâne va frapper l'asphalte Tu t'crois dangereux, parce qu't'as dis macaque J'enfile ta 'tasse, comme j'enfile ma cape On va pas les aider On fait ceci, on fait cela Vouloir nous test, négro, c'est cela On bicravera de la cess là ou de la Sinsemilia aux enfants d'Cécilia Et toi, fils de pute, tu veux marcher sur nous On a ces joujoux qui font des putains d'trous Tu veux te faire une idée ? Arrête toi au feu rouge 91'zer, mes négros shootent Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça Woh Tu peux pas tester mes nègres comme ça Oh Tu peux pas test' mes nègres comme ça Tu peux pas test' mes nègres comme ça Tu peux pas test' mes nègres comme ça Tu peux pas test' mes nègres comme ça As-tu entendu le bruit du pétard ? Quand la fumée se dissipe j'suis al' Jamais trop loin des ambiances noires et sales Gâchette facile, mes mogos rafalent Tu peux pas tester mes nègres comme ça Tu peux pas tester mes nègres comme ça Tu peux pas tester mes nègres comme ça Tu peux pas tester mes nègres comme ça5</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Yeah Tu sais qu'la 'tasse est photogénique You know, you know J'la frappe et j'la renvoie, comme au tennis You know, you know Que Dieu la guide, que Dieu la bénisse J'verse le hennessy sous l'obélisque You know, you know Que Dieu nous guide, que Dieu nous bénisse You know, you know Dans sa pussy, j'fais d'l'ésotérisme You know, you know Qu'mes rivaux meurent, qu'mes rivaux perissent Pharaon Toujours en designer sur les tennis Toujours en designr, bébé Ultraviolet, comme dans Belly U.V, U.V, U.V, U.V Un sac Goyard, un sac Célin Un sac Goyard, un sac Céline Ma vie, c'est un clip à Nelly Oui, bitch, oui, bitch, oui, bitch, oui, bitch J'dis repose en paix à Afeni Repose en paix, Makaveli L'énergie est stratosphérique Mh, mh, mhh J'lui donne un mojo angélique Mh, mh, mhh Je l'ai ken et j'l'ai embellie You might also like Han J'kill les pussy comme un futur tueur en série Hey J'aime la chaleur du bled, fuck les intempéries Hey J'aime quand même la Fashion Week à Paris Hey Yah, nigga Pharaoh Tu m'connais mal donc tu dis qu'personne est parfait Les rappeurs français, ils sont nuls sur bien des aspects Elle voulait un rôle dans mon film donc je l'ai castée, he-eyy J'aime les femmes, toi la société t'as castré Si ça parle j'spray Comme un graffeur, fais d'l'art abstrait Paw Renoi' t'es tiède, t'es pas chaud mais t'es pas frais, nan Ateyaba, y'a un avant, y'a un après, hey J'ai des dents nacrées Nigga, pour U.V. t'es pas prêt Fuck le rap 'çais-fran', la musique c'est sacré J'me paye une paire à 1k, j'suis plus à ça près Le 'seille-o' vient tout seul dans ma main, mutuel attrait J'ai dis qu'j'lui paierais bien un sac à main, elle a fait de l'apnée Tu m'connais pas donc tu dis que personne est parfait, hey, hey, hey Pharaon brille sur bien des aspects, shine Pétard à la bouche, la taille, ma 'tasse a un 'tar-pé, j'le fais écarter, toi la société t'as castré, hey, he-eyy Si ça parle, j'spray Comme un graffeur, fais d'l'art abstrait, hey, he-eyy Elle a pas stressée, cookie l'a décontractée T'écoutes Pharaon donc les anges vont te contacter J'ai les accès, tu sais qu'les étoiles m'ont capté Pharaon 111 in his bitch Hey 228 in his bitch1</t>
+          <t>Yeah Tu sais qu'la 'tasse est photogénique You know, you know J'la frappe et j'la renvoie, comme au tennis You know, you know Que Dieu la guide, que Dieu la bénisse J'verse le hennessy sous l'obélisque You know, you know Que Dieu nous guide, que Dieu nous bénisse You know, you know Dans sa pussy, j'fais d'l'ésotérisme You know, you know Qu'mes rivaux meurent, qu'mes rivaux perissent Pharaon Toujours en designer sur les tennis Toujours en designr, bébé Ultraviolet, comme dans Belly U.V, U.V, U.V, U.V Un sac Goyard, un sac Célin Un sac Goyard, un sac Céline Ma vie, c'est un clip à Nelly Oui, bitch, oui, bitch, oui, bitch, oui, bitch J'dis repose en paix à Afeni Repose en paix, Makaveli L'énergie est stratosphérique Mh, mh, mhh J'lui donne un mojo angélique Mh, mh, mhh Je l'ai ken et j'l'ai embellie Han J'kill les pussy comme un futur tueur en série Hey J'aime la chaleur du bled, fuck les intempéries Hey J'aime quand même la Fashion Week à Paris Hey Yah, nigga Pharaoh Tu m'connais mal donc tu dis qu'personne est parfait Les rappeurs français, ils sont nuls sur bien des aspects Elle voulait un rôle dans mon film donc je l'ai castée, he-eyy J'aime les femmes, toi la société t'as castré Si ça parle j'spray Comme un graffeur, fais d'l'art abstrait Paw Renoi' t'es tiède, t'es pas chaud mais t'es pas frais, nan Ateyaba, y'a un avant, y'a un après, hey J'ai des dents nacrées Nigga, pour U.V. t'es pas prêt Fuck le rap 'çais-fran', la musique c'est sacré J'me paye une paire à 1k, j'suis plus à ça près Le 'seille-o' vient tout seul dans ma main, mutuel attrait J'ai dis qu'j'lui paierais bien un sac à main, elle a fait de l'apnée Tu m'connais pas donc tu dis que personne est parfait, hey, hey, hey Pharaon brille sur bien des aspects, shine Pétard à la bouche, la taille, ma 'tasse a un 'tar-pé, j'le fais écarter, toi la société t'as castré, hey, he-eyy Si ça parle, j'spray Comme un graffeur, fais d'l'art abstrait, hey, he-eyy Elle a pas stressée, cookie l'a décontractée T'écoutes Pharaon donc les anges vont te contacter J'ai les accès, tu sais qu'les étoiles m'ont capté Pharaon 111 in his bitch Hey 228 in his bitch1</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Han, je n'suis qu'un menteur, écoute tes copines Je ne suis qu'un voleur, prêt à dérober un baiser J'aime les brunes, les blondes, les grises et les rouquines Les jaunes, les rouges, les noires, les blanches et les braisées De toutes celles-là, mes favorites sont les coquines Mais j'aime que la roue tourne pour éviter la routine Yeah, j'aime tes mouvements si délicats Tu as atteint mes yeux, puis mon péricarde Mon Nokia me dit que je ne te mérite pas Et j'ai un poids sur le cur, j'vais couler comme l'Erika On se fait, s'défait comme des pulls Mais au final, on s'connaît par cur comme nos numéros De mauvaises augures sont les journées trop pures Il suffit d'un regard pour qu'on se mette au pla-card Pour faire l'amour allongé Oublier le monde, accroché à ton G Yeah Je te laisse mon numéro, appelle-moi quand tu t'ennuies Appelle-moi quand il fait beau, sous l'soleil, ou sous la pluie Je te veux pour moi Je te laisse mon numéro, appelle-moi quand tu t'ennuies Appelle-moi quand il fait beau, sous l'soleil, ou sous la pluie Je te veux pour moi You might also like Tu n'es qu'un bourreau adepte de la torture Tu es le diable, Prada jusqu'aux chaussures Je suis un voyeur, mais c'est pas pareil Tu es mon ange, admiré dans ton plus simple appareil Je ne peux pas tarir d'éloges Je pensais à toi quand les groupies viennent salir les loges Viens faire un séjour sur mon coussin, des valises sous les yeux T'auras tous les deux, chantilly, caramel, chocolat Certains couples finissent en guerre La peau violacée, trop lassée, j'm'en irais si tu me provoques assez Tu dis pas un mot, t'en as jeté des mégolames Dans la mélodie et le cur dans un mélodrame On dirait que tout seul, je discute D'ton côté, on dirait que le dix saute Tu m'ignores, tu m'refoules, demi-pute Sous prétexte qu'on s'connaît que depuis deux minutes Je te laisse mon numéro, appelle-moi quand tu t'ennuies Appelle-moi quand il fait beau, sous l'soleil, ou sous la pluie Je te veux pour moi Je te laisse mon numéro, appelle-moi quand tu t'ennuies Appelle-moi quand il fait beau, sous l'soleil, ou sous la pluie Je te veux pour moi</t>
+          <t>Han, je n'suis qu'un menteur, écoute tes copines Je ne suis qu'un voleur, prêt à dérober un baiser J'aime les brunes, les blondes, les grises et les rouquines Les jaunes, les rouges, les noires, les blanches et les braisées De toutes celles-là, mes favorites sont les coquines Mais j'aime que la roue tourne pour éviter la routine Yeah, j'aime tes mouvements si délicats Tu as atteint mes yeux, puis mon péricarde Mon Nokia me dit que je ne te mérite pas Et j'ai un poids sur le cur, j'vais couler comme l'Erika On se fait, s'défait comme des pulls Mais au final, on s'connaît par cur comme nos numéros De mauvaises augures sont les journées trop pures Il suffit d'un regard pour qu'on se mette au pla-card Pour faire l'amour allongé Oublier le monde, accroché à ton G Yeah Je te laisse mon numéro, appelle-moi quand tu t'ennuies Appelle-moi quand il fait beau, sous l'soleil, ou sous la pluie Je te veux pour moi Je te laisse mon numéro, appelle-moi quand tu t'ennuies Appelle-moi quand il fait beau, sous l'soleil, ou sous la pluie Je te veux pour moi Tu n'es qu'un bourreau adepte de la torture Tu es le diable, Prada jusqu'aux chaussures Je suis un voyeur, mais c'est pas pareil Tu es mon ange, admiré dans ton plus simple appareil Je ne peux pas tarir d'éloges Je pensais à toi quand les groupies viennent salir les loges Viens faire un séjour sur mon coussin, des valises sous les yeux T'auras tous les deux, chantilly, caramel, chocolat Certains couples finissent en guerre La peau violacée, trop lassée, j'm'en irais si tu me provoques assez Tu dis pas un mot, t'en as jeté des mégolames Dans la mélodie et le cur dans un mélodrame On dirait que tout seul, je discute D'ton côté, on dirait que le dix saute Tu m'ignores, tu m'refoules, demi-pute Sous prétexte qu'on s'connaît que depuis deux minutes Je te laisse mon numéro, appelle-moi quand tu t'ennuies Appelle-moi quand il fait beau, sous l'soleil, ou sous la pluie Je te veux pour moi Je te laisse mon numéro, appelle-moi quand tu t'ennuies Appelle-moi quand il fait beau, sous l'soleil, ou sous la pluie Je te veux pour moi</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>.You might also like</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>À toutes les unités Je répète à toutes les unités Code 12 J'ai bien dis code 12 Yeah Ayo, nigga Jo A, Jo A, Jo A, Jo A Hey, hey P'hey, yo Surveille ton sac, chérie, j'te vole ton Blackberry Yo T'endors, comme après un gros repas, et tu regardes Derrick J'vais t'faire des actes terribles, oh, ouais, j'suis un mac, j't'ai dis J'te vends la crack music ou j'te vends du crack, baby Yo, c'est révolu, des vrais bails, débarque, j'déballe, yo Pétasse, là, t'es prévenue, prépare tes gars que j'leur nique leur race à ces bâtards Yo, Salope, j't'ai carotte, fallait pas soulever ta robe Bien joué, des paroles, j'fais plus de beurre que le Maroc Le Jo, il vient d'une autre planète Quand je viens pour poser un seize, tout l'monde se lève comme pour Danette Nigga J'remplis ta meuf comme une canette Yeah Quand tu lui fais un cunni', faut que tu saches que tu m'suces la bite Ah Ma clique s'applique, M.T.P, personne peut me test' sur la ligne Yoo You might also like Négro, dans tes yeux, comme la cataracte, si tu veux test', on te niquera ta race C'est la baise, c'est la plage, yo, M.T.P, yo, c'est Palavas C'est ma vie, c'est l'paradise Mister Ice, Jo A Trouve mes bijoux d'famille dans la bouche d'une 'tasse dorée Yo Bonjour haters, CDs dans le lecteur Consommateur de prod', appelle-moi Hannibal Lecter Vrai rap, pas d'comptines, original, pas d'copies Normal qu'tu r'connaisse le num, j'appelle du phone de ta copine Je n'suis pas le meilleur, tu dois faire erreur Ne me sous-estime pas, je suis plus fort que le Meilleur Touche à peu de filles, parce que j'suis allergique aux moches Je fais très peu de feat, parce que j'suis Allergique au top Le rap n'est pas mort, j'avais pris des vacances Et quand j'prends le mic les MC's prennent des cours de danse Si j'étais muet, p't-être qu'ils auraient plus de chance Si le talent s'prêtait, je pense que j's'rais la Banque de France J'kicke sur le beat, et aucune sottise, oui, oui, j'suis l'mystique, style inévitable Appuie sur repeat et mange toi une-gifle, appuie sur repeat et mange-toi une gifle Appuie sur repeat et mange-toi une gifle, appuie sur repeat et mange toi une gifle Appuie sur repeat et mange-toi une gifle, appuie sur repeat et mange-toi une gifle À toutes les unités Je répète à toutes les unités Code 12 J'ai bien dis code 12 Ahh.. Jo A, Jo A, Jo A, Jo A1</t>
+          <t>À toutes les unités Je répète à toutes les unités Code 12 J'ai bien dis code 12 Yeah Ayo, nigga Jo A, Jo A, Jo A, Jo A Hey, hey P'hey, yo Surveille ton sac, chérie, j'te vole ton Blackberry Yo T'endors, comme après un gros repas, et tu regardes Derrick J'vais t'faire des actes terribles, oh, ouais, j'suis un mac, j't'ai dis J'te vends la crack music ou j'te vends du crack, baby Yo, c'est révolu, des vrais bails, débarque, j'déballe, yo Pétasse, là, t'es prévenue, prépare tes gars que j'leur nique leur race à ces bâtards Yo, Salope, j't'ai carotte, fallait pas soulever ta robe Bien joué, des paroles, j'fais plus de beurre que le Maroc Le Jo, il vient d'une autre planète Quand je viens pour poser un seize, tout l'monde se lève comme pour Danette Nigga J'remplis ta meuf comme une canette Yeah Quand tu lui fais un cunni', faut que tu saches que tu m'suces la bite Ah Ma clique s'applique, M.T.P, personne peut me test' sur la ligne Yoo Négro, dans tes yeux, comme la cataracte, si tu veux test', on te niquera ta race C'est la baise, c'est la plage, yo, M.T.P, yo, c'est Palavas C'est ma vie, c'est l'paradise Mister Ice, Jo A Trouve mes bijoux d'famille dans la bouche d'une 'tasse dorée Yo Bonjour haters, CDs dans le lecteur Consommateur de prod', appelle-moi Hannibal Lecter Vrai rap, pas d'comptines, original, pas d'copies Normal qu'tu r'connaisse le num, j'appelle du phone de ta copine Je n'suis pas le meilleur, tu dois faire erreur Ne me sous-estime pas, je suis plus fort que le Meilleur Touche à peu de filles, parce que j'suis allergique aux moches Je fais très peu de feat, parce que j'suis Allergique au top Le rap n'est pas mort, j'avais pris des vacances Et quand j'prends le mic les MC's prennent des cours de danse Si j'étais muet, p't-être qu'ils auraient plus de chance Si le talent s'prêtait, je pense que j's'rais la Banque de France J'kicke sur le beat, et aucune sottise, oui, oui, j'suis l'mystique, style inévitable Appuie sur repeat et mange toi une-gifle, appuie sur repeat et mange-toi une gifle Appuie sur repeat et mange-toi une gifle, appuie sur repeat et mange toi une gifle Appuie sur repeat et mange-toi une gifle, appuie sur repeat et mange-toi une gifle À toutes les unités Je répète à toutes les unités Code 12 J'ai bien dis code 12 Ahh.. Jo A, Jo A, Jo A, Jo A1</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>FREAKEY!, FREAKEY!..29032622 FREAKEY!, FREAKEY!.. J'casse sa chatte, parce qu'ta meuf c'est une hoe, yahh Pour un feat j'crois qu'vous sucez une polla J'mets l'Walther PPK dans le sac Goyard Négro chaud comme négro de Magnoliaa Négro maigre avec grosse bite et grosse liasse A-a-a Je dis à ma 'tasse qu'elle aille me chercher d'autres 'tasses Ah-ahh C'est pas l'patron qui paye, négro, c'est l'audace Ah-ah-ahh Donnez pas une raison d'tirer dans vos faces 'aces J'remrcie ma mère, j'fais pas des go fast J'm crée des occas', j'me fais mes propres passes Le AK-47 vient faire des dommages Nique avoir un patron, nique être au chômage Tu d'vrais mettre un zéro derrière ta propale J'crache le feu, comme si j'respire du propane Bébé donne ta 'ge-gor', donne ton saphage Ta meuf est amoureuse, parce qu'j'suis un sauvage You might also like J'casse sa chatte, parce qu'ta meuf c'est une hoe, yahh Pour un feat j'crois qu'vous sucez une polla Ah-ahh J'mets l'Walther PPK dans le sac Goyard Négro chaud comme négro de Magnolia Ah-ahh Négro maigre avec grosse bite et grosse liasse A-a-a Je dis à ma 'tasse qu'elle aille me chercher d'autres 'tasses Ah-ahh C'est pas l'patron qui paye, négro, c'est l'audace Ah-ah-ahh Donnez pas une raison d'tirer dans vos faces 'aces On était V.I.P. chez l'assistante sociale Aujourd'hui j'fais du sale, pour sommes colossales J'suis Frank Lucas, j'te laisse Tony et Sosa J'prend du cash, j'fais Montreux et Lausanne 24, wax hollandais, j'ai l'flow à Fally Jeune espagnol, j'peins ça comme Dalí Bouffe sa 'cke-schne, comme Kehlani I-I-Infinigga</t>
+          <t>FREAKEY!, FREAKEY!..29032622 FREAKEY!, FREAKEY!.. J'casse sa chatte, parce qu'ta meuf c'est une hoe, yahh Pour un feat j'crois qu'vous sucez une polla J'mets l'Walther PPK dans le sac Goyard Négro chaud comme négro de Magnoliaa Négro maigre avec grosse bite et grosse liasse A-a-a Je dis à ma 'tasse qu'elle aille me chercher d'autres 'tasses Ah-ahh C'est pas l'patron qui paye, négro, c'est l'audace Ah-ah-ahh Donnez pas une raison d'tirer dans vos faces 'aces J'remrcie ma mère, j'fais pas des go fast J'm crée des occas', j'me fais mes propres passes Le AK-47 vient faire des dommages Nique avoir un patron, nique être au chômage Tu d'vrais mettre un zéro derrière ta propale J'crache le feu, comme si j'respire du propane Bébé donne ta 'ge-gor', donne ton saphage Ta meuf est amoureuse, parce qu'j'suis un sauvage J'casse sa chatte, parce qu'ta meuf c'est une hoe, yahh Pour un feat j'crois qu'vous sucez une polla Ah-ahh J'mets l'Walther PPK dans le sac Goyard Négro chaud comme négro de Magnolia Ah-ahh Négro maigre avec grosse bite et grosse liasse A-a-a Je dis à ma 'tasse qu'elle aille me chercher d'autres 'tasses Ah-ahh C'est pas l'patron qui paye, négro, c'est l'audace Ah-ah-ahh Donnez pas une raison d'tirer dans vos faces 'aces On était V.I.P. chez l'assistante sociale Aujourd'hui j'fais du sale, pour sommes colossales J'suis Frank Lucas, j'te laisse Tony et Sosa J'prend du cash, j'fais Montreux et Lausanne 24, wax hollandais, j'ai l'flow à Fally Jeune espagnol, j'peins ça comme Dalí Bouffe sa 'cke-schne, comme Kehlani I-I-Infinigga</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Starlight Koffi Toute l'année c'est la fashion week, bitch J'me balade avec une lame, comme j'suis un british, shla, shla J'ai plusieurs bitches, mais aucun litige, shla, shla Pour tester la literie, elles sont sur l'quivive Starlight Koffi J'allume un big stick, une aura mystique Qui me suive Pharaoh Elle a un physique, et elle veut savoir qui je suis Bitch C'est Pharaon dans la matière Margiela, voilà ma paire Je marche pas, je flotte à ras-terre Je pull up dans une Casper Goyard, c'est pas Lancaster Le beretta va pas s'taire J'suis Neo, toi t'es Max Payne Que des 'tasses dans les backstages J'ai des fous de la gâchette, qui visent droit dans ta pastèque Font des trous dans ta casquette, j'suis le meilleur à jamais Les 'tasses sont affamées, donc je leur donne à 'dam et Toi ta 'tasse est 'lasse-dégu' J'ken des latinas, des aztèques Les clones faut pas qu'j'les accepte Je sais qu'ma vie c'est StarTrek Mon esprit atteint Mach 7 Bitch, le sommet j'y accède, les rappeurs je les maltraite Ils s'font raffaler par l'tec' T'es pas prêt pour les MAC-10, dans le monde j'ai des tas d'chiennes Bitch, l'aura est parfaite J'ai r'gardé mon poignet, j'ai attiré une Patek Quand j'étais p'tit j'aimais les flingues, les mitraillettes T'es un faux négro, faut juste apprendre à vivre avec Quand j'étais p'tit j'étais au bled, la bite à l'air Dans chaque ville j'ai des 'tasses d'prêtes Le plus chaud sur la planète You might also like Starlight Koffi Oui, bitch 24 miss, bitch</t>
+          <t>Starlight Koffi Toute l'année c'est la fashion week, bitch J'me balade avec une lame, comme j'suis un british, shla, shla J'ai plusieurs bitches, mais aucun litige, shla, shla Pour tester la literie, elles sont sur l'quivive Starlight Koffi J'allume un big stick, une aura mystique Qui me suive Pharaoh Elle a un physique, et elle veut savoir qui je suis Bitch C'est Pharaon dans la matière Margiela, voilà ma paire Je marche pas, je flotte à ras-terre Je pull up dans une Casper Goyard, c'est pas Lancaster Le beretta va pas s'taire J'suis Neo, toi t'es Max Payne Que des 'tasses dans les backstages J'ai des fous de la gâchette, qui visent droit dans ta pastèque Font des trous dans ta casquette, j'suis le meilleur à jamais Les 'tasses sont affamées, donc je leur donne à 'dam et Toi ta 'tasse est 'lasse-dégu' J'ken des latinas, des aztèques Les clones faut pas qu'j'les accepte Je sais qu'ma vie c'est StarTrek Mon esprit atteint Mach 7 Bitch, le sommet j'y accède, les rappeurs je les maltraite Ils s'font raffaler par l'tec' T'es pas prêt pour les MAC-10, dans le monde j'ai des tas d'chiennes Bitch, l'aura est parfaite J'ai r'gardé mon poignet, j'ai attiré une Patek Quand j'étais p'tit j'aimais les flingues, les mitraillettes T'es un faux négro, faut juste apprendre à vivre avec Quand j'étais p'tit j'étais au bled, la bite à l'air Dans chaque ville j'ai des 'tasses d'prêtes Le plus chaud sur la planète Starlight Koffi Oui, bitch 24 miss, bitch</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Yeah, Yeah, yeah Mes diamants swing, nigga, Mes diamants swing, nigga, Mes diamants swing, nigga Yeah, Yeah, yeah, right Right, right Avion dans l'habitacle DMT dans la chicha Vodka dans le bissap Dans la poche un p'tit stack, ouais Avion dans l'habitacle DMT dans la chicha Vodka dans le bissap Dans la poche un p'tit stack, ouais J'suis venu pour prendre ton tour mamène Gros, j'travaille huit jours par semaine J'ai d'l'oseille de 2012 à spend, t'as déjà craché tes sous d'la veille ? J'fais un 35h en une aprèm Les billets vont planer sur la scène Elle me dit T'as des idées tordues. , j'lui dis Demain, j'm'achète une attelle. J'mets un alien dans ta p'tite chatte, Yeah Ces batards font des crises car-diaques Dans la 'che-po' y a un p'tit stack Un jumeau dans la tête, j'ai l'cerveau à Grichka Black, mais je crois qu'tu réalises pas Gros, on traumatise ta clique Les concurrents sont bien pris d'fa-tigue Gros, la vie c'est une fille fa-cile You might also like J'roule en 24, j'roule un 24, Right J'fume en 24, j'fume un 24, Yeah J'roule en 24 Aïe, aïe, aïe J'roule un 24 Aïe, aïe, aïe J'fume en 24 Aïe, aïe, aïe J'fume un 24</t>
+          <t>Yeah, Yeah, yeah Mes diamants swing, nigga, Mes diamants swing, nigga, Mes diamants swing, nigga Yeah, Yeah, yeah, right Right, right Avion dans l'habitacle DMT dans la chicha Vodka dans le bissap Dans la poche un p'tit stack, ouais Avion dans l'habitacle DMT dans la chicha Vodka dans le bissap Dans la poche un p'tit stack, ouais J'suis venu pour prendre ton tour mamène Gros, j'travaille huit jours par semaine J'ai d'l'oseille de 2012 à spend, t'as déjà craché tes sous d'la veille ? J'fais un 35h en une aprèm Les billets vont planer sur la scène Elle me dit T'as des idées tordues. , j'lui dis Demain, j'm'achète une attelle. J'mets un alien dans ta p'tite chatte, Yeah Ces batards font des crises car-diaques Dans la 'che-po' y a un p'tit stack Un jumeau dans la tête, j'ai l'cerveau à Grichka Black, mais je crois qu'tu réalises pas Gros, on traumatise ta clique Les concurrents sont bien pris d'fa-tigue Gros, la vie c'est une fille fa-cile J'roule en 24, j'roule un 24, Right J'fume en 24, j'fume un 24, Yeah J'roule en 24 Aïe, aïe, aïe J'roule un 24 Aïe, aïe, aïe J'fume en 24 Aïe, aïe, aïe J'fume un 24</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Izi, calibré chemise hawaienne J'ai pas la moyenne Quoi ? J'm'en bats les couilles J'suis sur le block, j'suis sur Youtube Fuck you pay me, a-salamalikoum J'vais t'qué-bra si j'touche le RMI Priez pour moi j'prie pour mes ennemis U trema sur l'habillage J'aime la cherma sur ma biatch Casses moi pas trop les illes-cou, on va t'rouer de coups Dans 2 ans j'monte sur le trône, dans 2 ans tu vas me sucer debout Wow les negros sont en chute libre Je marche avec des suspects tu marches avec des suces chibres Ces fils de putes m'croient stupide Pour l'amour des tunes j'te mets une fleche negro j'suis Cupidon On vient chez toi on te crève on s'fait pomper on prend tes rustines J'peux me tatouer un bras taille réel sur le chibre Ramene la codéine, le saut de protéines Négro comment j'suis lean j'pourrais croire j'kiffe trop tes rimes Negro on fait les bails des cravates de notaire Rien à envier à Kopp, rien à envier à Voltaire Les négros prennent la grosse tête ceu-vi Philippe Bouvard Quand on arrive en ville, les schneks s'agitent sur les boulevards Sur la chatte à la voisine, j'vais baiser toutes ces cougars Equipé en tout noir, on t'attend dans ton couloir modafuckah! You might also like Izi, calibré chemise hawaienne J'ai pas la moyenne Quoi ? J'm'en bats les couilles J'suis sur le block, j'suis sur Youtube Fuck you pay me, a-salamalikoum J'vais t'qué-bra si j'touche le RMI Priez pour moi j'prie pour mes ennemis U trema sur l'habillage J'aime la cherma sur ma biatch</t>
+          <t>Izi, calibré chemise hawaienne J'ai pas la moyenne Quoi ? J'm'en bats les couilles J'suis sur le block, j'suis sur Youtube Fuck you pay me, a-salamalikoum J'vais t'qué-bra si j'touche le RMI Priez pour moi j'prie pour mes ennemis U trema sur l'habillage J'aime la cherma sur ma biatch Casses moi pas trop les illes-cou, on va t'rouer de coups Dans 2 ans j'monte sur le trône, dans 2 ans tu vas me sucer debout Wow les negros sont en chute libre Je marche avec des suspects tu marches avec des suces chibres Ces fils de putes m'croient stupide Pour l'amour des tunes j'te mets une fleche negro j'suis Cupidon On vient chez toi on te crève on s'fait pomper on prend tes rustines J'peux me tatouer un bras taille réel sur le chibre Ramene la codéine, le saut de protéines Négro comment j'suis lean j'pourrais croire j'kiffe trop tes rimes Negro on fait les bails des cravates de notaire Rien à envier à Kopp, rien à envier à Voltaire Les négros prennent la grosse tête ceu-vi Philippe Bouvard Quand on arrive en ville, les schneks s'agitent sur les boulevards Sur la chatte à la voisine, j'vais baiser toutes ces cougars Equipé en tout noir, on t'attend dans ton couloir modafuckah! Izi, calibré chemise hawaienne J'ai pas la moyenne Quoi ? J'm'en bats les couilles J'suis sur le block, j'suis sur Youtube Fuck you pay me, a-salamalikoum J'vais t'qué-bra si j'touche le RMI Priez pour moi j'prie pour mes ennemis U trema sur l'habillage J'aime la cherma sur ma biatch</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Age ain't nothin' but a number Throwin' down ain't nothin' but a thang This lovin' I have for you, it'll never change Age ain't nothin' but a number Throwin' down ain't nothin' but a thang This lovin' I have for you, it'll never change J'suis dans l'carré, je tire une taffe Les sachets de beuh remplissent une table Y'a son futur dans mon porte-feuille Je ferme les yeux, je tire une carte Elle danse pour oublier la semaine Y'a toujours de l'amour sous la haine Pas besoin d'se repasser la scène Pour voir les diamants au bout d'la chaîne 2020, Aaliyah Dans la Négro met une faciale à ta biatch Backwoods, verre de bissap J'fais ma glissade Je l'attrape en levrette, par son lissage You might also like Age ain't nothin' but a number Throwin' down ain't nothin' but a thang This lovin' I have for you, it'll never change Age ain't nothin' but a number Throwin' down ain't nothin' but a thang This lovin' I have for you, it'll never change Take my hand and come with me And let me show you true ecstacy Boy, be brave, don't be afraid 'Cause tonight we're gonna go all the way I don't mean to be bold But I gotta let you know I got a thing for you and I can't let go Age ain't nothin' but a number Throwin' down ain't nothin' but a thang This lovin' I have for you, it'll never change Age ain't nothin' but a number Throwin' down ain't nothin' but a thang This lovin' I have for you, it'll never change</t>
+          <t>Age ain't nothin' but a number Throwin' down ain't nothin' but a thang This lovin' I have for you, it'll never change Age ain't nothin' but a number Throwin' down ain't nothin' but a thang This lovin' I have for you, it'll never change J'suis dans l'carré, je tire une taffe Les sachets de beuh remplissent une table Y'a son futur dans mon porte-feuille Je ferme les yeux, je tire une carte Elle danse pour oublier la semaine Y'a toujours de l'amour sous la haine Pas besoin d'se repasser la scène Pour voir les diamants au bout d'la chaîne 2020, Aaliyah Dans la Négro met une faciale à ta biatch Backwoods, verre de bissap J'fais ma glissade Je l'attrape en levrette, par son lissage Age ain't nothin' but a number Throwin' down ain't nothin' but a thang This lovin' I have for you, it'll never change Age ain't nothin' but a number Throwin' down ain't nothin' but a thang This lovin' I have for you, it'll never change Take my hand and come with me And let me show you true ecstacy Boy, be brave, don't be afraid 'Cause tonight we're gonna go all the way I don't mean to be bold But I gotta let you know I got a thing for you and I can't let go Age ain't nothin' but a number Throwin' down ain't nothin' but a thang This lovin' I have for you, it'll never change Age ain't nothin' but a number Throwin' down ain't nothin' but a thang This lovin' I have for you, it'll never change</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait vidéo Allez, si il faut rafaler-er-er, YahYou might also like</t>
+          <t>Disclaimer Transcrit à partir d'un extrait vidéo Allez, si il faut rafaler-er-er, Yah</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'extraits FREAKEY!, FREAKEY! FREAKEY!, FREAKEY! FREAKEY!, FREAKEY! FREAKEY!, FREAKEY! Yah On bouffe ma chatte, toi, t'es une victime Fuck une paire Birkin, que j'lui présente Hello Kitty Kitty Diamants dans la cyprine, c'est d'la sippin Ton gars m'paye la vitrine, pendant qu'tu lui fais la cuisine Hey Hey, hey, hey J'suis bonne à l'infini 'fini, 'fini J'suis bon à l'infini, avec ton coeur j'fais d'la chimie FREAKEY!, FREAKEY! FREAKEY!, FREAKEY!You might also like</t>
+          <t>Disclaimer Transcrit à partir d'extraits FREAKEY!, FREAKEY! FREAKEY!, FREAKEY! FREAKEY!, FREAKEY! FREAKEY!, FREAKEY! Yah On bouffe ma chatte, toi, t'es une victime Fuck une paire Birkin, que j'lui présente Hello Kitty Kitty Diamants dans la cyprine, c'est d'la sippin Ton gars m'paye la vitrine, pendant qu'tu lui fais la cuisine Hey Hey, hey, hey J'suis bonne à l'infini 'fini, 'fini J'suis bon à l'infini, avec ton coeur j'fais d'la chimie FREAKEY!, FREAKEY! FREAKEY!, FREAKEY!</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Discographie - Les Monsieur Single - 2011 Les Monsieur - Deux meufs - 20110615 Les Monsieur - Alycia - 20110721 Les Monsieur - Les Mrs Banger - 201204 Les Monsieur - LMGMTP Discographie complémentaire - Discographie - Ateyaba - Discographie - Bip's - Discographie - Leknifrug - Discographie - TitanYou might also like</t>
+          <t>Discographie - Les Monsieur Single - 2011 Les Monsieur - Deux meufs - 20110615 Les Monsieur - Alycia - 20110721 Les Monsieur - Les Mrs Banger - 201204 Les Monsieur - LMGMTP Discographie complémentaire - Discographie - Ateyaba - Discographie - Bip's - Discographie - Leknifrug - Discographie - Titan</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>J'fume cookie, j'suis sur la Lune John Travolta, j'leur casse le dos, une à une Let's go J'monte sur scène, la foule est unanime Oui, bitch Fuck avec moi et tu rentres dans une abîme Oui, bitch J'ai l'attitude et le tec Comme d'habitude j'suis dans leur schnek Il m'faut la Lambo, il m'faut la Rari C'est moi qui joue, sur moi je parie J'ai les 'me-ar' et j'ai le Karim J'suis à L.A, j'suis pas à Paris Joue avec ta 'tasse comme une Atari Faut que je flex sur les qatari Négro sauvage comme un safari Tu sais qu'ta 'tasse veut que j'la marie La bitch a du blanc dans la narine Autour d'mon cou y'a des canaris J'me fais 'pe-pom' aux îles Canaries J'mange de l'huile rouge avec du gari J'pop des 'shrooms et j'roule du cannabis, eyo Faut les stacks, my nigga, faut les stacks, hey Faut les stacks, my nigga, faut les stacks Yeah, yeah, faut les stacks, my nigga, faut les stacks Hey Faut les stacks, my nigga, faut les stacks You might also like Hé, hé Hé, hé Hey J'suis avec une déesse, c'est pas une sainte Dans l'ciel, tu m'donnes cinq étoiles sur cinq Négro, c'est ma pute mais c'est pas une 'tain-p' Négro, c'est ma pute mais c'est pas une 'tain-p' Ekusutash no seishin1</t>
+          <t>J'fume cookie, j'suis sur la Lune John Travolta, j'leur casse le dos, une à une Let's go J'monte sur scène, la foule est unanime Oui, bitch Fuck avec moi et tu rentres dans une abîme Oui, bitch J'ai l'attitude et le tec Comme d'habitude j'suis dans leur schnek Il m'faut la Lambo, il m'faut la Rari C'est moi qui joue, sur moi je parie J'ai les 'me-ar' et j'ai le Karim J'suis à L.A, j'suis pas à Paris Joue avec ta 'tasse comme une Atari Faut que je flex sur les qatari Négro sauvage comme un safari Tu sais qu'ta 'tasse veut que j'la marie La bitch a du blanc dans la narine Autour d'mon cou y'a des canaris J'me fais 'pe-pom' aux îles Canaries J'mange de l'huile rouge avec du gari J'pop des 'shrooms et j'roule du cannabis, eyo Faut les stacks, my nigga, faut les stacks, hey Faut les stacks, my nigga, faut les stacks Yeah, yeah, faut les stacks, my nigga, faut les stacks Hey Faut les stacks, my nigga, faut les stacks Hé, hé Hé, hé Hey J'suis avec une déesse, c'est pas une sainte Dans l'ciel, tu m'donnes cinq étoiles sur cinq Négro, c'est ma pute mais c'est pas une 'tain-p' Négro, c'est ma pute mais c'est pas une 'tain-p' Ekusutash no seishin1</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Hmm J'sais qu't'essaies de fuck avec un young king J'sais qu'tu fumes le stock, tu pop le Dom Pé, yeah Oui, bitch Mais si tu t'attaches, les choses se compliquent Ayy, ayy Fuck avec un vrai négro, c'est compliqué J'suis au top, tu sais que les bitchs, j'les captent Les pills, les champi', j'les pop Elles twerkent, elle monte sur les tables Ayy, ayy, ayy, ayy Le plus important c'est l'time Ayy Qu'en couverture du Time que j'peux acheter l'time Yah Tout c'que tu peux faire avc un young nigga Viens faire des affaires avec un young nigga, bitch Tout c'que tu peux faire avec un young nigga Viens faire des affaires avec un young nigga Tout c'que tu peux faire avec un young nigga Viens faire des affaires avec un young nigga, bitch Tout c'que tu peux faire avec un young nigga Viens faire des affaires avec un young nigga You might also like J'suis différent, tu l'as capté Faut qu'tu soit vif, faut t'adapter Je l'ai pesé, j'l'ai empaqueté J'me suis jamais fait attraper J'suis au top, tu sais que les bitchs, j'les captent Les pills, les champi', j'les pop Elles twerkent, elle montent sur les tables Ayy, ayy, ayy, ayy Le plus important c'est l'time Ayy Y'a qu'en couverture du Time que j'peux acheter l'time Yeah Tout c'que tu peux faire avec un young nigga Viens faire des affaires avec un young nigga, bitch Tout c'que tu peux faire avec un young nigga Viens faire des affaires avec un young nigga Tout c'que tu peux faire avec un young nigga Viens faire des affaires avec un young nigga, bitch Tout c'que tu peux faire avec un young nigga Viens faire des affaires avec un young nigga</t>
+          <t>Hmm J'sais qu't'essaies de fuck avec un young king J'sais qu'tu fumes le stock, tu pop le Dom Pé, yeah Oui, bitch Mais si tu t'attaches, les choses se compliquent Ayy, ayy Fuck avec un vrai négro, c'est compliqué J'suis au top, tu sais que les bitchs, j'les captent Les pills, les champi', j'les pop Elles twerkent, elle monte sur les tables Ayy, ayy, ayy, ayy Le plus important c'est l'time Ayy Qu'en couverture du Time que j'peux acheter l'time Yah Tout c'que tu peux faire avc un young nigga Viens faire des affaires avec un young nigga, bitch Tout c'que tu peux faire avec un young nigga Viens faire des affaires avec un young nigga Tout c'que tu peux faire avec un young nigga Viens faire des affaires avec un young nigga, bitch Tout c'que tu peux faire avec un young nigga Viens faire des affaires avec un young nigga J'suis différent, tu l'as capté Faut qu'tu soit vif, faut t'adapter Je l'ai pesé, j'l'ai empaqueté J'me suis jamais fait attraper J'suis au top, tu sais que les bitchs, j'les captent Les pills, les champi', j'les pop Elles twerkent, elle montent sur les tables Ayy, ayy, ayy, ayy Le plus important c'est l'time Ayy Y'a qu'en couverture du Time que j'peux acheter l'time Yeah Tout c'que tu peux faire avec un young nigga Viens faire des affaires avec un young nigga, bitch Tout c'que tu peux faire avec un young nigga Viens faire des affaires avec un young nigga Tout c'que tu peux faire avec un young nigga Viens faire des affaires avec un young nigga, bitch Tout c'que tu peux faire avec un young nigga Viens faire des affaires avec un young nigga</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Nokija Hey J'suis dans le building, my nigga J'suis dans l'architecture, my nigga J'suis dans le building, my nigga J'suis dans l'architecture, yeah J'laisse les choses se faire Les faux négros perdent la foi à force de perdre J'ai une tasse éveillée avec un corps de rêve Ton destin est scellé si je sors le glaive, yeah J'suis en moonwalk, j'suis en orbite, yeah J'ai une déesse dans le cockpit, yah T'as des fausses chaînes t elles soxydent, yeah Avec ces chiennes je suis toxique, yeah Négro, les scènes frappent ton optique J'ai une Lil Kim et une Foxy, hey J'suis dans le building, my nigga-a J'suis dans l'architecture, my nigga J'suis dans le building, my nigga J'suis dans l'architecture, yeahYou might also like</t>
+          <t>Nokija Hey J'suis dans le building, my nigga J'suis dans l'architecture, my nigga J'suis dans le building, my nigga J'suis dans l'architecture, yeah J'laisse les choses se faire Les faux négros perdent la foi à force de perdre J'ai une tasse éveillée avec un corps de rêve Ton destin est scellé si je sors le glaive, yeah J'suis en moonwalk, j'suis en orbite, yeah J'ai une déesse dans le cockpit, yah T'as des fausses chaînes t elles soxydent, yeah Avec ces chiennes je suis toxique, yeah Négro, les scènes frappent ton optique J'ai une Lil Kim et une Foxy, hey J'suis dans le building, my nigga-a J'suis dans l'architecture, my nigga J'suis dans le building, my nigga J'suis dans l'architecture, yeah</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Oh oui Oh oui Yeah yeah Hein, yeah Millions d'dollars, des millions d'pixels, qu'est c'qu'on ferait pas pour des liasses XXL ? J'arrive en gamos, j'repars dans une Vixen, j'suis sur ces négros, voilà c'est la vie que j'ai Yo négro, tu galères t'es l'OMS, l'esprit est trop fort, la liasse est trop épaisse J'irais au Moët, avec des connaisseuses, des gros niggas, quand il faudrait t'apprendre la politesse ah oui C'que tu fais dans les clips, ça embarrasse, tu mérites une rafale dans ta race J'suis au Dallas, pas au , j't'offre une pierre tombale pour d'la caillasse J'veux le milieu aisé, le pull de DG, sniffe ma zipette, c'est un truc de baisé Mon hémisphère gauche a des idées suspectes, j'viens voler des portraits, j'viens pas piquer une tête Renoi, j'y prête pas attention, j'les baise mais j'y prête pas attention Renoi, j'fais chuter tes veux-che, renoi, j'fais monter ta tensionYou might also like</t>
+          <t>Oh oui Oh oui Yeah yeah Hein, yeah Millions d'dollars, des millions d'pixels, qu'est c'qu'on ferait pas pour des liasses XXL ? J'arrive en gamos, j'repars dans une Vixen, j'suis sur ces négros, voilà c'est la vie que j'ai Yo négro, tu galères t'es l'OMS, l'esprit est trop fort, la liasse est trop épaisse J'irais au Moët, avec des connaisseuses, des gros niggas, quand il faudrait t'apprendre la politesse ah oui C'que tu fais dans les clips, ça embarrasse, tu mérites une rafale dans ta race J'suis au Dallas, pas au , j't'offre une pierre tombale pour d'la caillasse J'veux le milieu aisé, le pull de DG, sniffe ma zipette, c'est un truc de baisé Mon hémisphère gauche a des idées suspectes, j'viens voler des portraits, j'viens pas piquer une tête Renoi, j'y prête pas attention, j'les baise mais j'y prête pas attention Renoi, j'fais chuter tes veux-che, renoi, j'fais monter ta tension</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Bang-bang-bang-bang-bang Pharaoh Bang-bang-bang-bang-bang Bang-bang-bang-bang-bang Bang-bang-bang-bang-bang Je lui jette une liasse sur le bum, that's right Je lui met un one sur le one, yeah J'ai une auréole sur le damier One-one-one-one Pute, j'ai mis un flash sur le chrome, yeah, that's right One-one-one-one-one-one.. Tes négros ils vendent la mèche, yeah, yeah, yeah Pharaon, il vend la neige Yeah, yeah, yeah Mon bled est au sol, j'ai la haine Yeah, yeah C'est elle qui m'D.M pour qu'j'la ken Ken, ken, yeah Long life, j'sors juste de Prada Prada, Prada, Prada Fuck avec moi, la foudre s'abat S'abat, s'abat, s'abat J'ai une Brandy et une Jada Jada, Jada, Jada Go, go, go Ma poche est fat comme Jabba, Jabba Jabba You might also like Ils veulent fuck avec le roi mais ils sont lame bitch, ils sont lame J'suis l'Pharaon mets du respect sur mon name, bitch Dieu parle dans ma bouche, j'vous ai donné trop d'indices Trop, trop, trop Tu sais qu'j'peux fuck ta 'tasse, en même-temps ta main bitch Go, go, go, go.. Je lui jette une liasse sur le bum Je lui met un one sur le one, yeah One-one-one-one J'ai une auréole sur le damier Pute, j'ai mis un flash sur le chrome, yeah, that's right J'lui ai mis une faciale, j'me rappelle même plus d'son prénom Go, go.. Tu veux pas m'parler d'oseille, tu sais déjà que c'est non, Pharaon Elles s'acharnent à deux gorges mais j'crache même pas le venum Go, go.. Ton swag est ignoble, j'achète tout le vignoble Go, go, go.. J'suis un vrai négro, j'connais pas la dépression Nan, nan.. J'suis 228, j'craque pas sous la pression Nan, nan.. L'univers répond quand tu poses les bonnes questions, Bitch, bitch.. Chialer comme un emo il en est hors de question Hey, hey, hey Ils veulent fuck avec le roi mais ils sont lame bitch J'suis l'Pharaon mets du respect sur mon name, bitch, sur mon name Dieu parle dans ma bouche, j'vous ai donné trop d'indices, hey Tu sais qu'j'peux fuck ta 'tasse, en même-temps ta main bitch Je lui jette une liasse sur le bum Je lui met un one sur le one, yeah, go, go, go, go.. J'ai une auréole sur le damier go, go, go, go.. Pute, j'ai mis un flash sur le chrome, yeah, that's right Bang-bang-bang-bang-bang Bang-bang-bang-bang-bang Bang-bang-bang-bang-bang Bang-bang-bang-bang-bang</t>
+          <t>Bang-bang-bang-bang-bang Pharaoh Bang-bang-bang-bang-bang Bang-bang-bang-bang-bang Bang-bang-bang-bang-bang Je lui jette une liasse sur le bum, that's right Je lui met un one sur le one, yeah J'ai une auréole sur le damier One-one-one-one Pute, j'ai mis un flash sur le chrome, yeah, that's right One-one-one-one-one-one.. Tes négros ils vendent la mèche, yeah, yeah, yeah Pharaon, il vend la neige Yeah, yeah, yeah Mon bled est au sol, j'ai la haine Yeah, yeah C'est elle qui m'D.M pour qu'j'la ken Ken, ken, yeah Long life, j'sors juste de Prada Prada, Prada, Prada Fuck avec moi, la foudre s'abat S'abat, s'abat, s'abat J'ai une Brandy et une Jada Jada, Jada, Jada Go, go, go Ma poche est fat comme Jabba, Jabba Jabba Ils veulent fuck avec le roi mais ils sont lame bitch, ils sont lame J'suis l'Pharaon mets du respect sur mon name, bitch Dieu parle dans ma bouche, j'vous ai donné trop d'indices Trop, trop, trop Tu sais qu'j'peux fuck ta 'tasse, en même-temps ta main bitch Go, go, go, go.. Je lui jette une liasse sur le bum Je lui met un one sur le one, yeah One-one-one-one J'ai une auréole sur le damier Pute, j'ai mis un flash sur le chrome, yeah, that's right J'lui ai mis une faciale, j'me rappelle même plus d'son prénom Go, go.. Tu veux pas m'parler d'oseille, tu sais déjà que c'est non, Pharaon Elles s'acharnent à deux gorges mais j'crache même pas le venum Go, go.. Ton swag est ignoble, j'achète tout le vignoble Go, go, go.. J'suis un vrai négro, j'connais pas la dépression Nan, nan.. J'suis 228, j'craque pas sous la pression Nan, nan.. L'univers répond quand tu poses les bonnes questions, Bitch, bitch.. Chialer comme un emo il en est hors de question Hey, hey, hey Ils veulent fuck avec le roi mais ils sont lame bitch J'suis l'Pharaon mets du respect sur mon name, bitch, sur mon name Dieu parle dans ma bouche, j'vous ai donné trop d'indices, hey Tu sais qu'j'peux fuck ta 'tasse, en même-temps ta main bitch Je lui jette une liasse sur le bum Je lui met un one sur le one, yeah, go, go, go, go.. J'ai une auréole sur le damier go, go, go, go.. Pute, j'ai mis un flash sur le chrome, yeah, that's right Bang-bang-bang-bang-bang Bang-bang-bang-bang-bang Bang-bang-bang-bang-bang Bang-bang-bang-bang-bang</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>I don't know how to do bad Ah Baad I dont know how to do bad Ah Baad I swear, I try my best, nigga My niggers try to do bad Baad My niggers try to do bad Baad They try the best nigga , han , han I pull up to the Skuur Niggers get mad Get mad I push the shit so far I can feel the jet lag Wouh Suck my dick one time Suck, suck, suck, bitch Watch the Baby, please stop cry That is You might also like Ouh I don't know how to do bad Fuck, nigga Au calme mes nigga Look at the real nigga nigga Look at real nigga Yeah What up, main F-f-fuck for the is Hein spending bread Early money bitch Shop une bague on the boulevard vard They try the best nigga , han , han Tapple bitch on tapple bitch On the floor Audemars On the Shop une bague on the boulevard Pretty stacks for a verse That's why I cop on the bar Sheesh I dont know how to do bad Do bad I don't know how to do bad Anhanhhh I swear, I try my best, nigga My niggers try to do bad Baad Anhhanh My niggers try to do bad Baad Anhhanh They try the best nigga , han , han Yeah Yeah I don't know I don't know I don- I don- I don't know I don't know Hein Hein I don't know how to do bad Bad I don't know how to do bad I dont know how to do bad I can, fuck nigga How to do bad How to do bad Bad</t>
+          <t>I don't know how to do bad Ah Baad I dont know how to do bad Ah Baad I swear, I try my best, nigga My niggers try to do bad Baad My niggers try to do bad Baad They try the best nigga , han , han I pull up to the Skuur Niggers get mad Get mad I push the shit so far I can feel the jet lag Wouh Suck my dick one time Suck, suck, suck, bitch Watch the Baby, please stop cry That is Ouh I don't know how to do bad Fuck, nigga Au calme mes nigga Look at the real nigga nigga Look at real nigga Yeah What up, main F-f-fuck for the is Hein spending bread Early money bitch Shop une bague on the boulevard vard They try the best nigga , han , han Tapple bitch on tapple bitch On the floor Audemars On the Shop une bague on the boulevard Pretty stacks for a verse That's why I cop on the bar Sheesh I dont know how to do bad Do bad I don't know how to do bad Anhanhhh I swear, I try my best, nigga My niggers try to do bad Baad Anhhanh My niggers try to do bad Baad Anhhanh They try the best nigga , han , han Yeah Yeah I don't know I don't know I don- I don- I don't know I don't know Hein Hein I don't know how to do bad Bad I don't know how to do bad I dont know how to do bad I can, fuck nigga How to do bad How to do bad Bad</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Bang bros, b-bang bros Bang bros, b-bang bros Bang bros, b-bang, bros Bang bros, b-bang bros 3, 2, 1... Joke, yeah Je n'ai pas de temps à perdre, négro, quand j'passe au micro j'ai mauvais caractère Tout est parallèle dans mes structures, je ne calcule pas la Terre, j'suis le futur Négro j'suis plus dur qu'un pare choc de tu-ture, yeah faut l'cutter au point comme une suture Tout ou rien, rien, les rappeurs au pied comme des toutous, hein, hein Les MC sont dingues, leurs meufs sont dingues de moi Je suis dur, très dur, encore plus dur que tes fins de mois Les gars qui m'comprennent pas pensent que j'écris d'la merde OK, crise d'épilepsie quand j'les éclaire, ils ont les nerfs OK, yeah, yeah, yeah, yeah ! Disons qu'j'ai l'aura que t'auras pas, négro ouvre les yeux tu me rateras pas Le jour où les poules iront au KFC j'suis sûr, j'suis sûr tu me rattraperas Les meufs ne nous font pas trop chier Par contre les bombes deviennent le contraire de Castro, yeah Me prends pas trop pour un nigaud avec ta fausse paire de Bape petit J'suis pas Pharrell, dis à ta mère qu'elle t'achète mon sque-di J'suis pas Kid Cudi, j'sais pas qui t'l'a dit mais quitte-là Si ta meuf écoute mon 'sque-d c'est' qu'elle te trompe, mec quitte-la You might also like Quand on parle, c'est Bang Bros, quand on rappe, c'est Bang Bros Quand on sape, c'est Bang Bros Bang, Bang, Bang, Bang Bros Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Quand on parle, c'est Bang Bros, quand on rappe, c'est Bang Bros Quand on sape, c'est Bang Bros Bang, Bang, Bang, Bang Bros Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Les rappeurs s'branlent sur leur style mais en vrai, ils lèchent les vitrines Moi tu sais qu'c'est Gre-Gre-Greane, je ne lècherai qu'ta cyprine À chaque rime, ça fait une victime Écoute, j'fais beaucoup d'rimes donc ça fait beaucoup de victimes Allez, fait tourner la weed, fais nunu la 'teille de whisky Ta meuf est bonne, elle a les yeux bleus, le poil doux comme un husky J'ai vu sous sa culotte, elle a les bouclettes à la Starsky Dis-moi négro, n'y aurait-il pas erreur de casting C'est pour tous mes mecs à court de mots-clés dans Youporn Pour tous mes mecs en sang sur J.Lo dans U-Turn J'kifferai son tarma jusqu'à mon enterrement Des meufs, du flow, d'la thune, tout ça, tu sais qu'j'en ai tellement Ok, c'est Joke et ton pote, Gre-Gre-Greane Juste un aller-retour sur le gri-gri-grill J'renvoies tous ses branleurs au bercail Au bercail Ok, t'es trop sympa' mais t'as le swag à Orelsan Quand on parle, c'est Bang Bros, quand on rappe, c'est Bang Bros Quand on sape, c'est Bang Bros, Bang, Bang, Bang, Bang Bros Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Quand on parle, c'est Bang Bros, quand on rappe, c'est Bang Bros Quand on sape, c'est Bang Bros, Bang, Bang, Bang, Bang Bros Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Pour tous mes mecs en sang sur J-Lo dans U-Turn Je kifferais son terma, jusqu'à mon enterrement Des meufs, du flow, de la thune, tout ça tu sais que j'en ai tellement</t>
+          <t>Bang bros, b-bang bros Bang bros, b-bang bros Bang bros, b-bang, bros Bang bros, b-bang bros 3, 2, 1... Joke, yeah Je n'ai pas de temps à perdre, négro, quand j'passe au micro j'ai mauvais caractère Tout est parallèle dans mes structures, je ne calcule pas la Terre, j'suis le futur Négro j'suis plus dur qu'un pare choc de tu-ture, yeah faut l'cutter au point comme une suture Tout ou rien, rien, les rappeurs au pied comme des toutous, hein, hein Les MC sont dingues, leurs meufs sont dingues de moi Je suis dur, très dur, encore plus dur que tes fins de mois Les gars qui m'comprennent pas pensent que j'écris d'la merde OK, crise d'épilepsie quand j'les éclaire, ils ont les nerfs OK, yeah, yeah, yeah, yeah ! Disons qu'j'ai l'aura que t'auras pas, négro ouvre les yeux tu me rateras pas Le jour où les poules iront au KFC j'suis sûr, j'suis sûr tu me rattraperas Les meufs ne nous font pas trop chier Par contre les bombes deviennent le contraire de Castro, yeah Me prends pas trop pour un nigaud avec ta fausse paire de Bape petit J'suis pas Pharrell, dis à ta mère qu'elle t'achète mon sque-di J'suis pas Kid Cudi, j'sais pas qui t'l'a dit mais quitte-là Si ta meuf écoute mon 'sque-d c'est' qu'elle te trompe, mec quitte-la Quand on parle, c'est Bang Bros, quand on rappe, c'est Bang Bros Quand on sape, c'est Bang Bros Bang, Bang, Bang, Bang Bros Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Quand on parle, c'est Bang Bros, quand on rappe, c'est Bang Bros Quand on sape, c'est Bang Bros Bang, Bang, Bang, Bang Bros Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Les rappeurs s'branlent sur leur style mais en vrai, ils lèchent les vitrines Moi tu sais qu'c'est Gre-Gre-Greane, je ne lècherai qu'ta cyprine À chaque rime, ça fait une victime Écoute, j'fais beaucoup d'rimes donc ça fait beaucoup de victimes Allez, fait tourner la weed, fais nunu la 'teille de whisky Ta meuf est bonne, elle a les yeux bleus, le poil doux comme un husky J'ai vu sous sa culotte, elle a les bouclettes à la Starsky Dis-moi négro, n'y aurait-il pas erreur de casting C'est pour tous mes mecs à court de mots-clés dans Youporn Pour tous mes mecs en sang sur J.Lo dans U-Turn J'kifferai son tarma jusqu'à mon enterrement Des meufs, du flow, d'la thune, tout ça, tu sais qu'j'en ai tellement Ok, c'est Joke et ton pote, Gre-Gre-Greane Juste un aller-retour sur le gri-gri-grill J'renvoies tous ses branleurs au bercail Au bercail Ok, t'es trop sympa' mais t'as le swag à Orelsan Quand on parle, c'est Bang Bros, quand on rappe, c'est Bang Bros Quand on sape, c'est Bang Bros, Bang, Bang, Bang, Bang Bros Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Quand on parle, c'est Bang Bros, quand on rappe, c'est Bang Bros Quand on sape, c'est Bang Bros, Bang, Bang, Bang, Bang Bros Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Yeah, lève ton verre en l'air, lè-lè-lève ton verre en l'air Pour tous mes mecs en sang sur J-Lo dans U-Turn Je kifferais son terma, jusqu'à mon enterrement Des meufs, du flow, de la thune, tout ça tu sais que j'en ai tellement</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ya-ah-ah, ya-ah-ah, ya-ah-ah Te vendo la coca, mira, te vendo la coca Te vendo la coca hija, te vendo la coca Te vendo la coca, mira, te vendo la coca Te vendo la coca, mira, te vendo la coca Me voy a follar Me voy a follar hmm Me voy a follar Me voy a follar hmm Me voy a follar Me voy a follar hmm Me voy a follar ahh Folla una psy, folla una loca Tu paga en mi jopa Tu puta en mi polla conoses la historia otra vez en mi polla LSD como Dali, el primero en la calle Yo tengo el fuego, yo tengo el sueño Le gusta azucar, me gusto el caramelo Me voy a follar Callate la boca, te vendo la coca loca Putas en el Nokia Mira mi con Kante Tengo una loca Te vendo la coca You might also like Te vendo la coca, mira, te vendo la coca Te vendo la coca hija, te vendo la coca Te vendo la coca, mira, te vendo la coca Te vendo la coca, mira, te vendo la coca Me voy a follar Babe voy a follar hmm Me voy a follar Babe voy a follar hmm Me voy a follar Babe voy a follar hmm Me voy a follar ahh</t>
+          <t>Ya-ah-ah, ya-ah-ah, ya-ah-ah Te vendo la coca, mira, te vendo la coca Te vendo la coca hija, te vendo la coca Te vendo la coca, mira, te vendo la coca Te vendo la coca, mira, te vendo la coca Me voy a follar Me voy a follar hmm Me voy a follar Me voy a follar hmm Me voy a follar Me voy a follar hmm Me voy a follar ahh Folla una psy, folla una loca Tu paga en mi jopa Tu puta en mi polla conoses la historia otra vez en mi polla LSD como Dali, el primero en la calle Yo tengo el fuego, yo tengo el sueño Le gusta azucar, me gusto el caramelo Me voy a follar Callate la boca, te vendo la coca loca Putas en el Nokia Mira mi con Kante Tengo una loca Te vendo la coca Te vendo la coca, mira, te vendo la coca Te vendo la coca hija, te vendo la coca Te vendo la coca, mira, te vendo la coca Te vendo la coca, mira, te vendo la coca Me voy a follar Babe voy a follar hmm Me voy a follar Babe voy a follar hmm Me voy a follar Babe voy a follar hmm Me voy a follar ahh</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Heyy, yo Han-han, hey, ayo, hey, hey Chaleur sur tes négros Prend pas le risque de vouloir m'enlever, comme un cran d'sûreté, négro Les RG sont sur mes niggas, comme Tintin, j'parle des Renseignements Généraux Ayo, les chiennes m'suivent à la trace comme Milou Check Dany Boon, perds pas l'Nord, biloute J'mets pas un centime, j'remplis les gradins, Guy Roux Ça part en pirou-ette, cacahuète Hein-hein J'fume pas, j'connais même pas l'prix d'la barrette Thune part, thune vient, tant pis si ça s'arrête Tu m'parles, j'parle que argent Han, alors, parle à ma main, fils de pute Enfoiré, m'fais pas répéter-et répète pas On vient foutre la merde comme une classe de SEGPA J'suis avec Metek' papy, paw, papy Viens ramasser ton chèque papy, check mamie Fraîcheur sur mes négros On sort les grosses doudounes, double Goose, parce qu'on a plumé ces négros On est refait gros, comme les dents à La Fouine On kick ça, 'diques-sa', comme les 'sses-f' à ta fille You might also like En clique, on ride Paris Ayo Quand j'suis à M.T.P. je ride ma ville Ma ville Négro, c'est sur ce son qu'tu ride ta ville Ta ville Négro c'est sur ce son-on, 'on-on En clique, on ride Paris Paris Quand j'suis à M.T.P. je ride ma ville Ma ville Négro c'est sur ce son qu'tu ride ta ville Yo Négro c'est sur ce son-on , 'on-on The flow is escargot, the words is foie gras Out in Queens hammers ringing like a car alarm Orange drugs burn slow, I'm on the Van Wyck Asian style and I'm fly, spit the Sanskrit You know the routine, eat the poutine, keep the coupe clean Sling the type of dick to make your boo scream Rare things on my feet, that's why your boots lean I like the loot green, spend it with the crew team Specializing in thievery like Ribéry Play the field like I'm Zinedine, sip grenadine Hash and Dutches, money in the casket My father left when I was young 'cause I'm a bastard I'm early morning with the bread like a Frenchman You know the sensei Laurent, play your part Fuck around, leave your body out in Baisley Park Smoke a hazy blunt then I'm Patrick Swayze, Queens En clique, on ride Paris Ayo Quand j'suis à M.T.P. je ride ma ville Ma ville Négro, c'est sur ce son qu'tu ride ta ville Ta ville Négro c'est sur ce son-on, 'on-on En clique, on ride Paris Paris Quand j'suis à M.T.P. je ride ma ville Ma ville Négro c'est sur ce son qu'tu ride ta ville Ta ville Eh Négro c'est sur ce son-on, 'on-on En live de la cave, Bruce Wayne, Batman Tout en Noir Fluo, N.F. Paname Seul dans ma jungle, 7-5-0, London J'suis à porte de Kingston, grande berge, une tonne Refait comme Janet Jackson, kermesse Metek-Metek, toujours sur l'bout d'ta langue, comme un herpès Suce ça, bang-bang, d'accord ? Schengen Salope, chienne-hyène, galope, qu'elle vienne Dans mon cercle de poètes, Risky Business Riski Metekson, je suis le fils à Metek Et toute la ville klaxonne, mon taxi est une Aston Tony Comme de la kriptonyte, fume le poison conique Tequila, Gin, Vodka-Orange mécanique Sur mon 31 en cellule cubique, ubis Ah bon, bla-bla biblique, very shit, véridique Thank you very much, fuck you Aye, show it to 'em like Show it to 'em like1</t>
+          <t>Heyy, yo Han-han, hey, ayo, hey, hey Chaleur sur tes négros Prend pas le risque de vouloir m'enlever, comme un cran d'sûreté, négro Les RG sont sur mes niggas, comme Tintin, j'parle des Renseignements Généraux Ayo, les chiennes m'suivent à la trace comme Milou Check Dany Boon, perds pas l'Nord, biloute J'mets pas un centime, j'remplis les gradins, Guy Roux Ça part en pirou-ette, cacahuète Hein-hein J'fume pas, j'connais même pas l'prix d'la barrette Thune part, thune vient, tant pis si ça s'arrête Tu m'parles, j'parle que argent Han, alors, parle à ma main, fils de pute Enfoiré, m'fais pas répéter-et répète pas On vient foutre la merde comme une classe de SEGPA J'suis avec Metek' papy, paw, papy Viens ramasser ton chèque papy, check mamie Fraîcheur sur mes négros On sort les grosses doudounes, double Goose, parce qu'on a plumé ces négros On est refait gros, comme les dents à La Fouine On kick ça, 'diques-sa', comme les 'sses-f' à ta fille En clique, on ride Paris Ayo Quand j'suis à M.T.P. je ride ma ville Ma ville Négro, c'est sur ce son qu'tu ride ta ville Ta ville Négro c'est sur ce son-on, 'on-on En clique, on ride Paris Paris Quand j'suis à M.T.P. je ride ma ville Ma ville Négro c'est sur ce son qu'tu ride ta ville Yo Négro c'est sur ce son-on , 'on-on The flow is escargot, the words is foie gras Out in Queens hammers ringing like a car alarm Orange drugs burn slow, I'm on the Van Wyck Asian style and I'm fly, spit the Sanskrit You know the routine, eat the poutine, keep the coupe clean Sling the type of dick to make your boo scream Rare things on my feet, that's why your boots lean I like the loot green, spend it with the crew team Specializing in thievery like Ribéry Play the field like I'm Zinedine, sip grenadine Hash and Dutches, money in the casket My father left when I was young 'cause I'm a bastard I'm early morning with the bread like a Frenchman You know the sensei Laurent, play your part Fuck around, leave your body out in Baisley Park Smoke a hazy blunt then I'm Patrick Swayze, Queens En clique, on ride Paris Ayo Quand j'suis à M.T.P. je ride ma ville Ma ville Négro, c'est sur ce son qu'tu ride ta ville Ta ville Négro c'est sur ce son-on, 'on-on En clique, on ride Paris Paris Quand j'suis à M.T.P. je ride ma ville Ma ville Négro c'est sur ce son qu'tu ride ta ville Ta ville Eh Négro c'est sur ce son-on, 'on-on En live de la cave, Bruce Wayne, Batman Tout en Noir Fluo, N.F. Paname Seul dans ma jungle, 7-5-0, London J'suis à porte de Kingston, grande berge, une tonne Refait comme Janet Jackson, kermesse Metek-Metek, toujours sur l'bout d'ta langue, comme un herpès Suce ça, bang-bang, d'accord ? Schengen Salope, chienne-hyène, galope, qu'elle vienne Dans mon cercle de poètes, Risky Business Riski Metekson, je suis le fils à Metek Et toute la ville klaxonne, mon taxi est une Aston Tony Comme de la kriptonyte, fume le poison conique Tequila, Gin, Vodka-Orange mécanique Sur mon 31 en cellule cubique, ubis Ah bon, bla-bla biblique, very shit, véridique Thank you very much, fuck you Aye, show it to 'em like Show it to 'em like1</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Chaleur sur tes négros Prend pas le risque de vouloir m'enlever Comme un cran d'sûreté négro Les RG sont sur mes nigga comme Tintin J'parle des Renseignements Généraux Hé yo, les chiennes m'suivent à la trace comme Milou Check Dany Boon, j'perds pas l'Nord biloute J'mets pas un centime j'remplis les gradins GuyRoux Ca part en pirouette cacahuète J'fume pas, j'connais même pas l'prix d'la barrette Thune part, thune vient, tant pis si ça s'arrête Tu m'parles, j'parle que argent... Alors parle à ma main fils de pute Enfoiré m'fais pas répéter et répète pas On vient foutre la merde comme une classe de segpa J'suis avec Metek' papy, paw papy Viens ramasser ton chèque papy, check mamie Fraîcheur sur mes négros On sort les grosses doudounes double goose parce qu'on a plumé ces négros On est refait gros comme les dents à La Fouine On kick ça, diques-sa comme les seufs à ta fille En clique, on ride Paris Quand j'suis à MTP, je ride ma ville Négro c'est sur ce son qu'tu ride ta ville Négro c'est sur ce son, -ooon -ooon -oooon En clique, on ride Paris Quand j'suis à MTP, je ride ma ville Négro c'est sur ce son qu'tu ride ta ville Négro c'est sur ce son, -ooon -ooon -oooon You might also like Vrai maître de cérémonie, cherche des gros deals J'vais en stud' y a pleins d'diez frère, et au lit J'viens cesser votre biff', avec de gros égotrips Moi j'aime bien Drake mais c'est juste que j'préférais Mobb Deep Les rimes, le biff' en tête, dimanche Le M.I.C je m'en sers, du lundi au dimanche Pour la clientèle, envoie des lauriers pas des chrysanthèmes On arrive en silence, on t'égorge avec du fil dentaire Oh, j'aime le rap mais j'n'aime pas rapper donc j'm'évade avec le hash bien caché dans mes Charles Barkley Flip comme un acrobate, salto arabesque, les MC's sont rigolos à s'prendre des râteaux en En fait, ils sont pas marrants, ils veulent pas être dépassés par un noir qui bigle et qui marche les bras ballants Bon, j'laisse leur game tranquille, c'est juste des rimes dites bêtement devant des En clique, on ride Paris Quand j'suis à MTP, je ride ma ville Négro c'est sur ce son qu'tu ride ta ville Négro c'est sur ce son, -ooon -ooon -oooon En clique, on ride Paris Quand j'suis à MTP, je ride ma ville Négro c'est sur ce son qu'tu ride ta ville Négro c'est sur ce son, -ooon -ooon -oooon</t>
+          <t>Chaleur sur tes négros Prend pas le risque de vouloir m'enlever Comme un cran d'sûreté négro Les RG sont sur mes nigga comme Tintin J'parle des Renseignements Généraux Hé yo, les chiennes m'suivent à la trace comme Milou Check Dany Boon, j'perds pas l'Nord biloute J'mets pas un centime j'remplis les gradins GuyRoux Ca part en pirouette cacahuète J'fume pas, j'connais même pas l'prix d'la barrette Thune part, thune vient, tant pis si ça s'arrête Tu m'parles, j'parle que argent... Alors parle à ma main fils de pute Enfoiré m'fais pas répéter et répète pas On vient foutre la merde comme une classe de segpa J'suis avec Metek' papy, paw papy Viens ramasser ton chèque papy, check mamie Fraîcheur sur mes négros On sort les grosses doudounes double goose parce qu'on a plumé ces négros On est refait gros comme les dents à La Fouine On kick ça, diques-sa comme les seufs à ta fille En clique, on ride Paris Quand j'suis à MTP, je ride ma ville Négro c'est sur ce son qu'tu ride ta ville Négro c'est sur ce son, -ooon -ooon -oooon En clique, on ride Paris Quand j'suis à MTP, je ride ma ville Négro c'est sur ce son qu'tu ride ta ville Négro c'est sur ce son, -ooon -ooon -oooon Vrai maître de cérémonie, cherche des gros deals J'vais en stud' y a pleins d'diez frère, et au lit J'viens cesser votre biff', avec de gros égotrips Moi j'aime bien Drake mais c'est juste que j'préférais Mobb Deep Les rimes, le biff' en tête, dimanche Le M.I.C je m'en sers, du lundi au dimanche Pour la clientèle, envoie des lauriers pas des chrysanthèmes On arrive en silence, on t'égorge avec du fil dentaire Oh, j'aime le rap mais j'n'aime pas rapper donc j'm'évade avec le hash bien caché dans mes Charles Barkley Flip comme un acrobate, salto arabesque, les MC's sont rigolos à s'prendre des râteaux en En fait, ils sont pas marrants, ils veulent pas être dépassés par un noir qui bigle et qui marche les bras ballants Bon, j'laisse leur game tranquille, c'est juste des rimes dites bêtement devant des En clique, on ride Paris Quand j'suis à MTP, je ride ma ville Négro c'est sur ce son qu'tu ride ta ville Négro c'est sur ce son, -ooon -ooon -oooon En clique, on ride Paris Quand j'suis à MTP, je ride ma ville Négro c'est sur ce son qu'tu ride ta ville Négro c'est sur ce son, -ooon -ooon -oooon</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Au cours des années 48, Bernard Buffet n'était encore qu'un adolescent inconnu qui flânait devant Notre-Dame, et sur qui personne ne se retournait. C'était le temps du petit bistrot où les habitués et le patron bienveillant et bourru accueillaient gentiment ce garçon qui barbouillait les toiles dans le quartier. Un jour, peut-être, pourquoi pas, on parlerait de lui. Mais dans combien d'années ? Yeah, yeah Mona, Mona, Mona Mona, Lisa, Lisa, Lisa L'but c'est d'faire des branches au MoMA, l'renoi impressionne comme Renoir J'suis en repetto comme Gainsbourg Comme une ballerine au ballet d'Saint-Pétersbourg Qu'est ce qu'y a ? Jeune Basquiat ah, impressionne la galerie Plus fort que moi, j'sais pas s'il y a, ceux qui testent ah vas-y ah Cubanito vanilla, ambiance Noir Dahlia Avec 2016 Aaliyah, belle affaire, bats-les han J'suis Hun comme Attila, pro Martin Margiela Designs de John Galliano, photo Paris Match piou piou Vingt-quatre carats pas d'alliage Ces bâtards pompent mon flow, c'est mes enfants hors-mariage Qu'on aime ou qu'on n'aime pas cette peinture sombre et brutale, on fut d'accord pourtant sur la prodigieuse faculté denvoûtement de ces visages tragiques À trente-deux ans, il s'offrait le luxe d'exposer des toiles dont chacune aurait pu être achetée des millions, et dont aucune n'était à vendre. Quinze ans ont suffi pour en arriver là... Yeah Ton caisson saute comme Bernard Loiseau piou piou piou Mannequin russe, poudre blanche dans les naseaux snifff J'fais bronzer mes conquêtes sur des plages de Crête J'envoie quelques pruneaux dans ces faces de traîtres Ils aimeraient avoir ma recette pour pouvoir faire ma recette Mais négro j'suis pas de cette Terre, j'suis l'meilleur dans cette merde J'remercie l'Éternel, j'ramène trois chiennes J'me fais reluire par un cerbère, une vie d'enfer Qu'est-ce qu'y a ? Jeune Basquiat ouf, j'viens m'battre pour le trône Comme si Rosa s'était assise là, esquive les fs-keu Comme Mayweather esquive Pacquiao J'aime le beau comme Buffet, l'pinceau efface ton maquillage You might also like Tourtour, au coeur de la Provence. Ici vécut Bernard Buffet, l'un des peintres français les plus célèbres du XXe siècle, mais aussi le plus décrié, et le plus critiqué. Le peintre tourmenté aimait cet endroit qui l'apaisait. Les murs du Domaine de la Baume résonnent encore des paroles d'Annabelle, qui fut l'épouse de Bernard Buffet, durant quarante-et-un ans Sensible à l'extrême, Bernard semble avoir trouvé en ce lieu d'exeption un refuge à l'abri d'une société qui le heurte par sa violence...</t>
+          <t>Au cours des années 48, Bernard Buffet n'était encore qu'un adolescent inconnu qui flânait devant Notre-Dame, et sur qui personne ne se retournait. C'était le temps du petit bistrot où les habitués et le patron bienveillant et bourru accueillaient gentiment ce garçon qui barbouillait les toiles dans le quartier. Un jour, peut-être, pourquoi pas, on parlerait de lui. Mais dans combien d'années ? Yeah, yeah Mona, Mona, Mona Mona, Lisa, Lisa, Lisa L'but c'est d'faire des branches au MoMA, l'renoi impressionne comme Renoir J'suis en repetto comme Gainsbourg Comme une ballerine au ballet d'Saint-Pétersbourg Qu'est ce qu'y a ? Jeune Basquiat ah, impressionne la galerie Plus fort que moi, j'sais pas s'il y a, ceux qui testent ah vas-y ah Cubanito vanilla, ambiance Noir Dahlia Avec 2016 Aaliyah, belle affaire, bats-les han J'suis Hun comme Attila, pro Martin Margiela Designs de John Galliano, photo Paris Match piou piou Vingt-quatre carats pas d'alliage Ces bâtards pompent mon flow, c'est mes enfants hors-mariage Qu'on aime ou qu'on n'aime pas cette peinture sombre et brutale, on fut d'accord pourtant sur la prodigieuse faculté denvoûtement de ces visages tragiques À trente-deux ans, il s'offrait le luxe d'exposer des toiles dont chacune aurait pu être achetée des millions, et dont aucune n'était à vendre. Quinze ans ont suffi pour en arriver là... Yeah Ton caisson saute comme Bernard Loiseau piou piou piou Mannequin russe, poudre blanche dans les naseaux snifff J'fais bronzer mes conquêtes sur des plages de Crête J'envoie quelques pruneaux dans ces faces de traîtres Ils aimeraient avoir ma recette pour pouvoir faire ma recette Mais négro j'suis pas de cette Terre, j'suis l'meilleur dans cette merde J'remercie l'Éternel, j'ramène trois chiennes J'me fais reluire par un cerbère, une vie d'enfer Qu'est-ce qu'y a ? Jeune Basquiat ouf, j'viens m'battre pour le trône Comme si Rosa s'était assise là, esquive les fs-keu Comme Mayweather esquive Pacquiao J'aime le beau comme Buffet, l'pinceau efface ton maquillage Tourtour, au coeur de la Provence. Ici vécut Bernard Buffet, l'un des peintres français les plus célèbres du XXe siècle, mais aussi le plus décrié, et le plus critiqué. Le peintre tourmenté aimait cet endroit qui l'apaisait. Les murs du Domaine de la Baume résonnent encore des paroles d'Annabelle, qui fut l'épouse de Bernard Buffet, durant quarante-et-un ans Sensible à l'extrême, Bernard semble avoir trouvé en ce lieu d'exeption un refuge à l'abri d'une société qui le heurte par sa violence...</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ce son sera dans mon best-of Best-of Négro j'veux un Royal Cheese plus un Best Of Négro, négro, j'veux un disque d'or pour mes best strophes J'ai du goût, j'veux un featuring avec Jean-Pierre Coffe Coffe, Coffe Si tu m'as serré, c'est qu't'es une belle gosse Belle gosse Stunt est dans la place comme à Melrose J'ai pas d'pellicule, je prends que des belles 'thos-ph' Éteins les lumières, j'veux peloter comme à la messe, stop Négro, j'sais pas lire en braille Ramène des jumelles et j'deviens un taliban, aïe En les baratinant j'toucherais d'la poitrine en backstage J'm'endors en les câlinant, en les câlinant Négro, elle a les mêmes qu'Armande Altaï Qu'ils soient gros ou grands, négro c'est vachement ma taille En les baratinant, j'toucherais d'la poitrine en backstage J'm'endors en les câlinant, en les câlinant Yeah, han Personne m'aime à part les miss Yeah C'est pour ça qu'j'vais vendre des disques yeah, yeah, yeah Que j'vais vendre des disques Yeah, yeah, yeah Quand je rentre en club, je jette un il à gauche Et je jette un il à droite, négro, un il en haut Et je jette un il en bas, négro, un il à gauche Un il à droite, un il à... yeah, yeah, yeah You might also like Han, bisou, bisou, restau' jap' Paire Jordan, jean Evisu, c'est normal J'veux boire du Moët au goulot Prends-prends-prends des taffes de cone et va au boulot J'fais pas d'tubes négro, j'fais des rouleaux J'fais qu'un avec le flow, j'peux poser la tête sous l'eau l'eau, l'eau J'rappe comme je respire, les doigts dans l'nez J'ai déjà vu ta meuf à poil, poil au nez Hahaha Je n'ai pas d'problèmes dans la diction Quand j'touche, les meufs sont toutes dans l'addiction Elles transpirent mes mots sur la piste de danse Les autres MCs croient que c'est de la fiction Je jouerai au soleil dans la Star Academy Quand j'me promène, les gars s'mettent à parler mal Aucun problème, pour ma part, j'aime pas les mâles Ça tombe bien car personne m'aime à part les miss Yeah, han-han Personne m'aime à part les miss Yeah C'est pour ça qu'j'vais vendre des disques Yeah, yeah, yeah Que j'vais vendre des disques Yeah, yeah, yeah Quand je rentre en club, je jette un il à gauche Et je jette un il à droite, négro, un il en haut Et je jette un il en bas, négro, un il à gauche Un il à droite, un il à... yeah, yeah, yeah Hum, yeah, négro, elles sont toutes sur ma liste On s'en bat les couilles, je connais même pas leurs noms Yeah, négro j'y ai même mis ta miss Je m'en bat les couilles, fallait pas qu'elle ait les fesses bombées On a tous des pouvoirs magiques On leur paye un coup et on les remmène à la son-mai Là on est obligés d'les kicker pour pouvoir les quitter, yeah, yeah ! J'ai des potes-ca dans les poches et Dans mes projets j'ai ta meuf, mec tu sens les lovés Toute mon équipe est à neuf, on connaît pas les normes Pas les normes Mais quand j'vois des 'sses-f' je maîtrise pas mes hormones, viens on va parler, oh J'ai des potes-ca dans les poches et Dans mes projets j'ai ta meuf, mec tu sens les lovés Toute mon équipe est à neuf, on connaît pas les normes Pas les normes Mais quand j'vois des 'sses-f' je maîtrise pas mes hormones, viens on va parler, oh Yeah, han Personne m'aime à part les miss Yeah C'est pour ça qu'j'vais vendre des disques Yeah, yeah, yeah Que j'vais vendre des disques Yeah, yeah, yeah Quand je rentre en club, je jette un il à gauche Et je jette un il à droite, négro, un il en haut Et je jette un il en bas, négro, un il à gauche Un il à droite, un il à... yeah, yeah, yeah</t>
+          <t>Ce son sera dans mon best-of Best-of Négro j'veux un Royal Cheese plus un Best Of Négro, négro, j'veux un disque d'or pour mes best strophes J'ai du goût, j'veux un featuring avec Jean-Pierre Coffe Coffe, Coffe Si tu m'as serré, c'est qu't'es une belle gosse Belle gosse Stunt est dans la place comme à Melrose J'ai pas d'pellicule, je prends que des belles 'thos-ph' Éteins les lumières, j'veux peloter comme à la messe, stop Négro, j'sais pas lire en braille Ramène des jumelles et j'deviens un taliban, aïe En les baratinant j'toucherais d'la poitrine en backstage J'm'endors en les câlinant, en les câlinant Négro, elle a les mêmes qu'Armande Altaï Qu'ils soient gros ou grands, négro c'est vachement ma taille En les baratinant, j'toucherais d'la poitrine en backstage J'm'endors en les câlinant, en les câlinant Yeah, han Personne m'aime à part les miss Yeah C'est pour ça qu'j'vais vendre des disques yeah, yeah, yeah Que j'vais vendre des disques Yeah, yeah, yeah Quand je rentre en club, je jette un il à gauche Et je jette un il à droite, négro, un il en haut Et je jette un il en bas, négro, un il à gauche Un il à droite, un il à... yeah, yeah, yeah Han, bisou, bisou, restau' jap' Paire Jordan, jean Evisu, c'est normal J'veux boire du Moët au goulot Prends-prends-prends des taffes de cone et va au boulot J'fais pas d'tubes négro, j'fais des rouleaux J'fais qu'un avec le flow, j'peux poser la tête sous l'eau l'eau, l'eau J'rappe comme je respire, les doigts dans l'nez J'ai déjà vu ta meuf à poil, poil au nez Hahaha Je n'ai pas d'problèmes dans la diction Quand j'touche, les meufs sont toutes dans l'addiction Elles transpirent mes mots sur la piste de danse Les autres MCs croient que c'est de la fiction Je jouerai au soleil dans la Star Academy Quand j'me promène, les gars s'mettent à parler mal Aucun problème, pour ma part, j'aime pas les mâles Ça tombe bien car personne m'aime à part les miss Yeah, han-han Personne m'aime à part les miss Yeah C'est pour ça qu'j'vais vendre des disques Yeah, yeah, yeah Que j'vais vendre des disques Yeah, yeah, yeah Quand je rentre en club, je jette un il à gauche Et je jette un il à droite, négro, un il en haut Et je jette un il en bas, négro, un il à gauche Un il à droite, un il à... yeah, yeah, yeah Hum, yeah, négro, elles sont toutes sur ma liste On s'en bat les couilles, je connais même pas leurs noms Yeah, négro j'y ai même mis ta miss Je m'en bat les couilles, fallait pas qu'elle ait les fesses bombées On a tous des pouvoirs magiques On leur paye un coup et on les remmène à la son-mai Là on est obligés d'les kicker pour pouvoir les quitter, yeah, yeah ! J'ai des potes-ca dans les poches et Dans mes projets j'ai ta meuf, mec tu sens les lovés Toute mon équipe est à neuf, on connaît pas les normes Pas les normes Mais quand j'vois des 'sses-f' je maîtrise pas mes hormones, viens on va parler, oh J'ai des potes-ca dans les poches et Dans mes projets j'ai ta meuf, mec tu sens les lovés Toute mon équipe est à neuf, on connaît pas les normes Pas les normes Mais quand j'vois des 'sses-f' je maîtrise pas mes hormones, viens on va parler, oh Yeah, han Personne m'aime à part les miss Yeah C'est pour ça qu'j'vais vendre des disques Yeah, yeah, yeah Que j'vais vendre des disques Yeah, yeah, yeah Quand je rentre en club, je jette un il à gauche Et je jette un il à droite, négro, un il en haut Et je jette un il en bas, négro, un il à gauche Un il à droite, un il à... yeah, yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Si tu kiffes pas renoi, t'écoute pas et puis c'est tout Booska-P, Jokeezy, yeah J'en place une à Amadou et puis ... Pour commencer j'en place une à Fif J'suis pas Booba, j'suis pas Wiz Khalifa Suce ma eueuq viens pas faire ta diva J'te parie un biff que je te gifle à FIFA Un charisme fiable, un flow inqualifiable J'fais un son avec toi, j'remplis un caddie d'fans J'fais ça pour le blé, pour mes gars, ma mille-fa Être jaloux c'est démodé comme Queen Latifah La crise cardiaque de M.J m'a fait mal au coeur Le rap çais-fran j'en fais l'tour et j'démarre au quart T'es marron car négro T'es un négro, j'ai de la force pour mes frères Et je me barre au Caire Eh yo eh yo tous nos darons sont maçons rond comme des compas En touchant l'fond t'as fait un plat négro moi j'ai touché le plafond T'voudrais qu'on parle j'te répond pas j'ai mes raisons L'argent me donne des raisons qui dépasse la raison Je déphase les saisons dans c'rap Je suis un hérétique les rappeurs sont acteurs, connaissent Tous par cur les répliques Je me lève pour la monnaie, j'me couche quand la monnaie se coule Vous sucez tous les mêmes bites et tous vos gros nez se touchent Semi automatique ou cro-mi fils je te traumatise trop J'te torture comme une maladie psychosomatique yo Kyoto Si tu kiffes pas renoi, t'écoute pas et puis c'est tout Si tu kiffes pas renoi, t'écoute pas et puis c'est toutYou might also like1</t>
+          <t>Si tu kiffes pas renoi, t'écoute pas et puis c'est tout Booska-P, Jokeezy, yeah J'en place une à Amadou et puis ... Pour commencer j'en place une à Fif J'suis pas Booba, j'suis pas Wiz Khalifa Suce ma eueuq viens pas faire ta diva J'te parie un biff que je te gifle à FIFA Un charisme fiable, un flow inqualifiable J'fais un son avec toi, j'remplis un caddie d'fans J'fais ça pour le blé, pour mes gars, ma mille-fa Être jaloux c'est démodé comme Queen Latifah La crise cardiaque de M.J m'a fait mal au coeur Le rap çais-fran j'en fais l'tour et j'démarre au quart T'es marron car négro T'es un négro, j'ai de la force pour mes frères Et je me barre au Caire Eh yo eh yo tous nos darons sont maçons rond comme des compas En touchant l'fond t'as fait un plat négro moi j'ai touché le plafond T'voudrais qu'on parle j'te répond pas j'ai mes raisons L'argent me donne des raisons qui dépasse la raison Je déphase les saisons dans c'rap Je suis un hérétique les rappeurs sont acteurs, connaissent Tous par cur les répliques Je me lève pour la monnaie, j'me couche quand la monnaie se coule Vous sucez tous les mêmes bites et tous vos gros nez se touchent Semi automatique ou cro-mi fils je te traumatise trop J'te torture comme une maladie psychosomatique yo Kyoto Si tu kiffes pas renoi, t'écoute pas et puis c'est tout Si tu kiffes pas renoi, t'écoute pas et puis c'est tout1</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Mec, pourquoi faire ? J'débarque, plus de buzz qu'une burqa, frère Roulez-vous, les couler, je vous mets des coups par terre Négro, je vYou might also like</t>
+          <t>Mec, pourquoi faire ? J'débarque, plus de buzz qu'une burqa, frère Roulez-vous, les couler, je vous mets des coups par terre Négro, je v</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Yo, Quoi d'neuf negro? Quoi d'neuf negro ? Faire des billets, et fourrer des go's J'nique ta clique ma mécanique t'a tricars Arrive a Ripas en trip encéphalique et nique la guitare sur ta tête comme Metallica Sur une prod a Drixxxé, nique ces pédés Tu sais pas rapper négro, va apprendre à mixer Yo mec, Joky nique tes oreilles Comme ta meuf tous les mois on vient fixer nos règles MTP niggaYou might also like1</t>
+          <t>Yo, Quoi d'neuf negro? Quoi d'neuf negro ? Faire des billets, et fourrer des go's J'nique ta clique ma mécanique t'a tricars Arrive a Ripas en trip encéphalique et nique la guitare sur ta tête comme Metallica Sur une prod a Drixxxé, nique ces pédés Tu sais pas rapper négro, va apprendre à mixer Yo mec, Joky nique tes oreilles Comme ta meuf tous les mois on vient fixer nos règles MTP nigga1</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>General Kalani, what is your assessement in this situation ? Tu peux lire Cartier sur mes lunettes, han, han Je fais du papier, je fais du 'seille, han, han, han Je fais du papier, je fais du 'seille, han, han, han Tu peux lire Cartier sur mes lunettes, han, han, han Ouh-ouh-ouhh-ouhh Tu sais qu'c'est l'ACE qui rempli nos cups Nos cups, négro Tu sais qu'c'est mes couilles qui dirigent mon cur Han, han J'sors les outils comme Bob le bricoleur Haan, han-han Si tu veux briller faut pas être pessimiste, oh Sépare-toi des gens qui t'utilisent, ohh T'sais qu'j'envoie la light dans tes iris Mmh J'ai une Nivea, une Kelis Tu peux lire Cartier sur mes lunettes, han, han Je fais du papier, je fais du 'seille, han, han, han Je fais du papier, je fais du 'seille, han, han, han Tu peux lire Cartier sur mes lunettes, han, han, han You might also like Décilitre de ACE dans la vessie Oh-oh-oh-o-ohhh Nique le quartier, nique la 'té-ci, bitch Ohohoh-oh-ohhh Ils t'ont offert une cage, toi tu l'apprécies Ohohoh-oh-ohhh Oui, ma 'tasse elle a le cul à J-Lo J-Lo Tu sais qu'j'suis armé comme un Migos Migos Grah, grah, grah J'avais rien du tout dans le frigo Rien, nigga Le re-noi est fly comme un eagle Je grind et je puff que de la nitro Nitro Tu savais qu'j'suis un alien parmi vous Pas de stylo-os Elle a sauté sur ma 'te-b, elle y a pris goût Pris goût Elle a sauté sur ma 'te-b, elle y a pris goût Tu peux lire Cartier sur mes lunettes, han, han Je fais du papier, je fais du 'seille, han, han, han Je fais du papier, je fais du 'seille, han, han, han Tu peux lire Cartier sur mes lunettes, han, han, han King in his bitch</t>
+          <t>General Kalani, what is your assessement in this situation ? Tu peux lire Cartier sur mes lunettes, han, han Je fais du papier, je fais du 'seille, han, han, han Je fais du papier, je fais du 'seille, han, han, han Tu peux lire Cartier sur mes lunettes, han, han, han Ouh-ouh-ouhh-ouhh Tu sais qu'c'est l'ACE qui rempli nos cups Nos cups, négro Tu sais qu'c'est mes couilles qui dirigent mon cur Han, han J'sors les outils comme Bob le bricoleur Haan, han-han Si tu veux briller faut pas être pessimiste, oh Sépare-toi des gens qui t'utilisent, ohh T'sais qu'j'envoie la light dans tes iris Mmh J'ai une Nivea, une Kelis Tu peux lire Cartier sur mes lunettes, han, han Je fais du papier, je fais du 'seille, han, han, han Je fais du papier, je fais du 'seille, han, han, han Tu peux lire Cartier sur mes lunettes, han, han, han Décilitre de ACE dans la vessie Oh-oh-oh-o-ohhh Nique le quartier, nique la 'té-ci, bitch Ohohoh-oh-ohhh Ils t'ont offert une cage, toi tu l'apprécies Ohohoh-oh-ohhh Oui, ma 'tasse elle a le cul à J-Lo J-Lo Tu sais qu'j'suis armé comme un Migos Migos Grah, grah, grah J'avais rien du tout dans le frigo Rien, nigga Le re-noi est fly comme un eagle Je grind et je puff que de la nitro Nitro Tu savais qu'j'suis un alien parmi vous Pas de stylo-os Elle a sauté sur ma 'te-b, elle y a pris goût Pris goût Elle a sauté sur ma 'te-b, elle y a pris goût Tu peux lire Cartier sur mes lunettes, han, han Je fais du papier, je fais du 'seille, han, han, han Je fais du papier, je fais du 'seille, han, han, han Tu peux lire Cartier sur mes lunettes, han, han, han King in his bitch</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait Rien à foutre des pas des crimes passionnels Jme stress pour aucune talle des milliers yen a comme elle Jfais le dash Jfais le dash Lundi, Mardi, Jeudi fais le cash that's right You might also like</t>
+          <t>Disclaimer Transcrit à partir d'un extrait Rien à foutre des pas des crimes passionnels Jme stress pour aucune talle des milliers yen a comme elle Jfais le dash Jfais le dash Lundi, Mardi, Jeudi fais le cash that's right</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait J'la met dans l'cul, comme avocat pénaliste J't'ai mis dans le death note, rayé d'la liste On a attrapé ta 'tasse, on a fait une passe à dix, bitch Vague de mojo, j'fais tsunami, cataclysme, bitch Ils t'feront du 'ce-vi, tant qu'tu r'serras pas la visse, bitch Ouhhh-ouh-ouhh J'connais même pas ma limite, l'énergie paralyse, bitch J'étais avec Sonta You might also like</t>
+          <t>Disclaimer Transcrit à partir d'un extrait J'la met dans l'cul, comme avocat pénaliste J't'ai mis dans le death note, rayé d'la liste On a attrapé ta 'tasse, on a fait une passe à dix, bitch Vague de mojo, j'fais tsunami, cataclysme, bitch Ils t'feront du 'ce-vi, tant qu'tu r'serras pas la visse, bitch Ouhhh-ouh-ouhh J'connais même pas ma limite, l'énergie paralyse, bitch J'étais avec Sonta</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Ce soir j'suis impatient d'la voir Ce soir c'est le bon soir Ce soir faut le voir pour le croire C'est Salomé, pour l'avoir plus facilement j'vais la faire boire Ahh Dis-moi c'que j'te sers à boire Si tu m'promets qu'on fourre ce soir j'suis prêt à t'offrir tout le bar Ahh Soirée appart, soirée boîte, si tous les mecs te saoulent bois mes paroles jusqu'à six du mat' A-apéritif on démarre, voilà ma nouvelle proie Ça-ça va faire mal comme le soir de ta première fois Ah Il était un foie noyé par des litres de vodka Si tu captes pas c'est qu'j'ai mis du GHB dans ton co-ca Ah, ah, ah Batard Quand y a du 'cool-al' y a des connards Si tu finis dans mon lit évite le coma ou les cauchemars Ce soir Ah-ah, j'vais toutes les faire boire Tout l'monde mort bourré , c'est un faire part Ce soir j'suis impatient d'la voir Ce soir c'est le bon soir Ce soir faut le voir pour le croire C'est Salomé, pour l'avoir plus facilement j'vais la faire boire Ce soir j'suis impatient d'la voir Ce soir c'est le bon soir Ce soir faut le voir pour le croire C'est Salomé, pour l'avoir plus facilement j'vais la faire boire You might also like Hein 'Potte-ca, j'en ai Hey Du cash, j'en ai Hey Bredouille, jamais Jamais Je double toujours Hein-hein J'ai un pote au bar, j'ai faim, comme un gros taulard J'ai faim comme un gréviste, comme un 'dique-s, comme si j'étais un putain d'kosovar Chérie j't'aime et j't'aime et j't'aime des doigts Oh J'te paye des verres T'as pas l'permis mais moi j'peux t'racompagner chez moi si tu veux t'reposer Hein Ouais J'peux t'faire décoller puis peut-être te faire planer, peut-être te reposer J'suis juste un enculé, ouais, juste un enculé J'trempe mon biscuit tous les soirs, ils trempent leur biscuit dans du lait Oh-oh, oh J'sers des frosties aux , les laisse à poils sur l'palier Certaines veulent s'marier, ouais, j'suis un fou mais j'suis pas allié Wouhh Yeah Ce soir j'suis impatient d'la voir Ce soir c'est le bon soir Ce soir faut le voir pour le croire C'est Salomé, pour l'avoir plus facilement j'vais la faire boire Ce soir j'suis impatient d'la voir Ce soir c'est le bon soir Ce soir faut le voir pour le croire Oh C'est Salomé, pour l'avoir plus facilement j'vais la faire boire C'est pas systématique, faut pas m'prendre pour le diable Naan J'fais ça pour qu'elles soient chaudes pile poil Attend un p'tit peu Dans ma tête je crie vic-toire Ah-ah Mon aura dans le club est dérisoire Malade Tu sais qu'j'ai pas b'soin d'ça mais j'la fais quand-même boire un coup Boire À l'aise dans la boîte comme dans mon living room E-elle à point brûlante, e-elle sort du four Je roule un joint et lui fais tirer de la C tout Faut qu'elle soit excitée, mais pas trop défoncée J'suis un scientifique dans l'labo, en train d'expérimenter Ce soir elle est ma patiente et j'm'occupe de son cas Avant qu'on rentre chez moi dernier shot de vodka Ce soir j'suis impatient d'la voir Ce soir c'est le bon soir Ce soir faut le voir pour le croire C'est Salomé, pour l'avoir plus facilement j'vais la faire boire Ce soir j'suis impatient d'la voir Ce soir c'est le bon soir Ce soir faut le voir pour le croire C'est Salomé, pour l'avoir plus facilement j'vais la faire boire</t>
+          <t>Ce soir j'suis impatient d'la voir Ce soir c'est le bon soir Ce soir faut le voir pour le croire C'est Salomé, pour l'avoir plus facilement j'vais la faire boire Ahh Dis-moi c'que j'te sers à boire Si tu m'promets qu'on fourre ce soir j'suis prêt à t'offrir tout le bar Ahh Soirée appart, soirée boîte, si tous les mecs te saoulent bois mes paroles jusqu'à six du mat' A-apéritif on démarre, voilà ma nouvelle proie Ça-ça va faire mal comme le soir de ta première fois Ah Il était un foie noyé par des litres de vodka Si tu captes pas c'est qu'j'ai mis du GHB dans ton co-ca Ah, ah, ah Batard Quand y a du 'cool-al' y a des connards Si tu finis dans mon lit évite le coma ou les cauchemars Ce soir Ah-ah, j'vais toutes les faire boire Tout l'monde mort bourré , c'est un faire part Ce soir j'suis impatient d'la voir Ce soir c'est le bon soir Ce soir faut le voir pour le croire C'est Salomé, pour l'avoir plus facilement j'vais la faire boire Ce soir j'suis impatient d'la voir Ce soir c'est le bon soir Ce soir faut le voir pour le croire C'est Salomé, pour l'avoir plus facilement j'vais la faire boire Hein 'Potte-ca, j'en ai Hey Du cash, j'en ai Hey Bredouille, jamais Jamais Je double toujours Hein-hein J'ai un pote au bar, j'ai faim, comme un gros taulard J'ai faim comme un gréviste, comme un 'dique-s, comme si j'étais un putain d'kosovar Chérie j't'aime et j't'aime et j't'aime des doigts Oh J'te paye des verres T'as pas l'permis mais moi j'peux t'racompagner chez moi si tu veux t'reposer Hein Ouais J'peux t'faire décoller puis peut-être te faire planer, peut-être te reposer J'suis juste un enculé, ouais, juste un enculé J'trempe mon biscuit tous les soirs, ils trempent leur biscuit dans du lait Oh-oh, oh J'sers des frosties aux , les laisse à poils sur l'palier Certaines veulent s'marier, ouais, j'suis un fou mais j'suis pas allié Wouhh Yeah Ce soir j'suis impatient d'la voir Ce soir c'est le bon soir Ce soir faut le voir pour le croire C'est Salomé, pour l'avoir plus facilement j'vais la faire boire Ce soir j'suis impatient d'la voir Ce soir c'est le bon soir Ce soir faut le voir pour le croire Oh C'est Salomé, pour l'avoir plus facilement j'vais la faire boire C'est pas systématique, faut pas m'prendre pour le diable Naan J'fais ça pour qu'elles soient chaudes pile poil Attend un p'tit peu Dans ma tête je crie vic-toire Ah-ah Mon aura dans le club est dérisoire Malade Tu sais qu'j'ai pas b'soin d'ça mais j'la fais quand-même boire un coup Boire À l'aise dans la boîte comme dans mon living room E-elle à point brûlante, e-elle sort du four Je roule un joint et lui fais tirer de la C tout Faut qu'elle soit excitée, mais pas trop défoncée J'suis un scientifique dans l'labo, en train d'expérimenter Ce soir elle est ma patiente et j'm'occupe de son cas Avant qu'on rentre chez moi dernier shot de vodka Ce soir j'suis impatient d'la voir Ce soir c'est le bon soir Ce soir faut le voir pour le croire C'est Salomé, pour l'avoir plus facilement j'vais la faire boire Ce soir j'suis impatient d'la voir Ce soir c'est le bon soir Ce soir faut le voir pour le croire C'est Salomé, pour l'avoir plus facilement j'vais la faire boire</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Eh, eh, eh, eh Oh Eh, eh, eh, eh Oh, ok Ok Eh, eh, eh, eh Eh, eh, eh, eh Ok J'débarque au bar, swagg de pornstar Comme un bonhomme et comme des garçons all star C'est Gilles, en or comme Joey Starr à cause des gosses qu'endossent Rosa Acosta Yo, tu veux quoi boy ? J'suis lean, boy, boy, j'suis lean Yoh, ce soir je me fais un cocktail coca, cyprine Bouche une narine et aspire ça coke, aspirin Ouvre la boca, j'sors mon cock, bitch, tu m'le fais là, comme roca, blla Passe-moi mon nine, charge-le et passe-moi mon nine J'vais les éliminer, d'un coup, on chasse Mon crew de nègres m'accompagne, bang, bang, direct dans ton crâne J'élimine les limites, j't'élimine en 10 minutes Les pétasses, les petites putes, les mini-putes ce qui se passe ici reste ici Chut You might also like Ce qui se passe ici reste ici Ce qui se passe ici reste ici, eh Ce qui se passe ici reste ici Ce qui se passe ici reste ici, ah Ce qui se passe ici reste ici Ce qui se passe ici reste ici, oh Ce qui se passe ici reste ici Ce qui se passe ici reste ici, eh ouh Danse, danse, danse Ahh Danse, danse, danse Ok, ok, ok Wouhh Elle marche comme un cochonne, marche comme un pochtrone Je fais glisser les zizizou au top, au trône Ouh J'me goure de trou, Aïe, oh no, escroc Casting sauvage, soi ma black miss méteo Aïe Oh oui baby, je suis fan de Bowie aussi Ma vie c'est boulot, taxi, pog, whisky, sushis Pas princesse pour un sou et sa bouche a un goût d'shit mais j'suis son Vincent Cassel, Fatima Bellucci You know me, mon penis fait ma promo comme Publicis Je rappe ton pubis, comme une-comme une pluie de météorites Yeah, 'loppe-sa', rien qu'ça, j't'aime comme un Yassa Yeah, je sais, je sais, t'avais jamais fais ça avant, chh Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Eh Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Ah Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Oh Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Eh Ouh Danse, danse, danse Ahh Danse, danse, danse Ok, ok, ok Wouhh Han Un clin d'il suffit et cette conne oublie son mec, Ha-ha Choquée, elle saigne du nez, pourtant elle connaissait les règles T'as l'corps d'une actrice porno, Nan, me parle pas d'un hôtel, Han, han Parking, Range Rov', maison close, intérieur cuir crème, Ok La barmen me drague, sur la table j'pose trop d'bouteilles, et comme d'hab y'a des crevards qui se servent quand je prend l'air Dans le noir elle me cherche comme un gode caché dans l'armoire, rêve de sexe avec un noir, genre cuvette blanche, merci Obama, -ma Ivre mort, -mort, complètement folle, -folle, tout c'quelle veut c'est niquer c'qu'on fait, un vrai pot de colle -olle Ok, j'suis son mâle, -mâle, elle veut croquer la pomme, -pomme, j'la connais ni d'Adam ni d'Ève mais elle connaît mon album Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Eh Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Ah Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Oh Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Eh Ouh Danse, danse, danse Ahh Danse, danse, danse Ok, ok, ok Wouhh</t>
+          <t>Eh, eh, eh, eh Oh Eh, eh, eh, eh Oh, ok Ok Eh, eh, eh, eh Eh, eh, eh, eh Ok J'débarque au bar, swagg de pornstar Comme un bonhomme et comme des garçons all star C'est Gilles, en or comme Joey Starr à cause des gosses qu'endossent Rosa Acosta Yo, tu veux quoi boy ? J'suis lean, boy, boy, j'suis lean Yoh, ce soir je me fais un cocktail coca, cyprine Bouche une narine et aspire ça coke, aspirin Ouvre la boca, j'sors mon cock, bitch, tu m'le fais là, comme roca, blla Passe-moi mon nine, charge-le et passe-moi mon nine J'vais les éliminer, d'un coup, on chasse Mon crew de nègres m'accompagne, bang, bang, direct dans ton crâne J'élimine les limites, j't'élimine en 10 minutes Les pétasses, les petites putes, les mini-putes ce qui se passe ici reste ici Chut Ce qui se passe ici reste ici Ce qui se passe ici reste ici, eh Ce qui se passe ici reste ici Ce qui se passe ici reste ici, ah Ce qui se passe ici reste ici Ce qui se passe ici reste ici, oh Ce qui se passe ici reste ici Ce qui se passe ici reste ici, eh ouh Danse, danse, danse Ahh Danse, danse, danse Ok, ok, ok Wouhh Elle marche comme un cochonne, marche comme un pochtrone Je fais glisser les zizizou au top, au trône Ouh J'me goure de trou, Aïe, oh no, escroc Casting sauvage, soi ma black miss méteo Aïe Oh oui baby, je suis fan de Bowie aussi Ma vie c'est boulot, taxi, pog, whisky, sushis Pas princesse pour un sou et sa bouche a un goût d'shit mais j'suis son Vincent Cassel, Fatima Bellucci You know me, mon penis fait ma promo comme Publicis Je rappe ton pubis, comme une-comme une pluie de météorites Yeah, 'loppe-sa', rien qu'ça, j't'aime comme un Yassa Yeah, je sais, je sais, t'avais jamais fais ça avant, chh Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Eh Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Ah Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Oh Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Eh Ouh Danse, danse, danse Ahh Danse, danse, danse Ok, ok, ok Wouhh Han Un clin d'il suffit et cette conne oublie son mec, Ha-ha Choquée, elle saigne du nez, pourtant elle connaissait les règles T'as l'corps d'une actrice porno, Nan, me parle pas d'un hôtel, Han, han Parking, Range Rov', maison close, intérieur cuir crème, Ok La barmen me drague, sur la table j'pose trop d'bouteilles, et comme d'hab y'a des crevards qui se servent quand je prend l'air Dans le noir elle me cherche comme un gode caché dans l'armoire, rêve de sexe avec un noir, genre cuvette blanche, merci Obama, -ma Ivre mort, -mort, complètement folle, -folle, tout c'quelle veut c'est niquer c'qu'on fait, un vrai pot de colle -olle Ok, j'suis son mâle, -mâle, elle veut croquer la pomme, -pomme, j'la connais ni d'Adam ni d'Ève mais elle connaît mon album Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Eh Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Ah Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Oh Ce qui se passe ici reste ici Ce qui se passe ici reste ici, Eh Ouh Danse, danse, danse Ahh Danse, danse, danse Ok, ok, ok Wouhh</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>flansie.. Yeah J'mélange pas ma beuh avec du tabac, that's right Bitch, j'mélange ma beuh avec du taga J'ai été annoncé par les mayas, that's right J'suis défoncé, j'crois qu'je bosse pour la Nasa J'fais la monnaie, vingt-quatre carats, c'est ma momie Elle m'fait un blowjob, pas b'soin d'lui faire de travail J'l'ai assommée Rolexé, c'est pas donné J'fais pas de baisers passionnés Go, go, go J'lui crache dans la bouche, elle se délecte, elle avale Elle dit qu'c'est yummy Que du blue cheese, pas d'Abraham Lincoln J'suis 'fonce-dé', sous cookies, comme Levy Barrington, boh Oui, c'st ma sex friend, ma Jennifr Aniston, hey Ils aimeraient nous michtonne J'ai la poche sous big pump flansie.. You might also like J'mélange pas ma beuh avec du tabac, that's right Bitch, j'mélange ma beuh avec du taga J'ai été annoncé par les mayas J'suis défoncé, j'crois qu'je bosse pour la Nasa J'fais la monnaie, vingt-quatre carats, c'est ma momie Rolexé, c'est pas donné J'fais pas de baisers passionnés Go, go, go J'lui crache dans la bouche, elle se délecte, elle avale flansie..</t>
+          <t>flansie.. Yeah J'mélange pas ma beuh avec du tabac, that's right Bitch, j'mélange ma beuh avec du taga J'ai été annoncé par les mayas, that's right J'suis défoncé, j'crois qu'je bosse pour la Nasa J'fais la monnaie, vingt-quatre carats, c'est ma momie Elle m'fait un blowjob, pas b'soin d'lui faire de travail J'l'ai assommée Rolexé, c'est pas donné J'fais pas de baisers passionnés Go, go, go J'lui crache dans la bouche, elle se délecte, elle avale Elle dit qu'c'est yummy Que du blue cheese, pas d'Abraham Lincoln J'suis 'fonce-dé', sous cookies, comme Levy Barrington, boh Oui, c'st ma sex friend, ma Jennifr Aniston, hey Ils aimeraient nous michtonne J'ai la poche sous big pump flansie.. J'mélange pas ma beuh avec du tabac, that's right Bitch, j'mélange ma beuh avec du taga J'ai été annoncé par les mayas J'suis défoncé, j'crois qu'je bosse pour la Nasa J'fais la monnaie, vingt-quatre carats, c'est ma momie Rolexé, c'est pas donné J'fais pas de baisers passionnés Go, go, go J'lui crache dans la bouche, elle se délecte, elle avale flansie..</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Yoh Let's blow Let's go C'est la vie, faut prendre beaucoup d'risques, aïe, aïe Ma 'tasse a des gros boobies, aïe, aïe Faut pas être une pussy, aïe, aïe Être daron m'a pas a-douci, aïe, aïe J'fais le blue cheese, j'ai des boobies, et j'ai les goodies, hey Hey J'suis avec mes Goonies, hey, hey Ta clique c'est des sous-fifres, hey, hy O-ohhh Négro, j'suis méchant pour les deniers Un liasse épaisse sur mes jambes, dans mon denim Han, haan Vous êtes pas reconnaissants, j'suis le premier J'étais en Jordan sur les Champs, vers l'an 2000 Go Ma beuh est pleine d'aromes Pharaoh Obligé d'te couper la parole, hey, hey, hey Si ta bitch me croise c'est la chasse à l'homme, ahahh-ahhh J'suis dans l'vu-ca, à ta, ahahh-ahhh You might also like J'me réveille avec du cookie J'me rendors avec du cookie, Pharaoh J'me réveille avec du cookie Oui, bitch J'me rendors avec du cookie Oh, oh, oh, cookie J'me réveille avec du Vuitton Oh, oh, oh, oh, oh Vuitton J'me rendors avec du Gucci Oh, oh, oh, oh, oh, oh Gucci J'me réveille avec du cookie Go, go, go, go, go, go Cookie Ohh, j'me réveille avec du cookie Go, go, go, go, go, go Cookie Mh Go Henné' sur Henné' sur moi, my nigga Ah, ahh Go, go, go Yeah Ah-ahh God aux manettes, my nigga</t>
+          <t>Yoh Let's blow Let's go C'est la vie, faut prendre beaucoup d'risques, aïe, aïe Ma 'tasse a des gros boobies, aïe, aïe Faut pas être une pussy, aïe, aïe Être daron m'a pas a-douci, aïe, aïe J'fais le blue cheese, j'ai des boobies, et j'ai les goodies, hey Hey J'suis avec mes Goonies, hey, hey Ta clique c'est des sous-fifres, hey, hy O-ohhh Négro, j'suis méchant pour les deniers Un liasse épaisse sur mes jambes, dans mon denim Han, haan Vous êtes pas reconnaissants, j'suis le premier J'étais en Jordan sur les Champs, vers l'an 2000 Go Ma beuh est pleine d'aromes Pharaoh Obligé d'te couper la parole, hey, hey, hey Si ta bitch me croise c'est la chasse à l'homme, ahahh-ahhh J'suis dans l'vu-ca, à ta, ahahh-ahhh J'me réveille avec du cookie J'me rendors avec du cookie, Pharaoh J'me réveille avec du cookie Oui, bitch J'me rendors avec du cookie Oh, oh, oh, cookie J'me réveille avec du Vuitton Oh, oh, oh, oh, oh Vuitton J'me rendors avec du Gucci Oh, oh, oh, oh, oh, oh Gucci J'me réveille avec du cookie Go, go, go, go, go, go Cookie Ohh, j'me réveille avec du cookie Go, go, go, go, go, go Cookie Mh Go Henné' sur Henné' sur moi, my nigga Ah, ahh Go, go, go Yeah Ah-ahh God aux manettes, my nigga</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Yah Let's get it FREAKEY!, FREAKEY!.. Hey Let's go FREAKEY!, FREAKEY!.. J'suis en fire, bang-bang Oui, bitch Flow incroyable, bang-bang J'fais le feat à vingt-cinq, parce qu'au bled y'a pleins d'sin-c' Lève ta 'be-jam' en, lève ta 'be-jam' en l'air Lève ta 'be-jam' en l'air, lève ta 'be-jam' en l'air Let's go Billets-billets, billets-billets-billets Yah Si c'est toi ma biatch Ouui Si c'est toi ma biatch Si c'est toi ma biatch Let's get it Si c'est toi ma biatch Let's go.. Yah You might also like Si c'est toi ma biatch j'crache sur ton maquillage Oui Découpe comme la triad Oui Négro vient d'la pillade Mon karma est fiabl, mon 'gue-flin' est fiable Billets violets, comme Frieza Vacances à Ibiza J'suis en fire, bang-bang Flow incroyable, bang-bang Bang-bang J'fais le feat à vingt-cinq, parce qu'au bled y'a pleins d'sin-c' Lève ta 'be-jam' en Bitch, lève ta 'be-jam' en l'air Lève ta 'be-jam' en l'air, lève ta 'be-jam' en l'air Billets-billets, billets-billets-billets Let's go Oui, bitch Infinigga J'pose des grandes plaques Gri-gri' dans l'sac, gri-gri' dans l'sac Elle m'voit dans l'noir Diamant flamboie Yéh Voyant qu'on voit, voyant qu'on voit Yéh, yéh, yéh.. J'ball comme golfeur Lourd dans l'holster TLC, no squirt Dans une Gilles, comment ça va ? Tu fais quoi de bien ? Tu sais, , le 31 mai, passé, c'était mon anniversaire J'avais 45 ans ! Tu sais, , grand-maman, , personne n'est.. nan, personne n'a eu 40 ans B'hein c'était, c'est le jour que j'avais eu 40 ans J'ai pleuré dans la chambre Yéh, yéh, yéh.. Infinigga</t>
+          <t>Yah Let's get it FREAKEY!, FREAKEY!.. Hey Let's go FREAKEY!, FREAKEY!.. J'suis en fire, bang-bang Oui, bitch Flow incroyable, bang-bang J'fais le feat à vingt-cinq, parce qu'au bled y'a pleins d'sin-c' Lève ta 'be-jam' en, lève ta 'be-jam' en l'air Lève ta 'be-jam' en l'air, lève ta 'be-jam' en l'air Let's go Billets-billets, billets-billets-billets Yah Si c'est toi ma biatch Ouui Si c'est toi ma biatch Si c'est toi ma biatch Let's get it Si c'est toi ma biatch Let's go.. Yah Si c'est toi ma biatch j'crache sur ton maquillage Oui Découpe comme la triad Oui Négro vient d'la pillade Mon karma est fiabl, mon 'gue-flin' est fiable Billets violets, comme Frieza Vacances à Ibiza J'suis en fire, bang-bang Flow incroyable, bang-bang Bang-bang J'fais le feat à vingt-cinq, parce qu'au bled y'a pleins d'sin-c' Lève ta 'be-jam' en Bitch, lève ta 'be-jam' en l'air Lève ta 'be-jam' en l'air, lève ta 'be-jam' en l'air Billets-billets, billets-billets-billets Let's go Oui, bitch Infinigga J'pose des grandes plaques Gri-gri' dans l'sac, gri-gri' dans l'sac Elle m'voit dans l'noir Diamant flamboie Yéh Voyant qu'on voit, voyant qu'on voit Yéh, yéh, yéh.. J'ball comme golfeur Lourd dans l'holster TLC, no squirt Dans une Gilles, comment ça va ? Tu fais quoi de bien ? Tu sais, , le 31 mai, passé, c'était mon anniversaire J'avais 45 ans ! Tu sais, , grand-maman, , personne n'est.. nan, personne n'a eu 40 ans B'hein c'était, c'est le jour que j'avais eu 40 ans J'ai pleuré dans la chambre Yéh, yéh, yéh.. Infinigga</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Yah Let's get it FREAKEY!, FREAKEY!.. Hey Let's go FREAKEY!, FREAKEY!.. J'suis en fire, bang-bang Oui, bitch Flow incroyable, bang-bang J'fais le feat à vingt-cinq, parce qu'au bled y'a pleins d'sin-c' Lève ta 'be-jam' en, lève ta 'be-jam' en l'air Lève ta 'be-jam' en l'air, lève ta 'be-jam' en l'air Let's go Billets-billets, billets-billets-billets Yah Si c'est toi ma biatch Ouui Si c'est toi ma biatch Si c'est toi ma biatch Let's get it Si c'est toi ma biatch Let's go.. Yah You might also like Si c'est toi ma biatch j'crache sur ton maquillage Oui Découpe comme la triade Oui Négro vient d'la pillade Mon karma est fiable, mon 'gue-flin' est fiable Billets violets, comme Frieza Vacances à Ibiza J'suis en fire, bang-bang Flow incroyable, bang-bang Bang-bang J'fais le feat à vingt-cinq, parce qu'au bled y'a pleins d'sin-c' Lève ta 'be-jam' en, lève ta 'be-jam' en l'air Lève ta 'be-jam' en l'air, lève ta 'be-jam' en l'air Billets-billets, billets-billets-billets Let's go Oui, bitch Infinigga J'pose des grandes plaques Gri-gri' dans l'sac, gri-gri' dans l'sac Elle m'voit dans l'noir Diamant flamboie Voyant qu'on voit, voyant qu'on voit J'suis en fire, bang-bang Flow incroyable, bang-bang J'fais le feat à vingt-cinq, parce qu'au bled y'a pleins d'sin-c' Yeah Lève ta 'be-jam' en l'air, lève ta 'be-jam' en l'air Lève ta 'be-jam' en l'air2</t>
+          <t>Yah Let's get it FREAKEY!, FREAKEY!.. Hey Let's go FREAKEY!, FREAKEY!.. J'suis en fire, bang-bang Oui, bitch Flow incroyable, bang-bang J'fais le feat à vingt-cinq, parce qu'au bled y'a pleins d'sin-c' Lève ta 'be-jam' en, lève ta 'be-jam' en l'air Lève ta 'be-jam' en l'air, lève ta 'be-jam' en l'air Let's go Billets-billets, billets-billets-billets Yah Si c'est toi ma biatch Ouui Si c'est toi ma biatch Si c'est toi ma biatch Let's get it Si c'est toi ma biatch Let's go.. Yah Si c'est toi ma biatch j'crache sur ton maquillage Oui Découpe comme la triade Oui Négro vient d'la pillade Mon karma est fiable, mon 'gue-flin' est fiable Billets violets, comme Frieza Vacances à Ibiza J'suis en fire, bang-bang Flow incroyable, bang-bang Bang-bang J'fais le feat à vingt-cinq, parce qu'au bled y'a pleins d'sin-c' Lève ta 'be-jam' en, lève ta 'be-jam' en l'air Lève ta 'be-jam' en l'air, lève ta 'be-jam' en l'air Billets-billets, billets-billets-billets Let's go Oui, bitch Infinigga J'pose des grandes plaques Gri-gri' dans l'sac, gri-gri' dans l'sac Elle m'voit dans l'noir Diamant flamboie Voyant qu'on voit, voyant qu'on voit J'suis en fire, bang-bang Flow incroyable, bang-bang J'fais le feat à vingt-cinq, parce qu'au bled y'a pleins d'sin-c' Yeah Lève ta 'be-jam' en l'air, lève ta 'be-jam' en l'air Lève ta 'be-jam' en l'air2</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Rien à foutre de ces bitchs, pas des crimes passionnels J'me stress pour aucune tasse, des milliers y'en a comme elle J'ai le dash, j'fais le dash Lundi, mardi, jeudi, j'fais le cash That's right You might also like</t>
+          <t>Rien à foutre de ces bitchs, pas des crimes passionnels J'me stress pour aucune tasse, des milliers y'en a comme elle J'ai le dash, j'fais le dash Lundi, mardi, jeudi, j'fais le cash That's right</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Sapapaya Jean-Paul Gaultier m'a passé l'phone à Zahia incroyable Dents en roro comme un Maya Dents en diamant négro, j'rappe pas, j'fais d'la caillasse oui bitch D'la caillasse, ta bitch s'maquille comme Rama Yade J'sors en KTM d'la Paillade J'rentre dans sa chatte, j'crois qu'j'suis à deux doigts d'la noyade La noyade, j'crache dans des putes incroyables J'fume amné, bitch, j'fume ma salade Négro t'rafale, comme en Calabre Mojo fait des glitchs C'sûr qu'j'aligne les planètes avec mon négro pas net J'sors l'pied d'la caisse, la main sur sa fsse Canon sur la cuisse, j'glisse dans un actrice Tire le gros lot, négro chandail Polo Mami twerk comme pour championnats nationaux J'fume sur SoHo, elle, j'lui mets une sodo' Temps me couronne, Rolex est mon chrono, wa J'rock comme Bono, négro sors son golo J'la laisse faire un solo, après j'la unfollow C'est MTP, Togo, tatoué comme un cholo Grosse auto, semi-auto, j'tire dans tes biscotos Attention, tu perds d'la tension, hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Attention, tu perds d'la tension hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Moonwalk sur leurs gosses, comme un boss La vie nous sauce, la pluie me cause Pense aux gosses, j'ressors mon cross, tu sors ta grosse Pense aux gosses, j'ressors mon cross, tu sors ta grosse D'la noyade J'crache dans des putes incroyables J'fume amné, pute, j'fume ma salade Négro t'rafale, comme en Calabre J'pose ma sale voix pas autotunée, la seule fois qu'la vérité sonne faux J'ai choisi entre vivre vieux ou fortuné, croquer dans l'gros cul du monde, j'ai des dents d'fauves Ils pensent en 280 caractères, sur le ring, j'ai hâte d'y être La merde vole à ras d'terre, j'écrase leur son du pied gauche avec mon 808 fillette En clash avec mon égo, je rappe, je poursuis un autre but Les flingues se répètent comme l'écho, j'ai braqué la faux et la capuche noire à l'autre pute J'm'entraîne à mourir donc à piquer des sommes, j'ai fumé Chronos Y'a plus de rappeuses, réduit à niquer des hommes, le char du rap échoue sur l'île de Mykonos Mon âme est dans l'son comme le ver dans la pomme, en mode avion, sers-moi du kérosène S'il la veut, dites à Satan d'acheter l'album, mon larfeuille, c'est une zone érogène N'enfile pas les gants si t'as peur du compte, laisse-moi faire mon truc, j'suis seul dans mon feuilleton Tu dors depuis longtemps, l'arbitre a perdu l'compte, j'neutralise Judas, un canon dans l'illeton Attention, tu perds d'la tension, hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Attention, tu perds d'la tension hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Moonwalk sur leurs gosses, comme un boss La vie nous sauce, la pluie me cause Pense aux gosses, j'ressors mon cross, tu sors ta grosse Pense aux gosses, j'ressors mon cross, tu sors ta grosseYou might also like</t>
+          <t>Sapapaya Jean-Paul Gaultier m'a passé l'phone à Zahia incroyable Dents en roro comme un Maya Dents en diamant négro, j'rappe pas, j'fais d'la caillasse oui bitch D'la caillasse, ta bitch s'maquille comme Rama Yade J'sors en KTM d'la Paillade J'rentre dans sa chatte, j'crois qu'j'suis à deux doigts d'la noyade La noyade, j'crache dans des putes incroyables J'fume amné, bitch, j'fume ma salade Négro t'rafale, comme en Calabre Mojo fait des glitchs C'sûr qu'j'aligne les planètes avec mon négro pas net J'sors l'pied d'la caisse, la main sur sa fsse Canon sur la cuisse, j'glisse dans un actrice Tire le gros lot, négro chandail Polo Mami twerk comme pour championnats nationaux J'fume sur SoHo, elle, j'lui mets une sodo' Temps me couronne, Rolex est mon chrono, wa J'rock comme Bono, négro sors son golo J'la laisse faire un solo, après j'la unfollow C'est MTP, Togo, tatoué comme un cholo Grosse auto, semi-auto, j'tire dans tes biscotos Attention, tu perds d'la tension, hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Attention, tu perds d'la tension hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Moonwalk sur leurs gosses, comme un boss La vie nous sauce, la pluie me cause Pense aux gosses, j'ressors mon cross, tu sors ta grosse Pense aux gosses, j'ressors mon cross, tu sors ta grosse D'la noyade J'crache dans des putes incroyables J'fume amné, pute, j'fume ma salade Négro t'rafale, comme en Calabre J'pose ma sale voix pas autotunée, la seule fois qu'la vérité sonne faux J'ai choisi entre vivre vieux ou fortuné, croquer dans l'gros cul du monde, j'ai des dents d'fauves Ils pensent en 280 caractères, sur le ring, j'ai hâte d'y être La merde vole à ras d'terre, j'écrase leur son du pied gauche avec mon 808 fillette En clash avec mon égo, je rappe, je poursuis un autre but Les flingues se répètent comme l'écho, j'ai braqué la faux et la capuche noire à l'autre pute J'm'entraîne à mourir donc à piquer des sommes, j'ai fumé Chronos Y'a plus de rappeuses, réduit à niquer des hommes, le char du rap échoue sur l'île de Mykonos Mon âme est dans l'son comme le ver dans la pomme, en mode avion, sers-moi du kérosène S'il la veut, dites à Satan d'acheter l'album, mon larfeuille, c'est une zone érogène N'enfile pas les gants si t'as peur du compte, laisse-moi faire mon truc, j'suis seul dans mon feuilleton Tu dors depuis longtemps, l'arbitre a perdu l'compte, j'neutralise Judas, un canon dans l'illeton Attention, tu perds d'la tension, hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Attention, tu perds d'la tension hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Moonwalk sur leurs gosses, comme un boss La vie nous sauce, la pluie me cause Pense aux gosses, j'ressors mon cross, tu sors ta grosse Pense aux gosses, j'ressors mon cross, tu sors ta grosse</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Sapapaya Jean-Paul Gaultier m'a passé l'phone à Zahia incroyable Dents en roro comme un Maya Dents en diamant négro, j'rappe pas, j'fais d'la caillasse oui bitch D'la caillasse, ta bitch s'maquille comme Rama Yade J'sors en KTM d'la Paillade J'rentre dans sa chatte, j'crois qu'j'suis à deux doigts d'la noyade La noyade, j'crache dans des putes incroyables J'fume amné, bitch, j'fume ma salade Négro t'rafale, comme en Calabre Mojo fait des glitchs C'sûr qu'j'aligne les planètes avec mon négro pas net J'sors l'pied d'la caisse, la main sur sa fesse Canon sur la cuisse, j'glisse dans une actrice Tire le gros lot, négro chandail Polo Mami twerk comme pour championnats nationaux J'fume sur SoHo, elle, j'lui mets une sodo' Temps me couronne, Rolex est mon chrono, wa J'rock comme Bono, négro sors son golo J'la laisse faire un solo, après j'la unfollow C'est MTP, Togo, tatoué comme un cholo Grosse auto, semi-auto, j'tire dans tes biscotos Attention, tu perds d'la tension, hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Attention, tu perds d'la tension hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Moonwalk sur leurs gosses, comme un boss La vie nous sauce, la pluie me cause Pense aux gosses, j'ressors mon cross, tu sors ta grosse Pense aux gosses, j'ressors mon cross, tu sors ta grosse D'la noyade J'crache dans des putes incroyables J'fume amné, pute, j'fume ma salade Négro t'rafale, comme en Calabre J'pose ma sale voix pas autotunée, la seule fois qu'la vérité sonne faux J'ai choisi entre vivre vieux ou fortuné, croquer dans l'gros cul du monde, j'ai des dents d'fauves Ils pensent en 280 caractères, sur le ring, j'ai hâte d'y être La merde vole à ras d'terre, j'écrase leur son du pied gauche avec mon 808 fillette En clash avec mon égo, je rappe, je poursuis un autre but Les flingues se répètent comme l'écho, j'ai braqué la faux et la capuche noire à l'autre pute J'm'entraîne à mourir donc à piquer des sommes, j'ai fumé Chronos Y'a plus de rappeuses, réduit à niquer des hommes, le char du rap échoue sur l'île de Mykonos Mon âme est dans l'son comme le ver dans la pomme, en mode avion, sers-moi du kérosène S'il la veut, dites à Satan d'acheter l'album, mon larfeuille, c'est une zone érogène N'enfile pas les gants si t'as peur du compte, laisse-moi faire mon truc, j'suis seul dans mon feuilleton Tu dors depuis longtemps, l'arbitre a perdu l'compte, j'neutralise Judas, un canon dans l'illeton Attention, tu perds d'la tension, hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Attention, tu perds d'la tension hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Moonwalk sur leurs gosses, comme un boss La vie nous sauce, la pluie me cause Pense aux gosses, j'ressors mon cross, tu sors ta grosse Pense aux gosses, j'ressors mon cross, tu sors ta grosseYou might also like</t>
+          <t>Sapapaya Jean-Paul Gaultier m'a passé l'phone à Zahia incroyable Dents en roro comme un Maya Dents en diamant négro, j'rappe pas, j'fais d'la caillasse oui bitch D'la caillasse, ta bitch s'maquille comme Rama Yade J'sors en KTM d'la Paillade J'rentre dans sa chatte, j'crois qu'j'suis à deux doigts d'la noyade La noyade, j'crache dans des putes incroyables J'fume amné, bitch, j'fume ma salade Négro t'rafale, comme en Calabre Mojo fait des glitchs C'sûr qu'j'aligne les planètes avec mon négro pas net J'sors l'pied d'la caisse, la main sur sa fesse Canon sur la cuisse, j'glisse dans une actrice Tire le gros lot, négro chandail Polo Mami twerk comme pour championnats nationaux J'fume sur SoHo, elle, j'lui mets une sodo' Temps me couronne, Rolex est mon chrono, wa J'rock comme Bono, négro sors son golo J'la laisse faire un solo, après j'la unfollow C'est MTP, Togo, tatoué comme un cholo Grosse auto, semi-auto, j'tire dans tes biscotos Attention, tu perds d'la tension, hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Attention, tu perds d'la tension hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Moonwalk sur leurs gosses, comme un boss La vie nous sauce, la pluie me cause Pense aux gosses, j'ressors mon cross, tu sors ta grosse Pense aux gosses, j'ressors mon cross, tu sors ta grosse D'la noyade J'crache dans des putes incroyables J'fume amné, pute, j'fume ma salade Négro t'rafale, comme en Calabre J'pose ma sale voix pas autotunée, la seule fois qu'la vérité sonne faux J'ai choisi entre vivre vieux ou fortuné, croquer dans l'gros cul du monde, j'ai des dents d'fauves Ils pensent en 280 caractères, sur le ring, j'ai hâte d'y être La merde vole à ras d'terre, j'écrase leur son du pied gauche avec mon 808 fillette En clash avec mon égo, je rappe, je poursuis un autre but Les flingues se répètent comme l'écho, j'ai braqué la faux et la capuche noire à l'autre pute J'm'entraîne à mourir donc à piquer des sommes, j'ai fumé Chronos Y'a plus de rappeuses, réduit à niquer des hommes, le char du rap échoue sur l'île de Mykonos Mon âme est dans l'son comme le ver dans la pomme, en mode avion, sers-moi du kérosène S'il la veut, dites à Satan d'acheter l'album, mon larfeuille, c'est une zone érogène N'enfile pas les gants si t'as peur du compte, laisse-moi faire mon truc, j'suis seul dans mon feuilleton Tu dors depuis longtemps, l'arbitre a perdu l'compte, j'neutralise Judas, un canon dans l'illeton Attention, tu perds d'la tension, hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Attention, tu perds d'la tension hey Comme un boss, j'roule en cross Et puis j'les crosse, moonwalk sur leurs gosses Moonwalk sur leurs gosses, comme un boss La vie nous sauce, la pluie me cause Pense aux gosses, j'ressors mon cross, tu sors ta grosse Pense aux gosses, j'ressors mon cross, tu sors ta grosse</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait j'pop champi', pah Si t'as un gros cul t'es belle Mh Bitch, même si t'es laide Mh, j'te crache sur le nez est impoli, le gun est impoli Les négros suent, c'est la folie Nouveau Je suis dans un bolide, je fume l'hydroponique Bitch, j'ai un pack, j'ai un colis, pharaoh Donc je fais que cop, le négro est propre, ils sont Escherichia coli Merde Des clones, des dolly, bih, j'suis sur mon grind Je rentre des Darkside, des Nolli That's right Hey, bitch, j'ai la puissance, j'ai la vitess Darkside L'armée de 'tasses qui squat à ma place quand j'débarque sur Lutèce, mmh Le médecin a dit Si tu tiens à ta santé, bitch, il faut pas que tu m'testes You might also like</t>
+          <t>Disclaimer Transcrit à partir d'un extrait j'pop champi', pah Si t'as un gros cul t'es belle Mh Bitch, même si t'es laide Mh, j'te crache sur le nez est impoli, le gun est impoli Les négros suent, c'est la folie Nouveau Je suis dans un bolide, je fume l'hydroponique Bitch, j'ai un pack, j'ai un colis, pharaoh Donc je fais que cop, le négro est propre, ils sont Escherichia coli Merde Des clones, des dolly, bih, j'suis sur mon grind Je rentre des Darkside, des Nolli That's right Hey, bitch, j'ai la puissance, j'ai la vitess Darkside L'armée de 'tasses qui squat à ma place quand j'débarque sur Lutèce, mmh Le médecin a dit Si tu tiens à ta santé, bitch, il faut pas que tu m'testes</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Ils pop des pillules, j'fais les cachets That's rights, bitch La meilleure zaza dans les sachets R.R, j'respire, j'vais les dasher, han Herbe verte stockée dans les sachets Feel like Gxsha J'fais le 'seill-o, j'fais le cachet, han Ayosweedy, that one goin' crazy J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han, hey, hey, hey R.R, bitch, j'vais les dasher Pharaon That's rights, bitch Flow fluide, hm, naufragé Nouveau J'sors ma dick et j'met dans la trachée Marie-toi à la rue, tu vas manger les dragées Dans ma poche, bitch, tu sais qu'j'ai les flash et Hm, hm, hm Ils veulent la guerre, pour eux c'est tragique C'est tragique J'ressens ta bitch qui s'agite Qu'est-c'qu'elle veut ? Nigger Elle veut de la baguette magique Qu'est-c'qu'elle veut ? Nigger Elle veut du Spirit of Ecstasy, hey, hey, hey Hardcore comme un ex-nazi Hey J'ai des keys, j'suis un mec jazzy, hey J'électrise, j'suis high, comme l'estrade Fuck mes exs, et mes ex-fans You might also like Ils pop des pilules, j'fais les cachets La meilleure zaza dans le sachet R.R, j'respire, j'vais les dasher, han Herbe verte stockée dans les sachets J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han R.R, bitch, j'vais les dasher, han Han-han Négro, fuck ta commission, bitch Quand-quand tu parles du goat, bitch, fais pas d'omissions, bitch Quand tu penses à m'payer fais tes additions Négro, quand tu penses à m'tester fais tes ablutions, bitch Les négros m'aiment comme Koffi, comme l'abolition 24, bitch, j'viens du futur comme une prémonition, bitch Tes rappeurs nous les mangeons, nous les vomissons J'suis pas fair-play, j'l'ai mise K.O après soumission, bitch Nouveau Une Bentley dans ta collision, bitch J'met une liasse entre ses 'sse-fs, elle la prend en sandwich Pharaon, bitch, s'imaginent dans ma position Ils veulent m'atteindre, j'garde mon avance, comme l'horizon, bitch Ils pop des pillules, j'fais les cachets That's rights, bitch La meilleure zaza dans les sachets R.R, j'respire, j'vais les dasher, han Herbe verte stockée dans les sachets J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han R.R, bitch, j'vais les dasher, han Dasher, han</t>
+          <t>Ils pop des pillules, j'fais les cachets That's rights, bitch La meilleure zaza dans les sachets R.R, j'respire, j'vais les dasher, han Herbe verte stockée dans les sachets Feel like Gxsha J'fais le 'seill-o, j'fais le cachet, han Ayosweedy, that one goin' crazy J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han, hey, hey, hey R.R, bitch, j'vais les dasher Pharaon That's rights, bitch Flow fluide, hm, naufragé Nouveau J'sors ma dick et j'met dans la trachée Marie-toi à la rue, tu vas manger les dragées Dans ma poche, bitch, tu sais qu'j'ai les flash et Hm, hm, hm Ils veulent la guerre, pour eux c'est tragique C'est tragique J'ressens ta bitch qui s'agite Qu'est-c'qu'elle veut ? Nigger Elle veut de la baguette magique Qu'est-c'qu'elle veut ? Nigger Elle veut du Spirit of Ecstasy, hey, hey, hey Hardcore comme un ex-nazi Hey J'ai des keys, j'suis un mec jazzy, hey J'électrise, j'suis high, comme l'estrade Fuck mes exs, et mes ex-fans Ils pop des pilules, j'fais les cachets La meilleure zaza dans le sachet R.R, j'respire, j'vais les dasher, han Herbe verte stockée dans les sachets J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han R.R, bitch, j'vais les dasher, han Han-han Négro, fuck ta commission, bitch Quand-quand tu parles du goat, bitch, fais pas d'omissions, bitch Quand tu penses à m'payer fais tes additions Négro, quand tu penses à m'tester fais tes ablutions, bitch Les négros m'aiment comme Koffi, comme l'abolition 24, bitch, j'viens du futur comme une prémonition, bitch Tes rappeurs nous les mangeons, nous les vomissons J'suis pas fair-play, j'l'ai mise K.O après soumission, bitch Nouveau Une Bentley dans ta collision, bitch J'met une liasse entre ses 'sse-fs, elle la prend en sandwich Pharaon, bitch, s'imaginent dans ma position Ils veulent m'atteindre, j'garde mon avance, comme l'horizon, bitch Ils pop des pillules, j'fais les cachets That's rights, bitch La meilleure zaza dans les sachets R.R, j'respire, j'vais les dasher, han Herbe verte stockée dans les sachets J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han R.R, bitch, j'vais les dasher, han Dasher, han</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Ils pop des pillules, j'fais les cachets That's rights, bitch La meilleure zaza dans les sachets R.R, j'respire, j'vais les dasher, han Herbe verte stockée dans les sachets J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han, hey, hey, hey R.R, bitch, j'vais les dasher Pharaon That's rights, bitch Flow fluide, hm, naufragé Nouveau J'sors ma dick et j'met dans la trachée Mari-toi à la rue, tu vas manger les dragés Dans ma poche, bitch, tu sais qu'j'ai les flash et Hm, hm, hm Ils veulent la guerre, pour eux c'est tragique C'est tragique J'ressens ta bitch qui s'agite Qu'est-c'qu'elle veut ? Nigger Elle veut de la baguette magique Qu'est-c'qu'elle veut ? Nigger Elle veut du Spirit of Ecstasy, hey, hey, hey Hardcore comme un ex-nazi Hey J'ai des keys, j'suis un mec jazzy, hey J'électrise, j'suis high, comme l'estrade Fuck mes exs, et mes ex-fans Ils pop des pilules, j'fais les cachets La meilleure zaza dans le sachet R.R, j'respire, j'vais les dasher, han Herbe verte stockée dans les sachets J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han R.R, bitch, j'vais les dasher, han Han-han Négro, fuck ta commission, bitch Quand-quand tu parles du goat, bitch, fais pas d'omissions, bitch Quand tu penses à m'payer fais tes additions Négro, quand tu penses à m'tester fais tes ablutions, bitch Les négros m'aiment comme Koffi, comme l'abolition 24, bitch, j'viens du futur comme une prémonition, bitch Tes rappeurs nous les mangeons, nous les vomissons J'suis pas fair-play, j'l'ai mise K.O après soumission, bitch Nouveau Une Bentley dans ta collision, bitch J'met une liasse entre ses 'sse-fs, elle la prend en sandwich Pharaon, bitch, s'imaginent dans ma position Ils veulent m'atteindre, j'garde mon avance, comme l'horizon, bitch Ils pop des pillules, j'fais les cachets That's rights, bitch La meilleure zaza dans les sachets R.R, j'respire, j'vais les dasher, han Herbe verte stockée dans les sachets J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han R.R, bitch, j'vais les dasher, han Myth Syzer You might also like</t>
+          <t>Ils pop des pillules, j'fais les cachets That's rights, bitch La meilleure zaza dans les sachets R.R, j'respire, j'vais les dasher, han Herbe verte stockée dans les sachets J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han, hey, hey, hey R.R, bitch, j'vais les dasher Pharaon That's rights, bitch Flow fluide, hm, naufragé Nouveau J'sors ma dick et j'met dans la trachée Mari-toi à la rue, tu vas manger les dragés Dans ma poche, bitch, tu sais qu'j'ai les flash et Hm, hm, hm Ils veulent la guerre, pour eux c'est tragique C'est tragique J'ressens ta bitch qui s'agite Qu'est-c'qu'elle veut ? Nigger Elle veut de la baguette magique Qu'est-c'qu'elle veut ? Nigger Elle veut du Spirit of Ecstasy, hey, hey, hey Hardcore comme un ex-nazi Hey J'ai des keys, j'suis un mec jazzy, hey J'électrise, j'suis high, comme l'estrade Fuck mes exs, et mes ex-fans Ils pop des pilules, j'fais les cachets La meilleure zaza dans le sachet R.R, j'respire, j'vais les dasher, han Herbe verte stockée dans les sachets J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han R.R, bitch, j'vais les dasher, han Han-han Négro, fuck ta commission, bitch Quand-quand tu parles du goat, bitch, fais pas d'omissions, bitch Quand tu penses à m'payer fais tes additions Négro, quand tu penses à m'tester fais tes ablutions, bitch Les négros m'aiment comme Koffi, comme l'abolition 24, bitch, j'viens du futur comme une prémonition, bitch Tes rappeurs nous les mangeons, nous les vomissons J'suis pas fair-play, j'l'ai mise K.O après soumission, bitch Nouveau Une Bentley dans ta collision, bitch J'met une liasse entre ses 'sse-fs, elle la prend en sandwich Pharaon, bitch, s'imaginent dans ma position Ils veulent m'atteindre, j'garde mon avance, comme l'horizon, bitch Ils pop des pillules, j'fais les cachets That's rights, bitch La meilleure zaza dans les sachets R.R, j'respire, j'vais les dasher, han Herbe verte stockée dans les sachets J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han J'fais le 'seill-o, j'fais le cachet, han R.R, bitch, j'vais les dasher, han Myth Syzer</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>FREAKEY!, FREAKEY!.. J'les aime belles, discrètes J'les mets têtes sur têtes J'les mets bums sur bums J'ai un TEC, sur l'tec' J'les aime belles, discrètes J'les mets têtes sur têtes J'les mets bums sur bums Et j'ai un TEC, sur l'tec' Bébé, j'suis outside, han-han Bébé, j'suis outside, han Heyy Bébé, j'suis outside, han Heyy Il faut que j'vois le sky, han Heyy Bébé, j'suis outside, han Heyy Bébé, j'suis outside, han Heyy Bébé, j'suis outside, yeah, yeah Hey Bébé, j'suis out, hm Han Il faut que j'vois le sky, han Il m'faut un trio, han Han Il m'faut des Cat's Eyes, han Obligé You might also like Jeune gri-ot Han Tout en or, comme C3-PO, han 24 Sans les mains Han, suce-la, bitch, fais pas d'la phi-lo, han 24 Sans les mains Han, j'l'appelle ma Venus de Mi-lo, han Oui, bitch Au bled Han, j'mangeais du gari et j'buvais du Mi-lo Oui, bitch Fragement d'lumière dans la sy-llabe Han Cette 'tasse elle veut que je la kid-nappe J'suis avec la déesse de la vic-toire Han J'marche qu'avec les vrais négros, nique toi Si tu veux test, bitch, applique toi Heyy Dans le phone-tél y'a des bigs tchoins Heyy J'mets des trois points, j'mets des six points Heyy Tu sais qu'ta meuf est aux p'tits soins, han Oui, bitch, oui, bitch, oui, bitch J'lui casse le dos, j'mets du Keith Sweat, han Heyy, heyy, heyy J'parle aux étoiles, c'est le deep web Bébé, j'suis outside, han, incroyable Bébé, j'suis outside, han Oui, bitch Bébé, j'suis outside, han Oui, bitch Il faut que j'vois le sky Let's go Bébé, j'suis outside Han-haan Bébé, j'suis outside Han-haan Bébé, j'suis outside Han-haan Il faut que j'vois le sky, han Han Han Han Han Han Han</t>
+          <t>FREAKEY!, FREAKEY!.. J'les aime belles, discrètes J'les mets têtes sur têtes J'les mets bums sur bums J'ai un TEC, sur l'tec' J'les aime belles, discrètes J'les mets têtes sur têtes J'les mets bums sur bums Et j'ai un TEC, sur l'tec' Bébé, j'suis outside, han-han Bébé, j'suis outside, han Heyy Bébé, j'suis outside, han Heyy Il faut que j'vois le sky, han Heyy Bébé, j'suis outside, han Heyy Bébé, j'suis outside, han Heyy Bébé, j'suis outside, yeah, yeah Hey Bébé, j'suis out, hm Han Il faut que j'vois le sky, han Il m'faut un trio, han Han Il m'faut des Cat's Eyes, han Obligé Jeune gri-ot Han Tout en or, comme C3-PO, han 24 Sans les mains Han, suce-la, bitch, fais pas d'la phi-lo, han 24 Sans les mains Han, j'l'appelle ma Venus de Mi-lo, han Oui, bitch Au bled Han, j'mangeais du gari et j'buvais du Mi-lo Oui, bitch Fragement d'lumière dans la sy-llabe Han Cette 'tasse elle veut que je la kid-nappe J'suis avec la déesse de la vic-toire Han J'marche qu'avec les vrais négros, nique toi Si tu veux test, bitch, applique toi Heyy Dans le phone-tél y'a des bigs tchoins Heyy J'mets des trois points, j'mets des six points Heyy Tu sais qu'ta meuf est aux p'tits soins, han Oui, bitch, oui, bitch, oui, bitch J'lui casse le dos, j'mets du Keith Sweat, han Heyy, heyy, heyy J'parle aux étoiles, c'est le deep web Bébé, j'suis outside, han, incroyable Bébé, j'suis outside, han Oui, bitch Bébé, j'suis outside, han Oui, bitch Il faut que j'vois le sky Let's go Bébé, j'suis outside Han-haan Bébé, j'suis outside Han-haan Bébé, j'suis outside Han-haan Il faut que j'vois le sky, han Han Han Han Han Han Han</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Discographie - Les Monsieur Single - 2011 Les Monsieur - Deux meufs - 20110615 Les Monsieur - Alycia - 20110721 Les Monsieur - Les Mrs Banger - 201204 Les Monsieur - LMGMTP Discographie complémentaire - Discographie - Ateyaba - Discographie - Bip's - Discographie - Leknifrug - Discographie - TitanYou might also like</t>
+          <t>Discographie - Les Monsieur Single - 2011 Les Monsieur - Deux meufs - 20110615 Les Monsieur - Alycia - 20110721 Les Monsieur - Les Mrs Banger - 201204 Les Monsieur - LMGMTP Discographie complémentaire - Discographie - Ateyaba - Discographie - Bip's - Discographie - Leknifrug - Discographie - Titan</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Hey Hennessy sur le coin, t'sais qu'je ball j'mets un lay-up VVS sur le poing et en plus j'ai des day off J'sors d'chez Margiela, rejoins moi j'vais chez Dior Tout mes pains sont trop bonnes, c'est des cyborgs J'roule d'la beuh qui se vends à prix d'or J'parle aux étoiles pendant qu'y en a qui dorment Être jeune et noir en France pas évident J'étais avec ma grand-mère dans la ville, dans le bidon J'bois le tchouk au bled, j'me sens vivant Smaine plus tard j'bois le champagne à Vuitton Hy Hennessy sur le coin, t'sais qu'je ball j'mets un lay-up VVS sur le poing et en plus j'ai des day off J'sors d'chez Margiela, rejoins moi j'vais chez Dior Dans mon joint j'mets du taga, dans mon pain j'mets du foie gras go Toujours le stick sur moi comme si j'prenais du viagra You might also like Le rap çais-fran my ngga j'lui donne des complexes Elle m'envoie son cortex pendant qu'j'écoute Cortex Elle manie ma baguette comme un chef d'orchestre Le mojo surnaturel elle veut qu'j'glisse dans son vortex Le monde est glacé donc j'ai l'feu dans la gore-tex Les plus belles marocaines, les plus belles antillaises Elles veulent toutes me pé-pom l'mojo les vampiresses Avec mon oseille ta mère s'paie des Kleenex J'cuisine la dope, j'fais mon son sur du pyrex Les pierres autour d'mon cou étincellent comme du silex J'en fais qu'une bouchée j'bouffe sa chatte comme un T-rex Ma mère a tant souffert, mon père portait les parpaings Devant les porcins j'suis muet comme une carpe hein Comme Anakin j'fais usage de la force hein Tu veux parler d'oseille c'est l'moment opportun Hennessy sur le coin, t'sais qu'je ball j'mets un lay-up VVS sur le poing et en plus j'ai des day off J'sors d'chez Margiela, rejoins moi j'vais chez Dior</t>
+          <t>Hey Hennessy sur le coin, t'sais qu'je ball j'mets un lay-up VVS sur le poing et en plus j'ai des day off J'sors d'chez Margiela, rejoins moi j'vais chez Dior Tout mes pains sont trop bonnes, c'est des cyborgs J'roule d'la beuh qui se vends à prix d'or J'parle aux étoiles pendant qu'y en a qui dorment Être jeune et noir en France pas évident J'étais avec ma grand-mère dans la ville, dans le bidon J'bois le tchouk au bled, j'me sens vivant Smaine plus tard j'bois le champagne à Vuitton Hy Hennessy sur le coin, t'sais qu'je ball j'mets un lay-up VVS sur le poing et en plus j'ai des day off J'sors d'chez Margiela, rejoins moi j'vais chez Dior Dans mon joint j'mets du taga, dans mon pain j'mets du foie gras go Toujours le stick sur moi comme si j'prenais du viagra Le rap çais-fran my ngga j'lui donne des complexes Elle m'envoie son cortex pendant qu'j'écoute Cortex Elle manie ma baguette comme un chef d'orchestre Le mojo surnaturel elle veut qu'j'glisse dans son vortex Le monde est glacé donc j'ai l'feu dans la gore-tex Les plus belles marocaines, les plus belles antillaises Elles veulent toutes me pé-pom l'mojo les vampiresses Avec mon oseille ta mère s'paie des Kleenex J'cuisine la dope, j'fais mon son sur du pyrex Les pierres autour d'mon cou étincellent comme du silex J'en fais qu'une bouchée j'bouffe sa chatte comme un T-rex Ma mère a tant souffert, mon père portait les parpaings Devant les porcins j'suis muet comme une carpe hein Comme Anakin j'fais usage de la force hein Tu veux parler d'oseille c'est l'moment opportun Hennessy sur le coin, t'sais qu'je ball j'mets un lay-up VVS sur le poing et en plus j'ai des day off J'sors d'chez Margiela, rejoins moi j'vais chez Dior</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sucer comme eux j'ai la flemme Bitch, dans sa chatte c'est la crème Je marche sur le monde, c'est ma scène Deux chromosomes X c'est ma chienne Les rappeurs à la traîne Les auditeurs à la traîne Je médite deux heures dans l'après-m' L'Univers qui coule dans la veine J'suis pas le sang de la veine J'suis le synonyme de l'advent J'suis l'synonym de la chance Sur scène, c'st un film de cul Bitch, j'suis un roi dans l'arène Leurs 'tasses, elles craquent comme des Elles veulent sucer mes cm Escalier vers Dieu mon ADN Négro, réaliser tes rêves, ça veut pas dire riche et célèbre Chaque écoute, ton esprit s'élève Chaque écoute, ton âme qui s'élève Pharaon joue mon rôle Personne ne peut le jouer Ils veulent jouer mon rôle Mais comme des acteurs peuvent que jouer You might also like J'rock Hysteric, bitch, Ekusutash no seishin J'fuck pas avec l'occident, comme Friedrich Nietzsche Stick sur moi, comme si j'allais jouer au quidditch J'sais qu'tu taffes pas chez Levi's Mais tu vas voir plein de djinns, bitch, ohohohh Plein de djinns Plein de djinns, plein- plein de Djinns, plein de- plein de djinns, plein de djinns, ohohohh Tu vas voir plein de- plein, plein, plein de djinns, tu taffes pas chez Levi's mais tu vas voir plein de djinns, plein de djinns, ohohohh Plein de djinns, plein de djinns, hey Plein de djinns, plein de djinns, tu vas voir plein, plein de djinns, plein, plein, plein de djinns, ohohohh Fuck avec pharaon, tu vas.. voir plein de djinns, bitch Plein de- Plein, plein, plein, plein de djinns, bitch, hein, ohohohh T'as la mâchure au cou, origin bitch Tu sais que, han, j'ai les punchs, comme Tekken 3 J'suis Jin, bitch Han Hé Hey, karma in his..</t>
+          <t>Sucer comme eux j'ai la flemme Bitch, dans sa chatte c'est la crème Je marche sur le monde, c'est ma scène Deux chromosomes X c'est ma chienne Les rappeurs à la traîne Les auditeurs à la traîne Je médite deux heures dans l'après-m' L'Univers qui coule dans la veine J'suis pas le sang de la veine J'suis le synonyme de l'advent J'suis l'synonym de la chance Sur scène, c'st un film de cul Bitch, j'suis un roi dans l'arène Leurs 'tasses, elles craquent comme des Elles veulent sucer mes cm Escalier vers Dieu mon ADN Négro, réaliser tes rêves, ça veut pas dire riche et célèbre Chaque écoute, ton esprit s'élève Chaque écoute, ton âme qui s'élève Pharaon joue mon rôle Personne ne peut le jouer Ils veulent jouer mon rôle Mais comme des acteurs peuvent que jouer J'rock Hysteric, bitch, Ekusutash no seishin J'fuck pas avec l'occident, comme Friedrich Nietzsche Stick sur moi, comme si j'allais jouer au quidditch J'sais qu'tu taffes pas chez Levi's Mais tu vas voir plein de djinns, bitch, ohohohh Plein de djinns Plein de djinns, plein- plein de Djinns, plein de- plein de djinns, plein de djinns, ohohohh Tu vas voir plein de- plein, plein, plein de djinns, tu taffes pas chez Levi's mais tu vas voir plein de djinns, plein de djinns, ohohohh Plein de djinns, plein de djinns, hey Plein de djinns, plein de djinns, tu vas voir plein, plein de djinns, plein, plein, plein de djinns, ohohohh Fuck avec pharaon, tu vas.. voir plein de djinns, bitch Plein de- Plein, plein, plein, plein de djinns, bitch, hein, ohohohh T'as la mâchure au cou, origin bitch Tu sais que, han, j'ai les punchs, comme Tekken 3 J'suis Jin, bitch Han Hé Hey, karma in his..</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Ouais, les belles dames dorées Richie-zer, Joky, Eli, MTP Ouais x2 À Paris c'est les mêmes MTP c'est les mêmes Rabat c'est les mêmes Dar El Beïda c'est les mêmes Shawty, shawty J'aime ton style si raffiné Tu sirotes ton rop-si sur les terrasses les plus branchées Oh ouais, oh ouais Graille du rebeu pour t'encanailler Collants filés La farine est défonce de beaux quartiers Belle dorée Tu as tout mais tu ne cherches pas la maille Tu sais que l'habit ne fait pas le moine J'veux m'la faire sans trop de mal Je t'arrache ta robe à 300 balles T'as beau être pressée j'vais t'faire du sale Ça te plaît You might also like MTP c'est les mêmes À Rabat c'est les mêmes Paris c'est les mêmes MTP c'est les mêmes À Rabat c'est les mêmes Paris c'est les mêmes, oh J'suis dans les belles dames dorées J'suis dans les belles dames dorées J'suis dans les belles dames dorées MTP, on est dans les belles dames dorées J'suis dans les belles dames dorées J'suis dans les belles dames dorées J'suis dans les belles dames dorées MTP, on est dans les belles dames dorées Oui, 24 T'aimes les diamants, t'aimes pas les strass T'es bien roulée, t'es ma pétasse Parfum niche, 400 balles le Tom Ford Veste à 410 T'façon miss, j'sais qu't'aimes quand ça cogne fort J'sais que tu tapes ton vice Et j'te la mets dans la bouche quand mes pensées s'assombrissent On est sur les nerfs Caviar, bouchée d'fois gras J'te mets à quatre pattes, j'te mets ta hagra Sur la photo de tes parents, je débouche la bouteille de Amand Si ils savaient que c'est moi ton amant J'te fais hurler dans leur salon Quand j'suis au fond, quand j'suis au fond T'oublies tout, quand j'suis au fond Depuis qu't'es p'tite, t'évites les tess La tess est venue à toi Tu croyais qu'c'était juste des textes Maintenant j'fais rougir tes fesses Tu aimes c'que j'aime et ça s'voit chérie Suce mon doigt et regarde-moi chérie Dans les toilettes de l'opéra Là où personne n'nous verra J'aurai ton parfum sur les doigts On est sur les nerfs Tu m'fais des gâteries dans la Jeep J'te fais des saletés dans la suite Dans la suite, on est sur les nerfs MTP c'est les mêmes À Rabat c'est les mêmes Paris c'est les mêmes MTP c'est les mêmes À Rabat c'est les mêmes Paris c'est les mêmes J'suis dans les belles dames dorées J'suis dans les belles dames dorées J'suis dans les belles dames dorées11893716 28734165 on est dans les belles dames dorées J'suis dans les belles dames dorées J'suis dans les belles dames dorées J'suis dans les belles dames dorées MTP, on est dans les belles dames dorées1</t>
+          <t>Ouais, les belles dames dorées Richie-zer, Joky, Eli, MTP Ouais x2 À Paris c'est les mêmes MTP c'est les mêmes Rabat c'est les mêmes Dar El Beïda c'est les mêmes Shawty, shawty J'aime ton style si raffiné Tu sirotes ton rop-si sur les terrasses les plus branchées Oh ouais, oh ouais Graille du rebeu pour t'encanailler Collants filés La farine est défonce de beaux quartiers Belle dorée Tu as tout mais tu ne cherches pas la maille Tu sais que l'habit ne fait pas le moine J'veux m'la faire sans trop de mal Je t'arrache ta robe à 300 balles T'as beau être pressée j'vais t'faire du sale Ça te plaît MTP c'est les mêmes À Rabat c'est les mêmes Paris c'est les mêmes MTP c'est les mêmes À Rabat c'est les mêmes Paris c'est les mêmes, oh J'suis dans les belles dames dorées J'suis dans les belles dames dorées J'suis dans les belles dames dorées MTP, on est dans les belles dames dorées J'suis dans les belles dames dorées J'suis dans les belles dames dorées J'suis dans les belles dames dorées MTP, on est dans les belles dames dorées Oui, 24 T'aimes les diamants, t'aimes pas les strass T'es bien roulée, t'es ma pétasse Parfum niche, 400 balles le Tom Ford Veste à 410 T'façon miss, j'sais qu't'aimes quand ça cogne fort J'sais que tu tapes ton vice Et j'te la mets dans la bouche quand mes pensées s'assombrissent On est sur les nerfs Caviar, bouchée d'fois gras J'te mets à quatre pattes, j'te mets ta hagra Sur la photo de tes parents, je débouche la bouteille de Amand Si ils savaient que c'est moi ton amant J'te fais hurler dans leur salon Quand j'suis au fond, quand j'suis au fond T'oublies tout, quand j'suis au fond Depuis qu't'es p'tite, t'évites les tess La tess est venue à toi Tu croyais qu'c'était juste des textes Maintenant j'fais rougir tes fesses Tu aimes c'que j'aime et ça s'voit chérie Suce mon doigt et regarde-moi chérie Dans les toilettes de l'opéra Là où personne n'nous verra J'aurai ton parfum sur les doigts On est sur les nerfs Tu m'fais des gâteries dans la Jeep J'te fais des saletés dans la suite Dans la suite, on est sur les nerfs MTP c'est les mêmes À Rabat c'est les mêmes Paris c'est les mêmes MTP c'est les mêmes À Rabat c'est les mêmes Paris c'est les mêmes J'suis dans les belles dames dorées J'suis dans les belles dames dorées J'suis dans les belles dames dorées11893716 28734165 on est dans les belles dames dorées J'suis dans les belles dames dorées J'suis dans les belles dames dorées J'suis dans les belles dames dorées MTP, on est dans les belles dames dorées1</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Stop playing with me FREAKEY!, FREAKEY! Yeah, bang Audi Q7, tu sexes, tu sais, d'Ussé, cul-sec, du sec, tu sais Envoyé du ciel, dans sa vie j'mets du sel Tant que j't'ai pas ken t'es pucelle, j'la laisse l'entrejambe qui ruisselle Dans mon cou, j'mets 24 carats, dans ton cou, j'mets 24 carats Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Aura fast, un grand apparat, big up mes ninjas, à Kara Yeah, yeah, yeah, j'débarque avec chakra à Gaara Faut qu'j'éclate la chatte à Clara, à Sarah, j'suis real life tchala Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Mh, mh, faut qu'j'aille swagger au Met Gala Trop de culs ronds au mètre carré, quand elles m'voient ells disent mash'Allah, hey Hm, hm, hm, pussy, juicy, quand j'suis là ells se mettent à mousser, quand j'suis là elles se mettent à glousser Négro c'est vous ou c'est nous 'Ppe-sa', pétasse, tout est nouveau, tout est tout beau, toutes les bitchs, tout tout tout est doux Yeah, yeah, yeah Négro c'est vous ou c'est nous 'Ppe-sa', pétasse, tout est nouveau, tout est tout beau, tout est doux You might also like Sip Martini, c'est pas fini Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais J'veux t'connaître, fais pas ta timide Chatte à ta meuf pour l'alibi J'débarque au moment fatidique Fils de rhala, dans la city On fait pas peur aux alchimistes, on fait pas peur aux alchimistes Yeah, yeah, yeah Hey, hey, hey, hey, hey Hm, hm, hm, grosse paire de Evisu Négro, toutes les bitches j'les bizute, j'traumatise les pires putes Être incroyable j'ai l'habitude Merde Hiéroglyphes, mon écriture Faux négro, j'te rend la vie dure Merde J'peux pas fake l'attitude, être incroyable, j'ai l'habitude, hm Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Hey, négro c'est vous ou c'est nous, aïe, aïe-aïe J'fais prière à Isis, elle m'donne une aura magnifique, si si Yeah Yeah</t>
+          <t>Stop playing with me FREAKEY!, FREAKEY! Yeah, bang Audi Q7, tu sexes, tu sais, d'Ussé, cul-sec, du sec, tu sais Envoyé du ciel, dans sa vie j'mets du sel Tant que j't'ai pas ken t'es pucelle, j'la laisse l'entrejambe qui ruisselle Dans mon cou, j'mets 24 carats, dans ton cou, j'mets 24 carats Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Aura fast, un grand apparat, big up mes ninjas, à Kara Yeah, yeah, yeah, j'débarque avec chakra à Gaara Faut qu'j'éclate la chatte à Clara, à Sarah, j'suis real life tchala Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Mh, mh, faut qu'j'aille swagger au Met Gala Trop de culs ronds au mètre carré, quand elles m'voient ells disent mash'Allah, hey Hm, hm, hm, pussy, juicy, quand j'suis là ells se mettent à mousser, quand j'suis là elles se mettent à glousser Négro c'est vous ou c'est nous 'Ppe-sa', pétasse, tout est nouveau, tout est tout beau, toutes les bitchs, tout tout tout est doux Yeah, yeah, yeah Négro c'est vous ou c'est nous 'Ppe-sa', pétasse, tout est nouveau, tout est tout beau, tout est doux Sip Martini, c'est pas fini Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais J'veux t'connaître, fais pas ta timide Chatte à ta meuf pour l'alibi J'débarque au moment fatidique Fils de rhala, dans la city On fait pas peur aux alchimistes, on fait pas peur aux alchimistes Yeah, yeah, yeah Hey, hey, hey, hey, hey Hm, hm, hm, grosse paire de Evisu Négro, toutes les bitches j'les bizute, j'traumatise les pires putes Être incroyable j'ai l'habitude Merde Hiéroglyphes, mon écriture Faux négro, j'te rend la vie dure Merde J'peux pas fake l'attitude, être incroyable, j'ai l'habitude, hm Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Hey, négro c'est vous ou c'est nous, aïe, aïe-aïe J'fais prière à Isis, elle m'donne une aura magnifique, si si Yeah Yeah</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Extrait ? 749 I hear you in the background J'veux la gova à 110 000e Laisse ces négros sont sensibles Ils veulent juste faire du mal à mon bizness Fais tes courses à Vintimille, j'fais mes courses à Milan J'dépense mille en 5-6 minutes Des billets de toutes sortes, j'porte une chaîne dans l'coupe gorge Oui bitch oui bitch J'fais grimper le cours d'l'or, plus de blé qu'dans l'? Laisse ces bâtards sous l'choc J'suis sur un gros coup à la BMF Le savoir est une arme, trouve moi à la BNF Renoi on nique le bénef, renoi les p'tites se délectent Fais plus de disques que ces nègres, j'aime plus les chiffres que les lettres J'suis juste un fils de kemeth, qui est devenu c'qu'il devait être Sorti Age Ain't Nothing but a number Remix 3107You might also like1</t>
+          <t>Extrait ? 749 I hear you in the background J'veux la gova à 110 000e Laisse ces négros sont sensibles Ils veulent juste faire du mal à mon bizness Fais tes courses à Vintimille, j'fais mes courses à Milan J'dépense mille en 5-6 minutes Des billets de toutes sortes, j'porte une chaîne dans l'coupe gorge Oui bitch oui bitch J'fais grimper le cours d'l'or, plus de blé qu'dans l'? Laisse ces bâtards sous l'choc J'suis sur un gros coup à la BMF Le savoir est une arme, trouve moi à la BNF Renoi on nique le bénef, renoi les p'tites se délectent Fais plus de disques que ces nègres, j'aime plus les chiffres que les lettres J'suis juste un fils de kemeth, qui est devenu c'qu'il devait être Sorti Age Ain't Nothing but a number Remix 31071</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Un nègre comme moi trouve ça facile yeah, j'ai un stripclub dans la carte sim yeah J'conduis gamos comme un karting yeah, j'baise des catins, j'mange dakatine yeah Dent en or rose sur la carie yeah, j'travaille comme une machine dor et platine yeah Vicieux comme DSK et Palpatine yeah, diamants sur la poitrine, ça la fascine yeah Pour faire l'oseille on trouve des choses à faire, des talons hauts peuvent mettre des hommes à terre Tout se monnaye, regarde ce qu'on acquiert, j'baise comme un sénateur, j'actionne détonateur Les liasses épaisses comme la sauce Gombo, au comico' j'mythone comme John Doe Toutes mes crapules sont beaux-gosses, la maille ça rend beau On est magiques comme à Orlando 24 cest lor à Khadafi oui, billets violets sortent d'la matrice Jeune Marc Veyrat, j'suis à se-l'ai, mange les pissenlits par la racine Renoi j'fais la diff', je tire les penaltys, j'fais les effets spéciaux, s'prennent comme au cinéma wouh Même si Médusa m'suçait en m'regardant dans les yeux, j'serais pas plus dur que c'que je suis déjàYou might also like</t>
+          <t>Un nègre comme moi trouve ça facile yeah, j'ai un stripclub dans la carte sim yeah J'conduis gamos comme un karting yeah, j'baise des catins, j'mange dakatine yeah Dent en or rose sur la carie yeah, j'travaille comme une machine dor et platine yeah Vicieux comme DSK et Palpatine yeah, diamants sur la poitrine, ça la fascine yeah Pour faire l'oseille on trouve des choses à faire, des talons hauts peuvent mettre des hommes à terre Tout se monnaye, regarde ce qu'on acquiert, j'baise comme un sénateur, j'actionne détonateur Les liasses épaisses comme la sauce Gombo, au comico' j'mythone comme John Doe Toutes mes crapules sont beaux-gosses, la maille ça rend beau On est magiques comme à Orlando 24 cest lor à Khadafi oui, billets violets sortent d'la matrice Jeune Marc Veyrat, j'suis à se-l'ai, mange les pissenlits par la racine Renoi j'fais la diff', je tire les penaltys, j'fais les effets spéciaux, s'prennent comme au cinéma wouh Même si Médusa m'suçait en m'regardant dans les yeux, j'serais pas plus dur que c'que je suis déjà</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Sautons dans l'vide, sautons dans l'vide Juste toi et moi, sautons dans l'vide Yeah Juste toi et moi Sautons dans l'vide, juste toi et moi Sautons dans l'vide, juste toi et moi Oui ma babe Pa-pa-pa, oui ma babe Pa-pa-pa Oui my baby, oui ma babe Oui, bitch Oui ma babe, oui ma babe Oui, bitch Oui my baby, oui ma babe Pochon dans l'VIP Yah, plus frais qu'dans le clip Saute sur ma bite, saute sur ma bite Alright babe, saute sur ma bite Alright babe, alright babe Sautons dans l'vide Dans l'équipe avec mes gunners Sautons dans l'vide J'ai d'la 'ppe-fra' dans la Truck Ta pussy j'lui dis des secrets, j'mets ta pussy sur ma 'te-tê', j'mets ta pussy dans un Uber On fait joujou dans l'ascenseur Les coups dans ta chatte remontent à ton cur Les coups dans ta chatte remontent à ton cur You might also like Sautons dans l'vide, sautons dans l'vide Juste toi et moi, sautons dans l'vide Sautons dans l'vide, juste toi et moi Sautons dans l'vide, juste toi et moi Oui ma babe, oui ma babe Oui ma baby, oui ma babe Oui ma babe, oui ma babe Oui ma baby, oui ma babe Pochon dans l'VIP, j'ai du bon shit Saute sur ma bite, saute sur ma bite Alright babe, alright babe Alright babe, alright babe1</t>
+          <t>Sautons dans l'vide, sautons dans l'vide Juste toi et moi, sautons dans l'vide Yeah Juste toi et moi Sautons dans l'vide, juste toi et moi Sautons dans l'vide, juste toi et moi Oui ma babe Pa-pa-pa, oui ma babe Pa-pa-pa Oui my baby, oui ma babe Oui, bitch Oui ma babe, oui ma babe Oui, bitch Oui my baby, oui ma babe Pochon dans l'VIP Yah, plus frais qu'dans le clip Saute sur ma bite, saute sur ma bite Alright babe, saute sur ma bite Alright babe, alright babe Sautons dans l'vide Dans l'équipe avec mes gunners Sautons dans l'vide J'ai d'la 'ppe-fra' dans la Truck Ta pussy j'lui dis des secrets, j'mets ta pussy sur ma 'te-tê', j'mets ta pussy dans un Uber On fait joujou dans l'ascenseur Les coups dans ta chatte remontent à ton cur Les coups dans ta chatte remontent à ton cur Sautons dans l'vide, sautons dans l'vide Juste toi et moi, sautons dans l'vide Sautons dans l'vide, juste toi et moi Sautons dans l'vide, juste toi et moi Oui ma babe, oui ma babe Oui ma baby, oui ma babe Oui ma babe, oui ma babe Oui ma baby, oui ma babe Pochon dans l'VIP, j'ai du bon shit Saute sur ma bite, saute sur ma bite Alright babe, alright babe Alright babe, alright babe1</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>CashMoneyAP Eh, yeah Hein-hein Ils vont finir par m'fumer Eh L'argent n'a pas d'odeur J'paye des bougies parfumées, dois finir fortuné Paro comme Malcolm X, j'regarde par la fenêtre Le labeur et la finesse, feront de moi ce nègre Mate ma gueule sous les néons J'médite que sur le million Embrasse mes souvenirs Pour l'meilleur et pour le pire Ton futur est rouge vermillon On nous baise comme Patrick Dils J'suis sauvage, j'suis pas timide Bouffe sa chatte comme un sashimi On va pas les aider Deux tasses-pé dans mon lit Gros j'sais que j'vois pas double même si j'suis à moitié khabat Ouais, elles sont prêtes à tout J'fume mon cigarillo, j'la regarde avaler sa chatte Ramène une bonne twerkeuse Avec d'l'huile sur les sseufs si tu veux me graisser la patte J'veux plafond haussmannien, du Buffet sur les murs Nique sa mère les soirées appart' Deux pétasses dans mon lit J'sais que j'vois pas double même si j'suis à moitié khabat Qu'est-ce qui s'passe? Ouais, elles sont prêtes à tout J'fume mon cigarillo, j'la regarde avaler sa chatte Ramène une bonne twerkeuse Avec d'l'huile sur les sseufs si tu veux me graisser la patte J'veux plafond haussmannien, du Buffet sur les murs Nique sa mère les soirées appart' I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Ils vont finir par m'fumer Eh L'argent n'a pas d'odeur J'paye des bougies parfumées, dois finir fortuné Paro comme Malcolm X, j'regarde par la fenêtre Le labeur et la finesse feront de moi ce nègre Mate ma gueule sous les néons J'médite que sur le million Mes souvenirs Pour l'meilleur et pour le pire Ton futur est rouge vermillon On nous baise comme Patrick Dils J'suis sauvage, j'suis pas timide J'bouffe sa chatte comme un sashimi On va pas les aider Deux tasses-pé dans mon lit Gros j'sais que j'vois pas double même si j'suis à moitié khabat Ouais, elles sont prêtes à tout J'fume mon cigarillo, j'la regarde avaler sa chatte Ramène une bonne twerkeuse Avec d'l'huile sur les sseufs si tu veux me graisser la patte J'veux plafond haussmannien, du Buffet sur les murs Nique sa mère les soirées appart' Deux pétasses dans mon lit Gros j'sais que j'vois pas double même si j'suis à moitié khabat Qu'est-ce qui s'passe? Ouais, elles sont prêtes à tout J'fume mon cigarillo, j'la regarde avaler sa chatte Ramène une bonne twerkeuse Avec d'l'huile sur les sseufs si tu veux me graisser la patte J'veuxplafond haussmannien, du Buffet sur les murs Nique sa mère les soirées appart' I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bangYou might also like</t>
+          <t>CashMoneyAP Eh, yeah Hein-hein Ils vont finir par m'fumer Eh L'argent n'a pas d'odeur J'paye des bougies parfumées, dois finir fortuné Paro comme Malcolm X, j'regarde par la fenêtre Le labeur et la finesse, feront de moi ce nègre Mate ma gueule sous les néons J'médite que sur le million Embrasse mes souvenirs Pour l'meilleur et pour le pire Ton futur est rouge vermillon On nous baise comme Patrick Dils J'suis sauvage, j'suis pas timide Bouffe sa chatte comme un sashimi On va pas les aider Deux tasses-pé dans mon lit Gros j'sais que j'vois pas double même si j'suis à moitié khabat Ouais, elles sont prêtes à tout J'fume mon cigarillo, j'la regarde avaler sa chatte Ramène une bonne twerkeuse Avec d'l'huile sur les sseufs si tu veux me graisser la patte J'veux plafond haussmannien, du Buffet sur les murs Nique sa mère les soirées appart' Deux pétasses dans mon lit J'sais que j'vois pas double même si j'suis à moitié khabat Qu'est-ce qui s'passe? Ouais, elles sont prêtes à tout J'fume mon cigarillo, j'la regarde avaler sa chatte Ramène une bonne twerkeuse Avec d'l'huile sur les sseufs si tu veux me graisser la patte J'veux plafond haussmannien, du Buffet sur les murs Nique sa mère les soirées appart' I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Ils vont finir par m'fumer Eh L'argent n'a pas d'odeur J'paye des bougies parfumées, dois finir fortuné Paro comme Malcolm X, j'regarde par la fenêtre Le labeur et la finesse feront de moi ce nègre Mate ma gueule sous les néons J'médite que sur le million Mes souvenirs Pour l'meilleur et pour le pire Ton futur est rouge vermillon On nous baise comme Patrick Dils J'suis sauvage, j'suis pas timide J'bouffe sa chatte comme un sashimi On va pas les aider Deux tasses-pé dans mon lit Gros j'sais que j'vois pas double même si j'suis à moitié khabat Ouais, elles sont prêtes à tout J'fume mon cigarillo, j'la regarde avaler sa chatte Ramène une bonne twerkeuse Avec d'l'huile sur les sseufs si tu veux me graisser la patte J'veux plafond haussmannien, du Buffet sur les murs Nique sa mère les soirées appart' Deux pétasses dans mon lit Gros j'sais que j'vois pas double même si j'suis à moitié khabat Qu'est-ce qui s'passe? Ouais, elles sont prêtes à tout J'fume mon cigarillo, j'la regarde avaler sa chatte Ramène une bonne twerkeuse Avec d'l'huile sur les sseufs si tu veux me graisser la patte J'veuxplafond haussmannien, du Buffet sur les murs Nique sa mère les soirées appart' I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang Bang I blow, I blow, I blow, I blow a bang</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>FREAKEY! Paw J'ai plein d'tasses à faire 'ter-sau' mais j'm'en bats la race Oui, bitch Bébé, suce-moi sans les mains, l'négro est en Raf Parlons peu, faut parler bien, dis-moi où est ma liasse Couronne dans le cadran, or pur mes médailles J'ball à tous les quarts-temps, Cudi, Day 'N' Nite J'ball comme un shaolin,, j'médite sur la maille Yes J'ball comme en Caroline, elle a l'cul comme K.O.D Oui, my nigga J'pop un pill Paw J'sors le même chrome que dans Silent Hill Paw, paw J'te tire les 'veux-che' et j't'arrache ton string J'te tire les 'veux-che' et j't'arrache ton string Let's go J'ai plein d'tasses à faire 'ter-sau' mais j'm'en bats la race Oui, bitch Bébé, suce-moi sans les mains, l'négro est en Raf Parlons peu, faut parler bien, dis-moi où est ma liasse Yes Couronne dans le cadran, or pur mes médailles You might also like J'ball à tous les quarts-temps, Cudi, Day 'N' Nite Swish J'ball comme un shaolin, j'médite sur la maille Swish J'ball comme en Caroline, elle a l'cul comme K.O.D Oui, my nigga</t>
+          <t>FREAKEY! Paw J'ai plein d'tasses à faire 'ter-sau' mais j'm'en bats la race Oui, bitch Bébé, suce-moi sans les mains, l'négro est en Raf Parlons peu, faut parler bien, dis-moi où est ma liasse Couronne dans le cadran, or pur mes médailles J'ball à tous les quarts-temps, Cudi, Day 'N' Nite J'ball comme un shaolin,, j'médite sur la maille Yes J'ball comme en Caroline, elle a l'cul comme K.O.D Oui, my nigga J'pop un pill Paw J'sors le même chrome que dans Silent Hill Paw, paw J'te tire les 'veux-che' et j't'arrache ton string J'te tire les 'veux-che' et j't'arrache ton string Let's go J'ai plein d'tasses à faire 'ter-sau' mais j'm'en bats la race Oui, bitch Bébé, suce-moi sans les mains, l'négro est en Raf Parlons peu, faut parler bien, dis-moi où est ma liasse Yes Couronne dans le cadran, or pur mes médailles J'ball à tous les quarts-temps, Cudi, Day 'N' Nite Swish J'ball comme un shaolin, j'médite sur la maille Swish J'ball comme en Caroline, elle a l'cul comme K.O.D Oui, my nigga</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Yeah, yeah Yeah, yeah, yeah, yeah Faire le 'seille-o' Faire le 'seille-o, c'est le principal argument Oh my god Yeah, yeah Faire cette money quoi, chiffrer Faire ce biff, pour s'acheter un peu d'liberté, you know Yeah, yeah Nique sa mère les biens matériaux Yah C'qu'on veut c'est Fly to L.A, my men Fly to L.A, my men Fly to L.A, my men Woh Fly to L.A, my men Waw Fly to L.A, my men Fly to L.A, my men Ain't that Fly to L.A, my men Fly to L.A, my men You might also like J'sors le choppa, je vais viser dans tes os Chauffeur, Rolls Royce, rafale sur les maréchaux Twerk à quatre pattes, c'est toi qui roulera mes teh Off-White, Ke-ni, deux-trois loyers sur une paire Pas de courbettes, boulette sur le survet' J'cogne en levrette dans ta stud, j'la place dans ta lunette Jeune riche, négro, j'les se-vi, les gros Roro sur les bédos, baveux sur les négo' Aïe-aïe-aïe, aïe-aïe Eh Check la Cartier, check le hublot Waw Négro, j'fais que du beau Wah Fé-fé, j'met le turbo J'la démonte sans le tuto Tuto Sur Hollywood Boulevard LSD dans l'buvard Talking 'bout flying to L.A, my men Fly to L.A, my men Ah-ah-ah-ahh Ahhahhh-ahhh Ahhahhh-ahhh Ouh-ouhouh Ouh-ouhouh Ouh-ouhouh Ouh-ouhouh - Afou, mon chéri, maman elle est fière de toi Oh, super, waw J'suis trop fière de toi, j'suis trop contente</t>
+          <t>Yeah, yeah Yeah, yeah, yeah, yeah Faire le 'seille-o' Faire le 'seille-o, c'est le principal argument Oh my god Yeah, yeah Faire cette money quoi, chiffrer Faire ce biff, pour s'acheter un peu d'liberté, you know Yeah, yeah Nique sa mère les biens matériaux Yah C'qu'on veut c'est Fly to L.A, my men Fly to L.A, my men Fly to L.A, my men Woh Fly to L.A, my men Waw Fly to L.A, my men Fly to L.A, my men Ain't that Fly to L.A, my men Fly to L.A, my men J'sors le choppa, je vais viser dans tes os Chauffeur, Rolls Royce, rafale sur les maréchaux Twerk à quatre pattes, c'est toi qui roulera mes teh Off-White, Ke-ni, deux-trois loyers sur une paire Pas de courbettes, boulette sur le survet' J'cogne en levrette dans ta stud, j'la place dans ta lunette Jeune riche, négro, j'les se-vi, les gros Roro sur les bédos, baveux sur les négo' Aïe-aïe-aïe, aïe-aïe Eh Check la Cartier, check le hublot Waw Négro, j'fais que du beau Wah Fé-fé, j'met le turbo J'la démonte sans le tuto Tuto Sur Hollywood Boulevard LSD dans l'buvard Talking 'bout flying to L.A, my men Fly to L.A, my men Ah-ah-ah-ahh Ahhahhh-ahhh Ahhahhh-ahhh Ouh-ouhouh Ouh-ouhouh Ouh-ouhouh Ouh-ouhouh - Afou, mon chéri, maman elle est fière de toi Oh, super, waw J'suis trop fière de toi, j'suis trop contente</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Okay, yo B and Joke, hein-hein, si-si Okay, yo B and Joke, hein-hein MTP, hein, 34, hein Yo, représente MTP 3.4, si tu connais pas Pour vous le temps s'gâte, toujours plus frais qu'au départ Représente pour mes femmes, mes frères, mes soeurs éffleure ton oreille, t'abaisses pas au coup T'es un vrai, t'en es sûr, hein ? Un coup, je suis sur un Faut pas confondre coup d'pute, et coup d'chatte C'est pour mes gens, que mes rimes s'alignent sur le boom-chap chaque fou qui m'écoute façon Nunchaku Les gens que j'aime se reconnaîtront Colle pas la feuille à larbre, à la feuille s'est collé l'tron C'est ha-hard, en seconde et j'déma-arre Pas là pour m'taper des ba-arres Donc j'répète, mais c'est ha-hard, c'est ha-ard You might also like Jo-A, tu mettras du temps avant d'me copier Les loups veulent le louvre, toujours O.P Les shoes et le lust, toujours trop frais Jo-A, tu mettras du temps avant d'me copier Les loups veulent le louvre, toujours O.P Les shoes et le lust, toujours trop frais Mec, c'est pas des blagues, hein Beaucoup d'gars s'croient hip-hop parce qu'ils ont une bague, et deux trois sacs Ca s'résume pas à être large, ni barge, parler d'gros nibards, yo Avec mon flow j'ai dix , c'est mon côté tyrannique Et mon rap, c'est pas avec clique que t'iras niquer Pousse pas les gens à pousser mon crew à m'pousser J'ai fumé faux MC, tu m'as entendu tousser Un mélange tragique de Pokora et K-Maro Un coup d'baguette magique, et j'rends au rap son gabarit Trouve ça marrant, et j'marrie rap, flow Et, ça m'arrive d'avoir l'barreau sur la boîte à rimes Faux MC Disiz t'arrête pour vol de rimes J'ai l'flow aiguisé à la wolverine T'es équipé baggy Jo-A, tu mettras du temps avant d'me copier Les loups veulent le louvre, toujours O.P Les shoes et le lust, toujours trop frais Jo-A, tu mettras du temps avant d'me copier Les loups veulent le louvre, toujours O.P Les shoes et le lust, toujours trop frais Boy, n'écoute pas les on dit J'viens d'écouter tes ondes, et l'rap j'viens niquer son bizz, et cramer les Indescent mais le</t>
+          <t>Okay, yo B and Joke, hein-hein, si-si Okay, yo B and Joke, hein-hein MTP, hein, 34, hein Yo, représente MTP 3.4, si tu connais pas Pour vous le temps s'gâte, toujours plus frais qu'au départ Représente pour mes femmes, mes frères, mes soeurs éffleure ton oreille, t'abaisses pas au coup T'es un vrai, t'en es sûr, hein ? Un coup, je suis sur un Faut pas confondre coup d'pute, et coup d'chatte C'est pour mes gens, que mes rimes s'alignent sur le boom-chap chaque fou qui m'écoute façon Nunchaku Les gens que j'aime se reconnaîtront Colle pas la feuille à larbre, à la feuille s'est collé l'tron C'est ha-hard, en seconde et j'déma-arre Pas là pour m'taper des ba-arres Donc j'répète, mais c'est ha-hard, c'est ha-ard Jo-A, tu mettras du temps avant d'me copier Les loups veulent le louvre, toujours O.P Les shoes et le lust, toujours trop frais Jo-A, tu mettras du temps avant d'me copier Les loups veulent le louvre, toujours O.P Les shoes et le lust, toujours trop frais Mec, c'est pas des blagues, hein Beaucoup d'gars s'croient hip-hop parce qu'ils ont une bague, et deux trois sacs Ca s'résume pas à être large, ni barge, parler d'gros nibards, yo Avec mon flow j'ai dix , c'est mon côté tyrannique Et mon rap, c'est pas avec clique que t'iras niquer Pousse pas les gens à pousser mon crew à m'pousser J'ai fumé faux MC, tu m'as entendu tousser Un mélange tragique de Pokora et K-Maro Un coup d'baguette magique, et j'rends au rap son gabarit Trouve ça marrant, et j'marrie rap, flow Et, ça m'arrive d'avoir l'barreau sur la boîte à rimes Faux MC Disiz t'arrête pour vol de rimes J'ai l'flow aiguisé à la wolverine T'es équipé baggy Jo-A, tu mettras du temps avant d'me copier Les loups veulent le louvre, toujours O.P Les shoes et le lust, toujours trop frais Jo-A, tu mettras du temps avant d'me copier Les loups veulent le louvre, toujours O.P Les shoes et le lust, toujours trop frais Boy, n'écoute pas les on dit J'viens d'écouter tes ondes, et l'rap j'viens niquer son bizz, et cramer les Indescent mais le</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Ateyaba - Amistad backs par Bip's Han, han Right, right, yeah Yo, yo, nique ta mère et crache dedans Réécrire l'histoire sert à masquer les tâches de sang J'veux faire cette monnaie pour ma famille, pour mon mini-moi Si t'as un p'tit minou présentes-le à mon p'tit minois Tout ces bâtards voudraient toucher ma part mais n'ont pas les ressources pour Si c'est vide dans ta tête si c'est vide dans ta chatte appelle moi vite j'te fourre tout Tous mes mots sont à méditer La vérité, tu vux que j'partage l'oseill, nique ta mère, j'partage qu'les idées Pour faire quelques do' j'suis passé par ci, j'suis passé par là, han J'dors dans des palaces, ma bite et ton cul sont inséparables, han J'vole en première classe, vol à l'arraché, vol à l'étalage Les négros doivent peser comme des Ashkénazes comme des Séfarades J'la baise et j'm'arrache tire un coup ou deux, j'dois m'en débarrasser Je t'expédies vers le seigneur si j'ouvre mon enveloppe et qu'y'a pas assez Tous mes négros sont droit, dragués par l'économie parallèle On vole parce-que le mot liasse et que le mot libre commencent par un L Les sirènes, le système, n'aiment pas trop mon épiderme Les sirènes, le système, n'aiment pas trop mon épiderme Donc, on avance sans les lois, on leur chie dessus On avance sans les lois, on leur chie dessus Dans les chevilles négro Dans les chevilles négro Dans la tête des négros Dans la tête des négros La France est venue faire ses courses, nous a mit dans une galère T'as voulu commencer le rap tu t'es mis dans une galère T'es un négro qui fait les bails, tu t'es mis dans une galère Tout va bien, tant qu'mon salaire chi-chie sur ton salaire You might also like Bientôt j'suis en couv' d'Amina, sur la schnek à Trina J'débarque comme Katrina pluie sur les latina Biatch je fais ressortir ton coté animal J'enlève ton maquillage via tes glandes lacrymales Tu me tailles sur youtube, un jnoun te rend visite Avale du white spirit, avale mes centi-litre Si t'as 35 ans t'es souffrant, ta gueule à mon signal J'suis trop fort parce que dans ma tête y a un garçon qui parle Mon père portait des cairons ma mère torchait des vieux Elle m'a élevé seule le bon Dieu l'a vu de ses yeux Parle d'elle et on débarque chez toi déguisés D'retour comme McFly, d'retour comme les huissiers Les sirènes, le système, n'aiment pas trop mon épiderme Les sirènes, le système, n'aiment pas trop mon épiderme Donc, on avance sans les lois, on leur chie dessus On avance sans les lois, on leur chie dessus Dans les chevilles négro Dans les chevilles négro Dans la tête des négros Dans la tête des négros La France est venue faire ses courses, nous a mit dans une galère T'as voulu commencer le rap tu t'es mis dans une galère T'es un négro qui fait les bails, tu t'es mis dans une galère Tout va bien, tant qu'mon salaire chi-chie sur ton salaire Woo Man Ateyaba dans les bacs Ateyaba motherfucker Oh Eh, j'crois qu'on va passer aux freestyles maintenant Eh, Jasura t'es prêt ou quoi ? Négro Freestyle motherfucker, LMG, EMG Ça va être historique sa mère la pute Bip's - Freestyle backs par Ateyaba Yeah Hey Mon négro SS, c'est toi qui commence ou quoi ? Mtp mon négro, je démarre Hey Ok S, woo S, 3, 2, 1 homie Wow, mtp Mtp Mtp, pussy s Niggers sors de la salle où tu passes à la trappe Woo Mtp Ok, hein, dédicace à mon négro Pat le Pimp Shit, shit, brr Ok Pussy nigga, j'me fais pas d'bile, j'me fais sucer Pussy nigga, j'me fais pas d'film, j'me fais du blé Pussy nigga, j'kick le beat, fuck le sujet Trop trop d'pussy, nigga sort un Glock pour les fumer Jeune Bip's est dans l'fire Non moi j'fume pas des homies, j'fume des négros Le club est plein mais le fric ailleurs On a l'premier chiffre, on prend les zéros Ta meuf me touche, mais surement sur le flyer Si elle veut play, on lui fera une démo Mon flow est composé de mille saveurs Bitch, agressif comme Jean Reno Range ta pussy, millionnaire dit la prophétie Le rap game nous attendait comme Lionel Messi Sort un lapin du chapeau, on sort un fusil Sur ces négros pop, homie, coup de bras comme Terry en Russie On s'en bat les couilles, oseille plein les fouilles On s'en bat les, bat les, toutes les douilles, on s'en bat les fouilles Les négros ont la haine quand il voit la Rolex Je préfère prévenir que guérir, 'verront jamais la grosse caisse Eh, mon négro SS, blur Yeah, yeah, MTP Passe une autre prod négro, hey Jasura envoie la sauce continue qu'on les pile Woo Ateyaba - Freestyle backs par Bip's Hein, ok Yeah, ok Yeah, yeah, yeah Hein, hein Wai, MTP Yeah, hein Modofoka wanna act loco, je les frappe je dois les shot vite, je sors le fo'-fo' Le flow est doux comme des Alokos, parle pas de moi si il ny a pas de Togo Jai, un torrent de mouille sur la verge, jvois les négros sur la berge Ils sentent comment les mots se marient, on dirait quils ont vu la Vierge merde Dis-moi pourquoi thésites, met du temps, tu peux rien contre des mutants Jai la chance de lexpert, jai la chance du débutant Si ta Bitch se laisse faire, cest pas entièrement de ma faute Je te jure que mon pote est cap de sauter cette sale sotte sans capote Cest, pas facile, tous les jours pour les négros qui vivent en France Cest pour ça, que si je croise Marianne dans une ruelle, jlui enfonce Jattends que lEtat mattrape, que le juge me prononce la sentence 400 ans de sale sur les noirs, nique sa mère la repentance, nigga Pas facile, tous les jours pour les négros qui vivent en France Cest pour ça, que si je croise Marianne dans une ruelle, jlui enfonce Jattends que lEtat mattrape, que le juge me prononce la sentence 400 ans de sale Yo les do' sont prêts, on va disséminer sur la capitale faire du capital Mais vos gows sont belles, elles nous ont dans la bouche les amygdales yo j'ai pas d'rival J'me fais pé-pom un petit peu trop pompet' Monte sur le ring un seum d'compet A des millions d'années lumières de vos pédés d'énergumènes Pour la monnaie je te tue, mec j'le concède Parles moi de biff si tu veux qu'on traite, déguise toi en Joke si tu veux qu'on te pé-pom Tu comprends pas trop mes punchlines, gros t'es con Roule à 150 en ville, fais des doigts d'honneurs aux piétons Ces pédés m'appellent en masqué y'a qu'à Halloween que j'réponds Gros c'est pire que Hiroshima tous ces missiles vous font si mal J'fais les fins d'carrière, j'suis le Qatar, j'suis à part, j'vaux 4 noirs la putain d'sa mère Les mecs vous en avez pas marre, chaque jour j'vous met une banane Gros j'amene ta meuf en balade capot d'Cadillac Impala Imprévisible comme le loto, un compas dans ta rétine T'étais bercé trop près du mur, une dose de crack dans la tétine Que d'la monnaie dans la tête, y m'passe que des pâtes dans l'assiette Une balle dans le crâne et ça s'arrête, t'es dans la sauce bon appétit Bip's - Freestyle backs par Ateyaba Fait péter un huit pour les homies Non non, pas d'coke, pas de Air Force, yo l'jaunie T'aurais voulu être un artiste, vas y prend l'cro-mi Tu vas la sentir do ré mi fa sol la sodomie Domie, alors j'pose mon huit jusqu'à la folie J'envoie des d'MTP jusqu'à l'agonie Money, voilà Les Monsieur, le nouveau lobby J'ai qu'une voix négro, mais je rap en polyphonie Mon équipe ne subit pas la crise J'traîne avec Louis XIV et j'encaisse des Royals Cheese Être à découvert n'est pas admit, si t'as pas d'biff met un gilet pare-balles c'est ça la vie Ils ont une dégaine poisson chat, pardonne moi Seigneur j'ai encore pêché On m'appelle petit corps en bonne santé, j'crache du feu d'une humeur éméchée MTP Titan - Freestyle backs par Ateyaba Bip's Pour des carats sur la carabine Baisse ta race, baisse ta gamine Vends poudre aux yeux, poudre à narine Trop obscure pour Anakin C'est T.I.T à la rime pendant que ta haine se banalise Ta femme, ta mère se fanatisent Les Monsieur teste pas la team Je vais te baiser comme sonne-per Comme si t'étais ge-vier J'ai du talent à revendre Tellement j'crois je pourrais être millionaire Je veux threesome avec jumelles Baiser une fille au paire Utilise ta langue si tu veux me faire un lavage de veau-cer J'suis qu'un homme qui cherche en vain d'autre sphere Pour arrondir ses fins de mois, ses fins de mois austères Je veux être prospère Finir chez ta meuf dans sa tête, dans sa chatte Dans sa chambre en poster Ayo dis moi qui-est-est-ce Je viens faire monnaie li-e-esse Jusqu'à payer l'ISF Je vais leur mettre des vit-e-esse Et je fais ça comme pas mis-per Tous leur faire des demi-frères Dites-moi pourquoi bosser une vie entière pour un salaire de misère Les mecs... Rien à faire à part money Comme Levi's j'veux cartonner Si je fais des erreurs seul Dieu pourra me pardonner Lexomil dans le Chardonnay J'offre des couleurs à mes rêves Quelque trêves à mes douleurs Me demande si ma mort est brève et merde ... Je suis à deux doigts de bé-ger mais Je me dois d'exercer Canalisation car je me vois les percer Buter tous ces fils de putes qui nous ont persécutés Tu vas prendre cher comme un fist avec une Rolex On m'a dit Petit dans la vie tiens ta langue ou tes promesses Et j'ai promis de tenir ma langue, mon gland sur sa pommette Je tire des plans sur la comète Je me vois rider berline allemande Ateyaba - Freestyle backs par Titan Bip's 9 millimètres, 9 millimètres, on commence esclave on finit maître On est dans les chattes des midinettes, cartier dans la peau, sur les lunettes Les négros sont back dans les bacs, j'suis back dans les Bach de Vivaldi Viens pas jouer ton Grimaldi si tu portes des survêts Rivaldi On vise la Maybach, pas avec la même plaque, c'est peut être le même nègre, mais c'est pas le même black 501 intact, brûlure à l'impact, trouve-moi chez ta meuf la main dans un sac Mamen le rageux moyen comprend rien qu'il aille s'faire baiser par son parrain J'fais un follow back à sa meuf, j'insère mon machin dans son vagin Coupe au pento, Borsalino, cyclone quand on rentre en cabine On s'propage sur les billets violets comme résidus d'cocaïne On sort les p'tits, les gros canifs on découpe les mc's dans l'caniveau Le négro a rien à envier à Marivaux joue à la console remet le rap à niveau Ateyaba Titan - Freestyle backs par Titan, Ateyaba, Bip's Pu les cassettes, pu les stylos, pu les stylos, dans les cassettes Prix d'une clio, pour mes chaussures, j'les appelle taxi baskets On est dans cette, d'puis la naissance dans cette galère comme les ancêtres Pour les malsaines, pour les vicieuses, qui t'mangent si t'es pas dans ton assiette Elle me suce pour mon 4 heures, yo j'l'appelle ma tasse de thé J'suis un négro, raffiné, m'branche pas avec ces macaques s'te plaît J'suis plus déter' que le Führer depuis qu'j'ai une Rolex j'regarde plus l'heure Négro j'fais tout ça pour l'jacuzzi, j'te laisse baigner dans ta sueur Débarque sur ces négros, substance substance cellophane Augmente taux de phéromones, de toutes ces bitches renoi J'débarque sur cette bande de bras cassés 501, putain de cuir matelassé Rétro comme les stars t'as que Bieber, bouteille sur l'videur, mon costard est pas classé Bip's - Freestyle backs par Titan, Ateyaba, Bip's Si t'as une schneck t'es mon amie J'la prend à quatre pattes sous les deux tours Mal à l'aise, produit par Blastar, j'suis obsédé par la baise J'péta à un indien pour lui offrir une petite rose à 50 J'me fait bipolariser la guimauve C'est l'heure de faire une p'tite pause Sortez les films roses C'est comme ça qu'je vois la vie sous drogues ou sous hypnose J'me ferais bien un massacre J'le ferais avec plaisir Breh, kill'em Bips Dans son sanctuaire elle m'désire On est trop nombreux, trop d'eau a coulé sous les ponts Elles aiment trop jouer d'la flûte, trop d'eau a coulé sous la jupe J'fait pas t'faire un dessin, faisons-nous un selfie Tu verras le visage du destin ou son esprit J'veux les clés d'la Bentley, j'veux la Bentley aussi J'veux piloter comme Tavarez ça sent l'sosie Enregistre sur une bande, j'te l'dis en momie Peu importe ton mojo autant qu'on passe au cro-mi En vrai j'suis pas albinos, mais Marianne me voit pas En vrai je suis français, mais Marianne me croit pas Ca fait dix ans qu'j'te le dis homie Demain c'est nous, demain c'est aujourd'hui Attention j'vais sévir, j'vais t'balancer un menhir Bordel à volonté et j'compte bien m'servir Marianne va descendre sur mon pénis à nu, Bis- Ous' ça va mal finir, plume et cur Anubis Si l'rap était du tennis, on s'rait la coupe Davis Méfie-toi les sons d'Ateyaba ne sont qu'les prémices Malgré de nombreux services Je crois qu'Marianne n'aime toujours pas mon pénis Sans les mains bitch ! Je sais qu'mon freestyle t'as marqué, comme dans un porno masqué</t>
+          <t>Ateyaba - Amistad backs par Bip's Han, han Right, right, yeah Yo, yo, nique ta mère et crache dedans Réécrire l'histoire sert à masquer les tâches de sang J'veux faire cette monnaie pour ma famille, pour mon mini-moi Si t'as un p'tit minou présentes-le à mon p'tit minois Tout ces bâtards voudraient toucher ma part mais n'ont pas les ressources pour Si c'est vide dans ta tête si c'est vide dans ta chatte appelle moi vite j'te fourre tout Tous mes mots sont à méditer La vérité, tu vux que j'partage l'oseill, nique ta mère, j'partage qu'les idées Pour faire quelques do' j'suis passé par ci, j'suis passé par là, han J'dors dans des palaces, ma bite et ton cul sont inséparables, han J'vole en première classe, vol à l'arraché, vol à l'étalage Les négros doivent peser comme des Ashkénazes comme des Séfarades J'la baise et j'm'arrache tire un coup ou deux, j'dois m'en débarrasser Je t'expédies vers le seigneur si j'ouvre mon enveloppe et qu'y'a pas assez Tous mes négros sont droit, dragués par l'économie parallèle On vole parce-que le mot liasse et que le mot libre commencent par un L Les sirènes, le système, n'aiment pas trop mon épiderme Les sirènes, le système, n'aiment pas trop mon épiderme Donc, on avance sans les lois, on leur chie dessus On avance sans les lois, on leur chie dessus Dans les chevilles négro Dans les chevilles négro Dans la tête des négros Dans la tête des négros La France est venue faire ses courses, nous a mit dans une galère T'as voulu commencer le rap tu t'es mis dans une galère T'es un négro qui fait les bails, tu t'es mis dans une galère Tout va bien, tant qu'mon salaire chi-chie sur ton salaire Bientôt j'suis en couv' d'Amina, sur la schnek à Trina J'débarque comme Katrina pluie sur les latina Biatch je fais ressortir ton coté animal J'enlève ton maquillage via tes glandes lacrymales Tu me tailles sur youtube, un jnoun te rend visite Avale du white spirit, avale mes centi-litre Si t'as 35 ans t'es souffrant, ta gueule à mon signal J'suis trop fort parce que dans ma tête y a un garçon qui parle Mon père portait des cairons ma mère torchait des vieux Elle m'a élevé seule le bon Dieu l'a vu de ses yeux Parle d'elle et on débarque chez toi déguisés D'retour comme McFly, d'retour comme les huissiers Les sirènes, le système, n'aiment pas trop mon épiderme Les sirènes, le système, n'aiment pas trop mon épiderme Donc, on avance sans les lois, on leur chie dessus On avance sans les lois, on leur chie dessus Dans les chevilles négro Dans les chevilles négro Dans la tête des négros Dans la tête des négros La France est venue faire ses courses, nous a mit dans une galère T'as voulu commencer le rap tu t'es mis dans une galère T'es un négro qui fait les bails, tu t'es mis dans une galère Tout va bien, tant qu'mon salaire chi-chie sur ton salaire Woo Man Ateyaba dans les bacs Ateyaba motherfucker Oh Eh, j'crois qu'on va passer aux freestyles maintenant Eh, Jasura t'es prêt ou quoi ? Négro Freestyle motherfucker, LMG, EMG Ça va être historique sa mère la pute Bip's - Freestyle backs par Ateyaba Yeah Hey Mon négro SS, c'est toi qui commence ou quoi ? Mtp mon négro, je démarre Hey Ok S, woo S, 3, 2, 1 homie Wow, mtp Mtp Mtp, pussy s Niggers sors de la salle où tu passes à la trappe Woo Mtp Ok, hein, dédicace à mon négro Pat le Pimp Shit, shit, brr Ok Pussy nigga, j'me fais pas d'bile, j'me fais sucer Pussy nigga, j'me fais pas d'film, j'me fais du blé Pussy nigga, j'kick le beat, fuck le sujet Trop trop d'pussy, nigga sort un Glock pour les fumer Jeune Bip's est dans l'fire Non moi j'fume pas des homies, j'fume des négros Le club est plein mais le fric ailleurs On a l'premier chiffre, on prend les zéros Ta meuf me touche, mais surement sur le flyer Si elle veut play, on lui fera une démo Mon flow est composé de mille saveurs Bitch, agressif comme Jean Reno Range ta pussy, millionnaire dit la prophétie Le rap game nous attendait comme Lionel Messi Sort un lapin du chapeau, on sort un fusil Sur ces négros pop, homie, coup de bras comme Terry en Russie On s'en bat les couilles, oseille plein les fouilles On s'en bat les, bat les, toutes les douilles, on s'en bat les fouilles Les négros ont la haine quand il voit la Rolex Je préfère prévenir que guérir, 'verront jamais la grosse caisse Eh, mon négro SS, blur Yeah, yeah, MTP Passe une autre prod négro, hey Jasura envoie la sauce continue qu'on les pile Woo Ateyaba - Freestyle backs par Bip's Hein, ok Yeah, ok Yeah, yeah, yeah Hein, hein Wai, MTP Yeah, hein Modofoka wanna act loco, je les frappe je dois les shot vite, je sors le fo'-fo' Le flow est doux comme des Alokos, parle pas de moi si il ny a pas de Togo Jai, un torrent de mouille sur la verge, jvois les négros sur la berge Ils sentent comment les mots se marient, on dirait quils ont vu la Vierge merde Dis-moi pourquoi thésites, met du temps, tu peux rien contre des mutants Jai la chance de lexpert, jai la chance du débutant Si ta Bitch se laisse faire, cest pas entièrement de ma faute Je te jure que mon pote est cap de sauter cette sale sotte sans capote Cest, pas facile, tous les jours pour les négros qui vivent en France Cest pour ça, que si je croise Marianne dans une ruelle, jlui enfonce Jattends que lEtat mattrape, que le juge me prononce la sentence 400 ans de sale sur les noirs, nique sa mère la repentance, nigga Pas facile, tous les jours pour les négros qui vivent en France Cest pour ça, que si je croise Marianne dans une ruelle, jlui enfonce Jattends que lEtat mattrape, que le juge me prononce la sentence 400 ans de sale Yo les do' sont prêts, on va disséminer sur la capitale faire du capital Mais vos gows sont belles, elles nous ont dans la bouche les amygdales yo j'ai pas d'rival J'me fais pé-pom un petit peu trop pompet' Monte sur le ring un seum d'compet A des millions d'années lumières de vos pédés d'énergumènes Pour la monnaie je te tue, mec j'le concède Parles moi de biff si tu veux qu'on traite, déguise toi en Joke si tu veux qu'on te pé-pom Tu comprends pas trop mes punchlines, gros t'es con Roule à 150 en ville, fais des doigts d'honneurs aux piétons Ces pédés m'appellent en masqué y'a qu'à Halloween que j'réponds Gros c'est pire que Hiroshima tous ces missiles vous font si mal J'fais les fins d'carrière, j'suis le Qatar, j'suis à part, j'vaux 4 noirs la putain d'sa mère Les mecs vous en avez pas marre, chaque jour j'vous met une banane Gros j'amene ta meuf en balade capot d'Cadillac Impala Imprévisible comme le loto, un compas dans ta rétine T'étais bercé trop près du mur, une dose de crack dans la tétine Que d'la monnaie dans la tête, y m'passe que des pâtes dans l'assiette Une balle dans le crâne et ça s'arrête, t'es dans la sauce bon appétit Bip's - Freestyle backs par Ateyaba Fait péter un huit pour les homies Non non, pas d'coke, pas de Air Force, yo l'jaunie T'aurais voulu être un artiste, vas y prend l'cro-mi Tu vas la sentir do ré mi fa sol la sodomie Domie, alors j'pose mon huit jusqu'à la folie J'envoie des d'MTP jusqu'à l'agonie Money, voilà Les Monsieur, le nouveau lobby J'ai qu'une voix négro, mais je rap en polyphonie Mon équipe ne subit pas la crise J'traîne avec Louis XIV et j'encaisse des Royals Cheese Être à découvert n'est pas admit, si t'as pas d'biff met un gilet pare-balles c'est ça la vie Ils ont une dégaine poisson chat, pardonne moi Seigneur j'ai encore pêché On m'appelle petit corps en bonne santé, j'crache du feu d'une humeur éméchée MTP Titan - Freestyle backs par Ateyaba Bip's Pour des carats sur la carabine Baisse ta race, baisse ta gamine Vends poudre aux yeux, poudre à narine Trop obscure pour Anakin C'est T.I.T à la rime pendant que ta haine se banalise Ta femme, ta mère se fanatisent Les Monsieur teste pas la team Je vais te baiser comme sonne-per Comme si t'étais ge-vier J'ai du talent à revendre Tellement j'crois je pourrais être millionaire Je veux threesome avec jumelles Baiser une fille au paire Utilise ta langue si tu veux me faire un lavage de veau-cer J'suis qu'un homme qui cherche en vain d'autre sphere Pour arrondir ses fins de mois, ses fins de mois austères Je veux être prospère Finir chez ta meuf dans sa tête, dans sa chatte Dans sa chambre en poster Ayo dis moi qui-est-est-ce Je viens faire monnaie li-e-esse Jusqu'à payer l'ISF Je vais leur mettre des vit-e-esse Et je fais ça comme pas mis-per Tous leur faire des demi-frères Dites-moi pourquoi bosser une vie entière pour un salaire de misère Les mecs... Rien à faire à part money Comme Levi's j'veux cartonner Si je fais des erreurs seul Dieu pourra me pardonner Lexomil dans le Chardonnay J'offre des couleurs à mes rêves Quelque trêves à mes douleurs Me demande si ma mort est brève et merde ... Je suis à deux doigts de bé-ger mais Je me dois d'exercer Canalisation car je me vois les percer Buter tous ces fils de putes qui nous ont persécutés Tu vas prendre cher comme un fist avec une Rolex On m'a dit Petit dans la vie tiens ta langue ou tes promesses Et j'ai promis de tenir ma langue, mon gland sur sa pommette Je tire des plans sur la comète Je me vois rider berline allemande Ateyaba - Freestyle backs par Titan Bip's 9 millimètres, 9 millimètres, on commence esclave on finit maître On est dans les chattes des midinettes, cartier dans la peau, sur les lunettes Les négros sont back dans les bacs, j'suis back dans les Bach de Vivaldi Viens pas jouer ton Grimaldi si tu portes des survêts Rivaldi On vise la Maybach, pas avec la même plaque, c'est peut être le même nègre, mais c'est pas le même black 501 intact, brûlure à l'impact, trouve-moi chez ta meuf la main dans un sac Mamen le rageux moyen comprend rien qu'il aille s'faire baiser par son parrain J'fais un follow back à sa meuf, j'insère mon machin dans son vagin Coupe au pento, Borsalino, cyclone quand on rentre en cabine On s'propage sur les billets violets comme résidus d'cocaïne On sort les p'tits, les gros canifs on découpe les mc's dans l'caniveau Le négro a rien à envier à Marivaux joue à la console remet le rap à niveau Ateyaba Titan - Freestyle backs par Titan, Ateyaba, Bip's Pu les cassettes, pu les stylos, pu les stylos, dans les cassettes Prix d'une clio, pour mes chaussures, j'les appelle taxi baskets On est dans cette, d'puis la naissance dans cette galère comme les ancêtres Pour les malsaines, pour les vicieuses, qui t'mangent si t'es pas dans ton assiette Elle me suce pour mon 4 heures, yo j'l'appelle ma tasse de thé J'suis un négro, raffiné, m'branche pas avec ces macaques s'te plaît J'suis plus déter' que le Führer depuis qu'j'ai une Rolex j'regarde plus l'heure Négro j'fais tout ça pour l'jacuzzi, j'te laisse baigner dans ta sueur Débarque sur ces négros, substance substance cellophane Augmente taux de phéromones, de toutes ces bitches renoi J'débarque sur cette bande de bras cassés 501, putain de cuir matelassé Rétro comme les stars t'as que Bieber, bouteille sur l'videur, mon costard est pas classé Bip's - Freestyle backs par Titan, Ateyaba, Bip's Si t'as une schneck t'es mon amie J'la prend à quatre pattes sous les deux tours Mal à l'aise, produit par Blastar, j'suis obsédé par la baise J'péta à un indien pour lui offrir une petite rose à 50 J'me fait bipolariser la guimauve C'est l'heure de faire une p'tite pause Sortez les films roses C'est comme ça qu'je vois la vie sous drogues ou sous hypnose J'me ferais bien un massacre J'le ferais avec plaisir Breh, kill'em Bips Dans son sanctuaire elle m'désire On est trop nombreux, trop d'eau a coulé sous les ponts Elles aiment trop jouer d'la flûte, trop d'eau a coulé sous la jupe J'fait pas t'faire un dessin, faisons-nous un selfie Tu verras le visage du destin ou son esprit J'veux les clés d'la Bentley, j'veux la Bentley aussi J'veux piloter comme Tavarez ça sent l'sosie Enregistre sur une bande, j'te l'dis en momie Peu importe ton mojo autant qu'on passe au cro-mi En vrai j'suis pas albinos, mais Marianne me voit pas En vrai je suis français, mais Marianne me croit pas Ca fait dix ans qu'j'te le dis homie Demain c'est nous, demain c'est aujourd'hui Attention j'vais sévir, j'vais t'balancer un menhir Bordel à volonté et j'compte bien m'servir Marianne va descendre sur mon pénis à nu, Bis- Ous' ça va mal finir, plume et cur Anubis Si l'rap était du tennis, on s'rait la coupe Davis Méfie-toi les sons d'Ateyaba ne sont qu'les prémices Malgré de nombreux services Je crois qu'Marianne n'aime toujours pas mon pénis Sans les mains bitch ! Je sais qu'mon freestyle t'as marqué, comme dans un porno masqué</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Ateyaba - Freestyle backs par Bip's Titan Nous on veut des putes qui savent avaler Deux sons dans la poche, deux dans vallée Les Monsieur dans la place, Les Monsieur dans l'chalet Tu veux tester ? Mh allez, tu prends une ballée Quand j'vais en soirée, c'est pour faire du biff nigga biff fort, money J'apporterais rien si j'paye le prix fort, dans ma tête j'ai d'l'or, hors de prix zinc' J'ai la dalle d'un violeur boulimique qui sort de prison, zinc' Fuck that, Les Monsieur lay back lay Force pas, mêm ton meilleur J'taffe comm un chinois, j'exporte comme un chinois Blanchis ça comme un chinois, j'mange des chattes comme un chinois Yo yo j'suis dessuis toute la nuit mon négro J'vais faire un tour sur Twitter, donc mon égo Vas y line comme un zoophile J'veux juste du papier, papier d'couleur chlorophylle Titan - Freestyle backs par Ateyaba Bip's You might also like Cest Titan en solitaire, les Monsieur on prolifère Mauvaise conduite, faux mi-per, quand on técoute on vomit frère Ce soir on te fait ta fête, cest même pas ton anniversaire Ce soir on se paye ta tête, ce soir on se paye ta tête Cash comptant, tes pas content, on sen tape, on sen tape Tu parles de seuf, tu parles de meuf, nous on sen tape, on sen tape Tape men 5 si tu mécoutes, dans ta Porsche ou ta 405 En règle générale, jen ai pas comme une tass enceinte Jfais dans lmétissage, le cigare est cubain La vodka polonaise, 30 ans dhéritage Chemise Hawaïenne, les orteils en éventail Une pipe de Taïwanaise avant qujmen aille dans tes entrailles Piment de Cayenne jveux la Porsche qui va avec A larrière 2-3 hyènes, capote qui va avec Milliers deuros, quelques yens Plus rien ne marrête, plus rien ne marrête donc me test cest pas la peine Titan Ateyaba - Freestyle backs par Ateyaba, Bip's Titan Y'a comme un gros hic J'viens me faire remarquer comme un gothique Allumé, allumé comme un conique J'te fais un backflip Nikolic Gros il y a pas besoin d'fusils pour des bails hônnetes Quand j'ai leur pussy les filles deviennent des marionnettes Tous les coups sont couplés Mec j'ai coupé court Même sous les tours Les poupées tournent sous C Fais monter la mayonnaise Pression sur l'instru peut faire péter les baromètres Tous ces fils de putes qui hatent finiront par omettre J'viens fixer les tarots, mettre des K.O., payer ma Rolex Faire péter les carreaux mettre des bastos dans la Skyroulette Tu sais qu'on a les nerfs, négro j'insulte pas les mères je les baise Tu sais qu'on a les nerfs, métro pas encore de Mercedes Joue pas les MC, on joue pas avec la nourriture Tu me trouves sur iTunes, brillant parmi toute la pourriture Et on est chés-per, déterminés Comme Jay-Z un coup d'Ether, t'es terminé Je suis en guerre à mon compte, mon compte bancaire On compte, en fait on compte en faire de l'argent comptant ou plein de seum négro Bip's - Freestyle backs par Ateyaba Ateyaba - Freestyle backs par Bip's Titan</t>
+          <t>Ateyaba - Freestyle backs par Bip's Titan Nous on veut des putes qui savent avaler Deux sons dans la poche, deux dans vallée Les Monsieur dans la place, Les Monsieur dans l'chalet Tu veux tester ? Mh allez, tu prends une ballée Quand j'vais en soirée, c'est pour faire du biff nigga biff fort, money J'apporterais rien si j'paye le prix fort, dans ma tête j'ai d'l'or, hors de prix zinc' J'ai la dalle d'un violeur boulimique qui sort de prison, zinc' Fuck that, Les Monsieur lay back lay Force pas, mêm ton meilleur J'taffe comm un chinois, j'exporte comme un chinois Blanchis ça comme un chinois, j'mange des chattes comme un chinois Yo yo j'suis dessuis toute la nuit mon négro J'vais faire un tour sur Twitter, donc mon égo Vas y line comme un zoophile J'veux juste du papier, papier d'couleur chlorophylle Titan - Freestyle backs par Ateyaba Bip's Cest Titan en solitaire, les Monsieur on prolifère Mauvaise conduite, faux mi-per, quand on técoute on vomit frère Ce soir on te fait ta fête, cest même pas ton anniversaire Ce soir on se paye ta tête, ce soir on se paye ta tête Cash comptant, tes pas content, on sen tape, on sen tape Tu parles de seuf, tu parles de meuf, nous on sen tape, on sen tape Tape men 5 si tu mécoutes, dans ta Porsche ou ta 405 En règle générale, jen ai pas comme une tass enceinte Jfais dans lmétissage, le cigare est cubain La vodka polonaise, 30 ans dhéritage Chemise Hawaïenne, les orteils en éventail Une pipe de Taïwanaise avant qujmen aille dans tes entrailles Piment de Cayenne jveux la Porsche qui va avec A larrière 2-3 hyènes, capote qui va avec Milliers deuros, quelques yens Plus rien ne marrête, plus rien ne marrête donc me test cest pas la peine Titan Ateyaba - Freestyle backs par Ateyaba, Bip's Titan Y'a comme un gros hic J'viens me faire remarquer comme un gothique Allumé, allumé comme un conique J'te fais un backflip Nikolic Gros il y a pas besoin d'fusils pour des bails hônnetes Quand j'ai leur pussy les filles deviennent des marionnettes Tous les coups sont couplés Mec j'ai coupé court Même sous les tours Les poupées tournent sous C Fais monter la mayonnaise Pression sur l'instru peut faire péter les baromètres Tous ces fils de putes qui hatent finiront par omettre J'viens fixer les tarots, mettre des K.O., payer ma Rolex Faire péter les carreaux mettre des bastos dans la Skyroulette Tu sais qu'on a les nerfs, négro j'insulte pas les mères je les baise Tu sais qu'on a les nerfs, métro pas encore de Mercedes Joue pas les MC, on joue pas avec la nourriture Tu me trouves sur iTunes, brillant parmi toute la pourriture Et on est chés-per, déterminés Comme Jay-Z un coup d'Ether, t'es terminé Je suis en guerre à mon compte, mon compte bancaire On compte, en fait on compte en faire de l'argent comptant ou plein de seum négro Bip's - Freestyle backs par Ateyaba Ateyaba - Freestyle backs par Bip's Titan</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Mais dit moi qui fais ça? C'est Joky qui rentre dans les affaires Il vient kicker ça, sac Polo posé sur les trapèzes Dans mon entre c'est quoi y'a des locataires? Cailloux-Papier-Ciseaux avec des craquettes Yo j'ai jamais aimé les cours toujours préféré les culs j'crois qu'c'est pour ça qu'j'ai mon Bac S T'es trop facile, j'te jure c'est trop facile Mon négro, métro, asile, métro-métro, asile Et do-do hey yo, camisole jaune fluo, personne saute plus haut Hey yo, j'bosse seul et sonne du haut genre schizophrénique, négro J'suis posé dans mon bus fuck les hauts scéniques J'ai des, vrais tocs à chaque fois qu'j'vois des salopes j'les niques, j'te jure Que toute les 24h j'veux faire un cobra, pour m'en-dormir sur un tas d'billet J'suis prêt à mettre dans d'beaux draps, niggaYou might also like</t>
+          <t>Mais dit moi qui fais ça? C'est Joky qui rentre dans les affaires Il vient kicker ça, sac Polo posé sur les trapèzes Dans mon entre c'est quoi y'a des locataires? Cailloux-Papier-Ciseaux avec des craquettes Yo j'ai jamais aimé les cours toujours préféré les culs j'crois qu'c'est pour ça qu'j'ai mon Bac S T'es trop facile, j'te jure c'est trop facile Mon négro, métro, asile, métro-métro, asile Et do-do hey yo, camisole jaune fluo, personne saute plus haut Hey yo, j'bosse seul et sonne du haut genre schizophrénique, négro J'suis posé dans mon bus fuck les hauts scéniques J'ai des, vrais tocs à chaque fois qu'j'vois des salopes j'les niques, j'te jure Que toute les 24h j'veux faire un cobra, pour m'en-dormir sur un tas d'billet J'suis prêt à mettre dans d'beaux draps, nigga</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Mhh Yo, ma p'tite est pas douce Right J'dirais même qu'elle n'est pas jolie Right Ma p'tite est pas douce du tout Right, mais gros elle a un booty Right, yo J'te jure le truc qui m'rend cardiaque c'est qu'un négro va sniffer un flacon d'eau écarlate Oh, yeah, le truc qui va m'faire baiser comme un spartiate Oh, babe, all night sur le lit faire un carnage What ? Le genre de fille avec qui tu rides pas la ville What ? À chaque fois qu'elle veut sortir j'fais maladie Right Le genre de trucs qui ferait sauter l'caisson à Manny Right Si tu vois c'flingue double c'est un hymne à la vie Yo You might also like</t>
+          <t>Mhh Yo, ma p'tite est pas douce Right J'dirais même qu'elle n'est pas jolie Right Ma p'tite est pas douce du tout Right, mais gros elle a un booty Right, yo J'te jure le truc qui m'rend cardiaque c'est qu'un négro va sniffer un flacon d'eau écarlate Oh, yeah, le truc qui va m'faire baiser comme un spartiate Oh, babe, all night sur le lit faire un carnage What ? Le genre de fille avec qui tu rides pas la ville What ? À chaque fois qu'elle veut sortir j'fais maladie Right Le genre de trucs qui ferait sauter l'caisson à Manny Right Si tu vois c'flingue double c'est un hymne à la vie Yo</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Yeah, Joke Joke, Joke, yeah Han, han Oh, shhhit Stunt Shit Ok, yeah J'ai appris qu'tu haïssais les mecs qui rappaient comme moi, que -comme moi J'suis gentil doucement j'te caresse comme ma queue Yeah Ramène pas trop ta tête j'vais faire comme Ong-Bak J'ai pas b'soin d'agence marketing, les haters font d'la pub Ah-ah-ah J'suis constitué comme Achille, sauf le talon Une paire de Nike Max Air, les jambes courtes, le bras long Mon prénom c'est Gilles, définition le talent Oh Non, non, j'suis pas des îles mais j'vais te Marty-niquer, Ah-ah C'est Marty Mc', mon stylo a une partie briquet Trop chaud, demande à Orga-ga-ga-ga-jet, C'est moi-même mec Ne m'oblige pas à presser la ga-ga-ga-gachette Les gars c'est mal barré, j'vais m'barrer, mais c'que j'ai fait, ça me paraît peu Tu t'demandes si mon maxi va faire du fric, -du fric ne pose pas de questions rhétoriques J'les baise tous, mais ces connards sont pudiques, -pudiques Ces rageux pourraient faire partie des Choristes Mon père aurait dû mettre du spermicide j'te jure, c'est trop facile qu'est-ce que j'vais faire ici ? Rouler en berline, me faire toucher la paire Bitch Ivre mort, sans pitié, ni remords je commence donc je termine You might also like - Ouais, allô? T'as entendu cette merde de Joke? Le rap ça devient vraiment n'importe quoi! J'en ai marre de tous ces bouffons qui sortent! Mais qu'est-ce qu'ils signent? Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule, yeah - Ouais, il parle trop d'meufs! C'est un bouffon! Avec ses photos sur MySpace, avec ses potes. Ça craint, il a signé sur Stunt, c'fils de pute! Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule L'arrivée du négro qui nique ta mère, ton père, tes frères, tes soeurs, Tes soeurs, négro, ton iPod, ton Mac, ta Playstation J'ai la dalle, han, même nonchalant Tellement faim, j'ai dit qu'j'baisais ta console de salon Deux-trois m'sures, et les mc's ont leurs règles, ils saignent pas Ils évaluent, ils sont tous scandalisés Ohh, shit J'avance pas j'évolue à grands pas -pas J'suis précis comme un sniper, mais te sens pas visé Han J'ai plus que toi, raconter ma sur le compte épargne Hein, d'puis le top départ Laisse pas parler, les gars, avalez-valez Les catins me trouvent cool, hein, hein-hein, écartez les cuisses , plus l'temps Dans tes dents, vis-à-vis de stopper mes disciples, Oh, oh Appuie sur bis Ouais, mon pote j'suis comme Walt Disney, mon pote je pimp les princesses, j'ai même baisé Minnie, Ah-ah-ah Et j'serais discret, mon pote j'prendrai pas d'risques, et mon pote si j'm'arrête c'est une Porsche en poche, et c'est fini - Ouais, à c'qu'il paraît il va sortir un truc bientôt, c'est d'la grosse merde. J'espère qu'ça va être un flop! Il mérite que ça, c't'enculé, il mérite que ça! Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule, yeah - Ouais tu parles, négro, j'sais même pas si il va faire une ou deux-trois ventes! Sérieusement, à part sa famille qui va acheter c'putain d''sque-d' d'merde?! Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule1</t>
+          <t>Yeah, Joke Joke, Joke, yeah Han, han Oh, shhhit Stunt Shit Ok, yeah J'ai appris qu'tu haïssais les mecs qui rappaient comme moi, que -comme moi J'suis gentil doucement j'te caresse comme ma queue Yeah Ramène pas trop ta tête j'vais faire comme Ong-Bak J'ai pas b'soin d'agence marketing, les haters font d'la pub Ah-ah-ah J'suis constitué comme Achille, sauf le talon Une paire de Nike Max Air, les jambes courtes, le bras long Mon prénom c'est Gilles, définition le talent Oh Non, non, j'suis pas des îles mais j'vais te Marty-niquer, Ah-ah C'est Marty Mc', mon stylo a une partie briquet Trop chaud, demande à Orga-ga-ga-ga-jet, C'est moi-même mec Ne m'oblige pas à presser la ga-ga-ga-gachette Les gars c'est mal barré, j'vais m'barrer, mais c'que j'ai fait, ça me paraît peu Tu t'demandes si mon maxi va faire du fric, -du fric ne pose pas de questions rhétoriques J'les baise tous, mais ces connards sont pudiques, -pudiques Ces rageux pourraient faire partie des Choristes Mon père aurait dû mettre du spermicide j'te jure, c'est trop facile qu'est-ce que j'vais faire ici ? Rouler en berline, me faire toucher la paire Bitch Ivre mort, sans pitié, ni remords je commence donc je termine - Ouais, allô? T'as entendu cette merde de Joke? Le rap ça devient vraiment n'importe quoi! J'en ai marre de tous ces bouffons qui sortent! Mais qu'est-ce qu'ils signent? Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule, yeah - Ouais, il parle trop d'meufs! C'est un bouffon! Avec ses photos sur MySpace, avec ses potes. Ça craint, il a signé sur Stunt, c'fils de pute! Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule L'arrivée du négro qui nique ta mère, ton père, tes frères, tes soeurs, Tes soeurs, négro, ton iPod, ton Mac, ta Playstation J'ai la dalle, han, même nonchalant Tellement faim, j'ai dit qu'j'baisais ta console de salon Deux-trois m'sures, et les mc's ont leurs règles, ils saignent pas Ils évaluent, ils sont tous scandalisés Ohh, shit J'avance pas j'évolue à grands pas -pas J'suis précis comme un sniper, mais te sens pas visé Han J'ai plus que toi, raconter ma sur le compte épargne Hein, d'puis le top départ Laisse pas parler, les gars, avalez-valez Les catins me trouvent cool, hein, hein-hein, écartez les cuisses , plus l'temps Dans tes dents, vis-à-vis de stopper mes disciples, Oh, oh Appuie sur bis Ouais, mon pote j'suis comme Walt Disney, mon pote je pimp les princesses, j'ai même baisé Minnie, Ah-ah-ah Et j'serais discret, mon pote j'prendrai pas d'risques, et mon pote si j'm'arrête c'est une Porsche en poche, et c'est fini - Ouais, à c'qu'il paraît il va sortir un truc bientôt, c'est d'la grosse merde. J'espère qu'ça va être un flop! Il mérite que ça, c't'enculé, il mérite que ça! Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule, yeah - Ouais tu parles, négro, j'sais même pas si il va faire une ou deux-trois ventes! Sérieusement, à part sa famille qui va acheter c'putain d''sque-d' d'merde?! Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule1</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Joke, yeah Ok, han Dis-leur, yeah, yeah, yeah, yeah Oh, shiit Oh Aye, aye J'ai appris qu'tu haïssais les mecs qui rappaient comme moi, que -comme moi J'suis gentil doucement j'te caresse comme ma queue Yeah Ramène pas trop ta tête j'vais faire comme Ong-Bak J'ai pas b'soin d'agence marketing, les haters font d'la pub Ah-ah-ah J'suis constitué comme Achille, sauf le talon Une paire de Nike Max Air, les jambs courtes, le bras long Mon prénom c'est Gills, définition le talent Oh Non, non, j'suis pas des îles mais j'vais te Marty-niquer, Ah-ah C'est Marty Mc', mon stylo a une partie briquet Trop chaud, demande à Orga-ga-ga-ga-jet, C'est moi-même mec Ne m'oblige pas à presser la ga-ga-ga-gachette Les gars c'est mal barré, j'vais m'barrer, mais c'que j'ai fait, ça me paraît peu Tu t'demandes si mon maxi va faire du fric, -du fric ne pose pas de questions rhétoriques J'les baise tous, mais ces connards sont pudiques, -pudiques Ces rageux pourraient faire partie des Choristes Mon père aurait dû mettre du spermicide j'te jure, c'est trop facile qu'est-ce que j'vais faire ici ? Rouler en berline, me faire toucher la paire Bitch Ivre mort, sans pitié, ni remords je commence donc je termine You might also like - Ouais, allô? T'as entendu cette merde de Joke? Le rap ça devient vraiment n'importe quoi! J'en ai marre de tous ces bouffons qui sortent! Mais qu'est-ce qu'ils signent? Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule, yeah - Ouais, il parle trop d'meufs! C'est un bouffon! Avec ses photos sur MySpace, avec ses potes. Ça craint, il a signé sur Stunt, c'fils de pute! Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule L'arrivée du négro qui nique ta mère, ton père, tes frères, tes soeurs, Tes soeurs, négro, ton iPod, ton Mac, ta Playstation J'ai la dalle, han, même nonchalant Tellement faim, j'ai dit qu'j'baisais ta console de salon Deux-trois m'sures, et les mc's ont leurs règles, ils saignent pas Ils évaluent, ils sont tous scandalisés Ohh, shit J'avance pas j'évolue à grands pas -pas J'suis précis comme un sniper, mais te sens pas visé Han J'ai plus que toi, raconter ma sur le compte épargne Hein, d'puis le top départ Laisse pas parler, les gars, avalez-valez Les catins me trouvent cool, hein, hein-hein, écartez les cuisses , plus l'temps Dans tes dents, vis-à-vis de stopper mes disciples, Oh, oh Appuie sur bis Ouais, mon pote j'suis comme Walt Disney, mon pote je pimp les princesses, j'ai même baisé Minnie, Ah-ah-ah Et j'serais discret, mon pote j'prendrai pas d'risques, et mon pote si j'm'arrête c'est une Porsche en poche, et c'est fini - Ouais, à c'qu'il paraît il va sortir un truc bientôt, c'est d'la grosse merde. J'espère qu'ça va être un flop! Il mérite que ça, c't'enculé, il mérite que ça! Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule, yeah - Ouais tu parles, négro, j'sais même pas si il va faire une ou deux-trois ventes! Sérieusement, à part sa famille qui va acheter c'putain d''sque-d' d'merde?! Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Aye Oh, Joke Orga-ga-ga' Yeah Yeah Dédicace à tous mes négros d'M.T.P, là Les Monsieur, on est 'a-l' Si-si, Orga-ga-ga' Yeah</t>
+          <t>Joke, yeah Ok, han Dis-leur, yeah, yeah, yeah, yeah Oh, shiit Oh Aye, aye J'ai appris qu'tu haïssais les mecs qui rappaient comme moi, que -comme moi J'suis gentil doucement j'te caresse comme ma queue Yeah Ramène pas trop ta tête j'vais faire comme Ong-Bak J'ai pas b'soin d'agence marketing, les haters font d'la pub Ah-ah-ah J'suis constitué comme Achille, sauf le talon Une paire de Nike Max Air, les jambs courtes, le bras long Mon prénom c'est Gills, définition le talent Oh Non, non, j'suis pas des îles mais j'vais te Marty-niquer, Ah-ah C'est Marty Mc', mon stylo a une partie briquet Trop chaud, demande à Orga-ga-ga-ga-jet, C'est moi-même mec Ne m'oblige pas à presser la ga-ga-ga-gachette Les gars c'est mal barré, j'vais m'barrer, mais c'que j'ai fait, ça me paraît peu Tu t'demandes si mon maxi va faire du fric, -du fric ne pose pas de questions rhétoriques J'les baise tous, mais ces connards sont pudiques, -pudiques Ces rageux pourraient faire partie des Choristes Mon père aurait dû mettre du spermicide j'te jure, c'est trop facile qu'est-ce que j'vais faire ici ? Rouler en berline, me faire toucher la paire Bitch Ivre mort, sans pitié, ni remords je commence donc je termine - Ouais, allô? T'as entendu cette merde de Joke? Le rap ça devient vraiment n'importe quoi! J'en ai marre de tous ces bouffons qui sortent! Mais qu'est-ce qu'ils signent? Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule, yeah - Ouais, il parle trop d'meufs! C'est un bouffon! Avec ses photos sur MySpace, avec ses potes. Ça craint, il a signé sur Stunt, c'fils de pute! Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule L'arrivée du négro qui nique ta mère, ton père, tes frères, tes soeurs, Tes soeurs, négro, ton iPod, ton Mac, ta Playstation J'ai la dalle, han, même nonchalant Tellement faim, j'ai dit qu'j'baisais ta console de salon Deux-trois m'sures, et les mc's ont leurs règles, ils saignent pas Ils évaluent, ils sont tous scandalisés Ohh, shit J'avance pas j'évolue à grands pas -pas J'suis précis comme un sniper, mais te sens pas visé Han J'ai plus que toi, raconter ma sur le compte épargne Hein, d'puis le top départ Laisse pas parler, les gars, avalez-valez Les catins me trouvent cool, hein, hein-hein, écartez les cuisses , plus l'temps Dans tes dents, vis-à-vis de stopper mes disciples, Oh, oh Appuie sur bis Ouais, mon pote j'suis comme Walt Disney, mon pote je pimp les princesses, j'ai même baisé Minnie, Ah-ah-ah Et j'serais discret, mon pote j'prendrai pas d'risques, et mon pote si j'm'arrête c'est une Porsche en poche, et c'est fini - Ouais, à c'qu'il paraît il va sortir un truc bientôt, c'est d'la grosse merde. J'espère qu'ça va être un flop! Il mérite que ça, c't'enculé, il mérite que ça! Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule, yeah - Ouais tu parles, négro, j'sais même pas si il va faire une ou deux-trois ventes! Sérieusement, à part sa famille qui va acheter c'putain d''sque-d' d'merde?! Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Yeah, ferme ta gueule, vas-y, vas-y, ferme ta gueule Aye Oh, Joke Orga-ga-ga' Yeah Yeah Dédicace à tous mes négros d'M.T.P, là Les Monsieur, on est 'a-l' Si-si, Orga-ga-ga' Yeah</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>M.T.P Ayy Han Ayo, j'veux plein d'sous, plein d'S, plein d'fesses Ahh Si j'fais un peace c'est qu'j'vais baisser l'index Ayo, j'arrive genre... Fuck Han-han, ayy, han-han, yo, han Négro, qu'est-ce qui s'passe ? T'as entendu parler d'moi, parler d'quoi Ah, ahh Par des négros, par des tchoins du genre I want you so bad, babe Han-han, Joke est 'à-l', tu veux l'égaler mais c'est hardcore J'ai toujours eu raison, j'connais pas l'tord Tord J'te baise à la maison, sur mon balcon, à 4 pattes Fuck, pour mon mojo, pardon On m'a dit Joke, prends pas l'ton Speech à 2 balles, tes lyrics valent que dalle Okay Ta meuf est sur ma bite comme mon caleçon You might also like Fuck1</t>
+          <t>M.T.P Ayy Han Ayo, j'veux plein d'sous, plein d'S, plein d'fesses Ahh Si j'fais un peace c'est qu'j'vais baisser l'index Ayo, j'arrive genre... Fuck Han-han, ayy, han-han, yo, han Négro, qu'est-ce qui s'passe ? T'as entendu parler d'moi, parler d'quoi Ah, ahh Par des négros, par des tchoins du genre I want you so bad, babe Han-han, Joke est 'à-l', tu veux l'égaler mais c'est hardcore J'ai toujours eu raison, j'connais pas l'tord Tord J'te baise à la maison, sur mon balcon, à 4 pattes Fuck, pour mon mojo, pardon On m'a dit Joke, prends pas l'ton Speech à 2 balles, tes lyrics valent que dalle Okay Ta meuf est sur ma bite comme mon caleçon Fuck1</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Oh, hey Oh, hey Oh, hey Cette fille m'appelle mais je ne veux pas décrocher Cette fille m'appelle pour mettre à sac mes projets Appelle, appelle mais je ne répondrai pas Avertis la Terre que je ne répondrai pas Tu passes, tu presses, j'ai besoin de congé Ta faim, ta ne fait que ronger mes songes et T'es là pour me bouffer le temps Tu vas vomir, je te l'assure, woah, woah, woah Nos discussions sont pleines de blancs Tes couleurs c'est de la coulure, woah, woah, woah Oh oh oh, oh oh oh, j'en peux plus Oh oh oh, oh oh oh, vraiment, j'en peux plus Oh oh oh, oh oh oh, j'en peux plus Oh oh oh, oh oh oh, yeah You might also like Ramène plus ta tête de sotte chez moi Ou achète moi des Nike pour pas m'faire sauter l'pas Mais pour te p'loter, plus jamais te sauter Plus jamais sur l'côté ou derrière, tu tues l'amour Ça, tu l'as mérité, yeah C'est pour les fringues que j'ai dû payer Pour tout les flingues qui sont enrayés Je te le jure, tu me rends dingue, yeah Yeah yeah, yeah yeah, yeah yeah T'es là pour me bouffer le temps Tu vas vomir, je te l'assure, woah, woah, woah Tu vas nager en plein dedans J'vais te faire un thé au cyanure, woah, woah, woah Oh oh oh, oh oh oh, j'en peux plus Oh oh oh, oh oh oh, vraiment, j'en peux plus Oh oh oh, oh oh oh, j'en peux plus Oh oh oh, oh oh oh, yeah Meuf T'étais où ? Joke Ouais, j'étais chez un pote, on jouait à la console là, vite fait Meuf Et mes appels ? Joke Tes appels, bah, y'a pas l'temps, quoi Meuf Moi j'suis là à t'attendre toute la nuit, tu m'dis qu't'as pas l'temps ? Joke Nan j'ai pas l'temps, je jouais puis c'est tout Meuf Ok, baisse d'un ton, baisse d'un ton Ne t'étonne pas, je n'déconne pas, tu mérites de t'faire j'ter comme ça T'en fais des tonnes, ça pour faire la belle, t'es forte, je t'étoufferai avec une pomme d'amour Lâche, tu veux remplacer ton entourage, ta subtilité, c'est tes atouts d'tasse Passe pas par la porte j'vais t'faire un sale coup dans ton sale cou, j'en avais pas l'courage T'es venue pour tuer le temps Tu vas mourir, je te l'assure, woah, woah, woah Tu vas repartir les pieds devant Je vais commettre une grosse bavure, woah, woah, woah Oh oh oh, oh oh oh, j'en peux plus Oh oh oh, oh oh oh, vraiment, j'en peux plus Oh oh oh, oh oh oh, j'en peux plus Oh oh oh, oh oh oh, yeah</t>
+          <t>Oh, hey Oh, hey Oh, hey Cette fille m'appelle mais je ne veux pas décrocher Cette fille m'appelle pour mettre à sac mes projets Appelle, appelle mais je ne répondrai pas Avertis la Terre que je ne répondrai pas Tu passes, tu presses, j'ai besoin de congé Ta faim, ta ne fait que ronger mes songes et T'es là pour me bouffer le temps Tu vas vomir, je te l'assure, woah, woah, woah Nos discussions sont pleines de blancs Tes couleurs c'est de la coulure, woah, woah, woah Oh oh oh, oh oh oh, j'en peux plus Oh oh oh, oh oh oh, vraiment, j'en peux plus Oh oh oh, oh oh oh, j'en peux plus Oh oh oh, oh oh oh, yeah Ramène plus ta tête de sotte chez moi Ou achète moi des Nike pour pas m'faire sauter l'pas Mais pour te p'loter, plus jamais te sauter Plus jamais sur l'côté ou derrière, tu tues l'amour Ça, tu l'as mérité, yeah C'est pour les fringues que j'ai dû payer Pour tout les flingues qui sont enrayés Je te le jure, tu me rends dingue, yeah Yeah yeah, yeah yeah, yeah yeah T'es là pour me bouffer le temps Tu vas vomir, je te l'assure, woah, woah, woah Tu vas nager en plein dedans J'vais te faire un thé au cyanure, woah, woah, woah Oh oh oh, oh oh oh, j'en peux plus Oh oh oh, oh oh oh, vraiment, j'en peux plus Oh oh oh, oh oh oh, j'en peux plus Oh oh oh, oh oh oh, yeah Meuf T'étais où ? Joke Ouais, j'étais chez un pote, on jouait à la console là, vite fait Meuf Et mes appels ? Joke Tes appels, bah, y'a pas l'temps, quoi Meuf Moi j'suis là à t'attendre toute la nuit, tu m'dis qu't'as pas l'temps ? Joke Nan j'ai pas l'temps, je jouais puis c'est tout Meuf Ok, baisse d'un ton, baisse d'un ton Ne t'étonne pas, je n'déconne pas, tu mérites de t'faire j'ter comme ça T'en fais des tonnes, ça pour faire la belle, t'es forte, je t'étoufferai avec une pomme d'amour Lâche, tu veux remplacer ton entourage, ta subtilité, c'est tes atouts d'tasse Passe pas par la porte j'vais t'faire un sale coup dans ton sale cou, j'en avais pas l'courage T'es venue pour tuer le temps Tu vas mourir, je te l'assure, woah, woah, woah Tu vas repartir les pieds devant Je vais commettre une grosse bavure, woah, woah, woah Oh oh oh, oh oh oh, j'en peux plus Oh oh oh, oh oh oh, vraiment, j'en peux plus Oh oh oh, oh oh oh, j'en peux plus Oh oh oh, oh oh oh, yeah</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>FREAKEY!, FREAKEY!.. FREAKEY!, FREAKEY!.. J'ride around avec mes goonies J'vais tout dépenser chez Prada, j'vais m'défouler sur des groupies Yah J'ride around avec des doobies J'vais tout dépenser au Ghana, j'vais tout dépenser chez Louis Yah Je roule et je puff a lot J'vais devoir tirer dans le crâne J'rentre en avion dans le Cap Je roule et je puff a lot J'vais devoir tirer dans le crâne J'rentre en avion dans le Cap J'fais d'la maille twenty-four seven, j'encaisse comme 7-Eleven J'vais devoir cracher sur ses lèvres, God! Négro, le discours est papal Dis-moi qui d'autre en est capable ? Masta metissé c'est fatal Pa-pa, pa-pa-pa Yah Faut qu'j'pèse, comme Goldman Sachs, met toute la fraiche dans l'sac J'peux pas rester dans l'bloc Ton corps s'repose dans l'lac Bitch, j'ai rien dans la tête J'ai tout c'qu'il faut dans le Glock You might also like J'ri-j'ride around avec mes goonies J'vais tout dépenser chez Prada, j'vais m'défouler sur des groupies Yah J'ride around avec des doobies J'vais tout dépenser au Ghana, j'vais tout dépenser chez Louis Yah Je roule et je puff a lot J'vais devoir tirer dans le crâne Yeah J'rentre en avion dans le Cap Je roule et je puff a lot J'vais devoir tirer dans le crâne J'rentre en avion dans le Cap Aw, yeah She be fiendin', for the money, she can't get it She can't get it I be havin' lot of money, she wanna feel alone She wanna feel alone Know her bracket Know her bracket I won't lock it I won't lock it I toe tag a pussy nigga, know what's happenin' So what's happenin'? Mention my name, I'm spendin' that money My shooter gon' smash on you My shooter gon' smash on you I got a whole lot of drums, them bullets gon' blast on you Them bullets gon' blast on you Flood your block Flood your block, no hurricane No hurricane I was the shit in the game before I had stanked, dude Before I had stanked, dude When you get money, don't bitch up, don't let this shit change you Don't let this shit change you All them hoes All them hoes, they gon' come in Yeah You got the racks, she gon' fuck you and your twin, dawg Yeah You know this bitches thirty shots, they at the end, dawg They at the end, dawg J'ride around avec mes goonies J'vais tout dépenser chez Prada, j'vais m'défouler sur des groupies waw Yah J'ride around avec des doobies J'vais tout dépenser au Ghana, j'vais tout dépenser chez Louis Yah Je roule et je puff a lot J'vais devoir tirer dans le crâne J'rentre en avion dans le Cap Je roule et je puff a lot J'vais devoir tirer dans le crâne J'rentre en avion dans le Cap Aw, yeah FREAKEY!, FREAKEY!, FREAKEY!</t>
+          <t>FREAKEY!, FREAKEY!.. FREAKEY!, FREAKEY!.. J'ride around avec mes goonies J'vais tout dépenser chez Prada, j'vais m'défouler sur des groupies Yah J'ride around avec des doobies J'vais tout dépenser au Ghana, j'vais tout dépenser chez Louis Yah Je roule et je puff a lot J'vais devoir tirer dans le crâne J'rentre en avion dans le Cap Je roule et je puff a lot J'vais devoir tirer dans le crâne J'rentre en avion dans le Cap J'fais d'la maille twenty-four seven, j'encaisse comme 7-Eleven J'vais devoir cracher sur ses lèvres, God! Négro, le discours est papal Dis-moi qui d'autre en est capable ? Masta metissé c'est fatal Pa-pa, pa-pa-pa Yah Faut qu'j'pèse, comme Goldman Sachs, met toute la fraiche dans l'sac J'peux pas rester dans l'bloc Ton corps s'repose dans l'lac Bitch, j'ai rien dans la tête J'ai tout c'qu'il faut dans le Glock J'ri-j'ride around avec mes goonies J'vais tout dépenser chez Prada, j'vais m'défouler sur des groupies Yah J'ride around avec des doobies J'vais tout dépenser au Ghana, j'vais tout dépenser chez Louis Yah Je roule et je puff a lot J'vais devoir tirer dans le crâne Yeah J'rentre en avion dans le Cap Je roule et je puff a lot J'vais devoir tirer dans le crâne J'rentre en avion dans le Cap Aw, yeah She be fiendin', for the money, she can't get it She can't get it I be havin' lot of money, she wanna feel alone She wanna feel alone Know her bracket Know her bracket I won't lock it I won't lock it I toe tag a pussy nigga, know what's happenin' So what's happenin'? Mention my name, I'm spendin' that money My shooter gon' smash on you My shooter gon' smash on you I got a whole lot of drums, them bullets gon' blast on you Them bullets gon' blast on you Flood your block Flood your block, no hurricane No hurricane I was the shit in the game before I had stanked, dude Before I had stanked, dude When you get money, don't bitch up, don't let this shit change you Don't let this shit change you All them hoes All them hoes, they gon' come in Yeah You got the racks, she gon' fuck you and your twin, dawg Yeah You know this bitches thirty shots, they at the end, dawg They at the end, dawg J'ride around avec mes goonies J'vais tout dépenser chez Prada, j'vais m'défouler sur des groupies waw Yah J'ride around avec des doobies J'vais tout dépenser au Ghana, j'vais tout dépenser chez Louis Yah Je roule et je puff a lot J'vais devoir tirer dans le crâne J'rentre en avion dans le Cap Je roule et je puff a lot J'vais devoir tirer dans le crâne J'rentre en avion dans le Cap Aw, yeah FREAKEY!, FREAKEY!, FREAKEY!</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Ayo négro, c'est quoi les bails ? Le flow est criminel Pharaon de '89 à l'infini mec Skinny bitch qui en pince pour le p'tit nigga Pas timinik, liasses d'euros, si on tient les meubles Illi-Illimité, tous les négros veulent imiter l'oeuvre Les billets sont neufs, neufs, neufs et la zik neuve Seufs siliconées, 0.9 qui pique au nez Pour s'occuper d'ma bite, j'veux une meuf qui s'y connaît, han Tu sais que quand c'est moi, c'est pas pareil La puissance du mojo dérègle les appareils Elle a cramé la Audemar, pétasse t'as lil J'peux casser le cul d'n'importe quelle cascadeuse On est sur les nerfs, nerfs, nerfs, nerfs, nerfs, nerfs On est sur les nerfs, nerfs, nerfs, nerfs, nerfs, nerfs 0.9 qui pique au nez Went and dropped three thousand just on a J I got face tattoos, while Im in the Phantom I got two nines on me, aint shit to blast em I was in the hood nigga, now Im in a mansion Me in Joke EZ in Paris Im in France, bitches leave music to me Took your bitch cause she see that Im too successful If her head game right then she got potential Countin up the money, dont mind me, merci About forty but that aint leave you She give me head, no teeth, bitch be gentle Ever since my last try, shit I lost my mental Flew back to Paris, bring special You aint get money so I see its Bought a new bitch cause Im disrespectful Im shooting hollow tips, I dont buy the wrestler You might also like Le renoi pique les yeux, le renoi pique les yeux Détend les p'tits haineux, détend les p'tits haineux Le renoi pique les yeux, le renoi pique les yeux Le renoi détend les p'tits haineux, détend les p'tits haineux Quoi?! Quoi?! Quoi?! Quoi?! Quoi?! Sur la vie d'mes morts, sur la vie d'mes morts Sur la vie d'mes morts, l'Etat va pas m'quen' On évite les porcs, on évite les porcs Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts, sur la vie d'mes morts J'vais reprendre tout cet or, tout c'qui nous revient J'vais annuler l'score, annuler l'score Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts Le négro est délicat, raffiné J'vais t'piner, pas te câliner On rafle les 'tasses comme Boko Haram On laisse l'esprit des négros abîmé Touche pas aux grisbis, renoi, touche pas aux grisbis Le manque d'argent m'a rendu irritable Touche pas aux grisbis, renoi, touche pas aux grisbis J'allume un négro, en me fumant une gitane J'ai une Rolex si j'veux, deux trois Rolex si j'veux J'ride en tramway négro, j'ride en Solex si j'veux J'passe la cinquième renoi, j'nique l'alcootest si j'veux J'ride avec ton loyer dans la pocket si j'veux Leurs versets n'ont aucune âme Les voies du Seigneur sont pas autotunables Comme ma bitch, elles sont impénétrables Pour mes noirs du Togo, mes noirs du Sénégal, nigga Le renoi pique les yeux, le renoi pique les yeux Détend les p'tits haineux, détend les p'tits haineux Le renoi pique les yeux, le renoi pique les yeux Le renoi détend les p'tits haineux, détend les p'tits haineux Quoi?! Quoi?! Quoi?! Quoi?! Quoi?! Sur la vie d'mes morts, sur la vie d'mes morts Sur la vie d'mes morts, l'Etat va pas m'quen' On évite les porcs, on évite les porcs Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts, sur la vie d'mes morts J'vais reprendre tout cet or, tout c'qui nous revient J'vais annuler l'score, annuler l'score Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts</t>
+          <t>Ayo négro, c'est quoi les bails ? Le flow est criminel Pharaon de '89 à l'infini mec Skinny bitch qui en pince pour le p'tit nigga Pas timinik, liasses d'euros, si on tient les meubles Illi-Illimité, tous les négros veulent imiter l'oeuvre Les billets sont neufs, neufs, neufs et la zik neuve Seufs siliconées, 0.9 qui pique au nez Pour s'occuper d'ma bite, j'veux une meuf qui s'y connaît, han Tu sais que quand c'est moi, c'est pas pareil La puissance du mojo dérègle les appareils Elle a cramé la Audemar, pétasse t'as lil J'peux casser le cul d'n'importe quelle cascadeuse On est sur les nerfs, nerfs, nerfs, nerfs, nerfs, nerfs On est sur les nerfs, nerfs, nerfs, nerfs, nerfs, nerfs 0.9 qui pique au nez Went and dropped three thousand just on a J I got face tattoos, while Im in the Phantom I got two nines on me, aint shit to blast em I was in the hood nigga, now Im in a mansion Me in Joke EZ in Paris Im in France, bitches leave music to me Took your bitch cause she see that Im too successful If her head game right then she got potential Countin up the money, dont mind me, merci About forty but that aint leave you She give me head, no teeth, bitch be gentle Ever since my last try, shit I lost my mental Flew back to Paris, bring special You aint get money so I see its Bought a new bitch cause Im disrespectful Im shooting hollow tips, I dont buy the wrestler Le renoi pique les yeux, le renoi pique les yeux Détend les p'tits haineux, détend les p'tits haineux Le renoi pique les yeux, le renoi pique les yeux Le renoi détend les p'tits haineux, détend les p'tits haineux Quoi?! Quoi?! Quoi?! Quoi?! Quoi?! Sur la vie d'mes morts, sur la vie d'mes morts Sur la vie d'mes morts, l'Etat va pas m'quen' On évite les porcs, on évite les porcs Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts, sur la vie d'mes morts J'vais reprendre tout cet or, tout c'qui nous revient J'vais annuler l'score, annuler l'score Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts Le négro est délicat, raffiné J'vais t'piner, pas te câliner On rafle les 'tasses comme Boko Haram On laisse l'esprit des négros abîmé Touche pas aux grisbis, renoi, touche pas aux grisbis Le manque d'argent m'a rendu irritable Touche pas aux grisbis, renoi, touche pas aux grisbis J'allume un négro, en me fumant une gitane J'ai une Rolex si j'veux, deux trois Rolex si j'veux J'ride en tramway négro, j'ride en Solex si j'veux J'passe la cinquième renoi, j'nique l'alcootest si j'veux J'ride avec ton loyer dans la pocket si j'veux Leurs versets n'ont aucune âme Les voies du Seigneur sont pas autotunables Comme ma bitch, elles sont impénétrables Pour mes noirs du Togo, mes noirs du Sénégal, nigga Le renoi pique les yeux, le renoi pique les yeux Détend les p'tits haineux, détend les p'tits haineux Le renoi pique les yeux, le renoi pique les yeux Le renoi détend les p'tits haineux, détend les p'tits haineux Quoi?! Quoi?! Quoi?! Quoi?! Quoi?! Sur la vie d'mes morts, sur la vie d'mes morts Sur la vie d'mes morts, l'Etat va pas m'quen' On évite les porcs, on évite les porcs Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts, sur la vie d'mes morts J'vais reprendre tout cet or, tout c'qui nous revient J'vais annuler l'score, annuler l'score Sur la vie, sur la vie, sur la vie, sur la vie Sur la vie d'mes morts</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>... Hey Ayo Hey, hey Hey Yo, j'suis pépère, jsirote, mon verre d'Ciroc Au moins sous dix drogues, j'plane, jpilote Oh, ohh Ma vie est un long fleuve tranquille, coup d'shlass, pour ceux qui veulent monter, dans ma pirogue Ouhh J'vis ma vie, comme au cinéma J'ramène ta 'me-f', direct, chez moi Même pas b'soin d'payer le cinoche Yeah Jviens baiser des Juliette Binoche Une binouze, j'la pine, aussi bien qule ferait son mec, sa nuit d'noce Yo, d'débarque, tout en finesse J'baise, bois des bières, et jme prépare, pour le Guiness Yo, yo-yo, yo-yo C'putain d'rap est trop facile, on est dans la place Tu m'rejoins, Négro, nous, on est solaire Haan Yo, j'ai l'flow du tsunami Vrais reconnaissent vrais, ch'yeah, un vrai négro, pour la vie, personne pourra m'remplacer Marvy, j'te vois, négro, au beat J'en place une pour Brodi', j'en place une pour Manaré You might also like Paw</t>
+          <t>... Hey Ayo Hey, hey Hey Yo, j'suis pépère, jsirote, mon verre d'Ciroc Au moins sous dix drogues, j'plane, jpilote Oh, ohh Ma vie est un long fleuve tranquille, coup d'shlass, pour ceux qui veulent monter, dans ma pirogue Ouhh J'vis ma vie, comme au cinéma J'ramène ta 'me-f', direct, chez moi Même pas b'soin d'payer le cinoche Yeah Jviens baiser des Juliette Binoche Une binouze, j'la pine, aussi bien qule ferait son mec, sa nuit d'noce Yo, d'débarque, tout en finesse J'baise, bois des bières, et jme prépare, pour le Guiness Yo, yo-yo, yo-yo C'putain d'rap est trop facile, on est dans la place Tu m'rejoins, Négro, nous, on est solaire Haan Yo, j'ai l'flow du tsunami Vrais reconnaissent vrais, ch'yeah, un vrai négro, pour la vie, personne pourra m'remplacer Marvy, j'te vois, négro, au beat J'en place une pour Brodi', j'en place une pour Manaré Paw</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>J't'étouffe avec un oreiller bang bang Y'a qu'devant les foufs qu'ils passent pour des tôliers Ils sont à bout d'souffle comme un chien avec collier Y'a qu'pour les shtars que les frères ont un palais J'suis devant l'dessert son boule bouge comme un flan J'ai les mains faites pour l'or mais les paluches sont dans les gants Ça remonte d'Espagne, au volant c'est une mère-grand Y'a que d'la fraîche à la merci du vent Faut un Canadair, pour les arroser Y'a qu'pour les gros sous, qu'on est pas mauvais J'suis né dans la crise, nique les fortunés Et rends-moi ma fouille, et nique ta reumé On porte nos frères, on porte nos douilles On porte des coffres, on porte nos fouilles J'suis à bout d'nerfs ils sont à bout d'couilles J'ai des frères qu'ont fait du shtar, à Bodrum Si j'arrive pas, j'retourne dans l'hall Si j'bicrave pas, j'bicrave dans l'hall Si j'arrive pas, j'retourne dans l'hall Même si j'suis déjà dans l'hall You might also like J'débarque dans la pièce et j'lubrifie les chattes J'regarde la porte qui se ferme, une pétasse qui écarte J'ai des pensées lubriques comme Stanley Kubrick merde J'ai dépensé du fric, tu suces ou tu niques ? J'débarque dans la pièce et j'lubrifie les chattes, j'les allume, j'les transforme en stats Mes crapules ont l'nez fourré dans des calculs, baking soda sur les spatules J'ai rien entendu, j'ai pas vu, j'faisais dodo dans un cavu Donc adresse-toi à mon phallus biatch J'ride avec des nymphettes, bien faites, j'décolle au Get 27 Mes cojones m'inquiètent, j'sens comme une ex-croissance J'ai besoin d'un chèque et j'te lègue ma science Négro j'm'impatiente, il m'faut une liasse d'un mètre soixante 3.4, 9.3.4, Worms T 3.4, 9.3.4, Jokeezy 9.3.4, MTP 9.3 Si j'arrive pas, j'retourne dans l'hall Si j'bicrave pas, j'bicrave dans l'hall Si j'arrive pas, j'retourne dans l'hall Même si j'suis déjà dans l'hall On est partout comme au shtar, elles sont grosses comme au billard Cent, deux cents dans le tiroir, tu bosses pour un mac y'a pas de gloire Y'a pas de clown dans l'miroir, rigole doucement, c'est pas la foire Demain j'peux donner la vie et demain faire la manche sur l'trottoir La violence arrive j'suis pressé, y'a pas qu'nos enfants qu'on va dresser Capitaine a quitté l'armée, pour vendre des M16 dans la cité Si tu parles avec moi c'est dans la rue, ou va te faire niquer J'suis gravé en garde-à-vue, comme, mes frères en CD Si j'arrive pas, j'retourne dans l'hall Si j'bicrave pas, j'bicrave dans l'hall Si j'arrive pas, j'retourne dans l'hall Même si j'suis déjà dans l'hall Si j'arrive pas, j'retourne dans l'hall Si j'bicrave pas, j'bicrave dans l'hall Si j'arrive pas, j'retourne dans l'hall Même si j'suis déjà dans l'hall Worms T, Jokeezy L.R.L.V, MTP</t>
+          <t>J't'étouffe avec un oreiller bang bang Y'a qu'devant les foufs qu'ils passent pour des tôliers Ils sont à bout d'souffle comme un chien avec collier Y'a qu'pour les shtars que les frères ont un palais J'suis devant l'dessert son boule bouge comme un flan J'ai les mains faites pour l'or mais les paluches sont dans les gants Ça remonte d'Espagne, au volant c'est une mère-grand Y'a que d'la fraîche à la merci du vent Faut un Canadair, pour les arroser Y'a qu'pour les gros sous, qu'on est pas mauvais J'suis né dans la crise, nique les fortunés Et rends-moi ma fouille, et nique ta reumé On porte nos frères, on porte nos douilles On porte des coffres, on porte nos fouilles J'suis à bout d'nerfs ils sont à bout d'couilles J'ai des frères qu'ont fait du shtar, à Bodrum Si j'arrive pas, j'retourne dans l'hall Si j'bicrave pas, j'bicrave dans l'hall Si j'arrive pas, j'retourne dans l'hall Même si j'suis déjà dans l'hall J'débarque dans la pièce et j'lubrifie les chattes J'regarde la porte qui se ferme, une pétasse qui écarte J'ai des pensées lubriques comme Stanley Kubrick merde J'ai dépensé du fric, tu suces ou tu niques ? J'débarque dans la pièce et j'lubrifie les chattes, j'les allume, j'les transforme en stats Mes crapules ont l'nez fourré dans des calculs, baking soda sur les spatules J'ai rien entendu, j'ai pas vu, j'faisais dodo dans un cavu Donc adresse-toi à mon phallus biatch J'ride avec des nymphettes, bien faites, j'décolle au Get 27 Mes cojones m'inquiètent, j'sens comme une ex-croissance J'ai besoin d'un chèque et j'te lègue ma science Négro j'm'impatiente, il m'faut une liasse d'un mètre soixante 3.4, 9.3.4, Worms T 3.4, 9.3.4, Jokeezy 9.3.4, MTP 9.3 Si j'arrive pas, j'retourne dans l'hall Si j'bicrave pas, j'bicrave dans l'hall Si j'arrive pas, j'retourne dans l'hall Même si j'suis déjà dans l'hall On est partout comme au shtar, elles sont grosses comme au billard Cent, deux cents dans le tiroir, tu bosses pour un mac y'a pas de gloire Y'a pas de clown dans l'miroir, rigole doucement, c'est pas la foire Demain j'peux donner la vie et demain faire la manche sur l'trottoir La violence arrive j'suis pressé, y'a pas qu'nos enfants qu'on va dresser Capitaine a quitté l'armée, pour vendre des M16 dans la cité Si tu parles avec moi c'est dans la rue, ou va te faire niquer J'suis gravé en garde-à-vue, comme, mes frères en CD Si j'arrive pas, j'retourne dans l'hall Si j'bicrave pas, j'bicrave dans l'hall Si j'arrive pas, j'retourne dans l'hall Même si j'suis déjà dans l'hall Si j'arrive pas, j'retourne dans l'hall Si j'bicrave pas, j'bicrave dans l'hall Si j'arrive pas, j'retourne dans l'hall Même si j'suis déjà dans l'hall Worms T, Jokeezy L.R.L.V, MTP</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Pharaoh, pharaoh, pharaoh, pharaoh 228 on this bitch, bitch, bitch Bang-bang, bang-bang Blessing More blessing on this bitch, bless, bless, bless, bless FREAKEY!, FREAKEY! Hey Les bouteilles qu'je pop, négro, c'est des As de Pique Négro Ma bitch a un sac Gucci, avec une face de tigre Négro J'ai médité trop d'temps, j'ai une case de vide Oh Ma liasse est pas slim, elle craque son élastique Let's go Tais-toi et astique Mojo est fantastique Yes J'ai vu ta 'tasse et j'l'ai prise, comme la Bastille Yes Ma vie un film de boule, viens passer ton casting Yes Tu veux être fort comme le négro, mais tu procrastines Yes Go, go, go, go Négro n'aies pas l'seum, dans l'miroir j'vois l'sun Eh Faut qu'j'pousse Eh Grosse liasse, tous mes gars sten Eh Dans mes yeux y'a d'la lueur À l'heure, comme une TAG Heuer L'aura est fabuleuse You might also like I get higher, higher, higher Tous les jour I get higher, higher, higher Oh Roll that shit J'laisse sa pussy en fire, fire, fire Smoke that shit Tous les jours j'fais la maill'a, maill'a-a, hey Smoke that shit I get higher, higher, higher Roule cette bitch Tous les jours I get higher, higher, higher Fume cette cette bitch J'laisse sa pussy en fire, fire, fire Roule cette bitch Tous les jours j'fais la maill'a, maill'a, maill'a Fume cette bitch, nigga FREAKEY!, démarre le vaisseau mon négro I get higher, higher, higher Tous les jours I get higher, higher, higher J'laisse sa pussy en fire, fire, fire Tous les jours j'fais la maill'a, maill'a, maill'a, hey I get higher, higher, higher Tous les jours I get higher, higher, higher J'laisse sa pussy en fire, fire, fire Tous les jours j'fais la maill'a, maill'a, maill'a</t>
+          <t>Pharaoh, pharaoh, pharaoh, pharaoh 228 on this bitch, bitch, bitch Bang-bang, bang-bang Blessing More blessing on this bitch, bless, bless, bless, bless FREAKEY!, FREAKEY! Hey Les bouteilles qu'je pop, négro, c'est des As de Pique Négro Ma bitch a un sac Gucci, avec une face de tigre Négro J'ai médité trop d'temps, j'ai une case de vide Oh Ma liasse est pas slim, elle craque son élastique Let's go Tais-toi et astique Mojo est fantastique Yes J'ai vu ta 'tasse et j'l'ai prise, comme la Bastille Yes Ma vie un film de boule, viens passer ton casting Yes Tu veux être fort comme le négro, mais tu procrastines Yes Go, go, go, go Négro n'aies pas l'seum, dans l'miroir j'vois l'sun Eh Faut qu'j'pousse Eh Grosse liasse, tous mes gars sten Eh Dans mes yeux y'a d'la lueur À l'heure, comme une TAG Heuer L'aura est fabuleuse I get higher, higher, higher Tous les jour I get higher, higher, higher Oh Roll that shit J'laisse sa pussy en fire, fire, fire Smoke that shit Tous les jours j'fais la maill'a, maill'a-a, hey Smoke that shit I get higher, higher, higher Roule cette bitch Tous les jours I get higher, higher, higher Fume cette cette bitch J'laisse sa pussy en fire, fire, fire Roule cette bitch Tous les jours j'fais la maill'a, maill'a, maill'a Fume cette bitch, nigga FREAKEY!, démarre le vaisseau mon négro I get higher, higher, higher Tous les jours I get higher, higher, higher J'laisse sa pussy en fire, fire, fire Tous les jours j'fais la maill'a, maill'a, maill'a, hey I get higher, higher, higher Tous les jours I get higher, higher, higher J'laisse sa pussy en fire, fire, fire Tous les jours j'fais la maill'a, maill'a, maill'a</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>FREAKEY! FREAKEY! FREAKEY! FREAKEY! FREAKEY! J't'emmène faire du shopping, Woah, shopping, Woah, shopping, Woah J't'emmène faire du shopping, Woah, shopping Woah, shopping, Woah Nique sa mère tes copines, Woah, tes copines, Woah, tes copines, Woah J't'emmène faire du shopping, Woah, shopping, Woah, shopping Infinigga Bébé, prends c'que tu veux chez Zara Woah Bébé, j'tire tes cheveux chez Zara Woah Descend, chute de rein, chute Niagara Méchant, j'roule mon 'oin-j', vingt-quatre carats Gucci, là j'vais toucher ta culotte Ooh, ooh, ooh, ooh Tout d'suite, j't'offre une paire, faut que tu m'offres pussy Ooh, ooh, ooh, ooh Dis à ton gars j'vais faire les boutiques, faire les boutiques, yeah Ooh, ooh, ooh, ooh J't'emmène faire du shopping, Woah, shopping, Woah, shopping, Woah on God J't'emmène faire du shopping, Woah, shopping Woah, shopping Alright Nique sa mère tes copines, Woah, tes copines, woah, tes copines Woah, on God J't'emmène faire du shopping Woah, shopping Woah, shopping Alright You might also like J'la mate dans la cabine Négro, j'la mate dans la cabine Oh, woah, oh, oh Négro, j'la doigte dans la cabine Oh, woah, oh, oh Négro, j'la que-n' dans la cabine Oh, woah, oh, oh Ah, ah, ah Bébé, prends c'que tu veux chez LV Bébé, mais va falloir assumer Pas joli, quand l'négro est énervé Oh, oh-oh J'la mets, dans ta bouche, tes lèvres Fendi, sombre et fort, j'mets des fessées Oh, yeah Fendi, c'est toi qui va encaisser Oh, yeah Fendi, j'te prends, j'te prends en 'vrette-le' J'te prends en 'vrette-le' J't'emmène faire du shopping, Shopping, shopping, Woah, shopping, Woah on God J't'emmène faire du shopping, Woah, shopping Woah, shopping Alright Nique sa mère tes copines, Woah, tes copines, Woah, tes copines Woah, on God J't'emmène faire du shopping Woah, shopping Woah, shopping Alright J'la mate dans la cabine Négro, j'la mate dans la cabine Oh, woah, oh, oh Négro, j'la doigte dans la cabine Oh, woah, oh, oh Négro, j'la que-n' dans la cabine Oh, woah, oh, oh Ah, ah, ah Fendi, tu penseras à nous Ooh, ooh, ooh, ooh Gucci, tu penseras à nous Ooh, ooh, ooh, ooh Céline, tu penseras à nous Ooh, ooh, ooh, ooh Chanel, tu penseras à nous Ooh, ooh, ooh, ooh Miu Miu, tu penseras à nous Ooh, ooh, ooh, ooh Tu penseras à nous Ooh, ooh, ooh, ooh Tu penseras à nous Ooh, ooh, ooh, ooh Tu penseras à nous Ooh, ooh, ooh, ooh Wah Incroyable1</t>
+          <t>FREAKEY! FREAKEY! FREAKEY! FREAKEY! FREAKEY! J't'emmène faire du shopping, Woah, shopping, Woah, shopping, Woah J't'emmène faire du shopping, Woah, shopping Woah, shopping, Woah Nique sa mère tes copines, Woah, tes copines, Woah, tes copines, Woah J't'emmène faire du shopping, Woah, shopping, Woah, shopping Infinigga Bébé, prends c'que tu veux chez Zara Woah Bébé, j'tire tes cheveux chez Zara Woah Descend, chute de rein, chute Niagara Méchant, j'roule mon 'oin-j', vingt-quatre carats Gucci, là j'vais toucher ta culotte Ooh, ooh, ooh, ooh Tout d'suite, j't'offre une paire, faut que tu m'offres pussy Ooh, ooh, ooh, ooh Dis à ton gars j'vais faire les boutiques, faire les boutiques, yeah Ooh, ooh, ooh, ooh J't'emmène faire du shopping, Woah, shopping, Woah, shopping, Woah on God J't'emmène faire du shopping, Woah, shopping Woah, shopping Alright Nique sa mère tes copines, Woah, tes copines, woah, tes copines Woah, on God J't'emmène faire du shopping Woah, shopping Woah, shopping Alright J'la mate dans la cabine Négro, j'la mate dans la cabine Oh, woah, oh, oh Négro, j'la doigte dans la cabine Oh, woah, oh, oh Négro, j'la que-n' dans la cabine Oh, woah, oh, oh Ah, ah, ah Bébé, prends c'que tu veux chez LV Bébé, mais va falloir assumer Pas joli, quand l'négro est énervé Oh, oh-oh J'la mets, dans ta bouche, tes lèvres Fendi, sombre et fort, j'mets des fessées Oh, yeah Fendi, c'est toi qui va encaisser Oh, yeah Fendi, j'te prends, j'te prends en 'vrette-le' J'te prends en 'vrette-le' J't'emmène faire du shopping, Shopping, shopping, Woah, shopping, Woah on God J't'emmène faire du shopping, Woah, shopping Woah, shopping Alright Nique sa mère tes copines, Woah, tes copines, Woah, tes copines Woah, on God J't'emmène faire du shopping Woah, shopping Woah, shopping Alright J'la mate dans la cabine Négro, j'la mate dans la cabine Oh, woah, oh, oh Négro, j'la doigte dans la cabine Oh, woah, oh, oh Négro, j'la que-n' dans la cabine Oh, woah, oh, oh Ah, ah, ah Fendi, tu penseras à nous Ooh, ooh, ooh, ooh Gucci, tu penseras à nous Ooh, ooh, ooh, ooh Céline, tu penseras à nous Ooh, ooh, ooh, ooh Chanel, tu penseras à nous Ooh, ooh, ooh, ooh Miu Miu, tu penseras à nous Ooh, ooh, ooh, ooh Tu penseras à nous Ooh, ooh, ooh, ooh Tu penseras à nous Ooh, ooh, ooh, ooh Tu penseras à nous Ooh, ooh, ooh, ooh Wah Incroyable1</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Yeah han han Joke Stunts Stunts Premier français à poser sur c'beat, négro, hey Sûrement l'dernier, négro Yeah, Joke Han J'suis incroyable car imparable Par rapport aux rappeurs, j'rappe pas Vingt ans d'avance sur tes ondes longitudinales Mon blaze c'est pas Jay-Z, mais non tu lis mal C'est pas c'que j'voulais faire, négro Ouais, j'voulais faire un truc plus rapide du genre J'suis incroyable, car c'est ta qui met la clim Dans tous les cas c'est toi qui a l'Kleenex, le flow est cleané, chatte épilée C'est bientôt les charts et puis les minettes, nan mais pas grave La saison des vendanges négro, elle lâche pas la grappe Je saute les putes comme des moutons, avant de m'endormir C'est comme Secret Story négro, faut écouter la voix J'suis un labyrinthe, les MC's ne vont pas s'en sortir J'ai la parole tranchante alors, venez couper la moelle Et moi l'son presse, avalez, si tu connais pas, répète, j'ai des phases danger, j'ai une face d'ange J'ai des ailes pour le ciel pour lever les belles, pour relever les têtes, que le monde me veut C'est à dire le monde me veut, j'les attire tel un aimant, eh Tellement fort, j'te fais der-ban, frère, pour moi, l'rap c'est élémentaireYou might also like</t>
+          <t>Yeah han han Joke Stunts Stunts Premier français à poser sur c'beat, négro, hey Sûrement l'dernier, négro Yeah, Joke Han J'suis incroyable car imparable Par rapport aux rappeurs, j'rappe pas Vingt ans d'avance sur tes ondes longitudinales Mon blaze c'est pas Jay-Z, mais non tu lis mal C'est pas c'que j'voulais faire, négro Ouais, j'voulais faire un truc plus rapide du genre J'suis incroyable, car c'est ta qui met la clim Dans tous les cas c'est toi qui a l'Kleenex, le flow est cleané, chatte épilée C'est bientôt les charts et puis les minettes, nan mais pas grave La saison des vendanges négro, elle lâche pas la grappe Je saute les putes comme des moutons, avant de m'endormir C'est comme Secret Story négro, faut écouter la voix J'suis un labyrinthe, les MC's ne vont pas s'en sortir J'ai la parole tranchante alors, venez couper la moelle Et moi l'son presse, avalez, si tu connais pas, répète, j'ai des phases danger, j'ai une face d'ange J'ai des ailes pour le ciel pour lever les belles, pour relever les têtes, que le monde me veut C'est à dire le monde me veut, j'les attire tel un aimant, eh Tellement fort, j'te fais der-ban, frère, pour moi, l'rap c'est élémentaire</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Myth Syzer Dior, Dior, Dior J'suis fais de Dior Dior, Dior, Dior J'suis fais de Dior Go, go, go Dior, Dior, Dior Ah, ah, ah J'suis fais de Dior Go, go, go Dior, Dior, Dior J'suis fais de Dior Go, go, go Diamant sur les lobes, yeah On est des commis Oui, j'suis avec le mob, yeah Du Murakami Champion des échecs, ceinture à damier J'la met dans ces schnek, t'sais qu'elles ont gagnées J'te push à ta limite, donne ta pussy j'dive in it Go, go, go Tu m'vois sur Paris, bitch, fais de moi ton mari, bitch Go, go, go J'fume comme à Cali, bitch, sa grand mère la milice Go, go, go Une aura divine, donc j'soulève des Marilyns Go, go, go J'fume comme à cali, j'suis allumé comme un Dalí , dans sa chatte j'fais d'l'aquaplaning Nique sa mère l'armée, met du Gucci et du Marni J'les siffle comme un arbitre J'fais pas du rap j'fais de l'art, bitch Dior, Dior, Dior J'suis fais de Dior Dior, Dior, Dior J'suis fais de Dior Dior, Dior, Dior Hey, hein, hein J'suis fais de Dior Dior, Dior, Dior J'suis fais de Dior You might also like</t>
+          <t>Myth Syzer Dior, Dior, Dior J'suis fais de Dior Dior, Dior, Dior J'suis fais de Dior Go, go, go Dior, Dior, Dior Ah, ah, ah J'suis fais de Dior Go, go, go Dior, Dior, Dior J'suis fais de Dior Go, go, go Diamant sur les lobes, yeah On est des commis Oui, j'suis avec le mob, yeah Du Murakami Champion des échecs, ceinture à damier J'la met dans ces schnek, t'sais qu'elles ont gagnées J'te push à ta limite, donne ta pussy j'dive in it Go, go, go Tu m'vois sur Paris, bitch, fais de moi ton mari, bitch Go, go, go J'fume comme à Cali, bitch, sa grand mère la milice Go, go, go Une aura divine, donc j'soulève des Marilyns Go, go, go J'fume comme à cali, j'suis allumé comme un Dalí , dans sa chatte j'fais d'l'aquaplaning Nique sa mère l'armée, met du Gucci et du Marni J'les siffle comme un arbitre J'fais pas du rap j'fais de l'art, bitch Dior, Dior, Dior J'suis fais de Dior Dior, Dior, Dior J'suis fais de Dior Dior, Dior, Dior Hey, hein, hein J'suis fais de Dior Dior, Dior, Dior J'suis fais de Dior</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Dior, Dior, Dior J'suis fais de Dior That's right Dior, Dior, Dior J'suis fais de Dior Go, go, go Dior, Dior, Dior Ah, ah, ah J'suis fais de Dior Go, go, go Dior, Dior, Dior J'suis fais de Dior Go, go, go Starlight Koffi Diamant sur les lobes, yeah On est des commis Oui, j'suis avec le mob, yeah Du Murakami Champion des échecs, ceinture à damier J'la met dans ces schnek, t'sais qu'elles ont gagnées J'te push à ta limite, donne ta pussy j'dive in it Go, go, go Tu m'vois sur Paris, bitch, fais de moi ton mari, bitch Go, go, go J'fume comme à Cali, bitch, sa grand mère la milice Go, go, go Une aura divine, donc j'soulève des Marilyns Go, go, go You might also like J'fume comme à Cali, j'suis allumé comme un Dalí Ekusutash no seishin , dans sa chatte j'fais d'l'aquaplaning Nique sa mèr l'armée, met du Gucci et du Marni J'ls siffle comme un arbitre J'fais pas du rap j'fais de l'art, bitch Dior, Dior, Dior J'suis fais de Dior Dior, Dior, Dior J'suis fais de Dior Dior, Dior, Dior Hey, hein, hein J'suis fais de Dior Dior, Dior, Dior J'suis fais de Dior Starlight Koffi Ohh, oh-oh, oh-oh, oh-ohh, ohh Ohh, oh-oh, oh-oh, oh-ohh, ohh Go, go, go-go-go Ohh, oh-oh, oh-oh, oh-ohh, ohh Go, go, go-go-go Go, go, go-go-go Ohh, oh-oh, oh-oh, oh-ohh, ohh Go, go, go-go-go Go, go, go-go-go Ohh, oh-oh, oh-oh, oh-ohh, ohh Go, go, go-go-go Go, go, go-go-go Ohh, oh-oh, oh-oh, oh-ohh, ohh Ohhhhh Go, go, go-go-go Go, go, go-go Ekusutash no seishin Héé-heeyy, hé-hé Nokija Pharaoh Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim Yeahh C.D.G. sur oim, big C.D.G. sur oim, right, right, right Yeaaahh Bitch C.D.G, j'pèse comme un PDG, bitch That's right Han, j'passe la beuh à Cd.G, bitch Mh, mhh Mon swag est léché, ma 'teu-b' est léchée, bitch Mh-mh, mhh Elle est éméchée, elle va me sécher, bitch Yeah-hé-hé-héé J'suis en C.D.G, mignon comme le péché, bitch Yeah-hé-hé-héé Toucher ton 'vu-ca' j'peux pas m'en empêcher, bitch Yeah-hé-hé-héé Tu veux tester l'Pharaon, tu t'fais abréger, bitch Yeah-hé-hé-héé Elle est éméchée, elle va me sécher, bitch Yeah-hé-hé-héé Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim C.D.G. sur oim, big C.D.G. sur oim, right, right, right Ta 'tasse fait briller ma 'teu-b' seulement Yeah-hé-hé-héé Ta 'tasse fait briller ma 'teu-b' seulement Yeah-hé-hé-héé Elle est éméchée, elle va me sécher, bitch Ekusutash no seishin</t>
+          <t>Dior, Dior, Dior J'suis fais de Dior That's right Dior, Dior, Dior J'suis fais de Dior Go, go, go Dior, Dior, Dior Ah, ah, ah J'suis fais de Dior Go, go, go Dior, Dior, Dior J'suis fais de Dior Go, go, go Starlight Koffi Diamant sur les lobes, yeah On est des commis Oui, j'suis avec le mob, yeah Du Murakami Champion des échecs, ceinture à damier J'la met dans ces schnek, t'sais qu'elles ont gagnées J'te push à ta limite, donne ta pussy j'dive in it Go, go, go Tu m'vois sur Paris, bitch, fais de moi ton mari, bitch Go, go, go J'fume comme à Cali, bitch, sa grand mère la milice Go, go, go Une aura divine, donc j'soulève des Marilyns Go, go, go J'fume comme à Cali, j'suis allumé comme un Dalí Ekusutash no seishin , dans sa chatte j'fais d'l'aquaplaning Nique sa mèr l'armée, met du Gucci et du Marni J'ls siffle comme un arbitre J'fais pas du rap j'fais de l'art, bitch Dior, Dior, Dior J'suis fais de Dior Dior, Dior, Dior J'suis fais de Dior Dior, Dior, Dior Hey, hein, hein J'suis fais de Dior Dior, Dior, Dior J'suis fais de Dior Starlight Koffi Ohh, oh-oh, oh-oh, oh-ohh, ohh Ohh, oh-oh, oh-oh, oh-ohh, ohh Go, go, go-go-go Ohh, oh-oh, oh-oh, oh-ohh, ohh Go, go, go-go-go Go, go, go-go-go Ohh, oh-oh, oh-oh, oh-ohh, ohh Go, go, go-go-go Go, go, go-go-go Ohh, oh-oh, oh-oh, oh-ohh, ohh Go, go, go-go-go Go, go, go-go-go Ohh, oh-oh, oh-oh, oh-ohh, ohh Ohhhhh Go, go, go-go-go Go, go, go-go Ekusutash no seishin Héé-heeyy, hé-hé Nokija Pharaoh Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim Yeahh C.D.G. sur oim, big C.D.G. sur oim, right, right, right Yeaaahh Bitch C.D.G, j'pèse comme un PDG, bitch That's right Han, j'passe la beuh à Cd.G, bitch Mh, mhh Mon swag est léché, ma 'teu-b' est léchée, bitch Mh-mh, mhh Elle est éméchée, elle va me sécher, bitch Yeah-hé-hé-héé J'suis en C.D.G, mignon comme le péché, bitch Yeah-hé-hé-héé Toucher ton 'vu-ca' j'peux pas m'en empêcher, bitch Yeah-hé-hé-héé Tu veux tester l'Pharaon, tu t'fais abréger, bitch Yeah-hé-hé-héé Elle est éméchée, elle va me sécher, bitch Yeah-hé-hé-héé Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim C.D.G. sur oim, big C.D.G. sur oim, right, right, right Ta 'tasse fait briller ma 'teu-b' seulement Yeah-hé-hé-héé Ta 'tasse fait briller ma 'teu-b' seulement Yeah-hé-hé-héé Elle est éméchée, elle va me sécher, bitch Ekusutash no seishin</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>That's for my fuckin' nigga Badoit, Les Monsieurs Badoit, ex nigga No homo No homo, faggot Fuck Man, that's what I'm talkin' about I'm off nigga, you feel me ? You know Fuck that shit, nigga Yo, man, do that ! What's the fuck nigga !? Yo, là, j'arrive en français maintenant Aye, hey T'as pas flairé l'poisson qui fallait Accrocheur comme l'hameçon qui fallait J'suis l'futur comme un maçon qui balaie Mec, tu peux être aussi frais qu'un glaçon, j'm'en bat les Ballons d'foot qu'j'ai à la place des couilles Coté passager, doigt donneur à la phase des poules, et J'vais voir deuxtrois meufs, j'vais m'raser les boules Ça fait mal aux dents comme la patate, qu'j'vais t'écraser sous l'nez TafioleYou might also like1</t>
+          <t>That's for my fuckin' nigga Badoit, Les Monsieurs Badoit, ex nigga No homo No homo, faggot Fuck Man, that's what I'm talkin' about I'm off nigga, you feel me ? You know Fuck that shit, nigga Yo, man, do that ! What's the fuck nigga !? Yo, là, j'arrive en français maintenant Aye, hey T'as pas flairé l'poisson qui fallait Accrocheur comme l'hameçon qui fallait J'suis l'futur comme un maçon qui balaie Mec, tu peux être aussi frais qu'un glaçon, j'm'en bat les Ballons d'foot qu'j'ai à la place des couilles Coté passager, doigt donneur à la phase des poules, et J'vais voir deuxtrois meufs, j'vais m'raser les boules Ça fait mal aux dents comme la patate, qu'j'vais t'écraser sous l'nez Tafiole1</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>- J'ai mon train dans une heure, une heure vingt... J'suis encore au studio, et j'fais une intro parce que j'suis obligé d'en faire une. Si ça tenait qu'à moi, j'en ferais même pasYou might also like</t>
+          <t>- J'ai mon train dans une heure, une heure vingt... J'suis encore au studio, et j'fais une intro parce que j'suis obligé d'en faire une. Si ça tenait qu'à moi, j'en ferais même pas</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Yeah Joke, Stunts Yeah, yeah, yeah Han Je suis, je suis, je suis très loin de C'que vous, c'que vous, vous pensez d'moi Yeah Dans ma clique, y a qu'des Sibériens, j'te dis C'est du son lourd, mec, tu en sais quoi ? Ok J'suis un garçon à qui on présent'rait pas Hélène C'est moi le Père Noël, tu n'tiendras pas les rênes Attrape mes postillons, y a tout dans mon ADN Les rappeurs, c'est Loft Story joué dans des HLM Ah S'ont la vie dure, se croient tous dans GTA MC Manucure, parce que je leur fais des doigts C'est des ratés, j'gâterais les backs, c'est des rats et les rats c'est faits pour les poubelles C'est des poux, laisse, ils sauteront sur mes points de suspensions, etcetera Je ne rappe pas, je ne, je ne rappe pas Uh-huh Même si tu crois qu'je rappe, négro, je ne rappe pas Uh-huh Tu ne peux rien faire, négro, à part te taire car Je ne rappe pas, je ne, je ne rappe pas Oh, oh, oh, oh, je ne suis pas un rappeur J'ai grave, grave, grave, grave besoin de pognons, de sous Mec, de maille, maille, je veux d'la maille, maille Je veux d'la maille, aïe, aïe, aïe, aïe You might also like Je n'suis pas un rappeu-eu-eu-eur Je n'chante pas avec le cu-eu-eu-eur En plus, j'ai pas le sang chau-au-au-aud Parce que j'suis frais jusqu'à la moelle, qui a compris ? Yeah J'suis pas un gars qui s'poudre les narines, j'suis Plutôt du genre à titiller l'minou des gamines, j'ai Tellement d'flow que j'suis courtisé par la Marine Yeah Pinocchio, je veux du blé donc j'te vends la farine J'aime éviter tout contact, j'aime pas les gens J'aime pas la bouche à YELLE, elle s'est pas lavée les dents Me grave pas sur disque compact ?, tous les 'ze-gon' rappent J'suis comme une be-bom, j'suis à prendre avec des gants, gants, gants, gants Je ne rappe pas, je ne, je ne rappe pas Uh-huh Même si tu crois qu'je rappe, négro, je ne rappe pas Uh-huh Tu ne peux rien faire, négro, à part te taire car Je ne rappe pas, je ne, je ne rappe pas Oh, oh, oh, oh, je ne suis pas un rappeur J'ai grave, grave, grave, grave besoin de pognons, de sous Mec, de maille, maille, je veux d'la maille, maille Je veux d'la maille, aïe, aïe, aïe, aïe J'suis ok, ok, envoie la maille, ok, ok Faut que je comble le découvert que j'ai fait sur eBay hier T'es bloqué, bloqué, MC j't'ai dis, t'es bloqué, bloqué T'es comme une roue d'secours tu resteras derrière T'es interloqué, tu respires comme si t'avais le hoquet, hoquet Mets ma bite dans ta bouche, j'te jure ça marche, j'en suis hyper fier On te dit que c'est propre, que t'as du flow, que ça glisse, que c'est brillant Négro, seulement quand tu passes la serpillière Je ne rappe pas, je ne, je ne rappe pas Uh-huh Même si tu crois qu'je rappe, négro, je ne rappe pas Uh-huh Tu ne peux rien faire, négro, à part te taire car Je ne rappe pas, je ne, je ne rappe pas Oh, oh, oh, oh, je ne suis pas un rappeur J'ai grave, grave, grave, grave besoin de pognons, de sous Mec, de maille, maille, je veux d'la maille, maille Je veux d'la maille, aïe, aïe, aïe, aïe</t>
+          <t>Yeah Joke, Stunts Yeah, yeah, yeah Han Je suis, je suis, je suis très loin de C'que vous, c'que vous, vous pensez d'moi Yeah Dans ma clique, y a qu'des Sibériens, j'te dis C'est du son lourd, mec, tu en sais quoi ? Ok J'suis un garçon à qui on présent'rait pas Hélène C'est moi le Père Noël, tu n'tiendras pas les rênes Attrape mes postillons, y a tout dans mon ADN Les rappeurs, c'est Loft Story joué dans des HLM Ah S'ont la vie dure, se croient tous dans GTA MC Manucure, parce que je leur fais des doigts C'est des ratés, j'gâterais les backs, c'est des rats et les rats c'est faits pour les poubelles C'est des poux, laisse, ils sauteront sur mes points de suspensions, etcetera Je ne rappe pas, je ne, je ne rappe pas Uh-huh Même si tu crois qu'je rappe, négro, je ne rappe pas Uh-huh Tu ne peux rien faire, négro, à part te taire car Je ne rappe pas, je ne, je ne rappe pas Oh, oh, oh, oh, je ne suis pas un rappeur J'ai grave, grave, grave, grave besoin de pognons, de sous Mec, de maille, maille, je veux d'la maille, maille Je veux d'la maille, aïe, aïe, aïe, aïe Je n'suis pas un rappeu-eu-eu-eur Je n'chante pas avec le cu-eu-eu-eur En plus, j'ai pas le sang chau-au-au-aud Parce que j'suis frais jusqu'à la moelle, qui a compris ? Yeah J'suis pas un gars qui s'poudre les narines, j'suis Plutôt du genre à titiller l'minou des gamines, j'ai Tellement d'flow que j'suis courtisé par la Marine Yeah Pinocchio, je veux du blé donc j'te vends la farine J'aime éviter tout contact, j'aime pas les gens J'aime pas la bouche à YELLE, elle s'est pas lavée les dents Me grave pas sur disque compact ?, tous les 'ze-gon' rappent J'suis comme une be-bom, j'suis à prendre avec des gants, gants, gants, gants Je ne rappe pas, je ne, je ne rappe pas Uh-huh Même si tu crois qu'je rappe, négro, je ne rappe pas Uh-huh Tu ne peux rien faire, négro, à part te taire car Je ne rappe pas, je ne, je ne rappe pas Oh, oh, oh, oh, je ne suis pas un rappeur J'ai grave, grave, grave, grave besoin de pognons, de sous Mec, de maille, maille, je veux d'la maille, maille Je veux d'la maille, aïe, aïe, aïe, aïe J'suis ok, ok, envoie la maille, ok, ok Faut que je comble le découvert que j'ai fait sur eBay hier T'es bloqué, bloqué, MC j't'ai dis, t'es bloqué, bloqué T'es comme une roue d'secours tu resteras derrière T'es interloqué, tu respires comme si t'avais le hoquet, hoquet Mets ma bite dans ta bouche, j'te jure ça marche, j'en suis hyper fier On te dit que c'est propre, que t'as du flow, que ça glisse, que c'est brillant Négro, seulement quand tu passes la serpillière Je ne rappe pas, je ne, je ne rappe pas Uh-huh Même si tu crois qu'je rappe, négro, je ne rappe pas Uh-huh Tu ne peux rien faire, négro, à part te taire car Je ne rappe pas, je ne, je ne rappe pas Oh, oh, oh, oh, je ne suis pas un rappeur J'ai grave, grave, grave, grave besoin de pognons, de sous Mec, de maille, maille, je veux d'la maille, maille Je veux d'la maille, aïe, aïe, aïe, aïe</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Yeah Yeah Ok Ok, mon p'tit nom c'est Joke et j'suis juste un corps qui parle Une forte équipe pour forniquer une époque formidable Amène pas ta copine, j'te descends, t'as la côte immédiatement Mes algo-rimes font viper tes sales oreilles J't'emmerde comme pas permis, j'ai pas passé mon code J'm'achète une conduite, eh ouais l'ami ça sert à ça l'oseille Ces banlieues nous parlent, mais mate leur équipe s'écrouler Regarde nous, on lèche des chattes et eux des feuilles à rouler J'kiffe bouffer les poitrines, j'émoustille les lapines Je rappe lourd, je rappe clean, je rappe puis je platine Tu rappes, et tu patines, tu rollers, tu Tippex Tu veux niquer la rap, mais ton flow a un p'tit sexe J'écris à la vaseline, ces trous du cul veulent des feats avec moi Ha ha, ça sortira chez Dorcel J'suis Rocky avec la vertue de Balavoine T'es Corky, t'as d'la chance d'être mon anagramme Mec, t'as le tournis Achète du Baygon, quand j'rappe t'as des fourmis J'ai toujours raison, j't'étourdis Si tu m'disais non, j'te dirais écoute, ouij, c'est You might also like Joke et Teki, Joke et Teki yeah Joke et Teki, Joke et Teki yeah Joke et Teki, Joke et Teki yeah Joke et Teki, Joke et Teki yeah Joke et Teki sont venus pour t'là mettre Joke et Teki sont venus pour t'là mettre Les rappeurs, no homo, on les baise Tu voulais le gros lot, bah c'est prêt Rien à foutre de rien, j'arrive dans l'game T-shirt crade et caleçon Gap J'enlève mes chaussettes pour baiser l'rap, je suis un garçon classe Bienvenue au centre aéré, les rappeurs en carton plate Leurs swaggers en papier mâché ne m'amusent plus à mon âge, voyons voir J'vais t'expliquer, j'suis le genre de mec Que les gens veulent être, un peu genre vedette Alors bébé s'il te plaît fais pas ta forte tête J'connais ton genre de fête, je te vends le rêve ah ah ! J'rappe et j'suis mort de rire tellement j'suis fort comparé à tous ces genres de types J'dévale le beat comme un sport de glisse Remonte ton col, j'm'adresse pas à n'importe qui En l'occurrence, Joke et Teki, parfaite équipe Casquette épique et mes baskets hors de prix On avait pas entendu de duo de ce type, j'te le dis mec Depuis Dre et Snoop dans Nothin' But a G Thang Joke et Teki, Joke et Teki yeah Joke et Teki, Joke et Teki yeah Joke et Teki, Joke et Teki yeah Joke et Teki, Joke et Teki yeah Joke et Teki sont venus pour t'là mettre Joke et Teki sont venus pour t'là mettre Les rappeurs, no homo, on les baise Tu voulais le gros lot, bah c'est prêt Ha ha ! Il s'appelle Joke J.O.K.E Retenez bien son nom Joke ! C'est ça Si t'écoutes pas tes parents, écoute au moins Joke C'est la vérité, tu l'sais, oh ! Tekitek Et c'est fini</t>
+          <t>Yeah Yeah Ok Ok, mon p'tit nom c'est Joke et j'suis juste un corps qui parle Une forte équipe pour forniquer une époque formidable Amène pas ta copine, j'te descends, t'as la côte immédiatement Mes algo-rimes font viper tes sales oreilles J't'emmerde comme pas permis, j'ai pas passé mon code J'm'achète une conduite, eh ouais l'ami ça sert à ça l'oseille Ces banlieues nous parlent, mais mate leur équipe s'écrouler Regarde nous, on lèche des chattes et eux des feuilles à rouler J'kiffe bouffer les poitrines, j'émoustille les lapines Je rappe lourd, je rappe clean, je rappe puis je platine Tu rappes, et tu patines, tu rollers, tu Tippex Tu veux niquer la rap, mais ton flow a un p'tit sexe J'écris à la vaseline, ces trous du cul veulent des feats avec moi Ha ha, ça sortira chez Dorcel J'suis Rocky avec la vertue de Balavoine T'es Corky, t'as d'la chance d'être mon anagramme Mec, t'as le tournis Achète du Baygon, quand j'rappe t'as des fourmis J'ai toujours raison, j't'étourdis Si tu m'disais non, j'te dirais écoute, ouij, c'est Joke et Teki, Joke et Teki yeah Joke et Teki, Joke et Teki yeah Joke et Teki, Joke et Teki yeah Joke et Teki, Joke et Teki yeah Joke et Teki sont venus pour t'là mettre Joke et Teki sont venus pour t'là mettre Les rappeurs, no homo, on les baise Tu voulais le gros lot, bah c'est prêt Rien à foutre de rien, j'arrive dans l'game T-shirt crade et caleçon Gap J'enlève mes chaussettes pour baiser l'rap, je suis un garçon classe Bienvenue au centre aéré, les rappeurs en carton plate Leurs swaggers en papier mâché ne m'amusent plus à mon âge, voyons voir J'vais t'expliquer, j'suis le genre de mec Que les gens veulent être, un peu genre vedette Alors bébé s'il te plaît fais pas ta forte tête J'connais ton genre de fête, je te vends le rêve ah ah ! J'rappe et j'suis mort de rire tellement j'suis fort comparé à tous ces genres de types J'dévale le beat comme un sport de glisse Remonte ton col, j'm'adresse pas à n'importe qui En l'occurrence, Joke et Teki, parfaite équipe Casquette épique et mes baskets hors de prix On avait pas entendu de duo de ce type, j'te le dis mec Depuis Dre et Snoop dans Nothin' But a G Thang Joke et Teki, Joke et Teki yeah Joke et Teki, Joke et Teki yeah Joke et Teki, Joke et Teki yeah Joke et Teki, Joke et Teki yeah Joke et Teki sont venus pour t'là mettre Joke et Teki sont venus pour t'là mettre Les rappeurs, no homo, on les baise Tu voulais le gros lot, bah c'est prêt Ha ha ! Il s'appelle Joke J.O.K.E Retenez bien son nom Joke ! C'est ça Si t'écoutes pas tes parents, écoute au moins Joke C'est la vérité, tu l'sais, oh ! Tekitek Et c'est fini</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Yeah, yeah Han, han Yeah, c'est Joke, c'est Stunts C'est Orga-ga, c'est Bip's C'est SoFresh Squad, négro Manaré, yeah C'est CraiZ Yeah, c'est Teki Tek, c'est Cuizinier Yeah Fermez les f'nêtres, yeah, ok Fermez les f'nêtres, ok Han, yeah, yeah Si j'me jette par la f'nêtre De mon palace, jatterrirais sur dix fans, négro Dix fans c'est dix femmes Le rap français m'attendait, ils vont finir par l'admettre Ils ont l'instinct grégaire Oh, j'ai un pull en laine, si tu veux parler buzz, j'suis rapide comme l'éclair EDF dans mon crew, tu veux test mon bac S J'te mets un coup d'équerre, négro, j'te fais taire, négro J'vais vouloir aérer sans même le faire exprès Ces vieux rappeurs croulants vont tous se défenestrer Il n'y aura que le gouffre pour les accueillir Négro mon flow est accueilli, vise sur les ragots tu cries sur le bas côté La cerise sur le gâteau, c'est ma bite sur ta tronche de cake Aucun me mène en bateau, yeah Faites sonner les sirènes car Gilles est né Avec ma veste Montcler négro, j'suis plus frais qu'les Pyrénées J'veux les gros, les p'tits nénés, vendre des 'sques-d' aux p'tites mémés Négro le son c'est Stunts, t'as entendu, 'sis-némé', han Yeah, t'as déjà entendu, 'sis-némé' You might also like Yeah, yeah, yeah</t>
+          <t>Yeah, yeah Han, han Yeah, c'est Joke, c'est Stunts C'est Orga-ga, c'est Bip's C'est SoFresh Squad, négro Manaré, yeah C'est CraiZ Yeah, c'est Teki Tek, c'est Cuizinier Yeah Fermez les f'nêtres, yeah, ok Fermez les f'nêtres, ok Han, yeah, yeah Si j'me jette par la f'nêtre De mon palace, jatterrirais sur dix fans, négro Dix fans c'est dix femmes Le rap français m'attendait, ils vont finir par l'admettre Ils ont l'instinct grégaire Oh, j'ai un pull en laine, si tu veux parler buzz, j'suis rapide comme l'éclair EDF dans mon crew, tu veux test mon bac S J'te mets un coup d'équerre, négro, j'te fais taire, négro J'vais vouloir aérer sans même le faire exprès Ces vieux rappeurs croulants vont tous se défenestrer Il n'y aura que le gouffre pour les accueillir Négro mon flow est accueilli, vise sur les ragots tu cries sur le bas côté La cerise sur le gâteau, c'est ma bite sur ta tronche de cake Aucun me mène en bateau, yeah Faites sonner les sirènes car Gilles est né Avec ma veste Montcler négro, j'suis plus frais qu'les Pyrénées J'veux les gros, les p'tits nénés, vendre des 'sques-d' aux p'tites mémés Négro le son c'est Stunts, t'as entendu, 'sis-némé', han Yeah, t'as déjà entendu, 'sis-némé' Yeah, yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Yeah, yeah, Yeah Yeah Mh, yeah Ok Yeah, hein, hein-hein, yeah Yeah Hein Mec j'ai quelques paires de blazers, quelques paires de Air Max Si t'arrives plus à respirer, j'peux t'laisser mes Air Max Salement, j'achète allemand, ça sent les Puma Clyde Négro, j'calme tous les fakes avec mes Easters, j'suis Marty McFly négro Oh, t'as vu mes yo, oh-oh, t'as vu mes yo Des paires de Jordan, tu connais même pas le numéro Ohhh, j'ai un Foot Locker à la maison Tu sais que j'aime les boules, mais les paires torturent ma raison J'ai que dalle dans les biceps, et la puissance dans l'hémisphère gauche Un avenir dans les J-7, pour une paire négro, j'suis un russe, moi Ohhh, et j'me vois bien dans un Q7 Avec une Dunk Paris sur les chaussettes, aujourd'hui ou jamais, mec, j'ai plus l'choix Ohhh J'ai un Foot Locker, j'ai-j'ai-j'ai un Foot Locker J'ai-j'ai-j'ai un Foot Locker Foot Locker négro, est-ce que t'as vu mes kicks ? Oh-oh-oh, ohh, oh-oh-oh, ohh, oh-oh-oh J'ai un Foot Locker, j'ai-j'ai-j'ai un Foot Locker J'ai-j'ai-j'ai un Foot Locker j'ai des paires qui peuvent tuer les kids Oh-oh-oh, ohh, oh-oh-oh, ohh, oh-oh-oh You might also like J'ai un Foot Locker, j'ai-j'ai-j'ai un Foot Locker J'ai-j'ai-j'ai un Foot Locker, Foot Locker à la maison Oh-oh-oh, ohh, oh-oh-oh, ohh, oh-oh-oh J'ai un Foot Locker, j'ai-j'ai-j'ai un Foot Locker J'ai-j'ai-j'ai un Foot Locker, Foot Locker à la maison Oh-oh-oh, ohh, oh-oh-oh, ohh, oh-oh-oh À des kilomètres, j'attaque, en forme de wave est ma démarche J'débite au mètre carré, pour la semelle de mes démarches Oh Bip's, ok, pour une paire de White Clyde Clyde Nike, paire de l'avantage dans mon armoire comme à moi Mais toi, t'es qui, pour me dire ce que j'dois porter ? Si mes sont bien blanches, mes Puma bien serrées Parce que Air Jordan tiens bien au chaud mon pied Mais pas de scratch, bitch, refais mes lacets Pas de splashy, bitch, arrête, j'en ai assez Comme Itchy et Scratchy, entre deux j'les fait tourner Je n'ai d'yeux que pour elles, merci Dieu pour elles Le tremblement de terre, à qui la faute ? À mes Blazers Elle sont tellement sévères que la côte Ouest en a peur Puma Suède, Mais, quand j'passe dans la rue, j'entends Eh, shit Eh, shit Quand j'pars voir ta mère elle m'dit Oh, Bip's Elle m'dit Oh, Bip's Ah-ah-ah-ah, ah Ok J'ai un Foot Locker, j'ai-j'ai-j'ai un Foot Locker J'ai-j'ai-j'ai un Foot Locker Foot Locker négro, est-ce que t'as vu mes kicks ? Oh-oh-oh, ohh, oh-oh-oh, ohh, oh-oh-oh J'ai un Foot Locker, j'ai-j'ai-j'ai un Foot Locker J'ai-j'ai-j'ai un Foot Locker j'ai des paires qui peuvent tuer les kids Oh-oh-oh, ohh, oh-oh-oh, ohh, oh-oh-oh2</t>
+          <t>Yeah, yeah, Yeah Yeah Mh, yeah Ok Yeah, hein, hein-hein, yeah Yeah Hein Mec j'ai quelques paires de blazers, quelques paires de Air Max Si t'arrives plus à respirer, j'peux t'laisser mes Air Max Salement, j'achète allemand, ça sent les Puma Clyde Négro, j'calme tous les fakes avec mes Easters, j'suis Marty McFly négro Oh, t'as vu mes yo, oh-oh, t'as vu mes yo Des paires de Jordan, tu connais même pas le numéro Ohhh, j'ai un Foot Locker à la maison Tu sais que j'aime les boules, mais les paires torturent ma raison J'ai que dalle dans les biceps, et la puissance dans l'hémisphère gauche Un avenir dans les J-7, pour une paire négro, j'suis un russe, moi Ohhh, et j'me vois bien dans un Q7 Avec une Dunk Paris sur les chaussettes, aujourd'hui ou jamais, mec, j'ai plus l'choix Ohhh J'ai un Foot Locker, j'ai-j'ai-j'ai un Foot Locker J'ai-j'ai-j'ai un Foot Locker Foot Locker négro, est-ce que t'as vu mes kicks ? Oh-oh-oh, ohh, oh-oh-oh, ohh, oh-oh-oh J'ai un Foot Locker, j'ai-j'ai-j'ai un Foot Locker J'ai-j'ai-j'ai un Foot Locker j'ai des paires qui peuvent tuer les kids Oh-oh-oh, ohh, oh-oh-oh, ohh, oh-oh-oh J'ai un Foot Locker, j'ai-j'ai-j'ai un Foot Locker J'ai-j'ai-j'ai un Foot Locker, Foot Locker à la maison Oh-oh-oh, ohh, oh-oh-oh, ohh, oh-oh-oh J'ai un Foot Locker, j'ai-j'ai-j'ai un Foot Locker J'ai-j'ai-j'ai un Foot Locker, Foot Locker à la maison Oh-oh-oh, ohh, oh-oh-oh, ohh, oh-oh-oh À des kilomètres, j'attaque, en forme de wave est ma démarche J'débite au mètre carré, pour la semelle de mes démarches Oh Bip's, ok, pour une paire de White Clyde Clyde Nike, paire de l'avantage dans mon armoire comme à moi Mais toi, t'es qui, pour me dire ce que j'dois porter ? Si mes sont bien blanches, mes Puma bien serrées Parce que Air Jordan tiens bien au chaud mon pied Mais pas de scratch, bitch, refais mes lacets Pas de splashy, bitch, arrête, j'en ai assez Comme Itchy et Scratchy, entre deux j'les fait tourner Je n'ai d'yeux que pour elles, merci Dieu pour elles Le tremblement de terre, à qui la faute ? À mes Blazers Elle sont tellement sévères que la côte Ouest en a peur Puma Suède, Mais, quand j'passe dans la rue, j'entends Eh, shit Eh, shit Quand j'pars voir ta mère elle m'dit Oh, Bip's Elle m'dit Oh, Bip's Ah-ah-ah-ah, ah Ok J'ai un Foot Locker, j'ai-j'ai-j'ai un Foot Locker J'ai-j'ai-j'ai un Foot Locker Foot Locker négro, est-ce que t'as vu mes kicks ? Oh-oh-oh, ohh, oh-oh-oh, ohh, oh-oh-oh J'ai un Foot Locker, j'ai-j'ai-j'ai un Foot Locker J'ai-j'ai-j'ai un Foot Locker j'ai des paires qui peuvent tuer les kids Oh-oh-oh, ohh, oh-oh-oh, ohh, oh-oh-oh2</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Le jeune Lov est dans lgenre de Number one hit Jsuis ce rookie qui les conquit, elles sont toutes sur ma bite Depuis tout ptit jai fait couler dlencre Jsuis remplit dfougue et denvie Je njoue qudans la cour des grands Dites aux wacks MC de foutre le camp Si tes bougs se vantent, tu peux être sur quLoveni shoot dedans Bon gamin vla quma troupe se lance Forcément on XXX tout cquon entreprend mec ça coule de sens Jnai aps de temps, jte jure jai des vastes plans Posté tout au fond dla salle je retrace le temps Premier dla classe jnécoute pas vos raps de cancres Jsuis DSK tous ces MC sont des femmes de chambre Mec naies pas lmort, depuis tout ptit jsuis à propos dcette médaille dor Et jroupille quand ta pétasse morfle, cnest pas une métaphore Jai tout niqué gars jai pé-fra lscore Je fais ça pour la gagne, je fais ça pour la gagne Limportant est dparticiper moi je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Vers la victoire je me hisse gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Ya que comme ça que jpeux men tirer gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Je fais ça pour la maille aussi, mon style pur rend les femmes dociles You might also like MTP style Harlem Ma pétasse est une freak style Marvel toujours Big tee, demande pas cest qui cptit Chaque semaine cest big pimpin Yo des ptites mharcèlent Pas né sous la même étoile quun ptit dMarseille MTP yo cest Vans, Dickies, marcel Et si cest dar cest qucest nous, et qucest tout On descend des bouteilles on soulève des coups Près du soleil, brillant dans ma réflexion Retrouve ton rappeur préféré dans mes déjections Trouve les déjections dmes réflexions dans ses réflexions Aussi vrai quSarko gagnera les prochaines élections Négro tu nous comprends pas bien Les Monsieur, Bon gamin Les négros srongent la main Tape la tête contre la baignoire tu veux moublier? Mon remède contre la mémoire fuck, Gilles Corduroy Je fais ça pour la gagne, je fais ça pour la gagne Limportant est dparticiper moi je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Vers la victoire je me hisse gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Ya que comme ça que jpeux men tirer gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Je fais ça pour la maille aussi, mon style pur rend les femmes dociles</t>
+          <t>Le jeune Lov est dans lgenre de Number one hit Jsuis ce rookie qui les conquit, elles sont toutes sur ma bite Depuis tout ptit jai fait couler dlencre Jsuis remplit dfougue et denvie Je njoue qudans la cour des grands Dites aux wacks MC de foutre le camp Si tes bougs se vantent, tu peux être sur quLoveni shoot dedans Bon gamin vla quma troupe se lance Forcément on XXX tout cquon entreprend mec ça coule de sens Jnai aps de temps, jte jure jai des vastes plans Posté tout au fond dla salle je retrace le temps Premier dla classe jnécoute pas vos raps de cancres Jsuis DSK tous ces MC sont des femmes de chambre Mec naies pas lmort, depuis tout ptit jsuis à propos dcette médaille dor Et jroupille quand ta pétasse morfle, cnest pas une métaphore Jai tout niqué gars jai pé-fra lscore Je fais ça pour la gagne, je fais ça pour la gagne Limportant est dparticiper moi je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Vers la victoire je me hisse gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Ya que comme ça que jpeux men tirer gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Je fais ça pour la maille aussi, mon style pur rend les femmes dociles MTP style Harlem Ma pétasse est une freak style Marvel toujours Big tee, demande pas cest qui cptit Chaque semaine cest big pimpin Yo des ptites mharcèlent Pas né sous la même étoile quun ptit dMarseille MTP yo cest Vans, Dickies, marcel Et si cest dar cest qucest nous, et qucest tout On descend des bouteilles on soulève des coups Près du soleil, brillant dans ma réflexion Retrouve ton rappeur préféré dans mes déjections Trouve les déjections dmes réflexions dans ses réflexions Aussi vrai quSarko gagnera les prochaines élections Négro tu nous comprends pas bien Les Monsieur, Bon gamin Les négros srongent la main Tape la tête contre la baignoire tu veux moublier? Mon remède contre la mémoire fuck, Gilles Corduroy Je fais ça pour la gagne, je fais ça pour la gagne Limportant est dparticiper moi je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Vers la victoire je me hisse gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Ya que comme ça que jpeux men tirer gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Je fais ça pour la maille aussi, mon style pur rend les femmes dociles</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>C'est la civilisation préférée d'cette garce de Claude Fallait lui fermer sa gueule pas Megaupload Rien qu'ils font plonger mes cailles mais c'est pas d'leur faute Si des vagues de coke passent sous l'nez des garde-côtes Je n'autorise que ma euq' à me mener la vie dure Du mal à quitter l'bitume, hmm Excalibur Cabrão on cause de maille Néochrome, Golden Eye, structures au top J'viens pas d'Poitiers mais on m'voit qu'dans un Futuroscope Zekwé Niveau feat, ouais ça chauffe Y'a plus d'appel d'offre J'entends Wesh Nakkos rappelle deuspi et qu'ça saute DoubleDutch Mendosa putain d'flocage Je n'ai fait aucun flop, motherfuck J'ai pas l'flow d'Wacka Floca But lucratif, pas-pas d'boulot gratis Une radio d'la carrière c'est une Laurent-Bouneau-graphie Non t'auras pas l'petit bif Au fait, si ton fils kiffe la danse classique t'auras pas d'petit-fils 'dosa You might also like Weed et bédos lourds Disques et métaux lourds Zek' au micro lourd Nakk au micro lourd Yeah Bravo on l'a fait, tu en rêvais on l'a fait On lâche une galette sur l'rap français les MC ont la fève Bravo on l'a fait, tu en rêvais on l'a fait On lâche une galette sur l'rap français les MC ont la fève Bravo Golden Eye, rappelle-nous, rappelle-nous plus tard on cause de maille Tu en rêvais on l'a fait pour toi Golden Eye, rappelle-nous, rappelle-nous plus tard on cause de maille We Made It J'suis c'connard qui ne sait pas où s'mettre Les bras m'en tombent alors j'm'enfonce dans leur chatte jusqu'à Pétaouschneck Leur rap est maous mec J'chourave ta meuf et lui demande de quoi le premier gaou s'mêle Appelez le Dr House Merde, restez à terre Dieu l'veut Check j'ai les plaques vertes, fais ce que j'veux J'arrive no game no promo Pousse les rappeurs à terminer leurs textes par des no homo On avance tel des brebis égarées Dans la vie comme sur un parking premier garé J'peux pas tout oublier, plier l'temps d'un demi et gagner Dans le jeu on devient dangereux bien qu'à demi-préparé Demande à Blastar faut vouloir nous combattre La concurrence est pris d'cafard pire que les couloirs de mon bat' J'cours maquetter des titres pour apaiser mes p'tites gueules Et j'dis que j'suis lourd à crever BigPun Weed et bédos lourds Disques et métaux lourds Dix' oh mais trop lourd Deen au micro lourd Yeah J'fais ça pour We Made It Ma team assomme ta team, cartonne ta pin-up dans la cabine Vous allez voler comme des balles dans la poitrine Nez dans la farine, dans les narines Or jaune sur les canines Fais tourner la caméra, les gamines arrivées les Kaméhaméha Wassup, jeune prince, anciennement batracien Plutôt crever qu'écouter Assassin Chien pose-moi un lapin et j'te coupe la patte Même malchanceux j'aurais toujours d'la chatte Rien à révéler genre dire qu'untel rappeur est gay J'suis l'rappeur préféré d'mes rappeurs préférés Retour du strabisme grave dur C'est l'ami Phaalus Les mics que j'touche prennent la valeur d'un Stradivarius Donc faudra sampler les titres de l'homme-miroir de Pernety J'réfléchis sans parler, eux ils parlent sans réfléchir Les autres nains qui testent m'indiffèrent J'suis comme quatre poulets, cagoulés Beaucoup plus fort tu n'peux rien y faire Weed et bédos lourds Disques et métaux lourds Joke au micro lourd Phaal au micro lourd Yeah 1</t>
+          <t>C'est la civilisation préférée d'cette garce de Claude Fallait lui fermer sa gueule pas Megaupload Rien qu'ils font plonger mes cailles mais c'est pas d'leur faute Si des vagues de coke passent sous l'nez des garde-côtes Je n'autorise que ma euq' à me mener la vie dure Du mal à quitter l'bitume, hmm Excalibur Cabrão on cause de maille Néochrome, Golden Eye, structures au top J'viens pas d'Poitiers mais on m'voit qu'dans un Futuroscope Zekwé Niveau feat, ouais ça chauffe Y'a plus d'appel d'offre J'entends Wesh Nakkos rappelle deuspi et qu'ça saute DoubleDutch Mendosa putain d'flocage Je n'ai fait aucun flop, motherfuck J'ai pas l'flow d'Wacka Floca But lucratif, pas-pas d'boulot gratis Une radio d'la carrière c'est une Laurent-Bouneau-graphie Non t'auras pas l'petit bif Au fait, si ton fils kiffe la danse classique t'auras pas d'petit-fils 'dosa Weed et bédos lourds Disques et métaux lourds Zek' au micro lourd Nakk au micro lourd Yeah Bravo on l'a fait, tu en rêvais on l'a fait On lâche une galette sur l'rap français les MC ont la fève Bravo on l'a fait, tu en rêvais on l'a fait On lâche une galette sur l'rap français les MC ont la fève Bravo Golden Eye, rappelle-nous, rappelle-nous plus tard on cause de maille Tu en rêvais on l'a fait pour toi Golden Eye, rappelle-nous, rappelle-nous plus tard on cause de maille We Made It J'suis c'connard qui ne sait pas où s'mettre Les bras m'en tombent alors j'm'enfonce dans leur chatte jusqu'à Pétaouschneck Leur rap est maous mec J'chourave ta meuf et lui demande de quoi le premier gaou s'mêle Appelez le Dr House Merde, restez à terre Dieu l'veut Check j'ai les plaques vertes, fais ce que j'veux J'arrive no game no promo Pousse les rappeurs à terminer leurs textes par des no homo On avance tel des brebis égarées Dans la vie comme sur un parking premier garé J'peux pas tout oublier, plier l'temps d'un demi et gagner Dans le jeu on devient dangereux bien qu'à demi-préparé Demande à Blastar faut vouloir nous combattre La concurrence est pris d'cafard pire que les couloirs de mon bat' J'cours maquetter des titres pour apaiser mes p'tites gueules Et j'dis que j'suis lourd à crever BigPun Weed et bédos lourds Disques et métaux lourds Dix' oh mais trop lourd Deen au micro lourd Yeah J'fais ça pour We Made It Ma team assomme ta team, cartonne ta pin-up dans la cabine Vous allez voler comme des balles dans la poitrine Nez dans la farine, dans les narines Or jaune sur les canines Fais tourner la caméra, les gamines arrivées les Kaméhaméha Wassup, jeune prince, anciennement batracien Plutôt crever qu'écouter Assassin Chien pose-moi un lapin et j'te coupe la patte Même malchanceux j'aurais toujours d'la chatte Rien à révéler genre dire qu'untel rappeur est gay J'suis l'rappeur préféré d'mes rappeurs préférés Retour du strabisme grave dur C'est l'ami Phaalus Les mics que j'touche prennent la valeur d'un Stradivarius Donc faudra sampler les titres de l'homme-miroir de Pernety J'réfléchis sans parler, eux ils parlent sans réfléchir Les autres nains qui testent m'indiffèrent J'suis comme quatre poulets, cagoulés Beaucoup plus fort tu n'peux rien y faire Weed et bédos lourds Disques et métaux lourds Joke au micro lourd Phaal au micro lourd Yeah 1</t>
         </is>
       </c>
     </row>
@@ -3589,11 +3589,7 @@
           <t>La vie en Violet - Teaser (ateyaba.shop)</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3625,7 +3621,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Fuck toute ton équipe, j'traumatise ta rétine, j'traumatise ton quartier J'connais mon métier, Vuitton à mes pieds plus des lunettes Cartier That's right Cartier, paire sur le parquet coûte plus qu'le parquet, ta 'tasse fait que stalker Raquer, négro faut raquer, cinquième avenue Saks yeah bitch j'ai des accès Cracher, j'lui mets dans la trachée, yes j'la fait sucer et j'la fais cracher J'mens pas j'ai rien à cacher, à 13 piges j'voyais 500g dans les sachets Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papierYou might also like</t>
+          <t>Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Fuck toute ton équipe, j'traumatise ta rétine, j'traumatise ton quartier J'connais mon métier, Vuitton à mes pieds plus des lunettes Cartier That's right Cartier, paire sur le parquet coûte plus qu'le parquet, ta 'tasse fait que stalker Raquer, négro faut raquer, cinquième avenue Saks yeah bitch j'ai des accès Cracher, j'lui mets dans la trachée, yes j'la fait sucer et j'la fais cracher J'mens pas j'ai rien à cacher, à 13 piges j'voyais 500g dans les sachets Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3638,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Yeah, yeah, quand j'entend le boum-boum, j'ai les J'ai les poils qui s'hérissent, dans la voute, voute céleste Céleste Je sais pas ce qui dirige, je suis un sate-lili-llite Sacré bip-bip-bip Makélélé sur un stade et les étoiles sont installées Mesdames, vos places sont p't-être les bonnes Rien n'égale votre classe, quand elles répondent Elles disent que j'suis audacieux de draguer des femmes mariées J'réponds J'remplacerai vos hommes, yeah Approchez la fusée, j'veux approcher ma fan J'ai la gueule de l'accusé, c'est lui qui a volé la Lune D'après la rumeur, ma belle est comblée Donc j'assume ma femme puis mon âme suit madame Rallumez la flamme, j'ai craqué des allumettes aussi aveugle qu'un serpent à lunettes Mon coeur est figé, comme en congélation Pour moi les étoiles chantent dans toutes les constellations Et voilà c'qu'elles disent Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive You might also like Ça veut dire c'que ça veut dire, tu es juste mon avenir, on dirait, j'veux t'entendre dire que Cupidon a tiré, fusée droit dans l'espace J'te languirais, j'irai jusque chez E.T. le virer de son télescope, juste pour voir ta belle face J'suis pas doué en astrologie, ma chérie Des étoiles, t'es l'apologie, la T'es plus belle que l'astrologie, la mairie Attend, dans la voie lactée, la Terre est ronde, toi mon vaisseau à la dérive Quelques fois j'raisonne mal, j'croirais Mon cerveau mal barré, j'tombe dans tes bas-résille comme dans un cabaret J'raisonne mal comme dans les Alpes J'réfléchis comme un miroir sale, j'suis coincé, comme un tiroir sale Si tu viens , ma tristesse s'ra égale à la distance qui me laisse Chaque soir, le cur blessé, rempli d'stress Mais sache que la nuit, tes copines me disent Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive</t>
+          <t>Yeah, yeah, quand j'entend le boum-boum, j'ai les J'ai les poils qui s'hérissent, dans la voute, voute céleste Céleste Je sais pas ce qui dirige, je suis un sate-lili-llite Sacré bip-bip-bip Makélélé sur un stade et les étoiles sont installées Mesdames, vos places sont p't-être les bonnes Rien n'égale votre classe, quand elles répondent Elles disent que j'suis audacieux de draguer des femmes mariées J'réponds J'remplacerai vos hommes, yeah Approchez la fusée, j'veux approcher ma fan J'ai la gueule de l'accusé, c'est lui qui a volé la Lune D'après la rumeur, ma belle est comblée Donc j'assume ma femme puis mon âme suit madame Rallumez la flamme, j'ai craqué des allumettes aussi aveugle qu'un serpent à lunettes Mon coeur est figé, comme en congélation Pour moi les étoiles chantent dans toutes les constellations Et voilà c'qu'elles disent Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ça veut dire c'que ça veut dire, tu es juste mon avenir, on dirait, j'veux t'entendre dire que Cupidon a tiré, fusée droit dans l'espace J'te languirais, j'irai jusque chez E.T. le virer de son télescope, juste pour voir ta belle face J'suis pas doué en astrologie, ma chérie Des étoiles, t'es l'apologie, la T'es plus belle que l'astrologie, la mairie Attend, dans la voie lactée, la Terre est ronde, toi mon vaisseau à la dérive Quelques fois j'raisonne mal, j'croirais Mon cerveau mal barré, j'tombe dans tes bas-résille comme dans un cabaret J'raisonne mal comme dans les Alpes J'réfléchis comme un miroir sale, j'suis coincé, comme un tiroir sale Si tu viens , ma tristesse s'ra égale à la distance qui me laisse Chaque soir, le cur blessé, rempli d'stress Mais sache que la nuit, tes copines me disent Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3655,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Je dévore sa coochie, comme un lion On débarque très outillés, on est vaillants Oseille, mojo, tout y est Il faut m'oublier si t'affectionnes les bourbiers Je l'ai bousillée mais obligé de tout nier Le juice s'est accumulé, elle est toute mouillée J'ai un bracelet Jubilée avec beaucoup d'billets J'ai toujours d'la beuh et j'me fais jamais fouiller J'suis le lion Quantité de VVS sur mon médaillon Oooh Tu penses tu peux test, ton cerveau est défaillant Oooh J'serais plus frais qu'toi même si j'portais des haillons J'suis high au carré, j'suis foncedé dans des avions J'pop le A, j'me souhaite une longue life La gente féminine j'connais son vice J'fais pas confiance j'attends pas qu'on trahisse Trop d'oseille, trop d'mojo, trop d'charisme Je dévore sa coochie, comme un lion On débarque très outillés, on est vaillants Oseille, mojo, tout y est Il faut m'oublier si t'affectionnes les bourbiers Je l'ai bousillée mais obligé de tout nier Le juice s'est accumulé, elle est toute mouillée J'ai un bracelet Jubilée avec beaucoup d'billets J'ai toujours d'la beuh et j'me fais jamais fouiller J'suis le lion You might also like J'suis le young nigga J'veux que les meilleurs beuh dans mes lungs, nigga J'veux que les meilleurs beuh dans mes lungs, nigga</t>
+          <t>Je dévore sa coochie, comme un lion On débarque très outillés, on est vaillants Oseille, mojo, tout y est Il faut m'oublier si t'affectionnes les bourbiers Je l'ai bousillée mais obligé de tout nier Le juice s'est accumulé, elle est toute mouillée J'ai un bracelet Jubilée avec beaucoup d'billets J'ai toujours d'la beuh et j'me fais jamais fouiller J'suis le lion Quantité de VVS sur mon médaillon Oooh Tu penses tu peux test, ton cerveau est défaillant Oooh J'serais plus frais qu'toi même si j'portais des haillons J'suis high au carré, j'suis foncedé dans des avions J'pop le A, j'me souhaite une longue life La gente féminine j'connais son vice J'fais pas confiance j'attends pas qu'on trahisse Trop d'oseille, trop d'mojo, trop d'charisme Je dévore sa coochie, comme un lion On débarque très outillés, on est vaillants Oseille, mojo, tout y est Il faut m'oublier si t'affectionnes les bourbiers Je l'ai bousillée mais obligé de tout nier Le juice s'est accumulé, elle est toute mouillée J'ai un bracelet Jubilée avec beaucoup d'billets J'ai toujours d'la beuh et j'me fais jamais fouiller J'suis le lion J'suis le young nigga J'veux que les meilleurs beuh dans mes lungs, nigga J'veux que les meilleurs beuh dans mes lungs, nigga</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3706,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Discographie - Les Monsieur Single - 2011 Les Monsieur - Deux meufs - 20110615 Les Monsieur - Alycia - 20110721 Les Monsieur - Les Mrs Banger - 201204 Les Monsieur - LMGMTP Discographie complémentaire - Discographie - Ateyaba - Discographie - Bip's - Discographie - Leknifrug - Discographie - TitanYou might also like</t>
+          <t>Discographie - Les Monsieur Single - 2011 Les Monsieur - Deux meufs - 20110615 Les Monsieur - Alycia - 20110721 Les Monsieur - Les Mrs Banger - 201204 Les Monsieur - LMGMTP Discographie complémentaire - Discographie - Ateyaba - Discographie - Bip's - Discographie - Leknifrug - Discographie - Titan</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3723,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait vidéo Yah, yah, yah, Freakey sur le beat Yah Look at my drip, Look at my drip, look at my drip, Look at my drip Look at my whip, Look at my whip, look at my whip, Look at my whip Look at my drip, Look at my drip, look at my drip, Look at my drip Look at my whip, Look at my whip, look at my whip, Look at my whip Wah, Wah Look at my drip, WahYou might also like</t>
+          <t>Disclaimer Transcrit à partir d'un extrait vidéo Yah, yah, yah, Freakey sur le beat Yah Look at my drip, Look at my drip, look at my drip, Look at my drip Look at my whip, Look at my whip, look at my whip, Look at my whip Look at my drip, Look at my drip, look at my drip, Look at my drip Look at my whip, Look at my whip, look at my whip, Look at my whip Wah, Wah Look at my drip, Wah</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3740,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Putain d'boule yeah Meuf à gros boule Joke, Loveni Le Bon Gamin est dans la piazza C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd Quand j'arrive, j'crée la surprise J'suis la cerise sur le gâteau Tu veux rentrer, t'es pas sur liste Vas-y déchire le papier cadeau viens J'suis capitaine mec, sur ce bateau Je roule des pelles mec, devant des râteaux Check ça pêle-mêle, je sais à tel quelle Mais j'aime les chiennes mec, comme Brigitte Bardot J'aime ça, nique ton staff, j'entre dans la boum façon Kimbo Slice, kick-box thaï Mes bimbos slash , on va faire les choses carré De moi elles sont folles car elles kiffent mon style Le son est dangereux, c'est Loveni et Marty McFly On sort le grand jeu, les groupies ce soir n'ont pas le time Toute la , j'ai leur body Mais ne t'inquiète pas j'suis prêt pour la money You might also like C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd Oh, kaboom, Joke rentre dans ta boom Ta meuf va faire du bruit comme j'rentre dans sa chouffe Un peu d'éthanol dans l'verre, bac S les mains en l'air Le 'blèmes c'est comme les têtes, j'aime bien quand ça tourne Les filles soyez pas si gênées, y'a pas Je viens juste mettre un coup d'rouleau sur ta gueule enfarinée J'ai une baguette qui monte croissant, les filles qui jouent les princesses repartent de la soirée en croissant Flash de 'sky, photo râtée, je cherche une petite bitch pour croquer dans ma barre chocolatée On est tous chauds négro cacao, vous êtes des p'tites frappes négro pas d'K.O Moi et mon poto Loveni, on gère des plans On va ter-ma sous les robes yeah, le nègre est blanc Secoue la tête sur du Mobb Deep, un peu d'seufs, de seum Un peu d'hydroponique, j'décolle en classe économique C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd</t>
+          <t>Putain d'boule yeah Meuf à gros boule Joke, Loveni Le Bon Gamin est dans la piazza C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd Quand j'arrive, j'crée la surprise J'suis la cerise sur le gâteau Tu veux rentrer, t'es pas sur liste Vas-y déchire le papier cadeau viens J'suis capitaine mec, sur ce bateau Je roule des pelles mec, devant des râteaux Check ça pêle-mêle, je sais à tel quelle Mais j'aime les chiennes mec, comme Brigitte Bardot J'aime ça, nique ton staff, j'entre dans la boum façon Kimbo Slice, kick-box thaï Mes bimbos slash , on va faire les choses carré De moi elles sont folles car elles kiffent mon style Le son est dangereux, c'est Loveni et Marty McFly On sort le grand jeu, les groupies ce soir n'ont pas le time Toute la , j'ai leur body Mais ne t'inquiète pas j'suis prêt pour la money C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd Oh, kaboom, Joke rentre dans ta boom Ta meuf va faire du bruit comme j'rentre dans sa chouffe Un peu d'éthanol dans l'verre, bac S les mains en l'air Le 'blèmes c'est comme les têtes, j'aime bien quand ça tourne Les filles soyez pas si gênées, y'a pas Je viens juste mettre un coup d'rouleau sur ta gueule enfarinée J'ai une baguette qui monte croissant, les filles qui jouent les princesses repartent de la soirée en croissant Flash de 'sky, photo râtée, je cherche une petite bitch pour croquer dans ma barre chocolatée On est tous chauds négro cacao, vous êtes des p'tites frappes négro pas d'K.O Moi et mon poto Loveni, on gère des plans On va ter-ma sous les robes yeah, le nègre est blanc Secoue la tête sur du Mobb Deep, un peu d'seufs, de seum Un peu d'hydroponique, j'décolle en classe économique C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3757,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Jmen bats les couilles, yo Han, han, han, jme réveille et jmate des films de boule japonais Ayo, négro, jmen bats les couilles Ok, yo, jrappe avec un burger donut dans la bouche, trop dflow Trop d'flow Avec deuxtrois pétasses dans la douche, trop dflot Que Dieu fasse quelles finissent pas toute leau chaude L'eau chaude Jvais les percer, les trouer, comme la couche dozone On est sur les nerfs Jsuis tatoué comme un marin Ma mère comprend pas, yo, comme si cétait du mandarin Négro, jlâche rien comme à un malade qui demande un rein Ta meuf pense à moi, yo, quand elle dit quelle pense à rien Gros, jsuis diabolique, comme si javais un teddy Prada Jte traite comme un bout dviande, comme Lady Gaga Nous on est tout d'vant, comme quand y a une bagarre Jveux tout, tout de suite, ta part, plus ma part, plus sa part Ayo, ayo, ayo, frère, jles mange comme un Luther Bu-u-u-urger Ayo, ayo, frère, jtuerais pour un Luther Bu-u-u-urger Demande à mes gars dM.T.P qui savent c'que cest Demande ça à toutes ces pétasses qui savent cque cest Ayo, ayo, frère, on tfume pour un Luther Bu-u-u-urger You might also like Jregarde la télé Télé, des trucs indigestes comme du café lait Hein-hein Jbois un café lait Hein-hein, bien sûr, jle dis, jai un tas d'fêlés Veulent mendormir, jveux lsuccès dun boys band, pas les somnifères à Féfé Ayo, cest dans la poche, capote sur mon pénis Gravé dans la roche, gravé dans la silice Ramène-moi un putain dsteak avec des gros buns Gros buns, la même paire de Ray-Ban que dans Top Gun Va dire au rap français que jsuis lputain de messie Ih Il rit tout jaune comme quand jai soulagé ma vessie Sssi Des idées décidées dessinées, des produits dérivés, jtouche pas mon pognon, jcalcule des racines et des dérivés Jai été pris par des UV Ayo, jai certains projets avortés, pourtant jappelle ta femme bébé Oh, elle veut que jaille la border Un peu 'tasse sur les bords, et moi jmoccupe des bords Tas vu le décor tas cru des balles à blanc Ah, et comme Bruce Lee tes mort, paw, paw, paw</t>
+          <t>Jmen bats les couilles, yo Han, han, han, jme réveille et jmate des films de boule japonais Ayo, négro, jmen bats les couilles Ok, yo, jrappe avec un burger donut dans la bouche, trop dflow Trop d'flow Avec deuxtrois pétasses dans la douche, trop dflot Que Dieu fasse quelles finissent pas toute leau chaude L'eau chaude Jvais les percer, les trouer, comme la couche dozone On est sur les nerfs Jsuis tatoué comme un marin Ma mère comprend pas, yo, comme si cétait du mandarin Négro, jlâche rien comme à un malade qui demande un rein Ta meuf pense à moi, yo, quand elle dit quelle pense à rien Gros, jsuis diabolique, comme si javais un teddy Prada Jte traite comme un bout dviande, comme Lady Gaga Nous on est tout d'vant, comme quand y a une bagarre Jveux tout, tout de suite, ta part, plus ma part, plus sa part Ayo, ayo, ayo, frère, jles mange comme un Luther Bu-u-u-urger Ayo, ayo, frère, jtuerais pour un Luther Bu-u-u-urger Demande à mes gars dM.T.P qui savent c'que cest Demande ça à toutes ces pétasses qui savent cque cest Ayo, ayo, frère, on tfume pour un Luther Bu-u-u-urger Jregarde la télé Télé, des trucs indigestes comme du café lait Hein-hein Jbois un café lait Hein-hein, bien sûr, jle dis, jai un tas d'fêlés Veulent mendormir, jveux lsuccès dun boys band, pas les somnifères à Féfé Ayo, cest dans la poche, capote sur mon pénis Gravé dans la roche, gravé dans la silice Ramène-moi un putain dsteak avec des gros buns Gros buns, la même paire de Ray-Ban que dans Top Gun Va dire au rap français que jsuis lputain de messie Ih Il rit tout jaune comme quand jai soulagé ma vessie Sssi Des idées décidées dessinées, des produits dérivés, jtouche pas mon pognon, jcalcule des racines et des dérivés Jai été pris par des UV Ayo, jai certains projets avortés, pourtant jappelle ta femme bébé Oh, elle veut que jaille la border Un peu 'tasse sur les bords, et moi jmoccupe des bords Tas vu le décor tas cru des balles à blanc Ah, et comme Bruce Lee tes mort, paw, paw, paw</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3774,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Jmen bats les couilles, yo Han, han, han, jme réveille et jmate des films de boule japonais Ayo, négro, jmen bats les couilles Ok, yo, jrappe avec un burger donut dans la bouche, trop dflow Trop d'flow Avec deuxtrois pétasses dans la douche, trop dflot Que Dieu fasse quelles finissent pas toute leau chaude L'eau chaude Jvais les percer, les trouer, comme la couche dozone On est sur les nerfs Jsuis tatoué comme un marin Ma mère comprend pas, yo, comme si cétait du mandarin Négro, jlâche rien comme à un malade qui demande un rein Ta meuf pense à moi, yo, quand elle dit quelle pense à rien Gros, jsuis diabolique, comme si javais un teddy Prada Jte traite comme un bout dviande, comme Lady Gaga Nous on est tout d'vant, comme quand y a une bagarre Jveux tout, tout de suite, ta part, plus ma part, plus sa part Ayo, ayo, ayo, frère, jles mange comme un Luther Bu-u-u-urger Ayo, ayo, frère, jtuerais pour un Luther Bu-u-u-urger Demande à mes gars dM.T.P qui savent c'que cest Demande ça à toutes ces pétasses qui savent cque cest Ayo, ayo, frère, on tfume pour un Luther Bu-u-u-urger You might also like Yo M.T.P, négro 3-3-4, négro Yeah Les Monsieur, négro Wassup</t>
+          <t>Jmen bats les couilles, yo Han, han, han, jme réveille et jmate des films de boule japonais Ayo, négro, jmen bats les couilles Ok, yo, jrappe avec un burger donut dans la bouche, trop dflow Trop d'flow Avec deuxtrois pétasses dans la douche, trop dflot Que Dieu fasse quelles finissent pas toute leau chaude L'eau chaude Jvais les percer, les trouer, comme la couche dozone On est sur les nerfs Jsuis tatoué comme un marin Ma mère comprend pas, yo, comme si cétait du mandarin Négro, jlâche rien comme à un malade qui demande un rein Ta meuf pense à moi, yo, quand elle dit quelle pense à rien Gros, jsuis diabolique, comme si javais un teddy Prada Jte traite comme un bout dviande, comme Lady Gaga Nous on est tout d'vant, comme quand y a une bagarre Jveux tout, tout de suite, ta part, plus ma part, plus sa part Ayo, ayo, ayo, frère, jles mange comme un Luther Bu-u-u-urger Ayo, ayo, frère, jtuerais pour un Luther Bu-u-u-urger Demande à mes gars dM.T.P qui savent c'que cest Demande ça à toutes ces pétasses qui savent cque cest Ayo, ayo, frère, on tfume pour un Luther Bu-u-u-urger Yo M.T.P, négro 3-3-4, négro Yeah Les Monsieur, négro Wassup</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3791,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Yeah, this album is dedicated to all the teachers that told me I'd never amount to nothin' Okay,han Okay, quand c'est ton heure mon pote tu le sais, ouais tu le sais Les ennemis d'aujourd'hui sont les amis que t'avais hier Protège tes arrières, réussite et jalousie donnent un mélange amère Qu'ils aillent niquer leurs censuré Ceux qui m'aiment me suivent sinon qu'ils suivent mon majeur J'suis trop ambitieux, trop dangereux pour ces branleurs Ils attendent ma chute comme mon censuré sur leurs surs T'inquiètes pas mon pote, moi je suis prêt pour la bataille C'est pour, c'est pour tous les vrais Qui taffent jour et nuit malgré toutes les merdes Tous ces médisants, non, ils ne peuvent rien faire Face à l'homme déterminé à toucher le ciel, à accomplir ses rêves Han, c'est maintenant ou jamais Le temps tourne sur ma Carerra au poignet J'suis lié à la réussite et dans mon pallier, allez J'porte un toast à ceux qui essayent de me noyer It was all, it was all, it was all a dream Damn right, I like the life I live I'm blowin up, damn right I like the life I live Cause I went from negative to positive And it's all You might also like Vision 169, car j'vois big Grand flambeur, blouson en reptile Y a les rêveurs et les marchands de sable Si t'as atteint tes rêves c'est qu'on marche ensemble C'est 1 pour la famille, 2 pour la monnaie Le temps n'attend plus, c'est maintenant ou jamais Vision démesurée à la Bonaparte moi un peu plus tard, boy, un homme à part Quand j'arrive pas de bonjour, j'suis de ceux qu'on acclame Boy t'as reconnu la swag, ceinture Vuitton monogramme Le style est juste inné, Vu la taille de nos billets, tu sais qu'on est en place Tout le monde veut briller, tout le monde veut le buzz J'veux l'cul de la beurre et rien j'ai déjà le beurre Compte-moi parmi les grands, j'suis plus qu'un rappeur Le cadran indique FLAG car c'est maintenant mon heure Bitch! Woah, yo, aye Hey, hey, hey, négro, juste hey, hey, hey J'shoot père et mère, j'te shoot, yo On est sur les nerfs, on est surveillés On est sur notre bizz, jamais surpayés Sur DVD, sur DVC, j'me laisse jamais aller, même sur des W.C J'sème des cailloux, Petit Poucet Cigarillo, montre à gousset J'monte à Rio, vider le barillet Dans le barrio, tout à Paris est Même appareillé, yo, j'connais que des craquettes Pour jouer à caillou-papier-ciseaux Vodka polonaise Gros sac, polo Bape Grosse à pollo, bucket, soda, Colonel Yo, j'ai les champignons à Mario Les courses-poursuites me font travailler le cardio</t>
+          <t>Yeah, this album is dedicated to all the teachers that told me I'd never amount to nothin' Okay,han Okay, quand c'est ton heure mon pote tu le sais, ouais tu le sais Les ennemis d'aujourd'hui sont les amis que t'avais hier Protège tes arrières, réussite et jalousie donnent un mélange amère Qu'ils aillent niquer leurs censuré Ceux qui m'aiment me suivent sinon qu'ils suivent mon majeur J'suis trop ambitieux, trop dangereux pour ces branleurs Ils attendent ma chute comme mon censuré sur leurs surs T'inquiètes pas mon pote, moi je suis prêt pour la bataille C'est pour, c'est pour tous les vrais Qui taffent jour et nuit malgré toutes les merdes Tous ces médisants, non, ils ne peuvent rien faire Face à l'homme déterminé à toucher le ciel, à accomplir ses rêves Han, c'est maintenant ou jamais Le temps tourne sur ma Carerra au poignet J'suis lié à la réussite et dans mon pallier, allez J'porte un toast à ceux qui essayent de me noyer It was all, it was all, it was all a dream Damn right, I like the life I live I'm blowin up, damn right I like the life I live Cause I went from negative to positive And it's all Vision 169, car j'vois big Grand flambeur, blouson en reptile Y a les rêveurs et les marchands de sable Si t'as atteint tes rêves c'est qu'on marche ensemble C'est 1 pour la famille, 2 pour la monnaie Le temps n'attend plus, c'est maintenant ou jamais Vision démesurée à la Bonaparte moi un peu plus tard, boy, un homme à part Quand j'arrive pas de bonjour, j'suis de ceux qu'on acclame Boy t'as reconnu la swag, ceinture Vuitton monogramme Le style est juste inné, Vu la taille de nos billets, tu sais qu'on est en place Tout le monde veut briller, tout le monde veut le buzz J'veux l'cul de la beurre et rien j'ai déjà le beurre Compte-moi parmi les grands, j'suis plus qu'un rappeur Le cadran indique FLAG car c'est maintenant mon heure Bitch! Woah, yo, aye Hey, hey, hey, négro, juste hey, hey, hey J'shoot père et mère, j'te shoot, yo On est sur les nerfs, on est surveillés On est sur notre bizz, jamais surpayés Sur DVD, sur DVC, j'me laisse jamais aller, même sur des W.C J'sème des cailloux, Petit Poucet Cigarillo, montre à gousset J'monte à Rio, vider le barillet Dans le barrio, tout à Paris est Même appareillé, yo, j'connais que des craquettes Pour jouer à caillou-papier-ciseaux Vodka polonaise Gros sac, polo Bape Grosse à pollo, bucket, soda, Colonel Yo, j'ai les champignons à Mario Les courses-poursuites me font travailler le cardio</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3808,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Pharaoh Yeah Go, go That's right, Go, go, go Yeah Bébé, je m'sens majestic Go, go, go, I feel like it On dirait qu'ta 'tasse me l'astique, fait d'la gymnastique Go, go, go J'me sens comme Maurice Ashley, I feel like it Pharaoh J'me sens comme un Dieu, in the street, I feel like it Pharaoh Tu sens que j'ai l'mojo qui pique, bitch, pique, bitch Go, go, go Est-c'qu'tu sens qu'l'aura est mystique, bitch ? Stick bitch That's right J'me sens comme acheter le district, bitch That's right J'me sens comme bouffer son pistil, bitch, still bitch Let's go Le 'vu-vu d'ma 'tasse est mignon Tu sais qu'faut qu'je touche le million J'leur ai tous donné la vision That's right, ils ont pas vu, idiots J'sors du club, et va, va midjo Ma beuh te fait croire qu't'es mignon Y a marqué Dieu dans ma bio' That's right J'aime quand y a des enjeux, bitch J'parle avec les anges, bitch Tu sais que j'suis dangereux, bitch Si elle frime je change de bitch You might also like Si elle frime je change de catin Je roule la beuh dès le matin Je dors dans des draps en satin Suce-la, bitch, me parle pas latin I feel like my wrist is lit, my wrist is lit I feel like my bitch is thick, I feel like it Go, go, go I feel like a God in this street, I feel like it Hey I feel like I'm touching this dream, I feel like it That's right I feel like my wrist is lit, bitch lit Bitch I feel like my bitch is thick bitch, t... bitch Oh I feel like Yeah, I feel like it</t>
+          <t>Pharaoh Yeah Go, go That's right, Go, go, go Yeah Bébé, je m'sens majestic Go, go, go, I feel like it On dirait qu'ta 'tasse me l'astique, fait d'la gymnastique Go, go, go J'me sens comme Maurice Ashley, I feel like it Pharaoh J'me sens comme un Dieu, in the street, I feel like it Pharaoh Tu sens que j'ai l'mojo qui pique, bitch, pique, bitch Go, go, go Est-c'qu'tu sens qu'l'aura est mystique, bitch ? Stick bitch That's right J'me sens comme acheter le district, bitch That's right J'me sens comme bouffer son pistil, bitch, still bitch Let's go Le 'vu-vu d'ma 'tasse est mignon Tu sais qu'faut qu'je touche le million J'leur ai tous donné la vision That's right, ils ont pas vu, idiots J'sors du club, et va, va midjo Ma beuh te fait croire qu't'es mignon Y a marqué Dieu dans ma bio' That's right J'aime quand y a des enjeux, bitch J'parle avec les anges, bitch Tu sais que j'suis dangereux, bitch Si elle frime je change de bitch Si elle frime je change de catin Je roule la beuh dès le matin Je dors dans des draps en satin Suce-la, bitch, me parle pas latin I feel like my wrist is lit, my wrist is lit I feel like my bitch is thick, I feel like it Go, go, go I feel like a God in this street, I feel like it Hey I feel like I'm touching this dream, I feel like it That's right I feel like my wrist is lit, bitch lit Bitch I feel like my bitch is thick bitch, t... bitch Oh I feel like Yeah, I feel like it</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3825,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Yeah, han Voilà comment j'procède, pour faire un hit, négro J'écoute l'instru' vite fait, j'trouve le flow adéquat J'glisse, j'fais des mots, des armes avec quoi ? Ma langue fait du mauvais ? Jamais C'est dur au départ mais quand j'ouvre mon carnet Je commence par le couplet un J'écoute le Pin-pan-pin-pan et le Pin-pan-pin-pan Nouveau flow, faut être tout terrain Faut qu'le son implique ton tympan et tu t'cales sur un temps Là tu fais des p'tites métaphores Des punchlines bien hardcores pour les mettre d'accord Genre tu tires les ficelles, moi j'te mets la corde, t'as le cul entre deux chaises J'ai la queue entre deux chaises, ça tombe bien, en 2 seizes, j'te baise Quand ça tombe mal, quand ça tombe bien, j'peux t'offrir une pierre tombale Ok, t'écoutes le beat, tu l'accompagnes Quand j'prends de l'altitude, t'es en manque d'oxygène, comme à la montagne Tous les mecs sans dollars devraient m'écouter Tous les mecs sans meufs devraient m'écouter J'ai la recette pour fourrer le succès J'donne des cours, t'as qu'à découper mes couplets Lalalalalala Si tu veux des 'tasses, je sais, je sais comment faire Si tu veux du cash, je sais, je sais comment faire Moi je veux du cash, percer avant qu'on m'enterre Si tu veux du cash Han, yeah Lalalalala You might also like Japprécie les filles aux murs légères, yeah Japprécie les pâtes au beurre, j'les aime, yeah Apprécie non ? J'kiffe le bifton La licence qui a sur mon cur, les réducteurs dessert ? Et j'veux des gros cachets, ceux qui donne la migraine, les mêmes que Bill Gates J'ai dit que j'voulais des gros cachets Quand les gorges se nouent, nos bites se nouent aussi Les filles sucent tellement Koffi qu'elles s'en écorchent les genoux C'est nous, nous, nous, nous, nous, nous, nous, nous Qui peut faire ça à part nous, nous, nous, nous ? C'est nous nous nous, t'es dur ? Non t'es mou, c'est dur À 4 piges, j'touchais ma nounou-nounou Lâche pas, c'est comme ça qu'on procède, en face la concurrence est trop faible Lentraxe se trouve dans la pochette, mets un tampax quand t'écoutes, j'veux rester au sec Tous les mecs sans dollars devraient m'écouter Tous les mecs sans meufs devraient m'écouter J'ai la recette pour fourrer le succès J'donne des cours, t'as qu'à découper mes couplets Lalalalalala Si tu veux des 'tasses, je sais, je sais comment faire Si tu veux du cash, je sais, je sais comment faire Moi je veux du cash, percer avant qu'on m'enterre Si tu veux du cash Han Lalalalala Yeah, yeah, yeah, yeah, seul le travail peut payer-yer-yer Choquer pour les faire bégayer-yer-yer-yer Il faut trouver l'air, moi j'ai Yeah, yeah, yeah, yeah Yeah, yeah Yeah, yeah, yeah, yeah, seul le travail peut payer-yer-yer Choquer pour les faire bégayer-yer-yer-yer Il faut trouver l'air, moi j'ai Yeah, yeah, yeah Yeah, yeah, yeah, oh J'finirais pas centenaire, niquer la vie, ça tue Je serais dead sur, si tu craches sur moi C'est que tu craches en l'air, n'essaye même pas d'm'atteindre Ça va te retomber d'ssus Tous les mecs sans dollars devraient m'écouter Tous les mecs sans meufs devraient m'écouter J'ai la recette pour fourrer le succès J'donne des cours, t'as qu'à découper mes couplets Lalalalalala Si tu veux des 'tasses, je sais, je sais comment faire Si tu veux du cash, je sais, je sais comment faire Moi je veux du cash, percer avant qu'on m'enterre Si tu veux du cash Lalalalala</t>
+          <t>Yeah, han Voilà comment j'procède, pour faire un hit, négro J'écoute l'instru' vite fait, j'trouve le flow adéquat J'glisse, j'fais des mots, des armes avec quoi ? Ma langue fait du mauvais ? Jamais C'est dur au départ mais quand j'ouvre mon carnet Je commence par le couplet un J'écoute le Pin-pan-pin-pan et le Pin-pan-pin-pan Nouveau flow, faut être tout terrain Faut qu'le son implique ton tympan et tu t'cales sur un temps Là tu fais des p'tites métaphores Des punchlines bien hardcores pour les mettre d'accord Genre tu tires les ficelles, moi j'te mets la corde, t'as le cul entre deux chaises J'ai la queue entre deux chaises, ça tombe bien, en 2 seizes, j'te baise Quand ça tombe mal, quand ça tombe bien, j'peux t'offrir une pierre tombale Ok, t'écoutes le beat, tu l'accompagnes Quand j'prends de l'altitude, t'es en manque d'oxygène, comme à la montagne Tous les mecs sans dollars devraient m'écouter Tous les mecs sans meufs devraient m'écouter J'ai la recette pour fourrer le succès J'donne des cours, t'as qu'à découper mes couplets Lalalalalala Si tu veux des 'tasses, je sais, je sais comment faire Si tu veux du cash, je sais, je sais comment faire Moi je veux du cash, percer avant qu'on m'enterre Si tu veux du cash Han, yeah Lalalalala Japprécie les filles aux murs légères, yeah Japprécie les pâtes au beurre, j'les aime, yeah Apprécie non ? J'kiffe le bifton La licence qui a sur mon cur, les réducteurs dessert ? Et j'veux des gros cachets, ceux qui donne la migraine, les mêmes que Bill Gates J'ai dit que j'voulais des gros cachets Quand les gorges se nouent, nos bites se nouent aussi Les filles sucent tellement Koffi qu'elles s'en écorchent les genoux C'est nous, nous, nous, nous, nous, nous, nous, nous Qui peut faire ça à part nous, nous, nous, nous ? C'est nous nous nous, t'es dur ? Non t'es mou, c'est dur À 4 piges, j'touchais ma nounou-nounou Lâche pas, c'est comme ça qu'on procède, en face la concurrence est trop faible Lentraxe se trouve dans la pochette, mets un tampax quand t'écoutes, j'veux rester au sec Tous les mecs sans dollars devraient m'écouter Tous les mecs sans meufs devraient m'écouter J'ai la recette pour fourrer le succès J'donne des cours, t'as qu'à découper mes couplets Lalalalalala Si tu veux des 'tasses, je sais, je sais comment faire Si tu veux du cash, je sais, je sais comment faire Moi je veux du cash, percer avant qu'on m'enterre Si tu veux du cash Han Lalalalala Yeah, yeah, yeah, yeah, seul le travail peut payer-yer-yer Choquer pour les faire bégayer-yer-yer-yer Il faut trouver l'air, moi j'ai Yeah, yeah, yeah, yeah Yeah, yeah Yeah, yeah, yeah, yeah, seul le travail peut payer-yer-yer Choquer pour les faire bégayer-yer-yer-yer Il faut trouver l'air, moi j'ai Yeah, yeah, yeah Yeah, yeah, yeah, oh J'finirais pas centenaire, niquer la vie, ça tue Je serais dead sur, si tu craches sur moi C'est que tu craches en l'air, n'essaye même pas d'm'atteindre Ça va te retomber d'ssus Tous les mecs sans dollars devraient m'écouter Tous les mecs sans meufs devraient m'écouter J'ai la recette pour fourrer le succès J'donne des cours, t'as qu'à découper mes couplets Lalalalalala Si tu veux des 'tasses, je sais, je sais comment faire Si tu veux du cash, je sais, je sais comment faire Moi je veux du cash, percer avant qu'on m'enterre Si tu veux du cash Lalalalala</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3842,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Hein, hein, yeah, Joke Yeah, a.k.a Marty McFly Yeah Mec, j'suis Marty McFly Hein, hein Yeah, ok Avec mes Puma 'cFly Hein, Yeah, yeah Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Yeah, yeah Tu vois mes Clyde aux pieds, tu vois qu'j'suis fly au pied C'est Longchamp pour le sac et ta commence à copier Très haut, j'suis Marty quand qu'j'me sape depuis le préau J'ai choqué mon lycée, la mode c'est des camisoles J'ai traumatisé des 'tasses, des tonnes d'estomac, vidé des sacs, rempli des Tu connais les bails négro, tes gros bras sont rien d'vant ça Yeah-yeah-yeah J'ralentis ou j'vais m'faire flasher, que-que-que d'phases C'est toujours qu'de dans une tournure de phrase Bitch, lève le doigt quand tu me vois -vois, si j'jette un il sur toi je prends le risque de te faire mal Bitch J'crois que tu crois que t'as les lombaires pour épuiser ma queue Mais attends , elle payerait pour un coup d'trique You might also like Et, sapé, être fly-y-yy je cesserai pas Toucher la ma-a-aille je cesserai pas Bouffer ma gra-a-aille j'te laisserai pas Tourner sur Sk-y-y' peut être, j'sais pas Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Yeah Une goutte d'acide chez ton disquaire, j'veux bouffer tout l'bifteck Tu vas toucher que des mystères, systématiquement littéraires Automatiquement mis derrière, quand j'fais le vide d'air on m'a dit qu'j'en manquais pas Si t'estimes j'sais pas rapper, bah, moi j'finirais en prépa' D'après c'qu'on dit, je crois qu'j'suis chaud, les textes vont vite, montrer que j'lâche du flow Qu'ils s'amusent pour l'instant je laisse faire, quand j'aurais sorti ma muse tous les autres devront s'taire J'suis l'descendant de Néfertiti, le sphinx c'est mon père En boîte on sert, on sert elles ouvrent la bouche quand j'veux faire pipi Engranger des dollars, mettre en danger le rap français Que dans le dos mon son fait danser le pape On sait j'vaux plus qu'une pub de L'Oréal, tu veux voir ma corpulence un tour de DeLorean C'est Marty McFly, qui en Puma 'cFly, ramène toute la maille, toute la maille Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Mec, j'suis Marty McFly, oh, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Yeah</t>
+          <t>Hein, hein, yeah, Joke Yeah, a.k.a Marty McFly Yeah Mec, j'suis Marty McFly Hein, hein Yeah, ok Avec mes Puma 'cFly Hein, Yeah, yeah Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Yeah, yeah Tu vois mes Clyde aux pieds, tu vois qu'j'suis fly au pied C'est Longchamp pour le sac et ta commence à copier Très haut, j'suis Marty quand qu'j'me sape depuis le préau J'ai choqué mon lycée, la mode c'est des camisoles J'ai traumatisé des 'tasses, des tonnes d'estomac, vidé des sacs, rempli des Tu connais les bails négro, tes gros bras sont rien d'vant ça Yeah-yeah-yeah J'ralentis ou j'vais m'faire flasher, que-que-que d'phases C'est toujours qu'de dans une tournure de phrase Bitch, lève le doigt quand tu me vois -vois, si j'jette un il sur toi je prends le risque de te faire mal Bitch J'crois que tu crois que t'as les lombaires pour épuiser ma queue Mais attends , elle payerait pour un coup d'trique Et, sapé, être fly-y-yy je cesserai pas Toucher la ma-a-aille je cesserai pas Bouffer ma gra-a-aille j'te laisserai pas Tourner sur Sk-y-y' peut être, j'sais pas Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Yeah Une goutte d'acide chez ton disquaire, j'veux bouffer tout l'bifteck Tu vas toucher que des mystères, systématiquement littéraires Automatiquement mis derrière, quand j'fais le vide d'air on m'a dit qu'j'en manquais pas Si t'estimes j'sais pas rapper, bah, moi j'finirais en prépa' D'après c'qu'on dit, je crois qu'j'suis chaud, les textes vont vite, montrer que j'lâche du flow Qu'ils s'amusent pour l'instant je laisse faire, quand j'aurais sorti ma muse tous les autres devront s'taire J'suis l'descendant de Néfertiti, le sphinx c'est mon père En boîte on sert, on sert elles ouvrent la bouche quand j'veux faire pipi Engranger des dollars, mettre en danger le rap français Que dans le dos mon son fait danser le pape On sait j'vaux plus qu'une pub de L'Oréal, tu veux voir ma corpulence un tour de DeLorean C'est Marty McFly, qui en Puma 'cFly, ramène toute la maille, toute la maille Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Mec, j'suis Marty McFly, oh, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Yeah</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3859,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>W-W-Wonda Ayosweedy, that one goin crazy Yeah La weed, j'la spark, go High, comme NASDAQ, go J'arrive, ça s'gâte Magic, matte black Hey, hey J'rappe d'puis StarTAC Hey J'lui brise la chatte Hey Ça brille, ça sparkle Je flash comme Agfa Pétasse aime l'action L'oseille rentre MACH 3 J'fais croquer la pomme Pétasse elle m'lag J'fais rentrer les plaques Ta hoe j'lui fais clap J'fais cracher les MAG J'm'endors avec les liasses, my nigga, j'leur fais des guillis Les rappurs savent que s'ils m'testnt, direct, j'les humilie La méchanceté, la violence, bitch, j'ai pas de feeling, heyy, hey, hey La méchanceté, la violence, bitch, j'ai pas de feeling You might also like Crache sur ma 'teu-b, fais pas ta timide, héé-héé-hey J'vais au 'sket-ba' avec une paire à dix-mille, hey-héé-hey 2k22, j'pense sérieusement au trili Tu sais qu'il m'faut trois 'tasses, il m'faut ma Trini-ty Quand j'suis dans l'club les tasses deviennent bêtes Go Je fais l'oseille, faut pas qu'tu t'inquiètes Go Le mojo attire les nymphettes Go J'ai l'veau-cer, comme j'suis sous amphét' Hey, hey, hey Le commissaire veut faire son enquête Hey, hey, hey J'vois trop clair pour les coups en traître Hey, hey, hey Quand t'as l'oseille, elles sont tout l'temps prêtes Les rappeurs ils m'écoutent en scred Faut l'faire circuler pour en faire, heyo J'rappe avec des anges qui m'encerclent Tu sais qu'la guerre est financière Bitch, c'est ton esprit qui t'enferme Ta vie y a des gens qui s'en servent T'es au paradis, tu crois qu't'es en enfer Sois un vrai négro avant qu'on t'enterre Personne m'a appris comment faire C'est Dieu qui m'a appris comment faire C'est Dieu qui m'a appris comment faire ECSTATIC C'est Dieu qui m'a appris comment faire, yeah C'est Dieu qui m'a appris comment faire, hey C'est Dieu qui m'a appris comment faire, chill C'est Dieu qui m'a appris comment faire, right C'est Dieu qui m'a appris comment faire, yeah C'est Dieu qui m'a appris comment faire</t>
+          <t>W-W-Wonda Ayosweedy, that one goin crazy Yeah La weed, j'la spark, go High, comme NASDAQ, go J'arrive, ça s'gâte Magic, matte black Hey, hey J'rappe d'puis StarTAC Hey J'lui brise la chatte Hey Ça brille, ça sparkle Je flash comme Agfa Pétasse aime l'action L'oseille rentre MACH 3 J'fais croquer la pomme Pétasse elle m'lag J'fais rentrer les plaques Ta hoe j'lui fais clap J'fais cracher les MAG J'm'endors avec les liasses, my nigga, j'leur fais des guillis Les rappurs savent que s'ils m'testnt, direct, j'les humilie La méchanceté, la violence, bitch, j'ai pas de feeling, heyy, hey, hey La méchanceté, la violence, bitch, j'ai pas de feeling Crache sur ma 'teu-b, fais pas ta timide, héé-héé-hey J'vais au 'sket-ba' avec une paire à dix-mille, hey-héé-hey 2k22, j'pense sérieusement au trili Tu sais qu'il m'faut trois 'tasses, il m'faut ma Trini-ty Quand j'suis dans l'club les tasses deviennent bêtes Go Je fais l'oseille, faut pas qu'tu t'inquiètes Go Le mojo attire les nymphettes Go J'ai l'veau-cer, comme j'suis sous amphét' Hey, hey, hey Le commissaire veut faire son enquête Hey, hey, hey J'vois trop clair pour les coups en traître Hey, hey, hey Quand t'as l'oseille, elles sont tout l'temps prêtes Les rappeurs ils m'écoutent en scred Faut l'faire circuler pour en faire, heyo J'rappe avec des anges qui m'encerclent Tu sais qu'la guerre est financière Bitch, c'est ton esprit qui t'enferme Ta vie y a des gens qui s'en servent T'es au paradis, tu crois qu't'es en enfer Sois un vrai négro avant qu'on t'enterre Personne m'a appris comment faire C'est Dieu qui m'a appris comment faire C'est Dieu qui m'a appris comment faire ECSTATIC C'est Dieu qui m'a appris comment faire, yeah C'est Dieu qui m'a appris comment faire, hey C'est Dieu qui m'a appris comment faire, chill C'est Dieu qui m'a appris comment faire, right C'est Dieu qui m'a appris comment faire, yeah C'est Dieu qui m'a appris comment faire</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3876,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Myth Syzer Yeah La weed, j'la spark, go High, comme NASDAQ, go J'arrive, ça s'gâte Magic, matte black Hey, hey J'rappe d'puis StarTAC Hey J'lui brise la chatte Hey Ça brille, ça sparkle Je flash comme Agfa Pétasse aime l'action L'oseille rentre MACH 3 J'fais croquer la pomme Pétasse elle m'lag J'fais rentrer les plaques Ta hoe j'lui fais clap J'fais cracher les MAG J'm'endors avec les liasses, my nigga, j'leur fais des guillis Les rappurs savent que s'ils m'testnt, direct, j'les humilie La méchanceté, la violence, bitch, j'ai pas de feeling, heyy, hey, hey La méchanceté, la violence, bitch, j'ai pas de feeling Crache sur ma 'teu-b, fais pas ta timide, héé-héé-hey J'vais au 'sket-ba' avec une paire à dix-mille, hey-héé-hey 2k22, j'pense sérieusement au trili Tu sais qu'il m'faut trois 'tasses, il m'faut ma Trini-ty Quand j'suis dans l'club les tasses deviennent bêtes Go Je fais l'oseille, faut pas qu'tu t'inquiètes Go Le mojo attire les nymphettes Go J'ai l'veau-cer, comme j'suis sous amphét' Hey, hey, hey Le commissaire veut faire son enquête Hey, hey, hey J'vois trop clair pour les coups en traître Hey, hey, hey Quand t'as l'oseille, elles sont tout l'temps prêtes Les rappeurs ils m'écoutent en scred Faut l'faire circuler pour en faire, heyo J'rappe avec des anges qui m'encerclent Tu sais qu'la guerre est financière Bitch, c'est ton esprit qui t'enferme Ta vie y a des gens qui s'en servent T'es au paradis, tu crois qu't'es en enfer Sois un vrai négro avant qu'on t'enterre Personne m'a appris comment faire C'est Dieu qui m'a appris comment faire C'est Dieu qui m'a appris comment faire ECSTATIC C'est Dieu qui m'a appris comment faire, yeah C'est Dieu qui m'a appris comment faireYou might also like</t>
+          <t>Myth Syzer Yeah La weed, j'la spark, go High, comme NASDAQ, go J'arrive, ça s'gâte Magic, matte black Hey, hey J'rappe d'puis StarTAC Hey J'lui brise la chatte Hey Ça brille, ça sparkle Je flash comme Agfa Pétasse aime l'action L'oseille rentre MACH 3 J'fais croquer la pomme Pétasse elle m'lag J'fais rentrer les plaques Ta hoe j'lui fais clap J'fais cracher les MAG J'm'endors avec les liasses, my nigga, j'leur fais des guillis Les rappurs savent que s'ils m'testnt, direct, j'les humilie La méchanceté, la violence, bitch, j'ai pas de feeling, heyy, hey, hey La méchanceté, la violence, bitch, j'ai pas de feeling Crache sur ma 'teu-b, fais pas ta timide, héé-héé-hey J'vais au 'sket-ba' avec une paire à dix-mille, hey-héé-hey 2k22, j'pense sérieusement au trili Tu sais qu'il m'faut trois 'tasses, il m'faut ma Trini-ty Quand j'suis dans l'club les tasses deviennent bêtes Go Je fais l'oseille, faut pas qu'tu t'inquiètes Go Le mojo attire les nymphettes Go J'ai l'veau-cer, comme j'suis sous amphét' Hey, hey, hey Le commissaire veut faire son enquête Hey, hey, hey J'vois trop clair pour les coups en traître Hey, hey, hey Quand t'as l'oseille, elles sont tout l'temps prêtes Les rappeurs ils m'écoutent en scred Faut l'faire circuler pour en faire, heyo J'rappe avec des anges qui m'encerclent Tu sais qu'la guerre est financière Bitch, c'est ton esprit qui t'enferme Ta vie y a des gens qui s'en servent T'es au paradis, tu crois qu't'es en enfer Sois un vrai négro avant qu'on t'enterre Personne m'a appris comment faire C'est Dieu qui m'a appris comment faire C'est Dieu qui m'a appris comment faire ECSTATIC C'est Dieu qui m'a appris comment faire, yeah C'est Dieu qui m'a appris comment faire</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3893,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Pussy nigga, j'me fais pas d'bile, j'me fais sucer Pussy nigga, j'me fais pas d'film, j'me fais du blé Pussy nigga, j'kick le beat, fuck le sujet Trop trop d'pussy, nigga sort un Glock pour les fumer Jeune Bip's est dans l'fire Non moi j'fume pas des homies, j'fume des négros Le club est plein mais le fric ailleurs On a l'premier chiffre, on prend les zéros Ta meuf me touche, mais surement sur le flyer Si elle veut play, on lui fera une démo Mon flow est composé de mille saveurs Bitch, agressif comme Jean Reno Range ta pussy, millionnaire dit la prophétie Le rap game nous attendait comme Lionel Messi Sort un lapin du chapeau, on sort un fusil Sur ces négros pop, homie, coup de bras comme Terry en Russie On s'en bat les couilles, oseille plein les fouilles On s'en bat les, bat les, toutes les douilles, on s'en bat les fouilles Les négros ont la haine quand il voit la Rolex Je préfère prévenir que guérir, 'verront jamais la grosse caisse MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe You might also like Crack, ablo et mafé, rien d'autre n'est préparé Les guerres c'est comme les impôts j'compte pas les déclarer Les problèmes tu laisses couler, j'laisse couler dans l'ciment J'vais d'venir millionnaire J'mangerais jamais la gamelle pour une chatte Feuille, ciseaux, tu peux te faire planter pour une claque Concurrence, qu'elle aille vite s'asseoir sur une batte Opulent, je peux faire tout ton SMIC en une date Merde, j'ai beaucoup d'choses à brûler... Les calories d'ta pétasse Tous les rêves de ces enculés A part l'ardoise rien n's'efface Homie t'as du buzz, nous on a du bon son La chute du mur de Berlin, le payement d'ta rançon Sur la chatte de ta chatte, vive François Mitterrand Longue vie aux 89 homies, peu importe la saison MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe3</t>
+          <t>Pussy nigga, j'me fais pas d'bile, j'me fais sucer Pussy nigga, j'me fais pas d'film, j'me fais du blé Pussy nigga, j'kick le beat, fuck le sujet Trop trop d'pussy, nigga sort un Glock pour les fumer Jeune Bip's est dans l'fire Non moi j'fume pas des homies, j'fume des négros Le club est plein mais le fric ailleurs On a l'premier chiffre, on prend les zéros Ta meuf me touche, mais surement sur le flyer Si elle veut play, on lui fera une démo Mon flow est composé de mille saveurs Bitch, agressif comme Jean Reno Range ta pussy, millionnaire dit la prophétie Le rap game nous attendait comme Lionel Messi Sort un lapin du chapeau, on sort un fusil Sur ces négros pop, homie, coup de bras comme Terry en Russie On s'en bat les couilles, oseille plein les fouilles On s'en bat les, bat les, toutes les douilles, on s'en bat les fouilles Les négros ont la haine quand il voit la Rolex Je préfère prévenir que guérir, 'verront jamais la grosse caisse MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe Crack, ablo et mafé, rien d'autre n'est préparé Les guerres c'est comme les impôts j'compte pas les déclarer Les problèmes tu laisses couler, j'laisse couler dans l'ciment J'vais d'venir millionnaire J'mangerais jamais la gamelle pour une chatte Feuille, ciseaux, tu peux te faire planter pour une claque Concurrence, qu'elle aille vite s'asseoir sur une batte Opulent, je peux faire tout ton SMIC en une date Merde, j'ai beaucoup d'choses à brûler... Les calories d'ta pétasse Tous les rêves de ces enculés A part l'ardoise rien n's'efface Homie t'as du buzz, nous on a du bon son La chute du mur de Berlin, le payement d'ta rançon Sur la chatte de ta chatte, vive François Mitterrand Longue vie aux 89 homies, peu importe la saison MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe3</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3910,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Yeah, yeah Yeah, yeah, yeah Elle me dit T'es un chien d'la casse. Yeah Elle veut la monoface J'lui fait boire toute la tasse J'veux voir tout l'atlas Oh Renoi, j'arrive pas à m'y faire, j'veux baiser le planisphère Ouh Le negro est dans leurs chattes Ouais Y'a qu'l'oseille qui peut me satisfaire J'suis avec mes nègres, les liasses, et la fumée J'vux la dolce vie, j'veux assumr Ma chérie, tu l'savais, j'suis ce genre de négro J'ai les qualités qui matchent avec mes défauts Dans la tête l'oseille, pétasse dans le bigo J'peux les r'froidir si faut remplir le frigo Tu m'parles de monnaie, moi j'fais qu'penser au 'seille J'rentre par ton cur, toi tu ressors par une oreille Oh oui You might also like Dis-moi, qui écoute sa femme ? Oui Dis-moi, qui écoute sa femme ? Oui Dis-moi, qui écoute sa femme ? Oui Juste, dis-moi, qui écoute sa femme ? Oui Aucun négro écoute sa femme Ouais Dis-moi, qui écoute sa femme ? Ouais Dis-moi, qui écoute sa femme ? Ouais Juste, dis-moi, qui écoute sa femme ? Ouais2</t>
+          <t>Yeah, yeah Yeah, yeah, yeah Elle me dit T'es un chien d'la casse. Yeah Elle veut la monoface J'lui fait boire toute la tasse J'veux voir tout l'atlas Oh Renoi, j'arrive pas à m'y faire, j'veux baiser le planisphère Ouh Le negro est dans leurs chattes Ouais Y'a qu'l'oseille qui peut me satisfaire J'suis avec mes nègres, les liasses, et la fumée J'vux la dolce vie, j'veux assumr Ma chérie, tu l'savais, j'suis ce genre de négro J'ai les qualités qui matchent avec mes défauts Dans la tête l'oseille, pétasse dans le bigo J'peux les r'froidir si faut remplir le frigo Tu m'parles de monnaie, moi j'fais qu'penser au 'seille J'rentre par ton cur, toi tu ressors par une oreille Oh oui Dis-moi, qui écoute sa femme ? Oui Dis-moi, qui écoute sa femme ? Oui Dis-moi, qui écoute sa femme ? Oui Juste, dis-moi, qui écoute sa femme ? Oui Aucun négro écoute sa femme Ouais Dis-moi, qui écoute sa femme ? Ouais Dis-moi, qui écoute sa femme ? Ouais Juste, dis-moi, qui écoute sa femme ? Ouais2</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3927,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Ahah Yo Joke Ça vient du sud négro, oki Donne-leur ça Yeah, ok Hein, hein Les freins n'me ralentissent pas, oh, je saute sur les dos d'âne comme sur le dos des dames, yeah, ahahah Hein Les femmes ne me ralentissent pas, pas misogyne, je te jure des fois je passe le balais, allez J'ai la dalle et les mc me font ds p'tit fours, je compte parler d maths, je compte pas les masses, négro à qui le tour Avec ma montre Casio qui chiffre négro j'te calcule ap À l'occasion je te giflerais, dis-moi juste pourquoi tu rappes ? L'écran lcd dans la cervelle, j'ai pas de pepom dans la tête, je n'ai qu'un seul métal dans la tête parce que le temps c'est d'l'argent J'avais plus de billets en maternelle, la monnaie m'appelle, elle connait mes faiblesses car elle ne connaît rien Le rap qui te colle à ta chaise et te laisse immobile à t'en donner un escarre, yeah Négro Le Booty Love Gang on compte pas les liasses, on fait polir nos zgegs par 2-3 pétasses, yeah, demande à Ekyone et à Timoze On a plus le temps, on a les crocs comme une binouze okay, yeah yeah You might also like C'est le south effect yes, les gosses sont fans de grosses paires de Nike, fans de grosses paires de fesses Mais c'est pour celà qu'on nous aime, qu'on nous déteste, à l'aise, une belle paire de bzezs dans les mains pendant qu'les mc s'baissent On vise le best, on prend notre part et bien sûr l'reste Timouze A.K.A Cheb Mami, Cheb Khaled et sappes cainri, la fraîcheur vient du bled J'ai la classe de mes ancêtres J'ai , elle tombe enceinte sans sortir mon texte J'rappe mieux que certains sans sortir mon 16, en d'autres termes elle rêve de moi quand tu la ken Damn, you can sur ma musique Je m'amuse à choquer, fly, high, Booty Rappe ça, du , on compte pas les liasses On fait danser les miss sur nos lignes de basses Demande à tous les frères qui nous tema, on a plus l'temps, l'argent qui traîne on le québra Oh O-kay-kay-kay-kay-kay-kay-kay-kay, le level est mit L'argent nous stimule comme tourner en boucle sur MTV Ouais, j'suis speed, très rapide, même ton polaroid galère à nous clipper On est du genre bolides, gonflés au steroïdes Booty Love Gang et Joke font bouncer les filles humides-humides Booty Love Gang et Joke, dis-nous jamais c'que tu rumines, rumines 3 minutes, nan, 2 minutes, nan, 1 minute, nan, 2 secondes, pas plus 30 secondes, nan, 20 secondes nan, 10 secondes j'ai dis, je sais, j'abuse Le, le, le-le-le sud le fait mieux ouais, voilà l'feat tant attendu chez , Joke vous l'avait annoncé, -cé Donc, maintenant avancez, avant qu'il ne soit trop tard, quand les dans une teucha, ouais Wah boy, Marty McFly on compte pas les liasses On fait shut up les mouses, trop d'mc sont nazes, demande aux gars du south et aux groupies On a plus l'temps, on joue, on gagne, tout nous sourit ahahah</t>
+          <t>Ahah Yo Joke Ça vient du sud négro, oki Donne-leur ça Yeah, ok Hein, hein Les freins n'me ralentissent pas, oh, je saute sur les dos d'âne comme sur le dos des dames, yeah, ahahah Hein Les femmes ne me ralentissent pas, pas misogyne, je te jure des fois je passe le balais, allez J'ai la dalle et les mc me font ds p'tit fours, je compte parler d maths, je compte pas les masses, négro à qui le tour Avec ma montre Casio qui chiffre négro j'te calcule ap À l'occasion je te giflerais, dis-moi juste pourquoi tu rappes ? L'écran lcd dans la cervelle, j'ai pas de pepom dans la tête, je n'ai qu'un seul métal dans la tête parce que le temps c'est d'l'argent J'avais plus de billets en maternelle, la monnaie m'appelle, elle connait mes faiblesses car elle ne connaît rien Le rap qui te colle à ta chaise et te laisse immobile à t'en donner un escarre, yeah Négro Le Booty Love Gang on compte pas les liasses, on fait polir nos zgegs par 2-3 pétasses, yeah, demande à Ekyone et à Timoze On a plus le temps, on a les crocs comme une binouze okay, yeah yeah C'est le south effect yes, les gosses sont fans de grosses paires de Nike, fans de grosses paires de fesses Mais c'est pour celà qu'on nous aime, qu'on nous déteste, à l'aise, une belle paire de bzezs dans les mains pendant qu'les mc s'baissent On vise le best, on prend notre part et bien sûr l'reste Timouze A.K.A Cheb Mami, Cheb Khaled et sappes cainri, la fraîcheur vient du bled J'ai la classe de mes ancêtres J'ai , elle tombe enceinte sans sortir mon texte J'rappe mieux que certains sans sortir mon 16, en d'autres termes elle rêve de moi quand tu la ken Damn, you can sur ma musique Je m'amuse à choquer, fly, high, Booty Rappe ça, du , on compte pas les liasses On fait danser les miss sur nos lignes de basses Demande à tous les frères qui nous tema, on a plus l'temps, l'argent qui traîne on le québra Oh O-kay-kay-kay-kay-kay-kay-kay-kay, le level est mit L'argent nous stimule comme tourner en boucle sur MTV Ouais, j'suis speed, très rapide, même ton polaroid galère à nous clipper On est du genre bolides, gonflés au steroïdes Booty Love Gang et Joke font bouncer les filles humides-humides Booty Love Gang et Joke, dis-nous jamais c'que tu rumines, rumines 3 minutes, nan, 2 minutes, nan, 1 minute, nan, 2 secondes, pas plus 30 secondes, nan, 20 secondes nan, 10 secondes j'ai dis, je sais, j'abuse Le, le, le-le-le sud le fait mieux ouais, voilà l'feat tant attendu chez , Joke vous l'avait annoncé, -cé Donc, maintenant avancez, avant qu'il ne soit trop tard, quand les dans une teucha, ouais Wah boy, Marty McFly on compte pas les liasses On fait shut up les mouses, trop d'mc sont nazes, demande aux gars du south et aux groupies On a plus l'temps, on joue, on gagne, tout nous sourit ahahah</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3944,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait vidéo , la culotte qui scintille J'fais l'moonwalk inversé, j'fais l'moonwalk inversé Oui, t'as tout ça d''co-co', toi t'as les lèvres gercées La J'suis à propos d'ta chatte, j'suis à propos d'ta- À propos d'ta chatte, j'suis à propos d'ta-You might also like</t>
+          <t>Disclaimer Transcrit à partir d'un extrait vidéo , la culotte qui scintille J'fais l'moonwalk inversé, j'fais l'moonwalk inversé Oui, t'as tout ça d''co-co', toi t'as les lèvres gercées La J'suis à propos d'ta chatte, j'suis à propos d'ta- À propos d'ta chatte, j'suis à propos d'ta-</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3961,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>The Spirit Let's go Let's go Oui, bitch More blessings, more blessings, j'rentre dans le club avec une gow sexy Oui More blessings, more blessings, j'rentre à l'hôtel avec deux gows flexibles Oui, bitch, yah More blessings, more blessings, j'rentre dans le club avec une gow sexy More blessings, more blessings, j'rentre à l'hôtel avec deux gows flexibles Yah, yah, yah, yah Tu crois connaître, check ma pommette Suce-moi, comme elle J'prends la vie, comme elle vient, toi, t'es un comédien Ta 'tasse j'lui casse les reins, ta chienne j'la promène The Spirit, j'rentre dans un club avec une gow sexy J'rentre à l'hôtel avec des gows flexibles, bitch, négro, tous les diamants sont sertis, yah Prends des euros pour les convertir, yah, j'prends des pétasses pour les convertir, yah More blessings, more blessings More blessings, more blessings, j'rentre dans le club avec une gow sexy More blessings, more blessings, j'rentre à l'hôtel avec deux gows flexibles Oui, bitch The Spirit of EcstasyYou might also like</t>
+          <t>The Spirit Let's go Let's go Oui, bitch More blessings, more blessings, j'rentre dans le club avec une gow sexy Oui More blessings, more blessings, j'rentre à l'hôtel avec deux gows flexibles Oui, bitch, yah More blessings, more blessings, j'rentre dans le club avec une gow sexy More blessings, more blessings, j'rentre à l'hôtel avec deux gows flexibles Yah, yah, yah, yah Tu crois connaître, check ma pommette Suce-moi, comme elle J'prends la vie, comme elle vient, toi, t'es un comédien Ta 'tasse j'lui casse les reins, ta chienne j'la promène The Spirit, j'rentre dans un club avec une gow sexy J'rentre à l'hôtel avec des gows flexibles, bitch, négro, tous les diamants sont sertis, yah Prends des euros pour les convertir, yah, j'prends des pétasses pour les convertir, yah More blessings, more blessings More blessings, more blessings, j'rentre dans le club avec une gow sexy More blessings, more blessings, j'rentre à l'hôtel avec deux gows flexibles Oui, bitch The Spirit of Ecstasy</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3978,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Han, S.S, Bip's Shout-out to Genevan Heathen, DJ Raze, Paris Yeah, han, okay Han, ohh Yeah Han-han S.S is back, yeah Genevan Christmas, bientôt dans les bacs Comme le sound, bitch, tu détestes la sensation Mhh Depuis qu'Bip's a un flow d'fusil, comme à la guerre de sécession Ta meuf est un thon, c'est pour ça qu'on la ramène en boîte Mhh On s'la raconte en boîte, comme si on avait des putains d'jambes de bois Ah bon C'est classique, tu connais, lazing, no theme kicks Bouteille de , dans ta pussy Flex, on cale nos Twix Han-han Les Monsieur, biatch Han, rockstar, hip-hop Rien à foutre du rap, on veut d'l'oseille, du rab Ok Le bras droit de Joky Han-han, le flow à DJ Vibes Yeah Faut qu'ça pique, comme les orties, grosse tournée, en mini van Pas de bla-bla Han, nous on tire, on parle pas Les armes de Tony Montana, le buzz, de Montana Hannah Tour Eiffel en fond d'Seine, c'est Paris Si t'aimes pas, rajoute du sel, c'était Bip's, joyeux Noël You might also like Heyy, négro C'est Bip's, négro C'est Joke, négro M.T.P, négro Genève, négro Han Y a qui qui dit plus de négro qu'moi ici ? Ayo, ch'yeah Négro, ayo, hey C'est nous, hey Wassup ? Back, négro M.T.P, négro Yo DJ Raze, Genevan Heathen Mother Motherfuck'a' Ahh Yeah, Bip's Joky, ayo Fuck, ayo, aye Han J'attends de perdre mon talent Hein-hein, j'commence à m'impatienter J'veux faire du biff, faire des feats Yeah, avec des pétasses qui savent même pas chanter Oh Yo, négro, j'vais pas m'vanter Yeah, j'te donne chaud, mais, j'vais pas t'venter J'suis tellement malade, que quand je tringle Yeah, négro, j'ai même pas cent G Han-han J'ai pris la mauvaise direction Han-han, mon domaine d'prédilection Les mecs sont au sol, négro, j'bicrave du chloroforme, hein-hein Je tombe que sur des chattes serrées, j'te jure, la vie d'ta mère, j'deviens claustrophobe J'voulais pas d'buzz, mais quand ils parlent de moi, ces mecs causent trop fort Han Mais ils savent pas Yeah, qu'on est sur les- han, qu'on est sur les nerfs On s'en tape Yeah, on est sur les surs, on est sur les mères Ils savent pas Yeah, que quand on boit pas, on décuve des bières Quoi ?! Teste pas Yeah, mon pied sur la tempe, ta tête sur les pierres On ride M.T.P, sur Gambetta, violent, comme une vendetta J'te fume, si tu t'mets en pétard Brrah Nique sa race, si le rap paie pas Si tu bipes, yo, j'te rappelle pas, j'te monte en l'air, j'te shoote en l'air Shoote, shoote, shoote, en l'air Haaye N.B.A Ok Fuck Petit Papa Noël, quand tu descendras du ciel, n'oublie pas le putain d'freestyle de Bip's et Joke À mettre sous l'sapin, à côté d'mes souliers, à côté d'mes nouvelles Nike Genevan , putain d'merde Oublie pas, hein, mon freestyle, s'te plait, à mettre, toute l'année Alors, comment on fait ? M.T.P, M.T.P, Genève, Genève, Paris Paris, ok Ok Joyeux Noël Bip's, Joke</t>
+          <t>Han, S.S, Bip's Shout-out to Genevan Heathen, DJ Raze, Paris Yeah, han, okay Han, ohh Yeah Han-han S.S is back, yeah Genevan Christmas, bientôt dans les bacs Comme le sound, bitch, tu détestes la sensation Mhh Depuis qu'Bip's a un flow d'fusil, comme à la guerre de sécession Ta meuf est un thon, c'est pour ça qu'on la ramène en boîte Mhh On s'la raconte en boîte, comme si on avait des putains d'jambes de bois Ah bon C'est classique, tu connais, lazing, no theme kicks Bouteille de , dans ta pussy Flex, on cale nos Twix Han-han Les Monsieur, biatch Han, rockstar, hip-hop Rien à foutre du rap, on veut d'l'oseille, du rab Ok Le bras droit de Joky Han-han, le flow à DJ Vibes Yeah Faut qu'ça pique, comme les orties, grosse tournée, en mini van Pas de bla-bla Han, nous on tire, on parle pas Les armes de Tony Montana, le buzz, de Montana Hannah Tour Eiffel en fond d'Seine, c'est Paris Si t'aimes pas, rajoute du sel, c'était Bip's, joyeux Noël Heyy, négro C'est Bip's, négro C'est Joke, négro M.T.P, négro Genève, négro Han Y a qui qui dit plus de négro qu'moi ici ? Ayo, ch'yeah Négro, ayo, hey C'est nous, hey Wassup ? Back, négro M.T.P, négro Yo DJ Raze, Genevan Heathen Mother Motherfuck'a' Ahh Yeah, Bip's Joky, ayo Fuck, ayo, aye Han J'attends de perdre mon talent Hein-hein, j'commence à m'impatienter J'veux faire du biff, faire des feats Yeah, avec des pétasses qui savent même pas chanter Oh Yo, négro, j'vais pas m'vanter Yeah, j'te donne chaud, mais, j'vais pas t'venter J'suis tellement malade, que quand je tringle Yeah, négro, j'ai même pas cent G Han-han J'ai pris la mauvaise direction Han-han, mon domaine d'prédilection Les mecs sont au sol, négro, j'bicrave du chloroforme, hein-hein Je tombe que sur des chattes serrées, j'te jure, la vie d'ta mère, j'deviens claustrophobe J'voulais pas d'buzz, mais quand ils parlent de moi, ces mecs causent trop fort Han Mais ils savent pas Yeah, qu'on est sur les- han, qu'on est sur les nerfs On s'en tape Yeah, on est sur les surs, on est sur les mères Ils savent pas Yeah, que quand on boit pas, on décuve des bières Quoi ?! Teste pas Yeah, mon pied sur la tempe, ta tête sur les pierres On ride M.T.P, sur Gambetta, violent, comme une vendetta J'te fume, si tu t'mets en pétard Brrah Nique sa race, si le rap paie pas Si tu bipes, yo, j'te rappelle pas, j'te monte en l'air, j'te shoote en l'air Shoote, shoote, shoote, en l'air Haaye N.B.A Ok Fuck Petit Papa Noël, quand tu descendras du ciel, n'oublie pas le putain d'freestyle de Bip's et Joke À mettre sous l'sapin, à côté d'mes souliers, à côté d'mes nouvelles Nike Genevan , putain d'merde Oublie pas, hein, mon freestyle, s'te plait, à mettre, toute l'année Alors, comment on fait ? M.T.P, M.T.P, Genève, Genève, Paris Paris, ok Ok Joyeux Noël Bip's, Joke</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3995,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Yo Variedy, this crazy Hein, hein-hein Heyy Si elle pop molly Hey Moi je pop champi' Champi', et des Murakami 'kami J'fais qu'des Murakami Ohh-oh J'fais qu'des Murakami Ohh-oh J'fais qu'des Murakami, heinheein J'fais qu'des Murakami, heinheein J'pull up tout en Prada, j'pull up tout en Prada Wohh Négro est en Air Force One, comme Obama, Pharaon Prendre ma beuh au Ghana, prendre ma beuh au Ghana Fhh J'inhale comme un chaman, j'me fais 'per-pom' dans l'pyjama, hey Going money, going money, going money, going money Go, go, go, go, go Going money, going money, going money Going, going, going Go, go, go, go, go Doing Going dummy, going dummy, going dummy, going dummy Go, go, go, go, go Going dummy, going dummy, going Go, go, go You might also like J'fais un Genki Dama, hey J'absorbe tout le pra, mhh J'ai un gentil FAMAS J'ai d'la beuh qui tabasse, hey Mes négros t'euthanasient Sans que glow nous kalash Pharaon Autour d'mon cou y a des carats Toi et moi y a un décalage Oui, bitch, toi ton swag est banal Oui, bitch Et tu veux tester négro, moi j'le prend ultra mal, heyy Niquer des bitchs, faire des dollars, acheter du CHANEL, heyy Niquer des bitchs, faire des dollars, acheter du CHANEL, hé-heyy Get that money, get that Si elle pop molly Hey Moi je pop champi' Champi', et des Murakami 'Kami J'fais qu'des Murakami Ohh-oh J'fais qu'des Murakami, Ohh-oh J'fais qu'des Murakami, hein, heein J'fais qu'des Murakami, hein, heein J'pull up tout en Prada Hey, j'pull up tout en Prada Négro est en Air Force One, comme Obama Prendre ma beuh au Ghana, prendre ma beuh au Ghana J'inhale comme un chaman, j'me fais 'per-pom' dans l'pyjama J'fume des Murakami Hm, ah, ah Designer, c'est mes habits Hm, ah, ah V.V.S. sur les canines, oui, bitch Hm, ah, ah J'suis frais depuis jadis, oui, bitch Hm, ah, ah J'fume des Murakami Hm, ah, ah Designer, c'est mes habits Hm, ah, ah V.V.S. sur les canines, oui, bitch Hm, ah, ah J'suis frais depuis jadis, oui, bitch Hm, ah, ah</t>
+          <t>Yo Variedy, this crazy Hein, hein-hein Heyy Si elle pop molly Hey Moi je pop champi' Champi', et des Murakami 'kami J'fais qu'des Murakami Ohh-oh J'fais qu'des Murakami Ohh-oh J'fais qu'des Murakami, heinheein J'fais qu'des Murakami, heinheein J'pull up tout en Prada, j'pull up tout en Prada Wohh Négro est en Air Force One, comme Obama, Pharaon Prendre ma beuh au Ghana, prendre ma beuh au Ghana Fhh J'inhale comme un chaman, j'me fais 'per-pom' dans l'pyjama, hey Going money, going money, going money, going money Go, go, go, go, go Going money, going money, going money Going, going, going Go, go, go, go, go Doing Going dummy, going dummy, going dummy, going dummy Go, go, go, go, go Going dummy, going dummy, going Go, go, go J'fais un Genki Dama, hey J'absorbe tout le pra, mhh J'ai un gentil FAMAS J'ai d'la beuh qui tabasse, hey Mes négros t'euthanasient Sans que glow nous kalash Pharaon Autour d'mon cou y a des carats Toi et moi y a un décalage Oui, bitch, toi ton swag est banal Oui, bitch Et tu veux tester négro, moi j'le prend ultra mal, heyy Niquer des bitchs, faire des dollars, acheter du CHANEL, heyy Niquer des bitchs, faire des dollars, acheter du CHANEL, hé-heyy Get that money, get that Si elle pop molly Hey Moi je pop champi' Champi', et des Murakami 'Kami J'fais qu'des Murakami Ohh-oh J'fais qu'des Murakami, Ohh-oh J'fais qu'des Murakami, hein, heein J'fais qu'des Murakami, hein, heein J'pull up tout en Prada Hey, j'pull up tout en Prada Négro est en Air Force One, comme Obama Prendre ma beuh au Ghana, prendre ma beuh au Ghana J'inhale comme un chaman, j'me fais 'per-pom' dans l'pyjama J'fume des Murakami Hm, ah, ah Designer, c'est mes habits Hm, ah, ah V.V.S. sur les canines, oui, bitch Hm, ah, ah J'suis frais depuis jadis, oui, bitch Hm, ah, ah J'fume des Murakami Hm, ah, ah Designer, c'est mes habits Hm, ah, ah V.V.S. sur les canines, oui, bitch Hm, ah, ah J'suis frais depuis jadis, oui, bitch Hm, ah, ah</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4012,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Hey Jeune négro, let's get it Yah, yah Liasse dans ma poche, c'est un rainbow Aîe-aîe-aîe-aîe-aîe-aîe-aîe Elle suce, avale dans la Lambo' Wah P'tite sois ma Naomi Campbell Wah P'tite sois ma Naomi Campbell Wah Liasse dans ma poche, c'est un rainbow Elle m'suce devant la Nintendo Elle suce, avale dans la Lambo' P'tite sois ma Naomi Campbell P'tite sois ma Naomi Campbell P'tite sois ma Naomi Campbell Let's go Fais des squats, suce dans le carré, wah Pétasse bouge avec le squad, let's go Ma vie c'est le cinéma, tous les jours en i tréma Quand est-ce que le G démarre ? J'suis dans l'clip de Dilemma Skuurr, j'transporte substances illégales Ouhh Ta clique prend des rafales, aïe, yah, yay You might also like J'tire sur 'garette-ci' Oui, bitch J'tire sur des ennemis Yah, bitch J'compte te la mettre, bitch Aîe, aîe, aîe, glaçons Jack-Henny' Glaçons, Jack-Henny', wow, glaçons, Jack-Henny' Glaçons Jack-Henny' Wow, glaçons, Jack-Henny' Glaçons, Jack-Henny', Wow, glaçons, Jack-Henny', mhh Glaçons, Jack-Henny', Wow, glaçons, Jack-Henny', mhh Hein, hein-hein Hein, hein-hein Hein, hein-hein Hein, hein-hein Pah Pah-pah-pah On va pas les aider Let's go Let's go Yah, yah</t>
+          <t>Hey Jeune négro, let's get it Yah, yah Liasse dans ma poche, c'est un rainbow Aîe-aîe-aîe-aîe-aîe-aîe-aîe Elle suce, avale dans la Lambo' Wah P'tite sois ma Naomi Campbell Wah P'tite sois ma Naomi Campbell Wah Liasse dans ma poche, c'est un rainbow Elle m'suce devant la Nintendo Elle suce, avale dans la Lambo' P'tite sois ma Naomi Campbell P'tite sois ma Naomi Campbell P'tite sois ma Naomi Campbell Let's go Fais des squats, suce dans le carré, wah Pétasse bouge avec le squad, let's go Ma vie c'est le cinéma, tous les jours en i tréma Quand est-ce que le G démarre ? J'suis dans l'clip de Dilemma Skuurr, j'transporte substances illégales Ouhh Ta clique prend des rafales, aïe, yah, yay J'tire sur 'garette-ci' Oui, bitch J'tire sur des ennemis Yah, bitch J'compte te la mettre, bitch Aîe, aîe, aîe, glaçons Jack-Henny' Glaçons, Jack-Henny', wow, glaçons, Jack-Henny' Glaçons Jack-Henny' Wow, glaçons, Jack-Henny' Glaçons, Jack-Henny', Wow, glaçons, Jack-Henny', mhh Glaçons, Jack-Henny', Wow, glaçons, Jack-Henny', mhh Hein, hein-hein Hein, hein-hein Hein, hein-hein Hein, hein-hein Pah Pah-pah-pah On va pas les aider Let's go Let's go Yah, yah</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4029,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Stars in the ceiling, stars in the ceiling, stars in the ceiling Stars in the ceiling, stars in the ceiling, stars in the ceiling Ohh-ohh-ohh Stars in the ceiling, found stars in the ceiling, stars in the ceiling Ohh-ohh-ohh Lil' bitch Stars in the feeling Ayy, ayy, ayy, stars in the feeling, stars in the feeling, Woah, woah, oh, oh Tu sais qu'je viens correct, négro, faut le voir Négro, j'fais la collecte pour la Audemars Ânkh sur la pommette, il d'Horus sur la pommette Elle me pompe le dard We going, going Oh, oh, j'viens de slow it down Fuck what they doing, what they saying J'la mets sur ma 'tub', elle décolle comm un Boeing Comme un Boeing J'croise pas mes détracteurs à Gucci ou à Louis Ah, ah, ah J'fuck pas avec ces rappeurs, parce que ça sent la douille Ah, ah, ah J'étais avec Sonta au bled, j'mangeais la bouillie C'est pour ça qu'aujourd'hui j'suis grave photogénique Grave, grave, grave Ma force elle vient du bled, elle vient du pays Yeah, nigga Nigga, mmh Stars in the ceiling Ayy, ayy, ayy, stars in the ceiling, stars in the ceiling Oh-oh, oh-oh Stars in the ceiling, stars in the ceiling, stars in the ceiling Oh-oh, oh-oh Stars in the ceiling, stars in the ceiling, stars in the ceiling Oh-oh, oh-oh Stars in the ceiling, stars in the ceiling, stars in the ceiling Ayy, ayy, ayyYou might also like</t>
+          <t>Stars in the ceiling, stars in the ceiling, stars in the ceiling Stars in the ceiling, stars in the ceiling, stars in the ceiling Ohh-ohh-ohh Stars in the ceiling, found stars in the ceiling, stars in the ceiling Ohh-ohh-ohh Lil' bitch Stars in the feeling Ayy, ayy, ayy, stars in the feeling, stars in the feeling, Woah, woah, oh, oh Tu sais qu'je viens correct, négro, faut le voir Négro, j'fais la collecte pour la Audemars Ânkh sur la pommette, il d'Horus sur la pommette Elle me pompe le dard We going, going Oh, oh, j'viens de slow it down Fuck what they doing, what they saying J'la mets sur ma 'tub', elle décolle comm un Boeing Comme un Boeing J'croise pas mes détracteurs à Gucci ou à Louis Ah, ah, ah J'fuck pas avec ces rappeurs, parce que ça sent la douille Ah, ah, ah J'étais avec Sonta au bled, j'mangeais la bouillie C'est pour ça qu'aujourd'hui j'suis grave photogénique Grave, grave, grave Ma force elle vient du bled, elle vient du pays Yeah, nigga Nigga, mmh Stars in the ceiling Ayy, ayy, ayy, stars in the ceiling, stars in the ceiling Oh-oh, oh-oh Stars in the ceiling, stars in the ceiling, stars in the ceiling Oh-oh, oh-oh Stars in the ceiling, stars in the ceiling, stars in the ceiling Oh-oh, oh-oh Stars in the ceiling, stars in the ceiling, stars in the ceiling Ayy, ayy, ayy</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4046,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Tekitek, laisse faire le space cake Que ta meuf s'mette à l'aise pour ma sextape Peace T.K.T, je suis fairplay, j't'envoie un lien sur YouPorn, avec des extraits Et si j'laissais couler la vibe Ah-ah J'pourrais rentrr dans si j'me laissais pousser la barbe Très haut, c'st là où mon rap va poser la barre Y'a un détecteur de rap pourri dans la salle, et tu vas faire sonner l'alarme Stunts est le label, vous n'aurez jamais la paix Tout l'monde est là à l'appel, déserter ? Moi, jamais J'ai trop une face de winner Winner, Faut faut qu'j'me fasse la pin-up Pin-up Que Que j'lui donne mes peannuts, sur l'comptoir du dinner Dinner Mec, j'suis un putain d'géant, j'ai l'monde entre mes doigts, c'est une crotte de nez J'fais c'que j'veux avec ce que j'veux rapper, un mec forcené Ferme ta bouche avec des clous, comme un cordonnier You might also like Ok J'veux essentiellement faire parler l'hémisphère gauche et l'hémisphère droit, pas faire dans la dentelle, nan Pété, dans la soie, l'cerveau fait des dissert' Moites sont les miss, ça se sent tellement Noyé sous le vice, j'en ai mal à la bite Tu captes, ouais, j'rendrais pas l'antenne, nan J'suis premier comme SFR, yeah-yeah, fallait pas me laisser faire, yeah-yeah C'est de l'entraînement, deux-trois rimes pour faire parler En seize mesures, négro, t'écris un roman Si je boite c'est que j'm'en bat les reins J'peux pas faire de coupé-décallé car j'm'en bat les reins Qui peut m'mettre à l'écart, celui qui m'arrête n'est pas né On est déjà arrivé, ne prenez pas l'départ, pas l'départ Ok La rythmique minimale Oh-oh, mon flow sera maximal Oh-oh Dominant ou lacrymale Oh-oh, son maniement te fera mal Oh-oh Les mots seront- les mots seront l'oxmose qui fait qu'ton cur s'emballe Oh-ohh J'te donne envie d'faire un souhait car je brille dans l'son plus qu'une étoile Et ouais c'est l'festival, quesque j'dis ? Orbital Un satellite, un ange magique, une fusée, non, c'est juste mon style Yo Tu vois ? Ça l'fait Ah, ahh Tu sens ces slows Wouhh Déluge d'effets Okay, let's go Killa Da' show Han C'est le phénomène Kilroy qui rentre dans l'bail Y'a-t'il un putain d'pilote dans l'game ? Tu le sens bien, mon style est sanguin Hey Mec, il est sans fin, vérifie les enceintes Hey Tous les jours j'te le fais découvrir Han-han T'as la tête qui tourne, t'es étourdi Haa J'te l'ai déjà dis, mais comme un fou tu t'entêtes Ha Sur les cadavres des haters j'fais mes emplettes Hey, hey Hein Ouais, j'suis sérieux Haan Je sais que t'essayes tout, pour faire mieux Haan C'est pour ça qu't'as nez qui saigne Yeah Tu devrais te calmer, tu sers à rien Yeah Trop d'énergie, appelle-moi Red Bull boy Partout j'me retourne Yeah-yeah, j'me retourne du haut d'ma tour et j'retourne toutes ces couilles molles Hey, hey, hey La pression monte quand j'suis au micro Oh, j'rappe en apesanteur Hey Mec, j'suis trop haut, pas besoin de prendre l'ascenseur Les absents veulent me descendre, j'laisse des cendres sur le J'crache de l'essence avec aisance, sortez les extincteurs J'allume ce truc et fais cramer les enceintes, brûle l'instru, les pompiers portent plainte J'viens du futur, c'est cramé que j'tue, comme un assassin, qui laisse les empreintes J'rappe dans fin, j'rappe sans fin J'rappe sans mains, j'rappe sans refrain Trop frais, trop d'flair J'te met au parfum, tu vas bouffer du CraiZ, même si t'as pas faim, mais ouais On cours sur la Tour Eiffel à la cool, sur un coucher d'soleil Hey On touche le ciel, n'aies pas peur de t'bruler les ailes Mais ouaais À l'horizon, on passe en force comme un bulldozer Hé, hé, hé, hé, hé, hé Tu veux nous voir sur scène, essaies d'regarder dans les airs On cours sur la Tour Eiffel à la cool, sur un coucher d'soleil Hey On touche le ciel, n'aies pas peur de t'bruler les ailes Mais ouaais À l'horizon, on passe en force comme un bulldozer Hé, hé, hé, hé, hé, hé Tu veux nous voir sur scène, essaies d'regarder dans les airs On cours sur la Tour Eiffel à la cool, sur un coucher d'soleil On touche le ciel, n'aies pas peur de t'bruler les ailes À l'horizon, on passe en force comme un bulldozer Tu veux nous voir sur scène, essaies d'regarder dans les airs Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo</t>
+          <t>Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Tekitek, laisse faire le space cake Que ta meuf s'mette à l'aise pour ma sextape Peace T.K.T, je suis fairplay, j't'envoie un lien sur YouPorn, avec des extraits Et si j'laissais couler la vibe Ah-ah J'pourrais rentrr dans si j'me laissais pousser la barbe Très haut, c'st là où mon rap va poser la barre Y'a un détecteur de rap pourri dans la salle, et tu vas faire sonner l'alarme Stunts est le label, vous n'aurez jamais la paix Tout l'monde est là à l'appel, déserter ? Moi, jamais J'ai trop une face de winner Winner, Faut faut qu'j'me fasse la pin-up Pin-up Que Que j'lui donne mes peannuts, sur l'comptoir du dinner Dinner Mec, j'suis un putain d'géant, j'ai l'monde entre mes doigts, c'est une crotte de nez J'fais c'que j'veux avec ce que j'veux rapper, un mec forcené Ferme ta bouche avec des clous, comme un cordonnier Ok J'veux essentiellement faire parler l'hémisphère gauche et l'hémisphère droit, pas faire dans la dentelle, nan Pété, dans la soie, l'cerveau fait des dissert' Moites sont les miss, ça se sent tellement Noyé sous le vice, j'en ai mal à la bite Tu captes, ouais, j'rendrais pas l'antenne, nan J'suis premier comme SFR, yeah-yeah, fallait pas me laisser faire, yeah-yeah C'est de l'entraînement, deux-trois rimes pour faire parler En seize mesures, négro, t'écris un roman Si je boite c'est que j'm'en bat les reins J'peux pas faire de coupé-décallé car j'm'en bat les reins Qui peut m'mettre à l'écart, celui qui m'arrête n'est pas né On est déjà arrivé, ne prenez pas l'départ, pas l'départ Ok La rythmique minimale Oh-oh, mon flow sera maximal Oh-oh Dominant ou lacrymale Oh-oh, son maniement te fera mal Oh-oh Les mots seront- les mots seront l'oxmose qui fait qu'ton cur s'emballe Oh-ohh J'te donne envie d'faire un souhait car je brille dans l'son plus qu'une étoile Et ouais c'est l'festival, quesque j'dis ? Orbital Un satellite, un ange magique, une fusée, non, c'est juste mon style Yo Tu vois ? Ça l'fait Ah, ahh Tu sens ces slows Wouhh Déluge d'effets Okay, let's go Killa Da' show Han C'est le phénomène Kilroy qui rentre dans l'bail Y'a-t'il un putain d'pilote dans l'game ? Tu le sens bien, mon style est sanguin Hey Mec, il est sans fin, vérifie les enceintes Hey Tous les jours j'te le fais découvrir Han-han T'as la tête qui tourne, t'es étourdi Haa J'te l'ai déjà dis, mais comme un fou tu t'entêtes Ha Sur les cadavres des haters j'fais mes emplettes Hey, hey Hein Ouais, j'suis sérieux Haan Je sais que t'essayes tout, pour faire mieux Haan C'est pour ça qu't'as nez qui saigne Yeah Tu devrais te calmer, tu sers à rien Yeah Trop d'énergie, appelle-moi Red Bull boy Partout j'me retourne Yeah-yeah, j'me retourne du haut d'ma tour et j'retourne toutes ces couilles molles Hey, hey, hey La pression monte quand j'suis au micro Oh, j'rappe en apesanteur Hey Mec, j'suis trop haut, pas besoin de prendre l'ascenseur Les absents veulent me descendre, j'laisse des cendres sur le J'crache de l'essence avec aisance, sortez les extincteurs J'allume ce truc et fais cramer les enceintes, brûle l'instru, les pompiers portent plainte J'viens du futur, c'est cramé que j'tue, comme un assassin, qui laisse les empreintes J'rappe dans fin, j'rappe sans fin J'rappe sans mains, j'rappe sans refrain Trop frais, trop d'flair J'te met au parfum, tu vas bouffer du CraiZ, même si t'as pas faim, mais ouais On cours sur la Tour Eiffel à la cool, sur un coucher d'soleil Hey On touche le ciel, n'aies pas peur de t'bruler les ailes Mais ouaais À l'horizon, on passe en force comme un bulldozer Hé, hé, hé, hé, hé, hé Tu veux nous voir sur scène, essaies d'regarder dans les airs On cours sur la Tour Eiffel à la cool, sur un coucher d'soleil Hey On touche le ciel, n'aies pas peur de t'bruler les ailes Mais ouaais À l'horizon, on passe en force comme un bulldozer Hé, hé, hé, hé, hé, hé Tu veux nous voir sur scène, essaies d'regarder dans les airs On cours sur la Tour Eiffel à la cool, sur un coucher d'soleil On touche le ciel, n'aies pas peur de t'bruler les ailes À l'horizon, on passe en force comme un bulldozer Tu veux nous voir sur scène, essaies d'regarder dans les airs Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4063,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Négro arrête, négro arrête Négro arrête, négro arrête J'arrive fusil sur l'épaule, tire comme Teddy Riner J'débarque pour niquer ta chatte, nique les préliminaires Négros se fâchèrent, négro t'éliminèrent Les mots les plus éclatants émanant d'la Ville Lumière Les ondes astrales apportent un mojo caniculaire Avènement d'Osiris et d'Isis J'ai la mine relaxée, l'esprit patibulaire Deux-trois coups d'il et t'as la chatte qui glisse Le rap, leurs vies, j'm'en bats les yeucous J'vois l'Amérique qui m'fait les yeux doux J'ai des sociétés, nique la société Qui compte me bloquer l'accès à la propriété Le rap, leurs vies, j'm'en bats les yeucous J'te mets un doigt dans le cul, j't'embrasse dans le cou Négro moi j'veux brûler la vie par les deux bouts Négro j'agis j'te laisse parler debout You might also like5</t>
+          <t>Négro arrête, négro arrête Négro arrête, négro arrête J'arrive fusil sur l'épaule, tire comme Teddy Riner J'débarque pour niquer ta chatte, nique les préliminaires Négros se fâchèrent, négro t'éliminèrent Les mots les plus éclatants émanant d'la Ville Lumière Les ondes astrales apportent un mojo caniculaire Avènement d'Osiris et d'Isis J'ai la mine relaxée, l'esprit patibulaire Deux-trois coups d'il et t'as la chatte qui glisse Le rap, leurs vies, j'm'en bats les yeucous J'vois l'Amérique qui m'fait les yeux doux J'ai des sociétés, nique la société Qui compte me bloquer l'accès à la propriété Le rap, leurs vies, j'm'en bats les yeucous J'te mets un doigt dans le cul, j't'embrasse dans le cou Négro moi j'veux brûler la vie par les deux bouts Négro j'agis j'te laisse parler debout 5</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4080,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Freakey démarre le vaisseau mon négro Bang, yeah my nigga Pharaoh in this bitch Oui, bitch Négro sur le next shit, or sur le neck shit Texte sur le tec shit Bébé j'bouge les esprits, sûr ma bitch est sexy J'suis en moonwalk sur la manche, nique sa mère le Brexit Oui Sûr j'manifeste vite, l'aura est éléctrique Check la rapidité, bitcoin illimités N'essaie même pas d'imiter, on teste pas l'élite yeah J't'envoie des formules magiques fluide en gaélique yeah J'peux t'parler deep scred dans un carré VIP yeah J'remplis ta p'tite shnek comme un cahier vide yeah Ouais Être comme eux c'est dead Ouais, j'suis guidé par les signes Ouais, yeah J'sais qu'ma front cam Siri se brûle la rétine Ouais, yeah You might also like Négro sur le next shit, j'me fais stalk par Alexa, Siri sûr qu'j'les excite Texte sur le tec shit Bébé j'bouge les esprits, et mes pensées prennent vie Or sur le neck shit, négro j'déconnecte vite Infinigga, Infinigga</t>
+          <t>Freakey démarre le vaisseau mon négro Bang, yeah my nigga Pharaoh in this bitch Oui, bitch Négro sur le next shit, or sur le neck shit Texte sur le tec shit Bébé j'bouge les esprits, sûr ma bitch est sexy J'suis en moonwalk sur la manche, nique sa mère le Brexit Oui Sûr j'manifeste vite, l'aura est éléctrique Check la rapidité, bitcoin illimités N'essaie même pas d'imiter, on teste pas l'élite yeah J't'envoie des formules magiques fluide en gaélique yeah J'peux t'parler deep scred dans un carré VIP yeah J'remplis ta p'tite shnek comme un cahier vide yeah Ouais Être comme eux c'est dead Ouais, j'suis guidé par les signes Ouais, yeah J'sais qu'ma front cam Siri se brûle la rétine Ouais, yeah Négro sur le next shit, j'me fais stalk par Alexa, Siri sûr qu'j'les excite Texte sur le tec shit Bébé j'bouge les esprits, et mes pensées prennent vie Or sur le neck shit, négro j'déconnecte vite Infinigga, Infinigga</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4097,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Ball so hard mothafuckas wanna fine me Hahan, des gars comme moi yen a un sur 100 000 Hey Yo, jsuis sans deal Negro, jsuis pourri à vie, 95 Guiliani. Paris cest Gare du NordPlace dItalie Amber et Beyonce Coulibali Paris, jarrive, oh no ! Jsors mon calibre NoHomo Tu fais dla monnaie en Slow Mo. Jte rase au poteau Château dEau Ça sent lplastique brulé, tu sais on fait chauffer la carte bancaire Capote acidulée, jai du goût et ta meuf écarte sans faire Dchichi Un mouvement, on te plombe et je parle pas de ta plaque dentaire Mon équipe sort les billets, tu crois quon a repeint la salle en vert Si tu parles, je te le jure sur ma vie, sur ma vie J'saute tout, j'ai pas d'Go-Navi Negro, j'ai la dalle comme en Somalie. Negro, j'ai la dalle comme en Somalie Negro, j'ai la dalle comme en Somalie J'vais pisser sur cette tasse, fraiche genre Haagen Daz J'vais pisser sur cette Soraya Bonaly Yen a qui voudrait que Joke, Yo que Joke staise, ils le voudrait mais non Vont finir avec des prothèses, des roulantes chaises pour avoir dit mon prénom Jvais la ramener au motel, à lhotel, elle va dire mon prénom On tattend MTP dans une ptite rue pour te schlasser dans la pénombreYou might also like</t>
+          <t>Ball so hard mothafuckas wanna fine me Hahan, des gars comme moi yen a un sur 100 000 Hey Yo, jsuis sans deal Negro, jsuis pourri à vie, 95 Guiliani. Paris cest Gare du NordPlace dItalie Amber et Beyonce Coulibali Paris, jarrive, oh no ! Jsors mon calibre NoHomo Tu fais dla monnaie en Slow Mo. Jte rase au poteau Château dEau Ça sent lplastique brulé, tu sais on fait chauffer la carte bancaire Capote acidulée, jai du goût et ta meuf écarte sans faire Dchichi Un mouvement, on te plombe et je parle pas de ta plaque dentaire Mon équipe sort les billets, tu crois quon a repeint la salle en vert Si tu parles, je te le jure sur ma vie, sur ma vie J'saute tout, j'ai pas d'Go-Navi Negro, j'ai la dalle comme en Somalie. Negro, j'ai la dalle comme en Somalie Negro, j'ai la dalle comme en Somalie J'vais pisser sur cette tasse, fraiche genre Haagen Daz J'vais pisser sur cette Soraya Bonaly Yen a qui voudrait que Joke, Yo que Joke staise, ils le voudrait mais non Vont finir avec des prothèses, des roulantes chaises pour avoir dit mon prénom Jvais la ramener au motel, à lhotel, elle va dire mon prénom On tattend MTP dans une ptite rue pour te schlasser dans la pénombre</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4114,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>J'ai tellement pris de sales coups que j'aurai pu faire le casting de 'True Blood' Je crois qu'j'ai changé d'avis j'préfère mater le boule d'Alexis sur Youporn J'me demande qu'est-ce qu'il m'arrive ?! Je vois qules Mc's m'copient comme des métamorphes Et en plus ça s'croit technique depuis qu'ils ont appris à faire des métaphores C'est la savane dans ma vie. J'ai une gazelle au lit, des gazelles aux pieds Quasi opé, j'suis prêt pour la guerre. Flow 4 étoiles Cassiopée T'écris tes textes sur Blackberry, je savais qu'tu n'étais qu'un sans papiers Ecrire sur Mac ne porte pas ses fruits. Depuis qu'j'ai ma gold, je fini premier Ils veulent du fond, ils veulent tous rapper vite. Avant tout ils veulent se faire du blé Jdois avouer, jveux vivre à Chantilly ou dans le Lys de Lamorlaye Rembourser les dettes de la Mama pour ne plus la voir pleurer Acheter des jambes pour mon Papa pour quil puisse à nouveau marcher Moi aussi jai des rêves, vrais négros en Picardie Rien à foutre de Kamini, jveux faire des tubes comme 'Beat It' Faudrait que les gens comprennent pourquoi Wilow a trop gimmick ! Ridin Round Gettin It ! Ridin Round Gettin It ! Ball so hard mothafuckas wanna fine me Hahan, des gars comme moi yen a un sur 100 000 Hey Yo, jsuis sans deal Negro, jsuis pourri à vie, 95 Guiliani. Paris cest Gare du NordPlace dItalie Amber et Beyonce Coulibali Paris, jarrive, oh no ! Jsors mon calibre NoHomo Tu fais dla monnaie en Slow Mo. Jte rase au poteau Château dEau Ça sent lplastique brulé, tu sais on fait chauffer la carte bancaire Capote acidulée, jai du goût et ta meuf écarte sans faire Dchichi Un mouvement, on te plombe et je parle pas de ta plaque dentaire Mon équipe sort les billets, tu crois quon a repeint la salle en vert Si tu parles, je te le jure sur ma vie, sur ma vie J'saute tout, j'ai pas d'Go-Navi Negro, j'ai la dalle comme en Somalie. Negro, j'ai la dalle comme en Somalie Negro, j'ai la dalle comme en Somalie J'vais pisser sur cette tasse, fraiche genre Haagen Daz J'vais pisser sur cette Soraya Bonaly Yen a qui voudrait que Joke, Yo que Joke staise, ils le voudrait mais non Vont finir avec des prothèses, des roulantes chaises pour avoir dit mon prénom Jvais la ramener au motel, à lhotel, elle va dire mon prénom On tattend MTP dans une ptite rue pour te schlasser dans la pénombre You might also like J'rappe mieux que toi mais y a qu'à toi qu'on l'a pas dit J'ai des punchlines remplis ton caddie Vas y je survole le game et leur chie dessus comme un pigeon de Paris Je rappe mieux que toi ton niveau est faible Peu importe l'effet Si elle me regarde de haut c'est qu'elle est perchée sur ma tour Eiffel ! Je rappe mieux que toi, mec c'est obligé Ton son est négligé Mon flow est débridé comme les touristes des Champs Élysées Il parait que tu rappe bien Que des groupies, tu en as pleins Mais moi, je suis parisiens je n'aime rien Je gêne le game comme un gars qui ronfle Je kick ça avec mon gars de la Fronce Je suis comme Cupidon Sauf que moi j'ai un arc de Triomphe</t>
+          <t>J'ai tellement pris de sales coups que j'aurai pu faire le casting de 'True Blood' Je crois qu'j'ai changé d'avis j'préfère mater le boule d'Alexis sur Youporn J'me demande qu'est-ce qu'il m'arrive ?! Je vois qules Mc's m'copient comme des métamorphes Et en plus ça s'croit technique depuis qu'ils ont appris à faire des métaphores C'est la savane dans ma vie. J'ai une gazelle au lit, des gazelles aux pieds Quasi opé, j'suis prêt pour la guerre. Flow 4 étoiles Cassiopée T'écris tes textes sur Blackberry, je savais qu'tu n'étais qu'un sans papiers Ecrire sur Mac ne porte pas ses fruits. Depuis qu'j'ai ma gold, je fini premier Ils veulent du fond, ils veulent tous rapper vite. Avant tout ils veulent se faire du blé Jdois avouer, jveux vivre à Chantilly ou dans le Lys de Lamorlaye Rembourser les dettes de la Mama pour ne plus la voir pleurer Acheter des jambes pour mon Papa pour quil puisse à nouveau marcher Moi aussi jai des rêves, vrais négros en Picardie Rien à foutre de Kamini, jveux faire des tubes comme 'Beat It' Faudrait que les gens comprennent pourquoi Wilow a trop gimmick ! Ridin Round Gettin It ! Ridin Round Gettin It ! Ball so hard mothafuckas wanna fine me Hahan, des gars comme moi yen a un sur 100 000 Hey Yo, jsuis sans deal Negro, jsuis pourri à vie, 95 Guiliani. Paris cest Gare du NordPlace dItalie Amber et Beyonce Coulibali Paris, jarrive, oh no ! Jsors mon calibre NoHomo Tu fais dla monnaie en Slow Mo. Jte rase au poteau Château dEau Ça sent lplastique brulé, tu sais on fait chauffer la carte bancaire Capote acidulée, jai du goût et ta meuf écarte sans faire Dchichi Un mouvement, on te plombe et je parle pas de ta plaque dentaire Mon équipe sort les billets, tu crois quon a repeint la salle en vert Si tu parles, je te le jure sur ma vie, sur ma vie J'saute tout, j'ai pas d'Go-Navi Negro, j'ai la dalle comme en Somalie. Negro, j'ai la dalle comme en Somalie Negro, j'ai la dalle comme en Somalie J'vais pisser sur cette tasse, fraiche genre Haagen Daz J'vais pisser sur cette Soraya Bonaly Yen a qui voudrait que Joke, Yo que Joke staise, ils le voudrait mais non Vont finir avec des prothèses, des roulantes chaises pour avoir dit mon prénom Jvais la ramener au motel, à lhotel, elle va dire mon prénom On tattend MTP dans une ptite rue pour te schlasser dans la pénombre J'rappe mieux que toi mais y a qu'à toi qu'on l'a pas dit J'ai des punchlines remplis ton caddie Vas y je survole le game et leur chie dessus comme un pigeon de Paris Je rappe mieux que toi ton niveau est faible Peu importe l'effet Si elle me regarde de haut c'est qu'elle est perchée sur ma tour Eiffel ! Je rappe mieux que toi, mec c'est obligé Ton son est négligé Mon flow est débridé comme les touristes des Champs Élysées Il parait que tu rappe bien Que des groupies, tu en as pleins Mais moi, je suis parisiens je n'aime rien Je gêne le game comme un gars qui ronfle Je kick ça avec mon gars de la Fronce Je suis comme Cupidon Sauf que moi j'ai un arc de Triomphe</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4131,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Jnai pas damour pour ces bitches Jremplis mon compte de royalties Jdois foutre le seum à mon ex Rester à vie dans sa shneck Jme vide les glandes puis jte next Si je taime cest pour de faux Jte détaille devant un porno Jfais du sale comme Eddy Gordo No love, j'n'ai plus d'larmes Jdéverse toute ma haine sur ton derch Jmen bats les couilles que tu sois fraiche Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, ain't got no love for these bitches Jnai pas damour pour ces bitches, tout cquelles demandent cest qujles finisse Change de track, change de pose Dans le noir jfais le beau Quune seule place sur le trône Ces putains mont volé mon flow, jai toujours une garce sur la gauche Jsuis dans sa ge-gor pour la cause, jambes ouvertes comme Murcielago Oh, oh Jambes ouvertes comme Murceliago Elle aime me per-pom dans la gov, pendant que je consomme ma dose Elle aime quand je déverse ma sauce No love Pour du falsch tu pourrais me planter ldos No love Je suis cash jpréfèrerais te voir de dos No love You might also like Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, ain't got no love for these bitches Diamants sur le poignet, deux doigts dans sa shneck Elle préfère encaisser lnégro quencaisser un chèque Nigga jsuis ultra fucked up, je roule sur ses fesses Écris comme moi , parce qula dick les baise Mappelle pas quand je charbonne, pute même si tes grave bonne Elle veut pas que jlui parle love, elle veut juste que jla cartonne Fuck un Ritz, un Carlton, jfais vibrer tous ses atomes Elle che-cra j'mets le latex, jai ché-cra et jmets la gomme, vroum vroum Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches Ouais allô ? Cest ça ton problème, taimes trop mappeler quand jsuis en train dcharbonner Arrêtes ça, arrêtes ça, arrêtes ça Ouais ? Jai pas ltemps là, jai pas ltemps jdois Toi cest ça ton problème, tappelles toujours quand jsuis en train dfaire des bails Arrêtes ça Sérieux, sérieux, jte parle sérieux là Tas pas une copine à appeler là? Tu tsens seule ou quoi? Eh vas-y, plus tard, plus tard Ouais désolé gros, tu connais, tu connais Bah ouais mon gars, toujours toujours toujours Ca appelle en mode Ouais gnagnagna gnagnagna Quest-ce qui y a ? Quest-ce qui y a ? Ca va aller, ouais ouais ouais Vas-y remets lson, jvais poser là</t>
+          <t>Jnai pas damour pour ces bitches Jremplis mon compte de royalties Jdois foutre le seum à mon ex Rester à vie dans sa shneck Jme vide les glandes puis jte next Si je taime cest pour de faux Jte détaille devant un porno Jfais du sale comme Eddy Gordo No love, j'n'ai plus d'larmes Jdéverse toute ma haine sur ton derch Jmen bats les couilles que tu sois fraiche Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, ain't got no love for these bitches Jnai pas damour pour ces bitches, tout cquelles demandent cest qujles finisse Change de track, change de pose Dans le noir jfais le beau Quune seule place sur le trône Ces putains mont volé mon flow, jai toujours une garce sur la gauche Jsuis dans sa ge-gor pour la cause, jambes ouvertes comme Murcielago Oh, oh Jambes ouvertes comme Murceliago Elle aime me per-pom dans la gov, pendant que je consomme ma dose Elle aime quand je déverse ma sauce No love Pour du falsch tu pourrais me planter ldos No love Je suis cash jpréfèrerais te voir de dos No love Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, ain't got no love for these bitches Diamants sur le poignet, deux doigts dans sa shneck Elle préfère encaisser lnégro quencaisser un chèque Nigga jsuis ultra fucked up, je roule sur ses fesses Écris comme moi , parce qula dick les baise Mappelle pas quand je charbonne, pute même si tes grave bonne Elle veut pas que jlui parle love, elle veut juste que jla cartonne Fuck un Ritz, un Carlton, jfais vibrer tous ses atomes Elle che-cra j'mets le latex, jai ché-cra et jmets la gomme, vroum vroum Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches Ouais allô ? Cest ça ton problème, taimes trop mappeler quand jsuis en train dcharbonner Arrêtes ça, arrêtes ça, arrêtes ça Ouais ? Jai pas ltemps là, jai pas ltemps jdois Toi cest ça ton problème, tappelles toujours quand jsuis en train dfaire des bails Arrêtes ça Sérieux, sérieux, jte parle sérieux là Tas pas une copine à appeler là? Tu tsens seule ou quoi? Eh vas-y, plus tard, plus tard Ouais désolé gros, tu connais, tu connais Bah ouais mon gars, toujours toujours toujours Ca appelle en mode Ouais gnagnagna gnagnagna Quest-ce qui y a ? Quest-ce qui y a ? Ca va aller, ouais ouais ouais Vas-y remets lson, jvais poser là</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4148,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Hey yo je sais qu'en 16 mesures j'peux pas te raconter ma vie Mais j'vais un peu me faire plaisir car c'est le nom de ma ville J'ai échappé au fléau de la tise et d'l 'amphétamine Mon père avait les arguments pour m'faire changer d'avis On voulait kicker la rime, vite fait l'ami, pas d'intérims, vivre de la zique, virer ta team, guider la street, plier Paris vite fait, agir Beaucoup d'idées naives mais l'espoir c'est le nerf de la vie One Love à tous les frères qui ont quitté le navire Systématique comme les kahbas et les gardav' Le bruit des matraques et des patates j'ai des flashbacks Emblématique XXXXXXX L'époque du Eastpak, dernier cartable pas de bas d'gammes C'était l'époque de l'insouciance on ignorait tout l'sens Et tout ces Khey tu pouvais les mettre où j'pense J'suis pas tombé dans l'argent facile, t'entends ?! En marge mais jamais dans la tendance, t'entends ? Nostalgique ! Prends nos affaires d'école, on embêtait les profs, on écoutait des classiques Nostalgique On était loin des codes, sur les bancs de l'école, j'en garde des moments magiques Mais j'ai aucun regret je n'ai aucun regret You might also like A l'époque, j'trainais en jogging, j'avais des TN Je jouais au Pogs et aux billes je dégommais des BN Mon entourage était composé d'amis partis trop tôt J'les oublie pas comme le sourire de Molami Bokoto J'connaissais pas A.P.C, j'avais mon premier PC J'me contentais d'apprécier les choses simples que t'offrent la vie Mon quartier c'était ma ville si bien qu'au fil des saisons Je m'y aventurais même au delà de mon pâté de maison J'suis passé par le kung-fu, le football puis par le basket C'était en 5ème genre un an avant ma première casquette Bon y'a eu le béret Reebok, et la 5 panel Fila Mais là j'te parle de New Era et de Thérèse d'Avila Ma mère me répètait qu'le Bac est un passage obligé Pourtant la BAC me contrôle malgré mon passage au lycée Qu'à cela n'tienne, j'veux juste toucher le salaire de treize toubibs Du coup j'déverse des bêtes de 16 sur des prods d'S2Keyz Hey, l'eau a couléhuh, les larmes ont coulés huh Laisse tout s'estomper ou traine ça comme un boulet J'me revois dans tous les plans en pleine journée Sans aucun problème, vent sur les paupières L'eau a coulé, changer c'est peine perdue 10 de retrouvées donc fuck la peine perdure Tout ça était facile, foots en pleine verdure Le soleil sur les épaules, l'époque des potes et des Pogs J'connaissais pas les putes, j'connaissais que les p'tites Ca grandit, fait des trucs pas nets pour des thunes Ca zone sans études, ca jette son avenir par les fenêtres Trop dur à admettre, mais t'attrappe pas l'passé, dépasse le futur J'aurai ma paire de Weston même au pied du mur Huh J'marque des points comme une suture J'parlerai de tendresse quand j'aurai fait l'plus dur 1</t>
+          <t>Hey yo je sais qu'en 16 mesures j'peux pas te raconter ma vie Mais j'vais un peu me faire plaisir car c'est le nom de ma ville J'ai échappé au fléau de la tise et d'l 'amphétamine Mon père avait les arguments pour m'faire changer d'avis On voulait kicker la rime, vite fait l'ami, pas d'intérims, vivre de la zique, virer ta team, guider la street, plier Paris vite fait, agir Beaucoup d'idées naives mais l'espoir c'est le nerf de la vie One Love à tous les frères qui ont quitté le navire Systématique comme les kahbas et les gardav' Le bruit des matraques et des patates j'ai des flashbacks Emblématique XXXXXXX L'époque du Eastpak, dernier cartable pas de bas d'gammes C'était l'époque de l'insouciance on ignorait tout l'sens Et tout ces Khey tu pouvais les mettre où j'pense J'suis pas tombé dans l'argent facile, t'entends ?! En marge mais jamais dans la tendance, t'entends ? Nostalgique ! Prends nos affaires d'école, on embêtait les profs, on écoutait des classiques Nostalgique On était loin des codes, sur les bancs de l'école, j'en garde des moments magiques Mais j'ai aucun regret je n'ai aucun regret A l'époque, j'trainais en jogging, j'avais des TN Je jouais au Pogs et aux billes je dégommais des BN Mon entourage était composé d'amis partis trop tôt J'les oublie pas comme le sourire de Molami Bokoto J'connaissais pas A.P.C, j'avais mon premier PC J'me contentais d'apprécier les choses simples que t'offrent la vie Mon quartier c'était ma ville si bien qu'au fil des saisons Je m'y aventurais même au delà de mon pâté de maison J'suis passé par le kung-fu, le football puis par le basket C'était en 5ème genre un an avant ma première casquette Bon y'a eu le béret Reebok, et la 5 panel Fila Mais là j'te parle de New Era et de Thérèse d'Avila Ma mère me répètait qu'le Bac est un passage obligé Pourtant la BAC me contrôle malgré mon passage au lycée Qu'à cela n'tienne, j'veux juste toucher le salaire de treize toubibs Du coup j'déverse des bêtes de 16 sur des prods d'S2Keyz Hey, l'eau a couléhuh, les larmes ont coulés huh Laisse tout s'estomper ou traine ça comme un boulet J'me revois dans tous les plans en pleine journée Sans aucun problème, vent sur les paupières L'eau a coulé, changer c'est peine perdue 10 de retrouvées donc fuck la peine perdure Tout ça était facile, foots en pleine verdure Le soleil sur les épaules, l'époque des potes et des Pogs J'connaissais pas les putes, j'connaissais que les p'tites Ca grandit, fait des trucs pas nets pour des thunes Ca zone sans études, ca jette son avenir par les fenêtres Trop dur à admettre, mais t'attrappe pas l'passé, dépasse le futur J'aurai ma paire de Weston même au pied du mur Huh J'marque des points comme une suture J'parlerai de tendresse quand j'aurai fait l'plus dur 1</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4165,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Chill Han Han Yeah Yo Yo Aïe Yo Yo Okay Aïe Aïe Chill Aïe Aïe Chill Yo Mec, t'as d'l'argent mais pas assez pour t'payer ma tête Han-han, haan En mangeant j'suis bluffant, blanche paire de baskets What Dès qu'j'débarque c'est right, left Wow, wow, wow, deux trois s'condes les bras s'lèvent J'suis confus les amis, yo, j'ai pas d'flingue J'aime pas J'ai des tas d'fringues Hey, et des phases de cinglé Des bangers à banger, si t'en tapes cinq Si ta carte bleue crache ds billets verts regard mon compte bancaire, un putain d'arc-en-ciel Woww Cherche pas trop à flotter, quand je suis à côté Écoute les ragots, mec, ils font que radoter mais Hein-hein Demande à Lise, dans la rue je scandalise C'est trop pour tes yeux, c'est pour la valise Pch, pch J'ai la li- j'ai la liste de mes amis Alchemist quand je rappe, c'est l'paradis des amygdales Pch, pch, pch Marty McFly, les couilles de l'an trois-mille An trois-mille Ramène ta femme qu'on fasse ça en famille En famille J'ai plus l'temps, yeah You might also like Yeah, yeah, yeah Bip's c'est un no time Yeah, yeah, yeah Joke c'est un no time Yeah, yeah, yeah À M.T.P. c'est no time Yeah, yeah, yeah Avec mike c'est no time Yeah, yeah, yeah Ici c'est no time Yeah, yeah, yeah Joke c'est un no time, oh, oh Yeah, yeah, yeah Bip's c'est un no time, chill Yeah, yeah, yeah À M.T.P. c'est no time, ola Yeah, yeah, yeah Avec mike c'est no time, jan Yeah, yeah, yeah Ici c'est no time Chill, han C'est du rap Tatin qui date d'entend Ho-ho Bip's, ton flow est comme des chip's, il est à l'ancienne Ho-ho-ho S.S, j'vois la vie en trois deux s max Chill Trop de bulles d'air sous mes pieds, j'marche sans Air Max Bounce M.T.P. a fait de nous des mecs de build cash Cash Tic-tac, money time, grosse 'tasses, grosses liasses de 'illets-bi' Liasses, Les Monsieur sur ton Teddy Shit, flash spécial sur nos vraies vies, real shit Boom Merde, c'est comme ça qu'on kick un banger Right Bienvenue dans nos putains d'vies, push le enter Okay Six-cents euros de l'heure le showcase, baby Real time J'rentre pas dans ton créneau Time, j'suis trop obèse pour ton crédit Han C'est comme ça qu'on fait les choses Han, han, ici Chill Les gars les plus sérieux de France, M.T.P. Bleh Big hess, faut deux gros S.S Bip's c'est plus, bip-moi si t'en ceux plus Alright Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah-yeah-yeah Yeah-yeah-yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah-yeah-yeah Yeah-yeah-yeah</t>
+          <t>Chill Han Han Yeah Yo Yo Aïe Yo Yo Okay Aïe Aïe Chill Aïe Aïe Chill Yo Mec, t'as d'l'argent mais pas assez pour t'payer ma tête Han-han, haan En mangeant j'suis bluffant, blanche paire de baskets What Dès qu'j'débarque c'est right, left Wow, wow, wow, deux trois s'condes les bras s'lèvent J'suis confus les amis, yo, j'ai pas d'flingue J'aime pas J'ai des tas d'fringues Hey, et des phases de cinglé Des bangers à banger, si t'en tapes cinq Si ta carte bleue crache ds billets verts regard mon compte bancaire, un putain d'arc-en-ciel Woww Cherche pas trop à flotter, quand je suis à côté Écoute les ragots, mec, ils font que radoter mais Hein-hein Demande à Lise, dans la rue je scandalise C'est trop pour tes yeux, c'est pour la valise Pch, pch J'ai la li- j'ai la liste de mes amis Alchemist quand je rappe, c'est l'paradis des amygdales Pch, pch, pch Marty McFly, les couilles de l'an trois-mille An trois-mille Ramène ta femme qu'on fasse ça en famille En famille J'ai plus l'temps, yeah Yeah, yeah, yeah Bip's c'est un no time Yeah, yeah, yeah Joke c'est un no time Yeah, yeah, yeah À M.T.P. c'est no time Yeah, yeah, yeah Avec mike c'est no time Yeah, yeah, yeah Ici c'est no time Yeah, yeah, yeah Joke c'est un no time, oh, oh Yeah, yeah, yeah Bip's c'est un no time, chill Yeah, yeah, yeah À M.T.P. c'est no time, ola Yeah, yeah, yeah Avec mike c'est no time, jan Yeah, yeah, yeah Ici c'est no time Chill, han C'est du rap Tatin qui date d'entend Ho-ho Bip's, ton flow est comme des chip's, il est à l'ancienne Ho-ho-ho S.S, j'vois la vie en trois deux s max Chill Trop de bulles d'air sous mes pieds, j'marche sans Air Max Bounce M.T.P. a fait de nous des mecs de build cash Cash Tic-tac, money time, grosse 'tasses, grosses liasses de 'illets-bi' Liasses, Les Monsieur sur ton Teddy Shit, flash spécial sur nos vraies vies, real shit Boom Merde, c'est comme ça qu'on kick un banger Right Bienvenue dans nos putains d'vies, push le enter Okay Six-cents euros de l'heure le showcase, baby Real time J'rentre pas dans ton créneau Time, j'suis trop obèse pour ton crédit Han C'est comme ça qu'on fait les choses Han, han, ici Chill Les gars les plus sérieux de France, M.T.P. Bleh Big hess, faut deux gros S.S Bip's c'est plus, bip-moi si t'en ceux plus Alright Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah-yeah-yeah Yeah-yeah-yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah-yeah-yeah Yeah-yeah-yeah</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4182,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Grosse liasse dans le chino, les ambitions d'François Pinault Tu ressens la force quand j'approche à des kilomètres, -kilomètres J'veux peser comme Nino, nique sa mère d'peser des kilos J'veux des Grammy's, j'veux des Oscars, j'veux des Prix Nobel, Ouais Maintenant tu sais, le p'tit poète S'il aperçoit ma silhouette Ton rappeur préféré va faire des pirouettes Le gun de Tarantino, yeux plissés comme un esquimau Obligé d'tirer sur eux, ils veulent aussi nous 'uer-t' Oh my-oh my-oh my-oh my-, oh my god Oh my-oh my-oh my-oh my-, oh my god Oh my-oh my-oh my-oh my-, oh my god, oh my god Oh my-oh my-oh my-oh my-, oh my god Dis moi c'qui s'passe ici Dis moi c'qui s'passe ici Dis moi c'qui s'passe ici, Quoi ?! Dis moi c'qui s'passe ici Hein You might also like Viens sucer mon hypothaphallus Oui, mignonette J'vais paver mon ch'min d'billets sur des kilomètres Prie pour qu'le sage Ihmotep investisse nos têtes P'tit cocktail, nuit d'hotel, toi t'es tapis moquette Dali et Picasso, mon côté latino Ma 'tasse te fait l'effet d'une 'be-bom' lacrymo Suce l'opinion publique, ouais, suce le caniveau 'Squette-cas' Valentino, p'tite veste en animaux Oui ! Voilà.. Faire lamour me canalise Elle a ouvert ses cuisses, quand j'ai fermé les yeux, j'ai eu une vision du Paradis</t>
+          <t>Grosse liasse dans le chino, les ambitions d'François Pinault Tu ressens la force quand j'approche à des kilomètres, -kilomètres J'veux peser comme Nino, nique sa mère d'peser des kilos J'veux des Grammy's, j'veux des Oscars, j'veux des Prix Nobel, Ouais Maintenant tu sais, le p'tit poète S'il aperçoit ma silhouette Ton rappeur préféré va faire des pirouettes Le gun de Tarantino, yeux plissés comme un esquimau Obligé d'tirer sur eux, ils veulent aussi nous 'uer-t' Oh my-oh my-oh my-oh my-, oh my god Oh my-oh my-oh my-oh my-, oh my god Oh my-oh my-oh my-oh my-, oh my god, oh my god Oh my-oh my-oh my-oh my-, oh my god Dis moi c'qui s'passe ici Dis moi c'qui s'passe ici Dis moi c'qui s'passe ici, Quoi ?! Dis moi c'qui s'passe ici Hein Viens sucer mon hypothaphallus Oui, mignonette J'vais paver mon ch'min d'billets sur des kilomètres Prie pour qu'le sage Ihmotep investisse nos têtes P'tit cocktail, nuit d'hotel, toi t'es tapis moquette Dali et Picasso, mon côté latino Ma 'tasse te fait l'effet d'une 'be-bom' lacrymo Suce l'opinion publique, ouais, suce le caniveau 'Squette-cas' Valentino, p'tite veste en animaux Oui ! Voilà.. Faire lamour me canalise Elle a ouvert ses cuisses, quand j'ai fermé les yeux, j'ai eu une vision du Paradis</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4199,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>je suis le colosse fort, euphémisme Si je te traite de bolosse, porc de ta défaite C'est le prémice Quand je débarque en POLO Sport, follow me Je fais des tubes avec le flow d'Hossegor, go money Je fais des thunes avec des propos gores T'es du fil à coudre, je suis du fil à retordre Je défie la foudre de sa vie à mort Je te file la frousse et te cause du tort, tor- -du Je me suis mi-lièvre mi-tortue, mais pas Willem T'as mauvaise mine, t'es comme une chilienne I'm just killing men when I say I'm just killing, man Je rigole pas, gigote pas, quand je te chicotes, chipote pas 'Tite pote-ca dans la poche, salope tripote, tripote-toi Je suis comme la Libye, j'suis plein de libido Genre j'ai plein de trips au lit, j'ai dit, plein de libido On fait de la crack music pendant que les petits comprennent des tas Tellement d'images dans mes sons que même les sourds comprennent mes phases Fuck you On débarque uhuh, on dé-on débarque uhuh Où sont les, où sont les, où sont les chattes ? uhuh Où sont les billets ? Où sont les putes ? Où sont les billets ? Où sont les putes ? On t'écrase uhuh, on est, on est barge uhuh Poussons les, poussons les, poussons les charts Où sont les rappeurs ? Où sont les thunes ? Où sont les rappeurs ? Où sont les thunes ? You might also like Nous on veut des putes qui savent avaler Deux sons dans la poche, deux dans vallée Les Monsieur dans la place, Les Monsieur dans l'chalet Tu veux tester ? Mh allez, tu prends une ballée Quand j'vais en soirée, c'est pour faire du biff nique les before, money J'apporterais rien si j'paye le prix fort, dans ma tête j'ai d'l'or, hors de prix zinc' J'ai la dalle d'un violeur boulimique qui sort de prison, zinc' Fuck that, Les Monsieur lay back lay Force pas, même ton meilleur 16 a lair bâclé J'taffe comme un chinois, j'exporte comme un chinois Blanchis ça comme un chinois, j'mange des chattes comme un chinois Yo yo j'suis dessuis toute la nuit mon négro J'vais faire un tour sur Twitter, quand jveux branler mon égo Jpasse du coq à lâne comme un zoophile J'veux juste du papier, papier d'couleur chlorophylle On débarque uhuh, on dé-on débarque uhuh Où sont les, où sont les, où sont les chattes ? uhuh Où sont les billets ? Où sont les putes ? Où sont les billets ? Où sont les putes ? On t'écrase uhuh, on est, on est barge uhuh Poussons les, poussons les, poussons les charts Où sont les rappeurs ? Où sont les thunes ? Où sont les rappeurs ? Où sont les thunes ?</t>
+          <t>je suis le colosse fort, euphémisme Si je te traite de bolosse, porc de ta défaite C'est le prémice Quand je débarque en POLO Sport, follow me Je fais des tubes avec le flow d'Hossegor, go money Je fais des thunes avec des propos gores T'es du fil à coudre, je suis du fil à retordre Je défie la foudre de sa vie à mort Je te file la frousse et te cause du tort, tor- -du Je me suis mi-lièvre mi-tortue, mais pas Willem T'as mauvaise mine, t'es comme une chilienne I'm just killing men when I say I'm just killing, man Je rigole pas, gigote pas, quand je te chicotes, chipote pas 'Tite pote-ca dans la poche, salope tripote, tripote-toi Je suis comme la Libye, j'suis plein de libido Genre j'ai plein de trips au lit, j'ai dit, plein de libido On fait de la crack music pendant que les petits comprennent des tas Tellement d'images dans mes sons que même les sourds comprennent mes phases Fuck you On débarque uhuh, on dé-on débarque uhuh Où sont les, où sont les, où sont les chattes ? uhuh Où sont les billets ? Où sont les putes ? Où sont les billets ? Où sont les putes ? On t'écrase uhuh, on est, on est barge uhuh Poussons les, poussons les, poussons les charts Où sont les rappeurs ? Où sont les thunes ? Où sont les rappeurs ? Où sont les thunes ? Nous on veut des putes qui savent avaler Deux sons dans la poche, deux dans vallée Les Monsieur dans la place, Les Monsieur dans l'chalet Tu veux tester ? Mh allez, tu prends une ballée Quand j'vais en soirée, c'est pour faire du biff nique les before, money J'apporterais rien si j'paye le prix fort, dans ma tête j'ai d'l'or, hors de prix zinc' J'ai la dalle d'un violeur boulimique qui sort de prison, zinc' Fuck that, Les Monsieur lay back lay Force pas, même ton meilleur 16 a lair bâclé J'taffe comme un chinois, j'exporte comme un chinois Blanchis ça comme un chinois, j'mange des chattes comme un chinois Yo yo j'suis dessuis toute la nuit mon négro J'vais faire un tour sur Twitter, quand jveux branler mon égo Jpasse du coq à lâne comme un zoophile J'veux juste du papier, papier d'couleur chlorophylle On débarque uhuh, on dé-on débarque uhuh Où sont les, où sont les, où sont les chattes ? uhuh Où sont les billets ? Où sont les putes ? Où sont les billets ? Où sont les putes ? On t'écrase uhuh, on est, on est barge uhuh Poussons les, poussons les, poussons les charts Où sont les rappeurs ? Où sont les thunes ? Où sont les rappeurs ? Où sont les thunes ?</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4216,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>On my mind, on my mind J'suis dans ma vibe, dans ma vibe APHER, gang On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time Quand on sort, on fait des conneries Rentre dans l'appart et on tise Rentre dans l'appart, elle compte le biff Rentre dans la trap, c'est pas joli Elle me dit que j'suis un vrai O.G , tu inspires J'pose le joint et j'expire Quand j'suis fume trop, j'pars dans un trip Dans le club, dans le club Et je bois mon cup, elle me taxe une clope Dans le club, dans le club Et je bois mon cup, et je brise le cur Irréprochable, je parle pas, on est pas pareils nan nan je parle pas on est pas partenaire, je parle pas, on est pas partenaire Soirée dynamique, elle m'voit tous les week Y'a pas d'amis-amis, si j'vais à Miami You might also like On my mind, on my mind J'suis dans ma vibe, et j'suis dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time Bitch démarre le jet-ski, faut qu'j'achète une presqu'île Bitch démarre le jet-ski, faut qu'j'achète une presqu'île Bitch démarre le jet-ski, faut qu'j'achète une presqu'île Je vais prendre ta nouvelle 'tasse, tu reprends mes anciennes gimmicks Bitch démarre le jet-ski, faut qu'j'achète une presqu'île J'vais prendre ta nouvelle 'tasse, tu prends mes anciennes gimmicks Négro vient de l'espace, étoile sur la scène, oui bitch Elle veut que j'la ken, oui bitch, j'cours avec ta chienne, oui bitch Problème y'a le semi', 'tasse lui donne la demi J'débarque en K 2000, vas rouler ma heub vite Vas rouler ma heub vite, je démarre le jet-ski Sa pussy est exquise, j'vais la fly au Mexique Solo d'jet, solo d'jet-ski Solo d'jet, solo d'jet-ski On vise le jet, on prends pas les chèques Et ces bitches twerkent, maintenant c'est la guerre On part en after, on regarde plus l'heure On regarde plus l'heure ouais, tout paie dans les verres Tout paie dans les verres, la dope qui passe dans les veines Pas d'Despe' dans mon verre, Jack Daniel's celui au miel, yeah Elle passe, elle s'déshabille, elle a des seins mais c'est du plastique On my mind, on my mind J'suis dans ma vibe, et j'suis dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time1</t>
+          <t>On my mind, on my mind J'suis dans ma vibe, dans ma vibe APHER, gang On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time Quand on sort, on fait des conneries Rentre dans l'appart et on tise Rentre dans l'appart, elle compte le biff Rentre dans la trap, c'est pas joli Elle me dit que j'suis un vrai O.G , tu inspires J'pose le joint et j'expire Quand j'suis fume trop, j'pars dans un trip Dans le club, dans le club Et je bois mon cup, elle me taxe une clope Dans le club, dans le club Et je bois mon cup, et je brise le cur Irréprochable, je parle pas, on est pas pareils nan nan je parle pas on est pas partenaire, je parle pas, on est pas partenaire Soirée dynamique, elle m'voit tous les week Y'a pas d'amis-amis, si j'vais à Miami On my mind, on my mind J'suis dans ma vibe, et j'suis dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time Bitch démarre le jet-ski, faut qu'j'achète une presqu'île Bitch démarre le jet-ski, faut qu'j'achète une presqu'île Bitch démarre le jet-ski, faut qu'j'achète une presqu'île Je vais prendre ta nouvelle 'tasse, tu reprends mes anciennes gimmicks Bitch démarre le jet-ski, faut qu'j'achète une presqu'île J'vais prendre ta nouvelle 'tasse, tu prends mes anciennes gimmicks Négro vient de l'espace, étoile sur la scène, oui bitch Elle veut que j'la ken, oui bitch, j'cours avec ta chienne, oui bitch Problème y'a le semi', 'tasse lui donne la demi J'débarque en K 2000, vas rouler ma heub vite Vas rouler ma heub vite, je démarre le jet-ski Sa pussy est exquise, j'vais la fly au Mexique Solo d'jet, solo d'jet-ski Solo d'jet, solo d'jet-ski On vise le jet, on prends pas les chèques Et ces bitches twerkent, maintenant c'est la guerre On part en after, on regarde plus l'heure On regarde plus l'heure ouais, tout paie dans les verres Tout paie dans les verres, la dope qui passe dans les veines Pas d'Despe' dans mon verre, Jack Daniel's celui au miel, yeah Elle passe, elle s'déshabille, elle a des seins mais c'est du plastique On my mind, on my mind J'suis dans ma vibe, et j'suis dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time1</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4233,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>- J'vais louper mon train, putain d'merde. Et j'aime encore moins les outros, donc ça va être l'outro ça. Putain d'merdeYou might also like</t>
+          <t>- J'vais louper mon train, putain d'merde. Et j'aime encore moins les outros, donc ça va être l'outro ça. Putain d'merde</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4250,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Yo M.T.P, négro Hein-hein, hein-hein 3-3-4, négro Yeah Hein-hein, hein-hein Les Monsieur, négro Hein-hein, hein-hein Wassup Hein-hein, hein-hein Hey Quoi, le 24, ça ? Bouge ou j'te vois, négro Le 24, t'es sûr ? Merde Hey Yo Oh, merde, le 24, oh shit Hey, hey Yo Ayo, j'suis dans les dièses, 31 dièse, appelle J'suis dans les bzezs de ta meuf, et j'la détruis Ahh Dans le carré, calé avec Père Latex Pas trop d'cunni' mais certaines meufs me prennent la tête Ah-ah J'suis dans l'progrès, trop, trop frais Donc à prendre au premier degré, là j'te parle de degré celsius Un secret si j'tourne autour d'ta meuf, l'embrasse plus, tu risques d'avoir des regrets si elle suce Ah-ah-ah J'me balade en t-shirt Yves Saint Laurent Yves Saint Laurent Casquette sur les yeux au restaurant Heyy Mon son te transporte, comme Jason Statham Tu veux rouler avec moi, tu vas t'prendre un platane Quand tu m'portes l'oeil, j'fais du pognon Pognon, comme un putain d'ophtalmo' Heyy J'veux du biff , j'veux du cheese Eh, j'veux du bread Eh, pas bosser au McDo, négro You might also like Hein-hein, hein-hein .</t>
+          <t>Yo M.T.P, négro Hein-hein, hein-hein 3-3-4, négro Yeah Hein-hein, hein-hein Les Monsieur, négro Hein-hein, hein-hein Wassup Hein-hein, hein-hein Hey Quoi, le 24, ça ? Bouge ou j'te vois, négro Le 24, t'es sûr ? Merde Hey Yo Oh, merde, le 24, oh shit Hey, hey Yo Ayo, j'suis dans les dièses, 31 dièse, appelle J'suis dans les bzezs de ta meuf, et j'la détruis Ahh Dans le carré, calé avec Père Latex Pas trop d'cunni' mais certaines meufs me prennent la tête Ah-ah J'suis dans l'progrès, trop, trop frais Donc à prendre au premier degré, là j'te parle de degré celsius Un secret si j'tourne autour d'ta meuf, l'embrasse plus, tu risques d'avoir des regrets si elle suce Ah-ah-ah J'me balade en t-shirt Yves Saint Laurent Yves Saint Laurent Casquette sur les yeux au restaurant Heyy Mon son te transporte, comme Jason Statham Tu veux rouler avec moi, tu vas t'prendre un platane Quand tu m'portes l'oeil, j'fais du pognon Pognon, comme un putain d'ophtalmo' Heyy J'veux du biff , j'veux du cheese Eh, j'veux du bread Eh, pas bosser au McDo, négro Hein-hein, hein-hein .</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4267,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Yeah Ok , si, si, han Yeah Yeah, yeah, yeah J'te jure j'l'attends, Han, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie, j'veux des sous pour mes rêves Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah Puisque, yo, j'suis ici pour faire mes preuves Père Noël, j'fous la pression comme un Vodka-Redbull Ouh Quand tu sors, prend Rihanna, car les versets pleuvent J'fais des rêves sales, me lève pour prendre des bains d'foule Quand tu fais ta tournée ramène une tournée, tournée J'suis resté sur les rails, me passe pas sous l'nez, sous l'nez À tous les coups, j'écourterais ta carrière, mec, j'te coulerais Amène-moi un gros cadeau, j'ai eu vingt à tous les cours Je sais que t'es tendu, mais presse-toi, j'veux mon liquide J'veux le beurre, et la crémière, les fesses pleines de lipides Oh Négro, j'les entends rapper, j'te jure, ça m'horripile J'attends la Rolex sur l'poignet, donc dites-moi quelle heure est-il ? You might also like J'te jure j'l'attends, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie Oh j'veux des sous pour mes rêves Oh Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah J'suis ici pour faire mes preuves Négro, si il fait si froid c'est un peu à cause de moi J'veux des gros souliers dans mes p'tits souliers Quoi, quoi, quoi, quoi ? T'as intérêt de marcher du pied gauche dans du ca-ca-caca Carnivore négro, on m'carotte pas, je n'poireaute pas Ah J'veux plus le temps d''mi-dor', aéroport on part autre part Pardon j'aime les verres de bourbon À long terme les meufs deviennent mielleuses C'est mon buzz de bourdon à l'antenne Je n'suis pas un des leurs, j'suis l'meilleur, mon flow fait sauter les ponts Dieu m'a fait des dons, il s'est lâché comme si c'était l'Téléthon Donc les mains dans les poches, tombent les billets Sur mes billets j'dépose deux billets, j'nique l'argent sale, boy, je l'ai niqué sur l'évier Hein J'ai distillé la pomme d'Adam pour faire parler Ève Ève La p'tite souris se casse les dents pour faire croire qu'mes rêves Putain d'merde, j'suis doué, doué, d'où les groupies Ok, j'veux qu'des dollars, mais fais tourner tous les roupies J'te jure j'l'attends, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie Oh, j'veux des sous pour mes rêves Oh Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah J'te jure j'l'attends, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie Oh, j'veux des sous pour mes rêves Oh Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah</t>
+          <t>Yeah Ok , si, si, han Yeah Yeah, yeah, yeah J'te jure j'l'attends, Han, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie, j'veux des sous pour mes rêves Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah Puisque, yo, j'suis ici pour faire mes preuves Père Noël, j'fous la pression comme un Vodka-Redbull Ouh Quand tu sors, prend Rihanna, car les versets pleuvent J'fais des rêves sales, me lève pour prendre des bains d'foule Quand tu fais ta tournée ramène une tournée, tournée J'suis resté sur les rails, me passe pas sous l'nez, sous l'nez À tous les coups, j'écourterais ta carrière, mec, j'te coulerais Amène-moi un gros cadeau, j'ai eu vingt à tous les cours Je sais que t'es tendu, mais presse-toi, j'veux mon liquide J'veux le beurre, et la crémière, les fesses pleines de lipides Oh Négro, j'les entends rapper, j'te jure, ça m'horripile J'attends la Rolex sur l'poignet, donc dites-moi quelle heure est-il ? J'te jure j'l'attends, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie Oh j'veux des sous pour mes rêves Oh Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah J'suis ici pour faire mes preuves Négro, si il fait si froid c'est un peu à cause de moi J'veux des gros souliers dans mes p'tits souliers Quoi, quoi, quoi, quoi ? T'as intérêt de marcher du pied gauche dans du ca-ca-caca Carnivore négro, on m'carotte pas, je n'poireaute pas Ah J'veux plus le temps d''mi-dor', aéroport on part autre part Pardon j'aime les verres de bourbon À long terme les meufs deviennent mielleuses C'est mon buzz de bourdon à l'antenne Je n'suis pas un des leurs, j'suis l'meilleur, mon flow fait sauter les ponts Dieu m'a fait des dons, il s'est lâché comme si c'était l'Téléthon Donc les mains dans les poches, tombent les billets Sur mes billets j'dépose deux billets, j'nique l'argent sale, boy, je l'ai niqué sur l'évier Hein J'ai distillé la pomme d'Adam pour faire parler Ève Ève La p'tite souris se casse les dents pour faire croire qu'mes rêves Putain d'merde, j'suis doué, doué, d'où les groupies Ok, j'veux qu'des dollars, mais fais tourner tous les roupies J'te jure j'l'attends, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie Oh, j'veux des sous pour mes rêves Oh Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah J'te jure j'l'attends, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie Oh, j'veux des sous pour mes rêves Oh Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4284,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Hein-hein Avant qu'une balle vienne chatouiller mes neuronnes Hey, j'veux qu'mes négros aient tous savourés des euros Hey Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes Hey, j'veux qu'tu lèves le point pour saluer mes négros Hey Paris j'arrive J'y pense, comme un traumatisme, du biff propre, comme un sweat blanc Fait au black comme un micmac, le karma d'un ticket d'loto perdant Trempe dans cette merde, badigeonne la 'garette-ci' dedans par devant, le biff plane par le sang Abracadabra, ma rime sexy va t'casser les bras Mon public va passer deux mois dans l'platre, aux arrivants Aux arrivants Un air frais dans ta phase, comme si tu surfais Tu surfais Et pour l'amour d'une rime j'aimerais qu'on la paie Cash Les fesses des ladies font bling-bling, s'applatissent et lèvitent J'explique à Alice quel cataclysme je souhaite pour mon pénis Dans la langue du chaos, frais comme une salade de fruit J'explose, comme un enfant pieds nus sur une mine Oh J'crache ma merde en joyaux, le cul plein de foie gras De foie gras Pisse ma gnôle en fluo, la pisse plein de viagra De viagra Négro, réchauffe-toi, tords-toi, ou -nous Le ciel est dogme, c'est catastrophe dans une ville de porcinets You might also like Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savourés des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes, j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey, pour faire un million, négro J'mange mon steak saignant, en m'plaignant qu'les salopes sont des feignantes Un coureur endurant comme un , quatre-vingt-dix-neuf inconvénients Plaque mes phrases, comme des Porsches devant ton ventre ton plat ventre Ton plat ventre T'en touches plus tes frites, t'en as gros sur la patate et t'as mal au ventre Vendre son âme au diable, l'argent ne vaut pas l'aventure Crachat pour les nazes, un sourire pour le futur Mes compagnons de pourriture, des hipsters de toutes races Hipsters Triste jusqu'à l'aube parce que le juice ne les travers'ra plus Juiice J'remercie la foudre, noir comme l'espace Fais tomber la foudre J'ai les rimes en poudre, tu auras l'espace Tu auras du crack Saigne de la bouche, Tu saigneras des 'tess Tu ronfles dans la boucle Paw, tu fais un cauch'mar Réveille-oi-t' Tu fixes le sol, comme si tu cherches des billets jaunes Des billets jaunes Nous étions si jeunes et soudés, mais la faute aux billets jaunes Billets jaunes La co-co' et la zone s'aiment fort, comme John et Yoko Les sensations comme New-York, han, han, la nuit en hélico Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savouré des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey Han, han, pour faire un million Han, négro J'sors d'ma bédave, j'ai les deux pieds par terre Ouais Si j'plane, c'est comme un charter Ok Je n'vise pas les charts mais je touche quand-même quelques 're-sta' Han-han Quelque part on tourne en boucle, mais je rattrape le retard Oh Soldat toujours au garde à vous, comme un queutard Faut aider mon frère, même sans aucune parenté Hey Si t'as l'oreille comme un vulcain qui n'entend aucune vulgarité Hey, hey Han-han Hein, donc plus qu'une qualité Hey Ouais 'Ou-f' ou calife Hey, comment ne peux-tu me qualifier Comment Hey Le respect se tue, l'amitié pue la pisse après punchline, yeah Pour moi c'est juste terrible Han, han Tout pour le terrain Han, han Comme la 'tess Han, han Le juge des lignes Ouais, ouais Quand j'passe les types me guettent, même si j'ai quitté le tiekson Tiek Quesqu'il t'arrive, sont mes textes Han Hey question Vrai Hey Les 'me-ar' de Hey, à t'en faire péter le caisson Ouh Hey On dirait qu'on rappe Hey, mais t'as pas d'T.K Abricot tu kiffes Hey, comme Hey Car j'ai la rage du king Hey, han-han, comme un karateka Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savourés des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey, pour faire un million, négro Pour faire un million, négro</t>
+          <t>Hein-hein Avant qu'une balle vienne chatouiller mes neuronnes Hey, j'veux qu'mes négros aient tous savourés des euros Hey Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes Hey, j'veux qu'tu lèves le point pour saluer mes négros Hey Paris j'arrive J'y pense, comme un traumatisme, du biff propre, comme un sweat blanc Fait au black comme un micmac, le karma d'un ticket d'loto perdant Trempe dans cette merde, badigeonne la 'garette-ci' dedans par devant, le biff plane par le sang Abracadabra, ma rime sexy va t'casser les bras Mon public va passer deux mois dans l'platre, aux arrivants Aux arrivants Un air frais dans ta phase, comme si tu surfais Tu surfais Et pour l'amour d'une rime j'aimerais qu'on la paie Cash Les fesses des ladies font bling-bling, s'applatissent et lèvitent J'explique à Alice quel cataclysme je souhaite pour mon pénis Dans la langue du chaos, frais comme une salade de fruit J'explose, comme un enfant pieds nus sur une mine Oh J'crache ma merde en joyaux, le cul plein de foie gras De foie gras Pisse ma gnôle en fluo, la pisse plein de viagra De viagra Négro, réchauffe-toi, tords-toi, ou -nous Le ciel est dogme, c'est catastrophe dans une ville de porcinets Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savourés des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes, j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey, pour faire un million, négro J'mange mon steak saignant, en m'plaignant qu'les salopes sont des feignantes Un coureur endurant comme un , quatre-vingt-dix-neuf inconvénients Plaque mes phrases, comme des Porsches devant ton ventre ton plat ventre Ton plat ventre T'en touches plus tes frites, t'en as gros sur la patate et t'as mal au ventre Vendre son âme au diable, l'argent ne vaut pas l'aventure Crachat pour les nazes, un sourire pour le futur Mes compagnons de pourriture, des hipsters de toutes races Hipsters Triste jusqu'à l'aube parce que le juice ne les travers'ra plus Juiice J'remercie la foudre, noir comme l'espace Fais tomber la foudre J'ai les rimes en poudre, tu auras l'espace Tu auras du crack Saigne de la bouche, Tu saigneras des 'tess Tu ronfles dans la boucle Paw, tu fais un cauch'mar Réveille-oi-t' Tu fixes le sol, comme si tu cherches des billets jaunes Des billets jaunes Nous étions si jeunes et soudés, mais la faute aux billets jaunes Billets jaunes La co-co' et la zone s'aiment fort, comme John et Yoko Les sensations comme New-York, han, han, la nuit en hélico Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savouré des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey Han, han, pour faire un million Han, négro J'sors d'ma bédave, j'ai les deux pieds par terre Ouais Si j'plane, c'est comme un charter Ok Je n'vise pas les charts mais je touche quand-même quelques 're-sta' Han-han Quelque part on tourne en boucle, mais je rattrape le retard Oh Soldat toujours au garde à vous, comme un queutard Faut aider mon frère, même sans aucune parenté Hey Si t'as l'oreille comme un vulcain qui n'entend aucune vulgarité Hey, hey Han-han Hein, donc plus qu'une qualité Hey Ouais 'Ou-f' ou calife Hey, comment ne peux-tu me qualifier Comment Hey Le respect se tue, l'amitié pue la pisse après punchline, yeah Pour moi c'est juste terrible Han, han Tout pour le terrain Han, han Comme la 'tess Han, han Le juge des lignes Ouais, ouais Quand j'passe les types me guettent, même si j'ai quitté le tiekson Tiek Quesqu'il t'arrive, sont mes textes Han Hey question Vrai Hey Les 'me-ar' de Hey, à t'en faire péter le caisson Ouh Hey On dirait qu'on rappe Hey, mais t'as pas d'T.K Abricot tu kiffes Hey, comme Hey Car j'ai la rage du king Hey, han-han, comme un karateka Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savourés des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey, pour faire un million, négro Pour faire un million, négro</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4301,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Ba-Ba-Ba-Back Je n'ai plus peur de toi, j'ai retrouvé cette confiance qui fais ma forme Qui fais ma forme, qui fais ma forme Hein-hein Avant qu'une balle vienne chatouiller mes neuronnes Hey, j'veux qu'mes négros aient tous savourés des euros Hey Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes Hey, j'veux qu'tu lèves le point pour saluer mes négros Hey Paris j'arrive J'y pense, comme un traumatisme, du biff propre, comme un sweat blanc Fait au black comme un micmac, le karma d'un ticket d'loto perdant Trempe dans cette merde, badigeonne la 'garette-ci' dedans par devant, le biff plane par le sang Abracadabra, ma rime sexy va t'casser les bras Mon public va passer deux mois dans l'platre, aux arrivants Aux arrivants Un air frais dans ta phase, comme si tu surfais Tu surfais Et pour l'amour d'une rime j'aimerais qu'on la paie Cash Les fesses des ladies font bling-bling, s'applatissent et lèvitent J'explique à Alice quel cataclysme je souhaite pour mon pénis Dans la langue du chaos, frais comme une salade de fruit J'explose, comme un enfant pieds nus sur une mine Oh J'crache ma merde en joyaux, le cul plein de foie gras De foie gras Pisse ma gnôle en fluo, la pisse plein de viagra De viagra Négro, réchauffe-toi, tords-toi, ou -nous Le ciel est dogme, c'est catastrophe dans une ville de porcinets You might also like Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savourés des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes, j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey, pour faire un million, négro</t>
+          <t>Ba-Ba-Ba-Back Je n'ai plus peur de toi, j'ai retrouvé cette confiance qui fais ma forme Qui fais ma forme, qui fais ma forme Hein-hein Avant qu'une balle vienne chatouiller mes neuronnes Hey, j'veux qu'mes négros aient tous savourés des euros Hey Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes Hey, j'veux qu'tu lèves le point pour saluer mes négros Hey Paris j'arrive J'y pense, comme un traumatisme, du biff propre, comme un sweat blanc Fait au black comme un micmac, le karma d'un ticket d'loto perdant Trempe dans cette merde, badigeonne la 'garette-ci' dedans par devant, le biff plane par le sang Abracadabra, ma rime sexy va t'casser les bras Mon public va passer deux mois dans l'platre, aux arrivants Aux arrivants Un air frais dans ta phase, comme si tu surfais Tu surfais Et pour l'amour d'une rime j'aimerais qu'on la paie Cash Les fesses des ladies font bling-bling, s'applatissent et lèvitent J'explique à Alice quel cataclysme je souhaite pour mon pénis Dans la langue du chaos, frais comme une salade de fruit J'explose, comme un enfant pieds nus sur une mine Oh J'crache ma merde en joyaux, le cul plein de foie gras De foie gras Pisse ma gnôle en fluo, la pisse plein de viagra De viagra Négro, réchauffe-toi, tords-toi, ou -nous Le ciel est dogme, c'est catastrophe dans une ville de porcinets Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savourés des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes, j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey, pour faire un million, négro</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4318,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>J'suis synchronisé my nigga Oh my god Infinigga Ouh, shit Turn it up Gang, gang, fucked up Gang, gang, fucked up Gang, gang, fucked up Gang, gang Cognac dans la cup, cognac dans la cup 'Be-her' dans la clope, 'be-her' dans la clope J'roule J'suis fucked up, j'suis full J'roule J'suis fucked up Incroyable Ralph Lau'-Lau', t-shirt Teddy Bear, j'aurais dû naître au siècle des Lumières Printemps, automne, été et hiver, j'vais t'cracher dedans, appeler Uber Fuck les négros dans ton périmètre, mojo fait fissures sur tes lunettes J'touche plus de 'tte-ch' qu'un vétérinaire, numéro 1, personne délibère J'bais une fan, p't-être qu'c'est ta fmme J'baise une fan, p't-être qu'c'est ta femme Waw Gang, gang, gang Gang, gang, gang, gang, Waw Gang, gang, gang Gang, gang, gang, gang Incroyable Gang, fucked up Gang, gang Incroyable, fucked up Gang, gang Fucked up, fucked up Gang, gang Je reviens agile comme Bebeto, j'te fais sucer, j'te fais pas 'quer-cro' Fait guilis, faciale, j'refais ta déco, j'vais tirer un peu, j'vais pas parler trop J'me fais 'cer-us' dans le Cérébro, ils m'ont pompé parce qu'ils m'aimaient trop Ta meuf s'fait tartiner par tes négros, DeLorean, j'mate pas les rétros J'baise une fan, j'crois qu'c'est ta femme Waw J'baise une fan, j'crois qu'c'est ta femme Waw Gang, gang, gang Gang, gang, gang, gang Gang, gang, gang Gang, gang, gang, gang Gang, fucked up Gang, gang, fucked up Gang, gang, fucked up Gang, gang Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouhYou might also like</t>
+          <t>J'suis synchronisé my nigga Oh my god Infinigga Ouh, shit Turn it up Gang, gang, fucked up Gang, gang, fucked up Gang, gang, fucked up Gang, gang Cognac dans la cup, cognac dans la cup 'Be-her' dans la clope, 'be-her' dans la clope J'roule J'suis fucked up, j'suis full J'roule J'suis fucked up Incroyable Ralph Lau'-Lau', t-shirt Teddy Bear, j'aurais dû naître au siècle des Lumières Printemps, automne, été et hiver, j'vais t'cracher dedans, appeler Uber Fuck les négros dans ton périmètre, mojo fait fissures sur tes lunettes J'touche plus de 'tte-ch' qu'un vétérinaire, numéro 1, personne délibère J'bais une fan, p't-être qu'c'est ta fmme J'baise une fan, p't-être qu'c'est ta femme Waw Gang, gang, gang Gang, gang, gang, gang, Waw Gang, gang, gang Gang, gang, gang, gang Incroyable Gang, fucked up Gang, gang Incroyable, fucked up Gang, gang Fucked up, fucked up Gang, gang Je reviens agile comme Bebeto, j'te fais sucer, j'te fais pas 'quer-cro' Fait guilis, faciale, j'refais ta déco, j'vais tirer un peu, j'vais pas parler trop J'me fais 'cer-us' dans le Cérébro, ils m'ont pompé parce qu'ils m'aimaient trop Ta meuf s'fait tartiner par tes négros, DeLorean, j'mate pas les rétros J'baise une fan, j'crois qu'c'est ta femme Waw J'baise une fan, j'crois qu'c'est ta femme Waw Gang, gang, gang Gang, gang, gang, gang Gang, gang, gang Gang, gang, gang, gang Gang, fucked up Gang, gang, fucked up Gang, gang, fucked up Gang, gang Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4335,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Hold up Right Toi même tu sais comment on est là Toi même tu sais comment on est là broooo' Toi même tu sais que bref on est là Tout les deux on va finir comme hier Éclaté sur le matelas des gens J'ai pris des somnifères, de la codéine J'sens pas mes jambes, tous les jours donc été comme hiver Entouré d'belles pétasses alléchantes Sert des verres pleins d'absinthe, comme Prévert Ramène la boisson qu'on préfère P'tite fait pas ta sainte ni-touche Tu nous connais on cherche pas juste une tainp' qui couche Mais pour la soirée on pourrait monter là haut You might also like1</t>
+          <t>Hold up Right Toi même tu sais comment on est là Toi même tu sais comment on est là broooo' Toi même tu sais que bref on est là Tout les deux on va finir comme hier Éclaté sur le matelas des gens J'ai pris des somnifères, de la codéine J'sens pas mes jambes, tous les jours donc été comme hiver Entouré d'belles pétasses alléchantes Sert des verres pleins d'absinthe, comme Prévert Ramène la boisson qu'on préfère P'tite fait pas ta sainte ni-touche Tu nous connais on cherche pas juste une tainp' qui couche Mais pour la soirée on pourrait monter là haut 1</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4352,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Dans ma suite y a plein d'bitchs, anh Anh dans ma switch y a plein d'bitchs, anh Anh le tourbus c'est un bang bus, bitch Anh, j'souffle un cumulonimbus, anh Anh, on parle le même langage, anh, anh, anh Ta team a b'soin d'bandages, hein J'prend toujours l'avantage, oui, bitch Ton swag est lamentable, for real Faut le 1k les 100k et faut l'milli', that's right J'ball comme Kobe et Shaquille O'Neil, bang Tu sais qu'j'ai les plus belles chiennes dans mon mobile, oh-oh J'sors ma queue elle ouvre la bouche comme un crocodile daamn Y a aucun négro comme moi Y a aucun négro comme moi, hein-hein, heein Oseille fixée dans l'crâne Oseille, hey, hey, hey Seille-o' fixéé dans l'crâne, négro Faut des bonnes, faut des putes, et faut des nonnes, oui, bitch Si elles ont pas d'habit'ch j'l'attrape comme un pokémon, oui, bitch Négro, j'rappe pas moi j'pense à haute voix, hey Le rap, j'les ken comme la 'tasse de l'autre fois, hey Le rap, j'l'ai ken comme la 'tasse de la veille, heyy Tu sais, qu'je crache dans son appareil Portefeuille Gucci avec une abeille, he-heyy Fuck ces négros, négro, j'aime que ma paye ma paye, ma paye You might also like Ha, négro, j'aime que ma paye Ha, ma paye, ma paye Ha, négro, j'aime que ma paye Ha Dans ma suite y a plein de bitchs, anh Dans ma switch y a plein d'bitchs, anh Le tourbus c'est un bang, bitch Anh, j'souffle un cumulonimbus, anh Anh Pharaon Fuck all these niggas in there Yeah, La vie en Violet, my nigga Go, go, go, go, go Regarde les billets s'envoler, my nigga Prrrr, prrrr, prrrr, prrrrrrrrrrrrr</t>
+          <t>Dans ma suite y a plein d'bitchs, anh Anh dans ma switch y a plein d'bitchs, anh Anh le tourbus c'est un bang bus, bitch Anh, j'souffle un cumulonimbus, anh Anh, on parle le même langage, anh, anh, anh Ta team a b'soin d'bandages, hein J'prend toujours l'avantage, oui, bitch Ton swag est lamentable, for real Faut le 1k les 100k et faut l'milli', that's right J'ball comme Kobe et Shaquille O'Neil, bang Tu sais qu'j'ai les plus belles chiennes dans mon mobile, oh-oh J'sors ma queue elle ouvre la bouche comme un crocodile daamn Y a aucun négro comme moi Y a aucun négro comme moi, hein-hein, heein Oseille fixée dans l'crâne Oseille, hey, hey, hey Seille-o' fixéé dans l'crâne, négro Faut des bonnes, faut des putes, et faut des nonnes, oui, bitch Si elles ont pas d'habit'ch j'l'attrape comme un pokémon, oui, bitch Négro, j'rappe pas moi j'pense à haute voix, hey Le rap, j'les ken comme la 'tasse de l'autre fois, hey Le rap, j'l'ai ken comme la 'tasse de la veille, heyy Tu sais, qu'je crache dans son appareil Portefeuille Gucci avec une abeille, he-heyy Fuck ces négros, négro, j'aime que ma paye ma paye, ma paye Ha, négro, j'aime que ma paye Ha, ma paye, ma paye Ha, négro, j'aime que ma paye Ha Dans ma suite y a plein de bitchs, anh Dans ma switch y a plein d'bitchs, anh Le tourbus c'est un bang, bitch Anh, j'souffle un cumulonimbus, anh Anh Pharaon Fuck all these niggas in there Yeah, La vie en Violet, my nigga Go, go, go, go, go Regarde les billets s'envoler, my nigga Prrrr, prrrr, prrrr, prrrrrrrrrrrrr</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4369,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>J'rentre un chèque, j'sors d'l'asile, What up ? nigga, j'sors ma weed Fuck la bise, j'sors ma dick, What up ? nigga, j'sors d'l'Afrique, Oui, oui, oui J'sors d'mon corps, j'sors d'la ville, fuck un nigga, fuck un nigga J'sors une liasse, on dirait qu'j'sors la Bible, j'la transforme en matière volatile That's all I gotta do, les diamants virevoltent dans le cou J'laisse les bâtards dans le flou, j'laisse les bâtards dans le flou J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk Oui J'fume Purple Haze, j'fais un Moonwalk, Oui, j'fume Purple Haze, j'fais un Moonwalk, Hm, hm J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Purple, wow, j'fume Purple Haze Clap et clap dans ta chatte, j'rentre et le film est dans la boîte Négro, l'flow irremplaçable, j'nique deux trois copines en cascade P'tite je pense avec ma bite, mets-toi où j'pense, là où j'pense Nique sa mère la souffrance, y a d'la drogue à outrance You might also like Train d'vie financé par les 'gue-sh' Wo-o-ow, j'l'ai attrapée par les 'veux-che' Toi qui roule ma OG Kush, t'inquiètes roule ma OG Kush J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Haze, j'fais un Moonwalk, j'fume Purple Haze, j'fais un Moonwalk J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Haze Purple, j'fume Purple Haze Purple J'suis synchronisé, my nigga Sautons dans l'vide, sautons dans l'vide Juste toi et moi, sautons dans l'vide Yeah Juste toi et moi Sautons dans l'vide, juste toi et moi Sautons dans l'vide, juste toi et moi Oui ma babe Pa-pa-pa, oui ma babe Pa-pa-pa Oui my baby, oui ma babe Oui, bitch Oui ma babe, oui ma babe Oui, bitch Oui my baby, oui ma babe Pochon dans l'VIP Yah, plus frais qu'dans le clip Saute sur ma bite, saute sur ma bite Alright babe, saute sur ma bite Alright babe, alright babe Sautons dans l'vide Dans l'équipe avec mes gunners Sautons dans l'vide J'ai d'la 'ppe-fra' dans la Truck Ta pussy j'lui dis des secrets, j'mets ta pussy sur ma 'te-tê', j'mets ta pussy dans un Uber On fait joujou dans l'ascenseur Les coups dans ta chatte remontent à ton cur Les coups dans ta chatte remontent à ton cur Sautons dans l'vide, sautons dans l'vide Juste toi et moi, sautons dans l'vide Sautons dans l'vide, juste toi et moi Sautons dans l'vide, juste toi et moi Oui ma babe, oui ma babe Oui ma baby, oui ma babe Oui ma babe, oui ma babe Oui ma baby, oui ma babe Pochon dans l'VIP, j'ai du bon shit Saute sur ma bite, saute sur ma bite Alright babe, alright babe Alright babe, alright babe</t>
+          <t>J'rentre un chèque, j'sors d'l'asile, What up ? nigga, j'sors ma weed Fuck la bise, j'sors ma dick, What up ? nigga, j'sors d'l'Afrique, Oui, oui, oui J'sors d'mon corps, j'sors d'la ville, fuck un nigga, fuck un nigga J'sors une liasse, on dirait qu'j'sors la Bible, j'la transforme en matière volatile That's all I gotta do, les diamants virevoltent dans le cou J'laisse les bâtards dans le flou, j'laisse les bâtards dans le flou J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk Oui J'fume Purple Haze, j'fais un Moonwalk, Oui, j'fume Purple Haze, j'fais un Moonwalk, Hm, hm J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Purple, wow, j'fume Purple Haze Clap et clap dans ta chatte, j'rentre et le film est dans la boîte Négro, l'flow irremplaçable, j'nique deux trois copines en cascade P'tite je pense avec ma bite, mets-toi où j'pense, là où j'pense Nique sa mère la souffrance, y a d'la drogue à outrance Train d'vie financé par les 'gue-sh' Wo-o-ow, j'l'ai attrapée par les 'veux-che' Toi qui roule ma OG Kush, t'inquiètes roule ma OG Kush J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Haze, j'fais un Moonwalk, j'fume Purple Haze, j'fais un Moonwalk J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Haze Purple, j'fume Purple Haze Purple J'suis synchronisé, my nigga Sautons dans l'vide, sautons dans l'vide Juste toi et moi, sautons dans l'vide Yeah Juste toi et moi Sautons dans l'vide, juste toi et moi Sautons dans l'vide, juste toi et moi Oui ma babe Pa-pa-pa, oui ma babe Pa-pa-pa Oui my baby, oui ma babe Oui, bitch Oui ma babe, oui ma babe Oui, bitch Oui my baby, oui ma babe Pochon dans l'VIP Yah, plus frais qu'dans le clip Saute sur ma bite, saute sur ma bite Alright babe, saute sur ma bite Alright babe, alright babe Sautons dans l'vide Dans l'équipe avec mes gunners Sautons dans l'vide J'ai d'la 'ppe-fra' dans la Truck Ta pussy j'lui dis des secrets, j'mets ta pussy sur ma 'te-tê', j'mets ta pussy dans un Uber On fait joujou dans l'ascenseur Les coups dans ta chatte remontent à ton cur Les coups dans ta chatte remontent à ton cur Sautons dans l'vide, sautons dans l'vide Juste toi et moi, sautons dans l'vide Sautons dans l'vide, juste toi et moi Sautons dans l'vide, juste toi et moi Oui ma babe, oui ma babe Oui ma baby, oui ma babe Oui ma babe, oui ma babe Oui ma baby, oui ma babe Pochon dans l'VIP, j'ai du bon shit Saute sur ma bite, saute sur ma bite Alright babe, alright babe Alright babe, alright babe</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4386,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Glaçons tournent autour d'la paille Mes doigts roulent autour d'sa taille Dans l'carré j'fais comme Popeye Jusqu'au lever du soleil Ton futur c'était ma veille Sur mon doigt c'était ta paye J'sors un pistolet laser J'sors un pistolet la-seeer Nouveau Michael Jackson J'fume un gros joint au Carlton Roppongi j'sors mon trap phone Roppongi j'sors mon trap phone Tokyo skyscraper Tokyo skyscraper Tokyo skyscraper Tokyo skyscraperYou might also like3</t>
+          <t>Glaçons tournent autour d'la paille Mes doigts roulent autour d'sa taille Dans l'carré j'fais comme Popeye Jusqu'au lever du soleil Ton futur c'était ma veille Sur mon doigt c'était ta paye J'sors un pistolet laser J'sors un pistolet la-seeer Nouveau Michael Jackson J'fume un gros joint au Carlton Roppongi j'sors mon trap phone Roppongi j'sors mon trap phone Tokyo skyscraper Tokyo skyscraper Tokyo skyscraper Tokyo skyscraper3</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4403,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Quand j'étais p'tit j'avais pas un penny Ouhouhh Maint'nant j'ai des 'tasses sur mon pénis Ouhouhh Tout est bon tant qu'je pop' Remy Ouhouhh Tout est bon tant qu'je pop' Remy Ouhouhh J'lui met un coup d'teu-b', un coup d'génie Hm-hmm J'fais l'oseille, j'fais les confettis Hm-hm-hmm Si j'suis dans la place, la pute gémit Hm-hmm Tout est bon tant qu'je pop' Remy J'ai dormi par terre et sur l'canal Ouhouh-ouhh Re-noi, sur l'canap', j'suis sur sa chatte Ouhouh-ouhh J'suis un génie, ils font des trucs passables Le négro compte l'oseille, écoute Kassav J'regarde les étoiles, j'vois Mufasa Ahahh-ah Ta 'tasse j'lui met une faciale Ahahh-ah C'st pas Pharaon, écoute pas ça Ahahh-ah Négro fait mal comme un coup d'crasse Quand j'étais p'tit j'avais pas un pnny Ouhouhh Maint'nant j'ai des 'tasses sur mon pénis Ouhouhh Tout est bon tant qu'je pop' Remy Remy Ouhouhh Tout est bon tant qu'je pop' Remy Remy Ouhouhh You might also like J'lui met un coup d'teu-b', un coup d'génie Hm-hmm J'fais l'oseille, j'fais les confettis Hm-hm-hmm Si j'suis dans la place, la pute gémit Hm-hmm Tout est bon tant qu'je pop' Remy Ekusutash no seishin</t>
+          <t>Quand j'étais p'tit j'avais pas un penny Ouhouhh Maint'nant j'ai des 'tasses sur mon pénis Ouhouhh Tout est bon tant qu'je pop' Remy Ouhouhh Tout est bon tant qu'je pop' Remy Ouhouhh J'lui met un coup d'teu-b', un coup d'génie Hm-hmm J'fais l'oseille, j'fais les confettis Hm-hm-hmm Si j'suis dans la place, la pute gémit Hm-hmm Tout est bon tant qu'je pop' Remy J'ai dormi par terre et sur l'canal Ouhouh-ouhh Re-noi, sur l'canap', j'suis sur sa chatte Ouhouh-ouhh J'suis un génie, ils font des trucs passables Le négro compte l'oseille, écoute Kassav J'regarde les étoiles, j'vois Mufasa Ahahh-ah Ta 'tasse j'lui met une faciale Ahahh-ah C'st pas Pharaon, écoute pas ça Ahahh-ah Négro fait mal comme un coup d'crasse Quand j'étais p'tit j'avais pas un pnny Ouhouhh Maint'nant j'ai des 'tasses sur mon pénis Ouhouhh Tout est bon tant qu'je pop' Remy Remy Ouhouhh Tout est bon tant qu'je pop' Remy Remy Ouhouhh J'lui met un coup d'teu-b', un coup d'génie Hm-hmm J'fais l'oseille, j'fais les confettis Hm-hm-hmm Si j'suis dans la place, la pute gémit Hm-hmm Tout est bon tant qu'je pop' Remy Ekusutash no seishin</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4420,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Han-han, yeah 2011, 12, 13, 14, 15, yeah Yeah, Yeah J'rêve éveillé Ok j'dors plus pour être payé Ok, j'sors plus pour être payé Ok, négro Han, ton 'sque-d' est rayé ron polo est rayé Yeah, ta carrière est rayée, négro Ok, yeah, yeah Han, j'rêve éveillé Ok, han j'dors plus pour être payé, j'sors plus pour être payé, négro Han, han, yeah Ton 'sque-d' est rayé ton polo est rayé, ta carrière est rayée, négro Mon putain d'temps, j'le passe à écrire des merdes Mon putain d'sang contient des kicks et des vers Tout c'que j'entends, je l'analyse, le punch-alise, le Joke-alise Mec, réalise que j'en fabrique du Prévert Avec mes paroles vulgaires, on m'traite de rappeur incontinent Incontinent J'vais t'balancer mes merdes sur tous les continents Yeah J'ai souvent peur des compliments, surtout peur des cons qui mentent J'ai le sentiment d'être incompris mais j'sais que j'suis le son qui manque Mon père est blanc, ma mère est noire, d'où la qualité d'ma matière grise Photographie, fixe c'que les amateurs disent J'veux pas d'prise de tête, j'ai déjà branché toutes tes exs, coco Va te créer un buzz sur batterie avec des princes crocos You might also like Je n'suis qu'un gamin, je n'suis qu'un enfant Mais je vous baise depuis l'départ Et tous un par un, j'vais vous réduire en cendre Ca juste pour me taper des barres, yeah J'rêve éveillé, j'dors plus pour être payé, j'sors plus pour être payé, négro Han, ton 'sque-d' est rayé, ton polo est rayé, ta carrière est rayée, négro Han, j'rêve éveillé, j'dors plus pour être payé, j'sors plus pour être payé, négro Han, ton 'sque-d' est rayé, ton polo est rayé, ta carrière est rayée, négro</t>
+          <t>Han-han, yeah 2011, 12, 13, 14, 15, yeah Yeah, Yeah J'rêve éveillé Ok j'dors plus pour être payé Ok, j'sors plus pour être payé Ok, négro Han, ton 'sque-d' est rayé ron polo est rayé Yeah, ta carrière est rayée, négro Ok, yeah, yeah Han, j'rêve éveillé Ok, han j'dors plus pour être payé, j'sors plus pour être payé, négro Han, han, yeah Ton 'sque-d' est rayé ton polo est rayé, ta carrière est rayée, négro Mon putain d'temps, j'le passe à écrire des merdes Mon putain d'sang contient des kicks et des vers Tout c'que j'entends, je l'analyse, le punch-alise, le Joke-alise Mec, réalise que j'en fabrique du Prévert Avec mes paroles vulgaires, on m'traite de rappeur incontinent Incontinent J'vais t'balancer mes merdes sur tous les continents Yeah J'ai souvent peur des compliments, surtout peur des cons qui mentent J'ai le sentiment d'être incompris mais j'sais que j'suis le son qui manque Mon père est blanc, ma mère est noire, d'où la qualité d'ma matière grise Photographie, fixe c'que les amateurs disent J'veux pas d'prise de tête, j'ai déjà branché toutes tes exs, coco Va te créer un buzz sur batterie avec des princes crocos Je n'suis qu'un gamin, je n'suis qu'un enfant Mais je vous baise depuis l'départ Et tous un par un, j'vais vous réduire en cendre Ca juste pour me taper des barres, yeah J'rêve éveillé, j'dors plus pour être payé, j'sors plus pour être payé, négro Han, ton 'sque-d' est rayé, ton polo est rayé, ta carrière est rayée, négro Han, j'rêve éveillé, j'dors plus pour être payé, j'sors plus pour être payé, négro Han, ton 'sque-d' est rayé, ton polo est rayé, ta carrière est rayée, négro</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4454,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait J'fais le beurre right now, j'me concentre sur les deux right now Ils sont prêt right now, je crois qu'c'est concret right now Yeah J'ai beaucoup plus de 'tasses, les niggas sont gay right now, yeah Nique sa mère les copinages, j'crache un tas de bébés Dieu sur ton visage Si j'fuck avec toi j'vais salir mon image My nigga, j'vais au bled, en pèlerinage J'ai des grosses liasses dans les mains-ains Bitch, je médite, je me maintiens J'suis un Diu, j'suis pas un saint-ain't J'ramène l'oseille au villagYou might also like</t>
+          <t>Disclaimer Transcrit à partir d'un extrait J'fais le beurre right now, j'me concentre sur les deux right now Ils sont prêt right now, je crois qu'c'est concret right now Yeah J'ai beaucoup plus de 'tasses, les niggas sont gay right now, yeah Nique sa mère les copinages, j'crache un tas de bébés Dieu sur ton visage Si j'fuck avec toi j'vais salir mon image My nigga, j'vais au bled, en pèlerinage J'ai des grosses liasses dans les mains-ains Bitch, je médite, je me maintiens J'suis un Diu, j'suis pas un saint-ain't J'ramène l'oseille au villag</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4471,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Starlight Koffi Elle s'jette sur ma bite toute seule J'me- J'me psychanalyse tout seul J'fais le cheese, mes négros me disent Il se porte la guigne tout seul Les solitaires brillent tout seul Mon 'gue-flin' les visent tout seul Négro j'fais la diff, ta 'tasse veut ma bite, la bitch elle se bifle toute seule Hein, ton- ton crib je le crible tout sul Je mets les buts, mon négro tu sais, l terrain je l'drible tout seul Koffi, j'peux faire des classiques tout seul J'veux sauver l'Afrique tout seul J'compte l'oseille, j'ai la trique tout seul T'facon toi et moi j'sais qu'on est pas les mêmes Le négro débarque en Chanel Négro j'rappe pas je channel J'max-J'max ces bitches comme Adele Pour l'oseille, j'suis violent comme Machiavel Hibiki, j'bois pas d'Jack Daniel's La couronne depuis la fontanelle You might also like Elle- Elle s'jette sur ma bite toute seule, that's right J'me psychanalyse tout seul, that's right J'fais le cheese, mes négros me disent Il se porte la guigne tout seul Les solitaires brillent tout seul Grinta Mon 'gue-flin' les visent tout seul Grinta Négro j'fais la diff, ta 'tasse veut ma bite, la bitch elle se bifle toute seule J'max ces bitches comme Adele J'max ces bitches comme Adele J'max ces bitches comme Adele J'm-max ces bitches comme Adele</t>
+          <t>Starlight Koffi Elle s'jette sur ma bite toute seule J'me- J'me psychanalyse tout seul J'fais le cheese, mes négros me disent Il se porte la guigne tout seul Les solitaires brillent tout seul Mon 'gue-flin' les visent tout seul Négro j'fais la diff, ta 'tasse veut ma bite, la bitch elle se bifle toute seule Hein, ton- ton crib je le crible tout sul Je mets les buts, mon négro tu sais, l terrain je l'drible tout seul Koffi, j'peux faire des classiques tout seul J'veux sauver l'Afrique tout seul J'compte l'oseille, j'ai la trique tout seul T'facon toi et moi j'sais qu'on est pas les mêmes Le négro débarque en Chanel Négro j'rappe pas je channel J'max-J'max ces bitches comme Adele Pour l'oseille, j'suis violent comme Machiavel Hibiki, j'bois pas d'Jack Daniel's La couronne depuis la fontanelle Elle- Elle s'jette sur ma bite toute seule, that's right J'me psychanalyse tout seul, that's right J'fais le cheese, mes négros me disent Il se porte la guigne tout seul Les solitaires brillent tout seul Grinta Mon 'gue-flin' les visent tout seul Grinta Négro j'fais la diff, ta 'tasse veut ma bite, la bitch elle se bifle toute seule J'max ces bitches comme Adele J'max ces bitches comme Adele J'max ces bitches comme Adele J'm-max ces bitches comme Adele</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4488,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>High Klassified Fuck, Fuck Fu-uu, uu-uu-uu, uu-uu-uck Uu-uu-uu Fu-uu-uu, uu-uu-uu, uu-uu-uck Uu-uu-uu, uu-uu-uu Yeah, Yeah J'rentre dans la pièce avec une rose noire, -rose noire Wah, wah, wah C'est moi qui donne l'heure j'mérite une Audemars, -Audemars Check le nombre d'or quand j'flashe le code-barres, -code-barres Oxygène de Tokyo, fumée du 'roc-Ma', -'roc-Ma' Oui ! J'roule à 200, j'roule ma beuh sans aucune contrainte négro, Yeah Dans ma 'bre-cham' j'lui suce le sang, j'lui mets complète négro, On va pas les- Si tu te sens comme moi j'me sens tu touches sommet Togo, Lomé, grosses jantes chromées, crimes on commet Pour faire rentrer deux-trois liasses c'est le minimum Deux-trois liasses c'est le minimum négro Gros 'vu-vu' si j'veux être filiforme Vide comme rouge à lèvres sur les Philip Morris Wah Dior addict sur son p'tit clitoris J'en ai une qui bouffe une autre You might also like Génie dans mes foutues notes, j'suis a colette, tue-les J'arrive pétasses sur la Joke sur la sauvage1</t>
+          <t>High Klassified Fuck, Fuck Fu-uu, uu-uu-uu, uu-uu-uck Uu-uu-uu Fu-uu-uu, uu-uu-uu, uu-uu-uck Uu-uu-uu, uu-uu-uu Yeah, Yeah J'rentre dans la pièce avec une rose noire, -rose noire Wah, wah, wah C'est moi qui donne l'heure j'mérite une Audemars, -Audemars Check le nombre d'or quand j'flashe le code-barres, -code-barres Oxygène de Tokyo, fumée du 'roc-Ma', -'roc-Ma' Oui ! J'roule à 200, j'roule ma beuh sans aucune contrainte négro, Yeah Dans ma 'bre-cham' j'lui suce le sang, j'lui mets complète négro, On va pas les- Si tu te sens comme moi j'me sens tu touches sommet Togo, Lomé, grosses jantes chromées, crimes on commet Pour faire rentrer deux-trois liasses c'est le minimum Deux-trois liasses c'est le minimum négro Gros 'vu-vu' si j'veux être filiforme Vide comme rouge à lèvres sur les Philip Morris Wah Dior addict sur son p'tit clitoris J'en ai une qui bouffe une autre Génie dans mes foutues notes, j'suis a colette, tue-les J'arrive pétasses sur la Joke sur la sauvage1</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4505,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Yeah Yeah, yeah Damn, du Champ', yeah, yeah, yeah Okay, han J'vais vous faire tomber des nues, yeah, les mecs à poil vont s'faire mal Okay, han Les autres croient tous que je bluffe mais m'laisse pas masser ta meuf, j'ai l'flow d'une source thermale Ok, han Je suis dans la joute verbale, hey, copain Sers-moi des Frosties, j'ai trop d'bol et trop faim J'pèse toujours le pour, il est trop lourd quand c'est mon tour, négro Prenez tous des verres, c'est l'promoteur qui paie sa tournée horizontalement L'horizon est vertical non, les rappeurs sont nazis bloqués Sur leur synthés allemands je l'explique mal, okay On passe à autre chose, j'suis Duchamp, ce son c'est ma fontaine C'est Du champ', addict, comme Brigitte Fontaine C'est fantastique, mon éléphant astique On aime les grandes 'tasses, rien ne nous remplace, fils Pas même ces fantasmes, phases de nous en plastique A c'qu'il se dit, j'refais les statistiques, yeah J'ai toujours trouvé les phases qui fâchaient J'ai toujours serré des meufs plus âgées Sous peu, j'serais sur panneau d'affichage J'veux des billets verts comme les glaces à la pistache, yeah You might also like C'est plus abstrait qu'la roue de Duchamp, pédale Je vais mourir avec une rose sur le bras Un peu, beaucoup, à la folie, jamais sans pétales J'te veux pas sur le dos mais je te veux sûr de moi C'est plus abstrait qu'la roue de Duchamp, pédale Je vais mourir avec une rose sur le bras Un peu, beaucoup, à la folie, jamais sans pétales J'te veux pas sur le dos mais je te veux sûr de moi1</t>
+          <t>Yeah Yeah, yeah Damn, du Champ', yeah, yeah, yeah Okay, han J'vais vous faire tomber des nues, yeah, les mecs à poil vont s'faire mal Okay, han Les autres croient tous que je bluffe mais m'laisse pas masser ta meuf, j'ai l'flow d'une source thermale Ok, han Je suis dans la joute verbale, hey, copain Sers-moi des Frosties, j'ai trop d'bol et trop faim J'pèse toujours le pour, il est trop lourd quand c'est mon tour, négro Prenez tous des verres, c'est l'promoteur qui paie sa tournée horizontalement L'horizon est vertical non, les rappeurs sont nazis bloqués Sur leur synthés allemands je l'explique mal, okay On passe à autre chose, j'suis Duchamp, ce son c'est ma fontaine C'est Du champ', addict, comme Brigitte Fontaine C'est fantastique, mon éléphant astique On aime les grandes 'tasses, rien ne nous remplace, fils Pas même ces fantasmes, phases de nous en plastique A c'qu'il se dit, j'refais les statistiques, yeah J'ai toujours trouvé les phases qui fâchaient J'ai toujours serré des meufs plus âgées Sous peu, j'serais sur panneau d'affichage J'veux des billets verts comme les glaces à la pistache, yeah C'est plus abstrait qu'la roue de Duchamp, pédale Je vais mourir avec une rose sur le bras Un peu, beaucoup, à la folie, jamais sans pétales J'te veux pas sur le dos mais je te veux sûr de moi C'est plus abstrait qu'la roue de Duchamp, pédale Je vais mourir avec une rose sur le bras Un peu, beaucoup, à la folie, jamais sans pétales J'te veux pas sur le dos mais je te veux sûr de moi1</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4522,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Han, yeah, yeah, yeah Ok, Joke Yeah, prêt pour la monnaie Yeah, yeah, yeah, yeah, yeah Stunts, ok Aye, aye, hein-hein Ok, yeah, Yeah, aye Han, yeah Sur ma couronne, il m'reste mon Royal Cheese, une, deux bouchées, j'suis traumatisé Oh Trop baptisé, trop addict à m'faire mentir, genre J'aime trop pas la tise J'en importerai au paradis, j'rends les MCs 'dé-p' comme Paradis No homo Ces p'tits oignons m'font sortir des trucs que j'arrive pas à dire Va bouffer au Quick, négro, Quick, négro J'kick, les go' kiffent, nan, je n'suis plus Caliméro Vite, fais d'la magie, et fais bosser mon magic stick, négro J'attends l'jour où McDo' f'ra de la San Pellegrino J'ai trop d'imagination, j'pourrais sampler mes rideaux J'passe dans trop d'revues yah, j'pourrais entraîner l'Lido Multi-syllabiques négro, en cinq syllabes J'génocide des MC comme pour une voile en chinchilla, yeah You might also like La, la-la-la, la, je leur fais la guerre Le cornichon est acide, la défaite amère, yeah La, la-la-la, la, apporte-moi mon Royal Cheese, sur gros nichons Grosse artillerie, pour t'infliger ta punition, yeah 'Aud-ch' Shake it up up, rock your body and Make it knock knock, when you're partyin' Take a break right in the audience Do your footwork, break, and stop again I'm lookin sharp, you can't compete with the champ Steady flick'..</t>
+          <t>Han, yeah, yeah, yeah Ok, Joke Yeah, prêt pour la monnaie Yeah, yeah, yeah, yeah, yeah Stunts, ok Aye, aye, hein-hein Ok, yeah, Yeah, aye Han, yeah Sur ma couronne, il m'reste mon Royal Cheese, une, deux bouchées, j'suis traumatisé Oh Trop baptisé, trop addict à m'faire mentir, genre J'aime trop pas la tise J'en importerai au paradis, j'rends les MCs 'dé-p' comme Paradis No homo Ces p'tits oignons m'font sortir des trucs que j'arrive pas à dire Va bouffer au Quick, négro, Quick, négro J'kick, les go' kiffent, nan, je n'suis plus Caliméro Vite, fais d'la magie, et fais bosser mon magic stick, négro J'attends l'jour où McDo' f'ra de la San Pellegrino J'ai trop d'imagination, j'pourrais sampler mes rideaux J'passe dans trop d'revues yah, j'pourrais entraîner l'Lido Multi-syllabiques négro, en cinq syllabes J'génocide des MC comme pour une voile en chinchilla, yeah La, la-la-la, la, je leur fais la guerre Le cornichon est acide, la défaite amère, yeah La, la-la-la, la, apporte-moi mon Royal Cheese, sur gros nichons Grosse artillerie, pour t'infliger ta punition, yeah 'Aud-ch' Shake it up up, rock your body and Make it knock knock, when you're partyin' Take a break right in the audience Do your footwork, break, and stop again I'm lookin sharp, you can't compete with the champ Steady flick'..</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4539,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Sac à dos, sac à dos Sac à dos, sac à dos Cest moi qui tsuis à lécole, bourré de trucs et de bricoles Tout ce quil t'faut pour la journée, dans mon ventre cest rangé Sac à dos, sac à dos Sac à dos, sac à dos Ouaaais Un coup djeune pour le rap là Cest un rap super sale, je nsuis pas ton cops Tu fais pitié profond, présent pour kicker Yo ass nigga, je reste unique sur la place Awhh Un coup djeune pour le rap là Yo Cest un rap super sale, han, je nsuis pas ton cops, yo Awhh Tu fais pitié profond Nigga Aïe, présent pour kicker, han Yo ass nigga, je reste unique sur la place, yo, yo Jsuis meilleur quAkinator, yo, jmets tout le monde daccord Haan-haan Chaque week-end jme filme un porno, jtape ça comme Tina Turner Jsuis réalis-acteur, han, nigga, avec ma team on sest farci ta soeur, nigga Yo, han On ma dis Joke, tas pris des ailes donc jserre que des avions Je leur fais goûter mon flow, tous les MC smettent à laviron Silence des agneaux, jvais baiser ta pauvre chèvre Han Fais tourner la coke jte cuisine ça comme dans Top chef Crack music Jai cinq kilos dans mon sac à doc Wah, wah, wah, wah Yo, sac à dos Wah, wah, wah, wah Négro on fait pas dcadeau Wah, wah, wah, wah Pas dcadeau Wah, wah, wah Han, comment des paroles si fines peuvent sortir de mes grosses lèvres ? Jfais des rêves si sales, jai du mal à croire qucest mes propres rêves Js'rais au rang zéro que si yavait un top ten Mon flow n'se mélange pas, jviens pisser dans ton cocktail Jsuis venu pour shooter père et mère Pouw Jtouche plus de chattes quun vétérinaire Jpeux les faire gueuler des heures dans le périmètre Personne ne peut méliminer ou bien imiter mes gimmicks, yo Jtaffe jour et nuit genre intérimaire Jkick ça sévère, genre une paire de air max, qui fait hyper mal Qui peut vous couper aussi proprement qu'mes couplets Yo Négro, c'est Ya quen termes de pétasse que javance à deux à lheure Les négros vendent deux barrettes et se croient dans the wire Jte laisse tout sanguinolent jfais mes courses en cambriolant Yo, jsuis un putain dgénie, jsuis fly comme un tapis volant You might also likeFuck, nigga Jai cinq kilos dans mon sac à doc Wah, wah, wah, wah Yo, sac à dos Wah, wah, wah, wah Négro on fait pas dcadeau Wah, wah, wah, wah Pas dcadeau Wah, wah, wah Yo, hey Au micro jmets la pression, jpose comme un ultimatum Négro, jpasse le shalom Aïe, aïe, aïe à toutes les 'tasses qui cultivent la pomme Jai vendu du fruit pour gouter au fruit défendu Jaurais beau vouloir mrach'ter jserai jamais un vendu Fuck Si tu as la langue pendue tu finiras dans les cordes Oh-oh Jrépète, jserai jamais un vendu, comme si jmétais donné âme et corps Âme et corps Jviens faire lamour à tes poches Oh Threesome, foursome jfais tourner à mes potes Oh-oh Jsuis unboycotté par les bonnes Oh-oh, yo, boycotté par les moches On est dans la plaza, on mise sur lpanneau exit Oh-oh Les négros se serrent la ceinture comme des putain danorexiques Oh-oh Blé, pognon, monnaie, argent sont au top de mon lexique Heyy Jpasse le big up à mes ex, faites un bibi à votre ex-bite Fuck, négro Jai cinq kilos dans mon sac à doc Wah, wah, wah, wah Yo, sac à dos Wah, wah, wah, wah Négro on fait pas dcadeau Wah, wah, wah, wah Pas dcadeau Wah, wah, wah Les boomers craquent et ton boule dépasse Lécouteur crache et la foule gueule grave, là, awh Girl bounce stu veux, vas-y, aguiche- moi A la fin tu fais les comptes, le DJ ramasse les ronds, awh Non, nan-nan-nan-nan-nan, ferme ta gueule Quand je rappe, et ki-ki-ki-kick Yo asshole, tu viens de prendre une baffe Awh Awh Est-ce que tu veux la marque de mes bottes sur ton derche ? Est-ce que tu veux la marque de mes bottes sur ton derche ? Awh Est-ce que tu veux la marque de mes bottes sur ton derche ? Est-ce que tu veux la marque de mes bottes sur ton derche ?1</t>
+          <t>Sac à dos, sac à dos Sac à dos, sac à dos Cest moi qui tsuis à lécole, bourré de trucs et de bricoles Tout ce quil t'faut pour la journée, dans mon ventre cest rangé Sac à dos, sac à dos Sac à dos, sac à dos Ouaaais Un coup djeune pour le rap là Cest un rap super sale, je nsuis pas ton cops Tu fais pitié profond, présent pour kicker Yo ass nigga, je reste unique sur la place Awhh Un coup djeune pour le rap là Yo Cest un rap super sale, han, je nsuis pas ton cops, yo Awhh Tu fais pitié profond Nigga Aïe, présent pour kicker, han Yo ass nigga, je reste unique sur la place, yo, yo Jsuis meilleur quAkinator, yo, jmets tout le monde daccord Haan-haan Chaque week-end jme filme un porno, jtape ça comme Tina Turner Jsuis réalis-acteur, han, nigga, avec ma team on sest farci ta soeur, nigga Yo, han On ma dis Joke, tas pris des ailes donc jserre que des avions Je leur fais goûter mon flow, tous les MC smettent à laviron Silence des agneaux, jvais baiser ta pauvre chèvre Han Fais tourner la coke jte cuisine ça comme dans Top chef Crack music Jai cinq kilos dans mon sac à doc Wah, wah, wah, wah Yo, sac à dos Wah, wah, wah, wah Négro on fait pas dcadeau Wah, wah, wah, wah Pas dcadeau Wah, wah, wah Han, comment des paroles si fines peuvent sortir de mes grosses lèvres ? Jfais des rêves si sales, jai du mal à croire qucest mes propres rêves Js'rais au rang zéro que si yavait un top ten Mon flow n'se mélange pas, jviens pisser dans ton cocktail Jsuis venu pour shooter père et mère Pouw Jtouche plus de chattes quun vétérinaire Jpeux les faire gueuler des heures dans le périmètre Personne ne peut méliminer ou bien imiter mes gimmicks, yo Jtaffe jour et nuit genre intérimaire Jkick ça sévère, genre une paire de air max, qui fait hyper mal Qui peut vous couper aussi proprement qu'mes couplets Yo Négro, c'est Ya quen termes de pétasse que javance à deux à lheure Les négros vendent deux barrettes et se croient dans the wire Jte laisse tout sanguinolent jfais mes courses en cambriolant Yo, jsuis un putain dgénie, jsuis fly comme un tapis volant Fuck, nigga Jai cinq kilos dans mon sac à doc Wah, wah, wah, wah Yo, sac à dos Wah, wah, wah, wah Négro on fait pas dcadeau Wah, wah, wah, wah Pas dcadeau Wah, wah, wah Yo, hey Au micro jmets la pression, jpose comme un ultimatum Négro, jpasse le shalom Aïe, aïe, aïe à toutes les 'tasses qui cultivent la pomme Jai vendu du fruit pour gouter au fruit défendu Jaurais beau vouloir mrach'ter jserai jamais un vendu Fuck Si tu as la langue pendue tu finiras dans les cordes Oh-oh Jrépète, jserai jamais un vendu, comme si jmétais donné âme et corps Âme et corps Jviens faire lamour à tes poches Oh Threesome, foursome jfais tourner à mes potes Oh-oh Jsuis unboycotté par les bonnes Oh-oh, yo, boycotté par les moches On est dans la plaza, on mise sur lpanneau exit Oh-oh Les négros se serrent la ceinture comme des putain danorexiques Oh-oh Blé, pognon, monnaie, argent sont au top de mon lexique Heyy Jpasse le big up à mes ex, faites un bibi à votre ex-bite Fuck, négro Jai cinq kilos dans mon sac à doc Wah, wah, wah, wah Yo, sac à dos Wah, wah, wah, wah Négro on fait pas dcadeau Wah, wah, wah, wah Pas dcadeau Wah, wah, wah Les boomers craquent et ton boule dépasse Lécouteur crache et la foule gueule grave, là, awh Girl bounce stu veux, vas-y, aguiche- moi A la fin tu fais les comptes, le DJ ramasse les ronds, awh Non, nan-nan-nan-nan-nan, ferme ta gueule Quand je rappe, et ki-ki-ki-kick Yo asshole, tu viens de prendre une baffe Awh Awh Est-ce que tu veux la marque de mes bottes sur ton derche ? Est-ce que tu veux la marque de mes bottes sur ton derche ? Awh Est-ce que tu veux la marque de mes bottes sur ton derche ? Est-ce que tu veux la marque de mes bottes sur ton derche ?1</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4556,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Hey, Joky, négro Ha-ha M.T.P, nigga , j'te vois, négro Les Monsieur, négro han Yo, j'arrive cool, peace Han-han J'prépare mes outils, j'prépare mes coups d'vices Han-han Quand j'vais chez ta meuf, j'repars les couilles vides J'suis un putain génie comme Van Ludwig Han-han Yo, j'arrive genre toc-toc, toc-toc, qui est là, négro ? Ha Pour m'écouter, c'est lunettes 3D, home cinéma, minimum Joky débarque direct, GHB dans l'apéro Vas-y sers-toi, sers tes copines, c'est Joke qui régale, ok Han-han En deux s'condes, deux s'condes, t'es plus de c'monde Deux s'condes, trop speed, j'ai même plus d'ombre Yeah A force de gratter des feat', t'as même plus d'ongles T'as même plus honte, comme ces mecs qui s'payent du Hey, hey Speed, comme Michael Schumacher Négro Fuck, fuck, j'suis Michael Schumacher, négro Toutes tes pétasses ont la bouche en coeur, yo-yo, yo-yo Fuck, j'regarde même plus l'compteur, négro You might also like Chevrolet Camaro SS, Lambo' Avec deuxtrois pétasses, sévères dans l'dos Chevrolet Camaro SS, Lambo-oh-oh, oh-ohh, négro Hey, han, yo J'ai une pétasse à chaque boule Deux bombes, Kaboul-Afghan Tout l'monde coule, comme le sale temps, aboule On fait péter les magnums comme si c'était des glaces Et Miss balance des noms sur la liste comme si c'était des 'casses-dédi' Au détecteur d'swag, bitch, comme si j'avais pas d'crédit Des mecs durs dans l'équipe, des négros qui cassent Diddy Chaque week-end on s'met une race, ashkénazes Toujours rasées sont mes 'tasses, skinheads Brrah Yo, j'parle pas des fausses Ambers Ramène la crémière, que j'trempe mes toasts dans l'beurre J'prends ta meuf en levrette, j'lui fais pas un gosse dans l'dos J'vais mourir à deux-cent, au volant d'une grosse Lambo' Ok Négro, j'suis trop speed, Ay-Ay-Ayrton Senna Mhh Négro, tu sors avec une grosse chienne comme Senna Pour Les Monsieur, pour mes gars, pétés des yeux Des dégâts, très, très graves Fais des écarts, très, très hard Les gars Hey, arrêtez d'pper-ra', tout d'suite Speed, comme Michael Schumacher Fuck, fuck, j'suis Michael Schumacher, négro Toutes tes pétasses ont la bouche en coeur, yo-yo, yo-yo Fuck, j'regarde même plus l'compteur, négro Chevrolet Camaro SS, Lambo' Avec deuxtrois pétasses, sévères dans l'dos Chevrolet Camaro SS, Lambo-oh-oh, oh-ohh, négro Yo, yo, yo, yo Tu nous baises une fois, on te baise deux fois Tu nous baises trois fois, donc on rebaise ta femme Les Monsieur, yo, Les Monsieur, yo Les Monsieur, yo, Les Monsieur, yo Tu nous baises une fois, on te baise deux fois Tu nous baises trois fois, donc on rebaise ta femme Les Monsieur, yo, Les Monsieur, yo Les Monsieur, yo, Les Monsieur, yo2</t>
+          <t>Hey, Joky, négro Ha-ha M.T.P, nigga , j'te vois, négro Les Monsieur, négro han Yo, j'arrive cool, peace Han-han J'prépare mes outils, j'prépare mes coups d'vices Han-han Quand j'vais chez ta meuf, j'repars les couilles vides J'suis un putain génie comme Van Ludwig Han-han Yo, j'arrive genre toc-toc, toc-toc, qui est là, négro ? Ha Pour m'écouter, c'est lunettes 3D, home cinéma, minimum Joky débarque direct, GHB dans l'apéro Vas-y sers-toi, sers tes copines, c'est Joke qui régale, ok Han-han En deux s'condes, deux s'condes, t'es plus de c'monde Deux s'condes, trop speed, j'ai même plus d'ombre Yeah A force de gratter des feat', t'as même plus d'ongles T'as même plus honte, comme ces mecs qui s'payent du Hey, hey Speed, comme Michael Schumacher Négro Fuck, fuck, j'suis Michael Schumacher, négro Toutes tes pétasses ont la bouche en coeur, yo-yo, yo-yo Fuck, j'regarde même plus l'compteur, négro Chevrolet Camaro SS, Lambo' Avec deuxtrois pétasses, sévères dans l'dos Chevrolet Camaro SS, Lambo-oh-oh, oh-ohh, négro Hey, han, yo J'ai une pétasse à chaque boule Deux bombes, Kaboul-Afghan Tout l'monde coule, comme le sale temps, aboule On fait péter les magnums comme si c'était des glaces Et Miss balance des noms sur la liste comme si c'était des 'casses-dédi' Au détecteur d'swag, bitch, comme si j'avais pas d'crédit Des mecs durs dans l'équipe, des négros qui cassent Diddy Chaque week-end on s'met une race, ashkénazes Toujours rasées sont mes 'tasses, skinheads Brrah Yo, j'parle pas des fausses Ambers Ramène la crémière, que j'trempe mes toasts dans l'beurre J'prends ta meuf en levrette, j'lui fais pas un gosse dans l'dos J'vais mourir à deux-cent, au volant d'une grosse Lambo' Ok Négro, j'suis trop speed, Ay-Ay-Ayrton Senna Mhh Négro, tu sors avec une grosse chienne comme Senna Pour Les Monsieur, pour mes gars, pétés des yeux Des dégâts, très, très graves Fais des écarts, très, très hard Les gars Hey, arrêtez d'pper-ra', tout d'suite Speed, comme Michael Schumacher Fuck, fuck, j'suis Michael Schumacher, négro Toutes tes pétasses ont la bouche en coeur, yo-yo, yo-yo Fuck, j'regarde même plus l'compteur, négro Chevrolet Camaro SS, Lambo' Avec deuxtrois pétasses, sévères dans l'dos Chevrolet Camaro SS, Lambo-oh-oh, oh-ohh, négro Yo, yo, yo, yo Tu nous baises une fois, on te baise deux fois Tu nous baises trois fois, donc on rebaise ta femme Les Monsieur, yo, Les Monsieur, yo Les Monsieur, yo, Les Monsieur, yo Tu nous baises une fois, on te baise deux fois Tu nous baises trois fois, donc on rebaise ta femme Les Monsieur, yo, Les Monsieur, yo Les Monsieur, yo, Les Monsieur, yo2</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4573,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Et j'vise mon rap pour les filles et pour les chèques Han Yeah Ok Joke Si-si aîe Ah-ah-ah-ah-ah Bang, si-si, yeah Ok, han On m'a dit M.T.P, non J'ai dis Pas d'MC's bidons Sec, sec, sec, sec, sec, sec, sec, sec Joke, yeah Oh Yeah Yeah, yeah, yeah Ok, yo Yah, yo Sec, sec, sec, sec, sec, sec, sec, secYou might also like</t>
+          <t>Et j'vise mon rap pour les filles et pour les chèques Han Yeah Ok Joke Si-si aîe Ah-ah-ah-ah-ah Bang, si-si, yeah Ok, han On m'a dit M.T.P, non J'ai dis Pas d'MC's bidons Sec, sec, sec, sec, sec, sec, sec, sec Joke, yeah Oh Yeah Yeah, yeah, yeah Ok, yo Yah, yo Sec, sec, sec, sec, sec, sec, sec, sec</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4590,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Young nigga Kna mean Oui, oui, je me sens mieux Négro, j'suis frais depuis FUBU,Starlight KoffiFUBU Ma bitch j'baisse son crew Ouhouh Ma bitch j'baisse son crew Ouhh V.V.S. à mon cou Ouhh J'puffe Gorilla Glue Ouhh J'lui pose sur la joue Han Je jette des billets en l'air Je rentre deux missiles dans l'fer Dans l'fer Fuck, on a connu l'enfer Maintenant check mon compte bancaire J'mets des trous dans tes gangsters, j'fais du sale, je sais quand l'faire J'suis en lumière, pas n chair La 'tasse monte, comme ls enchères Go up, go up, go up Faire l'oseille c'est essentiel Blow up, blow up, blow up My nigga, j'ai une ankh sur la pommette Ah-ahh Blow up, blow up My nigga, j'suis griot, j'suis pas poète Blow up, blow up On débarque, 'me-ar', comme au Koweït Blow up, blow up T'es au sol tu veux m'dire comment faut être Hein T'es belle et intelligente, faut qu'on connecte, oh-ohhh J'ai touché sa pussy, elle est trop wet, oh-ohhh Nigga, vingt-quatre carats sur l'abdomen, oh-ohhh J'pose des fleurs sur ta tombe, j'fume le pollen, oh-ohhh Yeah, j'suis dans sa 'tte-cha', fais pas causette Ouhouhh Négro, t'as un swag d'vendeur à la sauvette Ouhouhh Tu sais que j'suis fort comme dans un shonen Ouhouhh La France vole l'Afrique, j'peux pas être honnête Ouhouhh J'la met dans ta chienne, toi tu la promènes Personne ne peut rien faire fasse aux règles Les rappeurs étudient mes théorèmes, hey Ils m'ont étudié les négros You might also like Bless all, j'apprécie l'amour Yeah, young king on this bitch Ekusutash no seishin</t>
+          <t>Young nigga Kna mean Oui, oui, je me sens mieux Négro, j'suis frais depuis FUBU,Starlight KoffiFUBU Ma bitch j'baisse son crew Ouhouh Ma bitch j'baisse son crew Ouhh V.V.S. à mon cou Ouhh J'puffe Gorilla Glue Ouhh J'lui pose sur la joue Han Je jette des billets en l'air Je rentre deux missiles dans l'fer Dans l'fer Fuck, on a connu l'enfer Maintenant check mon compte bancaire J'mets des trous dans tes gangsters, j'fais du sale, je sais quand l'faire J'suis en lumière, pas n chair La 'tasse monte, comme ls enchères Go up, go up, go up Faire l'oseille c'est essentiel Blow up, blow up, blow up My nigga, j'ai une ankh sur la pommette Ah-ahh Blow up, blow up My nigga, j'suis griot, j'suis pas poète Blow up, blow up On débarque, 'me-ar', comme au Koweït Blow up, blow up T'es au sol tu veux m'dire comment faut être Hein T'es belle et intelligente, faut qu'on connecte, oh-ohhh J'ai touché sa pussy, elle est trop wet, oh-ohhh Nigga, vingt-quatre carats sur l'abdomen, oh-ohhh J'pose des fleurs sur ta tombe, j'fume le pollen, oh-ohhh Yeah, j'suis dans sa 'tte-cha', fais pas causette Ouhouhh Négro, t'as un swag d'vendeur à la sauvette Ouhouhh Tu sais que j'suis fort comme dans un shonen Ouhouhh La France vole l'Afrique, j'peux pas être honnête Ouhouhh J'la met dans ta chienne, toi tu la promènes Personne ne peut rien faire fasse aux règles Les rappeurs étudient mes théorèmes, hey Ils m'ont étudié les négros Bless all, j'apprécie l'amour Yeah, young king on this bitch Ekusutash no seishin</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4607,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait vidéo Tequila et , Dieu sait où j'ai mis l'oseille Fuck ta bouche et tes conseils, j'tend la main que quand on me paye, men Chaîne en or, la maille est cubaine, cubaine T'as goûté ma came et tu l'aimes Amène d'autres femmes si tu m'aimes -tu m'aimes Amène d'autres femmes si tu m'aimes -tu m'aimesYou might also like</t>
+          <t>Disclaimer Transcrit à partir d'un extrait vidéo Tequila et , Dieu sait où j'ai mis l'oseille Fuck ta bouche et tes conseils, j'tend la main que quand on me paye, men Chaîne en or, la maille est cubaine, cubaine T'as goûté ma came et tu l'aimes Amène d'autres femmes si tu m'aimes -tu m'aimes Amène d'autres femmes si tu m'aimes -tu m'aimes</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4624,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Zaki Jokee J'suis en Loubout' nigga Je skuuur Je skur, je skur, je skur Yeah, yeah Je skur sur ces négros, 260 plus un créneau, yeah Je skur sur ces négros, petit mégot sur le taie d'o', yeah Je skur sur ta pétasse, je skur sur ta pétasse, yeah T'as l'flow d'la marée basse, j'ai une queue d'poney, des ailes à la Pégase, han J'fais la pluie et l'beau temps dans le strip club, la pluie, c'est l'beau temps dans le strip club J'prie pour qu'elle mouille, elle, pour qu'il pleuve, hella, s'effrite comme un mille-feuilles J'lance les billets avec les Lions d'Brazza', sur satanique tête aux pieds en Prada La limite, c'est l'ciel pas la faciale, sur la tête à la NASA Dérape dans une Corvette, skur Dix-huit carats sur le Colgate, skur Dis pas à la lune tout c'qu'on s'est dit J'transforme ton contrat en confettis J'pose un lingot d'or sur ma banque yeah, yeah, yeah, yeah J'pose du LSD sur ta langue yeah, yeah, yeah, yeah Des diamants turquoises sur ma dent yeah, yeah, yeah, yeah J'pose un PPK sur ta tempe yeah, yeah, yeah, yeah You might also like Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Drapeau noir sur le navire, fusil allemand cherche ton avenir Première balle traverse le pare-brise, deuxième balle arrache ton âme triste J'veux faire plus de cash que la douane volante, plus de cash que la grasse d'Hollande J'suis un génie et une étoile, j'apparais dans l'noir, pas besoin d'vos lampes J'veux qu'un tour d'ma villa soit plus long qu'un tour du périph' Moi et Joke, shoot le shérif, rares comme mètres carrés dans Bériz Rah, ils sont comme dans Belly, yeah mais j'agis comme bélier Quand ils s'agitent, j'attends qu'les euros montent comme bulle dans le Perrier Génération Mad Max, bob Lacoste et scal-pas Tony jouant dans le plasma, met toute la money dans classe A et je skur Même sans permis, zéro à cent dans la Berline Modèle allemand, j'm'éternise pas, tu cherches l'argent et les belles miss, moi je skur Six dans l'chargeur, jump comme jeune Vince Carter Burberry comme larre-feuille, j'rime comme jeune Shawn Corey Carter, yeah Cherche le cacharel, ils cherchent à nous trahir depuis Nazareth Ils nous jugent comme la race inférieure, pendant qu'on parle de tout ce cash à faire En classe affaire J'pose un lingot d'or sur ma banque yeah, yeah, yeah, yeah J'pose du LSD sur ta langue yeah, yeah, yeah, yeah Des diamants turquoises sur ma dent yeah, yeah, yeah, yeah J'pose un PPK sur ta tempe yeah, yeah, yeah, yeah Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur J'pose un lingot d'or sur ma banque yeah, yeah, yeah, yeah J'pose du LSD sur ta langue yeah, yeah, yeah, yeah Des diamants turquoises sur ma dent yeah, yeah, yeah, yeah J'pose un PPK sur ta tempe yeah, yeah, yeah, yeah Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur J'ai une arme à feu sur la tempe, yeah J'aime qu'la liasse écrase sur ma jambe, yeah Les p'tits écrasent et vendent la blanche, yeah Deux jeunes princes arrivent dans la banque, yeah J'ai une arme à feu sur la tempe, yeah J'aime qu'la liasse écrase sur ma jambe, yeah Les p'tits écrasent et vendent la blanche, yeah Deux jeunes princes arrivent dans la banque, yeah Jokeezy, Veezir, Ikaz Boi MSNR, 89, 90 PS, MTP, yeah, yeah</t>
+          <t>Zaki Jokee J'suis en Loubout' nigga Je skuuur Je skur, je skur, je skur Yeah, yeah Je skur sur ces négros, 260 plus un créneau, yeah Je skur sur ces négros, petit mégot sur le taie d'o', yeah Je skur sur ta pétasse, je skur sur ta pétasse, yeah T'as l'flow d'la marée basse, j'ai une queue d'poney, des ailes à la Pégase, han J'fais la pluie et l'beau temps dans le strip club, la pluie, c'est l'beau temps dans le strip club J'prie pour qu'elle mouille, elle, pour qu'il pleuve, hella, s'effrite comme un mille-feuilles J'lance les billets avec les Lions d'Brazza', sur satanique tête aux pieds en Prada La limite, c'est l'ciel pas la faciale, sur la tête à la NASA Dérape dans une Corvette, skur Dix-huit carats sur le Colgate, skur Dis pas à la lune tout c'qu'on s'est dit J'transforme ton contrat en confettis J'pose un lingot d'or sur ma banque yeah, yeah, yeah, yeah J'pose du LSD sur ta langue yeah, yeah, yeah, yeah Des diamants turquoises sur ma dent yeah, yeah, yeah, yeah J'pose un PPK sur ta tempe yeah, yeah, yeah, yeah Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Drapeau noir sur le navire, fusil allemand cherche ton avenir Première balle traverse le pare-brise, deuxième balle arrache ton âme triste J'veux faire plus de cash que la douane volante, plus de cash que la grasse d'Hollande J'suis un génie et une étoile, j'apparais dans l'noir, pas besoin d'vos lampes J'veux qu'un tour d'ma villa soit plus long qu'un tour du périph' Moi et Joke, shoot le shérif, rares comme mètres carrés dans Bériz Rah, ils sont comme dans Belly, yeah mais j'agis comme bélier Quand ils s'agitent, j'attends qu'les euros montent comme bulle dans le Perrier Génération Mad Max, bob Lacoste et scal-pas Tony jouant dans le plasma, met toute la money dans classe A et je skur Même sans permis, zéro à cent dans la Berline Modèle allemand, j'm'éternise pas, tu cherches l'argent et les belles miss, moi je skur Six dans l'chargeur, jump comme jeune Vince Carter Burberry comme larre-feuille, j'rime comme jeune Shawn Corey Carter, yeah Cherche le cacharel, ils cherchent à nous trahir depuis Nazareth Ils nous jugent comme la race inférieure, pendant qu'on parle de tout ce cash à faire En classe affaire J'pose un lingot d'or sur ma banque yeah, yeah, yeah, yeah J'pose du LSD sur ta langue yeah, yeah, yeah, yeah Des diamants turquoises sur ma dent yeah, yeah, yeah, yeah J'pose un PPK sur ta tempe yeah, yeah, yeah, yeah Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur J'pose un lingot d'or sur ma banque yeah, yeah, yeah, yeah J'pose du LSD sur ta langue yeah, yeah, yeah, yeah Des diamants turquoises sur ma dent yeah, yeah, yeah, yeah J'pose un PPK sur ta tempe yeah, yeah, yeah, yeah Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur J'ai une arme à feu sur la tempe, yeah J'aime qu'la liasse écrase sur ma jambe, yeah Les p'tits écrasent et vendent la blanche, yeah Deux jeunes princes arrivent dans la banque, yeah J'ai une arme à feu sur la tempe, yeah J'aime qu'la liasse écrase sur ma jambe, yeah Les p'tits écrasent et vendent la blanche, yeah Deux jeunes princes arrivent dans la banque, yeah Jokeezy, Veezir, Ikaz Boi MSNR, 89, 90 PS, MTP, yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4641,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait Hai kurashifaido ongaku Yeah Re-noi, jai la vision, m'fais 'pe-pom par des jumelles Les négros voudraient slide sur moi, terminent dans les tunnels J'lui met une faciale si elle est propre sur elle, propre sur elle Elle veut une bague au doigt, elle veut un rock sur elle, rock, nigga Moshpit dans sa chatte comme j'fais du rock sur elle Pah, pah Vingt-quatre carats sur moi, j'mets pas du toc' sur lle Ta You might also like</t>
+          <t>Disclaimer Transcrit à partir d'un extrait Hai kurashifaido ongaku Yeah Re-noi, jai la vision, m'fais 'pe-pom par des jumelles Les négros voudraient slide sur moi, terminent dans les tunnels J'lui met une faciale si elle est propre sur elle, propre sur elle Elle veut une bague au doigt, elle veut un rock sur elle, rock, nigga Moshpit dans sa chatte comme j'fais du rock sur elle Pah, pah Vingt-quatre carats sur moi, j'mets pas du toc' sur lle Ta</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4658,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>You and me forever, Sara Smile Oh, won't you s-, smile Oui, oui, bitch Oh, won't you s-, smile Big, big glitch Oh, won't you s-, smile Hey Chill Oh, won't you s- Tu sais que jsmile quand jai ldroit à deux pussys That's right Tu sais que jsmile quand jmets des feuilles dans le Gucci Big money Oh, won't you s- Tu sais que jsmile quand jreçois une line qui cogne Hey Tu sais que jsmile parce qu'jai la beuh à Barrington Bang, bang, bang Oh, won't you s- Tu sais que jsmile quand jvois les colons quitter lAfrique Hey, hey, hey Tu sais que jsmile parce que jsais qu ça les fatigue Oh, won't you s- Tu sais que jsmil quand jvois le nigga dans un miroir Oui, bitch Jattends pas quon maime, jmets dla lumière sur mon ivoire Hey Oh, won't you s- Or rose sur mon ivoire, diamant à mon cou Shine Si jattrape ton ennemi, jvais porter ses dents à mon cou Hey Oh, won't you s- Tu sais que jsmile au soleil Et ils mregardent bizarre, ils préfèrent pleurer pour des choses qui sont dérisoires You might also like Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s- Jai une foi à toute épreuve Jai eu toutes les preuves Bitch, écoute mes oeuvres Go Oh, won't you s- Quand tu reçois pas cque tu veux faut que tu souris Parce quil faut pas mordre le sein qui te nourrit Oh, won't you s- Pense aux fois où tas pas eu cque tu voulais, parce que cétait pas bon pour toi et Dieu te la prouvé Oh, won't you s- Laisse objets qui portent la poisse aux objets trouvés Parce qu'dans la vie faut prendre des L pour prendre des double V Oh, won't you s- Jaime la vie parce qu'y a une vie après la vie Si Dieu tenvoie un signe faut qu'tu interagisses Go, go Oh, won't you s- Jai la vision et jl'ai eue par mes racines, donc rapproche toi des tiennes Fils, cest impératif Go, go Oh, won't you s- Tattire le négatif quand tes toujours négatif Moi jattrape limpératrice par la kératine Bitch Oh, won't you s- Pharaon est magique, comme Daniel Radcliffe Négro, faut qutu smile, cest la meilleure des thérapies, oui, bitch Go, go, go Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s- Oh, won't you s- Oh, won't you s- Oh, won't you s-</t>
+          <t>You and me forever, Sara Smile Oh, won't you s-, smile Oui, oui, bitch Oh, won't you s-, smile Big, big glitch Oh, won't you s-, smile Hey Chill Oh, won't you s- Tu sais que jsmile quand jai ldroit à deux pussys That's right Tu sais que jsmile quand jmets des feuilles dans le Gucci Big money Oh, won't you s- Tu sais que jsmile quand jreçois une line qui cogne Hey Tu sais que jsmile parce qu'jai la beuh à Barrington Bang, bang, bang Oh, won't you s- Tu sais que jsmile quand jvois les colons quitter lAfrique Hey, hey, hey Tu sais que jsmile parce que jsais qu ça les fatigue Oh, won't you s- Tu sais que jsmil quand jvois le nigga dans un miroir Oui, bitch Jattends pas quon maime, jmets dla lumière sur mon ivoire Hey Oh, won't you s- Or rose sur mon ivoire, diamant à mon cou Shine Si jattrape ton ennemi, jvais porter ses dents à mon cou Hey Oh, won't you s- Tu sais que jsmile au soleil Et ils mregardent bizarre, ils préfèrent pleurer pour des choses qui sont dérisoires Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s- Jai une foi à toute épreuve Jai eu toutes les preuves Bitch, écoute mes oeuvres Go Oh, won't you s- Quand tu reçois pas cque tu veux faut que tu souris Parce quil faut pas mordre le sein qui te nourrit Oh, won't you s- Pense aux fois où tas pas eu cque tu voulais, parce que cétait pas bon pour toi et Dieu te la prouvé Oh, won't you s- Laisse objets qui portent la poisse aux objets trouvés Parce qu'dans la vie faut prendre des L pour prendre des double V Oh, won't you s- Jaime la vie parce qu'y a une vie après la vie Si Dieu tenvoie un signe faut qu'tu interagisses Go, go Oh, won't you s- Jai la vision et jl'ai eue par mes racines, donc rapproche toi des tiennes Fils, cest impératif Go, go Oh, won't you s- Tattire le négatif quand tes toujours négatif Moi jattrape limpératrice par la kératine Bitch Oh, won't you s- Pharaon est magique, comme Daniel Radcliffe Négro, faut qutu smile, cest la meilleure des thérapies, oui, bitch Go, go, go Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s- Oh, won't you s- Oh, won't you s- Oh, won't you s-</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4675,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'extraits vidéo FREAKEY! FREAKEY! FREAKEY! FREAKEY! Yah J'ai le même bâton qu'dans City Hunter Yah Bitch regarde ma liasse, donne-moi ton number J'suis solitaire et j'suis bon pour faire l'oseille Et j'peux mettre deux solitaires sur tes oreilles Yah L'négro est deep, Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep, Yah L'négro est deep Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep Let's go, let's go Faut qu'je bouffe le cul d'Jennifer Lopez Si l'truc est obèse, sûr qu'j'tiens mes promesses Négro t'es trop lège, mon cur est trop lég' J'suis niveau Dieu, t'es niveau collège Négro est pieux, j'me lève et prie What ? Verbal odieux, j'claque dans vos yeux What ? Elle suce mon pénis au bord du précipice J'te mets un drap et j'vais méditer six piges J'ai le même bâton qu'dans City Hunter Yah Bitch regarde ma liasse, donne-moi ton number J'suis solitaire et j'suis bon pour faire l'oseille Et j'peux mettre deux solitaires sur tes oreilles Yah L'négro est deep, Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep, Yah L'négro est deep Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep Let's go, let's goYou might also like</t>
+          <t>Disclaimer Transcrit à partir d'extraits vidéo FREAKEY! FREAKEY! FREAKEY! FREAKEY! Yah J'ai le même bâton qu'dans City Hunter Yah Bitch regarde ma liasse, donne-moi ton number J'suis solitaire et j'suis bon pour faire l'oseille Et j'peux mettre deux solitaires sur tes oreilles Yah L'négro est deep, Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep, Yah L'négro est deep Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep Let's go, let's go Faut qu'je bouffe le cul d'Jennifer Lopez Si l'truc est obèse, sûr qu'j'tiens mes promesses Négro t'es trop lège, mon cur est trop lég' J'suis niveau Dieu, t'es niveau collège Négro est pieux, j'me lève et prie What ? Verbal odieux, j'claque dans vos yeux What ? Elle suce mon pénis au bord du précipice J'te mets un drap et j'vais méditer six piges J'ai le même bâton qu'dans City Hunter Yah Bitch regarde ma liasse, donne-moi ton number J'suis solitaire et j'suis bon pour faire l'oseille Et j'peux mettre deux solitaires sur tes oreilles Yah L'négro est deep, Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep, Yah L'négro est deep Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep Let's go, let's go</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4692,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Waw Richie dans la maison Flaco dans la maison Ke-Jo dans la maison Leknifrug dans la maison Au-dessus comme un hélico' J'suis pas Charlie, j'suis Doc Gyneco Avant c'était lourd, là c'est trop Richie Beats là c'est pro Bienvenue, bienvenue, bienvenue T'as vu la caisse, t'es revenu Flaco mundo c'est du caviar Rap français c'est du Prosecco Quand c'est trop, c'est trop J'ai sé-po c'est beau J'ai de l'amour propre Je touche pas ces thons J'te fais pas galérer dès l'intro c'est bon Si t'es méga bonne J'te fais crier comme un mégaphone Négro j'suis plus sur ma béquille J'suis dans la sauce avec Mehdi Tout s'est passé comme je l'avais prédit Pour ma baraque je fais pas de crédit Le savoir est une arme, on va rer-ti J'sors d'ta chatte, c'est encyclopédie Y'a que l'oseille qui peut combler l'appétit You might also like Yeah négro Tu sais comment ça se passe dans l'équipe, frère Tout le monde est liassé, frère Quand on est dans l'club ça s'passe mal Baby viens j'te lance une somme wah J'sais dépenser comme tu aimes wah Baby viens j'te lance une somme yeah J'vais t'faire danser comme une folle J'sais dépenser comme tu aimes goddamn J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes Mégamonstre Pour toi j'ai les pesos Tu lui fais des belles sauces Confondu sa chatte avec un cerceau Mon but c'est la Ferrari Enzo Ton but c'est de sortir de la friendzone Ils n'aiment plus HM Moi j'aime toujours pas Kenzo C'est pas les trois points qu'on va shooter Baby viens j'te lance une somme wah J'ai dépensé comme tu aimes wah Baby viens j'te lance une somme yeah J'vais t'faire danser comme une folle J'sais dépenser comme tu aimes goddamn J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes</t>
+          <t>Waw Richie dans la maison Flaco dans la maison Ke-Jo dans la maison Leknifrug dans la maison Au-dessus comme un hélico' J'suis pas Charlie, j'suis Doc Gyneco Avant c'était lourd, là c'est trop Richie Beats là c'est pro Bienvenue, bienvenue, bienvenue T'as vu la caisse, t'es revenu Flaco mundo c'est du caviar Rap français c'est du Prosecco Quand c'est trop, c'est trop J'ai sé-po c'est beau J'ai de l'amour propre Je touche pas ces thons J'te fais pas galérer dès l'intro c'est bon Si t'es méga bonne J'te fais crier comme un mégaphone Négro j'suis plus sur ma béquille J'suis dans la sauce avec Mehdi Tout s'est passé comme je l'avais prédit Pour ma baraque je fais pas de crédit Le savoir est une arme, on va rer-ti J'sors d'ta chatte, c'est encyclopédie Y'a que l'oseille qui peut combler l'appétit Yeah négro Tu sais comment ça se passe dans l'équipe, frère Tout le monde est liassé, frère Quand on est dans l'club ça s'passe mal Baby viens j'te lance une somme wah J'sais dépenser comme tu aimes wah Baby viens j'te lance une somme yeah J'vais t'faire danser comme une folle J'sais dépenser comme tu aimes goddamn J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes Mégamonstre Pour toi j'ai les pesos Tu lui fais des belles sauces Confondu sa chatte avec un cerceau Mon but c'est la Ferrari Enzo Ton but c'est de sortir de la friendzone Ils n'aiment plus HM Moi j'aime toujours pas Kenzo C'est pas les trois points qu'on va shooter Baby viens j'te lance une somme wah J'ai dépensé comme tu aimes wah Baby viens j'te lance une somme yeah J'vais t'faire danser comme une folle J'sais dépenser comme tu aimes goddamn J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4709,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>J'ai grind ma beuh au réveil, je suis dattaque, that's right Pour ma famille et l'oseille, je ne blague as-p' Tu sais qu'je ride depuis l'époque du StarTAC Tu sais que j'rappe depuis l'époque de Star Trak Okay J'fais l'oseille, jme fais pe-pom' dvant Hip-Hop Honeys Oui, j'ai l'oseille, donc quand je parle t'obéis Jveux cinq femmes au pays, cinq houses au pays J'rock Undercover, j'porte pas du OBEY Si t'es bonne et mignonne sûr j'suis okay Bébé, j'te préviens moi j'suis un géni A l'équinoxe, j'vais m'faire un Zénith J'lui casse l dos, je lui parle même pas Go Je ball comme Thierry et Anelka Go Frais, comme sorti du placenta Ouaais Oseille dans le crâne, j'suis pas sympa Ouais La concurrence faut qu'j'en fasse un tas Go Je veux qu'ils plongent, je veux qu'ils fassent un plat Si tu manges, bitch, faut qu'tu passes un plat Go, go, go J'passe pas la couronne, je passe un cap Pas faire l'oseille c'est pas acceptable J'crois pas cet homme, je crois pas cette femme J'suis la lumière j'suis inarrétable J'suis la lumière j'suis inarrétable Quand j'prend le mic, j'ai des eurêka That's Somme dans ma poche, elle est balèze Hey Quand j'suis au bled je suis à l'aise Hey La concu' s'jette de la falaise Hey Les rappeurs français, c'est des chialeuses Ma nouvelle 'tasse elle est moelleuse You might also like Bébé, tu sais j'suis un hustler Chasse les fantômes, comme Ghostbusters J'ai grind ma beuh au réveil, je suis d'attaque, that's right Pour ma famille et l'oseille, je ne blague 'as-p' Tu sais qu'je ride depuis l'époque du StarTAC Tu sais que j'rappe depuis l'époque de Star Trak</t>
+          <t>J'ai grind ma beuh au réveil, je suis dattaque, that's right Pour ma famille et l'oseille, je ne blague as-p' Tu sais qu'je ride depuis l'époque du StarTAC Tu sais que j'rappe depuis l'époque de Star Trak Okay J'fais l'oseille, jme fais pe-pom' dvant Hip-Hop Honeys Oui, j'ai l'oseille, donc quand je parle t'obéis Jveux cinq femmes au pays, cinq houses au pays J'rock Undercover, j'porte pas du OBEY Si t'es bonne et mignonne sûr j'suis okay Bébé, j'te préviens moi j'suis un géni A l'équinoxe, j'vais m'faire un Zénith J'lui casse l dos, je lui parle même pas Go Je ball comme Thierry et Anelka Go Frais, comme sorti du placenta Ouaais Oseille dans le crâne, j'suis pas sympa Ouais La concurrence faut qu'j'en fasse un tas Go Je veux qu'ils plongent, je veux qu'ils fassent un plat Si tu manges, bitch, faut qu'tu passes un plat Go, go, go J'passe pas la couronne, je passe un cap Pas faire l'oseille c'est pas acceptable J'crois pas cet homme, je crois pas cette femme J'suis la lumière j'suis inarrétable J'suis la lumière j'suis inarrétable Quand j'prend le mic, j'ai des eurêka That's Somme dans ma poche, elle est balèze Hey Quand j'suis au bled je suis à l'aise Hey La concu' s'jette de la falaise Hey Les rappeurs français, c'est des chialeuses Ma nouvelle 'tasse elle est moelleuse Bébé, tu sais j'suis un hustler Chasse les fantômes, comme Ghostbusters J'ai grind ma beuh au réveil, je suis d'attaque, that's right Pour ma famille et l'oseille, je ne blague 'as-p' Tu sais qu'je ride depuis l'époque du StarTAC Tu sais que j'rappe depuis l'époque de Star Trak</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4726,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Pharaon in this bitch Let's go Starlight Koffi Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey Si t'as rien d'beau à me dire ne viens pas me press La petite j'lui parle même pas, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash, big money, big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes, Pharaon Big cash, big money, big cash J'trust pas les bipèdes J'tire sur ton bitch ass, yes, pa-paw La bae a un 'vu-ca' énorme Je ne calcule pas les normes Ferrari, ne fait pas les soldes Tu lis des droits par les hommes J'suis pur en vrai, ça l'étonne, that's right Mon guide me tape sur l'épaule, hey J'met de la zer' sur les pôles, bang J'dors toujours sur le sol You might also likeJ'suis en mode Code Quantum Mes fantômes m'disent manifeste une phantom Si t'es un hater faut pas qu'tu t'en sortes Le swag est bête, tu sais qu'ça les rend sottes Ça les rend folles, ils appellent les renforts Je les ken violement ça les renforce À cinq ans, Gabi m'a appris à 'qué-bra, ensuite il s'est fait allumer en Corse, yes Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey, hey Si t'as rien d'beau à me dire ne viens pas me press La petite j'lui parle même pas, j'lui met dans la face, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash Big cash, big money, big cash Big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes Pas d'billets de cinq ou d'dix qui trainent dans la liasse Big cash, big money, bitch cash J'trust pas les bipèdes J'tire sur ton bitch ass Hey, hey, hey, yes Bitch ass, j'ai le flow comme Lil Weezy mixtape Mixtape Dans sa chatte tu fais pas dix reps Hm J'lui mets dans le 'vu-ca' direct Aïe aïe aïe Trois meilleures coffres, j'fais une triplette J'les frappe comme c'est des fliquettes Avec les cops c'est une piplette Mi-mi-mixtape, je ball comme dans AND1 mixtape Ball L'esprit souple et la bite raide Si j'la texte elle va vite rep' Starlight Koffi Mystère, tu sais que j'suis au cur du mystère Hm J'porte la pupille à dite red, hm J'fais pas confiance à un bipède Chill Où qu'je sois j'suis comme au bled, j'connais pas le stress Si t'as rien d'beau à me dire ne viens pas me press viens pas me 'ler-par' La petite j'lui parle même pas, j'lui met dans la face, sla-sla J'me suis formé avec les cafards dans la crasse Pas d'billets de cinq ou d'dix qui trainent dans la liasse Starlight Koffi</t>
+          <t>Pharaon in this bitch Let's go Starlight Koffi Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey Si t'as rien d'beau à me dire ne viens pas me press La petite j'lui parle même pas, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash, big money, big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes, Pharaon Big cash, big money, big cash J'trust pas les bipèdes J'tire sur ton bitch ass, yes, pa-paw La bae a un 'vu-ca' énorme Je ne calcule pas les normes Ferrari, ne fait pas les soldes Tu lis des droits par les hommes J'suis pur en vrai, ça l'étonne, that's right Mon guide me tape sur l'épaule, hey J'met de la zer' sur les pôles, bang J'dors toujours sur le sol J'suis en mode Code Quantum Mes fantômes m'disent manifeste une phantom Si t'es un hater faut pas qu'tu t'en sortes Le swag est bête, tu sais qu'ça les rend sottes Ça les rend folles, ils appellent les renforts Je les ken violement ça les renforce À cinq ans, Gabi m'a appris à 'qué-bra, ensuite il s'est fait allumer en Corse, yes Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey, hey Si t'as rien d'beau à me dire ne viens pas me press La petite j'lui parle même pas, j'lui met dans la face, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash Big cash, big money, big cash Big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes Pas d'billets de cinq ou d'dix qui trainent dans la liasse Big cash, big money, bitch cash J'trust pas les bipèdes J'tire sur ton bitch ass Hey, hey, hey, yes Bitch ass, j'ai le flow comme Lil Weezy mixtape Mixtape Dans sa chatte tu fais pas dix reps Hm J'lui mets dans le 'vu-ca' direct Aïe aïe aïe Trois meilleures coffres, j'fais une triplette J'les frappe comme c'est des fliquettes Avec les cops c'est une piplette Mi-mi-mixtape, je ball comme dans AND1 mixtape Ball L'esprit souple et la bite raide Si j'la texte elle va vite rep' Starlight Koffi Mystère, tu sais que j'suis au cur du mystère Hm J'porte la pupille à dite red, hm J'fais pas confiance à un bipède Chill Où qu'je sois j'suis comme au bled, j'connais pas le stress Si t'as rien d'beau à me dire ne viens pas me press viens pas me 'ler-par' La petite j'lui parle même pas, j'lui met dans la face, sla-sla J'me suis formé avec les cafards dans la crasse Pas d'billets de cinq ou d'dix qui trainent dans la liasse Starlight Koffi</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4743,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Pharaon in this bitch Let's go Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey Si t'as rien d'beau à me dire viens pas me press La petite j'lui parle même pas, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash, big money, big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes, Pharaon Big cash, big money, big cash Hey J'trust pas les bipèdes Hey J'tire sur ton bitch ass, yes, pa-paw Là-bas y a un 'vu-ca' énorme Je ne calcule pas les normes Ferrari, ne fait pas les soldes Tu lis des droits par les hommes J'suis pur en vrai, ça l'étonne, that's right Mon guide me tape sur l'épaule, hey J'met de la zer' sur les pôles, bang J'dors toujours sur le sol J'suis en mode Code Quantum Mes fantômes m'disent manifeste une phantom Si t'es un hater faut pas qu'tu t'en sortes Le swag est bête, tu sais qu'ça les rend sottes Ça les rend folles, ils appellent les renforts Je les ken violement ça les renforce À cinq ans, Gabi m'a appris à 'qué-bra, ensuite il s'est fait allumer en Corse, yes Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey, hey Si t'as rien d'beau à me dire viens pas me press La petite j'lui parle même pas, j'lui met dans la face, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash Big cash, big money, big cash Big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes Pas d'billets de cinq ou d'dix qui trainent dans la liasse Big cash, big money, bitch cash J'trust pas les piplettes J'tire sur ton bitch ass Hey, hey, hey, yes Bitch ass, j'ai le flow comme Lil Weezy mixtape Mixtape Dans sa chatte tu fais pas dix reps Hm J'la met dans le 'vu-ca' direct Trois meilleures coffres, j'fais une triplette J'les frappe comme c'est des fliquettes Avec les copps c'est des piplettes Mi-mi-mixtape, je ball comme dans AND1 mixtape Ball L'esprit souple et la bite raide Ball Si j'la texte elle va vite rep' Mi-mistère, tu sais que j'suis au cur du mystère Hm J'porte la pupille à dite red, hm J'fais pas confiance à un bipède Chill Où qu'je sois j'suis comme au bled, j'connais pas le stress Si t'as rien d'beau à me dire viens pas me press, viens pas me 'ler-par' La petite j'lui parle même pas, j'lui met dans la face, sla-sla J'me suis formé avec les cafards dans la crasse Pas d'billets de cinq ou d'dix qui trainent dans la liasse Myth Syzer est passé par làYou might also like</t>
+          <t>Pharaon in this bitch Let's go Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey Si t'as rien d'beau à me dire viens pas me press La petite j'lui parle même pas, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash, big money, big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes, Pharaon Big cash, big money, big cash Hey J'trust pas les bipèdes Hey J'tire sur ton bitch ass, yes, pa-paw Là-bas y a un 'vu-ca' énorme Je ne calcule pas les normes Ferrari, ne fait pas les soldes Tu lis des droits par les hommes J'suis pur en vrai, ça l'étonne, that's right Mon guide me tape sur l'épaule, hey J'met de la zer' sur les pôles, bang J'dors toujours sur le sol J'suis en mode Code Quantum Mes fantômes m'disent manifeste une phantom Si t'es un hater faut pas qu'tu t'en sortes Le swag est bête, tu sais qu'ça les rend sottes Ça les rend folles, ils appellent les renforts Je les ken violement ça les renforce À cinq ans, Gabi m'a appris à 'qué-bra, ensuite il s'est fait allumer en Corse, yes Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey, hey Si t'as rien d'beau à me dire viens pas me press La petite j'lui parle même pas, j'lui met dans la face, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash Big cash, big money, big cash Big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes Pas d'billets de cinq ou d'dix qui trainent dans la liasse Big cash, big money, bitch cash J'trust pas les piplettes J'tire sur ton bitch ass Hey, hey, hey, yes Bitch ass, j'ai le flow comme Lil Weezy mixtape Mixtape Dans sa chatte tu fais pas dix reps Hm J'la met dans le 'vu-ca' direct Trois meilleures coffres, j'fais une triplette J'les frappe comme c'est des fliquettes Avec les copps c'est des piplettes Mi-mi-mixtape, je ball comme dans AND1 mixtape Ball L'esprit souple et la bite raide Ball Si j'la texte elle va vite rep' Mi-mistère, tu sais que j'suis au cur du mystère Hm J'porte la pupille à dite red, hm J'fais pas confiance à un bipède Chill Où qu'je sois j'suis comme au bled, j'connais pas le stress Si t'as rien d'beau à me dire viens pas me press, viens pas me 'ler-par' La petite j'lui parle même pas, j'lui met dans la face, sla-sla J'me suis formé avec les cafards dans la crasse Pas d'billets de cinq ou d'dix qui trainent dans la liasse Myth Syzer est passé par là</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4760,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Bang-bang-bang C'que tu cherches tu le trouves, bitch, hey Dans ma tête c'est le Louvre, bitch J'débarque en coupe, j'repars en soucoupe, bitch J'rentre dans l'club solo, j'pars en double couple, bitch T'as des caractéristiques d'agent double, bitch Trop respecter la loi ça rend fou, bitch Jeune espagnol, fils d'ouvrier, hey J'ai tout plié, puis j'ai oublié J'suis dans l'carré comme sur la touche, bitch Mais c'est eux qui sont sur la touche, bitch Ta 'tasse me 'pé-pom' sous la douche, bitch Han Tu lui mets la langue dans la bouche, bitch J'ai nagé en eau trouble, bitch J'ai la grâce, mon compte double, bitch Tu fais le liquide au compte-goutte, bitch Le négro stunt comme Tom Cruise, bitch Quand on m'voit tu comprends qu'on doute, bitch J'transforme ta 'ne-Chi' en louve bitch Han J'transforme les dollars en rouble, bitch C'est la vraie vie, pas un concours, bitch Pour qu'la vie suive son cours faut qu'tu suives son cours, bitch Fého J'ai dis j'en frappe une autre, attend ton tour, bitch Arme automatique dans la Goose, bitch Les 'tasses faisaient des curs sur ma trousse, bitch Toujours était nigga, c'est ça la news, bitch J'mets des choses au monde, juste par ma bouche, bitch You might also like Hey, young nigga Hey-hey-hey, hey-hey-hey</t>
+          <t>Bang-bang-bang C'que tu cherches tu le trouves, bitch, hey Dans ma tête c'est le Louvre, bitch J'débarque en coupe, j'repars en soucoupe, bitch J'rentre dans l'club solo, j'pars en double couple, bitch T'as des caractéristiques d'agent double, bitch Trop respecter la loi ça rend fou, bitch Jeune espagnol, fils d'ouvrier, hey J'ai tout plié, puis j'ai oublié J'suis dans l'carré comme sur la touche, bitch Mais c'est eux qui sont sur la touche, bitch Ta 'tasse me 'pé-pom' sous la douche, bitch Han Tu lui mets la langue dans la bouche, bitch J'ai nagé en eau trouble, bitch J'ai la grâce, mon compte double, bitch Tu fais le liquide au compte-goutte, bitch Le négro stunt comme Tom Cruise, bitch Quand on m'voit tu comprends qu'on doute, bitch J'transforme ta 'ne-Chi' en louve bitch Han J'transforme les dollars en rouble, bitch C'est la vraie vie, pas un concours, bitch Pour qu'la vie suive son cours faut qu'tu suives son cours, bitch Fého J'ai dis j'en frappe une autre, attend ton tour, bitch Arme automatique dans la Goose, bitch Les 'tasses faisaient des curs sur ma trousse, bitch Toujours était nigga, c'est ça la news, bitch J'mets des choses au monde, juste par ma bouche, bitch Hey, young nigga Hey-hey-hey, hey-hey-hey</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4777,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>OH On va sposer un ptit peu Baisser la tension, calmement Joke, jte vois, on dit quoi mon pote ? Jai bien étudié le marché Dans un an jmange le game et dans 2 je me barre chier Sur une cuvette en or jaurai assorti à mes couilles Jaurai sorti un disque avant quon ait sorti ma dépouille Je rêve ? Personne marrête, jai le moral trop friable, comme une barrette Jsuis pas un gars trop fiable, me donne pas drencard Tu pourras croire au miracle si tu évites le brancard Jfais pas dbasket mais jpeux baller, les bras ballants Y'en a qui pensent quils peuvent croquer en avalant Face à ce que tu vas prendre Guy Moquet a juste prit une demi rouste Jvais tfaire jouer au bilboquer jsuis comme la terre en 2012 Jdébarque frais comme une avalanche, déplacé comme une main aux seufs apres être passé par la hanche Jveux brasser comme Danone, dans les conditions sine qua non Je terrasse lennemi entre nous ya trop décart jlai aurait fumé à et demi You might also like Je veux la money, le rap, les femmes, mais ouais Les phases, la sape et les fans Flaner dans lespace, voyager en 1ère classe Laissez passer les garces, les timps, les salopes et les tass Les strass et les paillettes, laisser des traces dans lrap Pas dans lassiette après mon passage il ne restera même pas une seule miette Du caviar dans ma baguette, que mes disques sachètent par camionnette Ou à la FNAC avec des brouettes Jveux les nouvelles Nike avec ma tête sur la languette 5 bouteilles en boite avec toute léquipe sur la banquette Arrêtez de mprendre la tête, ptêtre que jsuis plus un rookie Mais jveux les euros,les dollars, les yens et même les roupies Nique les groupies, demande à Joke on est prêts pour largent Voir la vie en large, le contraire serait rageant Jveux être une star, peser, faire des envieux Non sérieux je crois quen fait je veux juste être heureux</t>
+          <t>OH On va sposer un ptit peu Baisser la tension, calmement Joke, jte vois, on dit quoi mon pote ? Jai bien étudié le marché Dans un an jmange le game et dans 2 je me barre chier Sur une cuvette en or jaurai assorti à mes couilles Jaurai sorti un disque avant quon ait sorti ma dépouille Je rêve ? Personne marrête, jai le moral trop friable, comme une barrette Jsuis pas un gars trop fiable, me donne pas drencard Tu pourras croire au miracle si tu évites le brancard Jfais pas dbasket mais jpeux baller, les bras ballants Y'en a qui pensent quils peuvent croquer en avalant Face à ce que tu vas prendre Guy Moquet a juste prit une demi rouste Jvais tfaire jouer au bilboquer jsuis comme la terre en 2012 Jdébarque frais comme une avalanche, déplacé comme une main aux seufs apres être passé par la hanche Jveux brasser comme Danone, dans les conditions sine qua non Je terrasse lennemi entre nous ya trop décart jlai aurait fumé à et demi Je veux la money, le rap, les femmes, mais ouais Les phases, la sape et les fans Flaner dans lespace, voyager en 1ère classe Laissez passer les garces, les timps, les salopes et les tass Les strass et les paillettes, laisser des traces dans lrap Pas dans lassiette après mon passage il ne restera même pas une seule miette Du caviar dans ma baguette, que mes disques sachètent par camionnette Ou à la FNAC avec des brouettes Jveux les nouvelles Nike avec ma tête sur la languette 5 bouteilles en boite avec toute léquipe sur la banquette Arrêtez de mprendre la tête, ptêtre que jsuis plus un rookie Mais jveux les euros,les dollars, les yens et même les roupies Nique les groupies, demande à Joke on est prêts pour largent Voir la vie en large, le contraire serait rageant Jveux être une star, peser, faire des envieux Non sérieux je crois quen fait je veux juste être heureux</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4794,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us Yeah, yeah No one on the corner has swagger like us Personne, personne Swagger like us, swagger-swagger like us Yeah, ok Personne a du swagga comme nous, c'est ça J'le répète, mais je sais qu'le monde sait ça Le jour où je n'serais plus le swagga s'en ira, il disparaîtra pour tpujours, et là tu te diras Putain, ce mec quelle classe quand-même. J'serre une 'meu-f', et j'me casse sans elle Ils me font doucement rire tous ces p'tits rappeurs Je contrôle ce navire comme un pirate, miracle je me tire ailleurs J'suis trop à l'aise sur la vague du truc J'te donne envie comme une page de pub Tu m'fais marrer comme ta face de cul J'récupère ta 'meu-f', quand elle sort d'son agence de pute Yeah Personne a du swagger comme Stunt, quelques corps de MC's, collés sous mes pumps J'casse le panier si je fais un dunk Toi t'es Donald, moi je suis Donald Trump You might also like Si j'crache un putain d'seize sans ta gueule tu me remercieras Si j'crache dans ta meuf elle me remerciera Jusqu'à maintenant j'faisais rien, tout comme le père Chirac Yeah Mon nom chez Stunts c'est l'enfer, c'est Lucifer qui rappe Hein-hein, non-non, plus pote avec Belzbuth il me ferme des portes depuis que je baise ces putes Je suis dans le tiercé Flûte, il s'rait temps que je persécute Je sais que tu tombes de haut, quand tu , mais chut Si ils vont s'approcher d'mes pompes c'est pour m'les faire serrer Quand j'm'enlève ma bite de ta bouche c'est pour remercier Ah-ah Stunt dans le casque, et bientôt Stunt à Bercy Et, quand j'suis constipé j't'écoute pour me faire chier Stunt, Stunt, les meufs sont accros -os J'gagne toujours quand faut donner ma langue aux chattes , font la queue Oh J'étais Rocky, maintenant j'suis dans Rambo 4 No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us Personne n'a de swagg comme ce salopard Tek' J'touche le ciel du doigt, et j'laisse les nympho' par terre c'est le cadeau parfait Trouve-moi dans un coin du bar avec un cacolac frais On est pas les meilleurs ? Non mais allo dans la Terre ?! Ton sens des valeurs tu l'as eu grave au rabais Si j'pars à la r'traite j'laisse le rap en galère Laisse-moi être moi, ok, d'acco-d'acc' frère Tu connais mon swagger attitude de blagueur Hors de question d'oublier mes habitudes de malheur J'ai jamais su dire Je t'aime. avec mon coeur de rappeur, mais j'te vends l'amour avec une multitude de saveurs Multitude de saveurs ? Choco', vanille, fraise Et, je serais tristounet si aucune de tes amies j'baise Tout à la fois pour toi, pas pour moi, c'est pas inhabituel, mais c'est ce soir ou jamais, demain j'aurais p't'êt' la migraine Ok, similitudes mon style il tue C'est sûr qui te fume, aucune issue À ma vue les filles titubent, parce qu'elles voient qu'y'a d'la thune ici J'suis trop visible et original, trop lean Origine, je l'ai dis Mon swagg agît comme un v8 à plein régime On impose un gros risque, comme On est pas d'la même catégorie au premier tour, t'es lâché Et, dans c'pays personne ne Dans ce rap game là le putain d'swagg attend qu'Stunt J'ai dis On a ce swagg élégant, de quoi faire claquer les gants, donc vas-y Mate bien l'aisance, mate l'élégance dans les frappes, dans les pompes , j'crois qu'on est bon, ouais, j'crois qu'on est dans l'vrai Tu veux faire ton remix ? Allons-d'ont Soirée Alice ? Abandonne Pas d'bla-bla, nous on blague pas, donc parle SoFresh Squad, c'est d'la gregouz, flaque de bâtard Tu parles au général donc salut-moi, et marche, ou pars No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us Like us-like us-like us-like us-like us..</t>
+          <t>No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us Yeah, yeah No one on the corner has swagger like us Personne, personne Swagger like us, swagger-swagger like us Yeah, ok Personne a du swagga comme nous, c'est ça J'le répète, mais je sais qu'le monde sait ça Le jour où je n'serais plus le swagga s'en ira, il disparaîtra pour tpujours, et là tu te diras Putain, ce mec quelle classe quand-même. J'serre une 'meu-f', et j'me casse sans elle Ils me font doucement rire tous ces p'tits rappeurs Je contrôle ce navire comme un pirate, miracle je me tire ailleurs J'suis trop à l'aise sur la vague du truc J'te donne envie comme une page de pub Tu m'fais marrer comme ta face de cul J'récupère ta 'meu-f', quand elle sort d'son agence de pute Yeah Personne a du swagger comme Stunt, quelques corps de MC's, collés sous mes pumps J'casse le panier si je fais un dunk Toi t'es Donald, moi je suis Donald Trump Si j'crache un putain d'seize sans ta gueule tu me remercieras Si j'crache dans ta meuf elle me remerciera Jusqu'à maintenant j'faisais rien, tout comme le père Chirac Yeah Mon nom chez Stunts c'est l'enfer, c'est Lucifer qui rappe Hein-hein, non-non, plus pote avec Belzbuth il me ferme des portes depuis que je baise ces putes Je suis dans le tiercé Flûte, il s'rait temps que je persécute Je sais que tu tombes de haut, quand tu , mais chut Si ils vont s'approcher d'mes pompes c'est pour m'les faire serrer Quand j'm'enlève ma bite de ta bouche c'est pour remercier Ah-ah Stunt dans le casque, et bientôt Stunt à Bercy Et, quand j'suis constipé j't'écoute pour me faire chier Stunt, Stunt, les meufs sont accros -os J'gagne toujours quand faut donner ma langue aux chattes , font la queue Oh J'étais Rocky, maintenant j'suis dans Rambo 4 No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us Personne n'a de swagg comme ce salopard Tek' J'touche le ciel du doigt, et j'laisse les nympho' par terre c'est le cadeau parfait Trouve-moi dans un coin du bar avec un cacolac frais On est pas les meilleurs ? Non mais allo dans la Terre ?! Ton sens des valeurs tu l'as eu grave au rabais Si j'pars à la r'traite j'laisse le rap en galère Laisse-moi être moi, ok, d'acco-d'acc' frère Tu connais mon swagger attitude de blagueur Hors de question d'oublier mes habitudes de malheur J'ai jamais su dire Je t'aime. avec mon coeur de rappeur, mais j'te vends l'amour avec une multitude de saveurs Multitude de saveurs ? Choco', vanille, fraise Et, je serais tristounet si aucune de tes amies j'baise Tout à la fois pour toi, pas pour moi, c'est pas inhabituel, mais c'est ce soir ou jamais, demain j'aurais p't'êt' la migraine Ok, similitudes mon style il tue C'est sûr qui te fume, aucune issue À ma vue les filles titubent, parce qu'elles voient qu'y'a d'la thune ici J'suis trop visible et original, trop lean Origine, je l'ai dis Mon swagg agît comme un v8 à plein régime On impose un gros risque, comme On est pas d'la même catégorie au premier tour, t'es lâché Et, dans c'pays personne ne Dans ce rap game là le putain d'swagg attend qu'Stunt J'ai dis On a ce swagg élégant, de quoi faire claquer les gants, donc vas-y Mate bien l'aisance, mate l'élégance dans les frappes, dans les pompes , j'crois qu'on est bon, ouais, j'crois qu'on est dans l'vrai Tu veux faire ton remix ? Allons-d'ont Soirée Alice ? Abandonne Pas d'bla-bla, nous on blague pas, donc parle SoFresh Squad, c'est d'la gregouz, flaque de bâtard Tu parles au général donc salut-moi, et marche, ou pars No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us Like us-like us-like us-like us-like us..</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4811,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>J'sors de chez Prada J'ai la vibe de Beerus et Gaara Jeu est tout mort quand on est pas là That's right J'fume le custo', comme au Nevada C'est ma tchoin, ih, c'est ma Tagada Hmm Son cul est costaud, je suis son dada, je suis son daddy Dior, Undercover dans mon caddie Go, go, go Tes rappeurs m'ont pompé, te l'ont pas dit Go, go, go Ice au cou, ils voulaient qu'on pati Go, go, go Ces souffrants m'feront pas compatir Go, go, go Hallow et tips stacké dans mon calibre Go, go, go Ne viens pas t'planter sur mon canif Go, go, go Ta 'tasse est ma chienne, c'est mon caniche Go, go, go Ils sont déguisés, ils sont trannies Go, go, go Négro, fly, L.A. ma compagnie Go, go, go J'ai du plomb dans la tête Go, go, go Alchimiste, donc d l'or dans la tête Go, go, go J'suis focus, j'fais un tour dans ma quête Go, go, go Bitch, c'est un RPG dans ma têt Go, go, go Je rentre en C.d.G. dans la fête Go, go, go J'rentre pas en entier dans sa shnek Go, go, go Ta 'tasse veut rentrer dans ma secte Go, go, go Yo, hm Pharaon Go, go, go You might also like J'sors de chez Prada Go, go, go J'ai la vibe de Beerus et Gaara Go, go, go Jeu est tout mort quand on est pas là Go, go, go J'fume le custo', comme au Nevada Go, go, go C'est ma tchoin, ih, c'est ma Tagada Go, go, go Son cul est costaud, je suis son dada Go, go, go Dior, Undercover dans mon cabas Lil' bitch Go, go, go Go, go, go Go, go, go Go, go, go Go, go, go Go, go, go Go, go, go Oh my God J'sors de chez Prada J'ai la vibe de Beerus et Gaara Jeu est tout mort quand on est pas là That's right J'fume le custo', comme au Nevada C'est ma tchoin, ih, c'est ma Tagada, hmm Son cul est costaud, je suis son dada, je suis son daddy Dior, Undercover dans mon caddie Go, go, go Tes rappeurs m'ont pompé, te l'ont pas dit Go, go, go Ice au cou, ils voulaient qu'on pati Go, go, go Ces souffrants m'feront pas compatir Go, go, go Hallow et tips stacké dans mon calibre Go, go, go Ne viens pas t'planter sur mon canif Go, go, go Ta 'tasse est ma chienne, c'est mon caniche Go, go, go Ils sont déguisés, ils sont trannies Go, go, go Négro, fly, L.A. ma compagnie Go, go, go J'ai du plomb dans la tête Go, go, go Alchimiste, donc de l'or dans la tête Go, go, go J'suis focus, j'fais un tour dans ma quête Go, go, go Bitch, c'est un RPG dans ma tête Go, go, go Je rentre en C.d.G. dans la fête Go, go, go J'rentre pas en entier dans sa shnek Go, go, go Ta 'tasse veut rentrer dans ma secte Go, go, go Yo, hm Go, go, go J'sors de chez Prada Go, go, go J'ai la vibe de Beerus et Gaara Go, go, go Jeu est tout mort quand on est pas là Go, go, go J'fume le custo', comme au Nevada Go, go, go C'est ma tchoin, ih, c'est ma Tagada Go, go, go Son cul est costaud, je suis son dada Go, go, go Dior, Undercover dans mon cabas Go, go, go Cabas, cabas, cabas1</t>
+          <t>J'sors de chez Prada J'ai la vibe de Beerus et Gaara Jeu est tout mort quand on est pas là That's right J'fume le custo', comme au Nevada C'est ma tchoin, ih, c'est ma Tagada Hmm Son cul est costaud, je suis son dada, je suis son daddy Dior, Undercover dans mon caddie Go, go, go Tes rappeurs m'ont pompé, te l'ont pas dit Go, go, go Ice au cou, ils voulaient qu'on pati Go, go, go Ces souffrants m'feront pas compatir Go, go, go Hallow et tips stacké dans mon calibre Go, go, go Ne viens pas t'planter sur mon canif Go, go, go Ta 'tasse est ma chienne, c'est mon caniche Go, go, go Ils sont déguisés, ils sont trannies Go, go, go Négro, fly, L.A. ma compagnie Go, go, go J'ai du plomb dans la tête Go, go, go Alchimiste, donc d l'or dans la tête Go, go, go J'suis focus, j'fais un tour dans ma quête Go, go, go Bitch, c'est un RPG dans ma têt Go, go, go Je rentre en C.d.G. dans la fête Go, go, go J'rentre pas en entier dans sa shnek Go, go, go Ta 'tasse veut rentrer dans ma secte Go, go, go Yo, hm Pharaon Go, go, go J'sors de chez Prada Go, go, go J'ai la vibe de Beerus et Gaara Go, go, go Jeu est tout mort quand on est pas là Go, go, go J'fume le custo', comme au Nevada Go, go, go C'est ma tchoin, ih, c'est ma Tagada Go, go, go Son cul est costaud, je suis son dada Go, go, go Dior, Undercover dans mon cabas Lil' bitch Go, go, go Go, go, go Go, go, go Go, go, go Go, go, go Go, go, go Go, go, go Oh my God J'sors de chez Prada J'ai la vibe de Beerus et Gaara Jeu est tout mort quand on est pas là That's right J'fume le custo', comme au Nevada C'est ma tchoin, ih, c'est ma Tagada, hmm Son cul est costaud, je suis son dada, je suis son daddy Dior, Undercover dans mon caddie Go, go, go Tes rappeurs m'ont pompé, te l'ont pas dit Go, go, go Ice au cou, ils voulaient qu'on pati Go, go, go Ces souffrants m'feront pas compatir Go, go, go Hallow et tips stacké dans mon calibre Go, go, go Ne viens pas t'planter sur mon canif Go, go, go Ta 'tasse est ma chienne, c'est mon caniche Go, go, go Ils sont déguisés, ils sont trannies Go, go, go Négro, fly, L.A. ma compagnie Go, go, go J'ai du plomb dans la tête Go, go, go Alchimiste, donc de l'or dans la tête Go, go, go J'suis focus, j'fais un tour dans ma quête Go, go, go Bitch, c'est un RPG dans ma tête Go, go, go Je rentre en C.d.G. dans la fête Go, go, go J'rentre pas en entier dans sa shnek Go, go, go Ta 'tasse veut rentrer dans ma secte Go, go, go Yo, hm Go, go, go J'sors de chez Prada Go, go, go J'ai la vibe de Beerus et Gaara Go, go, go Jeu est tout mort quand on est pas là Go, go, go J'fume le custo', comme au Nevada Go, go, go C'est ma tchoin, ih, c'est ma Tagada Go, go, go Son cul est costaud, je suis son dada Go, go, go Dior, Undercover dans mon cabas Go, go, go Cabas, cabas, cabas1</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4828,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Oh Moi, tu vois, j'ai pas de t-shirt Sixpack Hein Lionel J'en ai très peu Ok, mais je trouve ça chant-mé, ils défoncent les t-shirts En tous cas c'qu'est sûr c'est qu'j'suis l'futur Joke aussi, et fallait que je rap sur ce beat Yeah, yeah J'ai troix t-shirts Sixpack mais c'est pas grave, j'suis le futur, auss' Même si j'ai gross' Un petit peu c'est pas quelques kilos qui vont m'ralentir J'plais toujours autant d'filles, j'suis la galanterie Ok J'ai le swag dans la poche et ma langue dans leur bouche Ah J'ai mes mains qui les touche, m'écoute, c'est pas tout Si t'aimes pas, t'as pas d'goûts, on est trop passe-partout J'comprend qu'tu sois jaloux, si on existait pas, j'rêverais d'être nous On a les plus beaux habits, désolés d'être lourds Avec ça, t'en as pas, heureusement, Sixpack est là Tu veux la collection, le futur ? Clique avec ton doigt Clique-clique avec ton doigt Dis bye-bye à tes euros, bonjour à tes nouvelles conquêtes On sait bien qu'on est bien sappé pour toutes ces gonzesses Mon appart' est un vrai signe, trois pièces Plus d'place dans l'placard, y a l'frigidaire, t'inquiètes T'inquiètes You might also like On a les semelles qui touchent le sol et la tête dans les étoiles On veut tous les modèles, tout c'qui sort, les couleurs et toutes les tailles On veut tout avoir avant tout l'monde et c'est normal, on a l'seum Si tu veux vraiment voir le futur Joke, yeah, regarde Si, si mes gars et moi Ok, yeah Yeah, quand j'étais petit j'collectionnais les caramels Heureusement j'ai stoppé sinon j'aurais les dents à YELLE, oh Pour les nouvelles paires, c'est sneakers.fr, yeah Je prend soin d'mes chaussures, quand j'suis malade tu parles à elles, Des séries limitées, pas vraiment hésité, à mes pieds t'as les yeux qui piquent La corne est irritée, tout c'que t'as mérité connard, c'est qu'je sorte mes Sixpacks Les p'tites craquent, les p'tites passes, hésite pas Prends un aspelgique, je t'enrhume, j'suis plus frais qu'un Tic Tac T'inquiètes pas, l'futur nous appartient, j'ai garé la Delorean pas loin Et ramène-moi les kids un par un, c'est , c'est qui ? C'est mon parrain Yeah Si j'met des Sixpacks c'est pour me serrer, Scarlett Johansson comme j'ai vu à la télé' Télé' Ouvrir mon clic-clac, la déshabiller, à côté d'mes Nike, lui faire prendre son pied On a les semelles qui touchent le sol et la tête dans les étoiles On veut tous les modèles, tout c'qui sort, les couleurs et toutes les tailles On veut tout avoir avant tout l'monde et c'est normal, on a l'seum Si tu veux vraiment voir le futur, regarde mes gars et moi</t>
+          <t>Oh Moi, tu vois, j'ai pas de t-shirt Sixpack Hein Lionel J'en ai très peu Ok, mais je trouve ça chant-mé, ils défoncent les t-shirts En tous cas c'qu'est sûr c'est qu'j'suis l'futur Joke aussi, et fallait que je rap sur ce beat Yeah, yeah J'ai troix t-shirts Sixpack mais c'est pas grave, j'suis le futur, auss' Même si j'ai gross' Un petit peu c'est pas quelques kilos qui vont m'ralentir J'plais toujours autant d'filles, j'suis la galanterie Ok J'ai le swag dans la poche et ma langue dans leur bouche Ah J'ai mes mains qui les touche, m'écoute, c'est pas tout Si t'aimes pas, t'as pas d'goûts, on est trop passe-partout J'comprend qu'tu sois jaloux, si on existait pas, j'rêverais d'être nous On a les plus beaux habits, désolés d'être lourds Avec ça, t'en as pas, heureusement, Sixpack est là Tu veux la collection, le futur ? Clique avec ton doigt Clique-clique avec ton doigt Dis bye-bye à tes euros, bonjour à tes nouvelles conquêtes On sait bien qu'on est bien sappé pour toutes ces gonzesses Mon appart' est un vrai signe, trois pièces Plus d'place dans l'placard, y a l'frigidaire, t'inquiètes T'inquiètes On a les semelles qui touchent le sol et la tête dans les étoiles On veut tous les modèles, tout c'qui sort, les couleurs et toutes les tailles On veut tout avoir avant tout l'monde et c'est normal, on a l'seum Si tu veux vraiment voir le futur Joke, yeah, regarde Si, si mes gars et moi Ok, yeah Yeah, quand j'étais petit j'collectionnais les caramels Heureusement j'ai stoppé sinon j'aurais les dents à YELLE, oh Pour les nouvelles paires, c'est sneakers.fr, yeah Je prend soin d'mes chaussures, quand j'suis malade tu parles à elles, Des séries limitées, pas vraiment hésité, à mes pieds t'as les yeux qui piquent La corne est irritée, tout c'que t'as mérité connard, c'est qu'je sorte mes Sixpacks Les p'tites craquent, les p'tites passes, hésite pas Prends un aspelgique, je t'enrhume, j'suis plus frais qu'un Tic Tac T'inquiètes pas, l'futur nous appartient, j'ai garé la Delorean pas loin Et ramène-moi les kids un par un, c'est , c'est qui ? C'est mon parrain Yeah Si j'met des Sixpacks c'est pour me serrer, Scarlett Johansson comme j'ai vu à la télé' Télé' Ouvrir mon clic-clac, la déshabiller, à côté d'mes Nike, lui faire prendre son pied On a les semelles qui touchent le sol et la tête dans les étoiles On veut tous les modèles, tout c'qui sort, les couleurs et toutes les tailles On veut tout avoir avant tout l'monde et c'est normal, on a l'seum Si tu veux vraiment voir le futur, regarde mes gars et moi</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4845,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Han han, yo ! He yo, he yo, he yo Je kicke ce beat parce qu'il est chaud c'est ce que Craiz m'a dit J'ai trop la dalle j'passe à Leclerc, j'sors avec 13 caddies Tu m'as ajouté sur Facebook, ouais on est presque amis J'te vois dans le ciel t'es pas Superman t'es Super Nanny Les MC veulent changer d'air, y a un peu trop de flow dans le gaz Depuis que j'mets de l'eau dans mon vin les negros boivent du rosé J'suis tout sec, yo crack pas une allumette Tu te tapes des alumards mode chocolat papier d'alu Mec, mes négros mettent du chocolat dans du papier d'alu, mec on dit qu'ta meuf est presbyte négro elle porte pas de lunettes Après l'écoute d'un 16 t'as les mêmes oreilles qu'un cocker Ok Joky, dans le rap j'suis un joker J'fume pas, j'sniff pas, pour garder la ligne J'douille des ptites meufs comme toi, joue pas les malignes Salades tomates oignons et j'te bouffe comme un que-grè On m'arrête pas gros, on arrête pas l'progrès On s'en bat les couilles, tire sur nous on s'en bat les douilles Quand ta meuf nous voit elle s'emballe et mouille, on s'en bat les couilles Bat les bat les bat les couilles Bat les bat les bat les couilles You might also like J'vais m'vénère, j'vais devenir vert de rage DavidBanner J'suis le meilleur tu seras forcé de me croire quand je l'aurais juré sur la vie d'ta mère la milf On débarque dans le club et on fait la diff' On met ta meuf en cloque On fait parti d'ta mif On te laisse claquer des doigts et on claque des biftons, p'tit con La réalité faut que t'arrête de l'esquiver XXX sans cesse j'baise ta mère j't'assure qu'elle est lessivé Montpellier dans le cur mais mon esprit est ailleurs Mon pilier dans le corps de ta petite pute de sur si cette pétasse est majeure Si c'est pas le cas mais que c'est une bombe, je serai son démineur Sur le sol et sur le dos elle jouira en ré mineur J'suis polygame t'es monocorde J'en ai plus d'une à mon arc J'en ai assez pour vous pendre et pour jouer de la harpe On s'en bat les couilles, tire sur nous on s'en bat les douilles Quand ta meuf nous voit elle s'emballe et mouille, on s'en bat les couilles Bat les bat les bat les couilles Bat les bat les bat les couilles Négro j'suis haut comme un satellite Négro je n'fait qu'aller vite Ta meuf elle kiffe ça les bites j'vais la coupé décalé Niquer la somme sur son palais, tu voulais un son sucré mais l'addition va être salé j'vais t'asservir comme les Amériques Carré comme un carré VIP, comme un poisson pané Si je perce pas cette année c'est que j'me serait fait canné Flow nautique, cerveau d'autiste gros donc j'vais pas m'étaler Black out, panne électrique vendez-les XXX Quand y'a du Bloodz, appelez les Crips les gars J'attends pas qu'il y ai du foot pour appeler l'équipe yo Restes sur ta passion, on va jouer au Baseball ta meuf me fait des baises mains tu vas me faire des baises XXX Et j'te baise dans les règles de l'art, les ragnagnas d'la Joconde XXX j'te l'ai mise profonde On s'en bat les couilles, tire sur nous on s'en bat les douilles Quand ta meuf nous voit elle s'emballe et mouille, on s'en bat les couilles Bat les bat les bat les couilles Bat les bat les bat les couilles2</t>
+          <t>Han han, yo ! He yo, he yo, he yo Je kicke ce beat parce qu'il est chaud c'est ce que Craiz m'a dit J'ai trop la dalle j'passe à Leclerc, j'sors avec 13 caddies Tu m'as ajouté sur Facebook, ouais on est presque amis J'te vois dans le ciel t'es pas Superman t'es Super Nanny Les MC veulent changer d'air, y a un peu trop de flow dans le gaz Depuis que j'mets de l'eau dans mon vin les negros boivent du rosé J'suis tout sec, yo crack pas une allumette Tu te tapes des alumards mode chocolat papier d'alu Mec, mes négros mettent du chocolat dans du papier d'alu, mec on dit qu'ta meuf est presbyte négro elle porte pas de lunettes Après l'écoute d'un 16 t'as les mêmes oreilles qu'un cocker Ok Joky, dans le rap j'suis un joker J'fume pas, j'sniff pas, pour garder la ligne J'douille des ptites meufs comme toi, joue pas les malignes Salades tomates oignons et j'te bouffe comme un que-grè On m'arrête pas gros, on arrête pas l'progrès On s'en bat les couilles, tire sur nous on s'en bat les douilles Quand ta meuf nous voit elle s'emballe et mouille, on s'en bat les couilles Bat les bat les bat les couilles Bat les bat les bat les couilles J'vais m'vénère, j'vais devenir vert de rage DavidBanner J'suis le meilleur tu seras forcé de me croire quand je l'aurais juré sur la vie d'ta mère la milf On débarque dans le club et on fait la diff' On met ta meuf en cloque On fait parti d'ta mif On te laisse claquer des doigts et on claque des biftons, p'tit con La réalité faut que t'arrête de l'esquiver XXX sans cesse j'baise ta mère j't'assure qu'elle est lessivé Montpellier dans le cur mais mon esprit est ailleurs Mon pilier dans le corps de ta petite pute de sur si cette pétasse est majeure Si c'est pas le cas mais que c'est une bombe, je serai son démineur Sur le sol et sur le dos elle jouira en ré mineur J'suis polygame t'es monocorde J'en ai plus d'une à mon arc J'en ai assez pour vous pendre et pour jouer de la harpe On s'en bat les couilles, tire sur nous on s'en bat les douilles Quand ta meuf nous voit elle s'emballe et mouille, on s'en bat les couilles Bat les bat les bat les couilles Bat les bat les bat les couilles Négro j'suis haut comme un satellite Négro je n'fait qu'aller vite Ta meuf elle kiffe ça les bites j'vais la coupé décalé Niquer la somme sur son palais, tu voulais un son sucré mais l'addition va être salé j'vais t'asservir comme les Amériques Carré comme un carré VIP, comme un poisson pané Si je perce pas cette année c'est que j'me serait fait canné Flow nautique, cerveau d'autiste gros donc j'vais pas m'étaler Black out, panne électrique vendez-les XXX Quand y'a du Bloodz, appelez les Crips les gars J'attends pas qu'il y ai du foot pour appeler l'équipe yo Restes sur ta passion, on va jouer au Baseball ta meuf me fait des baises mains tu vas me faire des baises XXX Et j'te baise dans les règles de l'art, les ragnagnas d'la Joconde XXX j'te l'ai mise profonde On s'en bat les couilles, tire sur nous on s'en bat les douilles Quand ta meuf nous voit elle s'emballe et mouille, on s'en bat les couilles Bat les bat les bat les couilles Bat les bat les bat les couilles2</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4862,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Kalani, I hate you Bague sur chaque doigt, j'fais Tony Yayo Ça maille, ça fait le 'seille-o' Ta 'tasse j'l'ai ken, j'l'ai ryu Ahahhh-ah J'ai la came, bitch, j'ai l'EPO Comme des Garçons, j'paye les rayons Quatre pattes, elle twerk sous les néons Ahahhh-ah Toucher l'ciel, oui, bitch, essayons Quand j'ai l'seum j'change la météo J'fais rentrer les jetons, j'ai la faille Hey, hé Le nigga a bon goût, elle avale Elle avale Hey, hey Tennis autour d'mon cou jeune Nadal Cha, chha Hey, hey Si t'en as pas beaucoup t'es à poil Héé-heyy Quand j'vois un gros 'vu-vu', c'est anal Pas d'bucal Hey, hey Ils prient pour pas s'manger des rafales Hey You might also like Bague sur chaque doigt, j'fais Tony Yayo Ça maille, ça fait le 'seille-o' Ta 'tasse j'l'ai ken, j'l'ai ryu Ahahhh-ah J'ai la came, bitch, j'ai l'EPO Comme des Garçons, j'paye les rayons Quatre pattes, elle twerk sous les néons Ahahhh-ah Toucher l'ciel, oui, bitch, essayons Essayons, essayons, essayons Ahahhh-ah-ahh-ahhh Hé-hé-hé, elle twerk sous les néons Les néons, les néons, les néons, biitch Ahahhh-ah-ahh-ahhh Elle twerk sous les néons, biitch Elle twerk sous les néons, biitch Ahahhh-ah-ahh-ahhh Elle twerk sous les néons, biitch Ahahhh-ah-ahh-ahhh Yeah Ahahhh-ah-ahh-ahhh Han, han, han Ekusutash no seishin</t>
+          <t>Kalani, I hate you Bague sur chaque doigt, j'fais Tony Yayo Ça maille, ça fait le 'seille-o' Ta 'tasse j'l'ai ken, j'l'ai ryu Ahahhh-ah J'ai la came, bitch, j'ai l'EPO Comme des Garçons, j'paye les rayons Quatre pattes, elle twerk sous les néons Ahahhh-ah Toucher l'ciel, oui, bitch, essayons Quand j'ai l'seum j'change la météo J'fais rentrer les jetons, j'ai la faille Hey, hé Le nigga a bon goût, elle avale Elle avale Hey, hey Tennis autour d'mon cou jeune Nadal Cha, chha Hey, hey Si t'en as pas beaucoup t'es à poil Héé-heyy Quand j'vois un gros 'vu-vu', c'est anal Pas d'bucal Hey, hey Ils prient pour pas s'manger des rafales Hey Bague sur chaque doigt, j'fais Tony Yayo Ça maille, ça fait le 'seille-o' Ta 'tasse j'l'ai ken, j'l'ai ryu Ahahhh-ah J'ai la came, bitch, j'ai l'EPO Comme des Garçons, j'paye les rayons Quatre pattes, elle twerk sous les néons Ahahhh-ah Toucher l'ciel, oui, bitch, essayons Essayons, essayons, essayons Ahahhh-ah-ahh-ahhh Hé-hé-hé, elle twerk sous les néons Les néons, les néons, les néons, biitch Ahahhh-ah-ahh-ahhh Elle twerk sous les néons, biitch Elle twerk sous les néons, biitch Ahahhh-ah-ahh-ahhh Elle twerk sous les néons, biitch Ahahhh-ah-ahh-ahhh Yeah Ahahhh-ah-ahh-ahhh Han, han, han Ekusutash no seishin</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4879,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Yeah, okay Joky, Stunts Stunts Aie Oh, yeah, yeah Ta meuf veut me guer-lan J'te parie dix euros qu'j'peux la sauter sans prendre d'élan Noir plus blanc, elle kiffe le mélange Elles tombent toutes comme des mouches parce que j'suis frais comme un grêlon Yeah, yeah Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Oh yeah oh, oh oh, oh oh, qui vient éteindre la lumière? La lumière, j'ai quatre, cinq bagues sur mon annulaire Un annuaire de putes, négro, sur mon cellulaire Tu broie du noir, j'ai des dollars donc moi je broie du vert Je rentre toujours en boîte avec une bombe, comme un terroriste Je sors toujours de boîte avec deux blondes et je vais au Ritz Je plais aux filles, je fais péter le score quand je m'égosille J'veux que ma vie ressemble à un film érotique Négro, donne moi son numéro You might also like Ta meuf veut me guer-lan J'te parie dix euros qu'j'peux la sauter sans prendre d'élan Noir plus blanc, elle kiffe le mélange Elles tombent toutes comme des mouches parce que j'suis frais comme un grêlon Yeah, yeah Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Han, mon flow est plus malade que Magic Johnson Tu ne peux rien faire contre l'équipe qu'on forme Yeah On relance la croissance, c'est ma team qui consomme Surveille ton hors-forfait, ta meuf a pris mon phone Je joue au mort sur du , dépose à la garderie Les Mc's en ont marre de vivre, barres de rires, barres de rires Ils fument tous des barres de seum, barres de rires, barres de rires Soit pas déçu négro, elle a mon numéro Ta meuf veut me guer-lan J'te parie dix euros qu'j'peux la sauter sans prendre d'élan Noir plus blanc, elle kiffe le mélange Elles tombent toutes comme des mouches parce que j'suis frais comme un grêlon Yeah, yeah Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha</t>
+          <t>Yeah, okay Joky, Stunts Stunts Aie Oh, yeah, yeah Ta meuf veut me guer-lan J'te parie dix euros qu'j'peux la sauter sans prendre d'élan Noir plus blanc, elle kiffe le mélange Elles tombent toutes comme des mouches parce que j'suis frais comme un grêlon Yeah, yeah Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Oh yeah oh, oh oh, oh oh, qui vient éteindre la lumière? La lumière, j'ai quatre, cinq bagues sur mon annulaire Un annuaire de putes, négro, sur mon cellulaire Tu broie du noir, j'ai des dollars donc moi je broie du vert Je rentre toujours en boîte avec une bombe, comme un terroriste Je sors toujours de boîte avec deux blondes et je vais au Ritz Je plais aux filles, je fais péter le score quand je m'égosille J'veux que ma vie ressemble à un film érotique Négro, donne moi son numéro Ta meuf veut me guer-lan J'te parie dix euros qu'j'peux la sauter sans prendre d'élan Noir plus blanc, elle kiffe le mélange Elles tombent toutes comme des mouches parce que j'suis frais comme un grêlon Yeah, yeah Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Han, mon flow est plus malade que Magic Johnson Tu ne peux rien faire contre l'équipe qu'on forme Yeah On relance la croissance, c'est ma team qui consomme Surveille ton hors-forfait, ta meuf a pris mon phone Je joue au mort sur du , dépose à la garderie Les Mc's en ont marre de vivre, barres de rires, barres de rires Ils fument tous des barres de seum, barres de rires, barres de rires Soit pas déçu négro, elle a mon numéro Ta meuf veut me guer-lan J'te parie dix euros qu'j'peux la sauter sans prendre d'élan Noir plus blanc, elle kiffe le mélange Elles tombent toutes comme des mouches parce que j'suis frais comme un grêlon Yeah, yeah Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4896,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Joke, Gaga Mec, j'connais l'refrain depuis la première m'sure La fin, depuis le début, j'vais pas, t'faire un dessin, sinon ça f'rait un rébus Les rageux nous attendent à l'arrêt d'bus, on nous arrête plus Avec Joke on n'est pas v'nu pour jouer, vous avez déjà perdu J'ai pas peur du succès, nan, j'en abuse Trop haut sur l'instru', j'arrive en studio dans un Airbus Prêt à tout niquer commme un premier samedi du mois sur Canal Tellement chaud en concert qu'sur scène il pousse des cactus Haha Toutes les phases tuent, tu sais qu'je taffe dur Le taf ça paie du cash, pourquoi j'gratte mes textes sur des factures ? L'écriture acupuncture, les punchlines compliquées Pour foutre le feu j'ai b'soin d'un micro, nique sa mère un briquet J'fraude le métro Depuis qu'la célébrité m'a dit T'inquiètes mec, avec moi, t'as un ticket Ferme ta gueule si tu penses qu'tu peux pas faire mieux Craiz et Joke c'est pas des blagues, mais ouais c'est du sérieux J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien You might also like Ne me pose pas ta vie quand tu rappes J'en ai vraiment rien à faire de tous ces mecs que tu braques Et je n'crois même pas le quart des choses bidons que tu m'racontes Craiz et Joke c'est lourd arrête le 'sque-d' et pousse la fonte Première chose à dire j'ai une gueule d'ange, j'ai les aptitudes pour t'expédier en plein enfer Je connais ta soeur, elle m'a dans le coeur, dans le boule, je l'ai dans le cou, sur l'empreinte dentaire En clair, je n'ai pas fait la guerre, han han, peace foie gras, queue de cheval, cette coquine se retourne le fiak en l'air Ne dis pas qu'ton flow déchire si tu n'peux même pas faire ça C'est Gaga le beatmaker donc mec c'est fait à Versailles Ouais c'est cool, tu t'la racontes, ouais ouais, tu vas tout niquer, nan nan Si t'as d'la veine je serai là pour t'piquer, mon grand Parce que, yeah, je rappe comme je baise, j'te fume, comme je veux J'te recrache, par le zen, avant tu m'sortais, par les yeux Ouais j'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien, à rien, à rien, à rien, à rien, à rien</t>
+          <t>Joke, Gaga Mec, j'connais l'refrain depuis la première m'sure La fin, depuis le début, j'vais pas, t'faire un dessin, sinon ça f'rait un rébus Les rageux nous attendent à l'arrêt d'bus, on nous arrête plus Avec Joke on n'est pas v'nu pour jouer, vous avez déjà perdu J'ai pas peur du succès, nan, j'en abuse Trop haut sur l'instru', j'arrive en studio dans un Airbus Prêt à tout niquer commme un premier samedi du mois sur Canal Tellement chaud en concert qu'sur scène il pousse des cactus Haha Toutes les phases tuent, tu sais qu'je taffe dur Le taf ça paie du cash, pourquoi j'gratte mes textes sur des factures ? L'écriture acupuncture, les punchlines compliquées Pour foutre le feu j'ai b'soin d'un micro, nique sa mère un briquet J'fraude le métro Depuis qu'la célébrité m'a dit T'inquiètes mec, avec moi, t'as un ticket Ferme ta gueule si tu penses qu'tu peux pas faire mieux Craiz et Joke c'est pas des blagues, mais ouais c'est du sérieux J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien Ne me pose pas ta vie quand tu rappes J'en ai vraiment rien à faire de tous ces mecs que tu braques Et je n'crois même pas le quart des choses bidons que tu m'racontes Craiz et Joke c'est lourd arrête le 'sque-d' et pousse la fonte Première chose à dire j'ai une gueule d'ange, j'ai les aptitudes pour t'expédier en plein enfer Je connais ta soeur, elle m'a dans le coeur, dans le boule, je l'ai dans le cou, sur l'empreinte dentaire En clair, je n'ai pas fait la guerre, han han, peace foie gras, queue de cheval, cette coquine se retourne le fiak en l'air Ne dis pas qu'ton flow déchire si tu n'peux même pas faire ça C'est Gaga le beatmaker donc mec c'est fait à Versailles Ouais c'est cool, tu t'la racontes, ouais ouais, tu vas tout niquer, nan nan Si t'as d'la veine je serai là pour t'piquer, mon grand Parce que, yeah, je rappe comme je baise, j'te fume, comme je veux J'te recrache, par le zen, avant tu m'sortais, par les yeux Ouais j'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien, à rien, à rien, à rien, à rien, à rien</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4913,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Pharaoh Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim C.D.G. sur oim, big C.D.G. sur oim Bitch C.D.G, j'pèse comme un PDG, bitch Han, j'passe la beuh à Cd.G, bitch Mon swag est léché, ma 'teu-b' est léchée, bitch Elle est éméchée, elle va me sécher, bitch J'suis en C.D.G, mignon comme le péché, bitch Toucher ton 'vu-ca' j'peux pas m'en empêcher, bitch Tu veux tester l'Pharaon, tu t'fais abréger, bitch Elle est éméchée, elle va me sécher, bitch Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim C.D.G. sur oim, bitch C.D.G. sur oim Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim C.D.G. sur oim, bitch C.D.G. sur oim You might also like Nouveau, ECSTATIC Syzer Edition, 2024 Try to Live, Spirit of Ecstasy Let's go</t>
+          <t>Pharaoh Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim C.D.G. sur oim, big C.D.G. sur oim Bitch C.D.G, j'pèse comme un PDG, bitch Han, j'passe la beuh à Cd.G, bitch Mon swag est léché, ma 'teu-b' est léchée, bitch Elle est éméchée, elle va me sécher, bitch J'suis en C.D.G, mignon comme le péché, bitch Toucher ton 'vu-ca' j'peux pas m'en empêcher, bitch Tu veux tester l'Pharaon, tu t'fais abréger, bitch Elle est éméchée, elle va me sécher, bitch Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim C.D.G. sur oim, bitch C.D.G. sur oim Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim C.D.G. sur oim, bitch C.D.G. sur oim Nouveau, ECSTATIC Syzer Edition, 2024 Try to Live, Spirit of Ecstasy Let's go</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4930,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Yo j'suis l'eau qui dort Putain fréro j'crois que j'suis l'négro qu'on ignore 23 mois et j'me fais signer par Polydor Ils risquent tous de tomber dans la folie, genre J'viens pour kidnapper ta mère Yo, j'le jure sur la vie d'ta mère Négro donne moi tout c'biff Que j'me balade un flingue sur la tempe, et la bite à l'air Joke complètement baisé Yo, à JFK, genre DSK En Italie, genre Berlusconi Excusez moi les gars, dites-moi juste qui gère les tarifs ? On fait crari on est pas riches, on est tarés on est pas lisses Paris Dakar, pari d'amis Je prie pour pas qu'on l'légalise Touche pas a mon business, kilos d'be-her dans mes valises J'viens pour baiser Karima, Farida, Maria Elle sait qu'j'les salit, j'les tétanisent, j'les baise sur la Macina NegroYou might also like</t>
+          <t>Yo j'suis l'eau qui dort Putain fréro j'crois que j'suis l'négro qu'on ignore 23 mois et j'me fais signer par Polydor Ils risquent tous de tomber dans la folie, genre J'viens pour kidnapper ta mère Yo, j'le jure sur la vie d'ta mère Négro donne moi tout c'biff Que j'me balade un flingue sur la tempe, et la bite à l'air Joke complètement baisé Yo, à JFK, genre DSK En Italie, genre Berlusconi Excusez moi les gars, dites-moi juste qui gère les tarifs ? On fait crari on est pas riches, on est tarés on est pas lisses Paris Dakar, pari d'amis Je prie pour pas qu'on l'légalise Touche pas a mon business, kilos d'be-her dans mes valises J'viens pour baiser Karima, Farida, Maria Elle sait qu'j'les salit, j'les tétanisent, j'les baise sur la Macina Negro</t>
         </is>
       </c>
     </row>
@@ -5002,7 +4998,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>C'est ça d'avoir du lust mon négro Yah Négro j'me lève, j'fais ma prière Wah, j'fais une Rolex à la demi heure J'ride, 2k17 Aaliyah Merde, j'mets des faciales à ta biatch Biatch Négro mes pensées cest des actes Actes, fuck bien mon bac, j'veux ma Maybach 'aybach Dans ta tête comme un télépathe Yeah, yeah, yeah J'baise tout comme la FF, oui, j'moonwalk sur lISF Dans l'club comme BMF, yeah, yeah, yeah Yeah, yeah, yeah Baise tout tes compliments, 'renoi, j'suis dans cette pute fort, comme un sentiment Fort Yeah, yeah, yeah J'ride avec ma Billie Jean Oui, petit Petrus, cest fini lean P'tit yoga aux Bahamas Wah, ahh-ah, ah-ah Chakras tournent comme ta 'tasse Négro m'demande pas de feu, dans ma poche ya pas d'place, lia-a-a-asse Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, ah, fuck un faux nègre, nigga Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, hey, fuck un faux nègre, wah Fuck une fausse bitch, wow, fuck une fausse bitch, wow Fuck une fausse bitch, fuck une fausse bitch, my nigga Fuck une fausse bitch, fuck une fausse bitch Fuck une fausse bitch, yah, fuck une fausse bitch, my nigga Oui, bitch You might also like J'pull up comme dans Mario Kart Wah, gros 4x4 sur la rocade Des diamants dans la boca, l'mojo dérègle la focale incroyable Ouh, j'pense avec ma queue, tas un génie dans la bouche Incroyable Ravale ta fierté et mes idées, le karma s'lave pas dans la douche Oui, bitch Blunté comme Cuba, toi tes comme tuba Jamais j'claque mon biff pour ces connes Jamais Négro, j'fais des sommes, elle y met les formes Ouh, ouh Eve a croqué la pomme, négro va scinder latome Oui Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, ah, fuck un faux nègre, nigga Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, hey, fuck un faux nègre, wah Fuck une fausse bitch, wow, fuck une fausse bitch, wow Fuck une fausse bitch, fuck une fausse bitch, my nigga Fuck une fausse bitch, fuck une fausse bitch Fuck une fausse bitch Oui, bitch, yah, fuck une fausse bitch Eh, my nigga The Spirit of Ecstasy1</t>
+          <t>C'est ça d'avoir du lust mon négro Yah Négro j'me lève, j'fais ma prière Wah, j'fais une Rolex à la demi heure J'ride, 2k17 Aaliyah Merde, j'mets des faciales à ta biatch Biatch Négro mes pensées cest des actes Actes, fuck bien mon bac, j'veux ma Maybach 'aybach Dans ta tête comme un télépathe Yeah, yeah, yeah J'baise tout comme la FF, oui, j'moonwalk sur lISF Dans l'club comme BMF, yeah, yeah, yeah Yeah, yeah, yeah Baise tout tes compliments, 'renoi, j'suis dans cette pute fort, comme un sentiment Fort Yeah, yeah, yeah J'ride avec ma Billie Jean Oui, petit Petrus, cest fini lean P'tit yoga aux Bahamas Wah, ahh-ah, ah-ah Chakras tournent comme ta 'tasse Négro m'demande pas de feu, dans ma poche ya pas d'place, lia-a-a-asse Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, ah, fuck un faux nègre, nigga Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, hey, fuck un faux nègre, wah Fuck une fausse bitch, wow, fuck une fausse bitch, wow Fuck une fausse bitch, fuck une fausse bitch, my nigga Fuck une fausse bitch, fuck une fausse bitch Fuck une fausse bitch, yah, fuck une fausse bitch, my nigga Oui, bitch J'pull up comme dans Mario Kart Wah, gros 4x4 sur la rocade Des diamants dans la boca, l'mojo dérègle la focale incroyable Ouh, j'pense avec ma queue, tas un génie dans la bouche Incroyable Ravale ta fierté et mes idées, le karma s'lave pas dans la douche Oui, bitch Blunté comme Cuba, toi tes comme tuba Jamais j'claque mon biff pour ces connes Jamais Négro, j'fais des sommes, elle y met les formes Ouh, ouh Eve a croqué la pomme, négro va scinder latome Oui Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, ah, fuck un faux nègre, nigga Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, hey, fuck un faux nègre, wah Fuck une fausse bitch, wow, fuck une fausse bitch, wow Fuck une fausse bitch, fuck une fausse bitch, my nigga Fuck une fausse bitch, fuck une fausse bitch Fuck une fausse bitch Oui, bitch, yah, fuck une fausse bitch Eh, my nigga The Spirit of Ecstasy1</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5015,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Hello c'est le martien, space Jam, Jordans Les Monsieur dans la cuisine, space cake, normal Dans ma chambre j'fais des vidéos Woodman Norman Faut pas bouger, j'tire je touche ma bouche a l'port d'arme J'te vends des pilules, j'te vends des filles nues Terminus les rails aux arrêts d'bus débouche tes sinus J'te vends des pilules, j'te vends des filles nues Terminus les rails aux arrêts d'bus débouche tes sinus Méfie toi de l'eau qui dort, ici c'est Joky Ta meuf c'est un bout d'viande, j'tape dedans comme Rocky Laisse ces pétasses droguées, un souvenir dans les seins J'écris comme Picasso, j'vais pas t'faire un dessin Assis sur un tas d'os, j'mange nachos et tacos J'sirote du sirop, tripote du lolo Qui pop du champagne qui porte du roro Qui note j'suis l'seul co-pilote, j'suis solo J'innove j'suis trop haut, litote et polo J'aurais voulu vous laisser la vie sauve mais poto t'es dead Mes propos s'élèvent, une prose trop sévère J'rappe que pour l'argent, une cause trop célèbre Mes négros s'énervent, on veut cette money, ces euros, ces yens J'vais sodo ces chiennes, leur proposer d'être très porno mais reine d'une soirée C'est papa noël, c'est Joky enfoiré You might also like Pour l'anniversaire de Jesus, j'attaque la soirée au ceasar Buche coupée, cheminée, chocolat chau-sette Caramel d'hiver l'été pour Christmas Un semi fondant comme si c'était la dernière fois Mon dernier Noël, j'te canarde, ma dernière tranche de foie gras Le Père Noël a pris sa retraite, Les Monsieur XXX Et le lendemain matin, Bentley, Jordan et Nike sous ton sapin Ca va devenir classique Orlando, Johnson Magic Moi j'veux des gros cigares, des enveloppes, du Pinky X, des places pour Can I kick it? Des gros beats, des gros titres et des gros feats voilà ma liste Bitch envoie ça à un putain d'grossiste C'est Christmas, lalalala Bip'sou C'est Christmas, plein de pognon Picsou J'crois qu'c'est chaud, dehors il neige J'veux ma casquette Goonies, un packet d'Cool Kiss dans le traineau MTP a fait de nous des mecs dopés au cash Tic-tac, money time, grosses tass, grosses liasses de illets-bi C'est Noël on t'la déjà dis, Genevan Heathen sur ton teddy, bitches Xmas Mixtape, t'attends ça depuis Janvier J'veux ma part du gateau, j'veux l'gateau entier</t>
+          <t>Hello c'est le martien, space Jam, Jordans Les Monsieur dans la cuisine, space cake, normal Dans ma chambre j'fais des vidéos Woodman Norman Faut pas bouger, j'tire je touche ma bouche a l'port d'arme J'te vends des pilules, j'te vends des filles nues Terminus les rails aux arrêts d'bus débouche tes sinus J'te vends des pilules, j'te vends des filles nues Terminus les rails aux arrêts d'bus débouche tes sinus Méfie toi de l'eau qui dort, ici c'est Joky Ta meuf c'est un bout d'viande, j'tape dedans comme Rocky Laisse ces pétasses droguées, un souvenir dans les seins J'écris comme Picasso, j'vais pas t'faire un dessin Assis sur un tas d'os, j'mange nachos et tacos J'sirote du sirop, tripote du lolo Qui pop du champagne qui porte du roro Qui note j'suis l'seul co-pilote, j'suis solo J'innove j'suis trop haut, litote et polo J'aurais voulu vous laisser la vie sauve mais poto t'es dead Mes propos s'élèvent, une prose trop sévère J'rappe que pour l'argent, une cause trop célèbre Mes négros s'énervent, on veut cette money, ces euros, ces yens J'vais sodo ces chiennes, leur proposer d'être très porno mais reine d'une soirée C'est papa noël, c'est Joky enfoiré Pour l'anniversaire de Jesus, j'attaque la soirée au ceasar Buche coupée, cheminée, chocolat chau-sette Caramel d'hiver l'été pour Christmas Un semi fondant comme si c'était la dernière fois Mon dernier Noël, j'te canarde, ma dernière tranche de foie gras Le Père Noël a pris sa retraite, Les Monsieur XXX Et le lendemain matin, Bentley, Jordan et Nike sous ton sapin Ca va devenir classique Orlando, Johnson Magic Moi j'veux des gros cigares, des enveloppes, du Pinky X, des places pour Can I kick it? Des gros beats, des gros titres et des gros feats voilà ma liste Bitch envoie ça à un putain d'grossiste C'est Christmas, lalalala Bip'sou C'est Christmas, plein de pognon Picsou J'crois qu'c'est chaud, dehors il neige J'veux ma casquette Goonies, un packet d'Cool Kiss dans le traineau MTP a fait de nous des mecs dopés au cash Tic-tac, money time, grosses tass, grosses liasses de illets-bi C'est Noël on t'la déjà dis, Genevan Heathen sur ton teddy, bitches Xmas Mixtape, t'attends ça depuis Janvier J'veux ma part du gateau, j'veux l'gateau entier</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5032,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait vidéo Yeah Yeah, Yeah, yeah, yeah Mamène, nique sa mère le physio Nique sa mère le physio, jsuis dans l'club avec l'X.OYou might also like</t>
+          <t>Disclaimer Transcrit à partir d'un extrait vidéo Yeah Yeah, Yeah, yeah, yeah Mamène, nique sa mère le physio Nique sa mère le physio, jsuis dans l'club avec l'X.O</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5049,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>J'roule que la night Que la night, j'vis que la nuit Que la nuit J'croise une ex J'croise une ex, sous ecstasy Sous ecstasy Porte de la Chapelle, hey, j'vis ma vis J'vis ma vie J'veux ma place J'veux ma place, au paradis J'roule que la night Yeah, yeah, j'vis que la nuit Que la nuit J'croise une ex Yeah, yeah, sous ecstasy Porte de la Chapelle Hey, hey, j'vis ma vie Hy, hey J'veux ma place, hy, au paradis, hey Ça fait des lustres qu'elle m'casse les couilles cette fille-là J'voulais remplir mon assiette, de billets Elle est rentrée dans ma tête, cette biatch J'vais m'incruster dans ta fête, buenos dias Les amis c'est comme les billets faut les trier Y'a que si j'tombe dans l'coma qu'j'vais t'oublier J'ai des soucis, d'cash. Yeah Fuck le suicide, ouais Pétasse, j'voulais me marier mais j'ai pas choisi la bonne J'suis en dépression comme un employé d'France Télécom 4k high, jette la roue avant, touche pas le sol 4k high, jette la roue avant, touche pas le sol You might also like J'roule que la night Que la night, j'vis que la nuit Que la nuit J'croise une ex J'croise une ex, sous ecstasy Sous ecstasy Pharaoh Porte de la Chapelle, hey, j'vis ma vis Syzer J'veux ma place Oui bitch, au paradis, hey J'roule que la night Yeah, yeah, j'vis que la nuit Que la nuit, that's right J'crois3 une ex Yeah, yeah, sous ecstasy, hey Porte de la Chapelle Hey, hey, j'vis ma vie Hey, hey J'veux ma place, hey, au paradis, hey Yeah J'roule cannabis, yes J'me fais 'pé-pom' par Vanessa Paradis, that's right C'est la foi qui fait le moine, mais pas l'habit, that's right Elle pull-up au 'tel-hô' parce qu'elle veut voir ma bite Hey C'est lui l'parasite Pharaon Négro, tu parles à qui ?, hey, hey, hey Tu veux parler fort mais sache qu'la kalash crie, grrahh J'veux le bread d'ma mère, cuisiné, pas rassis For real J'te fais manger par les réseaux t'observes monter 'la-c'ui' Hey Nique-la ta racli J'ai l'sabre laser comme Ana' La française c'est de l'eau, négro, j'la baise jusqu'à la lie Pétasse savent que c'est pas acquis J'monte sur Paris, j'ramène les bedos, comme Khadafi Hey La France va souffrir, parce que l'bien le mal acquis, hey Vous chialez pour vos retraites alors qu'vous pompez l'Afrique, hey Pharaon Vous faites semblant mais vous savez qu'vous êtes ultra racistes L'état français a fait pire qu'les nazis, hey J'vais caner pour de vrai parce qu'ma phobie c'est l'anarchie J'viens d'228, my nigga, j'maîtrise la magie J'ai déjà ma place au paradis, mais toi t'as mal agis J'roule que la night Que la night, j'vis que la nuit Que la nuit J'croise une ex J'croise une ex, sous ecstasy Sous ecstasy, Pharaon Porte de la Chapelle, yeah, yeah, j'vis ma vis Syzer J'veux ma place Oui, bitch, au paradis, yeah, yeah J'roule que la night Yeah, yeah, j'vis que la nuit, that's right J'croise une ex Yeah, yeah, sous ecstasy, hey Porte de la Chapelle Hey, hey, j'vis ma vie J'vis ma vie J'veux ma place au paradis, yeah, yeah Spirit of Ecstasy Tu sais déjà qu'j'suis acquis Avec toi, tout seul, my nigga, j'suis en vie Syze in this bitch Rest In Peace, J.M.T. James Michael Tyler ... J'roule que la night Que la night, j'vis ...</t>
+          <t>J'roule que la night Que la night, j'vis que la nuit Que la nuit J'croise une ex J'croise une ex, sous ecstasy Sous ecstasy Porte de la Chapelle, hey, j'vis ma vis J'vis ma vie J'veux ma place J'veux ma place, au paradis J'roule que la night Yeah, yeah, j'vis que la nuit Que la nuit J'croise une ex Yeah, yeah, sous ecstasy Porte de la Chapelle Hey, hey, j'vis ma vie Hy, hey J'veux ma place, hy, au paradis, hey Ça fait des lustres qu'elle m'casse les couilles cette fille-là J'voulais remplir mon assiette, de billets Elle est rentrée dans ma tête, cette biatch J'vais m'incruster dans ta fête, buenos dias Les amis c'est comme les billets faut les trier Y'a que si j'tombe dans l'coma qu'j'vais t'oublier J'ai des soucis, d'cash. Yeah Fuck le suicide, ouais Pétasse, j'voulais me marier mais j'ai pas choisi la bonne J'suis en dépression comme un employé d'France Télécom 4k high, jette la roue avant, touche pas le sol 4k high, jette la roue avant, touche pas le sol J'roule que la night Que la night, j'vis que la nuit Que la nuit J'croise une ex J'croise une ex, sous ecstasy Sous ecstasy Pharaoh Porte de la Chapelle, hey, j'vis ma vis Syzer J'veux ma place Oui bitch, au paradis, hey J'roule que la night Yeah, yeah, j'vis que la nuit Que la nuit, that's right J'crois3 une ex Yeah, yeah, sous ecstasy, hey Porte de la Chapelle Hey, hey, j'vis ma vie Hey, hey J'veux ma place, hey, au paradis, hey Yeah J'roule cannabis, yes J'me fais 'pé-pom' par Vanessa Paradis, that's right C'est la foi qui fait le moine, mais pas l'habit, that's right Elle pull-up au 'tel-hô' parce qu'elle veut voir ma bite Hey C'est lui l'parasite Pharaon Négro, tu parles à qui ?, hey, hey, hey Tu veux parler fort mais sache qu'la kalash crie, grrahh J'veux le bread d'ma mère, cuisiné, pas rassis For real J'te fais manger par les réseaux t'observes monter 'la-c'ui' Hey Nique-la ta racli J'ai l'sabre laser comme Ana' La française c'est de l'eau, négro, j'la baise jusqu'à la lie Pétasse savent que c'est pas acquis J'monte sur Paris, j'ramène les bedos, comme Khadafi Hey La France va souffrir, parce que l'bien le mal acquis, hey Vous chialez pour vos retraites alors qu'vous pompez l'Afrique, hey Pharaon Vous faites semblant mais vous savez qu'vous êtes ultra racistes L'état français a fait pire qu'les nazis, hey J'vais caner pour de vrai parce qu'ma phobie c'est l'anarchie J'viens d'228, my nigga, j'maîtrise la magie J'ai déjà ma place au paradis, mais toi t'as mal agis J'roule que la night Que la night, j'vis que la nuit Que la nuit J'croise une ex J'croise une ex, sous ecstasy Sous ecstasy, Pharaon Porte de la Chapelle, yeah, yeah, j'vis ma vis Syzer J'veux ma place Oui, bitch, au paradis, yeah, yeah J'roule que la night Yeah, yeah, j'vis que la nuit, that's right J'croise une ex Yeah, yeah, sous ecstasy, hey Porte de la Chapelle Hey, hey, j'vis ma vie J'vis ma vie J'veux ma place au paradis, yeah, yeah Spirit of Ecstasy Tu sais déjà qu'j'suis acquis Avec toi, tout seul, my nigga, j'suis en vie Syze in this bitch Rest In Peace, J.M.T. James Michael Tyler ... J'roule que la night Que la night, j'vis ...</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5066,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Chill Pharaon Hein Avec moi j'ai que des avions, que des- que des- Avec moi j'ai que des avions, que des- que des avions Toi, tu portes que des haillons, hey Pour le 'seille-o' on te bâillonne J'suis 'ti-sor' d'la trixma, j'suis sur Zion Agressif comme un Saiyen Je l'magnétise, bitch, j'attractionne, go F-F-Five-Seven, neuf millimètres On commence esclave, on finit maître J'fais pas confiance aux chiennes, comme Johnny Depp On t'assaisonne comme un tiep bou dien On t'assaisonne Les négros appellent à l'aide Je bouffe sa chatte comme des ramens J'ai-J'ai-J'aime les 'tasses raffinées, j'aime les ratchet J'ai les billets, la 'gue-dro', my nigga, j'ai les gadgets J'sais c'que j'veux faire J'sais c'que j'vais faire avec ces bitchs Mh-h-h You might also like Rolex, left wrist, go Rolex, left wrist Let's go Patek, right wrist That's right Patek, right wrist, Let's get it Rolex, Patek, Rolex, bitch Rolex, Patek, Rolex, oui, bitch Rolex, Patek, Rolex, let's get it Rolex, Patek, Rolex, let's get it Rolex, Patek, Rolex, oui, bitch Rolex, Patek, Rolex, that's right Rolex, Patek, Rolex, heein-hein Rolex, Patek, Rolex, heein-hein J'projete depuis le projet Correct, j'suis 'sé-po' dans le projet, bitch Connect' Han, tu sais qu'j'ai les connect, bitch Connect' Han, tu sais qu'j'ai les connect, bitch Connect' Han Connect, bitch J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch Hein, hein J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch That's right J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch Han J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch Han J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch Han</t>
+          <t>Chill Pharaon Hein Avec moi j'ai que des avions, que des- que des- Avec moi j'ai que des avions, que des- que des avions Toi, tu portes que des haillons, hey Pour le 'seille-o' on te bâillonne J'suis 'ti-sor' d'la trixma, j'suis sur Zion Agressif comme un Saiyen Je l'magnétise, bitch, j'attractionne, go F-F-Five-Seven, neuf millimètres On commence esclave, on finit maître J'fais pas confiance aux chiennes, comme Johnny Depp On t'assaisonne comme un tiep bou dien On t'assaisonne Les négros appellent à l'aide Je bouffe sa chatte comme des ramens J'ai-J'ai-J'aime les 'tasses raffinées, j'aime les ratchet J'ai les billets, la 'gue-dro', my nigga, j'ai les gadgets J'sais c'que j'veux faire J'sais c'que j'vais faire avec ces bitchs Mh-h-h Rolex, left wrist, go Rolex, left wrist Let's go Patek, right wrist That's right Patek, right wrist, Let's get it Rolex, Patek, Rolex, bitch Rolex, Patek, Rolex, oui, bitch Rolex, Patek, Rolex, let's get it Rolex, Patek, Rolex, let's get it Rolex, Patek, Rolex, oui, bitch Rolex, Patek, Rolex, that's right Rolex, Patek, Rolex, heein-hein Rolex, Patek, Rolex, heein-hein J'projete depuis le projet Correct, j'suis 'sé-po' dans le projet, bitch Connect' Han, tu sais qu'j'ai les connect, bitch Connect' Han, tu sais qu'j'ai les connect, bitch Connect' Han Connect, bitch J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch Hein, hein J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch That's right J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch Han J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch Han J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch Han</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_ATEYABA_songs.xlsx
+++ b/data/02_intermediate/cleaned_ATEYABA_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C273"/>
+  <dimension ref="A1:C271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3535,12 +3535,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Kind of Blue</t>
+          <t>La gagne</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0401 La Ligne Bleue - Blue Points 0601 Edvy Dash - LEVITATE - 0601 Favé - F4 - 0601 Ghost Killer Track - Que de l'amour pt.2 - 0601 Saamou Skuu - Nous Cest La TH, vol. 2 0601 Slim C - Killu Kinf G 2 0801 Lowssa - L 1201 L'Don - Limportant cest pas la chute vol. 1 - 1201 Retro X - Yellowtape - 1301 Aketo - Zone bleue Réédition - 1301 Arlk1 Gaman lo - MAUDIT SAME SHIT 1301 GAULOIS - La Gaule Vol. 1 1301 KLS Le K - ANALOGIE 1301 Mini Rttclan - New Jersey 1301 Regularboy - TOUJOURS LA MÊME 1301 RBK - Lignes De Vécu 1301 Sam - Quelle vie - 1301 Spider Zed - Club de cur - 1301 Vin's - La chambre d'écoute - 1301 Yvnnis - NOVAE 1301 Zeusé - Zéro Degré - 1501 Djado Mado - RDV 1501 LITO - B.EYES 1801 RR - Sang Bleu 2001 93TWENTY - ABYME 2001 111knu - 111knuTape vol.1 2001 Anas - La vie de Many - 2001 Angsty Camboyz Revnge - ETERNELLE - 2001 ASHE 22 - Vingt-deux - 2001 Baby Neelou - Bromance - 2001 Caballro JeanJass - High Fines Herbes La Mixtape - Volume 2 - Saison 4. Parce quon na pas fait de mixtape pour les deux premières saisons. Ok, cest pas très logique, mais on-sen-bat-les-couilles, le projet il tue sa mère ! 2001 Carré d'As - ALPHA SIERRA 2001 Fresh LaDouille - Voltaire - 2001 Gianni - 42 jours avant MRTHN 2001 Johny Smile - CACHE-CASH 2001 Masto - Sonar - 2001 nelick - Supplément Chantilly Version deluxe - 2001 Roswein - FOLLOW MAC TWISP - 2001 Sir Reda - Amer.2 - 2001 Tommy Isaac - CAHM1R 2001 Yassin C2s - Denali - 2001 Zaho - Résilience - 2001 Zkr - Caméléon 2301 23 Megabits - 23MEGASPHERE - 2401 SOMA - hustle mode - 2701 Darealright - Dareal m'a tuer 2701 Denza - Ocean Violet part.1 2701 DIL - Fissure cérébrale - 2701 Dri-i - FLYDRI-I 2701 Elten - AUTARCIE - 2701 Jeune Morty - Ghetto Youth - 2701 Kekra - Stratos - 2701 Mano Leyra - C'EST PAS DU TAYC - 2701 Planaway - PREMIERE RENCONTRE 2701 Refré Couplain - NO FACE - 2701 Sadek - Changement de propriétaire - 2701 Seizur - Pluie d'Automne 2701 Venom Cz - Burn Alive 2701 Vves - Message groupé - 2701 ULQUI - NOTÍCIA - 2801 HOUDI - GRHÜNT 77 - 2901 Nobodylikesbirdie - DANS DE BEAUX DRAPS Février 0102 Cogofrégé - Sire Denathrius - 0102 Henri Bleu - armor - 0202 Costa - La ville derrière nos torches - 0302 Alkpote - LSDC - 0302 Chanje - BLACKBIRD 0302 Char - Comme si de rien n'était 0302 Dhab King - T.O.R. - 0302 F430 - Street Quality II - 0302 Georgio - Années Sauvages 0302 Kodes - NO CAP, Vol. 1 - 0302 Kofs - Matrixé - 0302 Lowtso - BZZZZZZ - 0302 Lujipeka - Montagnes Russes Menu XL - 0302 Sadandsolo - Subsahara 0302 WarEnd - Mutation Hg - 0302 YG Pablo - Kiss And Tell 0702 Misère Record - Deadline - 0902 Dirtyiceboyz - ONE OF A KIND 0902 Kaeles - VIBRATIONS 1002 Blasko - Carré Noir - 1002 Deemax - CAP CAPUCHE - 1002 DTF - KARMA - 1002 Myth Syzer - POISON 1002 Niro - Taulier 1002 Squadra - Mourir 100 regrets - 1002 Upsilon - Maison Hantée - 1102 Realo - EURO STEP - 1202 Laws Babyface - TROIS 1502 M.A.M - Starter Pack Side A 1502 Pbl - L'HEURE BLEUE 1602 Blue Sky Publishing - COOTB vol.2 - 1602 Luni - CAMELLIA 1602 ShuriGuzman - D-Boyy World 1702 2zer - Zerzervol2 - 1702 404Billy - BLKKKK VAN GOGH 2 1702 8Ruki BinksBeatz - INT8TION 1702 Achim - Aquarium Vol.1 - 1702 AKISSI - IMPURE. 1702 Beceith - Quand le ciel tombera 1702 Cacahouète - Les sales gueules - 1702 Captaine Roshi - Larosh 1er 1702 Criminls - WW3 - 1702 Dajak - LES LARMES DU SOLEIL 1702 DJ Weedim - Boulangerie française, Vol. 5 - 1702 FouKi - Zayon - 1702 Genezio - VIBESTARS SAISON 1 - 1702 gvs - ST4RS - 1702 Hamza - Sincèrement - 1702 Jey Brownie - Faits divers - 1702 Nunca - VISAG3 1702 TK - Avant la fête Bonus 1702 Trixxo - RotterK 2002 Bavaz - V.O. Violence Occidentale - 2002 Yuri Online mh - MEGALOVER 2202 Grödash - Grödash présente Flymen Music - 2302 Asinine - XIII - 2402 bupropion. - haven 2402 Cenza - Z.0 2402 Djavann - ATTENDS-MOI LÀ-HAUT 2402 DJ MS Mr. Dillinger - Jeune OG 2402 Hös Copperfield - LUEUR - 2402 JEUNE OBSERVATEUR - E.VOLUTION - 2402 Karmen - 100 DIAMANTS 2402 Klem Schen - Clément 2402 Kozi - VDA 2402 KR Malsain - Korozif Vol.1 - 2402 Landy - BRAVE - 2402 La F - GENJUTSU 2402 Malty2BZ - Enfant de Malheur 2402 Mapess - NO FACE - 2402 Maxi Jay - BADMAN - 2402 Peet - Todo Bien - 2402 Pirate - KDO 2 2402 Raous gang - Mauvais Chemin - 2402 Sultan - Iwazaru - 2402 Tengo John - Monstrueux EP - 2402 The Free - Filaments Bleus 2402 Waïv - VOUS COMPRENDREZ PLUS TARD - 2402 Ziak - Chrome - 2802 ihatemed - Genesis Mars - 0103 MC Lokass - Partage Vol. 2 0203 BimBim - La bande à Bimbim 1 0203 Cesar Niso - PRÉMICES - 0203 Hyacinthe - c'était pas le bruit du vent c'était juste mon souffle - 0203 JWK - FUCK ÇA - 0303 Azur - Horizon Deluxe Réédition 0303 Ben.C - SILVER BOY 0303 Bené - Rosa Nera 0303 C4 Family - CARTIER-BRESSON - 0303 Dandyguel - Chapitre 1 lhistoire continue - 0303 Deelay - 111e Saison 0303 Djadja Dinaz - ALPHA 0303 DJ Hamida - À la bien Winter edition - 0303 Double Zulu Just Music Beats - HUSTLEMANIA 0303 Drismer PCN - Sang 9 Volume 2 - 0303 Empty7 - Averse Nuit - 0303 Foleymingo - Les pensées d'un jeune casanier - 0303 HOUDI - LA FOLIE DES GRANDEURS 0303 JEUNESAINT - RIDEORDIE - 0303 Jwles Bob Marlich - Histoire Vraie - 0303 La Plaie - Sans Pression - 0303 Lyre - IRIS - 0303 M le Maudit - M.A.C.R. 0303 Nessbeal - Lumières Nocturnes - 0303 NOMATTER - Paradise Bay - 0303 Rvhim - Galb 0303 Softo - Mirage 0303 TripleGo - GIBRALTAR - 0303 web7 - world first 0403 Aero - Nouvelle ère - 0803 GEAVN - L'AMOUR SUR LES CENDRES 1003 GO GO GO - L'ÉPOPÉE 1003 2 Mètres - 2X46 - 1003 A2H - Une rose et une lame II 1003 Bilk - J'perds pas le nord 1003 Bné - Zone 4 1003 Compilation Bendo - Bendo X, Pt. 3 1003 J2LASTEU - J2 CORP - 1003 J9ueve - LE BIJOU LE PLUS BRILLANT - 1003 Keroué - CANDELA 1003 L'As - Saison 2 - 1003 Lorenzo - Coco Todiefor Remix - 1003 mademoiselle lou - Précieux - 1003 Maes - OMERTA - 1003 Novy - Nuketown 1003 Oumar - TRAUMA Saison 3 - 1003 Primero - Fragments, Pt. 4 - 1003 Princesse - Skyclub 1003 Ritzo - Ailleurs - 1003 Sadek - Changement de propriétaire version physique 1003 SAF - WINTERLOVE 1003 Sciences Peura - L'atelier - 1003 TIF - 1.6 - 1003 Werenoi - Carré - 1103 404Billy - BLKKKK VAN GOGH version vinyle 1303 13Mini - Exutoire - 1503 HVDDOCK Benjay - GLOW 1503 Janis - MULTIVERS 1503 Rapi Sati - Rapi Sati School - 1503 Toam - Plus Réel - 1603 Heskis - Plot Twist - 1603 Theodora Jeez Suave - Lili Aux Paradis Artificiels - 1703 Absolem - Balle d'argent - 1703 Achim - STRATUS JOYEUX 1703 Bilton - B.I.L - 1703 CAPUH - LOST VALLEY 1703 Cshmr - Twin Flame 1703 Decimo - Symphonia Vol. 1 1703 Djadja Dinaz - ALPHA part. 2 - 1703 Django - Logos 1703 Gianni - MRTHN 1703 H.LA DROGUE - Drogue - 1703 Leonis - De l'autre côté - 1703 LinLin - The Espers - 1703 Lost - Pont Champlain 1703 MV - Wavy 1703 Nakk Mendosa - Artefacts Vol. 6 1703 Noodels - Love Story 1703 Nubi - Artefacts Vol. 5 - 1703 PHLP - C'EST UN FAIT - 1703 Prinzly - PASSAGER 8 1703 Rocca - CIMARRON 1703 Rvzmo - 100 moi - 1703 Slimka Mairo - QUI A VOLÉ LE SOLEIL ? 1703 Thaubi - STRAYDOG.3 1703 Tisco - Narsheshe 3.0 1703 Tissmey - Noir blanc Volume 1 - 1703 Ucyll Ryo - la peau des yeux - 1703 winnterzuko - WINNTERMANIA 1703 Yams - Personally - 1703 Zola - DIAMANT DU BLED - 1803 Max D. Carter - Singulièrement Vôtre - 2003 JuL - Album gratuit, Vol. 7 - 2003 Loto - ALL FAX LIL NIGGA VOL1 2103 88Kvly - Sirius B 2103 Kamas Skuh - La Paye - 2103 Lucio Bukowski - ASADACHI TAPE Vol. 3 - 2203 YEND - Yekrik - 2303 23wa - RORSCHACH - 2303 Jolagreen23 - 23 2303 Ockney Krimophonik - LAZARE - 2403 34murphy - première traque - 2403 6osy - Kiss, Marry Kill Vol. 1 - 2403 BEN plg - Jrêve mieux quavant - 2403 Carbonne - Sous l'averse - 2403 DMS - VAGALAME 2403 Elams - Faits divers - 2403 Falcko - Black Code, Tome 3 2403 Lapostroz - BLEU - 2403 Resell - ZÉRO51 - 2403 Rozzy - VANTANOIR 1 - 2403 Varnish La Piscine - THIS LAKE IS SUCCESSFUL 2403 WarEnd - Mercure - 2403 YUNG POOR ALO - JEUNE PAUVRE 3 2403 Zaky - S.P.T. - 2403 Zéphir - Zé - 2803 akkai - LUM!NOL - 2803 arøne - conséquences - 2803 WISSKELESH - DU BINKS AU WISSEX WISSBINKS - 2903 Luther - AMI 3003 San-Nom - Silence Assourdissant - 3103 Akan - MAPP - 3103 Bekar - Plus fort que l'orage - 3103 Bramsito - Enchanté 3103 Dany Dan - Spécial Dany Dan Vol. 4 - 3103 Django - Eros 3103 Gizo Evoracci - Playeurisme Grâce 3103 Grödash - Monnaie Time 2 3103 Guizmo - Réédition 10 Ans 3103 Josué - Confessions 3103 LaF - CHROME 3103 La Place - Des perles et des cendres 3103 L'Hexaler - Lune Croissante - 3103 LUMJR - LOTERIE - 3103 Mara - LOVÉLAND 3103 Yasmine Ase - BLACKSWAN Avril 0104 James Deano - Existentiel Vol.1 - 0604 Närka - SWITCH - 0704 528ron Lovarran - DESDB 2 0704 Ashéo - Double Visage - 0704 Benjamin Epps - La grande désillusion - 0704 Cellulaire Sno3 - LE VRAI, L'INVERSE 0704 Donguti - BREAK UP SEASON 0704 Driver Le A - CONGÉS PAYÉS - 0704 Gatchete - AMR - 0704 Hicham - POLARITÉ 2 0704 JNR - Junior 0704 Kim - Evidence - 0704 Lord Esperanza - Phoenix 0704 Mister.C - Bantu Tape - 0704 Skia - Comme si j'avais - 0704 Sokuu - kenöpsia - 0704 Vadek - PACK - 0904 T.I.S - Vieux Indiens dans un monde moderne 1004 Recklessboise - H6 - 1304 TAKU - GHOST TRAIN - 1404 18snor - repulsa - 1404 47Ter - Au bon endroit - 1404 Bolémvn - Kaleidoscope - 1404 Charles BDL - Kaïros - 1404 Damlif - MAISON À L'AIDE 1404 Flynt - MAUVAIS POUR LE BUSINESS 1404 iTo - Biutiful ! - 1404 Jwles V900 - 25 sur 8 - 1404 Kahnji HIBA - quasi triste 1404 Kayna Samet - Altaïr, Pt. 2 - 1404 Lucio Bukowski - ET LE PRESTIDIGITATEUR IVRE MANQUA SON TOUR - 1404 Meryl - Ozoror - 1404 PLK - 2069' - 1404 Sabuu - PARTIR SUFFIRA 1404 Tenn Jeune Producer - SPIRAL 1404 Theodore - CHIC CHOC LOYENGE - 1404 Yome - ATMOSPHERIA - 1404 Yuz Boy - SAJÉ 1404 Zidi - MAUVAIS SENTIMENTS - 1904 Bluume - BLU PART 3 Muun Flowerz - 1904 Kay The Prodigy Mezzo Millo - Eastern Wind Deluxe - 1904 Urde - Faire des vagues 2104 2TH - Union - 2104 Bambino47 - Drillmatic 2 2104 Bunny - Quoi d9 - 2104 Dasuun - MADARA 2104 Diem Elioi - DragonTree 2104 Geeeko - Peine 333 - 2104 GRËJ - TAKE AWAY EP - 2104 Indydono - KANDIES - 2104 L'Don - FRANCONE MAFIA 2104 Le Risque - CPPR - 2104 Lpee - 33 - 2104 NeS - ÇA VA ALLER 2104 Rêves - Le bleu a des yeux - 2104 Rozzy - VANTANOIR 2 2104 Shaim - ZROGRAVITY 2104 Skefre - SKRRT Vol.1 - 2104 Tsew The Kid - Deuxième chance 2104 Wood - Dans mon Wood - 2104 Yonidas - Tréfonds - 2204 wasting shit - G.L.O.CC - 2304 Beeby - UN GRAND CUR DANS UN MONDE DE FILS DE PUTE - 2604 Green Montana - ROUGE NÉON 2704 Costa - Derrière la ville - 2704 Gris Anthracite - Anémone - 2804 Arsaphe - MURBERRY STREET - 2804 Atro Boi - L'inconnue d'en face - 2804 Dau - 2CB 2804 Elh Kmer - Vivaldi - 2804 Empty7 - BLV NUIT - 2804 Fuzati Le Motel - Baltimore - 2804 GR OMEGA - ResetStart 2804 Kaba Hyas - Music 4 Tesla 2804 Kima - Baby project - 2804 Leo SVR - Manita 2804 Naps - En temps réel 2804 RAS - Retour Aux Sources 2804 Selby - Black - 2804 Sheldon - Îlot 2804 Shtar Academy - Shtar Academy En permission - 2804 Stony Stone HOUDI - AVANT LES YEUX - 2804 X-Sphère - Après lHiver Mai 0205 Reta - Trash Life - 0305 ENOCK - DERNIÈRE PLUIE - 0305 STLR - 12 grammes 0505 Bolémvn - 5.0.5 0505 HD La Relève - Dieu, mes Frères et le Fer 0505 Rémy - Camus 0505 Sadandsolo - Oasis 0505 Slkrack - Crackito, vol. 1 - 0505 Yuri Online, Bricksy 3G - HUMAN LABORATORY 0905 Suspect 95 - Société Suspecte 1005 Di-Meh - Pixel 1005 Tovaritch - Baba Yaga - 1205 323madon - parental advisory - 1205 Baek - Minuit - 1205 Celestino - UNTITLED TAPE 2 - 1205 Furax Barbarossa - Libérable 1205 Hatik - niyya - 1205 James Loup - FULL OPTION - 1205 Jeune Observateur - PORISMA - 1205 Jok'Air - Melvin de Paris - 1205 L2B - Plus comme avant - 1205 LETS GO - LETS GO 1205 Paco - Contrôle Technique - 1205 Soleil Noir - Avant l'aube - 1205 Vacra - Galatée - 1205 Vadek - DU TEMPS - 1205 Zed - SOIXVNT3 1305 Jeune Lion - HIGHLY SPIRITUAL - 1605 Vink - Lordre et le Chaos - 1705 Sameer Ahmad - Tracy 168 - 1705 T.I.S Kaer MKS - Robots - 1805 Antoniucci - ENVIRONNEMENTS HOSTILES - 1905 Django - Troisième Terme 1905 Fresh - À labri Réédition 1905 GAZY MP - Masiaka 1905 Houssbad - GATE 67 - 1905 Kenyon - DATA - 1905 La F - 691 1905 La Gale - On vous rappellera 1905 L'uZine - La 26ème lettre 1905 Leone - ÉCLIPSE - 1905 Luv Resval - Mustafar 1905 Lybro - Oozaru - 1905 Mairo - omar chappier - 1905 Navve Tyngaa - AFTERMAPP 1905 Ol Zico - Tout baigne - 1905 Reynz - R - 1905 Tuerie - Papillon Monarque - 2305 Nosnow - 478 Hotline 2405 Blue Sky Publishing - COOTB vol.3 - 2405 Hakai - HOLLOW 2405 La Pépite - Apollo Mission Evangelion 2605 Def Prod - Def Prod Vol. 1 2605 Elams - Mwanamboka 2605 Elh Kmer - Vivaldi Vatna 2605 Fabio - L'OMBRE ET LA NUIT - 2605 Gemen Tenma - DRAGA - 2605 Gen - GENNIFER - 2605 GRËJ - RESTAURANT - 2605 H JeuneCrack - MATIÈRE PREMIÈRE - 2605 i300 - 3HUNNA 2605 Jwles - Blablazin 2605 MIG - 21 - 2605 NewStain - Du Rêve? - 2605 R.E.D.K. - N'écoutez pas cette merde - 2605 Rethno - SEULFIER - 2605 Riski - Paris vaut bien une messe - 2605 Roméo Elvis - Les galeries - 2605 Souldia - Non conventionnel - 2605 thaHomey - RARISSIME - 2605 USKY - RETINA - 3005 Ptite Soeur - REDSUN 3105 Fadah - DELUGE Juin - 0206 313 - RVMA II 0206 3arbi Amine Farsi - Interlope 0206 Aketo - Une petite vie sans histoires 0206 Allebou - BUNRAKU 0206 Couli B - Ambiance Joviale 0206 Dehmo - FLEGMATIQUE 0206 Don Milli - Le prix d'une vie 0206 JMK - SOUTH BABY 0206 khazy - MOURIR PEUT ATTENDRE 0206 La Famax - RÉTRO - 0206 Malo - iD - 0206 Moji x Sboy - AUTOMNE 0206 Raplume - TALENTS VOL.1 0206 Relo - Dieu Merci 0206 Rouge Carmin - Radio Futurista Vol. 3 - 0206 Rozzy - VANTANOIR 3 - 0206 Sheng - DI YU 0206 SLK - La Centrale - 0206 T.I.S Ouayiie - Lépidoptères 0206 Vin's - Le masque vide 0706 Famille Nombreuse - Ziamois - 0806 Lester - PIONEER - 0906 34murphy - fata morgana 0906 Achim - ALMA - 0906 Gambi - N'A STRAGIA 0906 Ghetto Phénomène - Longue Vie 0906 I.K - Rêves de rue 2.0 0906 Jackmaboy - MENACE SAISON I - 0906 JuL - C'est quand qu'il s'éteint ? - 0906 Lazer MMZ - BUSHIDO 0906 Lucci x Jeune Gueule - REFLEXION - 0906 Mussy - JIG 2.2 0906 Raplume - TALENTS VOL.2 0906 Royce - Avant-gardiste 0906 Ol' Kainry - Noble art 0906 Sto - Time Out Vol. 2 - 0906 Surprise - L'INVERSE 0906 Swift Guad - Les meilleurs feats du Swifton, Part.1 - 0906 TripleGo - Quand tu partiras 1406 Bakari - Arcadia - 1406 Bluume Triple Nine - OUT OF THE MUDD - 1406 Cyrious - Nés pour... - 1506 AAMO - LAKEHOUSE SEASON 1506 Bimbim - La bande 2 Bimbim 1606 Benab - Drapeau Blanc 1606 Black Jack - Don Black 1606 Cashmire - Mes rêves m'épuisent 1606 Deezer - Deezer Originals La Relève 4 1606 Donguti - Polaroïd Memories 1606 Dwen - Crack 1606 Ice Crimi Just Music Beats - Big Pap's El Papso 1606 Kodes - NO CAP, Vol. 1 Deluxe 1606 La Rumeur - Comment rester propre ? - 1606 Le Juiice - Trap Mama 2 - 1606 Linton - Black Bumble 1606 Nahir - Intégral 2 POV - 1606 Ratu - Ratusserie 1606 Sadek - Ouvert tout l'été - 1606 SOPA - PEIVNE - 1606 Wallace Cleaver - baiser 1606 Yanso - BX 212 - 1906 Henri Bleu - Jette moi le sort 1906 Implaccable - So Vladdy Shit - 2106 Eric Eract - LENDEMAIN D'UN MARDI GRAS - 2106 Fenka - Doll Lover 2106 STLR - Fer 2206 Araujo - Une larme de 2306 Cheu-B - BIG 2306 Chich - MANNSCHAFT 2306 Decimo - Symphonia Vol. 2 - 2306 Double Zulu Pablaw - KAIJU 2 2306 Elh Kmer - Vivaldi Jokül - 2306 Esso Luxueux - Liaisons Dangereuses 2306 Greenfinch - GREENY Lo-Fi 2306 Hash24 Sobek - Antartica 2306 Insa - Gris Béton - 2306 Kay The Prodigy - Triple Kay Supremacy 2306 Unfamouslouie - FREE UNFAMOUS 2306 Le 3ème il - Renaissance Réédition - 2306 Lpee - Intermède - 2306 Luidji - Saison 00 - 2306 PHLP - Magnifique - 2306 Rafal - Jukai Tome I - 2306 Selug - Le jour se lève 2306 Seyté - En chemin 2306 Shinzo - poétiquement votre 2306 So La Zone - La rue m'a eu - 2306 YG Pablo Sofiane Pamart - DIAMOND TEARS - 2306 Zéphir - Interlude ZÉ 2306 Zokush - SÛR ET CERTAIN 3006 Abah - Lumière 3006 AM La Scampia - Triste fête... ncor - 3006 Ammar - L'ARGENT AVANT LA FAME 3006 Ben.C - BLOODY SUMMER 3006 Boub'z - BDLB 3006 Butter Bullets - JAZZ 3006 Capou Jeune Gueule - Uno Nueve - 3006 Deadi - Autrement 3006 Deelee S - 3 FOIS 3006 Ether - SIMULCAST - 3006 Gapman - Prochaine Chèvre - 3006 Heuss L'enfoiré - Chef D'orchestre 3006 Jeri - R1NGTONE 3006 LaCraps Dezef - ASSOCIÉS 3006 L'Don - L'Don Compagnie vol.1 Starring Monsieur Dioni 3006 Leonis - De l'autre côté Réédition - 3006 Lotus - SOURIR - 3006 luXe Timeless Bessy Bess - BUSINESS MOVES - 3006 Melan - La tr3ntaine Partie 1 - 3006 Magnar - BLEU LAGON - 3006 Moken - PHASE 1 - RACINES 3006 Moubarak - Dans le vrai - 3006 Ninho - NI - 3006 OSO - c pas d'la pop! 3006 rad cartier - VISION NOCTURNE - 3006 robdbloc - Caméo - 3006 Rowjay - LA VIE RAPIDE EARLY ACCESS - 3006 SNSET - 22 - 3006 Zeu - WATERGATE Juillet - 0107 Yuz Boy - AVEC SINCÉRITÉ ET LE COEUR LÉGER. - 0507 Caballero JeanJass - High Fines Herbes - Édition 420 - 0507 Empty7 - Nessun dorma - 0507 Jelyh - 222 - 0507 Many Santana - PHANTOM - 0607 Costa - Là, derrière - 0607 Theodora - Lili Aux Paradis Artificiels Tome 2 0707 BRK - Top Boy, Vol. 2 - 0707 Coelho - LE SOLEIL NE S'ÉTEINT JAMAIS 0707 Dau - DENNIS - 0707 Deen Burbigo - OG San II 0707 Fresh LaDouille - Voltaire Deluxe - 0707 Gemen - VARA - 0707 HOUDI - SUN7 0707 Le Croc - BLOOM 0707 Lim Zeler - Nik ma vie 0707 Lrk - Hoshi 0707 Maxi Jay - BADGYAL - 0707 Ninho - NI Extension - 0707 Norsacce Berlusconi Dinos - Fallout Ushuaïa - 0707 Pirate - KDO 3 - 0707 Prototype - FAREWELL 0707 SAF - SUMMERLOVE - 0707 Tsukii Lyre - TL 0707 Youpi2000 - L'Amour me suffira toujours - 1007 ANTON - Même les méchants rêvent damour 1207 Lapostroz - GALLICE - 1307 baby hayabusa - Deadly Poison Sting 1307 Cesar Niso - ELMER - 1407 Ateyaba - La vie en Violet 1407 Bedjik - MULTIVERSE X1 - 1407 Bob Marlich - Gro-tex 1407 Gizo Evoracci - Superfly - 1407 Inflow - Hélios 1407 ISS - Libre 2.0 1407 Jackmaboy - MENACE SAISON II - 1907 Realo Tony Seng - BASSLINE 2007 asmarr311, Planaway meto - vraiment 2107 Artistes divers - Les Déguns 2 BO 2107 Elh Kmer - Vivaldi Vík 2107 Famille Nombreuse - Ziamois Deluxe - 2107 Flynt Don Choa - FLYNT DON CHOA 2107 Gambino La MG - Après Gambinerie - 2107 J9ueve - WDTA 2107 Karmen - MOTEL STUDIO 2107 Keeqaid - ANTICIPE 2107 Lybro - swimmingpool aqua 2107 Malty2BZ - 097 - 2107 NKP - AIGRI 2107 Nunca - Aléa 2107 Yassin - V3.5 2307 Adæb - Alphablanca - 2707 BabySolo33 - Radio ummer Hits - 2807 404Billy - Mr. AAA - 2807 Cellulaire - CMV - 2807 H.LA DROGUE - En attendant Drogue 2 - 2807 HVDDOCK Benjay - MIRAGE - 2807 Josué - MaisOùEstJosué 2807 Le Lij - Juste un Enfant du Queens II 2807 Momsii - LGT 2807 Oumar - MALCOLM X AVEC UN PARE-BALLES - 2807 Saiba - 9STA - 2907 ouley - FEVER .FM Août - 0208 liesaa - liesaa sors nous ce miel ! 0308 PAPI TeddyBear, GAL FFO RION - 3TROIS 0408 Ghetto One - Ghetto One - 0408 GVS - The Blue Fade 0408 Lascaar - Dis-leur - 0408 Lil Zamm - K!LL THËM ALL - 0408 Zoomy Vilhelm - GATE - 1108 Achim - icare. - 1108 Bob Marlich - Boutique de souvenirs 1108 Mola - Omar 1108 Pins Dimeh - Nindo III - Réédition - 1608 Inflow - Hélios - réédition 1608 Ouxma - Earth is hell 1808 Furlax - NEBULA - 1808 Jayel - Puzzle première pièce 1808 Kaki Santana - Back to Back - 1808 KronoMuzik - FREE KRONO - 1808 L'Don - LDon Compagnie vol.2 Starring PAPI TeddyBear GAL - 1808 Nosnow - Ipanema 1808 Sadek - Toujours ouvert tout l'été - 1808 SOPA - YEUZ BLEUS - 1808 Tyngaa - SUMMER MEMORIES 2 2208 Ludovico - Lehen Lorpena - 2408 Gris Anthracite - Drosera - 2508 DMS - NO PASSION - 2508 Navve - ESSKO - 3008 DOC OVG - Pourcentage vol. 1 - 3008 Jolagreen23 Kosei - 888823 - 3108 Tedax Max Just Music Beats - Palm Brick Septembre - 0109 Cellulaire - DÉSOLÉ D'ÊTRE 0109 Earvin - 2024 - 0109 Krisy - euphorie - 0109 Lester - wizard confirmé - 0109 Livaï Cosmo - on sen sort toujours pas - 0109 Max D. Carter - Vers La Beauté 0109 Nixon - Wall East 0109 Smeels - UCKME - 0109 TH - SI - 0209 wasting shit abel31 - mercuriales 0409 Mini RTTCLAN - Mini l'ingé - 0709 N3MS - EVERYDAY - 0809 404Billy - BLKKKK VAN GOGH 3 0809 Golgoth - JOUR DE PLUIE - 0809 KIK - ADIEU 0809 Leck - Mode Nuit 0809 Lil Zamm - FRÖM HESS TÖ EUROPE - 0809 Slayeur Slace - PROJET SANG BOUILLANT - 0809 Ulqui - ETNA - 1009 Nemavo - PostMortem - 1109 Freeze Corleone - ADC - 1309 sean - Se laver de ses péchés - 1409 Jeune LC - FIN DE JEU - 1509 47Ter - Au bon endroit Deluxe - 1509 Ammar - MA VIE AVANT LA TIENNE - 1509 Darlean - DEAD FILES 1509 Glauque - Les gens passent, le temps reste - 1509 LOTO - Detroit 2 Paris - 1509 Mandyspie - La Vie en Rose Vision 1509 Nyda - Acte II Le loup dans la bergerie 1509 Skefre - SKRRT Vol.2 - 1509 Théo Juice - Passionnément 1509 The Strangers - The Strangers 1809 Ry's - ARABIC DIAL - 1909 Primero - Fragments 2009 ihatemed - NMS 2109 BXII - Que la salade - 2209 A2H - Une rose et une lame, FIN. - 2209 babyxi - HIT OR MISS - 2209 Disiz - L'Amour... 2209 Hornet La Frappe - Avant Cités d'or 2209 J2LASTEU - RSF, pt. 1 - 2209 Mairo JeanJass - Déjeuner en paix 2209 Rookie - AMPLITUDE THERMIQUE - 2209 TH - SIGN - 2209 T.I.S Öster - TOY Terror Of the Year - 2209 Werenoi - Telegram 2 - 2609 Moken - PHASE 3 - EFFET TUNNEL 2609 TIPI MOBB - FCQTAA VOL1 - 2709 Empty7 - Ora pro nobis - 2709 H JeuneCrack Hologram Lo' - La pieuvre 2909 Banlieue Ouest Mafia - Banlieue Ouest Mafia 2809 Bricksy 3g - it looks fun - 2809 OgLounis - OGLOUNIS VS LES DOUTES 2909 DIEGO - Entre ciel et terre 2909 Genezio - VIBESTARS SAISON 2 - 2909 HK La Paille - NOCTAMBULE - 2909 Ikaz Boi - BRUT4L - 2909 Irko AMNE - DANGER RAPPROCHÉ - 2909 Jayel - Puzzle deuxième pièce 2909 Klem Schen - Temps davant - 2909 KT Gorique - DIASPORA GANG - 2909 Luni - AHBON MIXTAPE 2909 Mac Seamus - HUMAIN - 2909 MEL - Même pas mal - 2909 Niaks - Mandat de Dépôt - 2909 samayusi - FRACTALE - 2909 Tengo John - Métamorphoz 2909 Venom Cz - Crime Master 2909 Zequin - RESCAPÉ DES RUES RR 700FS 2909 Zesau - RC Octobre - 0410 Jwles Mad Rey - Le Zin dans la maison - 0410 Dj Per-k Moïse The Dude - Deep - 0510 AnNie .Adaa - MENTALITY RECOVERY - 0610 22Carbone - Entropie - 0610 34murphy Sobek - 9m 0610 Cesar Niso - LA FISSURE NSLW - 0610 Cyrious - Briller - 0610 Georgio - Les Alizés - 0610 Kaneki - 4REAL - 0610 KIK - ADIEU Version Feats - 0610 Krisy - euphoria 0610 Rosaliedu38 - RELOAD - 0610 Shay - Commando - 0610 Vicky R - SYSTM - 1110 Akhenaton Veust - Monopolium - 1110 Ucyll Ryo - NUKEM 1310 Aelpéacha - XYLOSTOMIASE 1310 Artistes divers - Chroniques de Mars 3 - 1310 Beendo Z - De la fontaine 1310 Black M - La légende Black - 1310 Cellulaire - SILENCE SOUS LAVERSE 1310 Cinco - 0TA BENGV 1310 E17 - E17 - 1310 Favé - IL LE FALLAIT - 1310 GLK - VENI 1310 Heavy - POLYGONES 1310 Keuchei - Cest Le Gang 1310 KT Gorique - AKISSI - 1310 L'Don - LDon Compagnie vol.3 Starring Râmiro - 1310 Lotus - Moneymachine, Vol. 2 - 1310 Lyre - merci, j'sais m'perdre - 1310 Mano Leyra - VOVÓ 1310 NDO Runway - Personne Ne Dormira Dans Le Hood Ce Soir 1310 Swift Guad Willy Bank - Artefact 1310 VVES - Implication - 1310 Yamê - ELOWI 1310 Ydane - Kanda 3D Blade Bouffon - 1310 YUNG POOR ALO PUSH GIO - CHAT NOIR 1710 Virgile - NUAGERIES - 1810 Leo SVR - SVR EFFECT - 1910 Bluume Triple Nine - RARI458 - 1910 N3MS - SPARRING 1910 TheYoungGolfeur - Sacrilèges - 2010 808NOCHE - STELLA - 2010 ADVM - .s'oublier encore. - 2010 arøne - toutes mes larmes - 2010 Gris Anthracite - Valériane - 2010 Ichon - KASSESSA - 2010 Inspire - Hier je meurs - 2010 Leto - TRAPTAR 3 2010 L'Hexaler - Croissant de lune 2010 Mac Kregor Kazkami - La guerre des nerfs Réédition 2010 Mehdi YZ - Troisième il 2010 Microbe - Lever de rideau - 2010 OSO - osowhereRu? 2010 Paco - Du gris au bleu 2010 SIMONY - ORIGINES Euphoria 2010 Softo - Instinct - 2010 TH - SIGNAL - 2010 web7 - wizard child - 2210 Laws Babyface - SUNFM - 2510 Lovarran UnfamousLouie - Ils Me Manquent Mes Rêves 2610 Oumar - MALCOLM X AVEC UN PARE-BALLES Vol.2 2710 Absolem - Balle d'argent Réédition 2710 BÉNI BASS DJ - L'homme de l'ombre 2710 Ici cest la street - Ici cest la street 2710 ISK - LDLG L'art de la guerre - 2710 Jewel Usain - Où les garçons grandissent 2710 Kemmler - 37 Folie-Méricourt - 2710 Livaï Cosmo - un long fleuve bien chiant 2710 Luzi Dar - GrandBazaar 01 2710 Milanezie kofi bæ - La Nuit Porte Conseil - 2710 Sensey - Hokage - 2710 Sokuu - tatlm 2710 Zaky - REVLUTION 2710 Zbig - Docteur Zbig - 2810 Damso - QALF LIVE - 2810 Josman - J.000. - 2910 Cielbleu - Par les yeux 3110 Harley - Loading 3110 Karl Drogo - La naissance de drogo - 3110 Kosei - AI - 3110 Magnim - Refem - 3110 MSyn - NWR Novembre 0111 Dafliky - Pas fait pour eux - 0211 abel31 - 4h16 - 0211 Fokca - Qui Est Baby Fokca ? 0311 AliasJazz - Échappée Belle 0311 Flaco Mundo - DRAPETOMANIA - 0311 GRËJ - ÉTOILES MICHELIN - 0311 Klem Schen - Archives - 0311 L'Don - L'Don Compagnie vol.4 Starring Famille Nombreuse - 0311 Neop0p whatever51 - EIGENGRAU - 0311 okis - Rêve dun rouilleur 0311 Rsko - Memory 0311 Sakage - IRL 0311 Slkrack - Crackito, vol. 2 - 0311 TIF - 1.6 LIVE SESSION 0311 Viez - Nemrock All Star - 0411 Sa2d - NEXT GEN - 0611 Zekhso - FULGURANCES 0711 Kaki Santana - Piege Volume 3 - 0711 ozkar - KANSAS - 0811 Lacrim - SALE ÉPOQUE - 0811 SAM - EXTÉRIEUR NUIT - 0811 AKISSI - Ciel m'en veut - 1011 AYATH - Perturbations 1011 Cheu-B - SKY - 1011 Dalí - Muse - 1011 Georgio - Années Sauvages Part. 2 1011 ihatemed - NMS NIGHTMARES EDITION 1011 Mister You - HLM3 1011 Ouss Riane - Razien 1011 Rockin' Squat - L'undaground s'exprime 1011 Sicario - Silence - 1011 snorunt - arva offmode - 1011 So' - SAHARA, Vol. 2 - 1011 Souffrance - Eau de source 1011 STI - Retrodrill vol.1 - 1011 Stony Stone - ROUGE RED ROSSO 1311 Hash24 - Origin - 1311 Krisy - euphoria sans interludes 1311 Warlock - Sorcellerie - 1411 Lorenzo - Coffret ultime - 1511 Malo - X3 - 1511 Peka59 - Fenêtre ouverte - 1511 Urde - Maintenant ou jamais - 1711 Achim - Ariane 1711 Criminls Congo Bill - VINDICTA - 1711 Double Zulu Pablaw - KAIJU MECHA - 1711 Dri-i - ne mexcuse pas - 1711 FouKi - RAP CLUB - 1711 GEAVN - CYNE 1711 Guy2Bezbar - AMBITION 1711 Hös Copperfield - LUEUR ESPOIR - 1711 Lazuli Angie - ANGILINAZULI 1711 LUMJR - CASINO 1711 Mvms - Renégat - 1711 Nayra - Riah 1711 Pivi - Triste mais Heureux - 1711 Youri Darealright - Neva - 1711 Yuzmv - Gardien du Labyrinthe - 2111 Zonmai - SunCash feelings - 2211 Rapclub - La Litanie des Horlas 2211 Ekloz - 3motional b!tch 2311 DTF - Karma Extended - 2311 Hamza - Drifté - 2311 JRK 19 - FreeJRK - 2311 MPablo - HUMAIN - 2411 ADVM - .soublier encore. - 2411 Ajar - Ö 2411 Bhk220 - Génération 2000 - 2411 Chanceko - La voix dans ma tête 2411 Fababy - La Symphonie des chargeurs Vol 2 - 2411 Fanny's Station - FANNY 2411 Générations - Générations Street - 2411 GR OMEGA - ICARE - 2411 Halo - BAD JAZZ 2411 Imed zee - Bipolaire 2411 Keeqaid - GENRE - 2411 Kerchak - En attendant Saison 2 2411 La Famax - Album Gratuix - 2411 Lujipeka - Weekend à Marseille - 2411 Noti Rose - Mirages Moisissures - 2411 Rémy - Le fils de la gardienne - 2411 Reynz - Z - 2411 Richie Beats - Oh My God Vol.1 - 2411 Sheldon - Seuls 2411 Yaro - Ciel - 2411 YL - LARLAR Part. 1 - 2711 Dalienski - Dali - 2711 Duke Mobb - En attendant La cassette 2 - 2711 FEMTOGO Neophron - NAMELESS BELLIGERENT - 2811 luXe Timeless - ALLUME - 2911 HAKAI - VEGA - 2911 Zalmad Nannaa - SUPERWHOAYEAH Décembre - 0112 Ajna - Boys Basement - 0112 ASHE 22 - KH-22 - 0112 Benjamin Epps - READY FOR WAR 0112 Bob Marlich - Sans Filtre II 0112 Chicaille Argenté - RESET 0112 Couli B - Encore 0112 Decimo - Symphonia, vol. 3 0112 Fuku JeanJass - Phoenix - 0112 Gazo Tiakola - LA MELO EST GANGX - 0112 Gemen Tsukii - 4PEAT - 0112 Gris Anthracite - Triple Venom 0112 Golgoth - Hostie part2 0112 ISS - Libre 3.0 - 0112 Jeune Mort - No colors - 0112 Jeune Ras - LUNE DE SANG - 0112 Khali - 23 - - 0112 L'Don - LDon Compagnie vol. 5 Starring Worms-T 0112 La Financière - TOO BIG TO FAIL 0112 Lasco - PENSÉE 2 - 0112 Limsa d'Aulnay ISHA - Bitume Caviar Vol.1 - 0112 Malko - MAELSTRÖM 0112 Mitch Ladrogua - Big Meech - 0112 Oni Kira - 237 BLOC F - 0112 Pollux - BLUES LAGUNE - 0112 Swing - AU REVOIR SIMEON 0112 Twenty9 - thérapie, stéréo - 0112 wasting shit - wase ape volume 3 0112 Yuri Online Chenpol - Noctura Pure Pueri Musika Magica - 0312 Djeemy RedUzi GRËJ - TAKE AWAY FOR TWO 0512 Blaz Pit - NO SKIP - 0512 Lonepsi - au sommet de ma tour 0512 VII - SCRAP vol.1 0612 PEKA - L'un parle de l'autre 0712 Tovaritch - Systema - 0812 243red - 001red 0812 47ter - Au bon endroit 47tour Live 0812 Bakari - SUPERNOVA 0812 DJ Quick - Onde2Choc 0812 Foot Korner - Du Nord au Sud - Compilation Foot Korner - 0812 Hugo TSR - Jeudi - 0812 ICO - MIA 0812 JSX - Antebellum - 0812 JuL - La route est longue - 0812 Kaba Hyas - Music 4 Tesla Vol. 2 - 0812 Kanoé - NOÉ - 0812 L2B - Plus comme avant Réédition - 0812 L'Allemand - Ma vie 0812 Lil Zamm - ZAMMWORLD 0812 Lossa2Squa - Afrowave 0812 Ludmael - Hérésie - 0812 Prinzly - ESCALE 8000 0812 Oldpee - JE M'APPELLE SIDI - 0812 robdbloc - Faux départs - 0812 Sadek - Nique le Casino 2 0812 Samy - Club Espoir - 0812 So La Lune - L'enfant de la pluie - 0812 SVUDVDE - SAUDADE 1012 Adæb - Casablanca - 1012 T.I.S Lando - MINUIT PILE 1112 IAM - HHHistory - 1112 Luni Sacks - Inédits 2022 - 2023 - 1212 Douze Déluge - MCRCLMT - 1212 OG L'Enf - 3x4 - 1312 Danyl - KHEDMA 2 1312 Loveni - BACK IN THE DAY ROOKIE II - 1312 YUNG POOR ALO - À l'envers - 1412 Nono La Grinta - 75022 - 1512 Ammar - MA PAIX AVANT L'AMOUR 1512 Diddi Trix - Trix City 2 - 1512 DIEGO - Rouge sang Félin version orchestrale - 1512 Jolagreen23 - RECHERCHE DESTRUCTION - 1512 Kaaris - Day One 1512 Lacrim - En attendant Corleone 1512 Lison - GODMODE 1512 Mayo - YOSKI 2 1512 Nefaste - Hiver 365 1512 Niro - Taulier La recave - 1512 Nono La Grinta - LA QUOIII ? - 1512 Prince Waly - BO Y Z Vol.2 1512 Roshi Amine Farsi - Night Ride - 1512 Selug enar - Le monde qui m'tombe sur la tête 1512 Sventx - UN SEUL IL 1512 Todd - UN NOIR SUR LA LUNE 1512 YPN - La patrie - 1812 Ptite Soeur Neophron - NOUVELLE ECONOMIE 1912 Afro S - Parenthèse 1912 ENV444 - Prélude - 2012 Jaymee - Brand New Jazz Trilogie 2112 N3MS - NAUSICAA - 2212 Dinos Dosseh - CÉSIUM 2212 Eloquence - El Chalino - 2212 Jayel - Puzzle Dernière pièce - 2212 Kay The Prodigy Mezzo Millo - Eastern Wind 2 - 2212 La Fève - 24 2212 Shotas - Oue La 6T 2212 Slayeur Slace Emes - ALPHA 2212 TAÏZ - POST-MORTEM 2512 Deelee S - RED ALERT 2 2512 Raplume - MIEL 2612 L'Don - LDon Compagnie hors-série Repas de famille 2712 BLOODYANJI - KILL TO LIVE 2712 Tarkov Lee - MÉCHANT DU FILM 2912 BERRY Phasm - TOP NIVEAU ll - 2912 Gouap Mini - BACK EN TRAP 2912 Kemi Gunner - Elf Oxy Fantasy 2912 Lemon Haze - 31 2912 Narson - Maquette Tape4</t>
+          <t>Le jeune Lov est dans lgenre de Number one hit Jsuis ce rookie qui les conquit, elles sont toutes sur ma bite Depuis tout ptit jai fait couler dlencre Jsuis remplit dfougue et denvie Je njoue qudans la cour des grands Dites aux wacks MC de foutre le camp Si tes bougs se vantent, tu peux être sur quLoveni shoot dedans Bon gamin vla quma troupe se lance Forcément on XXX tout cquon entreprend mec ça coule de sens Jnai aps de temps, jte jure jai des vastes plans Posté tout au fond dla salle je retrace le temps Premier dla classe jnécoute pas vos raps de cancres Jsuis DSK tous ces MC sont des femmes de chambre Mec naies pas lmort, depuis tout ptit jsuis à propos dcette médaille dor Et jroupille quand ta pétasse morfle, cnest pas une métaphore Jai tout niqué gars jai pé-fra lscore Je fais ça pour la gagne, je fais ça pour la gagne Limportant est dparticiper moi je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Vers la victoire je me hisse gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Ya que comme ça que jpeux men tirer gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Je fais ça pour la maille aussi, mon style pur rend les femmes dociles MTP style Harlem Ma pétasse est une freak style Marvel toujours Big tee, demande pas cest qui cptit Chaque semaine cest big pimpin Yo des ptites mharcèlent Pas né sous la même étoile quun ptit dMarseille MTP yo cest Vans, Dickies, marcel Et si cest dar cest qucest nous, et qucest tout On descend des bouteilles on soulève des coups Près du soleil, brillant dans ma réflexion Retrouve ton rappeur préféré dans mes déjections Trouve les déjections dmes réflexions dans ses réflexions Aussi vrai quSarko gagnera les prochaines élections Négro tu nous comprends pas bien Les Monsieur, Bon gamin Les négros srongent la main Tape la tête contre la baignoire tu veux moublier? Mon remède contre la mémoire fuck, Gilles Corduroy Je fais ça pour la gagne, je fais ça pour la gagne Limportant est dparticiper moi je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Vers la victoire je me hisse gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Ya que comme ça que jpeux men tirer gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Je fais ça pour la maille aussi, mon style pur rend les femmes dociles</t>
         </is>
       </c>
     </row>
@@ -3552,12 +3552,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>La gagne</t>
+          <t>La galette</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Le jeune Lov est dans lgenre de Number one hit Jsuis ce rookie qui les conquit, elles sont toutes sur ma bite Depuis tout ptit jai fait couler dlencre Jsuis remplit dfougue et denvie Je njoue qudans la cour des grands Dites aux wacks MC de foutre le camp Si tes bougs se vantent, tu peux être sur quLoveni shoot dedans Bon gamin vla quma troupe se lance Forcément on XXX tout cquon entreprend mec ça coule de sens Jnai aps de temps, jte jure jai des vastes plans Posté tout au fond dla salle je retrace le temps Premier dla classe jnécoute pas vos raps de cancres Jsuis DSK tous ces MC sont des femmes de chambre Mec naies pas lmort, depuis tout ptit jsuis à propos dcette médaille dor Et jroupille quand ta pétasse morfle, cnest pas une métaphore Jai tout niqué gars jai pé-fra lscore Je fais ça pour la gagne, je fais ça pour la gagne Limportant est dparticiper moi je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Vers la victoire je me hisse gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Ya que comme ça que jpeux men tirer gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Je fais ça pour la maille aussi, mon style pur rend les femmes dociles MTP style Harlem Ma pétasse est une freak style Marvel toujours Big tee, demande pas cest qui cptit Chaque semaine cest big pimpin Yo des ptites mharcèlent Pas né sous la même étoile quun ptit dMarseille MTP yo cest Vans, Dickies, marcel Et si cest dar cest qucest nous, et qucest tout On descend des bouteilles on soulève des coups Près du soleil, brillant dans ma réflexion Retrouve ton rappeur préféré dans mes déjections Trouve les déjections dmes réflexions dans ses réflexions Aussi vrai quSarko gagnera les prochaines élections Négro tu nous comprends pas bien Les Monsieur, Bon gamin Les négros srongent la main Tape la tête contre la baignoire tu veux moublier? Mon remède contre la mémoire fuck, Gilles Corduroy Je fais ça pour la gagne, je fais ça pour la gagne Limportant est dparticiper moi je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Vers la victoire je me hisse gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Ya que comme ça que jpeux men tirer gars je fais ça pour la gagne Je fais ça pour la gagne, je fais ça pour la gagne Je fais ça pour la maille aussi, mon style pur rend les femmes dociles</t>
+          <t>C'est la civilisation préférée d'cette garce de Claude Fallait lui fermer sa gueule pas Megaupload Rien qu'ils font plonger mes cailles mais c'est pas d'leur faute Si des vagues de coke passent sous l'nez des garde-côtes Je n'autorise que ma euq' à me mener la vie dure Du mal à quitter l'bitume, hmm Excalibur Cabrão on cause de maille Néochrome, Golden Eye, structures au top J'viens pas d'Poitiers mais on m'voit qu'dans un Futuroscope Zekwé Niveau feat, ouais ça chauffe Y'a plus d'appel d'offre J'entends Wesh Nakkos rappelle deuspi et qu'ça saute DoubleDutch Mendosa putain d'flocage Je n'ai fait aucun flop, motherfuck J'ai pas l'flow d'Wacka Floca But lucratif, pas-pas d'boulot gratis Une radio d'la carrière c'est une Laurent-Bouneau-graphie Non t'auras pas l'petit bif Au fait, si ton fils kiffe la danse classique t'auras pas d'petit-fils 'dosa Weed et bédos lourds Disques et métaux lourds Zek' au micro lourd Nakk au micro lourd Yeah Bravo on l'a fait, tu en rêvais on l'a fait On lâche une galette sur l'rap français les MC ont la fève Bravo on l'a fait, tu en rêvais on l'a fait On lâche une galette sur l'rap français les MC ont la fève Bravo Golden Eye, rappelle-nous, rappelle-nous plus tard on cause de maille Tu en rêvais on l'a fait pour toi Golden Eye, rappelle-nous, rappelle-nous plus tard on cause de maille We Made It J'suis c'connard qui ne sait pas où s'mettre Les bras m'en tombent alors j'm'enfonce dans leur chatte jusqu'à Pétaouschneck Leur rap est maous mec J'chourave ta meuf et lui demande de quoi le premier gaou s'mêle Appelez le Dr House Merde, restez à terre Dieu l'veut Check j'ai les plaques vertes, fais ce que j'veux J'arrive no game no promo Pousse les rappeurs à terminer leurs textes par des no homo On avance tel des brebis égarées Dans la vie comme sur un parking premier garé J'peux pas tout oublier, plier l'temps d'un demi et gagner Dans le jeu on devient dangereux bien qu'à demi-préparé Demande à Blastar faut vouloir nous combattre La concurrence est pris d'cafard pire que les couloirs de mon bat' J'cours maquetter des titres pour apaiser mes p'tites gueules Et j'dis que j'suis lourd à crever BigPun Weed et bédos lourds Disques et métaux lourds Dix' oh mais trop lourd Deen au micro lourd Yeah J'fais ça pour We Made It Ma team assomme ta team, cartonne ta pin-up dans la cabine Vous allez voler comme des balles dans la poitrine Nez dans la farine, dans les narines Or jaune sur les canines Fais tourner la caméra, les gamines arrivées les Kaméhaméha Wassup, jeune prince, anciennement batracien Plutôt crever qu'écouter Assassin Chien pose-moi un lapin et j'te coupe la patte Même malchanceux j'aurais toujours d'la chatte Rien à révéler genre dire qu'untel rappeur est gay J'suis l'rappeur préféré d'mes rappeurs préférés Retour du strabisme grave dur C'est l'ami Phaalus Les mics que j'touche prennent la valeur d'un Stradivarius Donc faudra sampler les titres de l'homme-miroir de Pernety J'réfléchis sans parler, eux ils parlent sans réfléchir Les autres nains qui testent m'indiffèrent J'suis comme quatre poulets, cagoulés Beaucoup plus fort tu n'peux rien y faire Weed et bédos lourds Disques et métaux lourds Joke au micro lourd Phaal au micro lourd Yeah 1</t>
         </is>
       </c>
     </row>
@@ -3569,14 +3569,10 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>La galette</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>C'est la civilisation préférée d'cette garce de Claude Fallait lui fermer sa gueule pas Megaupload Rien qu'ils font plonger mes cailles mais c'est pas d'leur faute Si des vagues de coke passent sous l'nez des garde-côtes Je n'autorise que ma euq' à me mener la vie dure Du mal à quitter l'bitume, hmm Excalibur Cabrão on cause de maille Néochrome, Golden Eye, structures au top J'viens pas d'Poitiers mais on m'voit qu'dans un Futuroscope Zekwé Niveau feat, ouais ça chauffe Y'a plus d'appel d'offre J'entends Wesh Nakkos rappelle deuspi et qu'ça saute DoubleDutch Mendosa putain d'flocage Je n'ai fait aucun flop, motherfuck J'ai pas l'flow d'Wacka Floca But lucratif, pas-pas d'boulot gratis Une radio d'la carrière c'est une Laurent-Bouneau-graphie Non t'auras pas l'petit bif Au fait, si ton fils kiffe la danse classique t'auras pas d'petit-fils 'dosa Weed et bédos lourds Disques et métaux lourds Zek' au micro lourd Nakk au micro lourd Yeah Bravo on l'a fait, tu en rêvais on l'a fait On lâche une galette sur l'rap français les MC ont la fève Bravo on l'a fait, tu en rêvais on l'a fait On lâche une galette sur l'rap français les MC ont la fève Bravo Golden Eye, rappelle-nous, rappelle-nous plus tard on cause de maille Tu en rêvais on l'a fait pour toi Golden Eye, rappelle-nous, rappelle-nous plus tard on cause de maille We Made It J'suis c'connard qui ne sait pas où s'mettre Les bras m'en tombent alors j'm'enfonce dans leur chatte jusqu'à Pétaouschneck Leur rap est maous mec J'chourave ta meuf et lui demande de quoi le premier gaou s'mêle Appelez le Dr House Merde, restez à terre Dieu l'veut Check j'ai les plaques vertes, fais ce que j'veux J'arrive no game no promo Pousse les rappeurs à terminer leurs textes par des no homo On avance tel des brebis égarées Dans la vie comme sur un parking premier garé J'peux pas tout oublier, plier l'temps d'un demi et gagner Dans le jeu on devient dangereux bien qu'à demi-préparé Demande à Blastar faut vouloir nous combattre La concurrence est pris d'cafard pire que les couloirs de mon bat' J'cours maquetter des titres pour apaiser mes p'tites gueules Et j'dis que j'suis lourd à crever BigPun Weed et bédos lourds Disques et métaux lourds Dix' oh mais trop lourd Deen au micro lourd Yeah J'fais ça pour We Made It Ma team assomme ta team, cartonne ta pin-up dans la cabine Vous allez voler comme des balles dans la poitrine Nez dans la farine, dans les narines Or jaune sur les canines Fais tourner la caméra, les gamines arrivées les Kaméhaméha Wassup, jeune prince, anciennement batracien Plutôt crever qu'écouter Assassin Chien pose-moi un lapin et j'te coupe la patte Même malchanceux j'aurais toujours d'la chatte Rien à révéler genre dire qu'untel rappeur est gay J'suis l'rappeur préféré d'mes rappeurs préférés Retour du strabisme grave dur C'est l'ami Phaalus Les mics que j'touche prennent la valeur d'un Stradivarius Donc faudra sampler les titres de l'homme-miroir de Pernety J'réfléchis sans parler, eux ils parlent sans réfléchir Les autres nains qui testent m'indiffèrent J'suis comme quatre poulets, cagoulés Beaucoup plus fort tu n'peux rien y faire Weed et bédos lourds Disques et métaux lourds Joke au micro lourd Phaal au micro lourd Yeah 1</t>
-        </is>
-      </c>
+          <t>La vie en Violet - Teaser (ateyaba.shop)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3586,10 +3582,14 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>La vie en Violet - Teaser (ateyaba.shop)</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr"/>
+          <t>Le papier</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Fuck toute ton équipe, j'traumatise ta rétine, j'traumatise ton quartier J'connais mon métier, Vuitton à mes pieds plus des lunettes Cartier That's right Cartier, paire sur le parquet coûte plus qu'le parquet, ta 'tasse fait que stalker Raquer, négro faut raquer, cinquième avenue Saks yeah bitch j'ai des accès Cracher, j'lui mets dans la trachée, yes j'la fait sucer et j'la fais cracher J'mens pas j'ai rien à cacher, à 13 piges j'voyais 500g dans les sachets Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Lazy</t>
+          <t>Les étoiles</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0101 LEDOUBLE JEUNE SACHET - 2034 - 0101 Max D. Carter - ingulièrement Vôtre Haché Vissé 0501 Dibson - Le D 0501 Gazy MP - Process - 0501 Houdi - HOOD VOLUME.1 0501 Jeff le Nerf - Dark Green Tape - 0501 Mougli - Dans la jungle 0501 Negrito - Débrouillard 0501 Popey - À découvert - 0501 Resell - BALACLAVA PREMIER GAOUBISAP 0501 Saamou Skuu - Nous cest la TH Vol. 3 0501 Vink - L'Ordre et le Chaos Volume 2 - 1101 Booska-P - Les 11 à suivre 2024 - 1201 404Billy - GDAY - 1201 Bavaz - Noble Art - 1201 Caballero JeanJass - Zushiboyz, volume 3 1201 DosPunto - DOS 1201 HeyMikey!, Bricksy 3g - New Chapitre - 1201 Kaza - HEARTBREAK LIFE II - 1201 Kerchak - Saison 2 1201 Noss Misère Record - Récidive - 1201 Roméo Elvis - Écho - 1201 Rowtag - Zone Tendue - 1201 Serane - S.E.R. - 1201 Still Fresh - PSG OM QUAND TES IVRE - 1201 Yvnnis - L'AFRO OU LES TRESSES - 1301 Ateyaba - ECSTATIC - 1701 Gama Boonta - GRAND DICTATOR 1801 Tali 2C - DOUTER NEST PAS UNE OPTION - 1901 8ruki - POURquoi!! 1901 Demi Portion - Poids plume 1901 JuL - Décennie 1901 Kofs - Après minuit - 1901 Lesram - Du peu que j'ai eu, du mieux que j'ai pu - 1901 Noti Rose - MENTIRDÉCIBELS 1901 Oumaï - SEUL - 1901 PLK - Chambre 140 Part.1 1901 Rizla - RE7 - 1901 Shay - Pourvu qu'il pleuve 1901 So La Zone - De la cellule au château - 1901 Uzibinski - Résilience 1901 Yanso Boub'z - FANTÔMES - 2201 Lonepsi - Sans visage - 2401 Gio Nuovo - The Battacio Mixtape Vol1 - 2401 PAPI TEDDY BEAR Pense - LA CHAUFFE - 2401 your.nash - la plaie et le couteau - 2501 Le Règlement - Règlement Freestyle Saison 5 - 2601 BEN plg - Dire je t'aime 2601 Insa - Blanc comme les murs - 2601 Jaymee - Ma Way - 2601 KIK - ADIEU EDITION GANG 2601 Larry - NCE Partie 1 - 2601 mademoiselle lou - LES OMBRES 2601 morphée. - SPLEEN EST IDEAL - 2601 PLK - Chambre 140 Part.2 - 2601 Rounhaa - JAAFAR - 2601 Rozzy Friendsofbryan - Epik Angels 2601 CO - CEST POUR LES MÉCHANTS 2 - 2601 Sokuu 8 Shuff - CHROMATIC TEARS 2601 Tizzy Miller - 444 - 2601 Zola Koba LaD - Frères Ennemis 2801 ouley mh - S 3101 Bricksy 3g - But It Ain't Février 0102 Chilly Gonzales - Grünt 63 0102 Lybro - Salle du temps - 0101 Yovo DIOGENES - little boy fat man 0202 2TH - Les Prémices - 0202 Cannelle - ODD - 0202 Cellulaire - DAMOUR DARGENT 0202 IAM - HHHistory 0202 kozi - VDA Vol 2 - 0202 Lala ce - SOLSTICE - 0202 PLK - Chambre 140 Part.3 0202 Roshi Shaz - NIGHT RIDE 2 - 0202 Ruff - DADDY GERANIUM - 0202 San-Nom - Un peu pitoyable - 0202 Slimka - Le Grand Mystico - 0202 S.Pri Noir - La Cour des Miracles 0202 S-Tee - LOWLIFE 0202 VVES - SOLIDE - 0202 Zaky - SOULGAZE - 0202 Zkr - Mode Opératoire, vol. 1 - 0402 404Billy - GDAY Version physique - 0402 orphevre - IRREGULAR TRAPPEUR - 0602 Rim'K - Lifat Mat 0702 75ERA - HÉRITAGE - 0702 Empty7 - Lacrimosa - 0802 Jäde - Diabolo Grenadine Rivalise - 0902 528ron Lovarran - DESDB 3 - 0902 BAKSOOZ - CHAOS KING - 0902 Booba - AD VITAM ÆTERNAM 0902 Dany Dan Kyo Itachi - Pièces montées 0902 Dertay - Désolé, d'être moi 0902 Doria - Petite fille 0902 Fanny Polly - MEUF 0902 Lamatrix - SEREIN 0902 MLKWAV - TSUNAMI - 0902 Sokuu - SOLANIN - 0902 TH - SIGNAL II - 1002 Ry's - FANTASMAGORIQUE MUSIC 1202 2 Mètres - 92 Life 1202 Didi B - Before Olympia - 1402 Djibso - Exodia - 1402 Jok'Air - Lune de fiel - 1402 Spider Zed - Mes Ex, Pt. 4 Les mouettes - 1502 Grems - Vie Compte - 1502 Mairo H JeuneCrack - La solution 1502 Noti Rose - dead internet theory 1502 roolio - pour quoi faire? - 1602 Dadju Tayc - Héritage 1602 Dara - Chaos 1602 Gips - Passager59 - 1602 Franglish - Prime - 1602 Infinit' - 888 1602 Lp2.0 - Indifférent 1602 Meel B - UFONY - 1602 menace Santana - Freestyle covid Part. 3 - 1602 Nusky - Tchi 1602 RAS - Retour Aux Sources, Vol. II - 1602 So' - SAHARA, Vol. 2 LAYLA - 1602 Tenma Douze Déluge - ANIMA 1602 Uzi - SUR LE CHEMIN 1602 Valser - SIROCCO - 1602 Wassim - CETTE VIE-LÀ - 1602 Werenoi - Pyramide - 1702 Yarok wasting shit - SSD - 1802 Max D. Carter - Dans la salle de bain de Samantha Jones 1902 Furlax - ETHERIA - 2002 Tiers - Drapétomania - 2102 ihatemed - Serial Killer - 2102 Kaza - Une de perdue - 2202 L'ETAT2ND - L'ÉTAT2ND Vol.2 - 2302 Abou Tall - Monsieur Saudade - 2302 Celestino, Damlif Toboë - emojiski - 2302 Féfé - Hélicoptère 2302 Game Over - Game Over 3 - Terminal 2 - 2302 Gen - Fidel - 2302 GLK - VIDI 2302 IDHEM - RÊVE MACHINE - 2302 Kalash Criminel - BON COURAGE 2302 La MG - PROLOGUE 2302 Larry - NCE 2302 Le A - Eveil 2302 Manny - Shootstar 2302 Melan - La trentaine l'intégrale 2302 Moubarak - ÉPREUVES - 2302 PRIME - MONTADA 2302 Relo - DIEU MERCI ENCORE Réédition 2302 V2 Almz - MAUVAIS PARCOURS 2302 Voleur2Voleur - AUCUNE ATTACHE Vol.1 2302 YL - LARLAR Part.2 - 2302 Zamdane - SOLSAD - 2802 Jaymee - BLACK YELLOW 2802 Moha K - Salam - 2802 your.nash - la pluie sur le coupable 2902 Am La Scampia - La Scamp' - 2902 Médine - HAP LIVE SESSION live session 2902 Hypo'z - Birthday Cake Mars 0103 Allebou - Epicerie du bonheur 0103 aru! - parhélie - 0103 Big Ben - JET - 0103 Croma - Une journée dans mes shoes 0103 Elh Kmer - KJU 0103 Fresh - P.M.R. - 0103 Grems - Algèbre 3.0 0103 LIKMA 140 - TRAIN DE VIE - 0103 Luther - EXIT 0103 Mortalla - Calibré 0103 Nessbeal - Lumières Nocturnes Chapitre 2 0103 Shotas - Oue La 6T 2 0103 Squidji - ANTARCTIQUE - 0103 Teklam - Questquetuveux?? 0103 Tunisiano - Avis de tempête 0103 Uzi - SUR LE CHEMIN Phase 2 - 0103 WarEnd - EMC - 0203 Myth Syzer Ateyaba - ECSTATIC Myth Syzer Edition - 0303 Tiakola - X - 0503 spookyghost333 CCCXXXIII 0503 VII - Seconde Zone - 0603 Marty de Lutece - La nuit d'après 0603 TK - 6 Mars 2024 0603 Venom Cz - Crime Master Reedition 0703 theotin - L'Horreur Des Autres réduit 0803 Achim - Prométhée - 0803 ADÉS THE PLANET - JPLEURE EN DANSANT - 0803 Busta Flex - TCLV 0803 Dinor rdt - RDT - 0803 Dries Bormans - Dries Bormans 0803 Kaeles - NEVERMORE 0803 Keuchei - Gang ou rien 0803 Lapostroz - NOCTURNE Pt. 1 0803 Leys - LEYS - 0803 Malo - 95 - 0803 Sirap - Rapsi World - 0803 Yassine Stein - C'EST DIEU QUI DESSINE - 0903 NDO Runway - La Culture Habite Chez Nous - 1203 nelick - QUI VEUT LA PEAU DE KIWIBUNNY ? - 1303 YUNG POOR ALO - L'oiseau - 1403 Nusky - Deux minutes - 1503 Bekar - Plus fort. 1503 Demszer - REZET - 1503 Eline - Mieux vaut guérir - 1503 FEMTOGO Vilhelm. - La Bête - 1503 Jäde - Les Malheurs de Jäde - 1503 Jeune Lion - SO DIEU - 1503 Le Lij Izen - X.O 1503 Matou - Élixir Vol. 2 - 1503 MC Solaar - Triptyque Lueurs Célestes 1503 Sameer Ahmad - La vie est bien faite - 1503 Sno3 - SOUS LA RÉTINE - 1503 Spider Zed - Prends le bien - 1803 slump. - Z Unit, Vol. 1 - 2003 Chavi - 10 ANS D'ÂGE - 2003 Gio - Le Berger Le Mouton - 2003 Leo SVR - RAP INSTINCTIF APOLOGIE - 2103 LK de l'Hotel Moscou - Wu Wei 2 2103 Senamo - Un cauchemar avant le jour daprès - 2103 T.I.S Kaer MKS - Période bleue - 2203 34murphy - La chouette - 2203 AAMO - CHARBONNER OU PRIER 2203 Dina - DNA 2203 DND - CINQ 2203 Ekloz - 3motional bada b!tch 2203 Falcko - BLACK CODE TOME 4 2203 Hatik - LA VIE DE TYLER - 2203 Jeune Observateur - Fuir Les Ombres 2203 K.S.A - On Load... 2203 Perso - Eminence Grise - 2203 sean - OÙ EST PASSÉ ZEUDOG ? - 2203 Vin's - Le faux miroir 2703 PHLP - Maison Posture - 2703 Todd - MAX2BLÉ - 2803 B.B. Jacques - HORIZON 25 2803 Herman - Pas normal, pas bizarre 2903 Absolem - Les yeux grands fermés - 2903 BUHI - Bushi Tape 3 - 2903 CAPUH - THE RAIN NEVER LIES - 2903 Cheval Blanc - INSPECTEUR CHEVAL - 2903 Deelee S Arsaphe - STEEPLE-CHASE - 2903 J9ueve - NUEVE SEAZON 2903 Josué - Etat d'esprit 2903 Kamas Skuh - La Paye 2 2903 KLS - LA PAIX DES BRAVES PART. 2 2903 L'Hexaler - En parallèle 3 2903 Lybro - Plein potentiel - 2903 Matox Sale Epoque - Les Chats - 2903 NeS - POUR DE VRAI - 2903 Nobodylikesbirdie - The Birdie Tale II Reservoir Dawgz Avril - 0204 Lucio Bukowski Mani Deïz - CHARDONS BLEUS - 0404 SONBEST - Symphonie Des Marécages - 0504 Cellulaire - MAQUINA - 0504 Daej Phantom - Rire Drame et Vendetta - 0504 Green Montana - SAUDADE - 0504 Keroué JeanJass - SCOPE 0504 Moxy - Aube Rose - 0504 Nelick - MON CUR BAT - 0504 Shien - Obsession - 0504 YUNG POOR ALO - Alo et l'oiseau - 0904 Bob Marlich - Les points sur l'Haÿ - 1004 Henri Bleu - REGARDE - 1004 Youri - Enfermez moi - 1204 Dau - ÉTATS D'ÂMES 1204 Guy2Bezbar - AMBITION II - 1204 Inflow - Dernières fleurs - 1204 Joé Dwèt Filé - GOUMIN TERMINÉ - 1204 Kpri - 2002 - 1204 Lycos - HYPERION 1204 Paco Raw Saitama - TRAMONTANE 1204 Peet - À demain - 1204 Rodrigo - ÉTERNEL SECOND 1204 SID - STELLAGONY 1204 SLD Prod Tha Manz - Sixième Sample - 1204 Smeels - GLOF 1204 Tedax Max - Hardeur contemporain 1404 Jahrel Jones - BAKANA SENSITIVE LOVER VOL.1 Talkin' Dirty Before Dark 1504 3xmacoño - LE 3 - 1704 HIBA Lyes Kaci - presque heureux - 1804 Akkai - PragmatiKkK 1804 AnNie .Adaa - Juste Un Peu De Ciel 1804 Sadandsolo - FACTORY RESET - 1804 Saytam - Marseille Nuit - 1904 Deadi - Enfin - 1904 Enima - DZ D'AMERIQUE 1904 GAZY MP - Vision - 1904 Grand Bazaar - GrandBazaar 02 1904 Jarod - Rédemption 1904 Larsé - Jeune Rookie 1904 Lazzio - DUR LABEUR 1904 mademoiselle lou - LA VAGUE 1904 Mac Tyer - LA VIE DU TRIPLE OG 1904 Mehdi YZ - Ça passe ou ça cash 1904 Momsii - LGT Vol.2 - 1904 Nusky - Pussy miaou 1904 Pedro - Living Room 1904 Rimkus - Fracturé - 1904 Spider Zed - Xari 1904 Uzi - SUR LE CHEMIN Phase 3 - 2304 paradise rq - L'un des sept No.3 - 2404 Owen - WEIHENMAYER 2604 Ashéo - ALO premier appel 2604 Davinhor - Karaba Partie I - 2604 Gros Mo - LES DIÈSES 2 2604 Gutti - AVANT LE GLO 2604 Kima - L'école des Stars - 2604 Lester - Oz 2604 Linton - Home Run 2604 Mister You - HLM3 Réédition 2604 Nyda - Murder Music - 2604 ozkar - scories vol.1 - 2604 Ratu - TTMS, Vol. 3 2604 Stavo - Il était une fois - 2604 Tomàs V - LAdversaire 2604 Suzuya - Morceaux de moi - 2604 Wit. - LE JOUR D'APRÈS - 2904 Asinine - Brûler la maison 2904 JMK ambezza - SOUTH STORY 3004 Black Jack - Strangulation 3004 Flamingo Santana - NAUGHTY BOY Mai 0105 Bouss - Depuis le temps 0105 Chanceko - En roue libre 0305 Baby Neelou - Le Chemin du cur 0305 Bhk220 - Génération 2000 0305 Game Over - Game Over 3 - Terminal 3 - 0305 Gapman - Prochaine Chèvre 2 0305 Heloïm - DERNIER RUSH 0305 KPoint - SHOTTAS 0305 LowKey Juvito Various Artists - JuvTape Vol. 1 NevJoueurs 0305 Nixon - Outsider 0305 Rouge Carmin - GRAND CARMIN HOTEL 0305 samayusi - Des cauchemars qui ont saigné - 0305 Souldia Lost - Portrait robot - 0505 Nemavo - Chrysalide - 0805 VILK - VILKCORE - 1005 AK - BIGDAWG EVO 1005 Cacahouète - Vrai Igo 1005 Dr. Yaro La Folie - À Deux 1005 JYEUHAIR - DAIZOISO 1005 K.S.A - Energie 1005 Skary Wysko - PROLOGUE LE HORLA 1005 Slkrack - Jeune, black qu'en à rien à branler - 1005 Take A Mic - M1NDSET 1005 White N - DEUX FOIS PLUS QU'EUX 1105 Mitch - MODE S 1105 T.I.S - Dans la ville 1505 Bricksy 3g Lilguwop - Glowop - 1505 Zoomy - DIRTY SPRITE 19 - 1605 Butter Bullets - Château - 1605 Närka - HOTEL BLEU 97 1705 Ben.C - BENNY 1705 Biwai - Remontada 2 1705 dima - bastide 1705 Eesah Yasuke - PS J'écris l'album 1705 Harley - Who's Harley - 1705 Huntrill Hologram Lo' - REPLICA 2 - 1705 La F - TNF 3.5 - 1705 Laskiiz - GODJENG 1705 Leith - SI LA FORTUNE EST AVEUGLE - 1705 Magnim - Blanc et Bleu - 1705 Mandyspie - Monster Therapy - 1705 Peka59 - Maryse 1705 SAM - 1ère mi-temps 1705 Stavo - Éviter la misère 1705 Timal - Darzava - 1705 USKY - Anhédonie 1705 your.nash - solitaire, mais bien accompagné - 1705 Yzü - SWIRL TRAUMA - 1705 Zinée - OSMIN - 1905 Cielbleu - Janvier jtm quand même - 2305 So La Lune - NUMERO 11 - 2405 ADVM - .DEMAIN C'EST MIEUX. - 2405 Bluume Triple Nine - MELOGRAM 2405 Dadinho - Coeur Nwar - 2405 Dau - ÉTATS D'ÂMES Vol. 2 - 2405 Douze Déluge - HINTERHALT pt1 2405 Folie's - Folie's je t'aime - 2405 Hotel Paradisio - INSOMNIA 2405 Koffi Lossa - À la maison - 2405 Osirus Jack - TSAR NOIR 2405 Skary Wysko - LE HORLA - 2805 Toothpick - JEUNE LIFTIER - 2905 F430 - Focus 2905 PAPI TEDDY BEAR Pense - LA TREMPE - 2905 Toam - CRIMERA - 3005 Famille Nombreuse - Reste Dangereux 3105 410 - 410 Pt. 2 - 3105 AMK - T.A.T - 3105 Dalienski - L'Arme de Cristal - 3105 Deemax - À MA PLACE 3105 Elso - Fula - 3105 Elyon - La musique est une porte - 3105 Hugo TSR - La Pluie 3105 Jack Many - Des flingues et des roses - 3105 Kemmler - Alain - 3105 Lary Kidd - Le cheval blanc de Napoléon 3105 Maks - Enfant Béni 3105 RK - DLPDA - 3105 SCH - JVLIVS Prequel Giulio 3105 Skima - Krieg - 3105 Surprise - Le plus beau des monstres - 3105 thaHomey - RARISSIME II - 3105 Zed - Malcom - 3105 zonmai - Birthday Saison Juin - 0406 Gringe - Du Plomb Effet de Surplomb 0406 Jama - DEVIL Z, Pt. 2 0706 Jey Brownie - Mélodie céleste 0706 JKSN - CRACK - 0706 Jok'Air - Turpitude - 0706 JuL - Mise à jour 0706 Le Lij Brodinski - Zéro Degré 0706 Loveni - MAD LOV 0706 Madjer - LUCKY LUXE - 0706 MSyn - BEFORE Atalante 0706 Skary Wysko - ÉPILOGUE LE HORLA 0706 Slkrack - Le charbon ne s'arrête jamais - 0706 TH - E-TRAP 0706 TiBab - BRICKBABY - 1306 Farloski Pablaw - EUROSTAR MUSIC - 1306 Maeg - Hall of Shame - 1406 abel31 - 0010 - 1406 Arsaphe - NÉVROSÉ - 1406 Caballero - Dose héroïque - 1406 Heuss l'Enfoiré - LVDR - 1406 iTo - Mourir jamais - 1406 Izar - 38ème étage - 1406 Jaymee - ÇA C'EST DU RUN 1406 KABBSKY - DYSTOPIE 1406 Kasar - ALTAÏR 1406 Keeqaid - PARTICIPE 1406 KLS - HORION 1406 Lacrim - VENI VIDI VICI 1406 La Kadrilla - M.A.P 1406 Mano Leyra Kooking - 92BADD 1406 Many Santana - PHE 1406 Meryl - Caviar I 1406 Nayra - TALWIT 1406 Nosnow - Dolo 1406 Notorious 2T - SURVEILLÉ - 1406 OSO - Tundra XP 1406 Princesse - Prélude Nouvelle Romance 1406 Raous Gang - 94 Filature 1406 Still Fresh - CEST LA DERNIÈRE FOIS, Pt. 1 - 1406 Take A Mic - MIN2SET 1406 TheHashClique - LEET 1406 Tovaritch - TSAR - 1406 wasting shit - 1M NE SE GASPILLE PAS TT SEUL 1506 Maes - EN ATTENDANT LVC II 1906 Lison - ABRASIVE NOISES FRAGMENTS - 1906 Romero Xr Dr. Fongible - Mixtape Éon I - 1906 Rowjay - LA VIE RAPIDE - 1906 San-Nom - Un peu moins pitoyable 2106 808NOCHE - 808 BPM 2106 Aketo Unfamouslouie - SPIRITIC 2106 Anas - Diaspora, Vol.1 - 2106 arøne - fin d'été 2106 Bouss - Depuis le temps Part. 2 - 2106 Cellulaire - ÉVANESCENCE 2106 Heykel - Particule élémentaire 2106 Houari - Cest de la Cali 2106 JRK 19 - MAUDIT À VIE 2106 Kay The Prodigy Mezzo Millo - EASTERN WIND 2 BLOOM EDITION 2106 Lebza Khey - Coeur Froid - 2106 LEDOUBLE Hologram Lo' - enfant du soleil 2106 Leith - LE RICHE EST SOURD 2106 Lyonzon - Wave ruler 2106 Naps - MEC DE CITÉ SIMPLE 2106 Naza - Nazaland - 2106 Noti Rose - AVEUGLES 2106 Rohff - Fitna - 2106 Soprano - Freedom 2106 Still Fresh - C'EST LA DERNIÈRE FOIS 2106 TripleGo - NOIR CARBONE 2106 TRZ - TRANSIT 2106 Uzi - SUR LE CHEMIN Phase finale - 2106 Vîrus - NYCTHÉMÈRE 2606 Ashh - Katrina - 2606 Jorrdan - Stevie - 2606 Selug enar - No Signal 2706 Leust - FRAMELESS 2806 Achim - APHANTASIA 2806 Bambino47 Alek500 - SKYLINE 2806 Benab - Drapeau Noir 2806 Cenza - 2997 - 2806 Chilla - 33 2806 Damys - D or D, vol. 2 - 2806 Enima - DZ DAMERIQUE Deluxe Edition 2806 Karmen - MOTEL STUDIO 2 2806 KR Malsain - Une nuit sans étoiles 2806 La Famax - La vie de généraux - 2806 LauCarré - Merci la vie pour les douleurs 2806 Lil Zamm - EUROTAPE 2806 Melan - Havana 2806 Michel - Les Orties 2806 Missan - Full Vision 2806 Mougli - Dans la jungle partie 2 2806 Myth Syzer - HARD 2806 Nono La Grinta - La Griiint 2806 Prototype - LA FÊTE DU SERPENT - 2806 Sasso - VICE CITY - 2806 Scylla - Ivresse des profondeurs 2806 Slim Lessio - La Grande Vie - 2806 St. Jimmy - Boulevard des Rêves Brisés - 2806 Wallace Cleaver - merci - 2806 Yvnnis - SCORE! 2806 Zequin - NTABASHII 2806 Zokush - Du jour au lendemain 3006 Di-Meh - OV3 - 3006 Ptite Soeur Gemroz - KAYFABE CHIMERA - 3006 Zeu - WATERGATE SCANDAL Juillet 0107 Worms-T - Wolf Gang - 0207 T.I.S Kaer MKS - 007 AM 0307 Anta - ANTAGONIS2TE - 0307 B.B. Jacques - Honeymoon - 0307 Mairo - 45 et rouge - 0307 Souffrance - Éléphant - 0507 Artistes divers - Nouvelle École Saison 3 Partie 1 0507 FAYV - MONÊRÊS 0507 Hache-P Kezo - Auto 0507 i300 - LA TRAP M'A SAUVÉ 0507 IPNDEGO - MORNINGSTAR 0507 ISS - Favori - 0507 KLM - JUSTE EN CRIME - 0507 Maxlinker - rose incident 0507 Mortalla - Boussole 0507 Nuev - DESTOCK - 0507 sheng - FCK SCHOOL 0507 Slkrack - La chance n'existe pas 0707 Blaz Pit - NO SKIP, Pt. 2 0907 Godson Anybxdy - LE SALON DES CONDAMNÉS 1007 ICY - RESET 1207 63OG - MPM 1207 ADÉS THE PLANET - UN TRÈS BEL ENTERREMENT - 1207 Artistes divers - Nouvelle École Saison 3 Partie 2 - 1207 Beendo Z - CONNU POUR EXTORSION - 1207 Carbonne - Par nous-mêmes 1207 Gambino - CAPSULE 1207 Hash24 - Trafic 1207 Hulk Van JMF - Je t'avais dit, non? 1207 ISK - Hannibal Part.1 1207 Kaeles - CLOUD NINE - 1207 Lamanif - Jean-Pierre 1207 La MG - ÉPILOGUE 1207 La Rvfleuze - EALS - 1207 Lazuli - Aphrodisiaque 1207 Liim's - Mentalité Baara 1207 Lord Esperanza - Atlas - 1207 mademoiselle lou - VIVRE 1207 MAPESS - VERSUS 1207 Sicario78 - L'instable 1207 YUNG POOR ALO - Un monde où ça va - 1307 baby hayabusa Neophron - Faded Flower Story - 1407 Deelee S - Saison chaude 1607 Deelay - Agoraphonie - 1707 Yovo - EQUUS 1907 Chaax - Kaïzen 1907 Fresh laDouille - Sang limite 1907 Gatchete - SEDNA - 1907 Guy2Bezbar - Maison Blanche 1907 JaySoCold - BODY THERAPY - 1907 Leto - Capitaine fait de l'art 1907 LEVELSANTANA - NONCHALANT - 1907 Maes - LA VIE CONTINUE 1907 Malko - SAHARA 1907 Nessbeal - Black Summer - 1907 Rémy - Après la pluie - 1907 Take A Mic - MINDS3T 2207 La Hasba22 - 75022 2507 Neop0p, Brodinski Modulaw - METANOÏA - 2607 Rizzy Wallace - R FRANCE 2607 SAF - SINAVOICE 2707 Lucci - Qu'une seule route - 3007 OG L'Enf - FAUX RÊVEUR Août 0108 LNK - SAISON 00 LES COEURS S'EMBRASENT 0208 BKRBABYBOY - LOVSZN 0208 Insa - Nuances de I - 0208 Jungle Jack - JUNGLE DES ILLUSIONS VOL 2 0208 Marla - NAISSANCE 0208 Mayo - Yoski 2 Golden Edition 0908 Ruff - PICON GRENADINE 1408 Le Jeune D - HIghland Vol. 1 - 1508 Ateyaba - ECSTATIC 1.5 - 1508 Zinera - Mr. Fastlife 1608 Durden - Le Rap avant T.A.L - 1608 Futur Bandit - POST-APO, vol.1 1608 Morphée - AVI - 1608 Parasit - NOUVEAU LABEL - 1608 Toothpick Guydelafonsdal - TOOTHPICKDELAFONSDAL - 2008 Strano - SDF MUSIK 2308 ARTR - Histoire de 2308 Cinco - PREACH SUMMER - 2308 baby hayabusa Neophron - Faded Flower Story Deluxe - 2308 T.I.S Lando - Citadine 2808 Bricksy 3g Lilguwop - Glowop Deluxe 2808 Moubarak - Tout Droit - 2908 Damso - VIEUX SONS 3008 Afro S - A.N.T 3008 DND - T3 sur soleil 3008 MALTY 2BZ - Solitaire - 3008 Primero - Plaine des Asphodèles Septembre 0109 Saiba - KAESTAR 480P - 0309 The Strangers - Rise Together Que ton mic repose en paix 0409 Chavi - no ref - 0409 JeanJass - Tous ces ongles rongés - 0509 Lucio Bukowski Tcheep - ASADACHI TAPE Vol. 4 - 0609 Deemax - TRASHTALK - 0609 Furlax - ASTRA NOVA - 0609 Jeune Foy - ONCE UPON A TIME - 0609 La Fève - BIGLAF 0609 La Hasba22 - 75022 0609 Raplume - FREESTYLES RAPLUME 2024 - 1309 A2H - ULTRA-SENSIBLE - 1309 ANTHA Jeune Ras - DU SANG SUR LES LÈVRES 1309 Brav - Café crève 1309 Dadi - TPLM 1309 GEPETOGANG - MobbTape Chapitre 1 - 1309 GIMS - LE NORD SE SOUVIENT - 1309 Giuseppe - 1ST PICK - 1309 HOUDI - LE DERNIER RAYON DE SOLEIL 1309 Lyre - MANTRA 1309 N3MS - LE BRUIT DES VAGUES 1309 Norsacce Berlusconi - Sacce Season Trailer 1309 Savage Toddy - Spécial 1309 Trankil Trankil - Surf School 1309 Triple Nine - Daytona - 1309 Yorssy - Road Trip - 1709 DollMoney MIXTAPE PALESTINE LIBRE DE LA MER AU JOURDAIN - 1809 T.I.S J.Crown - 008 PM 1909 Tisma - HAPPY DAYZ 2009 Allebou - L'esquive 2009 Ashéo - ALO deuxième appel - 2009 BARA8! Hitech - Ok Cool! - 2009 Chilla - 333 - 2009 COEURCO - UNRESTRICTED INTERNET ACCESS 2009 Dooz Kawa - Vol de Nuit - 2009 EDGE - JANVIER... 2009 Gringe - Hypersensible - 2009 Tiakola - BDLM VOL.1 2209 Zippo - Automne - 2709 Baby Neelou - Briller de fou - 2709 Chanje - Humain - 2709 Darlean - REBOOT 2709 Double Zulu Just Music Beats - Last Man Standing - 2709 FEDALL - RARE 2709 K.S.A - Energie Reloaded - 2709 Moha MMZ - La plage 2709 Savage Toddy - Né spécial - 2709 SDM - A LA VIE A LA MORT 2809 Caballero JeanJass - Zushiboyz, volume 4 Octobre 0210 Myth Syzer - HARD Deluxe 0310 Yassine Stein - LE SOL TREMBLE 0410 13 Organisé - 13 Organisé 2 - 0410 B.B. Jacques - BLACKBIRD 0410 Jwles - Bijoux 0410 Sensey' - Des rires et des pleurs - 0410 Serane - Prise Musique 3 0410 Souf - Sentiments 0910 Good Bana - V-IVRE 0910 Sadandsolo - FACTORY PRESET - 0910 Yovo - EQUUS FERUS 1110 AMK - 15 Vol.2 La polyvalence est un don 1110 Balafré - 40 ACRES 1 MULE - 1110 Godson Anybxdy - CASINO ROYAL II - 1110 James Loup - SOLEIL FROID 1110 JaySoCold - BLESSED 1110 LA HAINE - LA HAINE 1110 Lovarran - Cascade 1110 Savage Toddy - Personne n'est spécial 1110 Seventiine - Apollo 17 1110 Todd - DBNA - 1410 shooda - Darkness Light - 1610 Teklam - Par ou on passe 1810 AnNie .Adaa - Là où le Soleil se Fait Rare - 1810 Django - paris, 31 août 1810 Ikaz Boi - BRUT4L 2LUXE - 1810 Jayel - Trend 1810 joysad - L'auteur de mes contes 1810 M87 - EMPRISE - 1810 MadeInParis - mourir peut attendre - 1810 MEL - MAISON VIII 1810 RK - DLPDA Extended Version 1810 Ry's - RAYON LASER 1810 Tetsuro - Ce qui compte vraiment - 1810 Werenoi - Pyramide 2 1910 Ashh - PPA - 2210 T.I.S Dysflow - Interférences 2510 Davodka - Héritage 2510 Jeune Mort - Demain est annulé 2510 Julaï - Rapide et Dangereux 3 2510 NeS - POUR 2 VRAI PART. 2 2510 Ninho Niska - GOAT 2510 PHÄNTOM - LA LUMIÈRE DANS L'OBSCURITÉ 2510 Sazamyzy - Dangereuse famille 2510 Sto - Time Out Vol. 3 XX10 Damso - J'ai menti XX10 LEDOUBLE Guydelafonsdal - LEDOUBLEDELAFONSDAL Novembre 0111 Creamy G - SOLEIL SUR MOI 0111 GRËJ - ANTIPASTI 0111 Bluume - SPIRITS 0111 L'Animal Maté Beats - Dédales 0111 Theodora - BAD BOY LOVESTORY 0111 Zbig - Zanekkk 0811 Jolagreen23 - 99XP 0811 Percy - RÉSILIENCE 0811 Ratu - Les miens avant les vôtres 1311 Zek - Localisable 1411 Artistes divers - SYMBIOSE 1511 Tyngaa - NSND 2 1511 Zeu - DOPPELGÄNGER 2211 Hatik - 1 2211 Yoshi Di Original - Deepa 2211 Yuri Online, Bricksy 3g - HUECO MUNDO 2911 Elh Kmer - Amaru 2911 Dinos - KINTSUGI 2911 Gazo - APOCALYPSE XX11 Huntrill - Nouvelle Trap 2 XX11 Steban - Mode Sport 2 XX11 Swift Guad Ol Zico - Orage Décembre 0612 LaCraps - Poussez-vous XX12 Poupy - 4 XX12 Resell - Nouveau projet XX12 Solomando GRËJ - Jeune Basquiat Dates à confirmer 404Billy - SAMO 77 Degrés - 77 Degrés Ajna - Nouveau projet Alpha Wann - Deuxième album ASHE 22 - Nouveau projet Beeby - Nouveau projet Bigflo Oli - Cinquième album Bluume - Nouvelle mixtape Chanceko - En roue libre 2 Cheu-B - BigSky Mixtape Deelee S - RED ALERT 3 Dioussa - Premier projet Dosseh - IKKI Duke Mobb - La cassette 2 F430 - Nouveau projet Gemen - Nouveau projet Genezio - BOUNCE MUSIC S2 Gradur - Projet Kongo H.LA DROGUE - Drogue 2 Hippocampe Fou - PRÉSENT Ici c'est Paris - Ici c'est Paris J2LASTEU - RSF, pt. 2 Jeune Lion - RULE MI HEART JOON - Premier projet JRK19 - Nouveau projet JuL - Nouvel album Kery James - Nouvel album Khali - Nouveau projet KronoMuzik - FREE KRONO Part 2 La Caution - Symétrie D'Argan LaCraps - Machine à écrire édition finale Laylow - Troisième album Le Croc - Blue Europe L'Hexaler - Nouvel album Lucio Bukowski Mani Deïz - La Noblesse de l'Échec Vol. 2 Lucio Bukowski Oster Lapwass - TEPHRAS Lucio Bukowski Oster Lapwass - NI D.A NI MAÎTRE... Luni Sacks - Nouvel album Mahdi Ba - The Pirate Bay Mini Rttclan - Mini Lingé vol.2 M le Maudit - Nouveau projet Mvshy - EP No Limit - No Limit Noma - JSDQO Vol.2 OBOY - OLYBOY Ormaz - Premier projet Recklessboise - H6 Resell - deuxième projet Rockin' Squat - 1520 Rounhaa - Nouveau projet Rousnam - World Tour Rozzy - Nouvel album So' - SAHARA VOL.3 So La Lune - Nouveau projet Stony Stone - Nouveau projet Swift Guad - Narvalo TK - Nouvel album TLZ Clan - Nouveau projet Ucyll - Nouveau projet Udeyfa - Authentique USKY - HADES Vald - Cinquième album Virgile - Deuxième projet Waïv - Nouvel album winnterzuko - Nouveau projet Yaya D - CityBoi3 Youri - Nouveau projet Zuukou Mayzie - Le film 19h193</t>
+          <t>Yeah, yeah, quand j'entend le boum-boum, j'ai les J'ai les poils qui s'hérissent, dans la voute, voute céleste Céleste Je sais pas ce qui dirige, je suis un sate-lili-llite Sacré bip-bip-bip Makélélé sur un stade et les étoiles sont installées Mesdames, vos places sont p't-être les bonnes Rien n'égale votre classe, quand elles répondent Elles disent que j'suis audacieux de draguer des femmes mariées J'réponds J'remplacerai vos hommes, yeah Approchez la fusée, j'veux approcher ma fan J'ai la gueule de l'accusé, c'est lui qui a volé la Lune D'après la rumeur, ma belle est comblée Donc j'assume ma femme puis mon âme suit madame Rallumez la flamme, j'ai craqué des allumettes aussi aveugle qu'un serpent à lunettes Mon coeur est figé, comme en congélation Pour moi les étoiles chantent dans toutes les constellations Et voilà c'qu'elles disent Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ça veut dire c'que ça veut dire, tu es juste mon avenir, on dirait, j'veux t'entendre dire que Cupidon a tiré, fusée droit dans l'espace J'te languirais, j'irai jusque chez E.T. le virer de son télescope, juste pour voir ta belle face J'suis pas doué en astrologie, ma chérie Des étoiles, t'es l'apologie, la T'es plus belle que l'astrologie, la mairie Attend, dans la voie lactée, la Terre est ronde, toi mon vaisseau à la dérive Quelques fois j'raisonne mal, j'croirais Mon cerveau mal barré, j'tombe dans tes bas-résille comme dans un cabaret J'raisonne mal comme dans les Alpes J'réfléchis comme un miroir sale, j'suis coincé, comme un tiroir sale Si tu viens , ma tristesse s'ra égale à la distance qui me laisse Chaque soir, le cur blessé, rempli d'stress Mais sache que la nuit, tes copines me disent Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive</t>
         </is>
       </c>
     </row>
@@ -3616,12 +3616,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Le papier</t>
+          <t>Lion</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Fuck toute ton équipe, j'traumatise ta rétine, j'traumatise ton quartier J'connais mon métier, Vuitton à mes pieds plus des lunettes Cartier That's right Cartier, paire sur le parquet coûte plus qu'le parquet, ta 'tasse fait que stalker Raquer, négro faut raquer, cinquième avenue Saks yeah bitch j'ai des accès Cracher, j'lui mets dans la trachée, yes j'la fait sucer et j'la fais cracher J'mens pas j'ai rien à cacher, à 13 piges j'voyais 500g dans les sachets Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier Tous les jours, j'dois faire les sous Négro, j'dois faire le papier</t>
+          <t>Je dévore sa coochie, comme un lion On débarque très outillés, on est vaillants Oseille, mojo, tout y est Il faut m'oublier si t'affectionnes les bourbiers Je l'ai bousillée mais obligé de tout nier Le juice s'est accumulé, elle est toute mouillée J'ai un bracelet Jubilée avec beaucoup d'billets J'ai toujours d'la beuh et j'me fais jamais fouiller J'suis le lion Quantité de VVS sur mon médaillon Oooh Tu penses tu peux test, ton cerveau est défaillant Oooh J'serais plus frais qu'toi même si j'portais des haillons J'suis high au carré, j'suis foncedé dans des avions J'pop le A, j'me souhaite une longue life La gente féminine j'connais son vice J'fais pas confiance j'attends pas qu'on trahisse Trop d'oseille, trop d'mojo, trop d'charisme Je dévore sa coochie, comme un lion On débarque très outillés, on est vaillants Oseille, mojo, tout y est Il faut m'oublier si t'affectionnes les bourbiers Je l'ai bousillée mais obligé de tout nier Le juice s'est accumulé, elle est toute mouillée J'ai un bracelet Jubilée avec beaucoup d'billets J'ai toujours d'la beuh et j'me fais jamais fouiller J'suis le lion J'suis le young nigga J'veux que les meilleurs beuh dans mes lungs, nigga J'veux que les meilleurs beuh dans mes lungs, nigga</t>
         </is>
       </c>
     </row>
@@ -3633,12 +3633,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Les étoiles</t>
+          <t>[Livret] Ateyaba</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Yeah, yeah, quand j'entend le boum-boum, j'ai les J'ai les poils qui s'hérissent, dans la voute, voute céleste Céleste Je sais pas ce qui dirige, je suis un sate-lili-llite Sacré bip-bip-bip Makélélé sur un stade et les étoiles sont installées Mesdames, vos places sont p't-être les bonnes Rien n'égale votre classe, quand elles répondent Elles disent que j'suis audacieux de draguer des femmes mariées J'réponds J'remplacerai vos hommes, yeah Approchez la fusée, j'veux approcher ma fan J'ai la gueule de l'accusé, c'est lui qui a volé la Lune D'après la rumeur, ma belle est comblée Donc j'assume ma femme puis mon âme suit madame Rallumez la flamme, j'ai craqué des allumettes aussi aveugle qu'un serpent à lunettes Mon coeur est figé, comme en congélation Pour moi les étoiles chantent dans toutes les constellations Et voilà c'qu'elles disent Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ça veut dire c'que ça veut dire, tu es juste mon avenir, on dirait, j'veux t'entendre dire que Cupidon a tiré, fusée droit dans l'espace J'te languirais, j'irai jusque chez E.T. le virer de son télescope, juste pour voir ta belle face J'suis pas doué en astrologie, ma chérie Des étoiles, t'es l'apologie, la T'es plus belle que l'astrologie, la mairie Attend, dans la voie lactée, la Terre est ronde, toi mon vaisseau à la dérive Quelques fois j'raisonne mal, j'croirais Mon cerveau mal barré, j'tombe dans tes bas-résille comme dans un cabaret J'raisonne mal comme dans les Alpes J'réfléchis comme un miroir sale, j'suis coincé, comme un tiroir sale Si tu viens , ma tristesse s'ra égale à la distance qui me laisse Chaque soir, le cur blessé, rempli d'stress Mais sache que la nuit, tes copines me disent Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Toutes les nuits sont fiévreuses, quand je suis loin de toi Tu illumines mes soirées, sans m'en laisser le choix Tu es comme ma veilleuse, le soir même très tard Je rêve de te parler, Ô mon étoile Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive Ooh-ooh-ooh, ooh-ooh-ooh, you make me alive</t>
+          <t>. Recto-verso Cliquez ici pour un meilleur aperçu Pages 01-02 Cliquez ici pour un meilleur aperçu Pages 03-04 Cliquez ici pour un meilleur aperçu Pages 05-06 Cliquez ici pour un meilleur aperçu Pages 07-08 Cliquez ici pour un meilleur aperçu Pages 09-10 Cliquez ici pour un meilleur aperçu Pages 11-12 Cliquez ici pour un meilleur aperçu Pages 13-14 Cliquez ici pour un meilleur aperçu Pochette arrière Recto Cliquez ici pour un meilleur aperçu Pochette arrière Verso Cliquez ici pour un meilleur aperçuCover 1</t>
         </is>
       </c>
     </row>
@@ -3650,12 +3650,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Lion</t>
+          <t>[Livret] Ateyaba - Remerciements</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Je dévore sa coochie, comme un lion On débarque très outillés, on est vaillants Oseille, mojo, tout y est Il faut m'oublier si t'affectionnes les bourbiers Je l'ai bousillée mais obligé de tout nier Le juice s'est accumulé, elle est toute mouillée J'ai un bracelet Jubilée avec beaucoup d'billets J'ai toujours d'la beuh et j'me fais jamais fouiller J'suis le lion Quantité de VVS sur mon médaillon Oooh Tu penses tu peux test, ton cerveau est défaillant Oooh J'serais plus frais qu'toi même si j'portais des haillons J'suis high au carré, j'suis foncedé dans des avions J'pop le A, j'me souhaite une longue life La gente féminine j'connais son vice J'fais pas confiance j'attends pas qu'on trahisse Trop d'oseille, trop d'mojo, trop d'charisme Je dévore sa coochie, comme un lion On débarque très outillés, on est vaillants Oseille, mojo, tout y est Il faut m'oublier si t'affectionnes les bourbiers Je l'ai bousillée mais obligé de tout nier Le juice s'est accumulé, elle est toute mouillée J'ai un bracelet Jubilée avec beaucoup d'billets J'ai toujours d'la beuh et j'me fais jamais fouiller J'suis le lion J'suis le young nigga J'veux que les meilleurs beuh dans mes lungs, nigga J'veux que les meilleurs beuh dans mes lungs, nigga</t>
+          <t>REMERCIEMENTS À Dieu pour m'avoir mis sur cette terre et me guider chaque jour Ma mère, mon père Mes frères et ma sur Le gang pour croire en moi depuis le début, même si y'en a 1 qui y croyait pas... Bip's, Titan, Asura, Santi, Paco, Benoit, Ben plus particulièrement Bip's qui m'a suivi dans toutes mes Waves et qui a vécu la base avec moi Ben aussi parce qu'on lui pompe tout son jus no homo mais il est toujours là même si on sait qu'il préfère dessiner des shnecks Oumar et Blastar pour m'avoir donné les moyens et la liberté de créer ce que je voulais créer, on débute juste Ma femme pour sa patience Ségolène, Laetitia, Naomi et Weelo qui ont joué un rôle décisif Nassim qui est toujours là pour travaille sur le chakra Jo-A mon gars sûr, ça devait être pour cette fois mais ce sera pour la prochaine si Dieu le veut Mariciel et Typhaine qui sont toujours là quand j'ai besoin d'un bail Richie, Smith, Djamel, toute l'équipe GEMG Konex qui m'a été d'une aide précieuse en studio Fred N'Landu-N'Ganga qui nous donne le mojo Emma parce qu'elle va m'avoir d'autres couv' de magazine Pauline parce que en scred c'est ma chef de projet depuis Kyoto Tous les artistes et producteurs qui ont travaillé sur le projet et les projets d'avant Nathalie Canguilhem parce qu'elle nous a suivi dans des bails pas faciles Dan Resnick et Max Robin Benjamin et l'équipe Def Jam pour avoir misé sur moi et nous laisser travailler à notre manière Bertil, Nicolas Galibert et l'équipe Sony ATV L'équipe Yard qui suit depuis le début Le rap français pour me laisser le baiser avec autant d'aisance Dédicace à Karl, Regis, Bianca, Anais, Sarah, Regis de BX, Maiky, Klain, Maya, Zaki, Patricia, Vanessa, Metek, Wealstarr, Félix, Manré, Syze, Eriola, Melo, Zev, Oraga, Tek, Sin City, Nicolas Noêl, Kevin El Amrani, Ojoz et ceux qui me suivent depuis le début Si t'as pas acheté cet album, que ta chatte s'effrite ou que ta teub tombe c'est tout ce que tu mérites avec toute l'énergie que j'ai mis dedans Joke</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>[Livret] Ateyaba</t>
+          <t>LMGMTP</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>. Recto-verso Cliquez ici pour un meilleur aperçu Pages 01-02 Cliquez ici pour un meilleur aperçu Pages 03-04 Cliquez ici pour un meilleur aperçu Pages 05-06 Cliquez ici pour un meilleur aperçu Pages 07-08 Cliquez ici pour un meilleur aperçu Pages 09-10 Cliquez ici pour un meilleur aperçu Pages 11-12 Cliquez ici pour un meilleur aperçu Pages 13-14 Cliquez ici pour un meilleur aperçu Pochette arrière Recto Cliquez ici pour un meilleur aperçu Pochette arrière Verso Cliquez ici pour un meilleur aperçuCover 1</t>
+          <t>Discographie - Les Monsieur Single - 2011 Les Monsieur - Deux meufs - 20110615 Les Monsieur - Alycia - 20110721 Les Monsieur - Les Mrs Banger - 201204 Les Monsieur - LMGMTP Discographie complémentaire - Discographie - Ateyaba - Discographie - Bip's - Discographie - Leknifrug - Discographie - Titan</t>
         </is>
       </c>
     </row>
@@ -3684,12 +3684,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>[Livret] Ateyaba - Remerciements</t>
+          <t>Look at my drip / whip*</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>REMERCIEMENTS À Dieu pour m'avoir mis sur cette terre et me guider chaque jour Ma mère, mon père Mes frères et ma sur Le gang pour croire en moi depuis le début, même si y'en a 1 qui y croyait pas... Bip's, Titan, Asura, Santi, Paco, Benoit, Ben plus particulièrement Bip's qui m'a suivi dans toutes mes Waves et qui a vécu la base avec moi Ben aussi parce qu'on lui pompe tout son jus no homo mais il est toujours là même si on sait qu'il préfère dessiner des shnecks Oumar et Blastar pour m'avoir donné les moyens et la liberté de créer ce que je voulais créer, on débute juste Ma femme pour sa patience Ségolène, Laetitia, Naomi et Weelo qui ont joué un rôle décisif Nassim qui est toujours là pour travaille sur le chakra Jo-A mon gars sûr, ça devait être pour cette fois mais ce sera pour la prochaine si Dieu le veut Mariciel et Typhaine qui sont toujours là quand j'ai besoin d'un bail Richie, Smith, Djamel, toute l'équipe GEMG Konex qui m'a été d'une aide précieuse en studio Fred N'Landu-N'Ganga qui nous donne le mojo Emma parce qu'elle va m'avoir d'autres couv' de magazine Pauline parce que en scred c'est ma chef de projet depuis Kyoto Tous les artistes et producteurs qui ont travaillé sur le projet et les projets d'avant Nathalie Canguilhem parce qu'elle nous a suivi dans des bails pas faciles Dan Resnick et Max Robin Benjamin et l'équipe Def Jam pour avoir misé sur moi et nous laisser travailler à notre manière Bertil, Nicolas Galibert et l'équipe Sony ATV L'équipe Yard qui suit depuis le début Le rap français pour me laisser le baiser avec autant d'aisance Dédicace à Karl, Regis, Bianca, Anais, Sarah, Regis de BX, Maiky, Klain, Maya, Zaki, Patricia, Vanessa, Metek, Wealstarr, Félix, Manré, Syze, Eriola, Melo, Zev, Oraga, Tek, Sin City, Nicolas Noêl, Kevin El Amrani, Ojoz et ceux qui me suivent depuis le début Si t'as pas acheté cet album, que ta chatte s'effrite ou que ta teub tombe c'est tout ce que tu mérites avec toute l'énergie que j'ai mis dedans Joke</t>
+          <t>Disclaimer Transcrit à partir d'un extrait vidéo Yah, yah, yah, Freakey sur le beat Yah Look at my drip, Look at my drip, look at my drip, Look at my drip Look at my whip, Look at my whip, look at my whip, Look at my whip Look at my drip, Look at my drip, look at my drip, Look at my drip Look at my whip, Look at my whip, look at my whip, Look at my whip Wah, Wah Look at my drip, Wah</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>LMGMTP</t>
+          <t>Lourd</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Discographie - Les Monsieur Single - 2011 Les Monsieur - Deux meufs - 20110615 Les Monsieur - Alycia - 20110721 Les Monsieur - Les Mrs Banger - 201204 Les Monsieur - LMGMTP Discographie complémentaire - Discographie - Ateyaba - Discographie - Bip's - Discographie - Leknifrug - Discographie - Titan</t>
+          <t>Putain d'boule yeah Meuf à gros boule Joke, Loveni Le Bon Gamin est dans la piazza C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd Quand j'arrive, j'crée la surprise J'suis la cerise sur le gâteau Tu veux rentrer, t'es pas sur liste Vas-y déchire le papier cadeau viens J'suis capitaine mec, sur ce bateau Je roule des pelles mec, devant des râteaux Check ça pêle-mêle, je sais à tel quelle Mais j'aime les chiennes mec, comme Brigitte Bardot J'aime ça, nique ton staff, j'entre dans la boum façon Kimbo Slice, kick-box thaï Mes bimbos slash , on va faire les choses carré De moi elles sont folles car elles kiffent mon style Le son est dangereux, c'est Loveni et Marty McFly On sort le grand jeu, les groupies ce soir n'ont pas le time Toute la , j'ai leur body Mais ne t'inquiète pas j'suis prêt pour la money C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd Oh, kaboom, Joke rentre dans ta boom Ta meuf va faire du bruit comme j'rentre dans sa chouffe Un peu d'éthanol dans l'verre, bac S les mains en l'air Le 'blèmes c'est comme les têtes, j'aime bien quand ça tourne Les filles soyez pas si gênées, y'a pas Je viens juste mettre un coup d'rouleau sur ta gueule enfarinée J'ai une baguette qui monte croissant, les filles qui jouent les princesses repartent de la soirée en croissant Flash de 'sky, photo râtée, je cherche une petite bitch pour croquer dans ma barre chocolatée On est tous chauds négro cacao, vous êtes des p'tites frappes négro pas d'K.O Moi et mon poto Loveni, on gère des plans On va ter-ma sous les robes yeah, le nègre est blanc Secoue la tête sur du Mobb Deep, un peu d'seufs, de seum Un peu d'hydroponique, j'décolle en classe économique C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd</t>
         </is>
       </c>
     </row>
@@ -3718,12 +3718,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Look at my drip / whip*</t>
+          <t>Luther Burger</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait vidéo Yah, yah, yah, Freakey sur le beat Yah Look at my drip, Look at my drip, look at my drip, Look at my drip Look at my whip, Look at my whip, look at my whip, Look at my whip Look at my drip, Look at my drip, look at my drip, Look at my drip Look at my whip, Look at my whip, look at my whip, Look at my whip Wah, Wah Look at my drip, Wah</t>
+          <t>Jmen bats les couilles, yo Han, han, han, jme réveille et jmate des films de boule japonais Ayo, négro, jmen bats les couilles Ok, yo, jrappe avec un burger donut dans la bouche, trop dflow Trop d'flow Avec deuxtrois pétasses dans la douche, trop dflot Que Dieu fasse quelles finissent pas toute leau chaude L'eau chaude Jvais les percer, les trouer, comme la couche dozone On est sur les nerfs Jsuis tatoué comme un marin Ma mère comprend pas, yo, comme si cétait du mandarin Négro, jlâche rien comme à un malade qui demande un rein Ta meuf pense à moi, yo, quand elle dit quelle pense à rien Gros, jsuis diabolique, comme si javais un teddy Prada Jte traite comme un bout dviande, comme Lady Gaga Nous on est tout d'vant, comme quand y a une bagarre Jveux tout, tout de suite, ta part, plus ma part, plus sa part Ayo, ayo, ayo, frère, jles mange comme un Luther Bu-u-u-urger Ayo, ayo, frère, jtuerais pour un Luther Bu-u-u-urger Demande à mes gars dM.T.P qui savent c'que cest Demande ça à toutes ces pétasses qui savent cque cest Ayo, ayo, frère, on tfume pour un Luther Bu-u-u-urger Jregarde la télé Télé, des trucs indigestes comme du café lait Hein-hein Jbois un café lait Hein-hein, bien sûr, jle dis, jai un tas d'fêlés Veulent mendormir, jveux lsuccès dun boys band, pas les somnifères à Féfé Ayo, cest dans la poche, capote sur mon pénis Gravé dans la roche, gravé dans la silice Ramène-moi un putain dsteak avec des gros buns Gros buns, la même paire de Ray-Ban que dans Top Gun Va dire au rap français que jsuis lputain de messie Ih Il rit tout jaune comme quand jai soulagé ma vessie Sssi Des idées décidées dessinées, des produits dérivés, jtouche pas mon pognon, jcalcule des racines et des dérivés Jai été pris par des UV Ayo, jai certains projets avortés, pourtant jappelle ta femme bébé Oh, elle veut que jaille la border Un peu 'tasse sur les bords, et moi jmoccupe des bords Tas vu le décor tas cru des balles à blanc Ah, et comme Bruce Lee tes mort, paw, paw, paw</t>
         </is>
       </c>
     </row>
@@ -3735,12 +3735,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Lourd</t>
+          <t>Luther Burger (Version Clip)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Putain d'boule yeah Meuf à gros boule Joke, Loveni Le Bon Gamin est dans la piazza C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd Quand j'arrive, j'crée la surprise J'suis la cerise sur le gâteau Tu veux rentrer, t'es pas sur liste Vas-y déchire le papier cadeau viens J'suis capitaine mec, sur ce bateau Je roule des pelles mec, devant des râteaux Check ça pêle-mêle, je sais à tel quelle Mais j'aime les chiennes mec, comme Brigitte Bardot J'aime ça, nique ton staff, j'entre dans la boum façon Kimbo Slice, kick-box thaï Mes bimbos slash , on va faire les choses carré De moi elles sont folles car elles kiffent mon style Le son est dangereux, c'est Loveni et Marty McFly On sort le grand jeu, les groupies ce soir n'ont pas le time Toute la , j'ai leur body Mais ne t'inquiète pas j'suis prêt pour la money C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd Oh, kaboom, Joke rentre dans ta boom Ta meuf va faire du bruit comme j'rentre dans sa chouffe Un peu d'éthanol dans l'verre, bac S les mains en l'air Le 'blèmes c'est comme les têtes, j'aime bien quand ça tourne Les filles soyez pas si gênées, y'a pas Je viens juste mettre un coup d'rouleau sur ta gueule enfarinée J'ai une baguette qui monte croissant, les filles qui jouent les princesses repartent de la soirée en croissant Flash de 'sky, photo râtée, je cherche une petite bitch pour croquer dans ma barre chocolatée On est tous chauds négro cacao, vous êtes des p'tites frappes négro pas d'K.O Moi et mon poto Loveni, on gère des plans On va ter-ma sous les robes yeah, le nègre est blanc Secoue la tête sur du Mobb Deep, un peu d'seufs, de seum Un peu d'hydroponique, j'décolle en classe économique C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd C'est r'parti pour un tour On t'as dit que c'était du lourd C'est Joke et Loveni, j'tire si tu l'ouvres Le son est lourd, yeah yeah le son est lourd</t>
+          <t>Jmen bats les couilles, yo Han, han, han, jme réveille et jmate des films de boule japonais Ayo, négro, jmen bats les couilles Ok, yo, jrappe avec un burger donut dans la bouche, trop dflow Trop d'flow Avec deuxtrois pétasses dans la douche, trop dflot Que Dieu fasse quelles finissent pas toute leau chaude L'eau chaude Jvais les percer, les trouer, comme la couche dozone On est sur les nerfs Jsuis tatoué comme un marin Ma mère comprend pas, yo, comme si cétait du mandarin Négro, jlâche rien comme à un malade qui demande un rein Ta meuf pense à moi, yo, quand elle dit quelle pense à rien Gros, jsuis diabolique, comme si javais un teddy Prada Jte traite comme un bout dviande, comme Lady Gaga Nous on est tout d'vant, comme quand y a une bagarre Jveux tout, tout de suite, ta part, plus ma part, plus sa part Ayo, ayo, ayo, frère, jles mange comme un Luther Bu-u-u-urger Ayo, ayo, frère, jtuerais pour un Luther Bu-u-u-urger Demande à mes gars dM.T.P qui savent c'que cest Demande ça à toutes ces pétasses qui savent cque cest Ayo, ayo, frère, on tfume pour un Luther Bu-u-u-urger Yo M.T.P, négro 3-3-4, négro Yeah Les Monsieur, négro Wassup</t>
         </is>
       </c>
     </row>
@@ -3752,12 +3752,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Luther Burger</t>
+          <t>Maintenant ou Jamais</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Jmen bats les couilles, yo Han, han, han, jme réveille et jmate des films de boule japonais Ayo, négro, jmen bats les couilles Ok, yo, jrappe avec un burger donut dans la bouche, trop dflow Trop d'flow Avec deuxtrois pétasses dans la douche, trop dflot Que Dieu fasse quelles finissent pas toute leau chaude L'eau chaude Jvais les percer, les trouer, comme la couche dozone On est sur les nerfs Jsuis tatoué comme un marin Ma mère comprend pas, yo, comme si cétait du mandarin Négro, jlâche rien comme à un malade qui demande un rein Ta meuf pense à moi, yo, quand elle dit quelle pense à rien Gros, jsuis diabolique, comme si javais un teddy Prada Jte traite comme un bout dviande, comme Lady Gaga Nous on est tout d'vant, comme quand y a une bagarre Jveux tout, tout de suite, ta part, plus ma part, plus sa part Ayo, ayo, ayo, frère, jles mange comme un Luther Bu-u-u-urger Ayo, ayo, frère, jtuerais pour un Luther Bu-u-u-urger Demande à mes gars dM.T.P qui savent c'que cest Demande ça à toutes ces pétasses qui savent cque cest Ayo, ayo, frère, on tfume pour un Luther Bu-u-u-urger Jregarde la télé Télé, des trucs indigestes comme du café lait Hein-hein Jbois un café lait Hein-hein, bien sûr, jle dis, jai un tas d'fêlés Veulent mendormir, jveux lsuccès dun boys band, pas les somnifères à Féfé Ayo, cest dans la poche, capote sur mon pénis Gravé dans la roche, gravé dans la silice Ramène-moi un putain dsteak avec des gros buns Gros buns, la même paire de Ray-Ban que dans Top Gun Va dire au rap français que jsuis lputain de messie Ih Il rit tout jaune comme quand jai soulagé ma vessie Sssi Des idées décidées dessinées, des produits dérivés, jtouche pas mon pognon, jcalcule des racines et des dérivés Jai été pris par des UV Ayo, jai certains projets avortés, pourtant jappelle ta femme bébé Oh, elle veut que jaille la border Un peu 'tasse sur les bords, et moi jmoccupe des bords Tas vu le décor tas cru des balles à blanc Ah, et comme Bruce Lee tes mort, paw, paw, paw</t>
+          <t>Yeah, this album is dedicated to all the teachers that told me I'd never amount to nothin' Okay,han Okay, quand c'est ton heure mon pote tu le sais, ouais tu le sais Les ennemis d'aujourd'hui sont les amis que t'avais hier Protège tes arrières, réussite et jalousie donnent un mélange amère Qu'ils aillent niquer leurs censuré Ceux qui m'aiment me suivent sinon qu'ils suivent mon majeur J'suis trop ambitieux, trop dangereux pour ces branleurs Ils attendent ma chute comme mon censuré sur leurs surs T'inquiètes pas mon pote, moi je suis prêt pour la bataille C'est pour, c'est pour tous les vrais Qui taffent jour et nuit malgré toutes les merdes Tous ces médisants, non, ils ne peuvent rien faire Face à l'homme déterminé à toucher le ciel, à accomplir ses rêves Han, c'est maintenant ou jamais Le temps tourne sur ma Carerra au poignet J'suis lié à la réussite et dans mon pallier, allez J'porte un toast à ceux qui essayent de me noyer It was all, it was all, it was all a dream Damn right, I like the life I live I'm blowin up, damn right I like the life I live Cause I went from negative to positive And it's all Vision 169, car j'vois big Grand flambeur, blouson en reptile Y a les rêveurs et les marchands de sable Si t'as atteint tes rêves c'est qu'on marche ensemble C'est 1 pour la famille, 2 pour la monnaie Le temps n'attend plus, c'est maintenant ou jamais Vision démesurée à la Bonaparte moi un peu plus tard, boy, un homme à part Quand j'arrive pas de bonjour, j'suis de ceux qu'on acclame Boy t'as reconnu la swag, ceinture Vuitton monogramme Le style est juste inné, Vu la taille de nos billets, tu sais qu'on est en place Tout le monde veut briller, tout le monde veut le buzz J'veux l'cul de la beurre et rien j'ai déjà le beurre Compte-moi parmi les grands, j'suis plus qu'un rappeur Le cadran indique FLAG car c'est maintenant mon heure Bitch! Woah, yo, aye Hey, hey, hey, négro, juste hey, hey, hey J'shoot père et mère, j'te shoot, yo On est sur les nerfs, on est surveillés On est sur notre bizz, jamais surpayés Sur DVD, sur DVC, j'me laisse jamais aller, même sur des W.C J'sème des cailloux, Petit Poucet Cigarillo, montre à gousset J'monte à Rio, vider le barillet Dans le barrio, tout à Paris est Même appareillé, yo, j'connais que des craquettes Pour jouer à caillou-papier-ciseaux Vodka polonaise Gros sac, polo Bape Grosse à pollo, bucket, soda, Colonel Yo, j'ai les champignons à Mario Les courses-poursuites me font travailler le cardio</t>
         </is>
       </c>
     </row>
@@ -3769,12 +3769,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Luther Burger (Version Clip)</t>
+          <t>Majestic</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Jmen bats les couilles, yo Han, han, han, jme réveille et jmate des films de boule japonais Ayo, négro, jmen bats les couilles Ok, yo, jrappe avec un burger donut dans la bouche, trop dflow Trop d'flow Avec deuxtrois pétasses dans la douche, trop dflot Que Dieu fasse quelles finissent pas toute leau chaude L'eau chaude Jvais les percer, les trouer, comme la couche dozone On est sur les nerfs Jsuis tatoué comme un marin Ma mère comprend pas, yo, comme si cétait du mandarin Négro, jlâche rien comme à un malade qui demande un rein Ta meuf pense à moi, yo, quand elle dit quelle pense à rien Gros, jsuis diabolique, comme si javais un teddy Prada Jte traite comme un bout dviande, comme Lady Gaga Nous on est tout d'vant, comme quand y a une bagarre Jveux tout, tout de suite, ta part, plus ma part, plus sa part Ayo, ayo, ayo, frère, jles mange comme un Luther Bu-u-u-urger Ayo, ayo, frère, jtuerais pour un Luther Bu-u-u-urger Demande à mes gars dM.T.P qui savent c'que cest Demande ça à toutes ces pétasses qui savent cque cest Ayo, ayo, frère, on tfume pour un Luther Bu-u-u-urger Yo M.T.P, négro 3-3-4, négro Yeah Les Monsieur, négro Wassup</t>
+          <t>Pharaoh Yeah Go, go That's right, Go, go, go Yeah Bébé, je m'sens majestic Go, go, go, I feel like it On dirait qu'ta 'tasse me l'astique, fait d'la gymnastique Go, go, go J'me sens comme Maurice Ashley, I feel like it Pharaoh J'me sens comme un Dieu, in the street, I feel like it Pharaoh Tu sens que j'ai l'mojo qui pique, bitch, pique, bitch Go, go, go Est-c'qu'tu sens qu'l'aura est mystique, bitch ? Stick bitch That's right J'me sens comme acheter le district, bitch That's right J'me sens comme bouffer son pistil, bitch, still bitch Let's go Le 'vu-vu d'ma 'tasse est mignon Tu sais qu'faut qu'je touche le million J'leur ai tous donné la vision That's right, ils ont pas vu, idiots J'sors du club, et va, va midjo Ma beuh te fait croire qu't'es mignon Y a marqué Dieu dans ma bio' That's right J'aime quand y a des enjeux, bitch J'parle avec les anges, bitch Tu sais que j'suis dangereux, bitch Si elle frime je change de bitch Si elle frime je change de catin Je roule la beuh dès le matin Je dors dans des draps en satin Suce-la, bitch, me parle pas latin I feel like my wrist is lit, my wrist is lit I feel like my bitch is thick, I feel like it Go, go, go I feel like a God in this street, I feel like it Hey I feel like I'm touching this dream, I feel like it That's right I feel like my wrist is lit, bitch lit Bitch I feel like my bitch is thick bitch, t... bitch Oh I feel like Yeah, I feel like it</t>
         </is>
       </c>
     </row>
@@ -3786,12 +3786,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Maintenant ou Jamais</t>
+          <t>Marty and the Hit Factory</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Yeah, this album is dedicated to all the teachers that told me I'd never amount to nothin' Okay,han Okay, quand c'est ton heure mon pote tu le sais, ouais tu le sais Les ennemis d'aujourd'hui sont les amis que t'avais hier Protège tes arrières, réussite et jalousie donnent un mélange amère Qu'ils aillent niquer leurs censuré Ceux qui m'aiment me suivent sinon qu'ils suivent mon majeur J'suis trop ambitieux, trop dangereux pour ces branleurs Ils attendent ma chute comme mon censuré sur leurs surs T'inquiètes pas mon pote, moi je suis prêt pour la bataille C'est pour, c'est pour tous les vrais Qui taffent jour et nuit malgré toutes les merdes Tous ces médisants, non, ils ne peuvent rien faire Face à l'homme déterminé à toucher le ciel, à accomplir ses rêves Han, c'est maintenant ou jamais Le temps tourne sur ma Carerra au poignet J'suis lié à la réussite et dans mon pallier, allez J'porte un toast à ceux qui essayent de me noyer It was all, it was all, it was all a dream Damn right, I like the life I live I'm blowin up, damn right I like the life I live Cause I went from negative to positive And it's all Vision 169, car j'vois big Grand flambeur, blouson en reptile Y a les rêveurs et les marchands de sable Si t'as atteint tes rêves c'est qu'on marche ensemble C'est 1 pour la famille, 2 pour la monnaie Le temps n'attend plus, c'est maintenant ou jamais Vision démesurée à la Bonaparte moi un peu plus tard, boy, un homme à part Quand j'arrive pas de bonjour, j'suis de ceux qu'on acclame Boy t'as reconnu la swag, ceinture Vuitton monogramme Le style est juste inné, Vu la taille de nos billets, tu sais qu'on est en place Tout le monde veut briller, tout le monde veut le buzz J'veux l'cul de la beurre et rien j'ai déjà le beurre Compte-moi parmi les grands, j'suis plus qu'un rappeur Le cadran indique FLAG car c'est maintenant mon heure Bitch! Woah, yo, aye Hey, hey, hey, négro, juste hey, hey, hey J'shoot père et mère, j'te shoot, yo On est sur les nerfs, on est surveillés On est sur notre bizz, jamais surpayés Sur DVD, sur DVC, j'me laisse jamais aller, même sur des W.C J'sème des cailloux, Petit Poucet Cigarillo, montre à gousset J'monte à Rio, vider le barillet Dans le barrio, tout à Paris est Même appareillé, yo, j'connais que des craquettes Pour jouer à caillou-papier-ciseaux Vodka polonaise Gros sac, polo Bape Grosse à pollo, bucket, soda, Colonel Yo, j'ai les champignons à Mario Les courses-poursuites me font travailler le cardio</t>
+          <t>Yeah, han Voilà comment j'procède, pour faire un hit, négro J'écoute l'instru' vite fait, j'trouve le flow adéquat J'glisse, j'fais des mots, des armes avec quoi ? Ma langue fait du mauvais ? Jamais C'est dur au départ mais quand j'ouvre mon carnet Je commence par le couplet un J'écoute le Pin-pan-pin-pan et le Pin-pan-pin-pan Nouveau flow, faut être tout terrain Faut qu'le son implique ton tympan et tu t'cales sur un temps Là tu fais des p'tites métaphores Des punchlines bien hardcores pour les mettre d'accord Genre tu tires les ficelles, moi j'te mets la corde, t'as le cul entre deux chaises J'ai la queue entre deux chaises, ça tombe bien, en 2 seizes, j'te baise Quand ça tombe mal, quand ça tombe bien, j'peux t'offrir une pierre tombale Ok, t'écoutes le beat, tu l'accompagnes Quand j'prends de l'altitude, t'es en manque d'oxygène, comme à la montagne Tous les mecs sans dollars devraient m'écouter Tous les mecs sans meufs devraient m'écouter J'ai la recette pour fourrer le succès J'donne des cours, t'as qu'à découper mes couplets Lalalalalala Si tu veux des 'tasses, je sais, je sais comment faire Si tu veux du cash, je sais, je sais comment faire Moi je veux du cash, percer avant qu'on m'enterre Si tu veux du cash Han, yeah Lalalalala Japprécie les filles aux murs légères, yeah Japprécie les pâtes au beurre, j'les aime, yeah Apprécie non ? J'kiffe le bifton La licence qui a sur mon cur, les réducteurs dessert ? Et j'veux des gros cachets, ceux qui donne la migraine, les mêmes que Bill Gates J'ai dit que j'voulais des gros cachets Quand les gorges se nouent, nos bites se nouent aussi Les filles sucent tellement Koffi qu'elles s'en écorchent les genoux C'est nous, nous, nous, nous, nous, nous, nous, nous Qui peut faire ça à part nous, nous, nous, nous ? C'est nous nous nous, t'es dur ? Non t'es mou, c'est dur À 4 piges, j'touchais ma nounou-nounou Lâche pas, c'est comme ça qu'on procède, en face la concurrence est trop faible Lentraxe se trouve dans la pochette, mets un tampax quand t'écoutes, j'veux rester au sec Tous les mecs sans dollars devraient m'écouter Tous les mecs sans meufs devraient m'écouter J'ai la recette pour fourrer le succès J'donne des cours, t'as qu'à découper mes couplets Lalalalalala Si tu veux des 'tasses, je sais, je sais comment faire Si tu veux du cash, je sais, je sais comment faire Moi je veux du cash, percer avant qu'on m'enterre Si tu veux du cash Han Lalalalala Yeah, yeah, yeah, yeah, seul le travail peut payer-yer-yer Choquer pour les faire bégayer-yer-yer-yer Il faut trouver l'air, moi j'ai Yeah, yeah, yeah, yeah Yeah, yeah Yeah, yeah, yeah, yeah, seul le travail peut payer-yer-yer Choquer pour les faire bégayer-yer-yer-yer Il faut trouver l'air, moi j'ai Yeah, yeah, yeah Yeah, yeah, yeah, oh J'finirais pas centenaire, niquer la vie, ça tue Je serais dead sur, si tu craches sur moi C'est que tu craches en l'air, n'essaye même pas d'm'atteindre Ça va te retomber d'ssus Tous les mecs sans dollars devraient m'écouter Tous les mecs sans meufs devraient m'écouter J'ai la recette pour fourrer le succès J'donne des cours, t'as qu'à découper mes couplets Lalalalalala Si tu veux des 'tasses, je sais, je sais comment faire Si tu veux du cash, je sais, je sais comment faire Moi je veux du cash, percer avant qu'on m'enterre Si tu veux du cash Lalalalala</t>
         </is>
       </c>
     </row>
@@ -3803,12 +3803,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Majestic</t>
+          <t>Marty Mcfly</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Pharaoh Yeah Go, go That's right, Go, go, go Yeah Bébé, je m'sens majestic Go, go, go, I feel like it On dirait qu'ta 'tasse me l'astique, fait d'la gymnastique Go, go, go J'me sens comme Maurice Ashley, I feel like it Pharaoh J'me sens comme un Dieu, in the street, I feel like it Pharaoh Tu sens que j'ai l'mojo qui pique, bitch, pique, bitch Go, go, go Est-c'qu'tu sens qu'l'aura est mystique, bitch ? Stick bitch That's right J'me sens comme acheter le district, bitch That's right J'me sens comme bouffer son pistil, bitch, still bitch Let's go Le 'vu-vu d'ma 'tasse est mignon Tu sais qu'faut qu'je touche le million J'leur ai tous donné la vision That's right, ils ont pas vu, idiots J'sors du club, et va, va midjo Ma beuh te fait croire qu't'es mignon Y a marqué Dieu dans ma bio' That's right J'aime quand y a des enjeux, bitch J'parle avec les anges, bitch Tu sais que j'suis dangereux, bitch Si elle frime je change de bitch Si elle frime je change de catin Je roule la beuh dès le matin Je dors dans des draps en satin Suce-la, bitch, me parle pas latin I feel like my wrist is lit, my wrist is lit I feel like my bitch is thick, I feel like it Go, go, go I feel like a God in this street, I feel like it Hey I feel like I'm touching this dream, I feel like it That's right I feel like my wrist is lit, bitch lit Bitch I feel like my bitch is thick bitch, t... bitch Oh I feel like Yeah, I feel like it</t>
+          <t>Hein, hein, yeah, Joke Yeah, a.k.a Marty McFly Yeah Mec, j'suis Marty McFly Hein, hein Yeah, ok Avec mes Puma 'cFly Hein, Yeah, yeah Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Yeah, yeah Tu vois mes Clyde aux pieds, tu vois qu'j'suis fly au pied C'est Longchamp pour le sac et ta commence à copier Très haut, j'suis Marty quand qu'j'me sape depuis le préau J'ai choqué mon lycée, la mode c'est des camisoles J'ai traumatisé des 'tasses, des tonnes d'estomac, vidé des sacs, rempli des Tu connais les bails négro, tes gros bras sont rien d'vant ça Yeah-yeah-yeah J'ralentis ou j'vais m'faire flasher, que-que-que d'phases C'est toujours qu'de dans une tournure de phrase Bitch, lève le doigt quand tu me vois -vois, si j'jette un il sur toi je prends le risque de te faire mal Bitch J'crois que tu crois que t'as les lombaires pour épuiser ma queue Mais attends , elle payerait pour un coup d'trique Et, sapé, être fly-y-yy je cesserai pas Toucher la ma-a-aille je cesserai pas Bouffer ma gra-a-aille j'te laisserai pas Tourner sur Sk-y-y' peut être, j'sais pas Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Yeah Une goutte d'acide chez ton disquaire, j'veux bouffer tout l'bifteck Tu vas toucher que des mystères, systématiquement littéraires Automatiquement mis derrière, quand j'fais le vide d'air on m'a dit qu'j'en manquais pas Si t'estimes j'sais pas rapper, bah, moi j'finirais en prépa' D'après c'qu'on dit, je crois qu'j'suis chaud, les textes vont vite, montrer que j'lâche du flow Qu'ils s'amusent pour l'instant je laisse faire, quand j'aurais sorti ma muse tous les autres devront s'taire J'suis l'descendant de Néfertiti, le sphinx c'est mon père En boîte on sert, on sert elles ouvrent la bouche quand j'veux faire pipi Engranger des dollars, mettre en danger le rap français Que dans le dos mon son fait danser le pape On sait j'vaux plus qu'une pub de L'Oréal, tu veux voir ma corpulence un tour de DeLorean C'est Marty McFly, qui en Puma 'cFly, ramène toute la maille, toute la maille Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Mec, j'suis Marty McFly, oh, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Yeah</t>
         </is>
       </c>
     </row>
@@ -3820,12 +3820,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Marty and the Hit Factory</t>
+          <t>Matte Black</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Yeah, han Voilà comment j'procède, pour faire un hit, négro J'écoute l'instru' vite fait, j'trouve le flow adéquat J'glisse, j'fais des mots, des armes avec quoi ? Ma langue fait du mauvais ? Jamais C'est dur au départ mais quand j'ouvre mon carnet Je commence par le couplet un J'écoute le Pin-pan-pin-pan et le Pin-pan-pin-pan Nouveau flow, faut être tout terrain Faut qu'le son implique ton tympan et tu t'cales sur un temps Là tu fais des p'tites métaphores Des punchlines bien hardcores pour les mettre d'accord Genre tu tires les ficelles, moi j'te mets la corde, t'as le cul entre deux chaises J'ai la queue entre deux chaises, ça tombe bien, en 2 seizes, j'te baise Quand ça tombe mal, quand ça tombe bien, j'peux t'offrir une pierre tombale Ok, t'écoutes le beat, tu l'accompagnes Quand j'prends de l'altitude, t'es en manque d'oxygène, comme à la montagne Tous les mecs sans dollars devraient m'écouter Tous les mecs sans meufs devraient m'écouter J'ai la recette pour fourrer le succès J'donne des cours, t'as qu'à découper mes couplets Lalalalalala Si tu veux des 'tasses, je sais, je sais comment faire Si tu veux du cash, je sais, je sais comment faire Moi je veux du cash, percer avant qu'on m'enterre Si tu veux du cash Han, yeah Lalalalala Japprécie les filles aux murs légères, yeah Japprécie les pâtes au beurre, j'les aime, yeah Apprécie non ? J'kiffe le bifton La licence qui a sur mon cur, les réducteurs dessert ? Et j'veux des gros cachets, ceux qui donne la migraine, les mêmes que Bill Gates J'ai dit que j'voulais des gros cachets Quand les gorges se nouent, nos bites se nouent aussi Les filles sucent tellement Koffi qu'elles s'en écorchent les genoux C'est nous, nous, nous, nous, nous, nous, nous, nous Qui peut faire ça à part nous, nous, nous, nous ? C'est nous nous nous, t'es dur ? Non t'es mou, c'est dur À 4 piges, j'touchais ma nounou-nounou Lâche pas, c'est comme ça qu'on procède, en face la concurrence est trop faible Lentraxe se trouve dans la pochette, mets un tampax quand t'écoutes, j'veux rester au sec Tous les mecs sans dollars devraient m'écouter Tous les mecs sans meufs devraient m'écouter J'ai la recette pour fourrer le succès J'donne des cours, t'as qu'à découper mes couplets Lalalalalala Si tu veux des 'tasses, je sais, je sais comment faire Si tu veux du cash, je sais, je sais comment faire Moi je veux du cash, percer avant qu'on m'enterre Si tu veux du cash Han Lalalalala Yeah, yeah, yeah, yeah, seul le travail peut payer-yer-yer Choquer pour les faire bégayer-yer-yer-yer Il faut trouver l'air, moi j'ai Yeah, yeah, yeah, yeah Yeah, yeah Yeah, yeah, yeah, yeah, seul le travail peut payer-yer-yer Choquer pour les faire bégayer-yer-yer-yer Il faut trouver l'air, moi j'ai Yeah, yeah, yeah Yeah, yeah, yeah, oh J'finirais pas centenaire, niquer la vie, ça tue Je serais dead sur, si tu craches sur moi C'est que tu craches en l'air, n'essaye même pas d'm'atteindre Ça va te retomber d'ssus Tous les mecs sans dollars devraient m'écouter Tous les mecs sans meufs devraient m'écouter J'ai la recette pour fourrer le succès J'donne des cours, t'as qu'à découper mes couplets Lalalalalala Si tu veux des 'tasses, je sais, je sais comment faire Si tu veux du cash, je sais, je sais comment faire Moi je veux du cash, percer avant qu'on m'enterre Si tu veux du cash Lalalalala</t>
+          <t>W-W-Wonda Ayosweedy, that one goin crazy Yeah La weed, j'la spark, go High, comme NASDAQ, go J'arrive, ça s'gâte Magic, matte black Hey, hey J'rappe d'puis StarTAC Hey J'lui brise la chatte Hey Ça brille, ça sparkle Je flash comme Agfa Pétasse aime l'action L'oseille rentre MACH 3 J'fais croquer la pomme Pétasse elle m'lag J'fais rentrer les plaques Ta hoe j'lui fais clap J'fais cracher les MAG J'm'endors avec les liasses, my nigga, j'leur fais des guillis Les rappurs savent que s'ils m'testnt, direct, j'les humilie La méchanceté, la violence, bitch, j'ai pas de feeling, heyy, hey, hey La méchanceté, la violence, bitch, j'ai pas de feeling Crache sur ma 'teu-b, fais pas ta timide, héé-héé-hey J'vais au 'sket-ba' avec une paire à dix-mille, hey-héé-hey 2k22, j'pense sérieusement au trili Tu sais qu'il m'faut trois 'tasses, il m'faut ma Trini-ty Quand j'suis dans l'club les tasses deviennent bêtes Go Je fais l'oseille, faut pas qu'tu t'inquiètes Go Le mojo attire les nymphettes Go J'ai l'veau-cer, comme j'suis sous amphét' Hey, hey, hey Le commissaire veut faire son enquête Hey, hey, hey J'vois trop clair pour les coups en traître Hey, hey, hey Quand t'as l'oseille, elles sont tout l'temps prêtes Les rappeurs ils m'écoutent en scred Faut l'faire circuler pour en faire, heyo J'rappe avec des anges qui m'encerclent Tu sais qu'la guerre est financière Bitch, c'est ton esprit qui t'enferme Ta vie y a des gens qui s'en servent T'es au paradis, tu crois qu't'es en enfer Sois un vrai négro avant qu'on t'enterre Personne m'a appris comment faire C'est Dieu qui m'a appris comment faire C'est Dieu qui m'a appris comment faire ECSTATIC C'est Dieu qui m'a appris comment faire, yeah C'est Dieu qui m'a appris comment faire, hey C'est Dieu qui m'a appris comment faire, chill C'est Dieu qui m'a appris comment faire, right C'est Dieu qui m'a appris comment faire, yeah C'est Dieu qui m'a appris comment faire</t>
         </is>
       </c>
     </row>
@@ -3837,12 +3837,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Marty Mcfly</t>
+          <t>MATTE BLACK (Remix)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Hein, hein, yeah, Joke Yeah, a.k.a Marty McFly Yeah Mec, j'suis Marty McFly Hein, hein Yeah, ok Avec mes Puma 'cFly Hein, Yeah, yeah Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Yeah, yeah Tu vois mes Clyde aux pieds, tu vois qu'j'suis fly au pied C'est Longchamp pour le sac et ta commence à copier Très haut, j'suis Marty quand qu'j'me sape depuis le préau J'ai choqué mon lycée, la mode c'est des camisoles J'ai traumatisé des 'tasses, des tonnes d'estomac, vidé des sacs, rempli des Tu connais les bails négro, tes gros bras sont rien d'vant ça Yeah-yeah-yeah J'ralentis ou j'vais m'faire flasher, que-que-que d'phases C'est toujours qu'de dans une tournure de phrase Bitch, lève le doigt quand tu me vois -vois, si j'jette un il sur toi je prends le risque de te faire mal Bitch J'crois que tu crois que t'as les lombaires pour épuiser ma queue Mais attends , elle payerait pour un coup d'trique Et, sapé, être fly-y-yy je cesserai pas Toucher la ma-a-aille je cesserai pas Bouffer ma gra-a-aille j'te laisserai pas Tourner sur Sk-y-y' peut être, j'sais pas Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Yeah Une goutte d'acide chez ton disquaire, j'veux bouffer tout l'bifteck Tu vas toucher que des mystères, systématiquement littéraires Automatiquement mis derrière, quand j'fais le vide d'air on m'a dit qu'j'en manquais pas Si t'estimes j'sais pas rapper, bah, moi j'finirais en prépa' D'après c'qu'on dit, je crois qu'j'suis chaud, les textes vont vite, montrer que j'lâche du flow Qu'ils s'amusent pour l'instant je laisse faire, quand j'aurais sorti ma muse tous les autres devront s'taire J'suis l'descendant de Néfertiti, le sphinx c'est mon père En boîte on sert, on sert elles ouvrent la bouche quand j'veux faire pipi Engranger des dollars, mettre en danger le rap français Que dans le dos mon son fait danser le pape On sait j'vaux plus qu'une pub de L'Oréal, tu veux voir ma corpulence un tour de DeLorean C'est Marty McFly, qui en Puma 'cFly, ramène toute la maille, toute la maille Mec, j'suis Marty McFly, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Mec, j'suis Marty McFly, oh, mec, j'ai plus l'temps T'es reparti à poil, bitch je surprend J'suis au maximal, tout au d'ssus des bâtiments j'plane et c'est pas si mal Pendant que le rap 'çais-fran' stagne Yeah</t>
+          <t>Myth Syzer Yeah La weed, j'la spark, go High, comme NASDAQ, go J'arrive, ça s'gâte Magic, matte black Hey, hey J'rappe d'puis StarTAC Hey J'lui brise la chatte Hey Ça brille, ça sparkle Je flash comme Agfa Pétasse aime l'action L'oseille rentre MACH 3 J'fais croquer la pomme Pétasse elle m'lag J'fais rentrer les plaques Ta hoe j'lui fais clap J'fais cracher les MAG J'm'endors avec les liasses, my nigga, j'leur fais des guillis Les rappurs savent que s'ils m'testnt, direct, j'les humilie La méchanceté, la violence, bitch, j'ai pas de feeling, heyy, hey, hey La méchanceté, la violence, bitch, j'ai pas de feeling Crache sur ma 'teu-b, fais pas ta timide, héé-héé-hey J'vais au 'sket-ba' avec une paire à dix-mille, hey-héé-hey 2k22, j'pense sérieusement au trili Tu sais qu'il m'faut trois 'tasses, il m'faut ma Trini-ty Quand j'suis dans l'club les tasses deviennent bêtes Go Je fais l'oseille, faut pas qu'tu t'inquiètes Go Le mojo attire les nymphettes Go J'ai l'veau-cer, comme j'suis sous amphét' Hey, hey, hey Le commissaire veut faire son enquête Hey, hey, hey J'vois trop clair pour les coups en traître Hey, hey, hey Quand t'as l'oseille, elles sont tout l'temps prêtes Les rappeurs ils m'écoutent en scred Faut l'faire circuler pour en faire, heyo J'rappe avec des anges qui m'encerclent Tu sais qu'la guerre est financière Bitch, c'est ton esprit qui t'enferme Ta vie y a des gens qui s'en servent T'es au paradis, tu crois qu't'es en enfer Sois un vrai négro avant qu'on t'enterre Personne m'a appris comment faire C'est Dieu qui m'a appris comment faire C'est Dieu qui m'a appris comment faire ECSTATIC C'est Dieu qui m'a appris comment faire, yeah C'est Dieu qui m'a appris comment faire</t>
         </is>
       </c>
     </row>
@@ -3854,12 +3854,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Matte Black</t>
+          <t>MCMLXXXIX</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>W-W-Wonda Ayosweedy, that one goin crazy Yeah La weed, j'la spark, go High, comme NASDAQ, go J'arrive, ça s'gâte Magic, matte black Hey, hey J'rappe d'puis StarTAC Hey J'lui brise la chatte Hey Ça brille, ça sparkle Je flash comme Agfa Pétasse aime l'action L'oseille rentre MACH 3 J'fais croquer la pomme Pétasse elle m'lag J'fais rentrer les plaques Ta hoe j'lui fais clap J'fais cracher les MAG J'm'endors avec les liasses, my nigga, j'leur fais des guillis Les rappurs savent que s'ils m'testnt, direct, j'les humilie La méchanceté, la violence, bitch, j'ai pas de feeling, heyy, hey, hey La méchanceté, la violence, bitch, j'ai pas de feeling Crache sur ma 'teu-b, fais pas ta timide, héé-héé-hey J'vais au 'sket-ba' avec une paire à dix-mille, hey-héé-hey 2k22, j'pense sérieusement au trili Tu sais qu'il m'faut trois 'tasses, il m'faut ma Trini-ty Quand j'suis dans l'club les tasses deviennent bêtes Go Je fais l'oseille, faut pas qu'tu t'inquiètes Go Le mojo attire les nymphettes Go J'ai l'veau-cer, comme j'suis sous amphét' Hey, hey, hey Le commissaire veut faire son enquête Hey, hey, hey J'vois trop clair pour les coups en traître Hey, hey, hey Quand t'as l'oseille, elles sont tout l'temps prêtes Les rappeurs ils m'écoutent en scred Faut l'faire circuler pour en faire, heyo J'rappe avec des anges qui m'encerclent Tu sais qu'la guerre est financière Bitch, c'est ton esprit qui t'enferme Ta vie y a des gens qui s'en servent T'es au paradis, tu crois qu't'es en enfer Sois un vrai négro avant qu'on t'enterre Personne m'a appris comment faire C'est Dieu qui m'a appris comment faire C'est Dieu qui m'a appris comment faire ECSTATIC C'est Dieu qui m'a appris comment faire, yeah C'est Dieu qui m'a appris comment faire, hey C'est Dieu qui m'a appris comment faire, chill C'est Dieu qui m'a appris comment faire, right C'est Dieu qui m'a appris comment faire, yeah C'est Dieu qui m'a appris comment faire</t>
+          <t>Pussy nigga, j'me fais pas d'bile, j'me fais sucer Pussy nigga, j'me fais pas d'film, j'me fais du blé Pussy nigga, j'kick le beat, fuck le sujet Trop trop d'pussy, nigga sort un Glock pour les fumer Jeune Bip's est dans l'fire Non moi j'fume pas des homies, j'fume des négros Le club est plein mais le fric ailleurs On a l'premier chiffre, on prend les zéros Ta meuf me touche, mais surement sur le flyer Si elle veut play, on lui fera une démo Mon flow est composé de mille saveurs Bitch, agressif comme Jean Reno Range ta pussy, millionnaire dit la prophétie Le rap game nous attendait comme Lionel Messi Sort un lapin du chapeau, on sort un fusil Sur ces négros pop, homie, coup de bras comme Terry en Russie On s'en bat les couilles, oseille plein les fouilles On s'en bat les, bat les, toutes les douilles, on s'en bat les fouilles Les négros ont la haine quand il voit la Rolex Je préfère prévenir que guérir, 'verront jamais la grosse caisse MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe Crack, ablo et mafé, rien d'autre n'est préparé Les guerres c'est comme les impôts j'compte pas les déclarer Les problèmes tu laisses couler, j'laisse couler dans l'ciment J'vais d'venir millionnaire J'mangerais jamais la gamelle pour une chatte Feuille, ciseaux, tu peux te faire planter pour une claque Concurrence, qu'elle aille vite s'asseoir sur une batte Opulent, je peux faire tout ton SMIC en une date Merde, j'ai beaucoup d'choses à brûler... Les calories d'ta pétasse Tous les rêves de ces enculés A part l'ardoise rien n's'efface Homie t'as du buzz, nous on a du bon son La chute du mur de Berlin, le payement d'ta rançon Sur la chatte de ta chatte, vive François Mitterrand Longue vie aux 89 homies, peu importe la saison MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe3</t>
         </is>
       </c>
     </row>
@@ -3871,12 +3871,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MATTE BLACK (Remix)</t>
+          <t>MoneyBitches</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Myth Syzer Yeah La weed, j'la spark, go High, comme NASDAQ, go J'arrive, ça s'gâte Magic, matte black Hey, hey J'rappe d'puis StarTAC Hey J'lui brise la chatte Hey Ça brille, ça sparkle Je flash comme Agfa Pétasse aime l'action L'oseille rentre MACH 3 J'fais croquer la pomme Pétasse elle m'lag J'fais rentrer les plaques Ta hoe j'lui fais clap J'fais cracher les MAG J'm'endors avec les liasses, my nigga, j'leur fais des guillis Les rappurs savent que s'ils m'testnt, direct, j'les humilie La méchanceté, la violence, bitch, j'ai pas de feeling, heyy, hey, hey La méchanceté, la violence, bitch, j'ai pas de feeling Crache sur ma 'teu-b, fais pas ta timide, héé-héé-hey J'vais au 'sket-ba' avec une paire à dix-mille, hey-héé-hey 2k22, j'pense sérieusement au trili Tu sais qu'il m'faut trois 'tasses, il m'faut ma Trini-ty Quand j'suis dans l'club les tasses deviennent bêtes Go Je fais l'oseille, faut pas qu'tu t'inquiètes Go Le mojo attire les nymphettes Go J'ai l'veau-cer, comme j'suis sous amphét' Hey, hey, hey Le commissaire veut faire son enquête Hey, hey, hey J'vois trop clair pour les coups en traître Hey, hey, hey Quand t'as l'oseille, elles sont tout l'temps prêtes Les rappeurs ils m'écoutent en scred Faut l'faire circuler pour en faire, heyo J'rappe avec des anges qui m'encerclent Tu sais qu'la guerre est financière Bitch, c'est ton esprit qui t'enferme Ta vie y a des gens qui s'en servent T'es au paradis, tu crois qu't'es en enfer Sois un vrai négro avant qu'on t'enterre Personne m'a appris comment faire C'est Dieu qui m'a appris comment faire C'est Dieu qui m'a appris comment faire ECSTATIC C'est Dieu qui m'a appris comment faire, yeah C'est Dieu qui m'a appris comment faire</t>
+          <t>Yeah, yeah Yeah, yeah, yeah Elle me dit T'es un chien d'la casse. Yeah Elle veut la monoface J'lui fait boire toute la tasse J'veux voir tout l'atlas Oh Renoi, j'arrive pas à m'y faire, j'veux baiser le planisphère Ouh Le negro est dans leurs chattes Ouais Y'a qu'l'oseille qui peut me satisfaire J'suis avec mes nègres, les liasses, et la fumée J'vux la dolce vie, j'veux assumr Ma chérie, tu l'savais, j'suis ce genre de négro J'ai les qualités qui matchent avec mes défauts Dans la tête l'oseille, pétasse dans le bigo J'peux les r'froidir si faut remplir le frigo Tu m'parles de monnaie, moi j'fais qu'penser au 'seille J'rentre par ton cur, toi tu ressors par une oreille Oh oui Dis-moi, qui écoute sa femme ? Oui Dis-moi, qui écoute sa femme ? Oui Dis-moi, qui écoute sa femme ? Oui Juste, dis-moi, qui écoute sa femme ? Oui Aucun négro écoute sa femme Ouais Dis-moi, qui écoute sa femme ? Ouais Dis-moi, qui écoute sa femme ? Ouais Juste, dis-moi, qui écoute sa femme ? Ouais2</t>
         </is>
       </c>
     </row>
@@ -3888,12 +3888,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MCMLXXXIX</t>
+          <t>Money Time</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Pussy nigga, j'me fais pas d'bile, j'me fais sucer Pussy nigga, j'me fais pas d'film, j'me fais du blé Pussy nigga, j'kick le beat, fuck le sujet Trop trop d'pussy, nigga sort un Glock pour les fumer Jeune Bip's est dans l'fire Non moi j'fume pas des homies, j'fume des négros Le club est plein mais le fric ailleurs On a l'premier chiffre, on prend les zéros Ta meuf me touche, mais surement sur le flyer Si elle veut play, on lui fera une démo Mon flow est composé de mille saveurs Bitch, agressif comme Jean Reno Range ta pussy, millionnaire dit la prophétie Le rap game nous attendait comme Lionel Messi Sort un lapin du chapeau, on sort un fusil Sur ces négros pop, homie, coup de bras comme Terry en Russie On s'en bat les couilles, oseille plein les fouilles On s'en bat les, bat les, toutes les douilles, on s'en bat les fouilles Les négros ont la haine quand il voit la Rolex Je préfère prévenir que guérir, 'verront jamais la grosse caisse MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe Crack, ablo et mafé, rien d'autre n'est préparé Les guerres c'est comme les impôts j'compte pas les déclarer Les problèmes tu laisses couler, j'laisse couler dans l'ciment J'vais d'venir millionnaire J'mangerais jamais la gamelle pour une chatte Feuille, ciseaux, tu peux te faire planter pour une claque Concurrence, qu'elle aille vite s'asseoir sur une batte Opulent, je peux faire tout ton SMIC en une date Merde, j'ai beaucoup d'choses à brûler... Les calories d'ta pétasse Tous les rêves de ces enculés A part l'ardoise rien n's'efface Homie t'as du buzz, nous on a du bon son La chute du mur de Berlin, le payement d'ta rançon Sur la chatte de ta chatte, vive François Mitterrand Longue vie aux 89 homies, peu importe la saison MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe MTP, MTP MTP, MTP Pussy ass nigga, sors d'la salle ou tu passes à la trappe3</t>
+          <t>Ahah Yo Joke Ça vient du sud négro, oki Donne-leur ça Yeah, ok Hein, hein Les freins n'me ralentissent pas, oh, je saute sur les dos d'âne comme sur le dos des dames, yeah, ahahah Hein Les femmes ne me ralentissent pas, pas misogyne, je te jure des fois je passe le balais, allez J'ai la dalle et les mc me font ds p'tit fours, je compte parler d maths, je compte pas les masses, négro à qui le tour Avec ma montre Casio qui chiffre négro j'te calcule ap À l'occasion je te giflerais, dis-moi juste pourquoi tu rappes ? L'écran lcd dans la cervelle, j'ai pas de pepom dans la tête, je n'ai qu'un seul métal dans la tête parce que le temps c'est d'l'argent J'avais plus de billets en maternelle, la monnaie m'appelle, elle connait mes faiblesses car elle ne connaît rien Le rap qui te colle à ta chaise et te laisse immobile à t'en donner un escarre, yeah Négro Le Booty Love Gang on compte pas les liasses, on fait polir nos zgegs par 2-3 pétasses, yeah, demande à Ekyone et à Timoze On a plus le temps, on a les crocs comme une binouze okay, yeah yeah C'est le south effect yes, les gosses sont fans de grosses paires de Nike, fans de grosses paires de fesses Mais c'est pour celà qu'on nous aime, qu'on nous déteste, à l'aise, une belle paire de bzezs dans les mains pendant qu'les mc s'baissent On vise le best, on prend notre part et bien sûr l'reste Timouze A.K.A Cheb Mami, Cheb Khaled et sappes cainri, la fraîcheur vient du bled J'ai la classe de mes ancêtres J'ai , elle tombe enceinte sans sortir mon texte J'rappe mieux que certains sans sortir mon 16, en d'autres termes elle rêve de moi quand tu la ken Damn, you can sur ma musique Je m'amuse à choquer, fly, high, Booty Rappe ça, du , on compte pas les liasses On fait danser les miss sur nos lignes de basses Demande à tous les frères qui nous tema, on a plus l'temps, l'argent qui traîne on le québra Oh O-kay-kay-kay-kay-kay-kay-kay-kay, le level est mit L'argent nous stimule comme tourner en boucle sur MTV Ouais, j'suis speed, très rapide, même ton polaroid galère à nous clipper On est du genre bolides, gonflés au steroïdes Booty Love Gang et Joke font bouncer les filles humides-humides Booty Love Gang et Joke, dis-nous jamais c'que tu rumines, rumines 3 minutes, nan, 2 minutes, nan, 1 minute, nan, 2 secondes, pas plus 30 secondes, nan, 20 secondes nan, 10 secondes j'ai dis, je sais, j'abuse Le, le, le-le-le sud le fait mieux ouais, voilà l'feat tant attendu chez , Joke vous l'avait annoncé, -cé Donc, maintenant avancez, avant qu'il ne soit trop tard, quand les dans une teucha, ouais Wah boy, Marty McFly on compte pas les liasses On fait shut up les mouses, trop d'mc sont nazes, demande aux gars du south et aux groupies On a plus l'temps, on joue, on gagne, tout nous sourit ahahah</t>
         </is>
       </c>
     </row>
@@ -3905,12 +3905,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>MoneyBitches</t>
+          <t>Moonwalk inversé</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Yeah, yeah Yeah, yeah, yeah Elle me dit T'es un chien d'la casse. Yeah Elle veut la monoface J'lui fait boire toute la tasse J'veux voir tout l'atlas Oh Renoi, j'arrive pas à m'y faire, j'veux baiser le planisphère Ouh Le negro est dans leurs chattes Ouais Y'a qu'l'oseille qui peut me satisfaire J'suis avec mes nègres, les liasses, et la fumée J'vux la dolce vie, j'veux assumr Ma chérie, tu l'savais, j'suis ce genre de négro J'ai les qualités qui matchent avec mes défauts Dans la tête l'oseille, pétasse dans le bigo J'peux les r'froidir si faut remplir le frigo Tu m'parles de monnaie, moi j'fais qu'penser au 'seille J'rentre par ton cur, toi tu ressors par une oreille Oh oui Dis-moi, qui écoute sa femme ? Oui Dis-moi, qui écoute sa femme ? Oui Dis-moi, qui écoute sa femme ? Oui Juste, dis-moi, qui écoute sa femme ? Oui Aucun négro écoute sa femme Ouais Dis-moi, qui écoute sa femme ? Ouais Dis-moi, qui écoute sa femme ? Ouais Juste, dis-moi, qui écoute sa femme ? Ouais2</t>
+          <t>Disclaimer Transcrit à partir d'un extrait vidéo , la culotte qui scintille J'fais l'moonwalk inversé, j'fais l'moonwalk inversé Oui, t'as tout ça d''co-co', toi t'as les lèvres gercées La J'suis à propos d'ta chatte, j'suis à propos d'ta- À propos d'ta chatte, j'suis à propos d'ta-</t>
         </is>
       </c>
     </row>
@@ -3922,12 +3922,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Money Time</t>
+          <t>More Blessing</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Ahah Yo Joke Ça vient du sud négro, oki Donne-leur ça Yeah, ok Hein, hein Les freins n'me ralentissent pas, oh, je saute sur les dos d'âne comme sur le dos des dames, yeah, ahahah Hein Les femmes ne me ralentissent pas, pas misogyne, je te jure des fois je passe le balais, allez J'ai la dalle et les mc me font ds p'tit fours, je compte parler d maths, je compte pas les masses, négro à qui le tour Avec ma montre Casio qui chiffre négro j'te calcule ap À l'occasion je te giflerais, dis-moi juste pourquoi tu rappes ? L'écran lcd dans la cervelle, j'ai pas de pepom dans la tête, je n'ai qu'un seul métal dans la tête parce que le temps c'est d'l'argent J'avais plus de billets en maternelle, la monnaie m'appelle, elle connait mes faiblesses car elle ne connaît rien Le rap qui te colle à ta chaise et te laisse immobile à t'en donner un escarre, yeah Négro Le Booty Love Gang on compte pas les liasses, on fait polir nos zgegs par 2-3 pétasses, yeah, demande à Ekyone et à Timoze On a plus le temps, on a les crocs comme une binouze okay, yeah yeah C'est le south effect yes, les gosses sont fans de grosses paires de Nike, fans de grosses paires de fesses Mais c'est pour celà qu'on nous aime, qu'on nous déteste, à l'aise, une belle paire de bzezs dans les mains pendant qu'les mc s'baissent On vise le best, on prend notre part et bien sûr l'reste Timouze A.K.A Cheb Mami, Cheb Khaled et sappes cainri, la fraîcheur vient du bled J'ai la classe de mes ancêtres J'ai , elle tombe enceinte sans sortir mon texte J'rappe mieux que certains sans sortir mon 16, en d'autres termes elle rêve de moi quand tu la ken Damn, you can sur ma musique Je m'amuse à choquer, fly, high, Booty Rappe ça, du , on compte pas les liasses On fait danser les miss sur nos lignes de basses Demande à tous les frères qui nous tema, on a plus l'temps, l'argent qui traîne on le québra Oh O-kay-kay-kay-kay-kay-kay-kay-kay, le level est mit L'argent nous stimule comme tourner en boucle sur MTV Ouais, j'suis speed, très rapide, même ton polaroid galère à nous clipper On est du genre bolides, gonflés au steroïdes Booty Love Gang et Joke font bouncer les filles humides-humides Booty Love Gang et Joke, dis-nous jamais c'que tu rumines, rumines 3 minutes, nan, 2 minutes, nan, 1 minute, nan, 2 secondes, pas plus 30 secondes, nan, 20 secondes nan, 10 secondes j'ai dis, je sais, j'abuse Le, le, le-le-le sud le fait mieux ouais, voilà l'feat tant attendu chez , Joke vous l'avait annoncé, -cé Donc, maintenant avancez, avant qu'il ne soit trop tard, quand les dans une teucha, ouais Wah boy, Marty McFly on compte pas les liasses On fait shut up les mouses, trop d'mc sont nazes, demande aux gars du south et aux groupies On a plus l'temps, on joue, on gagne, tout nous sourit ahahah</t>
+          <t>The Spirit Let's go Let's go Oui, bitch More blessings, more blessings, j'rentre dans le club avec une gow sexy Oui More blessings, more blessings, j'rentre à l'hôtel avec deux gows flexibles Oui, bitch, yah More blessings, more blessings, j'rentre dans le club avec une gow sexy More blessings, more blessings, j'rentre à l'hôtel avec deux gows flexibles Yah, yah, yah, yah Tu crois connaître, check ma pommette Suce-moi, comme elle J'prends la vie, comme elle vient, toi, t'es un comédien Ta 'tasse j'lui casse les reins, ta chienne j'la promène The Spirit, j'rentre dans un club avec une gow sexy J'rentre à l'hôtel avec des gows flexibles, bitch, négro, tous les diamants sont sertis, yah Prends des euros pour les convertir, yah, j'prends des pétasses pour les convertir, yah More blessings, more blessings More blessings, more blessings, j'rentre dans le club avec une gow sexy More blessings, more blessings, j'rentre à l'hôtel avec deux gows flexibles Oui, bitch The Spirit of Ecstasy</t>
         </is>
       </c>
     </row>
@@ -3939,12 +3939,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Moonwalk inversé</t>
+          <t>MTP Geneva Paris X-Mas Freestyle</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait vidéo , la culotte qui scintille J'fais l'moonwalk inversé, j'fais l'moonwalk inversé Oui, t'as tout ça d''co-co', toi t'as les lèvres gercées La J'suis à propos d'ta chatte, j'suis à propos d'ta- À propos d'ta chatte, j'suis à propos d'ta-</t>
+          <t>Han, S.S, Bip's Shout-out to Genevan Heathen, DJ Raze, Paris Yeah, han, okay Han, ohh Yeah Han-han S.S is back, yeah Genevan Christmas, bientôt dans les bacs Comme le sound, bitch, tu détestes la sensation Mhh Depuis qu'Bip's a un flow d'fusil, comme à la guerre de sécession Ta meuf est un thon, c'est pour ça qu'on la ramène en boîte Mhh On s'la raconte en boîte, comme si on avait des putains d'jambes de bois Ah bon C'est classique, tu connais, lazing, no theme kicks Bouteille de , dans ta pussy Flex, on cale nos Twix Han-han Les Monsieur, biatch Han, rockstar, hip-hop Rien à foutre du rap, on veut d'l'oseille, du rab Ok Le bras droit de Joky Han-han, le flow à DJ Vibes Yeah Faut qu'ça pique, comme les orties, grosse tournée, en mini van Pas de bla-bla Han, nous on tire, on parle pas Les armes de Tony Montana, le buzz, de Montana Hannah Tour Eiffel en fond d'Seine, c'est Paris Si t'aimes pas, rajoute du sel, c'était Bip's, joyeux Noël Heyy, négro C'est Bip's, négro C'est Joke, négro M.T.P, négro Genève, négro Han Y a qui qui dit plus de négro qu'moi ici ? Ayo, ch'yeah Négro, ayo, hey C'est nous, hey Wassup ? Back, négro M.T.P, négro Yo DJ Raze, Genevan Heathen Mother Motherfuck'a' Ahh Yeah, Bip's Joky, ayo Fuck, ayo, aye Han J'attends de perdre mon talent Hein-hein, j'commence à m'impatienter J'veux faire du biff, faire des feats Yeah, avec des pétasses qui savent même pas chanter Oh Yo, négro, j'vais pas m'vanter Yeah, j'te donne chaud, mais, j'vais pas t'venter J'suis tellement malade, que quand je tringle Yeah, négro, j'ai même pas cent G Han-han J'ai pris la mauvaise direction Han-han, mon domaine d'prédilection Les mecs sont au sol, négro, j'bicrave du chloroforme, hein-hein Je tombe que sur des chattes serrées, j'te jure, la vie d'ta mère, j'deviens claustrophobe J'voulais pas d'buzz, mais quand ils parlent de moi, ces mecs causent trop fort Han Mais ils savent pas Yeah, qu'on est sur les- han, qu'on est sur les nerfs On s'en tape Yeah, on est sur les surs, on est sur les mères Ils savent pas Yeah, que quand on boit pas, on décuve des bières Quoi ?! Teste pas Yeah, mon pied sur la tempe, ta tête sur les pierres On ride M.T.P, sur Gambetta, violent, comme une vendetta J'te fume, si tu t'mets en pétard Brrah Nique sa race, si le rap paie pas Si tu bipes, yo, j'te rappelle pas, j'te monte en l'air, j'te shoote en l'air Shoote, shoote, shoote, en l'air Haaye N.B.A Ok Fuck Petit Papa Noël, quand tu descendras du ciel, n'oublie pas le putain d'freestyle de Bip's et Joke À mettre sous l'sapin, à côté d'mes souliers, à côté d'mes nouvelles Nike Genevan , putain d'merde Oublie pas, hein, mon freestyle, s'te plait, à mettre, toute l'année Alors, comment on fait ? M.T.P, M.T.P, Genève, Genève, Paris Paris, ok Ok Joyeux Noël Bip's, Joke</t>
         </is>
       </c>
     </row>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>More Blessing</t>
+          <t>Murakami</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>The Spirit Let's go Let's go Oui, bitch More blessings, more blessings, j'rentre dans le club avec une gow sexy Oui More blessings, more blessings, j'rentre à l'hôtel avec deux gows flexibles Oui, bitch, yah More blessings, more blessings, j'rentre dans le club avec une gow sexy More blessings, more blessings, j'rentre à l'hôtel avec deux gows flexibles Yah, yah, yah, yah Tu crois connaître, check ma pommette Suce-moi, comme elle J'prends la vie, comme elle vient, toi, t'es un comédien Ta 'tasse j'lui casse les reins, ta chienne j'la promène The Spirit, j'rentre dans un club avec une gow sexy J'rentre à l'hôtel avec des gows flexibles, bitch, négro, tous les diamants sont sertis, yah Prends des euros pour les convertir, yah, j'prends des pétasses pour les convertir, yah More blessings, more blessings More blessings, more blessings, j'rentre dans le club avec une gow sexy More blessings, more blessings, j'rentre à l'hôtel avec deux gows flexibles Oui, bitch The Spirit of Ecstasy</t>
+          <t>Yo Variedy, this crazy Hein, hein-hein Heyy Si elle pop molly Hey Moi je pop champi' Champi', et des Murakami 'kami J'fais qu'des Murakami Ohh-oh J'fais qu'des Murakami Ohh-oh J'fais qu'des Murakami, heinheein J'fais qu'des Murakami, heinheein J'pull up tout en Prada, j'pull up tout en Prada Wohh Négro est en Air Force One, comme Obama, Pharaon Prendre ma beuh au Ghana, prendre ma beuh au Ghana Fhh J'inhale comme un chaman, j'me fais 'per-pom' dans l'pyjama, hey Going money, going money, going money, going money Go, go, go, go, go Going money, going money, going money Going, going, going Go, go, go, go, go Doing Going dummy, going dummy, going dummy, going dummy Go, go, go, go, go Going dummy, going dummy, going Go, go, go J'fais un Genki Dama, hey J'absorbe tout le pra, mhh J'ai un gentil FAMAS J'ai d'la beuh qui tabasse, hey Mes négros t'euthanasient Sans que glow nous kalash Pharaon Autour d'mon cou y a des carats Toi et moi y a un décalage Oui, bitch, toi ton swag est banal Oui, bitch Et tu veux tester négro, moi j'le prend ultra mal, heyy Niquer des bitchs, faire des dollars, acheter du CHANEL, heyy Niquer des bitchs, faire des dollars, acheter du CHANEL, hé-heyy Get that money, get that Si elle pop molly Hey Moi je pop champi' Champi', et des Murakami 'Kami J'fais qu'des Murakami Ohh-oh J'fais qu'des Murakami, Ohh-oh J'fais qu'des Murakami, hein, heein J'fais qu'des Murakami, hein, heein J'pull up tout en Prada Hey, j'pull up tout en Prada Négro est en Air Force One, comme Obama Prendre ma beuh au Ghana, prendre ma beuh au Ghana J'inhale comme un chaman, j'me fais 'per-pom' dans l'pyjama J'fume des Murakami Hm, ah, ah Designer, c'est mes habits Hm, ah, ah V.V.S. sur les canines, oui, bitch Hm, ah, ah J'suis frais depuis jadis, oui, bitch Hm, ah, ah J'fume des Murakami Hm, ah, ah Designer, c'est mes habits Hm, ah, ah V.V.S. sur les canines, oui, bitch Hm, ah, ah J'suis frais depuis jadis, oui, bitch Hm, ah, ah</t>
         </is>
       </c>
     </row>
@@ -3973,12 +3973,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>MTP Geneva Paris X-Mas Freestyle</t>
+          <t>Naomi Freestyle</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Han, S.S, Bip's Shout-out to Genevan Heathen, DJ Raze, Paris Yeah, han, okay Han, ohh Yeah Han-han S.S is back, yeah Genevan Christmas, bientôt dans les bacs Comme le sound, bitch, tu détestes la sensation Mhh Depuis qu'Bip's a un flow d'fusil, comme à la guerre de sécession Ta meuf est un thon, c'est pour ça qu'on la ramène en boîte Mhh On s'la raconte en boîte, comme si on avait des putains d'jambes de bois Ah bon C'est classique, tu connais, lazing, no theme kicks Bouteille de , dans ta pussy Flex, on cale nos Twix Han-han Les Monsieur, biatch Han, rockstar, hip-hop Rien à foutre du rap, on veut d'l'oseille, du rab Ok Le bras droit de Joky Han-han, le flow à DJ Vibes Yeah Faut qu'ça pique, comme les orties, grosse tournée, en mini van Pas de bla-bla Han, nous on tire, on parle pas Les armes de Tony Montana, le buzz, de Montana Hannah Tour Eiffel en fond d'Seine, c'est Paris Si t'aimes pas, rajoute du sel, c'était Bip's, joyeux Noël Heyy, négro C'est Bip's, négro C'est Joke, négro M.T.P, négro Genève, négro Han Y a qui qui dit plus de négro qu'moi ici ? Ayo, ch'yeah Négro, ayo, hey C'est nous, hey Wassup ? Back, négro M.T.P, négro Yo DJ Raze, Genevan Heathen Mother Motherfuck'a' Ahh Yeah, Bip's Joky, ayo Fuck, ayo, aye Han J'attends de perdre mon talent Hein-hein, j'commence à m'impatienter J'veux faire du biff, faire des feats Yeah, avec des pétasses qui savent même pas chanter Oh Yo, négro, j'vais pas m'vanter Yeah, j'te donne chaud, mais, j'vais pas t'venter J'suis tellement malade, que quand je tringle Yeah, négro, j'ai même pas cent G Han-han J'ai pris la mauvaise direction Han-han, mon domaine d'prédilection Les mecs sont au sol, négro, j'bicrave du chloroforme, hein-hein Je tombe que sur des chattes serrées, j'te jure, la vie d'ta mère, j'deviens claustrophobe J'voulais pas d'buzz, mais quand ils parlent de moi, ces mecs causent trop fort Han Mais ils savent pas Yeah, qu'on est sur les- han, qu'on est sur les nerfs On s'en tape Yeah, on est sur les surs, on est sur les mères Ils savent pas Yeah, que quand on boit pas, on décuve des bières Quoi ?! Teste pas Yeah, mon pied sur la tempe, ta tête sur les pierres On ride M.T.P, sur Gambetta, violent, comme une vendetta J'te fume, si tu t'mets en pétard Brrah Nique sa race, si le rap paie pas Si tu bipes, yo, j'te rappelle pas, j'te monte en l'air, j'te shoote en l'air Shoote, shoote, shoote, en l'air Haaye N.B.A Ok Fuck Petit Papa Noël, quand tu descendras du ciel, n'oublie pas le putain d'freestyle de Bip's et Joke À mettre sous l'sapin, à côté d'mes souliers, à côté d'mes nouvelles Nike Genevan , putain d'merde Oublie pas, hein, mon freestyle, s'te plait, à mettre, toute l'année Alors, comment on fait ? M.T.P, M.T.P, Genève, Genève, Paris Paris, ok Ok Joyeux Noël Bip's, Joke</t>
+          <t>Hey Jeune négro, let's get it Yah, yah Liasse dans ma poche, c'est un rainbow Aîe-aîe-aîe-aîe-aîe-aîe-aîe Elle suce, avale dans la Lambo' Wah P'tite sois ma Naomi Campbell Wah P'tite sois ma Naomi Campbell Wah Liasse dans ma poche, c'est un rainbow Elle m'suce devant la Nintendo Elle suce, avale dans la Lambo' P'tite sois ma Naomi Campbell P'tite sois ma Naomi Campbell P'tite sois ma Naomi Campbell Let's go Fais des squats, suce dans le carré, wah Pétasse bouge avec le squad, let's go Ma vie c'est le cinéma, tous les jours en i tréma Quand est-ce que le G démarre ? J'suis dans l'clip de Dilemma Skuurr, j'transporte substances illégales Ouhh Ta clique prend des rafales, aïe, yah, yay J'tire sur 'garette-ci' Oui, bitch J'tire sur des ennemis Yah, bitch J'compte te la mettre, bitch Aîe, aîe, aîe, glaçons Jack-Henny' Glaçons, Jack-Henny', wow, glaçons, Jack-Henny' Glaçons Jack-Henny' Wow, glaçons, Jack-Henny' Glaçons, Jack-Henny', Wow, glaçons, Jack-Henny', mhh Glaçons, Jack-Henny', Wow, glaçons, Jack-Henny', mhh Hein, hein-hein Hein, hein-hein Hein, hein-hein Hein, hein-hein Pah Pah-pah-pah On va pas les aider Let's go Let's go Yah, yah</t>
         </is>
       </c>
     </row>
@@ -3990,12 +3990,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Murakami</t>
+          <t>NEIT</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Yo Variedy, this crazy Hein, hein-hein Heyy Si elle pop molly Hey Moi je pop champi' Champi', et des Murakami 'kami J'fais qu'des Murakami Ohh-oh J'fais qu'des Murakami Ohh-oh J'fais qu'des Murakami, heinheein J'fais qu'des Murakami, heinheein J'pull up tout en Prada, j'pull up tout en Prada Wohh Négro est en Air Force One, comme Obama, Pharaon Prendre ma beuh au Ghana, prendre ma beuh au Ghana Fhh J'inhale comme un chaman, j'me fais 'per-pom' dans l'pyjama, hey Going money, going money, going money, going money Go, go, go, go, go Going money, going money, going money Going, going, going Go, go, go, go, go Doing Going dummy, going dummy, going dummy, going dummy Go, go, go, go, go Going dummy, going dummy, going Go, go, go J'fais un Genki Dama, hey J'absorbe tout le pra, mhh J'ai un gentil FAMAS J'ai d'la beuh qui tabasse, hey Mes négros t'euthanasient Sans que glow nous kalash Pharaon Autour d'mon cou y a des carats Toi et moi y a un décalage Oui, bitch, toi ton swag est banal Oui, bitch Et tu veux tester négro, moi j'le prend ultra mal, heyy Niquer des bitchs, faire des dollars, acheter du CHANEL, heyy Niquer des bitchs, faire des dollars, acheter du CHANEL, hé-heyy Get that money, get that Si elle pop molly Hey Moi je pop champi' Champi', et des Murakami 'Kami J'fais qu'des Murakami Ohh-oh J'fais qu'des Murakami, Ohh-oh J'fais qu'des Murakami, hein, heein J'fais qu'des Murakami, hein, heein J'pull up tout en Prada Hey, j'pull up tout en Prada Négro est en Air Force One, comme Obama Prendre ma beuh au Ghana, prendre ma beuh au Ghana J'inhale comme un chaman, j'me fais 'per-pom' dans l'pyjama J'fume des Murakami Hm, ah, ah Designer, c'est mes habits Hm, ah, ah V.V.S. sur les canines, oui, bitch Hm, ah, ah J'suis frais depuis jadis, oui, bitch Hm, ah, ah J'fume des Murakami Hm, ah, ah Designer, c'est mes habits Hm, ah, ah V.V.S. sur les canines, oui, bitch Hm, ah, ah J'suis frais depuis jadis, oui, bitch Hm, ah, ah</t>
+          <t>Stars in the ceiling, stars in the ceiling, stars in the ceiling Stars in the ceiling, stars in the ceiling, stars in the ceiling Ohh-ohh-ohh Stars in the ceiling, found stars in the ceiling, stars in the ceiling Ohh-ohh-ohh Lil' bitch Stars in the feeling Ayy, ayy, ayy, stars in the feeling, stars in the feeling, Woah, woah, oh, oh Tu sais qu'je viens correct, négro, faut le voir Négro, j'fais la collecte pour la Audemars Ânkh sur la pommette, il d'Horus sur la pommette Elle me pompe le dard We going, going Oh, oh, j'viens de slow it down Fuck what they doing, what they saying J'la mets sur ma 'tub', elle décolle comm un Boeing Comme un Boeing J'croise pas mes détracteurs à Gucci ou à Louis Ah, ah, ah J'fuck pas avec ces rappeurs, parce que ça sent la douille Ah, ah, ah J'étais avec Sonta au bled, j'mangeais la bouillie C'est pour ça qu'aujourd'hui j'suis grave photogénique Grave, grave, grave Ma force elle vient du bled, elle vient du pays Yeah, nigga Nigga, mmh Stars in the ceiling Ayy, ayy, ayy, stars in the ceiling, stars in the ceiling Oh-oh, oh-oh Stars in the ceiling, stars in the ceiling, stars in the ceiling Oh-oh, oh-oh Stars in the ceiling, stars in the ceiling, stars in the ceiling Oh-oh, oh-oh Stars in the ceiling, stars in the ceiling, stars in the ceiling Ayy, ayy, ayy</t>
         </is>
       </c>
     </row>
@@ -4007,12 +4007,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Naomi Freestyle</t>
+          <t>Nemesis</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Hey Jeune négro, let's get it Yah, yah Liasse dans ma poche, c'est un rainbow Aîe-aîe-aîe-aîe-aîe-aîe-aîe Elle suce, avale dans la Lambo' Wah P'tite sois ma Naomi Campbell Wah P'tite sois ma Naomi Campbell Wah Liasse dans ma poche, c'est un rainbow Elle m'suce devant la Nintendo Elle suce, avale dans la Lambo' P'tite sois ma Naomi Campbell P'tite sois ma Naomi Campbell P'tite sois ma Naomi Campbell Let's go Fais des squats, suce dans le carré, wah Pétasse bouge avec le squad, let's go Ma vie c'est le cinéma, tous les jours en i tréma Quand est-ce que le G démarre ? J'suis dans l'clip de Dilemma Skuurr, j'transporte substances illégales Ouhh Ta clique prend des rafales, aïe, yah, yay J'tire sur 'garette-ci' Oui, bitch J'tire sur des ennemis Yah, bitch J'compte te la mettre, bitch Aîe, aîe, aîe, glaçons Jack-Henny' Glaçons, Jack-Henny', wow, glaçons, Jack-Henny' Glaçons Jack-Henny' Wow, glaçons, Jack-Henny' Glaçons, Jack-Henny', Wow, glaçons, Jack-Henny', mhh Glaçons, Jack-Henny', Wow, glaçons, Jack-Henny', mhh Hein, hein-hein Hein, hein-hein Hein, hein-hein Hein, hein-hein Pah Pah-pah-pah On va pas les aider Let's go Let's go Yah, yah</t>
+          <t>Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Tekitek, laisse faire le space cake Que ta meuf s'mette à l'aise pour ma sextape Peace T.K.T, je suis fairplay, j't'envoie un lien sur YouPorn, avec des extraits Et si j'laissais couler la vibe Ah-ah J'pourrais rentrr dans si j'me laissais pousser la barbe Très haut, c'st là où mon rap va poser la barre Y'a un détecteur de rap pourri dans la salle, et tu vas faire sonner l'alarme Stunts est le label, vous n'aurez jamais la paix Tout l'monde est là à l'appel, déserter ? Moi, jamais J'ai trop une face de winner Winner, Faut faut qu'j'me fasse la pin-up Pin-up Que Que j'lui donne mes peannuts, sur l'comptoir du dinner Dinner Mec, j'suis un putain d'géant, j'ai l'monde entre mes doigts, c'est une crotte de nez J'fais c'que j'veux avec ce que j'veux rapper, un mec forcené Ferme ta bouche avec des clous, comme un cordonnier Ok J'veux essentiellement faire parler l'hémisphère gauche et l'hémisphère droit, pas faire dans la dentelle, nan Pété, dans la soie, l'cerveau fait des dissert' Moites sont les miss, ça se sent tellement Noyé sous le vice, j'en ai mal à la bite Tu captes, ouais, j'rendrais pas l'antenne, nan J'suis premier comme SFR, yeah-yeah, fallait pas me laisser faire, yeah-yeah C'est de l'entraînement, deux-trois rimes pour faire parler En seize mesures, négro, t'écris un roman Si je boite c'est que j'm'en bat les reins J'peux pas faire de coupé-décallé car j'm'en bat les reins Qui peut m'mettre à l'écart, celui qui m'arrête n'est pas né On est déjà arrivé, ne prenez pas l'départ, pas l'départ Ok La rythmique minimale Oh-oh, mon flow sera maximal Oh-oh Dominant ou lacrymale Oh-oh, son maniement te fera mal Oh-oh Les mots seront- les mots seront l'oxmose qui fait qu'ton cur s'emballe Oh-ohh J'te donne envie d'faire un souhait car je brille dans l'son plus qu'une étoile Et ouais c'est l'festival, quesque j'dis ? Orbital Un satellite, un ange magique, une fusée, non, c'est juste mon style Yo Tu vois ? Ça l'fait Ah, ahh Tu sens ces slows Wouhh Déluge d'effets Okay, let's go Killa Da' show Han C'est le phénomène Kilroy qui rentre dans l'bail Y'a-t'il un putain d'pilote dans l'game ? Tu le sens bien, mon style est sanguin Hey Mec, il est sans fin, vérifie les enceintes Hey Tous les jours j'te le fais découvrir Han-han T'as la tête qui tourne, t'es étourdi Haa J'te l'ai déjà dis, mais comme un fou tu t'entêtes Ha Sur les cadavres des haters j'fais mes emplettes Hey, hey Hein Ouais, j'suis sérieux Haan Je sais que t'essayes tout, pour faire mieux Haan C'est pour ça qu't'as nez qui saigne Yeah Tu devrais te calmer, tu sers à rien Yeah Trop d'énergie, appelle-moi Red Bull boy Partout j'me retourne Yeah-yeah, j'me retourne du haut d'ma tour et j'retourne toutes ces couilles molles Hey, hey, hey La pression monte quand j'suis au micro Oh, j'rappe en apesanteur Hey Mec, j'suis trop haut, pas besoin de prendre l'ascenseur Les absents veulent me descendre, j'laisse des cendres sur le J'crache de l'essence avec aisance, sortez les extincteurs J'allume ce truc et fais cramer les enceintes, brûle l'instru, les pompiers portent plainte J'viens du futur, c'est cramé que j'tue, comme un assassin, qui laisse les empreintes J'rappe dans fin, j'rappe sans fin J'rappe sans mains, j'rappe sans refrain Trop frais, trop d'flair J'te met au parfum, tu vas bouffer du CraiZ, même si t'as pas faim, mais ouais On cours sur la Tour Eiffel à la cool, sur un coucher d'soleil Hey On touche le ciel, n'aies pas peur de t'bruler les ailes Mais ouaais À l'horizon, on passe en force comme un bulldozer Hé, hé, hé, hé, hé, hé Tu veux nous voir sur scène, essaies d'regarder dans les airs On cours sur la Tour Eiffel à la cool, sur un coucher d'soleil Hey On touche le ciel, n'aies pas peur de t'bruler les ailes Mais ouaais À l'horizon, on passe en force comme un bulldozer Hé, hé, hé, hé, hé, hé Tu veux nous voir sur scène, essaies d'regarder dans les airs On cours sur la Tour Eiffel à la cool, sur un coucher d'soleil On touche le ciel, n'aies pas peur de t'bruler les ailes À l'horizon, on passe en force comme un bulldozer Tu veux nous voir sur scène, essaies d'regarder dans les airs Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo</t>
         </is>
       </c>
     </row>
@@ -4024,12 +4024,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NEIT</t>
+          <t>New shit*</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Stars in the ceiling, stars in the ceiling, stars in the ceiling Stars in the ceiling, stars in the ceiling, stars in the ceiling Ohh-ohh-ohh Stars in the ceiling, found stars in the ceiling, stars in the ceiling Ohh-ohh-ohh Lil' bitch Stars in the feeling Ayy, ayy, ayy, stars in the feeling, stars in the feeling, Woah, woah, oh, oh Tu sais qu'je viens correct, négro, faut le voir Négro, j'fais la collecte pour la Audemars Ânkh sur la pommette, il d'Horus sur la pommette Elle me pompe le dard We going, going Oh, oh, j'viens de slow it down Fuck what they doing, what they saying J'la mets sur ma 'tub', elle décolle comm un Boeing Comme un Boeing J'croise pas mes détracteurs à Gucci ou à Louis Ah, ah, ah J'fuck pas avec ces rappeurs, parce que ça sent la douille Ah, ah, ah J'étais avec Sonta au bled, j'mangeais la bouillie C'est pour ça qu'aujourd'hui j'suis grave photogénique Grave, grave, grave Ma force elle vient du bled, elle vient du pays Yeah, nigga Nigga, mmh Stars in the ceiling Ayy, ayy, ayy, stars in the ceiling, stars in the ceiling Oh-oh, oh-oh Stars in the ceiling, stars in the ceiling, stars in the ceiling Oh-oh, oh-oh Stars in the ceiling, stars in the ceiling, stars in the ceiling Oh-oh, oh-oh Stars in the ceiling, stars in the ceiling, stars in the ceiling Ayy, ayy, ayy</t>
+          <t>Négro arrête, négro arrête Négro arrête, négro arrête J'arrive fusil sur l'épaule, tire comme Teddy Riner J'débarque pour niquer ta chatte, nique les préliminaires Négros se fâchèrent, négro t'éliminèrent Les mots les plus éclatants émanant d'la Ville Lumière Les ondes astrales apportent un mojo caniculaire Avènement d'Osiris et d'Isis J'ai la mine relaxée, l'esprit patibulaire Deux-trois coups d'il et t'as la chatte qui glisse Le rap, leurs vies, j'm'en bats les yeucous J'vois l'Amérique qui m'fait les yeux doux J'ai des sociétés, nique la société Qui compte me bloquer l'accès à la propriété Le rap, leurs vies, j'm'en bats les yeucous J'te mets un doigt dans le cul, j't'embrasse dans le cou Négro moi j'veux brûler la vie par les deux bouts Négro j'agis j'te laisse parler debout 5</t>
         </is>
       </c>
     </row>
@@ -4041,12 +4041,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Nemesis</t>
+          <t>Next Shit</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Tekitek, laisse faire le space cake Que ta meuf s'mette à l'aise pour ma sextape Peace T.K.T, je suis fairplay, j't'envoie un lien sur YouPorn, avec des extraits Et si j'laissais couler la vibe Ah-ah J'pourrais rentrr dans si j'me laissais pousser la barbe Très haut, c'st là où mon rap va poser la barre Y'a un détecteur de rap pourri dans la salle, et tu vas faire sonner l'alarme Stunts est le label, vous n'aurez jamais la paix Tout l'monde est là à l'appel, déserter ? Moi, jamais J'ai trop une face de winner Winner, Faut faut qu'j'me fasse la pin-up Pin-up Que Que j'lui donne mes peannuts, sur l'comptoir du dinner Dinner Mec, j'suis un putain d'géant, j'ai l'monde entre mes doigts, c'est une crotte de nez J'fais c'que j'veux avec ce que j'veux rapper, un mec forcené Ferme ta bouche avec des clous, comme un cordonnier Ok J'veux essentiellement faire parler l'hémisphère gauche et l'hémisphère droit, pas faire dans la dentelle, nan Pété, dans la soie, l'cerveau fait des dissert' Moites sont les miss, ça se sent tellement Noyé sous le vice, j'en ai mal à la bite Tu captes, ouais, j'rendrais pas l'antenne, nan J'suis premier comme SFR, yeah-yeah, fallait pas me laisser faire, yeah-yeah C'est de l'entraînement, deux-trois rimes pour faire parler En seize mesures, négro, t'écris un roman Si je boite c'est que j'm'en bat les reins J'peux pas faire de coupé-décallé car j'm'en bat les reins Qui peut m'mettre à l'écart, celui qui m'arrête n'est pas né On est déjà arrivé, ne prenez pas l'départ, pas l'départ Ok La rythmique minimale Oh-oh, mon flow sera maximal Oh-oh Dominant ou lacrymale Oh-oh, son maniement te fera mal Oh-oh Les mots seront- les mots seront l'oxmose qui fait qu'ton cur s'emballe Oh-ohh J'te donne envie d'faire un souhait car je brille dans l'son plus qu'une étoile Et ouais c'est l'festival, quesque j'dis ? Orbital Un satellite, un ange magique, une fusée, non, c'est juste mon style Yo Tu vois ? Ça l'fait Ah, ahh Tu sens ces slows Wouhh Déluge d'effets Okay, let's go Killa Da' show Han C'est le phénomène Kilroy qui rentre dans l'bail Y'a-t'il un putain d'pilote dans l'game ? Tu le sens bien, mon style est sanguin Hey Mec, il est sans fin, vérifie les enceintes Hey Tous les jours j'te le fais découvrir Han-han T'as la tête qui tourne, t'es étourdi Haa J'te l'ai déjà dis, mais comme un fou tu t'entêtes Ha Sur les cadavres des haters j'fais mes emplettes Hey, hey Hein Ouais, j'suis sérieux Haan Je sais que t'essayes tout, pour faire mieux Haan C'est pour ça qu't'as nez qui saigne Yeah Tu devrais te calmer, tu sers à rien Yeah Trop d'énergie, appelle-moi Red Bull boy Partout j'me retourne Yeah-yeah, j'me retourne du haut d'ma tour et j'retourne toutes ces couilles molles Hey, hey, hey La pression monte quand j'suis au micro Oh, j'rappe en apesanteur Hey Mec, j'suis trop haut, pas besoin de prendre l'ascenseur Les absents veulent me descendre, j'laisse des cendres sur le J'crache de l'essence avec aisance, sortez les extincteurs J'allume ce truc et fais cramer les enceintes, brûle l'instru, les pompiers portent plainte J'viens du futur, c'est cramé que j'tue, comme un assassin, qui laisse les empreintes J'rappe dans fin, j'rappe sans fin J'rappe sans mains, j'rappe sans refrain Trop frais, trop d'flair J'te met au parfum, tu vas bouffer du CraiZ, même si t'as pas faim, mais ouais On cours sur la Tour Eiffel à la cool, sur un coucher d'soleil Hey On touche le ciel, n'aies pas peur de t'bruler les ailes Mais ouaais À l'horizon, on passe en force comme un bulldozer Hé, hé, hé, hé, hé, hé Tu veux nous voir sur scène, essaies d'regarder dans les airs On cours sur la Tour Eiffel à la cool, sur un coucher d'soleil Hey On touche le ciel, n'aies pas peur de t'bruler les ailes Mais ouaais À l'horizon, on passe en force comme un bulldozer Hé, hé, hé, hé, hé, hé Tu veux nous voir sur scène, essaies d'regarder dans les airs On cours sur la Tour Eiffel à la cool, sur un coucher d'soleil On touche le ciel, n'aies pas peur de t'bruler les ailes À l'horizon, on passe en force comme un bulldozer Tu veux nous voir sur scène, essaies d'regarder dans les airs Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo Yeah, yeah, yo, yo, yo, yo</t>
+          <t>Freakey démarre le vaisseau mon négro Bang, yeah my nigga Pharaoh in this bitch Oui, bitch Négro sur le next shit, or sur le neck shit Texte sur le tec shit Bébé j'bouge les esprits, sûr ma bitch est sexy J'suis en moonwalk sur la manche, nique sa mère le Brexit Oui Sûr j'manifeste vite, l'aura est éléctrique Check la rapidité, bitcoin illimités N'essaie même pas d'imiter, on teste pas l'élite yeah J't'envoie des formules magiques fluide en gaélique yeah J'peux t'parler deep scred dans un carré VIP yeah J'remplis ta p'tite shnek comme un cahier vide yeah Ouais Être comme eux c'est dead Ouais, j'suis guidé par les signes Ouais, yeah J'sais qu'ma front cam Siri se brûle la rétine Ouais, yeah Négro sur le next shit, j'me fais stalk par Alexa, Siri sûr qu'j'les excite Texte sur le tec shit Bébé j'bouge les esprits, et mes pensées prennent vie Or sur le neck shit, négro j'déconnecte vite Infinigga, Infinigga</t>
         </is>
       </c>
     </row>
@@ -4058,12 +4058,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>New shit*</t>
+          <t>​niggas in Paris (freestyle)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Négro arrête, négro arrête Négro arrête, négro arrête J'arrive fusil sur l'épaule, tire comme Teddy Riner J'débarque pour niquer ta chatte, nique les préliminaires Négros se fâchèrent, négro t'éliminèrent Les mots les plus éclatants émanant d'la Ville Lumière Les ondes astrales apportent un mojo caniculaire Avènement d'Osiris et d'Isis J'ai la mine relaxée, l'esprit patibulaire Deux-trois coups d'il et t'as la chatte qui glisse Le rap, leurs vies, j'm'en bats les yeucous J'vois l'Amérique qui m'fait les yeux doux J'ai des sociétés, nique la société Qui compte me bloquer l'accès à la propriété Le rap, leurs vies, j'm'en bats les yeucous J'te mets un doigt dans le cul, j't'embrasse dans le cou Négro moi j'veux brûler la vie par les deux bouts Négro j'agis j'te laisse parler debout 5</t>
+          <t>Ball so hard mothafuckas wanna fine me Hahan, des gars comme moi yen a un sur 100 000 Hey Yo, jsuis sans deal Negro, jsuis pourri à vie, 95 Guiliani. Paris cest Gare du NordPlace dItalie Amber et Beyonce Coulibali Paris, jarrive, oh no ! Jsors mon calibre NoHomo Tu fais dla monnaie en Slow Mo. Jte rase au poteau Château dEau Ça sent lplastique brulé, tu sais on fait chauffer la carte bancaire Capote acidulée, jai du goût et ta meuf écarte sans faire Dchichi Un mouvement, on te plombe et je parle pas de ta plaque dentaire Mon équipe sort les billets, tu crois quon a repeint la salle en vert Si tu parles, je te le jure sur ma vie, sur ma vie J'saute tout, j'ai pas d'Go-Navi Negro, j'ai la dalle comme en Somalie. Negro, j'ai la dalle comme en Somalie Negro, j'ai la dalle comme en Somalie J'vais pisser sur cette tasse, fraiche genre Haagen Daz J'vais pisser sur cette Soraya Bonaly Yen a qui voudrait que Joke, Yo que Joke staise, ils le voudrait mais non Vont finir avec des prothèses, des roulantes chaises pour avoir dit mon prénom Jvais la ramener au motel, à lhotel, elle va dire mon prénom On tattend MTP dans une ptite rue pour te schlasser dans la pénombre</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Next Shit</t>
+          <t>Niggas in Paris (Remix)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Freakey démarre le vaisseau mon négro Bang, yeah my nigga Pharaoh in this bitch Oui, bitch Négro sur le next shit, or sur le neck shit Texte sur le tec shit Bébé j'bouge les esprits, sûr ma bitch est sexy J'suis en moonwalk sur la manche, nique sa mère le Brexit Oui Sûr j'manifeste vite, l'aura est éléctrique Check la rapidité, bitcoin illimités N'essaie même pas d'imiter, on teste pas l'élite yeah J't'envoie des formules magiques fluide en gaélique yeah J'peux t'parler deep scred dans un carré VIP yeah J'remplis ta p'tite shnek comme un cahier vide yeah Ouais Être comme eux c'est dead Ouais, j'suis guidé par les signes Ouais, yeah J'sais qu'ma front cam Siri se brûle la rétine Ouais, yeah Négro sur le next shit, j'me fais stalk par Alexa, Siri sûr qu'j'les excite Texte sur le tec shit Bébé j'bouge les esprits, et mes pensées prennent vie Or sur le neck shit, négro j'déconnecte vite Infinigga, Infinigga</t>
+          <t>J'ai tellement pris de sales coups que j'aurai pu faire le casting de 'True Blood' Je crois qu'j'ai changé d'avis j'préfère mater le boule d'Alexis sur Youporn J'me demande qu'est-ce qu'il m'arrive ?! Je vois qules Mc's m'copient comme des métamorphes Et en plus ça s'croit technique depuis qu'ils ont appris à faire des métaphores C'est la savane dans ma vie. J'ai une gazelle au lit, des gazelles aux pieds Quasi opé, j'suis prêt pour la guerre. Flow 4 étoiles Cassiopée T'écris tes textes sur Blackberry, je savais qu'tu n'étais qu'un sans papiers Ecrire sur Mac ne porte pas ses fruits. Depuis qu'j'ai ma gold, je fini premier Ils veulent du fond, ils veulent tous rapper vite. Avant tout ils veulent se faire du blé Jdois avouer, jveux vivre à Chantilly ou dans le Lys de Lamorlaye Rembourser les dettes de la Mama pour ne plus la voir pleurer Acheter des jambes pour mon Papa pour quil puisse à nouveau marcher Moi aussi jai des rêves, vrais négros en Picardie Rien à foutre de Kamini, jveux faire des tubes comme 'Beat It' Faudrait que les gens comprennent pourquoi Wilow a trop gimmick ! Ridin Round Gettin It ! Ridin Round Gettin It ! Ball so hard mothafuckas wanna fine me Hahan, des gars comme moi yen a un sur 100 000 Hey Yo, jsuis sans deal Negro, jsuis pourri à vie, 95 Guiliani. Paris cest Gare du NordPlace dItalie Amber et Beyonce Coulibali Paris, jarrive, oh no ! Jsors mon calibre NoHomo Tu fais dla monnaie en Slow Mo. Jte rase au poteau Château dEau Ça sent lplastique brulé, tu sais on fait chauffer la carte bancaire Capote acidulée, jai du goût et ta meuf écarte sans faire Dchichi Un mouvement, on te plombe et je parle pas de ta plaque dentaire Mon équipe sort les billets, tu crois quon a repeint la salle en vert Si tu parles, je te le jure sur ma vie, sur ma vie J'saute tout, j'ai pas d'Go-Navi Negro, j'ai la dalle comme en Somalie. Negro, j'ai la dalle comme en Somalie Negro, j'ai la dalle comme en Somalie J'vais pisser sur cette tasse, fraiche genre Haagen Daz J'vais pisser sur cette Soraya Bonaly Yen a qui voudrait que Joke, Yo que Joke staise, ils le voudrait mais non Vont finir avec des prothèses, des roulantes chaises pour avoir dit mon prénom Jvais la ramener au motel, à lhotel, elle va dire mon prénom On tattend MTP dans une ptite rue pour te schlasser dans la pénombre J'rappe mieux que toi mais y a qu'à toi qu'on l'a pas dit J'ai des punchlines remplis ton caddie Vas y je survole le game et leur chie dessus comme un pigeon de Paris Je rappe mieux que toi ton niveau est faible Peu importe l'effet Si elle me regarde de haut c'est qu'elle est perchée sur ma tour Eiffel ! Je rappe mieux que toi, mec c'est obligé Ton son est négligé Mon flow est débridé comme les touristes des Champs Élysées Il parait que tu rappe bien Que des groupies, tu en as pleins Mais moi, je suis parisiens je n'aime rien Je gêne le game comme un gars qui ronfle Je kick ça avec mon gars de la Fronce Je suis comme Cupidon Sauf que moi j'ai un arc de Triomphe</t>
         </is>
       </c>
     </row>
@@ -4092,12 +4092,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>​niggas in Paris (freestyle)</t>
+          <t>No Lov3</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Ball so hard mothafuckas wanna fine me Hahan, des gars comme moi yen a un sur 100 000 Hey Yo, jsuis sans deal Negro, jsuis pourri à vie, 95 Guiliani. Paris cest Gare du NordPlace dItalie Amber et Beyonce Coulibali Paris, jarrive, oh no ! Jsors mon calibre NoHomo Tu fais dla monnaie en Slow Mo. Jte rase au poteau Château dEau Ça sent lplastique brulé, tu sais on fait chauffer la carte bancaire Capote acidulée, jai du goût et ta meuf écarte sans faire Dchichi Un mouvement, on te plombe et je parle pas de ta plaque dentaire Mon équipe sort les billets, tu crois quon a repeint la salle en vert Si tu parles, je te le jure sur ma vie, sur ma vie J'saute tout, j'ai pas d'Go-Navi Negro, j'ai la dalle comme en Somalie. Negro, j'ai la dalle comme en Somalie Negro, j'ai la dalle comme en Somalie J'vais pisser sur cette tasse, fraiche genre Haagen Daz J'vais pisser sur cette Soraya Bonaly Yen a qui voudrait que Joke, Yo que Joke staise, ils le voudrait mais non Vont finir avec des prothèses, des roulantes chaises pour avoir dit mon prénom Jvais la ramener au motel, à lhotel, elle va dire mon prénom On tattend MTP dans une ptite rue pour te schlasser dans la pénombre</t>
+          <t>Jnai pas damour pour ces bitches Jremplis mon compte de royalties Jdois foutre le seum à mon ex Rester à vie dans sa shneck Jme vide les glandes puis jte next Si je taime cest pour de faux Jte détaille devant un porno Jfais du sale comme Eddy Gordo No love, j'n'ai plus d'larmes Jdéverse toute ma haine sur ton derch Jmen bats les couilles que tu sois fraiche Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, ain't got no love for these bitches Jnai pas damour pour ces bitches, tout cquelles demandent cest qujles finisse Change de track, change de pose Dans le noir jfais le beau Quune seule place sur le trône Ces putains mont volé mon flow, jai toujours une garce sur la gauche Jsuis dans sa ge-gor pour la cause, jambes ouvertes comme Murcielago Oh, oh Jambes ouvertes comme Murceliago Elle aime me per-pom dans la gov, pendant que je consomme ma dose Elle aime quand je déverse ma sauce No love Pour du falsch tu pourrais me planter ldos No love Je suis cash jpréfèrerais te voir de dos No love Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, ain't got no love for these bitches Diamants sur le poignet, deux doigts dans sa shneck Elle préfère encaisser lnégro quencaisser un chèque Nigga jsuis ultra fucked up, je roule sur ses fesses Écris comme moi , parce qula dick les baise Mappelle pas quand je charbonne, pute même si tes grave bonne Elle veut pas que jlui parle love, elle veut juste que jla cartonne Fuck un Ritz, un Carlton, jfais vibrer tous ses atomes Elle che-cra j'mets le latex, jai ché-cra et jmets la gomme, vroum vroum Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches Ouais allô ? Cest ça ton problème, taimes trop mappeler quand jsuis en train dcharbonner Arrêtes ça, arrêtes ça, arrêtes ça Ouais ? Jai pas ltemps là, jai pas ltemps jdois Toi cest ça ton problème, tappelles toujours quand jsuis en train dfaire des bails Arrêtes ça Sérieux, sérieux, jte parle sérieux là Tas pas une copine à appeler là? Tu tsens seule ou quoi? Eh vas-y, plus tard, plus tard Ouais désolé gros, tu connais, tu connais Bah ouais mon gars, toujours toujours toujours Ca appelle en mode Ouais gnagnagna gnagnagna Quest-ce qui y a ? Quest-ce qui y a ? Ca va aller, ouais ouais ouais Vas-y remets lson, jvais poser là</t>
         </is>
       </c>
     </row>
@@ -4109,12 +4109,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Niggas in Paris (Remix)</t>
+          <t>Nostalgique</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>J'ai tellement pris de sales coups que j'aurai pu faire le casting de 'True Blood' Je crois qu'j'ai changé d'avis j'préfère mater le boule d'Alexis sur Youporn J'me demande qu'est-ce qu'il m'arrive ?! Je vois qules Mc's m'copient comme des métamorphes Et en plus ça s'croit technique depuis qu'ils ont appris à faire des métaphores C'est la savane dans ma vie. J'ai une gazelle au lit, des gazelles aux pieds Quasi opé, j'suis prêt pour la guerre. Flow 4 étoiles Cassiopée T'écris tes textes sur Blackberry, je savais qu'tu n'étais qu'un sans papiers Ecrire sur Mac ne porte pas ses fruits. Depuis qu'j'ai ma gold, je fini premier Ils veulent du fond, ils veulent tous rapper vite. Avant tout ils veulent se faire du blé Jdois avouer, jveux vivre à Chantilly ou dans le Lys de Lamorlaye Rembourser les dettes de la Mama pour ne plus la voir pleurer Acheter des jambes pour mon Papa pour quil puisse à nouveau marcher Moi aussi jai des rêves, vrais négros en Picardie Rien à foutre de Kamini, jveux faire des tubes comme 'Beat It' Faudrait que les gens comprennent pourquoi Wilow a trop gimmick ! Ridin Round Gettin It ! Ridin Round Gettin It ! Ball so hard mothafuckas wanna fine me Hahan, des gars comme moi yen a un sur 100 000 Hey Yo, jsuis sans deal Negro, jsuis pourri à vie, 95 Guiliani. Paris cest Gare du NordPlace dItalie Amber et Beyonce Coulibali Paris, jarrive, oh no ! Jsors mon calibre NoHomo Tu fais dla monnaie en Slow Mo. Jte rase au poteau Château dEau Ça sent lplastique brulé, tu sais on fait chauffer la carte bancaire Capote acidulée, jai du goût et ta meuf écarte sans faire Dchichi Un mouvement, on te plombe et je parle pas de ta plaque dentaire Mon équipe sort les billets, tu crois quon a repeint la salle en vert Si tu parles, je te le jure sur ma vie, sur ma vie J'saute tout, j'ai pas d'Go-Navi Negro, j'ai la dalle comme en Somalie. Negro, j'ai la dalle comme en Somalie Negro, j'ai la dalle comme en Somalie J'vais pisser sur cette tasse, fraiche genre Haagen Daz J'vais pisser sur cette Soraya Bonaly Yen a qui voudrait que Joke, Yo que Joke staise, ils le voudrait mais non Vont finir avec des prothèses, des roulantes chaises pour avoir dit mon prénom Jvais la ramener au motel, à lhotel, elle va dire mon prénom On tattend MTP dans une ptite rue pour te schlasser dans la pénombre J'rappe mieux que toi mais y a qu'à toi qu'on l'a pas dit J'ai des punchlines remplis ton caddie Vas y je survole le game et leur chie dessus comme un pigeon de Paris Je rappe mieux que toi ton niveau est faible Peu importe l'effet Si elle me regarde de haut c'est qu'elle est perchée sur ma tour Eiffel ! Je rappe mieux que toi, mec c'est obligé Ton son est négligé Mon flow est débridé comme les touristes des Champs Élysées Il parait que tu rappe bien Que des groupies, tu en as pleins Mais moi, je suis parisiens je n'aime rien Je gêne le game comme un gars qui ronfle Je kick ça avec mon gars de la Fronce Je suis comme Cupidon Sauf que moi j'ai un arc de Triomphe</t>
+          <t>Hey yo je sais qu'en 16 mesures j'peux pas te raconter ma vie Mais j'vais un peu me faire plaisir car c'est le nom de ma ville J'ai échappé au fléau de la tise et d'l 'amphétamine Mon père avait les arguments pour m'faire changer d'avis On voulait kicker la rime, vite fait l'ami, pas d'intérims, vivre de la zique, virer ta team, guider la street, plier Paris vite fait, agir Beaucoup d'idées naives mais l'espoir c'est le nerf de la vie One Love à tous les frères qui ont quitté le navire Systématique comme les kahbas et les gardav' Le bruit des matraques et des patates j'ai des flashbacks Emblématique XXXXXXX L'époque du Eastpak, dernier cartable pas de bas d'gammes C'était l'époque de l'insouciance on ignorait tout l'sens Et tout ces Khey tu pouvais les mettre où j'pense J'suis pas tombé dans l'argent facile, t'entends ?! En marge mais jamais dans la tendance, t'entends ? Nostalgique ! Prends nos affaires d'école, on embêtait les profs, on écoutait des classiques Nostalgique On était loin des codes, sur les bancs de l'école, j'en garde des moments magiques Mais j'ai aucun regret je n'ai aucun regret A l'époque, j'trainais en jogging, j'avais des TN Je jouais au Pogs et aux billes je dégommais des BN Mon entourage était composé d'amis partis trop tôt J'les oublie pas comme le sourire de Molami Bokoto J'connaissais pas A.P.C, j'avais mon premier PC J'me contentais d'apprécier les choses simples que t'offrent la vie Mon quartier c'était ma ville si bien qu'au fil des saisons Je m'y aventurais même au delà de mon pâté de maison J'suis passé par le kung-fu, le football puis par le basket C'était en 5ème genre un an avant ma première casquette Bon y'a eu le béret Reebok, et la 5 panel Fila Mais là j'te parle de New Era et de Thérèse d'Avila Ma mère me répètait qu'le Bac est un passage obligé Pourtant la BAC me contrôle malgré mon passage au lycée Qu'à cela n'tienne, j'veux juste toucher le salaire de treize toubibs Du coup j'déverse des bêtes de 16 sur des prods d'S2Keyz Hey, l'eau a couléhuh, les larmes ont coulés huh Laisse tout s'estomper ou traine ça comme un boulet J'me revois dans tous les plans en pleine journée Sans aucun problème, vent sur les paupières L'eau a coulé, changer c'est peine perdue 10 de retrouvées donc fuck la peine perdure Tout ça était facile, foots en pleine verdure Le soleil sur les épaules, l'époque des potes et des Pogs J'connaissais pas les putes, j'connaissais que les p'tites Ca grandit, fait des trucs pas nets pour des thunes Ca zone sans études, ca jette son avenir par les fenêtres Trop dur à admettre, mais t'attrappe pas l'passé, dépasse le futur J'aurai ma paire de Weston même au pied du mur Huh J'marque des points comme une suture J'parlerai de tendresse quand j'aurai fait l'plus dur 1</t>
         </is>
       </c>
     </row>
@@ -4126,12 +4126,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>No Lov3</t>
+          <t>No Time</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Jnai pas damour pour ces bitches Jremplis mon compte de royalties Jdois foutre le seum à mon ex Rester à vie dans sa shneck Jme vide les glandes puis jte next Si je taime cest pour de faux Jte détaille devant un porno Jfais du sale comme Eddy Gordo No love, j'n'ai plus d'larmes Jdéverse toute ma haine sur ton derch Jmen bats les couilles que tu sois fraiche Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, ain't got no love for these bitches Jnai pas damour pour ces bitches, tout cquelles demandent cest qujles finisse Change de track, change de pose Dans le noir jfais le beau Quune seule place sur le trône Ces putains mont volé mon flow, jai toujours une garce sur la gauche Jsuis dans sa ge-gor pour la cause, jambes ouvertes comme Murcielago Oh, oh Jambes ouvertes comme Murceliago Elle aime me per-pom dans la gov, pendant que je consomme ma dose Elle aime quand je déverse ma sauce No love Pour du falsch tu pourrais me planter ldos No love Je suis cash jpréfèrerais te voir de dos No love Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, ain't got no love for these bitches Diamants sur le poignet, deux doigts dans sa shneck Elle préfère encaisser lnégro quencaisser un chèque Nigga jsuis ultra fucked up, je roule sur ses fesses Écris comme moi , parce qula dick les baise Mappelle pas quand je charbonne, pute même si tes grave bonne Elle veut pas que jlui parle love, elle veut juste que jla cartonne Fuck un Ritz, un Carlton, jfais vibrer tous ses atomes Elle che-cra j'mets le latex, jai ché-cra et jmets la gomme, vroum vroum Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches Jnai pas damour pour ces bitches, jnai pas damour pour ces bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches I got no love for my bitches, I got no love for these bitches Ouais allô ? Cest ça ton problème, taimes trop mappeler quand jsuis en train dcharbonner Arrêtes ça, arrêtes ça, arrêtes ça Ouais ? Jai pas ltemps là, jai pas ltemps jdois Toi cest ça ton problème, tappelles toujours quand jsuis en train dfaire des bails Arrêtes ça Sérieux, sérieux, jte parle sérieux là Tas pas une copine à appeler là? Tu tsens seule ou quoi? Eh vas-y, plus tard, plus tard Ouais désolé gros, tu connais, tu connais Bah ouais mon gars, toujours toujours toujours Ca appelle en mode Ouais gnagnagna gnagnagna Quest-ce qui y a ? Quest-ce qui y a ? Ca va aller, ouais ouais ouais Vas-y remets lson, jvais poser là</t>
+          <t>Chill Han Han Yeah Yo Yo Aïe Yo Yo Okay Aïe Aïe Chill Aïe Aïe Chill Yo Mec, t'as d'l'argent mais pas assez pour t'payer ma tête Han-han, haan En mangeant j'suis bluffant, blanche paire de baskets What Dès qu'j'débarque c'est right, left Wow, wow, wow, deux trois s'condes les bras s'lèvent J'suis confus les amis, yo, j'ai pas d'flingue J'aime pas J'ai des tas d'fringues Hey, et des phases de cinglé Des bangers à banger, si t'en tapes cinq Si ta carte bleue crache ds billets verts regard mon compte bancaire, un putain d'arc-en-ciel Woww Cherche pas trop à flotter, quand je suis à côté Écoute les ragots, mec, ils font que radoter mais Hein-hein Demande à Lise, dans la rue je scandalise C'est trop pour tes yeux, c'est pour la valise Pch, pch J'ai la li- j'ai la liste de mes amis Alchemist quand je rappe, c'est l'paradis des amygdales Pch, pch, pch Marty McFly, les couilles de l'an trois-mille An trois-mille Ramène ta femme qu'on fasse ça en famille En famille J'ai plus l'temps, yeah Yeah, yeah, yeah Bip's c'est un no time Yeah, yeah, yeah Joke c'est un no time Yeah, yeah, yeah À M.T.P. c'est no time Yeah, yeah, yeah Avec mike c'est no time Yeah, yeah, yeah Ici c'est no time Yeah, yeah, yeah Joke c'est un no time, oh, oh Yeah, yeah, yeah Bip's c'est un no time, chill Yeah, yeah, yeah À M.T.P. c'est no time, ola Yeah, yeah, yeah Avec mike c'est no time, jan Yeah, yeah, yeah Ici c'est no time Chill, han C'est du rap Tatin qui date d'entend Ho-ho Bip's, ton flow est comme des chip's, il est à l'ancienne Ho-ho-ho S.S, j'vois la vie en trois deux s max Chill Trop de bulles d'air sous mes pieds, j'marche sans Air Max Bounce M.T.P. a fait de nous des mecs de build cash Cash Tic-tac, money time, grosse 'tasses, grosses liasses de 'illets-bi' Liasses, Les Monsieur sur ton Teddy Shit, flash spécial sur nos vraies vies, real shit Boom Merde, c'est comme ça qu'on kick un banger Right Bienvenue dans nos putains d'vies, push le enter Okay Six-cents euros de l'heure le showcase, baby Real time J'rentre pas dans ton créneau Time, j'suis trop obèse pour ton crédit Han C'est comme ça qu'on fait les choses Han, han, ici Chill Les gars les plus sérieux de France, M.T.P. Bleh Big hess, faut deux gros S.S Bip's c'est plus, bip-moi si t'en ceux plus Alright Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah-yeah-yeah Yeah-yeah-yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah-yeah-yeah Yeah-yeah-yeah</t>
         </is>
       </c>
     </row>
@@ -4143,12 +4143,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Nostalgique</t>
+          <t>​Oh My God</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Hey yo je sais qu'en 16 mesures j'peux pas te raconter ma vie Mais j'vais un peu me faire plaisir car c'est le nom de ma ville J'ai échappé au fléau de la tise et d'l 'amphétamine Mon père avait les arguments pour m'faire changer d'avis On voulait kicker la rime, vite fait l'ami, pas d'intérims, vivre de la zique, virer ta team, guider la street, plier Paris vite fait, agir Beaucoup d'idées naives mais l'espoir c'est le nerf de la vie One Love à tous les frères qui ont quitté le navire Systématique comme les kahbas et les gardav' Le bruit des matraques et des patates j'ai des flashbacks Emblématique XXXXXXX L'époque du Eastpak, dernier cartable pas de bas d'gammes C'était l'époque de l'insouciance on ignorait tout l'sens Et tout ces Khey tu pouvais les mettre où j'pense J'suis pas tombé dans l'argent facile, t'entends ?! En marge mais jamais dans la tendance, t'entends ? Nostalgique ! Prends nos affaires d'école, on embêtait les profs, on écoutait des classiques Nostalgique On était loin des codes, sur les bancs de l'école, j'en garde des moments magiques Mais j'ai aucun regret je n'ai aucun regret A l'époque, j'trainais en jogging, j'avais des TN Je jouais au Pogs et aux billes je dégommais des BN Mon entourage était composé d'amis partis trop tôt J'les oublie pas comme le sourire de Molami Bokoto J'connaissais pas A.P.C, j'avais mon premier PC J'me contentais d'apprécier les choses simples que t'offrent la vie Mon quartier c'était ma ville si bien qu'au fil des saisons Je m'y aventurais même au delà de mon pâté de maison J'suis passé par le kung-fu, le football puis par le basket C'était en 5ème genre un an avant ma première casquette Bon y'a eu le béret Reebok, et la 5 panel Fila Mais là j'te parle de New Era et de Thérèse d'Avila Ma mère me répètait qu'le Bac est un passage obligé Pourtant la BAC me contrôle malgré mon passage au lycée Qu'à cela n'tienne, j'veux juste toucher le salaire de treize toubibs Du coup j'déverse des bêtes de 16 sur des prods d'S2Keyz Hey, l'eau a couléhuh, les larmes ont coulés huh Laisse tout s'estomper ou traine ça comme un boulet J'me revois dans tous les plans en pleine journée Sans aucun problème, vent sur les paupières L'eau a coulé, changer c'est peine perdue 10 de retrouvées donc fuck la peine perdure Tout ça était facile, foots en pleine verdure Le soleil sur les épaules, l'époque des potes et des Pogs J'connaissais pas les putes, j'connaissais que les p'tites Ca grandit, fait des trucs pas nets pour des thunes Ca zone sans études, ca jette son avenir par les fenêtres Trop dur à admettre, mais t'attrappe pas l'passé, dépasse le futur J'aurai ma paire de Weston même au pied du mur Huh J'marque des points comme une suture J'parlerai de tendresse quand j'aurai fait l'plus dur 1</t>
+          <t>Grosse liasse dans le chino, les ambitions d'François Pinault Tu ressens la force quand j'approche à des kilomètres, -kilomètres J'veux peser comme Nino, nique sa mère d'peser des kilos J'veux des Grammy's, j'veux des Oscars, j'veux des Prix Nobel, Ouais Maintenant tu sais, le p'tit poète S'il aperçoit ma silhouette Ton rappeur préféré va faire des pirouettes Le gun de Tarantino, yeux plissés comme un esquimau Obligé d'tirer sur eux, ils veulent aussi nous 'uer-t' Oh my-oh my-oh my-oh my-, oh my god Oh my-oh my-oh my-oh my-, oh my god Oh my-oh my-oh my-oh my-, oh my god, oh my god Oh my-oh my-oh my-oh my-, oh my god Dis moi c'qui s'passe ici Dis moi c'qui s'passe ici Dis moi c'qui s'passe ici, Quoi ?! Dis moi c'qui s'passe ici Hein Viens sucer mon hypothaphallus Oui, mignonette J'vais paver mon ch'min d'billets sur des kilomètres Prie pour qu'le sage Ihmotep investisse nos têtes P'tit cocktail, nuit d'hotel, toi t'es tapis moquette Dali et Picasso, mon côté latino Ma 'tasse te fait l'effet d'une 'be-bom' lacrymo Suce l'opinion publique, ouais, suce le caniveau 'Squette-cas' Valentino, p'tite veste en animaux Oui ! Voilà.. Faire lamour me canalise Elle a ouvert ses cuisses, quand j'ai fermé les yeux, j'ai eu une vision du Paradis</t>
         </is>
       </c>
     </row>
@@ -4160,12 +4160,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>No Time</t>
+          <t>On débarque</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Chill Han Han Yeah Yo Yo Aïe Yo Yo Okay Aïe Aïe Chill Aïe Aïe Chill Yo Mec, t'as d'l'argent mais pas assez pour t'payer ma tête Han-han, haan En mangeant j'suis bluffant, blanche paire de baskets What Dès qu'j'débarque c'est right, left Wow, wow, wow, deux trois s'condes les bras s'lèvent J'suis confus les amis, yo, j'ai pas d'flingue J'aime pas J'ai des tas d'fringues Hey, et des phases de cinglé Des bangers à banger, si t'en tapes cinq Si ta carte bleue crache ds billets verts regard mon compte bancaire, un putain d'arc-en-ciel Woww Cherche pas trop à flotter, quand je suis à côté Écoute les ragots, mec, ils font que radoter mais Hein-hein Demande à Lise, dans la rue je scandalise C'est trop pour tes yeux, c'est pour la valise Pch, pch J'ai la li- j'ai la liste de mes amis Alchemist quand je rappe, c'est l'paradis des amygdales Pch, pch, pch Marty McFly, les couilles de l'an trois-mille An trois-mille Ramène ta femme qu'on fasse ça en famille En famille J'ai plus l'temps, yeah Yeah, yeah, yeah Bip's c'est un no time Yeah, yeah, yeah Joke c'est un no time Yeah, yeah, yeah À M.T.P. c'est no time Yeah, yeah, yeah Avec mike c'est no time Yeah, yeah, yeah Ici c'est no time Yeah, yeah, yeah Joke c'est un no time, oh, oh Yeah, yeah, yeah Bip's c'est un no time, chill Yeah, yeah, yeah À M.T.P. c'est no time, ola Yeah, yeah, yeah Avec mike c'est no time, jan Yeah, yeah, yeah Ici c'est no time Chill, han C'est du rap Tatin qui date d'entend Ho-ho Bip's, ton flow est comme des chip's, il est à l'ancienne Ho-ho-ho S.S, j'vois la vie en trois deux s max Chill Trop de bulles d'air sous mes pieds, j'marche sans Air Max Bounce M.T.P. a fait de nous des mecs de build cash Cash Tic-tac, money time, grosse 'tasses, grosses liasses de 'illets-bi' Liasses, Les Monsieur sur ton Teddy Shit, flash spécial sur nos vraies vies, real shit Boom Merde, c'est comme ça qu'on kick un banger Right Bienvenue dans nos putains d'vies, push le enter Okay Six-cents euros de l'heure le showcase, baby Real time J'rentre pas dans ton créneau Time, j'suis trop obèse pour ton crédit Han C'est comme ça qu'on fait les choses Han, han, ici Chill Les gars les plus sérieux de France, M.T.P. Bleh Big hess, faut deux gros S.S Bip's c'est plus, bip-moi si t'en ceux plus Alright Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah-yeah-yeah Yeah-yeah-yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah, yeah Yeah-yeah-yeah, yeah Yeah-yeah-yeah Yeah-yeah-yeah</t>
+          <t>je suis le colosse fort, euphémisme Si je te traite de bolosse, porc de ta défaite C'est le prémice Quand je débarque en POLO Sport, follow me Je fais des tubes avec le flow d'Hossegor, go money Je fais des thunes avec des propos gores T'es du fil à coudre, je suis du fil à retordre Je défie la foudre de sa vie à mort Je te file la frousse et te cause du tort, tor- -du Je me suis mi-lièvre mi-tortue, mais pas Willem T'as mauvaise mine, t'es comme une chilienne I'm just killing men when I say I'm just killing, man Je rigole pas, gigote pas, quand je te chicotes, chipote pas 'Tite pote-ca dans la poche, salope tripote, tripote-toi Je suis comme la Libye, j'suis plein de libido Genre j'ai plein de trips au lit, j'ai dit, plein de libido On fait de la crack music pendant que les petits comprennent des tas Tellement d'images dans mes sons que même les sourds comprennent mes phases Fuck you On débarque uhuh, on dé-on débarque uhuh Où sont les, où sont les, où sont les chattes ? uhuh Où sont les billets ? Où sont les putes ? Où sont les billets ? Où sont les putes ? On t'écrase uhuh, on est, on est barge uhuh Poussons les, poussons les, poussons les charts Où sont les rappeurs ? Où sont les thunes ? Où sont les rappeurs ? Où sont les thunes ? Nous on veut des putes qui savent avaler Deux sons dans la poche, deux dans vallée Les Monsieur dans la place, Les Monsieur dans l'chalet Tu veux tester ? Mh allez, tu prends une ballée Quand j'vais en soirée, c'est pour faire du biff nique les before, money J'apporterais rien si j'paye le prix fort, dans ma tête j'ai d'l'or, hors de prix zinc' J'ai la dalle d'un violeur boulimique qui sort de prison, zinc' Fuck that, Les Monsieur lay back lay Force pas, même ton meilleur 16 a lair bâclé J'taffe comme un chinois, j'exporte comme un chinois Blanchis ça comme un chinois, j'mange des chattes comme un chinois Yo yo j'suis dessuis toute la nuit mon négro J'vais faire un tour sur Twitter, quand jveux branler mon égo Jpasse du coq à lâne comme un zoophile J'veux juste du papier, papier d'couleur chlorophylle On débarque uhuh, on dé-on débarque uhuh Où sont les, où sont les, où sont les chattes ? uhuh Où sont les billets ? Où sont les putes ? Où sont les billets ? Où sont les putes ? On t'écrase uhuh, on est, on est barge uhuh Poussons les, poussons les, poussons les charts Où sont les rappeurs ? Où sont les thunes ? Où sont les rappeurs ? Où sont les thunes ?</t>
         </is>
       </c>
     </row>
@@ -4177,12 +4177,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>​Oh My God</t>
+          <t>On my Mind (Remix)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Grosse liasse dans le chino, les ambitions d'François Pinault Tu ressens la force quand j'approche à des kilomètres, -kilomètres J'veux peser comme Nino, nique sa mère d'peser des kilos J'veux des Grammy's, j'veux des Oscars, j'veux des Prix Nobel, Ouais Maintenant tu sais, le p'tit poète S'il aperçoit ma silhouette Ton rappeur préféré va faire des pirouettes Le gun de Tarantino, yeux plissés comme un esquimau Obligé d'tirer sur eux, ils veulent aussi nous 'uer-t' Oh my-oh my-oh my-oh my-, oh my god Oh my-oh my-oh my-oh my-, oh my god Oh my-oh my-oh my-oh my-, oh my god, oh my god Oh my-oh my-oh my-oh my-, oh my god Dis moi c'qui s'passe ici Dis moi c'qui s'passe ici Dis moi c'qui s'passe ici, Quoi ?! Dis moi c'qui s'passe ici Hein Viens sucer mon hypothaphallus Oui, mignonette J'vais paver mon ch'min d'billets sur des kilomètres Prie pour qu'le sage Ihmotep investisse nos têtes P'tit cocktail, nuit d'hotel, toi t'es tapis moquette Dali et Picasso, mon côté latino Ma 'tasse te fait l'effet d'une 'be-bom' lacrymo Suce l'opinion publique, ouais, suce le caniveau 'Squette-cas' Valentino, p'tite veste en animaux Oui ! Voilà.. Faire lamour me canalise Elle a ouvert ses cuisses, quand j'ai fermé les yeux, j'ai eu une vision du Paradis</t>
+          <t>On my mind, on my mind J'suis dans ma vibe, dans ma vibe APHER, gang On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time Quand on sort, on fait des conneries Rentre dans l'appart et on tise Rentre dans l'appart, elle compte le biff Rentre dans la trap, c'est pas joli Elle me dit que j'suis un vrai O.G , tu inspires J'pose le joint et j'expire Quand j'suis fume trop, j'pars dans un trip Dans le club, dans le club Et je bois mon cup, elle me taxe une clope Dans le club, dans le club Et je bois mon cup, et je brise le cur Irréprochable, je parle pas, on est pas pareils nan nan je parle pas on est pas partenaire, je parle pas, on est pas partenaire Soirée dynamique, elle m'voit tous les week Y'a pas d'amis-amis, si j'vais à Miami On my mind, on my mind J'suis dans ma vibe, et j'suis dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time Bitch démarre le jet-ski, faut qu'j'achète une presqu'île Bitch démarre le jet-ski, faut qu'j'achète une presqu'île Bitch démarre le jet-ski, faut qu'j'achète une presqu'île Je vais prendre ta nouvelle 'tasse, tu reprends mes anciennes gimmicks Bitch démarre le jet-ski, faut qu'j'achète une presqu'île J'vais prendre ta nouvelle 'tasse, tu prends mes anciennes gimmicks Négro vient de l'espace, étoile sur la scène, oui bitch Elle veut que j'la ken, oui bitch, j'cours avec ta chienne, oui bitch Problème y'a le semi', 'tasse lui donne la demi J'débarque en K 2000, vas rouler ma heub vite Vas rouler ma heub vite, je démarre le jet-ski Sa pussy est exquise, j'vais la fly au Mexique Solo d'jet, solo d'jet-ski Solo d'jet, solo d'jet-ski On vise le jet, on prends pas les chèques Et ces bitches twerkent, maintenant c'est la guerre On part en after, on regarde plus l'heure On regarde plus l'heure ouais, tout paie dans les verres Tout paie dans les verres, la dope qui passe dans les veines Pas d'Despe' dans mon verre, Jack Daniel's celui au miel, yeah Elle passe, elle s'déshabille, elle a des seins mais c'est du plastique On my mind, on my mind J'suis dans ma vibe, et j'suis dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time1</t>
         </is>
       </c>
     </row>
@@ -4194,12 +4194,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>On débarque</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>je suis le colosse fort, euphémisme Si je te traite de bolosse, porc de ta défaite C'est le prémice Quand je débarque en POLO Sport, follow me Je fais des tubes avec le flow d'Hossegor, go money Je fais des thunes avec des propos gores T'es du fil à coudre, je suis du fil à retordre Je défie la foudre de sa vie à mort Je te file la frousse et te cause du tort, tor- -du Je me suis mi-lièvre mi-tortue, mais pas Willem T'as mauvaise mine, t'es comme une chilienne I'm just killing men when I say I'm just killing, man Je rigole pas, gigote pas, quand je te chicotes, chipote pas 'Tite pote-ca dans la poche, salope tripote, tripote-toi Je suis comme la Libye, j'suis plein de libido Genre j'ai plein de trips au lit, j'ai dit, plein de libido On fait de la crack music pendant que les petits comprennent des tas Tellement d'images dans mes sons que même les sourds comprennent mes phases Fuck you On débarque uhuh, on dé-on débarque uhuh Où sont les, où sont les, où sont les chattes ? uhuh Où sont les billets ? Où sont les putes ? Où sont les billets ? Où sont les putes ? On t'écrase uhuh, on est, on est barge uhuh Poussons les, poussons les, poussons les charts Où sont les rappeurs ? Où sont les thunes ? Où sont les rappeurs ? Où sont les thunes ? Nous on veut des putes qui savent avaler Deux sons dans la poche, deux dans vallée Les Monsieur dans la place, Les Monsieur dans l'chalet Tu veux tester ? Mh allez, tu prends une ballée Quand j'vais en soirée, c'est pour faire du biff nique les before, money J'apporterais rien si j'paye le prix fort, dans ma tête j'ai d'l'or, hors de prix zinc' J'ai la dalle d'un violeur boulimique qui sort de prison, zinc' Fuck that, Les Monsieur lay back lay Force pas, même ton meilleur 16 a lair bâclé J'taffe comme un chinois, j'exporte comme un chinois Blanchis ça comme un chinois, j'mange des chattes comme un chinois Yo yo j'suis dessuis toute la nuit mon négro J'vais faire un tour sur Twitter, quand jveux branler mon égo Jpasse du coq à lâne comme un zoophile J'veux juste du papier, papier d'couleur chlorophylle On débarque uhuh, on dé-on débarque uhuh Où sont les, où sont les, où sont les chattes ? uhuh Où sont les billets ? Où sont les putes ? Où sont les billets ? Où sont les putes ? On t'écrase uhuh, on est, on est barge uhuh Poussons les, poussons les, poussons les charts Où sont les rappeurs ? Où sont les thunes ? Où sont les rappeurs ? Où sont les thunes ?</t>
+          <t>- J'vais louper mon train, putain d'merde. Et j'aime encore moins les outros, donc ça va être l'outro ça. Putain d'merde</t>
         </is>
       </c>
     </row>
@@ -4211,12 +4211,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>On my Mind (Remix)</t>
+          <t>Outro (Prêt pour l’argent 1.5)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>On my mind, on my mind J'suis dans ma vibe, dans ma vibe APHER, gang On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time Quand on sort, on fait des conneries Rentre dans l'appart et on tise Rentre dans l'appart, elle compte le biff Rentre dans la trap, c'est pas joli Elle me dit que j'suis un vrai O.G , tu inspires J'pose le joint et j'expire Quand j'suis fume trop, j'pars dans un trip Dans le club, dans le club Et je bois mon cup, elle me taxe une clope Dans le club, dans le club Et je bois mon cup, et je brise le cur Irréprochable, je parle pas, on est pas pareils nan nan je parle pas on est pas partenaire, je parle pas, on est pas partenaire Soirée dynamique, elle m'voit tous les week Y'a pas d'amis-amis, si j'vais à Miami On my mind, on my mind J'suis dans ma vibe, et j'suis dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time Bitch démarre le jet-ski, faut qu'j'achète une presqu'île Bitch démarre le jet-ski, faut qu'j'achète une presqu'île Bitch démarre le jet-ski, faut qu'j'achète une presqu'île Je vais prendre ta nouvelle 'tasse, tu reprends mes anciennes gimmicks Bitch démarre le jet-ski, faut qu'j'achète une presqu'île J'vais prendre ta nouvelle 'tasse, tu prends mes anciennes gimmicks Négro vient de l'espace, étoile sur la scène, oui bitch Elle veut que j'la ken, oui bitch, j'cours avec ta chienne, oui bitch Problème y'a le semi', 'tasse lui donne la demi J'débarque en K 2000, vas rouler ma heub vite Vas rouler ma heub vite, je démarre le jet-ski Sa pussy est exquise, j'vais la fly au Mexique Solo d'jet, solo d'jet-ski Solo d'jet, solo d'jet-ski On vise le jet, on prends pas les chèques Et ces bitches twerkent, maintenant c'est la guerre On part en after, on regarde plus l'heure On regarde plus l'heure ouais, tout paie dans les verres Tout paie dans les verres, la dope qui passe dans les veines Pas d'Despe' dans mon verre, Jack Daniel's celui au miel, yeah Elle passe, elle s'déshabille, elle a des seins mais c'est du plastique On my mind, on my mind J'suis dans ma vibe, et j'suis dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time On my mind, on my mind J'suis dans ma vibe, dans ma vibe Elle a kiffé sur oi-m Mais j'ai pas le time1</t>
+          <t>Yo M.T.P, négro Hein-hein, hein-hein 3-3-4, négro Yeah Hein-hein, hein-hein Les Monsieur, négro Hein-hein, hein-hein Wassup Hein-hein, hein-hein Hey Quoi, le 24, ça ? Bouge ou j'te vois, négro Le 24, t'es sûr ? Merde Hey Yo Oh, merde, le 24, oh shit Hey, hey Yo Ayo, j'suis dans les dièses, 31 dièse, appelle J'suis dans les bzezs de ta meuf, et j'la détruis Ahh Dans le carré, calé avec Père Latex Pas trop d'cunni' mais certaines meufs me prennent la tête Ah-ah J'suis dans l'progrès, trop, trop frais Donc à prendre au premier degré, là j'te parle de degré celsius Un secret si j'tourne autour d'ta meuf, l'embrasse plus, tu risques d'avoir des regrets si elle suce Ah-ah-ah J'me balade en t-shirt Yves Saint Laurent Yves Saint Laurent Casquette sur les yeux au restaurant Heyy Mon son te transporte, comme Jason Statham Tu veux rouler avec moi, tu vas t'prendre un platane Quand tu m'portes l'oeil, j'fais du pognon Pognon, comme un putain d'ophtalmo' Heyy J'veux du biff , j'veux du cheese Eh, j'veux du bread Eh, pas bosser au McDo, négro Hein-hein, hein-hein .</t>
         </is>
       </c>
     </row>
@@ -4228,12 +4228,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Papa Noël</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>- J'vais louper mon train, putain d'merde. Et j'aime encore moins les outros, donc ça va être l'outro ça. Putain d'merde</t>
+          <t>Yeah Ok , si, si, han Yeah Yeah, yeah, yeah J'te jure j'l'attends, Han, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie, j'veux des sous pour mes rêves Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah Puisque, yo, j'suis ici pour faire mes preuves Père Noël, j'fous la pression comme un Vodka-Redbull Ouh Quand tu sors, prend Rihanna, car les versets pleuvent J'fais des rêves sales, me lève pour prendre des bains d'foule Quand tu fais ta tournée ramène une tournée, tournée J'suis resté sur les rails, me passe pas sous l'nez, sous l'nez À tous les coups, j'écourterais ta carrière, mec, j'te coulerais Amène-moi un gros cadeau, j'ai eu vingt à tous les cours Je sais que t'es tendu, mais presse-toi, j'veux mon liquide J'veux le beurre, et la crémière, les fesses pleines de lipides Oh Négro, j'les entends rapper, j'te jure, ça m'horripile J'attends la Rolex sur l'poignet, donc dites-moi quelle heure est-il ? J'te jure j'l'attends, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie Oh j'veux des sous pour mes rêves Oh Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah J'suis ici pour faire mes preuves Négro, si il fait si froid c'est un peu à cause de moi J'veux des gros souliers dans mes p'tits souliers Quoi, quoi, quoi, quoi ? T'as intérêt de marcher du pied gauche dans du ca-ca-caca Carnivore négro, on m'carotte pas, je n'poireaute pas Ah J'veux plus le temps d''mi-dor', aéroport on part autre part Pardon j'aime les verres de bourbon À long terme les meufs deviennent mielleuses C'est mon buzz de bourdon à l'antenne Je n'suis pas un des leurs, j'suis l'meilleur, mon flow fait sauter les ponts Dieu m'a fait des dons, il s'est lâché comme si c'était l'Téléthon Donc les mains dans les poches, tombent les billets Sur mes billets j'dépose deux billets, j'nique l'argent sale, boy, je l'ai niqué sur l'évier Hein J'ai distillé la pomme d'Adam pour faire parler Ève Ève La p'tite souris se casse les dents pour faire croire qu'mes rêves Putain d'merde, j'suis doué, doué, d'où les groupies Ok, j'veux qu'des dollars, mais fais tourner tous les roupies J'te jure j'l'attends, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie Oh, j'veux des sous pour mes rêves Oh Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah J'te jure j'l'attends, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie Oh, j'veux des sous pour mes rêves Oh Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -4245,12 +4245,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Outro (Prêt pour l’argent 1.5)</t>
+          <t>Paris j’arrive</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Yo M.T.P, négro Hein-hein, hein-hein 3-3-4, négro Yeah Hein-hein, hein-hein Les Monsieur, négro Hein-hein, hein-hein Wassup Hein-hein, hein-hein Hey Quoi, le 24, ça ? Bouge ou j'te vois, négro Le 24, t'es sûr ? Merde Hey Yo Oh, merde, le 24, oh shit Hey, hey Yo Ayo, j'suis dans les dièses, 31 dièse, appelle J'suis dans les bzezs de ta meuf, et j'la détruis Ahh Dans le carré, calé avec Père Latex Pas trop d'cunni' mais certaines meufs me prennent la tête Ah-ah J'suis dans l'progrès, trop, trop frais Donc à prendre au premier degré, là j'te parle de degré celsius Un secret si j'tourne autour d'ta meuf, l'embrasse plus, tu risques d'avoir des regrets si elle suce Ah-ah-ah J'me balade en t-shirt Yves Saint Laurent Yves Saint Laurent Casquette sur les yeux au restaurant Heyy Mon son te transporte, comme Jason Statham Tu veux rouler avec moi, tu vas t'prendre un platane Quand tu m'portes l'oeil, j'fais du pognon Pognon, comme un putain d'ophtalmo' Heyy J'veux du biff , j'veux du cheese Eh, j'veux du bread Eh, pas bosser au McDo, négro Hein-hein, hein-hein .</t>
+          <t>Hein-hein Avant qu'une balle vienne chatouiller mes neuronnes Hey, j'veux qu'mes négros aient tous savourés des euros Hey Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes Hey, j'veux qu'tu lèves le point pour saluer mes négros Hey Paris j'arrive J'y pense, comme un traumatisme, du biff propre, comme un sweat blanc Fait au black comme un micmac, le karma d'un ticket d'loto perdant Trempe dans cette merde, badigeonne la 'garette-ci' dedans par devant, le biff plane par le sang Abracadabra, ma rime sexy va t'casser les bras Mon public va passer deux mois dans l'platre, aux arrivants Aux arrivants Un air frais dans ta phase, comme si tu surfais Tu surfais Et pour l'amour d'une rime j'aimerais qu'on la paie Cash Les fesses des ladies font bling-bling, s'applatissent et lèvitent J'explique à Alice quel cataclysme je souhaite pour mon pénis Dans la langue du chaos, frais comme une salade de fruit J'explose, comme un enfant pieds nus sur une mine Oh J'crache ma merde en joyaux, le cul plein de foie gras De foie gras Pisse ma gnôle en fluo, la pisse plein de viagra De viagra Négro, réchauffe-toi, tords-toi, ou -nous Le ciel est dogme, c'est catastrophe dans une ville de porcinets Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savourés des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes, j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey, pour faire un million, négro J'mange mon steak saignant, en m'plaignant qu'les salopes sont des feignantes Un coureur endurant comme un , quatre-vingt-dix-neuf inconvénients Plaque mes phrases, comme des Porsches devant ton ventre ton plat ventre Ton plat ventre T'en touches plus tes frites, t'en as gros sur la patate et t'as mal au ventre Vendre son âme au diable, l'argent ne vaut pas l'aventure Crachat pour les nazes, un sourire pour le futur Mes compagnons de pourriture, des hipsters de toutes races Hipsters Triste jusqu'à l'aube parce que le juice ne les travers'ra plus Juiice J'remercie la foudre, noir comme l'espace Fais tomber la foudre J'ai les rimes en poudre, tu auras l'espace Tu auras du crack Saigne de la bouche, Tu saigneras des 'tess Tu ronfles dans la boucle Paw, tu fais un cauch'mar Réveille-oi-t' Tu fixes le sol, comme si tu cherches des billets jaunes Des billets jaunes Nous étions si jeunes et soudés, mais la faute aux billets jaunes Billets jaunes La co-co' et la zone s'aiment fort, comme John et Yoko Les sensations comme New-York, han, han, la nuit en hélico Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savouré des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey Han, han, pour faire un million Han, négro J'sors d'ma bédave, j'ai les deux pieds par terre Ouais Si j'plane, c'est comme un charter Ok Je n'vise pas les charts mais je touche quand-même quelques 're-sta' Han-han Quelque part on tourne en boucle, mais je rattrape le retard Oh Soldat toujours au garde à vous, comme un queutard Faut aider mon frère, même sans aucune parenté Hey Si t'as l'oreille comme un vulcain qui n'entend aucune vulgarité Hey, hey Han-han Hein, donc plus qu'une qualité Hey Ouais 'Ou-f' ou calife Hey, comment ne peux-tu me qualifier Comment Hey Le respect se tue, l'amitié pue la pisse après punchline, yeah Pour moi c'est juste terrible Han, han Tout pour le terrain Han, han Comme la 'tess Han, han Le juge des lignes Ouais, ouais Quand j'passe les types me guettent, même si j'ai quitté le tiekson Tiek Quesqu'il t'arrive, sont mes textes Han Hey question Vrai Hey Les 'me-ar' de Hey, à t'en faire péter le caisson Ouh Hey On dirait qu'on rappe Hey, mais t'as pas d'T.K Abricot tu kiffes Hey, comme Hey Car j'ai la rage du king Hey, han-han, comme un karateka Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savourés des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey, pour faire un million, négro Pour faire un million, négro</t>
         </is>
       </c>
     </row>
@@ -4262,12 +4262,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Papa Noël</t>
+          <t>Paris j’arrive (Paris 75021)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Yeah Ok , si, si, han Yeah Yeah, yeah, yeah J'te jure j'l'attends, Han, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie, j'veux des sous pour mes rêves Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah Puisque, yo, j'suis ici pour faire mes preuves Père Noël, j'fous la pression comme un Vodka-Redbull Ouh Quand tu sors, prend Rihanna, car les versets pleuvent J'fais des rêves sales, me lève pour prendre des bains d'foule Quand tu fais ta tournée ramène une tournée, tournée J'suis resté sur les rails, me passe pas sous l'nez, sous l'nez À tous les coups, j'écourterais ta carrière, mec, j'te coulerais Amène-moi un gros cadeau, j'ai eu vingt à tous les cours Je sais que t'es tendu, mais presse-toi, j'veux mon liquide J'veux le beurre, et la crémière, les fesses pleines de lipides Oh Négro, j'les entends rapper, j'te jure, ça m'horripile J'attends la Rolex sur l'poignet, donc dites-moi quelle heure est-il ? J'te jure j'l'attends, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie Oh j'veux des sous pour mes rêves Oh Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah J'suis ici pour faire mes preuves Négro, si il fait si froid c'est un peu à cause de moi J'veux des gros souliers dans mes p'tits souliers Quoi, quoi, quoi, quoi ? T'as intérêt de marcher du pied gauche dans du ca-ca-caca Carnivore négro, on m'carotte pas, je n'poireaute pas Ah J'veux plus le temps d''mi-dor', aéroport on part autre part Pardon j'aime les verres de bourbon À long terme les meufs deviennent mielleuses C'est mon buzz de bourdon à l'antenne Je n'suis pas un des leurs, j'suis l'meilleur, mon flow fait sauter les ponts Dieu m'a fait des dons, il s'est lâché comme si c'était l'Téléthon Donc les mains dans les poches, tombent les billets Sur mes billets j'dépose deux billets, j'nique l'argent sale, boy, je l'ai niqué sur l'évier Hein J'ai distillé la pomme d'Adam pour faire parler Ève Ève La p'tite souris se casse les dents pour faire croire qu'mes rêves Putain d'merde, j'suis doué, doué, d'où les groupies Ok, j'veux qu'des dollars, mais fais tourner tous les roupies J'te jure j'l'attends, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie Oh, j'veux des sous pour mes rêves Oh Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah J'te jure j'l'attends, d'puis un moment J'ai plus d'patience, j'me tire les 'veux-ch', pour qu'on commence Des sous pour la vraie vie Oh, j'veux des sous pour mes rêves Oh Et, pèse sur ma tête des obésités sur c'que j'ferais au RMI Yeah, yeah, yeah, yeah</t>
+          <t>Ba-Ba-Ba-Back Je n'ai plus peur de toi, j'ai retrouvé cette confiance qui fais ma forme Qui fais ma forme, qui fais ma forme Hein-hein Avant qu'une balle vienne chatouiller mes neuronnes Hey, j'veux qu'mes négros aient tous savourés des euros Hey Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes Hey, j'veux qu'tu lèves le point pour saluer mes négros Hey Paris j'arrive J'y pense, comme un traumatisme, du biff propre, comme un sweat blanc Fait au black comme un micmac, le karma d'un ticket d'loto perdant Trempe dans cette merde, badigeonne la 'garette-ci' dedans par devant, le biff plane par le sang Abracadabra, ma rime sexy va t'casser les bras Mon public va passer deux mois dans l'platre, aux arrivants Aux arrivants Un air frais dans ta phase, comme si tu surfais Tu surfais Et pour l'amour d'une rime j'aimerais qu'on la paie Cash Les fesses des ladies font bling-bling, s'applatissent et lèvitent J'explique à Alice quel cataclysme je souhaite pour mon pénis Dans la langue du chaos, frais comme une salade de fruit J'explose, comme un enfant pieds nus sur une mine Oh J'crache ma merde en joyaux, le cul plein de foie gras De foie gras Pisse ma gnôle en fluo, la pisse plein de viagra De viagra Négro, réchauffe-toi, tords-toi, ou -nous Le ciel est dogme, c'est catastrophe dans une ville de porcinets Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savourés des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes, j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey, pour faire un million, négro</t>
         </is>
       </c>
     </row>
@@ -4279,12 +4279,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Paris j’arrive</t>
+          <t>Playa Part. II (Infinigga Version)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Hein-hein Avant qu'une balle vienne chatouiller mes neuronnes Hey, j'veux qu'mes négros aient tous savourés des euros Hey Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes Hey, j'veux qu'tu lèves le point pour saluer mes négros Hey Paris j'arrive J'y pense, comme un traumatisme, du biff propre, comme un sweat blanc Fait au black comme un micmac, le karma d'un ticket d'loto perdant Trempe dans cette merde, badigeonne la 'garette-ci' dedans par devant, le biff plane par le sang Abracadabra, ma rime sexy va t'casser les bras Mon public va passer deux mois dans l'platre, aux arrivants Aux arrivants Un air frais dans ta phase, comme si tu surfais Tu surfais Et pour l'amour d'une rime j'aimerais qu'on la paie Cash Les fesses des ladies font bling-bling, s'applatissent et lèvitent J'explique à Alice quel cataclysme je souhaite pour mon pénis Dans la langue du chaos, frais comme une salade de fruit J'explose, comme un enfant pieds nus sur une mine Oh J'crache ma merde en joyaux, le cul plein de foie gras De foie gras Pisse ma gnôle en fluo, la pisse plein de viagra De viagra Négro, réchauffe-toi, tords-toi, ou -nous Le ciel est dogme, c'est catastrophe dans une ville de porcinets Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savourés des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes, j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey, pour faire un million, négro J'mange mon steak saignant, en m'plaignant qu'les salopes sont des feignantes Un coureur endurant comme un , quatre-vingt-dix-neuf inconvénients Plaque mes phrases, comme des Porsches devant ton ventre ton plat ventre Ton plat ventre T'en touches plus tes frites, t'en as gros sur la patate et t'as mal au ventre Vendre son âme au diable, l'argent ne vaut pas l'aventure Crachat pour les nazes, un sourire pour le futur Mes compagnons de pourriture, des hipsters de toutes races Hipsters Triste jusqu'à l'aube parce que le juice ne les travers'ra plus Juiice J'remercie la foudre, noir comme l'espace Fais tomber la foudre J'ai les rimes en poudre, tu auras l'espace Tu auras du crack Saigne de la bouche, Tu saigneras des 'tess Tu ronfles dans la boucle Paw, tu fais un cauch'mar Réveille-oi-t' Tu fixes le sol, comme si tu cherches des billets jaunes Des billets jaunes Nous étions si jeunes et soudés, mais la faute aux billets jaunes Billets jaunes La co-co' et la zone s'aiment fort, comme John et Yoko Les sensations comme New-York, han, han, la nuit en hélico Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savouré des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey Han, han, pour faire un million Han, négro J'sors d'ma bédave, j'ai les deux pieds par terre Ouais Si j'plane, c'est comme un charter Ok Je n'vise pas les charts mais je touche quand-même quelques 're-sta' Han-han Quelque part on tourne en boucle, mais je rattrape le retard Oh Soldat toujours au garde à vous, comme un queutard Faut aider mon frère, même sans aucune parenté Hey Si t'as l'oreille comme un vulcain qui n'entend aucune vulgarité Hey, hey Han-han Hein, donc plus qu'une qualité Hey Ouais 'Ou-f' ou calife Hey, comment ne peux-tu me qualifier Comment Hey Le respect se tue, l'amitié pue la pisse après punchline, yeah Pour moi c'est juste terrible Han, han Tout pour le terrain Han, han Comme la 'tess Han, han Le juge des lignes Ouais, ouais Quand j'passe les types me guettent, même si j'ai quitté le tiekson Tiek Quesqu'il t'arrive, sont mes textes Han Hey question Vrai Hey Les 'me-ar' de Hey, à t'en faire péter le caisson Ouh Hey On dirait qu'on rappe Hey, mais t'as pas d'T.K Abricot tu kiffes Hey, comme Hey Car j'ai la rage du king Hey, han-han, comme un karateka Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savourés des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey, pour faire un million, négro Pour faire un million, négro</t>
+          <t>J'suis synchronisé my nigga Oh my god Infinigga Ouh, shit Turn it up Gang, gang, fucked up Gang, gang, fucked up Gang, gang, fucked up Gang, gang Cognac dans la cup, cognac dans la cup 'Be-her' dans la clope, 'be-her' dans la clope J'roule J'suis fucked up, j'suis full J'roule J'suis fucked up Incroyable Ralph Lau'-Lau', t-shirt Teddy Bear, j'aurais dû naître au siècle des Lumières Printemps, automne, été et hiver, j'vais t'cracher dedans, appeler Uber Fuck les négros dans ton périmètre, mojo fait fissures sur tes lunettes J'touche plus de 'tte-ch' qu'un vétérinaire, numéro 1, personne délibère J'bais une fan, p't-être qu'c'est ta fmme J'baise une fan, p't-être qu'c'est ta femme Waw Gang, gang, gang Gang, gang, gang, gang, Waw Gang, gang, gang Gang, gang, gang, gang Incroyable Gang, fucked up Gang, gang Incroyable, fucked up Gang, gang Fucked up, fucked up Gang, gang Je reviens agile comme Bebeto, j'te fais sucer, j'te fais pas 'quer-cro' Fait guilis, faciale, j'refais ta déco, j'vais tirer un peu, j'vais pas parler trop J'me fais 'cer-us' dans le Cérébro, ils m'ont pompé parce qu'ils m'aimaient trop Ta meuf s'fait tartiner par tes négros, DeLorean, j'mate pas les rétros J'baise une fan, j'crois qu'c'est ta femme Waw J'baise une fan, j'crois qu'c'est ta femme Waw Gang, gang, gang Gang, gang, gang, gang Gang, gang, gang Gang, gang, gang, gang Gang, fucked up Gang, gang, fucked up Gang, gang, fucked up Gang, gang Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh</t>
         </is>
       </c>
     </row>
@@ -4296,12 +4296,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Paris j’arrive (Paris 75021)</t>
+          <t>Playa (Teaser)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Ba-Ba-Ba-Back Je n'ai plus peur de toi, j'ai retrouvé cette confiance qui fais ma forme Qui fais ma forme, qui fais ma forme Hein-hein Avant qu'une balle vienne chatouiller mes neuronnes Hey, j'veux qu'mes négros aient tous savourés des euros Hey Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes Hey, j'veux qu'tu lèves le point pour saluer mes négros Hey Paris j'arrive J'y pense, comme un traumatisme, du biff propre, comme un sweat blanc Fait au black comme un micmac, le karma d'un ticket d'loto perdant Trempe dans cette merde, badigeonne la 'garette-ci' dedans par devant, le biff plane par le sang Abracadabra, ma rime sexy va t'casser les bras Mon public va passer deux mois dans l'platre, aux arrivants Aux arrivants Un air frais dans ta phase, comme si tu surfais Tu surfais Et pour l'amour d'une rime j'aimerais qu'on la paie Cash Les fesses des ladies font bling-bling, s'applatissent et lèvitent J'explique à Alice quel cataclysme je souhaite pour mon pénis Dans la langue du chaos, frais comme une salade de fruit J'explose, comme un enfant pieds nus sur une mine Oh J'crache ma merde en joyaux, le cul plein de foie gras De foie gras Pisse ma gnôle en fluo, la pisse plein de viagra De viagra Négro, réchauffe-toi, tords-toi, ou -nous Le ciel est dogme, c'est catastrophe dans une ville de porcinets Avant qu'une balle vienne chatouiller mes neuronnes, j'veux qu'mes négros aient tous savourés des euros Paris j'arrive Et quand cette phrase aura tatouée tes neuronnes, j'veux qu'tu lèves le point pour saluer mes négros Paris j'arrive Yo Tous les jours on cherche un business Hey Haan, pour faire des cheese, han-han Hey Pour faire du cheese, pour boire du Cris Hey, pour faire un mill' par an Hey Tous les jours on cherche un business Hey Haan, pour faire du cheese, han-han Hey Pour faire un, pour faire un Hey, pour faire un million, négro</t>
+          <t>Hold up Right Toi même tu sais comment on est là Toi même tu sais comment on est là broooo' Toi même tu sais que bref on est là Tout les deux on va finir comme hier Éclaté sur le matelas des gens J'ai pris des somnifères, de la codéine J'sens pas mes jambes, tous les jours donc été comme hiver Entouré d'belles pétasses alléchantes Sert des verres pleins d'absinthe, comme Prévert Ramène la boisson qu'on préfère P'tite fait pas ta sainte ni-touche Tu nous connais on cherche pas juste une tainp' qui couche Mais pour la soirée on pourrait monter là haut 1</t>
         </is>
       </c>
     </row>
@@ -4313,12 +4313,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Playa Part. II (Infinigga Version)</t>
+          <t>PokéBall</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>J'suis synchronisé my nigga Oh my god Infinigga Ouh, shit Turn it up Gang, gang, fucked up Gang, gang, fucked up Gang, gang, fucked up Gang, gang Cognac dans la cup, cognac dans la cup 'Be-her' dans la clope, 'be-her' dans la clope J'roule J'suis fucked up, j'suis full J'roule J'suis fucked up Incroyable Ralph Lau'-Lau', t-shirt Teddy Bear, j'aurais dû naître au siècle des Lumières Printemps, automne, été et hiver, j'vais t'cracher dedans, appeler Uber Fuck les négros dans ton périmètre, mojo fait fissures sur tes lunettes J'touche plus de 'tte-ch' qu'un vétérinaire, numéro 1, personne délibère J'bais une fan, p't-être qu'c'est ta fmme J'baise une fan, p't-être qu'c'est ta femme Waw Gang, gang, gang Gang, gang, gang, gang, Waw Gang, gang, gang Gang, gang, gang, gang Incroyable Gang, fucked up Gang, gang Incroyable, fucked up Gang, gang Fucked up, fucked up Gang, gang Je reviens agile comme Bebeto, j'te fais sucer, j'te fais pas 'quer-cro' Fait guilis, faciale, j'refais ta déco, j'vais tirer un peu, j'vais pas parler trop J'me fais 'cer-us' dans le Cérébro, ils m'ont pompé parce qu'ils m'aimaient trop Ta meuf s'fait tartiner par tes négros, DeLorean, j'mate pas les rétros J'baise une fan, j'crois qu'c'est ta femme Waw J'baise une fan, j'crois qu'c'est ta femme Waw Gang, gang, gang Gang, gang, gang, gang Gang, gang, gang Gang, gang, gang, gang Gang, fucked up Gang, gang, fucked up Gang, gang, fucked up Gang, gang Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh Wouh-ouh-ouh-ouh</t>
+          <t>Dans ma suite y a plein d'bitchs, anh Anh dans ma switch y a plein d'bitchs, anh Anh le tourbus c'est un bang bus, bitch Anh, j'souffle un cumulonimbus, anh Anh, on parle le même langage, anh, anh, anh Ta team a b'soin d'bandages, hein J'prend toujours l'avantage, oui, bitch Ton swag est lamentable, for real Faut le 1k les 100k et faut l'milli', that's right J'ball comme Kobe et Shaquille O'Neil, bang Tu sais qu'j'ai les plus belles chiennes dans mon mobile, oh-oh J'sors ma queue elle ouvre la bouche comme un crocodile daamn Y a aucun négro comme moi Y a aucun négro comme moi, hein-hein, heein Oseille fixée dans l'crâne Oseille, hey, hey, hey Seille-o' fixéé dans l'crâne, négro Faut des bonnes, faut des putes, et faut des nonnes, oui, bitch Si elles ont pas d'habit'ch j'l'attrape comme un pokémon, oui, bitch Négro, j'rappe pas moi j'pense à haute voix, hey Le rap, j'les ken comme la 'tasse de l'autre fois, hey Le rap, j'l'ai ken comme la 'tasse de la veille, heyy Tu sais, qu'je crache dans son appareil Portefeuille Gucci avec une abeille, he-heyy Fuck ces négros, négro, j'aime que ma paye ma paye, ma paye Ha, négro, j'aime que ma paye Ha, ma paye, ma paye Ha, négro, j'aime que ma paye Ha Dans ma suite y a plein de bitchs, anh Dans ma switch y a plein d'bitchs, anh Le tourbus c'est un bang, bitch Anh, j'souffle un cumulonimbus, anh Anh Pharaon Fuck all these niggas in there Yeah, La vie en Violet, my nigga Go, go, go, go, go Regarde les billets s'envoler, my nigga Prrrr, prrrr, prrrr, prrrrrrrrrrrrr</t>
         </is>
       </c>
     </row>
@@ -4330,12 +4330,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Playa (Teaser)</t>
+          <t>Purple Haze / Final Fantasy</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Hold up Right Toi même tu sais comment on est là Toi même tu sais comment on est là broooo' Toi même tu sais que bref on est là Tout les deux on va finir comme hier Éclaté sur le matelas des gens J'ai pris des somnifères, de la codéine J'sens pas mes jambes, tous les jours donc été comme hiver Entouré d'belles pétasses alléchantes Sert des verres pleins d'absinthe, comme Prévert Ramène la boisson qu'on préfère P'tite fait pas ta sainte ni-touche Tu nous connais on cherche pas juste une tainp' qui couche Mais pour la soirée on pourrait monter là haut 1</t>
+          <t>J'rentre un chèque, j'sors d'l'asile, What up ? nigga, j'sors ma weed Fuck la bise, j'sors ma dick, What up ? nigga, j'sors d'l'Afrique, Oui, oui, oui J'sors d'mon corps, j'sors d'la ville, fuck un nigga, fuck un nigga J'sors une liasse, on dirait qu'j'sors la Bible, j'la transforme en matière volatile That's all I gotta do, les diamants virevoltent dans le cou J'laisse les bâtards dans le flou, j'laisse les bâtards dans le flou J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk Oui J'fume Purple Haze, j'fais un Moonwalk, Oui, j'fume Purple Haze, j'fais un Moonwalk, Hm, hm J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Purple, wow, j'fume Purple Haze Clap et clap dans ta chatte, j'rentre et le film est dans la boîte Négro, l'flow irremplaçable, j'nique deux trois copines en cascade P'tite je pense avec ma bite, mets-toi où j'pense, là où j'pense Nique sa mère la souffrance, y a d'la drogue à outrance Train d'vie financé par les 'gue-sh' Wo-o-ow, j'l'ai attrapée par les 'veux-che' Toi qui roule ma OG Kush, t'inquiètes roule ma OG Kush J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Haze, j'fais un Moonwalk, j'fume Purple Haze, j'fais un Moonwalk J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Haze Purple, j'fume Purple Haze Purple J'suis synchronisé, my nigga Sautons dans l'vide, sautons dans l'vide Juste toi et moi, sautons dans l'vide Yeah Juste toi et moi Sautons dans l'vide, juste toi et moi Sautons dans l'vide, juste toi et moi Oui ma babe Pa-pa-pa, oui ma babe Pa-pa-pa Oui my baby, oui ma babe Oui, bitch Oui ma babe, oui ma babe Oui, bitch Oui my baby, oui ma babe Pochon dans l'VIP Yah, plus frais qu'dans le clip Saute sur ma bite, saute sur ma bite Alright babe, saute sur ma bite Alright babe, alright babe Sautons dans l'vide Dans l'équipe avec mes gunners Sautons dans l'vide J'ai d'la 'ppe-fra' dans la Truck Ta pussy j'lui dis des secrets, j'mets ta pussy sur ma 'te-tê', j'mets ta pussy dans un Uber On fait joujou dans l'ascenseur Les coups dans ta chatte remontent à ton cur Les coups dans ta chatte remontent à ton cur Sautons dans l'vide, sautons dans l'vide Juste toi et moi, sautons dans l'vide Sautons dans l'vide, juste toi et moi Sautons dans l'vide, juste toi et moi Oui ma babe, oui ma babe Oui ma baby, oui ma babe Oui ma babe, oui ma babe Oui ma baby, oui ma babe Pochon dans l'VIP, j'ai du bon shit Saute sur ma bite, saute sur ma bite Alright babe, alright babe Alright babe, alright babe</t>
         </is>
       </c>
     </row>
@@ -4347,12 +4347,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PokéBall</t>
+          <t>Pyramid Tokyo (Interlude)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Dans ma suite y a plein d'bitchs, anh Anh dans ma switch y a plein d'bitchs, anh Anh le tourbus c'est un bang bus, bitch Anh, j'souffle un cumulonimbus, anh Anh, on parle le même langage, anh, anh, anh Ta team a b'soin d'bandages, hein J'prend toujours l'avantage, oui, bitch Ton swag est lamentable, for real Faut le 1k les 100k et faut l'milli', that's right J'ball comme Kobe et Shaquille O'Neil, bang Tu sais qu'j'ai les plus belles chiennes dans mon mobile, oh-oh J'sors ma queue elle ouvre la bouche comme un crocodile daamn Y a aucun négro comme moi Y a aucun négro comme moi, hein-hein, heein Oseille fixée dans l'crâne Oseille, hey, hey, hey Seille-o' fixéé dans l'crâne, négro Faut des bonnes, faut des putes, et faut des nonnes, oui, bitch Si elles ont pas d'habit'ch j'l'attrape comme un pokémon, oui, bitch Négro, j'rappe pas moi j'pense à haute voix, hey Le rap, j'les ken comme la 'tasse de l'autre fois, hey Le rap, j'l'ai ken comme la 'tasse de la veille, heyy Tu sais, qu'je crache dans son appareil Portefeuille Gucci avec une abeille, he-heyy Fuck ces négros, négro, j'aime que ma paye ma paye, ma paye Ha, négro, j'aime que ma paye Ha, ma paye, ma paye Ha, négro, j'aime que ma paye Ha Dans ma suite y a plein de bitchs, anh Dans ma switch y a plein d'bitchs, anh Le tourbus c'est un bang, bitch Anh, j'souffle un cumulonimbus, anh Anh Pharaon Fuck all these niggas in there Yeah, La vie en Violet, my nigga Go, go, go, go, go Regarde les billets s'envoler, my nigga Prrrr, prrrr, prrrr, prrrrrrrrrrrrr</t>
+          <t>Glaçons tournent autour d'la paille Mes doigts roulent autour d'sa taille Dans l'carré j'fais comme Popeye Jusqu'au lever du soleil Ton futur c'était ma veille Sur mon doigt c'était ta paye J'sors un pistolet laser J'sors un pistolet la-seeer Nouveau Michael Jackson J'fume un gros joint au Carlton Roppongi j'sors mon trap phone Roppongi j'sors mon trap phone Tokyo skyscraper Tokyo skyscraper Tokyo skyscraper Tokyo skyscraper3</t>
         </is>
       </c>
     </row>
@@ -4364,12 +4364,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Purple Haze / Final Fantasy</t>
+          <t>Remy Martin</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>J'rentre un chèque, j'sors d'l'asile, What up ? nigga, j'sors ma weed Fuck la bise, j'sors ma dick, What up ? nigga, j'sors d'l'Afrique, Oui, oui, oui J'sors d'mon corps, j'sors d'la ville, fuck un nigga, fuck un nigga J'sors une liasse, on dirait qu'j'sors la Bible, j'la transforme en matière volatile That's all I gotta do, les diamants virevoltent dans le cou J'laisse les bâtards dans le flou, j'laisse les bâtards dans le flou J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk Oui J'fume Purple Haze, j'fais un Moonwalk, Oui, j'fume Purple Haze, j'fais un Moonwalk, Hm, hm J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Purple, wow, j'fume Purple Haze Clap et clap dans ta chatte, j'rentre et le film est dans la boîte Négro, l'flow irremplaçable, j'nique deux trois copines en cascade P'tite je pense avec ma bite, mets-toi où j'pense, là où j'pense Nique sa mère la souffrance, y a d'la drogue à outrance Train d'vie financé par les 'gue-sh' Wo-o-ow, j'l'ai attrapée par les 'veux-che' Toi qui roule ma OG Kush, t'inquiètes roule ma OG Kush J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Haze, j'fais un Moonwalk, j'fume Purple Haze, j'fais un Moonwalk J'fume un 24, j'fais un Moonwalk, j'fume OG Kush, j'fais un Moonwalk J'fume Purple Haze Purple, j'fume Purple Haze Purple J'suis synchronisé, my nigga Sautons dans l'vide, sautons dans l'vide Juste toi et moi, sautons dans l'vide Yeah Juste toi et moi Sautons dans l'vide, juste toi et moi Sautons dans l'vide, juste toi et moi Oui ma babe Pa-pa-pa, oui ma babe Pa-pa-pa Oui my baby, oui ma babe Oui, bitch Oui ma babe, oui ma babe Oui, bitch Oui my baby, oui ma babe Pochon dans l'VIP Yah, plus frais qu'dans le clip Saute sur ma bite, saute sur ma bite Alright babe, saute sur ma bite Alright babe, alright babe Sautons dans l'vide Dans l'équipe avec mes gunners Sautons dans l'vide J'ai d'la 'ppe-fra' dans la Truck Ta pussy j'lui dis des secrets, j'mets ta pussy sur ma 'te-tê', j'mets ta pussy dans un Uber On fait joujou dans l'ascenseur Les coups dans ta chatte remontent à ton cur Les coups dans ta chatte remontent à ton cur Sautons dans l'vide, sautons dans l'vide Juste toi et moi, sautons dans l'vide Sautons dans l'vide, juste toi et moi Sautons dans l'vide, juste toi et moi Oui ma babe, oui ma babe Oui ma baby, oui ma babe Oui ma babe, oui ma babe Oui ma baby, oui ma babe Pochon dans l'VIP, j'ai du bon shit Saute sur ma bite, saute sur ma bite Alright babe, alright babe Alright babe, alright babe</t>
+          <t>Quand j'étais p'tit j'avais pas un penny Ouhouhh Maint'nant j'ai des 'tasses sur mon pénis Ouhouhh Tout est bon tant qu'je pop' Remy Ouhouhh Tout est bon tant qu'je pop' Remy Ouhouhh J'lui met un coup d'teu-b', un coup d'génie Hm-hmm J'fais l'oseille, j'fais les confettis Hm-hm-hmm Si j'suis dans la place, la pute gémit Hm-hmm Tout est bon tant qu'je pop' Remy J'ai dormi par terre et sur l'canal Ouhouh-ouhh Re-noi, sur l'canap', j'suis sur sa chatte Ouhouh-ouhh J'suis un génie, ils font des trucs passables Le négro compte l'oseille, écoute Kassav J'regarde les étoiles, j'vois Mufasa Ahahh-ah Ta 'tasse j'lui met une faciale Ahahh-ah C'st pas Pharaon, écoute pas ça Ahahh-ah Négro fait mal comme un coup d'crasse Quand j'étais p'tit j'avais pas un pnny Ouhouhh Maint'nant j'ai des 'tasses sur mon pénis Ouhouhh Tout est bon tant qu'je pop' Remy Remy Ouhouhh Tout est bon tant qu'je pop' Remy Remy Ouhouhh J'lui met un coup d'teu-b', un coup d'génie Hm-hmm J'fais l'oseille, j'fais les confettis Hm-hm-hmm Si j'suis dans la place, la pute gémit Hm-hmm Tout est bon tant qu'je pop' Remy Ekusutash no seishin</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Pyramid Tokyo (Interlude)</t>
+          <t>Rêve éveillé</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Glaçons tournent autour d'la paille Mes doigts roulent autour d'sa taille Dans l'carré j'fais comme Popeye Jusqu'au lever du soleil Ton futur c'était ma veille Sur mon doigt c'était ta paye J'sors un pistolet laser J'sors un pistolet la-seeer Nouveau Michael Jackson J'fume un gros joint au Carlton Roppongi j'sors mon trap phone Roppongi j'sors mon trap phone Tokyo skyscraper Tokyo skyscraper Tokyo skyscraper Tokyo skyscraper3</t>
+          <t>Han-han, yeah 2011, 12, 13, 14, 15, yeah Yeah, Yeah J'rêve éveillé Ok j'dors plus pour être payé Ok, j'sors plus pour être payé Ok, négro Han, ton 'sque-d' est rayé ron polo est rayé Yeah, ta carrière est rayée, négro Ok, yeah, yeah Han, j'rêve éveillé Ok, han j'dors plus pour être payé, j'sors plus pour être payé, négro Han, han, yeah Ton 'sque-d' est rayé ton polo est rayé, ta carrière est rayée, négro Mon putain d'temps, j'le passe à écrire des merdes Mon putain d'sang contient des kicks et des vers Tout c'que j'entends, je l'analyse, le punch-alise, le Joke-alise Mec, réalise que j'en fabrique du Prévert Avec mes paroles vulgaires, on m'traite de rappeur incontinent Incontinent J'vais t'balancer mes merdes sur tous les continents Yeah J'ai souvent peur des compliments, surtout peur des cons qui mentent J'ai le sentiment d'être incompris mais j'sais que j'suis le son qui manque Mon père est blanc, ma mère est noire, d'où la qualité d'ma matière grise Photographie, fixe c'que les amateurs disent J'veux pas d'prise de tête, j'ai déjà branché toutes tes exs, coco Va te créer un buzz sur batterie avec des princes crocos Je n'suis qu'un gamin, je n'suis qu'un enfant Mais je vous baise depuis l'départ Et tous un par un, j'vais vous réduire en cendre Ca juste pour me taper des barres, yeah J'rêve éveillé, j'dors plus pour être payé, j'sors plus pour être payé, négro Han, ton 'sque-d' est rayé, ton polo est rayé, ta carrière est rayée, négro Han, j'rêve éveillé, j'dors plus pour être payé, j'sors plus pour être payé, négro Han, ton 'sque-d' est rayé, ton polo est rayé, ta carrière est rayée, négro</t>
         </is>
       </c>
     </row>
@@ -4398,12 +4398,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Remy Martin</t>
+          <t>Revue : Joke</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Quand j'étais p'tit j'avais pas un penny Ouhouhh Maint'nant j'ai des 'tasses sur mon pénis Ouhouhh Tout est bon tant qu'je pop' Remy Ouhouhh Tout est bon tant qu'je pop' Remy Ouhouhh J'lui met un coup d'teu-b', un coup d'génie Hm-hmm J'fais l'oseille, j'fais les confettis Hm-hm-hmm Si j'suis dans la place, la pute gémit Hm-hmm Tout est bon tant qu'je pop' Remy J'ai dormi par terre et sur l'canal Ouhouh-ouhh Re-noi, sur l'canap', j'suis sur sa chatte Ouhouh-ouhh J'suis un génie, ils font des trucs passables Le négro compte l'oseille, écoute Kassav J'regarde les étoiles, j'vois Mufasa Ahahh-ah Ta 'tasse j'lui met une faciale Ahahh-ah C'st pas Pharaon, écoute pas ça Ahahh-ah Négro fait mal comme un coup d'crasse Quand j'étais p'tit j'avais pas un pnny Ouhouhh Maint'nant j'ai des 'tasses sur mon pénis Ouhouhh Tout est bon tant qu'je pop' Remy Remy Ouhouhh Tout est bon tant qu'je pop' Remy Remy Ouhouhh J'lui met un coup d'teu-b', un coup d'génie Hm-hmm J'fais l'oseille, j'fais les confettis Hm-hm-hmm Si j'suis dans la place, la pute gémit Hm-hmm Tout est bon tant qu'je pop' Remy Ekusutash no seishin</t>
+          <t>Peux tu te présenter en quelques mots ? Joke, 19 ans, je viens de Montpellier. Je fais du rap qui a pas grand chose à voir avec ce qui sort en ce moment. A quand remonte ton entrée dans le rap game ? Jai commencé le rap assez tôt, à lâge de 10 ans. Jétais intéressé par la musique et le rap est venu tout seul, presque naturellement. Jai découvert le rap français et cainri grâce aux radio locales de ma région. Pas mal de mes potes étaient dedans aussi. Jai fait des scènes à 11 ans, jai enchaîné les premières parties, je rappais dans les MJC jusquà 14 ans. Ensuite je me suis calmé avec les études mais je continuais à écrire. Dès que jai eu mon bac, je me suis lancé vraiment dedans. Je faisais beaucoup de face B, de freestyles, je rappais sur des instrus de Booba... Le rap français de maintenant me convient pas trop, on va essayer de bouger les choses, il faut avoir de limpact, cest la clé. Tu es plutôt bien entouré ? Jaime bien bosser avec plusieurs producteurs pour que ça sonne différemment. Je travaille avec Orgasmic, Jobe, Kiddo et je vais ptet taffé avec Para One dans pas longtemps. Par quel biais la connexion avec Stunts a-t-elle été établie ? Jai rencontré Teki en premier grâce à Myspace. Je lui ai envoyé un message pour lui demander un featuring direct. Il est venu écouter sur ma page et ça lui a plu. Jai fait mon premier son avec Téki puis le Sixpack Anthem pendant lété. Orgasmic, cest mon directeur artistique, il est derrière moi pour la production de mon street album. Il y aura des feat. avec Téki, Cuiz et Charly Greane pour les français. Il y aura des cainri également mais je peux pas citer de noms pour le moment. Ça fait 4 mois que je suis sur lécriture et je suis monté à Paris pour lenregistrement, qu'on a bouclé en 2 semaines. Parle moi de tes influences ? Tékitek, Booba, ça correspond plus à mon style avec beaucoup de jeux de mots et de métaphores. Ils ont une écriture spéciale qui me fait kiffer. Pour ma part, je préfère trouver linstru et madapter, jaime jouer avec. Dans lécriture, jai besoin de connaître linstru pour bosser mon flow, faire des pirouettes Dans les prod US, Cory Gunz et des trucs plus mainstream genre Kanye West. L'actu Stunts est pas mal chargée en ce moment... Téki sort son street album Mes Pelures sont Plus Belles que vos Fruits ndlr et la compilation Stunts DJ Volume 1 avec Young Pulse et Orgasmic à la baguette avec Riot Kid, Desmon, Cuizinier, Killa Daz, Kilroy... ndlr. Je trouve mon compte dans tous les artistes, léquipe est bonne, on peut débarquer et envoyer du lourd. Je suis heureux dêtre là. Le rap français de maintenant me convient pas trop, on va essayer de bouger les choses, il faut avoir de limpact, cest la clé. Top 5 en collab avec Bip's 1. Doc Gynéco Nirvana 2. Tékitek Mes Pelures sont Plus Belles que vos Fruits 3. Jay Z Black Album 4. Lil Wayne Tha Carter III 5. Yung L.A. Futuristic Leland</t>
         </is>
       </c>
     </row>
@@ -4415,12 +4415,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Rêve éveillé</t>
+          <t>Right now*</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Han-han, yeah 2011, 12, 13, 14, 15, yeah Yeah, Yeah J'rêve éveillé Ok j'dors plus pour être payé Ok, j'sors plus pour être payé Ok, négro Han, ton 'sque-d' est rayé ron polo est rayé Yeah, ta carrière est rayée, négro Ok, yeah, yeah Han, j'rêve éveillé Ok, han j'dors plus pour être payé, j'sors plus pour être payé, négro Han, han, yeah Ton 'sque-d' est rayé ton polo est rayé, ta carrière est rayée, négro Mon putain d'temps, j'le passe à écrire des merdes Mon putain d'sang contient des kicks et des vers Tout c'que j'entends, je l'analyse, le punch-alise, le Joke-alise Mec, réalise que j'en fabrique du Prévert Avec mes paroles vulgaires, on m'traite de rappeur incontinent Incontinent J'vais t'balancer mes merdes sur tous les continents Yeah J'ai souvent peur des compliments, surtout peur des cons qui mentent J'ai le sentiment d'être incompris mais j'sais que j'suis le son qui manque Mon père est blanc, ma mère est noire, d'où la qualité d'ma matière grise Photographie, fixe c'que les amateurs disent J'veux pas d'prise de tête, j'ai déjà branché toutes tes exs, coco Va te créer un buzz sur batterie avec des princes crocos Je n'suis qu'un gamin, je n'suis qu'un enfant Mais je vous baise depuis l'départ Et tous un par un, j'vais vous réduire en cendre Ca juste pour me taper des barres, yeah J'rêve éveillé, j'dors plus pour être payé, j'sors plus pour être payé, négro Han, ton 'sque-d' est rayé, ton polo est rayé, ta carrière est rayée, négro Han, j'rêve éveillé, j'dors plus pour être payé, j'sors plus pour être payé, négro Han, ton 'sque-d' est rayé, ton polo est rayé, ta carrière est rayée, négro</t>
+          <t>Disclaimer Transcrit à partir d'un extrait J'fais le beurre right now, j'me concentre sur les deux right now Ils sont prêt right now, je crois qu'c'est concret right now Yeah J'ai beaucoup plus de 'tasses, les niggas sont gay right now, yeah Nique sa mère les copinages, j'crache un tas de bébés Dieu sur ton visage Si j'fuck avec toi j'vais salir mon image My nigga, j'vais au bled, en pèlerinage J'ai des grosses liasses dans les mains-ains Bitch, je médite, je me maintiens J'suis un Diu, j'suis pas un saint-ain't J'ramène l'oseille au villag</t>
         </is>
       </c>
     </row>
@@ -4432,12 +4432,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Revue : Joke</t>
+          <t>R.I.P Adele</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Peux tu te présenter en quelques mots ? Joke, 19 ans, je viens de Montpellier. Je fais du rap qui a pas grand chose à voir avec ce qui sort en ce moment. A quand remonte ton entrée dans le rap game ? Jai commencé le rap assez tôt, à lâge de 10 ans. Jétais intéressé par la musique et le rap est venu tout seul, presque naturellement. Jai découvert le rap français et cainri grâce aux radio locales de ma région. Pas mal de mes potes étaient dedans aussi. Jai fait des scènes à 11 ans, jai enchaîné les premières parties, je rappais dans les MJC jusquà 14 ans. Ensuite je me suis calmé avec les études mais je continuais à écrire. Dès que jai eu mon bac, je me suis lancé vraiment dedans. Je faisais beaucoup de face B, de freestyles, je rappais sur des instrus de Booba... Le rap français de maintenant me convient pas trop, on va essayer de bouger les choses, il faut avoir de limpact, cest la clé. Tu es plutôt bien entouré ? Jaime bien bosser avec plusieurs producteurs pour que ça sonne différemment. Je travaille avec Orgasmic, Jobe, Kiddo et je vais ptet taffé avec Para One dans pas longtemps. Par quel biais la connexion avec Stunts a-t-elle été établie ? Jai rencontré Teki en premier grâce à Myspace. Je lui ai envoyé un message pour lui demander un featuring direct. Il est venu écouter sur ma page et ça lui a plu. Jai fait mon premier son avec Téki puis le Sixpack Anthem pendant lété. Orgasmic, cest mon directeur artistique, il est derrière moi pour la production de mon street album. Il y aura des feat. avec Téki, Cuiz et Charly Greane pour les français. Il y aura des cainri également mais je peux pas citer de noms pour le moment. Ça fait 4 mois que je suis sur lécriture et je suis monté à Paris pour lenregistrement, qu'on a bouclé en 2 semaines. Parle moi de tes influences ? Tékitek, Booba, ça correspond plus à mon style avec beaucoup de jeux de mots et de métaphores. Ils ont une écriture spéciale qui me fait kiffer. Pour ma part, je préfère trouver linstru et madapter, jaime jouer avec. Dans lécriture, jai besoin de connaître linstru pour bosser mon flow, faire des pirouettes Dans les prod US, Cory Gunz et des trucs plus mainstream genre Kanye West. L'actu Stunts est pas mal chargée en ce moment... Téki sort son street album Mes Pelures sont Plus Belles que vos Fruits ndlr et la compilation Stunts DJ Volume 1 avec Young Pulse et Orgasmic à la baguette avec Riot Kid, Desmon, Cuizinier, Killa Daz, Kilroy... ndlr. Je trouve mon compte dans tous les artistes, léquipe est bonne, on peut débarquer et envoyer du lourd. Je suis heureux dêtre là. Le rap français de maintenant me convient pas trop, on va essayer de bouger les choses, il faut avoir de limpact, cest la clé. Top 5 en collab avec Bip's 1. Doc Gynéco Nirvana 2. Tékitek Mes Pelures sont Plus Belles que vos Fruits 3. Jay Z Black Album 4. Lil Wayne Tha Carter III 5. Yung L.A. Futuristic Leland</t>
+          <t>Starlight Koffi Elle s'jette sur ma bite toute seule J'me- J'me psychanalyse tout seul J'fais le cheese, mes négros me disent Il se porte la guigne tout seul Les solitaires brillent tout seul Mon 'gue-flin' les visent tout seul Négro j'fais la diff, ta 'tasse veut ma bite, la bitch elle se bifle toute seule Hein, ton- ton crib je le crible tout sul Je mets les buts, mon négro tu sais, l terrain je l'drible tout seul Koffi, j'peux faire des classiques tout seul J'veux sauver l'Afrique tout seul J'compte l'oseille, j'ai la trique tout seul T'facon toi et moi j'sais qu'on est pas les mêmes Le négro débarque en Chanel Négro j'rappe pas je channel J'max-J'max ces bitches comme Adele Pour l'oseille, j'suis violent comme Machiavel Hibiki, j'bois pas d'Jack Daniel's La couronne depuis la fontanelle Elle- Elle s'jette sur ma bite toute seule, that's right J'me psychanalyse tout seul, that's right J'fais le cheese, mes négros me disent Il se porte la guigne tout seul Les solitaires brillent tout seul Grinta Mon 'gue-flin' les visent tout seul Grinta Négro j'fais la diff, ta 'tasse veut ma bite, la bitch elle se bifle toute seule J'max ces bitches comme Adele J'max ces bitches comme Adele J'max ces bitches comme Adele J'm-max ces bitches comme Adele</t>
         </is>
       </c>
     </row>
@@ -4449,12 +4449,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Right now*</t>
+          <t>Rose noire</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait J'fais le beurre right now, j'me concentre sur les deux right now Ils sont prêt right now, je crois qu'c'est concret right now Yeah J'ai beaucoup plus de 'tasses, les niggas sont gay right now, yeah Nique sa mère les copinages, j'crache un tas de bébés Dieu sur ton visage Si j'fuck avec toi j'vais salir mon image My nigga, j'vais au bled, en pèlerinage J'ai des grosses liasses dans les mains-ains Bitch, je médite, je me maintiens J'suis un Diu, j'suis pas un saint-ain't J'ramène l'oseille au villag</t>
+          <t>High Klassified Fuck, Fuck Fu-uu, uu-uu-uu, uu-uu-uck Uu-uu-uu Fu-uu-uu, uu-uu-uu, uu-uu-uck Uu-uu-uu, uu-uu-uu Yeah, Yeah J'rentre dans la pièce avec une rose noire, -rose noire Wah, wah, wah C'est moi qui donne l'heure j'mérite une Audemars, -Audemars Check le nombre d'or quand j'flashe le code-barres, -code-barres Oxygène de Tokyo, fumée du 'roc-Ma', -'roc-Ma' Oui ! J'roule à 200, j'roule ma beuh sans aucune contrainte négro, Yeah Dans ma 'bre-cham' j'lui suce le sang, j'lui mets complète négro, On va pas les- Si tu te sens comme moi j'me sens tu touches sommet Togo, Lomé, grosses jantes chromées, crimes on commet Pour faire rentrer deux-trois liasses c'est le minimum Deux-trois liasses c'est le minimum négro Gros 'vu-vu' si j'veux être filiforme Vide comme rouge à lèvres sur les Philip Morris Wah Dior addict sur son p'tit clitoris J'en ai une qui bouffe une autre Génie dans mes foutues notes, j'suis a colette, tue-les J'arrive pétasses sur la Joke sur la sauvage1</t>
         </is>
       </c>
     </row>
@@ -4466,12 +4466,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>R.I.P Adele</t>
+          <t>Roue de bicyclette</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Starlight Koffi Elle s'jette sur ma bite toute seule J'me- J'me psychanalyse tout seul J'fais le cheese, mes négros me disent Il se porte la guigne tout seul Les solitaires brillent tout seul Mon 'gue-flin' les visent tout seul Négro j'fais la diff, ta 'tasse veut ma bite, la bitch elle se bifle toute seule Hein, ton- ton crib je le crible tout sul Je mets les buts, mon négro tu sais, l terrain je l'drible tout seul Koffi, j'peux faire des classiques tout seul J'veux sauver l'Afrique tout seul J'compte l'oseille, j'ai la trique tout seul T'facon toi et moi j'sais qu'on est pas les mêmes Le négro débarque en Chanel Négro j'rappe pas je channel J'max-J'max ces bitches comme Adele Pour l'oseille, j'suis violent comme Machiavel Hibiki, j'bois pas d'Jack Daniel's La couronne depuis la fontanelle Elle- Elle s'jette sur ma bite toute seule, that's right J'me psychanalyse tout seul, that's right J'fais le cheese, mes négros me disent Il se porte la guigne tout seul Les solitaires brillent tout seul Grinta Mon 'gue-flin' les visent tout seul Grinta Négro j'fais la diff, ta 'tasse veut ma bite, la bitch elle se bifle toute seule J'max ces bitches comme Adele J'max ces bitches comme Adele J'max ces bitches comme Adele J'm-max ces bitches comme Adele</t>
+          <t>Yeah Yeah, yeah Damn, du Champ', yeah, yeah, yeah Okay, han J'vais vous faire tomber des nues, yeah, les mecs à poil vont s'faire mal Okay, han Les autres croient tous que je bluffe mais m'laisse pas masser ta meuf, j'ai l'flow d'une source thermale Ok, han Je suis dans la joute verbale, hey, copain Sers-moi des Frosties, j'ai trop d'bol et trop faim J'pèse toujours le pour, il est trop lourd quand c'est mon tour, négro Prenez tous des verres, c'est l'promoteur qui paie sa tournée horizontalement L'horizon est vertical non, les rappeurs sont nazis bloqués Sur leur synthés allemands je l'explique mal, okay On passe à autre chose, j'suis Duchamp, ce son c'est ma fontaine C'est Du champ', addict, comme Brigitte Fontaine C'est fantastique, mon éléphant astique On aime les grandes 'tasses, rien ne nous remplace, fils Pas même ces fantasmes, phases de nous en plastique A c'qu'il se dit, j'refais les statistiques, yeah J'ai toujours trouvé les phases qui fâchaient J'ai toujours serré des meufs plus âgées Sous peu, j'serais sur panneau d'affichage J'veux des billets verts comme les glaces à la pistache, yeah C'est plus abstrait qu'la roue de Duchamp, pédale Je vais mourir avec une rose sur le bras Un peu, beaucoup, à la folie, jamais sans pétales J'te veux pas sur le dos mais je te veux sûr de moi C'est plus abstrait qu'la roue de Duchamp, pédale Je vais mourir avec une rose sur le bras Un peu, beaucoup, à la folie, jamais sans pétales J'te veux pas sur le dos mais je te veux sûr de moi1</t>
         </is>
       </c>
     </row>
@@ -4483,12 +4483,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Rose noire</t>
+          <t>Royal Cheese</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>High Klassified Fuck, Fuck Fu-uu, uu-uu-uu, uu-uu-uck Uu-uu-uu Fu-uu-uu, uu-uu-uu, uu-uu-uck Uu-uu-uu, uu-uu-uu Yeah, Yeah J'rentre dans la pièce avec une rose noire, -rose noire Wah, wah, wah C'est moi qui donne l'heure j'mérite une Audemars, -Audemars Check le nombre d'or quand j'flashe le code-barres, -code-barres Oxygène de Tokyo, fumée du 'roc-Ma', -'roc-Ma' Oui ! J'roule à 200, j'roule ma beuh sans aucune contrainte négro, Yeah Dans ma 'bre-cham' j'lui suce le sang, j'lui mets complète négro, On va pas les- Si tu te sens comme moi j'me sens tu touches sommet Togo, Lomé, grosses jantes chromées, crimes on commet Pour faire rentrer deux-trois liasses c'est le minimum Deux-trois liasses c'est le minimum négro Gros 'vu-vu' si j'veux être filiforme Vide comme rouge à lèvres sur les Philip Morris Wah Dior addict sur son p'tit clitoris J'en ai une qui bouffe une autre Génie dans mes foutues notes, j'suis a colette, tue-les J'arrive pétasses sur la Joke sur la sauvage1</t>
+          <t>Han, yeah, yeah, yeah Ok, Joke Yeah, prêt pour la monnaie Yeah, yeah, yeah, yeah, yeah Stunts, ok Aye, aye, hein-hein Ok, yeah, Yeah, aye Han, yeah Sur ma couronne, il m'reste mon Royal Cheese, une, deux bouchées, j'suis traumatisé Oh Trop baptisé, trop addict à m'faire mentir, genre J'aime trop pas la tise J'en importerai au paradis, j'rends les MCs 'dé-p' comme Paradis No homo Ces p'tits oignons m'font sortir des trucs que j'arrive pas à dire Va bouffer au Quick, négro, Quick, négro J'kick, les go' kiffent, nan, je n'suis plus Caliméro Vite, fais d'la magie, et fais bosser mon magic stick, négro J'attends l'jour où McDo' f'ra de la San Pellegrino J'ai trop d'imagination, j'pourrais sampler mes rideaux J'passe dans trop d'revues yah, j'pourrais entraîner l'Lido Multi-syllabiques négro, en cinq syllabes J'génocide des MC comme pour une voile en chinchilla, yeah La, la-la-la, la, je leur fais la guerre Le cornichon est acide, la défaite amère, yeah La, la-la-la, la, apporte-moi mon Royal Cheese, sur gros nichons Grosse artillerie, pour t'infliger ta punition, yeah 'Aud-ch' Shake it up up, rock your body and Make it knock knock, when you're partyin' Take a break right in the audience Do your footwork, break, and stop again I'm lookin sharp, you can't compete with the champ Steady flick'..</t>
         </is>
       </c>
     </row>
@@ -4500,12 +4500,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Roue de bicyclette</t>
+          <t>​Sac à dos</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Yeah Yeah, yeah Damn, du Champ', yeah, yeah, yeah Okay, han J'vais vous faire tomber des nues, yeah, les mecs à poil vont s'faire mal Okay, han Les autres croient tous que je bluffe mais m'laisse pas masser ta meuf, j'ai l'flow d'une source thermale Ok, han Je suis dans la joute verbale, hey, copain Sers-moi des Frosties, j'ai trop d'bol et trop faim J'pèse toujours le pour, il est trop lourd quand c'est mon tour, négro Prenez tous des verres, c'est l'promoteur qui paie sa tournée horizontalement L'horizon est vertical non, les rappeurs sont nazis bloqués Sur leur synthés allemands je l'explique mal, okay On passe à autre chose, j'suis Duchamp, ce son c'est ma fontaine C'est Du champ', addict, comme Brigitte Fontaine C'est fantastique, mon éléphant astique On aime les grandes 'tasses, rien ne nous remplace, fils Pas même ces fantasmes, phases de nous en plastique A c'qu'il se dit, j'refais les statistiques, yeah J'ai toujours trouvé les phases qui fâchaient J'ai toujours serré des meufs plus âgées Sous peu, j'serais sur panneau d'affichage J'veux des billets verts comme les glaces à la pistache, yeah C'est plus abstrait qu'la roue de Duchamp, pédale Je vais mourir avec une rose sur le bras Un peu, beaucoup, à la folie, jamais sans pétales J'te veux pas sur le dos mais je te veux sûr de moi C'est plus abstrait qu'la roue de Duchamp, pédale Je vais mourir avec une rose sur le bras Un peu, beaucoup, à la folie, jamais sans pétales J'te veux pas sur le dos mais je te veux sûr de moi1</t>
+          <t>Sac à dos, sac à dos Sac à dos, sac à dos Cest moi qui tsuis à lécole, bourré de trucs et de bricoles Tout ce quil t'faut pour la journée, dans mon ventre cest rangé Sac à dos, sac à dos Sac à dos, sac à dos Ouaaais Un coup djeune pour le rap là Cest un rap super sale, je nsuis pas ton cops Tu fais pitié profond, présent pour kicker Yo ass nigga, je reste unique sur la place Awhh Un coup djeune pour le rap là Yo Cest un rap super sale, han, je nsuis pas ton cops, yo Awhh Tu fais pitié profond Nigga Aïe, présent pour kicker, han Yo ass nigga, je reste unique sur la place, yo, yo Jsuis meilleur quAkinator, yo, jmets tout le monde daccord Haan-haan Chaque week-end jme filme un porno, jtape ça comme Tina Turner Jsuis réalis-acteur, han, nigga, avec ma team on sest farci ta soeur, nigga Yo, han On ma dis Joke, tas pris des ailes donc jserre que des avions Je leur fais goûter mon flow, tous les MC smettent à laviron Silence des agneaux, jvais baiser ta pauvre chèvre Han Fais tourner la coke jte cuisine ça comme dans Top chef Crack music Jai cinq kilos dans mon sac à doc Wah, wah, wah, wah Yo, sac à dos Wah, wah, wah, wah Négro on fait pas dcadeau Wah, wah, wah, wah Pas dcadeau Wah, wah, wah Han, comment des paroles si fines peuvent sortir de mes grosses lèvres ? Jfais des rêves si sales, jai du mal à croire qucest mes propres rêves Js'rais au rang zéro que si yavait un top ten Mon flow n'se mélange pas, jviens pisser dans ton cocktail Jsuis venu pour shooter père et mère Pouw Jtouche plus de chattes quun vétérinaire Jpeux les faire gueuler des heures dans le périmètre Personne ne peut méliminer ou bien imiter mes gimmicks, yo Jtaffe jour et nuit genre intérimaire Jkick ça sévère, genre une paire de air max, qui fait hyper mal Qui peut vous couper aussi proprement qu'mes couplets Yo Négro, c'est Ya quen termes de pétasse que javance à deux à lheure Les négros vendent deux barrettes et se croient dans the wire Jte laisse tout sanguinolent jfais mes courses en cambriolant Yo, jsuis un putain dgénie, jsuis fly comme un tapis volant Fuck, nigga Jai cinq kilos dans mon sac à doc Wah, wah, wah, wah Yo, sac à dos Wah, wah, wah, wah Négro on fait pas dcadeau Wah, wah, wah, wah Pas dcadeau Wah, wah, wah Yo, hey Au micro jmets la pression, jpose comme un ultimatum Négro, jpasse le shalom Aïe, aïe, aïe à toutes les 'tasses qui cultivent la pomme Jai vendu du fruit pour gouter au fruit défendu Jaurais beau vouloir mrach'ter jserai jamais un vendu Fuck Si tu as la langue pendue tu finiras dans les cordes Oh-oh Jrépète, jserai jamais un vendu, comme si jmétais donné âme et corps Âme et corps Jviens faire lamour à tes poches Oh Threesome, foursome jfais tourner à mes potes Oh-oh Jsuis unboycotté par les bonnes Oh-oh, yo, boycotté par les moches On est dans la plaza, on mise sur lpanneau exit Oh-oh Les négros se serrent la ceinture comme des putain danorexiques Oh-oh Blé, pognon, monnaie, argent sont au top de mon lexique Heyy Jpasse le big up à mes ex, faites un bibi à votre ex-bite Fuck, négro Jai cinq kilos dans mon sac à doc Wah, wah, wah, wah Yo, sac à dos Wah, wah, wah, wah Négro on fait pas dcadeau Wah, wah, wah, wah Pas dcadeau Wah, wah, wah Les boomers craquent et ton boule dépasse Lécouteur crache et la foule gueule grave, là, awh Girl bounce stu veux, vas-y, aguiche- moi A la fin tu fais les comptes, le DJ ramasse les ronds, awh Non, nan-nan-nan-nan-nan, ferme ta gueule Quand je rappe, et ki-ki-ki-kick Yo asshole, tu viens de prendre une baffe Awh Awh Est-ce que tu veux la marque de mes bottes sur ton derche ? Est-ce que tu veux la marque de mes bottes sur ton derche ? Awh Est-ce que tu veux la marque de mes bottes sur ton derche ? Est-ce que tu veux la marque de mes bottes sur ton derche ?1</t>
         </is>
       </c>
     </row>
@@ -4517,12 +4517,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Royal Cheese</t>
+          <t>Schumacher</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Han, yeah, yeah, yeah Ok, Joke Yeah, prêt pour la monnaie Yeah, yeah, yeah, yeah, yeah Stunts, ok Aye, aye, hein-hein Ok, yeah, Yeah, aye Han, yeah Sur ma couronne, il m'reste mon Royal Cheese, une, deux bouchées, j'suis traumatisé Oh Trop baptisé, trop addict à m'faire mentir, genre J'aime trop pas la tise J'en importerai au paradis, j'rends les MCs 'dé-p' comme Paradis No homo Ces p'tits oignons m'font sortir des trucs que j'arrive pas à dire Va bouffer au Quick, négro, Quick, négro J'kick, les go' kiffent, nan, je n'suis plus Caliméro Vite, fais d'la magie, et fais bosser mon magic stick, négro J'attends l'jour où McDo' f'ra de la San Pellegrino J'ai trop d'imagination, j'pourrais sampler mes rideaux J'passe dans trop d'revues yah, j'pourrais entraîner l'Lido Multi-syllabiques négro, en cinq syllabes J'génocide des MC comme pour une voile en chinchilla, yeah La, la-la-la, la, je leur fais la guerre Le cornichon est acide, la défaite amère, yeah La, la-la-la, la, apporte-moi mon Royal Cheese, sur gros nichons Grosse artillerie, pour t'infliger ta punition, yeah 'Aud-ch' Shake it up up, rock your body and Make it knock knock, when you're partyin' Take a break right in the audience Do your footwork, break, and stop again I'm lookin sharp, you can't compete with the champ Steady flick'..</t>
+          <t>Hey, Joky, négro Ha-ha M.T.P, nigga , j'te vois, négro Les Monsieur, négro han Yo, j'arrive cool, peace Han-han J'prépare mes outils, j'prépare mes coups d'vices Han-han Quand j'vais chez ta meuf, j'repars les couilles vides J'suis un putain génie comme Van Ludwig Han-han Yo, j'arrive genre toc-toc, toc-toc, qui est là, négro ? Ha Pour m'écouter, c'est lunettes 3D, home cinéma, minimum Joky débarque direct, GHB dans l'apéro Vas-y sers-toi, sers tes copines, c'est Joke qui régale, ok Han-han En deux s'condes, deux s'condes, t'es plus de c'monde Deux s'condes, trop speed, j'ai même plus d'ombre Yeah A force de gratter des feat', t'as même plus d'ongles T'as même plus honte, comme ces mecs qui s'payent du Hey, hey Speed, comme Michael Schumacher Négro Fuck, fuck, j'suis Michael Schumacher, négro Toutes tes pétasses ont la bouche en coeur, yo-yo, yo-yo Fuck, j'regarde même plus l'compteur, négro Chevrolet Camaro SS, Lambo' Avec deuxtrois pétasses, sévères dans l'dos Chevrolet Camaro SS, Lambo-oh-oh, oh-ohh, négro Hey, han, yo J'ai une pétasse à chaque boule Deux bombes, Kaboul-Afghan Tout l'monde coule, comme le sale temps, aboule On fait péter les magnums comme si c'était des glaces Et Miss balance des noms sur la liste comme si c'était des 'casses-dédi' Au détecteur d'swag, bitch, comme si j'avais pas d'crédit Des mecs durs dans l'équipe, des négros qui cassent Diddy Chaque week-end on s'met une race, ashkénazes Toujours rasées sont mes 'tasses, skinheads Brrah Yo, j'parle pas des fausses Ambers Ramène la crémière, que j'trempe mes toasts dans l'beurre J'prends ta meuf en levrette, j'lui fais pas un gosse dans l'dos J'vais mourir à deux-cent, au volant d'une grosse Lambo' Ok Négro, j'suis trop speed, Ay-Ay-Ayrton Senna Mhh Négro, tu sors avec une grosse chienne comme Senna Pour Les Monsieur, pour mes gars, pétés des yeux Des dégâts, très, très graves Fais des écarts, très, très hard Les gars Hey, arrêtez d'pper-ra', tout d'suite Speed, comme Michael Schumacher Fuck, fuck, j'suis Michael Schumacher, négro Toutes tes pétasses ont la bouche en coeur, yo-yo, yo-yo Fuck, j'regarde même plus l'compteur, négro Chevrolet Camaro SS, Lambo' Avec deuxtrois pétasses, sévères dans l'dos Chevrolet Camaro SS, Lambo-oh-oh, oh-ohh, négro Yo, yo, yo, yo Tu nous baises une fois, on te baise deux fois Tu nous baises trois fois, donc on rebaise ta femme Les Monsieur, yo, Les Monsieur, yo Les Monsieur, yo, Les Monsieur, yo Tu nous baises une fois, on te baise deux fois Tu nous baises trois fois, donc on rebaise ta femme Les Monsieur, yo, Les Monsieur, yo Les Monsieur, yo, Les Monsieur, yo2</t>
         </is>
       </c>
     </row>
@@ -4534,12 +4534,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>​Sac à dos</t>
+          <t>Sec</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Sac à dos, sac à dos Sac à dos, sac à dos Cest moi qui tsuis à lécole, bourré de trucs et de bricoles Tout ce quil t'faut pour la journée, dans mon ventre cest rangé Sac à dos, sac à dos Sac à dos, sac à dos Ouaaais Un coup djeune pour le rap là Cest un rap super sale, je nsuis pas ton cops Tu fais pitié profond, présent pour kicker Yo ass nigga, je reste unique sur la place Awhh Un coup djeune pour le rap là Yo Cest un rap super sale, han, je nsuis pas ton cops, yo Awhh Tu fais pitié profond Nigga Aïe, présent pour kicker, han Yo ass nigga, je reste unique sur la place, yo, yo Jsuis meilleur quAkinator, yo, jmets tout le monde daccord Haan-haan Chaque week-end jme filme un porno, jtape ça comme Tina Turner Jsuis réalis-acteur, han, nigga, avec ma team on sest farci ta soeur, nigga Yo, han On ma dis Joke, tas pris des ailes donc jserre que des avions Je leur fais goûter mon flow, tous les MC smettent à laviron Silence des agneaux, jvais baiser ta pauvre chèvre Han Fais tourner la coke jte cuisine ça comme dans Top chef Crack music Jai cinq kilos dans mon sac à doc Wah, wah, wah, wah Yo, sac à dos Wah, wah, wah, wah Négro on fait pas dcadeau Wah, wah, wah, wah Pas dcadeau Wah, wah, wah Han, comment des paroles si fines peuvent sortir de mes grosses lèvres ? Jfais des rêves si sales, jai du mal à croire qucest mes propres rêves Js'rais au rang zéro que si yavait un top ten Mon flow n'se mélange pas, jviens pisser dans ton cocktail Jsuis venu pour shooter père et mère Pouw Jtouche plus de chattes quun vétérinaire Jpeux les faire gueuler des heures dans le périmètre Personne ne peut méliminer ou bien imiter mes gimmicks, yo Jtaffe jour et nuit genre intérimaire Jkick ça sévère, genre une paire de air max, qui fait hyper mal Qui peut vous couper aussi proprement qu'mes couplets Yo Négro, c'est Ya quen termes de pétasse que javance à deux à lheure Les négros vendent deux barrettes et se croient dans the wire Jte laisse tout sanguinolent jfais mes courses en cambriolant Yo, jsuis un putain dgénie, jsuis fly comme un tapis volant Fuck, nigga Jai cinq kilos dans mon sac à doc Wah, wah, wah, wah Yo, sac à dos Wah, wah, wah, wah Négro on fait pas dcadeau Wah, wah, wah, wah Pas dcadeau Wah, wah, wah Yo, hey Au micro jmets la pression, jpose comme un ultimatum Négro, jpasse le shalom Aïe, aïe, aïe à toutes les 'tasses qui cultivent la pomme Jai vendu du fruit pour gouter au fruit défendu Jaurais beau vouloir mrach'ter jserai jamais un vendu Fuck Si tu as la langue pendue tu finiras dans les cordes Oh-oh Jrépète, jserai jamais un vendu, comme si jmétais donné âme et corps Âme et corps Jviens faire lamour à tes poches Oh Threesome, foursome jfais tourner à mes potes Oh-oh Jsuis unboycotté par les bonnes Oh-oh, yo, boycotté par les moches On est dans la plaza, on mise sur lpanneau exit Oh-oh Les négros se serrent la ceinture comme des putain danorexiques Oh-oh Blé, pognon, monnaie, argent sont au top de mon lexique Heyy Jpasse le big up à mes ex, faites un bibi à votre ex-bite Fuck, négro Jai cinq kilos dans mon sac à doc Wah, wah, wah, wah Yo, sac à dos Wah, wah, wah, wah Négro on fait pas dcadeau Wah, wah, wah, wah Pas dcadeau Wah, wah, wah Les boomers craquent et ton boule dépasse Lécouteur crache et la foule gueule grave, là, awh Girl bounce stu veux, vas-y, aguiche- moi A la fin tu fais les comptes, le DJ ramasse les ronds, awh Non, nan-nan-nan-nan-nan, ferme ta gueule Quand je rappe, et ki-ki-ki-kick Yo asshole, tu viens de prendre une baffe Awh Awh Est-ce que tu veux la marque de mes bottes sur ton derche ? Est-ce que tu veux la marque de mes bottes sur ton derche ? Awh Est-ce que tu veux la marque de mes bottes sur ton derche ? Est-ce que tu veux la marque de mes bottes sur ton derche ?1</t>
+          <t>Et j'vise mon rap pour les filles et pour les chèques Han Yeah Ok Joke Si-si aîe Ah-ah-ah-ah-ah Bang, si-si, yeah Ok, han On m'a dit M.T.P, non J'ai dis Pas d'MC's bidons Sec, sec, sec, sec, sec, sec, sec, sec Joke, yeah Oh Yeah Yeah, yeah, yeah Ok, yo Yah, yo Sec, sec, sec, sec, sec, sec, sec, sec</t>
         </is>
       </c>
     </row>
@@ -4551,12 +4551,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Schumacher</t>
+          <t>Shonen</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Hey, Joky, négro Ha-ha M.T.P, nigga , j'te vois, négro Les Monsieur, négro han Yo, j'arrive cool, peace Han-han J'prépare mes outils, j'prépare mes coups d'vices Han-han Quand j'vais chez ta meuf, j'repars les couilles vides J'suis un putain génie comme Van Ludwig Han-han Yo, j'arrive genre toc-toc, toc-toc, qui est là, négro ? Ha Pour m'écouter, c'est lunettes 3D, home cinéma, minimum Joky débarque direct, GHB dans l'apéro Vas-y sers-toi, sers tes copines, c'est Joke qui régale, ok Han-han En deux s'condes, deux s'condes, t'es plus de c'monde Deux s'condes, trop speed, j'ai même plus d'ombre Yeah A force de gratter des feat', t'as même plus d'ongles T'as même plus honte, comme ces mecs qui s'payent du Hey, hey Speed, comme Michael Schumacher Négro Fuck, fuck, j'suis Michael Schumacher, négro Toutes tes pétasses ont la bouche en coeur, yo-yo, yo-yo Fuck, j'regarde même plus l'compteur, négro Chevrolet Camaro SS, Lambo' Avec deuxtrois pétasses, sévères dans l'dos Chevrolet Camaro SS, Lambo-oh-oh, oh-ohh, négro Hey, han, yo J'ai une pétasse à chaque boule Deux bombes, Kaboul-Afghan Tout l'monde coule, comme le sale temps, aboule On fait péter les magnums comme si c'était des glaces Et Miss balance des noms sur la liste comme si c'était des 'casses-dédi' Au détecteur d'swag, bitch, comme si j'avais pas d'crédit Des mecs durs dans l'équipe, des négros qui cassent Diddy Chaque week-end on s'met une race, ashkénazes Toujours rasées sont mes 'tasses, skinheads Brrah Yo, j'parle pas des fausses Ambers Ramène la crémière, que j'trempe mes toasts dans l'beurre J'prends ta meuf en levrette, j'lui fais pas un gosse dans l'dos J'vais mourir à deux-cent, au volant d'une grosse Lambo' Ok Négro, j'suis trop speed, Ay-Ay-Ayrton Senna Mhh Négro, tu sors avec une grosse chienne comme Senna Pour Les Monsieur, pour mes gars, pétés des yeux Des dégâts, très, très graves Fais des écarts, très, très hard Les gars Hey, arrêtez d'pper-ra', tout d'suite Speed, comme Michael Schumacher Fuck, fuck, j'suis Michael Schumacher, négro Toutes tes pétasses ont la bouche en coeur, yo-yo, yo-yo Fuck, j'regarde même plus l'compteur, négro Chevrolet Camaro SS, Lambo' Avec deuxtrois pétasses, sévères dans l'dos Chevrolet Camaro SS, Lambo-oh-oh, oh-ohh, négro Yo, yo, yo, yo Tu nous baises une fois, on te baise deux fois Tu nous baises trois fois, donc on rebaise ta femme Les Monsieur, yo, Les Monsieur, yo Les Monsieur, yo, Les Monsieur, yo Tu nous baises une fois, on te baise deux fois Tu nous baises trois fois, donc on rebaise ta femme Les Monsieur, yo, Les Monsieur, yo Les Monsieur, yo, Les Monsieur, yo2</t>
+          <t>Young nigga Kna mean Oui, oui, je me sens mieux Négro, j'suis frais depuis FUBU,Starlight KoffiFUBU Ma bitch j'baisse son crew Ouhouh Ma bitch j'baisse son crew Ouhh V.V.S. à mon cou Ouhh J'puffe Gorilla Glue Ouhh J'lui pose sur la joue Han Je jette des billets en l'air Je rentre deux missiles dans l'fer Dans l'fer Fuck, on a connu l'enfer Maintenant check mon compte bancaire J'mets des trous dans tes gangsters, j'fais du sale, je sais quand l'faire J'suis en lumière, pas n chair La 'tasse monte, comme ls enchères Go up, go up, go up Faire l'oseille c'est essentiel Blow up, blow up, blow up My nigga, j'ai une ankh sur la pommette Ah-ahh Blow up, blow up My nigga, j'suis griot, j'suis pas poète Blow up, blow up On débarque, 'me-ar', comme au Koweït Blow up, blow up T'es au sol tu veux m'dire comment faut être Hein T'es belle et intelligente, faut qu'on connecte, oh-ohhh J'ai touché sa pussy, elle est trop wet, oh-ohhh Nigga, vingt-quatre carats sur l'abdomen, oh-ohhh J'pose des fleurs sur ta tombe, j'fume le pollen, oh-ohhh Yeah, j'suis dans sa 'tte-cha', fais pas causette Ouhouhh Négro, t'as un swag d'vendeur à la sauvette Ouhouhh Tu sais que j'suis fort comme dans un shonen Ouhouhh La France vole l'Afrique, j'peux pas être honnête Ouhouhh J'la met dans ta chienne, toi tu la promènes Personne ne peut rien faire fasse aux règles Les rappeurs étudient mes théorèmes, hey Ils m'ont étudié les négros Bless all, j'apprécie l'amour Yeah, young king on this bitch Ekusutash no seishin</t>
         </is>
       </c>
     </row>
@@ -4568,12 +4568,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Sec</t>
+          <t>Si tu m’aimes</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Et j'vise mon rap pour les filles et pour les chèques Han Yeah Ok Joke Si-si aîe Ah-ah-ah-ah-ah Bang, si-si, yeah Ok, han On m'a dit M.T.P, non J'ai dis Pas d'MC's bidons Sec, sec, sec, sec, sec, sec, sec, sec Joke, yeah Oh Yeah Yeah, yeah, yeah Ok, yo Yah, yo Sec, sec, sec, sec, sec, sec, sec, sec</t>
+          <t>Disclaimer Transcrit à partir d'un extrait vidéo Tequila et , Dieu sait où j'ai mis l'oseille Fuck ta bouche et tes conseils, j'tend la main que quand on me paye, men Chaîne en or, la maille est cubaine, cubaine T'as goûté ma came et tu l'aimes Amène d'autres femmes si tu m'aimes -tu m'aimes Amène d'autres femmes si tu m'aimes -tu m'aimes</t>
         </is>
       </c>
     </row>
@@ -4585,12 +4585,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Shonen</t>
+          <t>Skur</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Young nigga Kna mean Oui, oui, je me sens mieux Négro, j'suis frais depuis FUBU,Starlight KoffiFUBU Ma bitch j'baisse son crew Ouhouh Ma bitch j'baisse son crew Ouhh V.V.S. à mon cou Ouhh J'puffe Gorilla Glue Ouhh J'lui pose sur la joue Han Je jette des billets en l'air Je rentre deux missiles dans l'fer Dans l'fer Fuck, on a connu l'enfer Maintenant check mon compte bancaire J'mets des trous dans tes gangsters, j'fais du sale, je sais quand l'faire J'suis en lumière, pas n chair La 'tasse monte, comme ls enchères Go up, go up, go up Faire l'oseille c'est essentiel Blow up, blow up, blow up My nigga, j'ai une ankh sur la pommette Ah-ahh Blow up, blow up My nigga, j'suis griot, j'suis pas poète Blow up, blow up On débarque, 'me-ar', comme au Koweït Blow up, blow up T'es au sol tu veux m'dire comment faut être Hein T'es belle et intelligente, faut qu'on connecte, oh-ohhh J'ai touché sa pussy, elle est trop wet, oh-ohhh Nigga, vingt-quatre carats sur l'abdomen, oh-ohhh J'pose des fleurs sur ta tombe, j'fume le pollen, oh-ohhh Yeah, j'suis dans sa 'tte-cha', fais pas causette Ouhouhh Négro, t'as un swag d'vendeur à la sauvette Ouhouhh Tu sais que j'suis fort comme dans un shonen Ouhouhh La France vole l'Afrique, j'peux pas être honnête Ouhouhh J'la met dans ta chienne, toi tu la promènes Personne ne peut rien faire fasse aux règles Les rappeurs étudient mes théorèmes, hey Ils m'ont étudié les négros Bless all, j'apprécie l'amour Yeah, young king on this bitch Ekusutash no seishin</t>
+          <t>Zaki Jokee J'suis en Loubout' nigga Je skuuur Je skur, je skur, je skur Yeah, yeah Je skur sur ces négros, 260 plus un créneau, yeah Je skur sur ces négros, petit mégot sur le taie d'o', yeah Je skur sur ta pétasse, je skur sur ta pétasse, yeah T'as l'flow d'la marée basse, j'ai une queue d'poney, des ailes à la Pégase, han J'fais la pluie et l'beau temps dans le strip club, la pluie, c'est l'beau temps dans le strip club J'prie pour qu'elle mouille, elle, pour qu'il pleuve, hella, s'effrite comme un mille-feuilles J'lance les billets avec les Lions d'Brazza', sur satanique tête aux pieds en Prada La limite, c'est l'ciel pas la faciale, sur la tête à la NASA Dérape dans une Corvette, skur Dix-huit carats sur le Colgate, skur Dis pas à la lune tout c'qu'on s'est dit J'transforme ton contrat en confettis J'pose un lingot d'or sur ma banque yeah, yeah, yeah, yeah J'pose du LSD sur ta langue yeah, yeah, yeah, yeah Des diamants turquoises sur ma dent yeah, yeah, yeah, yeah J'pose un PPK sur ta tempe yeah, yeah, yeah, yeah Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Drapeau noir sur le navire, fusil allemand cherche ton avenir Première balle traverse le pare-brise, deuxième balle arrache ton âme triste J'veux faire plus de cash que la douane volante, plus de cash que la grasse d'Hollande J'suis un génie et une étoile, j'apparais dans l'noir, pas besoin d'vos lampes J'veux qu'un tour d'ma villa soit plus long qu'un tour du périph' Moi et Joke, shoot le shérif, rares comme mètres carrés dans Bériz Rah, ils sont comme dans Belly, yeah mais j'agis comme bélier Quand ils s'agitent, j'attends qu'les euros montent comme bulle dans le Perrier Génération Mad Max, bob Lacoste et scal-pas Tony jouant dans le plasma, met toute la money dans classe A et je skur Même sans permis, zéro à cent dans la Berline Modèle allemand, j'm'éternise pas, tu cherches l'argent et les belles miss, moi je skur Six dans l'chargeur, jump comme jeune Vince Carter Burberry comme larre-feuille, j'rime comme jeune Shawn Corey Carter, yeah Cherche le cacharel, ils cherchent à nous trahir depuis Nazareth Ils nous jugent comme la race inférieure, pendant qu'on parle de tout ce cash à faire En classe affaire J'pose un lingot d'or sur ma banque yeah, yeah, yeah, yeah J'pose du LSD sur ta langue yeah, yeah, yeah, yeah Des diamants turquoises sur ma dent yeah, yeah, yeah, yeah J'pose un PPK sur ta tempe yeah, yeah, yeah, yeah Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur J'pose un lingot d'or sur ma banque yeah, yeah, yeah, yeah J'pose du LSD sur ta langue yeah, yeah, yeah, yeah Des diamants turquoises sur ma dent yeah, yeah, yeah, yeah J'pose un PPK sur ta tempe yeah, yeah, yeah, yeah Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur J'ai une arme à feu sur la tempe, yeah J'aime qu'la liasse écrase sur ma jambe, yeah Les p'tits écrasent et vendent la blanche, yeah Deux jeunes princes arrivent dans la banque, yeah J'ai une arme à feu sur la tempe, yeah J'aime qu'la liasse écrase sur ma jambe, yeah Les p'tits écrasent et vendent la blanche, yeah Deux jeunes princes arrivent dans la banque, yeah Jokeezy, Veezir, Ikaz Boi MSNR, 89, 90 PS, MTP, yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -4602,12 +4602,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Si tu m’aimes</t>
+          <t>Slide*</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait vidéo Tequila et , Dieu sait où j'ai mis l'oseille Fuck ta bouche et tes conseils, j'tend la main que quand on me paye, men Chaîne en or, la maille est cubaine, cubaine T'as goûté ma came et tu l'aimes Amène d'autres femmes si tu m'aimes -tu m'aimes Amène d'autres femmes si tu m'aimes -tu m'aimes</t>
+          <t>Disclaimer Transcrit à partir d'un extrait Hai kurashifaido ongaku Yeah Re-noi, jai la vision, m'fais 'pe-pom par des jumelles Les négros voudraient slide sur moi, terminent dans les tunnels J'lui met une faciale si elle est propre sur elle, propre sur elle Elle veut une bague au doigt, elle veut un rock sur elle, rock, nigga Moshpit dans sa chatte comme j'fais du rock sur elle Pah, pah Vingt-quatre carats sur moi, j'mets pas du toc' sur lle Ta</t>
         </is>
       </c>
     </row>
@@ -4619,12 +4619,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Skur</t>
+          <t>Smile</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Zaki Jokee J'suis en Loubout' nigga Je skuuur Je skur, je skur, je skur Yeah, yeah Je skur sur ces négros, 260 plus un créneau, yeah Je skur sur ces négros, petit mégot sur le taie d'o', yeah Je skur sur ta pétasse, je skur sur ta pétasse, yeah T'as l'flow d'la marée basse, j'ai une queue d'poney, des ailes à la Pégase, han J'fais la pluie et l'beau temps dans le strip club, la pluie, c'est l'beau temps dans le strip club J'prie pour qu'elle mouille, elle, pour qu'il pleuve, hella, s'effrite comme un mille-feuilles J'lance les billets avec les Lions d'Brazza', sur satanique tête aux pieds en Prada La limite, c'est l'ciel pas la faciale, sur la tête à la NASA Dérape dans une Corvette, skur Dix-huit carats sur le Colgate, skur Dis pas à la lune tout c'qu'on s'est dit J'transforme ton contrat en confettis J'pose un lingot d'or sur ma banque yeah, yeah, yeah, yeah J'pose du LSD sur ta langue yeah, yeah, yeah, yeah Des diamants turquoises sur ma dent yeah, yeah, yeah, yeah J'pose un PPK sur ta tempe yeah, yeah, yeah, yeah Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Drapeau noir sur le navire, fusil allemand cherche ton avenir Première balle traverse le pare-brise, deuxième balle arrache ton âme triste J'veux faire plus de cash que la douane volante, plus de cash que la grasse d'Hollande J'suis un génie et une étoile, j'apparais dans l'noir, pas besoin d'vos lampes J'veux qu'un tour d'ma villa soit plus long qu'un tour du périph' Moi et Joke, shoot le shérif, rares comme mètres carrés dans Bériz Rah, ils sont comme dans Belly, yeah mais j'agis comme bélier Quand ils s'agitent, j'attends qu'les euros montent comme bulle dans le Perrier Génération Mad Max, bob Lacoste et scal-pas Tony jouant dans le plasma, met toute la money dans classe A et je skur Même sans permis, zéro à cent dans la Berline Modèle allemand, j'm'éternise pas, tu cherches l'argent et les belles miss, moi je skur Six dans l'chargeur, jump comme jeune Vince Carter Burberry comme larre-feuille, j'rime comme jeune Shawn Corey Carter, yeah Cherche le cacharel, ils cherchent à nous trahir depuis Nazareth Ils nous jugent comme la race inférieure, pendant qu'on parle de tout ce cash à faire En classe affaire J'pose un lingot d'or sur ma banque yeah, yeah, yeah, yeah J'pose du LSD sur ta langue yeah, yeah, yeah, yeah Des diamants turquoises sur ma dent yeah, yeah, yeah, yeah J'pose un PPK sur ta tempe yeah, yeah, yeah, yeah Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur J'pose un lingot d'or sur ma banque yeah, yeah, yeah, yeah J'pose du LSD sur ta langue yeah, yeah, yeah, yeah Des diamants turquoises sur ma dent yeah, yeah, yeah, yeah J'pose un PPK sur ta tempe yeah, yeah, yeah, yeah Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur Skur, skur, skur, skur J'ai une arme à feu sur la tempe, yeah J'aime qu'la liasse écrase sur ma jambe, yeah Les p'tits écrasent et vendent la blanche, yeah Deux jeunes princes arrivent dans la banque, yeah J'ai une arme à feu sur la tempe, yeah J'aime qu'la liasse écrase sur ma jambe, yeah Les p'tits écrasent et vendent la blanche, yeah Deux jeunes princes arrivent dans la banque, yeah Jokeezy, Veezir, Ikaz Boi MSNR, 89, 90 PS, MTP, yeah, yeah</t>
+          <t>You and me forever, Sara Smile Oh, won't you s-, smile Oui, oui, bitch Oh, won't you s-, smile Big, big glitch Oh, won't you s-, smile Hey Chill Oh, won't you s- Tu sais que jsmile quand jai ldroit à deux pussys That's right Tu sais que jsmile quand jmets des feuilles dans le Gucci Big money Oh, won't you s- Tu sais que jsmile quand jreçois une line qui cogne Hey Tu sais que jsmile parce qu'jai la beuh à Barrington Bang, bang, bang Oh, won't you s- Tu sais que jsmile quand jvois les colons quitter lAfrique Hey, hey, hey Tu sais que jsmile parce que jsais qu ça les fatigue Oh, won't you s- Tu sais que jsmil quand jvois le nigga dans un miroir Oui, bitch Jattends pas quon maime, jmets dla lumière sur mon ivoire Hey Oh, won't you s- Or rose sur mon ivoire, diamant à mon cou Shine Si jattrape ton ennemi, jvais porter ses dents à mon cou Hey Oh, won't you s- Tu sais que jsmile au soleil Et ils mregardent bizarre, ils préfèrent pleurer pour des choses qui sont dérisoires Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s- Jai une foi à toute épreuve Jai eu toutes les preuves Bitch, écoute mes oeuvres Go Oh, won't you s- Quand tu reçois pas cque tu veux faut que tu souris Parce quil faut pas mordre le sein qui te nourrit Oh, won't you s- Pense aux fois où tas pas eu cque tu voulais, parce que cétait pas bon pour toi et Dieu te la prouvé Oh, won't you s- Laisse objets qui portent la poisse aux objets trouvés Parce qu'dans la vie faut prendre des L pour prendre des double V Oh, won't you s- Jaime la vie parce qu'y a une vie après la vie Si Dieu tenvoie un signe faut qu'tu interagisses Go, go Oh, won't you s- Jai la vision et jl'ai eue par mes racines, donc rapproche toi des tiennes Fils, cest impératif Go, go Oh, won't you s- Tattire le négatif quand tes toujours négatif Moi jattrape limpératrice par la kératine Bitch Oh, won't you s- Pharaon est magique, comme Daniel Radcliffe Négro, faut qutu smile, cest la meilleure des thérapies, oui, bitch Go, go, go Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s- Oh, won't you s- Oh, won't you s- Oh, won't you s-</t>
         </is>
       </c>
     </row>
@@ -4636,12 +4636,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Slide*</t>
+          <t>Solitaire*</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait Hai kurashifaido ongaku Yeah Re-noi, jai la vision, m'fais 'pe-pom par des jumelles Les négros voudraient slide sur moi, terminent dans les tunnels J'lui met une faciale si elle est propre sur elle, propre sur elle Elle veut une bague au doigt, elle veut un rock sur elle, rock, nigga Moshpit dans sa chatte comme j'fais du rock sur elle Pah, pah Vingt-quatre carats sur moi, j'mets pas du toc' sur lle Ta</t>
+          <t>Disclaimer Transcrit à partir d'extraits vidéo FREAKEY! FREAKEY! FREAKEY! FREAKEY! Yah J'ai le même bâton qu'dans City Hunter Yah Bitch regarde ma liasse, donne-moi ton number J'suis solitaire et j'suis bon pour faire l'oseille Et j'peux mettre deux solitaires sur tes oreilles Yah L'négro est deep, Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep, Yah L'négro est deep Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep Let's go, let's go Faut qu'je bouffe le cul d'Jennifer Lopez Si l'truc est obèse, sûr qu'j'tiens mes promesses Négro t'es trop lège, mon cur est trop lég' J'suis niveau Dieu, t'es niveau collège Négro est pieux, j'me lève et prie What ? Verbal odieux, j'claque dans vos yeux What ? Elle suce mon pénis au bord du précipice J'te mets un drap et j'vais méditer six piges J'ai le même bâton qu'dans City Hunter Yah Bitch regarde ma liasse, donne-moi ton number J'suis solitaire et j'suis bon pour faire l'oseille Et j'peux mettre deux solitaires sur tes oreilles Yah L'négro est deep, Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep, Yah L'négro est deep Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep Let's go, let's go</t>
         </is>
       </c>
     </row>
@@ -4653,12 +4653,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Smile</t>
+          <t>Stacy Adams</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>You and me forever, Sara Smile Oh, won't you s-, smile Oui, oui, bitch Oh, won't you s-, smile Big, big glitch Oh, won't you s-, smile Hey Chill Oh, won't you s- Tu sais que jsmile quand jai ldroit à deux pussys That's right Tu sais que jsmile quand jmets des feuilles dans le Gucci Big money Oh, won't you s- Tu sais que jsmile quand jreçois une line qui cogne Hey Tu sais que jsmile parce qu'jai la beuh à Barrington Bang, bang, bang Oh, won't you s- Tu sais que jsmile quand jvois les colons quitter lAfrique Hey, hey, hey Tu sais que jsmile parce que jsais qu ça les fatigue Oh, won't you s- Tu sais que jsmil quand jvois le nigga dans un miroir Oui, bitch Jattends pas quon maime, jmets dla lumière sur mon ivoire Hey Oh, won't you s- Or rose sur mon ivoire, diamant à mon cou Shine Si jattrape ton ennemi, jvais porter ses dents à mon cou Hey Oh, won't you s- Tu sais que jsmile au soleil Et ils mregardent bizarre, ils préfèrent pleurer pour des choses qui sont dérisoires Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s- Jai une foi à toute épreuve Jai eu toutes les preuves Bitch, écoute mes oeuvres Go Oh, won't you s- Quand tu reçois pas cque tu veux faut que tu souris Parce quil faut pas mordre le sein qui te nourrit Oh, won't you s- Pense aux fois où tas pas eu cque tu voulais, parce que cétait pas bon pour toi et Dieu te la prouvé Oh, won't you s- Laisse objets qui portent la poisse aux objets trouvés Parce qu'dans la vie faut prendre des L pour prendre des double V Oh, won't you s- Jaime la vie parce qu'y a une vie après la vie Si Dieu tenvoie un signe faut qu'tu interagisses Go, go Oh, won't you s- Jai la vision et jl'ai eue par mes racines, donc rapproche toi des tiennes Fils, cest impératif Go, go Oh, won't you s- Tattire le négatif quand tes toujours négatif Moi jattrape limpératrice par la kératine Bitch Oh, won't you s- Pharaon est magique, comme Daniel Radcliffe Négro, faut qutu smile, cest la meilleure des thérapies, oui, bitch Go, go, go Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s-, smile Oh, won't you s- Oh, won't you s- Oh, won't you s- Oh, won't you s-</t>
+          <t>Waw Richie dans la maison Flaco dans la maison Ke-Jo dans la maison Leknifrug dans la maison Au-dessus comme un hélico' J'suis pas Charlie, j'suis Doc Gyneco Avant c'était lourd, là c'est trop Richie Beats là c'est pro Bienvenue, bienvenue, bienvenue T'as vu la caisse, t'es revenu Flaco mundo c'est du caviar Rap français c'est du Prosecco Quand c'est trop, c'est trop J'ai sé-po c'est beau J'ai de l'amour propre Je touche pas ces thons J'te fais pas galérer dès l'intro c'est bon Si t'es méga bonne J'te fais crier comme un mégaphone Négro j'suis plus sur ma béquille J'suis dans la sauce avec Mehdi Tout s'est passé comme je l'avais prédit Pour ma baraque je fais pas de crédit Le savoir est une arme, on va rer-ti J'sors d'ta chatte, c'est encyclopédie Y'a que l'oseille qui peut combler l'appétit Yeah négro Tu sais comment ça se passe dans l'équipe, frère Tout le monde est liassé, frère Quand on est dans l'club ça s'passe mal Baby viens j'te lance une somme wah J'sais dépenser comme tu aimes wah Baby viens j'te lance une somme yeah J'vais t'faire danser comme une folle J'sais dépenser comme tu aimes goddamn J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes Mégamonstre Pour toi j'ai les pesos Tu lui fais des belles sauces Confondu sa chatte avec un cerceau Mon but c'est la Ferrari Enzo Ton but c'est de sortir de la friendzone Ils n'aiment plus HM Moi j'aime toujours pas Kenzo C'est pas les trois points qu'on va shooter Baby viens j'te lance une somme wah J'ai dépensé comme tu aimes wah Baby viens j'te lance une somme yeah J'vais t'faire danser comme une folle J'sais dépenser comme tu aimes goddamn J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes</t>
         </is>
       </c>
     </row>
@@ -4670,12 +4670,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Solitaire*</t>
+          <t>StarTrak</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'extraits vidéo FREAKEY! FREAKEY! FREAKEY! FREAKEY! Yah J'ai le même bâton qu'dans City Hunter Yah Bitch regarde ma liasse, donne-moi ton number J'suis solitaire et j'suis bon pour faire l'oseille Et j'peux mettre deux solitaires sur tes oreilles Yah L'négro est deep, Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep, Yah L'négro est deep Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep Let's go, let's go Faut qu'je bouffe le cul d'Jennifer Lopez Si l'truc est obèse, sûr qu'j'tiens mes promesses Négro t'es trop lège, mon cur est trop lég' J'suis niveau Dieu, t'es niveau collège Négro est pieux, j'me lève et prie What ? Verbal odieux, j'claque dans vos yeux What ? Elle suce mon pénis au bord du précipice J'te mets un drap et j'vais méditer six piges J'ai le même bâton qu'dans City Hunter Yah Bitch regarde ma liasse, donne-moi ton number J'suis solitaire et j'suis bon pour faire l'oseille Et j'peux mettre deux solitaires sur tes oreilles Yah L'négro est deep, Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep, Yah L'négro est deep Yah, fleurs dans le zip, Yah Rentre dans le VIP, Yah, suce dans le Jeep Let's go, let's go</t>
+          <t>J'ai grind ma beuh au réveil, je suis dattaque, that's right Pour ma famille et l'oseille, je ne blague as-p' Tu sais qu'je ride depuis l'époque du StarTAC Tu sais que j'rappe depuis l'époque de Star Trak Okay J'fais l'oseille, jme fais pe-pom' dvant Hip-Hop Honeys Oui, j'ai l'oseille, donc quand je parle t'obéis Jveux cinq femmes au pays, cinq houses au pays J'rock Undercover, j'porte pas du OBEY Si t'es bonne et mignonne sûr j'suis okay Bébé, j'te préviens moi j'suis un géni A l'équinoxe, j'vais m'faire un Zénith J'lui casse l dos, je lui parle même pas Go Je ball comme Thierry et Anelka Go Frais, comme sorti du placenta Ouaais Oseille dans le crâne, j'suis pas sympa Ouais La concurrence faut qu'j'en fasse un tas Go Je veux qu'ils plongent, je veux qu'ils fassent un plat Si tu manges, bitch, faut qu'tu passes un plat Go, go, go J'passe pas la couronne, je passe un cap Pas faire l'oseille c'est pas acceptable J'crois pas cet homme, je crois pas cette femme J'suis la lumière j'suis inarrétable J'suis la lumière j'suis inarrétable Quand j'prend le mic, j'ai des eurêka That's Somme dans ma poche, elle est balèze Hey Quand j'suis au bled je suis à l'aise Hey La concu' s'jette de la falaise Hey Les rappeurs français, c'est des chialeuses Ma nouvelle 'tasse elle est moelleuse Bébé, tu sais j'suis un hustler Chasse les fantômes, comme Ghostbusters J'ai grind ma beuh au réveil, je suis d'attaque, that's right Pour ma famille et l'oseille, je ne blague 'as-p' Tu sais qu'je ride depuis l'époque du StarTAC Tu sais que j'rappe depuis l'époque de Star Trak</t>
         </is>
       </c>
     </row>
@@ -4687,12 +4687,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Stacy Adams</t>
+          <t>Stress</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Waw Richie dans la maison Flaco dans la maison Ke-Jo dans la maison Leknifrug dans la maison Au-dessus comme un hélico' J'suis pas Charlie, j'suis Doc Gyneco Avant c'était lourd, là c'est trop Richie Beats là c'est pro Bienvenue, bienvenue, bienvenue T'as vu la caisse, t'es revenu Flaco mundo c'est du caviar Rap français c'est du Prosecco Quand c'est trop, c'est trop J'ai sé-po c'est beau J'ai de l'amour propre Je touche pas ces thons J'te fais pas galérer dès l'intro c'est bon Si t'es méga bonne J'te fais crier comme un mégaphone Négro j'suis plus sur ma béquille J'suis dans la sauce avec Mehdi Tout s'est passé comme je l'avais prédit Pour ma baraque je fais pas de crédit Le savoir est une arme, on va rer-ti J'sors d'ta chatte, c'est encyclopédie Y'a que l'oseille qui peut combler l'appétit Yeah négro Tu sais comment ça se passe dans l'équipe, frère Tout le monde est liassé, frère Quand on est dans l'club ça s'passe mal Baby viens j'te lance une somme wah J'sais dépenser comme tu aimes wah Baby viens j'te lance une somme yeah J'vais t'faire danser comme une folle J'sais dépenser comme tu aimes goddamn J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes Mégamonstre Pour toi j'ai les pesos Tu lui fais des belles sauces Confondu sa chatte avec un cerceau Mon but c'est la Ferrari Enzo Ton but c'est de sortir de la friendzone Ils n'aiment plus HM Moi j'aime toujours pas Kenzo C'est pas les trois points qu'on va shooter Baby viens j'te lance une somme wah J'ai dépensé comme tu aimes wah Baby viens j'te lance une somme yeah J'vais t'faire danser comme une folle J'sais dépenser comme tu aimes goddamn J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes wah J'sais dépenser comme tu aimes</t>
+          <t>Pharaon in this bitch Let's go Starlight Koffi Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey Si t'as rien d'beau à me dire ne viens pas me press La petite j'lui parle même pas, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash, big money, big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes, Pharaon Big cash, big money, big cash J'trust pas les bipèdes J'tire sur ton bitch ass, yes, pa-paw La bae a un 'vu-ca' énorme Je ne calcule pas les normes Ferrari, ne fait pas les soldes Tu lis des droits par les hommes J'suis pur en vrai, ça l'étonne, that's right Mon guide me tape sur l'épaule, hey J'met de la zer' sur les pôles, bang J'dors toujours sur le sol J'suis en mode Code Quantum Mes fantômes m'disent manifeste une phantom Si t'es un hater faut pas qu'tu t'en sortes Le swag est bête, tu sais qu'ça les rend sottes Ça les rend folles, ils appellent les renforts Je les ken violement ça les renforce À cinq ans, Gabi m'a appris à 'qué-bra, ensuite il s'est fait allumer en Corse, yes Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey, hey Si t'as rien d'beau à me dire ne viens pas me press La petite j'lui parle même pas, j'lui met dans la face, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash Big cash, big money, big cash Big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes Pas d'billets de cinq ou d'dix qui trainent dans la liasse Big cash, big money, bitch cash J'trust pas les bipèdes J'tire sur ton bitch ass Hey, hey, hey, yes Bitch ass, j'ai le flow comme Lil Weezy mixtape Mixtape Dans sa chatte tu fais pas dix reps Hm J'lui mets dans le 'vu-ca' direct Aïe aïe aïe Trois meilleures coffres, j'fais une triplette J'les frappe comme c'est des fliquettes Avec les cops c'est une piplette Mi-mi-mixtape, je ball comme dans AND1 mixtape Ball L'esprit souple et la bite raide Si j'la texte elle va vite rep' Starlight Koffi Mystère, tu sais que j'suis au cur du mystère Hm J'porte la pupille à dite red, hm J'fais pas confiance à un bipède Chill Où qu'je sois j'suis comme au bled, j'connais pas le stress Si t'as rien d'beau à me dire ne viens pas me press viens pas me 'ler-par' La petite j'lui parle même pas, j'lui met dans la face, sla-sla J'me suis formé avec les cafards dans la crasse Pas d'billets de cinq ou d'dix qui trainent dans la liasse Starlight Koffi</t>
         </is>
       </c>
     </row>
@@ -4704,12 +4704,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>StarTrak</t>
+          <t>STRESS (Remix)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>J'ai grind ma beuh au réveil, je suis dattaque, that's right Pour ma famille et l'oseille, je ne blague as-p' Tu sais qu'je ride depuis l'époque du StarTAC Tu sais que j'rappe depuis l'époque de Star Trak Okay J'fais l'oseille, jme fais pe-pom' dvant Hip-Hop Honeys Oui, j'ai l'oseille, donc quand je parle t'obéis Jveux cinq femmes au pays, cinq houses au pays J'rock Undercover, j'porte pas du OBEY Si t'es bonne et mignonne sûr j'suis okay Bébé, j'te préviens moi j'suis un géni A l'équinoxe, j'vais m'faire un Zénith J'lui casse l dos, je lui parle même pas Go Je ball comme Thierry et Anelka Go Frais, comme sorti du placenta Ouaais Oseille dans le crâne, j'suis pas sympa Ouais La concurrence faut qu'j'en fasse un tas Go Je veux qu'ils plongent, je veux qu'ils fassent un plat Si tu manges, bitch, faut qu'tu passes un plat Go, go, go J'passe pas la couronne, je passe un cap Pas faire l'oseille c'est pas acceptable J'crois pas cet homme, je crois pas cette femme J'suis la lumière j'suis inarrétable J'suis la lumière j'suis inarrétable Quand j'prend le mic, j'ai des eurêka That's Somme dans ma poche, elle est balèze Hey Quand j'suis au bled je suis à l'aise Hey La concu' s'jette de la falaise Hey Les rappeurs français, c'est des chialeuses Ma nouvelle 'tasse elle est moelleuse Bébé, tu sais j'suis un hustler Chasse les fantômes, comme Ghostbusters J'ai grind ma beuh au réveil, je suis d'attaque, that's right Pour ma famille et l'oseille, je ne blague 'as-p' Tu sais qu'je ride depuis l'époque du StarTAC Tu sais que j'rappe depuis l'époque de Star Trak</t>
+          <t>Pharaon in this bitch Let's go Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey Si t'as rien d'beau à me dire viens pas me press La petite j'lui parle même pas, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash, big money, big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes, Pharaon Big cash, big money, big cash Hey J'trust pas les bipèdes Hey J'tire sur ton bitch ass, yes, pa-paw Là-bas y a un 'vu-ca' énorme Je ne calcule pas les normes Ferrari, ne fait pas les soldes Tu lis des droits par les hommes J'suis pur en vrai, ça l'étonne, that's right Mon guide me tape sur l'épaule, hey J'met de la zer' sur les pôles, bang J'dors toujours sur le sol J'suis en mode Code Quantum Mes fantômes m'disent manifeste une phantom Si t'es un hater faut pas qu'tu t'en sortes Le swag est bête, tu sais qu'ça les rend sottes Ça les rend folles, ils appellent les renforts Je les ken violement ça les renforce À cinq ans, Gabi m'a appris à 'qué-bra, ensuite il s'est fait allumer en Corse, yes Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey, hey Si t'as rien d'beau à me dire viens pas me press La petite j'lui parle même pas, j'lui met dans la face, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash Big cash, big money, big cash Big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes Pas d'billets de cinq ou d'dix qui trainent dans la liasse Big cash, big money, bitch cash J'trust pas les piplettes J'tire sur ton bitch ass Hey, hey, hey, yes Bitch ass, j'ai le flow comme Lil Weezy mixtape Mixtape Dans sa chatte tu fais pas dix reps Hm J'la met dans le 'vu-ca' direct Trois meilleures coffres, j'fais une triplette J'les frappe comme c'est des fliquettes Avec les copps c'est des piplettes Mi-mi-mixtape, je ball comme dans AND1 mixtape Ball L'esprit souple et la bite raide Ball Si j'la texte elle va vite rep' Mi-mistère, tu sais que j'suis au cur du mystère Hm J'porte la pupille à dite red, hm J'fais pas confiance à un bipède Chill Où qu'je sois j'suis comme au bled, j'connais pas le stress Si t'as rien d'beau à me dire viens pas me press, viens pas me 'ler-par' La petite j'lui parle même pas, j'lui met dans la face, sla-sla J'me suis formé avec les cafards dans la crasse Pas d'billets de cinq ou d'dix qui trainent dans la liasse Myth Syzer est passé par là</t>
         </is>
       </c>
     </row>
@@ -4721,12 +4721,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Stress</t>
+          <t>Stunt</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Pharaon in this bitch Let's go Starlight Koffi Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey Si t'as rien d'beau à me dire ne viens pas me press La petite j'lui parle même pas, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash, big money, big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes, Pharaon Big cash, big money, big cash J'trust pas les bipèdes J'tire sur ton bitch ass, yes, pa-paw La bae a un 'vu-ca' énorme Je ne calcule pas les normes Ferrari, ne fait pas les soldes Tu lis des droits par les hommes J'suis pur en vrai, ça l'étonne, that's right Mon guide me tape sur l'épaule, hey J'met de la zer' sur les pôles, bang J'dors toujours sur le sol J'suis en mode Code Quantum Mes fantômes m'disent manifeste une phantom Si t'es un hater faut pas qu'tu t'en sortes Le swag est bête, tu sais qu'ça les rend sottes Ça les rend folles, ils appellent les renforts Je les ken violement ça les renforce À cinq ans, Gabi m'a appris à 'qué-bra, ensuite il s'est fait allumer en Corse, yes Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey, hey Si t'as rien d'beau à me dire ne viens pas me press La petite j'lui parle même pas, j'lui met dans la face, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash Big cash, big money, big cash Big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes Pas d'billets de cinq ou d'dix qui trainent dans la liasse Big cash, big money, bitch cash J'trust pas les bipèdes J'tire sur ton bitch ass Hey, hey, hey, yes Bitch ass, j'ai le flow comme Lil Weezy mixtape Mixtape Dans sa chatte tu fais pas dix reps Hm J'lui mets dans le 'vu-ca' direct Aïe aïe aïe Trois meilleures coffres, j'fais une triplette J'les frappe comme c'est des fliquettes Avec les cops c'est une piplette Mi-mi-mixtape, je ball comme dans AND1 mixtape Ball L'esprit souple et la bite raide Si j'la texte elle va vite rep' Starlight Koffi Mystère, tu sais que j'suis au cur du mystère Hm J'porte la pupille à dite red, hm J'fais pas confiance à un bipède Chill Où qu'je sois j'suis comme au bled, j'connais pas le stress Si t'as rien d'beau à me dire ne viens pas me press viens pas me 'ler-par' La petite j'lui parle même pas, j'lui met dans la face, sla-sla J'me suis formé avec les cafards dans la crasse Pas d'billets de cinq ou d'dix qui trainent dans la liasse Starlight Koffi</t>
+          <t>Bang-bang-bang C'que tu cherches tu le trouves, bitch, hey Dans ma tête c'est le Louvre, bitch J'débarque en coupe, j'repars en soucoupe, bitch J'rentre dans l'club solo, j'pars en double couple, bitch T'as des caractéristiques d'agent double, bitch Trop respecter la loi ça rend fou, bitch Jeune espagnol, fils d'ouvrier, hey J'ai tout plié, puis j'ai oublié J'suis dans l'carré comme sur la touche, bitch Mais c'est eux qui sont sur la touche, bitch Ta 'tasse me 'pé-pom' sous la douche, bitch Han Tu lui mets la langue dans la bouche, bitch J'ai nagé en eau trouble, bitch J'ai la grâce, mon compte double, bitch Tu fais le liquide au compte-goutte, bitch Le négro stunt comme Tom Cruise, bitch Quand on m'voit tu comprends qu'on doute, bitch J'transforme ta 'ne-Chi' en louve bitch Han J'transforme les dollars en rouble, bitch C'est la vraie vie, pas un concours, bitch Pour qu'la vie suive son cours faut qu'tu suives son cours, bitch Fého J'ai dis j'en frappe une autre, attend ton tour, bitch Arme automatique dans la Goose, bitch Les 'tasses faisaient des curs sur ma trousse, bitch Toujours était nigga, c'est ça la news, bitch J'mets des choses au monde, juste par ma bouche, bitch Hey, young nigga Hey-hey-hey, hey-hey-hey</t>
         </is>
       </c>
     </row>
@@ -4738,12 +4738,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>STRESS (Remix)</t>
+          <t>Successful (Remix)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Pharaon in this bitch Let's go Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey Si t'as rien d'beau à me dire viens pas me press La petite j'lui parle même pas, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash, big money, big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes, Pharaon Big cash, big money, big cash Hey J'trust pas les bipèdes Hey J'tire sur ton bitch ass, yes, pa-paw Là-bas y a un 'vu-ca' énorme Je ne calcule pas les normes Ferrari, ne fait pas les soldes Tu lis des droits par les hommes J'suis pur en vrai, ça l'étonne, that's right Mon guide me tape sur l'épaule, hey J'met de la zer' sur les pôles, bang J'dors toujours sur le sol J'suis en mode Code Quantum Mes fantômes m'disent manifeste une phantom Si t'es un hater faut pas qu'tu t'en sortes Le swag est bête, tu sais qu'ça les rend sottes Ça les rend folles, ils appellent les renforts Je les ken violement ça les renforce À cinq ans, Gabi m'a appris à 'qué-bra, ensuite il s'est fait allumer en Corse, yes Où qu'je sois j'suis comme au bled, j'connais pas le stress, hey, hey, hey Si t'as rien d'beau à me dire viens pas me press La petite j'lui parle même pas, j'lui met dans la face, j'lui met dans la face J'me suis formé avec les cafards dans la crasse Big cash Big cash, big money, big cash Big cash Bitch, j'aime la vitesse Bitch, j'aime les big fesses, yes Pas d'billets de cinq ou d'dix qui trainent dans la liasse Big cash, big money, bitch cash J'trust pas les piplettes J'tire sur ton bitch ass Hey, hey, hey, yes Bitch ass, j'ai le flow comme Lil Weezy mixtape Mixtape Dans sa chatte tu fais pas dix reps Hm J'la met dans le 'vu-ca' direct Trois meilleures coffres, j'fais une triplette J'les frappe comme c'est des fliquettes Avec les copps c'est des piplettes Mi-mi-mixtape, je ball comme dans AND1 mixtape Ball L'esprit souple et la bite raide Ball Si j'la texte elle va vite rep' Mi-mistère, tu sais que j'suis au cur du mystère Hm J'porte la pupille à dite red, hm J'fais pas confiance à un bipède Chill Où qu'je sois j'suis comme au bled, j'connais pas le stress Si t'as rien d'beau à me dire viens pas me press, viens pas me 'ler-par' La petite j'lui parle même pas, j'lui met dans la face, sla-sla J'me suis formé avec les cafards dans la crasse Pas d'billets de cinq ou d'dix qui trainent dans la liasse Myth Syzer est passé par là</t>
+          <t>OH On va sposer un ptit peu Baisser la tension, calmement Joke, jte vois, on dit quoi mon pote ? Jai bien étudié le marché Dans un an jmange le game et dans 2 je me barre chier Sur une cuvette en or jaurai assorti à mes couilles Jaurai sorti un disque avant quon ait sorti ma dépouille Je rêve ? Personne marrête, jai le moral trop friable, comme une barrette Jsuis pas un gars trop fiable, me donne pas drencard Tu pourras croire au miracle si tu évites le brancard Jfais pas dbasket mais jpeux baller, les bras ballants Y'en a qui pensent quils peuvent croquer en avalant Face à ce que tu vas prendre Guy Moquet a juste prit une demi rouste Jvais tfaire jouer au bilboquer jsuis comme la terre en 2012 Jdébarque frais comme une avalanche, déplacé comme une main aux seufs apres être passé par la hanche Jveux brasser comme Danone, dans les conditions sine qua non Je terrasse lennemi entre nous ya trop décart jlai aurait fumé à et demi Je veux la money, le rap, les femmes, mais ouais Les phases, la sape et les fans Flaner dans lespace, voyager en 1ère classe Laissez passer les garces, les timps, les salopes et les tass Les strass et les paillettes, laisser des traces dans lrap Pas dans lassiette après mon passage il ne restera même pas une seule miette Du caviar dans ma baguette, que mes disques sachètent par camionnette Ou à la FNAC avec des brouettes Jveux les nouvelles Nike avec ma tête sur la languette 5 bouteilles en boite avec toute léquipe sur la banquette Arrêtez de mprendre la tête, ptêtre que jsuis plus un rookie Mais jveux les euros,les dollars, les yens et même les roupies Nique les groupies, demande à Joke on est prêts pour largent Voir la vie en large, le contraire serait rageant Jveux être une star, peser, faire des envieux Non sérieux je crois quen fait je veux juste être heureux</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Stunt</t>
+          <t>Swagger Like Us (Stunts Remix)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Bang-bang-bang C'que tu cherches tu le trouves, bitch, hey Dans ma tête c'est le Louvre, bitch J'débarque en coupe, j'repars en soucoupe, bitch J'rentre dans l'club solo, j'pars en double couple, bitch T'as des caractéristiques d'agent double, bitch Trop respecter la loi ça rend fou, bitch Jeune espagnol, fils d'ouvrier, hey J'ai tout plié, puis j'ai oublié J'suis dans l'carré comme sur la touche, bitch Mais c'est eux qui sont sur la touche, bitch Ta 'tasse me 'pé-pom' sous la douche, bitch Han Tu lui mets la langue dans la bouche, bitch J'ai nagé en eau trouble, bitch J'ai la grâce, mon compte double, bitch Tu fais le liquide au compte-goutte, bitch Le négro stunt comme Tom Cruise, bitch Quand on m'voit tu comprends qu'on doute, bitch J'transforme ta 'ne-Chi' en louve bitch Han J'transforme les dollars en rouble, bitch C'est la vraie vie, pas un concours, bitch Pour qu'la vie suive son cours faut qu'tu suives son cours, bitch Fého J'ai dis j'en frappe une autre, attend ton tour, bitch Arme automatique dans la Goose, bitch Les 'tasses faisaient des curs sur ma trousse, bitch Toujours était nigga, c'est ça la news, bitch J'mets des choses au monde, juste par ma bouche, bitch Hey, young nigga Hey-hey-hey, hey-hey-hey</t>
+          <t>No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us Yeah, yeah No one on the corner has swagger like us Personne, personne Swagger like us, swagger-swagger like us Yeah, ok Personne a du swagga comme nous, c'est ça J'le répète, mais je sais qu'le monde sait ça Le jour où je n'serais plus le swagga s'en ira, il disparaîtra pour tpujours, et là tu te diras Putain, ce mec quelle classe quand-même. J'serre une 'meu-f', et j'me casse sans elle Ils me font doucement rire tous ces p'tits rappeurs Je contrôle ce navire comme un pirate, miracle je me tire ailleurs J'suis trop à l'aise sur la vague du truc J'te donne envie comme une page de pub Tu m'fais marrer comme ta face de cul J'récupère ta 'meu-f', quand elle sort d'son agence de pute Yeah Personne a du swagger comme Stunt, quelques corps de MC's, collés sous mes pumps J'casse le panier si je fais un dunk Toi t'es Donald, moi je suis Donald Trump Si j'crache un putain d'seize sans ta gueule tu me remercieras Si j'crache dans ta meuf elle me remerciera Jusqu'à maintenant j'faisais rien, tout comme le père Chirac Yeah Mon nom chez Stunts c'est l'enfer, c'est Lucifer qui rappe Hein-hein, non-non, plus pote avec Belzbuth il me ferme des portes depuis que je baise ces putes Je suis dans le tiercé Flûte, il s'rait temps que je persécute Je sais que tu tombes de haut, quand tu , mais chut Si ils vont s'approcher d'mes pompes c'est pour m'les faire serrer Quand j'm'enlève ma bite de ta bouche c'est pour remercier Ah-ah Stunt dans le casque, et bientôt Stunt à Bercy Et, quand j'suis constipé j't'écoute pour me faire chier Stunt, Stunt, les meufs sont accros -os J'gagne toujours quand faut donner ma langue aux chattes , font la queue Oh J'étais Rocky, maintenant j'suis dans Rambo 4 No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us Personne n'a de swagg comme ce salopard Tek' J'touche le ciel du doigt, et j'laisse les nympho' par terre c'est le cadeau parfait Trouve-moi dans un coin du bar avec un cacolac frais On est pas les meilleurs ? Non mais allo dans la Terre ?! Ton sens des valeurs tu l'as eu grave au rabais Si j'pars à la r'traite j'laisse le rap en galère Laisse-moi être moi, ok, d'acco-d'acc' frère Tu connais mon swagger attitude de blagueur Hors de question d'oublier mes habitudes de malheur J'ai jamais su dire Je t'aime. avec mon coeur de rappeur, mais j'te vends l'amour avec une multitude de saveurs Multitude de saveurs ? Choco', vanille, fraise Et, je serais tristounet si aucune de tes amies j'baise Tout à la fois pour toi, pas pour moi, c'est pas inhabituel, mais c'est ce soir ou jamais, demain j'aurais p't'êt' la migraine Ok, similitudes mon style il tue C'est sûr qui te fume, aucune issue À ma vue les filles titubent, parce qu'elles voient qu'y'a d'la thune ici J'suis trop visible et original, trop lean Origine, je l'ai dis Mon swagg agît comme un v8 à plein régime On impose un gros risque, comme On est pas d'la même catégorie au premier tour, t'es lâché Et, dans c'pays personne ne Dans ce rap game là le putain d'swagg attend qu'Stunt J'ai dis On a ce swagg élégant, de quoi faire claquer les gants, donc vas-y Mate bien l'aisance, mate l'élégance dans les frappes, dans les pompes , j'crois qu'on est bon, ouais, j'crois qu'on est dans l'vrai Tu veux faire ton remix ? Allons-d'ont Soirée Alice ? Abandonne Pas d'bla-bla, nous on blague pas, donc parle SoFresh Squad, c'est d'la gregouz, flaque de bâtard Tu parles au général donc salut-moi, et marche, ou pars No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us Like us-like us-like us-like us-like us..</t>
         </is>
       </c>
     </row>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Successful (Remix)</t>
+          <t>Tagada</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>OH On va sposer un ptit peu Baisser la tension, calmement Joke, jte vois, on dit quoi mon pote ? Jai bien étudié le marché Dans un an jmange le game et dans 2 je me barre chier Sur une cuvette en or jaurai assorti à mes couilles Jaurai sorti un disque avant quon ait sorti ma dépouille Je rêve ? Personne marrête, jai le moral trop friable, comme une barrette Jsuis pas un gars trop fiable, me donne pas drencard Tu pourras croire au miracle si tu évites le brancard Jfais pas dbasket mais jpeux baller, les bras ballants Y'en a qui pensent quils peuvent croquer en avalant Face à ce que tu vas prendre Guy Moquet a juste prit une demi rouste Jvais tfaire jouer au bilboquer jsuis comme la terre en 2012 Jdébarque frais comme une avalanche, déplacé comme une main aux seufs apres être passé par la hanche Jveux brasser comme Danone, dans les conditions sine qua non Je terrasse lennemi entre nous ya trop décart jlai aurait fumé à et demi Je veux la money, le rap, les femmes, mais ouais Les phases, la sape et les fans Flaner dans lespace, voyager en 1ère classe Laissez passer les garces, les timps, les salopes et les tass Les strass et les paillettes, laisser des traces dans lrap Pas dans lassiette après mon passage il ne restera même pas une seule miette Du caviar dans ma baguette, que mes disques sachètent par camionnette Ou à la FNAC avec des brouettes Jveux les nouvelles Nike avec ma tête sur la languette 5 bouteilles en boite avec toute léquipe sur la banquette Arrêtez de mprendre la tête, ptêtre que jsuis plus un rookie Mais jveux les euros,les dollars, les yens et même les roupies Nique les groupies, demande à Joke on est prêts pour largent Voir la vie en large, le contraire serait rageant Jveux être une star, peser, faire des envieux Non sérieux je crois quen fait je veux juste être heureux</t>
+          <t>J'sors de chez Prada J'ai la vibe de Beerus et Gaara Jeu est tout mort quand on est pas là That's right J'fume le custo', comme au Nevada C'est ma tchoin, ih, c'est ma Tagada Hmm Son cul est costaud, je suis son dada, je suis son daddy Dior, Undercover dans mon caddie Go, go, go Tes rappeurs m'ont pompé, te l'ont pas dit Go, go, go Ice au cou, ils voulaient qu'on pati Go, go, go Ces souffrants m'feront pas compatir Go, go, go Hallow et tips stacké dans mon calibre Go, go, go Ne viens pas t'planter sur mon canif Go, go, go Ta 'tasse est ma chienne, c'est mon caniche Go, go, go Ils sont déguisés, ils sont trannies Go, go, go Négro, fly, L.A. ma compagnie Go, go, go J'ai du plomb dans la tête Go, go, go Alchimiste, donc d l'or dans la tête Go, go, go J'suis focus, j'fais un tour dans ma quête Go, go, go Bitch, c'est un RPG dans ma têt Go, go, go Je rentre en C.d.G. dans la fête Go, go, go J'rentre pas en entier dans sa shnek Go, go, go Ta 'tasse veut rentrer dans ma secte Go, go, go Yo, hm Pharaon Go, go, go J'sors de chez Prada Go, go, go J'ai la vibe de Beerus et Gaara Go, go, go Jeu est tout mort quand on est pas là Go, go, go J'fume le custo', comme au Nevada Go, go, go C'est ma tchoin, ih, c'est ma Tagada Go, go, go Son cul est costaud, je suis son dada Go, go, go Dior, Undercover dans mon cabas Lil' bitch Go, go, go Go, go, go Go, go, go Go, go, go Go, go, go Go, go, go Go, go, go Oh my God J'sors de chez Prada J'ai la vibe de Beerus et Gaara Jeu est tout mort quand on est pas là That's right J'fume le custo', comme au Nevada C'est ma tchoin, ih, c'est ma Tagada, hmm Son cul est costaud, je suis son dada, je suis son daddy Dior, Undercover dans mon caddie Go, go, go Tes rappeurs m'ont pompé, te l'ont pas dit Go, go, go Ice au cou, ils voulaient qu'on pati Go, go, go Ces souffrants m'feront pas compatir Go, go, go Hallow et tips stacké dans mon calibre Go, go, go Ne viens pas t'planter sur mon canif Go, go, go Ta 'tasse est ma chienne, c'est mon caniche Go, go, go Ils sont déguisés, ils sont trannies Go, go, go Négro, fly, L.A. ma compagnie Go, go, go J'ai du plomb dans la tête Go, go, go Alchimiste, donc de l'or dans la tête Go, go, go J'suis focus, j'fais un tour dans ma quête Go, go, go Bitch, c'est un RPG dans ma tête Go, go, go Je rentre en C.d.G. dans la fête Go, go, go J'rentre pas en entier dans sa shnek Go, go, go Ta 'tasse veut rentrer dans ma secte Go, go, go Yo, hm Go, go, go J'sors de chez Prada Go, go, go J'ai la vibe de Beerus et Gaara Go, go, go Jeu est tout mort quand on est pas là Go, go, go J'fume le custo', comme au Nevada Go, go, go C'est ma tchoin, ih, c'est ma Tagada Go, go, go Son cul est costaud, je suis son dada Go, go, go Dior, Undercover dans mon cabas Go, go, go Cabas, cabas, cabas1</t>
         </is>
       </c>
     </row>
@@ -4789,12 +4789,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Swagger Like Us (Stunts Remix)</t>
+          <t>The Sixpack Anthem (Remix)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us Yeah, yeah No one on the corner has swagger like us Personne, personne Swagger like us, swagger-swagger like us Yeah, ok Personne a du swagga comme nous, c'est ça J'le répète, mais je sais qu'le monde sait ça Le jour où je n'serais plus le swagga s'en ira, il disparaîtra pour tpujours, et là tu te diras Putain, ce mec quelle classe quand-même. J'serre une 'meu-f', et j'me casse sans elle Ils me font doucement rire tous ces p'tits rappeurs Je contrôle ce navire comme un pirate, miracle je me tire ailleurs J'suis trop à l'aise sur la vague du truc J'te donne envie comme une page de pub Tu m'fais marrer comme ta face de cul J'récupère ta 'meu-f', quand elle sort d'son agence de pute Yeah Personne a du swagger comme Stunt, quelques corps de MC's, collés sous mes pumps J'casse le panier si je fais un dunk Toi t'es Donald, moi je suis Donald Trump Si j'crache un putain d'seize sans ta gueule tu me remercieras Si j'crache dans ta meuf elle me remerciera Jusqu'à maintenant j'faisais rien, tout comme le père Chirac Yeah Mon nom chez Stunts c'est l'enfer, c'est Lucifer qui rappe Hein-hein, non-non, plus pote avec Belzbuth il me ferme des portes depuis que je baise ces putes Je suis dans le tiercé Flûte, il s'rait temps que je persécute Je sais que tu tombes de haut, quand tu , mais chut Si ils vont s'approcher d'mes pompes c'est pour m'les faire serrer Quand j'm'enlève ma bite de ta bouche c'est pour remercier Ah-ah Stunt dans le casque, et bientôt Stunt à Bercy Et, quand j'suis constipé j't'écoute pour me faire chier Stunt, Stunt, les meufs sont accros -os J'gagne toujours quand faut donner ma langue aux chattes , font la queue Oh J'étais Rocky, maintenant j'suis dans Rambo 4 No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us Personne n'a de swagg comme ce salopard Tek' J'touche le ciel du doigt, et j'laisse les nympho' par terre c'est le cadeau parfait Trouve-moi dans un coin du bar avec un cacolac frais On est pas les meilleurs ? Non mais allo dans la Terre ?! Ton sens des valeurs tu l'as eu grave au rabais Si j'pars à la r'traite j'laisse le rap en galère Laisse-moi être moi, ok, d'acco-d'acc' frère Tu connais mon swagger attitude de blagueur Hors de question d'oublier mes habitudes de malheur J'ai jamais su dire Je t'aime. avec mon coeur de rappeur, mais j'te vends l'amour avec une multitude de saveurs Multitude de saveurs ? Choco', vanille, fraise Et, je serais tristounet si aucune de tes amies j'baise Tout à la fois pour toi, pas pour moi, c'est pas inhabituel, mais c'est ce soir ou jamais, demain j'aurais p't'êt' la migraine Ok, similitudes mon style il tue C'est sûr qui te fume, aucune issue À ma vue les filles titubent, parce qu'elles voient qu'y'a d'la thune ici J'suis trop visible et original, trop lean Origine, je l'ai dis Mon swagg agît comme un v8 à plein régime On impose un gros risque, comme On est pas d'la même catégorie au premier tour, t'es lâché Et, dans c'pays personne ne Dans ce rap game là le putain d'swagg attend qu'Stunt J'ai dis On a ce swagg élégant, de quoi faire claquer les gants, donc vas-y Mate bien l'aisance, mate l'élégance dans les frappes, dans les pompes , j'crois qu'on est bon, ouais, j'crois qu'on est dans l'vrai Tu veux faire ton remix ? Allons-d'ont Soirée Alice ? Abandonne Pas d'bla-bla, nous on blague pas, donc parle SoFresh Squad, c'est d'la gregouz, flaque de bâtard Tu parles au général donc salut-moi, et marche, ou pars No one on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us on the corner has swagger like us Swagger like us, swagger-swagger like us No one on the corner has swagger like us Swagger like us, swagger-swagger like us Like us-like us-like us-like us-like us..</t>
+          <t>Oh Moi, tu vois, j'ai pas de t-shirt Sixpack Hein Lionel J'en ai très peu Ok, mais je trouve ça chant-mé, ils défoncent les t-shirts En tous cas c'qu'est sûr c'est qu'j'suis l'futur Joke aussi, et fallait que je rap sur ce beat Yeah, yeah J'ai troix t-shirts Sixpack mais c'est pas grave, j'suis le futur, auss' Même si j'ai gross' Un petit peu c'est pas quelques kilos qui vont m'ralentir J'plais toujours autant d'filles, j'suis la galanterie Ok J'ai le swag dans la poche et ma langue dans leur bouche Ah J'ai mes mains qui les touche, m'écoute, c'est pas tout Si t'aimes pas, t'as pas d'goûts, on est trop passe-partout J'comprend qu'tu sois jaloux, si on existait pas, j'rêverais d'être nous On a les plus beaux habits, désolés d'être lourds Avec ça, t'en as pas, heureusement, Sixpack est là Tu veux la collection, le futur ? Clique avec ton doigt Clique-clique avec ton doigt Dis bye-bye à tes euros, bonjour à tes nouvelles conquêtes On sait bien qu'on est bien sappé pour toutes ces gonzesses Mon appart' est un vrai signe, trois pièces Plus d'place dans l'placard, y a l'frigidaire, t'inquiètes T'inquiètes On a les semelles qui touchent le sol et la tête dans les étoiles On veut tous les modèles, tout c'qui sort, les couleurs et toutes les tailles On veut tout avoir avant tout l'monde et c'est normal, on a l'seum Si tu veux vraiment voir le futur Joke, yeah, regarde Si, si mes gars et moi Ok, yeah Yeah, quand j'étais petit j'collectionnais les caramels Heureusement j'ai stoppé sinon j'aurais les dents à YELLE, oh Pour les nouvelles paires, c'est sneakers.fr, yeah Je prend soin d'mes chaussures, quand j'suis malade tu parles à elles, Des séries limitées, pas vraiment hésité, à mes pieds t'as les yeux qui piquent La corne est irritée, tout c'que t'as mérité connard, c'est qu'je sorte mes Sixpacks Les p'tites craquent, les p'tites passes, hésite pas Prends un aspelgique, je t'enrhume, j'suis plus frais qu'un Tic Tac T'inquiètes pas, l'futur nous appartient, j'ai garé la Delorean pas loin Et ramène-moi les kids un par un, c'est , c'est qui ? C'est mon parrain Yeah Si j'met des Sixpacks c'est pour me serrer, Scarlett Johansson comme j'ai vu à la télé' Télé' Ouvrir mon clic-clac, la déshabiller, à côté d'mes Nike, lui faire prendre son pied On a les semelles qui touchent le sol et la tête dans les étoiles On veut tous les modèles, tout c'qui sort, les couleurs et toutes les tailles On veut tout avoir avant tout l'monde et c'est normal, on a l'seum Si tu veux vraiment voir le futur, regarde mes gars et moi</t>
         </is>
       </c>
     </row>
@@ -4806,12 +4806,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Tagada</t>
+          <t>Tire sur nous</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>J'sors de chez Prada J'ai la vibe de Beerus et Gaara Jeu est tout mort quand on est pas là That's right J'fume le custo', comme au Nevada C'est ma tchoin, ih, c'est ma Tagada Hmm Son cul est costaud, je suis son dada, je suis son daddy Dior, Undercover dans mon caddie Go, go, go Tes rappeurs m'ont pompé, te l'ont pas dit Go, go, go Ice au cou, ils voulaient qu'on pati Go, go, go Ces souffrants m'feront pas compatir Go, go, go Hallow et tips stacké dans mon calibre Go, go, go Ne viens pas t'planter sur mon canif Go, go, go Ta 'tasse est ma chienne, c'est mon caniche Go, go, go Ils sont déguisés, ils sont trannies Go, go, go Négro, fly, L.A. ma compagnie Go, go, go J'ai du plomb dans la tête Go, go, go Alchimiste, donc d l'or dans la tête Go, go, go J'suis focus, j'fais un tour dans ma quête Go, go, go Bitch, c'est un RPG dans ma têt Go, go, go Je rentre en C.d.G. dans la fête Go, go, go J'rentre pas en entier dans sa shnek Go, go, go Ta 'tasse veut rentrer dans ma secte Go, go, go Yo, hm Pharaon Go, go, go J'sors de chez Prada Go, go, go J'ai la vibe de Beerus et Gaara Go, go, go Jeu est tout mort quand on est pas là Go, go, go J'fume le custo', comme au Nevada Go, go, go C'est ma tchoin, ih, c'est ma Tagada Go, go, go Son cul est costaud, je suis son dada Go, go, go Dior, Undercover dans mon cabas Lil' bitch Go, go, go Go, go, go Go, go, go Go, go, go Go, go, go Go, go, go Go, go, go Oh my God J'sors de chez Prada J'ai la vibe de Beerus et Gaara Jeu est tout mort quand on est pas là That's right J'fume le custo', comme au Nevada C'est ma tchoin, ih, c'est ma Tagada, hmm Son cul est costaud, je suis son dada, je suis son daddy Dior, Undercover dans mon caddie Go, go, go Tes rappeurs m'ont pompé, te l'ont pas dit Go, go, go Ice au cou, ils voulaient qu'on pati Go, go, go Ces souffrants m'feront pas compatir Go, go, go Hallow et tips stacké dans mon calibre Go, go, go Ne viens pas t'planter sur mon canif Go, go, go Ta 'tasse est ma chienne, c'est mon caniche Go, go, go Ils sont déguisés, ils sont trannies Go, go, go Négro, fly, L.A. ma compagnie Go, go, go J'ai du plomb dans la tête Go, go, go Alchimiste, donc de l'or dans la tête Go, go, go J'suis focus, j'fais un tour dans ma quête Go, go, go Bitch, c'est un RPG dans ma tête Go, go, go Je rentre en C.d.G. dans la fête Go, go, go J'rentre pas en entier dans sa shnek Go, go, go Ta 'tasse veut rentrer dans ma secte Go, go, go Yo, hm Go, go, go J'sors de chez Prada Go, go, go J'ai la vibe de Beerus et Gaara Go, go, go Jeu est tout mort quand on est pas là Go, go, go J'fume le custo', comme au Nevada Go, go, go C'est ma tchoin, ih, c'est ma Tagada Go, go, go Son cul est costaud, je suis son dada Go, go, go Dior, Undercover dans mon cabas Go, go, go Cabas, cabas, cabas1</t>
+          <t>Han han, yo ! He yo, he yo, he yo Je kicke ce beat parce qu'il est chaud c'est ce que Craiz m'a dit J'ai trop la dalle j'passe à Leclerc, j'sors avec 13 caddies Tu m'as ajouté sur Facebook, ouais on est presque amis J'te vois dans le ciel t'es pas Superman t'es Super Nanny Les MC veulent changer d'air, y a un peu trop de flow dans le gaz Depuis que j'mets de l'eau dans mon vin les negros boivent du rosé J'suis tout sec, yo crack pas une allumette Tu te tapes des alumards mode chocolat papier d'alu Mec, mes négros mettent du chocolat dans du papier d'alu, mec on dit qu'ta meuf est presbyte négro elle porte pas de lunettes Après l'écoute d'un 16 t'as les mêmes oreilles qu'un cocker Ok Joky, dans le rap j'suis un joker J'fume pas, j'sniff pas, pour garder la ligne J'douille des ptites meufs comme toi, joue pas les malignes Salades tomates oignons et j'te bouffe comme un que-grè On m'arrête pas gros, on arrête pas l'progrès On s'en bat les couilles, tire sur nous on s'en bat les douilles Quand ta meuf nous voit elle s'emballe et mouille, on s'en bat les couilles Bat les bat les bat les couilles Bat les bat les bat les couilles J'vais m'vénère, j'vais devenir vert de rage DavidBanner J'suis le meilleur tu seras forcé de me croire quand je l'aurais juré sur la vie d'ta mère la milf On débarque dans le club et on fait la diff' On met ta meuf en cloque On fait parti d'ta mif On te laisse claquer des doigts et on claque des biftons, p'tit con La réalité faut que t'arrête de l'esquiver XXX sans cesse j'baise ta mère j't'assure qu'elle est lessivé Montpellier dans le cur mais mon esprit est ailleurs Mon pilier dans le corps de ta petite pute de sur si cette pétasse est majeure Si c'est pas le cas mais que c'est une bombe, je serai son démineur Sur le sol et sur le dos elle jouira en ré mineur J'suis polygame t'es monocorde J'en ai plus d'une à mon arc J'en ai assez pour vous pendre et pour jouer de la harpe On s'en bat les couilles, tire sur nous on s'en bat les douilles Quand ta meuf nous voit elle s'emballe et mouille, on s'en bat les couilles Bat les bat les bat les couilles Bat les bat les bat les couilles Négro j'suis haut comme un satellite Négro je n'fait qu'aller vite Ta meuf elle kiffe ça les bites j'vais la coupé décalé Niquer la somme sur son palais, tu voulais un son sucré mais l'addition va être salé j'vais t'asservir comme les Amériques Carré comme un carré VIP, comme un poisson pané Si je perce pas cette année c'est que j'me serait fait canné Flow nautique, cerveau d'autiste gros donc j'vais pas m'étaler Black out, panne électrique vendez-les XXX Quand y'a du Bloodz, appelez les Crips les gars J'attends pas qu'il y ai du foot pour appeler l'équipe yo Restes sur ta passion, on va jouer au Baseball ta meuf me fait des baises mains tu vas me faire des baises XXX Et j'te baise dans les règles de l'art, les ragnagnas d'la Joconde XXX j'te l'ai mise profonde On s'en bat les couilles, tire sur nous on s'en bat les douilles Quand ta meuf nous voit elle s'emballe et mouille, on s'en bat les couilles Bat les bat les bat les couilles Bat les bat les bat les couilles2</t>
         </is>
       </c>
     </row>
@@ -4823,12 +4823,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>The Sixpack Anthem (Remix)</t>
+          <t>Tony Yayo</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Oh Moi, tu vois, j'ai pas de t-shirt Sixpack Hein Lionel J'en ai très peu Ok, mais je trouve ça chant-mé, ils défoncent les t-shirts En tous cas c'qu'est sûr c'est qu'j'suis l'futur Joke aussi, et fallait que je rap sur ce beat Yeah, yeah J'ai troix t-shirts Sixpack mais c'est pas grave, j'suis le futur, auss' Même si j'ai gross' Un petit peu c'est pas quelques kilos qui vont m'ralentir J'plais toujours autant d'filles, j'suis la galanterie Ok J'ai le swag dans la poche et ma langue dans leur bouche Ah J'ai mes mains qui les touche, m'écoute, c'est pas tout Si t'aimes pas, t'as pas d'goûts, on est trop passe-partout J'comprend qu'tu sois jaloux, si on existait pas, j'rêverais d'être nous On a les plus beaux habits, désolés d'être lourds Avec ça, t'en as pas, heureusement, Sixpack est là Tu veux la collection, le futur ? Clique avec ton doigt Clique-clique avec ton doigt Dis bye-bye à tes euros, bonjour à tes nouvelles conquêtes On sait bien qu'on est bien sappé pour toutes ces gonzesses Mon appart' est un vrai signe, trois pièces Plus d'place dans l'placard, y a l'frigidaire, t'inquiètes T'inquiètes On a les semelles qui touchent le sol et la tête dans les étoiles On veut tous les modèles, tout c'qui sort, les couleurs et toutes les tailles On veut tout avoir avant tout l'monde et c'est normal, on a l'seum Si tu veux vraiment voir le futur Joke, yeah, regarde Si, si mes gars et moi Ok, yeah Yeah, quand j'étais petit j'collectionnais les caramels Heureusement j'ai stoppé sinon j'aurais les dents à YELLE, oh Pour les nouvelles paires, c'est sneakers.fr, yeah Je prend soin d'mes chaussures, quand j'suis malade tu parles à elles, Des séries limitées, pas vraiment hésité, à mes pieds t'as les yeux qui piquent La corne est irritée, tout c'que t'as mérité connard, c'est qu'je sorte mes Sixpacks Les p'tites craquent, les p'tites passes, hésite pas Prends un aspelgique, je t'enrhume, j'suis plus frais qu'un Tic Tac T'inquiètes pas, l'futur nous appartient, j'ai garé la Delorean pas loin Et ramène-moi les kids un par un, c'est , c'est qui ? C'est mon parrain Yeah Si j'met des Sixpacks c'est pour me serrer, Scarlett Johansson comme j'ai vu à la télé' Télé' Ouvrir mon clic-clac, la déshabiller, à côté d'mes Nike, lui faire prendre son pied On a les semelles qui touchent le sol et la tête dans les étoiles On veut tous les modèles, tout c'qui sort, les couleurs et toutes les tailles On veut tout avoir avant tout l'monde et c'est normal, on a l'seum Si tu veux vraiment voir le futur, regarde mes gars et moi</t>
+          <t>Kalani, I hate you Bague sur chaque doigt, j'fais Tony Yayo Ça maille, ça fait le 'seille-o' Ta 'tasse j'l'ai ken, j'l'ai ryu Ahahhh-ah J'ai la came, bitch, j'ai l'EPO Comme des Garçons, j'paye les rayons Quatre pattes, elle twerk sous les néons Ahahhh-ah Toucher l'ciel, oui, bitch, essayons Quand j'ai l'seum j'change la météo J'fais rentrer les jetons, j'ai la faille Hey, hé Le nigga a bon goût, elle avale Elle avale Hey, hey Tennis autour d'mon cou jeune Nadal Cha, chha Hey, hey Si t'en as pas beaucoup t'es à poil Héé-heyy Quand j'vois un gros 'vu-vu', c'est anal Pas d'bucal Hey, hey Ils prient pour pas s'manger des rafales Hey Bague sur chaque doigt, j'fais Tony Yayo Ça maille, ça fait le 'seille-o' Ta 'tasse j'l'ai ken, j'l'ai ryu Ahahhh-ah J'ai la came, bitch, j'ai l'EPO Comme des Garçons, j'paye les rayons Quatre pattes, elle twerk sous les néons Ahahhh-ah Toucher l'ciel, oui, bitch, essayons Essayons, essayons, essayons Ahahhh-ah-ahh-ahhh Hé-hé-hé, elle twerk sous les néons Les néons, les néons, les néons, biitch Ahahhh-ah-ahh-ahhh Elle twerk sous les néons, biitch Elle twerk sous les néons, biitch Ahahhh-ah-ahh-ahhh Elle twerk sous les néons, biitch Ahahhh-ah-ahh-ahhh Yeah Ahahhh-ah-ahh-ahhh Han, han, han Ekusutash no seishin</t>
         </is>
       </c>
     </row>
@@ -4840,12 +4840,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Tire sur nous</t>
+          <t>Trampoline</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Han han, yo ! He yo, he yo, he yo Je kicke ce beat parce qu'il est chaud c'est ce que Craiz m'a dit J'ai trop la dalle j'passe à Leclerc, j'sors avec 13 caddies Tu m'as ajouté sur Facebook, ouais on est presque amis J'te vois dans le ciel t'es pas Superman t'es Super Nanny Les MC veulent changer d'air, y a un peu trop de flow dans le gaz Depuis que j'mets de l'eau dans mon vin les negros boivent du rosé J'suis tout sec, yo crack pas une allumette Tu te tapes des alumards mode chocolat papier d'alu Mec, mes négros mettent du chocolat dans du papier d'alu, mec on dit qu'ta meuf est presbyte négro elle porte pas de lunettes Après l'écoute d'un 16 t'as les mêmes oreilles qu'un cocker Ok Joky, dans le rap j'suis un joker J'fume pas, j'sniff pas, pour garder la ligne J'douille des ptites meufs comme toi, joue pas les malignes Salades tomates oignons et j'te bouffe comme un que-grè On m'arrête pas gros, on arrête pas l'progrès On s'en bat les couilles, tire sur nous on s'en bat les douilles Quand ta meuf nous voit elle s'emballe et mouille, on s'en bat les couilles Bat les bat les bat les couilles Bat les bat les bat les couilles J'vais m'vénère, j'vais devenir vert de rage DavidBanner J'suis le meilleur tu seras forcé de me croire quand je l'aurais juré sur la vie d'ta mère la milf On débarque dans le club et on fait la diff' On met ta meuf en cloque On fait parti d'ta mif On te laisse claquer des doigts et on claque des biftons, p'tit con La réalité faut que t'arrête de l'esquiver XXX sans cesse j'baise ta mère j't'assure qu'elle est lessivé Montpellier dans le cur mais mon esprit est ailleurs Mon pilier dans le corps de ta petite pute de sur si cette pétasse est majeure Si c'est pas le cas mais que c'est une bombe, je serai son démineur Sur le sol et sur le dos elle jouira en ré mineur J'suis polygame t'es monocorde J'en ai plus d'une à mon arc J'en ai assez pour vous pendre et pour jouer de la harpe On s'en bat les couilles, tire sur nous on s'en bat les douilles Quand ta meuf nous voit elle s'emballe et mouille, on s'en bat les couilles Bat les bat les bat les couilles Bat les bat les bat les couilles Négro j'suis haut comme un satellite Négro je n'fait qu'aller vite Ta meuf elle kiffe ça les bites j'vais la coupé décalé Niquer la somme sur son palais, tu voulais un son sucré mais l'addition va être salé j'vais t'asservir comme les Amériques Carré comme un carré VIP, comme un poisson pané Si je perce pas cette année c'est que j'me serait fait canné Flow nautique, cerveau d'autiste gros donc j'vais pas m'étaler Black out, panne électrique vendez-les XXX Quand y'a du Bloodz, appelez les Crips les gars J'attends pas qu'il y ai du foot pour appeler l'équipe yo Restes sur ta passion, on va jouer au Baseball ta meuf me fait des baises mains tu vas me faire des baises XXX Et j'te baise dans les règles de l'art, les ragnagnas d'la Joconde XXX j'te l'ai mise profonde On s'en bat les couilles, tire sur nous on s'en bat les douilles Quand ta meuf nous voit elle s'emballe et mouille, on s'en bat les couilles Bat les bat les bat les couilles Bat les bat les bat les couilles2</t>
+          <t>Yeah, okay Joky, Stunts Stunts Aie Oh, yeah, yeah Ta meuf veut me guer-lan J'te parie dix euros qu'j'peux la sauter sans prendre d'élan Noir plus blanc, elle kiffe le mélange Elles tombent toutes comme des mouches parce que j'suis frais comme un grêlon Yeah, yeah Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Oh yeah oh, oh oh, oh oh, qui vient éteindre la lumière? La lumière, j'ai quatre, cinq bagues sur mon annulaire Un annuaire de putes, négro, sur mon cellulaire Tu broie du noir, j'ai des dollars donc moi je broie du vert Je rentre toujours en boîte avec une bombe, comme un terroriste Je sors toujours de boîte avec deux blondes et je vais au Ritz Je plais aux filles, je fais péter le score quand je m'égosille J'veux que ma vie ressemble à un film érotique Négro, donne moi son numéro Ta meuf veut me guer-lan J'te parie dix euros qu'j'peux la sauter sans prendre d'élan Noir plus blanc, elle kiffe le mélange Elles tombent toutes comme des mouches parce que j'suis frais comme un grêlon Yeah, yeah Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Han, mon flow est plus malade que Magic Johnson Tu ne peux rien faire contre l'équipe qu'on forme Yeah On relance la croissance, c'est ma team qui consomme Surveille ton hors-forfait, ta meuf a pris mon phone Je joue au mort sur du , dépose à la garderie Les Mc's en ont marre de vivre, barres de rires, barres de rires Ils fument tous des barres de seum, barres de rires, barres de rires Soit pas déçu négro, elle a mon numéro Ta meuf veut me guer-lan J'te parie dix euros qu'j'peux la sauter sans prendre d'élan Noir plus blanc, elle kiffe le mélange Elles tombent toutes comme des mouches parce que j'suis frais comme un grêlon Yeah, yeah Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4857,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Tony Yayo</t>
+          <t>Tu sers à rien</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Kalani, I hate you Bague sur chaque doigt, j'fais Tony Yayo Ça maille, ça fait le 'seille-o' Ta 'tasse j'l'ai ken, j'l'ai ryu Ahahhh-ah J'ai la came, bitch, j'ai l'EPO Comme des Garçons, j'paye les rayons Quatre pattes, elle twerk sous les néons Ahahhh-ah Toucher l'ciel, oui, bitch, essayons Quand j'ai l'seum j'change la météo J'fais rentrer les jetons, j'ai la faille Hey, hé Le nigga a bon goût, elle avale Elle avale Hey, hey Tennis autour d'mon cou jeune Nadal Cha, chha Hey, hey Si t'en as pas beaucoup t'es à poil Héé-heyy Quand j'vois un gros 'vu-vu', c'est anal Pas d'bucal Hey, hey Ils prient pour pas s'manger des rafales Hey Bague sur chaque doigt, j'fais Tony Yayo Ça maille, ça fait le 'seille-o' Ta 'tasse j'l'ai ken, j'l'ai ryu Ahahhh-ah J'ai la came, bitch, j'ai l'EPO Comme des Garçons, j'paye les rayons Quatre pattes, elle twerk sous les néons Ahahhh-ah Toucher l'ciel, oui, bitch, essayons Essayons, essayons, essayons Ahahhh-ah-ahh-ahhh Hé-hé-hé, elle twerk sous les néons Les néons, les néons, les néons, biitch Ahahhh-ah-ahh-ahhh Elle twerk sous les néons, biitch Elle twerk sous les néons, biitch Ahahhh-ah-ahh-ahhh Elle twerk sous les néons, biitch Ahahhh-ah-ahh-ahhh Yeah Ahahhh-ah-ahh-ahhh Han, han, han Ekusutash no seishin</t>
+          <t>Joke, Gaga Mec, j'connais l'refrain depuis la première m'sure La fin, depuis le début, j'vais pas, t'faire un dessin, sinon ça f'rait un rébus Les rageux nous attendent à l'arrêt d'bus, on nous arrête plus Avec Joke on n'est pas v'nu pour jouer, vous avez déjà perdu J'ai pas peur du succès, nan, j'en abuse Trop haut sur l'instru', j'arrive en studio dans un Airbus Prêt à tout niquer commme un premier samedi du mois sur Canal Tellement chaud en concert qu'sur scène il pousse des cactus Haha Toutes les phases tuent, tu sais qu'je taffe dur Le taf ça paie du cash, pourquoi j'gratte mes textes sur des factures ? L'écriture acupuncture, les punchlines compliquées Pour foutre le feu j'ai b'soin d'un micro, nique sa mère un briquet J'fraude le métro Depuis qu'la célébrité m'a dit T'inquiètes mec, avec moi, t'as un ticket Ferme ta gueule si tu penses qu'tu peux pas faire mieux Craiz et Joke c'est pas des blagues, mais ouais c'est du sérieux J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien Ne me pose pas ta vie quand tu rappes J'en ai vraiment rien à faire de tous ces mecs que tu braques Et je n'crois même pas le quart des choses bidons que tu m'racontes Craiz et Joke c'est lourd arrête le 'sque-d' et pousse la fonte Première chose à dire j'ai une gueule d'ange, j'ai les aptitudes pour t'expédier en plein enfer Je connais ta soeur, elle m'a dans le coeur, dans le boule, je l'ai dans le cou, sur l'empreinte dentaire En clair, je n'ai pas fait la guerre, han han, peace foie gras, queue de cheval, cette coquine se retourne le fiak en l'air Ne dis pas qu'ton flow déchire si tu n'peux même pas faire ça C'est Gaga le beatmaker donc mec c'est fait à Versailles Ouais c'est cool, tu t'la racontes, ouais ouais, tu vas tout niquer, nan nan Si t'as d'la veine je serai là pour t'piquer, mon grand Parce que, yeah, je rappe comme je baise, j'te fume, comme je veux J'te recrache, par le zen, avant tu m'sortais, par les yeux Ouais j'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien, à rien, à rien, à rien, à rien, à rien</t>
         </is>
       </c>
     </row>
@@ -4874,12 +4874,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Trampoline</t>
+          <t>UNDERCOVER</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Yeah, okay Joky, Stunts Stunts Aie Oh, yeah, yeah Ta meuf veut me guer-lan J'te parie dix euros qu'j'peux la sauter sans prendre d'élan Noir plus blanc, elle kiffe le mélange Elles tombent toutes comme des mouches parce que j'suis frais comme un grêlon Yeah, yeah Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Oh yeah oh, oh oh, oh oh, qui vient éteindre la lumière? La lumière, j'ai quatre, cinq bagues sur mon annulaire Un annuaire de putes, négro, sur mon cellulaire Tu broie du noir, j'ai des dollars donc moi je broie du vert Je rentre toujours en boîte avec une bombe, comme un terroriste Je sors toujours de boîte avec deux blondes et je vais au Ritz Je plais aux filles, je fais péter le score quand je m'égosille J'veux que ma vie ressemble à un film érotique Négro, donne moi son numéro Ta meuf veut me guer-lan J'te parie dix euros qu'j'peux la sauter sans prendre d'élan Noir plus blanc, elle kiffe le mélange Elles tombent toutes comme des mouches parce que j'suis frais comme un grêlon Yeah, yeah Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Han, mon flow est plus malade que Magic Johnson Tu ne peux rien faire contre l'équipe qu'on forme Yeah On relance la croissance, c'est ma team qui consomme Surveille ton hors-forfait, ta meuf a pris mon phone Je joue au mort sur du , dépose à la garderie Les Mc's en ont marre de vivre, barres de rires, barres de rires Ils fument tous des barres de seum, barres de rires, barres de rires Soit pas déçu négro, elle a mon numéro Ta meuf veut me guer-lan J'te parie dix euros qu'j'peux la sauter sans prendre d'élan Noir plus blanc, elle kiffe le mélange Elles tombent toutes comme des mouches parce que j'suis frais comme un grêlon Yeah, yeah Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha Tu peux pas me test à ce jeu-là, négro tu n'peux que tomber bas, t'casser les reins Moi je n'peux rien faire d'autre quaccélérer, j'suis possédé genre Hahahaha</t>
+          <t>Pharaoh Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim C.D.G. sur oim, big C.D.G. sur oim Bitch C.D.G, j'pèse comme un PDG, bitch Han, j'passe la beuh à Cd.G, bitch Mon swag est léché, ma 'teu-b' est léchée, bitch Elle est éméchée, elle va me sécher, bitch J'suis en C.D.G, mignon comme le péché, bitch Toucher ton 'vu-ca' j'peux pas m'en empêcher, bitch Tu veux tester l'Pharaon, tu t'fais abréger, bitch Elle est éméchée, elle va me sécher, bitch Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim C.D.G. sur oim, bitch C.D.G. sur oim Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim C.D.G. sur oim, bitch C.D.G. sur oim Nouveau, ECSTATIC Syzer Edition, 2024 Try to Live, Spirit of Ecstasy Let's go</t>
         </is>
       </c>
     </row>
@@ -4891,12 +4891,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Tu sers à rien</t>
+          <t>Untitled</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Joke, Gaga Mec, j'connais l'refrain depuis la première m'sure La fin, depuis le début, j'vais pas, t'faire un dessin, sinon ça f'rait un rébus Les rageux nous attendent à l'arrêt d'bus, on nous arrête plus Avec Joke on n'est pas v'nu pour jouer, vous avez déjà perdu J'ai pas peur du succès, nan, j'en abuse Trop haut sur l'instru', j'arrive en studio dans un Airbus Prêt à tout niquer commme un premier samedi du mois sur Canal Tellement chaud en concert qu'sur scène il pousse des cactus Haha Toutes les phases tuent, tu sais qu'je taffe dur Le taf ça paie du cash, pourquoi j'gratte mes textes sur des factures ? L'écriture acupuncture, les punchlines compliquées Pour foutre le feu j'ai b'soin d'un micro, nique sa mère un briquet J'fraude le métro Depuis qu'la célébrité m'a dit T'inquiètes mec, avec moi, t'as un ticket Ferme ta gueule si tu penses qu'tu peux pas faire mieux Craiz et Joke c'est pas des blagues, mais ouais c'est du sérieux J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien Ne me pose pas ta vie quand tu rappes J'en ai vraiment rien à faire de tous ces mecs que tu braques Et je n'crois même pas le quart des choses bidons que tu m'racontes Craiz et Joke c'est lourd arrête le 'sque-d' et pousse la fonte Première chose à dire j'ai une gueule d'ange, j'ai les aptitudes pour t'expédier en plein enfer Je connais ta soeur, elle m'a dans le coeur, dans le boule, je l'ai dans le cou, sur l'empreinte dentaire En clair, je n'ai pas fait la guerre, han han, peace foie gras, queue de cheval, cette coquine se retourne le fiak en l'air Ne dis pas qu'ton flow déchire si tu n'peux même pas faire ça C'est Gaga le beatmaker donc mec c'est fait à Versailles Ouais c'est cool, tu t'la racontes, ouais ouais, tu vas tout niquer, nan nan Si t'as d'la veine je serai là pour t'piquer, mon grand Parce que, yeah, je rappe comme je baise, j'te fume, comme je veux J'te recrache, par le zen, avant tu m'sortais, par les yeux Ouais j'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien J'suis sérieux, je sais qui vous êtes, et pour faire mieux C'est pour ça qu't'as l'nez qui saigne, tu rêves de cash mais tu sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, tu, tu, tu, sers à rien Tu, tu, tu, sers à rien, à rien, tu, tu, tu, sers à rien, à rien, à rien, à rien, à rien, à rien</t>
+          <t>Yo j'suis l'eau qui dort Putain fréro j'crois que j'suis l'négro qu'on ignore 23 mois et j'me fais signer par Polydor Ils risquent tous de tomber dans la folie, genre J'viens pour kidnapper ta mère Yo, j'le jure sur la vie d'ta mère Négro donne moi tout c'biff Que j'me balade un flingue sur la tempe, et la bite à l'air Joke complètement baisé Yo, à JFK, genre DSK En Italie, genre Berlusconi Excusez moi les gars, dites-moi juste qui gère les tarifs ? On fait crari on est pas riches, on est tarés on est pas lisses Paris Dakar, pari d'amis Je prie pour pas qu'on l'légalise Touche pas a mon business, kilos d'be-her dans mes valises J'viens pour baiser Karima, Farida, Maria Elle sait qu'j'les salit, j'les tétanisent, j'les baise sur la Macina Negro</t>
         </is>
       </c>
     </row>
@@ -4908,12 +4908,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>UNDERCOVER</t>
+          <t>[Websérie] “De Kyoto à...” - Épisode 1</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Pharaoh Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim C.D.G. sur oim, big C.D.G. sur oim Bitch C.D.G, j'pèse comme un PDG, bitch Han, j'passe la beuh à Cd.G, bitch Mon swag est léché, ma 'teu-b' est léchée, bitch Elle est éméchée, elle va me sécher, bitch J'suis en C.D.G, mignon comme le péché, bitch Toucher ton 'vu-ca' j'peux pas m'en empêcher, bitch Tu veux tester l'Pharaon, tu t'fais abréger, bitch Elle est éméchée, elle va me sécher, bitch Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim C.D.G. sur oim, bitch C.D.G. sur oim Undercover sur oim, Undercover sur moi Undercover sur oim, Undercover sur oim Undercover sur oim, Undercover sur oim C.D.G. sur oim, bitch C.D.G. sur oim Nouveau, ECSTATIC Syzer Edition, 2024 Try to Live, Spirit of Ecstasy Let's go</t>
+          <t>EP KYOTOAteyaba Mon état d'esprit c'était vraiment... Bah c'était de tout niquer en vrai. Dès l'début avec Oumar on s'est dit qu'on avait déjà un peu notre planning. Et là c'était le premier coup. Si ça avait été un coup d'épée dans l'eau... J'pense qu'on aurait arrêté là, parce que moi j'étais pas prêt à trop m'donner. J'commençais à avoir un peu le-ma du rap.LA CIGALE 6 NOVEMBRE 2014Ateyaba On prie pour s'donner la force pour que tout se passe bien pour tout le monde, pour le public comme pour nous et voilà, que ça roule c'est tout.LA MAROQUINERIE 21 DÉCEMBRE 2012Ateyaba J'me rappelle que La Maroquinerie avec Oumar - Oumar en fait, il me faisait un peu confiance , il était en mode cascadeur. C'était en mode un peu, Vas-y on choisit une salle, on fait la salle, on s'attend à... - On pouvait pas savoir à quoi s'attendre comme c'était le premier truc et que c'est pas comme si on faisait des millions de vues, à l'époque on était dans les 100 000 vues. On savait pas à quoi s'attendre. Mais je sais que j'avais fait La Maroquinerie en première partie de Mac Miller, j'avais fait un morceau comme ça, et la salle m'avait plu. Donc j'ai dit à Oumar viens on choisit La Maroquinerie et il m'a dit viens on le fait . Le plan c'était de faire La Maroquinerie, puis une salle un peu plus grande, et après enchaîner avec La Cigale. Le bout pris à la base c'était vraiment ça.Ateyaba Le morceau c'est on veut boire du Cristal parce que on veut l'argent pour pouvoir boire du Cristal. Déjà on a cotisé pour pouvoir s'acheter la bouteille, parce que c'était trop reuch pour nous. Et en même temps ce jour là, j'ai signé mon contrat chez Def Jam. Moi j'en ai parlé dans la chanson mais le Cristal j'connaissais pas, j'connaissais la bouteille mais j'avais jamais goûté. Donc c'était l'occasion de goûter du Cristal, et en même temps il fallait célébrer la signature.Mac Tyer Depuis qu'il a sorti son premier EP, il s'est mis direct sur scène. Il avait fait La Maroquinerie et c'était le feu. Il s'est pas arrêté de travailler depuis cette époque là donc c'est suite logique. Je pense qu'aujourd'hui ça va être une date mythique dans sa carrière ici à Paris.1</t>
         </is>
       </c>
     </row>
@@ -4925,12 +4925,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Untitled</t>
+          <t>[Websérie] ”De Kyoto à...” - Épisode 2</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Yo j'suis l'eau qui dort Putain fréro j'crois que j'suis l'négro qu'on ignore 23 mois et j'me fais signer par Polydor Ils risquent tous de tomber dans la folie, genre J'viens pour kidnapper ta mère Yo, j'le jure sur la vie d'ta mère Négro donne moi tout c'biff Que j'me balade un flingue sur la tempe, et la bite à l'air Joke complètement baisé Yo, à JFK, genre DSK En Italie, genre Berlusconi Excusez moi les gars, dites-moi juste qui gère les tarifs ? On fait crari on est pas riches, on est tarés on est pas lisses Paris Dakar, pari d'amis Je prie pour pas qu'on l'légalise Touche pas a mon business, kilos d'be-her dans mes valises J'viens pour baiser Karima, Farida, Maria Elle sait qu'j'les salit, j'les tétanisent, j'les baise sur la Macina Negro</t>
+          <t>EP TOKYOAteyaba L'EP j'crois que j'l'avais fini avant d'partir. Mais cet EP là... ça a été vraiment une galère. J'ai tout enregistré dans ma chambre, à part un morceau.. le morceau avec Lino, qu'on a enregistré au Studio Golden Eye. Moi j'suis un gars, j'aime pas faire un EP de 6 ou 7 morceaux. Ça m'gêne un peu, j'ai toujours l'impression qu'il manque des morceaux. Et c'est pareil pour l'album, à la base ça devait être un 14-15 titres. Ça s'est retrouvé avec 21 titres parce qu'à chaque fois j'ai l'impression qu'il manque un univers que j'voudrais montrer tu vois. Donc pour Tokyo la fin c'était très très dur. Écrire 3 couplets et poser 3 couplets c'était... très compliqué pour moi. Maintenant je peux le faire. Si j'ai vraiment l'impression quand j'écoute le truc j'écris et j'enregistre tout d'un coup tu vois.COMMENT S'EST PASSÉE LA PRÉPARATION DE TES CLIPS?Ateyaba Étant donné que ça se passait au Japon on connaissait pas le terrain sur place tu vois. C'est Nathalie Canguilhem qu'a réalisée le clip donc c'est elle qui s'est un peu débrouillée pour tout gérer sur place. Pour avoir des lieux, des trucs... j'étais un peu en retrait pendant la préparation du clip tu vois parce que limite je pouvais rien faire pour moi. En plus je bossais à ce moment là... l'EP parce qu'le EP était pas encore fini encore. Quand on est parti on venait d'finir le EP j'crois. Donc... j'ai pas trop trop mis mon nez dans l'truc après on sait les grandes lignes les grandes lignes du vois. On savait qu'on allait faire une ride pour Harajuku.. de la ville. Après... y'a d'autres clips où je me suis beaucoup plus investi quand-même.QUEL EST TON RAPPORT AU JAPON?Ateyaba Y'avait Blastar qu'a fait les prods Tokyo Narita et Harajuku, le reste du projet c'est pas du tout japonais tu vois. Et Kyoto y'a rien de Japonais dedans. Je pense c'est plus.. ce que j'expliquais à tout le monde à l'époque quand on me disait des interviews Ouais pourquoi tu veux partir au Japon... ? . C'est surtout les marques qui me plaisaient tu vois, le bape, les trucs comme ça tu vois. Donc c'est plus dans ça que tu vas retrouver du Japon chez moi. Plus que dans la musique, dans la culture et les trucs comme ça. J'suis pas un gars des mangas de fou, tu vois. Mais j'aimerais bien retourner maintenant, peut-être faire un concert ou j'sais pas. Maintenant qu'on a vu, des fois j'y repense. J'ai un peu la nostalgie, tu vois, de Tokyo. J'aimerais bien retourner et maintenant que j'ai digéré le truc.. moins dans le taff, tu vois.TON VOYAGE AU JAPON ÉTAIT-IL UNE ÉVIDENCE?Ateyaba C'était pas une évidence, quand Oumar m'a dit ça quand-même j'ai quand-même été surpris, agréablement surpris. Mais.. je m'y attendais pas, non.. après, j'suis quelqu'un, en fait.. quand j'vis les trucs j'ai tellement de recul, j'ai tellement de distance par rapport à c'qui s'passe que.. j'ai jamais l'enjaillance du truc, tu vois. J'suis toujours tranquille, ça me fais pas péter les plombs quoi. Donc.. je me suis dis ok, c'est bien, c'est cool, j'ai réussi à faire.. un gros truc, parce que y'a personne qu'a fait ça dans le rap français. En tous cas, en plus, à ce stade là parce que c'était quand-même en indépendance et c'était du développement encore tout ça. Mais.. j'étais surpris quand-même que Oumar me propose ça. En même-temps, y'a pas grand chose qui m'étonne, j'ai l'impression que tout peut arriver en fait, tu vois c'que j'veux dire ou pas ?</t>
         </is>
       </c>
     </row>
@@ -4942,12 +4942,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>[Websérie] “De Kyoto à...” - Épisode 1</t>
+          <t>[Websérie] “De Kyoto à...” - Épisode 3</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>EP KYOTOAteyaba Mon état d'esprit c'était vraiment... Bah c'était de tout niquer en vrai. Dès l'début avec Oumar on s'est dit qu'on avait déjà un peu notre planning. Et là c'était le premier coup. Si ça avait été un coup d'épée dans l'eau... J'pense qu'on aurait arrêté là, parce que moi j'étais pas prêt à trop m'donner. J'commençais à avoir un peu le-ma du rap.LA CIGALE 6 NOVEMBRE 2014Ateyaba On prie pour s'donner la force pour que tout se passe bien pour tout le monde, pour le public comme pour nous et voilà, que ça roule c'est tout.LA MAROQUINERIE 21 DÉCEMBRE 2012Ateyaba J'me rappelle que La Maroquinerie avec Oumar - Oumar en fait, il me faisait un peu confiance , il était en mode cascadeur. C'était en mode un peu, Vas-y on choisit une salle, on fait la salle, on s'attend à... - On pouvait pas savoir à quoi s'attendre comme c'était le premier truc et que c'est pas comme si on faisait des millions de vues, à l'époque on était dans les 100 000 vues. On savait pas à quoi s'attendre. Mais je sais que j'avais fait La Maroquinerie en première partie de Mac Miller, j'avais fait un morceau comme ça, et la salle m'avait plu. Donc j'ai dit à Oumar viens on choisit La Maroquinerie et il m'a dit viens on le fait . Le plan c'était de faire La Maroquinerie, puis une salle un peu plus grande, et après enchaîner avec La Cigale. Le bout pris à la base c'était vraiment ça.Ateyaba Le morceau c'est on veut boire du Cristal parce que on veut l'argent pour pouvoir boire du Cristal. Déjà on a cotisé pour pouvoir s'acheter la bouteille, parce que c'était trop reuch pour nous. Et en même temps ce jour là, j'ai signé mon contrat chez Def Jam. Moi j'en ai parlé dans la chanson mais le Cristal j'connaissais pas, j'connaissais la bouteille mais j'avais jamais goûté. Donc c'était l'occasion de goûter du Cristal, et en même temps il fallait célébrer la signature.Mac Tyer Depuis qu'il a sorti son premier EP, il s'est mis direct sur scène. Il avait fait La Maroquinerie et c'était le feu. Il s'est pas arrêté de travailler depuis cette époque là donc c'est suite logique. Je pense qu'aujourd'hui ça va être une date mythique dans sa carrière ici à Paris.1</t>
+          <t>LP ATEYABA POURQUOI CE VOYAGE À NEW-YORK?Ateyaba À New-York c'était un peu.. ça a été bon déjà pour rencontrer un peu des producteurs, tout ça. Puis c'était un peu pour.. s'imprégner du lieu aussi, tu vois. On avait ramené un peu du matos, tout ça, on bossait avec Blastar, tout ça. J'ai pas beaucoup écris là-bas. C'était limite comme.. c'était pas des devoirs, tu vois, parce qu'en vrai de vrai mieux vaux partir, aller voir la ville qu'rester écouter des prods au studio, tu vois. Y'a des morceaux qu'j'ai fais.. que j'ai bossé là-bas.. et quand j'les ai fait c'était en mode un peu freestyle et il s'est avéré qu'en fait c'était des morcaux qui étaient chauds en fait tu vois. J'ai l'impression qu'y'avait un truc sur plac qu'a fait que.. c'était pas de la merde c'qu'est sorti finalement.Ateyaba Dans Ateyaba j'étais plus pointilleux au niveau de la prod aussi, tu vois. Là c'était pas en mode Ouais, elle me plait un peu, j'vais poser dessus. , tu vois. Là c'était vraiment, fallait qu'le truc ça me.. ça m'marque. Fallait vraiment qu'la prod elle m'marque, tu vois. Ateyaba Le plus gros retour qu'j'ai eu.. j'crois c'est quand-même Majeur En L'Air. Quand il est sorti les gens ils étaient.. secoués. À mon avis j'pense ils étaient secoués parce que déjà.. ils m'avaient jamais entendu rapper comme ça. Puis y'a le fait qu'ce soit un prod de Therapy, c'est un tout, tu vois ! Puis le clip aussi, il est très.. j'crois c'est un combo en fait.COMMENT AS-TU TRAVAILLÉ LA TOURNÉE ATEYABA?Ateyaba J'pensais qu'ça allait être dur de faire la tournée Ateyaba parce que j'avais l'impression que l'album c'était pas un album de scène. Mais au final.. le fait d'avoir fais ces 2 EPs avant.. ça m'a aidé parce que y'avait quand-même des bangers dans les projets d'avant. À partir de là on a pu construire un show assez.. compact, tu vois. Où on peut revenir sur les trucs de Kyoto, Tokyo assez rapidement mais que les gens puissent quand-même s'réécouter ces morceaux là. On a fait un choix esthétique.. c'est un parti prit qu'on avait en fait.. d'avoir une lumière super sombre, fallait vraiment qu'y'est une atmosphère en fait.. qii se dégage du concert, que les gens en fait ils viennent vivre un truc.COMMENT EST NÉ LE MORCEAU ON EST SUR LES NERFS?Ateyaba Le gars qu'a fait la prod il s'appelle Ikaz. Il avait mit une prod sur Kyoto, il avait fait Cristal. Et y'a un pote à moi qui s'appelle Ben, c'est celui qui fait les visuels en fait, qu'a fait Kyoto, Tokyo et Ateyaba qu'a posté un remix d'un truc de Ikaz qui sortait ce jour là, tu vois. J'étais pas au courant, j'clique dessus, j'écoute - c'était un remix un peu electro, tout ça - et j'écoute le remix et j'me dis c'est quoi cette prod, tout ça, c'est quoi cette dinguerie. Et j'envoie un message directement à Ikaz, j'lui dis Franchement, tu m'envoie la prod là tout de suite. Y'a pas l'choix, faut que j'fasse quelque chose dessus. . Tout le début, tu vois, plus le 1er couplet Ramène ta bitch , tout ça là, je l'ai fais en 5min, tac, tac, tac, tac, tac. J'ai posé, et en fait le truc du.. j'ai dis Monte-moi la voix s'te plaît , un truc comme ça. Monte le son , tout ça là. En fait le truc c'est qu'c'était ma première prise, donc le micro était pas.. réglé, par rapport à ma voix, tu vois. Donc je m'entendais pas bien et c'est pour ça qu'j'lui dis ça et après j'pose le truc, j'ai posé one shot, tu vois. C'était.. instinctif de fou. J'me suis dis quoi ? Il manque déjà des morceaux qui sont pas finis, si j'dis à Oumar qu'en plus j'ai commencé un autre morceau il va m'dire Mais t'es un fou , tout ça, tu vois c'que j'veux dire. Déjà qu'on est en galère, tout ça, j'voulais pas trop l'alarmer donc j'ai rien dis. Et en même-temps à mon avis ils devait être étonné que j'lui dise que j'ai un autre truc parce que j'étais pas du tout censé faire un autre morceau. Et j'lui ai envoyé l'bail, tout ça et il m'a dis Quoi ? .</t>
         </is>
       </c>
     </row>
@@ -4959,12 +4959,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>[Websérie] ”De Kyoto à...” - Épisode 2</t>
+          <t>WoW wOw</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>EP TOKYOAteyaba L'EP j'crois que j'l'avais fini avant d'partir. Mais cet EP là... ça a été vraiment une galère. J'ai tout enregistré dans ma chambre, à part un morceau.. le morceau avec Lino, qu'on a enregistré au Studio Golden Eye. Moi j'suis un gars, j'aime pas faire un EP de 6 ou 7 morceaux. Ça m'gêne un peu, j'ai toujours l'impression qu'il manque des morceaux. Et c'est pareil pour l'album, à la base ça devait être un 14-15 titres. Ça s'est retrouvé avec 21 titres parce qu'à chaque fois j'ai l'impression qu'il manque un univers que j'voudrais montrer tu vois. Donc pour Tokyo la fin c'était très très dur. Écrire 3 couplets et poser 3 couplets c'était... très compliqué pour moi. Maintenant je peux le faire. Si j'ai vraiment l'impression quand j'écoute le truc j'écris et j'enregistre tout d'un coup tu vois.COMMENT S'EST PASSÉE LA PRÉPARATION DE TES CLIPS?Ateyaba Étant donné que ça se passait au Japon on connaissait pas le terrain sur place tu vois. C'est Nathalie Canguilhem qu'a réalisée le clip donc c'est elle qui s'est un peu débrouillée pour tout gérer sur place. Pour avoir des lieux, des trucs... j'étais un peu en retrait pendant la préparation du clip tu vois parce que limite je pouvais rien faire pour moi. En plus je bossais à ce moment là... l'EP parce qu'le EP était pas encore fini encore. Quand on est parti on venait d'finir le EP j'crois. Donc... j'ai pas trop trop mis mon nez dans l'truc après on sait les grandes lignes les grandes lignes du vois. On savait qu'on allait faire une ride pour Harajuku.. de la ville. Après... y'a d'autres clips où je me suis beaucoup plus investi quand-même.QUEL EST TON RAPPORT AU JAPON?Ateyaba Y'avait Blastar qu'a fait les prods Tokyo Narita et Harajuku, le reste du projet c'est pas du tout japonais tu vois. Et Kyoto y'a rien de Japonais dedans. Je pense c'est plus.. ce que j'expliquais à tout le monde à l'époque quand on me disait des interviews Ouais pourquoi tu veux partir au Japon... ? . C'est surtout les marques qui me plaisaient tu vois, le bape, les trucs comme ça tu vois. Donc c'est plus dans ça que tu vas retrouver du Japon chez moi. Plus que dans la musique, dans la culture et les trucs comme ça. J'suis pas un gars des mangas de fou, tu vois. Mais j'aimerais bien retourner maintenant, peut-être faire un concert ou j'sais pas. Maintenant qu'on a vu, des fois j'y repense. J'ai un peu la nostalgie, tu vois, de Tokyo. J'aimerais bien retourner et maintenant que j'ai digéré le truc.. moins dans le taff, tu vois.TON VOYAGE AU JAPON ÉTAIT-IL UNE ÉVIDENCE?Ateyaba C'était pas une évidence, quand Oumar m'a dit ça quand-même j'ai quand-même été surpris, agréablement surpris. Mais.. je m'y attendais pas, non.. après, j'suis quelqu'un, en fait.. quand j'vis les trucs j'ai tellement de recul, j'ai tellement de distance par rapport à c'qui s'passe que.. j'ai jamais l'enjaillance du truc, tu vois. J'suis toujours tranquille, ça me fais pas péter les plombs quoi. Donc.. je me suis dis ok, c'est bien, c'est cool, j'ai réussi à faire.. un gros truc, parce que y'a personne qu'a fait ça dans le rap français. En tous cas, en plus, à ce stade là parce que c'était quand-même en indépendance et c'était du développement encore tout ça. Mais.. j'étais surpris quand-même que Oumar me propose ça. En même-temps, y'a pas grand chose qui m'étonne, j'ai l'impression que tout peut arriver en fait, tu vois c'que j'veux dire ou pas ?</t>
+          <t>C'est ça d'avoir du lust mon négro Yah Négro j'me lève, j'fais ma prière Wah, j'fais une Rolex à la demi heure J'ride, 2k17 Aaliyah Merde, j'mets des faciales à ta biatch Biatch Négro mes pensées cest des actes Actes, fuck bien mon bac, j'veux ma Maybach 'aybach Dans ta tête comme un télépathe Yeah, yeah, yeah J'baise tout comme la FF, oui, j'moonwalk sur lISF Dans l'club comme BMF, yeah, yeah, yeah Yeah, yeah, yeah Baise tout tes compliments, 'renoi, j'suis dans cette pute fort, comme un sentiment Fort Yeah, yeah, yeah J'ride avec ma Billie Jean Oui, petit Petrus, cest fini lean P'tit yoga aux Bahamas Wah, ahh-ah, ah-ah Chakras tournent comme ta 'tasse Négro m'demande pas de feu, dans ma poche ya pas d'place, lia-a-a-asse Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, ah, fuck un faux nègre, nigga Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, hey, fuck un faux nègre, wah Fuck une fausse bitch, wow, fuck une fausse bitch, wow Fuck une fausse bitch, fuck une fausse bitch, my nigga Fuck une fausse bitch, fuck une fausse bitch Fuck une fausse bitch, yah, fuck une fausse bitch, my nigga Oui, bitch J'pull up comme dans Mario Kart Wah, gros 4x4 sur la rocade Des diamants dans la boca, l'mojo dérègle la focale incroyable Ouh, j'pense avec ma queue, tas un génie dans la bouche Incroyable Ravale ta fierté et mes idées, le karma s'lave pas dans la douche Oui, bitch Blunté comme Cuba, toi tes comme tuba Jamais j'claque mon biff pour ces connes Jamais Négro, j'fais des sommes, elle y met les formes Ouh, ouh Eve a croqué la pomme, négro va scinder latome Oui Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, ah, fuck un faux nègre, nigga Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, hey, fuck un faux nègre, wah Fuck une fausse bitch, wow, fuck une fausse bitch, wow Fuck une fausse bitch, fuck une fausse bitch, my nigga Fuck une fausse bitch, fuck une fausse bitch Fuck une fausse bitch Oui, bitch, yah, fuck une fausse bitch Eh, my nigga The Spirit of Ecstasy1</t>
         </is>
       </c>
     </row>
@@ -4976,12 +4976,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>[Websérie] “De Kyoto à...” - Épisode 3</t>
+          <t>X-Mas Freestyle</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>LP ATEYABA POURQUOI CE VOYAGE À NEW-YORK?Ateyaba À New-York c'était un peu.. ça a été bon déjà pour rencontrer un peu des producteurs, tout ça. Puis c'était un peu pour.. s'imprégner du lieu aussi, tu vois. On avait ramené un peu du matos, tout ça, on bossait avec Blastar, tout ça. J'ai pas beaucoup écris là-bas. C'était limite comme.. c'était pas des devoirs, tu vois, parce qu'en vrai de vrai mieux vaux partir, aller voir la ville qu'rester écouter des prods au studio, tu vois. Y'a des morceaux qu'j'ai fais.. que j'ai bossé là-bas.. et quand j'les ai fait c'était en mode un peu freestyle et il s'est avéré qu'en fait c'était des morcaux qui étaient chauds en fait tu vois. J'ai l'impression qu'y'avait un truc sur plac qu'a fait que.. c'était pas de la merde c'qu'est sorti finalement.Ateyaba Dans Ateyaba j'étais plus pointilleux au niveau de la prod aussi, tu vois. Là c'était pas en mode Ouais, elle me plait un peu, j'vais poser dessus. , tu vois. Là c'était vraiment, fallait qu'le truc ça me.. ça m'marque. Fallait vraiment qu'la prod elle m'marque, tu vois. Ateyaba Le plus gros retour qu'j'ai eu.. j'crois c'est quand-même Majeur En L'Air. Quand il est sorti les gens ils étaient.. secoués. À mon avis j'pense ils étaient secoués parce que déjà.. ils m'avaient jamais entendu rapper comme ça. Puis y'a le fait qu'ce soit un prod de Therapy, c'est un tout, tu vois ! Puis le clip aussi, il est très.. j'crois c'est un combo en fait.COMMENT AS-TU TRAVAILLÉ LA TOURNÉE ATEYABA?Ateyaba J'pensais qu'ça allait être dur de faire la tournée Ateyaba parce que j'avais l'impression que l'album c'était pas un album de scène. Mais au final.. le fait d'avoir fais ces 2 EPs avant.. ça m'a aidé parce que y'avait quand-même des bangers dans les projets d'avant. À partir de là on a pu construire un show assez.. compact, tu vois. Où on peut revenir sur les trucs de Kyoto, Tokyo assez rapidement mais que les gens puissent quand-même s'réécouter ces morceaux là. On a fait un choix esthétique.. c'est un parti prit qu'on avait en fait.. d'avoir une lumière super sombre, fallait vraiment qu'y'est une atmosphère en fait.. qii se dégage du concert, que les gens en fait ils viennent vivre un truc.COMMENT EST NÉ LE MORCEAU ON EST SUR LES NERFS?Ateyaba Le gars qu'a fait la prod il s'appelle Ikaz. Il avait mit une prod sur Kyoto, il avait fait Cristal. Et y'a un pote à moi qui s'appelle Ben, c'est celui qui fait les visuels en fait, qu'a fait Kyoto, Tokyo et Ateyaba qu'a posté un remix d'un truc de Ikaz qui sortait ce jour là, tu vois. J'étais pas au courant, j'clique dessus, j'écoute - c'était un remix un peu electro, tout ça - et j'écoute le remix et j'me dis c'est quoi cette prod, tout ça, c'est quoi cette dinguerie. Et j'envoie un message directement à Ikaz, j'lui dis Franchement, tu m'envoie la prod là tout de suite. Y'a pas l'choix, faut que j'fasse quelque chose dessus. . Tout le début, tu vois, plus le 1er couplet Ramène ta bitch , tout ça là, je l'ai fais en 5min, tac, tac, tac, tac, tac. J'ai posé, et en fait le truc du.. j'ai dis Monte-moi la voix s'te plaît , un truc comme ça. Monte le son , tout ça là. En fait le truc c'est qu'c'était ma première prise, donc le micro était pas.. réglé, par rapport à ma voix, tu vois. Donc je m'entendais pas bien et c'est pour ça qu'j'lui dis ça et après j'pose le truc, j'ai posé one shot, tu vois. C'était.. instinctif de fou. J'me suis dis quoi ? Il manque déjà des morceaux qui sont pas finis, si j'dis à Oumar qu'en plus j'ai commencé un autre morceau il va m'dire Mais t'es un fou , tout ça, tu vois c'que j'veux dire. Déjà qu'on est en galère, tout ça, j'voulais pas trop l'alarmer donc j'ai rien dis. Et en même-temps à mon avis ils devait être étonné que j'lui dise que j'ai un autre truc parce que j'étais pas du tout censé faire un autre morceau. Et j'lui ai envoyé l'bail, tout ça et il m'a dis Quoi ? .</t>
+          <t>Hello c'est le martien, space Jam, Jordans Les Monsieur dans la cuisine, space cake, normal Dans ma chambre j'fais des vidéos Woodman Norman Faut pas bouger, j'tire je touche ma bouche a l'port d'arme J'te vends des pilules, j'te vends des filles nues Terminus les rails aux arrêts d'bus débouche tes sinus J'te vends des pilules, j'te vends des filles nues Terminus les rails aux arrêts d'bus débouche tes sinus Méfie toi de l'eau qui dort, ici c'est Joky Ta meuf c'est un bout d'viande, j'tape dedans comme Rocky Laisse ces pétasses droguées, un souvenir dans les seins J'écris comme Picasso, j'vais pas t'faire un dessin Assis sur un tas d'os, j'mange nachos et tacos J'sirote du sirop, tripote du lolo Qui pop du champagne qui porte du roro Qui note j'suis l'seul co-pilote, j'suis solo J'innove j'suis trop haut, litote et polo J'aurais voulu vous laisser la vie sauve mais poto t'es dead Mes propos s'élèvent, une prose trop sévère J'rappe que pour l'argent, une cause trop célèbre Mes négros s'énervent, on veut cette money, ces euros, ces yens J'vais sodo ces chiennes, leur proposer d'être très porno mais reine d'une soirée C'est papa noël, c'est Joky enfoiré Pour l'anniversaire de Jesus, j'attaque la soirée au ceasar Buche coupée, cheminée, chocolat chau-sette Caramel d'hiver l'été pour Christmas Un semi fondant comme si c'était la dernière fois Mon dernier Noël, j'te canarde, ma dernière tranche de foie gras Le Père Noël a pris sa retraite, Les Monsieur XXX Et le lendemain matin, Bentley, Jordan et Nike sous ton sapin Ca va devenir classique Orlando, Johnson Magic Moi j'veux des gros cigares, des enveloppes, du Pinky X, des places pour Can I kick it? Des gros beats, des gros titres et des gros feats voilà ma liste Bitch envoie ça à un putain d'grossiste C'est Christmas, lalalala Bip'sou C'est Christmas, plein de pognon Picsou J'crois qu'c'est chaud, dehors il neige J'veux ma casquette Goonies, un packet d'Cool Kiss dans le traineau MTP a fait de nous des mecs dopés au cash Tic-tac, money time, grosses tass, grosses liasses de illets-bi C'est Noël on t'la déjà dis, Genevan Heathen sur ton teddy, bitches Xmas Mixtape, t'attends ça depuis Janvier J'veux ma part du gateau, j'veux l'gateau entier</t>
         </is>
       </c>
     </row>
@@ -4993,12 +4993,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>WoW wOw</t>
+          <t>X.O</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>C'est ça d'avoir du lust mon négro Yah Négro j'me lève, j'fais ma prière Wah, j'fais une Rolex à la demi heure J'ride, 2k17 Aaliyah Merde, j'mets des faciales à ta biatch Biatch Négro mes pensées cest des actes Actes, fuck bien mon bac, j'veux ma Maybach 'aybach Dans ta tête comme un télépathe Yeah, yeah, yeah J'baise tout comme la FF, oui, j'moonwalk sur lISF Dans l'club comme BMF, yeah, yeah, yeah Yeah, yeah, yeah Baise tout tes compliments, 'renoi, j'suis dans cette pute fort, comme un sentiment Fort Yeah, yeah, yeah J'ride avec ma Billie Jean Oui, petit Petrus, cest fini lean P'tit yoga aux Bahamas Wah, ahh-ah, ah-ah Chakras tournent comme ta 'tasse Négro m'demande pas de feu, dans ma poche ya pas d'place, lia-a-a-asse Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, ah, fuck un faux nègre, nigga Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, hey, fuck un faux nègre, wah Fuck une fausse bitch, wow, fuck une fausse bitch, wow Fuck une fausse bitch, fuck une fausse bitch, my nigga Fuck une fausse bitch, fuck une fausse bitch Fuck une fausse bitch, yah, fuck une fausse bitch, my nigga Oui, bitch J'pull up comme dans Mario Kart Wah, gros 4x4 sur la rocade Des diamants dans la boca, l'mojo dérègle la focale incroyable Ouh, j'pense avec ma queue, tas un génie dans la bouche Incroyable Ravale ta fierté et mes idées, le karma s'lave pas dans la douche Oui, bitch Blunté comme Cuba, toi tes comme tuba Jamais j'claque mon biff pour ces connes Jamais Négro, j'fais des sommes, elle y met les formes Ouh, ouh Eve a croqué la pomme, négro va scinder latome Oui Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, ah, fuck un faux nègre, nigga Fuck un faux nègre, wah, fuck un faux nègre, yah Fuck un faux nègre, hey, fuck un faux nègre, wah Fuck une fausse bitch, wow, fuck une fausse bitch, wow Fuck une fausse bitch, fuck une fausse bitch, my nigga Fuck une fausse bitch, fuck une fausse bitch Fuck une fausse bitch Oui, bitch, yah, fuck une fausse bitch Eh, my nigga The Spirit of Ecstasy1</t>
+          <t>Disclaimer Transcrit à partir d'un extrait vidéo Yeah Yeah, Yeah, yeah, yeah Mamène, nique sa mère le physio Nique sa mère le physio, jsuis dans l'club avec l'X.O</t>
         </is>
       </c>
     </row>
@@ -5010,12 +5010,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>X-Mas Freestyle</t>
+          <t>XTZY</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Hello c'est le martien, space Jam, Jordans Les Monsieur dans la cuisine, space cake, normal Dans ma chambre j'fais des vidéos Woodman Norman Faut pas bouger, j'tire je touche ma bouche a l'port d'arme J'te vends des pilules, j'te vends des filles nues Terminus les rails aux arrêts d'bus débouche tes sinus J'te vends des pilules, j'te vends des filles nues Terminus les rails aux arrêts d'bus débouche tes sinus Méfie toi de l'eau qui dort, ici c'est Joky Ta meuf c'est un bout d'viande, j'tape dedans comme Rocky Laisse ces pétasses droguées, un souvenir dans les seins J'écris comme Picasso, j'vais pas t'faire un dessin Assis sur un tas d'os, j'mange nachos et tacos J'sirote du sirop, tripote du lolo Qui pop du champagne qui porte du roro Qui note j'suis l'seul co-pilote, j'suis solo J'innove j'suis trop haut, litote et polo J'aurais voulu vous laisser la vie sauve mais poto t'es dead Mes propos s'élèvent, une prose trop sévère J'rappe que pour l'argent, une cause trop célèbre Mes négros s'énervent, on veut cette money, ces euros, ces yens J'vais sodo ces chiennes, leur proposer d'être très porno mais reine d'une soirée C'est papa noël, c'est Joky enfoiré Pour l'anniversaire de Jesus, j'attaque la soirée au ceasar Buche coupée, cheminée, chocolat chau-sette Caramel d'hiver l'été pour Christmas Un semi fondant comme si c'était la dernière fois Mon dernier Noël, j'te canarde, ma dernière tranche de foie gras Le Père Noël a pris sa retraite, Les Monsieur XXX Et le lendemain matin, Bentley, Jordan et Nike sous ton sapin Ca va devenir classique Orlando, Johnson Magic Moi j'veux des gros cigares, des enveloppes, du Pinky X, des places pour Can I kick it? Des gros beats, des gros titres et des gros feats voilà ma liste Bitch envoie ça à un putain d'grossiste C'est Christmas, lalalala Bip'sou C'est Christmas, plein de pognon Picsou J'crois qu'c'est chaud, dehors il neige J'veux ma casquette Goonies, un packet d'Cool Kiss dans le traineau MTP a fait de nous des mecs dopés au cash Tic-tac, money time, grosses tass, grosses liasses de illets-bi C'est Noël on t'la déjà dis, Genevan Heathen sur ton teddy, bitches Xmas Mixtape, t'attends ça depuis Janvier J'veux ma part du gateau, j'veux l'gateau entier</t>
+          <t>J'roule que la night Que la night, j'vis que la nuit Que la nuit J'croise une ex J'croise une ex, sous ecstasy Sous ecstasy Porte de la Chapelle, hey, j'vis ma vis J'vis ma vie J'veux ma place J'veux ma place, au paradis J'roule que la night Yeah, yeah, j'vis que la nuit Que la nuit J'croise une ex Yeah, yeah, sous ecstasy Porte de la Chapelle Hey, hey, j'vis ma vie Hy, hey J'veux ma place, hy, au paradis, hey Ça fait des lustres qu'elle m'casse les couilles cette fille-là J'voulais remplir mon assiette, de billets Elle est rentrée dans ma tête, cette biatch J'vais m'incruster dans ta fête, buenos dias Les amis c'est comme les billets faut les trier Y'a que si j'tombe dans l'coma qu'j'vais t'oublier J'ai des soucis, d'cash. Yeah Fuck le suicide, ouais Pétasse, j'voulais me marier mais j'ai pas choisi la bonne J'suis en dépression comme un employé d'France Télécom 4k high, jette la roue avant, touche pas le sol 4k high, jette la roue avant, touche pas le sol J'roule que la night Que la night, j'vis que la nuit Que la nuit J'croise une ex J'croise une ex, sous ecstasy Sous ecstasy Pharaoh Porte de la Chapelle, hey, j'vis ma vis Syzer J'veux ma place Oui bitch, au paradis, hey J'roule que la night Yeah, yeah, j'vis que la nuit Que la nuit, that's right J'crois3 une ex Yeah, yeah, sous ecstasy, hey Porte de la Chapelle Hey, hey, j'vis ma vie Hey, hey J'veux ma place, hey, au paradis, hey Yeah J'roule cannabis, yes J'me fais 'pé-pom' par Vanessa Paradis, that's right C'est la foi qui fait le moine, mais pas l'habit, that's right Elle pull-up au 'tel-hô' parce qu'elle veut voir ma bite Hey C'est lui l'parasite Pharaon Négro, tu parles à qui ?, hey, hey, hey Tu veux parler fort mais sache qu'la kalash crie, grrahh J'veux le bread d'ma mère, cuisiné, pas rassis For real J'te fais manger par les réseaux t'observes monter 'la-c'ui' Hey Nique-la ta racli J'ai l'sabre laser comme Ana' La française c'est de l'eau, négro, j'la baise jusqu'à la lie Pétasse savent que c'est pas acquis J'monte sur Paris, j'ramène les bedos, comme Khadafi Hey La France va souffrir, parce que l'bien le mal acquis, hey Vous chialez pour vos retraites alors qu'vous pompez l'Afrique, hey Pharaon Vous faites semblant mais vous savez qu'vous êtes ultra racistes L'état français a fait pire qu'les nazis, hey J'vais caner pour de vrai parce qu'ma phobie c'est l'anarchie J'viens d'228, my nigga, j'maîtrise la magie J'ai déjà ma place au paradis, mais toi t'as mal agis J'roule que la night Que la night, j'vis que la nuit Que la nuit J'croise une ex J'croise une ex, sous ecstasy Sous ecstasy, Pharaon Porte de la Chapelle, yeah, yeah, j'vis ma vis Syzer J'veux ma place Oui, bitch, au paradis, yeah, yeah J'roule que la night Yeah, yeah, j'vis que la nuit, that's right J'croise une ex Yeah, yeah, sous ecstasy, hey Porte de la Chapelle Hey, hey, j'vis ma vie J'vis ma vie J'veux ma place au paradis, yeah, yeah Spirit of Ecstasy Tu sais déjà qu'j'suis acquis Avec toi, tout seul, my nigga, j'suis en vie Syze in this bitch Rest In Peace, J.M.T. James Michael Tyler ... J'roule que la night Que la night, j'vis ...</t>
         </is>
       </c>
     </row>
@@ -5027,44 +5027,10 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>X.O</t>
+          <t>Zion</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
-        <is>
-          <t>Disclaimer Transcrit à partir d'un extrait vidéo Yeah Yeah, Yeah, yeah, yeah Mamène, nique sa mère le physio Nique sa mère le physio, jsuis dans l'club avec l'X.O</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>ATEYABA</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>XTZY</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>J'roule que la night Que la night, j'vis que la nuit Que la nuit J'croise une ex J'croise une ex, sous ecstasy Sous ecstasy Porte de la Chapelle, hey, j'vis ma vis J'vis ma vie J'veux ma place J'veux ma place, au paradis J'roule que la night Yeah, yeah, j'vis que la nuit Que la nuit J'croise une ex Yeah, yeah, sous ecstasy Porte de la Chapelle Hey, hey, j'vis ma vie Hy, hey J'veux ma place, hy, au paradis, hey Ça fait des lustres qu'elle m'casse les couilles cette fille-là J'voulais remplir mon assiette, de billets Elle est rentrée dans ma tête, cette biatch J'vais m'incruster dans ta fête, buenos dias Les amis c'est comme les billets faut les trier Y'a que si j'tombe dans l'coma qu'j'vais t'oublier J'ai des soucis, d'cash. Yeah Fuck le suicide, ouais Pétasse, j'voulais me marier mais j'ai pas choisi la bonne J'suis en dépression comme un employé d'France Télécom 4k high, jette la roue avant, touche pas le sol 4k high, jette la roue avant, touche pas le sol J'roule que la night Que la night, j'vis que la nuit Que la nuit J'croise une ex J'croise une ex, sous ecstasy Sous ecstasy Pharaoh Porte de la Chapelle, hey, j'vis ma vis Syzer J'veux ma place Oui bitch, au paradis, hey J'roule que la night Yeah, yeah, j'vis que la nuit Que la nuit, that's right J'crois3 une ex Yeah, yeah, sous ecstasy, hey Porte de la Chapelle Hey, hey, j'vis ma vie Hey, hey J'veux ma place, hey, au paradis, hey Yeah J'roule cannabis, yes J'me fais 'pé-pom' par Vanessa Paradis, that's right C'est la foi qui fait le moine, mais pas l'habit, that's right Elle pull-up au 'tel-hô' parce qu'elle veut voir ma bite Hey C'est lui l'parasite Pharaon Négro, tu parles à qui ?, hey, hey, hey Tu veux parler fort mais sache qu'la kalash crie, grrahh J'veux le bread d'ma mère, cuisiné, pas rassis For real J'te fais manger par les réseaux t'observes monter 'la-c'ui' Hey Nique-la ta racli J'ai l'sabre laser comme Ana' La française c'est de l'eau, négro, j'la baise jusqu'à la lie Pétasse savent que c'est pas acquis J'monte sur Paris, j'ramène les bedos, comme Khadafi Hey La France va souffrir, parce que l'bien le mal acquis, hey Vous chialez pour vos retraites alors qu'vous pompez l'Afrique, hey Pharaon Vous faites semblant mais vous savez qu'vous êtes ultra racistes L'état français a fait pire qu'les nazis, hey J'vais caner pour de vrai parce qu'ma phobie c'est l'anarchie J'viens d'228, my nigga, j'maîtrise la magie J'ai déjà ma place au paradis, mais toi t'as mal agis J'roule que la night Que la night, j'vis que la nuit Que la nuit J'croise une ex J'croise une ex, sous ecstasy Sous ecstasy, Pharaon Porte de la Chapelle, yeah, yeah, j'vis ma vis Syzer J'veux ma place Oui, bitch, au paradis, yeah, yeah J'roule que la night Yeah, yeah, j'vis que la nuit, that's right J'croise une ex Yeah, yeah, sous ecstasy, hey Porte de la Chapelle Hey, hey, j'vis ma vie J'vis ma vie J'veux ma place au paradis, yeah, yeah Spirit of Ecstasy Tu sais déjà qu'j'suis acquis Avec toi, tout seul, my nigga, j'suis en vie Syze in this bitch Rest In Peace, J.M.T. James Michael Tyler ... J'roule que la night Que la night, j'vis ...</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>ATEYABA</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Zion</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
         <is>
           <t>Chill Pharaon Hein Avec moi j'ai que des avions, que des- que des- Avec moi j'ai que des avions, que des- que des avions Toi, tu portes que des haillons, hey Pour le 'seille-o' on te bâillonne J'suis 'ti-sor' d'la trixma, j'suis sur Zion Agressif comme un Saiyen Je l'magnétise, bitch, j'attractionne, go F-F-Five-Seven, neuf millimètres On commence esclave, on finit maître J'fais pas confiance aux chiennes, comme Johnny Depp On t'assaisonne comme un tiep bou dien On t'assaisonne Les négros appellent à l'aide Je bouffe sa chatte comme des ramens J'ai-J'ai-J'aime les 'tasses raffinées, j'aime les ratchet J'ai les billets, la 'gue-dro', my nigga, j'ai les gadgets J'sais c'que j'veux faire J'sais c'que j'vais faire avec ces bitchs Mh-h-h Rolex, left wrist, go Rolex, left wrist Let's go Patek, right wrist That's right Patek, right wrist, Let's get it Rolex, Patek, Rolex, bitch Rolex, Patek, Rolex, oui, bitch Rolex, Patek, Rolex, let's get it Rolex, Patek, Rolex, let's get it Rolex, Patek, Rolex, oui, bitch Rolex, Patek, Rolex, that's right Rolex, Patek, Rolex, heein-hein Rolex, Patek, Rolex, heein-hein J'projete depuis le projet Correct, j'suis 'sé-po' dans le projet, bitch Connect' Han, tu sais qu'j'ai les connect, bitch Connect' Han, tu sais qu'j'ai les connect, bitch Connect' Han Connect, bitch J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch Hein, hein J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch That's right J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch Han J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch Han J'aimerais valider mes clones, mais ils sont pas honnêtes, bitch Han</t>
         </is>
